--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F1B0D8-CD65-424F-B436-B8D27D2A731F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7EB1B-0694-47EF-91DE-C0CE42C4B9F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="528">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2088,6 +2088,14 @@
   </si>
   <si>
     <t>整理数据质量报告第三批反馈保信中，查看需要报备的清单,和小卉整理汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看整理数据质量报告中需要报备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例会：对数据质量工作的完善，流式系统的初步认识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2626,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="I587" sqref="I587"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="G584" sqref="G584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -19404,7 +19412,9 @@
       <c r="F583" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G583" s="12"/>
+      <c r="G583" s="12" t="s">
+        <v>526</v>
+      </c>
       <c r="H583" s="8" t="s">
         <v>11</v>
       </c>
@@ -19430,7 +19440,9 @@
       <c r="F584" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G584" s="12"/>
+      <c r="G584" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="H584" s="8" t="s">
         <v>11</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7EB1B-0694-47EF-91DE-C0CE42C4B9F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AE683C-9A5D-4A64-8594-048BAEB09D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="528">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:J597"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="G584" sqref="G584"/>
+      <selection activeCell="G587" sqref="G587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -19452,38 +19452,26 @@
       <c r="J584" s="10"/>
     </row>
     <row r="585" spans="1:10">
-      <c r="A585" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A585" s="7"/>
       <c r="B585" s="5"/>
-      <c r="C585" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F585" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="C585" s="8"/>
+      <c r="D585" s="15"/>
+      <c r="E585" s="15"/>
+      <c r="F585" s="13"/>
       <c r="G585" s="12"/>
-      <c r="H585" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H585" s="8"/>
       <c r="I585" s="9"/>
       <c r="J585" s="10"/>
     </row>
     <row r="586" spans="1:10">
-      <c r="A586" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A586" s="7"/>
       <c r="B586" s="5"/>
-      <c r="C586" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F586" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="C586" s="8"/>
+      <c r="D586" s="15"/>
+      <c r="E586" s="15"/>
+      <c r="F586" s="13"/>
       <c r="G586" s="12"/>
-      <c r="H586" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H586" s="8"/>
       <c r="I586" s="9"/>
       <c r="J586" s="10"/>
     </row>
@@ -19495,6 +19483,12 @@
       <c r="C587" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D587" s="15">
+        <v>43549</v>
+      </c>
+      <c r="E587" s="15">
+        <v>43549</v>
+      </c>
       <c r="F587" s="13" t="s">
         <v>240</v>
       </c>
@@ -19513,6 +19507,12 @@
       <c r="C588" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D588" s="15">
+        <v>43550</v>
+      </c>
+      <c r="E588" s="15">
+        <v>43550</v>
+      </c>
       <c r="F588" s="13" t="s">
         <v>240</v>
       </c>
@@ -19530,6 +19530,12 @@
       <c r="B589" s="5"/>
       <c r="C589" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="D589" s="15">
+        <v>43551</v>
+      </c>
+      <c r="E589" s="15">
+        <v>43551</v>
       </c>
       <c r="F589" s="13" t="s">
         <v>240</v>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AE683C-9A5D-4A64-8594-048BAEB09D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F14401-FBDF-4201-A5A6-D079C3732726}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="540">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2096,6 +2096,54 @@
   </si>
   <si>
     <t>例会：对数据质量工作的完善，流式系统的初步认识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理部分新农险脚本数据中必传字段空值率的计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据农险模型excel表，新农险存量脚本和增量脚本修改替换为老农险的增量和存量任务安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄子表新农险修改替换为老农险庄子表，并测试执行脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程表新农险修改替换为老农险过程表，并测试执行脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合王伟新农险脚本调度，增量承包数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改编写测试调度理赔增量中间表脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试调度理赔庄子表，编写测试调度理赔增量过程脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰静姐讲解服务器运行新农险脚本调度，增量承保数据庄子表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰静姐讲解服务器运行新农险脚本调度，增量承保数据过程表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰静姐讲解服务器运行新农险脚本调度，增量承保数据中间表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合员员对比保单号中的金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交更新修改后为老农险的脚本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2632,528 +2680,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J597"/>
+  <dimension ref="A1:J741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="G587" sqref="G587"/>
+    <sheetView tabSelected="1" topLeftCell="B580" workbookViewId="0">
+      <selection activeCell="G592" sqref="G592"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="54.375" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.875" customWidth="1"/>
+    <col min="257" max="257" width="16.83203125" customWidth="1"/>
     <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.125" customWidth="1"/>
+    <col min="259" max="259" width="8.08203125" customWidth="1"/>
     <col min="260" max="260" width="9.25" customWidth="1"/>
     <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.875" customWidth="1"/>
-    <col min="263" max="263" width="54.375" customWidth="1"/>
+    <col min="262" max="262" width="9.83203125" customWidth="1"/>
+    <col min="263" max="263" width="54.33203125" customWidth="1"/>
     <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.875" customWidth="1"/>
+    <col min="513" max="513" width="16.83203125" customWidth="1"/>
     <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.125" customWidth="1"/>
+    <col min="515" max="515" width="8.08203125" customWidth="1"/>
     <col min="516" max="516" width="9.25" customWidth="1"/>
     <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.875" customWidth="1"/>
-    <col min="519" max="519" width="54.375" customWidth="1"/>
+    <col min="518" max="518" width="9.83203125" customWidth="1"/>
+    <col min="519" max="519" width="54.33203125" customWidth="1"/>
     <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.875" customWidth="1"/>
+    <col min="769" max="769" width="16.83203125" customWidth="1"/>
     <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.125" customWidth="1"/>
+    <col min="771" max="771" width="8.08203125" customWidth="1"/>
     <col min="772" max="772" width="9.25" customWidth="1"/>
     <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.875" customWidth="1"/>
-    <col min="775" max="775" width="54.375" customWidth="1"/>
+    <col min="774" max="774" width="9.83203125" customWidth="1"/>
+    <col min="775" max="775" width="54.33203125" customWidth="1"/>
     <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.875" customWidth="1"/>
+    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
     <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
     <col min="1028" max="1028" width="9.25" customWidth="1"/>
     <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.875" customWidth="1"/>
-    <col min="1031" max="1031" width="54.375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
+    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
     <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.875" customWidth="1"/>
+    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
     <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
     <col min="1284" max="1284" width="9.25" customWidth="1"/>
     <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.875" customWidth="1"/>
-    <col min="1287" max="1287" width="54.375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
+    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
     <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.875" customWidth="1"/>
+    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
     <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
     <col min="1540" max="1540" width="9.25" customWidth="1"/>
     <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.875" customWidth="1"/>
-    <col min="1543" max="1543" width="54.375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
+    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
     <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.875" customWidth="1"/>
+    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
     <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
     <col min="1796" max="1796" width="9.25" customWidth="1"/>
     <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.875" customWidth="1"/>
-    <col min="1799" max="1799" width="54.375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
+    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
     <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.875" customWidth="1"/>
+    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
     <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
     <col min="2052" max="2052" width="9.25" customWidth="1"/>
     <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.875" customWidth="1"/>
-    <col min="2055" max="2055" width="54.375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
+    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
     <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.875" customWidth="1"/>
+    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
     <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
     <col min="2308" max="2308" width="9.25" customWidth="1"/>
     <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.875" customWidth="1"/>
-    <col min="2311" max="2311" width="54.375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
+    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
     <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.875" customWidth="1"/>
+    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
     <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
     <col min="2564" max="2564" width="9.25" customWidth="1"/>
     <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.875" customWidth="1"/>
-    <col min="2567" max="2567" width="54.375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
+    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
     <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.875" customWidth="1"/>
+    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
     <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
     <col min="2820" max="2820" width="9.25" customWidth="1"/>
     <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.875" customWidth="1"/>
-    <col min="2823" max="2823" width="54.375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
+    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
     <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.875" customWidth="1"/>
+    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
     <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
     <col min="3076" max="3076" width="9.25" customWidth="1"/>
     <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.875" customWidth="1"/>
-    <col min="3079" max="3079" width="54.375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
+    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
     <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.875" customWidth="1"/>
+    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
     <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
     <col min="3332" max="3332" width="9.25" customWidth="1"/>
     <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.875" customWidth="1"/>
-    <col min="3335" max="3335" width="54.375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
+    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
     <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.875" customWidth="1"/>
+    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
     <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
     <col min="3588" max="3588" width="9.25" customWidth="1"/>
     <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.875" customWidth="1"/>
-    <col min="3591" max="3591" width="54.375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
+    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
     <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.875" customWidth="1"/>
+    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
     <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
     <col min="3844" max="3844" width="9.25" customWidth="1"/>
     <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.875" customWidth="1"/>
-    <col min="3847" max="3847" width="54.375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
+    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
     <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.875" customWidth="1"/>
+    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
     <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
     <col min="4100" max="4100" width="9.25" customWidth="1"/>
     <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.875" customWidth="1"/>
-    <col min="4103" max="4103" width="54.375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
+    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
     <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.875" customWidth="1"/>
+    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
     <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
     <col min="4356" max="4356" width="9.25" customWidth="1"/>
     <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.875" customWidth="1"/>
-    <col min="4359" max="4359" width="54.375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
+    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
     <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.875" customWidth="1"/>
+    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
     <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
     <col min="4612" max="4612" width="9.25" customWidth="1"/>
     <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.875" customWidth="1"/>
-    <col min="4615" max="4615" width="54.375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
+    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
     <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.875" customWidth="1"/>
+    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
     <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
     <col min="4868" max="4868" width="9.25" customWidth="1"/>
     <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.875" customWidth="1"/>
-    <col min="4871" max="4871" width="54.375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
+    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
     <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.875" customWidth="1"/>
+    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
     <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
     <col min="5124" max="5124" width="9.25" customWidth="1"/>
     <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.875" customWidth="1"/>
-    <col min="5127" max="5127" width="54.375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
+    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
     <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.875" customWidth="1"/>
+    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
     <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
     <col min="5380" max="5380" width="9.25" customWidth="1"/>
     <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.875" customWidth="1"/>
-    <col min="5383" max="5383" width="54.375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
+    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
     <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.875" customWidth="1"/>
+    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
     <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
     <col min="5636" max="5636" width="9.25" customWidth="1"/>
     <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.875" customWidth="1"/>
-    <col min="5639" max="5639" width="54.375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
+    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
     <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.875" customWidth="1"/>
+    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
     <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
     <col min="5892" max="5892" width="9.25" customWidth="1"/>
     <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.875" customWidth="1"/>
-    <col min="5895" max="5895" width="54.375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
+    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
     <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.875" customWidth="1"/>
+    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
     <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
     <col min="6148" max="6148" width="9.25" customWidth="1"/>
     <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.875" customWidth="1"/>
-    <col min="6151" max="6151" width="54.375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
+    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
     <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.875" customWidth="1"/>
+    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
     <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
     <col min="6404" max="6404" width="9.25" customWidth="1"/>
     <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.875" customWidth="1"/>
-    <col min="6407" max="6407" width="54.375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
+    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
     <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.875" customWidth="1"/>
+    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
     <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
     <col min="6660" max="6660" width="9.25" customWidth="1"/>
     <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.875" customWidth="1"/>
-    <col min="6663" max="6663" width="54.375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
+    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
     <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.875" customWidth="1"/>
+    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
     <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
     <col min="6916" max="6916" width="9.25" customWidth="1"/>
     <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.875" customWidth="1"/>
-    <col min="6919" max="6919" width="54.375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
+    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
     <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.875" customWidth="1"/>
+    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
     <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
     <col min="7172" max="7172" width="9.25" customWidth="1"/>
     <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.875" customWidth="1"/>
-    <col min="7175" max="7175" width="54.375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
+    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
     <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.875" customWidth="1"/>
+    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
     <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
     <col min="7428" max="7428" width="9.25" customWidth="1"/>
     <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.875" customWidth="1"/>
-    <col min="7431" max="7431" width="54.375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
+    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
     <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.875" customWidth="1"/>
+    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
     <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
     <col min="7684" max="7684" width="9.25" customWidth="1"/>
     <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.875" customWidth="1"/>
-    <col min="7687" max="7687" width="54.375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
+    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
     <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.875" customWidth="1"/>
+    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
     <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
     <col min="7940" max="7940" width="9.25" customWidth="1"/>
     <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.875" customWidth="1"/>
-    <col min="7943" max="7943" width="54.375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
+    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
     <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.875" customWidth="1"/>
+    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
     <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
     <col min="8196" max="8196" width="9.25" customWidth="1"/>
     <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.875" customWidth="1"/>
-    <col min="8199" max="8199" width="54.375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
+    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
     <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.875" customWidth="1"/>
+    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
     <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
     <col min="8452" max="8452" width="9.25" customWidth="1"/>
     <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.875" customWidth="1"/>
-    <col min="8455" max="8455" width="54.375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
+    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
     <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.875" customWidth="1"/>
+    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
     <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
     <col min="8708" max="8708" width="9.25" customWidth="1"/>
     <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.875" customWidth="1"/>
-    <col min="8711" max="8711" width="54.375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
+    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
     <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.875" customWidth="1"/>
+    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
     <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
     <col min="8964" max="8964" width="9.25" customWidth="1"/>
     <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.875" customWidth="1"/>
-    <col min="8967" max="8967" width="54.375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
+    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
     <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.875" customWidth="1"/>
+    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
     <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
     <col min="9220" max="9220" width="9.25" customWidth="1"/>
     <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.875" customWidth="1"/>
-    <col min="9223" max="9223" width="54.375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
+    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
     <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.875" customWidth="1"/>
+    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
     <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
     <col min="9476" max="9476" width="9.25" customWidth="1"/>
     <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.875" customWidth="1"/>
-    <col min="9479" max="9479" width="54.375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
+    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
     <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.875" customWidth="1"/>
+    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
     <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
     <col min="9732" max="9732" width="9.25" customWidth="1"/>
     <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.875" customWidth="1"/>
-    <col min="9735" max="9735" width="54.375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
+    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
     <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.875" customWidth="1"/>
+    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
     <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
     <col min="9988" max="9988" width="9.25" customWidth="1"/>
     <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.875" customWidth="1"/>
-    <col min="9991" max="9991" width="54.375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
+    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
     <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.875" customWidth="1"/>
+    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
     <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
     <col min="10244" max="10244" width="9.25" customWidth="1"/>
     <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.875" customWidth="1"/>
-    <col min="10247" max="10247" width="54.375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
+    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
     <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.875" customWidth="1"/>
+    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
     <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
     <col min="10500" max="10500" width="9.25" customWidth="1"/>
     <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.875" customWidth="1"/>
-    <col min="10503" max="10503" width="54.375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
+    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
     <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.875" customWidth="1"/>
+    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
     <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
     <col min="10756" max="10756" width="9.25" customWidth="1"/>
     <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.875" customWidth="1"/>
-    <col min="10759" max="10759" width="54.375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
+    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
     <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.875" customWidth="1"/>
+    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
     <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
     <col min="11012" max="11012" width="9.25" customWidth="1"/>
     <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.875" customWidth="1"/>
-    <col min="11015" max="11015" width="54.375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
+    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
     <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.875" customWidth="1"/>
+    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
     <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
     <col min="11268" max="11268" width="9.25" customWidth="1"/>
     <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.875" customWidth="1"/>
-    <col min="11271" max="11271" width="54.375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
+    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
     <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.875" customWidth="1"/>
+    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
     <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
     <col min="11524" max="11524" width="9.25" customWidth="1"/>
     <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.875" customWidth="1"/>
-    <col min="11527" max="11527" width="54.375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
+    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
     <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.875" customWidth="1"/>
+    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
     <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
     <col min="11780" max="11780" width="9.25" customWidth="1"/>
     <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.875" customWidth="1"/>
-    <col min="11783" max="11783" width="54.375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
+    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
     <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.875" customWidth="1"/>
+    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
     <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
     <col min="12036" max="12036" width="9.25" customWidth="1"/>
     <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.875" customWidth="1"/>
-    <col min="12039" max="12039" width="54.375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
+    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
     <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.875" customWidth="1"/>
+    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
     <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
     <col min="12292" max="12292" width="9.25" customWidth="1"/>
     <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.875" customWidth="1"/>
-    <col min="12295" max="12295" width="54.375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
+    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
     <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.875" customWidth="1"/>
+    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
     <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
     <col min="12548" max="12548" width="9.25" customWidth="1"/>
     <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.875" customWidth="1"/>
-    <col min="12551" max="12551" width="54.375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
+    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
     <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.875" customWidth="1"/>
+    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
     <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
     <col min="12804" max="12804" width="9.25" customWidth="1"/>
     <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.875" customWidth="1"/>
-    <col min="12807" max="12807" width="54.375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
+    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
     <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.875" customWidth="1"/>
+    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
     <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
     <col min="13060" max="13060" width="9.25" customWidth="1"/>
     <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.875" customWidth="1"/>
-    <col min="13063" max="13063" width="54.375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
+    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
     <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.875" customWidth="1"/>
+    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
     <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
     <col min="13316" max="13316" width="9.25" customWidth="1"/>
     <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.875" customWidth="1"/>
-    <col min="13319" max="13319" width="54.375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
+    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
     <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.875" customWidth="1"/>
+    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
     <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
     <col min="13572" max="13572" width="9.25" customWidth="1"/>
     <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.875" customWidth="1"/>
-    <col min="13575" max="13575" width="54.375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
+    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
     <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.875" customWidth="1"/>
+    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
     <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
     <col min="13828" max="13828" width="9.25" customWidth="1"/>
     <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.875" customWidth="1"/>
-    <col min="13831" max="13831" width="54.375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
+    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
     <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.875" customWidth="1"/>
+    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
     <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
     <col min="14084" max="14084" width="9.25" customWidth="1"/>
     <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.875" customWidth="1"/>
-    <col min="14087" max="14087" width="54.375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
+    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
     <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.875" customWidth="1"/>
+    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
     <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
     <col min="14340" max="14340" width="9.25" customWidth="1"/>
     <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.875" customWidth="1"/>
-    <col min="14343" max="14343" width="54.375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
+    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
     <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.875" customWidth="1"/>
+    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
     <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
     <col min="14596" max="14596" width="9.25" customWidth="1"/>
     <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.875" customWidth="1"/>
-    <col min="14599" max="14599" width="54.375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
+    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
     <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.875" customWidth="1"/>
+    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
     <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
     <col min="14852" max="14852" width="9.25" customWidth="1"/>
     <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.875" customWidth="1"/>
-    <col min="14855" max="14855" width="54.375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
+    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
     <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.875" customWidth="1"/>
+    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
     <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
     <col min="15108" max="15108" width="9.25" customWidth="1"/>
     <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.875" customWidth="1"/>
-    <col min="15111" max="15111" width="54.375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
+    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
     <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.875" customWidth="1"/>
+    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
     <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
     <col min="15364" max="15364" width="9.25" customWidth="1"/>
     <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.875" customWidth="1"/>
-    <col min="15367" max="15367" width="54.375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
+    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
     <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.875" customWidth="1"/>
+    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
     <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
     <col min="15620" max="15620" width="9.25" customWidth="1"/>
     <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.875" customWidth="1"/>
-    <col min="15623" max="15623" width="54.375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
+    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
     <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.875" customWidth="1"/>
+    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
     <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
     <col min="15876" max="15876" width="9.25" customWidth="1"/>
     <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.875" customWidth="1"/>
-    <col min="15879" max="15879" width="54.375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
+    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
     <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.875" customWidth="1"/>
+    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
     <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
     <col min="16132" max="16132" width="9.25" customWidth="1"/>
     <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.875" customWidth="1"/>
-    <col min="16135" max="16135" width="54.375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
+    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
     <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -19492,11 +19540,15 @@
       <c r="F587" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G587" s="12"/>
+      <c r="G587" s="12" t="s">
+        <v>529</v>
+      </c>
       <c r="H587" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I587" s="9"/>
+      <c r="I587" s="9">
+        <v>2</v>
+      </c>
       <c r="J587" s="10"/>
     </row>
     <row r="588" spans="1:10">
@@ -19508,19 +19560,23 @@
         <v>12</v>
       </c>
       <c r="D588" s="15">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="E588" s="15">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="F588" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G588" s="12"/>
+      <c r="G588" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="H588" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I588" s="9"/>
+      <c r="I588" s="9">
+        <v>3</v>
+      </c>
       <c r="J588" s="10"/>
     </row>
     <row r="589" spans="1:10">
@@ -19532,19 +19588,23 @@
         <v>12</v>
       </c>
       <c r="D589" s="15">
-        <v>43551</v>
+        <v>43549</v>
       </c>
       <c r="E589" s="15">
-        <v>43551</v>
+        <v>43549</v>
       </c>
       <c r="F589" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G589" s="12"/>
+      <c r="G589" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="H589" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I589" s="9"/>
+      <c r="I589" s="9">
+        <v>3</v>
+      </c>
       <c r="J589" s="10"/>
     </row>
     <row r="590" spans="1:10">
@@ -19555,14 +19615,24 @@
       <c r="C590" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D590" s="15">
+        <v>43550</v>
+      </c>
+      <c r="E590" s="15">
+        <v>43550</v>
+      </c>
       <c r="F590" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G590" s="12"/>
+      <c r="G590" s="12" t="s">
+        <v>539</v>
+      </c>
       <c r="H590" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I590" s="9"/>
+      <c r="I590" s="9">
+        <v>2</v>
+      </c>
       <c r="J590" s="10"/>
     </row>
     <row r="591" spans="1:10">
@@ -19573,14 +19643,24 @@
       <c r="C591" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D591" s="15">
+        <v>43550</v>
+      </c>
+      <c r="E591" s="15">
+        <v>43550</v>
+      </c>
       <c r="F591" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G591" s="12"/>
+      <c r="G591" s="16" t="s">
+        <v>538</v>
+      </c>
       <c r="H591" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I591" s="9"/>
+      <c r="I591" s="17">
+        <v>2</v>
+      </c>
       <c r="J591" s="10"/>
     </row>
     <row r="592" spans="1:10">
@@ -19591,6 +19671,12 @@
       <c r="C592" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D592" s="15">
+        <v>43550</v>
+      </c>
+      <c r="E592" s="15">
+        <v>43550</v>
+      </c>
       <c r="F592" s="13" t="s">
         <v>240</v>
       </c>
@@ -19598,25 +19684,35 @@
       <c r="H592" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I592" s="9"/>
+      <c r="I592" s="9">
+        <v>2</v>
+      </c>
       <c r="J592" s="10"/>
     </row>
     <row r="593" spans="1:10">
-      <c r="A593" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A593" s="7"/>
       <c r="B593" s="5"/>
       <c r="C593" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D593" s="15">
+        <v>43550</v>
+      </c>
+      <c r="E593" s="15">
+        <v>43550</v>
+      </c>
       <c r="F593" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G593" s="12"/>
+      <c r="G593" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="H593" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I593" s="9"/>
+      <c r="I593" s="9">
+        <v>2</v>
+      </c>
       <c r="J593" s="10"/>
     </row>
     <row r="594" spans="1:10">
@@ -19627,14 +19723,24 @@
       <c r="C594" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D594" s="15">
+        <v>43551</v>
+      </c>
+      <c r="E594" s="15">
+        <v>43551</v>
+      </c>
       <c r="F594" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G594" s="12"/>
+      <c r="G594" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="H594" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I594" s="9"/>
+      <c r="I594" s="9">
+        <v>2</v>
+      </c>
       <c r="J594" s="10"/>
     </row>
     <row r="595" spans="1:10">
@@ -19645,6 +19751,12 @@
       <c r="C595" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D595" s="15">
+        <v>43551</v>
+      </c>
+      <c r="E595" s="15">
+        <v>43551</v>
+      </c>
       <c r="F595" s="13" t="s">
         <v>240</v>
       </c>
@@ -19663,6 +19775,12 @@
       <c r="C596" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D596" s="15">
+        <v>43551</v>
+      </c>
+      <c r="E596" s="15">
+        <v>43551</v>
+      </c>
       <c r="F596" s="13" t="s">
         <v>240</v>
       </c>
@@ -19681,15 +19799,2953 @@
       <c r="C597" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D597" s="15">
+        <v>43552</v>
+      </c>
+      <c r="E597" s="15">
+        <v>43552</v>
+      </c>
       <c r="F597" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G597" s="12"/>
+      <c r="G597" s="12" t="s">
+        <v>531</v>
+      </c>
       <c r="H597" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I597" s="9"/>
+      <c r="I597" s="9">
+        <v>2</v>
+      </c>
       <c r="J597" s="10"/>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B598" s="5"/>
+      <c r="C598" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D598" s="15">
+        <v>43552</v>
+      </c>
+      <c r="E598" s="15">
+        <v>43552</v>
+      </c>
+      <c r="F598" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G598" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="H598" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I598" s="9">
+        <v>2</v>
+      </c>
+      <c r="J598" s="10"/>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B599" s="5"/>
+      <c r="C599" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D599" s="15">
+        <v>43552</v>
+      </c>
+      <c r="E599" s="15">
+        <v>43552</v>
+      </c>
+      <c r="F599" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G599" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H599" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I599" s="9">
+        <v>2</v>
+      </c>
+      <c r="J599" s="10"/>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B600" s="5"/>
+      <c r="C600" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D600" s="15">
+        <v>43552</v>
+      </c>
+      <c r="E600" s="15">
+        <v>43552</v>
+      </c>
+      <c r="F600" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G600" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="H600" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I600" s="17">
+        <v>2</v>
+      </c>
+      <c r="J600" s="10"/>
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B601" s="5"/>
+      <c r="C601" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D601" s="15">
+        <v>43553</v>
+      </c>
+      <c r="E601" s="15">
+        <v>43553</v>
+      </c>
+      <c r="F601" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G601" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="H601" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I601" s="9">
+        <v>3</v>
+      </c>
+      <c r="J601" s="10"/>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B602" s="5"/>
+      <c r="C602" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D602" s="15">
+        <v>43553</v>
+      </c>
+      <c r="E602" s="15">
+        <v>43553</v>
+      </c>
+      <c r="F602" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G602" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H602" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I602" s="9">
+        <v>3</v>
+      </c>
+      <c r="J602" s="10"/>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B603" s="5"/>
+      <c r="C603" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603" s="15">
+        <v>43553</v>
+      </c>
+      <c r="E603" s="15">
+        <v>43553</v>
+      </c>
+      <c r="F603" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G603" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="H603" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I603" s="9">
+        <v>2</v>
+      </c>
+      <c r="J603" s="10"/>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B604" s="5"/>
+      <c r="C604" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604" s="15"/>
+      <c r="E604" s="15"/>
+      <c r="F604" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G604" s="12"/>
+      <c r="H604" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I604" s="9"/>
+      <c r="J604" s="10"/>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B605" s="5"/>
+      <c r="C605" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605" s="15"/>
+      <c r="E605" s="15"/>
+      <c r="F605" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G605" s="12"/>
+      <c r="H605" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I605" s="9"/>
+      <c r="J605" s="10"/>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606" s="5"/>
+      <c r="C606" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606" s="15"/>
+      <c r="E606" s="15"/>
+      <c r="F606" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G606" s="12"/>
+      <c r="H606" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I606" s="9"/>
+      <c r="J606" s="10"/>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B607" s="5"/>
+      <c r="C607" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607" s="15"/>
+      <c r="E607" s="15"/>
+      <c r="F607" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G607" s="12"/>
+      <c r="H607" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I607" s="9"/>
+      <c r="J607" s="10"/>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B608" s="5"/>
+      <c r="C608" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608" s="15"/>
+      <c r="E608" s="15"/>
+      <c r="F608" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G608" s="12"/>
+      <c r="H608" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I608" s="9"/>
+      <c r="J608" s="10"/>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B609" s="5"/>
+      <c r="C609" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609" s="15"/>
+      <c r="E609" s="15"/>
+      <c r="F609" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G609" s="12"/>
+      <c r="H609" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I609" s="9"/>
+      <c r="J609" s="10"/>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610" s="5"/>
+      <c r="C610" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610" s="15"/>
+      <c r="E610" s="15"/>
+      <c r="F610" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G610" s="12"/>
+      <c r="H610" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I610" s="9"/>
+      <c r="J610" s="10"/>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611" s="5"/>
+      <c r="C611" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D611" s="15"/>
+      <c r="E611" s="15"/>
+      <c r="F611" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G611" s="12"/>
+      <c r="H611" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I611" s="9"/>
+      <c r="J611" s="10"/>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B612" s="5"/>
+      <c r="C612" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D612" s="15"/>
+      <c r="E612" s="15"/>
+      <c r="F612" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G612" s="12"/>
+      <c r="H612" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I612" s="9"/>
+      <c r="J612" s="10"/>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B613" s="5"/>
+      <c r="C613" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613" s="15"/>
+      <c r="E613" s="15"/>
+      <c r="F613" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G613" s="12"/>
+      <c r="H613" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I613" s="9"/>
+      <c r="J613" s="10"/>
+    </row>
+    <row r="614" spans="1:10">
+      <c r="A614" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="5"/>
+      <c r="C614" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614" s="15"/>
+      <c r="E614" s="15"/>
+      <c r="F614" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G614" s="12"/>
+      <c r="H614" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I614" s="9"/>
+      <c r="J614" s="10"/>
+    </row>
+    <row r="615" spans="1:10">
+      <c r="A615" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B615" s="5"/>
+      <c r="C615" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" s="15"/>
+      <c r="E615" s="15"/>
+      <c r="F615" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G615" s="12"/>
+      <c r="H615" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I615" s="9"/>
+      <c r="J615" s="10"/>
+    </row>
+    <row r="616" spans="1:10">
+      <c r="A616" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B616" s="5"/>
+      <c r="C616" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616" s="15"/>
+      <c r="E616" s="15"/>
+      <c r="F616" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G616" s="12"/>
+      <c r="H616" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I616" s="9"/>
+      <c r="J616" s="10"/>
+    </row>
+    <row r="617" spans="1:10">
+      <c r="A617" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B617" s="5"/>
+      <c r="C617" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" s="15"/>
+      <c r="E617" s="15"/>
+      <c r="F617" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G617" s="12"/>
+      <c r="H617" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I617" s="9"/>
+      <c r="J617" s="10"/>
+    </row>
+    <row r="618" spans="1:10">
+      <c r="A618" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B618" s="5"/>
+      <c r="C618" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" s="15"/>
+      <c r="E618" s="15"/>
+      <c r="F618" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G618" s="12"/>
+      <c r="H618" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I618" s="9"/>
+      <c r="J618" s="10"/>
+    </row>
+    <row r="619" spans="1:10">
+      <c r="A619" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B619" s="5"/>
+      <c r="C619" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619" s="15"/>
+      <c r="E619" s="15"/>
+      <c r="F619" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G619" s="12"/>
+      <c r="H619" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I619" s="9"/>
+      <c r="J619" s="10"/>
+    </row>
+    <row r="620" spans="1:10">
+      <c r="A620" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B620" s="5"/>
+      <c r="C620" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620" s="15"/>
+      <c r="E620" s="15"/>
+      <c r="F620" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G620" s="12"/>
+      <c r="H620" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I620" s="9"/>
+      <c r="J620" s="10"/>
+    </row>
+    <row r="621" spans="1:10">
+      <c r="A621" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" s="5"/>
+      <c r="C621" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621" s="15"/>
+      <c r="E621" s="15"/>
+      <c r="F621" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G621" s="12"/>
+      <c r="H621" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I621" s="9"/>
+      <c r="J621" s="10"/>
+    </row>
+    <row r="622" spans="1:10">
+      <c r="A622" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B622" s="5"/>
+      <c r="C622" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D622" s="15"/>
+      <c r="E622" s="15"/>
+      <c r="F622" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G622" s="12"/>
+      <c r="H622" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I622" s="9"/>
+      <c r="J622" s="10"/>
+    </row>
+    <row r="623" spans="1:10">
+      <c r="A623" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B623" s="5"/>
+      <c r="C623" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D623" s="15"/>
+      <c r="E623" s="15"/>
+      <c r="F623" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G623" s="12"/>
+      <c r="H623" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I623" s="9"/>
+      <c r="J623" s="10"/>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B624" s="5"/>
+      <c r="C624" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D624" s="15"/>
+      <c r="E624" s="15"/>
+      <c r="F624" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G624" s="12"/>
+      <c r="H624" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I624" s="9"/>
+      <c r="J624" s="10"/>
+    </row>
+    <row r="625" spans="1:10">
+      <c r="A625" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B625" s="5"/>
+      <c r="C625" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D625" s="15"/>
+      <c r="E625" s="15"/>
+      <c r="F625" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G625" s="12"/>
+      <c r="H625" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I625" s="9"/>
+      <c r="J625" s="10"/>
+    </row>
+    <row r="626" spans="1:10">
+      <c r="A626" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B626" s="5"/>
+      <c r="C626" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D626" s="15"/>
+      <c r="E626" s="15"/>
+      <c r="F626" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G626" s="12"/>
+      <c r="H626" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I626" s="9"/>
+      <c r="J626" s="10"/>
+    </row>
+    <row r="627" spans="1:10">
+      <c r="A627" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B627" s="5"/>
+      <c r="C627" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" s="15"/>
+      <c r="E627" s="15"/>
+      <c r="F627" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G627" s="12"/>
+      <c r="H627" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I627" s="9"/>
+      <c r="J627" s="10"/>
+    </row>
+    <row r="628" spans="1:10">
+      <c r="A628" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B628" s="5"/>
+      <c r="C628" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" s="15"/>
+      <c r="E628" s="15"/>
+      <c r="F628" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G628" s="12"/>
+      <c r="H628" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I628" s="9"/>
+      <c r="J628" s="10"/>
+    </row>
+    <row r="629" spans="1:10">
+      <c r="A629" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B629" s="5"/>
+      <c r="C629" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629" s="15"/>
+      <c r="E629" s="15"/>
+      <c r="F629" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G629" s="12"/>
+      <c r="H629" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I629" s="9"/>
+      <c r="J629" s="10"/>
+    </row>
+    <row r="630" spans="1:10">
+      <c r="A630" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B630" s="5"/>
+      <c r="C630" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630" s="15"/>
+      <c r="E630" s="15"/>
+      <c r="F630" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G630" s="12"/>
+      <c r="H630" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I630" s="9"/>
+      <c r="J630" s="10"/>
+    </row>
+    <row r="631" spans="1:10">
+      <c r="A631" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B631" s="5"/>
+      <c r="C631" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D631" s="15"/>
+      <c r="E631" s="15"/>
+      <c r="F631" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G631" s="12"/>
+      <c r="H631" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I631" s="9"/>
+      <c r="J631" s="10"/>
+    </row>
+    <row r="632" spans="1:10">
+      <c r="A632" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B632" s="5"/>
+      <c r="C632" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" s="15"/>
+      <c r="E632" s="15"/>
+      <c r="F632" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G632" s="12"/>
+      <c r="H632" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I632" s="9"/>
+      <c r="J632" s="10"/>
+    </row>
+    <row r="633" spans="1:10">
+      <c r="A633" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B633" s="5"/>
+      <c r="C633" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D633" s="15"/>
+      <c r="E633" s="15"/>
+      <c r="F633" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G633" s="12"/>
+      <c r="H633" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I633" s="9"/>
+      <c r="J633" s="10"/>
+    </row>
+    <row r="634" spans="1:10">
+      <c r="A634" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" s="5"/>
+      <c r="C634" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D634" s="15"/>
+      <c r="E634" s="15"/>
+      <c r="F634" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G634" s="12"/>
+      <c r="H634" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I634" s="9"/>
+      <c r="J634" s="10"/>
+    </row>
+    <row r="635" spans="1:10">
+      <c r="A635" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B635" s="5"/>
+      <c r="C635" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635" s="15"/>
+      <c r="E635" s="15"/>
+      <c r="F635" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G635" s="12"/>
+      <c r="H635" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I635" s="9"/>
+      <c r="J635" s="10"/>
+    </row>
+    <row r="636" spans="1:10">
+      <c r="A636" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B636" s="5"/>
+      <c r="C636" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636" s="15"/>
+      <c r="E636" s="15"/>
+      <c r="F636" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G636" s="12"/>
+      <c r="H636" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I636" s="9"/>
+      <c r="J636" s="10"/>
+    </row>
+    <row r="637" spans="1:10">
+      <c r="A637" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B637" s="5"/>
+      <c r="C637" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D637" s="15"/>
+      <c r="E637" s="15"/>
+      <c r="F637" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G637" s="12"/>
+      <c r="H637" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I637" s="9"/>
+      <c r="J637" s="10"/>
+    </row>
+    <row r="638" spans="1:10">
+      <c r="A638" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B638" s="5"/>
+      <c r="C638" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D638" s="15"/>
+      <c r="E638" s="15"/>
+      <c r="F638" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G638" s="12"/>
+      <c r="H638" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I638" s="9"/>
+      <c r="J638" s="10"/>
+    </row>
+    <row r="639" spans="1:10">
+      <c r="A639" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B639" s="5"/>
+      <c r="C639" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" s="15"/>
+      <c r="E639" s="15"/>
+      <c r="F639" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G639" s="12"/>
+      <c r="H639" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I639" s="9"/>
+      <c r="J639" s="10"/>
+    </row>
+    <row r="640" spans="1:10">
+      <c r="A640" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B640" s="5"/>
+      <c r="C640" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D640" s="15"/>
+      <c r="E640" s="15"/>
+      <c r="F640" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G640" s="12"/>
+      <c r="H640" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I640" s="9"/>
+      <c r="J640" s="10"/>
+    </row>
+    <row r="641" spans="1:10">
+      <c r="A641" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B641" s="5"/>
+      <c r="C641" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" s="15"/>
+      <c r="E641" s="15"/>
+      <c r="F641" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G641" s="12"/>
+      <c r="H641" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I641" s="9"/>
+      <c r="J641" s="10"/>
+    </row>
+    <row r="642" spans="1:10">
+      <c r="A642" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" s="5"/>
+      <c r="C642" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" s="15"/>
+      <c r="E642" s="15"/>
+      <c r="F642" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G642" s="12"/>
+      <c r="H642" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I642" s="9"/>
+      <c r="J642" s="10"/>
+    </row>
+    <row r="643" spans="1:10">
+      <c r="A643" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" s="5"/>
+      <c r="C643" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" s="15"/>
+      <c r="E643" s="15"/>
+      <c r="F643" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G643" s="12"/>
+      <c r="H643" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I643" s="9"/>
+      <c r="J643" s="10"/>
+    </row>
+    <row r="644" spans="1:10">
+      <c r="A644" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B644" s="5"/>
+      <c r="C644" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D644" s="15"/>
+      <c r="E644" s="15"/>
+      <c r="F644" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G644" s="12"/>
+      <c r="H644" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I644" s="9"/>
+      <c r="J644" s="10"/>
+    </row>
+    <row r="645" spans="1:10">
+      <c r="A645" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" s="5"/>
+      <c r="C645" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" s="15"/>
+      <c r="E645" s="15"/>
+      <c r="F645" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G645" s="12"/>
+      <c r="H645" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I645" s="9"/>
+      <c r="J645" s="10"/>
+    </row>
+    <row r="646" spans="1:10">
+      <c r="A646" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B646" s="5"/>
+      <c r="C646" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" s="15"/>
+      <c r="E646" s="15"/>
+      <c r="F646" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G646" s="12"/>
+      <c r="H646" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I646" s="9"/>
+      <c r="J646" s="10"/>
+    </row>
+    <row r="647" spans="1:10">
+      <c r="A647" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B647" s="5"/>
+      <c r="C647" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647" s="15"/>
+      <c r="E647" s="15"/>
+      <c r="F647" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G647" s="12"/>
+      <c r="H647" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I647" s="9"/>
+      <c r="J647" s="10"/>
+    </row>
+    <row r="648" spans="1:10">
+      <c r="A648" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B648" s="5"/>
+      <c r="C648" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648" s="15"/>
+      <c r="E648" s="15"/>
+      <c r="F648" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G648" s="12"/>
+      <c r="H648" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I648" s="9"/>
+      <c r="J648" s="10"/>
+    </row>
+    <row r="649" spans="1:10">
+      <c r="A649" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B649" s="5"/>
+      <c r="C649" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" s="15"/>
+      <c r="E649" s="15"/>
+      <c r="F649" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G649" s="12"/>
+      <c r="H649" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I649" s="9"/>
+      <c r="J649" s="10"/>
+    </row>
+    <row r="650" spans="1:10">
+      <c r="A650" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B650" s="5"/>
+      <c r="C650" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" s="15"/>
+      <c r="E650" s="15"/>
+      <c r="F650" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G650" s="12"/>
+      <c r="H650" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I650" s="9"/>
+      <c r="J650" s="10"/>
+    </row>
+    <row r="651" spans="1:10">
+      <c r="A651" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" s="5"/>
+      <c r="C651" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" s="15"/>
+      <c r="E651" s="15"/>
+      <c r="F651" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G651" s="12"/>
+      <c r="H651" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I651" s="9"/>
+      <c r="J651" s="10"/>
+    </row>
+    <row r="652" spans="1:10">
+      <c r="A652" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B652" s="5"/>
+      <c r="C652" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D652" s="15"/>
+      <c r="E652" s="15"/>
+      <c r="F652" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G652" s="12"/>
+      <c r="H652" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I652" s="9"/>
+      <c r="J652" s="10"/>
+    </row>
+    <row r="653" spans="1:10">
+      <c r="A653" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" s="5"/>
+      <c r="C653" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D653" s="15"/>
+      <c r="E653" s="15"/>
+      <c r="F653" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G653" s="12"/>
+      <c r="H653" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I653" s="9"/>
+      <c r="J653" s="10"/>
+    </row>
+    <row r="654" spans="1:10">
+      <c r="A654" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" s="5"/>
+      <c r="C654" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" s="15"/>
+      <c r="E654" s="15"/>
+      <c r="F654" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G654" s="12"/>
+      <c r="H654" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I654" s="9"/>
+      <c r="J654" s="10"/>
+    </row>
+    <row r="655" spans="1:10">
+      <c r="A655" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" s="5"/>
+      <c r="C655" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" s="15"/>
+      <c r="E655" s="15"/>
+      <c r="F655" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G655" s="12"/>
+      <c r="H655" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I655" s="9"/>
+      <c r="J655" s="10"/>
+    </row>
+    <row r="656" spans="1:10">
+      <c r="A656" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B656" s="5"/>
+      <c r="C656" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D656" s="15"/>
+      <c r="E656" s="15"/>
+      <c r="F656" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G656" s="12"/>
+      <c r="H656" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I656" s="9"/>
+      <c r="J656" s="10"/>
+    </row>
+    <row r="657" spans="1:10">
+      <c r="A657" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B657" s="5"/>
+      <c r="C657" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" s="15"/>
+      <c r="E657" s="15"/>
+      <c r="F657" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G657" s="12"/>
+      <c r="H657" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I657" s="9"/>
+      <c r="J657" s="10"/>
+    </row>
+    <row r="658" spans="1:10">
+      <c r="A658" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B658" s="5"/>
+      <c r="C658" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658" s="15"/>
+      <c r="E658" s="15"/>
+      <c r="F658" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G658" s="12"/>
+      <c r="H658" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I658" s="9"/>
+      <c r="J658" s="10"/>
+    </row>
+    <row r="659" spans="1:10">
+      <c r="A659" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B659" s="5"/>
+      <c r="C659" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" s="15"/>
+      <c r="E659" s="15"/>
+      <c r="F659" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G659" s="12"/>
+      <c r="H659" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I659" s="9"/>
+      <c r="J659" s="10"/>
+    </row>
+    <row r="660" spans="1:10">
+      <c r="A660" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B660" s="5"/>
+      <c r="C660" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660" s="15"/>
+      <c r="E660" s="15"/>
+      <c r="F660" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G660" s="12"/>
+      <c r="H660" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I660" s="9"/>
+      <c r="J660" s="10"/>
+    </row>
+    <row r="661" spans="1:10">
+      <c r="A661" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B661" s="5"/>
+      <c r="C661" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D661" s="15"/>
+      <c r="E661" s="15"/>
+      <c r="F661" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G661" s="12"/>
+      <c r="H661" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I661" s="9"/>
+      <c r="J661" s="10"/>
+    </row>
+    <row r="662" spans="1:10">
+      <c r="A662" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B662" s="5"/>
+      <c r="C662" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D662" s="15"/>
+      <c r="E662" s="15"/>
+      <c r="F662" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G662" s="12"/>
+      <c r="H662" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I662" s="9"/>
+      <c r="J662" s="10"/>
+    </row>
+    <row r="663" spans="1:10">
+      <c r="A663" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B663" s="5"/>
+      <c r="C663" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D663" s="15"/>
+      <c r="E663" s="15"/>
+      <c r="F663" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G663" s="12"/>
+      <c r="H663" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I663" s="9"/>
+      <c r="J663" s="10"/>
+    </row>
+    <row r="664" spans="1:10">
+      <c r="A664" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B664" s="5"/>
+      <c r="C664" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D664" s="15"/>
+      <c r="E664" s="15"/>
+      <c r="F664" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G664" s="12"/>
+      <c r="H664" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I664" s="9"/>
+      <c r="J664" s="10"/>
+    </row>
+    <row r="665" spans="1:10">
+      <c r="A665" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B665" s="5"/>
+      <c r="C665" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D665" s="15"/>
+      <c r="E665" s="15"/>
+      <c r="F665" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G665" s="12"/>
+      <c r="H665" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I665" s="9"/>
+      <c r="J665" s="10"/>
+    </row>
+    <row r="666" spans="1:10">
+      <c r="A666" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B666" s="5"/>
+      <c r="C666" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D666" s="15"/>
+      <c r="E666" s="15"/>
+      <c r="F666" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G666" s="12"/>
+      <c r="H666" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I666" s="9"/>
+      <c r="J666" s="10"/>
+    </row>
+    <row r="667" spans="1:10">
+      <c r="A667" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B667" s="5"/>
+      <c r="C667" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D667" s="15"/>
+      <c r="E667" s="15"/>
+      <c r="F667" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G667" s="12"/>
+      <c r="H667" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I667" s="9"/>
+      <c r="J667" s="10"/>
+    </row>
+    <row r="668" spans="1:10">
+      <c r="A668" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B668" s="5"/>
+      <c r="C668" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D668" s="15"/>
+      <c r="E668" s="15"/>
+      <c r="F668" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G668" s="12"/>
+      <c r="H668" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I668" s="9"/>
+      <c r="J668" s="10"/>
+    </row>
+    <row r="669" spans="1:10">
+      <c r="A669" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B669" s="5"/>
+      <c r="C669" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D669" s="15"/>
+      <c r="E669" s="15"/>
+      <c r="F669" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G669" s="12"/>
+      <c r="H669" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I669" s="9"/>
+      <c r="J669" s="10"/>
+    </row>
+    <row r="670" spans="1:10">
+      <c r="A670" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B670" s="5"/>
+      <c r="C670" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670" s="15"/>
+      <c r="E670" s="15"/>
+      <c r="F670" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G670" s="12"/>
+      <c r="H670" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I670" s="9"/>
+      <c r="J670" s="10"/>
+    </row>
+    <row r="671" spans="1:10">
+      <c r="A671" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B671" s="5"/>
+      <c r="C671" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D671" s="15"/>
+      <c r="E671" s="15"/>
+      <c r="F671" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G671" s="12"/>
+      <c r="H671" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I671" s="9"/>
+      <c r="J671" s="10"/>
+    </row>
+    <row r="672" spans="1:10">
+      <c r="A672" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B672" s="5"/>
+      <c r="C672" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D672" s="15"/>
+      <c r="E672" s="15"/>
+      <c r="F672" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G672" s="12"/>
+      <c r="H672" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I672" s="9"/>
+      <c r="J672" s="10"/>
+    </row>
+    <row r="673" spans="1:10">
+      <c r="A673" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B673" s="5"/>
+      <c r="C673" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D673" s="15"/>
+      <c r="E673" s="15"/>
+      <c r="F673" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G673" s="12"/>
+      <c r="H673" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I673" s="9"/>
+      <c r="J673" s="10"/>
+    </row>
+    <row r="674" spans="1:10">
+      <c r="A674" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B674" s="5"/>
+      <c r="C674" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D674" s="15"/>
+      <c r="E674" s="15"/>
+      <c r="F674" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G674" s="12"/>
+      <c r="H674" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I674" s="9"/>
+      <c r="J674" s="10"/>
+    </row>
+    <row r="675" spans="1:10">
+      <c r="A675" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B675" s="5"/>
+      <c r="C675" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D675" s="15"/>
+      <c r="E675" s="15"/>
+      <c r="F675" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G675" s="12"/>
+      <c r="H675" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I675" s="9"/>
+      <c r="J675" s="10"/>
+    </row>
+    <row r="676" spans="1:10">
+      <c r="A676" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676" s="5"/>
+      <c r="C676" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D676" s="15"/>
+      <c r="E676" s="15"/>
+      <c r="F676" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G676" s="12"/>
+      <c r="H676" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I676" s="9"/>
+      <c r="J676" s="10"/>
+    </row>
+    <row r="677" spans="1:10">
+      <c r="A677" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B677" s="5"/>
+      <c r="C677" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D677" s="15"/>
+      <c r="E677" s="15"/>
+      <c r="F677" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G677" s="12"/>
+      <c r="H677" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I677" s="9"/>
+      <c r="J677" s="10"/>
+    </row>
+    <row r="678" spans="1:10">
+      <c r="A678" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B678" s="5"/>
+      <c r="C678" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D678" s="15"/>
+      <c r="E678" s="15"/>
+      <c r="F678" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G678" s="12"/>
+      <c r="H678" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I678" s="9"/>
+      <c r="J678" s="10"/>
+    </row>
+    <row r="679" spans="1:10">
+      <c r="A679" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B679" s="5"/>
+      <c r="C679" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D679" s="15"/>
+      <c r="E679" s="15"/>
+      <c r="F679" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G679" s="12"/>
+      <c r="H679" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I679" s="9"/>
+      <c r="J679" s="10"/>
+    </row>
+    <row r="680" spans="1:10">
+      <c r="A680" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B680" s="5"/>
+      <c r="C680" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D680" s="15"/>
+      <c r="E680" s="15"/>
+      <c r="F680" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G680" s="12"/>
+      <c r="H680" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I680" s="9"/>
+      <c r="J680" s="10"/>
+    </row>
+    <row r="681" spans="1:10">
+      <c r="A681" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B681" s="5"/>
+      <c r="C681" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D681" s="15"/>
+      <c r="E681" s="15"/>
+      <c r="F681" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G681" s="12"/>
+      <c r="H681" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I681" s="9"/>
+      <c r="J681" s="10"/>
+    </row>
+    <row r="682" spans="1:10">
+      <c r="A682" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B682" s="5"/>
+      <c r="C682" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D682" s="15"/>
+      <c r="E682" s="15"/>
+      <c r="F682" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G682" s="12"/>
+      <c r="H682" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I682" s="9"/>
+      <c r="J682" s="10"/>
+    </row>
+    <row r="683" spans="1:10">
+      <c r="A683" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B683" s="5"/>
+      <c r="C683" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D683" s="15"/>
+      <c r="E683" s="15"/>
+      <c r="F683" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G683" s="12"/>
+      <c r="H683" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I683" s="9"/>
+      <c r="J683" s="10"/>
+    </row>
+    <row r="684" spans="1:10">
+      <c r="A684" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B684" s="5"/>
+      <c r="C684" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D684" s="15"/>
+      <c r="E684" s="15"/>
+      <c r="F684" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G684" s="12"/>
+      <c r="H684" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I684" s="9"/>
+      <c r="J684" s="10"/>
+    </row>
+    <row r="685" spans="1:10">
+      <c r="A685" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B685" s="5"/>
+      <c r="C685" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D685" s="15"/>
+      <c r="E685" s="15"/>
+      <c r="F685" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G685" s="12"/>
+      <c r="H685" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I685" s="9"/>
+      <c r="J685" s="10"/>
+    </row>
+    <row r="686" spans="1:10">
+      <c r="A686" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B686" s="5"/>
+      <c r="C686" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D686" s="15"/>
+      <c r="E686" s="15"/>
+      <c r="F686" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G686" s="12"/>
+      <c r="H686" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I686" s="9"/>
+      <c r="J686" s="10"/>
+    </row>
+    <row r="687" spans="1:10">
+      <c r="A687" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B687" s="5"/>
+      <c r="C687" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D687" s="15"/>
+      <c r="E687" s="15"/>
+      <c r="F687" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G687" s="12"/>
+      <c r="H687" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I687" s="9"/>
+      <c r="J687" s="10"/>
+    </row>
+    <row r="688" spans="1:10">
+      <c r="A688" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B688" s="5"/>
+      <c r="C688" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D688" s="15"/>
+      <c r="E688" s="15"/>
+      <c r="F688" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G688" s="12"/>
+      <c r="H688" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I688" s="9"/>
+      <c r="J688" s="10"/>
+    </row>
+    <row r="689" spans="1:10">
+      <c r="A689" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B689" s="5"/>
+      <c r="C689" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D689" s="15"/>
+      <c r="E689" s="15"/>
+      <c r="F689" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G689" s="12"/>
+      <c r="H689" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I689" s="9"/>
+      <c r="J689" s="10"/>
+    </row>
+    <row r="690" spans="1:10">
+      <c r="A690" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B690" s="5"/>
+      <c r="C690" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D690" s="15"/>
+      <c r="E690" s="15"/>
+      <c r="F690" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G690" s="12"/>
+      <c r="H690" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I690" s="9"/>
+      <c r="J690" s="10"/>
+    </row>
+    <row r="691" spans="1:10">
+      <c r="A691" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B691" s="5"/>
+      <c r="C691" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D691" s="15"/>
+      <c r="E691" s="15"/>
+      <c r="F691" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G691" s="12"/>
+      <c r="H691" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I691" s="9"/>
+      <c r="J691" s="10"/>
+    </row>
+    <row r="692" spans="1:10">
+      <c r="A692" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B692" s="5"/>
+      <c r="C692" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D692" s="15"/>
+      <c r="E692" s="15"/>
+      <c r="F692" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G692" s="12"/>
+      <c r="H692" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I692" s="9"/>
+      <c r="J692" s="10"/>
+    </row>
+    <row r="693" spans="1:10">
+      <c r="A693" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B693" s="5"/>
+      <c r="C693" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D693" s="15"/>
+      <c r="E693" s="15"/>
+      <c r="F693" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G693" s="12"/>
+      <c r="H693" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I693" s="9"/>
+      <c r="J693" s="10"/>
+    </row>
+    <row r="694" spans="1:10">
+      <c r="A694" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B694" s="5"/>
+      <c r="C694" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D694" s="15"/>
+      <c r="E694" s="15"/>
+      <c r="F694" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G694" s="12"/>
+      <c r="H694" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I694" s="9"/>
+      <c r="J694" s="10"/>
+    </row>
+    <row r="695" spans="1:10">
+      <c r="A695" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B695" s="5"/>
+      <c r="C695" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D695" s="15"/>
+      <c r="E695" s="15"/>
+      <c r="F695" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G695" s="12"/>
+      <c r="H695" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I695" s="9"/>
+      <c r="J695" s="10"/>
+    </row>
+    <row r="696" spans="1:10">
+      <c r="A696" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B696" s="5"/>
+      <c r="C696" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D696" s="15"/>
+      <c r="E696" s="15"/>
+      <c r="F696" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G696" s="12"/>
+      <c r="H696" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I696" s="9"/>
+      <c r="J696" s="10"/>
+    </row>
+    <row r="697" spans="1:10">
+      <c r="A697" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B697" s="5"/>
+      <c r="C697" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D697" s="15"/>
+      <c r="E697" s="15"/>
+      <c r="F697" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G697" s="12"/>
+      <c r="H697" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I697" s="9"/>
+      <c r="J697" s="10"/>
+    </row>
+    <row r="698" spans="1:10">
+      <c r="A698" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B698" s="5"/>
+      <c r="C698" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D698" s="15"/>
+      <c r="E698" s="15"/>
+      <c r="F698" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G698" s="12"/>
+      <c r="H698" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I698" s="9"/>
+      <c r="J698" s="10"/>
+    </row>
+    <row r="699" spans="1:10">
+      <c r="A699" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B699" s="5"/>
+      <c r="C699" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D699" s="15"/>
+      <c r="E699" s="15"/>
+      <c r="F699" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G699" s="12"/>
+      <c r="H699" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I699" s="9"/>
+      <c r="J699" s="10"/>
+    </row>
+    <row r="700" spans="1:10">
+      <c r="A700" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B700" s="5"/>
+      <c r="C700" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D700" s="15"/>
+      <c r="E700" s="15"/>
+      <c r="F700" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G700" s="12"/>
+      <c r="H700" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I700" s="9"/>
+      <c r="J700" s="10"/>
+    </row>
+    <row r="701" spans="1:10">
+      <c r="A701" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B701" s="5"/>
+      <c r="C701" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" s="15"/>
+      <c r="E701" s="15"/>
+      <c r="F701" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G701" s="12"/>
+      <c r="H701" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I701" s="9"/>
+      <c r="J701" s="10"/>
+    </row>
+    <row r="702" spans="1:10">
+      <c r="A702" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B702" s="5"/>
+      <c r="C702" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D702" s="15"/>
+      <c r="E702" s="15"/>
+      <c r="F702" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G702" s="12"/>
+      <c r="H702" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I702" s="9"/>
+      <c r="J702" s="10"/>
+    </row>
+    <row r="703" spans="1:10">
+      <c r="A703" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B703" s="5"/>
+      <c r="C703" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D703" s="15"/>
+      <c r="E703" s="15"/>
+      <c r="F703" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G703" s="12"/>
+      <c r="H703" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I703" s="9"/>
+      <c r="J703" s="10"/>
+    </row>
+    <row r="704" spans="1:10">
+      <c r="A704" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B704" s="5"/>
+      <c r="C704" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D704" s="15"/>
+      <c r="E704" s="15"/>
+      <c r="F704" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G704" s="12"/>
+      <c r="H704" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I704" s="9"/>
+      <c r="J704" s="10"/>
+    </row>
+    <row r="705" spans="1:10">
+      <c r="A705" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B705" s="5"/>
+      <c r="C705" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D705" s="15"/>
+      <c r="E705" s="15"/>
+      <c r="F705" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G705" s="12"/>
+      <c r="H705" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I705" s="9"/>
+      <c r="J705" s="10"/>
+    </row>
+    <row r="706" spans="1:10">
+      <c r="A706" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B706" s="5"/>
+      <c r="C706" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D706" s="15"/>
+      <c r="E706" s="15"/>
+      <c r="F706" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G706" s="12"/>
+      <c r="H706" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I706" s="9"/>
+      <c r="J706" s="10"/>
+    </row>
+    <row r="707" spans="1:10">
+      <c r="A707" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B707" s="5"/>
+      <c r="C707" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D707" s="15"/>
+      <c r="E707" s="15"/>
+      <c r="F707" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G707" s="12"/>
+      <c r="H707" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I707" s="9"/>
+      <c r="J707" s="10"/>
+    </row>
+    <row r="708" spans="1:10">
+      <c r="A708" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B708" s="5"/>
+      <c r="C708" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D708" s="15"/>
+      <c r="E708" s="15"/>
+      <c r="F708" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G708" s="12"/>
+      <c r="H708" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I708" s="9"/>
+      <c r="J708" s="10"/>
+    </row>
+    <row r="709" spans="1:10">
+      <c r="A709" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B709" s="5"/>
+      <c r="C709" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D709" s="15"/>
+      <c r="E709" s="15"/>
+      <c r="F709" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G709" s="12"/>
+      <c r="H709" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I709" s="9"/>
+      <c r="J709" s="10"/>
+    </row>
+    <row r="710" spans="1:10">
+      <c r="A710" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B710" s="5"/>
+      <c r="C710" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D710" s="15"/>
+      <c r="E710" s="15"/>
+      <c r="F710" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G710" s="12"/>
+      <c r="H710" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I710" s="9"/>
+      <c r="J710" s="10"/>
+    </row>
+    <row r="711" spans="1:10">
+      <c r="A711" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B711" s="5"/>
+      <c r="C711" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D711" s="15"/>
+      <c r="E711" s="15"/>
+      <c r="F711" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G711" s="12"/>
+      <c r="H711" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I711" s="9"/>
+      <c r="J711" s="10"/>
+    </row>
+    <row r="712" spans="1:10">
+      <c r="A712" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B712" s="5"/>
+      <c r="C712" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D712" s="15"/>
+      <c r="E712" s="15"/>
+      <c r="F712" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G712" s="12"/>
+      <c r="H712" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I712" s="9"/>
+      <c r="J712" s="10"/>
+    </row>
+    <row r="713" spans="1:10">
+      <c r="A713" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B713" s="5"/>
+      <c r="C713" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D713" s="15"/>
+      <c r="E713" s="15"/>
+      <c r="F713" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G713" s="12"/>
+      <c r="H713" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I713" s="9"/>
+      <c r="J713" s="10"/>
+    </row>
+    <row r="714" spans="1:10">
+      <c r="A714" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B714" s="5"/>
+      <c r="C714" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D714" s="15"/>
+      <c r="E714" s="15"/>
+      <c r="F714" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G714" s="12"/>
+      <c r="H714" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I714" s="9"/>
+      <c r="J714" s="10"/>
+    </row>
+    <row r="715" spans="1:10">
+      <c r="A715" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B715" s="5"/>
+      <c r="C715" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" s="15"/>
+      <c r="E715" s="15"/>
+      <c r="F715" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G715" s="12"/>
+      <c r="H715" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I715" s="9"/>
+      <c r="J715" s="10"/>
+    </row>
+    <row r="716" spans="1:10">
+      <c r="A716" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B716" s="5"/>
+      <c r="C716" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D716" s="15"/>
+      <c r="E716" s="15"/>
+      <c r="F716" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G716" s="12"/>
+      <c r="H716" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I716" s="9"/>
+      <c r="J716" s="10"/>
+    </row>
+    <row r="717" spans="1:10">
+      <c r="A717" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B717" s="5"/>
+      <c r="C717" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D717" s="15"/>
+      <c r="E717" s="15"/>
+      <c r="F717" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G717" s="12"/>
+      <c r="H717" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I717" s="9"/>
+      <c r="J717" s="10"/>
+    </row>
+    <row r="718" spans="1:10">
+      <c r="A718" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B718" s="5"/>
+      <c r="C718" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D718" s="15"/>
+      <c r="E718" s="15"/>
+      <c r="F718" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G718" s="12"/>
+      <c r="H718" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I718" s="9"/>
+      <c r="J718" s="10"/>
+    </row>
+    <row r="719" spans="1:10">
+      <c r="A719" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B719" s="5"/>
+      <c r="C719" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D719" s="15"/>
+      <c r="E719" s="15"/>
+      <c r="F719" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G719" s="12"/>
+      <c r="H719" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I719" s="9"/>
+      <c r="J719" s="10"/>
+    </row>
+    <row r="720" spans="1:10">
+      <c r="A720" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B720" s="5"/>
+      <c r="C720" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D720" s="15"/>
+      <c r="E720" s="15"/>
+      <c r="F720" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G720" s="12"/>
+      <c r="H720" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I720" s="9"/>
+      <c r="J720" s="10"/>
+    </row>
+    <row r="721" spans="1:10">
+      <c r="A721" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B721" s="5"/>
+      <c r="C721" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D721" s="15"/>
+      <c r="E721" s="15"/>
+      <c r="F721" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G721" s="12"/>
+      <c r="H721" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I721" s="9"/>
+      <c r="J721" s="10"/>
+    </row>
+    <row r="722" spans="1:10">
+      <c r="A722" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B722" s="5"/>
+      <c r="C722" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D722" s="15"/>
+      <c r="E722" s="15"/>
+      <c r="F722" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G722" s="12"/>
+      <c r="H722" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I722" s="9"/>
+      <c r="J722" s="10"/>
+    </row>
+    <row r="723" spans="1:10">
+      <c r="A723" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B723" s="5"/>
+      <c r="C723" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D723" s="15"/>
+      <c r="E723" s="15"/>
+      <c r="F723" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G723" s="12"/>
+      <c r="H723" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I723" s="9"/>
+      <c r="J723" s="10"/>
+    </row>
+    <row r="724" spans="1:10">
+      <c r="A724" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B724" s="5"/>
+      <c r="C724" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D724" s="15"/>
+      <c r="E724" s="15"/>
+      <c r="F724" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G724" s="12"/>
+      <c r="H724" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I724" s="9"/>
+      <c r="J724" s="10"/>
+    </row>
+    <row r="725" spans="1:10">
+      <c r="A725" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B725" s="5"/>
+      <c r="C725" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D725" s="15"/>
+      <c r="E725" s="15"/>
+      <c r="F725" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G725" s="12"/>
+      <c r="H725" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I725" s="9"/>
+      <c r="J725" s="10"/>
+    </row>
+    <row r="726" spans="1:10">
+      <c r="A726" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B726" s="5"/>
+      <c r="C726" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D726" s="15"/>
+      <c r="E726" s="15"/>
+      <c r="F726" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G726" s="12"/>
+      <c r="H726" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I726" s="9"/>
+      <c r="J726" s="10"/>
+    </row>
+    <row r="727" spans="1:10">
+      <c r="A727" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B727" s="5"/>
+      <c r="C727" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D727" s="15"/>
+      <c r="E727" s="15"/>
+      <c r="F727" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G727" s="12"/>
+      <c r="H727" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I727" s="9"/>
+      <c r="J727" s="10"/>
+    </row>
+    <row r="728" spans="1:10">
+      <c r="A728" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B728" s="5"/>
+      <c r="C728" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D728" s="15"/>
+      <c r="E728" s="15"/>
+      <c r="F728" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G728" s="12"/>
+      <c r="H728" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I728" s="9"/>
+      <c r="J728" s="10"/>
+    </row>
+    <row r="729" spans="1:10">
+      <c r="A729" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B729" s="5"/>
+      <c r="C729" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D729" s="15"/>
+      <c r="E729" s="15"/>
+      <c r="F729" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G729" s="12"/>
+      <c r="H729" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I729" s="9"/>
+      <c r="J729" s="10"/>
+    </row>
+    <row r="730" spans="1:10">
+      <c r="A730" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B730" s="5"/>
+      <c r="C730" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D730" s="15"/>
+      <c r="E730" s="15"/>
+      <c r="F730" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G730" s="12"/>
+      <c r="H730" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I730" s="9"/>
+      <c r="J730" s="10"/>
+    </row>
+    <row r="731" spans="1:10">
+      <c r="A731" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B731" s="5"/>
+      <c r="C731" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D731" s="15"/>
+      <c r="E731" s="15"/>
+      <c r="F731" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G731" s="12"/>
+      <c r="H731" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I731" s="9"/>
+      <c r="J731" s="10"/>
+    </row>
+    <row r="732" spans="1:10">
+      <c r="A732" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B732" s="5"/>
+      <c r="C732" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D732" s="15"/>
+      <c r="E732" s="15"/>
+      <c r="F732" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G732" s="12"/>
+      <c r="H732" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I732" s="9"/>
+      <c r="J732" s="10"/>
+    </row>
+    <row r="733" spans="1:10">
+      <c r="A733" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B733" s="5"/>
+      <c r="C733" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D733" s="15"/>
+      <c r="E733" s="15"/>
+      <c r="F733" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G733" s="12"/>
+      <c r="H733" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I733" s="9"/>
+      <c r="J733" s="10"/>
+    </row>
+    <row r="734" spans="1:10">
+      <c r="A734" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B734" s="5"/>
+      <c r="C734" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D734" s="15"/>
+      <c r="E734" s="15"/>
+      <c r="F734" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G734" s="12"/>
+      <c r="H734" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I734" s="9"/>
+      <c r="J734" s="10"/>
+    </row>
+    <row r="735" spans="1:10">
+      <c r="A735" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B735" s="5"/>
+      <c r="C735" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D735" s="15"/>
+      <c r="E735" s="15"/>
+      <c r="F735" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G735" s="12"/>
+      <c r="H735" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I735" s="9"/>
+      <c r="J735" s="10"/>
+    </row>
+    <row r="736" spans="1:10">
+      <c r="A736" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B736" s="5"/>
+      <c r="C736" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D736" s="15"/>
+      <c r="E736" s="15"/>
+      <c r="F736" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G736" s="12"/>
+      <c r="H736" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I736" s="9"/>
+      <c r="J736" s="10"/>
+    </row>
+    <row r="737" spans="1:10">
+      <c r="A737" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B737" s="5"/>
+      <c r="C737" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D737" s="15"/>
+      <c r="E737" s="15"/>
+      <c r="F737" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G737" s="12"/>
+      <c r="H737" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I737" s="9"/>
+      <c r="J737" s="10"/>
+    </row>
+    <row r="738" spans="1:10">
+      <c r="A738" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B738" s="5"/>
+      <c r="C738" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D738" s="15"/>
+      <c r="E738" s="15"/>
+      <c r="F738" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G738" s="12"/>
+      <c r="H738" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I738" s="9"/>
+      <c r="J738" s="10"/>
+    </row>
+    <row r="739" spans="1:10">
+      <c r="A739" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B739" s="5"/>
+      <c r="C739" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D739" s="15"/>
+      <c r="E739" s="15"/>
+      <c r="F739" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G739" s="12"/>
+      <c r="H739" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I739" s="9"/>
+      <c r="J739" s="10"/>
+    </row>
+    <row r="740" spans="1:10">
+      <c r="A740" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B740" s="5"/>
+      <c r="C740" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D740" s="15"/>
+      <c r="E740" s="15"/>
+      <c r="F740" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G740" s="12"/>
+      <c r="H740" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I740" s="9"/>
+      <c r="J740" s="10"/>
+    </row>
+    <row r="741" spans="1:10">
+      <c r="A741" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B741" s="5"/>
+      <c r="C741" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D741" s="15"/>
+      <c r="E741" s="15"/>
+      <c r="F741" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G741" s="12"/>
+      <c r="H741" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I741" s="9"/>
+      <c r="J741" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19697,13 +22753,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131115:C131131 IY65579:IY65595 SU65579:SU65595 ACQ65579:ACQ65595 AMM65579:AMM65595 AWI65579:AWI65595 BGE65579:BGE65595 BQA65579:BQA65595 BZW65579:BZW65595 CJS65579:CJS65595 CTO65579:CTO65595 DDK65579:DDK65595 DNG65579:DNG65595 DXC65579:DXC65595 EGY65579:EGY65595 EQU65579:EQU65595 FAQ65579:FAQ65595 FKM65579:FKM65595 FUI65579:FUI65595 GEE65579:GEE65595 GOA65579:GOA65595 GXW65579:GXW65595 HHS65579:HHS65595 HRO65579:HRO65595 IBK65579:IBK65595 ILG65579:ILG65595 IVC65579:IVC65595 JEY65579:JEY65595 JOU65579:JOU65595 JYQ65579:JYQ65595 KIM65579:KIM65595 KSI65579:KSI65595 LCE65579:LCE65595 LMA65579:LMA65595 LVW65579:LVW65595 MFS65579:MFS65595 MPO65579:MPO65595 MZK65579:MZK65595 NJG65579:NJG65595 NTC65579:NTC65595 OCY65579:OCY65595 OMU65579:OMU65595 OWQ65579:OWQ65595 PGM65579:PGM65595 PQI65579:PQI65595 QAE65579:QAE65595 QKA65579:QKA65595 QTW65579:QTW65595 RDS65579:RDS65595 RNO65579:RNO65595 RXK65579:RXK65595 SHG65579:SHG65595 SRC65579:SRC65595 TAY65579:TAY65595 TKU65579:TKU65595 TUQ65579:TUQ65595 UEM65579:UEM65595 UOI65579:UOI65595 UYE65579:UYE65595 VIA65579:VIA65595 VRW65579:VRW65595 WBS65579:WBS65595 WLO65579:WLO65595 WVK65579:WVK65595 C196651:C196667 IY131115:IY131131 SU131115:SU131131 ACQ131115:ACQ131131 AMM131115:AMM131131 AWI131115:AWI131131 BGE131115:BGE131131 BQA131115:BQA131131 BZW131115:BZW131131 CJS131115:CJS131131 CTO131115:CTO131131 DDK131115:DDK131131 DNG131115:DNG131131 DXC131115:DXC131131 EGY131115:EGY131131 EQU131115:EQU131131 FAQ131115:FAQ131131 FKM131115:FKM131131 FUI131115:FUI131131 GEE131115:GEE131131 GOA131115:GOA131131 GXW131115:GXW131131 HHS131115:HHS131131 HRO131115:HRO131131 IBK131115:IBK131131 ILG131115:ILG131131 IVC131115:IVC131131 JEY131115:JEY131131 JOU131115:JOU131131 JYQ131115:JYQ131131 KIM131115:KIM131131 KSI131115:KSI131131 LCE131115:LCE131131 LMA131115:LMA131131 LVW131115:LVW131131 MFS131115:MFS131131 MPO131115:MPO131131 MZK131115:MZK131131 NJG131115:NJG131131 NTC131115:NTC131131 OCY131115:OCY131131 OMU131115:OMU131131 OWQ131115:OWQ131131 PGM131115:PGM131131 PQI131115:PQI131131 QAE131115:QAE131131 QKA131115:QKA131131 QTW131115:QTW131131 RDS131115:RDS131131 RNO131115:RNO131131 RXK131115:RXK131131 SHG131115:SHG131131 SRC131115:SRC131131 TAY131115:TAY131131 TKU131115:TKU131131 TUQ131115:TUQ131131 UEM131115:UEM131131 UOI131115:UOI131131 UYE131115:UYE131131 VIA131115:VIA131131 VRW131115:VRW131131 WBS131115:WBS131131 WLO131115:WLO131131 WVK131115:WVK131131 C262187:C262203 IY196651:IY196667 SU196651:SU196667 ACQ196651:ACQ196667 AMM196651:AMM196667 AWI196651:AWI196667 BGE196651:BGE196667 BQA196651:BQA196667 BZW196651:BZW196667 CJS196651:CJS196667 CTO196651:CTO196667 DDK196651:DDK196667 DNG196651:DNG196667 DXC196651:DXC196667 EGY196651:EGY196667 EQU196651:EQU196667 FAQ196651:FAQ196667 FKM196651:FKM196667 FUI196651:FUI196667 GEE196651:GEE196667 GOA196651:GOA196667 GXW196651:GXW196667 HHS196651:HHS196667 HRO196651:HRO196667 IBK196651:IBK196667 ILG196651:ILG196667 IVC196651:IVC196667 JEY196651:JEY196667 JOU196651:JOU196667 JYQ196651:JYQ196667 KIM196651:KIM196667 KSI196651:KSI196667 LCE196651:LCE196667 LMA196651:LMA196667 LVW196651:LVW196667 MFS196651:MFS196667 MPO196651:MPO196667 MZK196651:MZK196667 NJG196651:NJG196667 NTC196651:NTC196667 OCY196651:OCY196667 OMU196651:OMU196667 OWQ196651:OWQ196667 PGM196651:PGM196667 PQI196651:PQI196667 QAE196651:QAE196667 QKA196651:QKA196667 QTW196651:QTW196667 RDS196651:RDS196667 RNO196651:RNO196667 RXK196651:RXK196667 SHG196651:SHG196667 SRC196651:SRC196667 TAY196651:TAY196667 TKU196651:TKU196667 TUQ196651:TUQ196667 UEM196651:UEM196667 UOI196651:UOI196667 UYE196651:UYE196667 VIA196651:VIA196667 VRW196651:VRW196667 WBS196651:WBS196667 WLO196651:WLO196667 WVK196651:WVK196667 C327723:C327739 IY262187:IY262203 SU262187:SU262203 ACQ262187:ACQ262203 AMM262187:AMM262203 AWI262187:AWI262203 BGE262187:BGE262203 BQA262187:BQA262203 BZW262187:BZW262203 CJS262187:CJS262203 CTO262187:CTO262203 DDK262187:DDK262203 DNG262187:DNG262203 DXC262187:DXC262203 EGY262187:EGY262203 EQU262187:EQU262203 FAQ262187:FAQ262203 FKM262187:FKM262203 FUI262187:FUI262203 GEE262187:GEE262203 GOA262187:GOA262203 GXW262187:GXW262203 HHS262187:HHS262203 HRO262187:HRO262203 IBK262187:IBK262203 ILG262187:ILG262203 IVC262187:IVC262203 JEY262187:JEY262203 JOU262187:JOU262203 JYQ262187:JYQ262203 KIM262187:KIM262203 KSI262187:KSI262203 LCE262187:LCE262203 LMA262187:LMA262203 LVW262187:LVW262203 MFS262187:MFS262203 MPO262187:MPO262203 MZK262187:MZK262203 NJG262187:NJG262203 NTC262187:NTC262203 OCY262187:OCY262203 OMU262187:OMU262203 OWQ262187:OWQ262203 PGM262187:PGM262203 PQI262187:PQI262203 QAE262187:QAE262203 QKA262187:QKA262203 QTW262187:QTW262203 RDS262187:RDS262203 RNO262187:RNO262203 RXK262187:RXK262203 SHG262187:SHG262203 SRC262187:SRC262203 TAY262187:TAY262203 TKU262187:TKU262203 TUQ262187:TUQ262203 UEM262187:UEM262203 UOI262187:UOI262203 UYE262187:UYE262203 VIA262187:VIA262203 VRW262187:VRW262203 WBS262187:WBS262203 WLO262187:WLO262203 WVK262187:WVK262203 C393259:C393275 IY327723:IY327739 SU327723:SU327739 ACQ327723:ACQ327739 AMM327723:AMM327739 AWI327723:AWI327739 BGE327723:BGE327739 BQA327723:BQA327739 BZW327723:BZW327739 CJS327723:CJS327739 CTO327723:CTO327739 DDK327723:DDK327739 DNG327723:DNG327739 DXC327723:DXC327739 EGY327723:EGY327739 EQU327723:EQU327739 FAQ327723:FAQ327739 FKM327723:FKM327739 FUI327723:FUI327739 GEE327723:GEE327739 GOA327723:GOA327739 GXW327723:GXW327739 HHS327723:HHS327739 HRO327723:HRO327739 IBK327723:IBK327739 ILG327723:ILG327739 IVC327723:IVC327739 JEY327723:JEY327739 JOU327723:JOU327739 JYQ327723:JYQ327739 KIM327723:KIM327739 KSI327723:KSI327739 LCE327723:LCE327739 LMA327723:LMA327739 LVW327723:LVW327739 MFS327723:MFS327739 MPO327723:MPO327739 MZK327723:MZK327739 NJG327723:NJG327739 NTC327723:NTC327739 OCY327723:OCY327739 OMU327723:OMU327739 OWQ327723:OWQ327739 PGM327723:PGM327739 PQI327723:PQI327739 QAE327723:QAE327739 QKA327723:QKA327739 QTW327723:QTW327739 RDS327723:RDS327739 RNO327723:RNO327739 RXK327723:RXK327739 SHG327723:SHG327739 SRC327723:SRC327739 TAY327723:TAY327739 TKU327723:TKU327739 TUQ327723:TUQ327739 UEM327723:UEM327739 UOI327723:UOI327739 UYE327723:UYE327739 VIA327723:VIA327739 VRW327723:VRW327739 WBS327723:WBS327739 WLO327723:WLO327739 WVK327723:WVK327739 C458795:C458811 IY393259:IY393275 SU393259:SU393275 ACQ393259:ACQ393275 AMM393259:AMM393275 AWI393259:AWI393275 BGE393259:BGE393275 BQA393259:BQA393275 BZW393259:BZW393275 CJS393259:CJS393275 CTO393259:CTO393275 DDK393259:DDK393275 DNG393259:DNG393275 DXC393259:DXC393275 EGY393259:EGY393275 EQU393259:EQU393275 FAQ393259:FAQ393275 FKM393259:FKM393275 FUI393259:FUI393275 GEE393259:GEE393275 GOA393259:GOA393275 GXW393259:GXW393275 HHS393259:HHS393275 HRO393259:HRO393275 IBK393259:IBK393275 ILG393259:ILG393275 IVC393259:IVC393275 JEY393259:JEY393275 JOU393259:JOU393275 JYQ393259:JYQ393275 KIM393259:KIM393275 KSI393259:KSI393275 LCE393259:LCE393275 LMA393259:LMA393275 LVW393259:LVW393275 MFS393259:MFS393275 MPO393259:MPO393275 MZK393259:MZK393275 NJG393259:NJG393275 NTC393259:NTC393275 OCY393259:OCY393275 OMU393259:OMU393275 OWQ393259:OWQ393275 PGM393259:PGM393275 PQI393259:PQI393275 QAE393259:QAE393275 QKA393259:QKA393275 QTW393259:QTW393275 RDS393259:RDS393275 RNO393259:RNO393275 RXK393259:RXK393275 SHG393259:SHG393275 SRC393259:SRC393275 TAY393259:TAY393275 TKU393259:TKU393275 TUQ393259:TUQ393275 UEM393259:UEM393275 UOI393259:UOI393275 UYE393259:UYE393275 VIA393259:VIA393275 VRW393259:VRW393275 WBS393259:WBS393275 WLO393259:WLO393275 WVK393259:WVK393275 C524331:C524347 IY458795:IY458811 SU458795:SU458811 ACQ458795:ACQ458811 AMM458795:AMM458811 AWI458795:AWI458811 BGE458795:BGE458811 BQA458795:BQA458811 BZW458795:BZW458811 CJS458795:CJS458811 CTO458795:CTO458811 DDK458795:DDK458811 DNG458795:DNG458811 DXC458795:DXC458811 EGY458795:EGY458811 EQU458795:EQU458811 FAQ458795:FAQ458811 FKM458795:FKM458811 FUI458795:FUI458811 GEE458795:GEE458811 GOA458795:GOA458811 GXW458795:GXW458811 HHS458795:HHS458811 HRO458795:HRO458811 IBK458795:IBK458811 ILG458795:ILG458811 IVC458795:IVC458811 JEY458795:JEY458811 JOU458795:JOU458811 JYQ458795:JYQ458811 KIM458795:KIM458811 KSI458795:KSI458811 LCE458795:LCE458811 LMA458795:LMA458811 LVW458795:LVW458811 MFS458795:MFS458811 MPO458795:MPO458811 MZK458795:MZK458811 NJG458795:NJG458811 NTC458795:NTC458811 OCY458795:OCY458811 OMU458795:OMU458811 OWQ458795:OWQ458811 PGM458795:PGM458811 PQI458795:PQI458811 QAE458795:QAE458811 QKA458795:QKA458811 QTW458795:QTW458811 RDS458795:RDS458811 RNO458795:RNO458811 RXK458795:RXK458811 SHG458795:SHG458811 SRC458795:SRC458811 TAY458795:TAY458811 TKU458795:TKU458811 TUQ458795:TUQ458811 UEM458795:UEM458811 UOI458795:UOI458811 UYE458795:UYE458811 VIA458795:VIA458811 VRW458795:VRW458811 WBS458795:WBS458811 WLO458795:WLO458811 WVK458795:WVK458811 C589867:C589883 IY524331:IY524347 SU524331:SU524347 ACQ524331:ACQ524347 AMM524331:AMM524347 AWI524331:AWI524347 BGE524331:BGE524347 BQA524331:BQA524347 BZW524331:BZW524347 CJS524331:CJS524347 CTO524331:CTO524347 DDK524331:DDK524347 DNG524331:DNG524347 DXC524331:DXC524347 EGY524331:EGY524347 EQU524331:EQU524347 FAQ524331:FAQ524347 FKM524331:FKM524347 FUI524331:FUI524347 GEE524331:GEE524347 GOA524331:GOA524347 GXW524331:GXW524347 HHS524331:HHS524347 HRO524331:HRO524347 IBK524331:IBK524347 ILG524331:ILG524347 IVC524331:IVC524347 JEY524331:JEY524347 JOU524331:JOU524347 JYQ524331:JYQ524347 KIM524331:KIM524347 KSI524331:KSI524347 LCE524331:LCE524347 LMA524331:LMA524347 LVW524331:LVW524347 MFS524331:MFS524347 MPO524331:MPO524347 MZK524331:MZK524347 NJG524331:NJG524347 NTC524331:NTC524347 OCY524331:OCY524347 OMU524331:OMU524347 OWQ524331:OWQ524347 PGM524331:PGM524347 PQI524331:PQI524347 QAE524331:QAE524347 QKA524331:QKA524347 QTW524331:QTW524347 RDS524331:RDS524347 RNO524331:RNO524347 RXK524331:RXK524347 SHG524331:SHG524347 SRC524331:SRC524347 TAY524331:TAY524347 TKU524331:TKU524347 TUQ524331:TUQ524347 UEM524331:UEM524347 UOI524331:UOI524347 UYE524331:UYE524347 VIA524331:VIA524347 VRW524331:VRW524347 WBS524331:WBS524347 WLO524331:WLO524347 WVK524331:WVK524347 C655403:C655419 IY589867:IY589883 SU589867:SU589883 ACQ589867:ACQ589883 AMM589867:AMM589883 AWI589867:AWI589883 BGE589867:BGE589883 BQA589867:BQA589883 BZW589867:BZW589883 CJS589867:CJS589883 CTO589867:CTO589883 DDK589867:DDK589883 DNG589867:DNG589883 DXC589867:DXC589883 EGY589867:EGY589883 EQU589867:EQU589883 FAQ589867:FAQ589883 FKM589867:FKM589883 FUI589867:FUI589883 GEE589867:GEE589883 GOA589867:GOA589883 GXW589867:GXW589883 HHS589867:HHS589883 HRO589867:HRO589883 IBK589867:IBK589883 ILG589867:ILG589883 IVC589867:IVC589883 JEY589867:JEY589883 JOU589867:JOU589883 JYQ589867:JYQ589883 KIM589867:KIM589883 KSI589867:KSI589883 LCE589867:LCE589883 LMA589867:LMA589883 LVW589867:LVW589883 MFS589867:MFS589883 MPO589867:MPO589883 MZK589867:MZK589883 NJG589867:NJG589883 NTC589867:NTC589883 OCY589867:OCY589883 OMU589867:OMU589883 OWQ589867:OWQ589883 PGM589867:PGM589883 PQI589867:PQI589883 QAE589867:QAE589883 QKA589867:QKA589883 QTW589867:QTW589883 RDS589867:RDS589883 RNO589867:RNO589883 RXK589867:RXK589883 SHG589867:SHG589883 SRC589867:SRC589883 TAY589867:TAY589883 TKU589867:TKU589883 TUQ589867:TUQ589883 UEM589867:UEM589883 UOI589867:UOI589883 UYE589867:UYE589883 VIA589867:VIA589883 VRW589867:VRW589883 WBS589867:WBS589883 WLO589867:WLO589883 WVK589867:WVK589883 C720939:C720955 IY655403:IY655419 SU655403:SU655419 ACQ655403:ACQ655419 AMM655403:AMM655419 AWI655403:AWI655419 BGE655403:BGE655419 BQA655403:BQA655419 BZW655403:BZW655419 CJS655403:CJS655419 CTO655403:CTO655419 DDK655403:DDK655419 DNG655403:DNG655419 DXC655403:DXC655419 EGY655403:EGY655419 EQU655403:EQU655419 FAQ655403:FAQ655419 FKM655403:FKM655419 FUI655403:FUI655419 GEE655403:GEE655419 GOA655403:GOA655419 GXW655403:GXW655419 HHS655403:HHS655419 HRO655403:HRO655419 IBK655403:IBK655419 ILG655403:ILG655419 IVC655403:IVC655419 JEY655403:JEY655419 JOU655403:JOU655419 JYQ655403:JYQ655419 KIM655403:KIM655419 KSI655403:KSI655419 LCE655403:LCE655419 LMA655403:LMA655419 LVW655403:LVW655419 MFS655403:MFS655419 MPO655403:MPO655419 MZK655403:MZK655419 NJG655403:NJG655419 NTC655403:NTC655419 OCY655403:OCY655419 OMU655403:OMU655419 OWQ655403:OWQ655419 PGM655403:PGM655419 PQI655403:PQI655419 QAE655403:QAE655419 QKA655403:QKA655419 QTW655403:QTW655419 RDS655403:RDS655419 RNO655403:RNO655419 RXK655403:RXK655419 SHG655403:SHG655419 SRC655403:SRC655419 TAY655403:TAY655419 TKU655403:TKU655419 TUQ655403:TUQ655419 UEM655403:UEM655419 UOI655403:UOI655419 UYE655403:UYE655419 VIA655403:VIA655419 VRW655403:VRW655419 WBS655403:WBS655419 WLO655403:WLO655419 WVK655403:WVK655419 C786475:C786491 IY720939:IY720955 SU720939:SU720955 ACQ720939:ACQ720955 AMM720939:AMM720955 AWI720939:AWI720955 BGE720939:BGE720955 BQA720939:BQA720955 BZW720939:BZW720955 CJS720939:CJS720955 CTO720939:CTO720955 DDK720939:DDK720955 DNG720939:DNG720955 DXC720939:DXC720955 EGY720939:EGY720955 EQU720939:EQU720955 FAQ720939:FAQ720955 FKM720939:FKM720955 FUI720939:FUI720955 GEE720939:GEE720955 GOA720939:GOA720955 GXW720939:GXW720955 HHS720939:HHS720955 HRO720939:HRO720955 IBK720939:IBK720955 ILG720939:ILG720955 IVC720939:IVC720955 JEY720939:JEY720955 JOU720939:JOU720955 JYQ720939:JYQ720955 KIM720939:KIM720955 KSI720939:KSI720955 LCE720939:LCE720955 LMA720939:LMA720955 LVW720939:LVW720955 MFS720939:MFS720955 MPO720939:MPO720955 MZK720939:MZK720955 NJG720939:NJG720955 NTC720939:NTC720955 OCY720939:OCY720955 OMU720939:OMU720955 OWQ720939:OWQ720955 PGM720939:PGM720955 PQI720939:PQI720955 QAE720939:QAE720955 QKA720939:QKA720955 QTW720939:QTW720955 RDS720939:RDS720955 RNO720939:RNO720955 RXK720939:RXK720955 SHG720939:SHG720955 SRC720939:SRC720955 TAY720939:TAY720955 TKU720939:TKU720955 TUQ720939:TUQ720955 UEM720939:UEM720955 UOI720939:UOI720955 UYE720939:UYE720955 VIA720939:VIA720955 VRW720939:VRW720955 WBS720939:WBS720955 WLO720939:WLO720955 WVK720939:WVK720955 C852011:C852027 IY786475:IY786491 SU786475:SU786491 ACQ786475:ACQ786491 AMM786475:AMM786491 AWI786475:AWI786491 BGE786475:BGE786491 BQA786475:BQA786491 BZW786475:BZW786491 CJS786475:CJS786491 CTO786475:CTO786491 DDK786475:DDK786491 DNG786475:DNG786491 DXC786475:DXC786491 EGY786475:EGY786491 EQU786475:EQU786491 FAQ786475:FAQ786491 FKM786475:FKM786491 FUI786475:FUI786491 GEE786475:GEE786491 GOA786475:GOA786491 GXW786475:GXW786491 HHS786475:HHS786491 HRO786475:HRO786491 IBK786475:IBK786491 ILG786475:ILG786491 IVC786475:IVC786491 JEY786475:JEY786491 JOU786475:JOU786491 JYQ786475:JYQ786491 KIM786475:KIM786491 KSI786475:KSI786491 LCE786475:LCE786491 LMA786475:LMA786491 LVW786475:LVW786491 MFS786475:MFS786491 MPO786475:MPO786491 MZK786475:MZK786491 NJG786475:NJG786491 NTC786475:NTC786491 OCY786475:OCY786491 OMU786475:OMU786491 OWQ786475:OWQ786491 PGM786475:PGM786491 PQI786475:PQI786491 QAE786475:QAE786491 QKA786475:QKA786491 QTW786475:QTW786491 RDS786475:RDS786491 RNO786475:RNO786491 RXK786475:RXK786491 SHG786475:SHG786491 SRC786475:SRC786491 TAY786475:TAY786491 TKU786475:TKU786491 TUQ786475:TUQ786491 UEM786475:UEM786491 UOI786475:UOI786491 UYE786475:UYE786491 VIA786475:VIA786491 VRW786475:VRW786491 WBS786475:WBS786491 WLO786475:WLO786491 WVK786475:WVK786491 C917547:C917563 IY852011:IY852027 SU852011:SU852027 ACQ852011:ACQ852027 AMM852011:AMM852027 AWI852011:AWI852027 BGE852011:BGE852027 BQA852011:BQA852027 BZW852011:BZW852027 CJS852011:CJS852027 CTO852011:CTO852027 DDK852011:DDK852027 DNG852011:DNG852027 DXC852011:DXC852027 EGY852011:EGY852027 EQU852011:EQU852027 FAQ852011:FAQ852027 FKM852011:FKM852027 FUI852011:FUI852027 GEE852011:GEE852027 GOA852011:GOA852027 GXW852011:GXW852027 HHS852011:HHS852027 HRO852011:HRO852027 IBK852011:IBK852027 ILG852011:ILG852027 IVC852011:IVC852027 JEY852011:JEY852027 JOU852011:JOU852027 JYQ852011:JYQ852027 KIM852011:KIM852027 KSI852011:KSI852027 LCE852011:LCE852027 LMA852011:LMA852027 LVW852011:LVW852027 MFS852011:MFS852027 MPO852011:MPO852027 MZK852011:MZK852027 NJG852011:NJG852027 NTC852011:NTC852027 OCY852011:OCY852027 OMU852011:OMU852027 OWQ852011:OWQ852027 PGM852011:PGM852027 PQI852011:PQI852027 QAE852011:QAE852027 QKA852011:QKA852027 QTW852011:QTW852027 RDS852011:RDS852027 RNO852011:RNO852027 RXK852011:RXK852027 SHG852011:SHG852027 SRC852011:SRC852027 TAY852011:TAY852027 TKU852011:TKU852027 TUQ852011:TUQ852027 UEM852011:UEM852027 UOI852011:UOI852027 UYE852011:UYE852027 VIA852011:VIA852027 VRW852011:VRW852027 WBS852011:WBS852027 WLO852011:WLO852027 WVK852011:WVK852027 C983083:C983099 IY917547:IY917563 SU917547:SU917563 ACQ917547:ACQ917563 AMM917547:AMM917563 AWI917547:AWI917563 BGE917547:BGE917563 BQA917547:BQA917563 BZW917547:BZW917563 CJS917547:CJS917563 CTO917547:CTO917563 DDK917547:DDK917563 DNG917547:DNG917563 DXC917547:DXC917563 EGY917547:EGY917563 EQU917547:EQU917563 FAQ917547:FAQ917563 FKM917547:FKM917563 FUI917547:FUI917563 GEE917547:GEE917563 GOA917547:GOA917563 GXW917547:GXW917563 HHS917547:HHS917563 HRO917547:HRO917563 IBK917547:IBK917563 ILG917547:ILG917563 IVC917547:IVC917563 JEY917547:JEY917563 JOU917547:JOU917563 JYQ917547:JYQ917563 KIM917547:KIM917563 KSI917547:KSI917563 LCE917547:LCE917563 LMA917547:LMA917563 LVW917547:LVW917563 MFS917547:MFS917563 MPO917547:MPO917563 MZK917547:MZK917563 NJG917547:NJG917563 NTC917547:NTC917563 OCY917547:OCY917563 OMU917547:OMU917563 OWQ917547:OWQ917563 PGM917547:PGM917563 PQI917547:PQI917563 QAE917547:QAE917563 QKA917547:QKA917563 QTW917547:QTW917563 RDS917547:RDS917563 RNO917547:RNO917563 RXK917547:RXK917563 SHG917547:SHG917563 SRC917547:SRC917563 TAY917547:TAY917563 TKU917547:TKU917563 TUQ917547:TUQ917563 UEM917547:UEM917563 UOI917547:UOI917563 UYE917547:UYE917563 VIA917547:VIA917563 VRW917547:VRW917563 WBS917547:WBS917563 WLO917547:WLO917563 WVK917547:WVK917563 WVK983083:WVK983099 IY983083:IY983099 SU983083:SU983099 ACQ983083:ACQ983099 AMM983083:AMM983099 AWI983083:AWI983099 BGE983083:BGE983099 BQA983083:BQA983099 BZW983083:BZW983099 CJS983083:CJS983099 CTO983083:CTO983099 DDK983083:DDK983099 DNG983083:DNG983099 DXC983083:DXC983099 EGY983083:EGY983099 EQU983083:EQU983099 FAQ983083:FAQ983099 FKM983083:FKM983099 FUI983083:FUI983099 GEE983083:GEE983099 GOA983083:GOA983099 GXW983083:GXW983099 HHS983083:HHS983099 HRO983083:HRO983099 IBK983083:IBK983099 ILG983083:ILG983099 IVC983083:IVC983099 JEY983083:JEY983099 JOU983083:JOU983099 JYQ983083:JYQ983099 KIM983083:KIM983099 KSI983083:KSI983099 LCE983083:LCE983099 LMA983083:LMA983099 LVW983083:LVW983099 MFS983083:MFS983099 MPO983083:MPO983099 MZK983083:MZK983099 NJG983083:NJG983099 NTC983083:NTC983099 OCY983083:OCY983099 OMU983083:OMU983099 OWQ983083:OWQ983099 PGM983083:PGM983099 PQI983083:PQI983099 QAE983083:QAE983099 QKA983083:QKA983099 QTW983083:QTW983099 RDS983083:RDS983099 RNO983083:RNO983099 RXK983083:RXK983099 SHG983083:SHG983099 SRC983083:SRC983099 TAY983083:TAY983099 TKU983083:TKU983099 TUQ983083:TUQ983099 UEM983083:UEM983099 UOI983083:UOI983099 UYE983083:UYE983099 VIA983083:VIA983099 VRW983083:VRW983099 WBS983083:WBS983099 WLO983083:WLO983099 C65579:C65595" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131117:C131133 IY65581:IY65597 SU65581:SU65597 ACQ65581:ACQ65597 AMM65581:AMM65597 AWI65581:AWI65597 BGE65581:BGE65597 BQA65581:BQA65597 BZW65581:BZW65597 CJS65581:CJS65597 CTO65581:CTO65597 DDK65581:DDK65597 DNG65581:DNG65597 DXC65581:DXC65597 EGY65581:EGY65597 EQU65581:EQU65597 FAQ65581:FAQ65597 FKM65581:FKM65597 FUI65581:FUI65597 GEE65581:GEE65597 GOA65581:GOA65597 GXW65581:GXW65597 HHS65581:HHS65597 HRO65581:HRO65597 IBK65581:IBK65597 ILG65581:ILG65597 IVC65581:IVC65597 JEY65581:JEY65597 JOU65581:JOU65597 JYQ65581:JYQ65597 KIM65581:KIM65597 KSI65581:KSI65597 LCE65581:LCE65597 LMA65581:LMA65597 LVW65581:LVW65597 MFS65581:MFS65597 MPO65581:MPO65597 MZK65581:MZK65597 NJG65581:NJG65597 NTC65581:NTC65597 OCY65581:OCY65597 OMU65581:OMU65597 OWQ65581:OWQ65597 PGM65581:PGM65597 PQI65581:PQI65597 QAE65581:QAE65597 QKA65581:QKA65597 QTW65581:QTW65597 RDS65581:RDS65597 RNO65581:RNO65597 RXK65581:RXK65597 SHG65581:SHG65597 SRC65581:SRC65597 TAY65581:TAY65597 TKU65581:TKU65597 TUQ65581:TUQ65597 UEM65581:UEM65597 UOI65581:UOI65597 UYE65581:UYE65597 VIA65581:VIA65597 VRW65581:VRW65597 WBS65581:WBS65597 WLO65581:WLO65597 WVK65581:WVK65597 C196653:C196669 IY131117:IY131133 SU131117:SU131133 ACQ131117:ACQ131133 AMM131117:AMM131133 AWI131117:AWI131133 BGE131117:BGE131133 BQA131117:BQA131133 BZW131117:BZW131133 CJS131117:CJS131133 CTO131117:CTO131133 DDK131117:DDK131133 DNG131117:DNG131133 DXC131117:DXC131133 EGY131117:EGY131133 EQU131117:EQU131133 FAQ131117:FAQ131133 FKM131117:FKM131133 FUI131117:FUI131133 GEE131117:GEE131133 GOA131117:GOA131133 GXW131117:GXW131133 HHS131117:HHS131133 HRO131117:HRO131133 IBK131117:IBK131133 ILG131117:ILG131133 IVC131117:IVC131133 JEY131117:JEY131133 JOU131117:JOU131133 JYQ131117:JYQ131133 KIM131117:KIM131133 KSI131117:KSI131133 LCE131117:LCE131133 LMA131117:LMA131133 LVW131117:LVW131133 MFS131117:MFS131133 MPO131117:MPO131133 MZK131117:MZK131133 NJG131117:NJG131133 NTC131117:NTC131133 OCY131117:OCY131133 OMU131117:OMU131133 OWQ131117:OWQ131133 PGM131117:PGM131133 PQI131117:PQI131133 QAE131117:QAE131133 QKA131117:QKA131133 QTW131117:QTW131133 RDS131117:RDS131133 RNO131117:RNO131133 RXK131117:RXK131133 SHG131117:SHG131133 SRC131117:SRC131133 TAY131117:TAY131133 TKU131117:TKU131133 TUQ131117:TUQ131133 UEM131117:UEM131133 UOI131117:UOI131133 UYE131117:UYE131133 VIA131117:VIA131133 VRW131117:VRW131133 WBS131117:WBS131133 WLO131117:WLO131133 WVK131117:WVK131133 C262189:C262205 IY196653:IY196669 SU196653:SU196669 ACQ196653:ACQ196669 AMM196653:AMM196669 AWI196653:AWI196669 BGE196653:BGE196669 BQA196653:BQA196669 BZW196653:BZW196669 CJS196653:CJS196669 CTO196653:CTO196669 DDK196653:DDK196669 DNG196653:DNG196669 DXC196653:DXC196669 EGY196653:EGY196669 EQU196653:EQU196669 FAQ196653:FAQ196669 FKM196653:FKM196669 FUI196653:FUI196669 GEE196653:GEE196669 GOA196653:GOA196669 GXW196653:GXW196669 HHS196653:HHS196669 HRO196653:HRO196669 IBK196653:IBK196669 ILG196653:ILG196669 IVC196653:IVC196669 JEY196653:JEY196669 JOU196653:JOU196669 JYQ196653:JYQ196669 KIM196653:KIM196669 KSI196653:KSI196669 LCE196653:LCE196669 LMA196653:LMA196669 LVW196653:LVW196669 MFS196653:MFS196669 MPO196653:MPO196669 MZK196653:MZK196669 NJG196653:NJG196669 NTC196653:NTC196669 OCY196653:OCY196669 OMU196653:OMU196669 OWQ196653:OWQ196669 PGM196653:PGM196669 PQI196653:PQI196669 QAE196653:QAE196669 QKA196653:QKA196669 QTW196653:QTW196669 RDS196653:RDS196669 RNO196653:RNO196669 RXK196653:RXK196669 SHG196653:SHG196669 SRC196653:SRC196669 TAY196653:TAY196669 TKU196653:TKU196669 TUQ196653:TUQ196669 UEM196653:UEM196669 UOI196653:UOI196669 UYE196653:UYE196669 VIA196653:VIA196669 VRW196653:VRW196669 WBS196653:WBS196669 WLO196653:WLO196669 WVK196653:WVK196669 C327725:C327741 IY262189:IY262205 SU262189:SU262205 ACQ262189:ACQ262205 AMM262189:AMM262205 AWI262189:AWI262205 BGE262189:BGE262205 BQA262189:BQA262205 BZW262189:BZW262205 CJS262189:CJS262205 CTO262189:CTO262205 DDK262189:DDK262205 DNG262189:DNG262205 DXC262189:DXC262205 EGY262189:EGY262205 EQU262189:EQU262205 FAQ262189:FAQ262205 FKM262189:FKM262205 FUI262189:FUI262205 GEE262189:GEE262205 GOA262189:GOA262205 GXW262189:GXW262205 HHS262189:HHS262205 HRO262189:HRO262205 IBK262189:IBK262205 ILG262189:ILG262205 IVC262189:IVC262205 JEY262189:JEY262205 JOU262189:JOU262205 JYQ262189:JYQ262205 KIM262189:KIM262205 KSI262189:KSI262205 LCE262189:LCE262205 LMA262189:LMA262205 LVW262189:LVW262205 MFS262189:MFS262205 MPO262189:MPO262205 MZK262189:MZK262205 NJG262189:NJG262205 NTC262189:NTC262205 OCY262189:OCY262205 OMU262189:OMU262205 OWQ262189:OWQ262205 PGM262189:PGM262205 PQI262189:PQI262205 QAE262189:QAE262205 QKA262189:QKA262205 QTW262189:QTW262205 RDS262189:RDS262205 RNO262189:RNO262205 RXK262189:RXK262205 SHG262189:SHG262205 SRC262189:SRC262205 TAY262189:TAY262205 TKU262189:TKU262205 TUQ262189:TUQ262205 UEM262189:UEM262205 UOI262189:UOI262205 UYE262189:UYE262205 VIA262189:VIA262205 VRW262189:VRW262205 WBS262189:WBS262205 WLO262189:WLO262205 WVK262189:WVK262205 C393261:C393277 IY327725:IY327741 SU327725:SU327741 ACQ327725:ACQ327741 AMM327725:AMM327741 AWI327725:AWI327741 BGE327725:BGE327741 BQA327725:BQA327741 BZW327725:BZW327741 CJS327725:CJS327741 CTO327725:CTO327741 DDK327725:DDK327741 DNG327725:DNG327741 DXC327725:DXC327741 EGY327725:EGY327741 EQU327725:EQU327741 FAQ327725:FAQ327741 FKM327725:FKM327741 FUI327725:FUI327741 GEE327725:GEE327741 GOA327725:GOA327741 GXW327725:GXW327741 HHS327725:HHS327741 HRO327725:HRO327741 IBK327725:IBK327741 ILG327725:ILG327741 IVC327725:IVC327741 JEY327725:JEY327741 JOU327725:JOU327741 JYQ327725:JYQ327741 KIM327725:KIM327741 KSI327725:KSI327741 LCE327725:LCE327741 LMA327725:LMA327741 LVW327725:LVW327741 MFS327725:MFS327741 MPO327725:MPO327741 MZK327725:MZK327741 NJG327725:NJG327741 NTC327725:NTC327741 OCY327725:OCY327741 OMU327725:OMU327741 OWQ327725:OWQ327741 PGM327725:PGM327741 PQI327725:PQI327741 QAE327725:QAE327741 QKA327725:QKA327741 QTW327725:QTW327741 RDS327725:RDS327741 RNO327725:RNO327741 RXK327725:RXK327741 SHG327725:SHG327741 SRC327725:SRC327741 TAY327725:TAY327741 TKU327725:TKU327741 TUQ327725:TUQ327741 UEM327725:UEM327741 UOI327725:UOI327741 UYE327725:UYE327741 VIA327725:VIA327741 VRW327725:VRW327741 WBS327725:WBS327741 WLO327725:WLO327741 WVK327725:WVK327741 C458797:C458813 IY393261:IY393277 SU393261:SU393277 ACQ393261:ACQ393277 AMM393261:AMM393277 AWI393261:AWI393277 BGE393261:BGE393277 BQA393261:BQA393277 BZW393261:BZW393277 CJS393261:CJS393277 CTO393261:CTO393277 DDK393261:DDK393277 DNG393261:DNG393277 DXC393261:DXC393277 EGY393261:EGY393277 EQU393261:EQU393277 FAQ393261:FAQ393277 FKM393261:FKM393277 FUI393261:FUI393277 GEE393261:GEE393277 GOA393261:GOA393277 GXW393261:GXW393277 HHS393261:HHS393277 HRO393261:HRO393277 IBK393261:IBK393277 ILG393261:ILG393277 IVC393261:IVC393277 JEY393261:JEY393277 JOU393261:JOU393277 JYQ393261:JYQ393277 KIM393261:KIM393277 KSI393261:KSI393277 LCE393261:LCE393277 LMA393261:LMA393277 LVW393261:LVW393277 MFS393261:MFS393277 MPO393261:MPO393277 MZK393261:MZK393277 NJG393261:NJG393277 NTC393261:NTC393277 OCY393261:OCY393277 OMU393261:OMU393277 OWQ393261:OWQ393277 PGM393261:PGM393277 PQI393261:PQI393277 QAE393261:QAE393277 QKA393261:QKA393277 QTW393261:QTW393277 RDS393261:RDS393277 RNO393261:RNO393277 RXK393261:RXK393277 SHG393261:SHG393277 SRC393261:SRC393277 TAY393261:TAY393277 TKU393261:TKU393277 TUQ393261:TUQ393277 UEM393261:UEM393277 UOI393261:UOI393277 UYE393261:UYE393277 VIA393261:VIA393277 VRW393261:VRW393277 WBS393261:WBS393277 WLO393261:WLO393277 WVK393261:WVK393277 C524333:C524349 IY458797:IY458813 SU458797:SU458813 ACQ458797:ACQ458813 AMM458797:AMM458813 AWI458797:AWI458813 BGE458797:BGE458813 BQA458797:BQA458813 BZW458797:BZW458813 CJS458797:CJS458813 CTO458797:CTO458813 DDK458797:DDK458813 DNG458797:DNG458813 DXC458797:DXC458813 EGY458797:EGY458813 EQU458797:EQU458813 FAQ458797:FAQ458813 FKM458797:FKM458813 FUI458797:FUI458813 GEE458797:GEE458813 GOA458797:GOA458813 GXW458797:GXW458813 HHS458797:HHS458813 HRO458797:HRO458813 IBK458797:IBK458813 ILG458797:ILG458813 IVC458797:IVC458813 JEY458797:JEY458813 JOU458797:JOU458813 JYQ458797:JYQ458813 KIM458797:KIM458813 KSI458797:KSI458813 LCE458797:LCE458813 LMA458797:LMA458813 LVW458797:LVW458813 MFS458797:MFS458813 MPO458797:MPO458813 MZK458797:MZK458813 NJG458797:NJG458813 NTC458797:NTC458813 OCY458797:OCY458813 OMU458797:OMU458813 OWQ458797:OWQ458813 PGM458797:PGM458813 PQI458797:PQI458813 QAE458797:QAE458813 QKA458797:QKA458813 QTW458797:QTW458813 RDS458797:RDS458813 RNO458797:RNO458813 RXK458797:RXK458813 SHG458797:SHG458813 SRC458797:SRC458813 TAY458797:TAY458813 TKU458797:TKU458813 TUQ458797:TUQ458813 UEM458797:UEM458813 UOI458797:UOI458813 UYE458797:UYE458813 VIA458797:VIA458813 VRW458797:VRW458813 WBS458797:WBS458813 WLO458797:WLO458813 WVK458797:WVK458813 C589869:C589885 IY524333:IY524349 SU524333:SU524349 ACQ524333:ACQ524349 AMM524333:AMM524349 AWI524333:AWI524349 BGE524333:BGE524349 BQA524333:BQA524349 BZW524333:BZW524349 CJS524333:CJS524349 CTO524333:CTO524349 DDK524333:DDK524349 DNG524333:DNG524349 DXC524333:DXC524349 EGY524333:EGY524349 EQU524333:EQU524349 FAQ524333:FAQ524349 FKM524333:FKM524349 FUI524333:FUI524349 GEE524333:GEE524349 GOA524333:GOA524349 GXW524333:GXW524349 HHS524333:HHS524349 HRO524333:HRO524349 IBK524333:IBK524349 ILG524333:ILG524349 IVC524333:IVC524349 JEY524333:JEY524349 JOU524333:JOU524349 JYQ524333:JYQ524349 KIM524333:KIM524349 KSI524333:KSI524349 LCE524333:LCE524349 LMA524333:LMA524349 LVW524333:LVW524349 MFS524333:MFS524349 MPO524333:MPO524349 MZK524333:MZK524349 NJG524333:NJG524349 NTC524333:NTC524349 OCY524333:OCY524349 OMU524333:OMU524349 OWQ524333:OWQ524349 PGM524333:PGM524349 PQI524333:PQI524349 QAE524333:QAE524349 QKA524333:QKA524349 QTW524333:QTW524349 RDS524333:RDS524349 RNO524333:RNO524349 RXK524333:RXK524349 SHG524333:SHG524349 SRC524333:SRC524349 TAY524333:TAY524349 TKU524333:TKU524349 TUQ524333:TUQ524349 UEM524333:UEM524349 UOI524333:UOI524349 UYE524333:UYE524349 VIA524333:VIA524349 VRW524333:VRW524349 WBS524333:WBS524349 WLO524333:WLO524349 WVK524333:WVK524349 C655405:C655421 IY589869:IY589885 SU589869:SU589885 ACQ589869:ACQ589885 AMM589869:AMM589885 AWI589869:AWI589885 BGE589869:BGE589885 BQA589869:BQA589885 BZW589869:BZW589885 CJS589869:CJS589885 CTO589869:CTO589885 DDK589869:DDK589885 DNG589869:DNG589885 DXC589869:DXC589885 EGY589869:EGY589885 EQU589869:EQU589885 FAQ589869:FAQ589885 FKM589869:FKM589885 FUI589869:FUI589885 GEE589869:GEE589885 GOA589869:GOA589885 GXW589869:GXW589885 HHS589869:HHS589885 HRO589869:HRO589885 IBK589869:IBK589885 ILG589869:ILG589885 IVC589869:IVC589885 JEY589869:JEY589885 JOU589869:JOU589885 JYQ589869:JYQ589885 KIM589869:KIM589885 KSI589869:KSI589885 LCE589869:LCE589885 LMA589869:LMA589885 LVW589869:LVW589885 MFS589869:MFS589885 MPO589869:MPO589885 MZK589869:MZK589885 NJG589869:NJG589885 NTC589869:NTC589885 OCY589869:OCY589885 OMU589869:OMU589885 OWQ589869:OWQ589885 PGM589869:PGM589885 PQI589869:PQI589885 QAE589869:QAE589885 QKA589869:QKA589885 QTW589869:QTW589885 RDS589869:RDS589885 RNO589869:RNO589885 RXK589869:RXK589885 SHG589869:SHG589885 SRC589869:SRC589885 TAY589869:TAY589885 TKU589869:TKU589885 TUQ589869:TUQ589885 UEM589869:UEM589885 UOI589869:UOI589885 UYE589869:UYE589885 VIA589869:VIA589885 VRW589869:VRW589885 WBS589869:WBS589885 WLO589869:WLO589885 WVK589869:WVK589885 C720941:C720957 IY655405:IY655421 SU655405:SU655421 ACQ655405:ACQ655421 AMM655405:AMM655421 AWI655405:AWI655421 BGE655405:BGE655421 BQA655405:BQA655421 BZW655405:BZW655421 CJS655405:CJS655421 CTO655405:CTO655421 DDK655405:DDK655421 DNG655405:DNG655421 DXC655405:DXC655421 EGY655405:EGY655421 EQU655405:EQU655421 FAQ655405:FAQ655421 FKM655405:FKM655421 FUI655405:FUI655421 GEE655405:GEE655421 GOA655405:GOA655421 GXW655405:GXW655421 HHS655405:HHS655421 HRO655405:HRO655421 IBK655405:IBK655421 ILG655405:ILG655421 IVC655405:IVC655421 JEY655405:JEY655421 JOU655405:JOU655421 JYQ655405:JYQ655421 KIM655405:KIM655421 KSI655405:KSI655421 LCE655405:LCE655421 LMA655405:LMA655421 LVW655405:LVW655421 MFS655405:MFS655421 MPO655405:MPO655421 MZK655405:MZK655421 NJG655405:NJG655421 NTC655405:NTC655421 OCY655405:OCY655421 OMU655405:OMU655421 OWQ655405:OWQ655421 PGM655405:PGM655421 PQI655405:PQI655421 QAE655405:QAE655421 QKA655405:QKA655421 QTW655405:QTW655421 RDS655405:RDS655421 RNO655405:RNO655421 RXK655405:RXK655421 SHG655405:SHG655421 SRC655405:SRC655421 TAY655405:TAY655421 TKU655405:TKU655421 TUQ655405:TUQ655421 UEM655405:UEM655421 UOI655405:UOI655421 UYE655405:UYE655421 VIA655405:VIA655421 VRW655405:VRW655421 WBS655405:WBS655421 WLO655405:WLO655421 WVK655405:WVK655421 C786477:C786493 IY720941:IY720957 SU720941:SU720957 ACQ720941:ACQ720957 AMM720941:AMM720957 AWI720941:AWI720957 BGE720941:BGE720957 BQA720941:BQA720957 BZW720941:BZW720957 CJS720941:CJS720957 CTO720941:CTO720957 DDK720941:DDK720957 DNG720941:DNG720957 DXC720941:DXC720957 EGY720941:EGY720957 EQU720941:EQU720957 FAQ720941:FAQ720957 FKM720941:FKM720957 FUI720941:FUI720957 GEE720941:GEE720957 GOA720941:GOA720957 GXW720941:GXW720957 HHS720941:HHS720957 HRO720941:HRO720957 IBK720941:IBK720957 ILG720941:ILG720957 IVC720941:IVC720957 JEY720941:JEY720957 JOU720941:JOU720957 JYQ720941:JYQ720957 KIM720941:KIM720957 KSI720941:KSI720957 LCE720941:LCE720957 LMA720941:LMA720957 LVW720941:LVW720957 MFS720941:MFS720957 MPO720941:MPO720957 MZK720941:MZK720957 NJG720941:NJG720957 NTC720941:NTC720957 OCY720941:OCY720957 OMU720941:OMU720957 OWQ720941:OWQ720957 PGM720941:PGM720957 PQI720941:PQI720957 QAE720941:QAE720957 QKA720941:QKA720957 QTW720941:QTW720957 RDS720941:RDS720957 RNO720941:RNO720957 RXK720941:RXK720957 SHG720941:SHG720957 SRC720941:SRC720957 TAY720941:TAY720957 TKU720941:TKU720957 TUQ720941:TUQ720957 UEM720941:UEM720957 UOI720941:UOI720957 UYE720941:UYE720957 VIA720941:VIA720957 VRW720941:VRW720957 WBS720941:WBS720957 WLO720941:WLO720957 WVK720941:WVK720957 C852013:C852029 IY786477:IY786493 SU786477:SU786493 ACQ786477:ACQ786493 AMM786477:AMM786493 AWI786477:AWI786493 BGE786477:BGE786493 BQA786477:BQA786493 BZW786477:BZW786493 CJS786477:CJS786493 CTO786477:CTO786493 DDK786477:DDK786493 DNG786477:DNG786493 DXC786477:DXC786493 EGY786477:EGY786493 EQU786477:EQU786493 FAQ786477:FAQ786493 FKM786477:FKM786493 FUI786477:FUI786493 GEE786477:GEE786493 GOA786477:GOA786493 GXW786477:GXW786493 HHS786477:HHS786493 HRO786477:HRO786493 IBK786477:IBK786493 ILG786477:ILG786493 IVC786477:IVC786493 JEY786477:JEY786493 JOU786477:JOU786493 JYQ786477:JYQ786493 KIM786477:KIM786493 KSI786477:KSI786493 LCE786477:LCE786493 LMA786477:LMA786493 LVW786477:LVW786493 MFS786477:MFS786493 MPO786477:MPO786493 MZK786477:MZK786493 NJG786477:NJG786493 NTC786477:NTC786493 OCY786477:OCY786493 OMU786477:OMU786493 OWQ786477:OWQ786493 PGM786477:PGM786493 PQI786477:PQI786493 QAE786477:QAE786493 QKA786477:QKA786493 QTW786477:QTW786493 RDS786477:RDS786493 RNO786477:RNO786493 RXK786477:RXK786493 SHG786477:SHG786493 SRC786477:SRC786493 TAY786477:TAY786493 TKU786477:TKU786493 TUQ786477:TUQ786493 UEM786477:UEM786493 UOI786477:UOI786493 UYE786477:UYE786493 VIA786477:VIA786493 VRW786477:VRW786493 WBS786477:WBS786493 WLO786477:WLO786493 WVK786477:WVK786493 C917549:C917565 IY852013:IY852029 SU852013:SU852029 ACQ852013:ACQ852029 AMM852013:AMM852029 AWI852013:AWI852029 BGE852013:BGE852029 BQA852013:BQA852029 BZW852013:BZW852029 CJS852013:CJS852029 CTO852013:CTO852029 DDK852013:DDK852029 DNG852013:DNG852029 DXC852013:DXC852029 EGY852013:EGY852029 EQU852013:EQU852029 FAQ852013:FAQ852029 FKM852013:FKM852029 FUI852013:FUI852029 GEE852013:GEE852029 GOA852013:GOA852029 GXW852013:GXW852029 HHS852013:HHS852029 HRO852013:HRO852029 IBK852013:IBK852029 ILG852013:ILG852029 IVC852013:IVC852029 JEY852013:JEY852029 JOU852013:JOU852029 JYQ852013:JYQ852029 KIM852013:KIM852029 KSI852013:KSI852029 LCE852013:LCE852029 LMA852013:LMA852029 LVW852013:LVW852029 MFS852013:MFS852029 MPO852013:MPO852029 MZK852013:MZK852029 NJG852013:NJG852029 NTC852013:NTC852029 OCY852013:OCY852029 OMU852013:OMU852029 OWQ852013:OWQ852029 PGM852013:PGM852029 PQI852013:PQI852029 QAE852013:QAE852029 QKA852013:QKA852029 QTW852013:QTW852029 RDS852013:RDS852029 RNO852013:RNO852029 RXK852013:RXK852029 SHG852013:SHG852029 SRC852013:SRC852029 TAY852013:TAY852029 TKU852013:TKU852029 TUQ852013:TUQ852029 UEM852013:UEM852029 UOI852013:UOI852029 UYE852013:UYE852029 VIA852013:VIA852029 VRW852013:VRW852029 WBS852013:WBS852029 WLO852013:WLO852029 WVK852013:WVK852029 C983085:C983101 IY917549:IY917565 SU917549:SU917565 ACQ917549:ACQ917565 AMM917549:AMM917565 AWI917549:AWI917565 BGE917549:BGE917565 BQA917549:BQA917565 BZW917549:BZW917565 CJS917549:CJS917565 CTO917549:CTO917565 DDK917549:DDK917565 DNG917549:DNG917565 DXC917549:DXC917565 EGY917549:EGY917565 EQU917549:EQU917565 FAQ917549:FAQ917565 FKM917549:FKM917565 FUI917549:FUI917565 GEE917549:GEE917565 GOA917549:GOA917565 GXW917549:GXW917565 HHS917549:HHS917565 HRO917549:HRO917565 IBK917549:IBK917565 ILG917549:ILG917565 IVC917549:IVC917565 JEY917549:JEY917565 JOU917549:JOU917565 JYQ917549:JYQ917565 KIM917549:KIM917565 KSI917549:KSI917565 LCE917549:LCE917565 LMA917549:LMA917565 LVW917549:LVW917565 MFS917549:MFS917565 MPO917549:MPO917565 MZK917549:MZK917565 NJG917549:NJG917565 NTC917549:NTC917565 OCY917549:OCY917565 OMU917549:OMU917565 OWQ917549:OWQ917565 PGM917549:PGM917565 PQI917549:PQI917565 QAE917549:QAE917565 QKA917549:QKA917565 QTW917549:QTW917565 RDS917549:RDS917565 RNO917549:RNO917565 RXK917549:RXK917565 SHG917549:SHG917565 SRC917549:SRC917565 TAY917549:TAY917565 TKU917549:TKU917565 TUQ917549:TUQ917565 UEM917549:UEM917565 UOI917549:UOI917565 UYE917549:UYE917565 VIA917549:VIA917565 VRW917549:VRW917565 WBS917549:WBS917565 WLO917549:WLO917565 WVK917549:WVK917565 WVK983085:WVK983101 IY983085:IY983101 SU983085:SU983101 ACQ983085:ACQ983101 AMM983085:AMM983101 AWI983085:AWI983101 BGE983085:BGE983101 BQA983085:BQA983101 BZW983085:BZW983101 CJS983085:CJS983101 CTO983085:CTO983101 DDK983085:DDK983101 DNG983085:DNG983101 DXC983085:DXC983101 EGY983085:EGY983101 EQU983085:EQU983101 FAQ983085:FAQ983101 FKM983085:FKM983101 FUI983085:FUI983101 GEE983085:GEE983101 GOA983085:GOA983101 GXW983085:GXW983101 HHS983085:HHS983101 HRO983085:HRO983101 IBK983085:IBK983101 ILG983085:ILG983101 IVC983085:IVC983101 JEY983085:JEY983101 JOU983085:JOU983101 JYQ983085:JYQ983101 KIM983085:KIM983101 KSI983085:KSI983101 LCE983085:LCE983101 LMA983085:LMA983101 LVW983085:LVW983101 MFS983085:MFS983101 MPO983085:MPO983101 MZK983085:MZK983101 NJG983085:NJG983101 NTC983085:NTC983101 OCY983085:OCY983101 OMU983085:OMU983101 OWQ983085:OWQ983101 PGM983085:PGM983101 PQI983085:PQI983101 QAE983085:QAE983101 QKA983085:QKA983101 QTW983085:QTW983101 RDS983085:RDS983101 RNO983085:RNO983101 RXK983085:RXK983101 SHG983085:SHG983101 SRC983085:SRC983101 TAY983085:TAY983101 TKU983085:TKU983101 TUQ983085:TUQ983101 UEM983085:UEM983101 UOI983085:UOI983101 UYE983085:UYE983101 VIA983085:VIA983101 VRW983085:VRW983101 WBS983085:WBS983101 WLO983085:WLO983101 C65581:C65597" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65579:F65612 JB65579:JB65612 SX65579:SX65612 ACT65579:ACT65612 AMP65579:AMP65612 AWL65579:AWL65612 BGH65579:BGH65612 BQD65579:BQD65612 BZZ65579:BZZ65612 CJV65579:CJV65612 CTR65579:CTR65612 DDN65579:DDN65612 DNJ65579:DNJ65612 DXF65579:DXF65612 EHB65579:EHB65612 EQX65579:EQX65612 FAT65579:FAT65612 FKP65579:FKP65612 FUL65579:FUL65612 GEH65579:GEH65612 GOD65579:GOD65612 GXZ65579:GXZ65612 HHV65579:HHV65612 HRR65579:HRR65612 IBN65579:IBN65612 ILJ65579:ILJ65612 IVF65579:IVF65612 JFB65579:JFB65612 JOX65579:JOX65612 JYT65579:JYT65612 KIP65579:KIP65612 KSL65579:KSL65612 LCH65579:LCH65612 LMD65579:LMD65612 LVZ65579:LVZ65612 MFV65579:MFV65612 MPR65579:MPR65612 MZN65579:MZN65612 NJJ65579:NJJ65612 NTF65579:NTF65612 ODB65579:ODB65612 OMX65579:OMX65612 OWT65579:OWT65612 PGP65579:PGP65612 PQL65579:PQL65612 QAH65579:QAH65612 QKD65579:QKD65612 QTZ65579:QTZ65612 RDV65579:RDV65612 RNR65579:RNR65612 RXN65579:RXN65612 SHJ65579:SHJ65612 SRF65579:SRF65612 TBB65579:TBB65612 TKX65579:TKX65612 TUT65579:TUT65612 UEP65579:UEP65612 UOL65579:UOL65612 UYH65579:UYH65612 VID65579:VID65612 VRZ65579:VRZ65612 WBV65579:WBV65612 WLR65579:WLR65612 WVN65579:WVN65612 F131115:F131148 JB131115:JB131148 SX131115:SX131148 ACT131115:ACT131148 AMP131115:AMP131148 AWL131115:AWL131148 BGH131115:BGH131148 BQD131115:BQD131148 BZZ131115:BZZ131148 CJV131115:CJV131148 CTR131115:CTR131148 DDN131115:DDN131148 DNJ131115:DNJ131148 DXF131115:DXF131148 EHB131115:EHB131148 EQX131115:EQX131148 FAT131115:FAT131148 FKP131115:FKP131148 FUL131115:FUL131148 GEH131115:GEH131148 GOD131115:GOD131148 GXZ131115:GXZ131148 HHV131115:HHV131148 HRR131115:HRR131148 IBN131115:IBN131148 ILJ131115:ILJ131148 IVF131115:IVF131148 JFB131115:JFB131148 JOX131115:JOX131148 JYT131115:JYT131148 KIP131115:KIP131148 KSL131115:KSL131148 LCH131115:LCH131148 LMD131115:LMD131148 LVZ131115:LVZ131148 MFV131115:MFV131148 MPR131115:MPR131148 MZN131115:MZN131148 NJJ131115:NJJ131148 NTF131115:NTF131148 ODB131115:ODB131148 OMX131115:OMX131148 OWT131115:OWT131148 PGP131115:PGP131148 PQL131115:PQL131148 QAH131115:QAH131148 QKD131115:QKD131148 QTZ131115:QTZ131148 RDV131115:RDV131148 RNR131115:RNR131148 RXN131115:RXN131148 SHJ131115:SHJ131148 SRF131115:SRF131148 TBB131115:TBB131148 TKX131115:TKX131148 TUT131115:TUT131148 UEP131115:UEP131148 UOL131115:UOL131148 UYH131115:UYH131148 VID131115:VID131148 VRZ131115:VRZ131148 WBV131115:WBV131148 WLR131115:WLR131148 WVN131115:WVN131148 F196651:F196684 JB196651:JB196684 SX196651:SX196684 ACT196651:ACT196684 AMP196651:AMP196684 AWL196651:AWL196684 BGH196651:BGH196684 BQD196651:BQD196684 BZZ196651:BZZ196684 CJV196651:CJV196684 CTR196651:CTR196684 DDN196651:DDN196684 DNJ196651:DNJ196684 DXF196651:DXF196684 EHB196651:EHB196684 EQX196651:EQX196684 FAT196651:FAT196684 FKP196651:FKP196684 FUL196651:FUL196684 GEH196651:GEH196684 GOD196651:GOD196684 GXZ196651:GXZ196684 HHV196651:HHV196684 HRR196651:HRR196684 IBN196651:IBN196684 ILJ196651:ILJ196684 IVF196651:IVF196684 JFB196651:JFB196684 JOX196651:JOX196684 JYT196651:JYT196684 KIP196651:KIP196684 KSL196651:KSL196684 LCH196651:LCH196684 LMD196651:LMD196684 LVZ196651:LVZ196684 MFV196651:MFV196684 MPR196651:MPR196684 MZN196651:MZN196684 NJJ196651:NJJ196684 NTF196651:NTF196684 ODB196651:ODB196684 OMX196651:OMX196684 OWT196651:OWT196684 PGP196651:PGP196684 PQL196651:PQL196684 QAH196651:QAH196684 QKD196651:QKD196684 QTZ196651:QTZ196684 RDV196651:RDV196684 RNR196651:RNR196684 RXN196651:RXN196684 SHJ196651:SHJ196684 SRF196651:SRF196684 TBB196651:TBB196684 TKX196651:TKX196684 TUT196651:TUT196684 UEP196651:UEP196684 UOL196651:UOL196684 UYH196651:UYH196684 VID196651:VID196684 VRZ196651:VRZ196684 WBV196651:WBV196684 WLR196651:WLR196684 WVN196651:WVN196684 F262187:F262220 JB262187:JB262220 SX262187:SX262220 ACT262187:ACT262220 AMP262187:AMP262220 AWL262187:AWL262220 BGH262187:BGH262220 BQD262187:BQD262220 BZZ262187:BZZ262220 CJV262187:CJV262220 CTR262187:CTR262220 DDN262187:DDN262220 DNJ262187:DNJ262220 DXF262187:DXF262220 EHB262187:EHB262220 EQX262187:EQX262220 FAT262187:FAT262220 FKP262187:FKP262220 FUL262187:FUL262220 GEH262187:GEH262220 GOD262187:GOD262220 GXZ262187:GXZ262220 HHV262187:HHV262220 HRR262187:HRR262220 IBN262187:IBN262220 ILJ262187:ILJ262220 IVF262187:IVF262220 JFB262187:JFB262220 JOX262187:JOX262220 JYT262187:JYT262220 KIP262187:KIP262220 KSL262187:KSL262220 LCH262187:LCH262220 LMD262187:LMD262220 LVZ262187:LVZ262220 MFV262187:MFV262220 MPR262187:MPR262220 MZN262187:MZN262220 NJJ262187:NJJ262220 NTF262187:NTF262220 ODB262187:ODB262220 OMX262187:OMX262220 OWT262187:OWT262220 PGP262187:PGP262220 PQL262187:PQL262220 QAH262187:QAH262220 QKD262187:QKD262220 QTZ262187:QTZ262220 RDV262187:RDV262220 RNR262187:RNR262220 RXN262187:RXN262220 SHJ262187:SHJ262220 SRF262187:SRF262220 TBB262187:TBB262220 TKX262187:TKX262220 TUT262187:TUT262220 UEP262187:UEP262220 UOL262187:UOL262220 UYH262187:UYH262220 VID262187:VID262220 VRZ262187:VRZ262220 WBV262187:WBV262220 WLR262187:WLR262220 WVN262187:WVN262220 F327723:F327756 JB327723:JB327756 SX327723:SX327756 ACT327723:ACT327756 AMP327723:AMP327756 AWL327723:AWL327756 BGH327723:BGH327756 BQD327723:BQD327756 BZZ327723:BZZ327756 CJV327723:CJV327756 CTR327723:CTR327756 DDN327723:DDN327756 DNJ327723:DNJ327756 DXF327723:DXF327756 EHB327723:EHB327756 EQX327723:EQX327756 FAT327723:FAT327756 FKP327723:FKP327756 FUL327723:FUL327756 GEH327723:GEH327756 GOD327723:GOD327756 GXZ327723:GXZ327756 HHV327723:HHV327756 HRR327723:HRR327756 IBN327723:IBN327756 ILJ327723:ILJ327756 IVF327723:IVF327756 JFB327723:JFB327756 JOX327723:JOX327756 JYT327723:JYT327756 KIP327723:KIP327756 KSL327723:KSL327756 LCH327723:LCH327756 LMD327723:LMD327756 LVZ327723:LVZ327756 MFV327723:MFV327756 MPR327723:MPR327756 MZN327723:MZN327756 NJJ327723:NJJ327756 NTF327723:NTF327756 ODB327723:ODB327756 OMX327723:OMX327756 OWT327723:OWT327756 PGP327723:PGP327756 PQL327723:PQL327756 QAH327723:QAH327756 QKD327723:QKD327756 QTZ327723:QTZ327756 RDV327723:RDV327756 RNR327723:RNR327756 RXN327723:RXN327756 SHJ327723:SHJ327756 SRF327723:SRF327756 TBB327723:TBB327756 TKX327723:TKX327756 TUT327723:TUT327756 UEP327723:UEP327756 UOL327723:UOL327756 UYH327723:UYH327756 VID327723:VID327756 VRZ327723:VRZ327756 WBV327723:WBV327756 WLR327723:WLR327756 WVN327723:WVN327756 F393259:F393292 JB393259:JB393292 SX393259:SX393292 ACT393259:ACT393292 AMP393259:AMP393292 AWL393259:AWL393292 BGH393259:BGH393292 BQD393259:BQD393292 BZZ393259:BZZ393292 CJV393259:CJV393292 CTR393259:CTR393292 DDN393259:DDN393292 DNJ393259:DNJ393292 DXF393259:DXF393292 EHB393259:EHB393292 EQX393259:EQX393292 FAT393259:FAT393292 FKP393259:FKP393292 FUL393259:FUL393292 GEH393259:GEH393292 GOD393259:GOD393292 GXZ393259:GXZ393292 HHV393259:HHV393292 HRR393259:HRR393292 IBN393259:IBN393292 ILJ393259:ILJ393292 IVF393259:IVF393292 JFB393259:JFB393292 JOX393259:JOX393292 JYT393259:JYT393292 KIP393259:KIP393292 KSL393259:KSL393292 LCH393259:LCH393292 LMD393259:LMD393292 LVZ393259:LVZ393292 MFV393259:MFV393292 MPR393259:MPR393292 MZN393259:MZN393292 NJJ393259:NJJ393292 NTF393259:NTF393292 ODB393259:ODB393292 OMX393259:OMX393292 OWT393259:OWT393292 PGP393259:PGP393292 PQL393259:PQL393292 QAH393259:QAH393292 QKD393259:QKD393292 QTZ393259:QTZ393292 RDV393259:RDV393292 RNR393259:RNR393292 RXN393259:RXN393292 SHJ393259:SHJ393292 SRF393259:SRF393292 TBB393259:TBB393292 TKX393259:TKX393292 TUT393259:TUT393292 UEP393259:UEP393292 UOL393259:UOL393292 UYH393259:UYH393292 VID393259:VID393292 VRZ393259:VRZ393292 WBV393259:WBV393292 WLR393259:WLR393292 WVN393259:WVN393292 F458795:F458828 JB458795:JB458828 SX458795:SX458828 ACT458795:ACT458828 AMP458795:AMP458828 AWL458795:AWL458828 BGH458795:BGH458828 BQD458795:BQD458828 BZZ458795:BZZ458828 CJV458795:CJV458828 CTR458795:CTR458828 DDN458795:DDN458828 DNJ458795:DNJ458828 DXF458795:DXF458828 EHB458795:EHB458828 EQX458795:EQX458828 FAT458795:FAT458828 FKP458795:FKP458828 FUL458795:FUL458828 GEH458795:GEH458828 GOD458795:GOD458828 GXZ458795:GXZ458828 HHV458795:HHV458828 HRR458795:HRR458828 IBN458795:IBN458828 ILJ458795:ILJ458828 IVF458795:IVF458828 JFB458795:JFB458828 JOX458795:JOX458828 JYT458795:JYT458828 KIP458795:KIP458828 KSL458795:KSL458828 LCH458795:LCH458828 LMD458795:LMD458828 LVZ458795:LVZ458828 MFV458795:MFV458828 MPR458795:MPR458828 MZN458795:MZN458828 NJJ458795:NJJ458828 NTF458795:NTF458828 ODB458795:ODB458828 OMX458795:OMX458828 OWT458795:OWT458828 PGP458795:PGP458828 PQL458795:PQL458828 QAH458795:QAH458828 QKD458795:QKD458828 QTZ458795:QTZ458828 RDV458795:RDV458828 RNR458795:RNR458828 RXN458795:RXN458828 SHJ458795:SHJ458828 SRF458795:SRF458828 TBB458795:TBB458828 TKX458795:TKX458828 TUT458795:TUT458828 UEP458795:UEP458828 UOL458795:UOL458828 UYH458795:UYH458828 VID458795:VID458828 VRZ458795:VRZ458828 WBV458795:WBV458828 WLR458795:WLR458828 WVN458795:WVN458828 F524331:F524364 JB524331:JB524364 SX524331:SX524364 ACT524331:ACT524364 AMP524331:AMP524364 AWL524331:AWL524364 BGH524331:BGH524364 BQD524331:BQD524364 BZZ524331:BZZ524364 CJV524331:CJV524364 CTR524331:CTR524364 DDN524331:DDN524364 DNJ524331:DNJ524364 DXF524331:DXF524364 EHB524331:EHB524364 EQX524331:EQX524364 FAT524331:FAT524364 FKP524331:FKP524364 FUL524331:FUL524364 GEH524331:GEH524364 GOD524331:GOD524364 GXZ524331:GXZ524364 HHV524331:HHV524364 HRR524331:HRR524364 IBN524331:IBN524364 ILJ524331:ILJ524364 IVF524331:IVF524364 JFB524331:JFB524364 JOX524331:JOX524364 JYT524331:JYT524364 KIP524331:KIP524364 KSL524331:KSL524364 LCH524331:LCH524364 LMD524331:LMD524364 LVZ524331:LVZ524364 MFV524331:MFV524364 MPR524331:MPR524364 MZN524331:MZN524364 NJJ524331:NJJ524364 NTF524331:NTF524364 ODB524331:ODB524364 OMX524331:OMX524364 OWT524331:OWT524364 PGP524331:PGP524364 PQL524331:PQL524364 QAH524331:QAH524364 QKD524331:QKD524364 QTZ524331:QTZ524364 RDV524331:RDV524364 RNR524331:RNR524364 RXN524331:RXN524364 SHJ524331:SHJ524364 SRF524331:SRF524364 TBB524331:TBB524364 TKX524331:TKX524364 TUT524331:TUT524364 UEP524331:UEP524364 UOL524331:UOL524364 UYH524331:UYH524364 VID524331:VID524364 VRZ524331:VRZ524364 WBV524331:WBV524364 WLR524331:WLR524364 WVN524331:WVN524364 F589867:F589900 JB589867:JB589900 SX589867:SX589900 ACT589867:ACT589900 AMP589867:AMP589900 AWL589867:AWL589900 BGH589867:BGH589900 BQD589867:BQD589900 BZZ589867:BZZ589900 CJV589867:CJV589900 CTR589867:CTR589900 DDN589867:DDN589900 DNJ589867:DNJ589900 DXF589867:DXF589900 EHB589867:EHB589900 EQX589867:EQX589900 FAT589867:FAT589900 FKP589867:FKP589900 FUL589867:FUL589900 GEH589867:GEH589900 GOD589867:GOD589900 GXZ589867:GXZ589900 HHV589867:HHV589900 HRR589867:HRR589900 IBN589867:IBN589900 ILJ589867:ILJ589900 IVF589867:IVF589900 JFB589867:JFB589900 JOX589867:JOX589900 JYT589867:JYT589900 KIP589867:KIP589900 KSL589867:KSL589900 LCH589867:LCH589900 LMD589867:LMD589900 LVZ589867:LVZ589900 MFV589867:MFV589900 MPR589867:MPR589900 MZN589867:MZN589900 NJJ589867:NJJ589900 NTF589867:NTF589900 ODB589867:ODB589900 OMX589867:OMX589900 OWT589867:OWT589900 PGP589867:PGP589900 PQL589867:PQL589900 QAH589867:QAH589900 QKD589867:QKD589900 QTZ589867:QTZ589900 RDV589867:RDV589900 RNR589867:RNR589900 RXN589867:RXN589900 SHJ589867:SHJ589900 SRF589867:SRF589900 TBB589867:TBB589900 TKX589867:TKX589900 TUT589867:TUT589900 UEP589867:UEP589900 UOL589867:UOL589900 UYH589867:UYH589900 VID589867:VID589900 VRZ589867:VRZ589900 WBV589867:WBV589900 WLR589867:WLR589900 WVN589867:WVN589900 F655403:F655436 JB655403:JB655436 SX655403:SX655436 ACT655403:ACT655436 AMP655403:AMP655436 AWL655403:AWL655436 BGH655403:BGH655436 BQD655403:BQD655436 BZZ655403:BZZ655436 CJV655403:CJV655436 CTR655403:CTR655436 DDN655403:DDN655436 DNJ655403:DNJ655436 DXF655403:DXF655436 EHB655403:EHB655436 EQX655403:EQX655436 FAT655403:FAT655436 FKP655403:FKP655436 FUL655403:FUL655436 GEH655403:GEH655436 GOD655403:GOD655436 GXZ655403:GXZ655436 HHV655403:HHV655436 HRR655403:HRR655436 IBN655403:IBN655436 ILJ655403:ILJ655436 IVF655403:IVF655436 JFB655403:JFB655436 JOX655403:JOX655436 JYT655403:JYT655436 KIP655403:KIP655436 KSL655403:KSL655436 LCH655403:LCH655436 LMD655403:LMD655436 LVZ655403:LVZ655436 MFV655403:MFV655436 MPR655403:MPR655436 MZN655403:MZN655436 NJJ655403:NJJ655436 NTF655403:NTF655436 ODB655403:ODB655436 OMX655403:OMX655436 OWT655403:OWT655436 PGP655403:PGP655436 PQL655403:PQL655436 QAH655403:QAH655436 QKD655403:QKD655436 QTZ655403:QTZ655436 RDV655403:RDV655436 RNR655403:RNR655436 RXN655403:RXN655436 SHJ655403:SHJ655436 SRF655403:SRF655436 TBB655403:TBB655436 TKX655403:TKX655436 TUT655403:TUT655436 UEP655403:UEP655436 UOL655403:UOL655436 UYH655403:UYH655436 VID655403:VID655436 VRZ655403:VRZ655436 WBV655403:WBV655436 WLR655403:WLR655436 WVN655403:WVN655436 F720939:F720972 JB720939:JB720972 SX720939:SX720972 ACT720939:ACT720972 AMP720939:AMP720972 AWL720939:AWL720972 BGH720939:BGH720972 BQD720939:BQD720972 BZZ720939:BZZ720972 CJV720939:CJV720972 CTR720939:CTR720972 DDN720939:DDN720972 DNJ720939:DNJ720972 DXF720939:DXF720972 EHB720939:EHB720972 EQX720939:EQX720972 FAT720939:FAT720972 FKP720939:FKP720972 FUL720939:FUL720972 GEH720939:GEH720972 GOD720939:GOD720972 GXZ720939:GXZ720972 HHV720939:HHV720972 HRR720939:HRR720972 IBN720939:IBN720972 ILJ720939:ILJ720972 IVF720939:IVF720972 JFB720939:JFB720972 JOX720939:JOX720972 JYT720939:JYT720972 KIP720939:KIP720972 KSL720939:KSL720972 LCH720939:LCH720972 LMD720939:LMD720972 LVZ720939:LVZ720972 MFV720939:MFV720972 MPR720939:MPR720972 MZN720939:MZN720972 NJJ720939:NJJ720972 NTF720939:NTF720972 ODB720939:ODB720972 OMX720939:OMX720972 OWT720939:OWT720972 PGP720939:PGP720972 PQL720939:PQL720972 QAH720939:QAH720972 QKD720939:QKD720972 QTZ720939:QTZ720972 RDV720939:RDV720972 RNR720939:RNR720972 RXN720939:RXN720972 SHJ720939:SHJ720972 SRF720939:SRF720972 TBB720939:TBB720972 TKX720939:TKX720972 TUT720939:TUT720972 UEP720939:UEP720972 UOL720939:UOL720972 UYH720939:UYH720972 VID720939:VID720972 VRZ720939:VRZ720972 WBV720939:WBV720972 WLR720939:WLR720972 WVN720939:WVN720972 F786475:F786508 JB786475:JB786508 SX786475:SX786508 ACT786475:ACT786508 AMP786475:AMP786508 AWL786475:AWL786508 BGH786475:BGH786508 BQD786475:BQD786508 BZZ786475:BZZ786508 CJV786475:CJV786508 CTR786475:CTR786508 DDN786475:DDN786508 DNJ786475:DNJ786508 DXF786475:DXF786508 EHB786475:EHB786508 EQX786475:EQX786508 FAT786475:FAT786508 FKP786475:FKP786508 FUL786475:FUL786508 GEH786475:GEH786508 GOD786475:GOD786508 GXZ786475:GXZ786508 HHV786475:HHV786508 HRR786475:HRR786508 IBN786475:IBN786508 ILJ786475:ILJ786508 IVF786475:IVF786508 JFB786475:JFB786508 JOX786475:JOX786508 JYT786475:JYT786508 KIP786475:KIP786508 KSL786475:KSL786508 LCH786475:LCH786508 LMD786475:LMD786508 LVZ786475:LVZ786508 MFV786475:MFV786508 MPR786475:MPR786508 MZN786475:MZN786508 NJJ786475:NJJ786508 NTF786475:NTF786508 ODB786475:ODB786508 OMX786475:OMX786508 OWT786475:OWT786508 PGP786475:PGP786508 PQL786475:PQL786508 QAH786475:QAH786508 QKD786475:QKD786508 QTZ786475:QTZ786508 RDV786475:RDV786508 RNR786475:RNR786508 RXN786475:RXN786508 SHJ786475:SHJ786508 SRF786475:SRF786508 TBB786475:TBB786508 TKX786475:TKX786508 TUT786475:TUT786508 UEP786475:UEP786508 UOL786475:UOL786508 UYH786475:UYH786508 VID786475:VID786508 VRZ786475:VRZ786508 WBV786475:WBV786508 WLR786475:WLR786508 WVN786475:WVN786508 F852011:F852044 JB852011:JB852044 SX852011:SX852044 ACT852011:ACT852044 AMP852011:AMP852044 AWL852011:AWL852044 BGH852011:BGH852044 BQD852011:BQD852044 BZZ852011:BZZ852044 CJV852011:CJV852044 CTR852011:CTR852044 DDN852011:DDN852044 DNJ852011:DNJ852044 DXF852011:DXF852044 EHB852011:EHB852044 EQX852011:EQX852044 FAT852011:FAT852044 FKP852011:FKP852044 FUL852011:FUL852044 GEH852011:GEH852044 GOD852011:GOD852044 GXZ852011:GXZ852044 HHV852011:HHV852044 HRR852011:HRR852044 IBN852011:IBN852044 ILJ852011:ILJ852044 IVF852011:IVF852044 JFB852011:JFB852044 JOX852011:JOX852044 JYT852011:JYT852044 KIP852011:KIP852044 KSL852011:KSL852044 LCH852011:LCH852044 LMD852011:LMD852044 LVZ852011:LVZ852044 MFV852011:MFV852044 MPR852011:MPR852044 MZN852011:MZN852044 NJJ852011:NJJ852044 NTF852011:NTF852044 ODB852011:ODB852044 OMX852011:OMX852044 OWT852011:OWT852044 PGP852011:PGP852044 PQL852011:PQL852044 QAH852011:QAH852044 QKD852011:QKD852044 QTZ852011:QTZ852044 RDV852011:RDV852044 RNR852011:RNR852044 RXN852011:RXN852044 SHJ852011:SHJ852044 SRF852011:SRF852044 TBB852011:TBB852044 TKX852011:TKX852044 TUT852011:TUT852044 UEP852011:UEP852044 UOL852011:UOL852044 UYH852011:UYH852044 VID852011:VID852044 VRZ852011:VRZ852044 WBV852011:WBV852044 WLR852011:WLR852044 WVN852011:WVN852044 F917547:F917580 JB917547:JB917580 SX917547:SX917580 ACT917547:ACT917580 AMP917547:AMP917580 AWL917547:AWL917580 BGH917547:BGH917580 BQD917547:BQD917580 BZZ917547:BZZ917580 CJV917547:CJV917580 CTR917547:CTR917580 DDN917547:DDN917580 DNJ917547:DNJ917580 DXF917547:DXF917580 EHB917547:EHB917580 EQX917547:EQX917580 FAT917547:FAT917580 FKP917547:FKP917580 FUL917547:FUL917580 GEH917547:GEH917580 GOD917547:GOD917580 GXZ917547:GXZ917580 HHV917547:HHV917580 HRR917547:HRR917580 IBN917547:IBN917580 ILJ917547:ILJ917580 IVF917547:IVF917580 JFB917547:JFB917580 JOX917547:JOX917580 JYT917547:JYT917580 KIP917547:KIP917580 KSL917547:KSL917580 LCH917547:LCH917580 LMD917547:LMD917580 LVZ917547:LVZ917580 MFV917547:MFV917580 MPR917547:MPR917580 MZN917547:MZN917580 NJJ917547:NJJ917580 NTF917547:NTF917580 ODB917547:ODB917580 OMX917547:OMX917580 OWT917547:OWT917580 PGP917547:PGP917580 PQL917547:PQL917580 QAH917547:QAH917580 QKD917547:QKD917580 QTZ917547:QTZ917580 RDV917547:RDV917580 RNR917547:RNR917580 RXN917547:RXN917580 SHJ917547:SHJ917580 SRF917547:SRF917580 TBB917547:TBB917580 TKX917547:TKX917580 TUT917547:TUT917580 UEP917547:UEP917580 UOL917547:UOL917580 UYH917547:UYH917580 VID917547:VID917580 VRZ917547:VRZ917580 WBV917547:WBV917580 WLR917547:WLR917580 WVN917547:WVN917580 F983083:F983116 JB983083:JB983116 SX983083:SX983116 ACT983083:ACT983116 AMP983083:AMP983116 AWL983083:AWL983116 BGH983083:BGH983116 BQD983083:BQD983116 BZZ983083:BZZ983116 CJV983083:CJV983116 CTR983083:CTR983116 DDN983083:DDN983116 DNJ983083:DNJ983116 DXF983083:DXF983116 EHB983083:EHB983116 EQX983083:EQX983116 FAT983083:FAT983116 FKP983083:FKP983116 FUL983083:FUL983116 GEH983083:GEH983116 GOD983083:GOD983116 GXZ983083:GXZ983116 HHV983083:HHV983116 HRR983083:HRR983116 IBN983083:IBN983116 ILJ983083:ILJ983116 IVF983083:IVF983116 JFB983083:JFB983116 JOX983083:JOX983116 JYT983083:JYT983116 KIP983083:KIP983116 KSL983083:KSL983116 LCH983083:LCH983116 LMD983083:LMD983116 LVZ983083:LVZ983116 MFV983083:MFV983116 MPR983083:MPR983116 MZN983083:MZN983116 NJJ983083:NJJ983116 NTF983083:NTF983116 ODB983083:ODB983116 OMX983083:OMX983116 OWT983083:OWT983116 PGP983083:PGP983116 PQL983083:PQL983116 QAH983083:QAH983116 QKD983083:QKD983116 QTZ983083:QTZ983116 RDV983083:RDV983116 RNR983083:RNR983116 RXN983083:RXN983116 SHJ983083:SHJ983116 SRF983083:SRF983116 TBB983083:TBB983116 TKX983083:TKX983116 TUT983083:TUT983116 UEP983083:UEP983116 UOL983083:UOL983116 UYH983083:UYH983116 VID983083:VID983116 VRZ983083:VRZ983116 WBV983083:WBV983116 WLR983083:WLR983116 WVN983083:WVN983116 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F597" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65581:F65614 JB65581:JB65614 SX65581:SX65614 ACT65581:ACT65614 AMP65581:AMP65614 AWL65581:AWL65614 BGH65581:BGH65614 BQD65581:BQD65614 BZZ65581:BZZ65614 CJV65581:CJV65614 CTR65581:CTR65614 DDN65581:DDN65614 DNJ65581:DNJ65614 DXF65581:DXF65614 EHB65581:EHB65614 EQX65581:EQX65614 FAT65581:FAT65614 FKP65581:FKP65614 FUL65581:FUL65614 GEH65581:GEH65614 GOD65581:GOD65614 GXZ65581:GXZ65614 HHV65581:HHV65614 HRR65581:HRR65614 IBN65581:IBN65614 ILJ65581:ILJ65614 IVF65581:IVF65614 JFB65581:JFB65614 JOX65581:JOX65614 JYT65581:JYT65614 KIP65581:KIP65614 KSL65581:KSL65614 LCH65581:LCH65614 LMD65581:LMD65614 LVZ65581:LVZ65614 MFV65581:MFV65614 MPR65581:MPR65614 MZN65581:MZN65614 NJJ65581:NJJ65614 NTF65581:NTF65614 ODB65581:ODB65614 OMX65581:OMX65614 OWT65581:OWT65614 PGP65581:PGP65614 PQL65581:PQL65614 QAH65581:QAH65614 QKD65581:QKD65614 QTZ65581:QTZ65614 RDV65581:RDV65614 RNR65581:RNR65614 RXN65581:RXN65614 SHJ65581:SHJ65614 SRF65581:SRF65614 TBB65581:TBB65614 TKX65581:TKX65614 TUT65581:TUT65614 UEP65581:UEP65614 UOL65581:UOL65614 UYH65581:UYH65614 VID65581:VID65614 VRZ65581:VRZ65614 WBV65581:WBV65614 WLR65581:WLR65614 WVN65581:WVN65614 F131117:F131150 JB131117:JB131150 SX131117:SX131150 ACT131117:ACT131150 AMP131117:AMP131150 AWL131117:AWL131150 BGH131117:BGH131150 BQD131117:BQD131150 BZZ131117:BZZ131150 CJV131117:CJV131150 CTR131117:CTR131150 DDN131117:DDN131150 DNJ131117:DNJ131150 DXF131117:DXF131150 EHB131117:EHB131150 EQX131117:EQX131150 FAT131117:FAT131150 FKP131117:FKP131150 FUL131117:FUL131150 GEH131117:GEH131150 GOD131117:GOD131150 GXZ131117:GXZ131150 HHV131117:HHV131150 HRR131117:HRR131150 IBN131117:IBN131150 ILJ131117:ILJ131150 IVF131117:IVF131150 JFB131117:JFB131150 JOX131117:JOX131150 JYT131117:JYT131150 KIP131117:KIP131150 KSL131117:KSL131150 LCH131117:LCH131150 LMD131117:LMD131150 LVZ131117:LVZ131150 MFV131117:MFV131150 MPR131117:MPR131150 MZN131117:MZN131150 NJJ131117:NJJ131150 NTF131117:NTF131150 ODB131117:ODB131150 OMX131117:OMX131150 OWT131117:OWT131150 PGP131117:PGP131150 PQL131117:PQL131150 QAH131117:QAH131150 QKD131117:QKD131150 QTZ131117:QTZ131150 RDV131117:RDV131150 RNR131117:RNR131150 RXN131117:RXN131150 SHJ131117:SHJ131150 SRF131117:SRF131150 TBB131117:TBB131150 TKX131117:TKX131150 TUT131117:TUT131150 UEP131117:UEP131150 UOL131117:UOL131150 UYH131117:UYH131150 VID131117:VID131150 VRZ131117:VRZ131150 WBV131117:WBV131150 WLR131117:WLR131150 WVN131117:WVN131150 F196653:F196686 JB196653:JB196686 SX196653:SX196686 ACT196653:ACT196686 AMP196653:AMP196686 AWL196653:AWL196686 BGH196653:BGH196686 BQD196653:BQD196686 BZZ196653:BZZ196686 CJV196653:CJV196686 CTR196653:CTR196686 DDN196653:DDN196686 DNJ196653:DNJ196686 DXF196653:DXF196686 EHB196653:EHB196686 EQX196653:EQX196686 FAT196653:FAT196686 FKP196653:FKP196686 FUL196653:FUL196686 GEH196653:GEH196686 GOD196653:GOD196686 GXZ196653:GXZ196686 HHV196653:HHV196686 HRR196653:HRR196686 IBN196653:IBN196686 ILJ196653:ILJ196686 IVF196653:IVF196686 JFB196653:JFB196686 JOX196653:JOX196686 JYT196653:JYT196686 KIP196653:KIP196686 KSL196653:KSL196686 LCH196653:LCH196686 LMD196653:LMD196686 LVZ196653:LVZ196686 MFV196653:MFV196686 MPR196653:MPR196686 MZN196653:MZN196686 NJJ196653:NJJ196686 NTF196653:NTF196686 ODB196653:ODB196686 OMX196653:OMX196686 OWT196653:OWT196686 PGP196653:PGP196686 PQL196653:PQL196686 QAH196653:QAH196686 QKD196653:QKD196686 QTZ196653:QTZ196686 RDV196653:RDV196686 RNR196653:RNR196686 RXN196653:RXN196686 SHJ196653:SHJ196686 SRF196653:SRF196686 TBB196653:TBB196686 TKX196653:TKX196686 TUT196653:TUT196686 UEP196653:UEP196686 UOL196653:UOL196686 UYH196653:UYH196686 VID196653:VID196686 VRZ196653:VRZ196686 WBV196653:WBV196686 WLR196653:WLR196686 WVN196653:WVN196686 F262189:F262222 JB262189:JB262222 SX262189:SX262222 ACT262189:ACT262222 AMP262189:AMP262222 AWL262189:AWL262222 BGH262189:BGH262222 BQD262189:BQD262222 BZZ262189:BZZ262222 CJV262189:CJV262222 CTR262189:CTR262222 DDN262189:DDN262222 DNJ262189:DNJ262222 DXF262189:DXF262222 EHB262189:EHB262222 EQX262189:EQX262222 FAT262189:FAT262222 FKP262189:FKP262222 FUL262189:FUL262222 GEH262189:GEH262222 GOD262189:GOD262222 GXZ262189:GXZ262222 HHV262189:HHV262222 HRR262189:HRR262222 IBN262189:IBN262222 ILJ262189:ILJ262222 IVF262189:IVF262222 JFB262189:JFB262222 JOX262189:JOX262222 JYT262189:JYT262222 KIP262189:KIP262222 KSL262189:KSL262222 LCH262189:LCH262222 LMD262189:LMD262222 LVZ262189:LVZ262222 MFV262189:MFV262222 MPR262189:MPR262222 MZN262189:MZN262222 NJJ262189:NJJ262222 NTF262189:NTF262222 ODB262189:ODB262222 OMX262189:OMX262222 OWT262189:OWT262222 PGP262189:PGP262222 PQL262189:PQL262222 QAH262189:QAH262222 QKD262189:QKD262222 QTZ262189:QTZ262222 RDV262189:RDV262222 RNR262189:RNR262222 RXN262189:RXN262222 SHJ262189:SHJ262222 SRF262189:SRF262222 TBB262189:TBB262222 TKX262189:TKX262222 TUT262189:TUT262222 UEP262189:UEP262222 UOL262189:UOL262222 UYH262189:UYH262222 VID262189:VID262222 VRZ262189:VRZ262222 WBV262189:WBV262222 WLR262189:WLR262222 WVN262189:WVN262222 F327725:F327758 JB327725:JB327758 SX327725:SX327758 ACT327725:ACT327758 AMP327725:AMP327758 AWL327725:AWL327758 BGH327725:BGH327758 BQD327725:BQD327758 BZZ327725:BZZ327758 CJV327725:CJV327758 CTR327725:CTR327758 DDN327725:DDN327758 DNJ327725:DNJ327758 DXF327725:DXF327758 EHB327725:EHB327758 EQX327725:EQX327758 FAT327725:FAT327758 FKP327725:FKP327758 FUL327725:FUL327758 GEH327725:GEH327758 GOD327725:GOD327758 GXZ327725:GXZ327758 HHV327725:HHV327758 HRR327725:HRR327758 IBN327725:IBN327758 ILJ327725:ILJ327758 IVF327725:IVF327758 JFB327725:JFB327758 JOX327725:JOX327758 JYT327725:JYT327758 KIP327725:KIP327758 KSL327725:KSL327758 LCH327725:LCH327758 LMD327725:LMD327758 LVZ327725:LVZ327758 MFV327725:MFV327758 MPR327725:MPR327758 MZN327725:MZN327758 NJJ327725:NJJ327758 NTF327725:NTF327758 ODB327725:ODB327758 OMX327725:OMX327758 OWT327725:OWT327758 PGP327725:PGP327758 PQL327725:PQL327758 QAH327725:QAH327758 QKD327725:QKD327758 QTZ327725:QTZ327758 RDV327725:RDV327758 RNR327725:RNR327758 RXN327725:RXN327758 SHJ327725:SHJ327758 SRF327725:SRF327758 TBB327725:TBB327758 TKX327725:TKX327758 TUT327725:TUT327758 UEP327725:UEP327758 UOL327725:UOL327758 UYH327725:UYH327758 VID327725:VID327758 VRZ327725:VRZ327758 WBV327725:WBV327758 WLR327725:WLR327758 WVN327725:WVN327758 F393261:F393294 JB393261:JB393294 SX393261:SX393294 ACT393261:ACT393294 AMP393261:AMP393294 AWL393261:AWL393294 BGH393261:BGH393294 BQD393261:BQD393294 BZZ393261:BZZ393294 CJV393261:CJV393294 CTR393261:CTR393294 DDN393261:DDN393294 DNJ393261:DNJ393294 DXF393261:DXF393294 EHB393261:EHB393294 EQX393261:EQX393294 FAT393261:FAT393294 FKP393261:FKP393294 FUL393261:FUL393294 GEH393261:GEH393294 GOD393261:GOD393294 GXZ393261:GXZ393294 HHV393261:HHV393294 HRR393261:HRR393294 IBN393261:IBN393294 ILJ393261:ILJ393294 IVF393261:IVF393294 JFB393261:JFB393294 JOX393261:JOX393294 JYT393261:JYT393294 KIP393261:KIP393294 KSL393261:KSL393294 LCH393261:LCH393294 LMD393261:LMD393294 LVZ393261:LVZ393294 MFV393261:MFV393294 MPR393261:MPR393294 MZN393261:MZN393294 NJJ393261:NJJ393294 NTF393261:NTF393294 ODB393261:ODB393294 OMX393261:OMX393294 OWT393261:OWT393294 PGP393261:PGP393294 PQL393261:PQL393294 QAH393261:QAH393294 QKD393261:QKD393294 QTZ393261:QTZ393294 RDV393261:RDV393294 RNR393261:RNR393294 RXN393261:RXN393294 SHJ393261:SHJ393294 SRF393261:SRF393294 TBB393261:TBB393294 TKX393261:TKX393294 TUT393261:TUT393294 UEP393261:UEP393294 UOL393261:UOL393294 UYH393261:UYH393294 VID393261:VID393294 VRZ393261:VRZ393294 WBV393261:WBV393294 WLR393261:WLR393294 WVN393261:WVN393294 F458797:F458830 JB458797:JB458830 SX458797:SX458830 ACT458797:ACT458830 AMP458797:AMP458830 AWL458797:AWL458830 BGH458797:BGH458830 BQD458797:BQD458830 BZZ458797:BZZ458830 CJV458797:CJV458830 CTR458797:CTR458830 DDN458797:DDN458830 DNJ458797:DNJ458830 DXF458797:DXF458830 EHB458797:EHB458830 EQX458797:EQX458830 FAT458797:FAT458830 FKP458797:FKP458830 FUL458797:FUL458830 GEH458797:GEH458830 GOD458797:GOD458830 GXZ458797:GXZ458830 HHV458797:HHV458830 HRR458797:HRR458830 IBN458797:IBN458830 ILJ458797:ILJ458830 IVF458797:IVF458830 JFB458797:JFB458830 JOX458797:JOX458830 JYT458797:JYT458830 KIP458797:KIP458830 KSL458797:KSL458830 LCH458797:LCH458830 LMD458797:LMD458830 LVZ458797:LVZ458830 MFV458797:MFV458830 MPR458797:MPR458830 MZN458797:MZN458830 NJJ458797:NJJ458830 NTF458797:NTF458830 ODB458797:ODB458830 OMX458797:OMX458830 OWT458797:OWT458830 PGP458797:PGP458830 PQL458797:PQL458830 QAH458797:QAH458830 QKD458797:QKD458830 QTZ458797:QTZ458830 RDV458797:RDV458830 RNR458797:RNR458830 RXN458797:RXN458830 SHJ458797:SHJ458830 SRF458797:SRF458830 TBB458797:TBB458830 TKX458797:TKX458830 TUT458797:TUT458830 UEP458797:UEP458830 UOL458797:UOL458830 UYH458797:UYH458830 VID458797:VID458830 VRZ458797:VRZ458830 WBV458797:WBV458830 WLR458797:WLR458830 WVN458797:WVN458830 F524333:F524366 JB524333:JB524366 SX524333:SX524366 ACT524333:ACT524366 AMP524333:AMP524366 AWL524333:AWL524366 BGH524333:BGH524366 BQD524333:BQD524366 BZZ524333:BZZ524366 CJV524333:CJV524366 CTR524333:CTR524366 DDN524333:DDN524366 DNJ524333:DNJ524366 DXF524333:DXF524366 EHB524333:EHB524366 EQX524333:EQX524366 FAT524333:FAT524366 FKP524333:FKP524366 FUL524333:FUL524366 GEH524333:GEH524366 GOD524333:GOD524366 GXZ524333:GXZ524366 HHV524333:HHV524366 HRR524333:HRR524366 IBN524333:IBN524366 ILJ524333:ILJ524366 IVF524333:IVF524366 JFB524333:JFB524366 JOX524333:JOX524366 JYT524333:JYT524366 KIP524333:KIP524366 KSL524333:KSL524366 LCH524333:LCH524366 LMD524333:LMD524366 LVZ524333:LVZ524366 MFV524333:MFV524366 MPR524333:MPR524366 MZN524333:MZN524366 NJJ524333:NJJ524366 NTF524333:NTF524366 ODB524333:ODB524366 OMX524333:OMX524366 OWT524333:OWT524366 PGP524333:PGP524366 PQL524333:PQL524366 QAH524333:QAH524366 QKD524333:QKD524366 QTZ524333:QTZ524366 RDV524333:RDV524366 RNR524333:RNR524366 RXN524333:RXN524366 SHJ524333:SHJ524366 SRF524333:SRF524366 TBB524333:TBB524366 TKX524333:TKX524366 TUT524333:TUT524366 UEP524333:UEP524366 UOL524333:UOL524366 UYH524333:UYH524366 VID524333:VID524366 VRZ524333:VRZ524366 WBV524333:WBV524366 WLR524333:WLR524366 WVN524333:WVN524366 F589869:F589902 JB589869:JB589902 SX589869:SX589902 ACT589869:ACT589902 AMP589869:AMP589902 AWL589869:AWL589902 BGH589869:BGH589902 BQD589869:BQD589902 BZZ589869:BZZ589902 CJV589869:CJV589902 CTR589869:CTR589902 DDN589869:DDN589902 DNJ589869:DNJ589902 DXF589869:DXF589902 EHB589869:EHB589902 EQX589869:EQX589902 FAT589869:FAT589902 FKP589869:FKP589902 FUL589869:FUL589902 GEH589869:GEH589902 GOD589869:GOD589902 GXZ589869:GXZ589902 HHV589869:HHV589902 HRR589869:HRR589902 IBN589869:IBN589902 ILJ589869:ILJ589902 IVF589869:IVF589902 JFB589869:JFB589902 JOX589869:JOX589902 JYT589869:JYT589902 KIP589869:KIP589902 KSL589869:KSL589902 LCH589869:LCH589902 LMD589869:LMD589902 LVZ589869:LVZ589902 MFV589869:MFV589902 MPR589869:MPR589902 MZN589869:MZN589902 NJJ589869:NJJ589902 NTF589869:NTF589902 ODB589869:ODB589902 OMX589869:OMX589902 OWT589869:OWT589902 PGP589869:PGP589902 PQL589869:PQL589902 QAH589869:QAH589902 QKD589869:QKD589902 QTZ589869:QTZ589902 RDV589869:RDV589902 RNR589869:RNR589902 RXN589869:RXN589902 SHJ589869:SHJ589902 SRF589869:SRF589902 TBB589869:TBB589902 TKX589869:TKX589902 TUT589869:TUT589902 UEP589869:UEP589902 UOL589869:UOL589902 UYH589869:UYH589902 VID589869:VID589902 VRZ589869:VRZ589902 WBV589869:WBV589902 WLR589869:WLR589902 WVN589869:WVN589902 F655405:F655438 JB655405:JB655438 SX655405:SX655438 ACT655405:ACT655438 AMP655405:AMP655438 AWL655405:AWL655438 BGH655405:BGH655438 BQD655405:BQD655438 BZZ655405:BZZ655438 CJV655405:CJV655438 CTR655405:CTR655438 DDN655405:DDN655438 DNJ655405:DNJ655438 DXF655405:DXF655438 EHB655405:EHB655438 EQX655405:EQX655438 FAT655405:FAT655438 FKP655405:FKP655438 FUL655405:FUL655438 GEH655405:GEH655438 GOD655405:GOD655438 GXZ655405:GXZ655438 HHV655405:HHV655438 HRR655405:HRR655438 IBN655405:IBN655438 ILJ655405:ILJ655438 IVF655405:IVF655438 JFB655405:JFB655438 JOX655405:JOX655438 JYT655405:JYT655438 KIP655405:KIP655438 KSL655405:KSL655438 LCH655405:LCH655438 LMD655405:LMD655438 LVZ655405:LVZ655438 MFV655405:MFV655438 MPR655405:MPR655438 MZN655405:MZN655438 NJJ655405:NJJ655438 NTF655405:NTF655438 ODB655405:ODB655438 OMX655405:OMX655438 OWT655405:OWT655438 PGP655405:PGP655438 PQL655405:PQL655438 QAH655405:QAH655438 QKD655405:QKD655438 QTZ655405:QTZ655438 RDV655405:RDV655438 RNR655405:RNR655438 RXN655405:RXN655438 SHJ655405:SHJ655438 SRF655405:SRF655438 TBB655405:TBB655438 TKX655405:TKX655438 TUT655405:TUT655438 UEP655405:UEP655438 UOL655405:UOL655438 UYH655405:UYH655438 VID655405:VID655438 VRZ655405:VRZ655438 WBV655405:WBV655438 WLR655405:WLR655438 WVN655405:WVN655438 F720941:F720974 JB720941:JB720974 SX720941:SX720974 ACT720941:ACT720974 AMP720941:AMP720974 AWL720941:AWL720974 BGH720941:BGH720974 BQD720941:BQD720974 BZZ720941:BZZ720974 CJV720941:CJV720974 CTR720941:CTR720974 DDN720941:DDN720974 DNJ720941:DNJ720974 DXF720941:DXF720974 EHB720941:EHB720974 EQX720941:EQX720974 FAT720941:FAT720974 FKP720941:FKP720974 FUL720941:FUL720974 GEH720941:GEH720974 GOD720941:GOD720974 GXZ720941:GXZ720974 HHV720941:HHV720974 HRR720941:HRR720974 IBN720941:IBN720974 ILJ720941:ILJ720974 IVF720941:IVF720974 JFB720941:JFB720974 JOX720941:JOX720974 JYT720941:JYT720974 KIP720941:KIP720974 KSL720941:KSL720974 LCH720941:LCH720974 LMD720941:LMD720974 LVZ720941:LVZ720974 MFV720941:MFV720974 MPR720941:MPR720974 MZN720941:MZN720974 NJJ720941:NJJ720974 NTF720941:NTF720974 ODB720941:ODB720974 OMX720941:OMX720974 OWT720941:OWT720974 PGP720941:PGP720974 PQL720941:PQL720974 QAH720941:QAH720974 QKD720941:QKD720974 QTZ720941:QTZ720974 RDV720941:RDV720974 RNR720941:RNR720974 RXN720941:RXN720974 SHJ720941:SHJ720974 SRF720941:SRF720974 TBB720941:TBB720974 TKX720941:TKX720974 TUT720941:TUT720974 UEP720941:UEP720974 UOL720941:UOL720974 UYH720941:UYH720974 VID720941:VID720974 VRZ720941:VRZ720974 WBV720941:WBV720974 WLR720941:WLR720974 WVN720941:WVN720974 F786477:F786510 JB786477:JB786510 SX786477:SX786510 ACT786477:ACT786510 AMP786477:AMP786510 AWL786477:AWL786510 BGH786477:BGH786510 BQD786477:BQD786510 BZZ786477:BZZ786510 CJV786477:CJV786510 CTR786477:CTR786510 DDN786477:DDN786510 DNJ786477:DNJ786510 DXF786477:DXF786510 EHB786477:EHB786510 EQX786477:EQX786510 FAT786477:FAT786510 FKP786477:FKP786510 FUL786477:FUL786510 GEH786477:GEH786510 GOD786477:GOD786510 GXZ786477:GXZ786510 HHV786477:HHV786510 HRR786477:HRR786510 IBN786477:IBN786510 ILJ786477:ILJ786510 IVF786477:IVF786510 JFB786477:JFB786510 JOX786477:JOX786510 JYT786477:JYT786510 KIP786477:KIP786510 KSL786477:KSL786510 LCH786477:LCH786510 LMD786477:LMD786510 LVZ786477:LVZ786510 MFV786477:MFV786510 MPR786477:MPR786510 MZN786477:MZN786510 NJJ786477:NJJ786510 NTF786477:NTF786510 ODB786477:ODB786510 OMX786477:OMX786510 OWT786477:OWT786510 PGP786477:PGP786510 PQL786477:PQL786510 QAH786477:QAH786510 QKD786477:QKD786510 QTZ786477:QTZ786510 RDV786477:RDV786510 RNR786477:RNR786510 RXN786477:RXN786510 SHJ786477:SHJ786510 SRF786477:SRF786510 TBB786477:TBB786510 TKX786477:TKX786510 TUT786477:TUT786510 UEP786477:UEP786510 UOL786477:UOL786510 UYH786477:UYH786510 VID786477:VID786510 VRZ786477:VRZ786510 WBV786477:WBV786510 WLR786477:WLR786510 WVN786477:WVN786510 F852013:F852046 JB852013:JB852046 SX852013:SX852046 ACT852013:ACT852046 AMP852013:AMP852046 AWL852013:AWL852046 BGH852013:BGH852046 BQD852013:BQD852046 BZZ852013:BZZ852046 CJV852013:CJV852046 CTR852013:CTR852046 DDN852013:DDN852046 DNJ852013:DNJ852046 DXF852013:DXF852046 EHB852013:EHB852046 EQX852013:EQX852046 FAT852013:FAT852046 FKP852013:FKP852046 FUL852013:FUL852046 GEH852013:GEH852046 GOD852013:GOD852046 GXZ852013:GXZ852046 HHV852013:HHV852046 HRR852013:HRR852046 IBN852013:IBN852046 ILJ852013:ILJ852046 IVF852013:IVF852046 JFB852013:JFB852046 JOX852013:JOX852046 JYT852013:JYT852046 KIP852013:KIP852046 KSL852013:KSL852046 LCH852013:LCH852046 LMD852013:LMD852046 LVZ852013:LVZ852046 MFV852013:MFV852046 MPR852013:MPR852046 MZN852013:MZN852046 NJJ852013:NJJ852046 NTF852013:NTF852046 ODB852013:ODB852046 OMX852013:OMX852046 OWT852013:OWT852046 PGP852013:PGP852046 PQL852013:PQL852046 QAH852013:QAH852046 QKD852013:QKD852046 QTZ852013:QTZ852046 RDV852013:RDV852046 RNR852013:RNR852046 RXN852013:RXN852046 SHJ852013:SHJ852046 SRF852013:SRF852046 TBB852013:TBB852046 TKX852013:TKX852046 TUT852013:TUT852046 UEP852013:UEP852046 UOL852013:UOL852046 UYH852013:UYH852046 VID852013:VID852046 VRZ852013:VRZ852046 WBV852013:WBV852046 WLR852013:WLR852046 WVN852013:WVN852046 F917549:F917582 JB917549:JB917582 SX917549:SX917582 ACT917549:ACT917582 AMP917549:AMP917582 AWL917549:AWL917582 BGH917549:BGH917582 BQD917549:BQD917582 BZZ917549:BZZ917582 CJV917549:CJV917582 CTR917549:CTR917582 DDN917549:DDN917582 DNJ917549:DNJ917582 DXF917549:DXF917582 EHB917549:EHB917582 EQX917549:EQX917582 FAT917549:FAT917582 FKP917549:FKP917582 FUL917549:FUL917582 GEH917549:GEH917582 GOD917549:GOD917582 GXZ917549:GXZ917582 HHV917549:HHV917582 HRR917549:HRR917582 IBN917549:IBN917582 ILJ917549:ILJ917582 IVF917549:IVF917582 JFB917549:JFB917582 JOX917549:JOX917582 JYT917549:JYT917582 KIP917549:KIP917582 KSL917549:KSL917582 LCH917549:LCH917582 LMD917549:LMD917582 LVZ917549:LVZ917582 MFV917549:MFV917582 MPR917549:MPR917582 MZN917549:MZN917582 NJJ917549:NJJ917582 NTF917549:NTF917582 ODB917549:ODB917582 OMX917549:OMX917582 OWT917549:OWT917582 PGP917549:PGP917582 PQL917549:PQL917582 QAH917549:QAH917582 QKD917549:QKD917582 QTZ917549:QTZ917582 RDV917549:RDV917582 RNR917549:RNR917582 RXN917549:RXN917582 SHJ917549:SHJ917582 SRF917549:SRF917582 TBB917549:TBB917582 TKX917549:TKX917582 TUT917549:TUT917582 UEP917549:UEP917582 UOL917549:UOL917582 UYH917549:UYH917582 VID917549:VID917582 VRZ917549:VRZ917582 WBV917549:WBV917582 WLR917549:WLR917582 WVN917549:WVN917582 F983085:F983118 JB983085:JB983118 SX983085:SX983118 ACT983085:ACT983118 AMP983085:AMP983118 AWL983085:AWL983118 BGH983085:BGH983118 BQD983085:BQD983118 BZZ983085:BZZ983118 CJV983085:CJV983118 CTR983085:CTR983118 DDN983085:DDN983118 DNJ983085:DNJ983118 DXF983085:DXF983118 EHB983085:EHB983118 EQX983085:EQX983118 FAT983085:FAT983118 FKP983085:FKP983118 FUL983085:FUL983118 GEH983085:GEH983118 GOD983085:GOD983118 GXZ983085:GXZ983118 HHV983085:HHV983118 HRR983085:HRR983118 IBN983085:IBN983118 ILJ983085:ILJ983118 IVF983085:IVF983118 JFB983085:JFB983118 JOX983085:JOX983118 JYT983085:JYT983118 KIP983085:KIP983118 KSL983085:KSL983118 LCH983085:LCH983118 LMD983085:LMD983118 LVZ983085:LVZ983118 MFV983085:MFV983118 MPR983085:MPR983118 MZN983085:MZN983118 NJJ983085:NJJ983118 NTF983085:NTF983118 ODB983085:ODB983118 OMX983085:OMX983118 OWT983085:OWT983118 PGP983085:PGP983118 PQL983085:PQL983118 QAH983085:QAH983118 QKD983085:QKD983118 QTZ983085:QTZ983118 RDV983085:RDV983118 RNR983085:RNR983118 RXN983085:RXN983118 SHJ983085:SHJ983118 SRF983085:SRF983118 TBB983085:TBB983118 TKX983085:TKX983118 TUT983085:TUT983118 UEP983085:UEP983118 UOL983085:UOL983118 UYH983085:UYH983118 VID983085:VID983118 VRZ983085:VRZ983118 WBV983085:WBV983118 WLR983085:WLR983118 WVN983085:WVN983118 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F741" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65579:H65612 JD65579:JD65612 SZ65579:SZ65612 ACV65579:ACV65612 AMR65579:AMR65612 AWN65579:AWN65612 BGJ65579:BGJ65612 BQF65579:BQF65612 CAB65579:CAB65612 CJX65579:CJX65612 CTT65579:CTT65612 DDP65579:DDP65612 DNL65579:DNL65612 DXH65579:DXH65612 EHD65579:EHD65612 EQZ65579:EQZ65612 FAV65579:FAV65612 FKR65579:FKR65612 FUN65579:FUN65612 GEJ65579:GEJ65612 GOF65579:GOF65612 GYB65579:GYB65612 HHX65579:HHX65612 HRT65579:HRT65612 IBP65579:IBP65612 ILL65579:ILL65612 IVH65579:IVH65612 JFD65579:JFD65612 JOZ65579:JOZ65612 JYV65579:JYV65612 KIR65579:KIR65612 KSN65579:KSN65612 LCJ65579:LCJ65612 LMF65579:LMF65612 LWB65579:LWB65612 MFX65579:MFX65612 MPT65579:MPT65612 MZP65579:MZP65612 NJL65579:NJL65612 NTH65579:NTH65612 ODD65579:ODD65612 OMZ65579:OMZ65612 OWV65579:OWV65612 PGR65579:PGR65612 PQN65579:PQN65612 QAJ65579:QAJ65612 QKF65579:QKF65612 QUB65579:QUB65612 RDX65579:RDX65612 RNT65579:RNT65612 RXP65579:RXP65612 SHL65579:SHL65612 SRH65579:SRH65612 TBD65579:TBD65612 TKZ65579:TKZ65612 TUV65579:TUV65612 UER65579:UER65612 UON65579:UON65612 UYJ65579:UYJ65612 VIF65579:VIF65612 VSB65579:VSB65612 WBX65579:WBX65612 WLT65579:WLT65612 WVP65579:WVP65612 H131115:H131148 JD131115:JD131148 SZ131115:SZ131148 ACV131115:ACV131148 AMR131115:AMR131148 AWN131115:AWN131148 BGJ131115:BGJ131148 BQF131115:BQF131148 CAB131115:CAB131148 CJX131115:CJX131148 CTT131115:CTT131148 DDP131115:DDP131148 DNL131115:DNL131148 DXH131115:DXH131148 EHD131115:EHD131148 EQZ131115:EQZ131148 FAV131115:FAV131148 FKR131115:FKR131148 FUN131115:FUN131148 GEJ131115:GEJ131148 GOF131115:GOF131148 GYB131115:GYB131148 HHX131115:HHX131148 HRT131115:HRT131148 IBP131115:IBP131148 ILL131115:ILL131148 IVH131115:IVH131148 JFD131115:JFD131148 JOZ131115:JOZ131148 JYV131115:JYV131148 KIR131115:KIR131148 KSN131115:KSN131148 LCJ131115:LCJ131148 LMF131115:LMF131148 LWB131115:LWB131148 MFX131115:MFX131148 MPT131115:MPT131148 MZP131115:MZP131148 NJL131115:NJL131148 NTH131115:NTH131148 ODD131115:ODD131148 OMZ131115:OMZ131148 OWV131115:OWV131148 PGR131115:PGR131148 PQN131115:PQN131148 QAJ131115:QAJ131148 QKF131115:QKF131148 QUB131115:QUB131148 RDX131115:RDX131148 RNT131115:RNT131148 RXP131115:RXP131148 SHL131115:SHL131148 SRH131115:SRH131148 TBD131115:TBD131148 TKZ131115:TKZ131148 TUV131115:TUV131148 UER131115:UER131148 UON131115:UON131148 UYJ131115:UYJ131148 VIF131115:VIF131148 VSB131115:VSB131148 WBX131115:WBX131148 WLT131115:WLT131148 WVP131115:WVP131148 H196651:H196684 JD196651:JD196684 SZ196651:SZ196684 ACV196651:ACV196684 AMR196651:AMR196684 AWN196651:AWN196684 BGJ196651:BGJ196684 BQF196651:BQF196684 CAB196651:CAB196684 CJX196651:CJX196684 CTT196651:CTT196684 DDP196651:DDP196684 DNL196651:DNL196684 DXH196651:DXH196684 EHD196651:EHD196684 EQZ196651:EQZ196684 FAV196651:FAV196684 FKR196651:FKR196684 FUN196651:FUN196684 GEJ196651:GEJ196684 GOF196651:GOF196684 GYB196651:GYB196684 HHX196651:HHX196684 HRT196651:HRT196684 IBP196651:IBP196684 ILL196651:ILL196684 IVH196651:IVH196684 JFD196651:JFD196684 JOZ196651:JOZ196684 JYV196651:JYV196684 KIR196651:KIR196684 KSN196651:KSN196684 LCJ196651:LCJ196684 LMF196651:LMF196684 LWB196651:LWB196684 MFX196651:MFX196684 MPT196651:MPT196684 MZP196651:MZP196684 NJL196651:NJL196684 NTH196651:NTH196684 ODD196651:ODD196684 OMZ196651:OMZ196684 OWV196651:OWV196684 PGR196651:PGR196684 PQN196651:PQN196684 QAJ196651:QAJ196684 QKF196651:QKF196684 QUB196651:QUB196684 RDX196651:RDX196684 RNT196651:RNT196684 RXP196651:RXP196684 SHL196651:SHL196684 SRH196651:SRH196684 TBD196651:TBD196684 TKZ196651:TKZ196684 TUV196651:TUV196684 UER196651:UER196684 UON196651:UON196684 UYJ196651:UYJ196684 VIF196651:VIF196684 VSB196651:VSB196684 WBX196651:WBX196684 WLT196651:WLT196684 WVP196651:WVP196684 H262187:H262220 JD262187:JD262220 SZ262187:SZ262220 ACV262187:ACV262220 AMR262187:AMR262220 AWN262187:AWN262220 BGJ262187:BGJ262220 BQF262187:BQF262220 CAB262187:CAB262220 CJX262187:CJX262220 CTT262187:CTT262220 DDP262187:DDP262220 DNL262187:DNL262220 DXH262187:DXH262220 EHD262187:EHD262220 EQZ262187:EQZ262220 FAV262187:FAV262220 FKR262187:FKR262220 FUN262187:FUN262220 GEJ262187:GEJ262220 GOF262187:GOF262220 GYB262187:GYB262220 HHX262187:HHX262220 HRT262187:HRT262220 IBP262187:IBP262220 ILL262187:ILL262220 IVH262187:IVH262220 JFD262187:JFD262220 JOZ262187:JOZ262220 JYV262187:JYV262220 KIR262187:KIR262220 KSN262187:KSN262220 LCJ262187:LCJ262220 LMF262187:LMF262220 LWB262187:LWB262220 MFX262187:MFX262220 MPT262187:MPT262220 MZP262187:MZP262220 NJL262187:NJL262220 NTH262187:NTH262220 ODD262187:ODD262220 OMZ262187:OMZ262220 OWV262187:OWV262220 PGR262187:PGR262220 PQN262187:PQN262220 QAJ262187:QAJ262220 QKF262187:QKF262220 QUB262187:QUB262220 RDX262187:RDX262220 RNT262187:RNT262220 RXP262187:RXP262220 SHL262187:SHL262220 SRH262187:SRH262220 TBD262187:TBD262220 TKZ262187:TKZ262220 TUV262187:TUV262220 UER262187:UER262220 UON262187:UON262220 UYJ262187:UYJ262220 VIF262187:VIF262220 VSB262187:VSB262220 WBX262187:WBX262220 WLT262187:WLT262220 WVP262187:WVP262220 H327723:H327756 JD327723:JD327756 SZ327723:SZ327756 ACV327723:ACV327756 AMR327723:AMR327756 AWN327723:AWN327756 BGJ327723:BGJ327756 BQF327723:BQF327756 CAB327723:CAB327756 CJX327723:CJX327756 CTT327723:CTT327756 DDP327723:DDP327756 DNL327723:DNL327756 DXH327723:DXH327756 EHD327723:EHD327756 EQZ327723:EQZ327756 FAV327723:FAV327756 FKR327723:FKR327756 FUN327723:FUN327756 GEJ327723:GEJ327756 GOF327723:GOF327756 GYB327723:GYB327756 HHX327723:HHX327756 HRT327723:HRT327756 IBP327723:IBP327756 ILL327723:ILL327756 IVH327723:IVH327756 JFD327723:JFD327756 JOZ327723:JOZ327756 JYV327723:JYV327756 KIR327723:KIR327756 KSN327723:KSN327756 LCJ327723:LCJ327756 LMF327723:LMF327756 LWB327723:LWB327756 MFX327723:MFX327756 MPT327723:MPT327756 MZP327723:MZP327756 NJL327723:NJL327756 NTH327723:NTH327756 ODD327723:ODD327756 OMZ327723:OMZ327756 OWV327723:OWV327756 PGR327723:PGR327756 PQN327723:PQN327756 QAJ327723:QAJ327756 QKF327723:QKF327756 QUB327723:QUB327756 RDX327723:RDX327756 RNT327723:RNT327756 RXP327723:RXP327756 SHL327723:SHL327756 SRH327723:SRH327756 TBD327723:TBD327756 TKZ327723:TKZ327756 TUV327723:TUV327756 UER327723:UER327756 UON327723:UON327756 UYJ327723:UYJ327756 VIF327723:VIF327756 VSB327723:VSB327756 WBX327723:WBX327756 WLT327723:WLT327756 WVP327723:WVP327756 H393259:H393292 JD393259:JD393292 SZ393259:SZ393292 ACV393259:ACV393292 AMR393259:AMR393292 AWN393259:AWN393292 BGJ393259:BGJ393292 BQF393259:BQF393292 CAB393259:CAB393292 CJX393259:CJX393292 CTT393259:CTT393292 DDP393259:DDP393292 DNL393259:DNL393292 DXH393259:DXH393292 EHD393259:EHD393292 EQZ393259:EQZ393292 FAV393259:FAV393292 FKR393259:FKR393292 FUN393259:FUN393292 GEJ393259:GEJ393292 GOF393259:GOF393292 GYB393259:GYB393292 HHX393259:HHX393292 HRT393259:HRT393292 IBP393259:IBP393292 ILL393259:ILL393292 IVH393259:IVH393292 JFD393259:JFD393292 JOZ393259:JOZ393292 JYV393259:JYV393292 KIR393259:KIR393292 KSN393259:KSN393292 LCJ393259:LCJ393292 LMF393259:LMF393292 LWB393259:LWB393292 MFX393259:MFX393292 MPT393259:MPT393292 MZP393259:MZP393292 NJL393259:NJL393292 NTH393259:NTH393292 ODD393259:ODD393292 OMZ393259:OMZ393292 OWV393259:OWV393292 PGR393259:PGR393292 PQN393259:PQN393292 QAJ393259:QAJ393292 QKF393259:QKF393292 QUB393259:QUB393292 RDX393259:RDX393292 RNT393259:RNT393292 RXP393259:RXP393292 SHL393259:SHL393292 SRH393259:SRH393292 TBD393259:TBD393292 TKZ393259:TKZ393292 TUV393259:TUV393292 UER393259:UER393292 UON393259:UON393292 UYJ393259:UYJ393292 VIF393259:VIF393292 VSB393259:VSB393292 WBX393259:WBX393292 WLT393259:WLT393292 WVP393259:WVP393292 H458795:H458828 JD458795:JD458828 SZ458795:SZ458828 ACV458795:ACV458828 AMR458795:AMR458828 AWN458795:AWN458828 BGJ458795:BGJ458828 BQF458795:BQF458828 CAB458795:CAB458828 CJX458795:CJX458828 CTT458795:CTT458828 DDP458795:DDP458828 DNL458795:DNL458828 DXH458795:DXH458828 EHD458795:EHD458828 EQZ458795:EQZ458828 FAV458795:FAV458828 FKR458795:FKR458828 FUN458795:FUN458828 GEJ458795:GEJ458828 GOF458795:GOF458828 GYB458795:GYB458828 HHX458795:HHX458828 HRT458795:HRT458828 IBP458795:IBP458828 ILL458795:ILL458828 IVH458795:IVH458828 JFD458795:JFD458828 JOZ458795:JOZ458828 JYV458795:JYV458828 KIR458795:KIR458828 KSN458795:KSN458828 LCJ458795:LCJ458828 LMF458795:LMF458828 LWB458795:LWB458828 MFX458795:MFX458828 MPT458795:MPT458828 MZP458795:MZP458828 NJL458795:NJL458828 NTH458795:NTH458828 ODD458795:ODD458828 OMZ458795:OMZ458828 OWV458795:OWV458828 PGR458795:PGR458828 PQN458795:PQN458828 QAJ458795:QAJ458828 QKF458795:QKF458828 QUB458795:QUB458828 RDX458795:RDX458828 RNT458795:RNT458828 RXP458795:RXP458828 SHL458795:SHL458828 SRH458795:SRH458828 TBD458795:TBD458828 TKZ458795:TKZ458828 TUV458795:TUV458828 UER458795:UER458828 UON458795:UON458828 UYJ458795:UYJ458828 VIF458795:VIF458828 VSB458795:VSB458828 WBX458795:WBX458828 WLT458795:WLT458828 WVP458795:WVP458828 H524331:H524364 JD524331:JD524364 SZ524331:SZ524364 ACV524331:ACV524364 AMR524331:AMR524364 AWN524331:AWN524364 BGJ524331:BGJ524364 BQF524331:BQF524364 CAB524331:CAB524364 CJX524331:CJX524364 CTT524331:CTT524364 DDP524331:DDP524364 DNL524331:DNL524364 DXH524331:DXH524364 EHD524331:EHD524364 EQZ524331:EQZ524364 FAV524331:FAV524364 FKR524331:FKR524364 FUN524331:FUN524364 GEJ524331:GEJ524364 GOF524331:GOF524364 GYB524331:GYB524364 HHX524331:HHX524364 HRT524331:HRT524364 IBP524331:IBP524364 ILL524331:ILL524364 IVH524331:IVH524364 JFD524331:JFD524364 JOZ524331:JOZ524364 JYV524331:JYV524364 KIR524331:KIR524364 KSN524331:KSN524364 LCJ524331:LCJ524364 LMF524331:LMF524364 LWB524331:LWB524364 MFX524331:MFX524364 MPT524331:MPT524364 MZP524331:MZP524364 NJL524331:NJL524364 NTH524331:NTH524364 ODD524331:ODD524364 OMZ524331:OMZ524364 OWV524331:OWV524364 PGR524331:PGR524364 PQN524331:PQN524364 QAJ524331:QAJ524364 QKF524331:QKF524364 QUB524331:QUB524364 RDX524331:RDX524364 RNT524331:RNT524364 RXP524331:RXP524364 SHL524331:SHL524364 SRH524331:SRH524364 TBD524331:TBD524364 TKZ524331:TKZ524364 TUV524331:TUV524364 UER524331:UER524364 UON524331:UON524364 UYJ524331:UYJ524364 VIF524331:VIF524364 VSB524331:VSB524364 WBX524331:WBX524364 WLT524331:WLT524364 WVP524331:WVP524364 H589867:H589900 JD589867:JD589900 SZ589867:SZ589900 ACV589867:ACV589900 AMR589867:AMR589900 AWN589867:AWN589900 BGJ589867:BGJ589900 BQF589867:BQF589900 CAB589867:CAB589900 CJX589867:CJX589900 CTT589867:CTT589900 DDP589867:DDP589900 DNL589867:DNL589900 DXH589867:DXH589900 EHD589867:EHD589900 EQZ589867:EQZ589900 FAV589867:FAV589900 FKR589867:FKR589900 FUN589867:FUN589900 GEJ589867:GEJ589900 GOF589867:GOF589900 GYB589867:GYB589900 HHX589867:HHX589900 HRT589867:HRT589900 IBP589867:IBP589900 ILL589867:ILL589900 IVH589867:IVH589900 JFD589867:JFD589900 JOZ589867:JOZ589900 JYV589867:JYV589900 KIR589867:KIR589900 KSN589867:KSN589900 LCJ589867:LCJ589900 LMF589867:LMF589900 LWB589867:LWB589900 MFX589867:MFX589900 MPT589867:MPT589900 MZP589867:MZP589900 NJL589867:NJL589900 NTH589867:NTH589900 ODD589867:ODD589900 OMZ589867:OMZ589900 OWV589867:OWV589900 PGR589867:PGR589900 PQN589867:PQN589900 QAJ589867:QAJ589900 QKF589867:QKF589900 QUB589867:QUB589900 RDX589867:RDX589900 RNT589867:RNT589900 RXP589867:RXP589900 SHL589867:SHL589900 SRH589867:SRH589900 TBD589867:TBD589900 TKZ589867:TKZ589900 TUV589867:TUV589900 UER589867:UER589900 UON589867:UON589900 UYJ589867:UYJ589900 VIF589867:VIF589900 VSB589867:VSB589900 WBX589867:WBX589900 WLT589867:WLT589900 WVP589867:WVP589900 H655403:H655436 JD655403:JD655436 SZ655403:SZ655436 ACV655403:ACV655436 AMR655403:AMR655436 AWN655403:AWN655436 BGJ655403:BGJ655436 BQF655403:BQF655436 CAB655403:CAB655436 CJX655403:CJX655436 CTT655403:CTT655436 DDP655403:DDP655436 DNL655403:DNL655436 DXH655403:DXH655436 EHD655403:EHD655436 EQZ655403:EQZ655436 FAV655403:FAV655436 FKR655403:FKR655436 FUN655403:FUN655436 GEJ655403:GEJ655436 GOF655403:GOF655436 GYB655403:GYB655436 HHX655403:HHX655436 HRT655403:HRT655436 IBP655403:IBP655436 ILL655403:ILL655436 IVH655403:IVH655436 JFD655403:JFD655436 JOZ655403:JOZ655436 JYV655403:JYV655436 KIR655403:KIR655436 KSN655403:KSN655436 LCJ655403:LCJ655436 LMF655403:LMF655436 LWB655403:LWB655436 MFX655403:MFX655436 MPT655403:MPT655436 MZP655403:MZP655436 NJL655403:NJL655436 NTH655403:NTH655436 ODD655403:ODD655436 OMZ655403:OMZ655436 OWV655403:OWV655436 PGR655403:PGR655436 PQN655403:PQN655436 QAJ655403:QAJ655436 QKF655403:QKF655436 QUB655403:QUB655436 RDX655403:RDX655436 RNT655403:RNT655436 RXP655403:RXP655436 SHL655403:SHL655436 SRH655403:SRH655436 TBD655403:TBD655436 TKZ655403:TKZ655436 TUV655403:TUV655436 UER655403:UER655436 UON655403:UON655436 UYJ655403:UYJ655436 VIF655403:VIF655436 VSB655403:VSB655436 WBX655403:WBX655436 WLT655403:WLT655436 WVP655403:WVP655436 H720939:H720972 JD720939:JD720972 SZ720939:SZ720972 ACV720939:ACV720972 AMR720939:AMR720972 AWN720939:AWN720972 BGJ720939:BGJ720972 BQF720939:BQF720972 CAB720939:CAB720972 CJX720939:CJX720972 CTT720939:CTT720972 DDP720939:DDP720972 DNL720939:DNL720972 DXH720939:DXH720972 EHD720939:EHD720972 EQZ720939:EQZ720972 FAV720939:FAV720972 FKR720939:FKR720972 FUN720939:FUN720972 GEJ720939:GEJ720972 GOF720939:GOF720972 GYB720939:GYB720972 HHX720939:HHX720972 HRT720939:HRT720972 IBP720939:IBP720972 ILL720939:ILL720972 IVH720939:IVH720972 JFD720939:JFD720972 JOZ720939:JOZ720972 JYV720939:JYV720972 KIR720939:KIR720972 KSN720939:KSN720972 LCJ720939:LCJ720972 LMF720939:LMF720972 LWB720939:LWB720972 MFX720939:MFX720972 MPT720939:MPT720972 MZP720939:MZP720972 NJL720939:NJL720972 NTH720939:NTH720972 ODD720939:ODD720972 OMZ720939:OMZ720972 OWV720939:OWV720972 PGR720939:PGR720972 PQN720939:PQN720972 QAJ720939:QAJ720972 QKF720939:QKF720972 QUB720939:QUB720972 RDX720939:RDX720972 RNT720939:RNT720972 RXP720939:RXP720972 SHL720939:SHL720972 SRH720939:SRH720972 TBD720939:TBD720972 TKZ720939:TKZ720972 TUV720939:TUV720972 UER720939:UER720972 UON720939:UON720972 UYJ720939:UYJ720972 VIF720939:VIF720972 VSB720939:VSB720972 WBX720939:WBX720972 WLT720939:WLT720972 WVP720939:WVP720972 H786475:H786508 JD786475:JD786508 SZ786475:SZ786508 ACV786475:ACV786508 AMR786475:AMR786508 AWN786475:AWN786508 BGJ786475:BGJ786508 BQF786475:BQF786508 CAB786475:CAB786508 CJX786475:CJX786508 CTT786475:CTT786508 DDP786475:DDP786508 DNL786475:DNL786508 DXH786475:DXH786508 EHD786475:EHD786508 EQZ786475:EQZ786508 FAV786475:FAV786508 FKR786475:FKR786508 FUN786475:FUN786508 GEJ786475:GEJ786508 GOF786475:GOF786508 GYB786475:GYB786508 HHX786475:HHX786508 HRT786475:HRT786508 IBP786475:IBP786508 ILL786475:ILL786508 IVH786475:IVH786508 JFD786475:JFD786508 JOZ786475:JOZ786508 JYV786475:JYV786508 KIR786475:KIR786508 KSN786475:KSN786508 LCJ786475:LCJ786508 LMF786475:LMF786508 LWB786475:LWB786508 MFX786475:MFX786508 MPT786475:MPT786508 MZP786475:MZP786508 NJL786475:NJL786508 NTH786475:NTH786508 ODD786475:ODD786508 OMZ786475:OMZ786508 OWV786475:OWV786508 PGR786475:PGR786508 PQN786475:PQN786508 QAJ786475:QAJ786508 QKF786475:QKF786508 QUB786475:QUB786508 RDX786475:RDX786508 RNT786475:RNT786508 RXP786475:RXP786508 SHL786475:SHL786508 SRH786475:SRH786508 TBD786475:TBD786508 TKZ786475:TKZ786508 TUV786475:TUV786508 UER786475:UER786508 UON786475:UON786508 UYJ786475:UYJ786508 VIF786475:VIF786508 VSB786475:VSB786508 WBX786475:WBX786508 WLT786475:WLT786508 WVP786475:WVP786508 H852011:H852044 JD852011:JD852044 SZ852011:SZ852044 ACV852011:ACV852044 AMR852011:AMR852044 AWN852011:AWN852044 BGJ852011:BGJ852044 BQF852011:BQF852044 CAB852011:CAB852044 CJX852011:CJX852044 CTT852011:CTT852044 DDP852011:DDP852044 DNL852011:DNL852044 DXH852011:DXH852044 EHD852011:EHD852044 EQZ852011:EQZ852044 FAV852011:FAV852044 FKR852011:FKR852044 FUN852011:FUN852044 GEJ852011:GEJ852044 GOF852011:GOF852044 GYB852011:GYB852044 HHX852011:HHX852044 HRT852011:HRT852044 IBP852011:IBP852044 ILL852011:ILL852044 IVH852011:IVH852044 JFD852011:JFD852044 JOZ852011:JOZ852044 JYV852011:JYV852044 KIR852011:KIR852044 KSN852011:KSN852044 LCJ852011:LCJ852044 LMF852011:LMF852044 LWB852011:LWB852044 MFX852011:MFX852044 MPT852011:MPT852044 MZP852011:MZP852044 NJL852011:NJL852044 NTH852011:NTH852044 ODD852011:ODD852044 OMZ852011:OMZ852044 OWV852011:OWV852044 PGR852011:PGR852044 PQN852011:PQN852044 QAJ852011:QAJ852044 QKF852011:QKF852044 QUB852011:QUB852044 RDX852011:RDX852044 RNT852011:RNT852044 RXP852011:RXP852044 SHL852011:SHL852044 SRH852011:SRH852044 TBD852011:TBD852044 TKZ852011:TKZ852044 TUV852011:TUV852044 UER852011:UER852044 UON852011:UON852044 UYJ852011:UYJ852044 VIF852011:VIF852044 VSB852011:VSB852044 WBX852011:WBX852044 WLT852011:WLT852044 WVP852011:WVP852044 H917547:H917580 JD917547:JD917580 SZ917547:SZ917580 ACV917547:ACV917580 AMR917547:AMR917580 AWN917547:AWN917580 BGJ917547:BGJ917580 BQF917547:BQF917580 CAB917547:CAB917580 CJX917547:CJX917580 CTT917547:CTT917580 DDP917547:DDP917580 DNL917547:DNL917580 DXH917547:DXH917580 EHD917547:EHD917580 EQZ917547:EQZ917580 FAV917547:FAV917580 FKR917547:FKR917580 FUN917547:FUN917580 GEJ917547:GEJ917580 GOF917547:GOF917580 GYB917547:GYB917580 HHX917547:HHX917580 HRT917547:HRT917580 IBP917547:IBP917580 ILL917547:ILL917580 IVH917547:IVH917580 JFD917547:JFD917580 JOZ917547:JOZ917580 JYV917547:JYV917580 KIR917547:KIR917580 KSN917547:KSN917580 LCJ917547:LCJ917580 LMF917547:LMF917580 LWB917547:LWB917580 MFX917547:MFX917580 MPT917547:MPT917580 MZP917547:MZP917580 NJL917547:NJL917580 NTH917547:NTH917580 ODD917547:ODD917580 OMZ917547:OMZ917580 OWV917547:OWV917580 PGR917547:PGR917580 PQN917547:PQN917580 QAJ917547:QAJ917580 QKF917547:QKF917580 QUB917547:QUB917580 RDX917547:RDX917580 RNT917547:RNT917580 RXP917547:RXP917580 SHL917547:SHL917580 SRH917547:SRH917580 TBD917547:TBD917580 TKZ917547:TKZ917580 TUV917547:TUV917580 UER917547:UER917580 UON917547:UON917580 UYJ917547:UYJ917580 VIF917547:VIF917580 VSB917547:VSB917580 WBX917547:WBX917580 WLT917547:WLT917580 WVP917547:WVP917580 H983083:H983116 JD983083:JD983116 SZ983083:SZ983116 ACV983083:ACV983116 AMR983083:AMR983116 AWN983083:AWN983116 BGJ983083:BGJ983116 BQF983083:BQF983116 CAB983083:CAB983116 CJX983083:CJX983116 CTT983083:CTT983116 DDP983083:DDP983116 DNL983083:DNL983116 DXH983083:DXH983116 EHD983083:EHD983116 EQZ983083:EQZ983116 FAV983083:FAV983116 FKR983083:FKR983116 FUN983083:FUN983116 GEJ983083:GEJ983116 GOF983083:GOF983116 GYB983083:GYB983116 HHX983083:HHX983116 HRT983083:HRT983116 IBP983083:IBP983116 ILL983083:ILL983116 IVH983083:IVH983116 JFD983083:JFD983116 JOZ983083:JOZ983116 JYV983083:JYV983116 KIR983083:KIR983116 KSN983083:KSN983116 LCJ983083:LCJ983116 LMF983083:LMF983116 LWB983083:LWB983116 MFX983083:MFX983116 MPT983083:MPT983116 MZP983083:MZP983116 NJL983083:NJL983116 NTH983083:NTH983116 ODD983083:ODD983116 OMZ983083:OMZ983116 OWV983083:OWV983116 PGR983083:PGR983116 PQN983083:PQN983116 QAJ983083:QAJ983116 QKF983083:QKF983116 QUB983083:QUB983116 RDX983083:RDX983116 RNT983083:RNT983116 RXP983083:RXP983116 SHL983083:SHL983116 SRH983083:SRH983116 TBD983083:TBD983116 TKZ983083:TKZ983116 TUV983083:TUV983116 UER983083:UER983116 UON983083:UON983116 UYJ983083:UYJ983116 VIF983083:VIF983116 VSB983083:VSB983116 WBX983083:WBX983116 WLT983083:WLT983116 WVP983083:WVP983116 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H597" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65581:H65614 JD65581:JD65614 SZ65581:SZ65614 ACV65581:ACV65614 AMR65581:AMR65614 AWN65581:AWN65614 BGJ65581:BGJ65614 BQF65581:BQF65614 CAB65581:CAB65614 CJX65581:CJX65614 CTT65581:CTT65614 DDP65581:DDP65614 DNL65581:DNL65614 DXH65581:DXH65614 EHD65581:EHD65614 EQZ65581:EQZ65614 FAV65581:FAV65614 FKR65581:FKR65614 FUN65581:FUN65614 GEJ65581:GEJ65614 GOF65581:GOF65614 GYB65581:GYB65614 HHX65581:HHX65614 HRT65581:HRT65614 IBP65581:IBP65614 ILL65581:ILL65614 IVH65581:IVH65614 JFD65581:JFD65614 JOZ65581:JOZ65614 JYV65581:JYV65614 KIR65581:KIR65614 KSN65581:KSN65614 LCJ65581:LCJ65614 LMF65581:LMF65614 LWB65581:LWB65614 MFX65581:MFX65614 MPT65581:MPT65614 MZP65581:MZP65614 NJL65581:NJL65614 NTH65581:NTH65614 ODD65581:ODD65614 OMZ65581:OMZ65614 OWV65581:OWV65614 PGR65581:PGR65614 PQN65581:PQN65614 QAJ65581:QAJ65614 QKF65581:QKF65614 QUB65581:QUB65614 RDX65581:RDX65614 RNT65581:RNT65614 RXP65581:RXP65614 SHL65581:SHL65614 SRH65581:SRH65614 TBD65581:TBD65614 TKZ65581:TKZ65614 TUV65581:TUV65614 UER65581:UER65614 UON65581:UON65614 UYJ65581:UYJ65614 VIF65581:VIF65614 VSB65581:VSB65614 WBX65581:WBX65614 WLT65581:WLT65614 WVP65581:WVP65614 H131117:H131150 JD131117:JD131150 SZ131117:SZ131150 ACV131117:ACV131150 AMR131117:AMR131150 AWN131117:AWN131150 BGJ131117:BGJ131150 BQF131117:BQF131150 CAB131117:CAB131150 CJX131117:CJX131150 CTT131117:CTT131150 DDP131117:DDP131150 DNL131117:DNL131150 DXH131117:DXH131150 EHD131117:EHD131150 EQZ131117:EQZ131150 FAV131117:FAV131150 FKR131117:FKR131150 FUN131117:FUN131150 GEJ131117:GEJ131150 GOF131117:GOF131150 GYB131117:GYB131150 HHX131117:HHX131150 HRT131117:HRT131150 IBP131117:IBP131150 ILL131117:ILL131150 IVH131117:IVH131150 JFD131117:JFD131150 JOZ131117:JOZ131150 JYV131117:JYV131150 KIR131117:KIR131150 KSN131117:KSN131150 LCJ131117:LCJ131150 LMF131117:LMF131150 LWB131117:LWB131150 MFX131117:MFX131150 MPT131117:MPT131150 MZP131117:MZP131150 NJL131117:NJL131150 NTH131117:NTH131150 ODD131117:ODD131150 OMZ131117:OMZ131150 OWV131117:OWV131150 PGR131117:PGR131150 PQN131117:PQN131150 QAJ131117:QAJ131150 QKF131117:QKF131150 QUB131117:QUB131150 RDX131117:RDX131150 RNT131117:RNT131150 RXP131117:RXP131150 SHL131117:SHL131150 SRH131117:SRH131150 TBD131117:TBD131150 TKZ131117:TKZ131150 TUV131117:TUV131150 UER131117:UER131150 UON131117:UON131150 UYJ131117:UYJ131150 VIF131117:VIF131150 VSB131117:VSB131150 WBX131117:WBX131150 WLT131117:WLT131150 WVP131117:WVP131150 H196653:H196686 JD196653:JD196686 SZ196653:SZ196686 ACV196653:ACV196686 AMR196653:AMR196686 AWN196653:AWN196686 BGJ196653:BGJ196686 BQF196653:BQF196686 CAB196653:CAB196686 CJX196653:CJX196686 CTT196653:CTT196686 DDP196653:DDP196686 DNL196653:DNL196686 DXH196653:DXH196686 EHD196653:EHD196686 EQZ196653:EQZ196686 FAV196653:FAV196686 FKR196653:FKR196686 FUN196653:FUN196686 GEJ196653:GEJ196686 GOF196653:GOF196686 GYB196653:GYB196686 HHX196653:HHX196686 HRT196653:HRT196686 IBP196653:IBP196686 ILL196653:ILL196686 IVH196653:IVH196686 JFD196653:JFD196686 JOZ196653:JOZ196686 JYV196653:JYV196686 KIR196653:KIR196686 KSN196653:KSN196686 LCJ196653:LCJ196686 LMF196653:LMF196686 LWB196653:LWB196686 MFX196653:MFX196686 MPT196653:MPT196686 MZP196653:MZP196686 NJL196653:NJL196686 NTH196653:NTH196686 ODD196653:ODD196686 OMZ196653:OMZ196686 OWV196653:OWV196686 PGR196653:PGR196686 PQN196653:PQN196686 QAJ196653:QAJ196686 QKF196653:QKF196686 QUB196653:QUB196686 RDX196653:RDX196686 RNT196653:RNT196686 RXP196653:RXP196686 SHL196653:SHL196686 SRH196653:SRH196686 TBD196653:TBD196686 TKZ196653:TKZ196686 TUV196653:TUV196686 UER196653:UER196686 UON196653:UON196686 UYJ196653:UYJ196686 VIF196653:VIF196686 VSB196653:VSB196686 WBX196653:WBX196686 WLT196653:WLT196686 WVP196653:WVP196686 H262189:H262222 JD262189:JD262222 SZ262189:SZ262222 ACV262189:ACV262222 AMR262189:AMR262222 AWN262189:AWN262222 BGJ262189:BGJ262222 BQF262189:BQF262222 CAB262189:CAB262222 CJX262189:CJX262222 CTT262189:CTT262222 DDP262189:DDP262222 DNL262189:DNL262222 DXH262189:DXH262222 EHD262189:EHD262222 EQZ262189:EQZ262222 FAV262189:FAV262222 FKR262189:FKR262222 FUN262189:FUN262222 GEJ262189:GEJ262222 GOF262189:GOF262222 GYB262189:GYB262222 HHX262189:HHX262222 HRT262189:HRT262222 IBP262189:IBP262222 ILL262189:ILL262222 IVH262189:IVH262222 JFD262189:JFD262222 JOZ262189:JOZ262222 JYV262189:JYV262222 KIR262189:KIR262222 KSN262189:KSN262222 LCJ262189:LCJ262222 LMF262189:LMF262222 LWB262189:LWB262222 MFX262189:MFX262222 MPT262189:MPT262222 MZP262189:MZP262222 NJL262189:NJL262222 NTH262189:NTH262222 ODD262189:ODD262222 OMZ262189:OMZ262222 OWV262189:OWV262222 PGR262189:PGR262222 PQN262189:PQN262222 QAJ262189:QAJ262222 QKF262189:QKF262222 QUB262189:QUB262222 RDX262189:RDX262222 RNT262189:RNT262222 RXP262189:RXP262222 SHL262189:SHL262222 SRH262189:SRH262222 TBD262189:TBD262222 TKZ262189:TKZ262222 TUV262189:TUV262222 UER262189:UER262222 UON262189:UON262222 UYJ262189:UYJ262222 VIF262189:VIF262222 VSB262189:VSB262222 WBX262189:WBX262222 WLT262189:WLT262222 WVP262189:WVP262222 H327725:H327758 JD327725:JD327758 SZ327725:SZ327758 ACV327725:ACV327758 AMR327725:AMR327758 AWN327725:AWN327758 BGJ327725:BGJ327758 BQF327725:BQF327758 CAB327725:CAB327758 CJX327725:CJX327758 CTT327725:CTT327758 DDP327725:DDP327758 DNL327725:DNL327758 DXH327725:DXH327758 EHD327725:EHD327758 EQZ327725:EQZ327758 FAV327725:FAV327758 FKR327725:FKR327758 FUN327725:FUN327758 GEJ327725:GEJ327758 GOF327725:GOF327758 GYB327725:GYB327758 HHX327725:HHX327758 HRT327725:HRT327758 IBP327725:IBP327758 ILL327725:ILL327758 IVH327725:IVH327758 JFD327725:JFD327758 JOZ327725:JOZ327758 JYV327725:JYV327758 KIR327725:KIR327758 KSN327725:KSN327758 LCJ327725:LCJ327758 LMF327725:LMF327758 LWB327725:LWB327758 MFX327725:MFX327758 MPT327725:MPT327758 MZP327725:MZP327758 NJL327725:NJL327758 NTH327725:NTH327758 ODD327725:ODD327758 OMZ327725:OMZ327758 OWV327725:OWV327758 PGR327725:PGR327758 PQN327725:PQN327758 QAJ327725:QAJ327758 QKF327725:QKF327758 QUB327725:QUB327758 RDX327725:RDX327758 RNT327725:RNT327758 RXP327725:RXP327758 SHL327725:SHL327758 SRH327725:SRH327758 TBD327725:TBD327758 TKZ327725:TKZ327758 TUV327725:TUV327758 UER327725:UER327758 UON327725:UON327758 UYJ327725:UYJ327758 VIF327725:VIF327758 VSB327725:VSB327758 WBX327725:WBX327758 WLT327725:WLT327758 WVP327725:WVP327758 H393261:H393294 JD393261:JD393294 SZ393261:SZ393294 ACV393261:ACV393294 AMR393261:AMR393294 AWN393261:AWN393294 BGJ393261:BGJ393294 BQF393261:BQF393294 CAB393261:CAB393294 CJX393261:CJX393294 CTT393261:CTT393294 DDP393261:DDP393294 DNL393261:DNL393294 DXH393261:DXH393294 EHD393261:EHD393294 EQZ393261:EQZ393294 FAV393261:FAV393294 FKR393261:FKR393294 FUN393261:FUN393294 GEJ393261:GEJ393294 GOF393261:GOF393294 GYB393261:GYB393294 HHX393261:HHX393294 HRT393261:HRT393294 IBP393261:IBP393294 ILL393261:ILL393294 IVH393261:IVH393294 JFD393261:JFD393294 JOZ393261:JOZ393294 JYV393261:JYV393294 KIR393261:KIR393294 KSN393261:KSN393294 LCJ393261:LCJ393294 LMF393261:LMF393294 LWB393261:LWB393294 MFX393261:MFX393294 MPT393261:MPT393294 MZP393261:MZP393294 NJL393261:NJL393294 NTH393261:NTH393294 ODD393261:ODD393294 OMZ393261:OMZ393294 OWV393261:OWV393294 PGR393261:PGR393294 PQN393261:PQN393294 QAJ393261:QAJ393294 QKF393261:QKF393294 QUB393261:QUB393294 RDX393261:RDX393294 RNT393261:RNT393294 RXP393261:RXP393294 SHL393261:SHL393294 SRH393261:SRH393294 TBD393261:TBD393294 TKZ393261:TKZ393294 TUV393261:TUV393294 UER393261:UER393294 UON393261:UON393294 UYJ393261:UYJ393294 VIF393261:VIF393294 VSB393261:VSB393294 WBX393261:WBX393294 WLT393261:WLT393294 WVP393261:WVP393294 H458797:H458830 JD458797:JD458830 SZ458797:SZ458830 ACV458797:ACV458830 AMR458797:AMR458830 AWN458797:AWN458830 BGJ458797:BGJ458830 BQF458797:BQF458830 CAB458797:CAB458830 CJX458797:CJX458830 CTT458797:CTT458830 DDP458797:DDP458830 DNL458797:DNL458830 DXH458797:DXH458830 EHD458797:EHD458830 EQZ458797:EQZ458830 FAV458797:FAV458830 FKR458797:FKR458830 FUN458797:FUN458830 GEJ458797:GEJ458830 GOF458797:GOF458830 GYB458797:GYB458830 HHX458797:HHX458830 HRT458797:HRT458830 IBP458797:IBP458830 ILL458797:ILL458830 IVH458797:IVH458830 JFD458797:JFD458830 JOZ458797:JOZ458830 JYV458797:JYV458830 KIR458797:KIR458830 KSN458797:KSN458830 LCJ458797:LCJ458830 LMF458797:LMF458830 LWB458797:LWB458830 MFX458797:MFX458830 MPT458797:MPT458830 MZP458797:MZP458830 NJL458797:NJL458830 NTH458797:NTH458830 ODD458797:ODD458830 OMZ458797:OMZ458830 OWV458797:OWV458830 PGR458797:PGR458830 PQN458797:PQN458830 QAJ458797:QAJ458830 QKF458797:QKF458830 QUB458797:QUB458830 RDX458797:RDX458830 RNT458797:RNT458830 RXP458797:RXP458830 SHL458797:SHL458830 SRH458797:SRH458830 TBD458797:TBD458830 TKZ458797:TKZ458830 TUV458797:TUV458830 UER458797:UER458830 UON458797:UON458830 UYJ458797:UYJ458830 VIF458797:VIF458830 VSB458797:VSB458830 WBX458797:WBX458830 WLT458797:WLT458830 WVP458797:WVP458830 H524333:H524366 JD524333:JD524366 SZ524333:SZ524366 ACV524333:ACV524366 AMR524333:AMR524366 AWN524333:AWN524366 BGJ524333:BGJ524366 BQF524333:BQF524366 CAB524333:CAB524366 CJX524333:CJX524366 CTT524333:CTT524366 DDP524333:DDP524366 DNL524333:DNL524366 DXH524333:DXH524366 EHD524333:EHD524366 EQZ524333:EQZ524366 FAV524333:FAV524366 FKR524333:FKR524366 FUN524333:FUN524366 GEJ524333:GEJ524366 GOF524333:GOF524366 GYB524333:GYB524366 HHX524333:HHX524366 HRT524333:HRT524366 IBP524333:IBP524366 ILL524333:ILL524366 IVH524333:IVH524366 JFD524333:JFD524366 JOZ524333:JOZ524366 JYV524333:JYV524366 KIR524333:KIR524366 KSN524333:KSN524366 LCJ524333:LCJ524366 LMF524333:LMF524366 LWB524333:LWB524366 MFX524333:MFX524366 MPT524333:MPT524366 MZP524333:MZP524366 NJL524333:NJL524366 NTH524333:NTH524366 ODD524333:ODD524366 OMZ524333:OMZ524366 OWV524333:OWV524366 PGR524333:PGR524366 PQN524333:PQN524366 QAJ524333:QAJ524366 QKF524333:QKF524366 QUB524333:QUB524366 RDX524333:RDX524366 RNT524333:RNT524366 RXP524333:RXP524366 SHL524333:SHL524366 SRH524333:SRH524366 TBD524333:TBD524366 TKZ524333:TKZ524366 TUV524333:TUV524366 UER524333:UER524366 UON524333:UON524366 UYJ524333:UYJ524366 VIF524333:VIF524366 VSB524333:VSB524366 WBX524333:WBX524366 WLT524333:WLT524366 WVP524333:WVP524366 H589869:H589902 JD589869:JD589902 SZ589869:SZ589902 ACV589869:ACV589902 AMR589869:AMR589902 AWN589869:AWN589902 BGJ589869:BGJ589902 BQF589869:BQF589902 CAB589869:CAB589902 CJX589869:CJX589902 CTT589869:CTT589902 DDP589869:DDP589902 DNL589869:DNL589902 DXH589869:DXH589902 EHD589869:EHD589902 EQZ589869:EQZ589902 FAV589869:FAV589902 FKR589869:FKR589902 FUN589869:FUN589902 GEJ589869:GEJ589902 GOF589869:GOF589902 GYB589869:GYB589902 HHX589869:HHX589902 HRT589869:HRT589902 IBP589869:IBP589902 ILL589869:ILL589902 IVH589869:IVH589902 JFD589869:JFD589902 JOZ589869:JOZ589902 JYV589869:JYV589902 KIR589869:KIR589902 KSN589869:KSN589902 LCJ589869:LCJ589902 LMF589869:LMF589902 LWB589869:LWB589902 MFX589869:MFX589902 MPT589869:MPT589902 MZP589869:MZP589902 NJL589869:NJL589902 NTH589869:NTH589902 ODD589869:ODD589902 OMZ589869:OMZ589902 OWV589869:OWV589902 PGR589869:PGR589902 PQN589869:PQN589902 QAJ589869:QAJ589902 QKF589869:QKF589902 QUB589869:QUB589902 RDX589869:RDX589902 RNT589869:RNT589902 RXP589869:RXP589902 SHL589869:SHL589902 SRH589869:SRH589902 TBD589869:TBD589902 TKZ589869:TKZ589902 TUV589869:TUV589902 UER589869:UER589902 UON589869:UON589902 UYJ589869:UYJ589902 VIF589869:VIF589902 VSB589869:VSB589902 WBX589869:WBX589902 WLT589869:WLT589902 WVP589869:WVP589902 H655405:H655438 JD655405:JD655438 SZ655405:SZ655438 ACV655405:ACV655438 AMR655405:AMR655438 AWN655405:AWN655438 BGJ655405:BGJ655438 BQF655405:BQF655438 CAB655405:CAB655438 CJX655405:CJX655438 CTT655405:CTT655438 DDP655405:DDP655438 DNL655405:DNL655438 DXH655405:DXH655438 EHD655405:EHD655438 EQZ655405:EQZ655438 FAV655405:FAV655438 FKR655405:FKR655438 FUN655405:FUN655438 GEJ655405:GEJ655438 GOF655405:GOF655438 GYB655405:GYB655438 HHX655405:HHX655438 HRT655405:HRT655438 IBP655405:IBP655438 ILL655405:ILL655438 IVH655405:IVH655438 JFD655405:JFD655438 JOZ655405:JOZ655438 JYV655405:JYV655438 KIR655405:KIR655438 KSN655405:KSN655438 LCJ655405:LCJ655438 LMF655405:LMF655438 LWB655405:LWB655438 MFX655405:MFX655438 MPT655405:MPT655438 MZP655405:MZP655438 NJL655405:NJL655438 NTH655405:NTH655438 ODD655405:ODD655438 OMZ655405:OMZ655438 OWV655405:OWV655438 PGR655405:PGR655438 PQN655405:PQN655438 QAJ655405:QAJ655438 QKF655405:QKF655438 QUB655405:QUB655438 RDX655405:RDX655438 RNT655405:RNT655438 RXP655405:RXP655438 SHL655405:SHL655438 SRH655405:SRH655438 TBD655405:TBD655438 TKZ655405:TKZ655438 TUV655405:TUV655438 UER655405:UER655438 UON655405:UON655438 UYJ655405:UYJ655438 VIF655405:VIF655438 VSB655405:VSB655438 WBX655405:WBX655438 WLT655405:WLT655438 WVP655405:WVP655438 H720941:H720974 JD720941:JD720974 SZ720941:SZ720974 ACV720941:ACV720974 AMR720941:AMR720974 AWN720941:AWN720974 BGJ720941:BGJ720974 BQF720941:BQF720974 CAB720941:CAB720974 CJX720941:CJX720974 CTT720941:CTT720974 DDP720941:DDP720974 DNL720941:DNL720974 DXH720941:DXH720974 EHD720941:EHD720974 EQZ720941:EQZ720974 FAV720941:FAV720974 FKR720941:FKR720974 FUN720941:FUN720974 GEJ720941:GEJ720974 GOF720941:GOF720974 GYB720941:GYB720974 HHX720941:HHX720974 HRT720941:HRT720974 IBP720941:IBP720974 ILL720941:ILL720974 IVH720941:IVH720974 JFD720941:JFD720974 JOZ720941:JOZ720974 JYV720941:JYV720974 KIR720941:KIR720974 KSN720941:KSN720974 LCJ720941:LCJ720974 LMF720941:LMF720974 LWB720941:LWB720974 MFX720941:MFX720974 MPT720941:MPT720974 MZP720941:MZP720974 NJL720941:NJL720974 NTH720941:NTH720974 ODD720941:ODD720974 OMZ720941:OMZ720974 OWV720941:OWV720974 PGR720941:PGR720974 PQN720941:PQN720974 QAJ720941:QAJ720974 QKF720941:QKF720974 QUB720941:QUB720974 RDX720941:RDX720974 RNT720941:RNT720974 RXP720941:RXP720974 SHL720941:SHL720974 SRH720941:SRH720974 TBD720941:TBD720974 TKZ720941:TKZ720974 TUV720941:TUV720974 UER720941:UER720974 UON720941:UON720974 UYJ720941:UYJ720974 VIF720941:VIF720974 VSB720941:VSB720974 WBX720941:WBX720974 WLT720941:WLT720974 WVP720941:WVP720974 H786477:H786510 JD786477:JD786510 SZ786477:SZ786510 ACV786477:ACV786510 AMR786477:AMR786510 AWN786477:AWN786510 BGJ786477:BGJ786510 BQF786477:BQF786510 CAB786477:CAB786510 CJX786477:CJX786510 CTT786477:CTT786510 DDP786477:DDP786510 DNL786477:DNL786510 DXH786477:DXH786510 EHD786477:EHD786510 EQZ786477:EQZ786510 FAV786477:FAV786510 FKR786477:FKR786510 FUN786477:FUN786510 GEJ786477:GEJ786510 GOF786477:GOF786510 GYB786477:GYB786510 HHX786477:HHX786510 HRT786477:HRT786510 IBP786477:IBP786510 ILL786477:ILL786510 IVH786477:IVH786510 JFD786477:JFD786510 JOZ786477:JOZ786510 JYV786477:JYV786510 KIR786477:KIR786510 KSN786477:KSN786510 LCJ786477:LCJ786510 LMF786477:LMF786510 LWB786477:LWB786510 MFX786477:MFX786510 MPT786477:MPT786510 MZP786477:MZP786510 NJL786477:NJL786510 NTH786477:NTH786510 ODD786477:ODD786510 OMZ786477:OMZ786510 OWV786477:OWV786510 PGR786477:PGR786510 PQN786477:PQN786510 QAJ786477:QAJ786510 QKF786477:QKF786510 QUB786477:QUB786510 RDX786477:RDX786510 RNT786477:RNT786510 RXP786477:RXP786510 SHL786477:SHL786510 SRH786477:SRH786510 TBD786477:TBD786510 TKZ786477:TKZ786510 TUV786477:TUV786510 UER786477:UER786510 UON786477:UON786510 UYJ786477:UYJ786510 VIF786477:VIF786510 VSB786477:VSB786510 WBX786477:WBX786510 WLT786477:WLT786510 WVP786477:WVP786510 H852013:H852046 JD852013:JD852046 SZ852013:SZ852046 ACV852013:ACV852046 AMR852013:AMR852046 AWN852013:AWN852046 BGJ852013:BGJ852046 BQF852013:BQF852046 CAB852013:CAB852046 CJX852013:CJX852046 CTT852013:CTT852046 DDP852013:DDP852046 DNL852013:DNL852046 DXH852013:DXH852046 EHD852013:EHD852046 EQZ852013:EQZ852046 FAV852013:FAV852046 FKR852013:FKR852046 FUN852013:FUN852046 GEJ852013:GEJ852046 GOF852013:GOF852046 GYB852013:GYB852046 HHX852013:HHX852046 HRT852013:HRT852046 IBP852013:IBP852046 ILL852013:ILL852046 IVH852013:IVH852046 JFD852013:JFD852046 JOZ852013:JOZ852046 JYV852013:JYV852046 KIR852013:KIR852046 KSN852013:KSN852046 LCJ852013:LCJ852046 LMF852013:LMF852046 LWB852013:LWB852046 MFX852013:MFX852046 MPT852013:MPT852046 MZP852013:MZP852046 NJL852013:NJL852046 NTH852013:NTH852046 ODD852013:ODD852046 OMZ852013:OMZ852046 OWV852013:OWV852046 PGR852013:PGR852046 PQN852013:PQN852046 QAJ852013:QAJ852046 QKF852013:QKF852046 QUB852013:QUB852046 RDX852013:RDX852046 RNT852013:RNT852046 RXP852013:RXP852046 SHL852013:SHL852046 SRH852013:SRH852046 TBD852013:TBD852046 TKZ852013:TKZ852046 TUV852013:TUV852046 UER852013:UER852046 UON852013:UON852046 UYJ852013:UYJ852046 VIF852013:VIF852046 VSB852013:VSB852046 WBX852013:WBX852046 WLT852013:WLT852046 WVP852013:WVP852046 H917549:H917582 JD917549:JD917582 SZ917549:SZ917582 ACV917549:ACV917582 AMR917549:AMR917582 AWN917549:AWN917582 BGJ917549:BGJ917582 BQF917549:BQF917582 CAB917549:CAB917582 CJX917549:CJX917582 CTT917549:CTT917582 DDP917549:DDP917582 DNL917549:DNL917582 DXH917549:DXH917582 EHD917549:EHD917582 EQZ917549:EQZ917582 FAV917549:FAV917582 FKR917549:FKR917582 FUN917549:FUN917582 GEJ917549:GEJ917582 GOF917549:GOF917582 GYB917549:GYB917582 HHX917549:HHX917582 HRT917549:HRT917582 IBP917549:IBP917582 ILL917549:ILL917582 IVH917549:IVH917582 JFD917549:JFD917582 JOZ917549:JOZ917582 JYV917549:JYV917582 KIR917549:KIR917582 KSN917549:KSN917582 LCJ917549:LCJ917582 LMF917549:LMF917582 LWB917549:LWB917582 MFX917549:MFX917582 MPT917549:MPT917582 MZP917549:MZP917582 NJL917549:NJL917582 NTH917549:NTH917582 ODD917549:ODD917582 OMZ917549:OMZ917582 OWV917549:OWV917582 PGR917549:PGR917582 PQN917549:PQN917582 QAJ917549:QAJ917582 QKF917549:QKF917582 QUB917549:QUB917582 RDX917549:RDX917582 RNT917549:RNT917582 RXP917549:RXP917582 SHL917549:SHL917582 SRH917549:SRH917582 TBD917549:TBD917582 TKZ917549:TKZ917582 TUV917549:TUV917582 UER917549:UER917582 UON917549:UON917582 UYJ917549:UYJ917582 VIF917549:VIF917582 VSB917549:VSB917582 WBX917549:WBX917582 WLT917549:WLT917582 WVP917549:WVP917582 H983085:H983118 JD983085:JD983118 SZ983085:SZ983118 ACV983085:ACV983118 AMR983085:AMR983118 AWN983085:AWN983118 BGJ983085:BGJ983118 BQF983085:BQF983118 CAB983085:CAB983118 CJX983085:CJX983118 CTT983085:CTT983118 DDP983085:DDP983118 DNL983085:DNL983118 DXH983085:DXH983118 EHD983085:EHD983118 EQZ983085:EQZ983118 FAV983085:FAV983118 FKR983085:FKR983118 FUN983085:FUN983118 GEJ983085:GEJ983118 GOF983085:GOF983118 GYB983085:GYB983118 HHX983085:HHX983118 HRT983085:HRT983118 IBP983085:IBP983118 ILL983085:ILL983118 IVH983085:IVH983118 JFD983085:JFD983118 JOZ983085:JOZ983118 JYV983085:JYV983118 KIR983085:KIR983118 KSN983085:KSN983118 LCJ983085:LCJ983118 LMF983085:LMF983118 LWB983085:LWB983118 MFX983085:MFX983118 MPT983085:MPT983118 MZP983085:MZP983118 NJL983085:NJL983118 NTH983085:NTH983118 ODD983085:ODD983118 OMZ983085:OMZ983118 OWV983085:OWV983118 PGR983085:PGR983118 PQN983085:PQN983118 QAJ983085:QAJ983118 QKF983085:QKF983118 QUB983085:QUB983118 RDX983085:RDX983118 RNT983085:RNT983118 RXP983085:RXP983118 SHL983085:SHL983118 SRH983085:SRH983118 TBD983085:TBD983118 TKZ983085:TKZ983118 TUV983085:TUV983118 UER983085:UER983118 UON983085:UON983118 UYJ983085:UYJ983118 VIF983085:VIF983118 VSB983085:VSB983118 WBX983085:WBX983118 WLT983085:WLT983118 WVP983085:WVP983118 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H741" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F14401-FBDF-4201-A5A6-D079C3732726}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EEFF27-907D-42FA-99F1-342DE0FA2D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="540">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2682,526 +2682,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B580" workbookViewId="0">
-      <selection activeCell="G592" sqref="G592"/>
+    <sheetView tabSelected="1" topLeftCell="B598" workbookViewId="0">
+      <selection activeCell="G608" sqref="G608"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="54.375" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.83203125" customWidth="1"/>
+    <col min="257" max="257" width="16.875" customWidth="1"/>
     <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.08203125" customWidth="1"/>
+    <col min="259" max="259" width="8.125" customWidth="1"/>
     <col min="260" max="260" width="9.25" customWidth="1"/>
     <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.83203125" customWidth="1"/>
-    <col min="263" max="263" width="54.33203125" customWidth="1"/>
+    <col min="262" max="262" width="9.875" customWidth="1"/>
+    <col min="263" max="263" width="54.375" customWidth="1"/>
     <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.83203125" customWidth="1"/>
+    <col min="513" max="513" width="16.875" customWidth="1"/>
     <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.08203125" customWidth="1"/>
+    <col min="515" max="515" width="8.125" customWidth="1"/>
     <col min="516" max="516" width="9.25" customWidth="1"/>
     <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.83203125" customWidth="1"/>
-    <col min="519" max="519" width="54.33203125" customWidth="1"/>
+    <col min="518" max="518" width="9.875" customWidth="1"/>
+    <col min="519" max="519" width="54.375" customWidth="1"/>
     <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.83203125" customWidth="1"/>
+    <col min="769" max="769" width="16.875" customWidth="1"/>
     <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.08203125" customWidth="1"/>
+    <col min="771" max="771" width="8.125" customWidth="1"/>
     <col min="772" max="772" width="9.25" customWidth="1"/>
     <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.83203125" customWidth="1"/>
-    <col min="775" max="775" width="54.33203125" customWidth="1"/>
+    <col min="774" max="774" width="9.875" customWidth="1"/>
+    <col min="775" max="775" width="54.375" customWidth="1"/>
     <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
+    <col min="1025" max="1025" width="16.875" customWidth="1"/>
     <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.125" customWidth="1"/>
     <col min="1028" max="1028" width="9.25" customWidth="1"/>
     <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
-    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.875" customWidth="1"/>
+    <col min="1031" max="1031" width="54.375" customWidth="1"/>
     <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
+    <col min="1281" max="1281" width="16.875" customWidth="1"/>
     <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.125" customWidth="1"/>
     <col min="1284" max="1284" width="9.25" customWidth="1"/>
     <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
-    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.875" customWidth="1"/>
+    <col min="1287" max="1287" width="54.375" customWidth="1"/>
     <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
+    <col min="1537" max="1537" width="16.875" customWidth="1"/>
     <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.125" customWidth="1"/>
     <col min="1540" max="1540" width="9.25" customWidth="1"/>
     <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
-    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.875" customWidth="1"/>
+    <col min="1543" max="1543" width="54.375" customWidth="1"/>
     <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
+    <col min="1793" max="1793" width="16.875" customWidth="1"/>
     <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.125" customWidth="1"/>
     <col min="1796" max="1796" width="9.25" customWidth="1"/>
     <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
-    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.875" customWidth="1"/>
+    <col min="1799" max="1799" width="54.375" customWidth="1"/>
     <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
+    <col min="2049" max="2049" width="16.875" customWidth="1"/>
     <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.125" customWidth="1"/>
     <col min="2052" max="2052" width="9.25" customWidth="1"/>
     <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
-    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.875" customWidth="1"/>
+    <col min="2055" max="2055" width="54.375" customWidth="1"/>
     <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
+    <col min="2305" max="2305" width="16.875" customWidth="1"/>
     <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.125" customWidth="1"/>
     <col min="2308" max="2308" width="9.25" customWidth="1"/>
     <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
-    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.875" customWidth="1"/>
+    <col min="2311" max="2311" width="54.375" customWidth="1"/>
     <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
+    <col min="2561" max="2561" width="16.875" customWidth="1"/>
     <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.125" customWidth="1"/>
     <col min="2564" max="2564" width="9.25" customWidth="1"/>
     <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
-    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.875" customWidth="1"/>
+    <col min="2567" max="2567" width="54.375" customWidth="1"/>
     <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
+    <col min="2817" max="2817" width="16.875" customWidth="1"/>
     <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.125" customWidth="1"/>
     <col min="2820" max="2820" width="9.25" customWidth="1"/>
     <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
-    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.875" customWidth="1"/>
+    <col min="2823" max="2823" width="54.375" customWidth="1"/>
     <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
+    <col min="3073" max="3073" width="16.875" customWidth="1"/>
     <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.125" customWidth="1"/>
     <col min="3076" max="3076" width="9.25" customWidth="1"/>
     <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
-    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.875" customWidth="1"/>
+    <col min="3079" max="3079" width="54.375" customWidth="1"/>
     <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
+    <col min="3329" max="3329" width="16.875" customWidth="1"/>
     <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.125" customWidth="1"/>
     <col min="3332" max="3332" width="9.25" customWidth="1"/>
     <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
-    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.875" customWidth="1"/>
+    <col min="3335" max="3335" width="54.375" customWidth="1"/>
     <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
+    <col min="3585" max="3585" width="16.875" customWidth="1"/>
     <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.125" customWidth="1"/>
     <col min="3588" max="3588" width="9.25" customWidth="1"/>
     <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
-    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.875" customWidth="1"/>
+    <col min="3591" max="3591" width="54.375" customWidth="1"/>
     <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
+    <col min="3841" max="3841" width="16.875" customWidth="1"/>
     <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.125" customWidth="1"/>
     <col min="3844" max="3844" width="9.25" customWidth="1"/>
     <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
-    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.875" customWidth="1"/>
+    <col min="3847" max="3847" width="54.375" customWidth="1"/>
     <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
+    <col min="4097" max="4097" width="16.875" customWidth="1"/>
     <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.125" customWidth="1"/>
     <col min="4100" max="4100" width="9.25" customWidth="1"/>
     <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
-    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.875" customWidth="1"/>
+    <col min="4103" max="4103" width="54.375" customWidth="1"/>
     <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
+    <col min="4353" max="4353" width="16.875" customWidth="1"/>
     <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.125" customWidth="1"/>
     <col min="4356" max="4356" width="9.25" customWidth="1"/>
     <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
-    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.875" customWidth="1"/>
+    <col min="4359" max="4359" width="54.375" customWidth="1"/>
     <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
+    <col min="4609" max="4609" width="16.875" customWidth="1"/>
     <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.125" customWidth="1"/>
     <col min="4612" max="4612" width="9.25" customWidth="1"/>
     <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
-    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.875" customWidth="1"/>
+    <col min="4615" max="4615" width="54.375" customWidth="1"/>
     <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
+    <col min="4865" max="4865" width="16.875" customWidth="1"/>
     <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.125" customWidth="1"/>
     <col min="4868" max="4868" width="9.25" customWidth="1"/>
     <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
-    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.875" customWidth="1"/>
+    <col min="4871" max="4871" width="54.375" customWidth="1"/>
     <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
+    <col min="5121" max="5121" width="16.875" customWidth="1"/>
     <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.125" customWidth="1"/>
     <col min="5124" max="5124" width="9.25" customWidth="1"/>
     <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
-    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.875" customWidth="1"/>
+    <col min="5127" max="5127" width="54.375" customWidth="1"/>
     <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
+    <col min="5377" max="5377" width="16.875" customWidth="1"/>
     <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.125" customWidth="1"/>
     <col min="5380" max="5380" width="9.25" customWidth="1"/>
     <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
-    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.875" customWidth="1"/>
+    <col min="5383" max="5383" width="54.375" customWidth="1"/>
     <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
+    <col min="5633" max="5633" width="16.875" customWidth="1"/>
     <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.125" customWidth="1"/>
     <col min="5636" max="5636" width="9.25" customWidth="1"/>
     <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
-    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.875" customWidth="1"/>
+    <col min="5639" max="5639" width="54.375" customWidth="1"/>
     <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
+    <col min="5889" max="5889" width="16.875" customWidth="1"/>
     <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.125" customWidth="1"/>
     <col min="5892" max="5892" width="9.25" customWidth="1"/>
     <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
-    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.875" customWidth="1"/>
+    <col min="5895" max="5895" width="54.375" customWidth="1"/>
     <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
+    <col min="6145" max="6145" width="16.875" customWidth="1"/>
     <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.125" customWidth="1"/>
     <col min="6148" max="6148" width="9.25" customWidth="1"/>
     <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
-    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.875" customWidth="1"/>
+    <col min="6151" max="6151" width="54.375" customWidth="1"/>
     <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
+    <col min="6401" max="6401" width="16.875" customWidth="1"/>
     <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.125" customWidth="1"/>
     <col min="6404" max="6404" width="9.25" customWidth="1"/>
     <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
-    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.875" customWidth="1"/>
+    <col min="6407" max="6407" width="54.375" customWidth="1"/>
     <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
+    <col min="6657" max="6657" width="16.875" customWidth="1"/>
     <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.125" customWidth="1"/>
     <col min="6660" max="6660" width="9.25" customWidth="1"/>
     <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
-    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.875" customWidth="1"/>
+    <col min="6663" max="6663" width="54.375" customWidth="1"/>
     <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
+    <col min="6913" max="6913" width="16.875" customWidth="1"/>
     <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.125" customWidth="1"/>
     <col min="6916" max="6916" width="9.25" customWidth="1"/>
     <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
-    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.875" customWidth="1"/>
+    <col min="6919" max="6919" width="54.375" customWidth="1"/>
     <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
+    <col min="7169" max="7169" width="16.875" customWidth="1"/>
     <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.125" customWidth="1"/>
     <col min="7172" max="7172" width="9.25" customWidth="1"/>
     <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
-    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.875" customWidth="1"/>
+    <col min="7175" max="7175" width="54.375" customWidth="1"/>
     <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
+    <col min="7425" max="7425" width="16.875" customWidth="1"/>
     <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.125" customWidth="1"/>
     <col min="7428" max="7428" width="9.25" customWidth="1"/>
     <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
-    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.875" customWidth="1"/>
+    <col min="7431" max="7431" width="54.375" customWidth="1"/>
     <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
+    <col min="7681" max="7681" width="16.875" customWidth="1"/>
     <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.125" customWidth="1"/>
     <col min="7684" max="7684" width="9.25" customWidth="1"/>
     <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
-    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.875" customWidth="1"/>
+    <col min="7687" max="7687" width="54.375" customWidth="1"/>
     <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
+    <col min="7937" max="7937" width="16.875" customWidth="1"/>
     <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.125" customWidth="1"/>
     <col min="7940" max="7940" width="9.25" customWidth="1"/>
     <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
-    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.875" customWidth="1"/>
+    <col min="7943" max="7943" width="54.375" customWidth="1"/>
     <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
+    <col min="8193" max="8193" width="16.875" customWidth="1"/>
     <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.125" customWidth="1"/>
     <col min="8196" max="8196" width="9.25" customWidth="1"/>
     <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
-    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.875" customWidth="1"/>
+    <col min="8199" max="8199" width="54.375" customWidth="1"/>
     <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
+    <col min="8449" max="8449" width="16.875" customWidth="1"/>
     <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.125" customWidth="1"/>
     <col min="8452" max="8452" width="9.25" customWidth="1"/>
     <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
-    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.875" customWidth="1"/>
+    <col min="8455" max="8455" width="54.375" customWidth="1"/>
     <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
+    <col min="8705" max="8705" width="16.875" customWidth="1"/>
     <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.125" customWidth="1"/>
     <col min="8708" max="8708" width="9.25" customWidth="1"/>
     <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
-    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.875" customWidth="1"/>
+    <col min="8711" max="8711" width="54.375" customWidth="1"/>
     <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
+    <col min="8961" max="8961" width="16.875" customWidth="1"/>
     <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.125" customWidth="1"/>
     <col min="8964" max="8964" width="9.25" customWidth="1"/>
     <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
-    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.875" customWidth="1"/>
+    <col min="8967" max="8967" width="54.375" customWidth="1"/>
     <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
+    <col min="9217" max="9217" width="16.875" customWidth="1"/>
     <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.125" customWidth="1"/>
     <col min="9220" max="9220" width="9.25" customWidth="1"/>
     <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
-    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.875" customWidth="1"/>
+    <col min="9223" max="9223" width="54.375" customWidth="1"/>
     <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
+    <col min="9473" max="9473" width="16.875" customWidth="1"/>
     <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.125" customWidth="1"/>
     <col min="9476" max="9476" width="9.25" customWidth="1"/>
     <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
-    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.875" customWidth="1"/>
+    <col min="9479" max="9479" width="54.375" customWidth="1"/>
     <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
+    <col min="9729" max="9729" width="16.875" customWidth="1"/>
     <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.125" customWidth="1"/>
     <col min="9732" max="9732" width="9.25" customWidth="1"/>
     <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
-    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.875" customWidth="1"/>
+    <col min="9735" max="9735" width="54.375" customWidth="1"/>
     <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
+    <col min="9985" max="9985" width="16.875" customWidth="1"/>
     <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.125" customWidth="1"/>
     <col min="9988" max="9988" width="9.25" customWidth="1"/>
     <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
-    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.875" customWidth="1"/>
+    <col min="9991" max="9991" width="54.375" customWidth="1"/>
     <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
+    <col min="10241" max="10241" width="16.875" customWidth="1"/>
     <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.125" customWidth="1"/>
     <col min="10244" max="10244" width="9.25" customWidth="1"/>
     <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
-    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.875" customWidth="1"/>
+    <col min="10247" max="10247" width="54.375" customWidth="1"/>
     <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
+    <col min="10497" max="10497" width="16.875" customWidth="1"/>
     <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.125" customWidth="1"/>
     <col min="10500" max="10500" width="9.25" customWidth="1"/>
     <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
-    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.875" customWidth="1"/>
+    <col min="10503" max="10503" width="54.375" customWidth="1"/>
     <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
+    <col min="10753" max="10753" width="16.875" customWidth="1"/>
     <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.125" customWidth="1"/>
     <col min="10756" max="10756" width="9.25" customWidth="1"/>
     <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
-    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.875" customWidth="1"/>
+    <col min="10759" max="10759" width="54.375" customWidth="1"/>
     <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
+    <col min="11009" max="11009" width="16.875" customWidth="1"/>
     <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.125" customWidth="1"/>
     <col min="11012" max="11012" width="9.25" customWidth="1"/>
     <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
-    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.875" customWidth="1"/>
+    <col min="11015" max="11015" width="54.375" customWidth="1"/>
     <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
+    <col min="11265" max="11265" width="16.875" customWidth="1"/>
     <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.125" customWidth="1"/>
     <col min="11268" max="11268" width="9.25" customWidth="1"/>
     <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
-    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.875" customWidth="1"/>
+    <col min="11271" max="11271" width="54.375" customWidth="1"/>
     <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
+    <col min="11521" max="11521" width="16.875" customWidth="1"/>
     <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.125" customWidth="1"/>
     <col min="11524" max="11524" width="9.25" customWidth="1"/>
     <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
-    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.875" customWidth="1"/>
+    <col min="11527" max="11527" width="54.375" customWidth="1"/>
     <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
+    <col min="11777" max="11777" width="16.875" customWidth="1"/>
     <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.125" customWidth="1"/>
     <col min="11780" max="11780" width="9.25" customWidth="1"/>
     <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
-    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.875" customWidth="1"/>
+    <col min="11783" max="11783" width="54.375" customWidth="1"/>
     <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
+    <col min="12033" max="12033" width="16.875" customWidth="1"/>
     <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.125" customWidth="1"/>
     <col min="12036" max="12036" width="9.25" customWidth="1"/>
     <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
-    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.875" customWidth="1"/>
+    <col min="12039" max="12039" width="54.375" customWidth="1"/>
     <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
+    <col min="12289" max="12289" width="16.875" customWidth="1"/>
     <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.125" customWidth="1"/>
     <col min="12292" max="12292" width="9.25" customWidth="1"/>
     <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
-    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.875" customWidth="1"/>
+    <col min="12295" max="12295" width="54.375" customWidth="1"/>
     <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
+    <col min="12545" max="12545" width="16.875" customWidth="1"/>
     <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.125" customWidth="1"/>
     <col min="12548" max="12548" width="9.25" customWidth="1"/>
     <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
-    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.875" customWidth="1"/>
+    <col min="12551" max="12551" width="54.375" customWidth="1"/>
     <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
+    <col min="12801" max="12801" width="16.875" customWidth="1"/>
     <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.125" customWidth="1"/>
     <col min="12804" max="12804" width="9.25" customWidth="1"/>
     <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
-    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.875" customWidth="1"/>
+    <col min="12807" max="12807" width="54.375" customWidth="1"/>
     <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
+    <col min="13057" max="13057" width="16.875" customWidth="1"/>
     <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.125" customWidth="1"/>
     <col min="13060" max="13060" width="9.25" customWidth="1"/>
     <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
-    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.875" customWidth="1"/>
+    <col min="13063" max="13063" width="54.375" customWidth="1"/>
     <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
+    <col min="13313" max="13313" width="16.875" customWidth="1"/>
     <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.125" customWidth="1"/>
     <col min="13316" max="13316" width="9.25" customWidth="1"/>
     <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
-    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.875" customWidth="1"/>
+    <col min="13319" max="13319" width="54.375" customWidth="1"/>
     <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
+    <col min="13569" max="13569" width="16.875" customWidth="1"/>
     <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.125" customWidth="1"/>
     <col min="13572" max="13572" width="9.25" customWidth="1"/>
     <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
-    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.875" customWidth="1"/>
+    <col min="13575" max="13575" width="54.375" customWidth="1"/>
     <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
+    <col min="13825" max="13825" width="16.875" customWidth="1"/>
     <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.125" customWidth="1"/>
     <col min="13828" max="13828" width="9.25" customWidth="1"/>
     <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
-    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.875" customWidth="1"/>
+    <col min="13831" max="13831" width="54.375" customWidth="1"/>
     <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
+    <col min="14081" max="14081" width="16.875" customWidth="1"/>
     <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.125" customWidth="1"/>
     <col min="14084" max="14084" width="9.25" customWidth="1"/>
     <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
-    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.875" customWidth="1"/>
+    <col min="14087" max="14087" width="54.375" customWidth="1"/>
     <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
+    <col min="14337" max="14337" width="16.875" customWidth="1"/>
     <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.125" customWidth="1"/>
     <col min="14340" max="14340" width="9.25" customWidth="1"/>
     <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
-    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.875" customWidth="1"/>
+    <col min="14343" max="14343" width="54.375" customWidth="1"/>
     <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
+    <col min="14593" max="14593" width="16.875" customWidth="1"/>
     <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.125" customWidth="1"/>
     <col min="14596" max="14596" width="9.25" customWidth="1"/>
     <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
-    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.875" customWidth="1"/>
+    <col min="14599" max="14599" width="54.375" customWidth="1"/>
     <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
+    <col min="14849" max="14849" width="16.875" customWidth="1"/>
     <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.125" customWidth="1"/>
     <col min="14852" max="14852" width="9.25" customWidth="1"/>
     <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
-    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.875" customWidth="1"/>
+    <col min="14855" max="14855" width="54.375" customWidth="1"/>
     <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
+    <col min="15105" max="15105" width="16.875" customWidth="1"/>
     <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.125" customWidth="1"/>
     <col min="15108" max="15108" width="9.25" customWidth="1"/>
     <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
-    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.875" customWidth="1"/>
+    <col min="15111" max="15111" width="54.375" customWidth="1"/>
     <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
+    <col min="15361" max="15361" width="16.875" customWidth="1"/>
     <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.125" customWidth="1"/>
     <col min="15364" max="15364" width="9.25" customWidth="1"/>
     <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
-    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.875" customWidth="1"/>
+    <col min="15367" max="15367" width="54.375" customWidth="1"/>
     <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
+    <col min="15617" max="15617" width="16.875" customWidth="1"/>
     <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.125" customWidth="1"/>
     <col min="15620" max="15620" width="9.25" customWidth="1"/>
     <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
-    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.875" customWidth="1"/>
+    <col min="15623" max="15623" width="54.375" customWidth="1"/>
     <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
+    <col min="15873" max="15873" width="16.875" customWidth="1"/>
     <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.125" customWidth="1"/>
     <col min="15876" max="15876" width="9.25" customWidth="1"/>
     <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
-    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.875" customWidth="1"/>
+    <col min="15879" max="15879" width="54.375" customWidth="1"/>
     <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
+    <col min="16129" max="16129" width="16.875" customWidth="1"/>
     <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.125" customWidth="1"/>
     <col min="16132" max="16132" width="9.25" customWidth="1"/>
     <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
-    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.875" customWidth="1"/>
+    <col min="16135" max="16135" width="54.375" customWidth="1"/>
     <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -19988,42 +19988,26 @@
       <c r="J603" s="10"/>
     </row>
     <row r="604" spans="1:10">
-      <c r="A604" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A604" s="7"/>
       <c r="B604" s="5"/>
-      <c r="C604" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C604" s="8"/>
       <c r="D604" s="15"/>
       <c r="E604" s="15"/>
-      <c r="F604" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F604" s="13"/>
       <c r="G604" s="12"/>
-      <c r="H604" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H604" s="8"/>
       <c r="I604" s="9"/>
       <c r="J604" s="10"/>
     </row>
     <row r="605" spans="1:10">
-      <c r="A605" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A605" s="7"/>
       <c r="B605" s="5"/>
-      <c r="C605" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C605" s="8"/>
       <c r="D605" s="15"/>
       <c r="E605" s="15"/>
-      <c r="F605" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F605" s="13"/>
       <c r="G605" s="12"/>
-      <c r="H605" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H605" s="8"/>
       <c r="I605" s="9"/>
       <c r="J605" s="10"/>
     </row>
@@ -20035,8 +20019,12 @@
       <c r="C606" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D606" s="15"/>
-      <c r="E606" s="15"/>
+      <c r="D606" s="15">
+        <v>43556</v>
+      </c>
+      <c r="E606" s="15">
+        <v>43556</v>
+      </c>
       <c r="F606" s="13" t="s">
         <v>240</v>
       </c>
@@ -20055,8 +20043,12 @@
       <c r="C607" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D607" s="15"/>
-      <c r="E607" s="15"/>
+      <c r="D607" s="15">
+        <v>43556</v>
+      </c>
+      <c r="E607" s="15">
+        <v>43556</v>
+      </c>
       <c r="F607" s="13" t="s">
         <v>240</v>
       </c>
@@ -20075,8 +20067,12 @@
       <c r="C608" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D608" s="15"/>
-      <c r="E608" s="15"/>
+      <c r="D608" s="15">
+        <v>43556</v>
+      </c>
+      <c r="E608" s="15">
+        <v>43556</v>
+      </c>
       <c r="F608" s="13" t="s">
         <v>240</v>
       </c>
@@ -20095,8 +20091,12 @@
       <c r="C609" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D609" s="15"/>
-      <c r="E609" s="15"/>
+      <c r="D609" s="15">
+        <v>43557</v>
+      </c>
+      <c r="E609" s="15">
+        <v>43557</v>
+      </c>
       <c r="F609" s="13" t="s">
         <v>240</v>
       </c>
@@ -20115,8 +20115,12 @@
       <c r="C610" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D610" s="15"/>
-      <c r="E610" s="15"/>
+      <c r="D610" s="15">
+        <v>43557</v>
+      </c>
+      <c r="E610" s="15">
+        <v>43557</v>
+      </c>
       <c r="F610" s="13" t="s">
         <v>240</v>
       </c>
@@ -20135,8 +20139,12 @@
       <c r="C611" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D611" s="15"/>
-      <c r="E611" s="15"/>
+      <c r="D611" s="15">
+        <v>43557</v>
+      </c>
+      <c r="E611" s="15">
+        <v>43557</v>
+      </c>
       <c r="F611" s="13" t="s">
         <v>240</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EEFF27-907D-42FA-99F1-342DE0FA2D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D245F75-1E76-4B81-8FB8-7DEF61229A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="540">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B598" workbookViewId="0">
-      <selection activeCell="G608" sqref="G608"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="G616" sqref="G616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -20032,7 +20032,9 @@
       <c r="H606" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I606" s="9"/>
+      <c r="I606" s="9">
+        <v>3</v>
+      </c>
       <c r="J606" s="10"/>
     </row>
     <row r="607" spans="1:10">
@@ -20056,7 +20058,9 @@
       <c r="H607" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I607" s="9"/>
+      <c r="I607" s="9">
+        <v>3</v>
+      </c>
       <c r="J607" s="10"/>
     </row>
     <row r="608" spans="1:10">
@@ -20080,7 +20084,9 @@
       <c r="H608" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I608" s="9"/>
+      <c r="I608" s="9">
+        <v>3</v>
+      </c>
       <c r="J608" s="10"/>
     </row>
     <row r="609" spans="1:10">
@@ -20104,7 +20110,9 @@
       <c r="H609" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I609" s="9"/>
+      <c r="I609" s="9">
+        <v>3</v>
+      </c>
       <c r="J609" s="10"/>
     </row>
     <row r="610" spans="1:10">
@@ -20128,7 +20136,9 @@
       <c r="H610" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I610" s="9"/>
+      <c r="I610" s="9">
+        <v>3</v>
+      </c>
       <c r="J610" s="10"/>
     </row>
     <row r="611" spans="1:10">
@@ -20152,7 +20162,9 @@
       <c r="H611" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I611" s="9"/>
+      <c r="I611" s="9">
+        <v>3</v>
+      </c>
       <c r="J611" s="10"/>
     </row>
     <row r="612" spans="1:10">
@@ -20163,8 +20175,12 @@
       <c r="C612" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D612" s="15"/>
-      <c r="E612" s="15"/>
+      <c r="D612" s="15">
+        <v>43558</v>
+      </c>
+      <c r="E612" s="15">
+        <v>43558</v>
+      </c>
       <c r="F612" s="13" t="s">
         <v>240</v>
       </c>
@@ -20172,7 +20188,9 @@
       <c r="H612" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I612" s="9"/>
+      <c r="I612" s="9">
+        <v>3</v>
+      </c>
       <c r="J612" s="10"/>
     </row>
     <row r="613" spans="1:10">
@@ -20183,8 +20201,12 @@
       <c r="C613" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D613" s="15"/>
-      <c r="E613" s="15"/>
+      <c r="D613" s="15">
+        <v>43558</v>
+      </c>
+      <c r="E613" s="15">
+        <v>43558</v>
+      </c>
       <c r="F613" s="13" t="s">
         <v>240</v>
       </c>
@@ -20192,7 +20214,9 @@
       <c r="H613" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I613" s="9"/>
+      <c r="I613" s="9">
+        <v>3</v>
+      </c>
       <c r="J613" s="10"/>
     </row>
     <row r="614" spans="1:10">
@@ -20203,8 +20227,12 @@
       <c r="C614" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D614" s="15"/>
-      <c r="E614" s="15"/>
+      <c r="D614" s="15">
+        <v>43558</v>
+      </c>
+      <c r="E614" s="15">
+        <v>43558</v>
+      </c>
       <c r="F614" s="13" t="s">
         <v>240</v>
       </c>
@@ -20212,7 +20240,9 @@
       <c r="H614" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I614" s="9"/>
+      <c r="I614" s="9">
+        <v>3</v>
+      </c>
       <c r="J614" s="10"/>
     </row>
     <row r="615" spans="1:10">
@@ -20223,8 +20253,12 @@
       <c r="C615" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D615" s="15"/>
-      <c r="E615" s="15"/>
+      <c r="D615" s="15">
+        <v>43559</v>
+      </c>
+      <c r="E615" s="15">
+        <v>43559</v>
+      </c>
       <c r="F615" s="13" t="s">
         <v>240</v>
       </c>
@@ -20232,7 +20266,9 @@
       <c r="H615" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I615" s="9"/>
+      <c r="I615" s="9">
+        <v>3</v>
+      </c>
       <c r="J615" s="10"/>
     </row>
     <row r="616" spans="1:10">
@@ -20243,8 +20279,12 @@
       <c r="C616" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D616" s="15"/>
-      <c r="E616" s="15"/>
+      <c r="D616" s="15">
+        <v>43559</v>
+      </c>
+      <c r="E616" s="15">
+        <v>43559</v>
+      </c>
       <c r="F616" s="13" t="s">
         <v>240</v>
       </c>
@@ -20252,7 +20292,9 @@
       <c r="H616" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I616" s="9"/>
+      <c r="I616" s="9">
+        <v>3</v>
+      </c>
       <c r="J616" s="10"/>
     </row>
     <row r="617" spans="1:10">
@@ -20263,8 +20305,12 @@
       <c r="C617" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D617" s="15"/>
-      <c r="E617" s="15"/>
+      <c r="D617" s="15">
+        <v>43559</v>
+      </c>
+      <c r="E617" s="15">
+        <v>43559</v>
+      </c>
       <c r="F617" s="13" t="s">
         <v>240</v>
       </c>
@@ -20272,66 +20318,44 @@
       <c r="H617" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I617" s="9"/>
+      <c r="I617" s="9">
+        <v>3</v>
+      </c>
       <c r="J617" s="10"/>
     </row>
     <row r="618" spans="1:10">
-      <c r="A618" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A618" s="7"/>
       <c r="B618" s="5"/>
-      <c r="C618" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C618" s="8"/>
       <c r="D618" s="15"/>
       <c r="E618" s="15"/>
-      <c r="F618" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F618" s="13"/>
       <c r="G618" s="12"/>
-      <c r="H618" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H618" s="8"/>
       <c r="I618" s="9"/>
       <c r="J618" s="10"/>
     </row>
     <row r="619" spans="1:10">
-      <c r="A619" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A619" s="7"/>
       <c r="B619" s="5"/>
-      <c r="C619" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C619" s="8"/>
       <c r="D619" s="15"/>
       <c r="E619" s="15"/>
-      <c r="F619" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F619" s="13"/>
       <c r="G619" s="12"/>
-      <c r="H619" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H619" s="8"/>
       <c r="I619" s="9"/>
       <c r="J619" s="10"/>
     </row>
     <row r="620" spans="1:10">
-      <c r="A620" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A620" s="7"/>
       <c r="B620" s="5"/>
-      <c r="C620" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C620" s="8"/>
       <c r="D620" s="15"/>
       <c r="E620" s="15"/>
-      <c r="F620" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F620" s="13"/>
       <c r="G620" s="12"/>
-      <c r="H620" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H620" s="8"/>
       <c r="I620" s="9"/>
       <c r="J620" s="10"/>
     </row>
@@ -20343,8 +20367,12 @@
       <c r="C621" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D621" s="15"/>
-      <c r="E621" s="15"/>
+      <c r="D621" s="15">
+        <v>43563</v>
+      </c>
+      <c r="E621" s="15">
+        <v>43563</v>
+      </c>
       <c r="F621" s="13" t="s">
         <v>240</v>
       </c>
@@ -20363,8 +20391,12 @@
       <c r="C622" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D622" s="15"/>
-      <c r="E622" s="15"/>
+      <c r="D622" s="15">
+        <v>43563</v>
+      </c>
+      <c r="E622" s="15">
+        <v>43563</v>
+      </c>
       <c r="F622" s="13" t="s">
         <v>240</v>
       </c>
@@ -20383,8 +20415,12 @@
       <c r="C623" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D623" s="15"/>
-      <c r="E623" s="15"/>
+      <c r="D623" s="15">
+        <v>43563</v>
+      </c>
+      <c r="E623" s="15">
+        <v>43563</v>
+      </c>
       <c r="F623" s="13" t="s">
         <v>240</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D245F75-1E76-4B81-8FB8-7DEF61229A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36EA11-702F-4A76-89EE-A02DB7AB3AB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="544">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2144,6 +2144,22 @@
   </si>
   <si>
     <t>提交更新修改后为老农险的脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度服务器新农险承保脚本命令，执行今日增量数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度服务器新农险理赔脚本命令，执行今日增量数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度服务器新农险收付费脚本命令，执行今日增量数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查104服务器上程序，查看报送系统页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2682,526 +2698,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="G616" sqref="G616"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="G626" sqref="G626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="54.375" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.875" customWidth="1"/>
+    <col min="257" max="257" width="16.83203125" customWidth="1"/>
     <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.125" customWidth="1"/>
+    <col min="259" max="259" width="8.08203125" customWidth="1"/>
     <col min="260" max="260" width="9.25" customWidth="1"/>
     <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.875" customWidth="1"/>
-    <col min="263" max="263" width="54.375" customWidth="1"/>
+    <col min="262" max="262" width="9.83203125" customWidth="1"/>
+    <col min="263" max="263" width="54.33203125" customWidth="1"/>
     <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.875" customWidth="1"/>
+    <col min="513" max="513" width="16.83203125" customWidth="1"/>
     <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.125" customWidth="1"/>
+    <col min="515" max="515" width="8.08203125" customWidth="1"/>
     <col min="516" max="516" width="9.25" customWidth="1"/>
     <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.875" customWidth="1"/>
-    <col min="519" max="519" width="54.375" customWidth="1"/>
+    <col min="518" max="518" width="9.83203125" customWidth="1"/>
+    <col min="519" max="519" width="54.33203125" customWidth="1"/>
     <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.875" customWidth="1"/>
+    <col min="769" max="769" width="16.83203125" customWidth="1"/>
     <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.125" customWidth="1"/>
+    <col min="771" max="771" width="8.08203125" customWidth="1"/>
     <col min="772" max="772" width="9.25" customWidth="1"/>
     <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.875" customWidth="1"/>
-    <col min="775" max="775" width="54.375" customWidth="1"/>
+    <col min="774" max="774" width="9.83203125" customWidth="1"/>
+    <col min="775" max="775" width="54.33203125" customWidth="1"/>
     <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.875" customWidth="1"/>
+    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
     <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
     <col min="1028" max="1028" width="9.25" customWidth="1"/>
     <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.875" customWidth="1"/>
-    <col min="1031" max="1031" width="54.375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
+    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
     <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.875" customWidth="1"/>
+    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
     <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
     <col min="1284" max="1284" width="9.25" customWidth="1"/>
     <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.875" customWidth="1"/>
-    <col min="1287" max="1287" width="54.375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
+    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
     <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.875" customWidth="1"/>
+    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
     <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
     <col min="1540" max="1540" width="9.25" customWidth="1"/>
     <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.875" customWidth="1"/>
-    <col min="1543" max="1543" width="54.375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
+    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
     <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.875" customWidth="1"/>
+    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
     <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
     <col min="1796" max="1796" width="9.25" customWidth="1"/>
     <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.875" customWidth="1"/>
-    <col min="1799" max="1799" width="54.375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
+    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
     <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.875" customWidth="1"/>
+    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
     <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
     <col min="2052" max="2052" width="9.25" customWidth="1"/>
     <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.875" customWidth="1"/>
-    <col min="2055" max="2055" width="54.375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
+    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
     <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.875" customWidth="1"/>
+    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
     <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
     <col min="2308" max="2308" width="9.25" customWidth="1"/>
     <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.875" customWidth="1"/>
-    <col min="2311" max="2311" width="54.375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
+    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
     <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.875" customWidth="1"/>
+    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
     <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
     <col min="2564" max="2564" width="9.25" customWidth="1"/>
     <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.875" customWidth="1"/>
-    <col min="2567" max="2567" width="54.375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
+    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
     <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.875" customWidth="1"/>
+    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
     <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
     <col min="2820" max="2820" width="9.25" customWidth="1"/>
     <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.875" customWidth="1"/>
-    <col min="2823" max="2823" width="54.375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
+    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
     <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.875" customWidth="1"/>
+    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
     <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
     <col min="3076" max="3076" width="9.25" customWidth="1"/>
     <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.875" customWidth="1"/>
-    <col min="3079" max="3079" width="54.375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
+    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
     <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.875" customWidth="1"/>
+    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
     <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
     <col min="3332" max="3332" width="9.25" customWidth="1"/>
     <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.875" customWidth="1"/>
-    <col min="3335" max="3335" width="54.375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
+    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
     <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.875" customWidth="1"/>
+    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
     <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
     <col min="3588" max="3588" width="9.25" customWidth="1"/>
     <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.875" customWidth="1"/>
-    <col min="3591" max="3591" width="54.375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
+    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
     <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.875" customWidth="1"/>
+    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
     <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
     <col min="3844" max="3844" width="9.25" customWidth="1"/>
     <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.875" customWidth="1"/>
-    <col min="3847" max="3847" width="54.375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
+    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
     <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.875" customWidth="1"/>
+    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
     <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
     <col min="4100" max="4100" width="9.25" customWidth="1"/>
     <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.875" customWidth="1"/>
-    <col min="4103" max="4103" width="54.375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
+    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
     <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.875" customWidth="1"/>
+    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
     <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
     <col min="4356" max="4356" width="9.25" customWidth="1"/>
     <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.875" customWidth="1"/>
-    <col min="4359" max="4359" width="54.375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
+    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
     <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.875" customWidth="1"/>
+    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
     <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
     <col min="4612" max="4612" width="9.25" customWidth="1"/>
     <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.875" customWidth="1"/>
-    <col min="4615" max="4615" width="54.375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
+    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
     <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.875" customWidth="1"/>
+    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
     <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
     <col min="4868" max="4868" width="9.25" customWidth="1"/>
     <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.875" customWidth="1"/>
-    <col min="4871" max="4871" width="54.375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
+    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
     <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.875" customWidth="1"/>
+    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
     <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
     <col min="5124" max="5124" width="9.25" customWidth="1"/>
     <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.875" customWidth="1"/>
-    <col min="5127" max="5127" width="54.375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
+    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
     <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.875" customWidth="1"/>
+    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
     <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
     <col min="5380" max="5380" width="9.25" customWidth="1"/>
     <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.875" customWidth="1"/>
-    <col min="5383" max="5383" width="54.375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
+    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
     <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.875" customWidth="1"/>
+    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
     <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
     <col min="5636" max="5636" width="9.25" customWidth="1"/>
     <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.875" customWidth="1"/>
-    <col min="5639" max="5639" width="54.375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
+    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
     <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.875" customWidth="1"/>
+    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
     <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
     <col min="5892" max="5892" width="9.25" customWidth="1"/>
     <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.875" customWidth="1"/>
-    <col min="5895" max="5895" width="54.375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
+    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
     <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.875" customWidth="1"/>
+    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
     <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
     <col min="6148" max="6148" width="9.25" customWidth="1"/>
     <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.875" customWidth="1"/>
-    <col min="6151" max="6151" width="54.375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
+    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
     <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.875" customWidth="1"/>
+    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
     <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
     <col min="6404" max="6404" width="9.25" customWidth="1"/>
     <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.875" customWidth="1"/>
-    <col min="6407" max="6407" width="54.375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
+    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
     <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.875" customWidth="1"/>
+    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
     <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
     <col min="6660" max="6660" width="9.25" customWidth="1"/>
     <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.875" customWidth="1"/>
-    <col min="6663" max="6663" width="54.375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
+    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
     <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.875" customWidth="1"/>
+    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
     <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
     <col min="6916" max="6916" width="9.25" customWidth="1"/>
     <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.875" customWidth="1"/>
-    <col min="6919" max="6919" width="54.375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
+    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
     <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.875" customWidth="1"/>
+    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
     <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
     <col min="7172" max="7172" width="9.25" customWidth="1"/>
     <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.875" customWidth="1"/>
-    <col min="7175" max="7175" width="54.375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
+    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
     <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.875" customWidth="1"/>
+    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
     <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
     <col min="7428" max="7428" width="9.25" customWidth="1"/>
     <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.875" customWidth="1"/>
-    <col min="7431" max="7431" width="54.375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
+    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
     <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.875" customWidth="1"/>
+    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
     <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
     <col min="7684" max="7684" width="9.25" customWidth="1"/>
     <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.875" customWidth="1"/>
-    <col min="7687" max="7687" width="54.375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
+    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
     <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.875" customWidth="1"/>
+    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
     <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
     <col min="7940" max="7940" width="9.25" customWidth="1"/>
     <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.875" customWidth="1"/>
-    <col min="7943" max="7943" width="54.375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
+    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
     <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.875" customWidth="1"/>
+    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
     <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
     <col min="8196" max="8196" width="9.25" customWidth="1"/>
     <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.875" customWidth="1"/>
-    <col min="8199" max="8199" width="54.375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
+    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
     <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.875" customWidth="1"/>
+    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
     <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
     <col min="8452" max="8452" width="9.25" customWidth="1"/>
     <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.875" customWidth="1"/>
-    <col min="8455" max="8455" width="54.375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
+    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
     <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.875" customWidth="1"/>
+    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
     <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
     <col min="8708" max="8708" width="9.25" customWidth="1"/>
     <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.875" customWidth="1"/>
-    <col min="8711" max="8711" width="54.375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
+    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
     <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.875" customWidth="1"/>
+    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
     <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
     <col min="8964" max="8964" width="9.25" customWidth="1"/>
     <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.875" customWidth="1"/>
-    <col min="8967" max="8967" width="54.375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
+    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
     <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.875" customWidth="1"/>
+    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
     <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
     <col min="9220" max="9220" width="9.25" customWidth="1"/>
     <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.875" customWidth="1"/>
-    <col min="9223" max="9223" width="54.375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
+    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
     <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.875" customWidth="1"/>
+    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
     <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
     <col min="9476" max="9476" width="9.25" customWidth="1"/>
     <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.875" customWidth="1"/>
-    <col min="9479" max="9479" width="54.375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
+    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
     <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.875" customWidth="1"/>
+    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
     <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
     <col min="9732" max="9732" width="9.25" customWidth="1"/>
     <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.875" customWidth="1"/>
-    <col min="9735" max="9735" width="54.375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
+    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
     <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.875" customWidth="1"/>
+    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
     <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
     <col min="9988" max="9988" width="9.25" customWidth="1"/>
     <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.875" customWidth="1"/>
-    <col min="9991" max="9991" width="54.375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
+    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
     <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.875" customWidth="1"/>
+    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
     <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
     <col min="10244" max="10244" width="9.25" customWidth="1"/>
     <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.875" customWidth="1"/>
-    <col min="10247" max="10247" width="54.375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
+    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
     <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.875" customWidth="1"/>
+    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
     <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
     <col min="10500" max="10500" width="9.25" customWidth="1"/>
     <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.875" customWidth="1"/>
-    <col min="10503" max="10503" width="54.375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
+    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
     <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.875" customWidth="1"/>
+    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
     <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
     <col min="10756" max="10756" width="9.25" customWidth="1"/>
     <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.875" customWidth="1"/>
-    <col min="10759" max="10759" width="54.375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
+    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
     <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.875" customWidth="1"/>
+    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
     <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
     <col min="11012" max="11012" width="9.25" customWidth="1"/>
     <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.875" customWidth="1"/>
-    <col min="11015" max="11015" width="54.375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
+    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
     <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.875" customWidth="1"/>
+    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
     <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
     <col min="11268" max="11268" width="9.25" customWidth="1"/>
     <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.875" customWidth="1"/>
-    <col min="11271" max="11271" width="54.375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
+    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
     <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.875" customWidth="1"/>
+    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
     <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
     <col min="11524" max="11524" width="9.25" customWidth="1"/>
     <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.875" customWidth="1"/>
-    <col min="11527" max="11527" width="54.375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
+    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
     <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.875" customWidth="1"/>
+    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
     <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
     <col min="11780" max="11780" width="9.25" customWidth="1"/>
     <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.875" customWidth="1"/>
-    <col min="11783" max="11783" width="54.375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
+    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
     <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.875" customWidth="1"/>
+    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
     <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
     <col min="12036" max="12036" width="9.25" customWidth="1"/>
     <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.875" customWidth="1"/>
-    <col min="12039" max="12039" width="54.375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
+    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
     <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.875" customWidth="1"/>
+    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
     <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
     <col min="12292" max="12292" width="9.25" customWidth="1"/>
     <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.875" customWidth="1"/>
-    <col min="12295" max="12295" width="54.375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
+    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
     <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.875" customWidth="1"/>
+    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
     <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
     <col min="12548" max="12548" width="9.25" customWidth="1"/>
     <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.875" customWidth="1"/>
-    <col min="12551" max="12551" width="54.375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
+    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
     <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.875" customWidth="1"/>
+    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
     <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
     <col min="12804" max="12804" width="9.25" customWidth="1"/>
     <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.875" customWidth="1"/>
-    <col min="12807" max="12807" width="54.375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
+    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
     <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.875" customWidth="1"/>
+    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
     <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
     <col min="13060" max="13060" width="9.25" customWidth="1"/>
     <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.875" customWidth="1"/>
-    <col min="13063" max="13063" width="54.375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
+    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
     <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.875" customWidth="1"/>
+    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
     <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
     <col min="13316" max="13316" width="9.25" customWidth="1"/>
     <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.875" customWidth="1"/>
-    <col min="13319" max="13319" width="54.375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
+    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
     <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.875" customWidth="1"/>
+    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
     <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
     <col min="13572" max="13572" width="9.25" customWidth="1"/>
     <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.875" customWidth="1"/>
-    <col min="13575" max="13575" width="54.375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
+    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
     <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.875" customWidth="1"/>
+    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
     <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
     <col min="13828" max="13828" width="9.25" customWidth="1"/>
     <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.875" customWidth="1"/>
-    <col min="13831" max="13831" width="54.375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
+    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
     <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.875" customWidth="1"/>
+    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
     <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
     <col min="14084" max="14084" width="9.25" customWidth="1"/>
     <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.875" customWidth="1"/>
-    <col min="14087" max="14087" width="54.375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
+    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
     <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.875" customWidth="1"/>
+    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
     <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
     <col min="14340" max="14340" width="9.25" customWidth="1"/>
     <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.875" customWidth="1"/>
-    <col min="14343" max="14343" width="54.375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
+    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
     <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.875" customWidth="1"/>
+    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
     <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
     <col min="14596" max="14596" width="9.25" customWidth="1"/>
     <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.875" customWidth="1"/>
-    <col min="14599" max="14599" width="54.375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
+    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
     <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.875" customWidth="1"/>
+    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
     <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
     <col min="14852" max="14852" width="9.25" customWidth="1"/>
     <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.875" customWidth="1"/>
-    <col min="14855" max="14855" width="54.375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
+    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
     <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.875" customWidth="1"/>
+    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
     <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
     <col min="15108" max="15108" width="9.25" customWidth="1"/>
     <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.875" customWidth="1"/>
-    <col min="15111" max="15111" width="54.375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
+    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
     <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.875" customWidth="1"/>
+    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
     <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
     <col min="15364" max="15364" width="9.25" customWidth="1"/>
     <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.875" customWidth="1"/>
-    <col min="15367" max="15367" width="54.375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
+    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
     <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.875" customWidth="1"/>
+    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
     <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
     <col min="15620" max="15620" width="9.25" customWidth="1"/>
     <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.875" customWidth="1"/>
-    <col min="15623" max="15623" width="54.375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
+    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
     <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.875" customWidth="1"/>
+    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
     <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
     <col min="15876" max="15876" width="9.25" customWidth="1"/>
     <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.875" customWidth="1"/>
-    <col min="15879" max="15879" width="54.375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
+    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
     <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.875" customWidth="1"/>
+    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
     <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
     <col min="16132" max="16132" width="9.25" customWidth="1"/>
     <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.875" customWidth="1"/>
-    <col min="16135" max="16135" width="54.375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
+    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
     <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -20376,11 +20392,15 @@
       <c r="F621" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G621" s="12"/>
+      <c r="G621" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H621" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I621" s="9"/>
+      <c r="I621" s="9">
+        <v>2</v>
+      </c>
       <c r="J621" s="10"/>
     </row>
     <row r="622" spans="1:10">
@@ -20400,11 +20420,15 @@
       <c r="F622" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G622" s="12"/>
+      <c r="G622" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H622" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I622" s="9"/>
+      <c r="I622" s="9">
+        <v>2</v>
+      </c>
       <c r="J622" s="10"/>
     </row>
     <row r="623" spans="1:10">
@@ -20424,11 +20448,15 @@
       <c r="F623" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G623" s="12"/>
+      <c r="G623" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="H623" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I623" s="9"/>
+      <c r="I623" s="9">
+        <v>2</v>
+      </c>
       <c r="J623" s="10"/>
     </row>
     <row r="624" spans="1:10">
@@ -20439,16 +20467,24 @@
       <c r="C624" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D624" s="15"/>
-      <c r="E624" s="15"/>
+      <c r="D624" s="15">
+        <v>43563</v>
+      </c>
+      <c r="E624" s="15">
+        <v>43563</v>
+      </c>
       <c r="F624" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G624" s="12"/>
+      <c r="G624" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="H624" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I624" s="9"/>
+      <c r="I624" s="9">
+        <v>3</v>
+      </c>
       <c r="J624" s="10"/>
     </row>
     <row r="625" spans="1:10">
@@ -20459,8 +20495,12 @@
       <c r="C625" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D625" s="15"/>
-      <c r="E625" s="15"/>
+      <c r="D625" s="15">
+        <v>43564</v>
+      </c>
+      <c r="E625" s="15">
+        <v>43564</v>
+      </c>
       <c r="F625" s="13" t="s">
         <v>240</v>
       </c>
@@ -20479,8 +20519,12 @@
       <c r="C626" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D626" s="15"/>
-      <c r="E626" s="15"/>
+      <c r="D626" s="15">
+        <v>43564</v>
+      </c>
+      <c r="E626" s="15">
+        <v>43564</v>
+      </c>
       <c r="F626" s="13" t="s">
         <v>240</v>
       </c>
@@ -20499,8 +20543,12 @@
       <c r="C627" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D627" s="15"/>
-      <c r="E627" s="15"/>
+      <c r="D627" s="15">
+        <v>43564</v>
+      </c>
+      <c r="E627" s="15">
+        <v>43564</v>
+      </c>
       <c r="F627" s="13" t="s">
         <v>240</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36EA11-702F-4A76-89EE-A02DB7AB3AB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D86F49-F862-4F7B-AEC3-2F01D0176E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="555">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2160,6 +2160,50 @@
   </si>
   <si>
     <t>检查104服务器上程序，查看报送系统页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整农险脚本中出错的，查看数据库中增量数据插入成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看104服务器上,保单登记系统页面中是否有出错页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整农险脚本中出错的，查看数据库中增量数据插入成功，查看数据质量报告第三批（表间规则反馈）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据质量报告第三批（表间规则反馈）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度服务器新农险承保脚本命令，执行今日增量数据,调整脚本中不能插入的字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将承保的调度命令整理到sh文件中，调度执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动执行理赔增量数据，查看解决出错的脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理理赔调度脚本到sh文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新农险改造老农险增量桩子表脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理收付脚本到sh文件中，调度收付脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新农险改造老农险增量过程表脚本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2696,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J741"/>
+  <dimension ref="A1:J743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
-      <selection activeCell="G626" sqref="G626"/>
+    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
+      <selection activeCell="G645" sqref="G645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
@@ -20044,7 +20088,9 @@
       <c r="F606" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G606" s="12"/>
+      <c r="G606" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="H606" s="8" t="s">
         <v>11</v>
       </c>
@@ -20070,7 +20116,9 @@
       <c r="F607" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G607" s="12"/>
+      <c r="G607" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H607" s="8" t="s">
         <v>11</v>
       </c>
@@ -20096,7 +20144,9 @@
       <c r="F608" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G608" s="12"/>
+      <c r="G608" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="H608" s="8" t="s">
         <v>11</v>
       </c>
@@ -20122,7 +20172,9 @@
       <c r="F609" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G609" s="12"/>
+      <c r="G609" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="H609" s="8" t="s">
         <v>11</v>
       </c>
@@ -20148,7 +20200,9 @@
       <c r="F610" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G610" s="12"/>
+      <c r="G610" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H610" s="8" t="s">
         <v>11</v>
       </c>
@@ -20174,7 +20228,9 @@
       <c r="F611" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G611" s="12"/>
+      <c r="G611" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H611" s="8" t="s">
         <v>11</v>
       </c>
@@ -20192,15 +20248,17 @@
         <v>12</v>
       </c>
       <c r="D612" s="15">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="E612" s="15">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="F612" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G612" s="12"/>
+      <c r="G612" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="H612" s="8" t="s">
         <v>11</v>
       </c>
@@ -20226,7 +20284,9 @@
       <c r="F613" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G613" s="12"/>
+      <c r="G613" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H613" s="8" t="s">
         <v>11</v>
       </c>
@@ -20252,7 +20312,9 @@
       <c r="F614" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G614" s="12"/>
+      <c r="G614" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H614" s="8" t="s">
         <v>11</v>
       </c>
@@ -20270,15 +20332,17 @@
         <v>12</v>
       </c>
       <c r="D615" s="15">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="E615" s="15">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="F615" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G615" s="12"/>
+      <c r="G615" s="12" t="s">
+        <v>553</v>
+      </c>
       <c r="H615" s="8" t="s">
         <v>11</v>
       </c>
@@ -20304,7 +20368,9 @@
       <c r="F616" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G616" s="12"/>
+      <c r="G616" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H616" s="8" t="s">
         <v>11</v>
       </c>
@@ -20330,7 +20396,9 @@
       <c r="F617" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G617" s="12"/>
+      <c r="G617" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H617" s="8" t="s">
         <v>11</v>
       </c>
@@ -20340,15 +20408,31 @@
       <c r="J617" s="10"/>
     </row>
     <row r="618" spans="1:10">
-      <c r="A618" s="7"/>
+      <c r="A618" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B618" s="5"/>
-      <c r="C618" s="8"/>
-      <c r="D618" s="15"/>
-      <c r="E618" s="15"/>
-      <c r="F618" s="13"/>
-      <c r="G618" s="12"/>
-      <c r="H618" s="8"/>
-      <c r="I618" s="9"/>
+      <c r="C618" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" s="15">
+        <v>43559</v>
+      </c>
+      <c r="E618" s="15">
+        <v>43559</v>
+      </c>
+      <c r="F618" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G618" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H618" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I618" s="9">
+        <v>3</v>
+      </c>
       <c r="J618" s="10"/>
     </row>
     <row r="619" spans="1:10">
@@ -20504,11 +20588,15 @@
       <c r="F625" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G625" s="12"/>
+      <c r="G625" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H625" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I625" s="9"/>
+      <c r="I625" s="9">
+        <v>3</v>
+      </c>
       <c r="J625" s="10"/>
     </row>
     <row r="626" spans="1:10">
@@ -20528,11 +20616,15 @@
       <c r="F626" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G626" s="12"/>
+      <c r="G626" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H626" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I626" s="9"/>
+      <c r="I626" s="9">
+        <v>3</v>
+      </c>
       <c r="J626" s="10"/>
     </row>
     <row r="627" spans="1:10">
@@ -20552,11 +20644,15 @@
       <c r="F627" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G627" s="12"/>
+      <c r="G627" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="H627" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I627" s="9"/>
+      <c r="I627" s="9">
+        <v>3</v>
+      </c>
       <c r="J627" s="10"/>
     </row>
     <row r="628" spans="1:10">
@@ -20567,16 +20663,24 @@
       <c r="C628" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D628" s="15"/>
-      <c r="E628" s="15"/>
+      <c r="D628" s="15">
+        <v>43564</v>
+      </c>
+      <c r="E628" s="15">
+        <v>43564</v>
+      </c>
       <c r="F628" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G628" s="12"/>
+      <c r="G628" s="12" t="s">
+        <v>544</v>
+      </c>
       <c r="H628" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I628" s="9"/>
+      <c r="I628" s="9">
+        <v>3</v>
+      </c>
       <c r="J628" s="10"/>
     </row>
     <row r="629" spans="1:10">
@@ -20587,16 +20691,24 @@
       <c r="C629" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D629" s="15"/>
-      <c r="E629" s="15"/>
+      <c r="D629" s="15">
+        <v>43565</v>
+      </c>
+      <c r="E629" s="15">
+        <v>43565</v>
+      </c>
       <c r="F629" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G629" s="12"/>
+      <c r="G629" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H629" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I629" s="9"/>
+      <c r="I629" s="9">
+        <v>3</v>
+      </c>
       <c r="J629" s="10"/>
     </row>
     <row r="630" spans="1:10">
@@ -20607,16 +20719,24 @@
       <c r="C630" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D630" s="15"/>
-      <c r="E630" s="15"/>
+      <c r="D630" s="15">
+        <v>43565</v>
+      </c>
+      <c r="E630" s="15">
+        <v>43565</v>
+      </c>
       <c r="F630" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G630" s="12"/>
+      <c r="G630" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H630" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I630" s="9"/>
+      <c r="I630" s="9">
+        <v>3</v>
+      </c>
       <c r="J630" s="10"/>
     </row>
     <row r="631" spans="1:10">
@@ -20627,16 +20747,24 @@
       <c r="C631" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D631" s="15"/>
-      <c r="E631" s="15"/>
+      <c r="D631" s="15">
+        <v>43565</v>
+      </c>
+      <c r="E631" s="15">
+        <v>43565</v>
+      </c>
       <c r="F631" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G631" s="12"/>
+      <c r="G631" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="H631" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I631" s="9"/>
+      <c r="I631" s="9">
+        <v>3</v>
+      </c>
       <c r="J631" s="10"/>
     </row>
     <row r="632" spans="1:10">
@@ -20647,16 +20775,24 @@
       <c r="C632" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D632" s="15"/>
-      <c r="E632" s="15"/>
+      <c r="D632" s="15">
+        <v>43565</v>
+      </c>
+      <c r="E632" s="15">
+        <v>43565</v>
+      </c>
       <c r="F632" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G632" s="12"/>
+      <c r="G632" s="12" t="s">
+        <v>545</v>
+      </c>
       <c r="H632" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I632" s="9"/>
+      <c r="I632" s="9">
+        <v>3</v>
+      </c>
       <c r="J632" s="10"/>
     </row>
     <row r="633" spans="1:10">
@@ -20667,16 +20803,24 @@
       <c r="C633" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D633" s="15"/>
-      <c r="E633" s="15"/>
+      <c r="D633" s="15">
+        <v>43566</v>
+      </c>
+      <c r="E633" s="15">
+        <v>43566</v>
+      </c>
       <c r="F633" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G633" s="12"/>
+      <c r="G633" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="H633" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I633" s="9"/>
+      <c r="I633" s="9">
+        <v>3</v>
+      </c>
       <c r="J633" s="10"/>
     </row>
     <row r="634" spans="1:10">
@@ -20687,16 +20831,24 @@
       <c r="C634" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D634" s="15"/>
-      <c r="E634" s="15"/>
+      <c r="D634" s="15">
+        <v>43566</v>
+      </c>
+      <c r="E634" s="15">
+        <v>43566</v>
+      </c>
       <c r="F634" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G634" s="12"/>
+      <c r="G634" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H634" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I634" s="9"/>
+      <c r="I634" s="9">
+        <v>3</v>
+      </c>
       <c r="J634" s="10"/>
     </row>
     <row r="635" spans="1:10">
@@ -20707,16 +20859,24 @@
       <c r="C635" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D635" s="15"/>
-      <c r="E635" s="15"/>
+      <c r="D635" s="15">
+        <v>43566</v>
+      </c>
+      <c r="E635" s="15">
+        <v>43566</v>
+      </c>
       <c r="F635" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G635" s="12"/>
+      <c r="G635" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="H635" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I635" s="9"/>
+      <c r="I635" s="9">
+        <v>3</v>
+      </c>
       <c r="J635" s="10"/>
     </row>
     <row r="636" spans="1:10">
@@ -20727,16 +20887,24 @@
       <c r="C636" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D636" s="15"/>
-      <c r="E636" s="15"/>
+      <c r="D636" s="15">
+        <v>43566</v>
+      </c>
+      <c r="E636" s="15">
+        <v>43566</v>
+      </c>
       <c r="F636" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G636" s="12"/>
+      <c r="G636" s="12" t="s">
+        <v>546</v>
+      </c>
       <c r="H636" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I636" s="9"/>
+      <c r="I636" s="9">
+        <v>3</v>
+      </c>
       <c r="J636" s="10"/>
     </row>
     <row r="637" spans="1:10">
@@ -20747,16 +20915,24 @@
       <c r="C637" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D637" s="15"/>
-      <c r="E637" s="15"/>
+      <c r="D637" s="15">
+        <v>43567</v>
+      </c>
+      <c r="E637" s="15">
+        <v>43567</v>
+      </c>
       <c r="F637" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G637" s="12"/>
+      <c r="G637" s="12" t="s">
+        <v>548</v>
+      </c>
       <c r="H637" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I637" s="9"/>
+      <c r="I637" s="9">
+        <v>3</v>
+      </c>
       <c r="J637" s="10"/>
     </row>
     <row r="638" spans="1:10">
@@ -20767,16 +20943,24 @@
       <c r="C638" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D638" s="15"/>
-      <c r="E638" s="15"/>
+      <c r="D638" s="15">
+        <v>43567</v>
+      </c>
+      <c r="E638" s="15">
+        <v>43567</v>
+      </c>
       <c r="F638" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G638" s="12"/>
+      <c r="G638" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="H638" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I638" s="9"/>
+      <c r="I638" s="9">
+        <v>3</v>
+      </c>
       <c r="J638" s="10"/>
     </row>
     <row r="639" spans="1:10">
@@ -20787,16 +20971,24 @@
       <c r="C639" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D639" s="15"/>
-      <c r="E639" s="15"/>
+      <c r="D639" s="15">
+        <v>43567</v>
+      </c>
+      <c r="E639" s="15">
+        <v>43567</v>
+      </c>
       <c r="F639" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G639" s="12"/>
+      <c r="G639" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="H639" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I639" s="9"/>
+      <c r="I639" s="9">
+        <v>3</v>
+      </c>
       <c r="J639" s="10"/>
     </row>
     <row r="640" spans="1:10">
@@ -20807,16 +20999,24 @@
       <c r="C640" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D640" s="15"/>
-      <c r="E640" s="15"/>
+      <c r="D640" s="15">
+        <v>43567</v>
+      </c>
+      <c r="E640" s="15">
+        <v>43567</v>
+      </c>
       <c r="F640" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G640" s="12"/>
+      <c r="G640" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H640" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I640" s="9"/>
+      <c r="I640" s="9">
+        <v>3</v>
+      </c>
       <c r="J640" s="10"/>
     </row>
     <row r="641" spans="1:10">
@@ -22838,6 +23038,46 @@
       </c>
       <c r="I741" s="9"/>
       <c r="J741" s="10"/>
+    </row>
+    <row r="742" spans="1:10">
+      <c r="A742" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B742" s="5"/>
+      <c r="C742" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D742" s="15"/>
+      <c r="E742" s="15"/>
+      <c r="F742" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G742" s="12"/>
+      <c r="H742" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I742" s="9"/>
+      <c r="J742" s="10"/>
+    </row>
+    <row r="743" spans="1:10">
+      <c r="A743" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B743" s="5"/>
+      <c r="C743" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D743" s="15"/>
+      <c r="E743" s="15"/>
+      <c r="F743" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G743" s="12"/>
+      <c r="H743" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I743" s="9"/>
+      <c r="J743" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22845,13 +23085,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131117:C131133 IY65581:IY65597 SU65581:SU65597 ACQ65581:ACQ65597 AMM65581:AMM65597 AWI65581:AWI65597 BGE65581:BGE65597 BQA65581:BQA65597 BZW65581:BZW65597 CJS65581:CJS65597 CTO65581:CTO65597 DDK65581:DDK65597 DNG65581:DNG65597 DXC65581:DXC65597 EGY65581:EGY65597 EQU65581:EQU65597 FAQ65581:FAQ65597 FKM65581:FKM65597 FUI65581:FUI65597 GEE65581:GEE65597 GOA65581:GOA65597 GXW65581:GXW65597 HHS65581:HHS65597 HRO65581:HRO65597 IBK65581:IBK65597 ILG65581:ILG65597 IVC65581:IVC65597 JEY65581:JEY65597 JOU65581:JOU65597 JYQ65581:JYQ65597 KIM65581:KIM65597 KSI65581:KSI65597 LCE65581:LCE65597 LMA65581:LMA65597 LVW65581:LVW65597 MFS65581:MFS65597 MPO65581:MPO65597 MZK65581:MZK65597 NJG65581:NJG65597 NTC65581:NTC65597 OCY65581:OCY65597 OMU65581:OMU65597 OWQ65581:OWQ65597 PGM65581:PGM65597 PQI65581:PQI65597 QAE65581:QAE65597 QKA65581:QKA65597 QTW65581:QTW65597 RDS65581:RDS65597 RNO65581:RNO65597 RXK65581:RXK65597 SHG65581:SHG65597 SRC65581:SRC65597 TAY65581:TAY65597 TKU65581:TKU65597 TUQ65581:TUQ65597 UEM65581:UEM65597 UOI65581:UOI65597 UYE65581:UYE65597 VIA65581:VIA65597 VRW65581:VRW65597 WBS65581:WBS65597 WLO65581:WLO65597 WVK65581:WVK65597 C196653:C196669 IY131117:IY131133 SU131117:SU131133 ACQ131117:ACQ131133 AMM131117:AMM131133 AWI131117:AWI131133 BGE131117:BGE131133 BQA131117:BQA131133 BZW131117:BZW131133 CJS131117:CJS131133 CTO131117:CTO131133 DDK131117:DDK131133 DNG131117:DNG131133 DXC131117:DXC131133 EGY131117:EGY131133 EQU131117:EQU131133 FAQ131117:FAQ131133 FKM131117:FKM131133 FUI131117:FUI131133 GEE131117:GEE131133 GOA131117:GOA131133 GXW131117:GXW131133 HHS131117:HHS131133 HRO131117:HRO131133 IBK131117:IBK131133 ILG131117:ILG131133 IVC131117:IVC131133 JEY131117:JEY131133 JOU131117:JOU131133 JYQ131117:JYQ131133 KIM131117:KIM131133 KSI131117:KSI131133 LCE131117:LCE131133 LMA131117:LMA131133 LVW131117:LVW131133 MFS131117:MFS131133 MPO131117:MPO131133 MZK131117:MZK131133 NJG131117:NJG131133 NTC131117:NTC131133 OCY131117:OCY131133 OMU131117:OMU131133 OWQ131117:OWQ131133 PGM131117:PGM131133 PQI131117:PQI131133 QAE131117:QAE131133 QKA131117:QKA131133 QTW131117:QTW131133 RDS131117:RDS131133 RNO131117:RNO131133 RXK131117:RXK131133 SHG131117:SHG131133 SRC131117:SRC131133 TAY131117:TAY131133 TKU131117:TKU131133 TUQ131117:TUQ131133 UEM131117:UEM131133 UOI131117:UOI131133 UYE131117:UYE131133 VIA131117:VIA131133 VRW131117:VRW131133 WBS131117:WBS131133 WLO131117:WLO131133 WVK131117:WVK131133 C262189:C262205 IY196653:IY196669 SU196653:SU196669 ACQ196653:ACQ196669 AMM196653:AMM196669 AWI196653:AWI196669 BGE196653:BGE196669 BQA196653:BQA196669 BZW196653:BZW196669 CJS196653:CJS196669 CTO196653:CTO196669 DDK196653:DDK196669 DNG196653:DNG196669 DXC196653:DXC196669 EGY196653:EGY196669 EQU196653:EQU196669 FAQ196653:FAQ196669 FKM196653:FKM196669 FUI196653:FUI196669 GEE196653:GEE196669 GOA196653:GOA196669 GXW196653:GXW196669 HHS196653:HHS196669 HRO196653:HRO196669 IBK196653:IBK196669 ILG196653:ILG196669 IVC196653:IVC196669 JEY196653:JEY196669 JOU196653:JOU196669 JYQ196653:JYQ196669 KIM196653:KIM196669 KSI196653:KSI196669 LCE196653:LCE196669 LMA196653:LMA196669 LVW196653:LVW196669 MFS196653:MFS196669 MPO196653:MPO196669 MZK196653:MZK196669 NJG196653:NJG196669 NTC196653:NTC196669 OCY196653:OCY196669 OMU196653:OMU196669 OWQ196653:OWQ196669 PGM196653:PGM196669 PQI196653:PQI196669 QAE196653:QAE196669 QKA196653:QKA196669 QTW196653:QTW196669 RDS196653:RDS196669 RNO196653:RNO196669 RXK196653:RXK196669 SHG196653:SHG196669 SRC196653:SRC196669 TAY196653:TAY196669 TKU196653:TKU196669 TUQ196653:TUQ196669 UEM196653:UEM196669 UOI196653:UOI196669 UYE196653:UYE196669 VIA196653:VIA196669 VRW196653:VRW196669 WBS196653:WBS196669 WLO196653:WLO196669 WVK196653:WVK196669 C327725:C327741 IY262189:IY262205 SU262189:SU262205 ACQ262189:ACQ262205 AMM262189:AMM262205 AWI262189:AWI262205 BGE262189:BGE262205 BQA262189:BQA262205 BZW262189:BZW262205 CJS262189:CJS262205 CTO262189:CTO262205 DDK262189:DDK262205 DNG262189:DNG262205 DXC262189:DXC262205 EGY262189:EGY262205 EQU262189:EQU262205 FAQ262189:FAQ262205 FKM262189:FKM262205 FUI262189:FUI262205 GEE262189:GEE262205 GOA262189:GOA262205 GXW262189:GXW262205 HHS262189:HHS262205 HRO262189:HRO262205 IBK262189:IBK262205 ILG262189:ILG262205 IVC262189:IVC262205 JEY262189:JEY262205 JOU262189:JOU262205 JYQ262189:JYQ262205 KIM262189:KIM262205 KSI262189:KSI262205 LCE262189:LCE262205 LMA262189:LMA262205 LVW262189:LVW262205 MFS262189:MFS262205 MPO262189:MPO262205 MZK262189:MZK262205 NJG262189:NJG262205 NTC262189:NTC262205 OCY262189:OCY262205 OMU262189:OMU262205 OWQ262189:OWQ262205 PGM262189:PGM262205 PQI262189:PQI262205 QAE262189:QAE262205 QKA262189:QKA262205 QTW262189:QTW262205 RDS262189:RDS262205 RNO262189:RNO262205 RXK262189:RXK262205 SHG262189:SHG262205 SRC262189:SRC262205 TAY262189:TAY262205 TKU262189:TKU262205 TUQ262189:TUQ262205 UEM262189:UEM262205 UOI262189:UOI262205 UYE262189:UYE262205 VIA262189:VIA262205 VRW262189:VRW262205 WBS262189:WBS262205 WLO262189:WLO262205 WVK262189:WVK262205 C393261:C393277 IY327725:IY327741 SU327725:SU327741 ACQ327725:ACQ327741 AMM327725:AMM327741 AWI327725:AWI327741 BGE327725:BGE327741 BQA327725:BQA327741 BZW327725:BZW327741 CJS327725:CJS327741 CTO327725:CTO327741 DDK327725:DDK327741 DNG327725:DNG327741 DXC327725:DXC327741 EGY327725:EGY327741 EQU327725:EQU327741 FAQ327725:FAQ327741 FKM327725:FKM327741 FUI327725:FUI327741 GEE327725:GEE327741 GOA327725:GOA327741 GXW327725:GXW327741 HHS327725:HHS327741 HRO327725:HRO327741 IBK327725:IBK327741 ILG327725:ILG327741 IVC327725:IVC327741 JEY327725:JEY327741 JOU327725:JOU327741 JYQ327725:JYQ327741 KIM327725:KIM327741 KSI327725:KSI327741 LCE327725:LCE327741 LMA327725:LMA327741 LVW327725:LVW327741 MFS327725:MFS327741 MPO327725:MPO327741 MZK327725:MZK327741 NJG327725:NJG327741 NTC327725:NTC327741 OCY327725:OCY327741 OMU327725:OMU327741 OWQ327725:OWQ327741 PGM327725:PGM327741 PQI327725:PQI327741 QAE327725:QAE327741 QKA327725:QKA327741 QTW327725:QTW327741 RDS327725:RDS327741 RNO327725:RNO327741 RXK327725:RXK327741 SHG327725:SHG327741 SRC327725:SRC327741 TAY327725:TAY327741 TKU327725:TKU327741 TUQ327725:TUQ327741 UEM327725:UEM327741 UOI327725:UOI327741 UYE327725:UYE327741 VIA327725:VIA327741 VRW327725:VRW327741 WBS327725:WBS327741 WLO327725:WLO327741 WVK327725:WVK327741 C458797:C458813 IY393261:IY393277 SU393261:SU393277 ACQ393261:ACQ393277 AMM393261:AMM393277 AWI393261:AWI393277 BGE393261:BGE393277 BQA393261:BQA393277 BZW393261:BZW393277 CJS393261:CJS393277 CTO393261:CTO393277 DDK393261:DDK393277 DNG393261:DNG393277 DXC393261:DXC393277 EGY393261:EGY393277 EQU393261:EQU393277 FAQ393261:FAQ393277 FKM393261:FKM393277 FUI393261:FUI393277 GEE393261:GEE393277 GOA393261:GOA393277 GXW393261:GXW393277 HHS393261:HHS393277 HRO393261:HRO393277 IBK393261:IBK393277 ILG393261:ILG393277 IVC393261:IVC393277 JEY393261:JEY393277 JOU393261:JOU393277 JYQ393261:JYQ393277 KIM393261:KIM393277 KSI393261:KSI393277 LCE393261:LCE393277 LMA393261:LMA393277 LVW393261:LVW393277 MFS393261:MFS393277 MPO393261:MPO393277 MZK393261:MZK393277 NJG393261:NJG393277 NTC393261:NTC393277 OCY393261:OCY393277 OMU393261:OMU393277 OWQ393261:OWQ393277 PGM393261:PGM393277 PQI393261:PQI393277 QAE393261:QAE393277 QKA393261:QKA393277 QTW393261:QTW393277 RDS393261:RDS393277 RNO393261:RNO393277 RXK393261:RXK393277 SHG393261:SHG393277 SRC393261:SRC393277 TAY393261:TAY393277 TKU393261:TKU393277 TUQ393261:TUQ393277 UEM393261:UEM393277 UOI393261:UOI393277 UYE393261:UYE393277 VIA393261:VIA393277 VRW393261:VRW393277 WBS393261:WBS393277 WLO393261:WLO393277 WVK393261:WVK393277 C524333:C524349 IY458797:IY458813 SU458797:SU458813 ACQ458797:ACQ458813 AMM458797:AMM458813 AWI458797:AWI458813 BGE458797:BGE458813 BQA458797:BQA458813 BZW458797:BZW458813 CJS458797:CJS458813 CTO458797:CTO458813 DDK458797:DDK458813 DNG458797:DNG458813 DXC458797:DXC458813 EGY458797:EGY458813 EQU458797:EQU458813 FAQ458797:FAQ458813 FKM458797:FKM458813 FUI458797:FUI458813 GEE458797:GEE458813 GOA458797:GOA458813 GXW458797:GXW458813 HHS458797:HHS458813 HRO458797:HRO458813 IBK458797:IBK458813 ILG458797:ILG458813 IVC458797:IVC458813 JEY458797:JEY458813 JOU458797:JOU458813 JYQ458797:JYQ458813 KIM458797:KIM458813 KSI458797:KSI458813 LCE458797:LCE458813 LMA458797:LMA458813 LVW458797:LVW458813 MFS458797:MFS458813 MPO458797:MPO458813 MZK458797:MZK458813 NJG458797:NJG458813 NTC458797:NTC458813 OCY458797:OCY458813 OMU458797:OMU458813 OWQ458797:OWQ458813 PGM458797:PGM458813 PQI458797:PQI458813 QAE458797:QAE458813 QKA458797:QKA458813 QTW458797:QTW458813 RDS458797:RDS458813 RNO458797:RNO458813 RXK458797:RXK458813 SHG458797:SHG458813 SRC458797:SRC458813 TAY458797:TAY458813 TKU458797:TKU458813 TUQ458797:TUQ458813 UEM458797:UEM458813 UOI458797:UOI458813 UYE458797:UYE458813 VIA458797:VIA458813 VRW458797:VRW458813 WBS458797:WBS458813 WLO458797:WLO458813 WVK458797:WVK458813 C589869:C589885 IY524333:IY524349 SU524333:SU524349 ACQ524333:ACQ524349 AMM524333:AMM524349 AWI524333:AWI524349 BGE524333:BGE524349 BQA524333:BQA524349 BZW524333:BZW524349 CJS524333:CJS524349 CTO524333:CTO524349 DDK524333:DDK524349 DNG524333:DNG524349 DXC524333:DXC524349 EGY524333:EGY524349 EQU524333:EQU524349 FAQ524333:FAQ524349 FKM524333:FKM524349 FUI524333:FUI524349 GEE524333:GEE524349 GOA524333:GOA524349 GXW524333:GXW524349 HHS524333:HHS524349 HRO524333:HRO524349 IBK524333:IBK524349 ILG524333:ILG524349 IVC524333:IVC524349 JEY524333:JEY524349 JOU524333:JOU524349 JYQ524333:JYQ524349 KIM524333:KIM524349 KSI524333:KSI524349 LCE524333:LCE524349 LMA524333:LMA524349 LVW524333:LVW524349 MFS524333:MFS524349 MPO524333:MPO524349 MZK524333:MZK524349 NJG524333:NJG524349 NTC524333:NTC524349 OCY524333:OCY524349 OMU524333:OMU524349 OWQ524333:OWQ524349 PGM524333:PGM524349 PQI524333:PQI524349 QAE524333:QAE524349 QKA524333:QKA524349 QTW524333:QTW524349 RDS524333:RDS524349 RNO524333:RNO524349 RXK524333:RXK524349 SHG524333:SHG524349 SRC524333:SRC524349 TAY524333:TAY524349 TKU524333:TKU524349 TUQ524333:TUQ524349 UEM524333:UEM524349 UOI524333:UOI524349 UYE524333:UYE524349 VIA524333:VIA524349 VRW524333:VRW524349 WBS524333:WBS524349 WLO524333:WLO524349 WVK524333:WVK524349 C655405:C655421 IY589869:IY589885 SU589869:SU589885 ACQ589869:ACQ589885 AMM589869:AMM589885 AWI589869:AWI589885 BGE589869:BGE589885 BQA589869:BQA589885 BZW589869:BZW589885 CJS589869:CJS589885 CTO589869:CTO589885 DDK589869:DDK589885 DNG589869:DNG589885 DXC589869:DXC589885 EGY589869:EGY589885 EQU589869:EQU589885 FAQ589869:FAQ589885 FKM589869:FKM589885 FUI589869:FUI589885 GEE589869:GEE589885 GOA589869:GOA589885 GXW589869:GXW589885 HHS589869:HHS589885 HRO589869:HRO589885 IBK589869:IBK589885 ILG589869:ILG589885 IVC589869:IVC589885 JEY589869:JEY589885 JOU589869:JOU589885 JYQ589869:JYQ589885 KIM589869:KIM589885 KSI589869:KSI589885 LCE589869:LCE589885 LMA589869:LMA589885 LVW589869:LVW589885 MFS589869:MFS589885 MPO589869:MPO589885 MZK589869:MZK589885 NJG589869:NJG589885 NTC589869:NTC589885 OCY589869:OCY589885 OMU589869:OMU589885 OWQ589869:OWQ589885 PGM589869:PGM589885 PQI589869:PQI589885 QAE589869:QAE589885 QKA589869:QKA589885 QTW589869:QTW589885 RDS589869:RDS589885 RNO589869:RNO589885 RXK589869:RXK589885 SHG589869:SHG589885 SRC589869:SRC589885 TAY589869:TAY589885 TKU589869:TKU589885 TUQ589869:TUQ589885 UEM589869:UEM589885 UOI589869:UOI589885 UYE589869:UYE589885 VIA589869:VIA589885 VRW589869:VRW589885 WBS589869:WBS589885 WLO589869:WLO589885 WVK589869:WVK589885 C720941:C720957 IY655405:IY655421 SU655405:SU655421 ACQ655405:ACQ655421 AMM655405:AMM655421 AWI655405:AWI655421 BGE655405:BGE655421 BQA655405:BQA655421 BZW655405:BZW655421 CJS655405:CJS655421 CTO655405:CTO655421 DDK655405:DDK655421 DNG655405:DNG655421 DXC655405:DXC655421 EGY655405:EGY655421 EQU655405:EQU655421 FAQ655405:FAQ655421 FKM655405:FKM655421 FUI655405:FUI655421 GEE655405:GEE655421 GOA655405:GOA655421 GXW655405:GXW655421 HHS655405:HHS655421 HRO655405:HRO655421 IBK655405:IBK655421 ILG655405:ILG655421 IVC655405:IVC655421 JEY655405:JEY655421 JOU655405:JOU655421 JYQ655405:JYQ655421 KIM655405:KIM655421 KSI655405:KSI655421 LCE655405:LCE655421 LMA655405:LMA655421 LVW655405:LVW655421 MFS655405:MFS655421 MPO655405:MPO655421 MZK655405:MZK655421 NJG655405:NJG655421 NTC655405:NTC655421 OCY655405:OCY655421 OMU655405:OMU655421 OWQ655405:OWQ655421 PGM655405:PGM655421 PQI655405:PQI655421 QAE655405:QAE655421 QKA655405:QKA655421 QTW655405:QTW655421 RDS655405:RDS655421 RNO655405:RNO655421 RXK655405:RXK655421 SHG655405:SHG655421 SRC655405:SRC655421 TAY655405:TAY655421 TKU655405:TKU655421 TUQ655405:TUQ655421 UEM655405:UEM655421 UOI655405:UOI655421 UYE655405:UYE655421 VIA655405:VIA655421 VRW655405:VRW655421 WBS655405:WBS655421 WLO655405:WLO655421 WVK655405:WVK655421 C786477:C786493 IY720941:IY720957 SU720941:SU720957 ACQ720941:ACQ720957 AMM720941:AMM720957 AWI720941:AWI720957 BGE720941:BGE720957 BQA720941:BQA720957 BZW720941:BZW720957 CJS720941:CJS720957 CTO720941:CTO720957 DDK720941:DDK720957 DNG720941:DNG720957 DXC720941:DXC720957 EGY720941:EGY720957 EQU720941:EQU720957 FAQ720941:FAQ720957 FKM720941:FKM720957 FUI720941:FUI720957 GEE720941:GEE720957 GOA720941:GOA720957 GXW720941:GXW720957 HHS720941:HHS720957 HRO720941:HRO720957 IBK720941:IBK720957 ILG720941:ILG720957 IVC720941:IVC720957 JEY720941:JEY720957 JOU720941:JOU720957 JYQ720941:JYQ720957 KIM720941:KIM720957 KSI720941:KSI720957 LCE720941:LCE720957 LMA720941:LMA720957 LVW720941:LVW720957 MFS720941:MFS720957 MPO720941:MPO720957 MZK720941:MZK720957 NJG720941:NJG720957 NTC720941:NTC720957 OCY720941:OCY720957 OMU720941:OMU720957 OWQ720941:OWQ720957 PGM720941:PGM720957 PQI720941:PQI720957 QAE720941:QAE720957 QKA720941:QKA720957 QTW720941:QTW720957 RDS720941:RDS720957 RNO720941:RNO720957 RXK720941:RXK720957 SHG720941:SHG720957 SRC720941:SRC720957 TAY720941:TAY720957 TKU720941:TKU720957 TUQ720941:TUQ720957 UEM720941:UEM720957 UOI720941:UOI720957 UYE720941:UYE720957 VIA720941:VIA720957 VRW720941:VRW720957 WBS720941:WBS720957 WLO720941:WLO720957 WVK720941:WVK720957 C852013:C852029 IY786477:IY786493 SU786477:SU786493 ACQ786477:ACQ786493 AMM786477:AMM786493 AWI786477:AWI786493 BGE786477:BGE786493 BQA786477:BQA786493 BZW786477:BZW786493 CJS786477:CJS786493 CTO786477:CTO786493 DDK786477:DDK786493 DNG786477:DNG786493 DXC786477:DXC786493 EGY786477:EGY786493 EQU786477:EQU786493 FAQ786477:FAQ786493 FKM786477:FKM786493 FUI786477:FUI786493 GEE786477:GEE786493 GOA786477:GOA786493 GXW786477:GXW786493 HHS786477:HHS786493 HRO786477:HRO786493 IBK786477:IBK786493 ILG786477:ILG786493 IVC786477:IVC786493 JEY786477:JEY786493 JOU786477:JOU786493 JYQ786477:JYQ786493 KIM786477:KIM786493 KSI786477:KSI786493 LCE786477:LCE786493 LMA786477:LMA786493 LVW786477:LVW786493 MFS786477:MFS786493 MPO786477:MPO786493 MZK786477:MZK786493 NJG786477:NJG786493 NTC786477:NTC786493 OCY786477:OCY786493 OMU786477:OMU786493 OWQ786477:OWQ786493 PGM786477:PGM786493 PQI786477:PQI786493 QAE786477:QAE786493 QKA786477:QKA786493 QTW786477:QTW786493 RDS786477:RDS786493 RNO786477:RNO786493 RXK786477:RXK786493 SHG786477:SHG786493 SRC786477:SRC786493 TAY786477:TAY786493 TKU786477:TKU786493 TUQ786477:TUQ786493 UEM786477:UEM786493 UOI786477:UOI786493 UYE786477:UYE786493 VIA786477:VIA786493 VRW786477:VRW786493 WBS786477:WBS786493 WLO786477:WLO786493 WVK786477:WVK786493 C917549:C917565 IY852013:IY852029 SU852013:SU852029 ACQ852013:ACQ852029 AMM852013:AMM852029 AWI852013:AWI852029 BGE852013:BGE852029 BQA852013:BQA852029 BZW852013:BZW852029 CJS852013:CJS852029 CTO852013:CTO852029 DDK852013:DDK852029 DNG852013:DNG852029 DXC852013:DXC852029 EGY852013:EGY852029 EQU852013:EQU852029 FAQ852013:FAQ852029 FKM852013:FKM852029 FUI852013:FUI852029 GEE852013:GEE852029 GOA852013:GOA852029 GXW852013:GXW852029 HHS852013:HHS852029 HRO852013:HRO852029 IBK852013:IBK852029 ILG852013:ILG852029 IVC852013:IVC852029 JEY852013:JEY852029 JOU852013:JOU852029 JYQ852013:JYQ852029 KIM852013:KIM852029 KSI852013:KSI852029 LCE852013:LCE852029 LMA852013:LMA852029 LVW852013:LVW852029 MFS852013:MFS852029 MPO852013:MPO852029 MZK852013:MZK852029 NJG852013:NJG852029 NTC852013:NTC852029 OCY852013:OCY852029 OMU852013:OMU852029 OWQ852013:OWQ852029 PGM852013:PGM852029 PQI852013:PQI852029 QAE852013:QAE852029 QKA852013:QKA852029 QTW852013:QTW852029 RDS852013:RDS852029 RNO852013:RNO852029 RXK852013:RXK852029 SHG852013:SHG852029 SRC852013:SRC852029 TAY852013:TAY852029 TKU852013:TKU852029 TUQ852013:TUQ852029 UEM852013:UEM852029 UOI852013:UOI852029 UYE852013:UYE852029 VIA852013:VIA852029 VRW852013:VRW852029 WBS852013:WBS852029 WLO852013:WLO852029 WVK852013:WVK852029 C983085:C983101 IY917549:IY917565 SU917549:SU917565 ACQ917549:ACQ917565 AMM917549:AMM917565 AWI917549:AWI917565 BGE917549:BGE917565 BQA917549:BQA917565 BZW917549:BZW917565 CJS917549:CJS917565 CTO917549:CTO917565 DDK917549:DDK917565 DNG917549:DNG917565 DXC917549:DXC917565 EGY917549:EGY917565 EQU917549:EQU917565 FAQ917549:FAQ917565 FKM917549:FKM917565 FUI917549:FUI917565 GEE917549:GEE917565 GOA917549:GOA917565 GXW917549:GXW917565 HHS917549:HHS917565 HRO917549:HRO917565 IBK917549:IBK917565 ILG917549:ILG917565 IVC917549:IVC917565 JEY917549:JEY917565 JOU917549:JOU917565 JYQ917549:JYQ917565 KIM917549:KIM917565 KSI917549:KSI917565 LCE917549:LCE917565 LMA917549:LMA917565 LVW917549:LVW917565 MFS917549:MFS917565 MPO917549:MPO917565 MZK917549:MZK917565 NJG917549:NJG917565 NTC917549:NTC917565 OCY917549:OCY917565 OMU917549:OMU917565 OWQ917549:OWQ917565 PGM917549:PGM917565 PQI917549:PQI917565 QAE917549:QAE917565 QKA917549:QKA917565 QTW917549:QTW917565 RDS917549:RDS917565 RNO917549:RNO917565 RXK917549:RXK917565 SHG917549:SHG917565 SRC917549:SRC917565 TAY917549:TAY917565 TKU917549:TKU917565 TUQ917549:TUQ917565 UEM917549:UEM917565 UOI917549:UOI917565 UYE917549:UYE917565 VIA917549:VIA917565 VRW917549:VRW917565 WBS917549:WBS917565 WLO917549:WLO917565 WVK917549:WVK917565 WVK983085:WVK983101 IY983085:IY983101 SU983085:SU983101 ACQ983085:ACQ983101 AMM983085:AMM983101 AWI983085:AWI983101 BGE983085:BGE983101 BQA983085:BQA983101 BZW983085:BZW983101 CJS983085:CJS983101 CTO983085:CTO983101 DDK983085:DDK983101 DNG983085:DNG983101 DXC983085:DXC983101 EGY983085:EGY983101 EQU983085:EQU983101 FAQ983085:FAQ983101 FKM983085:FKM983101 FUI983085:FUI983101 GEE983085:GEE983101 GOA983085:GOA983101 GXW983085:GXW983101 HHS983085:HHS983101 HRO983085:HRO983101 IBK983085:IBK983101 ILG983085:ILG983101 IVC983085:IVC983101 JEY983085:JEY983101 JOU983085:JOU983101 JYQ983085:JYQ983101 KIM983085:KIM983101 KSI983085:KSI983101 LCE983085:LCE983101 LMA983085:LMA983101 LVW983085:LVW983101 MFS983085:MFS983101 MPO983085:MPO983101 MZK983085:MZK983101 NJG983085:NJG983101 NTC983085:NTC983101 OCY983085:OCY983101 OMU983085:OMU983101 OWQ983085:OWQ983101 PGM983085:PGM983101 PQI983085:PQI983101 QAE983085:QAE983101 QKA983085:QKA983101 QTW983085:QTW983101 RDS983085:RDS983101 RNO983085:RNO983101 RXK983085:RXK983101 SHG983085:SHG983101 SRC983085:SRC983101 TAY983085:TAY983101 TKU983085:TKU983101 TUQ983085:TUQ983101 UEM983085:UEM983101 UOI983085:UOI983101 UYE983085:UYE983101 VIA983085:VIA983101 VRW983085:VRW983101 WBS983085:WBS983101 WLO983085:WLO983101 C65581:C65597" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131119:C131135 IY65583:IY65599 SU65583:SU65599 ACQ65583:ACQ65599 AMM65583:AMM65599 AWI65583:AWI65599 BGE65583:BGE65599 BQA65583:BQA65599 BZW65583:BZW65599 CJS65583:CJS65599 CTO65583:CTO65599 DDK65583:DDK65599 DNG65583:DNG65599 DXC65583:DXC65599 EGY65583:EGY65599 EQU65583:EQU65599 FAQ65583:FAQ65599 FKM65583:FKM65599 FUI65583:FUI65599 GEE65583:GEE65599 GOA65583:GOA65599 GXW65583:GXW65599 HHS65583:HHS65599 HRO65583:HRO65599 IBK65583:IBK65599 ILG65583:ILG65599 IVC65583:IVC65599 JEY65583:JEY65599 JOU65583:JOU65599 JYQ65583:JYQ65599 KIM65583:KIM65599 KSI65583:KSI65599 LCE65583:LCE65599 LMA65583:LMA65599 LVW65583:LVW65599 MFS65583:MFS65599 MPO65583:MPO65599 MZK65583:MZK65599 NJG65583:NJG65599 NTC65583:NTC65599 OCY65583:OCY65599 OMU65583:OMU65599 OWQ65583:OWQ65599 PGM65583:PGM65599 PQI65583:PQI65599 QAE65583:QAE65599 QKA65583:QKA65599 QTW65583:QTW65599 RDS65583:RDS65599 RNO65583:RNO65599 RXK65583:RXK65599 SHG65583:SHG65599 SRC65583:SRC65599 TAY65583:TAY65599 TKU65583:TKU65599 TUQ65583:TUQ65599 UEM65583:UEM65599 UOI65583:UOI65599 UYE65583:UYE65599 VIA65583:VIA65599 VRW65583:VRW65599 WBS65583:WBS65599 WLO65583:WLO65599 WVK65583:WVK65599 C196655:C196671 IY131119:IY131135 SU131119:SU131135 ACQ131119:ACQ131135 AMM131119:AMM131135 AWI131119:AWI131135 BGE131119:BGE131135 BQA131119:BQA131135 BZW131119:BZW131135 CJS131119:CJS131135 CTO131119:CTO131135 DDK131119:DDK131135 DNG131119:DNG131135 DXC131119:DXC131135 EGY131119:EGY131135 EQU131119:EQU131135 FAQ131119:FAQ131135 FKM131119:FKM131135 FUI131119:FUI131135 GEE131119:GEE131135 GOA131119:GOA131135 GXW131119:GXW131135 HHS131119:HHS131135 HRO131119:HRO131135 IBK131119:IBK131135 ILG131119:ILG131135 IVC131119:IVC131135 JEY131119:JEY131135 JOU131119:JOU131135 JYQ131119:JYQ131135 KIM131119:KIM131135 KSI131119:KSI131135 LCE131119:LCE131135 LMA131119:LMA131135 LVW131119:LVW131135 MFS131119:MFS131135 MPO131119:MPO131135 MZK131119:MZK131135 NJG131119:NJG131135 NTC131119:NTC131135 OCY131119:OCY131135 OMU131119:OMU131135 OWQ131119:OWQ131135 PGM131119:PGM131135 PQI131119:PQI131135 QAE131119:QAE131135 QKA131119:QKA131135 QTW131119:QTW131135 RDS131119:RDS131135 RNO131119:RNO131135 RXK131119:RXK131135 SHG131119:SHG131135 SRC131119:SRC131135 TAY131119:TAY131135 TKU131119:TKU131135 TUQ131119:TUQ131135 UEM131119:UEM131135 UOI131119:UOI131135 UYE131119:UYE131135 VIA131119:VIA131135 VRW131119:VRW131135 WBS131119:WBS131135 WLO131119:WLO131135 WVK131119:WVK131135 C262191:C262207 IY196655:IY196671 SU196655:SU196671 ACQ196655:ACQ196671 AMM196655:AMM196671 AWI196655:AWI196671 BGE196655:BGE196671 BQA196655:BQA196671 BZW196655:BZW196671 CJS196655:CJS196671 CTO196655:CTO196671 DDK196655:DDK196671 DNG196655:DNG196671 DXC196655:DXC196671 EGY196655:EGY196671 EQU196655:EQU196671 FAQ196655:FAQ196671 FKM196655:FKM196671 FUI196655:FUI196671 GEE196655:GEE196671 GOA196655:GOA196671 GXW196655:GXW196671 HHS196655:HHS196671 HRO196655:HRO196671 IBK196655:IBK196671 ILG196655:ILG196671 IVC196655:IVC196671 JEY196655:JEY196671 JOU196655:JOU196671 JYQ196655:JYQ196671 KIM196655:KIM196671 KSI196655:KSI196671 LCE196655:LCE196671 LMA196655:LMA196671 LVW196655:LVW196671 MFS196655:MFS196671 MPO196655:MPO196671 MZK196655:MZK196671 NJG196655:NJG196671 NTC196655:NTC196671 OCY196655:OCY196671 OMU196655:OMU196671 OWQ196655:OWQ196671 PGM196655:PGM196671 PQI196655:PQI196671 QAE196655:QAE196671 QKA196655:QKA196671 QTW196655:QTW196671 RDS196655:RDS196671 RNO196655:RNO196671 RXK196655:RXK196671 SHG196655:SHG196671 SRC196655:SRC196671 TAY196655:TAY196671 TKU196655:TKU196671 TUQ196655:TUQ196671 UEM196655:UEM196671 UOI196655:UOI196671 UYE196655:UYE196671 VIA196655:VIA196671 VRW196655:VRW196671 WBS196655:WBS196671 WLO196655:WLO196671 WVK196655:WVK196671 C327727:C327743 IY262191:IY262207 SU262191:SU262207 ACQ262191:ACQ262207 AMM262191:AMM262207 AWI262191:AWI262207 BGE262191:BGE262207 BQA262191:BQA262207 BZW262191:BZW262207 CJS262191:CJS262207 CTO262191:CTO262207 DDK262191:DDK262207 DNG262191:DNG262207 DXC262191:DXC262207 EGY262191:EGY262207 EQU262191:EQU262207 FAQ262191:FAQ262207 FKM262191:FKM262207 FUI262191:FUI262207 GEE262191:GEE262207 GOA262191:GOA262207 GXW262191:GXW262207 HHS262191:HHS262207 HRO262191:HRO262207 IBK262191:IBK262207 ILG262191:ILG262207 IVC262191:IVC262207 JEY262191:JEY262207 JOU262191:JOU262207 JYQ262191:JYQ262207 KIM262191:KIM262207 KSI262191:KSI262207 LCE262191:LCE262207 LMA262191:LMA262207 LVW262191:LVW262207 MFS262191:MFS262207 MPO262191:MPO262207 MZK262191:MZK262207 NJG262191:NJG262207 NTC262191:NTC262207 OCY262191:OCY262207 OMU262191:OMU262207 OWQ262191:OWQ262207 PGM262191:PGM262207 PQI262191:PQI262207 QAE262191:QAE262207 QKA262191:QKA262207 QTW262191:QTW262207 RDS262191:RDS262207 RNO262191:RNO262207 RXK262191:RXK262207 SHG262191:SHG262207 SRC262191:SRC262207 TAY262191:TAY262207 TKU262191:TKU262207 TUQ262191:TUQ262207 UEM262191:UEM262207 UOI262191:UOI262207 UYE262191:UYE262207 VIA262191:VIA262207 VRW262191:VRW262207 WBS262191:WBS262207 WLO262191:WLO262207 WVK262191:WVK262207 C393263:C393279 IY327727:IY327743 SU327727:SU327743 ACQ327727:ACQ327743 AMM327727:AMM327743 AWI327727:AWI327743 BGE327727:BGE327743 BQA327727:BQA327743 BZW327727:BZW327743 CJS327727:CJS327743 CTO327727:CTO327743 DDK327727:DDK327743 DNG327727:DNG327743 DXC327727:DXC327743 EGY327727:EGY327743 EQU327727:EQU327743 FAQ327727:FAQ327743 FKM327727:FKM327743 FUI327727:FUI327743 GEE327727:GEE327743 GOA327727:GOA327743 GXW327727:GXW327743 HHS327727:HHS327743 HRO327727:HRO327743 IBK327727:IBK327743 ILG327727:ILG327743 IVC327727:IVC327743 JEY327727:JEY327743 JOU327727:JOU327743 JYQ327727:JYQ327743 KIM327727:KIM327743 KSI327727:KSI327743 LCE327727:LCE327743 LMA327727:LMA327743 LVW327727:LVW327743 MFS327727:MFS327743 MPO327727:MPO327743 MZK327727:MZK327743 NJG327727:NJG327743 NTC327727:NTC327743 OCY327727:OCY327743 OMU327727:OMU327743 OWQ327727:OWQ327743 PGM327727:PGM327743 PQI327727:PQI327743 QAE327727:QAE327743 QKA327727:QKA327743 QTW327727:QTW327743 RDS327727:RDS327743 RNO327727:RNO327743 RXK327727:RXK327743 SHG327727:SHG327743 SRC327727:SRC327743 TAY327727:TAY327743 TKU327727:TKU327743 TUQ327727:TUQ327743 UEM327727:UEM327743 UOI327727:UOI327743 UYE327727:UYE327743 VIA327727:VIA327743 VRW327727:VRW327743 WBS327727:WBS327743 WLO327727:WLO327743 WVK327727:WVK327743 C458799:C458815 IY393263:IY393279 SU393263:SU393279 ACQ393263:ACQ393279 AMM393263:AMM393279 AWI393263:AWI393279 BGE393263:BGE393279 BQA393263:BQA393279 BZW393263:BZW393279 CJS393263:CJS393279 CTO393263:CTO393279 DDK393263:DDK393279 DNG393263:DNG393279 DXC393263:DXC393279 EGY393263:EGY393279 EQU393263:EQU393279 FAQ393263:FAQ393279 FKM393263:FKM393279 FUI393263:FUI393279 GEE393263:GEE393279 GOA393263:GOA393279 GXW393263:GXW393279 HHS393263:HHS393279 HRO393263:HRO393279 IBK393263:IBK393279 ILG393263:ILG393279 IVC393263:IVC393279 JEY393263:JEY393279 JOU393263:JOU393279 JYQ393263:JYQ393279 KIM393263:KIM393279 KSI393263:KSI393279 LCE393263:LCE393279 LMA393263:LMA393279 LVW393263:LVW393279 MFS393263:MFS393279 MPO393263:MPO393279 MZK393263:MZK393279 NJG393263:NJG393279 NTC393263:NTC393279 OCY393263:OCY393279 OMU393263:OMU393279 OWQ393263:OWQ393279 PGM393263:PGM393279 PQI393263:PQI393279 QAE393263:QAE393279 QKA393263:QKA393279 QTW393263:QTW393279 RDS393263:RDS393279 RNO393263:RNO393279 RXK393263:RXK393279 SHG393263:SHG393279 SRC393263:SRC393279 TAY393263:TAY393279 TKU393263:TKU393279 TUQ393263:TUQ393279 UEM393263:UEM393279 UOI393263:UOI393279 UYE393263:UYE393279 VIA393263:VIA393279 VRW393263:VRW393279 WBS393263:WBS393279 WLO393263:WLO393279 WVK393263:WVK393279 C524335:C524351 IY458799:IY458815 SU458799:SU458815 ACQ458799:ACQ458815 AMM458799:AMM458815 AWI458799:AWI458815 BGE458799:BGE458815 BQA458799:BQA458815 BZW458799:BZW458815 CJS458799:CJS458815 CTO458799:CTO458815 DDK458799:DDK458815 DNG458799:DNG458815 DXC458799:DXC458815 EGY458799:EGY458815 EQU458799:EQU458815 FAQ458799:FAQ458815 FKM458799:FKM458815 FUI458799:FUI458815 GEE458799:GEE458815 GOA458799:GOA458815 GXW458799:GXW458815 HHS458799:HHS458815 HRO458799:HRO458815 IBK458799:IBK458815 ILG458799:ILG458815 IVC458799:IVC458815 JEY458799:JEY458815 JOU458799:JOU458815 JYQ458799:JYQ458815 KIM458799:KIM458815 KSI458799:KSI458815 LCE458799:LCE458815 LMA458799:LMA458815 LVW458799:LVW458815 MFS458799:MFS458815 MPO458799:MPO458815 MZK458799:MZK458815 NJG458799:NJG458815 NTC458799:NTC458815 OCY458799:OCY458815 OMU458799:OMU458815 OWQ458799:OWQ458815 PGM458799:PGM458815 PQI458799:PQI458815 QAE458799:QAE458815 QKA458799:QKA458815 QTW458799:QTW458815 RDS458799:RDS458815 RNO458799:RNO458815 RXK458799:RXK458815 SHG458799:SHG458815 SRC458799:SRC458815 TAY458799:TAY458815 TKU458799:TKU458815 TUQ458799:TUQ458815 UEM458799:UEM458815 UOI458799:UOI458815 UYE458799:UYE458815 VIA458799:VIA458815 VRW458799:VRW458815 WBS458799:WBS458815 WLO458799:WLO458815 WVK458799:WVK458815 C589871:C589887 IY524335:IY524351 SU524335:SU524351 ACQ524335:ACQ524351 AMM524335:AMM524351 AWI524335:AWI524351 BGE524335:BGE524351 BQA524335:BQA524351 BZW524335:BZW524351 CJS524335:CJS524351 CTO524335:CTO524351 DDK524335:DDK524351 DNG524335:DNG524351 DXC524335:DXC524351 EGY524335:EGY524351 EQU524335:EQU524351 FAQ524335:FAQ524351 FKM524335:FKM524351 FUI524335:FUI524351 GEE524335:GEE524351 GOA524335:GOA524351 GXW524335:GXW524351 HHS524335:HHS524351 HRO524335:HRO524351 IBK524335:IBK524351 ILG524335:ILG524351 IVC524335:IVC524351 JEY524335:JEY524351 JOU524335:JOU524351 JYQ524335:JYQ524351 KIM524335:KIM524351 KSI524335:KSI524351 LCE524335:LCE524351 LMA524335:LMA524351 LVW524335:LVW524351 MFS524335:MFS524351 MPO524335:MPO524351 MZK524335:MZK524351 NJG524335:NJG524351 NTC524335:NTC524351 OCY524335:OCY524351 OMU524335:OMU524351 OWQ524335:OWQ524351 PGM524335:PGM524351 PQI524335:PQI524351 QAE524335:QAE524351 QKA524335:QKA524351 QTW524335:QTW524351 RDS524335:RDS524351 RNO524335:RNO524351 RXK524335:RXK524351 SHG524335:SHG524351 SRC524335:SRC524351 TAY524335:TAY524351 TKU524335:TKU524351 TUQ524335:TUQ524351 UEM524335:UEM524351 UOI524335:UOI524351 UYE524335:UYE524351 VIA524335:VIA524351 VRW524335:VRW524351 WBS524335:WBS524351 WLO524335:WLO524351 WVK524335:WVK524351 C655407:C655423 IY589871:IY589887 SU589871:SU589887 ACQ589871:ACQ589887 AMM589871:AMM589887 AWI589871:AWI589887 BGE589871:BGE589887 BQA589871:BQA589887 BZW589871:BZW589887 CJS589871:CJS589887 CTO589871:CTO589887 DDK589871:DDK589887 DNG589871:DNG589887 DXC589871:DXC589887 EGY589871:EGY589887 EQU589871:EQU589887 FAQ589871:FAQ589887 FKM589871:FKM589887 FUI589871:FUI589887 GEE589871:GEE589887 GOA589871:GOA589887 GXW589871:GXW589887 HHS589871:HHS589887 HRO589871:HRO589887 IBK589871:IBK589887 ILG589871:ILG589887 IVC589871:IVC589887 JEY589871:JEY589887 JOU589871:JOU589887 JYQ589871:JYQ589887 KIM589871:KIM589887 KSI589871:KSI589887 LCE589871:LCE589887 LMA589871:LMA589887 LVW589871:LVW589887 MFS589871:MFS589887 MPO589871:MPO589887 MZK589871:MZK589887 NJG589871:NJG589887 NTC589871:NTC589887 OCY589871:OCY589887 OMU589871:OMU589887 OWQ589871:OWQ589887 PGM589871:PGM589887 PQI589871:PQI589887 QAE589871:QAE589887 QKA589871:QKA589887 QTW589871:QTW589887 RDS589871:RDS589887 RNO589871:RNO589887 RXK589871:RXK589887 SHG589871:SHG589887 SRC589871:SRC589887 TAY589871:TAY589887 TKU589871:TKU589887 TUQ589871:TUQ589887 UEM589871:UEM589887 UOI589871:UOI589887 UYE589871:UYE589887 VIA589871:VIA589887 VRW589871:VRW589887 WBS589871:WBS589887 WLO589871:WLO589887 WVK589871:WVK589887 C720943:C720959 IY655407:IY655423 SU655407:SU655423 ACQ655407:ACQ655423 AMM655407:AMM655423 AWI655407:AWI655423 BGE655407:BGE655423 BQA655407:BQA655423 BZW655407:BZW655423 CJS655407:CJS655423 CTO655407:CTO655423 DDK655407:DDK655423 DNG655407:DNG655423 DXC655407:DXC655423 EGY655407:EGY655423 EQU655407:EQU655423 FAQ655407:FAQ655423 FKM655407:FKM655423 FUI655407:FUI655423 GEE655407:GEE655423 GOA655407:GOA655423 GXW655407:GXW655423 HHS655407:HHS655423 HRO655407:HRO655423 IBK655407:IBK655423 ILG655407:ILG655423 IVC655407:IVC655423 JEY655407:JEY655423 JOU655407:JOU655423 JYQ655407:JYQ655423 KIM655407:KIM655423 KSI655407:KSI655423 LCE655407:LCE655423 LMA655407:LMA655423 LVW655407:LVW655423 MFS655407:MFS655423 MPO655407:MPO655423 MZK655407:MZK655423 NJG655407:NJG655423 NTC655407:NTC655423 OCY655407:OCY655423 OMU655407:OMU655423 OWQ655407:OWQ655423 PGM655407:PGM655423 PQI655407:PQI655423 QAE655407:QAE655423 QKA655407:QKA655423 QTW655407:QTW655423 RDS655407:RDS655423 RNO655407:RNO655423 RXK655407:RXK655423 SHG655407:SHG655423 SRC655407:SRC655423 TAY655407:TAY655423 TKU655407:TKU655423 TUQ655407:TUQ655423 UEM655407:UEM655423 UOI655407:UOI655423 UYE655407:UYE655423 VIA655407:VIA655423 VRW655407:VRW655423 WBS655407:WBS655423 WLO655407:WLO655423 WVK655407:WVK655423 C786479:C786495 IY720943:IY720959 SU720943:SU720959 ACQ720943:ACQ720959 AMM720943:AMM720959 AWI720943:AWI720959 BGE720943:BGE720959 BQA720943:BQA720959 BZW720943:BZW720959 CJS720943:CJS720959 CTO720943:CTO720959 DDK720943:DDK720959 DNG720943:DNG720959 DXC720943:DXC720959 EGY720943:EGY720959 EQU720943:EQU720959 FAQ720943:FAQ720959 FKM720943:FKM720959 FUI720943:FUI720959 GEE720943:GEE720959 GOA720943:GOA720959 GXW720943:GXW720959 HHS720943:HHS720959 HRO720943:HRO720959 IBK720943:IBK720959 ILG720943:ILG720959 IVC720943:IVC720959 JEY720943:JEY720959 JOU720943:JOU720959 JYQ720943:JYQ720959 KIM720943:KIM720959 KSI720943:KSI720959 LCE720943:LCE720959 LMA720943:LMA720959 LVW720943:LVW720959 MFS720943:MFS720959 MPO720943:MPO720959 MZK720943:MZK720959 NJG720943:NJG720959 NTC720943:NTC720959 OCY720943:OCY720959 OMU720943:OMU720959 OWQ720943:OWQ720959 PGM720943:PGM720959 PQI720943:PQI720959 QAE720943:QAE720959 QKA720943:QKA720959 QTW720943:QTW720959 RDS720943:RDS720959 RNO720943:RNO720959 RXK720943:RXK720959 SHG720943:SHG720959 SRC720943:SRC720959 TAY720943:TAY720959 TKU720943:TKU720959 TUQ720943:TUQ720959 UEM720943:UEM720959 UOI720943:UOI720959 UYE720943:UYE720959 VIA720943:VIA720959 VRW720943:VRW720959 WBS720943:WBS720959 WLO720943:WLO720959 WVK720943:WVK720959 C852015:C852031 IY786479:IY786495 SU786479:SU786495 ACQ786479:ACQ786495 AMM786479:AMM786495 AWI786479:AWI786495 BGE786479:BGE786495 BQA786479:BQA786495 BZW786479:BZW786495 CJS786479:CJS786495 CTO786479:CTO786495 DDK786479:DDK786495 DNG786479:DNG786495 DXC786479:DXC786495 EGY786479:EGY786495 EQU786479:EQU786495 FAQ786479:FAQ786495 FKM786479:FKM786495 FUI786479:FUI786495 GEE786479:GEE786495 GOA786479:GOA786495 GXW786479:GXW786495 HHS786479:HHS786495 HRO786479:HRO786495 IBK786479:IBK786495 ILG786479:ILG786495 IVC786479:IVC786495 JEY786479:JEY786495 JOU786479:JOU786495 JYQ786479:JYQ786495 KIM786479:KIM786495 KSI786479:KSI786495 LCE786479:LCE786495 LMA786479:LMA786495 LVW786479:LVW786495 MFS786479:MFS786495 MPO786479:MPO786495 MZK786479:MZK786495 NJG786479:NJG786495 NTC786479:NTC786495 OCY786479:OCY786495 OMU786479:OMU786495 OWQ786479:OWQ786495 PGM786479:PGM786495 PQI786479:PQI786495 QAE786479:QAE786495 QKA786479:QKA786495 QTW786479:QTW786495 RDS786479:RDS786495 RNO786479:RNO786495 RXK786479:RXK786495 SHG786479:SHG786495 SRC786479:SRC786495 TAY786479:TAY786495 TKU786479:TKU786495 TUQ786479:TUQ786495 UEM786479:UEM786495 UOI786479:UOI786495 UYE786479:UYE786495 VIA786479:VIA786495 VRW786479:VRW786495 WBS786479:WBS786495 WLO786479:WLO786495 WVK786479:WVK786495 C917551:C917567 IY852015:IY852031 SU852015:SU852031 ACQ852015:ACQ852031 AMM852015:AMM852031 AWI852015:AWI852031 BGE852015:BGE852031 BQA852015:BQA852031 BZW852015:BZW852031 CJS852015:CJS852031 CTO852015:CTO852031 DDK852015:DDK852031 DNG852015:DNG852031 DXC852015:DXC852031 EGY852015:EGY852031 EQU852015:EQU852031 FAQ852015:FAQ852031 FKM852015:FKM852031 FUI852015:FUI852031 GEE852015:GEE852031 GOA852015:GOA852031 GXW852015:GXW852031 HHS852015:HHS852031 HRO852015:HRO852031 IBK852015:IBK852031 ILG852015:ILG852031 IVC852015:IVC852031 JEY852015:JEY852031 JOU852015:JOU852031 JYQ852015:JYQ852031 KIM852015:KIM852031 KSI852015:KSI852031 LCE852015:LCE852031 LMA852015:LMA852031 LVW852015:LVW852031 MFS852015:MFS852031 MPO852015:MPO852031 MZK852015:MZK852031 NJG852015:NJG852031 NTC852015:NTC852031 OCY852015:OCY852031 OMU852015:OMU852031 OWQ852015:OWQ852031 PGM852015:PGM852031 PQI852015:PQI852031 QAE852015:QAE852031 QKA852015:QKA852031 QTW852015:QTW852031 RDS852015:RDS852031 RNO852015:RNO852031 RXK852015:RXK852031 SHG852015:SHG852031 SRC852015:SRC852031 TAY852015:TAY852031 TKU852015:TKU852031 TUQ852015:TUQ852031 UEM852015:UEM852031 UOI852015:UOI852031 UYE852015:UYE852031 VIA852015:VIA852031 VRW852015:VRW852031 WBS852015:WBS852031 WLO852015:WLO852031 WVK852015:WVK852031 C983087:C983103 IY917551:IY917567 SU917551:SU917567 ACQ917551:ACQ917567 AMM917551:AMM917567 AWI917551:AWI917567 BGE917551:BGE917567 BQA917551:BQA917567 BZW917551:BZW917567 CJS917551:CJS917567 CTO917551:CTO917567 DDK917551:DDK917567 DNG917551:DNG917567 DXC917551:DXC917567 EGY917551:EGY917567 EQU917551:EQU917567 FAQ917551:FAQ917567 FKM917551:FKM917567 FUI917551:FUI917567 GEE917551:GEE917567 GOA917551:GOA917567 GXW917551:GXW917567 HHS917551:HHS917567 HRO917551:HRO917567 IBK917551:IBK917567 ILG917551:ILG917567 IVC917551:IVC917567 JEY917551:JEY917567 JOU917551:JOU917567 JYQ917551:JYQ917567 KIM917551:KIM917567 KSI917551:KSI917567 LCE917551:LCE917567 LMA917551:LMA917567 LVW917551:LVW917567 MFS917551:MFS917567 MPO917551:MPO917567 MZK917551:MZK917567 NJG917551:NJG917567 NTC917551:NTC917567 OCY917551:OCY917567 OMU917551:OMU917567 OWQ917551:OWQ917567 PGM917551:PGM917567 PQI917551:PQI917567 QAE917551:QAE917567 QKA917551:QKA917567 QTW917551:QTW917567 RDS917551:RDS917567 RNO917551:RNO917567 RXK917551:RXK917567 SHG917551:SHG917567 SRC917551:SRC917567 TAY917551:TAY917567 TKU917551:TKU917567 TUQ917551:TUQ917567 UEM917551:UEM917567 UOI917551:UOI917567 UYE917551:UYE917567 VIA917551:VIA917567 VRW917551:VRW917567 WBS917551:WBS917567 WLO917551:WLO917567 WVK917551:WVK917567 WVK983087:WVK983103 IY983087:IY983103 SU983087:SU983103 ACQ983087:ACQ983103 AMM983087:AMM983103 AWI983087:AWI983103 BGE983087:BGE983103 BQA983087:BQA983103 BZW983087:BZW983103 CJS983087:CJS983103 CTO983087:CTO983103 DDK983087:DDK983103 DNG983087:DNG983103 DXC983087:DXC983103 EGY983087:EGY983103 EQU983087:EQU983103 FAQ983087:FAQ983103 FKM983087:FKM983103 FUI983087:FUI983103 GEE983087:GEE983103 GOA983087:GOA983103 GXW983087:GXW983103 HHS983087:HHS983103 HRO983087:HRO983103 IBK983087:IBK983103 ILG983087:ILG983103 IVC983087:IVC983103 JEY983087:JEY983103 JOU983087:JOU983103 JYQ983087:JYQ983103 KIM983087:KIM983103 KSI983087:KSI983103 LCE983087:LCE983103 LMA983087:LMA983103 LVW983087:LVW983103 MFS983087:MFS983103 MPO983087:MPO983103 MZK983087:MZK983103 NJG983087:NJG983103 NTC983087:NTC983103 OCY983087:OCY983103 OMU983087:OMU983103 OWQ983087:OWQ983103 PGM983087:PGM983103 PQI983087:PQI983103 QAE983087:QAE983103 QKA983087:QKA983103 QTW983087:QTW983103 RDS983087:RDS983103 RNO983087:RNO983103 RXK983087:RXK983103 SHG983087:SHG983103 SRC983087:SRC983103 TAY983087:TAY983103 TKU983087:TKU983103 TUQ983087:TUQ983103 UEM983087:UEM983103 UOI983087:UOI983103 UYE983087:UYE983103 VIA983087:VIA983103 VRW983087:VRW983103 WBS983087:WBS983103 WLO983087:WLO983103 C65583:C65599" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65581:F65614 JB65581:JB65614 SX65581:SX65614 ACT65581:ACT65614 AMP65581:AMP65614 AWL65581:AWL65614 BGH65581:BGH65614 BQD65581:BQD65614 BZZ65581:BZZ65614 CJV65581:CJV65614 CTR65581:CTR65614 DDN65581:DDN65614 DNJ65581:DNJ65614 DXF65581:DXF65614 EHB65581:EHB65614 EQX65581:EQX65614 FAT65581:FAT65614 FKP65581:FKP65614 FUL65581:FUL65614 GEH65581:GEH65614 GOD65581:GOD65614 GXZ65581:GXZ65614 HHV65581:HHV65614 HRR65581:HRR65614 IBN65581:IBN65614 ILJ65581:ILJ65614 IVF65581:IVF65614 JFB65581:JFB65614 JOX65581:JOX65614 JYT65581:JYT65614 KIP65581:KIP65614 KSL65581:KSL65614 LCH65581:LCH65614 LMD65581:LMD65614 LVZ65581:LVZ65614 MFV65581:MFV65614 MPR65581:MPR65614 MZN65581:MZN65614 NJJ65581:NJJ65614 NTF65581:NTF65614 ODB65581:ODB65614 OMX65581:OMX65614 OWT65581:OWT65614 PGP65581:PGP65614 PQL65581:PQL65614 QAH65581:QAH65614 QKD65581:QKD65614 QTZ65581:QTZ65614 RDV65581:RDV65614 RNR65581:RNR65614 RXN65581:RXN65614 SHJ65581:SHJ65614 SRF65581:SRF65614 TBB65581:TBB65614 TKX65581:TKX65614 TUT65581:TUT65614 UEP65581:UEP65614 UOL65581:UOL65614 UYH65581:UYH65614 VID65581:VID65614 VRZ65581:VRZ65614 WBV65581:WBV65614 WLR65581:WLR65614 WVN65581:WVN65614 F131117:F131150 JB131117:JB131150 SX131117:SX131150 ACT131117:ACT131150 AMP131117:AMP131150 AWL131117:AWL131150 BGH131117:BGH131150 BQD131117:BQD131150 BZZ131117:BZZ131150 CJV131117:CJV131150 CTR131117:CTR131150 DDN131117:DDN131150 DNJ131117:DNJ131150 DXF131117:DXF131150 EHB131117:EHB131150 EQX131117:EQX131150 FAT131117:FAT131150 FKP131117:FKP131150 FUL131117:FUL131150 GEH131117:GEH131150 GOD131117:GOD131150 GXZ131117:GXZ131150 HHV131117:HHV131150 HRR131117:HRR131150 IBN131117:IBN131150 ILJ131117:ILJ131150 IVF131117:IVF131150 JFB131117:JFB131150 JOX131117:JOX131150 JYT131117:JYT131150 KIP131117:KIP131150 KSL131117:KSL131150 LCH131117:LCH131150 LMD131117:LMD131150 LVZ131117:LVZ131150 MFV131117:MFV131150 MPR131117:MPR131150 MZN131117:MZN131150 NJJ131117:NJJ131150 NTF131117:NTF131150 ODB131117:ODB131150 OMX131117:OMX131150 OWT131117:OWT131150 PGP131117:PGP131150 PQL131117:PQL131150 QAH131117:QAH131150 QKD131117:QKD131150 QTZ131117:QTZ131150 RDV131117:RDV131150 RNR131117:RNR131150 RXN131117:RXN131150 SHJ131117:SHJ131150 SRF131117:SRF131150 TBB131117:TBB131150 TKX131117:TKX131150 TUT131117:TUT131150 UEP131117:UEP131150 UOL131117:UOL131150 UYH131117:UYH131150 VID131117:VID131150 VRZ131117:VRZ131150 WBV131117:WBV131150 WLR131117:WLR131150 WVN131117:WVN131150 F196653:F196686 JB196653:JB196686 SX196653:SX196686 ACT196653:ACT196686 AMP196653:AMP196686 AWL196653:AWL196686 BGH196653:BGH196686 BQD196653:BQD196686 BZZ196653:BZZ196686 CJV196653:CJV196686 CTR196653:CTR196686 DDN196653:DDN196686 DNJ196653:DNJ196686 DXF196653:DXF196686 EHB196653:EHB196686 EQX196653:EQX196686 FAT196653:FAT196686 FKP196653:FKP196686 FUL196653:FUL196686 GEH196653:GEH196686 GOD196653:GOD196686 GXZ196653:GXZ196686 HHV196653:HHV196686 HRR196653:HRR196686 IBN196653:IBN196686 ILJ196653:ILJ196686 IVF196653:IVF196686 JFB196653:JFB196686 JOX196653:JOX196686 JYT196653:JYT196686 KIP196653:KIP196686 KSL196653:KSL196686 LCH196653:LCH196686 LMD196653:LMD196686 LVZ196653:LVZ196686 MFV196653:MFV196686 MPR196653:MPR196686 MZN196653:MZN196686 NJJ196653:NJJ196686 NTF196653:NTF196686 ODB196653:ODB196686 OMX196653:OMX196686 OWT196653:OWT196686 PGP196653:PGP196686 PQL196653:PQL196686 QAH196653:QAH196686 QKD196653:QKD196686 QTZ196653:QTZ196686 RDV196653:RDV196686 RNR196653:RNR196686 RXN196653:RXN196686 SHJ196653:SHJ196686 SRF196653:SRF196686 TBB196653:TBB196686 TKX196653:TKX196686 TUT196653:TUT196686 UEP196653:UEP196686 UOL196653:UOL196686 UYH196653:UYH196686 VID196653:VID196686 VRZ196653:VRZ196686 WBV196653:WBV196686 WLR196653:WLR196686 WVN196653:WVN196686 F262189:F262222 JB262189:JB262222 SX262189:SX262222 ACT262189:ACT262222 AMP262189:AMP262222 AWL262189:AWL262222 BGH262189:BGH262222 BQD262189:BQD262222 BZZ262189:BZZ262222 CJV262189:CJV262222 CTR262189:CTR262222 DDN262189:DDN262222 DNJ262189:DNJ262222 DXF262189:DXF262222 EHB262189:EHB262222 EQX262189:EQX262222 FAT262189:FAT262222 FKP262189:FKP262222 FUL262189:FUL262222 GEH262189:GEH262222 GOD262189:GOD262222 GXZ262189:GXZ262222 HHV262189:HHV262222 HRR262189:HRR262222 IBN262189:IBN262222 ILJ262189:ILJ262222 IVF262189:IVF262222 JFB262189:JFB262222 JOX262189:JOX262222 JYT262189:JYT262222 KIP262189:KIP262222 KSL262189:KSL262222 LCH262189:LCH262222 LMD262189:LMD262222 LVZ262189:LVZ262222 MFV262189:MFV262222 MPR262189:MPR262222 MZN262189:MZN262222 NJJ262189:NJJ262222 NTF262189:NTF262222 ODB262189:ODB262222 OMX262189:OMX262222 OWT262189:OWT262222 PGP262189:PGP262222 PQL262189:PQL262222 QAH262189:QAH262222 QKD262189:QKD262222 QTZ262189:QTZ262222 RDV262189:RDV262222 RNR262189:RNR262222 RXN262189:RXN262222 SHJ262189:SHJ262222 SRF262189:SRF262222 TBB262189:TBB262222 TKX262189:TKX262222 TUT262189:TUT262222 UEP262189:UEP262222 UOL262189:UOL262222 UYH262189:UYH262222 VID262189:VID262222 VRZ262189:VRZ262222 WBV262189:WBV262222 WLR262189:WLR262222 WVN262189:WVN262222 F327725:F327758 JB327725:JB327758 SX327725:SX327758 ACT327725:ACT327758 AMP327725:AMP327758 AWL327725:AWL327758 BGH327725:BGH327758 BQD327725:BQD327758 BZZ327725:BZZ327758 CJV327725:CJV327758 CTR327725:CTR327758 DDN327725:DDN327758 DNJ327725:DNJ327758 DXF327725:DXF327758 EHB327725:EHB327758 EQX327725:EQX327758 FAT327725:FAT327758 FKP327725:FKP327758 FUL327725:FUL327758 GEH327725:GEH327758 GOD327725:GOD327758 GXZ327725:GXZ327758 HHV327725:HHV327758 HRR327725:HRR327758 IBN327725:IBN327758 ILJ327725:ILJ327758 IVF327725:IVF327758 JFB327725:JFB327758 JOX327725:JOX327758 JYT327725:JYT327758 KIP327725:KIP327758 KSL327725:KSL327758 LCH327725:LCH327758 LMD327725:LMD327758 LVZ327725:LVZ327758 MFV327725:MFV327758 MPR327725:MPR327758 MZN327725:MZN327758 NJJ327725:NJJ327758 NTF327725:NTF327758 ODB327725:ODB327758 OMX327725:OMX327758 OWT327725:OWT327758 PGP327725:PGP327758 PQL327725:PQL327758 QAH327725:QAH327758 QKD327725:QKD327758 QTZ327725:QTZ327758 RDV327725:RDV327758 RNR327725:RNR327758 RXN327725:RXN327758 SHJ327725:SHJ327758 SRF327725:SRF327758 TBB327725:TBB327758 TKX327725:TKX327758 TUT327725:TUT327758 UEP327725:UEP327758 UOL327725:UOL327758 UYH327725:UYH327758 VID327725:VID327758 VRZ327725:VRZ327758 WBV327725:WBV327758 WLR327725:WLR327758 WVN327725:WVN327758 F393261:F393294 JB393261:JB393294 SX393261:SX393294 ACT393261:ACT393294 AMP393261:AMP393294 AWL393261:AWL393294 BGH393261:BGH393294 BQD393261:BQD393294 BZZ393261:BZZ393294 CJV393261:CJV393294 CTR393261:CTR393294 DDN393261:DDN393294 DNJ393261:DNJ393294 DXF393261:DXF393294 EHB393261:EHB393294 EQX393261:EQX393294 FAT393261:FAT393294 FKP393261:FKP393294 FUL393261:FUL393294 GEH393261:GEH393294 GOD393261:GOD393294 GXZ393261:GXZ393294 HHV393261:HHV393294 HRR393261:HRR393294 IBN393261:IBN393294 ILJ393261:ILJ393294 IVF393261:IVF393294 JFB393261:JFB393294 JOX393261:JOX393294 JYT393261:JYT393294 KIP393261:KIP393294 KSL393261:KSL393294 LCH393261:LCH393294 LMD393261:LMD393294 LVZ393261:LVZ393294 MFV393261:MFV393294 MPR393261:MPR393294 MZN393261:MZN393294 NJJ393261:NJJ393294 NTF393261:NTF393294 ODB393261:ODB393294 OMX393261:OMX393294 OWT393261:OWT393294 PGP393261:PGP393294 PQL393261:PQL393294 QAH393261:QAH393294 QKD393261:QKD393294 QTZ393261:QTZ393294 RDV393261:RDV393294 RNR393261:RNR393294 RXN393261:RXN393294 SHJ393261:SHJ393294 SRF393261:SRF393294 TBB393261:TBB393294 TKX393261:TKX393294 TUT393261:TUT393294 UEP393261:UEP393294 UOL393261:UOL393294 UYH393261:UYH393294 VID393261:VID393294 VRZ393261:VRZ393294 WBV393261:WBV393294 WLR393261:WLR393294 WVN393261:WVN393294 F458797:F458830 JB458797:JB458830 SX458797:SX458830 ACT458797:ACT458830 AMP458797:AMP458830 AWL458797:AWL458830 BGH458797:BGH458830 BQD458797:BQD458830 BZZ458797:BZZ458830 CJV458797:CJV458830 CTR458797:CTR458830 DDN458797:DDN458830 DNJ458797:DNJ458830 DXF458797:DXF458830 EHB458797:EHB458830 EQX458797:EQX458830 FAT458797:FAT458830 FKP458797:FKP458830 FUL458797:FUL458830 GEH458797:GEH458830 GOD458797:GOD458830 GXZ458797:GXZ458830 HHV458797:HHV458830 HRR458797:HRR458830 IBN458797:IBN458830 ILJ458797:ILJ458830 IVF458797:IVF458830 JFB458797:JFB458830 JOX458797:JOX458830 JYT458797:JYT458830 KIP458797:KIP458830 KSL458797:KSL458830 LCH458797:LCH458830 LMD458797:LMD458830 LVZ458797:LVZ458830 MFV458797:MFV458830 MPR458797:MPR458830 MZN458797:MZN458830 NJJ458797:NJJ458830 NTF458797:NTF458830 ODB458797:ODB458830 OMX458797:OMX458830 OWT458797:OWT458830 PGP458797:PGP458830 PQL458797:PQL458830 QAH458797:QAH458830 QKD458797:QKD458830 QTZ458797:QTZ458830 RDV458797:RDV458830 RNR458797:RNR458830 RXN458797:RXN458830 SHJ458797:SHJ458830 SRF458797:SRF458830 TBB458797:TBB458830 TKX458797:TKX458830 TUT458797:TUT458830 UEP458797:UEP458830 UOL458797:UOL458830 UYH458797:UYH458830 VID458797:VID458830 VRZ458797:VRZ458830 WBV458797:WBV458830 WLR458797:WLR458830 WVN458797:WVN458830 F524333:F524366 JB524333:JB524366 SX524333:SX524366 ACT524333:ACT524366 AMP524333:AMP524366 AWL524333:AWL524366 BGH524333:BGH524366 BQD524333:BQD524366 BZZ524333:BZZ524366 CJV524333:CJV524366 CTR524333:CTR524366 DDN524333:DDN524366 DNJ524333:DNJ524366 DXF524333:DXF524366 EHB524333:EHB524366 EQX524333:EQX524366 FAT524333:FAT524366 FKP524333:FKP524366 FUL524333:FUL524366 GEH524333:GEH524366 GOD524333:GOD524366 GXZ524333:GXZ524366 HHV524333:HHV524366 HRR524333:HRR524366 IBN524333:IBN524366 ILJ524333:ILJ524366 IVF524333:IVF524366 JFB524333:JFB524366 JOX524333:JOX524366 JYT524333:JYT524366 KIP524333:KIP524366 KSL524333:KSL524366 LCH524333:LCH524366 LMD524333:LMD524366 LVZ524333:LVZ524366 MFV524333:MFV524366 MPR524333:MPR524366 MZN524333:MZN524366 NJJ524333:NJJ524366 NTF524333:NTF524366 ODB524333:ODB524366 OMX524333:OMX524366 OWT524333:OWT524366 PGP524333:PGP524366 PQL524333:PQL524366 QAH524333:QAH524366 QKD524333:QKD524366 QTZ524333:QTZ524366 RDV524333:RDV524366 RNR524333:RNR524366 RXN524333:RXN524366 SHJ524333:SHJ524366 SRF524333:SRF524366 TBB524333:TBB524366 TKX524333:TKX524366 TUT524333:TUT524366 UEP524333:UEP524366 UOL524333:UOL524366 UYH524333:UYH524366 VID524333:VID524366 VRZ524333:VRZ524366 WBV524333:WBV524366 WLR524333:WLR524366 WVN524333:WVN524366 F589869:F589902 JB589869:JB589902 SX589869:SX589902 ACT589869:ACT589902 AMP589869:AMP589902 AWL589869:AWL589902 BGH589869:BGH589902 BQD589869:BQD589902 BZZ589869:BZZ589902 CJV589869:CJV589902 CTR589869:CTR589902 DDN589869:DDN589902 DNJ589869:DNJ589902 DXF589869:DXF589902 EHB589869:EHB589902 EQX589869:EQX589902 FAT589869:FAT589902 FKP589869:FKP589902 FUL589869:FUL589902 GEH589869:GEH589902 GOD589869:GOD589902 GXZ589869:GXZ589902 HHV589869:HHV589902 HRR589869:HRR589902 IBN589869:IBN589902 ILJ589869:ILJ589902 IVF589869:IVF589902 JFB589869:JFB589902 JOX589869:JOX589902 JYT589869:JYT589902 KIP589869:KIP589902 KSL589869:KSL589902 LCH589869:LCH589902 LMD589869:LMD589902 LVZ589869:LVZ589902 MFV589869:MFV589902 MPR589869:MPR589902 MZN589869:MZN589902 NJJ589869:NJJ589902 NTF589869:NTF589902 ODB589869:ODB589902 OMX589869:OMX589902 OWT589869:OWT589902 PGP589869:PGP589902 PQL589869:PQL589902 QAH589869:QAH589902 QKD589869:QKD589902 QTZ589869:QTZ589902 RDV589869:RDV589902 RNR589869:RNR589902 RXN589869:RXN589902 SHJ589869:SHJ589902 SRF589869:SRF589902 TBB589869:TBB589902 TKX589869:TKX589902 TUT589869:TUT589902 UEP589869:UEP589902 UOL589869:UOL589902 UYH589869:UYH589902 VID589869:VID589902 VRZ589869:VRZ589902 WBV589869:WBV589902 WLR589869:WLR589902 WVN589869:WVN589902 F655405:F655438 JB655405:JB655438 SX655405:SX655438 ACT655405:ACT655438 AMP655405:AMP655438 AWL655405:AWL655438 BGH655405:BGH655438 BQD655405:BQD655438 BZZ655405:BZZ655438 CJV655405:CJV655438 CTR655405:CTR655438 DDN655405:DDN655438 DNJ655405:DNJ655438 DXF655405:DXF655438 EHB655405:EHB655438 EQX655405:EQX655438 FAT655405:FAT655438 FKP655405:FKP655438 FUL655405:FUL655438 GEH655405:GEH655438 GOD655405:GOD655438 GXZ655405:GXZ655438 HHV655405:HHV655438 HRR655405:HRR655438 IBN655405:IBN655438 ILJ655405:ILJ655438 IVF655405:IVF655438 JFB655405:JFB655438 JOX655405:JOX655438 JYT655405:JYT655438 KIP655405:KIP655438 KSL655405:KSL655438 LCH655405:LCH655438 LMD655405:LMD655438 LVZ655405:LVZ655438 MFV655405:MFV655438 MPR655405:MPR655438 MZN655405:MZN655438 NJJ655405:NJJ655438 NTF655405:NTF655438 ODB655405:ODB655438 OMX655405:OMX655438 OWT655405:OWT655438 PGP655405:PGP655438 PQL655405:PQL655438 QAH655405:QAH655438 QKD655405:QKD655438 QTZ655405:QTZ655438 RDV655405:RDV655438 RNR655405:RNR655438 RXN655405:RXN655438 SHJ655405:SHJ655438 SRF655405:SRF655438 TBB655405:TBB655438 TKX655405:TKX655438 TUT655405:TUT655438 UEP655405:UEP655438 UOL655405:UOL655438 UYH655405:UYH655438 VID655405:VID655438 VRZ655405:VRZ655438 WBV655405:WBV655438 WLR655405:WLR655438 WVN655405:WVN655438 F720941:F720974 JB720941:JB720974 SX720941:SX720974 ACT720941:ACT720974 AMP720941:AMP720974 AWL720941:AWL720974 BGH720941:BGH720974 BQD720941:BQD720974 BZZ720941:BZZ720974 CJV720941:CJV720974 CTR720941:CTR720974 DDN720941:DDN720974 DNJ720941:DNJ720974 DXF720941:DXF720974 EHB720941:EHB720974 EQX720941:EQX720974 FAT720941:FAT720974 FKP720941:FKP720974 FUL720941:FUL720974 GEH720941:GEH720974 GOD720941:GOD720974 GXZ720941:GXZ720974 HHV720941:HHV720974 HRR720941:HRR720974 IBN720941:IBN720974 ILJ720941:ILJ720974 IVF720941:IVF720974 JFB720941:JFB720974 JOX720941:JOX720974 JYT720941:JYT720974 KIP720941:KIP720974 KSL720941:KSL720974 LCH720941:LCH720974 LMD720941:LMD720974 LVZ720941:LVZ720974 MFV720941:MFV720974 MPR720941:MPR720974 MZN720941:MZN720974 NJJ720941:NJJ720974 NTF720941:NTF720974 ODB720941:ODB720974 OMX720941:OMX720974 OWT720941:OWT720974 PGP720941:PGP720974 PQL720941:PQL720974 QAH720941:QAH720974 QKD720941:QKD720974 QTZ720941:QTZ720974 RDV720941:RDV720974 RNR720941:RNR720974 RXN720941:RXN720974 SHJ720941:SHJ720974 SRF720941:SRF720974 TBB720941:TBB720974 TKX720941:TKX720974 TUT720941:TUT720974 UEP720941:UEP720974 UOL720941:UOL720974 UYH720941:UYH720974 VID720941:VID720974 VRZ720941:VRZ720974 WBV720941:WBV720974 WLR720941:WLR720974 WVN720941:WVN720974 F786477:F786510 JB786477:JB786510 SX786477:SX786510 ACT786477:ACT786510 AMP786477:AMP786510 AWL786477:AWL786510 BGH786477:BGH786510 BQD786477:BQD786510 BZZ786477:BZZ786510 CJV786477:CJV786510 CTR786477:CTR786510 DDN786477:DDN786510 DNJ786477:DNJ786510 DXF786477:DXF786510 EHB786477:EHB786510 EQX786477:EQX786510 FAT786477:FAT786510 FKP786477:FKP786510 FUL786477:FUL786510 GEH786477:GEH786510 GOD786477:GOD786510 GXZ786477:GXZ786510 HHV786477:HHV786510 HRR786477:HRR786510 IBN786477:IBN786510 ILJ786477:ILJ786510 IVF786477:IVF786510 JFB786477:JFB786510 JOX786477:JOX786510 JYT786477:JYT786510 KIP786477:KIP786510 KSL786477:KSL786510 LCH786477:LCH786510 LMD786477:LMD786510 LVZ786477:LVZ786510 MFV786477:MFV786510 MPR786477:MPR786510 MZN786477:MZN786510 NJJ786477:NJJ786510 NTF786477:NTF786510 ODB786477:ODB786510 OMX786477:OMX786510 OWT786477:OWT786510 PGP786477:PGP786510 PQL786477:PQL786510 QAH786477:QAH786510 QKD786477:QKD786510 QTZ786477:QTZ786510 RDV786477:RDV786510 RNR786477:RNR786510 RXN786477:RXN786510 SHJ786477:SHJ786510 SRF786477:SRF786510 TBB786477:TBB786510 TKX786477:TKX786510 TUT786477:TUT786510 UEP786477:UEP786510 UOL786477:UOL786510 UYH786477:UYH786510 VID786477:VID786510 VRZ786477:VRZ786510 WBV786477:WBV786510 WLR786477:WLR786510 WVN786477:WVN786510 F852013:F852046 JB852013:JB852046 SX852013:SX852046 ACT852013:ACT852046 AMP852013:AMP852046 AWL852013:AWL852046 BGH852013:BGH852046 BQD852013:BQD852046 BZZ852013:BZZ852046 CJV852013:CJV852046 CTR852013:CTR852046 DDN852013:DDN852046 DNJ852013:DNJ852046 DXF852013:DXF852046 EHB852013:EHB852046 EQX852013:EQX852046 FAT852013:FAT852046 FKP852013:FKP852046 FUL852013:FUL852046 GEH852013:GEH852046 GOD852013:GOD852046 GXZ852013:GXZ852046 HHV852013:HHV852046 HRR852013:HRR852046 IBN852013:IBN852046 ILJ852013:ILJ852046 IVF852013:IVF852046 JFB852013:JFB852046 JOX852013:JOX852046 JYT852013:JYT852046 KIP852013:KIP852046 KSL852013:KSL852046 LCH852013:LCH852046 LMD852013:LMD852046 LVZ852013:LVZ852046 MFV852013:MFV852046 MPR852013:MPR852046 MZN852013:MZN852046 NJJ852013:NJJ852046 NTF852013:NTF852046 ODB852013:ODB852046 OMX852013:OMX852046 OWT852013:OWT852046 PGP852013:PGP852046 PQL852013:PQL852046 QAH852013:QAH852046 QKD852013:QKD852046 QTZ852013:QTZ852046 RDV852013:RDV852046 RNR852013:RNR852046 RXN852013:RXN852046 SHJ852013:SHJ852046 SRF852013:SRF852046 TBB852013:TBB852046 TKX852013:TKX852046 TUT852013:TUT852046 UEP852013:UEP852046 UOL852013:UOL852046 UYH852013:UYH852046 VID852013:VID852046 VRZ852013:VRZ852046 WBV852013:WBV852046 WLR852013:WLR852046 WVN852013:WVN852046 F917549:F917582 JB917549:JB917582 SX917549:SX917582 ACT917549:ACT917582 AMP917549:AMP917582 AWL917549:AWL917582 BGH917549:BGH917582 BQD917549:BQD917582 BZZ917549:BZZ917582 CJV917549:CJV917582 CTR917549:CTR917582 DDN917549:DDN917582 DNJ917549:DNJ917582 DXF917549:DXF917582 EHB917549:EHB917582 EQX917549:EQX917582 FAT917549:FAT917582 FKP917549:FKP917582 FUL917549:FUL917582 GEH917549:GEH917582 GOD917549:GOD917582 GXZ917549:GXZ917582 HHV917549:HHV917582 HRR917549:HRR917582 IBN917549:IBN917582 ILJ917549:ILJ917582 IVF917549:IVF917582 JFB917549:JFB917582 JOX917549:JOX917582 JYT917549:JYT917582 KIP917549:KIP917582 KSL917549:KSL917582 LCH917549:LCH917582 LMD917549:LMD917582 LVZ917549:LVZ917582 MFV917549:MFV917582 MPR917549:MPR917582 MZN917549:MZN917582 NJJ917549:NJJ917582 NTF917549:NTF917582 ODB917549:ODB917582 OMX917549:OMX917582 OWT917549:OWT917582 PGP917549:PGP917582 PQL917549:PQL917582 QAH917549:QAH917582 QKD917549:QKD917582 QTZ917549:QTZ917582 RDV917549:RDV917582 RNR917549:RNR917582 RXN917549:RXN917582 SHJ917549:SHJ917582 SRF917549:SRF917582 TBB917549:TBB917582 TKX917549:TKX917582 TUT917549:TUT917582 UEP917549:UEP917582 UOL917549:UOL917582 UYH917549:UYH917582 VID917549:VID917582 VRZ917549:VRZ917582 WBV917549:WBV917582 WLR917549:WLR917582 WVN917549:WVN917582 F983085:F983118 JB983085:JB983118 SX983085:SX983118 ACT983085:ACT983118 AMP983085:AMP983118 AWL983085:AWL983118 BGH983085:BGH983118 BQD983085:BQD983118 BZZ983085:BZZ983118 CJV983085:CJV983118 CTR983085:CTR983118 DDN983085:DDN983118 DNJ983085:DNJ983118 DXF983085:DXF983118 EHB983085:EHB983118 EQX983085:EQX983118 FAT983085:FAT983118 FKP983085:FKP983118 FUL983085:FUL983118 GEH983085:GEH983118 GOD983085:GOD983118 GXZ983085:GXZ983118 HHV983085:HHV983118 HRR983085:HRR983118 IBN983085:IBN983118 ILJ983085:ILJ983118 IVF983085:IVF983118 JFB983085:JFB983118 JOX983085:JOX983118 JYT983085:JYT983118 KIP983085:KIP983118 KSL983085:KSL983118 LCH983085:LCH983118 LMD983085:LMD983118 LVZ983085:LVZ983118 MFV983085:MFV983118 MPR983085:MPR983118 MZN983085:MZN983118 NJJ983085:NJJ983118 NTF983085:NTF983118 ODB983085:ODB983118 OMX983085:OMX983118 OWT983085:OWT983118 PGP983085:PGP983118 PQL983085:PQL983118 QAH983085:QAH983118 QKD983085:QKD983118 QTZ983085:QTZ983118 RDV983085:RDV983118 RNR983085:RNR983118 RXN983085:RXN983118 SHJ983085:SHJ983118 SRF983085:SRF983118 TBB983085:TBB983118 TKX983085:TKX983118 TUT983085:TUT983118 UEP983085:UEP983118 UOL983085:UOL983118 UYH983085:UYH983118 VID983085:VID983118 VRZ983085:VRZ983118 WBV983085:WBV983118 WLR983085:WLR983118 WVN983085:WVN983118 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F741" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65583:F65616 JB65583:JB65616 SX65583:SX65616 ACT65583:ACT65616 AMP65583:AMP65616 AWL65583:AWL65616 BGH65583:BGH65616 BQD65583:BQD65616 BZZ65583:BZZ65616 CJV65583:CJV65616 CTR65583:CTR65616 DDN65583:DDN65616 DNJ65583:DNJ65616 DXF65583:DXF65616 EHB65583:EHB65616 EQX65583:EQX65616 FAT65583:FAT65616 FKP65583:FKP65616 FUL65583:FUL65616 GEH65583:GEH65616 GOD65583:GOD65616 GXZ65583:GXZ65616 HHV65583:HHV65616 HRR65583:HRR65616 IBN65583:IBN65616 ILJ65583:ILJ65616 IVF65583:IVF65616 JFB65583:JFB65616 JOX65583:JOX65616 JYT65583:JYT65616 KIP65583:KIP65616 KSL65583:KSL65616 LCH65583:LCH65616 LMD65583:LMD65616 LVZ65583:LVZ65616 MFV65583:MFV65616 MPR65583:MPR65616 MZN65583:MZN65616 NJJ65583:NJJ65616 NTF65583:NTF65616 ODB65583:ODB65616 OMX65583:OMX65616 OWT65583:OWT65616 PGP65583:PGP65616 PQL65583:PQL65616 QAH65583:QAH65616 QKD65583:QKD65616 QTZ65583:QTZ65616 RDV65583:RDV65616 RNR65583:RNR65616 RXN65583:RXN65616 SHJ65583:SHJ65616 SRF65583:SRF65616 TBB65583:TBB65616 TKX65583:TKX65616 TUT65583:TUT65616 UEP65583:UEP65616 UOL65583:UOL65616 UYH65583:UYH65616 VID65583:VID65616 VRZ65583:VRZ65616 WBV65583:WBV65616 WLR65583:WLR65616 WVN65583:WVN65616 F131119:F131152 JB131119:JB131152 SX131119:SX131152 ACT131119:ACT131152 AMP131119:AMP131152 AWL131119:AWL131152 BGH131119:BGH131152 BQD131119:BQD131152 BZZ131119:BZZ131152 CJV131119:CJV131152 CTR131119:CTR131152 DDN131119:DDN131152 DNJ131119:DNJ131152 DXF131119:DXF131152 EHB131119:EHB131152 EQX131119:EQX131152 FAT131119:FAT131152 FKP131119:FKP131152 FUL131119:FUL131152 GEH131119:GEH131152 GOD131119:GOD131152 GXZ131119:GXZ131152 HHV131119:HHV131152 HRR131119:HRR131152 IBN131119:IBN131152 ILJ131119:ILJ131152 IVF131119:IVF131152 JFB131119:JFB131152 JOX131119:JOX131152 JYT131119:JYT131152 KIP131119:KIP131152 KSL131119:KSL131152 LCH131119:LCH131152 LMD131119:LMD131152 LVZ131119:LVZ131152 MFV131119:MFV131152 MPR131119:MPR131152 MZN131119:MZN131152 NJJ131119:NJJ131152 NTF131119:NTF131152 ODB131119:ODB131152 OMX131119:OMX131152 OWT131119:OWT131152 PGP131119:PGP131152 PQL131119:PQL131152 QAH131119:QAH131152 QKD131119:QKD131152 QTZ131119:QTZ131152 RDV131119:RDV131152 RNR131119:RNR131152 RXN131119:RXN131152 SHJ131119:SHJ131152 SRF131119:SRF131152 TBB131119:TBB131152 TKX131119:TKX131152 TUT131119:TUT131152 UEP131119:UEP131152 UOL131119:UOL131152 UYH131119:UYH131152 VID131119:VID131152 VRZ131119:VRZ131152 WBV131119:WBV131152 WLR131119:WLR131152 WVN131119:WVN131152 F196655:F196688 JB196655:JB196688 SX196655:SX196688 ACT196655:ACT196688 AMP196655:AMP196688 AWL196655:AWL196688 BGH196655:BGH196688 BQD196655:BQD196688 BZZ196655:BZZ196688 CJV196655:CJV196688 CTR196655:CTR196688 DDN196655:DDN196688 DNJ196655:DNJ196688 DXF196655:DXF196688 EHB196655:EHB196688 EQX196655:EQX196688 FAT196655:FAT196688 FKP196655:FKP196688 FUL196655:FUL196688 GEH196655:GEH196688 GOD196655:GOD196688 GXZ196655:GXZ196688 HHV196655:HHV196688 HRR196655:HRR196688 IBN196655:IBN196688 ILJ196655:ILJ196688 IVF196655:IVF196688 JFB196655:JFB196688 JOX196655:JOX196688 JYT196655:JYT196688 KIP196655:KIP196688 KSL196655:KSL196688 LCH196655:LCH196688 LMD196655:LMD196688 LVZ196655:LVZ196688 MFV196655:MFV196688 MPR196655:MPR196688 MZN196655:MZN196688 NJJ196655:NJJ196688 NTF196655:NTF196688 ODB196655:ODB196688 OMX196655:OMX196688 OWT196655:OWT196688 PGP196655:PGP196688 PQL196655:PQL196688 QAH196655:QAH196688 QKD196655:QKD196688 QTZ196655:QTZ196688 RDV196655:RDV196688 RNR196655:RNR196688 RXN196655:RXN196688 SHJ196655:SHJ196688 SRF196655:SRF196688 TBB196655:TBB196688 TKX196655:TKX196688 TUT196655:TUT196688 UEP196655:UEP196688 UOL196655:UOL196688 UYH196655:UYH196688 VID196655:VID196688 VRZ196655:VRZ196688 WBV196655:WBV196688 WLR196655:WLR196688 WVN196655:WVN196688 F262191:F262224 JB262191:JB262224 SX262191:SX262224 ACT262191:ACT262224 AMP262191:AMP262224 AWL262191:AWL262224 BGH262191:BGH262224 BQD262191:BQD262224 BZZ262191:BZZ262224 CJV262191:CJV262224 CTR262191:CTR262224 DDN262191:DDN262224 DNJ262191:DNJ262224 DXF262191:DXF262224 EHB262191:EHB262224 EQX262191:EQX262224 FAT262191:FAT262224 FKP262191:FKP262224 FUL262191:FUL262224 GEH262191:GEH262224 GOD262191:GOD262224 GXZ262191:GXZ262224 HHV262191:HHV262224 HRR262191:HRR262224 IBN262191:IBN262224 ILJ262191:ILJ262224 IVF262191:IVF262224 JFB262191:JFB262224 JOX262191:JOX262224 JYT262191:JYT262224 KIP262191:KIP262224 KSL262191:KSL262224 LCH262191:LCH262224 LMD262191:LMD262224 LVZ262191:LVZ262224 MFV262191:MFV262224 MPR262191:MPR262224 MZN262191:MZN262224 NJJ262191:NJJ262224 NTF262191:NTF262224 ODB262191:ODB262224 OMX262191:OMX262224 OWT262191:OWT262224 PGP262191:PGP262224 PQL262191:PQL262224 QAH262191:QAH262224 QKD262191:QKD262224 QTZ262191:QTZ262224 RDV262191:RDV262224 RNR262191:RNR262224 RXN262191:RXN262224 SHJ262191:SHJ262224 SRF262191:SRF262224 TBB262191:TBB262224 TKX262191:TKX262224 TUT262191:TUT262224 UEP262191:UEP262224 UOL262191:UOL262224 UYH262191:UYH262224 VID262191:VID262224 VRZ262191:VRZ262224 WBV262191:WBV262224 WLR262191:WLR262224 WVN262191:WVN262224 F327727:F327760 JB327727:JB327760 SX327727:SX327760 ACT327727:ACT327760 AMP327727:AMP327760 AWL327727:AWL327760 BGH327727:BGH327760 BQD327727:BQD327760 BZZ327727:BZZ327760 CJV327727:CJV327760 CTR327727:CTR327760 DDN327727:DDN327760 DNJ327727:DNJ327760 DXF327727:DXF327760 EHB327727:EHB327760 EQX327727:EQX327760 FAT327727:FAT327760 FKP327727:FKP327760 FUL327727:FUL327760 GEH327727:GEH327760 GOD327727:GOD327760 GXZ327727:GXZ327760 HHV327727:HHV327760 HRR327727:HRR327760 IBN327727:IBN327760 ILJ327727:ILJ327760 IVF327727:IVF327760 JFB327727:JFB327760 JOX327727:JOX327760 JYT327727:JYT327760 KIP327727:KIP327760 KSL327727:KSL327760 LCH327727:LCH327760 LMD327727:LMD327760 LVZ327727:LVZ327760 MFV327727:MFV327760 MPR327727:MPR327760 MZN327727:MZN327760 NJJ327727:NJJ327760 NTF327727:NTF327760 ODB327727:ODB327760 OMX327727:OMX327760 OWT327727:OWT327760 PGP327727:PGP327760 PQL327727:PQL327760 QAH327727:QAH327760 QKD327727:QKD327760 QTZ327727:QTZ327760 RDV327727:RDV327760 RNR327727:RNR327760 RXN327727:RXN327760 SHJ327727:SHJ327760 SRF327727:SRF327760 TBB327727:TBB327760 TKX327727:TKX327760 TUT327727:TUT327760 UEP327727:UEP327760 UOL327727:UOL327760 UYH327727:UYH327760 VID327727:VID327760 VRZ327727:VRZ327760 WBV327727:WBV327760 WLR327727:WLR327760 WVN327727:WVN327760 F393263:F393296 JB393263:JB393296 SX393263:SX393296 ACT393263:ACT393296 AMP393263:AMP393296 AWL393263:AWL393296 BGH393263:BGH393296 BQD393263:BQD393296 BZZ393263:BZZ393296 CJV393263:CJV393296 CTR393263:CTR393296 DDN393263:DDN393296 DNJ393263:DNJ393296 DXF393263:DXF393296 EHB393263:EHB393296 EQX393263:EQX393296 FAT393263:FAT393296 FKP393263:FKP393296 FUL393263:FUL393296 GEH393263:GEH393296 GOD393263:GOD393296 GXZ393263:GXZ393296 HHV393263:HHV393296 HRR393263:HRR393296 IBN393263:IBN393296 ILJ393263:ILJ393296 IVF393263:IVF393296 JFB393263:JFB393296 JOX393263:JOX393296 JYT393263:JYT393296 KIP393263:KIP393296 KSL393263:KSL393296 LCH393263:LCH393296 LMD393263:LMD393296 LVZ393263:LVZ393296 MFV393263:MFV393296 MPR393263:MPR393296 MZN393263:MZN393296 NJJ393263:NJJ393296 NTF393263:NTF393296 ODB393263:ODB393296 OMX393263:OMX393296 OWT393263:OWT393296 PGP393263:PGP393296 PQL393263:PQL393296 QAH393263:QAH393296 QKD393263:QKD393296 QTZ393263:QTZ393296 RDV393263:RDV393296 RNR393263:RNR393296 RXN393263:RXN393296 SHJ393263:SHJ393296 SRF393263:SRF393296 TBB393263:TBB393296 TKX393263:TKX393296 TUT393263:TUT393296 UEP393263:UEP393296 UOL393263:UOL393296 UYH393263:UYH393296 VID393263:VID393296 VRZ393263:VRZ393296 WBV393263:WBV393296 WLR393263:WLR393296 WVN393263:WVN393296 F458799:F458832 JB458799:JB458832 SX458799:SX458832 ACT458799:ACT458832 AMP458799:AMP458832 AWL458799:AWL458832 BGH458799:BGH458832 BQD458799:BQD458832 BZZ458799:BZZ458832 CJV458799:CJV458832 CTR458799:CTR458832 DDN458799:DDN458832 DNJ458799:DNJ458832 DXF458799:DXF458832 EHB458799:EHB458832 EQX458799:EQX458832 FAT458799:FAT458832 FKP458799:FKP458832 FUL458799:FUL458832 GEH458799:GEH458832 GOD458799:GOD458832 GXZ458799:GXZ458832 HHV458799:HHV458832 HRR458799:HRR458832 IBN458799:IBN458832 ILJ458799:ILJ458832 IVF458799:IVF458832 JFB458799:JFB458832 JOX458799:JOX458832 JYT458799:JYT458832 KIP458799:KIP458832 KSL458799:KSL458832 LCH458799:LCH458832 LMD458799:LMD458832 LVZ458799:LVZ458832 MFV458799:MFV458832 MPR458799:MPR458832 MZN458799:MZN458832 NJJ458799:NJJ458832 NTF458799:NTF458832 ODB458799:ODB458832 OMX458799:OMX458832 OWT458799:OWT458832 PGP458799:PGP458832 PQL458799:PQL458832 QAH458799:QAH458832 QKD458799:QKD458832 QTZ458799:QTZ458832 RDV458799:RDV458832 RNR458799:RNR458832 RXN458799:RXN458832 SHJ458799:SHJ458832 SRF458799:SRF458832 TBB458799:TBB458832 TKX458799:TKX458832 TUT458799:TUT458832 UEP458799:UEP458832 UOL458799:UOL458832 UYH458799:UYH458832 VID458799:VID458832 VRZ458799:VRZ458832 WBV458799:WBV458832 WLR458799:WLR458832 WVN458799:WVN458832 F524335:F524368 JB524335:JB524368 SX524335:SX524368 ACT524335:ACT524368 AMP524335:AMP524368 AWL524335:AWL524368 BGH524335:BGH524368 BQD524335:BQD524368 BZZ524335:BZZ524368 CJV524335:CJV524368 CTR524335:CTR524368 DDN524335:DDN524368 DNJ524335:DNJ524368 DXF524335:DXF524368 EHB524335:EHB524368 EQX524335:EQX524368 FAT524335:FAT524368 FKP524335:FKP524368 FUL524335:FUL524368 GEH524335:GEH524368 GOD524335:GOD524368 GXZ524335:GXZ524368 HHV524335:HHV524368 HRR524335:HRR524368 IBN524335:IBN524368 ILJ524335:ILJ524368 IVF524335:IVF524368 JFB524335:JFB524368 JOX524335:JOX524368 JYT524335:JYT524368 KIP524335:KIP524368 KSL524335:KSL524368 LCH524335:LCH524368 LMD524335:LMD524368 LVZ524335:LVZ524368 MFV524335:MFV524368 MPR524335:MPR524368 MZN524335:MZN524368 NJJ524335:NJJ524368 NTF524335:NTF524368 ODB524335:ODB524368 OMX524335:OMX524368 OWT524335:OWT524368 PGP524335:PGP524368 PQL524335:PQL524368 QAH524335:QAH524368 QKD524335:QKD524368 QTZ524335:QTZ524368 RDV524335:RDV524368 RNR524335:RNR524368 RXN524335:RXN524368 SHJ524335:SHJ524368 SRF524335:SRF524368 TBB524335:TBB524368 TKX524335:TKX524368 TUT524335:TUT524368 UEP524335:UEP524368 UOL524335:UOL524368 UYH524335:UYH524368 VID524335:VID524368 VRZ524335:VRZ524368 WBV524335:WBV524368 WLR524335:WLR524368 WVN524335:WVN524368 F589871:F589904 JB589871:JB589904 SX589871:SX589904 ACT589871:ACT589904 AMP589871:AMP589904 AWL589871:AWL589904 BGH589871:BGH589904 BQD589871:BQD589904 BZZ589871:BZZ589904 CJV589871:CJV589904 CTR589871:CTR589904 DDN589871:DDN589904 DNJ589871:DNJ589904 DXF589871:DXF589904 EHB589871:EHB589904 EQX589871:EQX589904 FAT589871:FAT589904 FKP589871:FKP589904 FUL589871:FUL589904 GEH589871:GEH589904 GOD589871:GOD589904 GXZ589871:GXZ589904 HHV589871:HHV589904 HRR589871:HRR589904 IBN589871:IBN589904 ILJ589871:ILJ589904 IVF589871:IVF589904 JFB589871:JFB589904 JOX589871:JOX589904 JYT589871:JYT589904 KIP589871:KIP589904 KSL589871:KSL589904 LCH589871:LCH589904 LMD589871:LMD589904 LVZ589871:LVZ589904 MFV589871:MFV589904 MPR589871:MPR589904 MZN589871:MZN589904 NJJ589871:NJJ589904 NTF589871:NTF589904 ODB589871:ODB589904 OMX589871:OMX589904 OWT589871:OWT589904 PGP589871:PGP589904 PQL589871:PQL589904 QAH589871:QAH589904 QKD589871:QKD589904 QTZ589871:QTZ589904 RDV589871:RDV589904 RNR589871:RNR589904 RXN589871:RXN589904 SHJ589871:SHJ589904 SRF589871:SRF589904 TBB589871:TBB589904 TKX589871:TKX589904 TUT589871:TUT589904 UEP589871:UEP589904 UOL589871:UOL589904 UYH589871:UYH589904 VID589871:VID589904 VRZ589871:VRZ589904 WBV589871:WBV589904 WLR589871:WLR589904 WVN589871:WVN589904 F655407:F655440 JB655407:JB655440 SX655407:SX655440 ACT655407:ACT655440 AMP655407:AMP655440 AWL655407:AWL655440 BGH655407:BGH655440 BQD655407:BQD655440 BZZ655407:BZZ655440 CJV655407:CJV655440 CTR655407:CTR655440 DDN655407:DDN655440 DNJ655407:DNJ655440 DXF655407:DXF655440 EHB655407:EHB655440 EQX655407:EQX655440 FAT655407:FAT655440 FKP655407:FKP655440 FUL655407:FUL655440 GEH655407:GEH655440 GOD655407:GOD655440 GXZ655407:GXZ655440 HHV655407:HHV655440 HRR655407:HRR655440 IBN655407:IBN655440 ILJ655407:ILJ655440 IVF655407:IVF655440 JFB655407:JFB655440 JOX655407:JOX655440 JYT655407:JYT655440 KIP655407:KIP655440 KSL655407:KSL655440 LCH655407:LCH655440 LMD655407:LMD655440 LVZ655407:LVZ655440 MFV655407:MFV655440 MPR655407:MPR655440 MZN655407:MZN655440 NJJ655407:NJJ655440 NTF655407:NTF655440 ODB655407:ODB655440 OMX655407:OMX655440 OWT655407:OWT655440 PGP655407:PGP655440 PQL655407:PQL655440 QAH655407:QAH655440 QKD655407:QKD655440 QTZ655407:QTZ655440 RDV655407:RDV655440 RNR655407:RNR655440 RXN655407:RXN655440 SHJ655407:SHJ655440 SRF655407:SRF655440 TBB655407:TBB655440 TKX655407:TKX655440 TUT655407:TUT655440 UEP655407:UEP655440 UOL655407:UOL655440 UYH655407:UYH655440 VID655407:VID655440 VRZ655407:VRZ655440 WBV655407:WBV655440 WLR655407:WLR655440 WVN655407:WVN655440 F720943:F720976 JB720943:JB720976 SX720943:SX720976 ACT720943:ACT720976 AMP720943:AMP720976 AWL720943:AWL720976 BGH720943:BGH720976 BQD720943:BQD720976 BZZ720943:BZZ720976 CJV720943:CJV720976 CTR720943:CTR720976 DDN720943:DDN720976 DNJ720943:DNJ720976 DXF720943:DXF720976 EHB720943:EHB720976 EQX720943:EQX720976 FAT720943:FAT720976 FKP720943:FKP720976 FUL720943:FUL720976 GEH720943:GEH720976 GOD720943:GOD720976 GXZ720943:GXZ720976 HHV720943:HHV720976 HRR720943:HRR720976 IBN720943:IBN720976 ILJ720943:ILJ720976 IVF720943:IVF720976 JFB720943:JFB720976 JOX720943:JOX720976 JYT720943:JYT720976 KIP720943:KIP720976 KSL720943:KSL720976 LCH720943:LCH720976 LMD720943:LMD720976 LVZ720943:LVZ720976 MFV720943:MFV720976 MPR720943:MPR720976 MZN720943:MZN720976 NJJ720943:NJJ720976 NTF720943:NTF720976 ODB720943:ODB720976 OMX720943:OMX720976 OWT720943:OWT720976 PGP720943:PGP720976 PQL720943:PQL720976 QAH720943:QAH720976 QKD720943:QKD720976 QTZ720943:QTZ720976 RDV720943:RDV720976 RNR720943:RNR720976 RXN720943:RXN720976 SHJ720943:SHJ720976 SRF720943:SRF720976 TBB720943:TBB720976 TKX720943:TKX720976 TUT720943:TUT720976 UEP720943:UEP720976 UOL720943:UOL720976 UYH720943:UYH720976 VID720943:VID720976 VRZ720943:VRZ720976 WBV720943:WBV720976 WLR720943:WLR720976 WVN720943:WVN720976 F786479:F786512 JB786479:JB786512 SX786479:SX786512 ACT786479:ACT786512 AMP786479:AMP786512 AWL786479:AWL786512 BGH786479:BGH786512 BQD786479:BQD786512 BZZ786479:BZZ786512 CJV786479:CJV786512 CTR786479:CTR786512 DDN786479:DDN786512 DNJ786479:DNJ786512 DXF786479:DXF786512 EHB786479:EHB786512 EQX786479:EQX786512 FAT786479:FAT786512 FKP786479:FKP786512 FUL786479:FUL786512 GEH786479:GEH786512 GOD786479:GOD786512 GXZ786479:GXZ786512 HHV786479:HHV786512 HRR786479:HRR786512 IBN786479:IBN786512 ILJ786479:ILJ786512 IVF786479:IVF786512 JFB786479:JFB786512 JOX786479:JOX786512 JYT786479:JYT786512 KIP786479:KIP786512 KSL786479:KSL786512 LCH786479:LCH786512 LMD786479:LMD786512 LVZ786479:LVZ786512 MFV786479:MFV786512 MPR786479:MPR786512 MZN786479:MZN786512 NJJ786479:NJJ786512 NTF786479:NTF786512 ODB786479:ODB786512 OMX786479:OMX786512 OWT786479:OWT786512 PGP786479:PGP786512 PQL786479:PQL786512 QAH786479:QAH786512 QKD786479:QKD786512 QTZ786479:QTZ786512 RDV786479:RDV786512 RNR786479:RNR786512 RXN786479:RXN786512 SHJ786479:SHJ786512 SRF786479:SRF786512 TBB786479:TBB786512 TKX786479:TKX786512 TUT786479:TUT786512 UEP786479:UEP786512 UOL786479:UOL786512 UYH786479:UYH786512 VID786479:VID786512 VRZ786479:VRZ786512 WBV786479:WBV786512 WLR786479:WLR786512 WVN786479:WVN786512 F852015:F852048 JB852015:JB852048 SX852015:SX852048 ACT852015:ACT852048 AMP852015:AMP852048 AWL852015:AWL852048 BGH852015:BGH852048 BQD852015:BQD852048 BZZ852015:BZZ852048 CJV852015:CJV852048 CTR852015:CTR852048 DDN852015:DDN852048 DNJ852015:DNJ852048 DXF852015:DXF852048 EHB852015:EHB852048 EQX852015:EQX852048 FAT852015:FAT852048 FKP852015:FKP852048 FUL852015:FUL852048 GEH852015:GEH852048 GOD852015:GOD852048 GXZ852015:GXZ852048 HHV852015:HHV852048 HRR852015:HRR852048 IBN852015:IBN852048 ILJ852015:ILJ852048 IVF852015:IVF852048 JFB852015:JFB852048 JOX852015:JOX852048 JYT852015:JYT852048 KIP852015:KIP852048 KSL852015:KSL852048 LCH852015:LCH852048 LMD852015:LMD852048 LVZ852015:LVZ852048 MFV852015:MFV852048 MPR852015:MPR852048 MZN852015:MZN852048 NJJ852015:NJJ852048 NTF852015:NTF852048 ODB852015:ODB852048 OMX852015:OMX852048 OWT852015:OWT852048 PGP852015:PGP852048 PQL852015:PQL852048 QAH852015:QAH852048 QKD852015:QKD852048 QTZ852015:QTZ852048 RDV852015:RDV852048 RNR852015:RNR852048 RXN852015:RXN852048 SHJ852015:SHJ852048 SRF852015:SRF852048 TBB852015:TBB852048 TKX852015:TKX852048 TUT852015:TUT852048 UEP852015:UEP852048 UOL852015:UOL852048 UYH852015:UYH852048 VID852015:VID852048 VRZ852015:VRZ852048 WBV852015:WBV852048 WLR852015:WLR852048 WVN852015:WVN852048 F917551:F917584 JB917551:JB917584 SX917551:SX917584 ACT917551:ACT917584 AMP917551:AMP917584 AWL917551:AWL917584 BGH917551:BGH917584 BQD917551:BQD917584 BZZ917551:BZZ917584 CJV917551:CJV917584 CTR917551:CTR917584 DDN917551:DDN917584 DNJ917551:DNJ917584 DXF917551:DXF917584 EHB917551:EHB917584 EQX917551:EQX917584 FAT917551:FAT917584 FKP917551:FKP917584 FUL917551:FUL917584 GEH917551:GEH917584 GOD917551:GOD917584 GXZ917551:GXZ917584 HHV917551:HHV917584 HRR917551:HRR917584 IBN917551:IBN917584 ILJ917551:ILJ917584 IVF917551:IVF917584 JFB917551:JFB917584 JOX917551:JOX917584 JYT917551:JYT917584 KIP917551:KIP917584 KSL917551:KSL917584 LCH917551:LCH917584 LMD917551:LMD917584 LVZ917551:LVZ917584 MFV917551:MFV917584 MPR917551:MPR917584 MZN917551:MZN917584 NJJ917551:NJJ917584 NTF917551:NTF917584 ODB917551:ODB917584 OMX917551:OMX917584 OWT917551:OWT917584 PGP917551:PGP917584 PQL917551:PQL917584 QAH917551:QAH917584 QKD917551:QKD917584 QTZ917551:QTZ917584 RDV917551:RDV917584 RNR917551:RNR917584 RXN917551:RXN917584 SHJ917551:SHJ917584 SRF917551:SRF917584 TBB917551:TBB917584 TKX917551:TKX917584 TUT917551:TUT917584 UEP917551:UEP917584 UOL917551:UOL917584 UYH917551:UYH917584 VID917551:VID917584 VRZ917551:VRZ917584 WBV917551:WBV917584 WLR917551:WLR917584 WVN917551:WVN917584 F983087:F983120 JB983087:JB983120 SX983087:SX983120 ACT983087:ACT983120 AMP983087:AMP983120 AWL983087:AWL983120 BGH983087:BGH983120 BQD983087:BQD983120 BZZ983087:BZZ983120 CJV983087:CJV983120 CTR983087:CTR983120 DDN983087:DDN983120 DNJ983087:DNJ983120 DXF983087:DXF983120 EHB983087:EHB983120 EQX983087:EQX983120 FAT983087:FAT983120 FKP983087:FKP983120 FUL983087:FUL983120 GEH983087:GEH983120 GOD983087:GOD983120 GXZ983087:GXZ983120 HHV983087:HHV983120 HRR983087:HRR983120 IBN983087:IBN983120 ILJ983087:ILJ983120 IVF983087:IVF983120 JFB983087:JFB983120 JOX983087:JOX983120 JYT983087:JYT983120 KIP983087:KIP983120 KSL983087:KSL983120 LCH983087:LCH983120 LMD983087:LMD983120 LVZ983087:LVZ983120 MFV983087:MFV983120 MPR983087:MPR983120 MZN983087:MZN983120 NJJ983087:NJJ983120 NTF983087:NTF983120 ODB983087:ODB983120 OMX983087:OMX983120 OWT983087:OWT983120 PGP983087:PGP983120 PQL983087:PQL983120 QAH983087:QAH983120 QKD983087:QKD983120 QTZ983087:QTZ983120 RDV983087:RDV983120 RNR983087:RNR983120 RXN983087:RXN983120 SHJ983087:SHJ983120 SRF983087:SRF983120 TBB983087:TBB983120 TKX983087:TKX983120 TUT983087:TUT983120 UEP983087:UEP983120 UOL983087:UOL983120 UYH983087:UYH983120 VID983087:VID983120 VRZ983087:VRZ983120 WBV983087:WBV983120 WLR983087:WLR983120 WVN983087:WVN983120 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F743" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65581:H65614 JD65581:JD65614 SZ65581:SZ65614 ACV65581:ACV65614 AMR65581:AMR65614 AWN65581:AWN65614 BGJ65581:BGJ65614 BQF65581:BQF65614 CAB65581:CAB65614 CJX65581:CJX65614 CTT65581:CTT65614 DDP65581:DDP65614 DNL65581:DNL65614 DXH65581:DXH65614 EHD65581:EHD65614 EQZ65581:EQZ65614 FAV65581:FAV65614 FKR65581:FKR65614 FUN65581:FUN65614 GEJ65581:GEJ65614 GOF65581:GOF65614 GYB65581:GYB65614 HHX65581:HHX65614 HRT65581:HRT65614 IBP65581:IBP65614 ILL65581:ILL65614 IVH65581:IVH65614 JFD65581:JFD65614 JOZ65581:JOZ65614 JYV65581:JYV65614 KIR65581:KIR65614 KSN65581:KSN65614 LCJ65581:LCJ65614 LMF65581:LMF65614 LWB65581:LWB65614 MFX65581:MFX65614 MPT65581:MPT65614 MZP65581:MZP65614 NJL65581:NJL65614 NTH65581:NTH65614 ODD65581:ODD65614 OMZ65581:OMZ65614 OWV65581:OWV65614 PGR65581:PGR65614 PQN65581:PQN65614 QAJ65581:QAJ65614 QKF65581:QKF65614 QUB65581:QUB65614 RDX65581:RDX65614 RNT65581:RNT65614 RXP65581:RXP65614 SHL65581:SHL65614 SRH65581:SRH65614 TBD65581:TBD65614 TKZ65581:TKZ65614 TUV65581:TUV65614 UER65581:UER65614 UON65581:UON65614 UYJ65581:UYJ65614 VIF65581:VIF65614 VSB65581:VSB65614 WBX65581:WBX65614 WLT65581:WLT65614 WVP65581:WVP65614 H131117:H131150 JD131117:JD131150 SZ131117:SZ131150 ACV131117:ACV131150 AMR131117:AMR131150 AWN131117:AWN131150 BGJ131117:BGJ131150 BQF131117:BQF131150 CAB131117:CAB131150 CJX131117:CJX131150 CTT131117:CTT131150 DDP131117:DDP131150 DNL131117:DNL131150 DXH131117:DXH131150 EHD131117:EHD131150 EQZ131117:EQZ131150 FAV131117:FAV131150 FKR131117:FKR131150 FUN131117:FUN131150 GEJ131117:GEJ131150 GOF131117:GOF131150 GYB131117:GYB131150 HHX131117:HHX131150 HRT131117:HRT131150 IBP131117:IBP131150 ILL131117:ILL131150 IVH131117:IVH131150 JFD131117:JFD131150 JOZ131117:JOZ131150 JYV131117:JYV131150 KIR131117:KIR131150 KSN131117:KSN131150 LCJ131117:LCJ131150 LMF131117:LMF131150 LWB131117:LWB131150 MFX131117:MFX131150 MPT131117:MPT131150 MZP131117:MZP131150 NJL131117:NJL131150 NTH131117:NTH131150 ODD131117:ODD131150 OMZ131117:OMZ131150 OWV131117:OWV131150 PGR131117:PGR131150 PQN131117:PQN131150 QAJ131117:QAJ131150 QKF131117:QKF131150 QUB131117:QUB131150 RDX131117:RDX131150 RNT131117:RNT131150 RXP131117:RXP131150 SHL131117:SHL131150 SRH131117:SRH131150 TBD131117:TBD131150 TKZ131117:TKZ131150 TUV131117:TUV131150 UER131117:UER131150 UON131117:UON131150 UYJ131117:UYJ131150 VIF131117:VIF131150 VSB131117:VSB131150 WBX131117:WBX131150 WLT131117:WLT131150 WVP131117:WVP131150 H196653:H196686 JD196653:JD196686 SZ196653:SZ196686 ACV196653:ACV196686 AMR196653:AMR196686 AWN196653:AWN196686 BGJ196653:BGJ196686 BQF196653:BQF196686 CAB196653:CAB196686 CJX196653:CJX196686 CTT196653:CTT196686 DDP196653:DDP196686 DNL196653:DNL196686 DXH196653:DXH196686 EHD196653:EHD196686 EQZ196653:EQZ196686 FAV196653:FAV196686 FKR196653:FKR196686 FUN196653:FUN196686 GEJ196653:GEJ196686 GOF196653:GOF196686 GYB196653:GYB196686 HHX196653:HHX196686 HRT196653:HRT196686 IBP196653:IBP196686 ILL196653:ILL196686 IVH196653:IVH196686 JFD196653:JFD196686 JOZ196653:JOZ196686 JYV196653:JYV196686 KIR196653:KIR196686 KSN196653:KSN196686 LCJ196653:LCJ196686 LMF196653:LMF196686 LWB196653:LWB196686 MFX196653:MFX196686 MPT196653:MPT196686 MZP196653:MZP196686 NJL196653:NJL196686 NTH196653:NTH196686 ODD196653:ODD196686 OMZ196653:OMZ196686 OWV196653:OWV196686 PGR196653:PGR196686 PQN196653:PQN196686 QAJ196653:QAJ196686 QKF196653:QKF196686 QUB196653:QUB196686 RDX196653:RDX196686 RNT196653:RNT196686 RXP196653:RXP196686 SHL196653:SHL196686 SRH196653:SRH196686 TBD196653:TBD196686 TKZ196653:TKZ196686 TUV196653:TUV196686 UER196653:UER196686 UON196653:UON196686 UYJ196653:UYJ196686 VIF196653:VIF196686 VSB196653:VSB196686 WBX196653:WBX196686 WLT196653:WLT196686 WVP196653:WVP196686 H262189:H262222 JD262189:JD262222 SZ262189:SZ262222 ACV262189:ACV262222 AMR262189:AMR262222 AWN262189:AWN262222 BGJ262189:BGJ262222 BQF262189:BQF262222 CAB262189:CAB262222 CJX262189:CJX262222 CTT262189:CTT262222 DDP262189:DDP262222 DNL262189:DNL262222 DXH262189:DXH262222 EHD262189:EHD262222 EQZ262189:EQZ262222 FAV262189:FAV262222 FKR262189:FKR262222 FUN262189:FUN262222 GEJ262189:GEJ262222 GOF262189:GOF262222 GYB262189:GYB262222 HHX262189:HHX262222 HRT262189:HRT262222 IBP262189:IBP262222 ILL262189:ILL262222 IVH262189:IVH262222 JFD262189:JFD262222 JOZ262189:JOZ262222 JYV262189:JYV262222 KIR262189:KIR262222 KSN262189:KSN262222 LCJ262189:LCJ262222 LMF262189:LMF262222 LWB262189:LWB262222 MFX262189:MFX262222 MPT262189:MPT262222 MZP262189:MZP262222 NJL262189:NJL262222 NTH262189:NTH262222 ODD262189:ODD262222 OMZ262189:OMZ262222 OWV262189:OWV262222 PGR262189:PGR262222 PQN262189:PQN262222 QAJ262189:QAJ262222 QKF262189:QKF262222 QUB262189:QUB262222 RDX262189:RDX262222 RNT262189:RNT262222 RXP262189:RXP262222 SHL262189:SHL262222 SRH262189:SRH262222 TBD262189:TBD262222 TKZ262189:TKZ262222 TUV262189:TUV262222 UER262189:UER262222 UON262189:UON262222 UYJ262189:UYJ262222 VIF262189:VIF262222 VSB262189:VSB262222 WBX262189:WBX262222 WLT262189:WLT262222 WVP262189:WVP262222 H327725:H327758 JD327725:JD327758 SZ327725:SZ327758 ACV327725:ACV327758 AMR327725:AMR327758 AWN327725:AWN327758 BGJ327725:BGJ327758 BQF327725:BQF327758 CAB327725:CAB327758 CJX327725:CJX327758 CTT327725:CTT327758 DDP327725:DDP327758 DNL327725:DNL327758 DXH327725:DXH327758 EHD327725:EHD327758 EQZ327725:EQZ327758 FAV327725:FAV327758 FKR327725:FKR327758 FUN327725:FUN327758 GEJ327725:GEJ327758 GOF327725:GOF327758 GYB327725:GYB327758 HHX327725:HHX327758 HRT327725:HRT327758 IBP327725:IBP327758 ILL327725:ILL327758 IVH327725:IVH327758 JFD327725:JFD327758 JOZ327725:JOZ327758 JYV327725:JYV327758 KIR327725:KIR327758 KSN327725:KSN327758 LCJ327725:LCJ327758 LMF327725:LMF327758 LWB327725:LWB327758 MFX327725:MFX327758 MPT327725:MPT327758 MZP327725:MZP327758 NJL327725:NJL327758 NTH327725:NTH327758 ODD327725:ODD327758 OMZ327725:OMZ327758 OWV327725:OWV327758 PGR327725:PGR327758 PQN327725:PQN327758 QAJ327725:QAJ327758 QKF327725:QKF327758 QUB327725:QUB327758 RDX327725:RDX327758 RNT327725:RNT327758 RXP327725:RXP327758 SHL327725:SHL327758 SRH327725:SRH327758 TBD327725:TBD327758 TKZ327725:TKZ327758 TUV327725:TUV327758 UER327725:UER327758 UON327725:UON327758 UYJ327725:UYJ327758 VIF327725:VIF327758 VSB327725:VSB327758 WBX327725:WBX327758 WLT327725:WLT327758 WVP327725:WVP327758 H393261:H393294 JD393261:JD393294 SZ393261:SZ393294 ACV393261:ACV393294 AMR393261:AMR393294 AWN393261:AWN393294 BGJ393261:BGJ393294 BQF393261:BQF393294 CAB393261:CAB393294 CJX393261:CJX393294 CTT393261:CTT393294 DDP393261:DDP393294 DNL393261:DNL393294 DXH393261:DXH393294 EHD393261:EHD393294 EQZ393261:EQZ393294 FAV393261:FAV393294 FKR393261:FKR393294 FUN393261:FUN393294 GEJ393261:GEJ393294 GOF393261:GOF393294 GYB393261:GYB393294 HHX393261:HHX393294 HRT393261:HRT393294 IBP393261:IBP393294 ILL393261:ILL393294 IVH393261:IVH393294 JFD393261:JFD393294 JOZ393261:JOZ393294 JYV393261:JYV393294 KIR393261:KIR393294 KSN393261:KSN393294 LCJ393261:LCJ393294 LMF393261:LMF393294 LWB393261:LWB393294 MFX393261:MFX393294 MPT393261:MPT393294 MZP393261:MZP393294 NJL393261:NJL393294 NTH393261:NTH393294 ODD393261:ODD393294 OMZ393261:OMZ393294 OWV393261:OWV393294 PGR393261:PGR393294 PQN393261:PQN393294 QAJ393261:QAJ393294 QKF393261:QKF393294 QUB393261:QUB393294 RDX393261:RDX393294 RNT393261:RNT393294 RXP393261:RXP393294 SHL393261:SHL393294 SRH393261:SRH393294 TBD393261:TBD393294 TKZ393261:TKZ393294 TUV393261:TUV393294 UER393261:UER393294 UON393261:UON393294 UYJ393261:UYJ393294 VIF393261:VIF393294 VSB393261:VSB393294 WBX393261:WBX393294 WLT393261:WLT393294 WVP393261:WVP393294 H458797:H458830 JD458797:JD458830 SZ458797:SZ458830 ACV458797:ACV458830 AMR458797:AMR458830 AWN458797:AWN458830 BGJ458797:BGJ458830 BQF458797:BQF458830 CAB458797:CAB458830 CJX458797:CJX458830 CTT458797:CTT458830 DDP458797:DDP458830 DNL458797:DNL458830 DXH458797:DXH458830 EHD458797:EHD458830 EQZ458797:EQZ458830 FAV458797:FAV458830 FKR458797:FKR458830 FUN458797:FUN458830 GEJ458797:GEJ458830 GOF458797:GOF458830 GYB458797:GYB458830 HHX458797:HHX458830 HRT458797:HRT458830 IBP458797:IBP458830 ILL458797:ILL458830 IVH458797:IVH458830 JFD458797:JFD458830 JOZ458797:JOZ458830 JYV458797:JYV458830 KIR458797:KIR458830 KSN458797:KSN458830 LCJ458797:LCJ458830 LMF458797:LMF458830 LWB458797:LWB458830 MFX458797:MFX458830 MPT458797:MPT458830 MZP458797:MZP458830 NJL458797:NJL458830 NTH458797:NTH458830 ODD458797:ODD458830 OMZ458797:OMZ458830 OWV458797:OWV458830 PGR458797:PGR458830 PQN458797:PQN458830 QAJ458797:QAJ458830 QKF458797:QKF458830 QUB458797:QUB458830 RDX458797:RDX458830 RNT458797:RNT458830 RXP458797:RXP458830 SHL458797:SHL458830 SRH458797:SRH458830 TBD458797:TBD458830 TKZ458797:TKZ458830 TUV458797:TUV458830 UER458797:UER458830 UON458797:UON458830 UYJ458797:UYJ458830 VIF458797:VIF458830 VSB458797:VSB458830 WBX458797:WBX458830 WLT458797:WLT458830 WVP458797:WVP458830 H524333:H524366 JD524333:JD524366 SZ524333:SZ524366 ACV524333:ACV524366 AMR524333:AMR524366 AWN524333:AWN524366 BGJ524333:BGJ524366 BQF524333:BQF524366 CAB524333:CAB524366 CJX524333:CJX524366 CTT524333:CTT524366 DDP524333:DDP524366 DNL524333:DNL524366 DXH524333:DXH524366 EHD524333:EHD524366 EQZ524333:EQZ524366 FAV524333:FAV524366 FKR524333:FKR524366 FUN524333:FUN524366 GEJ524333:GEJ524366 GOF524333:GOF524366 GYB524333:GYB524366 HHX524333:HHX524366 HRT524333:HRT524366 IBP524333:IBP524366 ILL524333:ILL524366 IVH524333:IVH524366 JFD524333:JFD524366 JOZ524333:JOZ524366 JYV524333:JYV524366 KIR524333:KIR524366 KSN524333:KSN524366 LCJ524333:LCJ524366 LMF524333:LMF524366 LWB524333:LWB524366 MFX524333:MFX524366 MPT524333:MPT524366 MZP524333:MZP524366 NJL524333:NJL524366 NTH524333:NTH524366 ODD524333:ODD524366 OMZ524333:OMZ524366 OWV524333:OWV524366 PGR524333:PGR524366 PQN524333:PQN524366 QAJ524333:QAJ524366 QKF524333:QKF524366 QUB524333:QUB524366 RDX524333:RDX524366 RNT524333:RNT524366 RXP524333:RXP524366 SHL524333:SHL524366 SRH524333:SRH524366 TBD524333:TBD524366 TKZ524333:TKZ524366 TUV524333:TUV524366 UER524333:UER524366 UON524333:UON524366 UYJ524333:UYJ524366 VIF524333:VIF524366 VSB524333:VSB524366 WBX524333:WBX524366 WLT524333:WLT524366 WVP524333:WVP524366 H589869:H589902 JD589869:JD589902 SZ589869:SZ589902 ACV589869:ACV589902 AMR589869:AMR589902 AWN589869:AWN589902 BGJ589869:BGJ589902 BQF589869:BQF589902 CAB589869:CAB589902 CJX589869:CJX589902 CTT589869:CTT589902 DDP589869:DDP589902 DNL589869:DNL589902 DXH589869:DXH589902 EHD589869:EHD589902 EQZ589869:EQZ589902 FAV589869:FAV589902 FKR589869:FKR589902 FUN589869:FUN589902 GEJ589869:GEJ589902 GOF589869:GOF589902 GYB589869:GYB589902 HHX589869:HHX589902 HRT589869:HRT589902 IBP589869:IBP589902 ILL589869:ILL589902 IVH589869:IVH589902 JFD589869:JFD589902 JOZ589869:JOZ589902 JYV589869:JYV589902 KIR589869:KIR589902 KSN589869:KSN589902 LCJ589869:LCJ589902 LMF589869:LMF589902 LWB589869:LWB589902 MFX589869:MFX589902 MPT589869:MPT589902 MZP589869:MZP589902 NJL589869:NJL589902 NTH589869:NTH589902 ODD589869:ODD589902 OMZ589869:OMZ589902 OWV589869:OWV589902 PGR589869:PGR589902 PQN589869:PQN589902 QAJ589869:QAJ589902 QKF589869:QKF589902 QUB589869:QUB589902 RDX589869:RDX589902 RNT589869:RNT589902 RXP589869:RXP589902 SHL589869:SHL589902 SRH589869:SRH589902 TBD589869:TBD589902 TKZ589869:TKZ589902 TUV589869:TUV589902 UER589869:UER589902 UON589869:UON589902 UYJ589869:UYJ589902 VIF589869:VIF589902 VSB589869:VSB589902 WBX589869:WBX589902 WLT589869:WLT589902 WVP589869:WVP589902 H655405:H655438 JD655405:JD655438 SZ655405:SZ655438 ACV655405:ACV655438 AMR655405:AMR655438 AWN655405:AWN655438 BGJ655405:BGJ655438 BQF655405:BQF655438 CAB655405:CAB655438 CJX655405:CJX655438 CTT655405:CTT655438 DDP655405:DDP655438 DNL655405:DNL655438 DXH655405:DXH655438 EHD655405:EHD655438 EQZ655405:EQZ655438 FAV655405:FAV655438 FKR655405:FKR655438 FUN655405:FUN655438 GEJ655405:GEJ655438 GOF655405:GOF655438 GYB655405:GYB655438 HHX655405:HHX655438 HRT655405:HRT655438 IBP655405:IBP655438 ILL655405:ILL655438 IVH655405:IVH655438 JFD655405:JFD655438 JOZ655405:JOZ655438 JYV655405:JYV655438 KIR655405:KIR655438 KSN655405:KSN655438 LCJ655405:LCJ655438 LMF655405:LMF655438 LWB655405:LWB655438 MFX655405:MFX655438 MPT655405:MPT655438 MZP655405:MZP655438 NJL655405:NJL655438 NTH655405:NTH655438 ODD655405:ODD655438 OMZ655405:OMZ655438 OWV655405:OWV655438 PGR655405:PGR655438 PQN655405:PQN655438 QAJ655405:QAJ655438 QKF655405:QKF655438 QUB655405:QUB655438 RDX655405:RDX655438 RNT655405:RNT655438 RXP655405:RXP655438 SHL655405:SHL655438 SRH655405:SRH655438 TBD655405:TBD655438 TKZ655405:TKZ655438 TUV655405:TUV655438 UER655405:UER655438 UON655405:UON655438 UYJ655405:UYJ655438 VIF655405:VIF655438 VSB655405:VSB655438 WBX655405:WBX655438 WLT655405:WLT655438 WVP655405:WVP655438 H720941:H720974 JD720941:JD720974 SZ720941:SZ720974 ACV720941:ACV720974 AMR720941:AMR720974 AWN720941:AWN720974 BGJ720941:BGJ720974 BQF720941:BQF720974 CAB720941:CAB720974 CJX720941:CJX720974 CTT720941:CTT720974 DDP720941:DDP720974 DNL720941:DNL720974 DXH720941:DXH720974 EHD720941:EHD720974 EQZ720941:EQZ720974 FAV720941:FAV720974 FKR720941:FKR720974 FUN720941:FUN720974 GEJ720941:GEJ720974 GOF720941:GOF720974 GYB720941:GYB720974 HHX720941:HHX720974 HRT720941:HRT720974 IBP720941:IBP720974 ILL720941:ILL720974 IVH720941:IVH720974 JFD720941:JFD720974 JOZ720941:JOZ720974 JYV720941:JYV720974 KIR720941:KIR720974 KSN720941:KSN720974 LCJ720941:LCJ720974 LMF720941:LMF720974 LWB720941:LWB720974 MFX720941:MFX720974 MPT720941:MPT720974 MZP720941:MZP720974 NJL720941:NJL720974 NTH720941:NTH720974 ODD720941:ODD720974 OMZ720941:OMZ720974 OWV720941:OWV720974 PGR720941:PGR720974 PQN720941:PQN720974 QAJ720941:QAJ720974 QKF720941:QKF720974 QUB720941:QUB720974 RDX720941:RDX720974 RNT720941:RNT720974 RXP720941:RXP720974 SHL720941:SHL720974 SRH720941:SRH720974 TBD720941:TBD720974 TKZ720941:TKZ720974 TUV720941:TUV720974 UER720941:UER720974 UON720941:UON720974 UYJ720941:UYJ720974 VIF720941:VIF720974 VSB720941:VSB720974 WBX720941:WBX720974 WLT720941:WLT720974 WVP720941:WVP720974 H786477:H786510 JD786477:JD786510 SZ786477:SZ786510 ACV786477:ACV786510 AMR786477:AMR786510 AWN786477:AWN786510 BGJ786477:BGJ786510 BQF786477:BQF786510 CAB786477:CAB786510 CJX786477:CJX786510 CTT786477:CTT786510 DDP786477:DDP786510 DNL786477:DNL786510 DXH786477:DXH786510 EHD786477:EHD786510 EQZ786477:EQZ786510 FAV786477:FAV786510 FKR786477:FKR786510 FUN786477:FUN786510 GEJ786477:GEJ786510 GOF786477:GOF786510 GYB786477:GYB786510 HHX786477:HHX786510 HRT786477:HRT786510 IBP786477:IBP786510 ILL786477:ILL786510 IVH786477:IVH786510 JFD786477:JFD786510 JOZ786477:JOZ786510 JYV786477:JYV786510 KIR786477:KIR786510 KSN786477:KSN786510 LCJ786477:LCJ786510 LMF786477:LMF786510 LWB786477:LWB786510 MFX786477:MFX786510 MPT786477:MPT786510 MZP786477:MZP786510 NJL786477:NJL786510 NTH786477:NTH786510 ODD786477:ODD786510 OMZ786477:OMZ786510 OWV786477:OWV786510 PGR786477:PGR786510 PQN786477:PQN786510 QAJ786477:QAJ786510 QKF786477:QKF786510 QUB786477:QUB786510 RDX786477:RDX786510 RNT786477:RNT786510 RXP786477:RXP786510 SHL786477:SHL786510 SRH786477:SRH786510 TBD786477:TBD786510 TKZ786477:TKZ786510 TUV786477:TUV786510 UER786477:UER786510 UON786477:UON786510 UYJ786477:UYJ786510 VIF786477:VIF786510 VSB786477:VSB786510 WBX786477:WBX786510 WLT786477:WLT786510 WVP786477:WVP786510 H852013:H852046 JD852013:JD852046 SZ852013:SZ852046 ACV852013:ACV852046 AMR852013:AMR852046 AWN852013:AWN852046 BGJ852013:BGJ852046 BQF852013:BQF852046 CAB852013:CAB852046 CJX852013:CJX852046 CTT852013:CTT852046 DDP852013:DDP852046 DNL852013:DNL852046 DXH852013:DXH852046 EHD852013:EHD852046 EQZ852013:EQZ852046 FAV852013:FAV852046 FKR852013:FKR852046 FUN852013:FUN852046 GEJ852013:GEJ852046 GOF852013:GOF852046 GYB852013:GYB852046 HHX852013:HHX852046 HRT852013:HRT852046 IBP852013:IBP852046 ILL852013:ILL852046 IVH852013:IVH852046 JFD852013:JFD852046 JOZ852013:JOZ852046 JYV852013:JYV852046 KIR852013:KIR852046 KSN852013:KSN852046 LCJ852013:LCJ852046 LMF852013:LMF852046 LWB852013:LWB852046 MFX852013:MFX852046 MPT852013:MPT852046 MZP852013:MZP852046 NJL852013:NJL852046 NTH852013:NTH852046 ODD852013:ODD852046 OMZ852013:OMZ852046 OWV852013:OWV852046 PGR852013:PGR852046 PQN852013:PQN852046 QAJ852013:QAJ852046 QKF852013:QKF852046 QUB852013:QUB852046 RDX852013:RDX852046 RNT852013:RNT852046 RXP852013:RXP852046 SHL852013:SHL852046 SRH852013:SRH852046 TBD852013:TBD852046 TKZ852013:TKZ852046 TUV852013:TUV852046 UER852013:UER852046 UON852013:UON852046 UYJ852013:UYJ852046 VIF852013:VIF852046 VSB852013:VSB852046 WBX852013:WBX852046 WLT852013:WLT852046 WVP852013:WVP852046 H917549:H917582 JD917549:JD917582 SZ917549:SZ917582 ACV917549:ACV917582 AMR917549:AMR917582 AWN917549:AWN917582 BGJ917549:BGJ917582 BQF917549:BQF917582 CAB917549:CAB917582 CJX917549:CJX917582 CTT917549:CTT917582 DDP917549:DDP917582 DNL917549:DNL917582 DXH917549:DXH917582 EHD917549:EHD917582 EQZ917549:EQZ917582 FAV917549:FAV917582 FKR917549:FKR917582 FUN917549:FUN917582 GEJ917549:GEJ917582 GOF917549:GOF917582 GYB917549:GYB917582 HHX917549:HHX917582 HRT917549:HRT917582 IBP917549:IBP917582 ILL917549:ILL917582 IVH917549:IVH917582 JFD917549:JFD917582 JOZ917549:JOZ917582 JYV917549:JYV917582 KIR917549:KIR917582 KSN917549:KSN917582 LCJ917549:LCJ917582 LMF917549:LMF917582 LWB917549:LWB917582 MFX917549:MFX917582 MPT917549:MPT917582 MZP917549:MZP917582 NJL917549:NJL917582 NTH917549:NTH917582 ODD917549:ODD917582 OMZ917549:OMZ917582 OWV917549:OWV917582 PGR917549:PGR917582 PQN917549:PQN917582 QAJ917549:QAJ917582 QKF917549:QKF917582 QUB917549:QUB917582 RDX917549:RDX917582 RNT917549:RNT917582 RXP917549:RXP917582 SHL917549:SHL917582 SRH917549:SRH917582 TBD917549:TBD917582 TKZ917549:TKZ917582 TUV917549:TUV917582 UER917549:UER917582 UON917549:UON917582 UYJ917549:UYJ917582 VIF917549:VIF917582 VSB917549:VSB917582 WBX917549:WBX917582 WLT917549:WLT917582 WVP917549:WVP917582 H983085:H983118 JD983085:JD983118 SZ983085:SZ983118 ACV983085:ACV983118 AMR983085:AMR983118 AWN983085:AWN983118 BGJ983085:BGJ983118 BQF983085:BQF983118 CAB983085:CAB983118 CJX983085:CJX983118 CTT983085:CTT983118 DDP983085:DDP983118 DNL983085:DNL983118 DXH983085:DXH983118 EHD983085:EHD983118 EQZ983085:EQZ983118 FAV983085:FAV983118 FKR983085:FKR983118 FUN983085:FUN983118 GEJ983085:GEJ983118 GOF983085:GOF983118 GYB983085:GYB983118 HHX983085:HHX983118 HRT983085:HRT983118 IBP983085:IBP983118 ILL983085:ILL983118 IVH983085:IVH983118 JFD983085:JFD983118 JOZ983085:JOZ983118 JYV983085:JYV983118 KIR983085:KIR983118 KSN983085:KSN983118 LCJ983085:LCJ983118 LMF983085:LMF983118 LWB983085:LWB983118 MFX983085:MFX983118 MPT983085:MPT983118 MZP983085:MZP983118 NJL983085:NJL983118 NTH983085:NTH983118 ODD983085:ODD983118 OMZ983085:OMZ983118 OWV983085:OWV983118 PGR983085:PGR983118 PQN983085:PQN983118 QAJ983085:QAJ983118 QKF983085:QKF983118 QUB983085:QUB983118 RDX983085:RDX983118 RNT983085:RNT983118 RXP983085:RXP983118 SHL983085:SHL983118 SRH983085:SRH983118 TBD983085:TBD983118 TKZ983085:TKZ983118 TUV983085:TUV983118 UER983085:UER983118 UON983085:UON983118 UYJ983085:UYJ983118 VIF983085:VIF983118 VSB983085:VSB983118 WBX983085:WBX983118 WLT983085:WLT983118 WVP983085:WVP983118 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H741" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65583:H65616 JD65583:JD65616 SZ65583:SZ65616 ACV65583:ACV65616 AMR65583:AMR65616 AWN65583:AWN65616 BGJ65583:BGJ65616 BQF65583:BQF65616 CAB65583:CAB65616 CJX65583:CJX65616 CTT65583:CTT65616 DDP65583:DDP65616 DNL65583:DNL65616 DXH65583:DXH65616 EHD65583:EHD65616 EQZ65583:EQZ65616 FAV65583:FAV65616 FKR65583:FKR65616 FUN65583:FUN65616 GEJ65583:GEJ65616 GOF65583:GOF65616 GYB65583:GYB65616 HHX65583:HHX65616 HRT65583:HRT65616 IBP65583:IBP65616 ILL65583:ILL65616 IVH65583:IVH65616 JFD65583:JFD65616 JOZ65583:JOZ65616 JYV65583:JYV65616 KIR65583:KIR65616 KSN65583:KSN65616 LCJ65583:LCJ65616 LMF65583:LMF65616 LWB65583:LWB65616 MFX65583:MFX65616 MPT65583:MPT65616 MZP65583:MZP65616 NJL65583:NJL65616 NTH65583:NTH65616 ODD65583:ODD65616 OMZ65583:OMZ65616 OWV65583:OWV65616 PGR65583:PGR65616 PQN65583:PQN65616 QAJ65583:QAJ65616 QKF65583:QKF65616 QUB65583:QUB65616 RDX65583:RDX65616 RNT65583:RNT65616 RXP65583:RXP65616 SHL65583:SHL65616 SRH65583:SRH65616 TBD65583:TBD65616 TKZ65583:TKZ65616 TUV65583:TUV65616 UER65583:UER65616 UON65583:UON65616 UYJ65583:UYJ65616 VIF65583:VIF65616 VSB65583:VSB65616 WBX65583:WBX65616 WLT65583:WLT65616 WVP65583:WVP65616 H131119:H131152 JD131119:JD131152 SZ131119:SZ131152 ACV131119:ACV131152 AMR131119:AMR131152 AWN131119:AWN131152 BGJ131119:BGJ131152 BQF131119:BQF131152 CAB131119:CAB131152 CJX131119:CJX131152 CTT131119:CTT131152 DDP131119:DDP131152 DNL131119:DNL131152 DXH131119:DXH131152 EHD131119:EHD131152 EQZ131119:EQZ131152 FAV131119:FAV131152 FKR131119:FKR131152 FUN131119:FUN131152 GEJ131119:GEJ131152 GOF131119:GOF131152 GYB131119:GYB131152 HHX131119:HHX131152 HRT131119:HRT131152 IBP131119:IBP131152 ILL131119:ILL131152 IVH131119:IVH131152 JFD131119:JFD131152 JOZ131119:JOZ131152 JYV131119:JYV131152 KIR131119:KIR131152 KSN131119:KSN131152 LCJ131119:LCJ131152 LMF131119:LMF131152 LWB131119:LWB131152 MFX131119:MFX131152 MPT131119:MPT131152 MZP131119:MZP131152 NJL131119:NJL131152 NTH131119:NTH131152 ODD131119:ODD131152 OMZ131119:OMZ131152 OWV131119:OWV131152 PGR131119:PGR131152 PQN131119:PQN131152 QAJ131119:QAJ131152 QKF131119:QKF131152 QUB131119:QUB131152 RDX131119:RDX131152 RNT131119:RNT131152 RXP131119:RXP131152 SHL131119:SHL131152 SRH131119:SRH131152 TBD131119:TBD131152 TKZ131119:TKZ131152 TUV131119:TUV131152 UER131119:UER131152 UON131119:UON131152 UYJ131119:UYJ131152 VIF131119:VIF131152 VSB131119:VSB131152 WBX131119:WBX131152 WLT131119:WLT131152 WVP131119:WVP131152 H196655:H196688 JD196655:JD196688 SZ196655:SZ196688 ACV196655:ACV196688 AMR196655:AMR196688 AWN196655:AWN196688 BGJ196655:BGJ196688 BQF196655:BQF196688 CAB196655:CAB196688 CJX196655:CJX196688 CTT196655:CTT196688 DDP196655:DDP196688 DNL196655:DNL196688 DXH196655:DXH196688 EHD196655:EHD196688 EQZ196655:EQZ196688 FAV196655:FAV196688 FKR196655:FKR196688 FUN196655:FUN196688 GEJ196655:GEJ196688 GOF196655:GOF196688 GYB196655:GYB196688 HHX196655:HHX196688 HRT196655:HRT196688 IBP196655:IBP196688 ILL196655:ILL196688 IVH196655:IVH196688 JFD196655:JFD196688 JOZ196655:JOZ196688 JYV196655:JYV196688 KIR196655:KIR196688 KSN196655:KSN196688 LCJ196655:LCJ196688 LMF196655:LMF196688 LWB196655:LWB196688 MFX196655:MFX196688 MPT196655:MPT196688 MZP196655:MZP196688 NJL196655:NJL196688 NTH196655:NTH196688 ODD196655:ODD196688 OMZ196655:OMZ196688 OWV196655:OWV196688 PGR196655:PGR196688 PQN196655:PQN196688 QAJ196655:QAJ196688 QKF196655:QKF196688 QUB196655:QUB196688 RDX196655:RDX196688 RNT196655:RNT196688 RXP196655:RXP196688 SHL196655:SHL196688 SRH196655:SRH196688 TBD196655:TBD196688 TKZ196655:TKZ196688 TUV196655:TUV196688 UER196655:UER196688 UON196655:UON196688 UYJ196655:UYJ196688 VIF196655:VIF196688 VSB196655:VSB196688 WBX196655:WBX196688 WLT196655:WLT196688 WVP196655:WVP196688 H262191:H262224 JD262191:JD262224 SZ262191:SZ262224 ACV262191:ACV262224 AMR262191:AMR262224 AWN262191:AWN262224 BGJ262191:BGJ262224 BQF262191:BQF262224 CAB262191:CAB262224 CJX262191:CJX262224 CTT262191:CTT262224 DDP262191:DDP262224 DNL262191:DNL262224 DXH262191:DXH262224 EHD262191:EHD262224 EQZ262191:EQZ262224 FAV262191:FAV262224 FKR262191:FKR262224 FUN262191:FUN262224 GEJ262191:GEJ262224 GOF262191:GOF262224 GYB262191:GYB262224 HHX262191:HHX262224 HRT262191:HRT262224 IBP262191:IBP262224 ILL262191:ILL262224 IVH262191:IVH262224 JFD262191:JFD262224 JOZ262191:JOZ262224 JYV262191:JYV262224 KIR262191:KIR262224 KSN262191:KSN262224 LCJ262191:LCJ262224 LMF262191:LMF262224 LWB262191:LWB262224 MFX262191:MFX262224 MPT262191:MPT262224 MZP262191:MZP262224 NJL262191:NJL262224 NTH262191:NTH262224 ODD262191:ODD262224 OMZ262191:OMZ262224 OWV262191:OWV262224 PGR262191:PGR262224 PQN262191:PQN262224 QAJ262191:QAJ262224 QKF262191:QKF262224 QUB262191:QUB262224 RDX262191:RDX262224 RNT262191:RNT262224 RXP262191:RXP262224 SHL262191:SHL262224 SRH262191:SRH262224 TBD262191:TBD262224 TKZ262191:TKZ262224 TUV262191:TUV262224 UER262191:UER262224 UON262191:UON262224 UYJ262191:UYJ262224 VIF262191:VIF262224 VSB262191:VSB262224 WBX262191:WBX262224 WLT262191:WLT262224 WVP262191:WVP262224 H327727:H327760 JD327727:JD327760 SZ327727:SZ327760 ACV327727:ACV327760 AMR327727:AMR327760 AWN327727:AWN327760 BGJ327727:BGJ327760 BQF327727:BQF327760 CAB327727:CAB327760 CJX327727:CJX327760 CTT327727:CTT327760 DDP327727:DDP327760 DNL327727:DNL327760 DXH327727:DXH327760 EHD327727:EHD327760 EQZ327727:EQZ327760 FAV327727:FAV327760 FKR327727:FKR327760 FUN327727:FUN327760 GEJ327727:GEJ327760 GOF327727:GOF327760 GYB327727:GYB327760 HHX327727:HHX327760 HRT327727:HRT327760 IBP327727:IBP327760 ILL327727:ILL327760 IVH327727:IVH327760 JFD327727:JFD327760 JOZ327727:JOZ327760 JYV327727:JYV327760 KIR327727:KIR327760 KSN327727:KSN327760 LCJ327727:LCJ327760 LMF327727:LMF327760 LWB327727:LWB327760 MFX327727:MFX327760 MPT327727:MPT327760 MZP327727:MZP327760 NJL327727:NJL327760 NTH327727:NTH327760 ODD327727:ODD327760 OMZ327727:OMZ327760 OWV327727:OWV327760 PGR327727:PGR327760 PQN327727:PQN327760 QAJ327727:QAJ327760 QKF327727:QKF327760 QUB327727:QUB327760 RDX327727:RDX327760 RNT327727:RNT327760 RXP327727:RXP327760 SHL327727:SHL327760 SRH327727:SRH327760 TBD327727:TBD327760 TKZ327727:TKZ327760 TUV327727:TUV327760 UER327727:UER327760 UON327727:UON327760 UYJ327727:UYJ327760 VIF327727:VIF327760 VSB327727:VSB327760 WBX327727:WBX327760 WLT327727:WLT327760 WVP327727:WVP327760 H393263:H393296 JD393263:JD393296 SZ393263:SZ393296 ACV393263:ACV393296 AMR393263:AMR393296 AWN393263:AWN393296 BGJ393263:BGJ393296 BQF393263:BQF393296 CAB393263:CAB393296 CJX393263:CJX393296 CTT393263:CTT393296 DDP393263:DDP393296 DNL393263:DNL393296 DXH393263:DXH393296 EHD393263:EHD393296 EQZ393263:EQZ393296 FAV393263:FAV393296 FKR393263:FKR393296 FUN393263:FUN393296 GEJ393263:GEJ393296 GOF393263:GOF393296 GYB393263:GYB393296 HHX393263:HHX393296 HRT393263:HRT393296 IBP393263:IBP393296 ILL393263:ILL393296 IVH393263:IVH393296 JFD393263:JFD393296 JOZ393263:JOZ393296 JYV393263:JYV393296 KIR393263:KIR393296 KSN393263:KSN393296 LCJ393263:LCJ393296 LMF393263:LMF393296 LWB393263:LWB393296 MFX393263:MFX393296 MPT393263:MPT393296 MZP393263:MZP393296 NJL393263:NJL393296 NTH393263:NTH393296 ODD393263:ODD393296 OMZ393263:OMZ393296 OWV393263:OWV393296 PGR393263:PGR393296 PQN393263:PQN393296 QAJ393263:QAJ393296 QKF393263:QKF393296 QUB393263:QUB393296 RDX393263:RDX393296 RNT393263:RNT393296 RXP393263:RXP393296 SHL393263:SHL393296 SRH393263:SRH393296 TBD393263:TBD393296 TKZ393263:TKZ393296 TUV393263:TUV393296 UER393263:UER393296 UON393263:UON393296 UYJ393263:UYJ393296 VIF393263:VIF393296 VSB393263:VSB393296 WBX393263:WBX393296 WLT393263:WLT393296 WVP393263:WVP393296 H458799:H458832 JD458799:JD458832 SZ458799:SZ458832 ACV458799:ACV458832 AMR458799:AMR458832 AWN458799:AWN458832 BGJ458799:BGJ458832 BQF458799:BQF458832 CAB458799:CAB458832 CJX458799:CJX458832 CTT458799:CTT458832 DDP458799:DDP458832 DNL458799:DNL458832 DXH458799:DXH458832 EHD458799:EHD458832 EQZ458799:EQZ458832 FAV458799:FAV458832 FKR458799:FKR458832 FUN458799:FUN458832 GEJ458799:GEJ458832 GOF458799:GOF458832 GYB458799:GYB458832 HHX458799:HHX458832 HRT458799:HRT458832 IBP458799:IBP458832 ILL458799:ILL458832 IVH458799:IVH458832 JFD458799:JFD458832 JOZ458799:JOZ458832 JYV458799:JYV458832 KIR458799:KIR458832 KSN458799:KSN458832 LCJ458799:LCJ458832 LMF458799:LMF458832 LWB458799:LWB458832 MFX458799:MFX458832 MPT458799:MPT458832 MZP458799:MZP458832 NJL458799:NJL458832 NTH458799:NTH458832 ODD458799:ODD458832 OMZ458799:OMZ458832 OWV458799:OWV458832 PGR458799:PGR458832 PQN458799:PQN458832 QAJ458799:QAJ458832 QKF458799:QKF458832 QUB458799:QUB458832 RDX458799:RDX458832 RNT458799:RNT458832 RXP458799:RXP458832 SHL458799:SHL458832 SRH458799:SRH458832 TBD458799:TBD458832 TKZ458799:TKZ458832 TUV458799:TUV458832 UER458799:UER458832 UON458799:UON458832 UYJ458799:UYJ458832 VIF458799:VIF458832 VSB458799:VSB458832 WBX458799:WBX458832 WLT458799:WLT458832 WVP458799:WVP458832 H524335:H524368 JD524335:JD524368 SZ524335:SZ524368 ACV524335:ACV524368 AMR524335:AMR524368 AWN524335:AWN524368 BGJ524335:BGJ524368 BQF524335:BQF524368 CAB524335:CAB524368 CJX524335:CJX524368 CTT524335:CTT524368 DDP524335:DDP524368 DNL524335:DNL524368 DXH524335:DXH524368 EHD524335:EHD524368 EQZ524335:EQZ524368 FAV524335:FAV524368 FKR524335:FKR524368 FUN524335:FUN524368 GEJ524335:GEJ524368 GOF524335:GOF524368 GYB524335:GYB524368 HHX524335:HHX524368 HRT524335:HRT524368 IBP524335:IBP524368 ILL524335:ILL524368 IVH524335:IVH524368 JFD524335:JFD524368 JOZ524335:JOZ524368 JYV524335:JYV524368 KIR524335:KIR524368 KSN524335:KSN524368 LCJ524335:LCJ524368 LMF524335:LMF524368 LWB524335:LWB524368 MFX524335:MFX524368 MPT524335:MPT524368 MZP524335:MZP524368 NJL524335:NJL524368 NTH524335:NTH524368 ODD524335:ODD524368 OMZ524335:OMZ524368 OWV524335:OWV524368 PGR524335:PGR524368 PQN524335:PQN524368 QAJ524335:QAJ524368 QKF524335:QKF524368 QUB524335:QUB524368 RDX524335:RDX524368 RNT524335:RNT524368 RXP524335:RXP524368 SHL524335:SHL524368 SRH524335:SRH524368 TBD524335:TBD524368 TKZ524335:TKZ524368 TUV524335:TUV524368 UER524335:UER524368 UON524335:UON524368 UYJ524335:UYJ524368 VIF524335:VIF524368 VSB524335:VSB524368 WBX524335:WBX524368 WLT524335:WLT524368 WVP524335:WVP524368 H589871:H589904 JD589871:JD589904 SZ589871:SZ589904 ACV589871:ACV589904 AMR589871:AMR589904 AWN589871:AWN589904 BGJ589871:BGJ589904 BQF589871:BQF589904 CAB589871:CAB589904 CJX589871:CJX589904 CTT589871:CTT589904 DDP589871:DDP589904 DNL589871:DNL589904 DXH589871:DXH589904 EHD589871:EHD589904 EQZ589871:EQZ589904 FAV589871:FAV589904 FKR589871:FKR589904 FUN589871:FUN589904 GEJ589871:GEJ589904 GOF589871:GOF589904 GYB589871:GYB589904 HHX589871:HHX589904 HRT589871:HRT589904 IBP589871:IBP589904 ILL589871:ILL589904 IVH589871:IVH589904 JFD589871:JFD589904 JOZ589871:JOZ589904 JYV589871:JYV589904 KIR589871:KIR589904 KSN589871:KSN589904 LCJ589871:LCJ589904 LMF589871:LMF589904 LWB589871:LWB589904 MFX589871:MFX589904 MPT589871:MPT589904 MZP589871:MZP589904 NJL589871:NJL589904 NTH589871:NTH589904 ODD589871:ODD589904 OMZ589871:OMZ589904 OWV589871:OWV589904 PGR589871:PGR589904 PQN589871:PQN589904 QAJ589871:QAJ589904 QKF589871:QKF589904 QUB589871:QUB589904 RDX589871:RDX589904 RNT589871:RNT589904 RXP589871:RXP589904 SHL589871:SHL589904 SRH589871:SRH589904 TBD589871:TBD589904 TKZ589871:TKZ589904 TUV589871:TUV589904 UER589871:UER589904 UON589871:UON589904 UYJ589871:UYJ589904 VIF589871:VIF589904 VSB589871:VSB589904 WBX589871:WBX589904 WLT589871:WLT589904 WVP589871:WVP589904 H655407:H655440 JD655407:JD655440 SZ655407:SZ655440 ACV655407:ACV655440 AMR655407:AMR655440 AWN655407:AWN655440 BGJ655407:BGJ655440 BQF655407:BQF655440 CAB655407:CAB655440 CJX655407:CJX655440 CTT655407:CTT655440 DDP655407:DDP655440 DNL655407:DNL655440 DXH655407:DXH655440 EHD655407:EHD655440 EQZ655407:EQZ655440 FAV655407:FAV655440 FKR655407:FKR655440 FUN655407:FUN655440 GEJ655407:GEJ655440 GOF655407:GOF655440 GYB655407:GYB655440 HHX655407:HHX655440 HRT655407:HRT655440 IBP655407:IBP655440 ILL655407:ILL655440 IVH655407:IVH655440 JFD655407:JFD655440 JOZ655407:JOZ655440 JYV655407:JYV655440 KIR655407:KIR655440 KSN655407:KSN655440 LCJ655407:LCJ655440 LMF655407:LMF655440 LWB655407:LWB655440 MFX655407:MFX655440 MPT655407:MPT655440 MZP655407:MZP655440 NJL655407:NJL655440 NTH655407:NTH655440 ODD655407:ODD655440 OMZ655407:OMZ655440 OWV655407:OWV655440 PGR655407:PGR655440 PQN655407:PQN655440 QAJ655407:QAJ655440 QKF655407:QKF655440 QUB655407:QUB655440 RDX655407:RDX655440 RNT655407:RNT655440 RXP655407:RXP655440 SHL655407:SHL655440 SRH655407:SRH655440 TBD655407:TBD655440 TKZ655407:TKZ655440 TUV655407:TUV655440 UER655407:UER655440 UON655407:UON655440 UYJ655407:UYJ655440 VIF655407:VIF655440 VSB655407:VSB655440 WBX655407:WBX655440 WLT655407:WLT655440 WVP655407:WVP655440 H720943:H720976 JD720943:JD720976 SZ720943:SZ720976 ACV720943:ACV720976 AMR720943:AMR720976 AWN720943:AWN720976 BGJ720943:BGJ720976 BQF720943:BQF720976 CAB720943:CAB720976 CJX720943:CJX720976 CTT720943:CTT720976 DDP720943:DDP720976 DNL720943:DNL720976 DXH720943:DXH720976 EHD720943:EHD720976 EQZ720943:EQZ720976 FAV720943:FAV720976 FKR720943:FKR720976 FUN720943:FUN720976 GEJ720943:GEJ720976 GOF720943:GOF720976 GYB720943:GYB720976 HHX720943:HHX720976 HRT720943:HRT720976 IBP720943:IBP720976 ILL720943:ILL720976 IVH720943:IVH720976 JFD720943:JFD720976 JOZ720943:JOZ720976 JYV720943:JYV720976 KIR720943:KIR720976 KSN720943:KSN720976 LCJ720943:LCJ720976 LMF720943:LMF720976 LWB720943:LWB720976 MFX720943:MFX720976 MPT720943:MPT720976 MZP720943:MZP720976 NJL720943:NJL720976 NTH720943:NTH720976 ODD720943:ODD720976 OMZ720943:OMZ720976 OWV720943:OWV720976 PGR720943:PGR720976 PQN720943:PQN720976 QAJ720943:QAJ720976 QKF720943:QKF720976 QUB720943:QUB720976 RDX720943:RDX720976 RNT720943:RNT720976 RXP720943:RXP720976 SHL720943:SHL720976 SRH720943:SRH720976 TBD720943:TBD720976 TKZ720943:TKZ720976 TUV720943:TUV720976 UER720943:UER720976 UON720943:UON720976 UYJ720943:UYJ720976 VIF720943:VIF720976 VSB720943:VSB720976 WBX720943:WBX720976 WLT720943:WLT720976 WVP720943:WVP720976 H786479:H786512 JD786479:JD786512 SZ786479:SZ786512 ACV786479:ACV786512 AMR786479:AMR786512 AWN786479:AWN786512 BGJ786479:BGJ786512 BQF786479:BQF786512 CAB786479:CAB786512 CJX786479:CJX786512 CTT786479:CTT786512 DDP786479:DDP786512 DNL786479:DNL786512 DXH786479:DXH786512 EHD786479:EHD786512 EQZ786479:EQZ786512 FAV786479:FAV786512 FKR786479:FKR786512 FUN786479:FUN786512 GEJ786479:GEJ786512 GOF786479:GOF786512 GYB786479:GYB786512 HHX786479:HHX786512 HRT786479:HRT786512 IBP786479:IBP786512 ILL786479:ILL786512 IVH786479:IVH786512 JFD786479:JFD786512 JOZ786479:JOZ786512 JYV786479:JYV786512 KIR786479:KIR786512 KSN786479:KSN786512 LCJ786479:LCJ786512 LMF786479:LMF786512 LWB786479:LWB786512 MFX786479:MFX786512 MPT786479:MPT786512 MZP786479:MZP786512 NJL786479:NJL786512 NTH786479:NTH786512 ODD786479:ODD786512 OMZ786479:OMZ786512 OWV786479:OWV786512 PGR786479:PGR786512 PQN786479:PQN786512 QAJ786479:QAJ786512 QKF786479:QKF786512 QUB786479:QUB786512 RDX786479:RDX786512 RNT786479:RNT786512 RXP786479:RXP786512 SHL786479:SHL786512 SRH786479:SRH786512 TBD786479:TBD786512 TKZ786479:TKZ786512 TUV786479:TUV786512 UER786479:UER786512 UON786479:UON786512 UYJ786479:UYJ786512 VIF786479:VIF786512 VSB786479:VSB786512 WBX786479:WBX786512 WLT786479:WLT786512 WVP786479:WVP786512 H852015:H852048 JD852015:JD852048 SZ852015:SZ852048 ACV852015:ACV852048 AMR852015:AMR852048 AWN852015:AWN852048 BGJ852015:BGJ852048 BQF852015:BQF852048 CAB852015:CAB852048 CJX852015:CJX852048 CTT852015:CTT852048 DDP852015:DDP852048 DNL852015:DNL852048 DXH852015:DXH852048 EHD852015:EHD852048 EQZ852015:EQZ852048 FAV852015:FAV852048 FKR852015:FKR852048 FUN852015:FUN852048 GEJ852015:GEJ852048 GOF852015:GOF852048 GYB852015:GYB852048 HHX852015:HHX852048 HRT852015:HRT852048 IBP852015:IBP852048 ILL852015:ILL852048 IVH852015:IVH852048 JFD852015:JFD852048 JOZ852015:JOZ852048 JYV852015:JYV852048 KIR852015:KIR852048 KSN852015:KSN852048 LCJ852015:LCJ852048 LMF852015:LMF852048 LWB852015:LWB852048 MFX852015:MFX852048 MPT852015:MPT852048 MZP852015:MZP852048 NJL852015:NJL852048 NTH852015:NTH852048 ODD852015:ODD852048 OMZ852015:OMZ852048 OWV852015:OWV852048 PGR852015:PGR852048 PQN852015:PQN852048 QAJ852015:QAJ852048 QKF852015:QKF852048 QUB852015:QUB852048 RDX852015:RDX852048 RNT852015:RNT852048 RXP852015:RXP852048 SHL852015:SHL852048 SRH852015:SRH852048 TBD852015:TBD852048 TKZ852015:TKZ852048 TUV852015:TUV852048 UER852015:UER852048 UON852015:UON852048 UYJ852015:UYJ852048 VIF852015:VIF852048 VSB852015:VSB852048 WBX852015:WBX852048 WLT852015:WLT852048 WVP852015:WVP852048 H917551:H917584 JD917551:JD917584 SZ917551:SZ917584 ACV917551:ACV917584 AMR917551:AMR917584 AWN917551:AWN917584 BGJ917551:BGJ917584 BQF917551:BQF917584 CAB917551:CAB917584 CJX917551:CJX917584 CTT917551:CTT917584 DDP917551:DDP917584 DNL917551:DNL917584 DXH917551:DXH917584 EHD917551:EHD917584 EQZ917551:EQZ917584 FAV917551:FAV917584 FKR917551:FKR917584 FUN917551:FUN917584 GEJ917551:GEJ917584 GOF917551:GOF917584 GYB917551:GYB917584 HHX917551:HHX917584 HRT917551:HRT917584 IBP917551:IBP917584 ILL917551:ILL917584 IVH917551:IVH917584 JFD917551:JFD917584 JOZ917551:JOZ917584 JYV917551:JYV917584 KIR917551:KIR917584 KSN917551:KSN917584 LCJ917551:LCJ917584 LMF917551:LMF917584 LWB917551:LWB917584 MFX917551:MFX917584 MPT917551:MPT917584 MZP917551:MZP917584 NJL917551:NJL917584 NTH917551:NTH917584 ODD917551:ODD917584 OMZ917551:OMZ917584 OWV917551:OWV917584 PGR917551:PGR917584 PQN917551:PQN917584 QAJ917551:QAJ917584 QKF917551:QKF917584 QUB917551:QUB917584 RDX917551:RDX917584 RNT917551:RNT917584 RXP917551:RXP917584 SHL917551:SHL917584 SRH917551:SRH917584 TBD917551:TBD917584 TKZ917551:TKZ917584 TUV917551:TUV917584 UER917551:UER917584 UON917551:UON917584 UYJ917551:UYJ917584 VIF917551:VIF917584 VSB917551:VSB917584 WBX917551:WBX917584 WLT917551:WLT917584 WVP917551:WVP917584 H983087:H983120 JD983087:JD983120 SZ983087:SZ983120 ACV983087:ACV983120 AMR983087:AMR983120 AWN983087:AWN983120 BGJ983087:BGJ983120 BQF983087:BQF983120 CAB983087:CAB983120 CJX983087:CJX983120 CTT983087:CTT983120 DDP983087:DDP983120 DNL983087:DNL983120 DXH983087:DXH983120 EHD983087:EHD983120 EQZ983087:EQZ983120 FAV983087:FAV983120 FKR983087:FKR983120 FUN983087:FUN983120 GEJ983087:GEJ983120 GOF983087:GOF983120 GYB983087:GYB983120 HHX983087:HHX983120 HRT983087:HRT983120 IBP983087:IBP983120 ILL983087:ILL983120 IVH983087:IVH983120 JFD983087:JFD983120 JOZ983087:JOZ983120 JYV983087:JYV983120 KIR983087:KIR983120 KSN983087:KSN983120 LCJ983087:LCJ983120 LMF983087:LMF983120 LWB983087:LWB983120 MFX983087:MFX983120 MPT983087:MPT983120 MZP983087:MZP983120 NJL983087:NJL983120 NTH983087:NTH983120 ODD983087:ODD983120 OMZ983087:OMZ983120 OWV983087:OWV983120 PGR983087:PGR983120 PQN983087:PQN983120 QAJ983087:QAJ983120 QKF983087:QKF983120 QUB983087:QUB983120 RDX983087:RDX983120 RNT983087:RNT983120 RXP983087:RXP983120 SHL983087:SHL983120 SRH983087:SRH983120 TBD983087:TBD983120 TKZ983087:TKZ983120 TUV983087:TUV983120 UER983087:UER983120 UON983087:UON983120 UYJ983087:UYJ983120 VIF983087:VIF983120 VSB983087:VSB983120 WBX983087:WBX983120 WLT983087:WLT983120 WVP983087:WVP983120 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H743" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D86F49-F862-4F7B-AEC3-2F01D0176E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05596C-C08A-4940-BF9B-38183BB2067F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="555">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
-      <selection activeCell="G645" sqref="G645"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="G643" sqref="G643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
@@ -21020,42 +21020,26 @@
       <c r="J640" s="10"/>
     </row>
     <row r="641" spans="1:10">
-      <c r="A641" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A641" s="7"/>
       <c r="B641" s="5"/>
-      <c r="C641" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C641" s="8"/>
       <c r="D641" s="15"/>
       <c r="E641" s="15"/>
-      <c r="F641" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F641" s="13"/>
       <c r="G641" s="12"/>
-      <c r="H641" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H641" s="8"/>
       <c r="I641" s="9"/>
       <c r="J641" s="10"/>
     </row>
     <row r="642" spans="1:10">
-      <c r="A642" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A642" s="7"/>
       <c r="B642" s="5"/>
-      <c r="C642" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C642" s="8"/>
       <c r="D642" s="15"/>
       <c r="E642" s="15"/>
-      <c r="F642" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F642" s="13"/>
       <c r="G642" s="12"/>
-      <c r="H642" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H642" s="8"/>
       <c r="I642" s="9"/>
       <c r="J642" s="10"/>
     </row>
@@ -21067,16 +21051,24 @@
       <c r="C643" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D643" s="15"/>
-      <c r="E643" s="15"/>
+      <c r="D643" s="15">
+        <v>43570</v>
+      </c>
+      <c r="E643" s="15">
+        <v>43570</v>
+      </c>
       <c r="F643" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G643" s="12"/>
+      <c r="G643" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H643" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I643" s="9"/>
+      <c r="I643" s="9">
+        <v>3</v>
+      </c>
       <c r="J643" s="10"/>
     </row>
     <row r="644" spans="1:10">
@@ -21087,16 +21079,24 @@
       <c r="C644" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D644" s="15"/>
-      <c r="E644" s="15"/>
+      <c r="D644" s="15">
+        <v>43570</v>
+      </c>
+      <c r="E644" s="15">
+        <v>43570</v>
+      </c>
       <c r="F644" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G644" s="12"/>
+      <c r="G644" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H644" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I644" s="9"/>
+      <c r="I644" s="9">
+        <v>3</v>
+      </c>
       <c r="J644" s="10"/>
     </row>
     <row r="645" spans="1:10">
@@ -21107,16 +21107,24 @@
       <c r="C645" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D645" s="15"/>
-      <c r="E645" s="15"/>
+      <c r="D645" s="15">
+        <v>43570</v>
+      </c>
+      <c r="E645" s="15">
+        <v>43570</v>
+      </c>
       <c r="F645" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G645" s="12"/>
+      <c r="G645" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H645" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I645" s="9"/>
+      <c r="I645" s="9">
+        <v>3</v>
+      </c>
       <c r="J645" s="10"/>
     </row>
     <row r="646" spans="1:10">
@@ -21127,16 +21135,24 @@
       <c r="C646" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D646" s="15"/>
-      <c r="E646" s="15"/>
+      <c r="D646" s="15">
+        <v>43571</v>
+      </c>
+      <c r="E646" s="15">
+        <v>43571</v>
+      </c>
       <c r="F646" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G646" s="12"/>
+      <c r="G646" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H646" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I646" s="9"/>
+      <c r="I646" s="9">
+        <v>3</v>
+      </c>
       <c r="J646" s="10"/>
     </row>
     <row r="647" spans="1:10">
@@ -21147,16 +21163,24 @@
       <c r="C647" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D647" s="15"/>
-      <c r="E647" s="15"/>
+      <c r="D647" s="15">
+        <v>43571</v>
+      </c>
+      <c r="E647" s="15">
+        <v>43571</v>
+      </c>
       <c r="F647" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G647" s="12"/>
+      <c r="G647" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H647" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I647" s="9"/>
+      <c r="I647" s="9">
+        <v>3</v>
+      </c>
       <c r="J647" s="10"/>
     </row>
     <row r="648" spans="1:10">
@@ -21167,16 +21191,24 @@
       <c r="C648" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D648" s="15"/>
-      <c r="E648" s="15"/>
+      <c r="D648" s="15">
+        <v>43571</v>
+      </c>
+      <c r="E648" s="15">
+        <v>43571</v>
+      </c>
       <c r="F648" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G648" s="12"/>
+      <c r="G648" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H648" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I648" s="9"/>
+      <c r="I648" s="9">
+        <v>3</v>
+      </c>
       <c r="J648" s="10"/>
     </row>
     <row r="649" spans="1:10">
@@ -21187,16 +21219,24 @@
       <c r="C649" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D649" s="15"/>
-      <c r="E649" s="15"/>
+      <c r="D649" s="15">
+        <v>43572</v>
+      </c>
+      <c r="E649" s="15">
+        <v>43572</v>
+      </c>
       <c r="F649" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G649" s="12"/>
+      <c r="G649" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H649" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I649" s="9"/>
+      <c r="I649" s="9">
+        <v>3</v>
+      </c>
       <c r="J649" s="10"/>
     </row>
     <row r="650" spans="1:10">
@@ -21207,16 +21247,24 @@
       <c r="C650" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D650" s="15"/>
-      <c r="E650" s="15"/>
+      <c r="D650" s="15">
+        <v>43572</v>
+      </c>
+      <c r="E650" s="15">
+        <v>43572</v>
+      </c>
       <c r="F650" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G650" s="12"/>
+      <c r="G650" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H650" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I650" s="9"/>
+      <c r="I650" s="9">
+        <v>3</v>
+      </c>
       <c r="J650" s="10"/>
     </row>
     <row r="651" spans="1:10">
@@ -21227,16 +21275,24 @@
       <c r="C651" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D651" s="15"/>
-      <c r="E651" s="15"/>
+      <c r="D651" s="15">
+        <v>43572</v>
+      </c>
+      <c r="E651" s="15">
+        <v>43572</v>
+      </c>
       <c r="F651" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G651" s="12"/>
+      <c r="G651" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H651" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I651" s="9"/>
+      <c r="I651" s="9">
+        <v>3</v>
+      </c>
       <c r="J651" s="10"/>
     </row>
     <row r="652" spans="1:10">
@@ -21247,16 +21303,24 @@
       <c r="C652" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D652" s="15"/>
-      <c r="E652" s="15"/>
+      <c r="D652" s="15">
+        <v>43573</v>
+      </c>
+      <c r="E652" s="15">
+        <v>43573</v>
+      </c>
       <c r="F652" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G652" s="12"/>
+      <c r="G652" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H652" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I652" s="9"/>
+      <c r="I652" s="9">
+        <v>3</v>
+      </c>
       <c r="J652" s="10"/>
     </row>
     <row r="653" spans="1:10">
@@ -21267,16 +21331,24 @@
       <c r="C653" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D653" s="15"/>
-      <c r="E653" s="15"/>
+      <c r="D653" s="15">
+        <v>43573</v>
+      </c>
+      <c r="E653" s="15">
+        <v>43573</v>
+      </c>
       <c r="F653" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G653" s="12"/>
+      <c r="G653" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H653" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I653" s="9"/>
+      <c r="I653" s="9">
+        <v>3</v>
+      </c>
       <c r="J653" s="10"/>
     </row>
     <row r="654" spans="1:10">
@@ -21287,16 +21359,24 @@
       <c r="C654" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D654" s="15"/>
-      <c r="E654" s="15"/>
+      <c r="D654" s="15">
+        <v>43573</v>
+      </c>
+      <c r="E654" s="15">
+        <v>43573</v>
+      </c>
       <c r="F654" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G654" s="12"/>
+      <c r="G654" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H654" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I654" s="9"/>
+      <c r="I654" s="9">
+        <v>3</v>
+      </c>
       <c r="J654" s="10"/>
     </row>
     <row r="655" spans="1:10">
@@ -21307,16 +21387,24 @@
       <c r="C655" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D655" s="15"/>
-      <c r="E655" s="15"/>
+      <c r="D655" s="15">
+        <v>43574</v>
+      </c>
+      <c r="E655" s="15">
+        <v>43574</v>
+      </c>
       <c r="F655" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G655" s="12"/>
+      <c r="G655" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H655" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I655" s="9"/>
+      <c r="I655" s="9">
+        <v>3</v>
+      </c>
       <c r="J655" s="10"/>
     </row>
     <row r="656" spans="1:10">
@@ -21327,16 +21415,24 @@
       <c r="C656" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D656" s="15"/>
-      <c r="E656" s="15"/>
+      <c r="D656" s="15">
+        <v>43574</v>
+      </c>
+      <c r="E656" s="15">
+        <v>43574</v>
+      </c>
       <c r="F656" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G656" s="12"/>
+      <c r="G656" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H656" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I656" s="9"/>
+      <c r="I656" s="9">
+        <v>3</v>
+      </c>
       <c r="J656" s="10"/>
     </row>
     <row r="657" spans="1:10">
@@ -21347,16 +21443,24 @@
       <c r="C657" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D657" s="15"/>
-      <c r="E657" s="15"/>
+      <c r="D657" s="15">
+        <v>43574</v>
+      </c>
+      <c r="E657" s="15">
+        <v>43574</v>
+      </c>
       <c r="F657" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G657" s="12"/>
+      <c r="G657" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H657" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I657" s="9"/>
+      <c r="I657" s="9">
+        <v>3</v>
+      </c>
       <c r="J657" s="10"/>
     </row>
     <row r="658" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05596C-C08A-4940-BF9B-38183BB2067F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F825EF9-9932-473E-924D-A4B34A096C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="564">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2204,6 +2204,42 @@
   </si>
   <si>
     <t>新农险改造老农险增量过程表脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据质量报告第三批（表间规则反馈）优化反馈描述，例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19项表内规则反馈，再报数据确认查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据质量报告第三批数据量为0的规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19项表内规则反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给王伟一份现有服务器数据ip清单，查看数据质量报告第三批（表间规则反馈）再报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据质量报告第三批（表间规则反馈）标的表规则内容数据查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并整理规则数据清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据质量报告第三批（表间规则反馈）再保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载更新农险项目从SVN，部署到eclipse中，安装配置weblogic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2742,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="G643" sqref="G643"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="G644" sqref="G644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
@@ -21060,9 +21096,7 @@
       <c r="F643" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G643" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G643" s="12"/>
       <c r="H643" s="8" t="s">
         <v>11</v>
       </c>
@@ -21088,9 +21122,7 @@
       <c r="F644" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G644" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G644" s="12"/>
       <c r="H644" s="8" t="s">
         <v>11</v>
       </c>
@@ -21116,9 +21148,7 @@
       <c r="F645" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G645" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G645" s="12"/>
       <c r="H645" s="8" t="s">
         <v>11</v>
       </c>
@@ -21144,9 +21174,7 @@
       <c r="F646" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G646" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G646" s="12"/>
       <c r="H646" s="8" t="s">
         <v>11</v>
       </c>
@@ -21172,9 +21200,7 @@
       <c r="F647" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G647" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G647" s="12"/>
       <c r="H647" s="8" t="s">
         <v>11</v>
       </c>
@@ -21200,9 +21226,7 @@
       <c r="F648" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G648" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G648" s="12"/>
       <c r="H648" s="8" t="s">
         <v>11</v>
       </c>
@@ -21229,7 +21253,7 @@
         <v>240</v>
       </c>
       <c r="G649" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H649" s="8" t="s">
         <v>11</v>
@@ -21257,7 +21281,7 @@
         <v>240</v>
       </c>
       <c r="G650" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H650" s="8" t="s">
         <v>11</v>
@@ -21285,7 +21309,7 @@
         <v>240</v>
       </c>
       <c r="G651" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H651" s="8" t="s">
         <v>11</v>
@@ -21313,7 +21337,7 @@
         <v>240</v>
       </c>
       <c r="G652" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H652" s="8" t="s">
         <v>11</v>
@@ -21341,7 +21365,7 @@
         <v>240</v>
       </c>
       <c r="G653" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H653" s="8" t="s">
         <v>11</v>
@@ -21369,7 +21393,7 @@
         <v>240</v>
       </c>
       <c r="G654" s="12" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="H654" s="8" t="s">
         <v>11</v>
@@ -21397,7 +21421,7 @@
         <v>240</v>
       </c>
       <c r="G655" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H655" s="8" t="s">
         <v>11</v>
@@ -21425,7 +21449,7 @@
         <v>240</v>
       </c>
       <c r="G656" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H656" s="8" t="s">
         <v>11</v>
@@ -21453,7 +21477,7 @@
         <v>240</v>
       </c>
       <c r="G657" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="H657" s="8" t="s">
         <v>11</v>
@@ -21464,42 +21488,26 @@
       <c r="J657" s="10"/>
     </row>
     <row r="658" spans="1:10">
-      <c r="A658" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A658" s="7"/>
       <c r="B658" s="5"/>
-      <c r="C658" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C658" s="8"/>
       <c r="D658" s="15"/>
       <c r="E658" s="15"/>
-      <c r="F658" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F658" s="13"/>
       <c r="G658" s="12"/>
-      <c r="H658" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H658" s="8"/>
       <c r="I658" s="9"/>
       <c r="J658" s="10"/>
     </row>
     <row r="659" spans="1:10">
-      <c r="A659" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A659" s="7"/>
       <c r="B659" s="5"/>
-      <c r="C659" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C659" s="8"/>
       <c r="D659" s="15"/>
       <c r="E659" s="15"/>
-      <c r="F659" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F659" s="13"/>
       <c r="G659" s="12"/>
-      <c r="H659" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H659" s="8"/>
       <c r="I659" s="9"/>
       <c r="J659" s="10"/>
     </row>
@@ -21511,16 +21519,24 @@
       <c r="C660" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D660" s="15"/>
-      <c r="E660" s="15"/>
+      <c r="D660" s="15">
+        <v>43577</v>
+      </c>
+      <c r="E660" s="15">
+        <v>43577</v>
+      </c>
       <c r="F660" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G660" s="12"/>
+      <c r="G660" s="12" t="s">
+        <v>562</v>
+      </c>
       <c r="H660" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I660" s="9"/>
+      <c r="I660" s="9">
+        <v>3</v>
+      </c>
       <c r="J660" s="10"/>
     </row>
     <row r="661" spans="1:10">
@@ -21531,16 +21547,24 @@
       <c r="C661" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D661" s="15"/>
-      <c r="E661" s="15"/>
+      <c r="D661" s="15">
+        <v>43577</v>
+      </c>
+      <c r="E661" s="15">
+        <v>43577</v>
+      </c>
       <c r="F661" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G661" s="12"/>
+      <c r="G661" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="H661" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I661" s="9"/>
+      <c r="I661" s="9">
+        <v>3</v>
+      </c>
       <c r="J661" s="10"/>
     </row>
     <row r="662" spans="1:10">
@@ -21551,16 +21575,24 @@
       <c r="C662" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D662" s="15"/>
-      <c r="E662" s="15"/>
+      <c r="D662" s="15">
+        <v>43577</v>
+      </c>
+      <c r="E662" s="15">
+        <v>43577</v>
+      </c>
       <c r="F662" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G662" s="12"/>
+      <c r="G662" s="12" t="s">
+        <v>562</v>
+      </c>
       <c r="H662" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I662" s="9"/>
+      <c r="I662" s="9">
+        <v>3</v>
+      </c>
       <c r="J662" s="10"/>
     </row>
     <row r="663" spans="1:10">
@@ -21571,16 +21603,24 @@
       <c r="C663" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D663" s="15"/>
-      <c r="E663" s="15"/>
+      <c r="D663" s="15">
+        <v>43578</v>
+      </c>
+      <c r="E663" s="15">
+        <v>43578</v>
+      </c>
       <c r="F663" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G663" s="12"/>
+      <c r="G663" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H663" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I663" s="9"/>
+      <c r="I663" s="9">
+        <v>3</v>
+      </c>
       <c r="J663" s="10"/>
     </row>
     <row r="664" spans="1:10">
@@ -21591,16 +21631,24 @@
       <c r="C664" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D664" s="15"/>
-      <c r="E664" s="15"/>
+      <c r="D664" s="15">
+        <v>43578</v>
+      </c>
+      <c r="E664" s="15">
+        <v>43578</v>
+      </c>
       <c r="F664" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G664" s="12"/>
+      <c r="G664" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H664" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I664" s="9"/>
+      <c r="I664" s="9">
+        <v>3</v>
+      </c>
       <c r="J664" s="10"/>
     </row>
     <row r="665" spans="1:10">
@@ -21611,16 +21659,24 @@
       <c r="C665" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D665" s="15"/>
-      <c r="E665" s="15"/>
+      <c r="D665" s="15">
+        <v>43578</v>
+      </c>
+      <c r="E665" s="15">
+        <v>43578</v>
+      </c>
       <c r="F665" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G665" s="12"/>
+      <c r="G665" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H665" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I665" s="9"/>
+      <c r="I665" s="9">
+        <v>3</v>
+      </c>
       <c r="J665" s="10"/>
     </row>
     <row r="666" spans="1:10">
@@ -21631,16 +21687,24 @@
       <c r="C666" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D666" s="15"/>
-      <c r="E666" s="15"/>
+      <c r="D666" s="15">
+        <v>43579</v>
+      </c>
+      <c r="E666" s="15">
+        <v>43579</v>
+      </c>
       <c r="F666" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G666" s="12"/>
+      <c r="G666" s="12" t="s">
+        <v>563</v>
+      </c>
       <c r="H666" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I666" s="9"/>
+      <c r="I666" s="9">
+        <v>3</v>
+      </c>
       <c r="J666" s="10"/>
     </row>
     <row r="667" spans="1:10">
@@ -21651,16 +21715,24 @@
       <c r="C667" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D667" s="15"/>
-      <c r="E667" s="15"/>
+      <c r="D667" s="15">
+        <v>43579</v>
+      </c>
+      <c r="E667" s="15">
+        <v>43579</v>
+      </c>
       <c r="F667" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G667" s="12"/>
+      <c r="G667" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H667" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I667" s="9"/>
+      <c r="I667" s="9">
+        <v>3</v>
+      </c>
       <c r="J667" s="10"/>
     </row>
     <row r="668" spans="1:10">
@@ -21671,16 +21743,24 @@
       <c r="C668" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D668" s="15"/>
-      <c r="E668" s="15"/>
+      <c r="D668" s="15">
+        <v>43579</v>
+      </c>
+      <c r="E668" s="15">
+        <v>43579</v>
+      </c>
       <c r="F668" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G668" s="12"/>
+      <c r="G668" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H668" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I668" s="9"/>
+      <c r="I668" s="9">
+        <v>3</v>
+      </c>
       <c r="J668" s="10"/>
     </row>
     <row r="669" spans="1:10">
@@ -21691,16 +21771,24 @@
       <c r="C669" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D669" s="15"/>
-      <c r="E669" s="15"/>
+      <c r="D669" s="15">
+        <v>43580</v>
+      </c>
+      <c r="E669" s="15">
+        <v>43580</v>
+      </c>
       <c r="F669" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G669" s="12"/>
+      <c r="G669" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="H669" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I669" s="9"/>
+      <c r="I669" s="9">
+        <v>3</v>
+      </c>
       <c r="J669" s="10"/>
     </row>
     <row r="670" spans="1:10">
@@ -21711,16 +21799,24 @@
       <c r="C670" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D670" s="15"/>
-      <c r="E670" s="15"/>
+      <c r="D670" s="15">
+        <v>43580</v>
+      </c>
+      <c r="E670" s="15">
+        <v>43580</v>
+      </c>
       <c r="F670" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G670" s="12"/>
+      <c r="G670" s="12" t="s">
+        <v>558</v>
+      </c>
       <c r="H670" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I670" s="9"/>
+      <c r="I670" s="9">
+        <v>3</v>
+      </c>
       <c r="J670" s="10"/>
     </row>
     <row r="671" spans="1:10">
@@ -21731,16 +21827,24 @@
       <c r="C671" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D671" s="15"/>
-      <c r="E671" s="15"/>
+      <c r="D671" s="15">
+        <v>43580</v>
+      </c>
+      <c r="E671" s="15">
+        <v>43580</v>
+      </c>
       <c r="F671" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G671" s="12"/>
+      <c r="G671" s="12" t="s">
+        <v>558</v>
+      </c>
       <c r="H671" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I671" s="9"/>
+      <c r="I671" s="9">
+        <v>3</v>
+      </c>
       <c r="J671" s="10"/>
     </row>
     <row r="672" spans="1:10">
@@ -21751,16 +21855,24 @@
       <c r="C672" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D672" s="15"/>
-      <c r="E672" s="15"/>
+      <c r="D672" s="15">
+        <v>43581</v>
+      </c>
+      <c r="E672" s="15">
+        <v>43581</v>
+      </c>
       <c r="F672" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G672" s="12"/>
+      <c r="G672" s="12" t="s">
+        <v>556</v>
+      </c>
       <c r="H672" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I672" s="9"/>
+      <c r="I672" s="9">
+        <v>3</v>
+      </c>
       <c r="J672" s="10"/>
     </row>
     <row r="673" spans="1:10">
@@ -21771,16 +21883,24 @@
       <c r="C673" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D673" s="15"/>
-      <c r="E673" s="15"/>
+      <c r="D673" s="15">
+        <v>43581</v>
+      </c>
+      <c r="E673" s="15">
+        <v>43581</v>
+      </c>
       <c r="F673" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G673" s="12"/>
+      <c r="G673" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="H673" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I673" s="9"/>
+      <c r="I673" s="9">
+        <v>3</v>
+      </c>
       <c r="J673" s="10"/>
     </row>
     <row r="674" spans="1:10">
@@ -21791,16 +21911,24 @@
       <c r="C674" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D674" s="15"/>
-      <c r="E674" s="15"/>
+      <c r="D674" s="15">
+        <v>43581</v>
+      </c>
+      <c r="E674" s="15">
+        <v>43581</v>
+      </c>
       <c r="F674" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G674" s="12"/>
+      <c r="G674" s="12" t="s">
+        <v>555</v>
+      </c>
       <c r="H674" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I674" s="9"/>
+      <c r="I674" s="9">
+        <v>3</v>
+      </c>
       <c r="J674" s="10"/>
     </row>
     <row r="675" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F825EF9-9932-473E-924D-A4B34A096C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2E4FE-CE81-4899-817D-6827A3CFB976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="564">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2778,526 +2778,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="G644" sqref="G644"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="G676" sqref="G676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="54.375" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.83203125" customWidth="1"/>
+    <col min="257" max="257" width="16.875" customWidth="1"/>
     <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.08203125" customWidth="1"/>
+    <col min="259" max="259" width="8.125" customWidth="1"/>
     <col min="260" max="260" width="9.25" customWidth="1"/>
     <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.83203125" customWidth="1"/>
-    <col min="263" max="263" width="54.33203125" customWidth="1"/>
+    <col min="262" max="262" width="9.875" customWidth="1"/>
+    <col min="263" max="263" width="54.375" customWidth="1"/>
     <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.83203125" customWidth="1"/>
+    <col min="513" max="513" width="16.875" customWidth="1"/>
     <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.08203125" customWidth="1"/>
+    <col min="515" max="515" width="8.125" customWidth="1"/>
     <col min="516" max="516" width="9.25" customWidth="1"/>
     <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.83203125" customWidth="1"/>
-    <col min="519" max="519" width="54.33203125" customWidth="1"/>
+    <col min="518" max="518" width="9.875" customWidth="1"/>
+    <col min="519" max="519" width="54.375" customWidth="1"/>
     <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.83203125" customWidth="1"/>
+    <col min="769" max="769" width="16.875" customWidth="1"/>
     <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.08203125" customWidth="1"/>
+    <col min="771" max="771" width="8.125" customWidth="1"/>
     <col min="772" max="772" width="9.25" customWidth="1"/>
     <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.83203125" customWidth="1"/>
-    <col min="775" max="775" width="54.33203125" customWidth="1"/>
+    <col min="774" max="774" width="9.875" customWidth="1"/>
+    <col min="775" max="775" width="54.375" customWidth="1"/>
     <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
+    <col min="1025" max="1025" width="16.875" customWidth="1"/>
     <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.125" customWidth="1"/>
     <col min="1028" max="1028" width="9.25" customWidth="1"/>
     <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
-    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.875" customWidth="1"/>
+    <col min="1031" max="1031" width="54.375" customWidth="1"/>
     <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
+    <col min="1281" max="1281" width="16.875" customWidth="1"/>
     <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.125" customWidth="1"/>
     <col min="1284" max="1284" width="9.25" customWidth="1"/>
     <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
-    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.875" customWidth="1"/>
+    <col min="1287" max="1287" width="54.375" customWidth="1"/>
     <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
+    <col min="1537" max="1537" width="16.875" customWidth="1"/>
     <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.125" customWidth="1"/>
     <col min="1540" max="1540" width="9.25" customWidth="1"/>
     <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
-    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.875" customWidth="1"/>
+    <col min="1543" max="1543" width="54.375" customWidth="1"/>
     <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
+    <col min="1793" max="1793" width="16.875" customWidth="1"/>
     <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.125" customWidth="1"/>
     <col min="1796" max="1796" width="9.25" customWidth="1"/>
     <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
-    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.875" customWidth="1"/>
+    <col min="1799" max="1799" width="54.375" customWidth="1"/>
     <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
+    <col min="2049" max="2049" width="16.875" customWidth="1"/>
     <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.125" customWidth="1"/>
     <col min="2052" max="2052" width="9.25" customWidth="1"/>
     <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
-    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.875" customWidth="1"/>
+    <col min="2055" max="2055" width="54.375" customWidth="1"/>
     <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
+    <col min="2305" max="2305" width="16.875" customWidth="1"/>
     <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.125" customWidth="1"/>
     <col min="2308" max="2308" width="9.25" customWidth="1"/>
     <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
-    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.875" customWidth="1"/>
+    <col min="2311" max="2311" width="54.375" customWidth="1"/>
     <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
+    <col min="2561" max="2561" width="16.875" customWidth="1"/>
     <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.125" customWidth="1"/>
     <col min="2564" max="2564" width="9.25" customWidth="1"/>
     <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
-    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.875" customWidth="1"/>
+    <col min="2567" max="2567" width="54.375" customWidth="1"/>
     <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
+    <col min="2817" max="2817" width="16.875" customWidth="1"/>
     <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.125" customWidth="1"/>
     <col min="2820" max="2820" width="9.25" customWidth="1"/>
     <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
-    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.875" customWidth="1"/>
+    <col min="2823" max="2823" width="54.375" customWidth="1"/>
     <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
+    <col min="3073" max="3073" width="16.875" customWidth="1"/>
     <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.125" customWidth="1"/>
     <col min="3076" max="3076" width="9.25" customWidth="1"/>
     <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
-    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.875" customWidth="1"/>
+    <col min="3079" max="3079" width="54.375" customWidth="1"/>
     <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
+    <col min="3329" max="3329" width="16.875" customWidth="1"/>
     <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.125" customWidth="1"/>
     <col min="3332" max="3332" width="9.25" customWidth="1"/>
     <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
-    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.875" customWidth="1"/>
+    <col min="3335" max="3335" width="54.375" customWidth="1"/>
     <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
+    <col min="3585" max="3585" width="16.875" customWidth="1"/>
     <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.125" customWidth="1"/>
     <col min="3588" max="3588" width="9.25" customWidth="1"/>
     <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
-    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.875" customWidth="1"/>
+    <col min="3591" max="3591" width="54.375" customWidth="1"/>
     <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
+    <col min="3841" max="3841" width="16.875" customWidth="1"/>
     <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.125" customWidth="1"/>
     <col min="3844" max="3844" width="9.25" customWidth="1"/>
     <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
-    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.875" customWidth="1"/>
+    <col min="3847" max="3847" width="54.375" customWidth="1"/>
     <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
+    <col min="4097" max="4097" width="16.875" customWidth="1"/>
     <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.125" customWidth="1"/>
     <col min="4100" max="4100" width="9.25" customWidth="1"/>
     <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
-    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.875" customWidth="1"/>
+    <col min="4103" max="4103" width="54.375" customWidth="1"/>
     <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
+    <col min="4353" max="4353" width="16.875" customWidth="1"/>
     <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.125" customWidth="1"/>
     <col min="4356" max="4356" width="9.25" customWidth="1"/>
     <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
-    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.875" customWidth="1"/>
+    <col min="4359" max="4359" width="54.375" customWidth="1"/>
     <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
+    <col min="4609" max="4609" width="16.875" customWidth="1"/>
     <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.125" customWidth="1"/>
     <col min="4612" max="4612" width="9.25" customWidth="1"/>
     <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
-    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.875" customWidth="1"/>
+    <col min="4615" max="4615" width="54.375" customWidth="1"/>
     <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
+    <col min="4865" max="4865" width="16.875" customWidth="1"/>
     <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.125" customWidth="1"/>
     <col min="4868" max="4868" width="9.25" customWidth="1"/>
     <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
-    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.875" customWidth="1"/>
+    <col min="4871" max="4871" width="54.375" customWidth="1"/>
     <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
+    <col min="5121" max="5121" width="16.875" customWidth="1"/>
     <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.125" customWidth="1"/>
     <col min="5124" max="5124" width="9.25" customWidth="1"/>
     <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
-    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.875" customWidth="1"/>
+    <col min="5127" max="5127" width="54.375" customWidth="1"/>
     <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
+    <col min="5377" max="5377" width="16.875" customWidth="1"/>
     <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.125" customWidth="1"/>
     <col min="5380" max="5380" width="9.25" customWidth="1"/>
     <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
-    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.875" customWidth="1"/>
+    <col min="5383" max="5383" width="54.375" customWidth="1"/>
     <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
+    <col min="5633" max="5633" width="16.875" customWidth="1"/>
     <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.125" customWidth="1"/>
     <col min="5636" max="5636" width="9.25" customWidth="1"/>
     <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
-    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.875" customWidth="1"/>
+    <col min="5639" max="5639" width="54.375" customWidth="1"/>
     <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
+    <col min="5889" max="5889" width="16.875" customWidth="1"/>
     <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.125" customWidth="1"/>
     <col min="5892" max="5892" width="9.25" customWidth="1"/>
     <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
-    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.875" customWidth="1"/>
+    <col min="5895" max="5895" width="54.375" customWidth="1"/>
     <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
+    <col min="6145" max="6145" width="16.875" customWidth="1"/>
     <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.125" customWidth="1"/>
     <col min="6148" max="6148" width="9.25" customWidth="1"/>
     <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
-    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.875" customWidth="1"/>
+    <col min="6151" max="6151" width="54.375" customWidth="1"/>
     <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
+    <col min="6401" max="6401" width="16.875" customWidth="1"/>
     <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.125" customWidth="1"/>
     <col min="6404" max="6404" width="9.25" customWidth="1"/>
     <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
-    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.875" customWidth="1"/>
+    <col min="6407" max="6407" width="54.375" customWidth="1"/>
     <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
+    <col min="6657" max="6657" width="16.875" customWidth="1"/>
     <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.125" customWidth="1"/>
     <col min="6660" max="6660" width="9.25" customWidth="1"/>
     <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
-    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.875" customWidth="1"/>
+    <col min="6663" max="6663" width="54.375" customWidth="1"/>
     <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
+    <col min="6913" max="6913" width="16.875" customWidth="1"/>
     <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.125" customWidth="1"/>
     <col min="6916" max="6916" width="9.25" customWidth="1"/>
     <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
-    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.875" customWidth="1"/>
+    <col min="6919" max="6919" width="54.375" customWidth="1"/>
     <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
+    <col min="7169" max="7169" width="16.875" customWidth="1"/>
     <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.125" customWidth="1"/>
     <col min="7172" max="7172" width="9.25" customWidth="1"/>
     <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
-    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.875" customWidth="1"/>
+    <col min="7175" max="7175" width="54.375" customWidth="1"/>
     <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
+    <col min="7425" max="7425" width="16.875" customWidth="1"/>
     <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.125" customWidth="1"/>
     <col min="7428" max="7428" width="9.25" customWidth="1"/>
     <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
-    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.875" customWidth="1"/>
+    <col min="7431" max="7431" width="54.375" customWidth="1"/>
     <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
+    <col min="7681" max="7681" width="16.875" customWidth="1"/>
     <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.125" customWidth="1"/>
     <col min="7684" max="7684" width="9.25" customWidth="1"/>
     <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
-    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.875" customWidth="1"/>
+    <col min="7687" max="7687" width="54.375" customWidth="1"/>
     <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
+    <col min="7937" max="7937" width="16.875" customWidth="1"/>
     <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.125" customWidth="1"/>
     <col min="7940" max="7940" width="9.25" customWidth="1"/>
     <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
-    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.875" customWidth="1"/>
+    <col min="7943" max="7943" width="54.375" customWidth="1"/>
     <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
+    <col min="8193" max="8193" width="16.875" customWidth="1"/>
     <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.125" customWidth="1"/>
     <col min="8196" max="8196" width="9.25" customWidth="1"/>
     <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
-    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.875" customWidth="1"/>
+    <col min="8199" max="8199" width="54.375" customWidth="1"/>
     <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
+    <col min="8449" max="8449" width="16.875" customWidth="1"/>
     <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.125" customWidth="1"/>
     <col min="8452" max="8452" width="9.25" customWidth="1"/>
     <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
-    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.875" customWidth="1"/>
+    <col min="8455" max="8455" width="54.375" customWidth="1"/>
     <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
+    <col min="8705" max="8705" width="16.875" customWidth="1"/>
     <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.125" customWidth="1"/>
     <col min="8708" max="8708" width="9.25" customWidth="1"/>
     <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
-    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.875" customWidth="1"/>
+    <col min="8711" max="8711" width="54.375" customWidth="1"/>
     <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
+    <col min="8961" max="8961" width="16.875" customWidth="1"/>
     <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.125" customWidth="1"/>
     <col min="8964" max="8964" width="9.25" customWidth="1"/>
     <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
-    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.875" customWidth="1"/>
+    <col min="8967" max="8967" width="54.375" customWidth="1"/>
     <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
+    <col min="9217" max="9217" width="16.875" customWidth="1"/>
     <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.125" customWidth="1"/>
     <col min="9220" max="9220" width="9.25" customWidth="1"/>
     <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
-    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.875" customWidth="1"/>
+    <col min="9223" max="9223" width="54.375" customWidth="1"/>
     <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
+    <col min="9473" max="9473" width="16.875" customWidth="1"/>
     <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.125" customWidth="1"/>
     <col min="9476" max="9476" width="9.25" customWidth="1"/>
     <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
-    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.875" customWidth="1"/>
+    <col min="9479" max="9479" width="54.375" customWidth="1"/>
     <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
+    <col min="9729" max="9729" width="16.875" customWidth="1"/>
     <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.125" customWidth="1"/>
     <col min="9732" max="9732" width="9.25" customWidth="1"/>
     <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
-    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.875" customWidth="1"/>
+    <col min="9735" max="9735" width="54.375" customWidth="1"/>
     <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
+    <col min="9985" max="9985" width="16.875" customWidth="1"/>
     <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.125" customWidth="1"/>
     <col min="9988" max="9988" width="9.25" customWidth="1"/>
     <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
-    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.875" customWidth="1"/>
+    <col min="9991" max="9991" width="54.375" customWidth="1"/>
     <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
+    <col min="10241" max="10241" width="16.875" customWidth="1"/>
     <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.125" customWidth="1"/>
     <col min="10244" max="10244" width="9.25" customWidth="1"/>
     <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
-    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.875" customWidth="1"/>
+    <col min="10247" max="10247" width="54.375" customWidth="1"/>
     <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
+    <col min="10497" max="10497" width="16.875" customWidth="1"/>
     <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.125" customWidth="1"/>
     <col min="10500" max="10500" width="9.25" customWidth="1"/>
     <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
-    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.875" customWidth="1"/>
+    <col min="10503" max="10503" width="54.375" customWidth="1"/>
     <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
+    <col min="10753" max="10753" width="16.875" customWidth="1"/>
     <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.125" customWidth="1"/>
     <col min="10756" max="10756" width="9.25" customWidth="1"/>
     <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
-    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.875" customWidth="1"/>
+    <col min="10759" max="10759" width="54.375" customWidth="1"/>
     <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
+    <col min="11009" max="11009" width="16.875" customWidth="1"/>
     <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.125" customWidth="1"/>
     <col min="11012" max="11012" width="9.25" customWidth="1"/>
     <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
-    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.875" customWidth="1"/>
+    <col min="11015" max="11015" width="54.375" customWidth="1"/>
     <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
+    <col min="11265" max="11265" width="16.875" customWidth="1"/>
     <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.125" customWidth="1"/>
     <col min="11268" max="11268" width="9.25" customWidth="1"/>
     <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
-    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.875" customWidth="1"/>
+    <col min="11271" max="11271" width="54.375" customWidth="1"/>
     <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
+    <col min="11521" max="11521" width="16.875" customWidth="1"/>
     <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.125" customWidth="1"/>
     <col min="11524" max="11524" width="9.25" customWidth="1"/>
     <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
-    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.875" customWidth="1"/>
+    <col min="11527" max="11527" width="54.375" customWidth="1"/>
     <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
+    <col min="11777" max="11777" width="16.875" customWidth="1"/>
     <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.125" customWidth="1"/>
     <col min="11780" max="11780" width="9.25" customWidth="1"/>
     <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
-    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.875" customWidth="1"/>
+    <col min="11783" max="11783" width="54.375" customWidth="1"/>
     <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
+    <col min="12033" max="12033" width="16.875" customWidth="1"/>
     <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.125" customWidth="1"/>
     <col min="12036" max="12036" width="9.25" customWidth="1"/>
     <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
-    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.875" customWidth="1"/>
+    <col min="12039" max="12039" width="54.375" customWidth="1"/>
     <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
+    <col min="12289" max="12289" width="16.875" customWidth="1"/>
     <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.125" customWidth="1"/>
     <col min="12292" max="12292" width="9.25" customWidth="1"/>
     <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
-    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.875" customWidth="1"/>
+    <col min="12295" max="12295" width="54.375" customWidth="1"/>
     <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
+    <col min="12545" max="12545" width="16.875" customWidth="1"/>
     <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.125" customWidth="1"/>
     <col min="12548" max="12548" width="9.25" customWidth="1"/>
     <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
-    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.875" customWidth="1"/>
+    <col min="12551" max="12551" width="54.375" customWidth="1"/>
     <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
+    <col min="12801" max="12801" width="16.875" customWidth="1"/>
     <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.125" customWidth="1"/>
     <col min="12804" max="12804" width="9.25" customWidth="1"/>
     <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
-    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.875" customWidth="1"/>
+    <col min="12807" max="12807" width="54.375" customWidth="1"/>
     <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
+    <col min="13057" max="13057" width="16.875" customWidth="1"/>
     <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.125" customWidth="1"/>
     <col min="13060" max="13060" width="9.25" customWidth="1"/>
     <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
-    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.875" customWidth="1"/>
+    <col min="13063" max="13063" width="54.375" customWidth="1"/>
     <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
+    <col min="13313" max="13313" width="16.875" customWidth="1"/>
     <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.125" customWidth="1"/>
     <col min="13316" max="13316" width="9.25" customWidth="1"/>
     <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
-    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.875" customWidth="1"/>
+    <col min="13319" max="13319" width="54.375" customWidth="1"/>
     <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
+    <col min="13569" max="13569" width="16.875" customWidth="1"/>
     <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.125" customWidth="1"/>
     <col min="13572" max="13572" width="9.25" customWidth="1"/>
     <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
-    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.875" customWidth="1"/>
+    <col min="13575" max="13575" width="54.375" customWidth="1"/>
     <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
+    <col min="13825" max="13825" width="16.875" customWidth="1"/>
     <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.125" customWidth="1"/>
     <col min="13828" max="13828" width="9.25" customWidth="1"/>
     <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
-    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.875" customWidth="1"/>
+    <col min="13831" max="13831" width="54.375" customWidth="1"/>
     <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
+    <col min="14081" max="14081" width="16.875" customWidth="1"/>
     <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.125" customWidth="1"/>
     <col min="14084" max="14084" width="9.25" customWidth="1"/>
     <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
-    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.875" customWidth="1"/>
+    <col min="14087" max="14087" width="54.375" customWidth="1"/>
     <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
+    <col min="14337" max="14337" width="16.875" customWidth="1"/>
     <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.125" customWidth="1"/>
     <col min="14340" max="14340" width="9.25" customWidth="1"/>
     <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
-    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.875" customWidth="1"/>
+    <col min="14343" max="14343" width="54.375" customWidth="1"/>
     <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
+    <col min="14593" max="14593" width="16.875" customWidth="1"/>
     <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.125" customWidth="1"/>
     <col min="14596" max="14596" width="9.25" customWidth="1"/>
     <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
-    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.875" customWidth="1"/>
+    <col min="14599" max="14599" width="54.375" customWidth="1"/>
     <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
+    <col min="14849" max="14849" width="16.875" customWidth="1"/>
     <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.125" customWidth="1"/>
     <col min="14852" max="14852" width="9.25" customWidth="1"/>
     <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
-    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.875" customWidth="1"/>
+    <col min="14855" max="14855" width="54.375" customWidth="1"/>
     <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
+    <col min="15105" max="15105" width="16.875" customWidth="1"/>
     <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.125" customWidth="1"/>
     <col min="15108" max="15108" width="9.25" customWidth="1"/>
     <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
-    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.875" customWidth="1"/>
+    <col min="15111" max="15111" width="54.375" customWidth="1"/>
     <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
+    <col min="15361" max="15361" width="16.875" customWidth="1"/>
     <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.125" customWidth="1"/>
     <col min="15364" max="15364" width="9.25" customWidth="1"/>
     <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
-    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.875" customWidth="1"/>
+    <col min="15367" max="15367" width="54.375" customWidth="1"/>
     <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
+    <col min="15617" max="15617" width="16.875" customWidth="1"/>
     <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.125" customWidth="1"/>
     <col min="15620" max="15620" width="9.25" customWidth="1"/>
     <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
-    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.875" customWidth="1"/>
+    <col min="15623" max="15623" width="54.375" customWidth="1"/>
     <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
+    <col min="15873" max="15873" width="16.875" customWidth="1"/>
     <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.125" customWidth="1"/>
     <col min="15876" max="15876" width="9.25" customWidth="1"/>
     <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
-    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.875" customWidth="1"/>
+    <col min="15879" max="15879" width="54.375" customWidth="1"/>
     <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
+    <col min="16129" max="16129" width="16.875" customWidth="1"/>
     <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.125" customWidth="1"/>
     <col min="16132" max="16132" width="9.25" customWidth="1"/>
     <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
-    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.875" customWidth="1"/>
+    <col min="16135" max="16135" width="54.375" customWidth="1"/>
     <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -21932,22 +21932,14 @@
       <c r="J674" s="10"/>
     </row>
     <row r="675" spans="1:10">
-      <c r="A675" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A675" s="7"/>
       <c r="B675" s="5"/>
-      <c r="C675" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C675" s="8"/>
       <c r="D675" s="15"/>
       <c r="E675" s="15"/>
-      <c r="F675" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F675" s="13"/>
       <c r="G675" s="12"/>
-      <c r="H675" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H675" s="8"/>
       <c r="I675" s="9"/>
       <c r="J675" s="10"/>
     </row>
@@ -21959,8 +21951,12 @@
       <c r="C676" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D676" s="15"/>
-      <c r="E676" s="15"/>
+      <c r="D676" s="15">
+        <v>43583</v>
+      </c>
+      <c r="E676" s="15">
+        <v>43583</v>
+      </c>
       <c r="F676" s="13" t="s">
         <v>240</v>
       </c>
@@ -21968,7 +21964,9 @@
       <c r="H676" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I676" s="9"/>
+      <c r="I676" s="9">
+        <v>3</v>
+      </c>
       <c r="J676" s="10"/>
     </row>
     <row r="677" spans="1:10">
@@ -21979,8 +21977,12 @@
       <c r="C677" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D677" s="15"/>
-      <c r="E677" s="15"/>
+      <c r="D677" s="15">
+        <v>43583</v>
+      </c>
+      <c r="E677" s="15">
+        <v>43583</v>
+      </c>
       <c r="F677" s="13" t="s">
         <v>240</v>
       </c>
@@ -21988,7 +21990,9 @@
       <c r="H677" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I677" s="9"/>
+      <c r="I677" s="9">
+        <v>3</v>
+      </c>
       <c r="J677" s="10"/>
     </row>
     <row r="678" spans="1:10">
@@ -21999,8 +22003,12 @@
       <c r="C678" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D678" s="15"/>
-      <c r="E678" s="15"/>
+      <c r="D678" s="15">
+        <v>43583</v>
+      </c>
+      <c r="E678" s="15">
+        <v>43583</v>
+      </c>
       <c r="F678" s="13" t="s">
         <v>240</v>
       </c>
@@ -22008,7 +22016,9 @@
       <c r="H678" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I678" s="9"/>
+      <c r="I678" s="9">
+        <v>3</v>
+      </c>
       <c r="J678" s="10"/>
     </row>
     <row r="679" spans="1:10">
@@ -22019,8 +22029,12 @@
       <c r="C679" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D679" s="15"/>
-      <c r="E679" s="15"/>
+      <c r="D679" s="15">
+        <v>43584</v>
+      </c>
+      <c r="E679" s="15">
+        <v>43584</v>
+      </c>
       <c r="F679" s="13" t="s">
         <v>240</v>
       </c>
@@ -22028,7 +22042,9 @@
       <c r="H679" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I679" s="9"/>
+      <c r="I679" s="9">
+        <v>3</v>
+      </c>
       <c r="J679" s="10"/>
     </row>
     <row r="680" spans="1:10">
@@ -22039,8 +22055,12 @@
       <c r="C680" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D680" s="15"/>
-      <c r="E680" s="15"/>
+      <c r="D680" s="15">
+        <v>43584</v>
+      </c>
+      <c r="E680" s="15">
+        <v>43584</v>
+      </c>
       <c r="F680" s="13" t="s">
         <v>240</v>
       </c>
@@ -22048,7 +22068,9 @@
       <c r="H680" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I680" s="9"/>
+      <c r="I680" s="9">
+        <v>3</v>
+      </c>
       <c r="J680" s="10"/>
     </row>
     <row r="681" spans="1:10">
@@ -22059,8 +22081,12 @@
       <c r="C681" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D681" s="15"/>
-      <c r="E681" s="15"/>
+      <c r="D681" s="15">
+        <v>43584</v>
+      </c>
+      <c r="E681" s="15">
+        <v>43584</v>
+      </c>
       <c r="F681" s="13" t="s">
         <v>240</v>
       </c>
@@ -22068,7 +22094,9 @@
       <c r="H681" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I681" s="9"/>
+      <c r="I681" s="9">
+        <v>3</v>
+      </c>
       <c r="J681" s="10"/>
     </row>
     <row r="682" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2E4FE-CE81-4899-817D-6827A3CFB976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89189F17-FC42-408C-831E-421BD61E937C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="567">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2240,6 +2240,18 @@
   </si>
   <si>
     <t>下载更新农险项目从SVN，部署到eclipse中，安装配置weblogic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级增量服务器程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化整理查看部分规则反馈描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看启动农险程序中weblogic系统启动出错的原因</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2427,7 +2439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2492,6 +2504,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2779,7 +2794,7 @@
   <dimension ref="A1:J743"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="G676" sqref="G676"/>
+      <selection activeCell="G681" sqref="G681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -21960,7 +21975,9 @@
       <c r="F676" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G676" s="12"/>
+      <c r="G676" s="12" t="s">
+        <v>566</v>
+      </c>
       <c r="H676" s="8" t="s">
         <v>11</v>
       </c>
@@ -21986,7 +22003,9 @@
       <c r="F677" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G677" s="12"/>
+      <c r="G677" s="25" t="s">
+        <v>565</v>
+      </c>
       <c r="H677" s="8" t="s">
         <v>11</v>
       </c>
@@ -22012,7 +22031,9 @@
       <c r="F678" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G678" s="12"/>
+      <c r="G678" s="12" t="s">
+        <v>564</v>
+      </c>
       <c r="H678" s="8" t="s">
         <v>11</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89189F17-FC42-408C-831E-421BD61E937C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD831A4-8BD0-413F-9655-CEE2DB8D5514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="572">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2252,6 +2252,26 @@
   </si>
   <si>
     <t>查看启动农险程序中weblogic系统启动出错的原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探查第三批表间数据质量报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理汇合第三批表间数据质量报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和吕哥整理数据质量质量报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理数据质量报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2502,11 +2522,11 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2791,540 +2811,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J743"/>
+  <dimension ref="A1:J755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="G681" sqref="G681"/>
+    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="G742" sqref="G742"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="54.375" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.875" customWidth="1"/>
+    <col min="257" max="257" width="16.83203125" customWidth="1"/>
     <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.125" customWidth="1"/>
+    <col min="259" max="259" width="8.08203125" customWidth="1"/>
     <col min="260" max="260" width="9.25" customWidth="1"/>
     <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.875" customWidth="1"/>
-    <col min="263" max="263" width="54.375" customWidth="1"/>
+    <col min="262" max="262" width="9.83203125" customWidth="1"/>
+    <col min="263" max="263" width="54.33203125" customWidth="1"/>
     <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.875" customWidth="1"/>
+    <col min="513" max="513" width="16.83203125" customWidth="1"/>
     <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.125" customWidth="1"/>
+    <col min="515" max="515" width="8.08203125" customWidth="1"/>
     <col min="516" max="516" width="9.25" customWidth="1"/>
     <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.875" customWidth="1"/>
-    <col min="519" max="519" width="54.375" customWidth="1"/>
+    <col min="518" max="518" width="9.83203125" customWidth="1"/>
+    <col min="519" max="519" width="54.33203125" customWidth="1"/>
     <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.875" customWidth="1"/>
+    <col min="769" max="769" width="16.83203125" customWidth="1"/>
     <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.125" customWidth="1"/>
+    <col min="771" max="771" width="8.08203125" customWidth="1"/>
     <col min="772" max="772" width="9.25" customWidth="1"/>
     <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.875" customWidth="1"/>
-    <col min="775" max="775" width="54.375" customWidth="1"/>
+    <col min="774" max="774" width="9.83203125" customWidth="1"/>
+    <col min="775" max="775" width="54.33203125" customWidth="1"/>
     <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.875" customWidth="1"/>
+    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
     <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
     <col min="1028" max="1028" width="9.25" customWidth="1"/>
     <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.875" customWidth="1"/>
-    <col min="1031" max="1031" width="54.375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
+    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
     <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.875" customWidth="1"/>
+    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
     <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
     <col min="1284" max="1284" width="9.25" customWidth="1"/>
     <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.875" customWidth="1"/>
-    <col min="1287" max="1287" width="54.375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
+    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
     <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.875" customWidth="1"/>
+    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
     <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
     <col min="1540" max="1540" width="9.25" customWidth="1"/>
     <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.875" customWidth="1"/>
-    <col min="1543" max="1543" width="54.375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
+    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
     <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.875" customWidth="1"/>
+    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
     <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
     <col min="1796" max="1796" width="9.25" customWidth="1"/>
     <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.875" customWidth="1"/>
-    <col min="1799" max="1799" width="54.375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
+    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
     <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.875" customWidth="1"/>
+    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
     <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
     <col min="2052" max="2052" width="9.25" customWidth="1"/>
     <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.875" customWidth="1"/>
-    <col min="2055" max="2055" width="54.375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
+    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
     <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.875" customWidth="1"/>
+    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
     <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
     <col min="2308" max="2308" width="9.25" customWidth="1"/>
     <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.875" customWidth="1"/>
-    <col min="2311" max="2311" width="54.375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
+    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
     <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.875" customWidth="1"/>
+    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
     <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
     <col min="2564" max="2564" width="9.25" customWidth="1"/>
     <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.875" customWidth="1"/>
-    <col min="2567" max="2567" width="54.375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
+    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
     <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.875" customWidth="1"/>
+    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
     <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
     <col min="2820" max="2820" width="9.25" customWidth="1"/>
     <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.875" customWidth="1"/>
-    <col min="2823" max="2823" width="54.375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
+    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
     <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.875" customWidth="1"/>
+    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
     <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
     <col min="3076" max="3076" width="9.25" customWidth="1"/>
     <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.875" customWidth="1"/>
-    <col min="3079" max="3079" width="54.375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
+    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
     <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.875" customWidth="1"/>
+    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
     <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
     <col min="3332" max="3332" width="9.25" customWidth="1"/>
     <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.875" customWidth="1"/>
-    <col min="3335" max="3335" width="54.375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
+    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
     <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.875" customWidth="1"/>
+    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
     <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
     <col min="3588" max="3588" width="9.25" customWidth="1"/>
     <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.875" customWidth="1"/>
-    <col min="3591" max="3591" width="54.375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
+    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
     <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.875" customWidth="1"/>
+    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
     <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
     <col min="3844" max="3844" width="9.25" customWidth="1"/>
     <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.875" customWidth="1"/>
-    <col min="3847" max="3847" width="54.375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
+    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
     <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.875" customWidth="1"/>
+    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
     <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
     <col min="4100" max="4100" width="9.25" customWidth="1"/>
     <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.875" customWidth="1"/>
-    <col min="4103" max="4103" width="54.375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
+    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
     <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.875" customWidth="1"/>
+    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
     <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
     <col min="4356" max="4356" width="9.25" customWidth="1"/>
     <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.875" customWidth="1"/>
-    <col min="4359" max="4359" width="54.375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
+    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
     <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.875" customWidth="1"/>
+    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
     <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
     <col min="4612" max="4612" width="9.25" customWidth="1"/>
     <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.875" customWidth="1"/>
-    <col min="4615" max="4615" width="54.375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
+    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
     <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.875" customWidth="1"/>
+    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
     <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
     <col min="4868" max="4868" width="9.25" customWidth="1"/>
     <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.875" customWidth="1"/>
-    <col min="4871" max="4871" width="54.375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
+    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
     <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.875" customWidth="1"/>
+    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
     <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
     <col min="5124" max="5124" width="9.25" customWidth="1"/>
     <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.875" customWidth="1"/>
-    <col min="5127" max="5127" width="54.375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
+    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
     <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.875" customWidth="1"/>
+    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
     <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
     <col min="5380" max="5380" width="9.25" customWidth="1"/>
     <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.875" customWidth="1"/>
-    <col min="5383" max="5383" width="54.375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
+    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
     <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.875" customWidth="1"/>
+    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
     <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
     <col min="5636" max="5636" width="9.25" customWidth="1"/>
     <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.875" customWidth="1"/>
-    <col min="5639" max="5639" width="54.375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
+    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
     <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.875" customWidth="1"/>
+    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
     <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
     <col min="5892" max="5892" width="9.25" customWidth="1"/>
     <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.875" customWidth="1"/>
-    <col min="5895" max="5895" width="54.375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
+    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
     <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.875" customWidth="1"/>
+    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
     <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
     <col min="6148" max="6148" width="9.25" customWidth="1"/>
     <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.875" customWidth="1"/>
-    <col min="6151" max="6151" width="54.375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
+    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
     <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.875" customWidth="1"/>
+    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
     <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
     <col min="6404" max="6404" width="9.25" customWidth="1"/>
     <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.875" customWidth="1"/>
-    <col min="6407" max="6407" width="54.375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
+    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
     <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.875" customWidth="1"/>
+    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
     <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
     <col min="6660" max="6660" width="9.25" customWidth="1"/>
     <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.875" customWidth="1"/>
-    <col min="6663" max="6663" width="54.375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
+    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
     <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.875" customWidth="1"/>
+    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
     <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
     <col min="6916" max="6916" width="9.25" customWidth="1"/>
     <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.875" customWidth="1"/>
-    <col min="6919" max="6919" width="54.375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
+    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
     <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.875" customWidth="1"/>
+    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
     <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
     <col min="7172" max="7172" width="9.25" customWidth="1"/>
     <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.875" customWidth="1"/>
-    <col min="7175" max="7175" width="54.375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
+    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
     <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.875" customWidth="1"/>
+    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
     <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
     <col min="7428" max="7428" width="9.25" customWidth="1"/>
     <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.875" customWidth="1"/>
-    <col min="7431" max="7431" width="54.375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
+    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
     <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.875" customWidth="1"/>
+    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
     <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
     <col min="7684" max="7684" width="9.25" customWidth="1"/>
     <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.875" customWidth="1"/>
-    <col min="7687" max="7687" width="54.375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
+    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
     <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.875" customWidth="1"/>
+    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
     <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
     <col min="7940" max="7940" width="9.25" customWidth="1"/>
     <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.875" customWidth="1"/>
-    <col min="7943" max="7943" width="54.375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
+    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
     <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.875" customWidth="1"/>
+    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
     <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
     <col min="8196" max="8196" width="9.25" customWidth="1"/>
     <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.875" customWidth="1"/>
-    <col min="8199" max="8199" width="54.375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
+    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
     <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.875" customWidth="1"/>
+    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
     <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
     <col min="8452" max="8452" width="9.25" customWidth="1"/>
     <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.875" customWidth="1"/>
-    <col min="8455" max="8455" width="54.375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
+    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
     <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.875" customWidth="1"/>
+    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
     <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
     <col min="8708" max="8708" width="9.25" customWidth="1"/>
     <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.875" customWidth="1"/>
-    <col min="8711" max="8711" width="54.375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
+    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
     <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.875" customWidth="1"/>
+    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
     <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
     <col min="8964" max="8964" width="9.25" customWidth="1"/>
     <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.875" customWidth="1"/>
-    <col min="8967" max="8967" width="54.375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
+    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
     <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.875" customWidth="1"/>
+    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
     <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
     <col min="9220" max="9220" width="9.25" customWidth="1"/>
     <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.875" customWidth="1"/>
-    <col min="9223" max="9223" width="54.375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
+    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
     <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.875" customWidth="1"/>
+    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
     <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
     <col min="9476" max="9476" width="9.25" customWidth="1"/>
     <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.875" customWidth="1"/>
-    <col min="9479" max="9479" width="54.375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
+    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
     <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.875" customWidth="1"/>
+    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
     <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
     <col min="9732" max="9732" width="9.25" customWidth="1"/>
     <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.875" customWidth="1"/>
-    <col min="9735" max="9735" width="54.375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
+    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
     <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.875" customWidth="1"/>
+    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
     <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
     <col min="9988" max="9988" width="9.25" customWidth="1"/>
     <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.875" customWidth="1"/>
-    <col min="9991" max="9991" width="54.375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
+    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
     <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.875" customWidth="1"/>
+    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
     <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
     <col min="10244" max="10244" width="9.25" customWidth="1"/>
     <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.875" customWidth="1"/>
-    <col min="10247" max="10247" width="54.375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
+    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
     <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.875" customWidth="1"/>
+    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
     <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
     <col min="10500" max="10500" width="9.25" customWidth="1"/>
     <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.875" customWidth="1"/>
-    <col min="10503" max="10503" width="54.375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
+    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
     <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.875" customWidth="1"/>
+    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
     <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
     <col min="10756" max="10756" width="9.25" customWidth="1"/>
     <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.875" customWidth="1"/>
-    <col min="10759" max="10759" width="54.375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
+    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
     <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.875" customWidth="1"/>
+    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
     <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
     <col min="11012" max="11012" width="9.25" customWidth="1"/>
     <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.875" customWidth="1"/>
-    <col min="11015" max="11015" width="54.375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
+    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
     <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.875" customWidth="1"/>
+    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
     <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
     <col min="11268" max="11268" width="9.25" customWidth="1"/>
     <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.875" customWidth="1"/>
-    <col min="11271" max="11271" width="54.375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
+    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
     <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.875" customWidth="1"/>
+    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
     <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
     <col min="11524" max="11524" width="9.25" customWidth="1"/>
     <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.875" customWidth="1"/>
-    <col min="11527" max="11527" width="54.375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
+    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
     <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.875" customWidth="1"/>
+    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
     <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
     <col min="11780" max="11780" width="9.25" customWidth="1"/>
     <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.875" customWidth="1"/>
-    <col min="11783" max="11783" width="54.375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
+    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
     <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.875" customWidth="1"/>
+    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
     <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
     <col min="12036" max="12036" width="9.25" customWidth="1"/>
     <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.875" customWidth="1"/>
-    <col min="12039" max="12039" width="54.375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
+    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
     <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.875" customWidth="1"/>
+    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
     <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
     <col min="12292" max="12292" width="9.25" customWidth="1"/>
     <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.875" customWidth="1"/>
-    <col min="12295" max="12295" width="54.375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
+    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
     <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.875" customWidth="1"/>
+    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
     <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
     <col min="12548" max="12548" width="9.25" customWidth="1"/>
     <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.875" customWidth="1"/>
-    <col min="12551" max="12551" width="54.375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
+    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
     <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.875" customWidth="1"/>
+    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
     <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
     <col min="12804" max="12804" width="9.25" customWidth="1"/>
     <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.875" customWidth="1"/>
-    <col min="12807" max="12807" width="54.375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
+    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
     <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.875" customWidth="1"/>
+    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
     <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
     <col min="13060" max="13060" width="9.25" customWidth="1"/>
     <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.875" customWidth="1"/>
-    <col min="13063" max="13063" width="54.375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
+    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
     <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.875" customWidth="1"/>
+    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
     <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
     <col min="13316" max="13316" width="9.25" customWidth="1"/>
     <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.875" customWidth="1"/>
-    <col min="13319" max="13319" width="54.375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
+    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
     <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.875" customWidth="1"/>
+    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
     <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
     <col min="13572" max="13572" width="9.25" customWidth="1"/>
     <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.875" customWidth="1"/>
-    <col min="13575" max="13575" width="54.375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
+    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
     <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.875" customWidth="1"/>
+    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
     <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
     <col min="13828" max="13828" width="9.25" customWidth="1"/>
     <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.875" customWidth="1"/>
-    <col min="13831" max="13831" width="54.375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
+    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
     <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.875" customWidth="1"/>
+    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
     <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
     <col min="14084" max="14084" width="9.25" customWidth="1"/>
     <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.875" customWidth="1"/>
-    <col min="14087" max="14087" width="54.375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
+    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
     <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.875" customWidth="1"/>
+    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
     <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
     <col min="14340" max="14340" width="9.25" customWidth="1"/>
     <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.875" customWidth="1"/>
-    <col min="14343" max="14343" width="54.375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
+    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
     <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.875" customWidth="1"/>
+    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
     <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
     <col min="14596" max="14596" width="9.25" customWidth="1"/>
     <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.875" customWidth="1"/>
-    <col min="14599" max="14599" width="54.375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
+    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
     <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.875" customWidth="1"/>
+    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
     <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
     <col min="14852" max="14852" width="9.25" customWidth="1"/>
     <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.875" customWidth="1"/>
-    <col min="14855" max="14855" width="54.375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
+    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
     <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.875" customWidth="1"/>
+    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
     <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
     <col min="15108" max="15108" width="9.25" customWidth="1"/>
     <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.875" customWidth="1"/>
-    <col min="15111" max="15111" width="54.375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
+    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
     <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.875" customWidth="1"/>
+    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
     <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
     <col min="15364" max="15364" width="9.25" customWidth="1"/>
     <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.875" customWidth="1"/>
-    <col min="15367" max="15367" width="54.375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
+    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
     <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.875" customWidth="1"/>
+    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
     <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
     <col min="15620" max="15620" width="9.25" customWidth="1"/>
     <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.875" customWidth="1"/>
-    <col min="15623" max="15623" width="54.375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
+    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
     <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.875" customWidth="1"/>
+    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
     <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
     <col min="15876" max="15876" width="9.25" customWidth="1"/>
     <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.875" customWidth="1"/>
-    <col min="15879" max="15879" width="54.375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
+    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
     <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.875" customWidth="1"/>
+    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
     <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
     <col min="16132" max="16132" width="9.25" customWidth="1"/>
     <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.875" customWidth="1"/>
-    <col min="16135" max="16135" width="54.375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
+    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
     <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -22003,7 +22023,7 @@
       <c r="F677" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G677" s="25" t="s">
+      <c r="G677" s="24" t="s">
         <v>565</v>
       </c>
       <c r="H677" s="8" t="s">
@@ -22128,12 +22148,18 @@
       <c r="C682" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D682" s="15"/>
-      <c r="E682" s="15"/>
+      <c r="D682" s="15">
+        <v>43585</v>
+      </c>
+      <c r="E682" s="15">
+        <v>43585</v>
+      </c>
       <c r="F682" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G682" s="12"/>
+      <c r="G682" s="12" t="s">
+        <v>567</v>
+      </c>
       <c r="H682" s="8" t="s">
         <v>11</v>
       </c>
@@ -22141,42 +22167,26 @@
       <c r="J682" s="10"/>
     </row>
     <row r="683" spans="1:10">
-      <c r="A683" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A683" s="7"/>
       <c r="B683" s="5"/>
-      <c r="C683" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C683" s="8"/>
       <c r="D683" s="15"/>
       <c r="E683" s="15"/>
-      <c r="F683" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F683" s="13"/>
       <c r="G683" s="12"/>
-      <c r="H683" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H683" s="8"/>
       <c r="I683" s="9"/>
       <c r="J683" s="10"/>
     </row>
     <row r="684" spans="1:10">
-      <c r="A684" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A684" s="7"/>
       <c r="B684" s="5"/>
-      <c r="C684" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C684" s="8"/>
       <c r="D684" s="15"/>
       <c r="E684" s="15"/>
-      <c r="F684" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F684" s="13"/>
       <c r="G684" s="12"/>
-      <c r="H684" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H684" s="8"/>
       <c r="I684" s="9"/>
       <c r="J684" s="10"/>
     </row>
@@ -22188,8 +22198,12 @@
       <c r="C685" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D685" s="15"/>
-      <c r="E685" s="15"/>
+      <c r="D685" s="15">
+        <v>43590</v>
+      </c>
+      <c r="E685" s="15">
+        <v>43590</v>
+      </c>
       <c r="F685" s="13" t="s">
         <v>240</v>
       </c>
@@ -22208,8 +22222,12 @@
       <c r="C686" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D686" s="15"/>
-      <c r="E686" s="15"/>
+      <c r="D686" s="15">
+        <v>43590</v>
+      </c>
+      <c r="E686" s="15">
+        <v>43590</v>
+      </c>
       <c r="F686" s="13" t="s">
         <v>240</v>
       </c>
@@ -22228,8 +22246,12 @@
       <c r="C687" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D687" s="15"/>
-      <c r="E687" s="15"/>
+      <c r="D687" s="15">
+        <v>43590</v>
+      </c>
+      <c r="E687" s="15">
+        <v>43590</v>
+      </c>
       <c r="F687" s="13" t="s">
         <v>240</v>
       </c>
@@ -22248,8 +22270,12 @@
       <c r="C688" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D688" s="15"/>
-      <c r="E688" s="15"/>
+      <c r="D688" s="15">
+        <v>43591</v>
+      </c>
+      <c r="E688" s="15">
+        <v>43591</v>
+      </c>
       <c r="F688" s="13" t="s">
         <v>240</v>
       </c>
@@ -22268,8 +22294,12 @@
       <c r="C689" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D689" s="15"/>
-      <c r="E689" s="15"/>
+      <c r="D689" s="15">
+        <v>43591</v>
+      </c>
+      <c r="E689" s="15">
+        <v>43591</v>
+      </c>
       <c r="F689" s="13" t="s">
         <v>240</v>
       </c>
@@ -22288,8 +22318,12 @@
       <c r="C690" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D690" s="15"/>
-      <c r="E690" s="15"/>
+      <c r="D690" s="15">
+        <v>43591</v>
+      </c>
+      <c r="E690" s="15">
+        <v>43591</v>
+      </c>
       <c r="F690" s="13" t="s">
         <v>240</v>
       </c>
@@ -22308,8 +22342,12 @@
       <c r="C691" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D691" s="15"/>
-      <c r="E691" s="15"/>
+      <c r="D691" s="15">
+        <v>43592</v>
+      </c>
+      <c r="E691" s="15">
+        <v>43592</v>
+      </c>
       <c r="F691" s="13" t="s">
         <v>240</v>
       </c>
@@ -22328,8 +22366,12 @@
       <c r="C692" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D692" s="15"/>
-      <c r="E692" s="15"/>
+      <c r="D692" s="15">
+        <v>43592</v>
+      </c>
+      <c r="E692" s="15">
+        <v>43592</v>
+      </c>
       <c r="F692" s="13" t="s">
         <v>240</v>
       </c>
@@ -22348,8 +22390,12 @@
       <c r="C693" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D693" s="15"/>
-      <c r="E693" s="15"/>
+      <c r="D693" s="15">
+        <v>43592</v>
+      </c>
+      <c r="E693" s="15">
+        <v>43592</v>
+      </c>
       <c r="F693" s="13" t="s">
         <v>240</v>
       </c>
@@ -22368,8 +22414,12 @@
       <c r="C694" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D694" s="15"/>
-      <c r="E694" s="15"/>
+      <c r="D694" s="15">
+        <v>43593</v>
+      </c>
+      <c r="E694" s="15">
+        <v>43593</v>
+      </c>
       <c r="F694" s="13" t="s">
         <v>240</v>
       </c>
@@ -22388,8 +22438,12 @@
       <c r="C695" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D695" s="15"/>
-      <c r="E695" s="15"/>
+      <c r="D695" s="15">
+        <v>43593</v>
+      </c>
+      <c r="E695" s="15">
+        <v>43593</v>
+      </c>
       <c r="F695" s="13" t="s">
         <v>240</v>
       </c>
@@ -22408,8 +22462,12 @@
       <c r="C696" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D696" s="15"/>
-      <c r="E696" s="15"/>
+      <c r="D696" s="15">
+        <v>43593</v>
+      </c>
+      <c r="E696" s="15">
+        <v>43593</v>
+      </c>
       <c r="F696" s="13" t="s">
         <v>240</v>
       </c>
@@ -22428,8 +22486,12 @@
       <c r="C697" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D697" s="15"/>
-      <c r="E697" s="15"/>
+      <c r="D697" s="15">
+        <v>43594</v>
+      </c>
+      <c r="E697" s="15">
+        <v>43594</v>
+      </c>
       <c r="F697" s="13" t="s">
         <v>240</v>
       </c>
@@ -22448,8 +22510,12 @@
       <c r="C698" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D698" s="15"/>
-      <c r="E698" s="15"/>
+      <c r="D698" s="15">
+        <v>43594</v>
+      </c>
+      <c r="E698" s="15">
+        <v>43594</v>
+      </c>
       <c r="F698" s="13" t="s">
         <v>240</v>
       </c>
@@ -22468,8 +22534,12 @@
       <c r="C699" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D699" s="15"/>
-      <c r="E699" s="15"/>
+      <c r="D699" s="15">
+        <v>43594</v>
+      </c>
+      <c r="E699" s="15">
+        <v>43594</v>
+      </c>
       <c r="F699" s="13" t="s">
         <v>240</v>
       </c>
@@ -22488,8 +22558,12 @@
       <c r="C700" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D700" s="15"/>
-      <c r="E700" s="15"/>
+      <c r="D700" s="15">
+        <v>43595</v>
+      </c>
+      <c r="E700" s="15">
+        <v>43595</v>
+      </c>
       <c r="F700" s="13" t="s">
         <v>240</v>
       </c>
@@ -22508,8 +22582,12 @@
       <c r="C701" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D701" s="15"/>
-      <c r="E701" s="15"/>
+      <c r="D701" s="15">
+        <v>43595</v>
+      </c>
+      <c r="E701" s="15">
+        <v>43595</v>
+      </c>
       <c r="F701" s="13" t="s">
         <v>240</v>
       </c>
@@ -22528,8 +22606,12 @@
       <c r="C702" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D702" s="15"/>
-      <c r="E702" s="15"/>
+      <c r="D702" s="15">
+        <v>43595</v>
+      </c>
+      <c r="E702" s="15">
+        <v>43595</v>
+      </c>
       <c r="F702" s="13" t="s">
         <v>240</v>
       </c>
@@ -22541,42 +22623,26 @@
       <c r="J702" s="10"/>
     </row>
     <row r="703" spans="1:10">
-      <c r="A703" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A703" s="7"/>
       <c r="B703" s="5"/>
-      <c r="C703" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C703" s="8"/>
       <c r="D703" s="15"/>
       <c r="E703" s="15"/>
-      <c r="F703" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F703" s="13"/>
       <c r="G703" s="12"/>
-      <c r="H703" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H703" s="8"/>
       <c r="I703" s="9"/>
       <c r="J703" s="10"/>
     </row>
     <row r="704" spans="1:10">
-      <c r="A704" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A704" s="7"/>
       <c r="B704" s="5"/>
-      <c r="C704" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C704" s="8"/>
       <c r="D704" s="15"/>
       <c r="E704" s="15"/>
-      <c r="F704" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F704" s="13"/>
       <c r="G704" s="12"/>
-      <c r="H704" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H704" s="8"/>
       <c r="I704" s="9"/>
       <c r="J704" s="10"/>
     </row>
@@ -22588,8 +22654,12 @@
       <c r="C705" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D705" s="15"/>
-      <c r="E705" s="15"/>
+      <c r="D705" s="15">
+        <v>43598</v>
+      </c>
+      <c r="E705" s="15">
+        <v>43598</v>
+      </c>
       <c r="F705" s="13" t="s">
         <v>240</v>
       </c>
@@ -22608,8 +22678,12 @@
       <c r="C706" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D706" s="15"/>
-      <c r="E706" s="15"/>
+      <c r="D706" s="15">
+        <v>43599</v>
+      </c>
+      <c r="E706" s="15">
+        <v>43599</v>
+      </c>
       <c r="F706" s="13" t="s">
         <v>240</v>
       </c>
@@ -22628,8 +22702,12 @@
       <c r="C707" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D707" s="15"/>
-      <c r="E707" s="15"/>
+      <c r="D707" s="15">
+        <v>43600</v>
+      </c>
+      <c r="E707" s="15">
+        <v>43600</v>
+      </c>
       <c r="F707" s="13" t="s">
         <v>240</v>
       </c>
@@ -22648,8 +22726,12 @@
       <c r="C708" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D708" s="15"/>
-      <c r="E708" s="15"/>
+      <c r="D708" s="15">
+        <v>43601</v>
+      </c>
+      <c r="E708" s="15">
+        <v>43601</v>
+      </c>
       <c r="F708" s="13" t="s">
         <v>240</v>
       </c>
@@ -22668,8 +22750,12 @@
       <c r="C709" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D709" s="15"/>
-      <c r="E709" s="15"/>
+      <c r="D709" s="15">
+        <v>43602</v>
+      </c>
+      <c r="E709" s="15">
+        <v>43602</v>
+      </c>
       <c r="F709" s="13" t="s">
         <v>240</v>
       </c>
@@ -22681,42 +22767,26 @@
       <c r="J709" s="10"/>
     </row>
     <row r="710" spans="1:10">
-      <c r="A710" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A710" s="7"/>
       <c r="B710" s="5"/>
-      <c r="C710" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C710" s="8"/>
       <c r="D710" s="15"/>
       <c r="E710" s="15"/>
-      <c r="F710" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F710" s="13"/>
       <c r="G710" s="12"/>
-      <c r="H710" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H710" s="8"/>
       <c r="I710" s="9"/>
       <c r="J710" s="10"/>
     </row>
     <row r="711" spans="1:10">
-      <c r="A711" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A711" s="7"/>
       <c r="B711" s="5"/>
-      <c r="C711" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C711" s="8"/>
       <c r="D711" s="15"/>
       <c r="E711" s="15"/>
-      <c r="F711" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F711" s="13"/>
       <c r="G711" s="12"/>
-      <c r="H711" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H711" s="8"/>
       <c r="I711" s="9"/>
       <c r="J711" s="10"/>
     </row>
@@ -22728,8 +22798,12 @@
       <c r="C712" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D712" s="15"/>
-      <c r="E712" s="15"/>
+      <c r="D712" s="15">
+        <v>43605</v>
+      </c>
+      <c r="E712" s="15">
+        <v>43605</v>
+      </c>
       <c r="F712" s="13" t="s">
         <v>240</v>
       </c>
@@ -22748,8 +22822,12 @@
       <c r="C713" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D713" s="15"/>
-      <c r="E713" s="15"/>
+      <c r="D713" s="15">
+        <v>43606</v>
+      </c>
+      <c r="E713" s="15">
+        <v>43606</v>
+      </c>
       <c r="F713" s="13" t="s">
         <v>240</v>
       </c>
@@ -22768,8 +22846,12 @@
       <c r="C714" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D714" s="15"/>
-      <c r="E714" s="15"/>
+      <c r="D714" s="15">
+        <v>43607</v>
+      </c>
+      <c r="E714" s="15">
+        <v>43607</v>
+      </c>
       <c r="F714" s="13" t="s">
         <v>240</v>
       </c>
@@ -22788,8 +22870,12 @@
       <c r="C715" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D715" s="15"/>
-      <c r="E715" s="15"/>
+      <c r="D715" s="15">
+        <v>43608</v>
+      </c>
+      <c r="E715" s="15">
+        <v>43608</v>
+      </c>
       <c r="F715" s="13" t="s">
         <v>240</v>
       </c>
@@ -22808,8 +22894,12 @@
       <c r="C716" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D716" s="15"/>
-      <c r="E716" s="15"/>
+      <c r="D716" s="15">
+        <v>43609</v>
+      </c>
+      <c r="E716" s="15">
+        <v>43609</v>
+      </c>
       <c r="F716" s="13" t="s">
         <v>240</v>
       </c>
@@ -22821,42 +22911,26 @@
       <c r="J716" s="10"/>
     </row>
     <row r="717" spans="1:10">
-      <c r="A717" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A717" s="7"/>
       <c r="B717" s="5"/>
-      <c r="C717" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C717" s="8"/>
       <c r="D717" s="15"/>
       <c r="E717" s="15"/>
-      <c r="F717" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F717" s="13"/>
       <c r="G717" s="12"/>
-      <c r="H717" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H717" s="8"/>
       <c r="I717" s="9"/>
       <c r="J717" s="10"/>
     </row>
     <row r="718" spans="1:10">
-      <c r="A718" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A718" s="7"/>
       <c r="B718" s="5"/>
-      <c r="C718" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C718" s="8"/>
       <c r="D718" s="15"/>
       <c r="E718" s="15"/>
-      <c r="F718" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F718" s="13"/>
       <c r="G718" s="12"/>
-      <c r="H718" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H718" s="8"/>
       <c r="I718" s="9"/>
       <c r="J718" s="10"/>
     </row>
@@ -22868,8 +22942,12 @@
       <c r="C719" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D719" s="15"/>
-      <c r="E719" s="15"/>
+      <c r="D719" s="15">
+        <v>43612</v>
+      </c>
+      <c r="E719" s="15">
+        <v>43612</v>
+      </c>
       <c r="F719" s="13" t="s">
         <v>240</v>
       </c>
@@ -22888,8 +22966,12 @@
       <c r="C720" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D720" s="15"/>
-      <c r="E720" s="15"/>
+      <c r="D720" s="15">
+        <v>43613</v>
+      </c>
+      <c r="E720" s="15">
+        <v>43613</v>
+      </c>
       <c r="F720" s="13" t="s">
         <v>240</v>
       </c>
@@ -22908,8 +22990,12 @@
       <c r="C721" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D721" s="15"/>
-      <c r="E721" s="15"/>
+      <c r="D721" s="15">
+        <v>43614</v>
+      </c>
+      <c r="E721" s="15">
+        <v>43614</v>
+      </c>
       <c r="F721" s="13" t="s">
         <v>240</v>
       </c>
@@ -22928,8 +23014,12 @@
       <c r="C722" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D722" s="15"/>
-      <c r="E722" s="15"/>
+      <c r="D722" s="15">
+        <v>43615</v>
+      </c>
+      <c r="E722" s="15">
+        <v>43615</v>
+      </c>
       <c r="F722" s="13" t="s">
         <v>240</v>
       </c>
@@ -22948,8 +23038,12 @@
       <c r="C723" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D723" s="15"/>
-      <c r="E723" s="15"/>
+      <c r="D723" s="15">
+        <v>43616</v>
+      </c>
+      <c r="E723" s="15">
+        <v>43616</v>
+      </c>
       <c r="F723" s="13" t="s">
         <v>240</v>
       </c>
@@ -22961,42 +23055,26 @@
       <c r="J723" s="10"/>
     </row>
     <row r="724" spans="1:10">
-      <c r="A724" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A724" s="7"/>
       <c r="B724" s="5"/>
-      <c r="C724" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C724" s="8"/>
       <c r="D724" s="15"/>
       <c r="E724" s="15"/>
-      <c r="F724" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F724" s="13"/>
       <c r="G724" s="12"/>
-      <c r="H724" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H724" s="8"/>
       <c r="I724" s="9"/>
       <c r="J724" s="10"/>
     </row>
     <row r="725" spans="1:10">
-      <c r="A725" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A725" s="7"/>
       <c r="B725" s="5"/>
-      <c r="C725" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C725" s="8"/>
       <c r="D725" s="15"/>
       <c r="E725" s="15"/>
-      <c r="F725" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F725" s="13"/>
       <c r="G725" s="12"/>
-      <c r="H725" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H725" s="8"/>
       <c r="I725" s="9"/>
       <c r="J725" s="10"/>
     </row>
@@ -23008,8 +23086,12 @@
       <c r="C726" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D726" s="15"/>
-      <c r="E726" s="15"/>
+      <c r="D726" s="15">
+        <v>43619</v>
+      </c>
+      <c r="E726" s="15">
+        <v>43619</v>
+      </c>
       <c r="F726" s="13" t="s">
         <v>240</v>
       </c>
@@ -23028,8 +23110,12 @@
       <c r="C727" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D727" s="15"/>
-      <c r="E727" s="15"/>
+      <c r="D727" s="15">
+        <v>43620</v>
+      </c>
+      <c r="E727" s="15">
+        <v>43620</v>
+      </c>
       <c r="F727" s="13" t="s">
         <v>240</v>
       </c>
@@ -23048,8 +23134,12 @@
       <c r="C728" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D728" s="15"/>
-      <c r="E728" s="15"/>
+      <c r="D728" s="15">
+        <v>43621</v>
+      </c>
+      <c r="E728" s="15">
+        <v>43621</v>
+      </c>
       <c r="F728" s="13" t="s">
         <v>240</v>
       </c>
@@ -23068,8 +23158,12 @@
       <c r="C729" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D729" s="15"/>
-      <c r="E729" s="15"/>
+      <c r="D729" s="15">
+        <v>43622</v>
+      </c>
+      <c r="E729" s="15">
+        <v>43622</v>
+      </c>
       <c r="F729" s="13" t="s">
         <v>240</v>
       </c>
@@ -23081,62 +23175,38 @@
       <c r="J729" s="10"/>
     </row>
     <row r="730" spans="1:10">
-      <c r="A730" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A730" s="7"/>
       <c r="B730" s="5"/>
-      <c r="C730" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C730" s="8"/>
       <c r="D730" s="15"/>
       <c r="E730" s="15"/>
-      <c r="F730" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F730" s="13"/>
       <c r="G730" s="12"/>
-      <c r="H730" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H730" s="8"/>
       <c r="I730" s="9"/>
       <c r="J730" s="10"/>
     </row>
     <row r="731" spans="1:10">
-      <c r="A731" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A731" s="7"/>
       <c r="B731" s="5"/>
-      <c r="C731" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C731" s="8"/>
       <c r="D731" s="15"/>
       <c r="E731" s="15"/>
-      <c r="F731" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F731" s="13"/>
       <c r="G731" s="12"/>
-      <c r="H731" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H731" s="8"/>
       <c r="I731" s="9"/>
       <c r="J731" s="10"/>
     </row>
     <row r="732" spans="1:10">
-      <c r="A732" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A732" s="7"/>
       <c r="B732" s="5"/>
-      <c r="C732" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C732" s="8"/>
       <c r="D732" s="15"/>
       <c r="E732" s="15"/>
-      <c r="F732" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F732" s="13"/>
       <c r="G732" s="12"/>
-      <c r="H732" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H732" s="8"/>
       <c r="I732" s="9"/>
       <c r="J732" s="10"/>
     </row>
@@ -23148,8 +23218,12 @@
       <c r="C733" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D733" s="15"/>
-      <c r="E733" s="15"/>
+      <c r="D733" s="15">
+        <v>43626</v>
+      </c>
+      <c r="E733" s="15">
+        <v>43626</v>
+      </c>
       <c r="F733" s="13" t="s">
         <v>240</v>
       </c>
@@ -23168,8 +23242,12 @@
       <c r="C734" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D734" s="15"/>
-      <c r="E734" s="15"/>
+      <c r="D734" s="15">
+        <v>43627</v>
+      </c>
+      <c r="E734" s="15">
+        <v>43627</v>
+      </c>
       <c r="F734" s="13" t="s">
         <v>240</v>
       </c>
@@ -23188,8 +23266,12 @@
       <c r="C735" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D735" s="15"/>
-      <c r="E735" s="15"/>
+      <c r="D735" s="15">
+        <v>43628</v>
+      </c>
+      <c r="E735" s="15">
+        <v>43628</v>
+      </c>
       <c r="F735" s="13" t="s">
         <v>240</v>
       </c>
@@ -23208,8 +23290,12 @@
       <c r="C736" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D736" s="15"/>
-      <c r="E736" s="15"/>
+      <c r="D736" s="15">
+        <v>43629</v>
+      </c>
+      <c r="E736" s="15">
+        <v>43629</v>
+      </c>
       <c r="F736" s="13" t="s">
         <v>240</v>
       </c>
@@ -23228,8 +23314,12 @@
       <c r="C737" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D737" s="15"/>
-      <c r="E737" s="15"/>
+      <c r="D737" s="15">
+        <v>43630</v>
+      </c>
+      <c r="E737" s="15">
+        <v>43630</v>
+      </c>
       <c r="F737" s="13" t="s">
         <v>240</v>
       </c>
@@ -23241,62 +23331,38 @@
       <c r="J737" s="10"/>
     </row>
     <row r="738" spans="1:10">
-      <c r="A738" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A738" s="7"/>
       <c r="B738" s="5"/>
-      <c r="C738" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C738" s="8"/>
       <c r="D738" s="15"/>
       <c r="E738" s="15"/>
-      <c r="F738" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F738" s="13"/>
       <c r="G738" s="12"/>
-      <c r="H738" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H738" s="8"/>
       <c r="I738" s="9"/>
       <c r="J738" s="10"/>
     </row>
     <row r="739" spans="1:10">
-      <c r="A739" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A739" s="7"/>
       <c r="B739" s="5"/>
-      <c r="C739" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C739" s="8"/>
       <c r="D739" s="15"/>
       <c r="E739" s="15"/>
-      <c r="F739" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F739" s="13"/>
       <c r="G739" s="12"/>
-      <c r="H739" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H739" s="8"/>
       <c r="I739" s="9"/>
       <c r="J739" s="10"/>
     </row>
     <row r="740" spans="1:10">
-      <c r="A740" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A740" s="7"/>
       <c r="B740" s="5"/>
-      <c r="C740" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C740" s="8"/>
       <c r="D740" s="15"/>
       <c r="E740" s="15"/>
-      <c r="F740" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F740" s="13"/>
       <c r="G740" s="12"/>
-      <c r="H740" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H740" s="8"/>
       <c r="I740" s="9"/>
       <c r="J740" s="10"/>
     </row>
@@ -23308,12 +23374,18 @@
       <c r="C741" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D741" s="15"/>
-      <c r="E741" s="15"/>
+      <c r="D741" s="15">
+        <v>43633</v>
+      </c>
+      <c r="E741" s="15">
+        <v>43633</v>
+      </c>
       <c r="F741" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G741" s="12"/>
+      <c r="G741" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="H741" s="8" t="s">
         <v>11</v>
       </c>
@@ -23328,12 +23400,18 @@
       <c r="C742" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D742" s="15"/>
-      <c r="E742" s="15"/>
+      <c r="D742" s="15">
+        <v>43633</v>
+      </c>
+      <c r="E742" s="15">
+        <v>43633</v>
+      </c>
       <c r="F742" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G742" s="12"/>
+      <c r="G742" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="H742" s="8" t="s">
         <v>11</v>
       </c>
@@ -23348,17 +23426,317 @@
       <c r="C743" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D743" s="15"/>
-      <c r="E743" s="15"/>
+      <c r="D743" s="15">
+        <v>43633</v>
+      </c>
+      <c r="E743" s="15">
+        <v>43633</v>
+      </c>
       <c r="F743" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G743" s="12"/>
+      <c r="G743" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="H743" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I743" s="9"/>
       <c r="J743" s="10"/>
+    </row>
+    <row r="744" spans="1:10">
+      <c r="A744" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B744" s="5"/>
+      <c r="C744" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D744" s="15">
+        <v>43634</v>
+      </c>
+      <c r="E744" s="15">
+        <v>43634</v>
+      </c>
+      <c r="F744" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G744" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="H744" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I744" s="9"/>
+      <c r="J744" s="10"/>
+    </row>
+    <row r="745" spans="1:10">
+      <c r="A745" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B745" s="5"/>
+      <c r="C745" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D745" s="15">
+        <v>43634</v>
+      </c>
+      <c r="E745" s="15">
+        <v>43634</v>
+      </c>
+      <c r="F745" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G745" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="H745" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I745" s="9"/>
+      <c r="J745" s="10"/>
+    </row>
+    <row r="746" spans="1:10">
+      <c r="A746" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B746" s="5"/>
+      <c r="C746" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D746" s="15">
+        <v>43634</v>
+      </c>
+      <c r="E746" s="15">
+        <v>43634</v>
+      </c>
+      <c r="F746" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G746" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="H746" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I746" s="9"/>
+      <c r="J746" s="10"/>
+    </row>
+    <row r="747" spans="1:10">
+      <c r="A747" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B747" s="5"/>
+      <c r="C747" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D747" s="15">
+        <v>43635</v>
+      </c>
+      <c r="E747" s="15">
+        <v>43635</v>
+      </c>
+      <c r="F747" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G747" s="12"/>
+      <c r="H747" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I747" s="9"/>
+      <c r="J747" s="10"/>
+    </row>
+    <row r="748" spans="1:10">
+      <c r="A748" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B748" s="5"/>
+      <c r="C748" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D748" s="15">
+        <v>43635</v>
+      </c>
+      <c r="E748" s="15">
+        <v>43635</v>
+      </c>
+      <c r="F748" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G748" s="12"/>
+      <c r="H748" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I748" s="9"/>
+      <c r="J748" s="10"/>
+    </row>
+    <row r="749" spans="1:10">
+      <c r="A749" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B749" s="5"/>
+      <c r="C749" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D749" s="15">
+        <v>43635</v>
+      </c>
+      <c r="E749" s="15">
+        <v>43635</v>
+      </c>
+      <c r="F749" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G749" s="12"/>
+      <c r="H749" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I749" s="9"/>
+      <c r="J749" s="10"/>
+    </row>
+    <row r="750" spans="1:10">
+      <c r="A750" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B750" s="5"/>
+      <c r="C750" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D750" s="15">
+        <v>43636</v>
+      </c>
+      <c r="E750" s="15">
+        <v>43636</v>
+      </c>
+      <c r="F750" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G750" s="12"/>
+      <c r="H750" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I750" s="9"/>
+      <c r="J750" s="10"/>
+    </row>
+    <row r="751" spans="1:10">
+      <c r="A751" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B751" s="5"/>
+      <c r="C751" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D751" s="15">
+        <v>43636</v>
+      </c>
+      <c r="E751" s="15">
+        <v>43636</v>
+      </c>
+      <c r="F751" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G751" s="12"/>
+      <c r="H751" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I751" s="9"/>
+      <c r="J751" s="10"/>
+    </row>
+    <row r="752" spans="1:10">
+      <c r="A752" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B752" s="5"/>
+      <c r="C752" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D752" s="15">
+        <v>43636</v>
+      </c>
+      <c r="E752" s="15">
+        <v>43636</v>
+      </c>
+      <c r="F752" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G752" s="12"/>
+      <c r="H752" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I752" s="9"/>
+      <c r="J752" s="10"/>
+    </row>
+    <row r="753" spans="1:10">
+      <c r="A753" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B753" s="5"/>
+      <c r="C753" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D753" s="15">
+        <v>43637</v>
+      </c>
+      <c r="E753" s="15">
+        <v>43637</v>
+      </c>
+      <c r="F753" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G753" s="12"/>
+      <c r="H753" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I753" s="9"/>
+      <c r="J753" s="10"/>
+    </row>
+    <row r="754" spans="1:10">
+      <c r="A754" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B754" s="5"/>
+      <c r="C754" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D754" s="15">
+        <v>43637</v>
+      </c>
+      <c r="E754" s="15">
+        <v>43637</v>
+      </c>
+      <c r="F754" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G754" s="12"/>
+      <c r="H754" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I754" s="9"/>
+      <c r="J754" s="10"/>
+    </row>
+    <row r="755" spans="1:10">
+      <c r="A755" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B755" s="5"/>
+      <c r="C755" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D755" s="15">
+        <v>43637</v>
+      </c>
+      <c r="E755" s="15">
+        <v>43637</v>
+      </c>
+      <c r="F755" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G755" s="12"/>
+      <c r="H755" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I755" s="9"/>
+      <c r="J755" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23366,13 +23744,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131119:C131135 IY65583:IY65599 SU65583:SU65599 ACQ65583:ACQ65599 AMM65583:AMM65599 AWI65583:AWI65599 BGE65583:BGE65599 BQA65583:BQA65599 BZW65583:BZW65599 CJS65583:CJS65599 CTO65583:CTO65599 DDK65583:DDK65599 DNG65583:DNG65599 DXC65583:DXC65599 EGY65583:EGY65599 EQU65583:EQU65599 FAQ65583:FAQ65599 FKM65583:FKM65599 FUI65583:FUI65599 GEE65583:GEE65599 GOA65583:GOA65599 GXW65583:GXW65599 HHS65583:HHS65599 HRO65583:HRO65599 IBK65583:IBK65599 ILG65583:ILG65599 IVC65583:IVC65599 JEY65583:JEY65599 JOU65583:JOU65599 JYQ65583:JYQ65599 KIM65583:KIM65599 KSI65583:KSI65599 LCE65583:LCE65599 LMA65583:LMA65599 LVW65583:LVW65599 MFS65583:MFS65599 MPO65583:MPO65599 MZK65583:MZK65599 NJG65583:NJG65599 NTC65583:NTC65599 OCY65583:OCY65599 OMU65583:OMU65599 OWQ65583:OWQ65599 PGM65583:PGM65599 PQI65583:PQI65599 QAE65583:QAE65599 QKA65583:QKA65599 QTW65583:QTW65599 RDS65583:RDS65599 RNO65583:RNO65599 RXK65583:RXK65599 SHG65583:SHG65599 SRC65583:SRC65599 TAY65583:TAY65599 TKU65583:TKU65599 TUQ65583:TUQ65599 UEM65583:UEM65599 UOI65583:UOI65599 UYE65583:UYE65599 VIA65583:VIA65599 VRW65583:VRW65599 WBS65583:WBS65599 WLO65583:WLO65599 WVK65583:WVK65599 C196655:C196671 IY131119:IY131135 SU131119:SU131135 ACQ131119:ACQ131135 AMM131119:AMM131135 AWI131119:AWI131135 BGE131119:BGE131135 BQA131119:BQA131135 BZW131119:BZW131135 CJS131119:CJS131135 CTO131119:CTO131135 DDK131119:DDK131135 DNG131119:DNG131135 DXC131119:DXC131135 EGY131119:EGY131135 EQU131119:EQU131135 FAQ131119:FAQ131135 FKM131119:FKM131135 FUI131119:FUI131135 GEE131119:GEE131135 GOA131119:GOA131135 GXW131119:GXW131135 HHS131119:HHS131135 HRO131119:HRO131135 IBK131119:IBK131135 ILG131119:ILG131135 IVC131119:IVC131135 JEY131119:JEY131135 JOU131119:JOU131135 JYQ131119:JYQ131135 KIM131119:KIM131135 KSI131119:KSI131135 LCE131119:LCE131135 LMA131119:LMA131135 LVW131119:LVW131135 MFS131119:MFS131135 MPO131119:MPO131135 MZK131119:MZK131135 NJG131119:NJG131135 NTC131119:NTC131135 OCY131119:OCY131135 OMU131119:OMU131135 OWQ131119:OWQ131135 PGM131119:PGM131135 PQI131119:PQI131135 QAE131119:QAE131135 QKA131119:QKA131135 QTW131119:QTW131135 RDS131119:RDS131135 RNO131119:RNO131135 RXK131119:RXK131135 SHG131119:SHG131135 SRC131119:SRC131135 TAY131119:TAY131135 TKU131119:TKU131135 TUQ131119:TUQ131135 UEM131119:UEM131135 UOI131119:UOI131135 UYE131119:UYE131135 VIA131119:VIA131135 VRW131119:VRW131135 WBS131119:WBS131135 WLO131119:WLO131135 WVK131119:WVK131135 C262191:C262207 IY196655:IY196671 SU196655:SU196671 ACQ196655:ACQ196671 AMM196655:AMM196671 AWI196655:AWI196671 BGE196655:BGE196671 BQA196655:BQA196671 BZW196655:BZW196671 CJS196655:CJS196671 CTO196655:CTO196671 DDK196655:DDK196671 DNG196655:DNG196671 DXC196655:DXC196671 EGY196655:EGY196671 EQU196655:EQU196671 FAQ196655:FAQ196671 FKM196655:FKM196671 FUI196655:FUI196671 GEE196655:GEE196671 GOA196655:GOA196671 GXW196655:GXW196671 HHS196655:HHS196671 HRO196655:HRO196671 IBK196655:IBK196671 ILG196655:ILG196671 IVC196655:IVC196671 JEY196655:JEY196671 JOU196655:JOU196671 JYQ196655:JYQ196671 KIM196655:KIM196671 KSI196655:KSI196671 LCE196655:LCE196671 LMA196655:LMA196671 LVW196655:LVW196671 MFS196655:MFS196671 MPO196655:MPO196671 MZK196655:MZK196671 NJG196655:NJG196671 NTC196655:NTC196671 OCY196655:OCY196671 OMU196655:OMU196671 OWQ196655:OWQ196671 PGM196655:PGM196671 PQI196655:PQI196671 QAE196655:QAE196671 QKA196655:QKA196671 QTW196655:QTW196671 RDS196655:RDS196671 RNO196655:RNO196671 RXK196655:RXK196671 SHG196655:SHG196671 SRC196655:SRC196671 TAY196655:TAY196671 TKU196655:TKU196671 TUQ196655:TUQ196671 UEM196655:UEM196671 UOI196655:UOI196671 UYE196655:UYE196671 VIA196655:VIA196671 VRW196655:VRW196671 WBS196655:WBS196671 WLO196655:WLO196671 WVK196655:WVK196671 C327727:C327743 IY262191:IY262207 SU262191:SU262207 ACQ262191:ACQ262207 AMM262191:AMM262207 AWI262191:AWI262207 BGE262191:BGE262207 BQA262191:BQA262207 BZW262191:BZW262207 CJS262191:CJS262207 CTO262191:CTO262207 DDK262191:DDK262207 DNG262191:DNG262207 DXC262191:DXC262207 EGY262191:EGY262207 EQU262191:EQU262207 FAQ262191:FAQ262207 FKM262191:FKM262207 FUI262191:FUI262207 GEE262191:GEE262207 GOA262191:GOA262207 GXW262191:GXW262207 HHS262191:HHS262207 HRO262191:HRO262207 IBK262191:IBK262207 ILG262191:ILG262207 IVC262191:IVC262207 JEY262191:JEY262207 JOU262191:JOU262207 JYQ262191:JYQ262207 KIM262191:KIM262207 KSI262191:KSI262207 LCE262191:LCE262207 LMA262191:LMA262207 LVW262191:LVW262207 MFS262191:MFS262207 MPO262191:MPO262207 MZK262191:MZK262207 NJG262191:NJG262207 NTC262191:NTC262207 OCY262191:OCY262207 OMU262191:OMU262207 OWQ262191:OWQ262207 PGM262191:PGM262207 PQI262191:PQI262207 QAE262191:QAE262207 QKA262191:QKA262207 QTW262191:QTW262207 RDS262191:RDS262207 RNO262191:RNO262207 RXK262191:RXK262207 SHG262191:SHG262207 SRC262191:SRC262207 TAY262191:TAY262207 TKU262191:TKU262207 TUQ262191:TUQ262207 UEM262191:UEM262207 UOI262191:UOI262207 UYE262191:UYE262207 VIA262191:VIA262207 VRW262191:VRW262207 WBS262191:WBS262207 WLO262191:WLO262207 WVK262191:WVK262207 C393263:C393279 IY327727:IY327743 SU327727:SU327743 ACQ327727:ACQ327743 AMM327727:AMM327743 AWI327727:AWI327743 BGE327727:BGE327743 BQA327727:BQA327743 BZW327727:BZW327743 CJS327727:CJS327743 CTO327727:CTO327743 DDK327727:DDK327743 DNG327727:DNG327743 DXC327727:DXC327743 EGY327727:EGY327743 EQU327727:EQU327743 FAQ327727:FAQ327743 FKM327727:FKM327743 FUI327727:FUI327743 GEE327727:GEE327743 GOA327727:GOA327743 GXW327727:GXW327743 HHS327727:HHS327743 HRO327727:HRO327743 IBK327727:IBK327743 ILG327727:ILG327743 IVC327727:IVC327743 JEY327727:JEY327743 JOU327727:JOU327743 JYQ327727:JYQ327743 KIM327727:KIM327743 KSI327727:KSI327743 LCE327727:LCE327743 LMA327727:LMA327743 LVW327727:LVW327743 MFS327727:MFS327743 MPO327727:MPO327743 MZK327727:MZK327743 NJG327727:NJG327743 NTC327727:NTC327743 OCY327727:OCY327743 OMU327727:OMU327743 OWQ327727:OWQ327743 PGM327727:PGM327743 PQI327727:PQI327743 QAE327727:QAE327743 QKA327727:QKA327743 QTW327727:QTW327743 RDS327727:RDS327743 RNO327727:RNO327743 RXK327727:RXK327743 SHG327727:SHG327743 SRC327727:SRC327743 TAY327727:TAY327743 TKU327727:TKU327743 TUQ327727:TUQ327743 UEM327727:UEM327743 UOI327727:UOI327743 UYE327727:UYE327743 VIA327727:VIA327743 VRW327727:VRW327743 WBS327727:WBS327743 WLO327727:WLO327743 WVK327727:WVK327743 C458799:C458815 IY393263:IY393279 SU393263:SU393279 ACQ393263:ACQ393279 AMM393263:AMM393279 AWI393263:AWI393279 BGE393263:BGE393279 BQA393263:BQA393279 BZW393263:BZW393279 CJS393263:CJS393279 CTO393263:CTO393279 DDK393263:DDK393279 DNG393263:DNG393279 DXC393263:DXC393279 EGY393263:EGY393279 EQU393263:EQU393279 FAQ393263:FAQ393279 FKM393263:FKM393279 FUI393263:FUI393279 GEE393263:GEE393279 GOA393263:GOA393279 GXW393263:GXW393279 HHS393263:HHS393279 HRO393263:HRO393279 IBK393263:IBK393279 ILG393263:ILG393279 IVC393263:IVC393279 JEY393263:JEY393279 JOU393263:JOU393279 JYQ393263:JYQ393279 KIM393263:KIM393279 KSI393263:KSI393279 LCE393263:LCE393279 LMA393263:LMA393279 LVW393263:LVW393279 MFS393263:MFS393279 MPO393263:MPO393279 MZK393263:MZK393279 NJG393263:NJG393279 NTC393263:NTC393279 OCY393263:OCY393279 OMU393263:OMU393279 OWQ393263:OWQ393279 PGM393263:PGM393279 PQI393263:PQI393279 QAE393263:QAE393279 QKA393263:QKA393279 QTW393263:QTW393279 RDS393263:RDS393279 RNO393263:RNO393279 RXK393263:RXK393279 SHG393263:SHG393279 SRC393263:SRC393279 TAY393263:TAY393279 TKU393263:TKU393279 TUQ393263:TUQ393279 UEM393263:UEM393279 UOI393263:UOI393279 UYE393263:UYE393279 VIA393263:VIA393279 VRW393263:VRW393279 WBS393263:WBS393279 WLO393263:WLO393279 WVK393263:WVK393279 C524335:C524351 IY458799:IY458815 SU458799:SU458815 ACQ458799:ACQ458815 AMM458799:AMM458815 AWI458799:AWI458815 BGE458799:BGE458815 BQA458799:BQA458815 BZW458799:BZW458815 CJS458799:CJS458815 CTO458799:CTO458815 DDK458799:DDK458815 DNG458799:DNG458815 DXC458799:DXC458815 EGY458799:EGY458815 EQU458799:EQU458815 FAQ458799:FAQ458815 FKM458799:FKM458815 FUI458799:FUI458815 GEE458799:GEE458815 GOA458799:GOA458815 GXW458799:GXW458815 HHS458799:HHS458815 HRO458799:HRO458815 IBK458799:IBK458815 ILG458799:ILG458815 IVC458799:IVC458815 JEY458799:JEY458815 JOU458799:JOU458815 JYQ458799:JYQ458815 KIM458799:KIM458815 KSI458799:KSI458815 LCE458799:LCE458815 LMA458799:LMA458815 LVW458799:LVW458815 MFS458799:MFS458815 MPO458799:MPO458815 MZK458799:MZK458815 NJG458799:NJG458815 NTC458799:NTC458815 OCY458799:OCY458815 OMU458799:OMU458815 OWQ458799:OWQ458815 PGM458799:PGM458815 PQI458799:PQI458815 QAE458799:QAE458815 QKA458799:QKA458815 QTW458799:QTW458815 RDS458799:RDS458815 RNO458799:RNO458815 RXK458799:RXK458815 SHG458799:SHG458815 SRC458799:SRC458815 TAY458799:TAY458815 TKU458799:TKU458815 TUQ458799:TUQ458815 UEM458799:UEM458815 UOI458799:UOI458815 UYE458799:UYE458815 VIA458799:VIA458815 VRW458799:VRW458815 WBS458799:WBS458815 WLO458799:WLO458815 WVK458799:WVK458815 C589871:C589887 IY524335:IY524351 SU524335:SU524351 ACQ524335:ACQ524351 AMM524335:AMM524351 AWI524335:AWI524351 BGE524335:BGE524351 BQA524335:BQA524351 BZW524335:BZW524351 CJS524335:CJS524351 CTO524335:CTO524351 DDK524335:DDK524351 DNG524335:DNG524351 DXC524335:DXC524351 EGY524335:EGY524351 EQU524335:EQU524351 FAQ524335:FAQ524351 FKM524335:FKM524351 FUI524335:FUI524351 GEE524335:GEE524351 GOA524335:GOA524351 GXW524335:GXW524351 HHS524335:HHS524351 HRO524335:HRO524351 IBK524335:IBK524351 ILG524335:ILG524351 IVC524335:IVC524351 JEY524335:JEY524351 JOU524335:JOU524351 JYQ524335:JYQ524351 KIM524335:KIM524351 KSI524335:KSI524351 LCE524335:LCE524351 LMA524335:LMA524351 LVW524335:LVW524351 MFS524335:MFS524351 MPO524335:MPO524351 MZK524335:MZK524351 NJG524335:NJG524351 NTC524335:NTC524351 OCY524335:OCY524351 OMU524335:OMU524351 OWQ524335:OWQ524351 PGM524335:PGM524351 PQI524335:PQI524351 QAE524335:QAE524351 QKA524335:QKA524351 QTW524335:QTW524351 RDS524335:RDS524351 RNO524335:RNO524351 RXK524335:RXK524351 SHG524335:SHG524351 SRC524335:SRC524351 TAY524335:TAY524351 TKU524335:TKU524351 TUQ524335:TUQ524351 UEM524335:UEM524351 UOI524335:UOI524351 UYE524335:UYE524351 VIA524335:VIA524351 VRW524335:VRW524351 WBS524335:WBS524351 WLO524335:WLO524351 WVK524335:WVK524351 C655407:C655423 IY589871:IY589887 SU589871:SU589887 ACQ589871:ACQ589887 AMM589871:AMM589887 AWI589871:AWI589887 BGE589871:BGE589887 BQA589871:BQA589887 BZW589871:BZW589887 CJS589871:CJS589887 CTO589871:CTO589887 DDK589871:DDK589887 DNG589871:DNG589887 DXC589871:DXC589887 EGY589871:EGY589887 EQU589871:EQU589887 FAQ589871:FAQ589887 FKM589871:FKM589887 FUI589871:FUI589887 GEE589871:GEE589887 GOA589871:GOA589887 GXW589871:GXW589887 HHS589871:HHS589887 HRO589871:HRO589887 IBK589871:IBK589887 ILG589871:ILG589887 IVC589871:IVC589887 JEY589871:JEY589887 JOU589871:JOU589887 JYQ589871:JYQ589887 KIM589871:KIM589887 KSI589871:KSI589887 LCE589871:LCE589887 LMA589871:LMA589887 LVW589871:LVW589887 MFS589871:MFS589887 MPO589871:MPO589887 MZK589871:MZK589887 NJG589871:NJG589887 NTC589871:NTC589887 OCY589871:OCY589887 OMU589871:OMU589887 OWQ589871:OWQ589887 PGM589871:PGM589887 PQI589871:PQI589887 QAE589871:QAE589887 QKA589871:QKA589887 QTW589871:QTW589887 RDS589871:RDS589887 RNO589871:RNO589887 RXK589871:RXK589887 SHG589871:SHG589887 SRC589871:SRC589887 TAY589871:TAY589887 TKU589871:TKU589887 TUQ589871:TUQ589887 UEM589871:UEM589887 UOI589871:UOI589887 UYE589871:UYE589887 VIA589871:VIA589887 VRW589871:VRW589887 WBS589871:WBS589887 WLO589871:WLO589887 WVK589871:WVK589887 C720943:C720959 IY655407:IY655423 SU655407:SU655423 ACQ655407:ACQ655423 AMM655407:AMM655423 AWI655407:AWI655423 BGE655407:BGE655423 BQA655407:BQA655423 BZW655407:BZW655423 CJS655407:CJS655423 CTO655407:CTO655423 DDK655407:DDK655423 DNG655407:DNG655423 DXC655407:DXC655423 EGY655407:EGY655423 EQU655407:EQU655423 FAQ655407:FAQ655423 FKM655407:FKM655423 FUI655407:FUI655423 GEE655407:GEE655423 GOA655407:GOA655423 GXW655407:GXW655423 HHS655407:HHS655423 HRO655407:HRO655423 IBK655407:IBK655423 ILG655407:ILG655423 IVC655407:IVC655423 JEY655407:JEY655423 JOU655407:JOU655423 JYQ655407:JYQ655423 KIM655407:KIM655423 KSI655407:KSI655423 LCE655407:LCE655423 LMA655407:LMA655423 LVW655407:LVW655423 MFS655407:MFS655423 MPO655407:MPO655423 MZK655407:MZK655423 NJG655407:NJG655423 NTC655407:NTC655423 OCY655407:OCY655423 OMU655407:OMU655423 OWQ655407:OWQ655423 PGM655407:PGM655423 PQI655407:PQI655423 QAE655407:QAE655423 QKA655407:QKA655423 QTW655407:QTW655423 RDS655407:RDS655423 RNO655407:RNO655423 RXK655407:RXK655423 SHG655407:SHG655423 SRC655407:SRC655423 TAY655407:TAY655423 TKU655407:TKU655423 TUQ655407:TUQ655423 UEM655407:UEM655423 UOI655407:UOI655423 UYE655407:UYE655423 VIA655407:VIA655423 VRW655407:VRW655423 WBS655407:WBS655423 WLO655407:WLO655423 WVK655407:WVK655423 C786479:C786495 IY720943:IY720959 SU720943:SU720959 ACQ720943:ACQ720959 AMM720943:AMM720959 AWI720943:AWI720959 BGE720943:BGE720959 BQA720943:BQA720959 BZW720943:BZW720959 CJS720943:CJS720959 CTO720943:CTO720959 DDK720943:DDK720959 DNG720943:DNG720959 DXC720943:DXC720959 EGY720943:EGY720959 EQU720943:EQU720959 FAQ720943:FAQ720959 FKM720943:FKM720959 FUI720943:FUI720959 GEE720943:GEE720959 GOA720943:GOA720959 GXW720943:GXW720959 HHS720943:HHS720959 HRO720943:HRO720959 IBK720943:IBK720959 ILG720943:ILG720959 IVC720943:IVC720959 JEY720943:JEY720959 JOU720943:JOU720959 JYQ720943:JYQ720959 KIM720943:KIM720959 KSI720943:KSI720959 LCE720943:LCE720959 LMA720943:LMA720959 LVW720943:LVW720959 MFS720943:MFS720959 MPO720943:MPO720959 MZK720943:MZK720959 NJG720943:NJG720959 NTC720943:NTC720959 OCY720943:OCY720959 OMU720943:OMU720959 OWQ720943:OWQ720959 PGM720943:PGM720959 PQI720943:PQI720959 QAE720943:QAE720959 QKA720943:QKA720959 QTW720943:QTW720959 RDS720943:RDS720959 RNO720943:RNO720959 RXK720943:RXK720959 SHG720943:SHG720959 SRC720943:SRC720959 TAY720943:TAY720959 TKU720943:TKU720959 TUQ720943:TUQ720959 UEM720943:UEM720959 UOI720943:UOI720959 UYE720943:UYE720959 VIA720943:VIA720959 VRW720943:VRW720959 WBS720943:WBS720959 WLO720943:WLO720959 WVK720943:WVK720959 C852015:C852031 IY786479:IY786495 SU786479:SU786495 ACQ786479:ACQ786495 AMM786479:AMM786495 AWI786479:AWI786495 BGE786479:BGE786495 BQA786479:BQA786495 BZW786479:BZW786495 CJS786479:CJS786495 CTO786479:CTO786495 DDK786479:DDK786495 DNG786479:DNG786495 DXC786479:DXC786495 EGY786479:EGY786495 EQU786479:EQU786495 FAQ786479:FAQ786495 FKM786479:FKM786495 FUI786479:FUI786495 GEE786479:GEE786495 GOA786479:GOA786495 GXW786479:GXW786495 HHS786479:HHS786495 HRO786479:HRO786495 IBK786479:IBK786495 ILG786479:ILG786495 IVC786479:IVC786495 JEY786479:JEY786495 JOU786479:JOU786495 JYQ786479:JYQ786495 KIM786479:KIM786495 KSI786479:KSI786495 LCE786479:LCE786495 LMA786479:LMA786495 LVW786479:LVW786495 MFS786479:MFS786495 MPO786479:MPO786495 MZK786479:MZK786495 NJG786479:NJG786495 NTC786479:NTC786495 OCY786479:OCY786495 OMU786479:OMU786495 OWQ786479:OWQ786495 PGM786479:PGM786495 PQI786479:PQI786495 QAE786479:QAE786495 QKA786479:QKA786495 QTW786479:QTW786495 RDS786479:RDS786495 RNO786479:RNO786495 RXK786479:RXK786495 SHG786479:SHG786495 SRC786479:SRC786495 TAY786479:TAY786495 TKU786479:TKU786495 TUQ786479:TUQ786495 UEM786479:UEM786495 UOI786479:UOI786495 UYE786479:UYE786495 VIA786479:VIA786495 VRW786479:VRW786495 WBS786479:WBS786495 WLO786479:WLO786495 WVK786479:WVK786495 C917551:C917567 IY852015:IY852031 SU852015:SU852031 ACQ852015:ACQ852031 AMM852015:AMM852031 AWI852015:AWI852031 BGE852015:BGE852031 BQA852015:BQA852031 BZW852015:BZW852031 CJS852015:CJS852031 CTO852015:CTO852031 DDK852015:DDK852031 DNG852015:DNG852031 DXC852015:DXC852031 EGY852015:EGY852031 EQU852015:EQU852031 FAQ852015:FAQ852031 FKM852015:FKM852031 FUI852015:FUI852031 GEE852015:GEE852031 GOA852015:GOA852031 GXW852015:GXW852031 HHS852015:HHS852031 HRO852015:HRO852031 IBK852015:IBK852031 ILG852015:ILG852031 IVC852015:IVC852031 JEY852015:JEY852031 JOU852015:JOU852031 JYQ852015:JYQ852031 KIM852015:KIM852031 KSI852015:KSI852031 LCE852015:LCE852031 LMA852015:LMA852031 LVW852015:LVW852031 MFS852015:MFS852031 MPO852015:MPO852031 MZK852015:MZK852031 NJG852015:NJG852031 NTC852015:NTC852031 OCY852015:OCY852031 OMU852015:OMU852031 OWQ852015:OWQ852031 PGM852015:PGM852031 PQI852015:PQI852031 QAE852015:QAE852031 QKA852015:QKA852031 QTW852015:QTW852031 RDS852015:RDS852031 RNO852015:RNO852031 RXK852015:RXK852031 SHG852015:SHG852031 SRC852015:SRC852031 TAY852015:TAY852031 TKU852015:TKU852031 TUQ852015:TUQ852031 UEM852015:UEM852031 UOI852015:UOI852031 UYE852015:UYE852031 VIA852015:VIA852031 VRW852015:VRW852031 WBS852015:WBS852031 WLO852015:WLO852031 WVK852015:WVK852031 C983087:C983103 IY917551:IY917567 SU917551:SU917567 ACQ917551:ACQ917567 AMM917551:AMM917567 AWI917551:AWI917567 BGE917551:BGE917567 BQA917551:BQA917567 BZW917551:BZW917567 CJS917551:CJS917567 CTO917551:CTO917567 DDK917551:DDK917567 DNG917551:DNG917567 DXC917551:DXC917567 EGY917551:EGY917567 EQU917551:EQU917567 FAQ917551:FAQ917567 FKM917551:FKM917567 FUI917551:FUI917567 GEE917551:GEE917567 GOA917551:GOA917567 GXW917551:GXW917567 HHS917551:HHS917567 HRO917551:HRO917567 IBK917551:IBK917567 ILG917551:ILG917567 IVC917551:IVC917567 JEY917551:JEY917567 JOU917551:JOU917567 JYQ917551:JYQ917567 KIM917551:KIM917567 KSI917551:KSI917567 LCE917551:LCE917567 LMA917551:LMA917567 LVW917551:LVW917567 MFS917551:MFS917567 MPO917551:MPO917567 MZK917551:MZK917567 NJG917551:NJG917567 NTC917551:NTC917567 OCY917551:OCY917567 OMU917551:OMU917567 OWQ917551:OWQ917567 PGM917551:PGM917567 PQI917551:PQI917567 QAE917551:QAE917567 QKA917551:QKA917567 QTW917551:QTW917567 RDS917551:RDS917567 RNO917551:RNO917567 RXK917551:RXK917567 SHG917551:SHG917567 SRC917551:SRC917567 TAY917551:TAY917567 TKU917551:TKU917567 TUQ917551:TUQ917567 UEM917551:UEM917567 UOI917551:UOI917567 UYE917551:UYE917567 VIA917551:VIA917567 VRW917551:VRW917567 WBS917551:WBS917567 WLO917551:WLO917567 WVK917551:WVK917567 WVK983087:WVK983103 IY983087:IY983103 SU983087:SU983103 ACQ983087:ACQ983103 AMM983087:AMM983103 AWI983087:AWI983103 BGE983087:BGE983103 BQA983087:BQA983103 BZW983087:BZW983103 CJS983087:CJS983103 CTO983087:CTO983103 DDK983087:DDK983103 DNG983087:DNG983103 DXC983087:DXC983103 EGY983087:EGY983103 EQU983087:EQU983103 FAQ983087:FAQ983103 FKM983087:FKM983103 FUI983087:FUI983103 GEE983087:GEE983103 GOA983087:GOA983103 GXW983087:GXW983103 HHS983087:HHS983103 HRO983087:HRO983103 IBK983087:IBK983103 ILG983087:ILG983103 IVC983087:IVC983103 JEY983087:JEY983103 JOU983087:JOU983103 JYQ983087:JYQ983103 KIM983087:KIM983103 KSI983087:KSI983103 LCE983087:LCE983103 LMA983087:LMA983103 LVW983087:LVW983103 MFS983087:MFS983103 MPO983087:MPO983103 MZK983087:MZK983103 NJG983087:NJG983103 NTC983087:NTC983103 OCY983087:OCY983103 OMU983087:OMU983103 OWQ983087:OWQ983103 PGM983087:PGM983103 PQI983087:PQI983103 QAE983087:QAE983103 QKA983087:QKA983103 QTW983087:QTW983103 RDS983087:RDS983103 RNO983087:RNO983103 RXK983087:RXK983103 SHG983087:SHG983103 SRC983087:SRC983103 TAY983087:TAY983103 TKU983087:TKU983103 TUQ983087:TUQ983103 UEM983087:UEM983103 UOI983087:UOI983103 UYE983087:UYE983103 VIA983087:VIA983103 VRW983087:VRW983103 WBS983087:WBS983103 WLO983087:WLO983103 C65583:C65599" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131130:C131146 IY65594:IY65610 SU65594:SU65610 ACQ65594:ACQ65610 AMM65594:AMM65610 AWI65594:AWI65610 BGE65594:BGE65610 BQA65594:BQA65610 BZW65594:BZW65610 CJS65594:CJS65610 CTO65594:CTO65610 DDK65594:DDK65610 DNG65594:DNG65610 DXC65594:DXC65610 EGY65594:EGY65610 EQU65594:EQU65610 FAQ65594:FAQ65610 FKM65594:FKM65610 FUI65594:FUI65610 GEE65594:GEE65610 GOA65594:GOA65610 GXW65594:GXW65610 HHS65594:HHS65610 HRO65594:HRO65610 IBK65594:IBK65610 ILG65594:ILG65610 IVC65594:IVC65610 JEY65594:JEY65610 JOU65594:JOU65610 JYQ65594:JYQ65610 KIM65594:KIM65610 KSI65594:KSI65610 LCE65594:LCE65610 LMA65594:LMA65610 LVW65594:LVW65610 MFS65594:MFS65610 MPO65594:MPO65610 MZK65594:MZK65610 NJG65594:NJG65610 NTC65594:NTC65610 OCY65594:OCY65610 OMU65594:OMU65610 OWQ65594:OWQ65610 PGM65594:PGM65610 PQI65594:PQI65610 QAE65594:QAE65610 QKA65594:QKA65610 QTW65594:QTW65610 RDS65594:RDS65610 RNO65594:RNO65610 RXK65594:RXK65610 SHG65594:SHG65610 SRC65594:SRC65610 TAY65594:TAY65610 TKU65594:TKU65610 TUQ65594:TUQ65610 UEM65594:UEM65610 UOI65594:UOI65610 UYE65594:UYE65610 VIA65594:VIA65610 VRW65594:VRW65610 WBS65594:WBS65610 WLO65594:WLO65610 WVK65594:WVK65610 C196666:C196682 IY131130:IY131146 SU131130:SU131146 ACQ131130:ACQ131146 AMM131130:AMM131146 AWI131130:AWI131146 BGE131130:BGE131146 BQA131130:BQA131146 BZW131130:BZW131146 CJS131130:CJS131146 CTO131130:CTO131146 DDK131130:DDK131146 DNG131130:DNG131146 DXC131130:DXC131146 EGY131130:EGY131146 EQU131130:EQU131146 FAQ131130:FAQ131146 FKM131130:FKM131146 FUI131130:FUI131146 GEE131130:GEE131146 GOA131130:GOA131146 GXW131130:GXW131146 HHS131130:HHS131146 HRO131130:HRO131146 IBK131130:IBK131146 ILG131130:ILG131146 IVC131130:IVC131146 JEY131130:JEY131146 JOU131130:JOU131146 JYQ131130:JYQ131146 KIM131130:KIM131146 KSI131130:KSI131146 LCE131130:LCE131146 LMA131130:LMA131146 LVW131130:LVW131146 MFS131130:MFS131146 MPO131130:MPO131146 MZK131130:MZK131146 NJG131130:NJG131146 NTC131130:NTC131146 OCY131130:OCY131146 OMU131130:OMU131146 OWQ131130:OWQ131146 PGM131130:PGM131146 PQI131130:PQI131146 QAE131130:QAE131146 QKA131130:QKA131146 QTW131130:QTW131146 RDS131130:RDS131146 RNO131130:RNO131146 RXK131130:RXK131146 SHG131130:SHG131146 SRC131130:SRC131146 TAY131130:TAY131146 TKU131130:TKU131146 TUQ131130:TUQ131146 UEM131130:UEM131146 UOI131130:UOI131146 UYE131130:UYE131146 VIA131130:VIA131146 VRW131130:VRW131146 WBS131130:WBS131146 WLO131130:WLO131146 WVK131130:WVK131146 C262202:C262218 IY196666:IY196682 SU196666:SU196682 ACQ196666:ACQ196682 AMM196666:AMM196682 AWI196666:AWI196682 BGE196666:BGE196682 BQA196666:BQA196682 BZW196666:BZW196682 CJS196666:CJS196682 CTO196666:CTO196682 DDK196666:DDK196682 DNG196666:DNG196682 DXC196666:DXC196682 EGY196666:EGY196682 EQU196666:EQU196682 FAQ196666:FAQ196682 FKM196666:FKM196682 FUI196666:FUI196682 GEE196666:GEE196682 GOA196666:GOA196682 GXW196666:GXW196682 HHS196666:HHS196682 HRO196666:HRO196682 IBK196666:IBK196682 ILG196666:ILG196682 IVC196666:IVC196682 JEY196666:JEY196682 JOU196666:JOU196682 JYQ196666:JYQ196682 KIM196666:KIM196682 KSI196666:KSI196682 LCE196666:LCE196682 LMA196666:LMA196682 LVW196666:LVW196682 MFS196666:MFS196682 MPO196666:MPO196682 MZK196666:MZK196682 NJG196666:NJG196682 NTC196666:NTC196682 OCY196666:OCY196682 OMU196666:OMU196682 OWQ196666:OWQ196682 PGM196666:PGM196682 PQI196666:PQI196682 QAE196666:QAE196682 QKA196666:QKA196682 QTW196666:QTW196682 RDS196666:RDS196682 RNO196666:RNO196682 RXK196666:RXK196682 SHG196666:SHG196682 SRC196666:SRC196682 TAY196666:TAY196682 TKU196666:TKU196682 TUQ196666:TUQ196682 UEM196666:UEM196682 UOI196666:UOI196682 UYE196666:UYE196682 VIA196666:VIA196682 VRW196666:VRW196682 WBS196666:WBS196682 WLO196666:WLO196682 WVK196666:WVK196682 C327738:C327754 IY262202:IY262218 SU262202:SU262218 ACQ262202:ACQ262218 AMM262202:AMM262218 AWI262202:AWI262218 BGE262202:BGE262218 BQA262202:BQA262218 BZW262202:BZW262218 CJS262202:CJS262218 CTO262202:CTO262218 DDK262202:DDK262218 DNG262202:DNG262218 DXC262202:DXC262218 EGY262202:EGY262218 EQU262202:EQU262218 FAQ262202:FAQ262218 FKM262202:FKM262218 FUI262202:FUI262218 GEE262202:GEE262218 GOA262202:GOA262218 GXW262202:GXW262218 HHS262202:HHS262218 HRO262202:HRO262218 IBK262202:IBK262218 ILG262202:ILG262218 IVC262202:IVC262218 JEY262202:JEY262218 JOU262202:JOU262218 JYQ262202:JYQ262218 KIM262202:KIM262218 KSI262202:KSI262218 LCE262202:LCE262218 LMA262202:LMA262218 LVW262202:LVW262218 MFS262202:MFS262218 MPO262202:MPO262218 MZK262202:MZK262218 NJG262202:NJG262218 NTC262202:NTC262218 OCY262202:OCY262218 OMU262202:OMU262218 OWQ262202:OWQ262218 PGM262202:PGM262218 PQI262202:PQI262218 QAE262202:QAE262218 QKA262202:QKA262218 QTW262202:QTW262218 RDS262202:RDS262218 RNO262202:RNO262218 RXK262202:RXK262218 SHG262202:SHG262218 SRC262202:SRC262218 TAY262202:TAY262218 TKU262202:TKU262218 TUQ262202:TUQ262218 UEM262202:UEM262218 UOI262202:UOI262218 UYE262202:UYE262218 VIA262202:VIA262218 VRW262202:VRW262218 WBS262202:WBS262218 WLO262202:WLO262218 WVK262202:WVK262218 C393274:C393290 IY327738:IY327754 SU327738:SU327754 ACQ327738:ACQ327754 AMM327738:AMM327754 AWI327738:AWI327754 BGE327738:BGE327754 BQA327738:BQA327754 BZW327738:BZW327754 CJS327738:CJS327754 CTO327738:CTO327754 DDK327738:DDK327754 DNG327738:DNG327754 DXC327738:DXC327754 EGY327738:EGY327754 EQU327738:EQU327754 FAQ327738:FAQ327754 FKM327738:FKM327754 FUI327738:FUI327754 GEE327738:GEE327754 GOA327738:GOA327754 GXW327738:GXW327754 HHS327738:HHS327754 HRO327738:HRO327754 IBK327738:IBK327754 ILG327738:ILG327754 IVC327738:IVC327754 JEY327738:JEY327754 JOU327738:JOU327754 JYQ327738:JYQ327754 KIM327738:KIM327754 KSI327738:KSI327754 LCE327738:LCE327754 LMA327738:LMA327754 LVW327738:LVW327754 MFS327738:MFS327754 MPO327738:MPO327754 MZK327738:MZK327754 NJG327738:NJG327754 NTC327738:NTC327754 OCY327738:OCY327754 OMU327738:OMU327754 OWQ327738:OWQ327754 PGM327738:PGM327754 PQI327738:PQI327754 QAE327738:QAE327754 QKA327738:QKA327754 QTW327738:QTW327754 RDS327738:RDS327754 RNO327738:RNO327754 RXK327738:RXK327754 SHG327738:SHG327754 SRC327738:SRC327754 TAY327738:TAY327754 TKU327738:TKU327754 TUQ327738:TUQ327754 UEM327738:UEM327754 UOI327738:UOI327754 UYE327738:UYE327754 VIA327738:VIA327754 VRW327738:VRW327754 WBS327738:WBS327754 WLO327738:WLO327754 WVK327738:WVK327754 C458810:C458826 IY393274:IY393290 SU393274:SU393290 ACQ393274:ACQ393290 AMM393274:AMM393290 AWI393274:AWI393290 BGE393274:BGE393290 BQA393274:BQA393290 BZW393274:BZW393290 CJS393274:CJS393290 CTO393274:CTO393290 DDK393274:DDK393290 DNG393274:DNG393290 DXC393274:DXC393290 EGY393274:EGY393290 EQU393274:EQU393290 FAQ393274:FAQ393290 FKM393274:FKM393290 FUI393274:FUI393290 GEE393274:GEE393290 GOA393274:GOA393290 GXW393274:GXW393290 HHS393274:HHS393290 HRO393274:HRO393290 IBK393274:IBK393290 ILG393274:ILG393290 IVC393274:IVC393290 JEY393274:JEY393290 JOU393274:JOU393290 JYQ393274:JYQ393290 KIM393274:KIM393290 KSI393274:KSI393290 LCE393274:LCE393290 LMA393274:LMA393290 LVW393274:LVW393290 MFS393274:MFS393290 MPO393274:MPO393290 MZK393274:MZK393290 NJG393274:NJG393290 NTC393274:NTC393290 OCY393274:OCY393290 OMU393274:OMU393290 OWQ393274:OWQ393290 PGM393274:PGM393290 PQI393274:PQI393290 QAE393274:QAE393290 QKA393274:QKA393290 QTW393274:QTW393290 RDS393274:RDS393290 RNO393274:RNO393290 RXK393274:RXK393290 SHG393274:SHG393290 SRC393274:SRC393290 TAY393274:TAY393290 TKU393274:TKU393290 TUQ393274:TUQ393290 UEM393274:UEM393290 UOI393274:UOI393290 UYE393274:UYE393290 VIA393274:VIA393290 VRW393274:VRW393290 WBS393274:WBS393290 WLO393274:WLO393290 WVK393274:WVK393290 C524346:C524362 IY458810:IY458826 SU458810:SU458826 ACQ458810:ACQ458826 AMM458810:AMM458826 AWI458810:AWI458826 BGE458810:BGE458826 BQA458810:BQA458826 BZW458810:BZW458826 CJS458810:CJS458826 CTO458810:CTO458826 DDK458810:DDK458826 DNG458810:DNG458826 DXC458810:DXC458826 EGY458810:EGY458826 EQU458810:EQU458826 FAQ458810:FAQ458826 FKM458810:FKM458826 FUI458810:FUI458826 GEE458810:GEE458826 GOA458810:GOA458826 GXW458810:GXW458826 HHS458810:HHS458826 HRO458810:HRO458826 IBK458810:IBK458826 ILG458810:ILG458826 IVC458810:IVC458826 JEY458810:JEY458826 JOU458810:JOU458826 JYQ458810:JYQ458826 KIM458810:KIM458826 KSI458810:KSI458826 LCE458810:LCE458826 LMA458810:LMA458826 LVW458810:LVW458826 MFS458810:MFS458826 MPO458810:MPO458826 MZK458810:MZK458826 NJG458810:NJG458826 NTC458810:NTC458826 OCY458810:OCY458826 OMU458810:OMU458826 OWQ458810:OWQ458826 PGM458810:PGM458826 PQI458810:PQI458826 QAE458810:QAE458826 QKA458810:QKA458826 QTW458810:QTW458826 RDS458810:RDS458826 RNO458810:RNO458826 RXK458810:RXK458826 SHG458810:SHG458826 SRC458810:SRC458826 TAY458810:TAY458826 TKU458810:TKU458826 TUQ458810:TUQ458826 UEM458810:UEM458826 UOI458810:UOI458826 UYE458810:UYE458826 VIA458810:VIA458826 VRW458810:VRW458826 WBS458810:WBS458826 WLO458810:WLO458826 WVK458810:WVK458826 C589882:C589898 IY524346:IY524362 SU524346:SU524362 ACQ524346:ACQ524362 AMM524346:AMM524362 AWI524346:AWI524362 BGE524346:BGE524362 BQA524346:BQA524362 BZW524346:BZW524362 CJS524346:CJS524362 CTO524346:CTO524362 DDK524346:DDK524362 DNG524346:DNG524362 DXC524346:DXC524362 EGY524346:EGY524362 EQU524346:EQU524362 FAQ524346:FAQ524362 FKM524346:FKM524362 FUI524346:FUI524362 GEE524346:GEE524362 GOA524346:GOA524362 GXW524346:GXW524362 HHS524346:HHS524362 HRO524346:HRO524362 IBK524346:IBK524362 ILG524346:ILG524362 IVC524346:IVC524362 JEY524346:JEY524362 JOU524346:JOU524362 JYQ524346:JYQ524362 KIM524346:KIM524362 KSI524346:KSI524362 LCE524346:LCE524362 LMA524346:LMA524362 LVW524346:LVW524362 MFS524346:MFS524362 MPO524346:MPO524362 MZK524346:MZK524362 NJG524346:NJG524362 NTC524346:NTC524362 OCY524346:OCY524362 OMU524346:OMU524362 OWQ524346:OWQ524362 PGM524346:PGM524362 PQI524346:PQI524362 QAE524346:QAE524362 QKA524346:QKA524362 QTW524346:QTW524362 RDS524346:RDS524362 RNO524346:RNO524362 RXK524346:RXK524362 SHG524346:SHG524362 SRC524346:SRC524362 TAY524346:TAY524362 TKU524346:TKU524362 TUQ524346:TUQ524362 UEM524346:UEM524362 UOI524346:UOI524362 UYE524346:UYE524362 VIA524346:VIA524362 VRW524346:VRW524362 WBS524346:WBS524362 WLO524346:WLO524362 WVK524346:WVK524362 C655418:C655434 IY589882:IY589898 SU589882:SU589898 ACQ589882:ACQ589898 AMM589882:AMM589898 AWI589882:AWI589898 BGE589882:BGE589898 BQA589882:BQA589898 BZW589882:BZW589898 CJS589882:CJS589898 CTO589882:CTO589898 DDK589882:DDK589898 DNG589882:DNG589898 DXC589882:DXC589898 EGY589882:EGY589898 EQU589882:EQU589898 FAQ589882:FAQ589898 FKM589882:FKM589898 FUI589882:FUI589898 GEE589882:GEE589898 GOA589882:GOA589898 GXW589882:GXW589898 HHS589882:HHS589898 HRO589882:HRO589898 IBK589882:IBK589898 ILG589882:ILG589898 IVC589882:IVC589898 JEY589882:JEY589898 JOU589882:JOU589898 JYQ589882:JYQ589898 KIM589882:KIM589898 KSI589882:KSI589898 LCE589882:LCE589898 LMA589882:LMA589898 LVW589882:LVW589898 MFS589882:MFS589898 MPO589882:MPO589898 MZK589882:MZK589898 NJG589882:NJG589898 NTC589882:NTC589898 OCY589882:OCY589898 OMU589882:OMU589898 OWQ589882:OWQ589898 PGM589882:PGM589898 PQI589882:PQI589898 QAE589882:QAE589898 QKA589882:QKA589898 QTW589882:QTW589898 RDS589882:RDS589898 RNO589882:RNO589898 RXK589882:RXK589898 SHG589882:SHG589898 SRC589882:SRC589898 TAY589882:TAY589898 TKU589882:TKU589898 TUQ589882:TUQ589898 UEM589882:UEM589898 UOI589882:UOI589898 UYE589882:UYE589898 VIA589882:VIA589898 VRW589882:VRW589898 WBS589882:WBS589898 WLO589882:WLO589898 WVK589882:WVK589898 C720954:C720970 IY655418:IY655434 SU655418:SU655434 ACQ655418:ACQ655434 AMM655418:AMM655434 AWI655418:AWI655434 BGE655418:BGE655434 BQA655418:BQA655434 BZW655418:BZW655434 CJS655418:CJS655434 CTO655418:CTO655434 DDK655418:DDK655434 DNG655418:DNG655434 DXC655418:DXC655434 EGY655418:EGY655434 EQU655418:EQU655434 FAQ655418:FAQ655434 FKM655418:FKM655434 FUI655418:FUI655434 GEE655418:GEE655434 GOA655418:GOA655434 GXW655418:GXW655434 HHS655418:HHS655434 HRO655418:HRO655434 IBK655418:IBK655434 ILG655418:ILG655434 IVC655418:IVC655434 JEY655418:JEY655434 JOU655418:JOU655434 JYQ655418:JYQ655434 KIM655418:KIM655434 KSI655418:KSI655434 LCE655418:LCE655434 LMA655418:LMA655434 LVW655418:LVW655434 MFS655418:MFS655434 MPO655418:MPO655434 MZK655418:MZK655434 NJG655418:NJG655434 NTC655418:NTC655434 OCY655418:OCY655434 OMU655418:OMU655434 OWQ655418:OWQ655434 PGM655418:PGM655434 PQI655418:PQI655434 QAE655418:QAE655434 QKA655418:QKA655434 QTW655418:QTW655434 RDS655418:RDS655434 RNO655418:RNO655434 RXK655418:RXK655434 SHG655418:SHG655434 SRC655418:SRC655434 TAY655418:TAY655434 TKU655418:TKU655434 TUQ655418:TUQ655434 UEM655418:UEM655434 UOI655418:UOI655434 UYE655418:UYE655434 VIA655418:VIA655434 VRW655418:VRW655434 WBS655418:WBS655434 WLO655418:WLO655434 WVK655418:WVK655434 C786490:C786506 IY720954:IY720970 SU720954:SU720970 ACQ720954:ACQ720970 AMM720954:AMM720970 AWI720954:AWI720970 BGE720954:BGE720970 BQA720954:BQA720970 BZW720954:BZW720970 CJS720954:CJS720970 CTO720954:CTO720970 DDK720954:DDK720970 DNG720954:DNG720970 DXC720954:DXC720970 EGY720954:EGY720970 EQU720954:EQU720970 FAQ720954:FAQ720970 FKM720954:FKM720970 FUI720954:FUI720970 GEE720954:GEE720970 GOA720954:GOA720970 GXW720954:GXW720970 HHS720954:HHS720970 HRO720954:HRO720970 IBK720954:IBK720970 ILG720954:ILG720970 IVC720954:IVC720970 JEY720954:JEY720970 JOU720954:JOU720970 JYQ720954:JYQ720970 KIM720954:KIM720970 KSI720954:KSI720970 LCE720954:LCE720970 LMA720954:LMA720970 LVW720954:LVW720970 MFS720954:MFS720970 MPO720954:MPO720970 MZK720954:MZK720970 NJG720954:NJG720970 NTC720954:NTC720970 OCY720954:OCY720970 OMU720954:OMU720970 OWQ720954:OWQ720970 PGM720954:PGM720970 PQI720954:PQI720970 QAE720954:QAE720970 QKA720954:QKA720970 QTW720954:QTW720970 RDS720954:RDS720970 RNO720954:RNO720970 RXK720954:RXK720970 SHG720954:SHG720970 SRC720954:SRC720970 TAY720954:TAY720970 TKU720954:TKU720970 TUQ720954:TUQ720970 UEM720954:UEM720970 UOI720954:UOI720970 UYE720954:UYE720970 VIA720954:VIA720970 VRW720954:VRW720970 WBS720954:WBS720970 WLO720954:WLO720970 WVK720954:WVK720970 C852026:C852042 IY786490:IY786506 SU786490:SU786506 ACQ786490:ACQ786506 AMM786490:AMM786506 AWI786490:AWI786506 BGE786490:BGE786506 BQA786490:BQA786506 BZW786490:BZW786506 CJS786490:CJS786506 CTO786490:CTO786506 DDK786490:DDK786506 DNG786490:DNG786506 DXC786490:DXC786506 EGY786490:EGY786506 EQU786490:EQU786506 FAQ786490:FAQ786506 FKM786490:FKM786506 FUI786490:FUI786506 GEE786490:GEE786506 GOA786490:GOA786506 GXW786490:GXW786506 HHS786490:HHS786506 HRO786490:HRO786506 IBK786490:IBK786506 ILG786490:ILG786506 IVC786490:IVC786506 JEY786490:JEY786506 JOU786490:JOU786506 JYQ786490:JYQ786506 KIM786490:KIM786506 KSI786490:KSI786506 LCE786490:LCE786506 LMA786490:LMA786506 LVW786490:LVW786506 MFS786490:MFS786506 MPO786490:MPO786506 MZK786490:MZK786506 NJG786490:NJG786506 NTC786490:NTC786506 OCY786490:OCY786506 OMU786490:OMU786506 OWQ786490:OWQ786506 PGM786490:PGM786506 PQI786490:PQI786506 QAE786490:QAE786506 QKA786490:QKA786506 QTW786490:QTW786506 RDS786490:RDS786506 RNO786490:RNO786506 RXK786490:RXK786506 SHG786490:SHG786506 SRC786490:SRC786506 TAY786490:TAY786506 TKU786490:TKU786506 TUQ786490:TUQ786506 UEM786490:UEM786506 UOI786490:UOI786506 UYE786490:UYE786506 VIA786490:VIA786506 VRW786490:VRW786506 WBS786490:WBS786506 WLO786490:WLO786506 WVK786490:WVK786506 C917562:C917578 IY852026:IY852042 SU852026:SU852042 ACQ852026:ACQ852042 AMM852026:AMM852042 AWI852026:AWI852042 BGE852026:BGE852042 BQA852026:BQA852042 BZW852026:BZW852042 CJS852026:CJS852042 CTO852026:CTO852042 DDK852026:DDK852042 DNG852026:DNG852042 DXC852026:DXC852042 EGY852026:EGY852042 EQU852026:EQU852042 FAQ852026:FAQ852042 FKM852026:FKM852042 FUI852026:FUI852042 GEE852026:GEE852042 GOA852026:GOA852042 GXW852026:GXW852042 HHS852026:HHS852042 HRO852026:HRO852042 IBK852026:IBK852042 ILG852026:ILG852042 IVC852026:IVC852042 JEY852026:JEY852042 JOU852026:JOU852042 JYQ852026:JYQ852042 KIM852026:KIM852042 KSI852026:KSI852042 LCE852026:LCE852042 LMA852026:LMA852042 LVW852026:LVW852042 MFS852026:MFS852042 MPO852026:MPO852042 MZK852026:MZK852042 NJG852026:NJG852042 NTC852026:NTC852042 OCY852026:OCY852042 OMU852026:OMU852042 OWQ852026:OWQ852042 PGM852026:PGM852042 PQI852026:PQI852042 QAE852026:QAE852042 QKA852026:QKA852042 QTW852026:QTW852042 RDS852026:RDS852042 RNO852026:RNO852042 RXK852026:RXK852042 SHG852026:SHG852042 SRC852026:SRC852042 TAY852026:TAY852042 TKU852026:TKU852042 TUQ852026:TUQ852042 UEM852026:UEM852042 UOI852026:UOI852042 UYE852026:UYE852042 VIA852026:VIA852042 VRW852026:VRW852042 WBS852026:WBS852042 WLO852026:WLO852042 WVK852026:WVK852042 C983098:C983114 IY917562:IY917578 SU917562:SU917578 ACQ917562:ACQ917578 AMM917562:AMM917578 AWI917562:AWI917578 BGE917562:BGE917578 BQA917562:BQA917578 BZW917562:BZW917578 CJS917562:CJS917578 CTO917562:CTO917578 DDK917562:DDK917578 DNG917562:DNG917578 DXC917562:DXC917578 EGY917562:EGY917578 EQU917562:EQU917578 FAQ917562:FAQ917578 FKM917562:FKM917578 FUI917562:FUI917578 GEE917562:GEE917578 GOA917562:GOA917578 GXW917562:GXW917578 HHS917562:HHS917578 HRO917562:HRO917578 IBK917562:IBK917578 ILG917562:ILG917578 IVC917562:IVC917578 JEY917562:JEY917578 JOU917562:JOU917578 JYQ917562:JYQ917578 KIM917562:KIM917578 KSI917562:KSI917578 LCE917562:LCE917578 LMA917562:LMA917578 LVW917562:LVW917578 MFS917562:MFS917578 MPO917562:MPO917578 MZK917562:MZK917578 NJG917562:NJG917578 NTC917562:NTC917578 OCY917562:OCY917578 OMU917562:OMU917578 OWQ917562:OWQ917578 PGM917562:PGM917578 PQI917562:PQI917578 QAE917562:QAE917578 QKA917562:QKA917578 QTW917562:QTW917578 RDS917562:RDS917578 RNO917562:RNO917578 RXK917562:RXK917578 SHG917562:SHG917578 SRC917562:SRC917578 TAY917562:TAY917578 TKU917562:TKU917578 TUQ917562:TUQ917578 UEM917562:UEM917578 UOI917562:UOI917578 UYE917562:UYE917578 VIA917562:VIA917578 VRW917562:VRW917578 WBS917562:WBS917578 WLO917562:WLO917578 WVK917562:WVK917578 WVK983098:WVK983114 IY983098:IY983114 SU983098:SU983114 ACQ983098:ACQ983114 AMM983098:AMM983114 AWI983098:AWI983114 BGE983098:BGE983114 BQA983098:BQA983114 BZW983098:BZW983114 CJS983098:CJS983114 CTO983098:CTO983114 DDK983098:DDK983114 DNG983098:DNG983114 DXC983098:DXC983114 EGY983098:EGY983114 EQU983098:EQU983114 FAQ983098:FAQ983114 FKM983098:FKM983114 FUI983098:FUI983114 GEE983098:GEE983114 GOA983098:GOA983114 GXW983098:GXW983114 HHS983098:HHS983114 HRO983098:HRO983114 IBK983098:IBK983114 ILG983098:ILG983114 IVC983098:IVC983114 JEY983098:JEY983114 JOU983098:JOU983114 JYQ983098:JYQ983114 KIM983098:KIM983114 KSI983098:KSI983114 LCE983098:LCE983114 LMA983098:LMA983114 LVW983098:LVW983114 MFS983098:MFS983114 MPO983098:MPO983114 MZK983098:MZK983114 NJG983098:NJG983114 NTC983098:NTC983114 OCY983098:OCY983114 OMU983098:OMU983114 OWQ983098:OWQ983114 PGM983098:PGM983114 PQI983098:PQI983114 QAE983098:QAE983114 QKA983098:QKA983114 QTW983098:QTW983114 RDS983098:RDS983114 RNO983098:RNO983114 RXK983098:RXK983114 SHG983098:SHG983114 SRC983098:SRC983114 TAY983098:TAY983114 TKU983098:TKU983114 TUQ983098:TUQ983114 UEM983098:UEM983114 UOI983098:UOI983114 UYE983098:UYE983114 VIA983098:VIA983114 VRW983098:VRW983114 WBS983098:WBS983114 WLO983098:WLO983114 C65594:C65610" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65583:F65616 JB65583:JB65616 SX65583:SX65616 ACT65583:ACT65616 AMP65583:AMP65616 AWL65583:AWL65616 BGH65583:BGH65616 BQD65583:BQD65616 BZZ65583:BZZ65616 CJV65583:CJV65616 CTR65583:CTR65616 DDN65583:DDN65616 DNJ65583:DNJ65616 DXF65583:DXF65616 EHB65583:EHB65616 EQX65583:EQX65616 FAT65583:FAT65616 FKP65583:FKP65616 FUL65583:FUL65616 GEH65583:GEH65616 GOD65583:GOD65616 GXZ65583:GXZ65616 HHV65583:HHV65616 HRR65583:HRR65616 IBN65583:IBN65616 ILJ65583:ILJ65616 IVF65583:IVF65616 JFB65583:JFB65616 JOX65583:JOX65616 JYT65583:JYT65616 KIP65583:KIP65616 KSL65583:KSL65616 LCH65583:LCH65616 LMD65583:LMD65616 LVZ65583:LVZ65616 MFV65583:MFV65616 MPR65583:MPR65616 MZN65583:MZN65616 NJJ65583:NJJ65616 NTF65583:NTF65616 ODB65583:ODB65616 OMX65583:OMX65616 OWT65583:OWT65616 PGP65583:PGP65616 PQL65583:PQL65616 QAH65583:QAH65616 QKD65583:QKD65616 QTZ65583:QTZ65616 RDV65583:RDV65616 RNR65583:RNR65616 RXN65583:RXN65616 SHJ65583:SHJ65616 SRF65583:SRF65616 TBB65583:TBB65616 TKX65583:TKX65616 TUT65583:TUT65616 UEP65583:UEP65616 UOL65583:UOL65616 UYH65583:UYH65616 VID65583:VID65616 VRZ65583:VRZ65616 WBV65583:WBV65616 WLR65583:WLR65616 WVN65583:WVN65616 F131119:F131152 JB131119:JB131152 SX131119:SX131152 ACT131119:ACT131152 AMP131119:AMP131152 AWL131119:AWL131152 BGH131119:BGH131152 BQD131119:BQD131152 BZZ131119:BZZ131152 CJV131119:CJV131152 CTR131119:CTR131152 DDN131119:DDN131152 DNJ131119:DNJ131152 DXF131119:DXF131152 EHB131119:EHB131152 EQX131119:EQX131152 FAT131119:FAT131152 FKP131119:FKP131152 FUL131119:FUL131152 GEH131119:GEH131152 GOD131119:GOD131152 GXZ131119:GXZ131152 HHV131119:HHV131152 HRR131119:HRR131152 IBN131119:IBN131152 ILJ131119:ILJ131152 IVF131119:IVF131152 JFB131119:JFB131152 JOX131119:JOX131152 JYT131119:JYT131152 KIP131119:KIP131152 KSL131119:KSL131152 LCH131119:LCH131152 LMD131119:LMD131152 LVZ131119:LVZ131152 MFV131119:MFV131152 MPR131119:MPR131152 MZN131119:MZN131152 NJJ131119:NJJ131152 NTF131119:NTF131152 ODB131119:ODB131152 OMX131119:OMX131152 OWT131119:OWT131152 PGP131119:PGP131152 PQL131119:PQL131152 QAH131119:QAH131152 QKD131119:QKD131152 QTZ131119:QTZ131152 RDV131119:RDV131152 RNR131119:RNR131152 RXN131119:RXN131152 SHJ131119:SHJ131152 SRF131119:SRF131152 TBB131119:TBB131152 TKX131119:TKX131152 TUT131119:TUT131152 UEP131119:UEP131152 UOL131119:UOL131152 UYH131119:UYH131152 VID131119:VID131152 VRZ131119:VRZ131152 WBV131119:WBV131152 WLR131119:WLR131152 WVN131119:WVN131152 F196655:F196688 JB196655:JB196688 SX196655:SX196688 ACT196655:ACT196688 AMP196655:AMP196688 AWL196655:AWL196688 BGH196655:BGH196688 BQD196655:BQD196688 BZZ196655:BZZ196688 CJV196655:CJV196688 CTR196655:CTR196688 DDN196655:DDN196688 DNJ196655:DNJ196688 DXF196655:DXF196688 EHB196655:EHB196688 EQX196655:EQX196688 FAT196655:FAT196688 FKP196655:FKP196688 FUL196655:FUL196688 GEH196655:GEH196688 GOD196655:GOD196688 GXZ196655:GXZ196688 HHV196655:HHV196688 HRR196655:HRR196688 IBN196655:IBN196688 ILJ196655:ILJ196688 IVF196655:IVF196688 JFB196655:JFB196688 JOX196655:JOX196688 JYT196655:JYT196688 KIP196655:KIP196688 KSL196655:KSL196688 LCH196655:LCH196688 LMD196655:LMD196688 LVZ196655:LVZ196688 MFV196655:MFV196688 MPR196655:MPR196688 MZN196655:MZN196688 NJJ196655:NJJ196688 NTF196655:NTF196688 ODB196655:ODB196688 OMX196655:OMX196688 OWT196655:OWT196688 PGP196655:PGP196688 PQL196655:PQL196688 QAH196655:QAH196688 QKD196655:QKD196688 QTZ196655:QTZ196688 RDV196655:RDV196688 RNR196655:RNR196688 RXN196655:RXN196688 SHJ196655:SHJ196688 SRF196655:SRF196688 TBB196655:TBB196688 TKX196655:TKX196688 TUT196655:TUT196688 UEP196655:UEP196688 UOL196655:UOL196688 UYH196655:UYH196688 VID196655:VID196688 VRZ196655:VRZ196688 WBV196655:WBV196688 WLR196655:WLR196688 WVN196655:WVN196688 F262191:F262224 JB262191:JB262224 SX262191:SX262224 ACT262191:ACT262224 AMP262191:AMP262224 AWL262191:AWL262224 BGH262191:BGH262224 BQD262191:BQD262224 BZZ262191:BZZ262224 CJV262191:CJV262224 CTR262191:CTR262224 DDN262191:DDN262224 DNJ262191:DNJ262224 DXF262191:DXF262224 EHB262191:EHB262224 EQX262191:EQX262224 FAT262191:FAT262224 FKP262191:FKP262224 FUL262191:FUL262224 GEH262191:GEH262224 GOD262191:GOD262224 GXZ262191:GXZ262224 HHV262191:HHV262224 HRR262191:HRR262224 IBN262191:IBN262224 ILJ262191:ILJ262224 IVF262191:IVF262224 JFB262191:JFB262224 JOX262191:JOX262224 JYT262191:JYT262224 KIP262191:KIP262224 KSL262191:KSL262224 LCH262191:LCH262224 LMD262191:LMD262224 LVZ262191:LVZ262224 MFV262191:MFV262224 MPR262191:MPR262224 MZN262191:MZN262224 NJJ262191:NJJ262224 NTF262191:NTF262224 ODB262191:ODB262224 OMX262191:OMX262224 OWT262191:OWT262224 PGP262191:PGP262224 PQL262191:PQL262224 QAH262191:QAH262224 QKD262191:QKD262224 QTZ262191:QTZ262224 RDV262191:RDV262224 RNR262191:RNR262224 RXN262191:RXN262224 SHJ262191:SHJ262224 SRF262191:SRF262224 TBB262191:TBB262224 TKX262191:TKX262224 TUT262191:TUT262224 UEP262191:UEP262224 UOL262191:UOL262224 UYH262191:UYH262224 VID262191:VID262224 VRZ262191:VRZ262224 WBV262191:WBV262224 WLR262191:WLR262224 WVN262191:WVN262224 F327727:F327760 JB327727:JB327760 SX327727:SX327760 ACT327727:ACT327760 AMP327727:AMP327760 AWL327727:AWL327760 BGH327727:BGH327760 BQD327727:BQD327760 BZZ327727:BZZ327760 CJV327727:CJV327760 CTR327727:CTR327760 DDN327727:DDN327760 DNJ327727:DNJ327760 DXF327727:DXF327760 EHB327727:EHB327760 EQX327727:EQX327760 FAT327727:FAT327760 FKP327727:FKP327760 FUL327727:FUL327760 GEH327727:GEH327760 GOD327727:GOD327760 GXZ327727:GXZ327760 HHV327727:HHV327760 HRR327727:HRR327760 IBN327727:IBN327760 ILJ327727:ILJ327760 IVF327727:IVF327760 JFB327727:JFB327760 JOX327727:JOX327760 JYT327727:JYT327760 KIP327727:KIP327760 KSL327727:KSL327760 LCH327727:LCH327760 LMD327727:LMD327760 LVZ327727:LVZ327760 MFV327727:MFV327760 MPR327727:MPR327760 MZN327727:MZN327760 NJJ327727:NJJ327760 NTF327727:NTF327760 ODB327727:ODB327760 OMX327727:OMX327760 OWT327727:OWT327760 PGP327727:PGP327760 PQL327727:PQL327760 QAH327727:QAH327760 QKD327727:QKD327760 QTZ327727:QTZ327760 RDV327727:RDV327760 RNR327727:RNR327760 RXN327727:RXN327760 SHJ327727:SHJ327760 SRF327727:SRF327760 TBB327727:TBB327760 TKX327727:TKX327760 TUT327727:TUT327760 UEP327727:UEP327760 UOL327727:UOL327760 UYH327727:UYH327760 VID327727:VID327760 VRZ327727:VRZ327760 WBV327727:WBV327760 WLR327727:WLR327760 WVN327727:WVN327760 F393263:F393296 JB393263:JB393296 SX393263:SX393296 ACT393263:ACT393296 AMP393263:AMP393296 AWL393263:AWL393296 BGH393263:BGH393296 BQD393263:BQD393296 BZZ393263:BZZ393296 CJV393263:CJV393296 CTR393263:CTR393296 DDN393263:DDN393296 DNJ393263:DNJ393296 DXF393263:DXF393296 EHB393263:EHB393296 EQX393263:EQX393296 FAT393263:FAT393296 FKP393263:FKP393296 FUL393263:FUL393296 GEH393263:GEH393296 GOD393263:GOD393296 GXZ393263:GXZ393296 HHV393263:HHV393296 HRR393263:HRR393296 IBN393263:IBN393296 ILJ393263:ILJ393296 IVF393263:IVF393296 JFB393263:JFB393296 JOX393263:JOX393296 JYT393263:JYT393296 KIP393263:KIP393296 KSL393263:KSL393296 LCH393263:LCH393296 LMD393263:LMD393296 LVZ393263:LVZ393296 MFV393263:MFV393296 MPR393263:MPR393296 MZN393263:MZN393296 NJJ393263:NJJ393296 NTF393263:NTF393296 ODB393263:ODB393296 OMX393263:OMX393296 OWT393263:OWT393296 PGP393263:PGP393296 PQL393263:PQL393296 QAH393263:QAH393296 QKD393263:QKD393296 QTZ393263:QTZ393296 RDV393263:RDV393296 RNR393263:RNR393296 RXN393263:RXN393296 SHJ393263:SHJ393296 SRF393263:SRF393296 TBB393263:TBB393296 TKX393263:TKX393296 TUT393263:TUT393296 UEP393263:UEP393296 UOL393263:UOL393296 UYH393263:UYH393296 VID393263:VID393296 VRZ393263:VRZ393296 WBV393263:WBV393296 WLR393263:WLR393296 WVN393263:WVN393296 F458799:F458832 JB458799:JB458832 SX458799:SX458832 ACT458799:ACT458832 AMP458799:AMP458832 AWL458799:AWL458832 BGH458799:BGH458832 BQD458799:BQD458832 BZZ458799:BZZ458832 CJV458799:CJV458832 CTR458799:CTR458832 DDN458799:DDN458832 DNJ458799:DNJ458832 DXF458799:DXF458832 EHB458799:EHB458832 EQX458799:EQX458832 FAT458799:FAT458832 FKP458799:FKP458832 FUL458799:FUL458832 GEH458799:GEH458832 GOD458799:GOD458832 GXZ458799:GXZ458832 HHV458799:HHV458832 HRR458799:HRR458832 IBN458799:IBN458832 ILJ458799:ILJ458832 IVF458799:IVF458832 JFB458799:JFB458832 JOX458799:JOX458832 JYT458799:JYT458832 KIP458799:KIP458832 KSL458799:KSL458832 LCH458799:LCH458832 LMD458799:LMD458832 LVZ458799:LVZ458832 MFV458799:MFV458832 MPR458799:MPR458832 MZN458799:MZN458832 NJJ458799:NJJ458832 NTF458799:NTF458832 ODB458799:ODB458832 OMX458799:OMX458832 OWT458799:OWT458832 PGP458799:PGP458832 PQL458799:PQL458832 QAH458799:QAH458832 QKD458799:QKD458832 QTZ458799:QTZ458832 RDV458799:RDV458832 RNR458799:RNR458832 RXN458799:RXN458832 SHJ458799:SHJ458832 SRF458799:SRF458832 TBB458799:TBB458832 TKX458799:TKX458832 TUT458799:TUT458832 UEP458799:UEP458832 UOL458799:UOL458832 UYH458799:UYH458832 VID458799:VID458832 VRZ458799:VRZ458832 WBV458799:WBV458832 WLR458799:WLR458832 WVN458799:WVN458832 F524335:F524368 JB524335:JB524368 SX524335:SX524368 ACT524335:ACT524368 AMP524335:AMP524368 AWL524335:AWL524368 BGH524335:BGH524368 BQD524335:BQD524368 BZZ524335:BZZ524368 CJV524335:CJV524368 CTR524335:CTR524368 DDN524335:DDN524368 DNJ524335:DNJ524368 DXF524335:DXF524368 EHB524335:EHB524368 EQX524335:EQX524368 FAT524335:FAT524368 FKP524335:FKP524368 FUL524335:FUL524368 GEH524335:GEH524368 GOD524335:GOD524368 GXZ524335:GXZ524368 HHV524335:HHV524368 HRR524335:HRR524368 IBN524335:IBN524368 ILJ524335:ILJ524368 IVF524335:IVF524368 JFB524335:JFB524368 JOX524335:JOX524368 JYT524335:JYT524368 KIP524335:KIP524368 KSL524335:KSL524368 LCH524335:LCH524368 LMD524335:LMD524368 LVZ524335:LVZ524368 MFV524335:MFV524368 MPR524335:MPR524368 MZN524335:MZN524368 NJJ524335:NJJ524368 NTF524335:NTF524368 ODB524335:ODB524368 OMX524335:OMX524368 OWT524335:OWT524368 PGP524335:PGP524368 PQL524335:PQL524368 QAH524335:QAH524368 QKD524335:QKD524368 QTZ524335:QTZ524368 RDV524335:RDV524368 RNR524335:RNR524368 RXN524335:RXN524368 SHJ524335:SHJ524368 SRF524335:SRF524368 TBB524335:TBB524368 TKX524335:TKX524368 TUT524335:TUT524368 UEP524335:UEP524368 UOL524335:UOL524368 UYH524335:UYH524368 VID524335:VID524368 VRZ524335:VRZ524368 WBV524335:WBV524368 WLR524335:WLR524368 WVN524335:WVN524368 F589871:F589904 JB589871:JB589904 SX589871:SX589904 ACT589871:ACT589904 AMP589871:AMP589904 AWL589871:AWL589904 BGH589871:BGH589904 BQD589871:BQD589904 BZZ589871:BZZ589904 CJV589871:CJV589904 CTR589871:CTR589904 DDN589871:DDN589904 DNJ589871:DNJ589904 DXF589871:DXF589904 EHB589871:EHB589904 EQX589871:EQX589904 FAT589871:FAT589904 FKP589871:FKP589904 FUL589871:FUL589904 GEH589871:GEH589904 GOD589871:GOD589904 GXZ589871:GXZ589904 HHV589871:HHV589904 HRR589871:HRR589904 IBN589871:IBN589904 ILJ589871:ILJ589904 IVF589871:IVF589904 JFB589871:JFB589904 JOX589871:JOX589904 JYT589871:JYT589904 KIP589871:KIP589904 KSL589871:KSL589904 LCH589871:LCH589904 LMD589871:LMD589904 LVZ589871:LVZ589904 MFV589871:MFV589904 MPR589871:MPR589904 MZN589871:MZN589904 NJJ589871:NJJ589904 NTF589871:NTF589904 ODB589871:ODB589904 OMX589871:OMX589904 OWT589871:OWT589904 PGP589871:PGP589904 PQL589871:PQL589904 QAH589871:QAH589904 QKD589871:QKD589904 QTZ589871:QTZ589904 RDV589871:RDV589904 RNR589871:RNR589904 RXN589871:RXN589904 SHJ589871:SHJ589904 SRF589871:SRF589904 TBB589871:TBB589904 TKX589871:TKX589904 TUT589871:TUT589904 UEP589871:UEP589904 UOL589871:UOL589904 UYH589871:UYH589904 VID589871:VID589904 VRZ589871:VRZ589904 WBV589871:WBV589904 WLR589871:WLR589904 WVN589871:WVN589904 F655407:F655440 JB655407:JB655440 SX655407:SX655440 ACT655407:ACT655440 AMP655407:AMP655440 AWL655407:AWL655440 BGH655407:BGH655440 BQD655407:BQD655440 BZZ655407:BZZ655440 CJV655407:CJV655440 CTR655407:CTR655440 DDN655407:DDN655440 DNJ655407:DNJ655440 DXF655407:DXF655440 EHB655407:EHB655440 EQX655407:EQX655440 FAT655407:FAT655440 FKP655407:FKP655440 FUL655407:FUL655440 GEH655407:GEH655440 GOD655407:GOD655440 GXZ655407:GXZ655440 HHV655407:HHV655440 HRR655407:HRR655440 IBN655407:IBN655440 ILJ655407:ILJ655440 IVF655407:IVF655440 JFB655407:JFB655440 JOX655407:JOX655440 JYT655407:JYT655440 KIP655407:KIP655440 KSL655407:KSL655440 LCH655407:LCH655440 LMD655407:LMD655440 LVZ655407:LVZ655440 MFV655407:MFV655440 MPR655407:MPR655440 MZN655407:MZN655440 NJJ655407:NJJ655440 NTF655407:NTF655440 ODB655407:ODB655440 OMX655407:OMX655440 OWT655407:OWT655440 PGP655407:PGP655440 PQL655407:PQL655440 QAH655407:QAH655440 QKD655407:QKD655440 QTZ655407:QTZ655440 RDV655407:RDV655440 RNR655407:RNR655440 RXN655407:RXN655440 SHJ655407:SHJ655440 SRF655407:SRF655440 TBB655407:TBB655440 TKX655407:TKX655440 TUT655407:TUT655440 UEP655407:UEP655440 UOL655407:UOL655440 UYH655407:UYH655440 VID655407:VID655440 VRZ655407:VRZ655440 WBV655407:WBV655440 WLR655407:WLR655440 WVN655407:WVN655440 F720943:F720976 JB720943:JB720976 SX720943:SX720976 ACT720943:ACT720976 AMP720943:AMP720976 AWL720943:AWL720976 BGH720943:BGH720976 BQD720943:BQD720976 BZZ720943:BZZ720976 CJV720943:CJV720976 CTR720943:CTR720976 DDN720943:DDN720976 DNJ720943:DNJ720976 DXF720943:DXF720976 EHB720943:EHB720976 EQX720943:EQX720976 FAT720943:FAT720976 FKP720943:FKP720976 FUL720943:FUL720976 GEH720943:GEH720976 GOD720943:GOD720976 GXZ720943:GXZ720976 HHV720943:HHV720976 HRR720943:HRR720976 IBN720943:IBN720976 ILJ720943:ILJ720976 IVF720943:IVF720976 JFB720943:JFB720976 JOX720943:JOX720976 JYT720943:JYT720976 KIP720943:KIP720976 KSL720943:KSL720976 LCH720943:LCH720976 LMD720943:LMD720976 LVZ720943:LVZ720976 MFV720943:MFV720976 MPR720943:MPR720976 MZN720943:MZN720976 NJJ720943:NJJ720976 NTF720943:NTF720976 ODB720943:ODB720976 OMX720943:OMX720976 OWT720943:OWT720976 PGP720943:PGP720976 PQL720943:PQL720976 QAH720943:QAH720976 QKD720943:QKD720976 QTZ720943:QTZ720976 RDV720943:RDV720976 RNR720943:RNR720976 RXN720943:RXN720976 SHJ720943:SHJ720976 SRF720943:SRF720976 TBB720943:TBB720976 TKX720943:TKX720976 TUT720943:TUT720976 UEP720943:UEP720976 UOL720943:UOL720976 UYH720943:UYH720976 VID720943:VID720976 VRZ720943:VRZ720976 WBV720943:WBV720976 WLR720943:WLR720976 WVN720943:WVN720976 F786479:F786512 JB786479:JB786512 SX786479:SX786512 ACT786479:ACT786512 AMP786479:AMP786512 AWL786479:AWL786512 BGH786479:BGH786512 BQD786479:BQD786512 BZZ786479:BZZ786512 CJV786479:CJV786512 CTR786479:CTR786512 DDN786479:DDN786512 DNJ786479:DNJ786512 DXF786479:DXF786512 EHB786479:EHB786512 EQX786479:EQX786512 FAT786479:FAT786512 FKP786479:FKP786512 FUL786479:FUL786512 GEH786479:GEH786512 GOD786479:GOD786512 GXZ786479:GXZ786512 HHV786479:HHV786512 HRR786479:HRR786512 IBN786479:IBN786512 ILJ786479:ILJ786512 IVF786479:IVF786512 JFB786479:JFB786512 JOX786479:JOX786512 JYT786479:JYT786512 KIP786479:KIP786512 KSL786479:KSL786512 LCH786479:LCH786512 LMD786479:LMD786512 LVZ786479:LVZ786512 MFV786479:MFV786512 MPR786479:MPR786512 MZN786479:MZN786512 NJJ786479:NJJ786512 NTF786479:NTF786512 ODB786479:ODB786512 OMX786479:OMX786512 OWT786479:OWT786512 PGP786479:PGP786512 PQL786479:PQL786512 QAH786479:QAH786512 QKD786479:QKD786512 QTZ786479:QTZ786512 RDV786479:RDV786512 RNR786479:RNR786512 RXN786479:RXN786512 SHJ786479:SHJ786512 SRF786479:SRF786512 TBB786479:TBB786512 TKX786479:TKX786512 TUT786479:TUT786512 UEP786479:UEP786512 UOL786479:UOL786512 UYH786479:UYH786512 VID786479:VID786512 VRZ786479:VRZ786512 WBV786479:WBV786512 WLR786479:WLR786512 WVN786479:WVN786512 F852015:F852048 JB852015:JB852048 SX852015:SX852048 ACT852015:ACT852048 AMP852015:AMP852048 AWL852015:AWL852048 BGH852015:BGH852048 BQD852015:BQD852048 BZZ852015:BZZ852048 CJV852015:CJV852048 CTR852015:CTR852048 DDN852015:DDN852048 DNJ852015:DNJ852048 DXF852015:DXF852048 EHB852015:EHB852048 EQX852015:EQX852048 FAT852015:FAT852048 FKP852015:FKP852048 FUL852015:FUL852048 GEH852015:GEH852048 GOD852015:GOD852048 GXZ852015:GXZ852048 HHV852015:HHV852048 HRR852015:HRR852048 IBN852015:IBN852048 ILJ852015:ILJ852048 IVF852015:IVF852048 JFB852015:JFB852048 JOX852015:JOX852048 JYT852015:JYT852048 KIP852015:KIP852048 KSL852015:KSL852048 LCH852015:LCH852048 LMD852015:LMD852048 LVZ852015:LVZ852048 MFV852015:MFV852048 MPR852015:MPR852048 MZN852015:MZN852048 NJJ852015:NJJ852048 NTF852015:NTF852048 ODB852015:ODB852048 OMX852015:OMX852048 OWT852015:OWT852048 PGP852015:PGP852048 PQL852015:PQL852048 QAH852015:QAH852048 QKD852015:QKD852048 QTZ852015:QTZ852048 RDV852015:RDV852048 RNR852015:RNR852048 RXN852015:RXN852048 SHJ852015:SHJ852048 SRF852015:SRF852048 TBB852015:TBB852048 TKX852015:TKX852048 TUT852015:TUT852048 UEP852015:UEP852048 UOL852015:UOL852048 UYH852015:UYH852048 VID852015:VID852048 VRZ852015:VRZ852048 WBV852015:WBV852048 WLR852015:WLR852048 WVN852015:WVN852048 F917551:F917584 JB917551:JB917584 SX917551:SX917584 ACT917551:ACT917584 AMP917551:AMP917584 AWL917551:AWL917584 BGH917551:BGH917584 BQD917551:BQD917584 BZZ917551:BZZ917584 CJV917551:CJV917584 CTR917551:CTR917584 DDN917551:DDN917584 DNJ917551:DNJ917584 DXF917551:DXF917584 EHB917551:EHB917584 EQX917551:EQX917584 FAT917551:FAT917584 FKP917551:FKP917584 FUL917551:FUL917584 GEH917551:GEH917584 GOD917551:GOD917584 GXZ917551:GXZ917584 HHV917551:HHV917584 HRR917551:HRR917584 IBN917551:IBN917584 ILJ917551:ILJ917584 IVF917551:IVF917584 JFB917551:JFB917584 JOX917551:JOX917584 JYT917551:JYT917584 KIP917551:KIP917584 KSL917551:KSL917584 LCH917551:LCH917584 LMD917551:LMD917584 LVZ917551:LVZ917584 MFV917551:MFV917584 MPR917551:MPR917584 MZN917551:MZN917584 NJJ917551:NJJ917584 NTF917551:NTF917584 ODB917551:ODB917584 OMX917551:OMX917584 OWT917551:OWT917584 PGP917551:PGP917584 PQL917551:PQL917584 QAH917551:QAH917584 QKD917551:QKD917584 QTZ917551:QTZ917584 RDV917551:RDV917584 RNR917551:RNR917584 RXN917551:RXN917584 SHJ917551:SHJ917584 SRF917551:SRF917584 TBB917551:TBB917584 TKX917551:TKX917584 TUT917551:TUT917584 UEP917551:UEP917584 UOL917551:UOL917584 UYH917551:UYH917584 VID917551:VID917584 VRZ917551:VRZ917584 WBV917551:WBV917584 WLR917551:WLR917584 WVN917551:WVN917584 F983087:F983120 JB983087:JB983120 SX983087:SX983120 ACT983087:ACT983120 AMP983087:AMP983120 AWL983087:AWL983120 BGH983087:BGH983120 BQD983087:BQD983120 BZZ983087:BZZ983120 CJV983087:CJV983120 CTR983087:CTR983120 DDN983087:DDN983120 DNJ983087:DNJ983120 DXF983087:DXF983120 EHB983087:EHB983120 EQX983087:EQX983120 FAT983087:FAT983120 FKP983087:FKP983120 FUL983087:FUL983120 GEH983087:GEH983120 GOD983087:GOD983120 GXZ983087:GXZ983120 HHV983087:HHV983120 HRR983087:HRR983120 IBN983087:IBN983120 ILJ983087:ILJ983120 IVF983087:IVF983120 JFB983087:JFB983120 JOX983087:JOX983120 JYT983087:JYT983120 KIP983087:KIP983120 KSL983087:KSL983120 LCH983087:LCH983120 LMD983087:LMD983120 LVZ983087:LVZ983120 MFV983087:MFV983120 MPR983087:MPR983120 MZN983087:MZN983120 NJJ983087:NJJ983120 NTF983087:NTF983120 ODB983087:ODB983120 OMX983087:OMX983120 OWT983087:OWT983120 PGP983087:PGP983120 PQL983087:PQL983120 QAH983087:QAH983120 QKD983087:QKD983120 QTZ983087:QTZ983120 RDV983087:RDV983120 RNR983087:RNR983120 RXN983087:RXN983120 SHJ983087:SHJ983120 SRF983087:SRF983120 TBB983087:TBB983120 TKX983087:TKX983120 TUT983087:TUT983120 UEP983087:UEP983120 UOL983087:UOL983120 UYH983087:UYH983120 VID983087:VID983120 VRZ983087:VRZ983120 WBV983087:WBV983120 WLR983087:WLR983120 WVN983087:WVN983120 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F743" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65594:F65627 JB65594:JB65627 SX65594:SX65627 ACT65594:ACT65627 AMP65594:AMP65627 AWL65594:AWL65627 BGH65594:BGH65627 BQD65594:BQD65627 BZZ65594:BZZ65627 CJV65594:CJV65627 CTR65594:CTR65627 DDN65594:DDN65627 DNJ65594:DNJ65627 DXF65594:DXF65627 EHB65594:EHB65627 EQX65594:EQX65627 FAT65594:FAT65627 FKP65594:FKP65627 FUL65594:FUL65627 GEH65594:GEH65627 GOD65594:GOD65627 GXZ65594:GXZ65627 HHV65594:HHV65627 HRR65594:HRR65627 IBN65594:IBN65627 ILJ65594:ILJ65627 IVF65594:IVF65627 JFB65594:JFB65627 JOX65594:JOX65627 JYT65594:JYT65627 KIP65594:KIP65627 KSL65594:KSL65627 LCH65594:LCH65627 LMD65594:LMD65627 LVZ65594:LVZ65627 MFV65594:MFV65627 MPR65594:MPR65627 MZN65594:MZN65627 NJJ65594:NJJ65627 NTF65594:NTF65627 ODB65594:ODB65627 OMX65594:OMX65627 OWT65594:OWT65627 PGP65594:PGP65627 PQL65594:PQL65627 QAH65594:QAH65627 QKD65594:QKD65627 QTZ65594:QTZ65627 RDV65594:RDV65627 RNR65594:RNR65627 RXN65594:RXN65627 SHJ65594:SHJ65627 SRF65594:SRF65627 TBB65594:TBB65627 TKX65594:TKX65627 TUT65594:TUT65627 UEP65594:UEP65627 UOL65594:UOL65627 UYH65594:UYH65627 VID65594:VID65627 VRZ65594:VRZ65627 WBV65594:WBV65627 WLR65594:WLR65627 WVN65594:WVN65627 F131130:F131163 JB131130:JB131163 SX131130:SX131163 ACT131130:ACT131163 AMP131130:AMP131163 AWL131130:AWL131163 BGH131130:BGH131163 BQD131130:BQD131163 BZZ131130:BZZ131163 CJV131130:CJV131163 CTR131130:CTR131163 DDN131130:DDN131163 DNJ131130:DNJ131163 DXF131130:DXF131163 EHB131130:EHB131163 EQX131130:EQX131163 FAT131130:FAT131163 FKP131130:FKP131163 FUL131130:FUL131163 GEH131130:GEH131163 GOD131130:GOD131163 GXZ131130:GXZ131163 HHV131130:HHV131163 HRR131130:HRR131163 IBN131130:IBN131163 ILJ131130:ILJ131163 IVF131130:IVF131163 JFB131130:JFB131163 JOX131130:JOX131163 JYT131130:JYT131163 KIP131130:KIP131163 KSL131130:KSL131163 LCH131130:LCH131163 LMD131130:LMD131163 LVZ131130:LVZ131163 MFV131130:MFV131163 MPR131130:MPR131163 MZN131130:MZN131163 NJJ131130:NJJ131163 NTF131130:NTF131163 ODB131130:ODB131163 OMX131130:OMX131163 OWT131130:OWT131163 PGP131130:PGP131163 PQL131130:PQL131163 QAH131130:QAH131163 QKD131130:QKD131163 QTZ131130:QTZ131163 RDV131130:RDV131163 RNR131130:RNR131163 RXN131130:RXN131163 SHJ131130:SHJ131163 SRF131130:SRF131163 TBB131130:TBB131163 TKX131130:TKX131163 TUT131130:TUT131163 UEP131130:UEP131163 UOL131130:UOL131163 UYH131130:UYH131163 VID131130:VID131163 VRZ131130:VRZ131163 WBV131130:WBV131163 WLR131130:WLR131163 WVN131130:WVN131163 F196666:F196699 JB196666:JB196699 SX196666:SX196699 ACT196666:ACT196699 AMP196666:AMP196699 AWL196666:AWL196699 BGH196666:BGH196699 BQD196666:BQD196699 BZZ196666:BZZ196699 CJV196666:CJV196699 CTR196666:CTR196699 DDN196666:DDN196699 DNJ196666:DNJ196699 DXF196666:DXF196699 EHB196666:EHB196699 EQX196666:EQX196699 FAT196666:FAT196699 FKP196666:FKP196699 FUL196666:FUL196699 GEH196666:GEH196699 GOD196666:GOD196699 GXZ196666:GXZ196699 HHV196666:HHV196699 HRR196666:HRR196699 IBN196666:IBN196699 ILJ196666:ILJ196699 IVF196666:IVF196699 JFB196666:JFB196699 JOX196666:JOX196699 JYT196666:JYT196699 KIP196666:KIP196699 KSL196666:KSL196699 LCH196666:LCH196699 LMD196666:LMD196699 LVZ196666:LVZ196699 MFV196666:MFV196699 MPR196666:MPR196699 MZN196666:MZN196699 NJJ196666:NJJ196699 NTF196666:NTF196699 ODB196666:ODB196699 OMX196666:OMX196699 OWT196666:OWT196699 PGP196666:PGP196699 PQL196666:PQL196699 QAH196666:QAH196699 QKD196666:QKD196699 QTZ196666:QTZ196699 RDV196666:RDV196699 RNR196666:RNR196699 RXN196666:RXN196699 SHJ196666:SHJ196699 SRF196666:SRF196699 TBB196666:TBB196699 TKX196666:TKX196699 TUT196666:TUT196699 UEP196666:UEP196699 UOL196666:UOL196699 UYH196666:UYH196699 VID196666:VID196699 VRZ196666:VRZ196699 WBV196666:WBV196699 WLR196666:WLR196699 WVN196666:WVN196699 F262202:F262235 JB262202:JB262235 SX262202:SX262235 ACT262202:ACT262235 AMP262202:AMP262235 AWL262202:AWL262235 BGH262202:BGH262235 BQD262202:BQD262235 BZZ262202:BZZ262235 CJV262202:CJV262235 CTR262202:CTR262235 DDN262202:DDN262235 DNJ262202:DNJ262235 DXF262202:DXF262235 EHB262202:EHB262235 EQX262202:EQX262235 FAT262202:FAT262235 FKP262202:FKP262235 FUL262202:FUL262235 GEH262202:GEH262235 GOD262202:GOD262235 GXZ262202:GXZ262235 HHV262202:HHV262235 HRR262202:HRR262235 IBN262202:IBN262235 ILJ262202:ILJ262235 IVF262202:IVF262235 JFB262202:JFB262235 JOX262202:JOX262235 JYT262202:JYT262235 KIP262202:KIP262235 KSL262202:KSL262235 LCH262202:LCH262235 LMD262202:LMD262235 LVZ262202:LVZ262235 MFV262202:MFV262235 MPR262202:MPR262235 MZN262202:MZN262235 NJJ262202:NJJ262235 NTF262202:NTF262235 ODB262202:ODB262235 OMX262202:OMX262235 OWT262202:OWT262235 PGP262202:PGP262235 PQL262202:PQL262235 QAH262202:QAH262235 QKD262202:QKD262235 QTZ262202:QTZ262235 RDV262202:RDV262235 RNR262202:RNR262235 RXN262202:RXN262235 SHJ262202:SHJ262235 SRF262202:SRF262235 TBB262202:TBB262235 TKX262202:TKX262235 TUT262202:TUT262235 UEP262202:UEP262235 UOL262202:UOL262235 UYH262202:UYH262235 VID262202:VID262235 VRZ262202:VRZ262235 WBV262202:WBV262235 WLR262202:WLR262235 WVN262202:WVN262235 F327738:F327771 JB327738:JB327771 SX327738:SX327771 ACT327738:ACT327771 AMP327738:AMP327771 AWL327738:AWL327771 BGH327738:BGH327771 BQD327738:BQD327771 BZZ327738:BZZ327771 CJV327738:CJV327771 CTR327738:CTR327771 DDN327738:DDN327771 DNJ327738:DNJ327771 DXF327738:DXF327771 EHB327738:EHB327771 EQX327738:EQX327771 FAT327738:FAT327771 FKP327738:FKP327771 FUL327738:FUL327771 GEH327738:GEH327771 GOD327738:GOD327771 GXZ327738:GXZ327771 HHV327738:HHV327771 HRR327738:HRR327771 IBN327738:IBN327771 ILJ327738:ILJ327771 IVF327738:IVF327771 JFB327738:JFB327771 JOX327738:JOX327771 JYT327738:JYT327771 KIP327738:KIP327771 KSL327738:KSL327771 LCH327738:LCH327771 LMD327738:LMD327771 LVZ327738:LVZ327771 MFV327738:MFV327771 MPR327738:MPR327771 MZN327738:MZN327771 NJJ327738:NJJ327771 NTF327738:NTF327771 ODB327738:ODB327771 OMX327738:OMX327771 OWT327738:OWT327771 PGP327738:PGP327771 PQL327738:PQL327771 QAH327738:QAH327771 QKD327738:QKD327771 QTZ327738:QTZ327771 RDV327738:RDV327771 RNR327738:RNR327771 RXN327738:RXN327771 SHJ327738:SHJ327771 SRF327738:SRF327771 TBB327738:TBB327771 TKX327738:TKX327771 TUT327738:TUT327771 UEP327738:UEP327771 UOL327738:UOL327771 UYH327738:UYH327771 VID327738:VID327771 VRZ327738:VRZ327771 WBV327738:WBV327771 WLR327738:WLR327771 WVN327738:WVN327771 F393274:F393307 JB393274:JB393307 SX393274:SX393307 ACT393274:ACT393307 AMP393274:AMP393307 AWL393274:AWL393307 BGH393274:BGH393307 BQD393274:BQD393307 BZZ393274:BZZ393307 CJV393274:CJV393307 CTR393274:CTR393307 DDN393274:DDN393307 DNJ393274:DNJ393307 DXF393274:DXF393307 EHB393274:EHB393307 EQX393274:EQX393307 FAT393274:FAT393307 FKP393274:FKP393307 FUL393274:FUL393307 GEH393274:GEH393307 GOD393274:GOD393307 GXZ393274:GXZ393307 HHV393274:HHV393307 HRR393274:HRR393307 IBN393274:IBN393307 ILJ393274:ILJ393307 IVF393274:IVF393307 JFB393274:JFB393307 JOX393274:JOX393307 JYT393274:JYT393307 KIP393274:KIP393307 KSL393274:KSL393307 LCH393274:LCH393307 LMD393274:LMD393307 LVZ393274:LVZ393307 MFV393274:MFV393307 MPR393274:MPR393307 MZN393274:MZN393307 NJJ393274:NJJ393307 NTF393274:NTF393307 ODB393274:ODB393307 OMX393274:OMX393307 OWT393274:OWT393307 PGP393274:PGP393307 PQL393274:PQL393307 QAH393274:QAH393307 QKD393274:QKD393307 QTZ393274:QTZ393307 RDV393274:RDV393307 RNR393274:RNR393307 RXN393274:RXN393307 SHJ393274:SHJ393307 SRF393274:SRF393307 TBB393274:TBB393307 TKX393274:TKX393307 TUT393274:TUT393307 UEP393274:UEP393307 UOL393274:UOL393307 UYH393274:UYH393307 VID393274:VID393307 VRZ393274:VRZ393307 WBV393274:WBV393307 WLR393274:WLR393307 WVN393274:WVN393307 F458810:F458843 JB458810:JB458843 SX458810:SX458843 ACT458810:ACT458843 AMP458810:AMP458843 AWL458810:AWL458843 BGH458810:BGH458843 BQD458810:BQD458843 BZZ458810:BZZ458843 CJV458810:CJV458843 CTR458810:CTR458843 DDN458810:DDN458843 DNJ458810:DNJ458843 DXF458810:DXF458843 EHB458810:EHB458843 EQX458810:EQX458843 FAT458810:FAT458843 FKP458810:FKP458843 FUL458810:FUL458843 GEH458810:GEH458843 GOD458810:GOD458843 GXZ458810:GXZ458843 HHV458810:HHV458843 HRR458810:HRR458843 IBN458810:IBN458843 ILJ458810:ILJ458843 IVF458810:IVF458843 JFB458810:JFB458843 JOX458810:JOX458843 JYT458810:JYT458843 KIP458810:KIP458843 KSL458810:KSL458843 LCH458810:LCH458843 LMD458810:LMD458843 LVZ458810:LVZ458843 MFV458810:MFV458843 MPR458810:MPR458843 MZN458810:MZN458843 NJJ458810:NJJ458843 NTF458810:NTF458843 ODB458810:ODB458843 OMX458810:OMX458843 OWT458810:OWT458843 PGP458810:PGP458843 PQL458810:PQL458843 QAH458810:QAH458843 QKD458810:QKD458843 QTZ458810:QTZ458843 RDV458810:RDV458843 RNR458810:RNR458843 RXN458810:RXN458843 SHJ458810:SHJ458843 SRF458810:SRF458843 TBB458810:TBB458843 TKX458810:TKX458843 TUT458810:TUT458843 UEP458810:UEP458843 UOL458810:UOL458843 UYH458810:UYH458843 VID458810:VID458843 VRZ458810:VRZ458843 WBV458810:WBV458843 WLR458810:WLR458843 WVN458810:WVN458843 F524346:F524379 JB524346:JB524379 SX524346:SX524379 ACT524346:ACT524379 AMP524346:AMP524379 AWL524346:AWL524379 BGH524346:BGH524379 BQD524346:BQD524379 BZZ524346:BZZ524379 CJV524346:CJV524379 CTR524346:CTR524379 DDN524346:DDN524379 DNJ524346:DNJ524379 DXF524346:DXF524379 EHB524346:EHB524379 EQX524346:EQX524379 FAT524346:FAT524379 FKP524346:FKP524379 FUL524346:FUL524379 GEH524346:GEH524379 GOD524346:GOD524379 GXZ524346:GXZ524379 HHV524346:HHV524379 HRR524346:HRR524379 IBN524346:IBN524379 ILJ524346:ILJ524379 IVF524346:IVF524379 JFB524346:JFB524379 JOX524346:JOX524379 JYT524346:JYT524379 KIP524346:KIP524379 KSL524346:KSL524379 LCH524346:LCH524379 LMD524346:LMD524379 LVZ524346:LVZ524379 MFV524346:MFV524379 MPR524346:MPR524379 MZN524346:MZN524379 NJJ524346:NJJ524379 NTF524346:NTF524379 ODB524346:ODB524379 OMX524346:OMX524379 OWT524346:OWT524379 PGP524346:PGP524379 PQL524346:PQL524379 QAH524346:QAH524379 QKD524346:QKD524379 QTZ524346:QTZ524379 RDV524346:RDV524379 RNR524346:RNR524379 RXN524346:RXN524379 SHJ524346:SHJ524379 SRF524346:SRF524379 TBB524346:TBB524379 TKX524346:TKX524379 TUT524346:TUT524379 UEP524346:UEP524379 UOL524346:UOL524379 UYH524346:UYH524379 VID524346:VID524379 VRZ524346:VRZ524379 WBV524346:WBV524379 WLR524346:WLR524379 WVN524346:WVN524379 F589882:F589915 JB589882:JB589915 SX589882:SX589915 ACT589882:ACT589915 AMP589882:AMP589915 AWL589882:AWL589915 BGH589882:BGH589915 BQD589882:BQD589915 BZZ589882:BZZ589915 CJV589882:CJV589915 CTR589882:CTR589915 DDN589882:DDN589915 DNJ589882:DNJ589915 DXF589882:DXF589915 EHB589882:EHB589915 EQX589882:EQX589915 FAT589882:FAT589915 FKP589882:FKP589915 FUL589882:FUL589915 GEH589882:GEH589915 GOD589882:GOD589915 GXZ589882:GXZ589915 HHV589882:HHV589915 HRR589882:HRR589915 IBN589882:IBN589915 ILJ589882:ILJ589915 IVF589882:IVF589915 JFB589882:JFB589915 JOX589882:JOX589915 JYT589882:JYT589915 KIP589882:KIP589915 KSL589882:KSL589915 LCH589882:LCH589915 LMD589882:LMD589915 LVZ589882:LVZ589915 MFV589882:MFV589915 MPR589882:MPR589915 MZN589882:MZN589915 NJJ589882:NJJ589915 NTF589882:NTF589915 ODB589882:ODB589915 OMX589882:OMX589915 OWT589882:OWT589915 PGP589882:PGP589915 PQL589882:PQL589915 QAH589882:QAH589915 QKD589882:QKD589915 QTZ589882:QTZ589915 RDV589882:RDV589915 RNR589882:RNR589915 RXN589882:RXN589915 SHJ589882:SHJ589915 SRF589882:SRF589915 TBB589882:TBB589915 TKX589882:TKX589915 TUT589882:TUT589915 UEP589882:UEP589915 UOL589882:UOL589915 UYH589882:UYH589915 VID589882:VID589915 VRZ589882:VRZ589915 WBV589882:WBV589915 WLR589882:WLR589915 WVN589882:WVN589915 F655418:F655451 JB655418:JB655451 SX655418:SX655451 ACT655418:ACT655451 AMP655418:AMP655451 AWL655418:AWL655451 BGH655418:BGH655451 BQD655418:BQD655451 BZZ655418:BZZ655451 CJV655418:CJV655451 CTR655418:CTR655451 DDN655418:DDN655451 DNJ655418:DNJ655451 DXF655418:DXF655451 EHB655418:EHB655451 EQX655418:EQX655451 FAT655418:FAT655451 FKP655418:FKP655451 FUL655418:FUL655451 GEH655418:GEH655451 GOD655418:GOD655451 GXZ655418:GXZ655451 HHV655418:HHV655451 HRR655418:HRR655451 IBN655418:IBN655451 ILJ655418:ILJ655451 IVF655418:IVF655451 JFB655418:JFB655451 JOX655418:JOX655451 JYT655418:JYT655451 KIP655418:KIP655451 KSL655418:KSL655451 LCH655418:LCH655451 LMD655418:LMD655451 LVZ655418:LVZ655451 MFV655418:MFV655451 MPR655418:MPR655451 MZN655418:MZN655451 NJJ655418:NJJ655451 NTF655418:NTF655451 ODB655418:ODB655451 OMX655418:OMX655451 OWT655418:OWT655451 PGP655418:PGP655451 PQL655418:PQL655451 QAH655418:QAH655451 QKD655418:QKD655451 QTZ655418:QTZ655451 RDV655418:RDV655451 RNR655418:RNR655451 RXN655418:RXN655451 SHJ655418:SHJ655451 SRF655418:SRF655451 TBB655418:TBB655451 TKX655418:TKX655451 TUT655418:TUT655451 UEP655418:UEP655451 UOL655418:UOL655451 UYH655418:UYH655451 VID655418:VID655451 VRZ655418:VRZ655451 WBV655418:WBV655451 WLR655418:WLR655451 WVN655418:WVN655451 F720954:F720987 JB720954:JB720987 SX720954:SX720987 ACT720954:ACT720987 AMP720954:AMP720987 AWL720954:AWL720987 BGH720954:BGH720987 BQD720954:BQD720987 BZZ720954:BZZ720987 CJV720954:CJV720987 CTR720954:CTR720987 DDN720954:DDN720987 DNJ720954:DNJ720987 DXF720954:DXF720987 EHB720954:EHB720987 EQX720954:EQX720987 FAT720954:FAT720987 FKP720954:FKP720987 FUL720954:FUL720987 GEH720954:GEH720987 GOD720954:GOD720987 GXZ720954:GXZ720987 HHV720954:HHV720987 HRR720954:HRR720987 IBN720954:IBN720987 ILJ720954:ILJ720987 IVF720954:IVF720987 JFB720954:JFB720987 JOX720954:JOX720987 JYT720954:JYT720987 KIP720954:KIP720987 KSL720954:KSL720987 LCH720954:LCH720987 LMD720954:LMD720987 LVZ720954:LVZ720987 MFV720954:MFV720987 MPR720954:MPR720987 MZN720954:MZN720987 NJJ720954:NJJ720987 NTF720954:NTF720987 ODB720954:ODB720987 OMX720954:OMX720987 OWT720954:OWT720987 PGP720954:PGP720987 PQL720954:PQL720987 QAH720954:QAH720987 QKD720954:QKD720987 QTZ720954:QTZ720987 RDV720954:RDV720987 RNR720954:RNR720987 RXN720954:RXN720987 SHJ720954:SHJ720987 SRF720954:SRF720987 TBB720954:TBB720987 TKX720954:TKX720987 TUT720954:TUT720987 UEP720954:UEP720987 UOL720954:UOL720987 UYH720954:UYH720987 VID720954:VID720987 VRZ720954:VRZ720987 WBV720954:WBV720987 WLR720954:WLR720987 WVN720954:WVN720987 F786490:F786523 JB786490:JB786523 SX786490:SX786523 ACT786490:ACT786523 AMP786490:AMP786523 AWL786490:AWL786523 BGH786490:BGH786523 BQD786490:BQD786523 BZZ786490:BZZ786523 CJV786490:CJV786523 CTR786490:CTR786523 DDN786490:DDN786523 DNJ786490:DNJ786523 DXF786490:DXF786523 EHB786490:EHB786523 EQX786490:EQX786523 FAT786490:FAT786523 FKP786490:FKP786523 FUL786490:FUL786523 GEH786490:GEH786523 GOD786490:GOD786523 GXZ786490:GXZ786523 HHV786490:HHV786523 HRR786490:HRR786523 IBN786490:IBN786523 ILJ786490:ILJ786523 IVF786490:IVF786523 JFB786490:JFB786523 JOX786490:JOX786523 JYT786490:JYT786523 KIP786490:KIP786523 KSL786490:KSL786523 LCH786490:LCH786523 LMD786490:LMD786523 LVZ786490:LVZ786523 MFV786490:MFV786523 MPR786490:MPR786523 MZN786490:MZN786523 NJJ786490:NJJ786523 NTF786490:NTF786523 ODB786490:ODB786523 OMX786490:OMX786523 OWT786490:OWT786523 PGP786490:PGP786523 PQL786490:PQL786523 QAH786490:QAH786523 QKD786490:QKD786523 QTZ786490:QTZ786523 RDV786490:RDV786523 RNR786490:RNR786523 RXN786490:RXN786523 SHJ786490:SHJ786523 SRF786490:SRF786523 TBB786490:TBB786523 TKX786490:TKX786523 TUT786490:TUT786523 UEP786490:UEP786523 UOL786490:UOL786523 UYH786490:UYH786523 VID786490:VID786523 VRZ786490:VRZ786523 WBV786490:WBV786523 WLR786490:WLR786523 WVN786490:WVN786523 F852026:F852059 JB852026:JB852059 SX852026:SX852059 ACT852026:ACT852059 AMP852026:AMP852059 AWL852026:AWL852059 BGH852026:BGH852059 BQD852026:BQD852059 BZZ852026:BZZ852059 CJV852026:CJV852059 CTR852026:CTR852059 DDN852026:DDN852059 DNJ852026:DNJ852059 DXF852026:DXF852059 EHB852026:EHB852059 EQX852026:EQX852059 FAT852026:FAT852059 FKP852026:FKP852059 FUL852026:FUL852059 GEH852026:GEH852059 GOD852026:GOD852059 GXZ852026:GXZ852059 HHV852026:HHV852059 HRR852026:HRR852059 IBN852026:IBN852059 ILJ852026:ILJ852059 IVF852026:IVF852059 JFB852026:JFB852059 JOX852026:JOX852059 JYT852026:JYT852059 KIP852026:KIP852059 KSL852026:KSL852059 LCH852026:LCH852059 LMD852026:LMD852059 LVZ852026:LVZ852059 MFV852026:MFV852059 MPR852026:MPR852059 MZN852026:MZN852059 NJJ852026:NJJ852059 NTF852026:NTF852059 ODB852026:ODB852059 OMX852026:OMX852059 OWT852026:OWT852059 PGP852026:PGP852059 PQL852026:PQL852059 QAH852026:QAH852059 QKD852026:QKD852059 QTZ852026:QTZ852059 RDV852026:RDV852059 RNR852026:RNR852059 RXN852026:RXN852059 SHJ852026:SHJ852059 SRF852026:SRF852059 TBB852026:TBB852059 TKX852026:TKX852059 TUT852026:TUT852059 UEP852026:UEP852059 UOL852026:UOL852059 UYH852026:UYH852059 VID852026:VID852059 VRZ852026:VRZ852059 WBV852026:WBV852059 WLR852026:WLR852059 WVN852026:WVN852059 F917562:F917595 JB917562:JB917595 SX917562:SX917595 ACT917562:ACT917595 AMP917562:AMP917595 AWL917562:AWL917595 BGH917562:BGH917595 BQD917562:BQD917595 BZZ917562:BZZ917595 CJV917562:CJV917595 CTR917562:CTR917595 DDN917562:DDN917595 DNJ917562:DNJ917595 DXF917562:DXF917595 EHB917562:EHB917595 EQX917562:EQX917595 FAT917562:FAT917595 FKP917562:FKP917595 FUL917562:FUL917595 GEH917562:GEH917595 GOD917562:GOD917595 GXZ917562:GXZ917595 HHV917562:HHV917595 HRR917562:HRR917595 IBN917562:IBN917595 ILJ917562:ILJ917595 IVF917562:IVF917595 JFB917562:JFB917595 JOX917562:JOX917595 JYT917562:JYT917595 KIP917562:KIP917595 KSL917562:KSL917595 LCH917562:LCH917595 LMD917562:LMD917595 LVZ917562:LVZ917595 MFV917562:MFV917595 MPR917562:MPR917595 MZN917562:MZN917595 NJJ917562:NJJ917595 NTF917562:NTF917595 ODB917562:ODB917595 OMX917562:OMX917595 OWT917562:OWT917595 PGP917562:PGP917595 PQL917562:PQL917595 QAH917562:QAH917595 QKD917562:QKD917595 QTZ917562:QTZ917595 RDV917562:RDV917595 RNR917562:RNR917595 RXN917562:RXN917595 SHJ917562:SHJ917595 SRF917562:SRF917595 TBB917562:TBB917595 TKX917562:TKX917595 TUT917562:TUT917595 UEP917562:UEP917595 UOL917562:UOL917595 UYH917562:UYH917595 VID917562:VID917595 VRZ917562:VRZ917595 WBV917562:WBV917595 WLR917562:WLR917595 WVN917562:WVN917595 F983098:F983131 JB983098:JB983131 SX983098:SX983131 ACT983098:ACT983131 AMP983098:AMP983131 AWL983098:AWL983131 BGH983098:BGH983131 BQD983098:BQD983131 BZZ983098:BZZ983131 CJV983098:CJV983131 CTR983098:CTR983131 DDN983098:DDN983131 DNJ983098:DNJ983131 DXF983098:DXF983131 EHB983098:EHB983131 EQX983098:EQX983131 FAT983098:FAT983131 FKP983098:FKP983131 FUL983098:FUL983131 GEH983098:GEH983131 GOD983098:GOD983131 GXZ983098:GXZ983131 HHV983098:HHV983131 HRR983098:HRR983131 IBN983098:IBN983131 ILJ983098:ILJ983131 IVF983098:IVF983131 JFB983098:JFB983131 JOX983098:JOX983131 JYT983098:JYT983131 KIP983098:KIP983131 KSL983098:KSL983131 LCH983098:LCH983131 LMD983098:LMD983131 LVZ983098:LVZ983131 MFV983098:MFV983131 MPR983098:MPR983131 MZN983098:MZN983131 NJJ983098:NJJ983131 NTF983098:NTF983131 ODB983098:ODB983131 OMX983098:OMX983131 OWT983098:OWT983131 PGP983098:PGP983131 PQL983098:PQL983131 QAH983098:QAH983131 QKD983098:QKD983131 QTZ983098:QTZ983131 RDV983098:RDV983131 RNR983098:RNR983131 RXN983098:RXN983131 SHJ983098:SHJ983131 SRF983098:SRF983131 TBB983098:TBB983131 TKX983098:TKX983131 TUT983098:TUT983131 UEP983098:UEP983131 UOL983098:UOL983131 UYH983098:UYH983131 VID983098:VID983131 VRZ983098:VRZ983131 WBV983098:WBV983131 WLR983098:WLR983131 WVN983098:WVN983131 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F755" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65583:H65616 JD65583:JD65616 SZ65583:SZ65616 ACV65583:ACV65616 AMR65583:AMR65616 AWN65583:AWN65616 BGJ65583:BGJ65616 BQF65583:BQF65616 CAB65583:CAB65616 CJX65583:CJX65616 CTT65583:CTT65616 DDP65583:DDP65616 DNL65583:DNL65616 DXH65583:DXH65616 EHD65583:EHD65616 EQZ65583:EQZ65616 FAV65583:FAV65616 FKR65583:FKR65616 FUN65583:FUN65616 GEJ65583:GEJ65616 GOF65583:GOF65616 GYB65583:GYB65616 HHX65583:HHX65616 HRT65583:HRT65616 IBP65583:IBP65616 ILL65583:ILL65616 IVH65583:IVH65616 JFD65583:JFD65616 JOZ65583:JOZ65616 JYV65583:JYV65616 KIR65583:KIR65616 KSN65583:KSN65616 LCJ65583:LCJ65616 LMF65583:LMF65616 LWB65583:LWB65616 MFX65583:MFX65616 MPT65583:MPT65616 MZP65583:MZP65616 NJL65583:NJL65616 NTH65583:NTH65616 ODD65583:ODD65616 OMZ65583:OMZ65616 OWV65583:OWV65616 PGR65583:PGR65616 PQN65583:PQN65616 QAJ65583:QAJ65616 QKF65583:QKF65616 QUB65583:QUB65616 RDX65583:RDX65616 RNT65583:RNT65616 RXP65583:RXP65616 SHL65583:SHL65616 SRH65583:SRH65616 TBD65583:TBD65616 TKZ65583:TKZ65616 TUV65583:TUV65616 UER65583:UER65616 UON65583:UON65616 UYJ65583:UYJ65616 VIF65583:VIF65616 VSB65583:VSB65616 WBX65583:WBX65616 WLT65583:WLT65616 WVP65583:WVP65616 H131119:H131152 JD131119:JD131152 SZ131119:SZ131152 ACV131119:ACV131152 AMR131119:AMR131152 AWN131119:AWN131152 BGJ131119:BGJ131152 BQF131119:BQF131152 CAB131119:CAB131152 CJX131119:CJX131152 CTT131119:CTT131152 DDP131119:DDP131152 DNL131119:DNL131152 DXH131119:DXH131152 EHD131119:EHD131152 EQZ131119:EQZ131152 FAV131119:FAV131152 FKR131119:FKR131152 FUN131119:FUN131152 GEJ131119:GEJ131152 GOF131119:GOF131152 GYB131119:GYB131152 HHX131119:HHX131152 HRT131119:HRT131152 IBP131119:IBP131152 ILL131119:ILL131152 IVH131119:IVH131152 JFD131119:JFD131152 JOZ131119:JOZ131152 JYV131119:JYV131152 KIR131119:KIR131152 KSN131119:KSN131152 LCJ131119:LCJ131152 LMF131119:LMF131152 LWB131119:LWB131152 MFX131119:MFX131152 MPT131119:MPT131152 MZP131119:MZP131152 NJL131119:NJL131152 NTH131119:NTH131152 ODD131119:ODD131152 OMZ131119:OMZ131152 OWV131119:OWV131152 PGR131119:PGR131152 PQN131119:PQN131152 QAJ131119:QAJ131152 QKF131119:QKF131152 QUB131119:QUB131152 RDX131119:RDX131152 RNT131119:RNT131152 RXP131119:RXP131152 SHL131119:SHL131152 SRH131119:SRH131152 TBD131119:TBD131152 TKZ131119:TKZ131152 TUV131119:TUV131152 UER131119:UER131152 UON131119:UON131152 UYJ131119:UYJ131152 VIF131119:VIF131152 VSB131119:VSB131152 WBX131119:WBX131152 WLT131119:WLT131152 WVP131119:WVP131152 H196655:H196688 JD196655:JD196688 SZ196655:SZ196688 ACV196655:ACV196688 AMR196655:AMR196688 AWN196655:AWN196688 BGJ196655:BGJ196688 BQF196655:BQF196688 CAB196655:CAB196688 CJX196655:CJX196688 CTT196655:CTT196688 DDP196655:DDP196688 DNL196655:DNL196688 DXH196655:DXH196688 EHD196655:EHD196688 EQZ196655:EQZ196688 FAV196655:FAV196688 FKR196655:FKR196688 FUN196655:FUN196688 GEJ196655:GEJ196688 GOF196655:GOF196688 GYB196655:GYB196688 HHX196655:HHX196688 HRT196655:HRT196688 IBP196655:IBP196688 ILL196655:ILL196688 IVH196655:IVH196688 JFD196655:JFD196688 JOZ196655:JOZ196688 JYV196655:JYV196688 KIR196655:KIR196688 KSN196655:KSN196688 LCJ196655:LCJ196688 LMF196655:LMF196688 LWB196655:LWB196688 MFX196655:MFX196688 MPT196655:MPT196688 MZP196655:MZP196688 NJL196655:NJL196688 NTH196655:NTH196688 ODD196655:ODD196688 OMZ196655:OMZ196688 OWV196655:OWV196688 PGR196655:PGR196688 PQN196655:PQN196688 QAJ196655:QAJ196688 QKF196655:QKF196688 QUB196655:QUB196688 RDX196655:RDX196688 RNT196655:RNT196688 RXP196655:RXP196688 SHL196655:SHL196688 SRH196655:SRH196688 TBD196655:TBD196688 TKZ196655:TKZ196688 TUV196655:TUV196688 UER196655:UER196688 UON196655:UON196688 UYJ196655:UYJ196688 VIF196655:VIF196688 VSB196655:VSB196688 WBX196655:WBX196688 WLT196655:WLT196688 WVP196655:WVP196688 H262191:H262224 JD262191:JD262224 SZ262191:SZ262224 ACV262191:ACV262224 AMR262191:AMR262224 AWN262191:AWN262224 BGJ262191:BGJ262224 BQF262191:BQF262224 CAB262191:CAB262224 CJX262191:CJX262224 CTT262191:CTT262224 DDP262191:DDP262224 DNL262191:DNL262224 DXH262191:DXH262224 EHD262191:EHD262224 EQZ262191:EQZ262224 FAV262191:FAV262224 FKR262191:FKR262224 FUN262191:FUN262224 GEJ262191:GEJ262224 GOF262191:GOF262224 GYB262191:GYB262224 HHX262191:HHX262224 HRT262191:HRT262224 IBP262191:IBP262224 ILL262191:ILL262224 IVH262191:IVH262224 JFD262191:JFD262224 JOZ262191:JOZ262224 JYV262191:JYV262224 KIR262191:KIR262224 KSN262191:KSN262224 LCJ262191:LCJ262224 LMF262191:LMF262224 LWB262191:LWB262224 MFX262191:MFX262224 MPT262191:MPT262224 MZP262191:MZP262224 NJL262191:NJL262224 NTH262191:NTH262224 ODD262191:ODD262224 OMZ262191:OMZ262224 OWV262191:OWV262224 PGR262191:PGR262224 PQN262191:PQN262224 QAJ262191:QAJ262224 QKF262191:QKF262224 QUB262191:QUB262224 RDX262191:RDX262224 RNT262191:RNT262224 RXP262191:RXP262224 SHL262191:SHL262224 SRH262191:SRH262224 TBD262191:TBD262224 TKZ262191:TKZ262224 TUV262191:TUV262224 UER262191:UER262224 UON262191:UON262224 UYJ262191:UYJ262224 VIF262191:VIF262224 VSB262191:VSB262224 WBX262191:WBX262224 WLT262191:WLT262224 WVP262191:WVP262224 H327727:H327760 JD327727:JD327760 SZ327727:SZ327760 ACV327727:ACV327760 AMR327727:AMR327760 AWN327727:AWN327760 BGJ327727:BGJ327760 BQF327727:BQF327760 CAB327727:CAB327760 CJX327727:CJX327760 CTT327727:CTT327760 DDP327727:DDP327760 DNL327727:DNL327760 DXH327727:DXH327760 EHD327727:EHD327760 EQZ327727:EQZ327760 FAV327727:FAV327760 FKR327727:FKR327760 FUN327727:FUN327760 GEJ327727:GEJ327760 GOF327727:GOF327760 GYB327727:GYB327760 HHX327727:HHX327760 HRT327727:HRT327760 IBP327727:IBP327760 ILL327727:ILL327760 IVH327727:IVH327760 JFD327727:JFD327760 JOZ327727:JOZ327760 JYV327727:JYV327760 KIR327727:KIR327760 KSN327727:KSN327760 LCJ327727:LCJ327760 LMF327727:LMF327760 LWB327727:LWB327760 MFX327727:MFX327760 MPT327727:MPT327760 MZP327727:MZP327760 NJL327727:NJL327760 NTH327727:NTH327760 ODD327727:ODD327760 OMZ327727:OMZ327760 OWV327727:OWV327760 PGR327727:PGR327760 PQN327727:PQN327760 QAJ327727:QAJ327760 QKF327727:QKF327760 QUB327727:QUB327760 RDX327727:RDX327760 RNT327727:RNT327760 RXP327727:RXP327760 SHL327727:SHL327760 SRH327727:SRH327760 TBD327727:TBD327760 TKZ327727:TKZ327760 TUV327727:TUV327760 UER327727:UER327760 UON327727:UON327760 UYJ327727:UYJ327760 VIF327727:VIF327760 VSB327727:VSB327760 WBX327727:WBX327760 WLT327727:WLT327760 WVP327727:WVP327760 H393263:H393296 JD393263:JD393296 SZ393263:SZ393296 ACV393263:ACV393296 AMR393263:AMR393296 AWN393263:AWN393296 BGJ393263:BGJ393296 BQF393263:BQF393296 CAB393263:CAB393296 CJX393263:CJX393296 CTT393263:CTT393296 DDP393263:DDP393296 DNL393263:DNL393296 DXH393263:DXH393296 EHD393263:EHD393296 EQZ393263:EQZ393296 FAV393263:FAV393296 FKR393263:FKR393296 FUN393263:FUN393296 GEJ393263:GEJ393296 GOF393263:GOF393296 GYB393263:GYB393296 HHX393263:HHX393296 HRT393263:HRT393296 IBP393263:IBP393296 ILL393263:ILL393296 IVH393263:IVH393296 JFD393263:JFD393296 JOZ393263:JOZ393296 JYV393263:JYV393296 KIR393263:KIR393296 KSN393263:KSN393296 LCJ393263:LCJ393296 LMF393263:LMF393296 LWB393263:LWB393296 MFX393263:MFX393296 MPT393263:MPT393296 MZP393263:MZP393296 NJL393263:NJL393296 NTH393263:NTH393296 ODD393263:ODD393296 OMZ393263:OMZ393296 OWV393263:OWV393296 PGR393263:PGR393296 PQN393263:PQN393296 QAJ393263:QAJ393296 QKF393263:QKF393296 QUB393263:QUB393296 RDX393263:RDX393296 RNT393263:RNT393296 RXP393263:RXP393296 SHL393263:SHL393296 SRH393263:SRH393296 TBD393263:TBD393296 TKZ393263:TKZ393296 TUV393263:TUV393296 UER393263:UER393296 UON393263:UON393296 UYJ393263:UYJ393296 VIF393263:VIF393296 VSB393263:VSB393296 WBX393263:WBX393296 WLT393263:WLT393296 WVP393263:WVP393296 H458799:H458832 JD458799:JD458832 SZ458799:SZ458832 ACV458799:ACV458832 AMR458799:AMR458832 AWN458799:AWN458832 BGJ458799:BGJ458832 BQF458799:BQF458832 CAB458799:CAB458832 CJX458799:CJX458832 CTT458799:CTT458832 DDP458799:DDP458832 DNL458799:DNL458832 DXH458799:DXH458832 EHD458799:EHD458832 EQZ458799:EQZ458832 FAV458799:FAV458832 FKR458799:FKR458832 FUN458799:FUN458832 GEJ458799:GEJ458832 GOF458799:GOF458832 GYB458799:GYB458832 HHX458799:HHX458832 HRT458799:HRT458832 IBP458799:IBP458832 ILL458799:ILL458832 IVH458799:IVH458832 JFD458799:JFD458832 JOZ458799:JOZ458832 JYV458799:JYV458832 KIR458799:KIR458832 KSN458799:KSN458832 LCJ458799:LCJ458832 LMF458799:LMF458832 LWB458799:LWB458832 MFX458799:MFX458832 MPT458799:MPT458832 MZP458799:MZP458832 NJL458799:NJL458832 NTH458799:NTH458832 ODD458799:ODD458832 OMZ458799:OMZ458832 OWV458799:OWV458832 PGR458799:PGR458832 PQN458799:PQN458832 QAJ458799:QAJ458832 QKF458799:QKF458832 QUB458799:QUB458832 RDX458799:RDX458832 RNT458799:RNT458832 RXP458799:RXP458832 SHL458799:SHL458832 SRH458799:SRH458832 TBD458799:TBD458832 TKZ458799:TKZ458832 TUV458799:TUV458832 UER458799:UER458832 UON458799:UON458832 UYJ458799:UYJ458832 VIF458799:VIF458832 VSB458799:VSB458832 WBX458799:WBX458832 WLT458799:WLT458832 WVP458799:WVP458832 H524335:H524368 JD524335:JD524368 SZ524335:SZ524368 ACV524335:ACV524368 AMR524335:AMR524368 AWN524335:AWN524368 BGJ524335:BGJ524368 BQF524335:BQF524368 CAB524335:CAB524368 CJX524335:CJX524368 CTT524335:CTT524368 DDP524335:DDP524368 DNL524335:DNL524368 DXH524335:DXH524368 EHD524335:EHD524368 EQZ524335:EQZ524368 FAV524335:FAV524368 FKR524335:FKR524368 FUN524335:FUN524368 GEJ524335:GEJ524368 GOF524335:GOF524368 GYB524335:GYB524368 HHX524335:HHX524368 HRT524335:HRT524368 IBP524335:IBP524368 ILL524335:ILL524368 IVH524335:IVH524368 JFD524335:JFD524368 JOZ524335:JOZ524368 JYV524335:JYV524368 KIR524335:KIR524368 KSN524335:KSN524368 LCJ524335:LCJ524368 LMF524335:LMF524368 LWB524335:LWB524368 MFX524335:MFX524368 MPT524335:MPT524368 MZP524335:MZP524368 NJL524335:NJL524368 NTH524335:NTH524368 ODD524335:ODD524368 OMZ524335:OMZ524368 OWV524335:OWV524368 PGR524335:PGR524368 PQN524335:PQN524368 QAJ524335:QAJ524368 QKF524335:QKF524368 QUB524335:QUB524368 RDX524335:RDX524368 RNT524335:RNT524368 RXP524335:RXP524368 SHL524335:SHL524368 SRH524335:SRH524368 TBD524335:TBD524368 TKZ524335:TKZ524368 TUV524335:TUV524368 UER524335:UER524368 UON524335:UON524368 UYJ524335:UYJ524368 VIF524335:VIF524368 VSB524335:VSB524368 WBX524335:WBX524368 WLT524335:WLT524368 WVP524335:WVP524368 H589871:H589904 JD589871:JD589904 SZ589871:SZ589904 ACV589871:ACV589904 AMR589871:AMR589904 AWN589871:AWN589904 BGJ589871:BGJ589904 BQF589871:BQF589904 CAB589871:CAB589904 CJX589871:CJX589904 CTT589871:CTT589904 DDP589871:DDP589904 DNL589871:DNL589904 DXH589871:DXH589904 EHD589871:EHD589904 EQZ589871:EQZ589904 FAV589871:FAV589904 FKR589871:FKR589904 FUN589871:FUN589904 GEJ589871:GEJ589904 GOF589871:GOF589904 GYB589871:GYB589904 HHX589871:HHX589904 HRT589871:HRT589904 IBP589871:IBP589904 ILL589871:ILL589904 IVH589871:IVH589904 JFD589871:JFD589904 JOZ589871:JOZ589904 JYV589871:JYV589904 KIR589871:KIR589904 KSN589871:KSN589904 LCJ589871:LCJ589904 LMF589871:LMF589904 LWB589871:LWB589904 MFX589871:MFX589904 MPT589871:MPT589904 MZP589871:MZP589904 NJL589871:NJL589904 NTH589871:NTH589904 ODD589871:ODD589904 OMZ589871:OMZ589904 OWV589871:OWV589904 PGR589871:PGR589904 PQN589871:PQN589904 QAJ589871:QAJ589904 QKF589871:QKF589904 QUB589871:QUB589904 RDX589871:RDX589904 RNT589871:RNT589904 RXP589871:RXP589904 SHL589871:SHL589904 SRH589871:SRH589904 TBD589871:TBD589904 TKZ589871:TKZ589904 TUV589871:TUV589904 UER589871:UER589904 UON589871:UON589904 UYJ589871:UYJ589904 VIF589871:VIF589904 VSB589871:VSB589904 WBX589871:WBX589904 WLT589871:WLT589904 WVP589871:WVP589904 H655407:H655440 JD655407:JD655440 SZ655407:SZ655440 ACV655407:ACV655440 AMR655407:AMR655440 AWN655407:AWN655440 BGJ655407:BGJ655440 BQF655407:BQF655440 CAB655407:CAB655440 CJX655407:CJX655440 CTT655407:CTT655440 DDP655407:DDP655440 DNL655407:DNL655440 DXH655407:DXH655440 EHD655407:EHD655440 EQZ655407:EQZ655440 FAV655407:FAV655440 FKR655407:FKR655440 FUN655407:FUN655440 GEJ655407:GEJ655440 GOF655407:GOF655440 GYB655407:GYB655440 HHX655407:HHX655440 HRT655407:HRT655440 IBP655407:IBP655440 ILL655407:ILL655440 IVH655407:IVH655440 JFD655407:JFD655440 JOZ655407:JOZ655440 JYV655407:JYV655440 KIR655407:KIR655440 KSN655407:KSN655440 LCJ655407:LCJ655440 LMF655407:LMF655440 LWB655407:LWB655440 MFX655407:MFX655440 MPT655407:MPT655440 MZP655407:MZP655440 NJL655407:NJL655440 NTH655407:NTH655440 ODD655407:ODD655440 OMZ655407:OMZ655440 OWV655407:OWV655440 PGR655407:PGR655440 PQN655407:PQN655440 QAJ655407:QAJ655440 QKF655407:QKF655440 QUB655407:QUB655440 RDX655407:RDX655440 RNT655407:RNT655440 RXP655407:RXP655440 SHL655407:SHL655440 SRH655407:SRH655440 TBD655407:TBD655440 TKZ655407:TKZ655440 TUV655407:TUV655440 UER655407:UER655440 UON655407:UON655440 UYJ655407:UYJ655440 VIF655407:VIF655440 VSB655407:VSB655440 WBX655407:WBX655440 WLT655407:WLT655440 WVP655407:WVP655440 H720943:H720976 JD720943:JD720976 SZ720943:SZ720976 ACV720943:ACV720976 AMR720943:AMR720976 AWN720943:AWN720976 BGJ720943:BGJ720976 BQF720943:BQF720976 CAB720943:CAB720976 CJX720943:CJX720976 CTT720943:CTT720976 DDP720943:DDP720976 DNL720943:DNL720976 DXH720943:DXH720976 EHD720943:EHD720976 EQZ720943:EQZ720976 FAV720943:FAV720976 FKR720943:FKR720976 FUN720943:FUN720976 GEJ720943:GEJ720976 GOF720943:GOF720976 GYB720943:GYB720976 HHX720943:HHX720976 HRT720943:HRT720976 IBP720943:IBP720976 ILL720943:ILL720976 IVH720943:IVH720976 JFD720943:JFD720976 JOZ720943:JOZ720976 JYV720943:JYV720976 KIR720943:KIR720976 KSN720943:KSN720976 LCJ720943:LCJ720976 LMF720943:LMF720976 LWB720943:LWB720976 MFX720943:MFX720976 MPT720943:MPT720976 MZP720943:MZP720976 NJL720943:NJL720976 NTH720943:NTH720976 ODD720943:ODD720976 OMZ720943:OMZ720976 OWV720943:OWV720976 PGR720943:PGR720976 PQN720943:PQN720976 QAJ720943:QAJ720976 QKF720943:QKF720976 QUB720943:QUB720976 RDX720943:RDX720976 RNT720943:RNT720976 RXP720943:RXP720976 SHL720943:SHL720976 SRH720943:SRH720976 TBD720943:TBD720976 TKZ720943:TKZ720976 TUV720943:TUV720976 UER720943:UER720976 UON720943:UON720976 UYJ720943:UYJ720976 VIF720943:VIF720976 VSB720943:VSB720976 WBX720943:WBX720976 WLT720943:WLT720976 WVP720943:WVP720976 H786479:H786512 JD786479:JD786512 SZ786479:SZ786512 ACV786479:ACV786512 AMR786479:AMR786512 AWN786479:AWN786512 BGJ786479:BGJ786512 BQF786479:BQF786512 CAB786479:CAB786512 CJX786479:CJX786512 CTT786479:CTT786512 DDP786479:DDP786512 DNL786479:DNL786512 DXH786479:DXH786512 EHD786479:EHD786512 EQZ786479:EQZ786512 FAV786479:FAV786512 FKR786479:FKR786512 FUN786479:FUN786512 GEJ786479:GEJ786512 GOF786479:GOF786512 GYB786479:GYB786512 HHX786479:HHX786512 HRT786479:HRT786512 IBP786479:IBP786512 ILL786479:ILL786512 IVH786479:IVH786512 JFD786479:JFD786512 JOZ786479:JOZ786512 JYV786479:JYV786512 KIR786479:KIR786512 KSN786479:KSN786512 LCJ786479:LCJ786512 LMF786479:LMF786512 LWB786479:LWB786512 MFX786479:MFX786512 MPT786479:MPT786512 MZP786479:MZP786512 NJL786479:NJL786512 NTH786479:NTH786512 ODD786479:ODD786512 OMZ786479:OMZ786512 OWV786479:OWV786512 PGR786479:PGR786512 PQN786479:PQN786512 QAJ786479:QAJ786512 QKF786479:QKF786512 QUB786479:QUB786512 RDX786479:RDX786512 RNT786479:RNT786512 RXP786479:RXP786512 SHL786479:SHL786512 SRH786479:SRH786512 TBD786479:TBD786512 TKZ786479:TKZ786512 TUV786479:TUV786512 UER786479:UER786512 UON786479:UON786512 UYJ786479:UYJ786512 VIF786479:VIF786512 VSB786479:VSB786512 WBX786479:WBX786512 WLT786479:WLT786512 WVP786479:WVP786512 H852015:H852048 JD852015:JD852048 SZ852015:SZ852048 ACV852015:ACV852048 AMR852015:AMR852048 AWN852015:AWN852048 BGJ852015:BGJ852048 BQF852015:BQF852048 CAB852015:CAB852048 CJX852015:CJX852048 CTT852015:CTT852048 DDP852015:DDP852048 DNL852015:DNL852048 DXH852015:DXH852048 EHD852015:EHD852048 EQZ852015:EQZ852048 FAV852015:FAV852048 FKR852015:FKR852048 FUN852015:FUN852048 GEJ852015:GEJ852048 GOF852015:GOF852048 GYB852015:GYB852048 HHX852015:HHX852048 HRT852015:HRT852048 IBP852015:IBP852048 ILL852015:ILL852048 IVH852015:IVH852048 JFD852015:JFD852048 JOZ852015:JOZ852048 JYV852015:JYV852048 KIR852015:KIR852048 KSN852015:KSN852048 LCJ852015:LCJ852048 LMF852015:LMF852048 LWB852015:LWB852048 MFX852015:MFX852048 MPT852015:MPT852048 MZP852015:MZP852048 NJL852015:NJL852048 NTH852015:NTH852048 ODD852015:ODD852048 OMZ852015:OMZ852048 OWV852015:OWV852048 PGR852015:PGR852048 PQN852015:PQN852048 QAJ852015:QAJ852048 QKF852015:QKF852048 QUB852015:QUB852048 RDX852015:RDX852048 RNT852015:RNT852048 RXP852015:RXP852048 SHL852015:SHL852048 SRH852015:SRH852048 TBD852015:TBD852048 TKZ852015:TKZ852048 TUV852015:TUV852048 UER852015:UER852048 UON852015:UON852048 UYJ852015:UYJ852048 VIF852015:VIF852048 VSB852015:VSB852048 WBX852015:WBX852048 WLT852015:WLT852048 WVP852015:WVP852048 H917551:H917584 JD917551:JD917584 SZ917551:SZ917584 ACV917551:ACV917584 AMR917551:AMR917584 AWN917551:AWN917584 BGJ917551:BGJ917584 BQF917551:BQF917584 CAB917551:CAB917584 CJX917551:CJX917584 CTT917551:CTT917584 DDP917551:DDP917584 DNL917551:DNL917584 DXH917551:DXH917584 EHD917551:EHD917584 EQZ917551:EQZ917584 FAV917551:FAV917584 FKR917551:FKR917584 FUN917551:FUN917584 GEJ917551:GEJ917584 GOF917551:GOF917584 GYB917551:GYB917584 HHX917551:HHX917584 HRT917551:HRT917584 IBP917551:IBP917584 ILL917551:ILL917584 IVH917551:IVH917584 JFD917551:JFD917584 JOZ917551:JOZ917584 JYV917551:JYV917584 KIR917551:KIR917584 KSN917551:KSN917584 LCJ917551:LCJ917584 LMF917551:LMF917584 LWB917551:LWB917584 MFX917551:MFX917584 MPT917551:MPT917584 MZP917551:MZP917584 NJL917551:NJL917584 NTH917551:NTH917584 ODD917551:ODD917584 OMZ917551:OMZ917584 OWV917551:OWV917584 PGR917551:PGR917584 PQN917551:PQN917584 QAJ917551:QAJ917584 QKF917551:QKF917584 QUB917551:QUB917584 RDX917551:RDX917584 RNT917551:RNT917584 RXP917551:RXP917584 SHL917551:SHL917584 SRH917551:SRH917584 TBD917551:TBD917584 TKZ917551:TKZ917584 TUV917551:TUV917584 UER917551:UER917584 UON917551:UON917584 UYJ917551:UYJ917584 VIF917551:VIF917584 VSB917551:VSB917584 WBX917551:WBX917584 WLT917551:WLT917584 WVP917551:WVP917584 H983087:H983120 JD983087:JD983120 SZ983087:SZ983120 ACV983087:ACV983120 AMR983087:AMR983120 AWN983087:AWN983120 BGJ983087:BGJ983120 BQF983087:BQF983120 CAB983087:CAB983120 CJX983087:CJX983120 CTT983087:CTT983120 DDP983087:DDP983120 DNL983087:DNL983120 DXH983087:DXH983120 EHD983087:EHD983120 EQZ983087:EQZ983120 FAV983087:FAV983120 FKR983087:FKR983120 FUN983087:FUN983120 GEJ983087:GEJ983120 GOF983087:GOF983120 GYB983087:GYB983120 HHX983087:HHX983120 HRT983087:HRT983120 IBP983087:IBP983120 ILL983087:ILL983120 IVH983087:IVH983120 JFD983087:JFD983120 JOZ983087:JOZ983120 JYV983087:JYV983120 KIR983087:KIR983120 KSN983087:KSN983120 LCJ983087:LCJ983120 LMF983087:LMF983120 LWB983087:LWB983120 MFX983087:MFX983120 MPT983087:MPT983120 MZP983087:MZP983120 NJL983087:NJL983120 NTH983087:NTH983120 ODD983087:ODD983120 OMZ983087:OMZ983120 OWV983087:OWV983120 PGR983087:PGR983120 PQN983087:PQN983120 QAJ983087:QAJ983120 QKF983087:QKF983120 QUB983087:QUB983120 RDX983087:RDX983120 RNT983087:RNT983120 RXP983087:RXP983120 SHL983087:SHL983120 SRH983087:SRH983120 TBD983087:TBD983120 TKZ983087:TKZ983120 TUV983087:TUV983120 UER983087:UER983120 UON983087:UON983120 UYJ983087:UYJ983120 VIF983087:VIF983120 VSB983087:VSB983120 WBX983087:WBX983120 WLT983087:WLT983120 WVP983087:WVP983120 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H743" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65594:H65627 JD65594:JD65627 SZ65594:SZ65627 ACV65594:ACV65627 AMR65594:AMR65627 AWN65594:AWN65627 BGJ65594:BGJ65627 BQF65594:BQF65627 CAB65594:CAB65627 CJX65594:CJX65627 CTT65594:CTT65627 DDP65594:DDP65627 DNL65594:DNL65627 DXH65594:DXH65627 EHD65594:EHD65627 EQZ65594:EQZ65627 FAV65594:FAV65627 FKR65594:FKR65627 FUN65594:FUN65627 GEJ65594:GEJ65627 GOF65594:GOF65627 GYB65594:GYB65627 HHX65594:HHX65627 HRT65594:HRT65627 IBP65594:IBP65627 ILL65594:ILL65627 IVH65594:IVH65627 JFD65594:JFD65627 JOZ65594:JOZ65627 JYV65594:JYV65627 KIR65594:KIR65627 KSN65594:KSN65627 LCJ65594:LCJ65627 LMF65594:LMF65627 LWB65594:LWB65627 MFX65594:MFX65627 MPT65594:MPT65627 MZP65594:MZP65627 NJL65594:NJL65627 NTH65594:NTH65627 ODD65594:ODD65627 OMZ65594:OMZ65627 OWV65594:OWV65627 PGR65594:PGR65627 PQN65594:PQN65627 QAJ65594:QAJ65627 QKF65594:QKF65627 QUB65594:QUB65627 RDX65594:RDX65627 RNT65594:RNT65627 RXP65594:RXP65627 SHL65594:SHL65627 SRH65594:SRH65627 TBD65594:TBD65627 TKZ65594:TKZ65627 TUV65594:TUV65627 UER65594:UER65627 UON65594:UON65627 UYJ65594:UYJ65627 VIF65594:VIF65627 VSB65594:VSB65627 WBX65594:WBX65627 WLT65594:WLT65627 WVP65594:WVP65627 H131130:H131163 JD131130:JD131163 SZ131130:SZ131163 ACV131130:ACV131163 AMR131130:AMR131163 AWN131130:AWN131163 BGJ131130:BGJ131163 BQF131130:BQF131163 CAB131130:CAB131163 CJX131130:CJX131163 CTT131130:CTT131163 DDP131130:DDP131163 DNL131130:DNL131163 DXH131130:DXH131163 EHD131130:EHD131163 EQZ131130:EQZ131163 FAV131130:FAV131163 FKR131130:FKR131163 FUN131130:FUN131163 GEJ131130:GEJ131163 GOF131130:GOF131163 GYB131130:GYB131163 HHX131130:HHX131163 HRT131130:HRT131163 IBP131130:IBP131163 ILL131130:ILL131163 IVH131130:IVH131163 JFD131130:JFD131163 JOZ131130:JOZ131163 JYV131130:JYV131163 KIR131130:KIR131163 KSN131130:KSN131163 LCJ131130:LCJ131163 LMF131130:LMF131163 LWB131130:LWB131163 MFX131130:MFX131163 MPT131130:MPT131163 MZP131130:MZP131163 NJL131130:NJL131163 NTH131130:NTH131163 ODD131130:ODD131163 OMZ131130:OMZ131163 OWV131130:OWV131163 PGR131130:PGR131163 PQN131130:PQN131163 QAJ131130:QAJ131163 QKF131130:QKF131163 QUB131130:QUB131163 RDX131130:RDX131163 RNT131130:RNT131163 RXP131130:RXP131163 SHL131130:SHL131163 SRH131130:SRH131163 TBD131130:TBD131163 TKZ131130:TKZ131163 TUV131130:TUV131163 UER131130:UER131163 UON131130:UON131163 UYJ131130:UYJ131163 VIF131130:VIF131163 VSB131130:VSB131163 WBX131130:WBX131163 WLT131130:WLT131163 WVP131130:WVP131163 H196666:H196699 JD196666:JD196699 SZ196666:SZ196699 ACV196666:ACV196699 AMR196666:AMR196699 AWN196666:AWN196699 BGJ196666:BGJ196699 BQF196666:BQF196699 CAB196666:CAB196699 CJX196666:CJX196699 CTT196666:CTT196699 DDP196666:DDP196699 DNL196666:DNL196699 DXH196666:DXH196699 EHD196666:EHD196699 EQZ196666:EQZ196699 FAV196666:FAV196699 FKR196666:FKR196699 FUN196666:FUN196699 GEJ196666:GEJ196699 GOF196666:GOF196699 GYB196666:GYB196699 HHX196666:HHX196699 HRT196666:HRT196699 IBP196666:IBP196699 ILL196666:ILL196699 IVH196666:IVH196699 JFD196666:JFD196699 JOZ196666:JOZ196699 JYV196666:JYV196699 KIR196666:KIR196699 KSN196666:KSN196699 LCJ196666:LCJ196699 LMF196666:LMF196699 LWB196666:LWB196699 MFX196666:MFX196699 MPT196666:MPT196699 MZP196666:MZP196699 NJL196666:NJL196699 NTH196666:NTH196699 ODD196666:ODD196699 OMZ196666:OMZ196699 OWV196666:OWV196699 PGR196666:PGR196699 PQN196666:PQN196699 QAJ196666:QAJ196699 QKF196666:QKF196699 QUB196666:QUB196699 RDX196666:RDX196699 RNT196666:RNT196699 RXP196666:RXP196699 SHL196666:SHL196699 SRH196666:SRH196699 TBD196666:TBD196699 TKZ196666:TKZ196699 TUV196666:TUV196699 UER196666:UER196699 UON196666:UON196699 UYJ196666:UYJ196699 VIF196666:VIF196699 VSB196666:VSB196699 WBX196666:WBX196699 WLT196666:WLT196699 WVP196666:WVP196699 H262202:H262235 JD262202:JD262235 SZ262202:SZ262235 ACV262202:ACV262235 AMR262202:AMR262235 AWN262202:AWN262235 BGJ262202:BGJ262235 BQF262202:BQF262235 CAB262202:CAB262235 CJX262202:CJX262235 CTT262202:CTT262235 DDP262202:DDP262235 DNL262202:DNL262235 DXH262202:DXH262235 EHD262202:EHD262235 EQZ262202:EQZ262235 FAV262202:FAV262235 FKR262202:FKR262235 FUN262202:FUN262235 GEJ262202:GEJ262235 GOF262202:GOF262235 GYB262202:GYB262235 HHX262202:HHX262235 HRT262202:HRT262235 IBP262202:IBP262235 ILL262202:ILL262235 IVH262202:IVH262235 JFD262202:JFD262235 JOZ262202:JOZ262235 JYV262202:JYV262235 KIR262202:KIR262235 KSN262202:KSN262235 LCJ262202:LCJ262235 LMF262202:LMF262235 LWB262202:LWB262235 MFX262202:MFX262235 MPT262202:MPT262235 MZP262202:MZP262235 NJL262202:NJL262235 NTH262202:NTH262235 ODD262202:ODD262235 OMZ262202:OMZ262235 OWV262202:OWV262235 PGR262202:PGR262235 PQN262202:PQN262235 QAJ262202:QAJ262235 QKF262202:QKF262235 QUB262202:QUB262235 RDX262202:RDX262235 RNT262202:RNT262235 RXP262202:RXP262235 SHL262202:SHL262235 SRH262202:SRH262235 TBD262202:TBD262235 TKZ262202:TKZ262235 TUV262202:TUV262235 UER262202:UER262235 UON262202:UON262235 UYJ262202:UYJ262235 VIF262202:VIF262235 VSB262202:VSB262235 WBX262202:WBX262235 WLT262202:WLT262235 WVP262202:WVP262235 H327738:H327771 JD327738:JD327771 SZ327738:SZ327771 ACV327738:ACV327771 AMR327738:AMR327771 AWN327738:AWN327771 BGJ327738:BGJ327771 BQF327738:BQF327771 CAB327738:CAB327771 CJX327738:CJX327771 CTT327738:CTT327771 DDP327738:DDP327771 DNL327738:DNL327771 DXH327738:DXH327771 EHD327738:EHD327771 EQZ327738:EQZ327771 FAV327738:FAV327771 FKR327738:FKR327771 FUN327738:FUN327771 GEJ327738:GEJ327771 GOF327738:GOF327771 GYB327738:GYB327771 HHX327738:HHX327771 HRT327738:HRT327771 IBP327738:IBP327771 ILL327738:ILL327771 IVH327738:IVH327771 JFD327738:JFD327771 JOZ327738:JOZ327771 JYV327738:JYV327771 KIR327738:KIR327771 KSN327738:KSN327771 LCJ327738:LCJ327771 LMF327738:LMF327771 LWB327738:LWB327771 MFX327738:MFX327771 MPT327738:MPT327771 MZP327738:MZP327771 NJL327738:NJL327771 NTH327738:NTH327771 ODD327738:ODD327771 OMZ327738:OMZ327771 OWV327738:OWV327771 PGR327738:PGR327771 PQN327738:PQN327771 QAJ327738:QAJ327771 QKF327738:QKF327771 QUB327738:QUB327771 RDX327738:RDX327771 RNT327738:RNT327771 RXP327738:RXP327771 SHL327738:SHL327771 SRH327738:SRH327771 TBD327738:TBD327771 TKZ327738:TKZ327771 TUV327738:TUV327771 UER327738:UER327771 UON327738:UON327771 UYJ327738:UYJ327771 VIF327738:VIF327771 VSB327738:VSB327771 WBX327738:WBX327771 WLT327738:WLT327771 WVP327738:WVP327771 H393274:H393307 JD393274:JD393307 SZ393274:SZ393307 ACV393274:ACV393307 AMR393274:AMR393307 AWN393274:AWN393307 BGJ393274:BGJ393307 BQF393274:BQF393307 CAB393274:CAB393307 CJX393274:CJX393307 CTT393274:CTT393307 DDP393274:DDP393307 DNL393274:DNL393307 DXH393274:DXH393307 EHD393274:EHD393307 EQZ393274:EQZ393307 FAV393274:FAV393307 FKR393274:FKR393307 FUN393274:FUN393307 GEJ393274:GEJ393307 GOF393274:GOF393307 GYB393274:GYB393307 HHX393274:HHX393307 HRT393274:HRT393307 IBP393274:IBP393307 ILL393274:ILL393307 IVH393274:IVH393307 JFD393274:JFD393307 JOZ393274:JOZ393307 JYV393274:JYV393307 KIR393274:KIR393307 KSN393274:KSN393307 LCJ393274:LCJ393307 LMF393274:LMF393307 LWB393274:LWB393307 MFX393274:MFX393307 MPT393274:MPT393307 MZP393274:MZP393307 NJL393274:NJL393307 NTH393274:NTH393307 ODD393274:ODD393307 OMZ393274:OMZ393307 OWV393274:OWV393307 PGR393274:PGR393307 PQN393274:PQN393307 QAJ393274:QAJ393307 QKF393274:QKF393307 QUB393274:QUB393307 RDX393274:RDX393307 RNT393274:RNT393307 RXP393274:RXP393307 SHL393274:SHL393307 SRH393274:SRH393307 TBD393274:TBD393307 TKZ393274:TKZ393307 TUV393274:TUV393307 UER393274:UER393307 UON393274:UON393307 UYJ393274:UYJ393307 VIF393274:VIF393307 VSB393274:VSB393307 WBX393274:WBX393307 WLT393274:WLT393307 WVP393274:WVP393307 H458810:H458843 JD458810:JD458843 SZ458810:SZ458843 ACV458810:ACV458843 AMR458810:AMR458843 AWN458810:AWN458843 BGJ458810:BGJ458843 BQF458810:BQF458843 CAB458810:CAB458843 CJX458810:CJX458843 CTT458810:CTT458843 DDP458810:DDP458843 DNL458810:DNL458843 DXH458810:DXH458843 EHD458810:EHD458843 EQZ458810:EQZ458843 FAV458810:FAV458843 FKR458810:FKR458843 FUN458810:FUN458843 GEJ458810:GEJ458843 GOF458810:GOF458843 GYB458810:GYB458843 HHX458810:HHX458843 HRT458810:HRT458843 IBP458810:IBP458843 ILL458810:ILL458843 IVH458810:IVH458843 JFD458810:JFD458843 JOZ458810:JOZ458843 JYV458810:JYV458843 KIR458810:KIR458843 KSN458810:KSN458843 LCJ458810:LCJ458843 LMF458810:LMF458843 LWB458810:LWB458843 MFX458810:MFX458843 MPT458810:MPT458843 MZP458810:MZP458843 NJL458810:NJL458843 NTH458810:NTH458843 ODD458810:ODD458843 OMZ458810:OMZ458843 OWV458810:OWV458843 PGR458810:PGR458843 PQN458810:PQN458843 QAJ458810:QAJ458843 QKF458810:QKF458843 QUB458810:QUB458843 RDX458810:RDX458843 RNT458810:RNT458843 RXP458810:RXP458843 SHL458810:SHL458843 SRH458810:SRH458843 TBD458810:TBD458843 TKZ458810:TKZ458843 TUV458810:TUV458843 UER458810:UER458843 UON458810:UON458843 UYJ458810:UYJ458843 VIF458810:VIF458843 VSB458810:VSB458843 WBX458810:WBX458843 WLT458810:WLT458843 WVP458810:WVP458843 H524346:H524379 JD524346:JD524379 SZ524346:SZ524379 ACV524346:ACV524379 AMR524346:AMR524379 AWN524346:AWN524379 BGJ524346:BGJ524379 BQF524346:BQF524379 CAB524346:CAB524379 CJX524346:CJX524379 CTT524346:CTT524379 DDP524346:DDP524379 DNL524346:DNL524379 DXH524346:DXH524379 EHD524346:EHD524379 EQZ524346:EQZ524379 FAV524346:FAV524379 FKR524346:FKR524379 FUN524346:FUN524379 GEJ524346:GEJ524379 GOF524346:GOF524379 GYB524346:GYB524379 HHX524346:HHX524379 HRT524346:HRT524379 IBP524346:IBP524379 ILL524346:ILL524379 IVH524346:IVH524379 JFD524346:JFD524379 JOZ524346:JOZ524379 JYV524346:JYV524379 KIR524346:KIR524379 KSN524346:KSN524379 LCJ524346:LCJ524379 LMF524346:LMF524379 LWB524346:LWB524379 MFX524346:MFX524379 MPT524346:MPT524379 MZP524346:MZP524379 NJL524346:NJL524379 NTH524346:NTH524379 ODD524346:ODD524379 OMZ524346:OMZ524379 OWV524346:OWV524379 PGR524346:PGR524379 PQN524346:PQN524379 QAJ524346:QAJ524379 QKF524346:QKF524379 QUB524346:QUB524379 RDX524346:RDX524379 RNT524346:RNT524379 RXP524346:RXP524379 SHL524346:SHL524379 SRH524346:SRH524379 TBD524346:TBD524379 TKZ524346:TKZ524379 TUV524346:TUV524379 UER524346:UER524379 UON524346:UON524379 UYJ524346:UYJ524379 VIF524346:VIF524379 VSB524346:VSB524379 WBX524346:WBX524379 WLT524346:WLT524379 WVP524346:WVP524379 H589882:H589915 JD589882:JD589915 SZ589882:SZ589915 ACV589882:ACV589915 AMR589882:AMR589915 AWN589882:AWN589915 BGJ589882:BGJ589915 BQF589882:BQF589915 CAB589882:CAB589915 CJX589882:CJX589915 CTT589882:CTT589915 DDP589882:DDP589915 DNL589882:DNL589915 DXH589882:DXH589915 EHD589882:EHD589915 EQZ589882:EQZ589915 FAV589882:FAV589915 FKR589882:FKR589915 FUN589882:FUN589915 GEJ589882:GEJ589915 GOF589882:GOF589915 GYB589882:GYB589915 HHX589882:HHX589915 HRT589882:HRT589915 IBP589882:IBP589915 ILL589882:ILL589915 IVH589882:IVH589915 JFD589882:JFD589915 JOZ589882:JOZ589915 JYV589882:JYV589915 KIR589882:KIR589915 KSN589882:KSN589915 LCJ589882:LCJ589915 LMF589882:LMF589915 LWB589882:LWB589915 MFX589882:MFX589915 MPT589882:MPT589915 MZP589882:MZP589915 NJL589882:NJL589915 NTH589882:NTH589915 ODD589882:ODD589915 OMZ589882:OMZ589915 OWV589882:OWV589915 PGR589882:PGR589915 PQN589882:PQN589915 QAJ589882:QAJ589915 QKF589882:QKF589915 QUB589882:QUB589915 RDX589882:RDX589915 RNT589882:RNT589915 RXP589882:RXP589915 SHL589882:SHL589915 SRH589882:SRH589915 TBD589882:TBD589915 TKZ589882:TKZ589915 TUV589882:TUV589915 UER589882:UER589915 UON589882:UON589915 UYJ589882:UYJ589915 VIF589882:VIF589915 VSB589882:VSB589915 WBX589882:WBX589915 WLT589882:WLT589915 WVP589882:WVP589915 H655418:H655451 JD655418:JD655451 SZ655418:SZ655451 ACV655418:ACV655451 AMR655418:AMR655451 AWN655418:AWN655451 BGJ655418:BGJ655451 BQF655418:BQF655451 CAB655418:CAB655451 CJX655418:CJX655451 CTT655418:CTT655451 DDP655418:DDP655451 DNL655418:DNL655451 DXH655418:DXH655451 EHD655418:EHD655451 EQZ655418:EQZ655451 FAV655418:FAV655451 FKR655418:FKR655451 FUN655418:FUN655451 GEJ655418:GEJ655451 GOF655418:GOF655451 GYB655418:GYB655451 HHX655418:HHX655451 HRT655418:HRT655451 IBP655418:IBP655451 ILL655418:ILL655451 IVH655418:IVH655451 JFD655418:JFD655451 JOZ655418:JOZ655451 JYV655418:JYV655451 KIR655418:KIR655451 KSN655418:KSN655451 LCJ655418:LCJ655451 LMF655418:LMF655451 LWB655418:LWB655451 MFX655418:MFX655451 MPT655418:MPT655451 MZP655418:MZP655451 NJL655418:NJL655451 NTH655418:NTH655451 ODD655418:ODD655451 OMZ655418:OMZ655451 OWV655418:OWV655451 PGR655418:PGR655451 PQN655418:PQN655451 QAJ655418:QAJ655451 QKF655418:QKF655451 QUB655418:QUB655451 RDX655418:RDX655451 RNT655418:RNT655451 RXP655418:RXP655451 SHL655418:SHL655451 SRH655418:SRH655451 TBD655418:TBD655451 TKZ655418:TKZ655451 TUV655418:TUV655451 UER655418:UER655451 UON655418:UON655451 UYJ655418:UYJ655451 VIF655418:VIF655451 VSB655418:VSB655451 WBX655418:WBX655451 WLT655418:WLT655451 WVP655418:WVP655451 H720954:H720987 JD720954:JD720987 SZ720954:SZ720987 ACV720954:ACV720987 AMR720954:AMR720987 AWN720954:AWN720987 BGJ720954:BGJ720987 BQF720954:BQF720987 CAB720954:CAB720987 CJX720954:CJX720987 CTT720954:CTT720987 DDP720954:DDP720987 DNL720954:DNL720987 DXH720954:DXH720987 EHD720954:EHD720987 EQZ720954:EQZ720987 FAV720954:FAV720987 FKR720954:FKR720987 FUN720954:FUN720987 GEJ720954:GEJ720987 GOF720954:GOF720987 GYB720954:GYB720987 HHX720954:HHX720987 HRT720954:HRT720987 IBP720954:IBP720987 ILL720954:ILL720987 IVH720954:IVH720987 JFD720954:JFD720987 JOZ720954:JOZ720987 JYV720954:JYV720987 KIR720954:KIR720987 KSN720954:KSN720987 LCJ720954:LCJ720987 LMF720954:LMF720987 LWB720954:LWB720987 MFX720954:MFX720987 MPT720954:MPT720987 MZP720954:MZP720987 NJL720954:NJL720987 NTH720954:NTH720987 ODD720954:ODD720987 OMZ720954:OMZ720987 OWV720954:OWV720987 PGR720954:PGR720987 PQN720954:PQN720987 QAJ720954:QAJ720987 QKF720954:QKF720987 QUB720954:QUB720987 RDX720954:RDX720987 RNT720954:RNT720987 RXP720954:RXP720987 SHL720954:SHL720987 SRH720954:SRH720987 TBD720954:TBD720987 TKZ720954:TKZ720987 TUV720954:TUV720987 UER720954:UER720987 UON720954:UON720987 UYJ720954:UYJ720987 VIF720954:VIF720987 VSB720954:VSB720987 WBX720954:WBX720987 WLT720954:WLT720987 WVP720954:WVP720987 H786490:H786523 JD786490:JD786523 SZ786490:SZ786523 ACV786490:ACV786523 AMR786490:AMR786523 AWN786490:AWN786523 BGJ786490:BGJ786523 BQF786490:BQF786523 CAB786490:CAB786523 CJX786490:CJX786523 CTT786490:CTT786523 DDP786490:DDP786523 DNL786490:DNL786523 DXH786490:DXH786523 EHD786490:EHD786523 EQZ786490:EQZ786523 FAV786490:FAV786523 FKR786490:FKR786523 FUN786490:FUN786523 GEJ786490:GEJ786523 GOF786490:GOF786523 GYB786490:GYB786523 HHX786490:HHX786523 HRT786490:HRT786523 IBP786490:IBP786523 ILL786490:ILL786523 IVH786490:IVH786523 JFD786490:JFD786523 JOZ786490:JOZ786523 JYV786490:JYV786523 KIR786490:KIR786523 KSN786490:KSN786523 LCJ786490:LCJ786523 LMF786490:LMF786523 LWB786490:LWB786523 MFX786490:MFX786523 MPT786490:MPT786523 MZP786490:MZP786523 NJL786490:NJL786523 NTH786490:NTH786523 ODD786490:ODD786523 OMZ786490:OMZ786523 OWV786490:OWV786523 PGR786490:PGR786523 PQN786490:PQN786523 QAJ786490:QAJ786523 QKF786490:QKF786523 QUB786490:QUB786523 RDX786490:RDX786523 RNT786490:RNT786523 RXP786490:RXP786523 SHL786490:SHL786523 SRH786490:SRH786523 TBD786490:TBD786523 TKZ786490:TKZ786523 TUV786490:TUV786523 UER786490:UER786523 UON786490:UON786523 UYJ786490:UYJ786523 VIF786490:VIF786523 VSB786490:VSB786523 WBX786490:WBX786523 WLT786490:WLT786523 WVP786490:WVP786523 H852026:H852059 JD852026:JD852059 SZ852026:SZ852059 ACV852026:ACV852059 AMR852026:AMR852059 AWN852026:AWN852059 BGJ852026:BGJ852059 BQF852026:BQF852059 CAB852026:CAB852059 CJX852026:CJX852059 CTT852026:CTT852059 DDP852026:DDP852059 DNL852026:DNL852059 DXH852026:DXH852059 EHD852026:EHD852059 EQZ852026:EQZ852059 FAV852026:FAV852059 FKR852026:FKR852059 FUN852026:FUN852059 GEJ852026:GEJ852059 GOF852026:GOF852059 GYB852026:GYB852059 HHX852026:HHX852059 HRT852026:HRT852059 IBP852026:IBP852059 ILL852026:ILL852059 IVH852026:IVH852059 JFD852026:JFD852059 JOZ852026:JOZ852059 JYV852026:JYV852059 KIR852026:KIR852059 KSN852026:KSN852059 LCJ852026:LCJ852059 LMF852026:LMF852059 LWB852026:LWB852059 MFX852026:MFX852059 MPT852026:MPT852059 MZP852026:MZP852059 NJL852026:NJL852059 NTH852026:NTH852059 ODD852026:ODD852059 OMZ852026:OMZ852059 OWV852026:OWV852059 PGR852026:PGR852059 PQN852026:PQN852059 QAJ852026:QAJ852059 QKF852026:QKF852059 QUB852026:QUB852059 RDX852026:RDX852059 RNT852026:RNT852059 RXP852026:RXP852059 SHL852026:SHL852059 SRH852026:SRH852059 TBD852026:TBD852059 TKZ852026:TKZ852059 TUV852026:TUV852059 UER852026:UER852059 UON852026:UON852059 UYJ852026:UYJ852059 VIF852026:VIF852059 VSB852026:VSB852059 WBX852026:WBX852059 WLT852026:WLT852059 WVP852026:WVP852059 H917562:H917595 JD917562:JD917595 SZ917562:SZ917595 ACV917562:ACV917595 AMR917562:AMR917595 AWN917562:AWN917595 BGJ917562:BGJ917595 BQF917562:BQF917595 CAB917562:CAB917595 CJX917562:CJX917595 CTT917562:CTT917595 DDP917562:DDP917595 DNL917562:DNL917595 DXH917562:DXH917595 EHD917562:EHD917595 EQZ917562:EQZ917595 FAV917562:FAV917595 FKR917562:FKR917595 FUN917562:FUN917595 GEJ917562:GEJ917595 GOF917562:GOF917595 GYB917562:GYB917595 HHX917562:HHX917595 HRT917562:HRT917595 IBP917562:IBP917595 ILL917562:ILL917595 IVH917562:IVH917595 JFD917562:JFD917595 JOZ917562:JOZ917595 JYV917562:JYV917595 KIR917562:KIR917595 KSN917562:KSN917595 LCJ917562:LCJ917595 LMF917562:LMF917595 LWB917562:LWB917595 MFX917562:MFX917595 MPT917562:MPT917595 MZP917562:MZP917595 NJL917562:NJL917595 NTH917562:NTH917595 ODD917562:ODD917595 OMZ917562:OMZ917595 OWV917562:OWV917595 PGR917562:PGR917595 PQN917562:PQN917595 QAJ917562:QAJ917595 QKF917562:QKF917595 QUB917562:QUB917595 RDX917562:RDX917595 RNT917562:RNT917595 RXP917562:RXP917595 SHL917562:SHL917595 SRH917562:SRH917595 TBD917562:TBD917595 TKZ917562:TKZ917595 TUV917562:TUV917595 UER917562:UER917595 UON917562:UON917595 UYJ917562:UYJ917595 VIF917562:VIF917595 VSB917562:VSB917595 WBX917562:WBX917595 WLT917562:WLT917595 WVP917562:WVP917595 H983098:H983131 JD983098:JD983131 SZ983098:SZ983131 ACV983098:ACV983131 AMR983098:AMR983131 AWN983098:AWN983131 BGJ983098:BGJ983131 BQF983098:BQF983131 CAB983098:CAB983131 CJX983098:CJX983131 CTT983098:CTT983131 DDP983098:DDP983131 DNL983098:DNL983131 DXH983098:DXH983131 EHD983098:EHD983131 EQZ983098:EQZ983131 FAV983098:FAV983131 FKR983098:FKR983131 FUN983098:FUN983131 GEJ983098:GEJ983131 GOF983098:GOF983131 GYB983098:GYB983131 HHX983098:HHX983131 HRT983098:HRT983131 IBP983098:IBP983131 ILL983098:ILL983131 IVH983098:IVH983131 JFD983098:JFD983131 JOZ983098:JOZ983131 JYV983098:JYV983131 KIR983098:KIR983131 KSN983098:KSN983131 LCJ983098:LCJ983131 LMF983098:LMF983131 LWB983098:LWB983131 MFX983098:MFX983131 MPT983098:MPT983131 MZP983098:MZP983131 NJL983098:NJL983131 NTH983098:NTH983131 ODD983098:ODD983131 OMZ983098:OMZ983131 OWV983098:OWV983131 PGR983098:PGR983131 PQN983098:PQN983131 QAJ983098:QAJ983131 QKF983098:QKF983131 QUB983098:QUB983131 RDX983098:RDX983131 RNT983098:RNT983131 RXP983098:RXP983131 SHL983098:SHL983131 SRH983098:SRH983131 TBD983098:TBD983131 TKZ983098:TKZ983131 TUV983098:TUV983131 UER983098:UER983131 UON983098:UON983131 UYJ983098:UYJ983131 VIF983098:VIF983131 VSB983098:VSB983131 WBX983098:WBX983131 WLT983098:WLT983131 WVP983098:WVP983131 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H755" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD831A4-8BD0-413F-9655-CEE2DB8D5514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BC86C-1426-4B04-909F-2AEE9A1D0A45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="579">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2259,19 +2259,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>探查第三批表间数据质量报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>整理汇合第三批表间数据质量报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>和吕哥整理数据质量质量报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理数据质量报告</t>
+    <t>整理第三批表间数据质量文档---再保模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探查第三批表间数据质量报告---承包模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理数据质量报告--承包模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理数据质量报告--标的模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与吕哥探讨第三批数据质量问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚保信sft空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小卉探讨第三批表间数据质量文档---再保模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理探查第三批表间数据质量文档---再保模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与员员一起探讨再保业务数据问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与员员一起探讨再保业务数据问题，整理下周工作内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2813,526 +2841,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="G742" sqref="G742"/>
+    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
+      <selection activeCell="J740" sqref="J740"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="54.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="257" max="257" width="16.83203125" customWidth="1"/>
-    <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.08203125" customWidth="1"/>
-    <col min="260" max="260" width="9.25" customWidth="1"/>
-    <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="257" max="257" width="16.77734375" customWidth="1"/>
+    <col min="258" max="258" width="5.44140625" customWidth="1"/>
+    <col min="259" max="259" width="8.109375" customWidth="1"/>
+    <col min="260" max="260" width="9.21875" customWidth="1"/>
+    <col min="261" max="261" width="10.44140625" customWidth="1"/>
+    <col min="262" max="262" width="9.77734375" customWidth="1"/>
     <col min="263" max="263" width="54.33203125" customWidth="1"/>
-    <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.83203125" customWidth="1"/>
-    <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.08203125" customWidth="1"/>
-    <col min="516" max="516" width="9.25" customWidth="1"/>
-    <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.83203125" customWidth="1"/>
+    <col min="264" max="264" width="9.44140625" customWidth="1"/>
+    <col min="513" max="513" width="16.77734375" customWidth="1"/>
+    <col min="514" max="514" width="5.44140625" customWidth="1"/>
+    <col min="515" max="515" width="8.109375" customWidth="1"/>
+    <col min="516" max="516" width="9.21875" customWidth="1"/>
+    <col min="517" max="517" width="10.44140625" customWidth="1"/>
+    <col min="518" max="518" width="9.77734375" customWidth="1"/>
     <col min="519" max="519" width="54.33203125" customWidth="1"/>
-    <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.83203125" customWidth="1"/>
-    <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.08203125" customWidth="1"/>
-    <col min="772" max="772" width="9.25" customWidth="1"/>
-    <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.83203125" customWidth="1"/>
+    <col min="520" max="520" width="9.44140625" customWidth="1"/>
+    <col min="769" max="769" width="16.77734375" customWidth="1"/>
+    <col min="770" max="770" width="5.44140625" customWidth="1"/>
+    <col min="771" max="771" width="8.109375" customWidth="1"/>
+    <col min="772" max="772" width="9.21875" customWidth="1"/>
+    <col min="773" max="773" width="10.44140625" customWidth="1"/>
+    <col min="774" max="774" width="9.77734375" customWidth="1"/>
     <col min="775" max="775" width="54.33203125" customWidth="1"/>
-    <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.08203125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.25" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
+    <col min="776" max="776" width="9.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="16.77734375" customWidth="1"/>
+    <col min="1026" max="1026" width="5.44140625" customWidth="1"/>
+    <col min="1027" max="1027" width="8.109375" customWidth="1"/>
+    <col min="1028" max="1028" width="9.21875" customWidth="1"/>
+    <col min="1029" max="1029" width="10.44140625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.77734375" customWidth="1"/>
     <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.08203125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.25" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
+    <col min="1032" max="1032" width="9.44140625" customWidth="1"/>
+    <col min="1281" max="1281" width="16.77734375" customWidth="1"/>
+    <col min="1282" max="1282" width="5.44140625" customWidth="1"/>
+    <col min="1283" max="1283" width="8.109375" customWidth="1"/>
+    <col min="1284" max="1284" width="9.21875" customWidth="1"/>
+    <col min="1285" max="1285" width="10.44140625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.77734375" customWidth="1"/>
     <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.08203125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.25" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
+    <col min="1288" max="1288" width="9.44140625" customWidth="1"/>
+    <col min="1537" max="1537" width="16.77734375" customWidth="1"/>
+    <col min="1538" max="1538" width="5.44140625" customWidth="1"/>
+    <col min="1539" max="1539" width="8.109375" customWidth="1"/>
+    <col min="1540" max="1540" width="9.21875" customWidth="1"/>
+    <col min="1541" max="1541" width="10.44140625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.77734375" customWidth="1"/>
     <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.08203125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.25" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
+    <col min="1544" max="1544" width="9.44140625" customWidth="1"/>
+    <col min="1793" max="1793" width="16.77734375" customWidth="1"/>
+    <col min="1794" max="1794" width="5.44140625" customWidth="1"/>
+    <col min="1795" max="1795" width="8.109375" customWidth="1"/>
+    <col min="1796" max="1796" width="9.21875" customWidth="1"/>
+    <col min="1797" max="1797" width="10.44140625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.77734375" customWidth="1"/>
     <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.08203125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.25" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
+    <col min="1800" max="1800" width="9.44140625" customWidth="1"/>
+    <col min="2049" max="2049" width="16.77734375" customWidth="1"/>
+    <col min="2050" max="2050" width="5.44140625" customWidth="1"/>
+    <col min="2051" max="2051" width="8.109375" customWidth="1"/>
+    <col min="2052" max="2052" width="9.21875" customWidth="1"/>
+    <col min="2053" max="2053" width="10.44140625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.77734375" customWidth="1"/>
     <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.08203125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.25" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
+    <col min="2056" max="2056" width="9.44140625" customWidth="1"/>
+    <col min="2305" max="2305" width="16.77734375" customWidth="1"/>
+    <col min="2306" max="2306" width="5.44140625" customWidth="1"/>
+    <col min="2307" max="2307" width="8.109375" customWidth="1"/>
+    <col min="2308" max="2308" width="9.21875" customWidth="1"/>
+    <col min="2309" max="2309" width="10.44140625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.77734375" customWidth="1"/>
     <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.08203125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.25" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
+    <col min="2312" max="2312" width="9.44140625" customWidth="1"/>
+    <col min="2561" max="2561" width="16.77734375" customWidth="1"/>
+    <col min="2562" max="2562" width="5.44140625" customWidth="1"/>
+    <col min="2563" max="2563" width="8.109375" customWidth="1"/>
+    <col min="2564" max="2564" width="9.21875" customWidth="1"/>
+    <col min="2565" max="2565" width="10.44140625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.77734375" customWidth="1"/>
     <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.08203125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.25" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
+    <col min="2568" max="2568" width="9.44140625" customWidth="1"/>
+    <col min="2817" max="2817" width="16.77734375" customWidth="1"/>
+    <col min="2818" max="2818" width="5.44140625" customWidth="1"/>
+    <col min="2819" max="2819" width="8.109375" customWidth="1"/>
+    <col min="2820" max="2820" width="9.21875" customWidth="1"/>
+    <col min="2821" max="2821" width="10.44140625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.77734375" customWidth="1"/>
     <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.08203125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.25" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
+    <col min="2824" max="2824" width="9.44140625" customWidth="1"/>
+    <col min="3073" max="3073" width="16.77734375" customWidth="1"/>
+    <col min="3074" max="3074" width="5.44140625" customWidth="1"/>
+    <col min="3075" max="3075" width="8.109375" customWidth="1"/>
+    <col min="3076" max="3076" width="9.21875" customWidth="1"/>
+    <col min="3077" max="3077" width="10.44140625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.77734375" customWidth="1"/>
     <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.08203125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.25" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
+    <col min="3080" max="3080" width="9.44140625" customWidth="1"/>
+    <col min="3329" max="3329" width="16.77734375" customWidth="1"/>
+    <col min="3330" max="3330" width="5.44140625" customWidth="1"/>
+    <col min="3331" max="3331" width="8.109375" customWidth="1"/>
+    <col min="3332" max="3332" width="9.21875" customWidth="1"/>
+    <col min="3333" max="3333" width="10.44140625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.77734375" customWidth="1"/>
     <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.08203125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.25" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
+    <col min="3336" max="3336" width="9.44140625" customWidth="1"/>
+    <col min="3585" max="3585" width="16.77734375" customWidth="1"/>
+    <col min="3586" max="3586" width="5.44140625" customWidth="1"/>
+    <col min="3587" max="3587" width="8.109375" customWidth="1"/>
+    <col min="3588" max="3588" width="9.21875" customWidth="1"/>
+    <col min="3589" max="3589" width="10.44140625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.77734375" customWidth="1"/>
     <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.08203125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.25" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
+    <col min="3592" max="3592" width="9.44140625" customWidth="1"/>
+    <col min="3841" max="3841" width="16.77734375" customWidth="1"/>
+    <col min="3842" max="3842" width="5.44140625" customWidth="1"/>
+    <col min="3843" max="3843" width="8.109375" customWidth="1"/>
+    <col min="3844" max="3844" width="9.21875" customWidth="1"/>
+    <col min="3845" max="3845" width="10.44140625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.77734375" customWidth="1"/>
     <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.08203125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.25" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
+    <col min="3848" max="3848" width="9.44140625" customWidth="1"/>
+    <col min="4097" max="4097" width="16.77734375" customWidth="1"/>
+    <col min="4098" max="4098" width="5.44140625" customWidth="1"/>
+    <col min="4099" max="4099" width="8.109375" customWidth="1"/>
+    <col min="4100" max="4100" width="9.21875" customWidth="1"/>
+    <col min="4101" max="4101" width="10.44140625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.77734375" customWidth="1"/>
     <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.08203125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.25" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
+    <col min="4104" max="4104" width="9.44140625" customWidth="1"/>
+    <col min="4353" max="4353" width="16.77734375" customWidth="1"/>
+    <col min="4354" max="4354" width="5.44140625" customWidth="1"/>
+    <col min="4355" max="4355" width="8.109375" customWidth="1"/>
+    <col min="4356" max="4356" width="9.21875" customWidth="1"/>
+    <col min="4357" max="4357" width="10.44140625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.77734375" customWidth="1"/>
     <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.08203125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.25" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
+    <col min="4360" max="4360" width="9.44140625" customWidth="1"/>
+    <col min="4609" max="4609" width="16.77734375" customWidth="1"/>
+    <col min="4610" max="4610" width="5.44140625" customWidth="1"/>
+    <col min="4611" max="4611" width="8.109375" customWidth="1"/>
+    <col min="4612" max="4612" width="9.21875" customWidth="1"/>
+    <col min="4613" max="4613" width="10.44140625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.77734375" customWidth="1"/>
     <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.08203125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.25" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
+    <col min="4616" max="4616" width="9.44140625" customWidth="1"/>
+    <col min="4865" max="4865" width="16.77734375" customWidth="1"/>
+    <col min="4866" max="4866" width="5.44140625" customWidth="1"/>
+    <col min="4867" max="4867" width="8.109375" customWidth="1"/>
+    <col min="4868" max="4868" width="9.21875" customWidth="1"/>
+    <col min="4869" max="4869" width="10.44140625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.77734375" customWidth="1"/>
     <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.08203125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.25" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
+    <col min="4872" max="4872" width="9.44140625" customWidth="1"/>
+    <col min="5121" max="5121" width="16.77734375" customWidth="1"/>
+    <col min="5122" max="5122" width="5.44140625" customWidth="1"/>
+    <col min="5123" max="5123" width="8.109375" customWidth="1"/>
+    <col min="5124" max="5124" width="9.21875" customWidth="1"/>
+    <col min="5125" max="5125" width="10.44140625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.77734375" customWidth="1"/>
     <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.08203125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.25" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
+    <col min="5128" max="5128" width="9.44140625" customWidth="1"/>
+    <col min="5377" max="5377" width="16.77734375" customWidth="1"/>
+    <col min="5378" max="5378" width="5.44140625" customWidth="1"/>
+    <col min="5379" max="5379" width="8.109375" customWidth="1"/>
+    <col min="5380" max="5380" width="9.21875" customWidth="1"/>
+    <col min="5381" max="5381" width="10.44140625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.77734375" customWidth="1"/>
     <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.08203125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.25" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
+    <col min="5384" max="5384" width="9.44140625" customWidth="1"/>
+    <col min="5633" max="5633" width="16.77734375" customWidth="1"/>
+    <col min="5634" max="5634" width="5.44140625" customWidth="1"/>
+    <col min="5635" max="5635" width="8.109375" customWidth="1"/>
+    <col min="5636" max="5636" width="9.21875" customWidth="1"/>
+    <col min="5637" max="5637" width="10.44140625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.77734375" customWidth="1"/>
     <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.08203125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.25" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
+    <col min="5640" max="5640" width="9.44140625" customWidth="1"/>
+    <col min="5889" max="5889" width="16.77734375" customWidth="1"/>
+    <col min="5890" max="5890" width="5.44140625" customWidth="1"/>
+    <col min="5891" max="5891" width="8.109375" customWidth="1"/>
+    <col min="5892" max="5892" width="9.21875" customWidth="1"/>
+    <col min="5893" max="5893" width="10.44140625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.77734375" customWidth="1"/>
     <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.08203125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.25" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
+    <col min="5896" max="5896" width="9.44140625" customWidth="1"/>
+    <col min="6145" max="6145" width="16.77734375" customWidth="1"/>
+    <col min="6146" max="6146" width="5.44140625" customWidth="1"/>
+    <col min="6147" max="6147" width="8.109375" customWidth="1"/>
+    <col min="6148" max="6148" width="9.21875" customWidth="1"/>
+    <col min="6149" max="6149" width="10.44140625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.77734375" customWidth="1"/>
     <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.08203125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.25" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
+    <col min="6152" max="6152" width="9.44140625" customWidth="1"/>
+    <col min="6401" max="6401" width="16.77734375" customWidth="1"/>
+    <col min="6402" max="6402" width="5.44140625" customWidth="1"/>
+    <col min="6403" max="6403" width="8.109375" customWidth="1"/>
+    <col min="6404" max="6404" width="9.21875" customWidth="1"/>
+    <col min="6405" max="6405" width="10.44140625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.77734375" customWidth="1"/>
     <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.08203125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.25" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
+    <col min="6408" max="6408" width="9.44140625" customWidth="1"/>
+    <col min="6657" max="6657" width="16.77734375" customWidth="1"/>
+    <col min="6658" max="6658" width="5.44140625" customWidth="1"/>
+    <col min="6659" max="6659" width="8.109375" customWidth="1"/>
+    <col min="6660" max="6660" width="9.21875" customWidth="1"/>
+    <col min="6661" max="6661" width="10.44140625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.77734375" customWidth="1"/>
     <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.08203125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.25" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
+    <col min="6664" max="6664" width="9.44140625" customWidth="1"/>
+    <col min="6913" max="6913" width="16.77734375" customWidth="1"/>
+    <col min="6914" max="6914" width="5.44140625" customWidth="1"/>
+    <col min="6915" max="6915" width="8.109375" customWidth="1"/>
+    <col min="6916" max="6916" width="9.21875" customWidth="1"/>
+    <col min="6917" max="6917" width="10.44140625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.77734375" customWidth="1"/>
     <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.08203125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.25" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
+    <col min="6920" max="6920" width="9.44140625" customWidth="1"/>
+    <col min="7169" max="7169" width="16.77734375" customWidth="1"/>
+    <col min="7170" max="7170" width="5.44140625" customWidth="1"/>
+    <col min="7171" max="7171" width="8.109375" customWidth="1"/>
+    <col min="7172" max="7172" width="9.21875" customWidth="1"/>
+    <col min="7173" max="7173" width="10.44140625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.77734375" customWidth="1"/>
     <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.08203125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.25" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
+    <col min="7176" max="7176" width="9.44140625" customWidth="1"/>
+    <col min="7425" max="7425" width="16.77734375" customWidth="1"/>
+    <col min="7426" max="7426" width="5.44140625" customWidth="1"/>
+    <col min="7427" max="7427" width="8.109375" customWidth="1"/>
+    <col min="7428" max="7428" width="9.21875" customWidth="1"/>
+    <col min="7429" max="7429" width="10.44140625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.77734375" customWidth="1"/>
     <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.08203125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.25" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
+    <col min="7432" max="7432" width="9.44140625" customWidth="1"/>
+    <col min="7681" max="7681" width="16.77734375" customWidth="1"/>
+    <col min="7682" max="7682" width="5.44140625" customWidth="1"/>
+    <col min="7683" max="7683" width="8.109375" customWidth="1"/>
+    <col min="7684" max="7684" width="9.21875" customWidth="1"/>
+    <col min="7685" max="7685" width="10.44140625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.77734375" customWidth="1"/>
     <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.08203125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.25" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
+    <col min="7688" max="7688" width="9.44140625" customWidth="1"/>
+    <col min="7937" max="7937" width="16.77734375" customWidth="1"/>
+    <col min="7938" max="7938" width="5.44140625" customWidth="1"/>
+    <col min="7939" max="7939" width="8.109375" customWidth="1"/>
+    <col min="7940" max="7940" width="9.21875" customWidth="1"/>
+    <col min="7941" max="7941" width="10.44140625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.77734375" customWidth="1"/>
     <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.08203125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.25" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
+    <col min="7944" max="7944" width="9.44140625" customWidth="1"/>
+    <col min="8193" max="8193" width="16.77734375" customWidth="1"/>
+    <col min="8194" max="8194" width="5.44140625" customWidth="1"/>
+    <col min="8195" max="8195" width="8.109375" customWidth="1"/>
+    <col min="8196" max="8196" width="9.21875" customWidth="1"/>
+    <col min="8197" max="8197" width="10.44140625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.77734375" customWidth="1"/>
     <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.08203125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.25" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
+    <col min="8200" max="8200" width="9.44140625" customWidth="1"/>
+    <col min="8449" max="8449" width="16.77734375" customWidth="1"/>
+    <col min="8450" max="8450" width="5.44140625" customWidth="1"/>
+    <col min="8451" max="8451" width="8.109375" customWidth="1"/>
+    <col min="8452" max="8452" width="9.21875" customWidth="1"/>
+    <col min="8453" max="8453" width="10.44140625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.77734375" customWidth="1"/>
     <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.08203125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.25" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
+    <col min="8456" max="8456" width="9.44140625" customWidth="1"/>
+    <col min="8705" max="8705" width="16.77734375" customWidth="1"/>
+    <col min="8706" max="8706" width="5.44140625" customWidth="1"/>
+    <col min="8707" max="8707" width="8.109375" customWidth="1"/>
+    <col min="8708" max="8708" width="9.21875" customWidth="1"/>
+    <col min="8709" max="8709" width="10.44140625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.77734375" customWidth="1"/>
     <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.08203125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.25" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
+    <col min="8712" max="8712" width="9.44140625" customWidth="1"/>
+    <col min="8961" max="8961" width="16.77734375" customWidth="1"/>
+    <col min="8962" max="8962" width="5.44140625" customWidth="1"/>
+    <col min="8963" max="8963" width="8.109375" customWidth="1"/>
+    <col min="8964" max="8964" width="9.21875" customWidth="1"/>
+    <col min="8965" max="8965" width="10.44140625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.77734375" customWidth="1"/>
     <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.08203125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.25" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
+    <col min="8968" max="8968" width="9.44140625" customWidth="1"/>
+    <col min="9217" max="9217" width="16.77734375" customWidth="1"/>
+    <col min="9218" max="9218" width="5.44140625" customWidth="1"/>
+    <col min="9219" max="9219" width="8.109375" customWidth="1"/>
+    <col min="9220" max="9220" width="9.21875" customWidth="1"/>
+    <col min="9221" max="9221" width="10.44140625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.77734375" customWidth="1"/>
     <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.08203125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.25" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
+    <col min="9224" max="9224" width="9.44140625" customWidth="1"/>
+    <col min="9473" max="9473" width="16.77734375" customWidth="1"/>
+    <col min="9474" max="9474" width="5.44140625" customWidth="1"/>
+    <col min="9475" max="9475" width="8.109375" customWidth="1"/>
+    <col min="9476" max="9476" width="9.21875" customWidth="1"/>
+    <col min="9477" max="9477" width="10.44140625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.77734375" customWidth="1"/>
     <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.08203125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.25" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
+    <col min="9480" max="9480" width="9.44140625" customWidth="1"/>
+    <col min="9729" max="9729" width="16.77734375" customWidth="1"/>
+    <col min="9730" max="9730" width="5.44140625" customWidth="1"/>
+    <col min="9731" max="9731" width="8.109375" customWidth="1"/>
+    <col min="9732" max="9732" width="9.21875" customWidth="1"/>
+    <col min="9733" max="9733" width="10.44140625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.77734375" customWidth="1"/>
     <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.08203125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.25" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
+    <col min="9736" max="9736" width="9.44140625" customWidth="1"/>
+    <col min="9985" max="9985" width="16.77734375" customWidth="1"/>
+    <col min="9986" max="9986" width="5.44140625" customWidth="1"/>
+    <col min="9987" max="9987" width="8.109375" customWidth="1"/>
+    <col min="9988" max="9988" width="9.21875" customWidth="1"/>
+    <col min="9989" max="9989" width="10.44140625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.77734375" customWidth="1"/>
     <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.08203125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.25" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
+    <col min="9992" max="9992" width="9.44140625" customWidth="1"/>
+    <col min="10241" max="10241" width="16.77734375" customWidth="1"/>
+    <col min="10242" max="10242" width="5.44140625" customWidth="1"/>
+    <col min="10243" max="10243" width="8.109375" customWidth="1"/>
+    <col min="10244" max="10244" width="9.21875" customWidth="1"/>
+    <col min="10245" max="10245" width="10.44140625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.77734375" customWidth="1"/>
     <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.08203125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.25" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
+    <col min="10248" max="10248" width="9.44140625" customWidth="1"/>
+    <col min="10497" max="10497" width="16.77734375" customWidth="1"/>
+    <col min="10498" max="10498" width="5.44140625" customWidth="1"/>
+    <col min="10499" max="10499" width="8.109375" customWidth="1"/>
+    <col min="10500" max="10500" width="9.21875" customWidth="1"/>
+    <col min="10501" max="10501" width="10.44140625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.77734375" customWidth="1"/>
     <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.08203125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.25" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
+    <col min="10504" max="10504" width="9.44140625" customWidth="1"/>
+    <col min="10753" max="10753" width="16.77734375" customWidth="1"/>
+    <col min="10754" max="10754" width="5.44140625" customWidth="1"/>
+    <col min="10755" max="10755" width="8.109375" customWidth="1"/>
+    <col min="10756" max="10756" width="9.21875" customWidth="1"/>
+    <col min="10757" max="10757" width="10.44140625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.77734375" customWidth="1"/>
     <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.08203125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.25" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
+    <col min="10760" max="10760" width="9.44140625" customWidth="1"/>
+    <col min="11009" max="11009" width="16.77734375" customWidth="1"/>
+    <col min="11010" max="11010" width="5.44140625" customWidth="1"/>
+    <col min="11011" max="11011" width="8.109375" customWidth="1"/>
+    <col min="11012" max="11012" width="9.21875" customWidth="1"/>
+    <col min="11013" max="11013" width="10.44140625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.77734375" customWidth="1"/>
     <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.08203125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.25" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
+    <col min="11016" max="11016" width="9.44140625" customWidth="1"/>
+    <col min="11265" max="11265" width="16.77734375" customWidth="1"/>
+    <col min="11266" max="11266" width="5.44140625" customWidth="1"/>
+    <col min="11267" max="11267" width="8.109375" customWidth="1"/>
+    <col min="11268" max="11268" width="9.21875" customWidth="1"/>
+    <col min="11269" max="11269" width="10.44140625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.77734375" customWidth="1"/>
     <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.08203125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.25" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
+    <col min="11272" max="11272" width="9.44140625" customWidth="1"/>
+    <col min="11521" max="11521" width="16.77734375" customWidth="1"/>
+    <col min="11522" max="11522" width="5.44140625" customWidth="1"/>
+    <col min="11523" max="11523" width="8.109375" customWidth="1"/>
+    <col min="11524" max="11524" width="9.21875" customWidth="1"/>
+    <col min="11525" max="11525" width="10.44140625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.77734375" customWidth="1"/>
     <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.08203125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.25" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
+    <col min="11528" max="11528" width="9.44140625" customWidth="1"/>
+    <col min="11777" max="11777" width="16.77734375" customWidth="1"/>
+    <col min="11778" max="11778" width="5.44140625" customWidth="1"/>
+    <col min="11779" max="11779" width="8.109375" customWidth="1"/>
+    <col min="11780" max="11780" width="9.21875" customWidth="1"/>
+    <col min="11781" max="11781" width="10.44140625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.77734375" customWidth="1"/>
     <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.08203125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.25" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
+    <col min="11784" max="11784" width="9.44140625" customWidth="1"/>
+    <col min="12033" max="12033" width="16.77734375" customWidth="1"/>
+    <col min="12034" max="12034" width="5.44140625" customWidth="1"/>
+    <col min="12035" max="12035" width="8.109375" customWidth="1"/>
+    <col min="12036" max="12036" width="9.21875" customWidth="1"/>
+    <col min="12037" max="12037" width="10.44140625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.77734375" customWidth="1"/>
     <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.08203125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.25" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
+    <col min="12040" max="12040" width="9.44140625" customWidth="1"/>
+    <col min="12289" max="12289" width="16.77734375" customWidth="1"/>
+    <col min="12290" max="12290" width="5.44140625" customWidth="1"/>
+    <col min="12291" max="12291" width="8.109375" customWidth="1"/>
+    <col min="12292" max="12292" width="9.21875" customWidth="1"/>
+    <col min="12293" max="12293" width="10.44140625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.77734375" customWidth="1"/>
     <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.08203125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.25" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
+    <col min="12296" max="12296" width="9.44140625" customWidth="1"/>
+    <col min="12545" max="12545" width="16.77734375" customWidth="1"/>
+    <col min="12546" max="12546" width="5.44140625" customWidth="1"/>
+    <col min="12547" max="12547" width="8.109375" customWidth="1"/>
+    <col min="12548" max="12548" width="9.21875" customWidth="1"/>
+    <col min="12549" max="12549" width="10.44140625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.77734375" customWidth="1"/>
     <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.08203125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.25" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
+    <col min="12552" max="12552" width="9.44140625" customWidth="1"/>
+    <col min="12801" max="12801" width="16.77734375" customWidth="1"/>
+    <col min="12802" max="12802" width="5.44140625" customWidth="1"/>
+    <col min="12803" max="12803" width="8.109375" customWidth="1"/>
+    <col min="12804" max="12804" width="9.21875" customWidth="1"/>
+    <col min="12805" max="12805" width="10.44140625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.77734375" customWidth="1"/>
     <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.08203125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.25" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
+    <col min="12808" max="12808" width="9.44140625" customWidth="1"/>
+    <col min="13057" max="13057" width="16.77734375" customWidth="1"/>
+    <col min="13058" max="13058" width="5.44140625" customWidth="1"/>
+    <col min="13059" max="13059" width="8.109375" customWidth="1"/>
+    <col min="13060" max="13060" width="9.21875" customWidth="1"/>
+    <col min="13061" max="13061" width="10.44140625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.77734375" customWidth="1"/>
     <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.08203125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.25" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
+    <col min="13064" max="13064" width="9.44140625" customWidth="1"/>
+    <col min="13313" max="13313" width="16.77734375" customWidth="1"/>
+    <col min="13314" max="13314" width="5.44140625" customWidth="1"/>
+    <col min="13315" max="13315" width="8.109375" customWidth="1"/>
+    <col min="13316" max="13316" width="9.21875" customWidth="1"/>
+    <col min="13317" max="13317" width="10.44140625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.77734375" customWidth="1"/>
     <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.08203125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.25" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
+    <col min="13320" max="13320" width="9.44140625" customWidth="1"/>
+    <col min="13569" max="13569" width="16.77734375" customWidth="1"/>
+    <col min="13570" max="13570" width="5.44140625" customWidth="1"/>
+    <col min="13571" max="13571" width="8.109375" customWidth="1"/>
+    <col min="13572" max="13572" width="9.21875" customWidth="1"/>
+    <col min="13573" max="13573" width="10.44140625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.77734375" customWidth="1"/>
     <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.08203125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.25" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
+    <col min="13576" max="13576" width="9.44140625" customWidth="1"/>
+    <col min="13825" max="13825" width="16.77734375" customWidth="1"/>
+    <col min="13826" max="13826" width="5.44140625" customWidth="1"/>
+    <col min="13827" max="13827" width="8.109375" customWidth="1"/>
+    <col min="13828" max="13828" width="9.21875" customWidth="1"/>
+    <col min="13829" max="13829" width="10.44140625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.77734375" customWidth="1"/>
     <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.08203125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.25" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
+    <col min="13832" max="13832" width="9.44140625" customWidth="1"/>
+    <col min="14081" max="14081" width="16.77734375" customWidth="1"/>
+    <col min="14082" max="14082" width="5.44140625" customWidth="1"/>
+    <col min="14083" max="14083" width="8.109375" customWidth="1"/>
+    <col min="14084" max="14084" width="9.21875" customWidth="1"/>
+    <col min="14085" max="14085" width="10.44140625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.77734375" customWidth="1"/>
     <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.08203125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.25" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
+    <col min="14088" max="14088" width="9.44140625" customWidth="1"/>
+    <col min="14337" max="14337" width="16.77734375" customWidth="1"/>
+    <col min="14338" max="14338" width="5.44140625" customWidth="1"/>
+    <col min="14339" max="14339" width="8.109375" customWidth="1"/>
+    <col min="14340" max="14340" width="9.21875" customWidth="1"/>
+    <col min="14341" max="14341" width="10.44140625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.77734375" customWidth="1"/>
     <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.08203125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.25" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
+    <col min="14344" max="14344" width="9.44140625" customWidth="1"/>
+    <col min="14593" max="14593" width="16.77734375" customWidth="1"/>
+    <col min="14594" max="14594" width="5.44140625" customWidth="1"/>
+    <col min="14595" max="14595" width="8.109375" customWidth="1"/>
+    <col min="14596" max="14596" width="9.21875" customWidth="1"/>
+    <col min="14597" max="14597" width="10.44140625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.77734375" customWidth="1"/>
     <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.08203125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.25" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
+    <col min="14600" max="14600" width="9.44140625" customWidth="1"/>
+    <col min="14849" max="14849" width="16.77734375" customWidth="1"/>
+    <col min="14850" max="14850" width="5.44140625" customWidth="1"/>
+    <col min="14851" max="14851" width="8.109375" customWidth="1"/>
+    <col min="14852" max="14852" width="9.21875" customWidth="1"/>
+    <col min="14853" max="14853" width="10.44140625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.77734375" customWidth="1"/>
     <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.08203125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.25" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
+    <col min="14856" max="14856" width="9.44140625" customWidth="1"/>
+    <col min="15105" max="15105" width="16.77734375" customWidth="1"/>
+    <col min="15106" max="15106" width="5.44140625" customWidth="1"/>
+    <col min="15107" max="15107" width="8.109375" customWidth="1"/>
+    <col min="15108" max="15108" width="9.21875" customWidth="1"/>
+    <col min="15109" max="15109" width="10.44140625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.77734375" customWidth="1"/>
     <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.08203125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.25" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
+    <col min="15112" max="15112" width="9.44140625" customWidth="1"/>
+    <col min="15361" max="15361" width="16.77734375" customWidth="1"/>
+    <col min="15362" max="15362" width="5.44140625" customWidth="1"/>
+    <col min="15363" max="15363" width="8.109375" customWidth="1"/>
+    <col min="15364" max="15364" width="9.21875" customWidth="1"/>
+    <col min="15365" max="15365" width="10.44140625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.77734375" customWidth="1"/>
     <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.08203125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.25" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
+    <col min="15368" max="15368" width="9.44140625" customWidth="1"/>
+    <col min="15617" max="15617" width="16.77734375" customWidth="1"/>
+    <col min="15618" max="15618" width="5.44140625" customWidth="1"/>
+    <col min="15619" max="15619" width="8.109375" customWidth="1"/>
+    <col min="15620" max="15620" width="9.21875" customWidth="1"/>
+    <col min="15621" max="15621" width="10.44140625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.77734375" customWidth="1"/>
     <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.08203125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.25" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
+    <col min="15624" max="15624" width="9.44140625" customWidth="1"/>
+    <col min="15873" max="15873" width="16.77734375" customWidth="1"/>
+    <col min="15874" max="15874" width="5.44140625" customWidth="1"/>
+    <col min="15875" max="15875" width="8.109375" customWidth="1"/>
+    <col min="15876" max="15876" width="9.21875" customWidth="1"/>
+    <col min="15877" max="15877" width="10.44140625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.77734375" customWidth="1"/>
     <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.08203125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.25" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
+    <col min="15880" max="15880" width="9.44140625" customWidth="1"/>
+    <col min="16129" max="16129" width="16.77734375" customWidth="1"/>
+    <col min="16130" max="16130" width="5.44140625" customWidth="1"/>
+    <col min="16131" max="16131" width="8.109375" customWidth="1"/>
+    <col min="16132" max="16132" width="9.21875" customWidth="1"/>
+    <col min="16133" max="16133" width="10.44140625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.77734375" customWidth="1"/>
     <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5" customWidth="1"/>
+    <col min="16136" max="16136" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -23436,7 +23465,7 @@
         <v>240</v>
       </c>
       <c r="G743" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H743" s="8" t="s">
         <v>11</v>
@@ -23462,7 +23491,7 @@
         <v>240</v>
       </c>
       <c r="G744" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H744" s="8" t="s">
         <v>11</v>
@@ -23488,7 +23517,7 @@
         <v>240</v>
       </c>
       <c r="G745" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H745" s="8" t="s">
         <v>11</v>
@@ -23514,7 +23543,7 @@
         <v>240</v>
       </c>
       <c r="G746" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H746" s="8" t="s">
         <v>11</v>
@@ -23539,7 +23568,9 @@
       <c r="F747" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G747" s="12"/>
+      <c r="G747" s="12" t="s">
+        <v>569</v>
+      </c>
       <c r="H747" s="8" t="s">
         <v>11</v>
       </c>
@@ -23563,7 +23594,9 @@
       <c r="F748" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G748" s="12"/>
+      <c r="G748" s="12" t="s">
+        <v>574</v>
+      </c>
       <c r="H748" s="8" t="s">
         <v>11</v>
       </c>
@@ -23587,7 +23620,9 @@
       <c r="F749" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G749" s="12"/>
+      <c r="G749" s="12" t="s">
+        <v>573</v>
+      </c>
       <c r="H749" s="8" t="s">
         <v>11</v>
       </c>
@@ -23611,7 +23646,9 @@
       <c r="F750" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G750" s="12"/>
+      <c r="G750" s="12" t="s">
+        <v>576</v>
+      </c>
       <c r="H750" s="8" t="s">
         <v>11</v>
       </c>
@@ -23635,7 +23672,9 @@
       <c r="F751" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G751" s="12"/>
+      <c r="G751" s="12" t="s">
+        <v>575</v>
+      </c>
       <c r="H751" s="8" t="s">
         <v>11</v>
       </c>
@@ -23659,7 +23698,9 @@
       <c r="F752" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G752" s="12"/>
+      <c r="G752" s="12" t="s">
+        <v>576</v>
+      </c>
       <c r="H752" s="8" t="s">
         <v>11</v>
       </c>
@@ -23683,7 +23724,9 @@
       <c r="F753" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G753" s="12"/>
+      <c r="G753" s="12" t="s">
+        <v>576</v>
+      </c>
       <c r="H753" s="8" t="s">
         <v>11</v>
       </c>
@@ -23707,7 +23750,9 @@
       <c r="F754" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G754" s="12"/>
+      <c r="G754" s="12" t="s">
+        <v>577</v>
+      </c>
       <c r="H754" s="8" t="s">
         <v>11</v>
       </c>
@@ -23731,7 +23776,9 @@
       <c r="F755" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G755" s="12"/>
+      <c r="G755" s="12" t="s">
+        <v>578</v>
+      </c>
       <c r="H755" s="8" t="s">
         <v>11</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BC86C-1426-4B04-909F-2AEE9A1D0A45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F52776-9954-4B22-9A7D-30011119AB65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="583">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2300,6 +2300,22 @@
   </si>
   <si>
     <t>与员员一起探讨再保业务数据问题，整理下周工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告42项表内校验规则5月-6月19日的数据质量问题--承保模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告42项表内校验规则5月-6月20日的数据质量问题--标的表模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小卉的数据质量报告42项表内规则汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复查有关再保场景的数据质量问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2839,16 +2855,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J755"/>
+  <dimension ref="A1:J768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
-      <selection activeCell="J740" sqref="J740"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="G763" sqref="G763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -23785,6 +23801,286 @@
       <c r="I755" s="9"/>
       <c r="J755" s="10"/>
     </row>
+    <row r="756" spans="1:10">
+      <c r="A756" s="7"/>
+      <c r="B756" s="5"/>
+      <c r="C756" s="8"/>
+      <c r="D756" s="15"/>
+      <c r="E756" s="15"/>
+      <c r="F756" s="13"/>
+      <c r="G756" s="12"/>
+      <c r="H756" s="8"/>
+      <c r="I756" s="9"/>
+      <c r="J756" s="10"/>
+    </row>
+    <row r="757" spans="1:10">
+      <c r="A757" s="7"/>
+      <c r="B757" s="5"/>
+      <c r="C757" s="8"/>
+      <c r="D757" s="15"/>
+      <c r="E757" s="15"/>
+      <c r="F757" s="13"/>
+      <c r="G757" s="12"/>
+      <c r="H757" s="8"/>
+      <c r="I757" s="9"/>
+      <c r="J757" s="10"/>
+    </row>
+    <row r="758" spans="1:10">
+      <c r="A758" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B758" s="5"/>
+      <c r="C758" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D758" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E758" s="15">
+        <v>43640</v>
+      </c>
+      <c r="F758" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G758" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="H758" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I758" s="9"/>
+      <c r="J758" s="10"/>
+    </row>
+    <row r="759" spans="1:10">
+      <c r="A759" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B759" s="5"/>
+      <c r="C759" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D759" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E759" s="15">
+        <v>43640</v>
+      </c>
+      <c r="F759" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G759" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="H759" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I759" s="9"/>
+      <c r="J759" s="10"/>
+    </row>
+    <row r="760" spans="1:10">
+      <c r="A760" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B760" s="5"/>
+      <c r="C760" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E760" s="15">
+        <v>43640</v>
+      </c>
+      <c r="F760" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G760" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="H760" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I760" s="9"/>
+      <c r="J760" s="10"/>
+    </row>
+    <row r="761" spans="1:10">
+      <c r="A761" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B761" s="5"/>
+      <c r="C761" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D761" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E761" s="15">
+        <v>43641</v>
+      </c>
+      <c r="F761" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G761" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="H761" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I761" s="9"/>
+      <c r="J761" s="10"/>
+    </row>
+    <row r="762" spans="1:10">
+      <c r="A762" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B762" s="5"/>
+      <c r="C762" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D762" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E762" s="15">
+        <v>43641</v>
+      </c>
+      <c r="F762" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G762" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H762" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I762" s="9"/>
+      <c r="J762" s="10"/>
+    </row>
+    <row r="763" spans="1:10">
+      <c r="A763" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B763" s="5"/>
+      <c r="C763" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D763" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E763" s="15">
+        <v>43641</v>
+      </c>
+      <c r="F763" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G763" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H763" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I763" s="9"/>
+      <c r="J763" s="10"/>
+    </row>
+    <row r="764" spans="1:10">
+      <c r="A764" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B764" s="5"/>
+      <c r="C764" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D764" s="15"/>
+      <c r="E764" s="15"/>
+      <c r="F764" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G764" s="12"/>
+      <c r="H764" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I764" s="9"/>
+      <c r="J764" s="10"/>
+    </row>
+    <row r="765" spans="1:10">
+      <c r="A765" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B765" s="5"/>
+      <c r="C765" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D765" s="15"/>
+      <c r="E765" s="15"/>
+      <c r="F765" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G765" s="12"/>
+      <c r="H765" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I765" s="9"/>
+      <c r="J765" s="10"/>
+    </row>
+    <row r="766" spans="1:10">
+      <c r="A766" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B766" s="5"/>
+      <c r="C766" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D766" s="15"/>
+      <c r="E766" s="15"/>
+      <c r="F766" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G766" s="12"/>
+      <c r="H766" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I766" s="9"/>
+      <c r="J766" s="10"/>
+    </row>
+    <row r="767" spans="1:10">
+      <c r="A767" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B767" s="5"/>
+      <c r="C767" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D767" s="15"/>
+      <c r="E767" s="15"/>
+      <c r="F767" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G767" s="12"/>
+      <c r="H767" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I767" s="9"/>
+      <c r="J767" s="10"/>
+    </row>
+    <row r="768" spans="1:10">
+      <c r="A768" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B768" s="5"/>
+      <c r="C768" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D768" s="15"/>
+      <c r="E768" s="15"/>
+      <c r="F768" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G768" s="12"/>
+      <c r="H768" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I768" s="9"/>
+      <c r="J768" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -23794,10 +24090,10 @@
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131130:C131146 IY65594:IY65610 SU65594:SU65610 ACQ65594:ACQ65610 AMM65594:AMM65610 AWI65594:AWI65610 BGE65594:BGE65610 BQA65594:BQA65610 BZW65594:BZW65610 CJS65594:CJS65610 CTO65594:CTO65610 DDK65594:DDK65610 DNG65594:DNG65610 DXC65594:DXC65610 EGY65594:EGY65610 EQU65594:EQU65610 FAQ65594:FAQ65610 FKM65594:FKM65610 FUI65594:FUI65610 GEE65594:GEE65610 GOA65594:GOA65610 GXW65594:GXW65610 HHS65594:HHS65610 HRO65594:HRO65610 IBK65594:IBK65610 ILG65594:ILG65610 IVC65594:IVC65610 JEY65594:JEY65610 JOU65594:JOU65610 JYQ65594:JYQ65610 KIM65594:KIM65610 KSI65594:KSI65610 LCE65594:LCE65610 LMA65594:LMA65610 LVW65594:LVW65610 MFS65594:MFS65610 MPO65594:MPO65610 MZK65594:MZK65610 NJG65594:NJG65610 NTC65594:NTC65610 OCY65594:OCY65610 OMU65594:OMU65610 OWQ65594:OWQ65610 PGM65594:PGM65610 PQI65594:PQI65610 QAE65594:QAE65610 QKA65594:QKA65610 QTW65594:QTW65610 RDS65594:RDS65610 RNO65594:RNO65610 RXK65594:RXK65610 SHG65594:SHG65610 SRC65594:SRC65610 TAY65594:TAY65610 TKU65594:TKU65610 TUQ65594:TUQ65610 UEM65594:UEM65610 UOI65594:UOI65610 UYE65594:UYE65610 VIA65594:VIA65610 VRW65594:VRW65610 WBS65594:WBS65610 WLO65594:WLO65610 WVK65594:WVK65610 C196666:C196682 IY131130:IY131146 SU131130:SU131146 ACQ131130:ACQ131146 AMM131130:AMM131146 AWI131130:AWI131146 BGE131130:BGE131146 BQA131130:BQA131146 BZW131130:BZW131146 CJS131130:CJS131146 CTO131130:CTO131146 DDK131130:DDK131146 DNG131130:DNG131146 DXC131130:DXC131146 EGY131130:EGY131146 EQU131130:EQU131146 FAQ131130:FAQ131146 FKM131130:FKM131146 FUI131130:FUI131146 GEE131130:GEE131146 GOA131130:GOA131146 GXW131130:GXW131146 HHS131130:HHS131146 HRO131130:HRO131146 IBK131130:IBK131146 ILG131130:ILG131146 IVC131130:IVC131146 JEY131130:JEY131146 JOU131130:JOU131146 JYQ131130:JYQ131146 KIM131130:KIM131146 KSI131130:KSI131146 LCE131130:LCE131146 LMA131130:LMA131146 LVW131130:LVW131146 MFS131130:MFS131146 MPO131130:MPO131146 MZK131130:MZK131146 NJG131130:NJG131146 NTC131130:NTC131146 OCY131130:OCY131146 OMU131130:OMU131146 OWQ131130:OWQ131146 PGM131130:PGM131146 PQI131130:PQI131146 QAE131130:QAE131146 QKA131130:QKA131146 QTW131130:QTW131146 RDS131130:RDS131146 RNO131130:RNO131146 RXK131130:RXK131146 SHG131130:SHG131146 SRC131130:SRC131146 TAY131130:TAY131146 TKU131130:TKU131146 TUQ131130:TUQ131146 UEM131130:UEM131146 UOI131130:UOI131146 UYE131130:UYE131146 VIA131130:VIA131146 VRW131130:VRW131146 WBS131130:WBS131146 WLO131130:WLO131146 WVK131130:WVK131146 C262202:C262218 IY196666:IY196682 SU196666:SU196682 ACQ196666:ACQ196682 AMM196666:AMM196682 AWI196666:AWI196682 BGE196666:BGE196682 BQA196666:BQA196682 BZW196666:BZW196682 CJS196666:CJS196682 CTO196666:CTO196682 DDK196666:DDK196682 DNG196666:DNG196682 DXC196666:DXC196682 EGY196666:EGY196682 EQU196666:EQU196682 FAQ196666:FAQ196682 FKM196666:FKM196682 FUI196666:FUI196682 GEE196666:GEE196682 GOA196666:GOA196682 GXW196666:GXW196682 HHS196666:HHS196682 HRO196666:HRO196682 IBK196666:IBK196682 ILG196666:ILG196682 IVC196666:IVC196682 JEY196666:JEY196682 JOU196666:JOU196682 JYQ196666:JYQ196682 KIM196666:KIM196682 KSI196666:KSI196682 LCE196666:LCE196682 LMA196666:LMA196682 LVW196666:LVW196682 MFS196666:MFS196682 MPO196666:MPO196682 MZK196666:MZK196682 NJG196666:NJG196682 NTC196666:NTC196682 OCY196666:OCY196682 OMU196666:OMU196682 OWQ196666:OWQ196682 PGM196666:PGM196682 PQI196666:PQI196682 QAE196666:QAE196682 QKA196666:QKA196682 QTW196666:QTW196682 RDS196666:RDS196682 RNO196666:RNO196682 RXK196666:RXK196682 SHG196666:SHG196682 SRC196666:SRC196682 TAY196666:TAY196682 TKU196666:TKU196682 TUQ196666:TUQ196682 UEM196666:UEM196682 UOI196666:UOI196682 UYE196666:UYE196682 VIA196666:VIA196682 VRW196666:VRW196682 WBS196666:WBS196682 WLO196666:WLO196682 WVK196666:WVK196682 C327738:C327754 IY262202:IY262218 SU262202:SU262218 ACQ262202:ACQ262218 AMM262202:AMM262218 AWI262202:AWI262218 BGE262202:BGE262218 BQA262202:BQA262218 BZW262202:BZW262218 CJS262202:CJS262218 CTO262202:CTO262218 DDK262202:DDK262218 DNG262202:DNG262218 DXC262202:DXC262218 EGY262202:EGY262218 EQU262202:EQU262218 FAQ262202:FAQ262218 FKM262202:FKM262218 FUI262202:FUI262218 GEE262202:GEE262218 GOA262202:GOA262218 GXW262202:GXW262218 HHS262202:HHS262218 HRO262202:HRO262218 IBK262202:IBK262218 ILG262202:ILG262218 IVC262202:IVC262218 JEY262202:JEY262218 JOU262202:JOU262218 JYQ262202:JYQ262218 KIM262202:KIM262218 KSI262202:KSI262218 LCE262202:LCE262218 LMA262202:LMA262218 LVW262202:LVW262218 MFS262202:MFS262218 MPO262202:MPO262218 MZK262202:MZK262218 NJG262202:NJG262218 NTC262202:NTC262218 OCY262202:OCY262218 OMU262202:OMU262218 OWQ262202:OWQ262218 PGM262202:PGM262218 PQI262202:PQI262218 QAE262202:QAE262218 QKA262202:QKA262218 QTW262202:QTW262218 RDS262202:RDS262218 RNO262202:RNO262218 RXK262202:RXK262218 SHG262202:SHG262218 SRC262202:SRC262218 TAY262202:TAY262218 TKU262202:TKU262218 TUQ262202:TUQ262218 UEM262202:UEM262218 UOI262202:UOI262218 UYE262202:UYE262218 VIA262202:VIA262218 VRW262202:VRW262218 WBS262202:WBS262218 WLO262202:WLO262218 WVK262202:WVK262218 C393274:C393290 IY327738:IY327754 SU327738:SU327754 ACQ327738:ACQ327754 AMM327738:AMM327754 AWI327738:AWI327754 BGE327738:BGE327754 BQA327738:BQA327754 BZW327738:BZW327754 CJS327738:CJS327754 CTO327738:CTO327754 DDK327738:DDK327754 DNG327738:DNG327754 DXC327738:DXC327754 EGY327738:EGY327754 EQU327738:EQU327754 FAQ327738:FAQ327754 FKM327738:FKM327754 FUI327738:FUI327754 GEE327738:GEE327754 GOA327738:GOA327754 GXW327738:GXW327754 HHS327738:HHS327754 HRO327738:HRO327754 IBK327738:IBK327754 ILG327738:ILG327754 IVC327738:IVC327754 JEY327738:JEY327754 JOU327738:JOU327754 JYQ327738:JYQ327754 KIM327738:KIM327754 KSI327738:KSI327754 LCE327738:LCE327754 LMA327738:LMA327754 LVW327738:LVW327754 MFS327738:MFS327754 MPO327738:MPO327754 MZK327738:MZK327754 NJG327738:NJG327754 NTC327738:NTC327754 OCY327738:OCY327754 OMU327738:OMU327754 OWQ327738:OWQ327754 PGM327738:PGM327754 PQI327738:PQI327754 QAE327738:QAE327754 QKA327738:QKA327754 QTW327738:QTW327754 RDS327738:RDS327754 RNO327738:RNO327754 RXK327738:RXK327754 SHG327738:SHG327754 SRC327738:SRC327754 TAY327738:TAY327754 TKU327738:TKU327754 TUQ327738:TUQ327754 UEM327738:UEM327754 UOI327738:UOI327754 UYE327738:UYE327754 VIA327738:VIA327754 VRW327738:VRW327754 WBS327738:WBS327754 WLO327738:WLO327754 WVK327738:WVK327754 C458810:C458826 IY393274:IY393290 SU393274:SU393290 ACQ393274:ACQ393290 AMM393274:AMM393290 AWI393274:AWI393290 BGE393274:BGE393290 BQA393274:BQA393290 BZW393274:BZW393290 CJS393274:CJS393290 CTO393274:CTO393290 DDK393274:DDK393290 DNG393274:DNG393290 DXC393274:DXC393290 EGY393274:EGY393290 EQU393274:EQU393290 FAQ393274:FAQ393290 FKM393274:FKM393290 FUI393274:FUI393290 GEE393274:GEE393290 GOA393274:GOA393290 GXW393274:GXW393290 HHS393274:HHS393290 HRO393274:HRO393290 IBK393274:IBK393290 ILG393274:ILG393290 IVC393274:IVC393290 JEY393274:JEY393290 JOU393274:JOU393290 JYQ393274:JYQ393290 KIM393274:KIM393290 KSI393274:KSI393290 LCE393274:LCE393290 LMA393274:LMA393290 LVW393274:LVW393290 MFS393274:MFS393290 MPO393274:MPO393290 MZK393274:MZK393290 NJG393274:NJG393290 NTC393274:NTC393290 OCY393274:OCY393290 OMU393274:OMU393290 OWQ393274:OWQ393290 PGM393274:PGM393290 PQI393274:PQI393290 QAE393274:QAE393290 QKA393274:QKA393290 QTW393274:QTW393290 RDS393274:RDS393290 RNO393274:RNO393290 RXK393274:RXK393290 SHG393274:SHG393290 SRC393274:SRC393290 TAY393274:TAY393290 TKU393274:TKU393290 TUQ393274:TUQ393290 UEM393274:UEM393290 UOI393274:UOI393290 UYE393274:UYE393290 VIA393274:VIA393290 VRW393274:VRW393290 WBS393274:WBS393290 WLO393274:WLO393290 WVK393274:WVK393290 C524346:C524362 IY458810:IY458826 SU458810:SU458826 ACQ458810:ACQ458826 AMM458810:AMM458826 AWI458810:AWI458826 BGE458810:BGE458826 BQA458810:BQA458826 BZW458810:BZW458826 CJS458810:CJS458826 CTO458810:CTO458826 DDK458810:DDK458826 DNG458810:DNG458826 DXC458810:DXC458826 EGY458810:EGY458826 EQU458810:EQU458826 FAQ458810:FAQ458826 FKM458810:FKM458826 FUI458810:FUI458826 GEE458810:GEE458826 GOA458810:GOA458826 GXW458810:GXW458826 HHS458810:HHS458826 HRO458810:HRO458826 IBK458810:IBK458826 ILG458810:ILG458826 IVC458810:IVC458826 JEY458810:JEY458826 JOU458810:JOU458826 JYQ458810:JYQ458826 KIM458810:KIM458826 KSI458810:KSI458826 LCE458810:LCE458826 LMA458810:LMA458826 LVW458810:LVW458826 MFS458810:MFS458826 MPO458810:MPO458826 MZK458810:MZK458826 NJG458810:NJG458826 NTC458810:NTC458826 OCY458810:OCY458826 OMU458810:OMU458826 OWQ458810:OWQ458826 PGM458810:PGM458826 PQI458810:PQI458826 QAE458810:QAE458826 QKA458810:QKA458826 QTW458810:QTW458826 RDS458810:RDS458826 RNO458810:RNO458826 RXK458810:RXK458826 SHG458810:SHG458826 SRC458810:SRC458826 TAY458810:TAY458826 TKU458810:TKU458826 TUQ458810:TUQ458826 UEM458810:UEM458826 UOI458810:UOI458826 UYE458810:UYE458826 VIA458810:VIA458826 VRW458810:VRW458826 WBS458810:WBS458826 WLO458810:WLO458826 WVK458810:WVK458826 C589882:C589898 IY524346:IY524362 SU524346:SU524362 ACQ524346:ACQ524362 AMM524346:AMM524362 AWI524346:AWI524362 BGE524346:BGE524362 BQA524346:BQA524362 BZW524346:BZW524362 CJS524346:CJS524362 CTO524346:CTO524362 DDK524346:DDK524362 DNG524346:DNG524362 DXC524346:DXC524362 EGY524346:EGY524362 EQU524346:EQU524362 FAQ524346:FAQ524362 FKM524346:FKM524362 FUI524346:FUI524362 GEE524346:GEE524362 GOA524346:GOA524362 GXW524346:GXW524362 HHS524346:HHS524362 HRO524346:HRO524362 IBK524346:IBK524362 ILG524346:ILG524362 IVC524346:IVC524362 JEY524346:JEY524362 JOU524346:JOU524362 JYQ524346:JYQ524362 KIM524346:KIM524362 KSI524346:KSI524362 LCE524346:LCE524362 LMA524346:LMA524362 LVW524346:LVW524362 MFS524346:MFS524362 MPO524346:MPO524362 MZK524346:MZK524362 NJG524346:NJG524362 NTC524346:NTC524362 OCY524346:OCY524362 OMU524346:OMU524362 OWQ524346:OWQ524362 PGM524346:PGM524362 PQI524346:PQI524362 QAE524346:QAE524362 QKA524346:QKA524362 QTW524346:QTW524362 RDS524346:RDS524362 RNO524346:RNO524362 RXK524346:RXK524362 SHG524346:SHG524362 SRC524346:SRC524362 TAY524346:TAY524362 TKU524346:TKU524362 TUQ524346:TUQ524362 UEM524346:UEM524362 UOI524346:UOI524362 UYE524346:UYE524362 VIA524346:VIA524362 VRW524346:VRW524362 WBS524346:WBS524362 WLO524346:WLO524362 WVK524346:WVK524362 C655418:C655434 IY589882:IY589898 SU589882:SU589898 ACQ589882:ACQ589898 AMM589882:AMM589898 AWI589882:AWI589898 BGE589882:BGE589898 BQA589882:BQA589898 BZW589882:BZW589898 CJS589882:CJS589898 CTO589882:CTO589898 DDK589882:DDK589898 DNG589882:DNG589898 DXC589882:DXC589898 EGY589882:EGY589898 EQU589882:EQU589898 FAQ589882:FAQ589898 FKM589882:FKM589898 FUI589882:FUI589898 GEE589882:GEE589898 GOA589882:GOA589898 GXW589882:GXW589898 HHS589882:HHS589898 HRO589882:HRO589898 IBK589882:IBK589898 ILG589882:ILG589898 IVC589882:IVC589898 JEY589882:JEY589898 JOU589882:JOU589898 JYQ589882:JYQ589898 KIM589882:KIM589898 KSI589882:KSI589898 LCE589882:LCE589898 LMA589882:LMA589898 LVW589882:LVW589898 MFS589882:MFS589898 MPO589882:MPO589898 MZK589882:MZK589898 NJG589882:NJG589898 NTC589882:NTC589898 OCY589882:OCY589898 OMU589882:OMU589898 OWQ589882:OWQ589898 PGM589882:PGM589898 PQI589882:PQI589898 QAE589882:QAE589898 QKA589882:QKA589898 QTW589882:QTW589898 RDS589882:RDS589898 RNO589882:RNO589898 RXK589882:RXK589898 SHG589882:SHG589898 SRC589882:SRC589898 TAY589882:TAY589898 TKU589882:TKU589898 TUQ589882:TUQ589898 UEM589882:UEM589898 UOI589882:UOI589898 UYE589882:UYE589898 VIA589882:VIA589898 VRW589882:VRW589898 WBS589882:WBS589898 WLO589882:WLO589898 WVK589882:WVK589898 C720954:C720970 IY655418:IY655434 SU655418:SU655434 ACQ655418:ACQ655434 AMM655418:AMM655434 AWI655418:AWI655434 BGE655418:BGE655434 BQA655418:BQA655434 BZW655418:BZW655434 CJS655418:CJS655434 CTO655418:CTO655434 DDK655418:DDK655434 DNG655418:DNG655434 DXC655418:DXC655434 EGY655418:EGY655434 EQU655418:EQU655434 FAQ655418:FAQ655434 FKM655418:FKM655434 FUI655418:FUI655434 GEE655418:GEE655434 GOA655418:GOA655434 GXW655418:GXW655434 HHS655418:HHS655434 HRO655418:HRO655434 IBK655418:IBK655434 ILG655418:ILG655434 IVC655418:IVC655434 JEY655418:JEY655434 JOU655418:JOU655434 JYQ655418:JYQ655434 KIM655418:KIM655434 KSI655418:KSI655434 LCE655418:LCE655434 LMA655418:LMA655434 LVW655418:LVW655434 MFS655418:MFS655434 MPO655418:MPO655434 MZK655418:MZK655434 NJG655418:NJG655434 NTC655418:NTC655434 OCY655418:OCY655434 OMU655418:OMU655434 OWQ655418:OWQ655434 PGM655418:PGM655434 PQI655418:PQI655434 QAE655418:QAE655434 QKA655418:QKA655434 QTW655418:QTW655434 RDS655418:RDS655434 RNO655418:RNO655434 RXK655418:RXK655434 SHG655418:SHG655434 SRC655418:SRC655434 TAY655418:TAY655434 TKU655418:TKU655434 TUQ655418:TUQ655434 UEM655418:UEM655434 UOI655418:UOI655434 UYE655418:UYE655434 VIA655418:VIA655434 VRW655418:VRW655434 WBS655418:WBS655434 WLO655418:WLO655434 WVK655418:WVK655434 C786490:C786506 IY720954:IY720970 SU720954:SU720970 ACQ720954:ACQ720970 AMM720954:AMM720970 AWI720954:AWI720970 BGE720954:BGE720970 BQA720954:BQA720970 BZW720954:BZW720970 CJS720954:CJS720970 CTO720954:CTO720970 DDK720954:DDK720970 DNG720954:DNG720970 DXC720954:DXC720970 EGY720954:EGY720970 EQU720954:EQU720970 FAQ720954:FAQ720970 FKM720954:FKM720970 FUI720954:FUI720970 GEE720954:GEE720970 GOA720954:GOA720970 GXW720954:GXW720970 HHS720954:HHS720970 HRO720954:HRO720970 IBK720954:IBK720970 ILG720954:ILG720970 IVC720954:IVC720970 JEY720954:JEY720970 JOU720954:JOU720970 JYQ720954:JYQ720970 KIM720954:KIM720970 KSI720954:KSI720970 LCE720954:LCE720970 LMA720954:LMA720970 LVW720954:LVW720970 MFS720954:MFS720970 MPO720954:MPO720970 MZK720954:MZK720970 NJG720954:NJG720970 NTC720954:NTC720970 OCY720954:OCY720970 OMU720954:OMU720970 OWQ720954:OWQ720970 PGM720954:PGM720970 PQI720954:PQI720970 QAE720954:QAE720970 QKA720954:QKA720970 QTW720954:QTW720970 RDS720954:RDS720970 RNO720954:RNO720970 RXK720954:RXK720970 SHG720954:SHG720970 SRC720954:SRC720970 TAY720954:TAY720970 TKU720954:TKU720970 TUQ720954:TUQ720970 UEM720954:UEM720970 UOI720954:UOI720970 UYE720954:UYE720970 VIA720954:VIA720970 VRW720954:VRW720970 WBS720954:WBS720970 WLO720954:WLO720970 WVK720954:WVK720970 C852026:C852042 IY786490:IY786506 SU786490:SU786506 ACQ786490:ACQ786506 AMM786490:AMM786506 AWI786490:AWI786506 BGE786490:BGE786506 BQA786490:BQA786506 BZW786490:BZW786506 CJS786490:CJS786506 CTO786490:CTO786506 DDK786490:DDK786506 DNG786490:DNG786506 DXC786490:DXC786506 EGY786490:EGY786506 EQU786490:EQU786506 FAQ786490:FAQ786506 FKM786490:FKM786506 FUI786490:FUI786506 GEE786490:GEE786506 GOA786490:GOA786506 GXW786490:GXW786506 HHS786490:HHS786506 HRO786490:HRO786506 IBK786490:IBK786506 ILG786490:ILG786506 IVC786490:IVC786506 JEY786490:JEY786506 JOU786490:JOU786506 JYQ786490:JYQ786506 KIM786490:KIM786506 KSI786490:KSI786506 LCE786490:LCE786506 LMA786490:LMA786506 LVW786490:LVW786506 MFS786490:MFS786506 MPO786490:MPO786506 MZK786490:MZK786506 NJG786490:NJG786506 NTC786490:NTC786506 OCY786490:OCY786506 OMU786490:OMU786506 OWQ786490:OWQ786506 PGM786490:PGM786506 PQI786490:PQI786506 QAE786490:QAE786506 QKA786490:QKA786506 QTW786490:QTW786506 RDS786490:RDS786506 RNO786490:RNO786506 RXK786490:RXK786506 SHG786490:SHG786506 SRC786490:SRC786506 TAY786490:TAY786506 TKU786490:TKU786506 TUQ786490:TUQ786506 UEM786490:UEM786506 UOI786490:UOI786506 UYE786490:UYE786506 VIA786490:VIA786506 VRW786490:VRW786506 WBS786490:WBS786506 WLO786490:WLO786506 WVK786490:WVK786506 C917562:C917578 IY852026:IY852042 SU852026:SU852042 ACQ852026:ACQ852042 AMM852026:AMM852042 AWI852026:AWI852042 BGE852026:BGE852042 BQA852026:BQA852042 BZW852026:BZW852042 CJS852026:CJS852042 CTO852026:CTO852042 DDK852026:DDK852042 DNG852026:DNG852042 DXC852026:DXC852042 EGY852026:EGY852042 EQU852026:EQU852042 FAQ852026:FAQ852042 FKM852026:FKM852042 FUI852026:FUI852042 GEE852026:GEE852042 GOA852026:GOA852042 GXW852026:GXW852042 HHS852026:HHS852042 HRO852026:HRO852042 IBK852026:IBK852042 ILG852026:ILG852042 IVC852026:IVC852042 JEY852026:JEY852042 JOU852026:JOU852042 JYQ852026:JYQ852042 KIM852026:KIM852042 KSI852026:KSI852042 LCE852026:LCE852042 LMA852026:LMA852042 LVW852026:LVW852042 MFS852026:MFS852042 MPO852026:MPO852042 MZK852026:MZK852042 NJG852026:NJG852042 NTC852026:NTC852042 OCY852026:OCY852042 OMU852026:OMU852042 OWQ852026:OWQ852042 PGM852026:PGM852042 PQI852026:PQI852042 QAE852026:QAE852042 QKA852026:QKA852042 QTW852026:QTW852042 RDS852026:RDS852042 RNO852026:RNO852042 RXK852026:RXK852042 SHG852026:SHG852042 SRC852026:SRC852042 TAY852026:TAY852042 TKU852026:TKU852042 TUQ852026:TUQ852042 UEM852026:UEM852042 UOI852026:UOI852042 UYE852026:UYE852042 VIA852026:VIA852042 VRW852026:VRW852042 WBS852026:WBS852042 WLO852026:WLO852042 WVK852026:WVK852042 C983098:C983114 IY917562:IY917578 SU917562:SU917578 ACQ917562:ACQ917578 AMM917562:AMM917578 AWI917562:AWI917578 BGE917562:BGE917578 BQA917562:BQA917578 BZW917562:BZW917578 CJS917562:CJS917578 CTO917562:CTO917578 DDK917562:DDK917578 DNG917562:DNG917578 DXC917562:DXC917578 EGY917562:EGY917578 EQU917562:EQU917578 FAQ917562:FAQ917578 FKM917562:FKM917578 FUI917562:FUI917578 GEE917562:GEE917578 GOA917562:GOA917578 GXW917562:GXW917578 HHS917562:HHS917578 HRO917562:HRO917578 IBK917562:IBK917578 ILG917562:ILG917578 IVC917562:IVC917578 JEY917562:JEY917578 JOU917562:JOU917578 JYQ917562:JYQ917578 KIM917562:KIM917578 KSI917562:KSI917578 LCE917562:LCE917578 LMA917562:LMA917578 LVW917562:LVW917578 MFS917562:MFS917578 MPO917562:MPO917578 MZK917562:MZK917578 NJG917562:NJG917578 NTC917562:NTC917578 OCY917562:OCY917578 OMU917562:OMU917578 OWQ917562:OWQ917578 PGM917562:PGM917578 PQI917562:PQI917578 QAE917562:QAE917578 QKA917562:QKA917578 QTW917562:QTW917578 RDS917562:RDS917578 RNO917562:RNO917578 RXK917562:RXK917578 SHG917562:SHG917578 SRC917562:SRC917578 TAY917562:TAY917578 TKU917562:TKU917578 TUQ917562:TUQ917578 UEM917562:UEM917578 UOI917562:UOI917578 UYE917562:UYE917578 VIA917562:VIA917578 VRW917562:VRW917578 WBS917562:WBS917578 WLO917562:WLO917578 WVK917562:WVK917578 WVK983098:WVK983114 IY983098:IY983114 SU983098:SU983114 ACQ983098:ACQ983114 AMM983098:AMM983114 AWI983098:AWI983114 BGE983098:BGE983114 BQA983098:BQA983114 BZW983098:BZW983114 CJS983098:CJS983114 CTO983098:CTO983114 DDK983098:DDK983114 DNG983098:DNG983114 DXC983098:DXC983114 EGY983098:EGY983114 EQU983098:EQU983114 FAQ983098:FAQ983114 FKM983098:FKM983114 FUI983098:FUI983114 GEE983098:GEE983114 GOA983098:GOA983114 GXW983098:GXW983114 HHS983098:HHS983114 HRO983098:HRO983114 IBK983098:IBK983114 ILG983098:ILG983114 IVC983098:IVC983114 JEY983098:JEY983114 JOU983098:JOU983114 JYQ983098:JYQ983114 KIM983098:KIM983114 KSI983098:KSI983114 LCE983098:LCE983114 LMA983098:LMA983114 LVW983098:LVW983114 MFS983098:MFS983114 MPO983098:MPO983114 MZK983098:MZK983114 NJG983098:NJG983114 NTC983098:NTC983114 OCY983098:OCY983114 OMU983098:OMU983114 OWQ983098:OWQ983114 PGM983098:PGM983114 PQI983098:PQI983114 QAE983098:QAE983114 QKA983098:QKA983114 QTW983098:QTW983114 RDS983098:RDS983114 RNO983098:RNO983114 RXK983098:RXK983114 SHG983098:SHG983114 SRC983098:SRC983114 TAY983098:TAY983114 TKU983098:TKU983114 TUQ983098:TUQ983114 UEM983098:UEM983114 UOI983098:UOI983114 UYE983098:UYE983114 VIA983098:VIA983114 VRW983098:VRW983114 WBS983098:WBS983114 WLO983098:WLO983114 C65594:C65610" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65594:F65627 JB65594:JB65627 SX65594:SX65627 ACT65594:ACT65627 AMP65594:AMP65627 AWL65594:AWL65627 BGH65594:BGH65627 BQD65594:BQD65627 BZZ65594:BZZ65627 CJV65594:CJV65627 CTR65594:CTR65627 DDN65594:DDN65627 DNJ65594:DNJ65627 DXF65594:DXF65627 EHB65594:EHB65627 EQX65594:EQX65627 FAT65594:FAT65627 FKP65594:FKP65627 FUL65594:FUL65627 GEH65594:GEH65627 GOD65594:GOD65627 GXZ65594:GXZ65627 HHV65594:HHV65627 HRR65594:HRR65627 IBN65594:IBN65627 ILJ65594:ILJ65627 IVF65594:IVF65627 JFB65594:JFB65627 JOX65594:JOX65627 JYT65594:JYT65627 KIP65594:KIP65627 KSL65594:KSL65627 LCH65594:LCH65627 LMD65594:LMD65627 LVZ65594:LVZ65627 MFV65594:MFV65627 MPR65594:MPR65627 MZN65594:MZN65627 NJJ65594:NJJ65627 NTF65594:NTF65627 ODB65594:ODB65627 OMX65594:OMX65627 OWT65594:OWT65627 PGP65594:PGP65627 PQL65594:PQL65627 QAH65594:QAH65627 QKD65594:QKD65627 QTZ65594:QTZ65627 RDV65594:RDV65627 RNR65594:RNR65627 RXN65594:RXN65627 SHJ65594:SHJ65627 SRF65594:SRF65627 TBB65594:TBB65627 TKX65594:TKX65627 TUT65594:TUT65627 UEP65594:UEP65627 UOL65594:UOL65627 UYH65594:UYH65627 VID65594:VID65627 VRZ65594:VRZ65627 WBV65594:WBV65627 WLR65594:WLR65627 WVN65594:WVN65627 F131130:F131163 JB131130:JB131163 SX131130:SX131163 ACT131130:ACT131163 AMP131130:AMP131163 AWL131130:AWL131163 BGH131130:BGH131163 BQD131130:BQD131163 BZZ131130:BZZ131163 CJV131130:CJV131163 CTR131130:CTR131163 DDN131130:DDN131163 DNJ131130:DNJ131163 DXF131130:DXF131163 EHB131130:EHB131163 EQX131130:EQX131163 FAT131130:FAT131163 FKP131130:FKP131163 FUL131130:FUL131163 GEH131130:GEH131163 GOD131130:GOD131163 GXZ131130:GXZ131163 HHV131130:HHV131163 HRR131130:HRR131163 IBN131130:IBN131163 ILJ131130:ILJ131163 IVF131130:IVF131163 JFB131130:JFB131163 JOX131130:JOX131163 JYT131130:JYT131163 KIP131130:KIP131163 KSL131130:KSL131163 LCH131130:LCH131163 LMD131130:LMD131163 LVZ131130:LVZ131163 MFV131130:MFV131163 MPR131130:MPR131163 MZN131130:MZN131163 NJJ131130:NJJ131163 NTF131130:NTF131163 ODB131130:ODB131163 OMX131130:OMX131163 OWT131130:OWT131163 PGP131130:PGP131163 PQL131130:PQL131163 QAH131130:QAH131163 QKD131130:QKD131163 QTZ131130:QTZ131163 RDV131130:RDV131163 RNR131130:RNR131163 RXN131130:RXN131163 SHJ131130:SHJ131163 SRF131130:SRF131163 TBB131130:TBB131163 TKX131130:TKX131163 TUT131130:TUT131163 UEP131130:UEP131163 UOL131130:UOL131163 UYH131130:UYH131163 VID131130:VID131163 VRZ131130:VRZ131163 WBV131130:WBV131163 WLR131130:WLR131163 WVN131130:WVN131163 F196666:F196699 JB196666:JB196699 SX196666:SX196699 ACT196666:ACT196699 AMP196666:AMP196699 AWL196666:AWL196699 BGH196666:BGH196699 BQD196666:BQD196699 BZZ196666:BZZ196699 CJV196666:CJV196699 CTR196666:CTR196699 DDN196666:DDN196699 DNJ196666:DNJ196699 DXF196666:DXF196699 EHB196666:EHB196699 EQX196666:EQX196699 FAT196666:FAT196699 FKP196666:FKP196699 FUL196666:FUL196699 GEH196666:GEH196699 GOD196666:GOD196699 GXZ196666:GXZ196699 HHV196666:HHV196699 HRR196666:HRR196699 IBN196666:IBN196699 ILJ196666:ILJ196699 IVF196666:IVF196699 JFB196666:JFB196699 JOX196666:JOX196699 JYT196666:JYT196699 KIP196666:KIP196699 KSL196666:KSL196699 LCH196666:LCH196699 LMD196666:LMD196699 LVZ196666:LVZ196699 MFV196666:MFV196699 MPR196666:MPR196699 MZN196666:MZN196699 NJJ196666:NJJ196699 NTF196666:NTF196699 ODB196666:ODB196699 OMX196666:OMX196699 OWT196666:OWT196699 PGP196666:PGP196699 PQL196666:PQL196699 QAH196666:QAH196699 QKD196666:QKD196699 QTZ196666:QTZ196699 RDV196666:RDV196699 RNR196666:RNR196699 RXN196666:RXN196699 SHJ196666:SHJ196699 SRF196666:SRF196699 TBB196666:TBB196699 TKX196666:TKX196699 TUT196666:TUT196699 UEP196666:UEP196699 UOL196666:UOL196699 UYH196666:UYH196699 VID196666:VID196699 VRZ196666:VRZ196699 WBV196666:WBV196699 WLR196666:WLR196699 WVN196666:WVN196699 F262202:F262235 JB262202:JB262235 SX262202:SX262235 ACT262202:ACT262235 AMP262202:AMP262235 AWL262202:AWL262235 BGH262202:BGH262235 BQD262202:BQD262235 BZZ262202:BZZ262235 CJV262202:CJV262235 CTR262202:CTR262235 DDN262202:DDN262235 DNJ262202:DNJ262235 DXF262202:DXF262235 EHB262202:EHB262235 EQX262202:EQX262235 FAT262202:FAT262235 FKP262202:FKP262235 FUL262202:FUL262235 GEH262202:GEH262235 GOD262202:GOD262235 GXZ262202:GXZ262235 HHV262202:HHV262235 HRR262202:HRR262235 IBN262202:IBN262235 ILJ262202:ILJ262235 IVF262202:IVF262235 JFB262202:JFB262235 JOX262202:JOX262235 JYT262202:JYT262235 KIP262202:KIP262235 KSL262202:KSL262235 LCH262202:LCH262235 LMD262202:LMD262235 LVZ262202:LVZ262235 MFV262202:MFV262235 MPR262202:MPR262235 MZN262202:MZN262235 NJJ262202:NJJ262235 NTF262202:NTF262235 ODB262202:ODB262235 OMX262202:OMX262235 OWT262202:OWT262235 PGP262202:PGP262235 PQL262202:PQL262235 QAH262202:QAH262235 QKD262202:QKD262235 QTZ262202:QTZ262235 RDV262202:RDV262235 RNR262202:RNR262235 RXN262202:RXN262235 SHJ262202:SHJ262235 SRF262202:SRF262235 TBB262202:TBB262235 TKX262202:TKX262235 TUT262202:TUT262235 UEP262202:UEP262235 UOL262202:UOL262235 UYH262202:UYH262235 VID262202:VID262235 VRZ262202:VRZ262235 WBV262202:WBV262235 WLR262202:WLR262235 WVN262202:WVN262235 F327738:F327771 JB327738:JB327771 SX327738:SX327771 ACT327738:ACT327771 AMP327738:AMP327771 AWL327738:AWL327771 BGH327738:BGH327771 BQD327738:BQD327771 BZZ327738:BZZ327771 CJV327738:CJV327771 CTR327738:CTR327771 DDN327738:DDN327771 DNJ327738:DNJ327771 DXF327738:DXF327771 EHB327738:EHB327771 EQX327738:EQX327771 FAT327738:FAT327771 FKP327738:FKP327771 FUL327738:FUL327771 GEH327738:GEH327771 GOD327738:GOD327771 GXZ327738:GXZ327771 HHV327738:HHV327771 HRR327738:HRR327771 IBN327738:IBN327771 ILJ327738:ILJ327771 IVF327738:IVF327771 JFB327738:JFB327771 JOX327738:JOX327771 JYT327738:JYT327771 KIP327738:KIP327771 KSL327738:KSL327771 LCH327738:LCH327771 LMD327738:LMD327771 LVZ327738:LVZ327771 MFV327738:MFV327771 MPR327738:MPR327771 MZN327738:MZN327771 NJJ327738:NJJ327771 NTF327738:NTF327771 ODB327738:ODB327771 OMX327738:OMX327771 OWT327738:OWT327771 PGP327738:PGP327771 PQL327738:PQL327771 QAH327738:QAH327771 QKD327738:QKD327771 QTZ327738:QTZ327771 RDV327738:RDV327771 RNR327738:RNR327771 RXN327738:RXN327771 SHJ327738:SHJ327771 SRF327738:SRF327771 TBB327738:TBB327771 TKX327738:TKX327771 TUT327738:TUT327771 UEP327738:UEP327771 UOL327738:UOL327771 UYH327738:UYH327771 VID327738:VID327771 VRZ327738:VRZ327771 WBV327738:WBV327771 WLR327738:WLR327771 WVN327738:WVN327771 F393274:F393307 JB393274:JB393307 SX393274:SX393307 ACT393274:ACT393307 AMP393274:AMP393307 AWL393274:AWL393307 BGH393274:BGH393307 BQD393274:BQD393307 BZZ393274:BZZ393307 CJV393274:CJV393307 CTR393274:CTR393307 DDN393274:DDN393307 DNJ393274:DNJ393307 DXF393274:DXF393307 EHB393274:EHB393307 EQX393274:EQX393307 FAT393274:FAT393307 FKP393274:FKP393307 FUL393274:FUL393307 GEH393274:GEH393307 GOD393274:GOD393307 GXZ393274:GXZ393307 HHV393274:HHV393307 HRR393274:HRR393307 IBN393274:IBN393307 ILJ393274:ILJ393307 IVF393274:IVF393307 JFB393274:JFB393307 JOX393274:JOX393307 JYT393274:JYT393307 KIP393274:KIP393307 KSL393274:KSL393307 LCH393274:LCH393307 LMD393274:LMD393307 LVZ393274:LVZ393307 MFV393274:MFV393307 MPR393274:MPR393307 MZN393274:MZN393307 NJJ393274:NJJ393307 NTF393274:NTF393307 ODB393274:ODB393307 OMX393274:OMX393307 OWT393274:OWT393307 PGP393274:PGP393307 PQL393274:PQL393307 QAH393274:QAH393307 QKD393274:QKD393307 QTZ393274:QTZ393307 RDV393274:RDV393307 RNR393274:RNR393307 RXN393274:RXN393307 SHJ393274:SHJ393307 SRF393274:SRF393307 TBB393274:TBB393307 TKX393274:TKX393307 TUT393274:TUT393307 UEP393274:UEP393307 UOL393274:UOL393307 UYH393274:UYH393307 VID393274:VID393307 VRZ393274:VRZ393307 WBV393274:WBV393307 WLR393274:WLR393307 WVN393274:WVN393307 F458810:F458843 JB458810:JB458843 SX458810:SX458843 ACT458810:ACT458843 AMP458810:AMP458843 AWL458810:AWL458843 BGH458810:BGH458843 BQD458810:BQD458843 BZZ458810:BZZ458843 CJV458810:CJV458843 CTR458810:CTR458843 DDN458810:DDN458843 DNJ458810:DNJ458843 DXF458810:DXF458843 EHB458810:EHB458843 EQX458810:EQX458843 FAT458810:FAT458843 FKP458810:FKP458843 FUL458810:FUL458843 GEH458810:GEH458843 GOD458810:GOD458843 GXZ458810:GXZ458843 HHV458810:HHV458843 HRR458810:HRR458843 IBN458810:IBN458843 ILJ458810:ILJ458843 IVF458810:IVF458843 JFB458810:JFB458843 JOX458810:JOX458843 JYT458810:JYT458843 KIP458810:KIP458843 KSL458810:KSL458843 LCH458810:LCH458843 LMD458810:LMD458843 LVZ458810:LVZ458843 MFV458810:MFV458843 MPR458810:MPR458843 MZN458810:MZN458843 NJJ458810:NJJ458843 NTF458810:NTF458843 ODB458810:ODB458843 OMX458810:OMX458843 OWT458810:OWT458843 PGP458810:PGP458843 PQL458810:PQL458843 QAH458810:QAH458843 QKD458810:QKD458843 QTZ458810:QTZ458843 RDV458810:RDV458843 RNR458810:RNR458843 RXN458810:RXN458843 SHJ458810:SHJ458843 SRF458810:SRF458843 TBB458810:TBB458843 TKX458810:TKX458843 TUT458810:TUT458843 UEP458810:UEP458843 UOL458810:UOL458843 UYH458810:UYH458843 VID458810:VID458843 VRZ458810:VRZ458843 WBV458810:WBV458843 WLR458810:WLR458843 WVN458810:WVN458843 F524346:F524379 JB524346:JB524379 SX524346:SX524379 ACT524346:ACT524379 AMP524346:AMP524379 AWL524346:AWL524379 BGH524346:BGH524379 BQD524346:BQD524379 BZZ524346:BZZ524379 CJV524346:CJV524379 CTR524346:CTR524379 DDN524346:DDN524379 DNJ524346:DNJ524379 DXF524346:DXF524379 EHB524346:EHB524379 EQX524346:EQX524379 FAT524346:FAT524379 FKP524346:FKP524379 FUL524346:FUL524379 GEH524346:GEH524379 GOD524346:GOD524379 GXZ524346:GXZ524379 HHV524346:HHV524379 HRR524346:HRR524379 IBN524346:IBN524379 ILJ524346:ILJ524379 IVF524346:IVF524379 JFB524346:JFB524379 JOX524346:JOX524379 JYT524346:JYT524379 KIP524346:KIP524379 KSL524346:KSL524379 LCH524346:LCH524379 LMD524346:LMD524379 LVZ524346:LVZ524379 MFV524346:MFV524379 MPR524346:MPR524379 MZN524346:MZN524379 NJJ524346:NJJ524379 NTF524346:NTF524379 ODB524346:ODB524379 OMX524346:OMX524379 OWT524346:OWT524379 PGP524346:PGP524379 PQL524346:PQL524379 QAH524346:QAH524379 QKD524346:QKD524379 QTZ524346:QTZ524379 RDV524346:RDV524379 RNR524346:RNR524379 RXN524346:RXN524379 SHJ524346:SHJ524379 SRF524346:SRF524379 TBB524346:TBB524379 TKX524346:TKX524379 TUT524346:TUT524379 UEP524346:UEP524379 UOL524346:UOL524379 UYH524346:UYH524379 VID524346:VID524379 VRZ524346:VRZ524379 WBV524346:WBV524379 WLR524346:WLR524379 WVN524346:WVN524379 F589882:F589915 JB589882:JB589915 SX589882:SX589915 ACT589882:ACT589915 AMP589882:AMP589915 AWL589882:AWL589915 BGH589882:BGH589915 BQD589882:BQD589915 BZZ589882:BZZ589915 CJV589882:CJV589915 CTR589882:CTR589915 DDN589882:DDN589915 DNJ589882:DNJ589915 DXF589882:DXF589915 EHB589882:EHB589915 EQX589882:EQX589915 FAT589882:FAT589915 FKP589882:FKP589915 FUL589882:FUL589915 GEH589882:GEH589915 GOD589882:GOD589915 GXZ589882:GXZ589915 HHV589882:HHV589915 HRR589882:HRR589915 IBN589882:IBN589915 ILJ589882:ILJ589915 IVF589882:IVF589915 JFB589882:JFB589915 JOX589882:JOX589915 JYT589882:JYT589915 KIP589882:KIP589915 KSL589882:KSL589915 LCH589882:LCH589915 LMD589882:LMD589915 LVZ589882:LVZ589915 MFV589882:MFV589915 MPR589882:MPR589915 MZN589882:MZN589915 NJJ589882:NJJ589915 NTF589882:NTF589915 ODB589882:ODB589915 OMX589882:OMX589915 OWT589882:OWT589915 PGP589882:PGP589915 PQL589882:PQL589915 QAH589882:QAH589915 QKD589882:QKD589915 QTZ589882:QTZ589915 RDV589882:RDV589915 RNR589882:RNR589915 RXN589882:RXN589915 SHJ589882:SHJ589915 SRF589882:SRF589915 TBB589882:TBB589915 TKX589882:TKX589915 TUT589882:TUT589915 UEP589882:UEP589915 UOL589882:UOL589915 UYH589882:UYH589915 VID589882:VID589915 VRZ589882:VRZ589915 WBV589882:WBV589915 WLR589882:WLR589915 WVN589882:WVN589915 F655418:F655451 JB655418:JB655451 SX655418:SX655451 ACT655418:ACT655451 AMP655418:AMP655451 AWL655418:AWL655451 BGH655418:BGH655451 BQD655418:BQD655451 BZZ655418:BZZ655451 CJV655418:CJV655451 CTR655418:CTR655451 DDN655418:DDN655451 DNJ655418:DNJ655451 DXF655418:DXF655451 EHB655418:EHB655451 EQX655418:EQX655451 FAT655418:FAT655451 FKP655418:FKP655451 FUL655418:FUL655451 GEH655418:GEH655451 GOD655418:GOD655451 GXZ655418:GXZ655451 HHV655418:HHV655451 HRR655418:HRR655451 IBN655418:IBN655451 ILJ655418:ILJ655451 IVF655418:IVF655451 JFB655418:JFB655451 JOX655418:JOX655451 JYT655418:JYT655451 KIP655418:KIP655451 KSL655418:KSL655451 LCH655418:LCH655451 LMD655418:LMD655451 LVZ655418:LVZ655451 MFV655418:MFV655451 MPR655418:MPR655451 MZN655418:MZN655451 NJJ655418:NJJ655451 NTF655418:NTF655451 ODB655418:ODB655451 OMX655418:OMX655451 OWT655418:OWT655451 PGP655418:PGP655451 PQL655418:PQL655451 QAH655418:QAH655451 QKD655418:QKD655451 QTZ655418:QTZ655451 RDV655418:RDV655451 RNR655418:RNR655451 RXN655418:RXN655451 SHJ655418:SHJ655451 SRF655418:SRF655451 TBB655418:TBB655451 TKX655418:TKX655451 TUT655418:TUT655451 UEP655418:UEP655451 UOL655418:UOL655451 UYH655418:UYH655451 VID655418:VID655451 VRZ655418:VRZ655451 WBV655418:WBV655451 WLR655418:WLR655451 WVN655418:WVN655451 F720954:F720987 JB720954:JB720987 SX720954:SX720987 ACT720954:ACT720987 AMP720954:AMP720987 AWL720954:AWL720987 BGH720954:BGH720987 BQD720954:BQD720987 BZZ720954:BZZ720987 CJV720954:CJV720987 CTR720954:CTR720987 DDN720954:DDN720987 DNJ720954:DNJ720987 DXF720954:DXF720987 EHB720954:EHB720987 EQX720954:EQX720987 FAT720954:FAT720987 FKP720954:FKP720987 FUL720954:FUL720987 GEH720954:GEH720987 GOD720954:GOD720987 GXZ720954:GXZ720987 HHV720954:HHV720987 HRR720954:HRR720987 IBN720954:IBN720987 ILJ720954:ILJ720987 IVF720954:IVF720987 JFB720954:JFB720987 JOX720954:JOX720987 JYT720954:JYT720987 KIP720954:KIP720987 KSL720954:KSL720987 LCH720954:LCH720987 LMD720954:LMD720987 LVZ720954:LVZ720987 MFV720954:MFV720987 MPR720954:MPR720987 MZN720954:MZN720987 NJJ720954:NJJ720987 NTF720954:NTF720987 ODB720954:ODB720987 OMX720954:OMX720987 OWT720954:OWT720987 PGP720954:PGP720987 PQL720954:PQL720987 QAH720954:QAH720987 QKD720954:QKD720987 QTZ720954:QTZ720987 RDV720954:RDV720987 RNR720954:RNR720987 RXN720954:RXN720987 SHJ720954:SHJ720987 SRF720954:SRF720987 TBB720954:TBB720987 TKX720954:TKX720987 TUT720954:TUT720987 UEP720954:UEP720987 UOL720954:UOL720987 UYH720954:UYH720987 VID720954:VID720987 VRZ720954:VRZ720987 WBV720954:WBV720987 WLR720954:WLR720987 WVN720954:WVN720987 F786490:F786523 JB786490:JB786523 SX786490:SX786523 ACT786490:ACT786523 AMP786490:AMP786523 AWL786490:AWL786523 BGH786490:BGH786523 BQD786490:BQD786523 BZZ786490:BZZ786523 CJV786490:CJV786523 CTR786490:CTR786523 DDN786490:DDN786523 DNJ786490:DNJ786523 DXF786490:DXF786523 EHB786490:EHB786523 EQX786490:EQX786523 FAT786490:FAT786523 FKP786490:FKP786523 FUL786490:FUL786523 GEH786490:GEH786523 GOD786490:GOD786523 GXZ786490:GXZ786523 HHV786490:HHV786523 HRR786490:HRR786523 IBN786490:IBN786523 ILJ786490:ILJ786523 IVF786490:IVF786523 JFB786490:JFB786523 JOX786490:JOX786523 JYT786490:JYT786523 KIP786490:KIP786523 KSL786490:KSL786523 LCH786490:LCH786523 LMD786490:LMD786523 LVZ786490:LVZ786523 MFV786490:MFV786523 MPR786490:MPR786523 MZN786490:MZN786523 NJJ786490:NJJ786523 NTF786490:NTF786523 ODB786490:ODB786523 OMX786490:OMX786523 OWT786490:OWT786523 PGP786490:PGP786523 PQL786490:PQL786523 QAH786490:QAH786523 QKD786490:QKD786523 QTZ786490:QTZ786523 RDV786490:RDV786523 RNR786490:RNR786523 RXN786490:RXN786523 SHJ786490:SHJ786523 SRF786490:SRF786523 TBB786490:TBB786523 TKX786490:TKX786523 TUT786490:TUT786523 UEP786490:UEP786523 UOL786490:UOL786523 UYH786490:UYH786523 VID786490:VID786523 VRZ786490:VRZ786523 WBV786490:WBV786523 WLR786490:WLR786523 WVN786490:WVN786523 F852026:F852059 JB852026:JB852059 SX852026:SX852059 ACT852026:ACT852059 AMP852026:AMP852059 AWL852026:AWL852059 BGH852026:BGH852059 BQD852026:BQD852059 BZZ852026:BZZ852059 CJV852026:CJV852059 CTR852026:CTR852059 DDN852026:DDN852059 DNJ852026:DNJ852059 DXF852026:DXF852059 EHB852026:EHB852059 EQX852026:EQX852059 FAT852026:FAT852059 FKP852026:FKP852059 FUL852026:FUL852059 GEH852026:GEH852059 GOD852026:GOD852059 GXZ852026:GXZ852059 HHV852026:HHV852059 HRR852026:HRR852059 IBN852026:IBN852059 ILJ852026:ILJ852059 IVF852026:IVF852059 JFB852026:JFB852059 JOX852026:JOX852059 JYT852026:JYT852059 KIP852026:KIP852059 KSL852026:KSL852059 LCH852026:LCH852059 LMD852026:LMD852059 LVZ852026:LVZ852059 MFV852026:MFV852059 MPR852026:MPR852059 MZN852026:MZN852059 NJJ852026:NJJ852059 NTF852026:NTF852059 ODB852026:ODB852059 OMX852026:OMX852059 OWT852026:OWT852059 PGP852026:PGP852059 PQL852026:PQL852059 QAH852026:QAH852059 QKD852026:QKD852059 QTZ852026:QTZ852059 RDV852026:RDV852059 RNR852026:RNR852059 RXN852026:RXN852059 SHJ852026:SHJ852059 SRF852026:SRF852059 TBB852026:TBB852059 TKX852026:TKX852059 TUT852026:TUT852059 UEP852026:UEP852059 UOL852026:UOL852059 UYH852026:UYH852059 VID852026:VID852059 VRZ852026:VRZ852059 WBV852026:WBV852059 WLR852026:WLR852059 WVN852026:WVN852059 F917562:F917595 JB917562:JB917595 SX917562:SX917595 ACT917562:ACT917595 AMP917562:AMP917595 AWL917562:AWL917595 BGH917562:BGH917595 BQD917562:BQD917595 BZZ917562:BZZ917595 CJV917562:CJV917595 CTR917562:CTR917595 DDN917562:DDN917595 DNJ917562:DNJ917595 DXF917562:DXF917595 EHB917562:EHB917595 EQX917562:EQX917595 FAT917562:FAT917595 FKP917562:FKP917595 FUL917562:FUL917595 GEH917562:GEH917595 GOD917562:GOD917595 GXZ917562:GXZ917595 HHV917562:HHV917595 HRR917562:HRR917595 IBN917562:IBN917595 ILJ917562:ILJ917595 IVF917562:IVF917595 JFB917562:JFB917595 JOX917562:JOX917595 JYT917562:JYT917595 KIP917562:KIP917595 KSL917562:KSL917595 LCH917562:LCH917595 LMD917562:LMD917595 LVZ917562:LVZ917595 MFV917562:MFV917595 MPR917562:MPR917595 MZN917562:MZN917595 NJJ917562:NJJ917595 NTF917562:NTF917595 ODB917562:ODB917595 OMX917562:OMX917595 OWT917562:OWT917595 PGP917562:PGP917595 PQL917562:PQL917595 QAH917562:QAH917595 QKD917562:QKD917595 QTZ917562:QTZ917595 RDV917562:RDV917595 RNR917562:RNR917595 RXN917562:RXN917595 SHJ917562:SHJ917595 SRF917562:SRF917595 TBB917562:TBB917595 TKX917562:TKX917595 TUT917562:TUT917595 UEP917562:UEP917595 UOL917562:UOL917595 UYH917562:UYH917595 VID917562:VID917595 VRZ917562:VRZ917595 WBV917562:WBV917595 WLR917562:WLR917595 WVN917562:WVN917595 F983098:F983131 JB983098:JB983131 SX983098:SX983131 ACT983098:ACT983131 AMP983098:AMP983131 AWL983098:AWL983131 BGH983098:BGH983131 BQD983098:BQD983131 BZZ983098:BZZ983131 CJV983098:CJV983131 CTR983098:CTR983131 DDN983098:DDN983131 DNJ983098:DNJ983131 DXF983098:DXF983131 EHB983098:EHB983131 EQX983098:EQX983131 FAT983098:FAT983131 FKP983098:FKP983131 FUL983098:FUL983131 GEH983098:GEH983131 GOD983098:GOD983131 GXZ983098:GXZ983131 HHV983098:HHV983131 HRR983098:HRR983131 IBN983098:IBN983131 ILJ983098:ILJ983131 IVF983098:IVF983131 JFB983098:JFB983131 JOX983098:JOX983131 JYT983098:JYT983131 KIP983098:KIP983131 KSL983098:KSL983131 LCH983098:LCH983131 LMD983098:LMD983131 LVZ983098:LVZ983131 MFV983098:MFV983131 MPR983098:MPR983131 MZN983098:MZN983131 NJJ983098:NJJ983131 NTF983098:NTF983131 ODB983098:ODB983131 OMX983098:OMX983131 OWT983098:OWT983131 PGP983098:PGP983131 PQL983098:PQL983131 QAH983098:QAH983131 QKD983098:QKD983131 QTZ983098:QTZ983131 RDV983098:RDV983131 RNR983098:RNR983131 RXN983098:RXN983131 SHJ983098:SHJ983131 SRF983098:SRF983131 TBB983098:TBB983131 TKX983098:TKX983131 TUT983098:TUT983131 UEP983098:UEP983131 UOL983098:UOL983131 UYH983098:UYH983131 VID983098:VID983131 VRZ983098:VRZ983131 WBV983098:WBV983131 WLR983098:WLR983131 WVN983098:WVN983131 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F755" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65594:F65627 JB65594:JB65627 SX65594:SX65627 ACT65594:ACT65627 AMP65594:AMP65627 AWL65594:AWL65627 BGH65594:BGH65627 BQD65594:BQD65627 BZZ65594:BZZ65627 CJV65594:CJV65627 CTR65594:CTR65627 DDN65594:DDN65627 DNJ65594:DNJ65627 DXF65594:DXF65627 EHB65594:EHB65627 EQX65594:EQX65627 FAT65594:FAT65627 FKP65594:FKP65627 FUL65594:FUL65627 GEH65594:GEH65627 GOD65594:GOD65627 GXZ65594:GXZ65627 HHV65594:HHV65627 HRR65594:HRR65627 IBN65594:IBN65627 ILJ65594:ILJ65627 IVF65594:IVF65627 JFB65594:JFB65627 JOX65594:JOX65627 JYT65594:JYT65627 KIP65594:KIP65627 KSL65594:KSL65627 LCH65594:LCH65627 LMD65594:LMD65627 LVZ65594:LVZ65627 MFV65594:MFV65627 MPR65594:MPR65627 MZN65594:MZN65627 NJJ65594:NJJ65627 NTF65594:NTF65627 ODB65594:ODB65627 OMX65594:OMX65627 OWT65594:OWT65627 PGP65594:PGP65627 PQL65594:PQL65627 QAH65594:QAH65627 QKD65594:QKD65627 QTZ65594:QTZ65627 RDV65594:RDV65627 RNR65594:RNR65627 RXN65594:RXN65627 SHJ65594:SHJ65627 SRF65594:SRF65627 TBB65594:TBB65627 TKX65594:TKX65627 TUT65594:TUT65627 UEP65594:UEP65627 UOL65594:UOL65627 UYH65594:UYH65627 VID65594:VID65627 VRZ65594:VRZ65627 WBV65594:WBV65627 WLR65594:WLR65627 WVN65594:WVN65627 F131130:F131163 JB131130:JB131163 SX131130:SX131163 ACT131130:ACT131163 AMP131130:AMP131163 AWL131130:AWL131163 BGH131130:BGH131163 BQD131130:BQD131163 BZZ131130:BZZ131163 CJV131130:CJV131163 CTR131130:CTR131163 DDN131130:DDN131163 DNJ131130:DNJ131163 DXF131130:DXF131163 EHB131130:EHB131163 EQX131130:EQX131163 FAT131130:FAT131163 FKP131130:FKP131163 FUL131130:FUL131163 GEH131130:GEH131163 GOD131130:GOD131163 GXZ131130:GXZ131163 HHV131130:HHV131163 HRR131130:HRR131163 IBN131130:IBN131163 ILJ131130:ILJ131163 IVF131130:IVF131163 JFB131130:JFB131163 JOX131130:JOX131163 JYT131130:JYT131163 KIP131130:KIP131163 KSL131130:KSL131163 LCH131130:LCH131163 LMD131130:LMD131163 LVZ131130:LVZ131163 MFV131130:MFV131163 MPR131130:MPR131163 MZN131130:MZN131163 NJJ131130:NJJ131163 NTF131130:NTF131163 ODB131130:ODB131163 OMX131130:OMX131163 OWT131130:OWT131163 PGP131130:PGP131163 PQL131130:PQL131163 QAH131130:QAH131163 QKD131130:QKD131163 QTZ131130:QTZ131163 RDV131130:RDV131163 RNR131130:RNR131163 RXN131130:RXN131163 SHJ131130:SHJ131163 SRF131130:SRF131163 TBB131130:TBB131163 TKX131130:TKX131163 TUT131130:TUT131163 UEP131130:UEP131163 UOL131130:UOL131163 UYH131130:UYH131163 VID131130:VID131163 VRZ131130:VRZ131163 WBV131130:WBV131163 WLR131130:WLR131163 WVN131130:WVN131163 F196666:F196699 JB196666:JB196699 SX196666:SX196699 ACT196666:ACT196699 AMP196666:AMP196699 AWL196666:AWL196699 BGH196666:BGH196699 BQD196666:BQD196699 BZZ196666:BZZ196699 CJV196666:CJV196699 CTR196666:CTR196699 DDN196666:DDN196699 DNJ196666:DNJ196699 DXF196666:DXF196699 EHB196666:EHB196699 EQX196666:EQX196699 FAT196666:FAT196699 FKP196666:FKP196699 FUL196666:FUL196699 GEH196666:GEH196699 GOD196666:GOD196699 GXZ196666:GXZ196699 HHV196666:HHV196699 HRR196666:HRR196699 IBN196666:IBN196699 ILJ196666:ILJ196699 IVF196666:IVF196699 JFB196666:JFB196699 JOX196666:JOX196699 JYT196666:JYT196699 KIP196666:KIP196699 KSL196666:KSL196699 LCH196666:LCH196699 LMD196666:LMD196699 LVZ196666:LVZ196699 MFV196666:MFV196699 MPR196666:MPR196699 MZN196666:MZN196699 NJJ196666:NJJ196699 NTF196666:NTF196699 ODB196666:ODB196699 OMX196666:OMX196699 OWT196666:OWT196699 PGP196666:PGP196699 PQL196666:PQL196699 QAH196666:QAH196699 QKD196666:QKD196699 QTZ196666:QTZ196699 RDV196666:RDV196699 RNR196666:RNR196699 RXN196666:RXN196699 SHJ196666:SHJ196699 SRF196666:SRF196699 TBB196666:TBB196699 TKX196666:TKX196699 TUT196666:TUT196699 UEP196666:UEP196699 UOL196666:UOL196699 UYH196666:UYH196699 VID196666:VID196699 VRZ196666:VRZ196699 WBV196666:WBV196699 WLR196666:WLR196699 WVN196666:WVN196699 F262202:F262235 JB262202:JB262235 SX262202:SX262235 ACT262202:ACT262235 AMP262202:AMP262235 AWL262202:AWL262235 BGH262202:BGH262235 BQD262202:BQD262235 BZZ262202:BZZ262235 CJV262202:CJV262235 CTR262202:CTR262235 DDN262202:DDN262235 DNJ262202:DNJ262235 DXF262202:DXF262235 EHB262202:EHB262235 EQX262202:EQX262235 FAT262202:FAT262235 FKP262202:FKP262235 FUL262202:FUL262235 GEH262202:GEH262235 GOD262202:GOD262235 GXZ262202:GXZ262235 HHV262202:HHV262235 HRR262202:HRR262235 IBN262202:IBN262235 ILJ262202:ILJ262235 IVF262202:IVF262235 JFB262202:JFB262235 JOX262202:JOX262235 JYT262202:JYT262235 KIP262202:KIP262235 KSL262202:KSL262235 LCH262202:LCH262235 LMD262202:LMD262235 LVZ262202:LVZ262235 MFV262202:MFV262235 MPR262202:MPR262235 MZN262202:MZN262235 NJJ262202:NJJ262235 NTF262202:NTF262235 ODB262202:ODB262235 OMX262202:OMX262235 OWT262202:OWT262235 PGP262202:PGP262235 PQL262202:PQL262235 QAH262202:QAH262235 QKD262202:QKD262235 QTZ262202:QTZ262235 RDV262202:RDV262235 RNR262202:RNR262235 RXN262202:RXN262235 SHJ262202:SHJ262235 SRF262202:SRF262235 TBB262202:TBB262235 TKX262202:TKX262235 TUT262202:TUT262235 UEP262202:UEP262235 UOL262202:UOL262235 UYH262202:UYH262235 VID262202:VID262235 VRZ262202:VRZ262235 WBV262202:WBV262235 WLR262202:WLR262235 WVN262202:WVN262235 F327738:F327771 JB327738:JB327771 SX327738:SX327771 ACT327738:ACT327771 AMP327738:AMP327771 AWL327738:AWL327771 BGH327738:BGH327771 BQD327738:BQD327771 BZZ327738:BZZ327771 CJV327738:CJV327771 CTR327738:CTR327771 DDN327738:DDN327771 DNJ327738:DNJ327771 DXF327738:DXF327771 EHB327738:EHB327771 EQX327738:EQX327771 FAT327738:FAT327771 FKP327738:FKP327771 FUL327738:FUL327771 GEH327738:GEH327771 GOD327738:GOD327771 GXZ327738:GXZ327771 HHV327738:HHV327771 HRR327738:HRR327771 IBN327738:IBN327771 ILJ327738:ILJ327771 IVF327738:IVF327771 JFB327738:JFB327771 JOX327738:JOX327771 JYT327738:JYT327771 KIP327738:KIP327771 KSL327738:KSL327771 LCH327738:LCH327771 LMD327738:LMD327771 LVZ327738:LVZ327771 MFV327738:MFV327771 MPR327738:MPR327771 MZN327738:MZN327771 NJJ327738:NJJ327771 NTF327738:NTF327771 ODB327738:ODB327771 OMX327738:OMX327771 OWT327738:OWT327771 PGP327738:PGP327771 PQL327738:PQL327771 QAH327738:QAH327771 QKD327738:QKD327771 QTZ327738:QTZ327771 RDV327738:RDV327771 RNR327738:RNR327771 RXN327738:RXN327771 SHJ327738:SHJ327771 SRF327738:SRF327771 TBB327738:TBB327771 TKX327738:TKX327771 TUT327738:TUT327771 UEP327738:UEP327771 UOL327738:UOL327771 UYH327738:UYH327771 VID327738:VID327771 VRZ327738:VRZ327771 WBV327738:WBV327771 WLR327738:WLR327771 WVN327738:WVN327771 F393274:F393307 JB393274:JB393307 SX393274:SX393307 ACT393274:ACT393307 AMP393274:AMP393307 AWL393274:AWL393307 BGH393274:BGH393307 BQD393274:BQD393307 BZZ393274:BZZ393307 CJV393274:CJV393307 CTR393274:CTR393307 DDN393274:DDN393307 DNJ393274:DNJ393307 DXF393274:DXF393307 EHB393274:EHB393307 EQX393274:EQX393307 FAT393274:FAT393307 FKP393274:FKP393307 FUL393274:FUL393307 GEH393274:GEH393307 GOD393274:GOD393307 GXZ393274:GXZ393307 HHV393274:HHV393307 HRR393274:HRR393307 IBN393274:IBN393307 ILJ393274:ILJ393307 IVF393274:IVF393307 JFB393274:JFB393307 JOX393274:JOX393307 JYT393274:JYT393307 KIP393274:KIP393307 KSL393274:KSL393307 LCH393274:LCH393307 LMD393274:LMD393307 LVZ393274:LVZ393307 MFV393274:MFV393307 MPR393274:MPR393307 MZN393274:MZN393307 NJJ393274:NJJ393307 NTF393274:NTF393307 ODB393274:ODB393307 OMX393274:OMX393307 OWT393274:OWT393307 PGP393274:PGP393307 PQL393274:PQL393307 QAH393274:QAH393307 QKD393274:QKD393307 QTZ393274:QTZ393307 RDV393274:RDV393307 RNR393274:RNR393307 RXN393274:RXN393307 SHJ393274:SHJ393307 SRF393274:SRF393307 TBB393274:TBB393307 TKX393274:TKX393307 TUT393274:TUT393307 UEP393274:UEP393307 UOL393274:UOL393307 UYH393274:UYH393307 VID393274:VID393307 VRZ393274:VRZ393307 WBV393274:WBV393307 WLR393274:WLR393307 WVN393274:WVN393307 F458810:F458843 JB458810:JB458843 SX458810:SX458843 ACT458810:ACT458843 AMP458810:AMP458843 AWL458810:AWL458843 BGH458810:BGH458843 BQD458810:BQD458843 BZZ458810:BZZ458843 CJV458810:CJV458843 CTR458810:CTR458843 DDN458810:DDN458843 DNJ458810:DNJ458843 DXF458810:DXF458843 EHB458810:EHB458843 EQX458810:EQX458843 FAT458810:FAT458843 FKP458810:FKP458843 FUL458810:FUL458843 GEH458810:GEH458843 GOD458810:GOD458843 GXZ458810:GXZ458843 HHV458810:HHV458843 HRR458810:HRR458843 IBN458810:IBN458843 ILJ458810:ILJ458843 IVF458810:IVF458843 JFB458810:JFB458843 JOX458810:JOX458843 JYT458810:JYT458843 KIP458810:KIP458843 KSL458810:KSL458843 LCH458810:LCH458843 LMD458810:LMD458843 LVZ458810:LVZ458843 MFV458810:MFV458843 MPR458810:MPR458843 MZN458810:MZN458843 NJJ458810:NJJ458843 NTF458810:NTF458843 ODB458810:ODB458843 OMX458810:OMX458843 OWT458810:OWT458843 PGP458810:PGP458843 PQL458810:PQL458843 QAH458810:QAH458843 QKD458810:QKD458843 QTZ458810:QTZ458843 RDV458810:RDV458843 RNR458810:RNR458843 RXN458810:RXN458843 SHJ458810:SHJ458843 SRF458810:SRF458843 TBB458810:TBB458843 TKX458810:TKX458843 TUT458810:TUT458843 UEP458810:UEP458843 UOL458810:UOL458843 UYH458810:UYH458843 VID458810:VID458843 VRZ458810:VRZ458843 WBV458810:WBV458843 WLR458810:WLR458843 WVN458810:WVN458843 F524346:F524379 JB524346:JB524379 SX524346:SX524379 ACT524346:ACT524379 AMP524346:AMP524379 AWL524346:AWL524379 BGH524346:BGH524379 BQD524346:BQD524379 BZZ524346:BZZ524379 CJV524346:CJV524379 CTR524346:CTR524379 DDN524346:DDN524379 DNJ524346:DNJ524379 DXF524346:DXF524379 EHB524346:EHB524379 EQX524346:EQX524379 FAT524346:FAT524379 FKP524346:FKP524379 FUL524346:FUL524379 GEH524346:GEH524379 GOD524346:GOD524379 GXZ524346:GXZ524379 HHV524346:HHV524379 HRR524346:HRR524379 IBN524346:IBN524379 ILJ524346:ILJ524379 IVF524346:IVF524379 JFB524346:JFB524379 JOX524346:JOX524379 JYT524346:JYT524379 KIP524346:KIP524379 KSL524346:KSL524379 LCH524346:LCH524379 LMD524346:LMD524379 LVZ524346:LVZ524379 MFV524346:MFV524379 MPR524346:MPR524379 MZN524346:MZN524379 NJJ524346:NJJ524379 NTF524346:NTF524379 ODB524346:ODB524379 OMX524346:OMX524379 OWT524346:OWT524379 PGP524346:PGP524379 PQL524346:PQL524379 QAH524346:QAH524379 QKD524346:QKD524379 QTZ524346:QTZ524379 RDV524346:RDV524379 RNR524346:RNR524379 RXN524346:RXN524379 SHJ524346:SHJ524379 SRF524346:SRF524379 TBB524346:TBB524379 TKX524346:TKX524379 TUT524346:TUT524379 UEP524346:UEP524379 UOL524346:UOL524379 UYH524346:UYH524379 VID524346:VID524379 VRZ524346:VRZ524379 WBV524346:WBV524379 WLR524346:WLR524379 WVN524346:WVN524379 F589882:F589915 JB589882:JB589915 SX589882:SX589915 ACT589882:ACT589915 AMP589882:AMP589915 AWL589882:AWL589915 BGH589882:BGH589915 BQD589882:BQD589915 BZZ589882:BZZ589915 CJV589882:CJV589915 CTR589882:CTR589915 DDN589882:DDN589915 DNJ589882:DNJ589915 DXF589882:DXF589915 EHB589882:EHB589915 EQX589882:EQX589915 FAT589882:FAT589915 FKP589882:FKP589915 FUL589882:FUL589915 GEH589882:GEH589915 GOD589882:GOD589915 GXZ589882:GXZ589915 HHV589882:HHV589915 HRR589882:HRR589915 IBN589882:IBN589915 ILJ589882:ILJ589915 IVF589882:IVF589915 JFB589882:JFB589915 JOX589882:JOX589915 JYT589882:JYT589915 KIP589882:KIP589915 KSL589882:KSL589915 LCH589882:LCH589915 LMD589882:LMD589915 LVZ589882:LVZ589915 MFV589882:MFV589915 MPR589882:MPR589915 MZN589882:MZN589915 NJJ589882:NJJ589915 NTF589882:NTF589915 ODB589882:ODB589915 OMX589882:OMX589915 OWT589882:OWT589915 PGP589882:PGP589915 PQL589882:PQL589915 QAH589882:QAH589915 QKD589882:QKD589915 QTZ589882:QTZ589915 RDV589882:RDV589915 RNR589882:RNR589915 RXN589882:RXN589915 SHJ589882:SHJ589915 SRF589882:SRF589915 TBB589882:TBB589915 TKX589882:TKX589915 TUT589882:TUT589915 UEP589882:UEP589915 UOL589882:UOL589915 UYH589882:UYH589915 VID589882:VID589915 VRZ589882:VRZ589915 WBV589882:WBV589915 WLR589882:WLR589915 WVN589882:WVN589915 F655418:F655451 JB655418:JB655451 SX655418:SX655451 ACT655418:ACT655451 AMP655418:AMP655451 AWL655418:AWL655451 BGH655418:BGH655451 BQD655418:BQD655451 BZZ655418:BZZ655451 CJV655418:CJV655451 CTR655418:CTR655451 DDN655418:DDN655451 DNJ655418:DNJ655451 DXF655418:DXF655451 EHB655418:EHB655451 EQX655418:EQX655451 FAT655418:FAT655451 FKP655418:FKP655451 FUL655418:FUL655451 GEH655418:GEH655451 GOD655418:GOD655451 GXZ655418:GXZ655451 HHV655418:HHV655451 HRR655418:HRR655451 IBN655418:IBN655451 ILJ655418:ILJ655451 IVF655418:IVF655451 JFB655418:JFB655451 JOX655418:JOX655451 JYT655418:JYT655451 KIP655418:KIP655451 KSL655418:KSL655451 LCH655418:LCH655451 LMD655418:LMD655451 LVZ655418:LVZ655451 MFV655418:MFV655451 MPR655418:MPR655451 MZN655418:MZN655451 NJJ655418:NJJ655451 NTF655418:NTF655451 ODB655418:ODB655451 OMX655418:OMX655451 OWT655418:OWT655451 PGP655418:PGP655451 PQL655418:PQL655451 QAH655418:QAH655451 QKD655418:QKD655451 QTZ655418:QTZ655451 RDV655418:RDV655451 RNR655418:RNR655451 RXN655418:RXN655451 SHJ655418:SHJ655451 SRF655418:SRF655451 TBB655418:TBB655451 TKX655418:TKX655451 TUT655418:TUT655451 UEP655418:UEP655451 UOL655418:UOL655451 UYH655418:UYH655451 VID655418:VID655451 VRZ655418:VRZ655451 WBV655418:WBV655451 WLR655418:WLR655451 WVN655418:WVN655451 F720954:F720987 JB720954:JB720987 SX720954:SX720987 ACT720954:ACT720987 AMP720954:AMP720987 AWL720954:AWL720987 BGH720954:BGH720987 BQD720954:BQD720987 BZZ720954:BZZ720987 CJV720954:CJV720987 CTR720954:CTR720987 DDN720954:DDN720987 DNJ720954:DNJ720987 DXF720954:DXF720987 EHB720954:EHB720987 EQX720954:EQX720987 FAT720954:FAT720987 FKP720954:FKP720987 FUL720954:FUL720987 GEH720954:GEH720987 GOD720954:GOD720987 GXZ720954:GXZ720987 HHV720954:HHV720987 HRR720954:HRR720987 IBN720954:IBN720987 ILJ720954:ILJ720987 IVF720954:IVF720987 JFB720954:JFB720987 JOX720954:JOX720987 JYT720954:JYT720987 KIP720954:KIP720987 KSL720954:KSL720987 LCH720954:LCH720987 LMD720954:LMD720987 LVZ720954:LVZ720987 MFV720954:MFV720987 MPR720954:MPR720987 MZN720954:MZN720987 NJJ720954:NJJ720987 NTF720954:NTF720987 ODB720954:ODB720987 OMX720954:OMX720987 OWT720954:OWT720987 PGP720954:PGP720987 PQL720954:PQL720987 QAH720954:QAH720987 QKD720954:QKD720987 QTZ720954:QTZ720987 RDV720954:RDV720987 RNR720954:RNR720987 RXN720954:RXN720987 SHJ720954:SHJ720987 SRF720954:SRF720987 TBB720954:TBB720987 TKX720954:TKX720987 TUT720954:TUT720987 UEP720954:UEP720987 UOL720954:UOL720987 UYH720954:UYH720987 VID720954:VID720987 VRZ720954:VRZ720987 WBV720954:WBV720987 WLR720954:WLR720987 WVN720954:WVN720987 F786490:F786523 JB786490:JB786523 SX786490:SX786523 ACT786490:ACT786523 AMP786490:AMP786523 AWL786490:AWL786523 BGH786490:BGH786523 BQD786490:BQD786523 BZZ786490:BZZ786523 CJV786490:CJV786523 CTR786490:CTR786523 DDN786490:DDN786523 DNJ786490:DNJ786523 DXF786490:DXF786523 EHB786490:EHB786523 EQX786490:EQX786523 FAT786490:FAT786523 FKP786490:FKP786523 FUL786490:FUL786523 GEH786490:GEH786523 GOD786490:GOD786523 GXZ786490:GXZ786523 HHV786490:HHV786523 HRR786490:HRR786523 IBN786490:IBN786523 ILJ786490:ILJ786523 IVF786490:IVF786523 JFB786490:JFB786523 JOX786490:JOX786523 JYT786490:JYT786523 KIP786490:KIP786523 KSL786490:KSL786523 LCH786490:LCH786523 LMD786490:LMD786523 LVZ786490:LVZ786523 MFV786490:MFV786523 MPR786490:MPR786523 MZN786490:MZN786523 NJJ786490:NJJ786523 NTF786490:NTF786523 ODB786490:ODB786523 OMX786490:OMX786523 OWT786490:OWT786523 PGP786490:PGP786523 PQL786490:PQL786523 QAH786490:QAH786523 QKD786490:QKD786523 QTZ786490:QTZ786523 RDV786490:RDV786523 RNR786490:RNR786523 RXN786490:RXN786523 SHJ786490:SHJ786523 SRF786490:SRF786523 TBB786490:TBB786523 TKX786490:TKX786523 TUT786490:TUT786523 UEP786490:UEP786523 UOL786490:UOL786523 UYH786490:UYH786523 VID786490:VID786523 VRZ786490:VRZ786523 WBV786490:WBV786523 WLR786490:WLR786523 WVN786490:WVN786523 F852026:F852059 JB852026:JB852059 SX852026:SX852059 ACT852026:ACT852059 AMP852026:AMP852059 AWL852026:AWL852059 BGH852026:BGH852059 BQD852026:BQD852059 BZZ852026:BZZ852059 CJV852026:CJV852059 CTR852026:CTR852059 DDN852026:DDN852059 DNJ852026:DNJ852059 DXF852026:DXF852059 EHB852026:EHB852059 EQX852026:EQX852059 FAT852026:FAT852059 FKP852026:FKP852059 FUL852026:FUL852059 GEH852026:GEH852059 GOD852026:GOD852059 GXZ852026:GXZ852059 HHV852026:HHV852059 HRR852026:HRR852059 IBN852026:IBN852059 ILJ852026:ILJ852059 IVF852026:IVF852059 JFB852026:JFB852059 JOX852026:JOX852059 JYT852026:JYT852059 KIP852026:KIP852059 KSL852026:KSL852059 LCH852026:LCH852059 LMD852026:LMD852059 LVZ852026:LVZ852059 MFV852026:MFV852059 MPR852026:MPR852059 MZN852026:MZN852059 NJJ852026:NJJ852059 NTF852026:NTF852059 ODB852026:ODB852059 OMX852026:OMX852059 OWT852026:OWT852059 PGP852026:PGP852059 PQL852026:PQL852059 QAH852026:QAH852059 QKD852026:QKD852059 QTZ852026:QTZ852059 RDV852026:RDV852059 RNR852026:RNR852059 RXN852026:RXN852059 SHJ852026:SHJ852059 SRF852026:SRF852059 TBB852026:TBB852059 TKX852026:TKX852059 TUT852026:TUT852059 UEP852026:UEP852059 UOL852026:UOL852059 UYH852026:UYH852059 VID852026:VID852059 VRZ852026:VRZ852059 WBV852026:WBV852059 WLR852026:WLR852059 WVN852026:WVN852059 F917562:F917595 JB917562:JB917595 SX917562:SX917595 ACT917562:ACT917595 AMP917562:AMP917595 AWL917562:AWL917595 BGH917562:BGH917595 BQD917562:BQD917595 BZZ917562:BZZ917595 CJV917562:CJV917595 CTR917562:CTR917595 DDN917562:DDN917595 DNJ917562:DNJ917595 DXF917562:DXF917595 EHB917562:EHB917595 EQX917562:EQX917595 FAT917562:FAT917595 FKP917562:FKP917595 FUL917562:FUL917595 GEH917562:GEH917595 GOD917562:GOD917595 GXZ917562:GXZ917595 HHV917562:HHV917595 HRR917562:HRR917595 IBN917562:IBN917595 ILJ917562:ILJ917595 IVF917562:IVF917595 JFB917562:JFB917595 JOX917562:JOX917595 JYT917562:JYT917595 KIP917562:KIP917595 KSL917562:KSL917595 LCH917562:LCH917595 LMD917562:LMD917595 LVZ917562:LVZ917595 MFV917562:MFV917595 MPR917562:MPR917595 MZN917562:MZN917595 NJJ917562:NJJ917595 NTF917562:NTF917595 ODB917562:ODB917595 OMX917562:OMX917595 OWT917562:OWT917595 PGP917562:PGP917595 PQL917562:PQL917595 QAH917562:QAH917595 QKD917562:QKD917595 QTZ917562:QTZ917595 RDV917562:RDV917595 RNR917562:RNR917595 RXN917562:RXN917595 SHJ917562:SHJ917595 SRF917562:SRF917595 TBB917562:TBB917595 TKX917562:TKX917595 TUT917562:TUT917595 UEP917562:UEP917595 UOL917562:UOL917595 UYH917562:UYH917595 VID917562:VID917595 VRZ917562:VRZ917595 WBV917562:WBV917595 WLR917562:WLR917595 WVN917562:WVN917595 F983098:F983131 JB983098:JB983131 SX983098:SX983131 ACT983098:ACT983131 AMP983098:AMP983131 AWL983098:AWL983131 BGH983098:BGH983131 BQD983098:BQD983131 BZZ983098:BZZ983131 CJV983098:CJV983131 CTR983098:CTR983131 DDN983098:DDN983131 DNJ983098:DNJ983131 DXF983098:DXF983131 EHB983098:EHB983131 EQX983098:EQX983131 FAT983098:FAT983131 FKP983098:FKP983131 FUL983098:FUL983131 GEH983098:GEH983131 GOD983098:GOD983131 GXZ983098:GXZ983131 HHV983098:HHV983131 HRR983098:HRR983131 IBN983098:IBN983131 ILJ983098:ILJ983131 IVF983098:IVF983131 JFB983098:JFB983131 JOX983098:JOX983131 JYT983098:JYT983131 KIP983098:KIP983131 KSL983098:KSL983131 LCH983098:LCH983131 LMD983098:LMD983131 LVZ983098:LVZ983131 MFV983098:MFV983131 MPR983098:MPR983131 MZN983098:MZN983131 NJJ983098:NJJ983131 NTF983098:NTF983131 ODB983098:ODB983131 OMX983098:OMX983131 OWT983098:OWT983131 PGP983098:PGP983131 PQL983098:PQL983131 QAH983098:QAH983131 QKD983098:QKD983131 QTZ983098:QTZ983131 RDV983098:RDV983131 RNR983098:RNR983131 RXN983098:RXN983131 SHJ983098:SHJ983131 SRF983098:SRF983131 TBB983098:TBB983131 TKX983098:TKX983131 TUT983098:TUT983131 UEP983098:UEP983131 UOL983098:UOL983131 UYH983098:UYH983131 VID983098:VID983131 VRZ983098:VRZ983131 WBV983098:WBV983131 WLR983098:WLR983131 WVN983098:WVN983131 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F768" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65594:H65627 JD65594:JD65627 SZ65594:SZ65627 ACV65594:ACV65627 AMR65594:AMR65627 AWN65594:AWN65627 BGJ65594:BGJ65627 BQF65594:BQF65627 CAB65594:CAB65627 CJX65594:CJX65627 CTT65594:CTT65627 DDP65594:DDP65627 DNL65594:DNL65627 DXH65594:DXH65627 EHD65594:EHD65627 EQZ65594:EQZ65627 FAV65594:FAV65627 FKR65594:FKR65627 FUN65594:FUN65627 GEJ65594:GEJ65627 GOF65594:GOF65627 GYB65594:GYB65627 HHX65594:HHX65627 HRT65594:HRT65627 IBP65594:IBP65627 ILL65594:ILL65627 IVH65594:IVH65627 JFD65594:JFD65627 JOZ65594:JOZ65627 JYV65594:JYV65627 KIR65594:KIR65627 KSN65594:KSN65627 LCJ65594:LCJ65627 LMF65594:LMF65627 LWB65594:LWB65627 MFX65594:MFX65627 MPT65594:MPT65627 MZP65594:MZP65627 NJL65594:NJL65627 NTH65594:NTH65627 ODD65594:ODD65627 OMZ65594:OMZ65627 OWV65594:OWV65627 PGR65594:PGR65627 PQN65594:PQN65627 QAJ65594:QAJ65627 QKF65594:QKF65627 QUB65594:QUB65627 RDX65594:RDX65627 RNT65594:RNT65627 RXP65594:RXP65627 SHL65594:SHL65627 SRH65594:SRH65627 TBD65594:TBD65627 TKZ65594:TKZ65627 TUV65594:TUV65627 UER65594:UER65627 UON65594:UON65627 UYJ65594:UYJ65627 VIF65594:VIF65627 VSB65594:VSB65627 WBX65594:WBX65627 WLT65594:WLT65627 WVP65594:WVP65627 H131130:H131163 JD131130:JD131163 SZ131130:SZ131163 ACV131130:ACV131163 AMR131130:AMR131163 AWN131130:AWN131163 BGJ131130:BGJ131163 BQF131130:BQF131163 CAB131130:CAB131163 CJX131130:CJX131163 CTT131130:CTT131163 DDP131130:DDP131163 DNL131130:DNL131163 DXH131130:DXH131163 EHD131130:EHD131163 EQZ131130:EQZ131163 FAV131130:FAV131163 FKR131130:FKR131163 FUN131130:FUN131163 GEJ131130:GEJ131163 GOF131130:GOF131163 GYB131130:GYB131163 HHX131130:HHX131163 HRT131130:HRT131163 IBP131130:IBP131163 ILL131130:ILL131163 IVH131130:IVH131163 JFD131130:JFD131163 JOZ131130:JOZ131163 JYV131130:JYV131163 KIR131130:KIR131163 KSN131130:KSN131163 LCJ131130:LCJ131163 LMF131130:LMF131163 LWB131130:LWB131163 MFX131130:MFX131163 MPT131130:MPT131163 MZP131130:MZP131163 NJL131130:NJL131163 NTH131130:NTH131163 ODD131130:ODD131163 OMZ131130:OMZ131163 OWV131130:OWV131163 PGR131130:PGR131163 PQN131130:PQN131163 QAJ131130:QAJ131163 QKF131130:QKF131163 QUB131130:QUB131163 RDX131130:RDX131163 RNT131130:RNT131163 RXP131130:RXP131163 SHL131130:SHL131163 SRH131130:SRH131163 TBD131130:TBD131163 TKZ131130:TKZ131163 TUV131130:TUV131163 UER131130:UER131163 UON131130:UON131163 UYJ131130:UYJ131163 VIF131130:VIF131163 VSB131130:VSB131163 WBX131130:WBX131163 WLT131130:WLT131163 WVP131130:WVP131163 H196666:H196699 JD196666:JD196699 SZ196666:SZ196699 ACV196666:ACV196699 AMR196666:AMR196699 AWN196666:AWN196699 BGJ196666:BGJ196699 BQF196666:BQF196699 CAB196666:CAB196699 CJX196666:CJX196699 CTT196666:CTT196699 DDP196666:DDP196699 DNL196666:DNL196699 DXH196666:DXH196699 EHD196666:EHD196699 EQZ196666:EQZ196699 FAV196666:FAV196699 FKR196666:FKR196699 FUN196666:FUN196699 GEJ196666:GEJ196699 GOF196666:GOF196699 GYB196666:GYB196699 HHX196666:HHX196699 HRT196666:HRT196699 IBP196666:IBP196699 ILL196666:ILL196699 IVH196666:IVH196699 JFD196666:JFD196699 JOZ196666:JOZ196699 JYV196666:JYV196699 KIR196666:KIR196699 KSN196666:KSN196699 LCJ196666:LCJ196699 LMF196666:LMF196699 LWB196666:LWB196699 MFX196666:MFX196699 MPT196666:MPT196699 MZP196666:MZP196699 NJL196666:NJL196699 NTH196666:NTH196699 ODD196666:ODD196699 OMZ196666:OMZ196699 OWV196666:OWV196699 PGR196666:PGR196699 PQN196666:PQN196699 QAJ196666:QAJ196699 QKF196666:QKF196699 QUB196666:QUB196699 RDX196666:RDX196699 RNT196666:RNT196699 RXP196666:RXP196699 SHL196666:SHL196699 SRH196666:SRH196699 TBD196666:TBD196699 TKZ196666:TKZ196699 TUV196666:TUV196699 UER196666:UER196699 UON196666:UON196699 UYJ196666:UYJ196699 VIF196666:VIF196699 VSB196666:VSB196699 WBX196666:WBX196699 WLT196666:WLT196699 WVP196666:WVP196699 H262202:H262235 JD262202:JD262235 SZ262202:SZ262235 ACV262202:ACV262235 AMR262202:AMR262235 AWN262202:AWN262235 BGJ262202:BGJ262235 BQF262202:BQF262235 CAB262202:CAB262235 CJX262202:CJX262235 CTT262202:CTT262235 DDP262202:DDP262235 DNL262202:DNL262235 DXH262202:DXH262235 EHD262202:EHD262235 EQZ262202:EQZ262235 FAV262202:FAV262235 FKR262202:FKR262235 FUN262202:FUN262235 GEJ262202:GEJ262235 GOF262202:GOF262235 GYB262202:GYB262235 HHX262202:HHX262235 HRT262202:HRT262235 IBP262202:IBP262235 ILL262202:ILL262235 IVH262202:IVH262235 JFD262202:JFD262235 JOZ262202:JOZ262235 JYV262202:JYV262235 KIR262202:KIR262235 KSN262202:KSN262235 LCJ262202:LCJ262235 LMF262202:LMF262235 LWB262202:LWB262235 MFX262202:MFX262235 MPT262202:MPT262235 MZP262202:MZP262235 NJL262202:NJL262235 NTH262202:NTH262235 ODD262202:ODD262235 OMZ262202:OMZ262235 OWV262202:OWV262235 PGR262202:PGR262235 PQN262202:PQN262235 QAJ262202:QAJ262235 QKF262202:QKF262235 QUB262202:QUB262235 RDX262202:RDX262235 RNT262202:RNT262235 RXP262202:RXP262235 SHL262202:SHL262235 SRH262202:SRH262235 TBD262202:TBD262235 TKZ262202:TKZ262235 TUV262202:TUV262235 UER262202:UER262235 UON262202:UON262235 UYJ262202:UYJ262235 VIF262202:VIF262235 VSB262202:VSB262235 WBX262202:WBX262235 WLT262202:WLT262235 WVP262202:WVP262235 H327738:H327771 JD327738:JD327771 SZ327738:SZ327771 ACV327738:ACV327771 AMR327738:AMR327771 AWN327738:AWN327771 BGJ327738:BGJ327771 BQF327738:BQF327771 CAB327738:CAB327771 CJX327738:CJX327771 CTT327738:CTT327771 DDP327738:DDP327771 DNL327738:DNL327771 DXH327738:DXH327771 EHD327738:EHD327771 EQZ327738:EQZ327771 FAV327738:FAV327771 FKR327738:FKR327771 FUN327738:FUN327771 GEJ327738:GEJ327771 GOF327738:GOF327771 GYB327738:GYB327771 HHX327738:HHX327771 HRT327738:HRT327771 IBP327738:IBP327771 ILL327738:ILL327771 IVH327738:IVH327771 JFD327738:JFD327771 JOZ327738:JOZ327771 JYV327738:JYV327771 KIR327738:KIR327771 KSN327738:KSN327771 LCJ327738:LCJ327771 LMF327738:LMF327771 LWB327738:LWB327771 MFX327738:MFX327771 MPT327738:MPT327771 MZP327738:MZP327771 NJL327738:NJL327771 NTH327738:NTH327771 ODD327738:ODD327771 OMZ327738:OMZ327771 OWV327738:OWV327771 PGR327738:PGR327771 PQN327738:PQN327771 QAJ327738:QAJ327771 QKF327738:QKF327771 QUB327738:QUB327771 RDX327738:RDX327771 RNT327738:RNT327771 RXP327738:RXP327771 SHL327738:SHL327771 SRH327738:SRH327771 TBD327738:TBD327771 TKZ327738:TKZ327771 TUV327738:TUV327771 UER327738:UER327771 UON327738:UON327771 UYJ327738:UYJ327771 VIF327738:VIF327771 VSB327738:VSB327771 WBX327738:WBX327771 WLT327738:WLT327771 WVP327738:WVP327771 H393274:H393307 JD393274:JD393307 SZ393274:SZ393307 ACV393274:ACV393307 AMR393274:AMR393307 AWN393274:AWN393307 BGJ393274:BGJ393307 BQF393274:BQF393307 CAB393274:CAB393307 CJX393274:CJX393307 CTT393274:CTT393307 DDP393274:DDP393307 DNL393274:DNL393307 DXH393274:DXH393307 EHD393274:EHD393307 EQZ393274:EQZ393307 FAV393274:FAV393307 FKR393274:FKR393307 FUN393274:FUN393307 GEJ393274:GEJ393307 GOF393274:GOF393307 GYB393274:GYB393307 HHX393274:HHX393307 HRT393274:HRT393307 IBP393274:IBP393307 ILL393274:ILL393307 IVH393274:IVH393307 JFD393274:JFD393307 JOZ393274:JOZ393307 JYV393274:JYV393307 KIR393274:KIR393307 KSN393274:KSN393307 LCJ393274:LCJ393307 LMF393274:LMF393307 LWB393274:LWB393307 MFX393274:MFX393307 MPT393274:MPT393307 MZP393274:MZP393307 NJL393274:NJL393307 NTH393274:NTH393307 ODD393274:ODD393307 OMZ393274:OMZ393307 OWV393274:OWV393307 PGR393274:PGR393307 PQN393274:PQN393307 QAJ393274:QAJ393307 QKF393274:QKF393307 QUB393274:QUB393307 RDX393274:RDX393307 RNT393274:RNT393307 RXP393274:RXP393307 SHL393274:SHL393307 SRH393274:SRH393307 TBD393274:TBD393307 TKZ393274:TKZ393307 TUV393274:TUV393307 UER393274:UER393307 UON393274:UON393307 UYJ393274:UYJ393307 VIF393274:VIF393307 VSB393274:VSB393307 WBX393274:WBX393307 WLT393274:WLT393307 WVP393274:WVP393307 H458810:H458843 JD458810:JD458843 SZ458810:SZ458843 ACV458810:ACV458843 AMR458810:AMR458843 AWN458810:AWN458843 BGJ458810:BGJ458843 BQF458810:BQF458843 CAB458810:CAB458843 CJX458810:CJX458843 CTT458810:CTT458843 DDP458810:DDP458843 DNL458810:DNL458843 DXH458810:DXH458843 EHD458810:EHD458843 EQZ458810:EQZ458843 FAV458810:FAV458843 FKR458810:FKR458843 FUN458810:FUN458843 GEJ458810:GEJ458843 GOF458810:GOF458843 GYB458810:GYB458843 HHX458810:HHX458843 HRT458810:HRT458843 IBP458810:IBP458843 ILL458810:ILL458843 IVH458810:IVH458843 JFD458810:JFD458843 JOZ458810:JOZ458843 JYV458810:JYV458843 KIR458810:KIR458843 KSN458810:KSN458843 LCJ458810:LCJ458843 LMF458810:LMF458843 LWB458810:LWB458843 MFX458810:MFX458843 MPT458810:MPT458843 MZP458810:MZP458843 NJL458810:NJL458843 NTH458810:NTH458843 ODD458810:ODD458843 OMZ458810:OMZ458843 OWV458810:OWV458843 PGR458810:PGR458843 PQN458810:PQN458843 QAJ458810:QAJ458843 QKF458810:QKF458843 QUB458810:QUB458843 RDX458810:RDX458843 RNT458810:RNT458843 RXP458810:RXP458843 SHL458810:SHL458843 SRH458810:SRH458843 TBD458810:TBD458843 TKZ458810:TKZ458843 TUV458810:TUV458843 UER458810:UER458843 UON458810:UON458843 UYJ458810:UYJ458843 VIF458810:VIF458843 VSB458810:VSB458843 WBX458810:WBX458843 WLT458810:WLT458843 WVP458810:WVP458843 H524346:H524379 JD524346:JD524379 SZ524346:SZ524379 ACV524346:ACV524379 AMR524346:AMR524379 AWN524346:AWN524379 BGJ524346:BGJ524379 BQF524346:BQF524379 CAB524346:CAB524379 CJX524346:CJX524379 CTT524346:CTT524379 DDP524346:DDP524379 DNL524346:DNL524379 DXH524346:DXH524379 EHD524346:EHD524379 EQZ524346:EQZ524379 FAV524346:FAV524379 FKR524346:FKR524379 FUN524346:FUN524379 GEJ524346:GEJ524379 GOF524346:GOF524379 GYB524346:GYB524379 HHX524346:HHX524379 HRT524346:HRT524379 IBP524346:IBP524379 ILL524346:ILL524379 IVH524346:IVH524379 JFD524346:JFD524379 JOZ524346:JOZ524379 JYV524346:JYV524379 KIR524346:KIR524379 KSN524346:KSN524379 LCJ524346:LCJ524379 LMF524346:LMF524379 LWB524346:LWB524379 MFX524346:MFX524379 MPT524346:MPT524379 MZP524346:MZP524379 NJL524346:NJL524379 NTH524346:NTH524379 ODD524346:ODD524379 OMZ524346:OMZ524379 OWV524346:OWV524379 PGR524346:PGR524379 PQN524346:PQN524379 QAJ524346:QAJ524379 QKF524346:QKF524379 QUB524346:QUB524379 RDX524346:RDX524379 RNT524346:RNT524379 RXP524346:RXP524379 SHL524346:SHL524379 SRH524346:SRH524379 TBD524346:TBD524379 TKZ524346:TKZ524379 TUV524346:TUV524379 UER524346:UER524379 UON524346:UON524379 UYJ524346:UYJ524379 VIF524346:VIF524379 VSB524346:VSB524379 WBX524346:WBX524379 WLT524346:WLT524379 WVP524346:WVP524379 H589882:H589915 JD589882:JD589915 SZ589882:SZ589915 ACV589882:ACV589915 AMR589882:AMR589915 AWN589882:AWN589915 BGJ589882:BGJ589915 BQF589882:BQF589915 CAB589882:CAB589915 CJX589882:CJX589915 CTT589882:CTT589915 DDP589882:DDP589915 DNL589882:DNL589915 DXH589882:DXH589915 EHD589882:EHD589915 EQZ589882:EQZ589915 FAV589882:FAV589915 FKR589882:FKR589915 FUN589882:FUN589915 GEJ589882:GEJ589915 GOF589882:GOF589915 GYB589882:GYB589915 HHX589882:HHX589915 HRT589882:HRT589915 IBP589882:IBP589915 ILL589882:ILL589915 IVH589882:IVH589915 JFD589882:JFD589915 JOZ589882:JOZ589915 JYV589882:JYV589915 KIR589882:KIR589915 KSN589882:KSN589915 LCJ589882:LCJ589915 LMF589882:LMF589915 LWB589882:LWB589915 MFX589882:MFX589915 MPT589882:MPT589915 MZP589882:MZP589915 NJL589882:NJL589915 NTH589882:NTH589915 ODD589882:ODD589915 OMZ589882:OMZ589915 OWV589882:OWV589915 PGR589882:PGR589915 PQN589882:PQN589915 QAJ589882:QAJ589915 QKF589882:QKF589915 QUB589882:QUB589915 RDX589882:RDX589915 RNT589882:RNT589915 RXP589882:RXP589915 SHL589882:SHL589915 SRH589882:SRH589915 TBD589882:TBD589915 TKZ589882:TKZ589915 TUV589882:TUV589915 UER589882:UER589915 UON589882:UON589915 UYJ589882:UYJ589915 VIF589882:VIF589915 VSB589882:VSB589915 WBX589882:WBX589915 WLT589882:WLT589915 WVP589882:WVP589915 H655418:H655451 JD655418:JD655451 SZ655418:SZ655451 ACV655418:ACV655451 AMR655418:AMR655451 AWN655418:AWN655451 BGJ655418:BGJ655451 BQF655418:BQF655451 CAB655418:CAB655451 CJX655418:CJX655451 CTT655418:CTT655451 DDP655418:DDP655451 DNL655418:DNL655451 DXH655418:DXH655451 EHD655418:EHD655451 EQZ655418:EQZ655451 FAV655418:FAV655451 FKR655418:FKR655451 FUN655418:FUN655451 GEJ655418:GEJ655451 GOF655418:GOF655451 GYB655418:GYB655451 HHX655418:HHX655451 HRT655418:HRT655451 IBP655418:IBP655451 ILL655418:ILL655451 IVH655418:IVH655451 JFD655418:JFD655451 JOZ655418:JOZ655451 JYV655418:JYV655451 KIR655418:KIR655451 KSN655418:KSN655451 LCJ655418:LCJ655451 LMF655418:LMF655451 LWB655418:LWB655451 MFX655418:MFX655451 MPT655418:MPT655451 MZP655418:MZP655451 NJL655418:NJL655451 NTH655418:NTH655451 ODD655418:ODD655451 OMZ655418:OMZ655451 OWV655418:OWV655451 PGR655418:PGR655451 PQN655418:PQN655451 QAJ655418:QAJ655451 QKF655418:QKF655451 QUB655418:QUB655451 RDX655418:RDX655451 RNT655418:RNT655451 RXP655418:RXP655451 SHL655418:SHL655451 SRH655418:SRH655451 TBD655418:TBD655451 TKZ655418:TKZ655451 TUV655418:TUV655451 UER655418:UER655451 UON655418:UON655451 UYJ655418:UYJ655451 VIF655418:VIF655451 VSB655418:VSB655451 WBX655418:WBX655451 WLT655418:WLT655451 WVP655418:WVP655451 H720954:H720987 JD720954:JD720987 SZ720954:SZ720987 ACV720954:ACV720987 AMR720954:AMR720987 AWN720954:AWN720987 BGJ720954:BGJ720987 BQF720954:BQF720987 CAB720954:CAB720987 CJX720954:CJX720987 CTT720954:CTT720987 DDP720954:DDP720987 DNL720954:DNL720987 DXH720954:DXH720987 EHD720954:EHD720987 EQZ720954:EQZ720987 FAV720954:FAV720987 FKR720954:FKR720987 FUN720954:FUN720987 GEJ720954:GEJ720987 GOF720954:GOF720987 GYB720954:GYB720987 HHX720954:HHX720987 HRT720954:HRT720987 IBP720954:IBP720987 ILL720954:ILL720987 IVH720954:IVH720987 JFD720954:JFD720987 JOZ720954:JOZ720987 JYV720954:JYV720987 KIR720954:KIR720987 KSN720954:KSN720987 LCJ720954:LCJ720987 LMF720954:LMF720987 LWB720954:LWB720987 MFX720954:MFX720987 MPT720954:MPT720987 MZP720954:MZP720987 NJL720954:NJL720987 NTH720954:NTH720987 ODD720954:ODD720987 OMZ720954:OMZ720987 OWV720954:OWV720987 PGR720954:PGR720987 PQN720954:PQN720987 QAJ720954:QAJ720987 QKF720954:QKF720987 QUB720954:QUB720987 RDX720954:RDX720987 RNT720954:RNT720987 RXP720954:RXP720987 SHL720954:SHL720987 SRH720954:SRH720987 TBD720954:TBD720987 TKZ720954:TKZ720987 TUV720954:TUV720987 UER720954:UER720987 UON720954:UON720987 UYJ720954:UYJ720987 VIF720954:VIF720987 VSB720954:VSB720987 WBX720954:WBX720987 WLT720954:WLT720987 WVP720954:WVP720987 H786490:H786523 JD786490:JD786523 SZ786490:SZ786523 ACV786490:ACV786523 AMR786490:AMR786523 AWN786490:AWN786523 BGJ786490:BGJ786523 BQF786490:BQF786523 CAB786490:CAB786523 CJX786490:CJX786523 CTT786490:CTT786523 DDP786490:DDP786523 DNL786490:DNL786523 DXH786490:DXH786523 EHD786490:EHD786523 EQZ786490:EQZ786523 FAV786490:FAV786523 FKR786490:FKR786523 FUN786490:FUN786523 GEJ786490:GEJ786523 GOF786490:GOF786523 GYB786490:GYB786523 HHX786490:HHX786523 HRT786490:HRT786523 IBP786490:IBP786523 ILL786490:ILL786523 IVH786490:IVH786523 JFD786490:JFD786523 JOZ786490:JOZ786523 JYV786490:JYV786523 KIR786490:KIR786523 KSN786490:KSN786523 LCJ786490:LCJ786523 LMF786490:LMF786523 LWB786490:LWB786523 MFX786490:MFX786523 MPT786490:MPT786523 MZP786490:MZP786523 NJL786490:NJL786523 NTH786490:NTH786523 ODD786490:ODD786523 OMZ786490:OMZ786523 OWV786490:OWV786523 PGR786490:PGR786523 PQN786490:PQN786523 QAJ786490:QAJ786523 QKF786490:QKF786523 QUB786490:QUB786523 RDX786490:RDX786523 RNT786490:RNT786523 RXP786490:RXP786523 SHL786490:SHL786523 SRH786490:SRH786523 TBD786490:TBD786523 TKZ786490:TKZ786523 TUV786490:TUV786523 UER786490:UER786523 UON786490:UON786523 UYJ786490:UYJ786523 VIF786490:VIF786523 VSB786490:VSB786523 WBX786490:WBX786523 WLT786490:WLT786523 WVP786490:WVP786523 H852026:H852059 JD852026:JD852059 SZ852026:SZ852059 ACV852026:ACV852059 AMR852026:AMR852059 AWN852026:AWN852059 BGJ852026:BGJ852059 BQF852026:BQF852059 CAB852026:CAB852059 CJX852026:CJX852059 CTT852026:CTT852059 DDP852026:DDP852059 DNL852026:DNL852059 DXH852026:DXH852059 EHD852026:EHD852059 EQZ852026:EQZ852059 FAV852026:FAV852059 FKR852026:FKR852059 FUN852026:FUN852059 GEJ852026:GEJ852059 GOF852026:GOF852059 GYB852026:GYB852059 HHX852026:HHX852059 HRT852026:HRT852059 IBP852026:IBP852059 ILL852026:ILL852059 IVH852026:IVH852059 JFD852026:JFD852059 JOZ852026:JOZ852059 JYV852026:JYV852059 KIR852026:KIR852059 KSN852026:KSN852059 LCJ852026:LCJ852059 LMF852026:LMF852059 LWB852026:LWB852059 MFX852026:MFX852059 MPT852026:MPT852059 MZP852026:MZP852059 NJL852026:NJL852059 NTH852026:NTH852059 ODD852026:ODD852059 OMZ852026:OMZ852059 OWV852026:OWV852059 PGR852026:PGR852059 PQN852026:PQN852059 QAJ852026:QAJ852059 QKF852026:QKF852059 QUB852026:QUB852059 RDX852026:RDX852059 RNT852026:RNT852059 RXP852026:RXP852059 SHL852026:SHL852059 SRH852026:SRH852059 TBD852026:TBD852059 TKZ852026:TKZ852059 TUV852026:TUV852059 UER852026:UER852059 UON852026:UON852059 UYJ852026:UYJ852059 VIF852026:VIF852059 VSB852026:VSB852059 WBX852026:WBX852059 WLT852026:WLT852059 WVP852026:WVP852059 H917562:H917595 JD917562:JD917595 SZ917562:SZ917595 ACV917562:ACV917595 AMR917562:AMR917595 AWN917562:AWN917595 BGJ917562:BGJ917595 BQF917562:BQF917595 CAB917562:CAB917595 CJX917562:CJX917595 CTT917562:CTT917595 DDP917562:DDP917595 DNL917562:DNL917595 DXH917562:DXH917595 EHD917562:EHD917595 EQZ917562:EQZ917595 FAV917562:FAV917595 FKR917562:FKR917595 FUN917562:FUN917595 GEJ917562:GEJ917595 GOF917562:GOF917595 GYB917562:GYB917595 HHX917562:HHX917595 HRT917562:HRT917595 IBP917562:IBP917595 ILL917562:ILL917595 IVH917562:IVH917595 JFD917562:JFD917595 JOZ917562:JOZ917595 JYV917562:JYV917595 KIR917562:KIR917595 KSN917562:KSN917595 LCJ917562:LCJ917595 LMF917562:LMF917595 LWB917562:LWB917595 MFX917562:MFX917595 MPT917562:MPT917595 MZP917562:MZP917595 NJL917562:NJL917595 NTH917562:NTH917595 ODD917562:ODD917595 OMZ917562:OMZ917595 OWV917562:OWV917595 PGR917562:PGR917595 PQN917562:PQN917595 QAJ917562:QAJ917595 QKF917562:QKF917595 QUB917562:QUB917595 RDX917562:RDX917595 RNT917562:RNT917595 RXP917562:RXP917595 SHL917562:SHL917595 SRH917562:SRH917595 TBD917562:TBD917595 TKZ917562:TKZ917595 TUV917562:TUV917595 UER917562:UER917595 UON917562:UON917595 UYJ917562:UYJ917595 VIF917562:VIF917595 VSB917562:VSB917595 WBX917562:WBX917595 WLT917562:WLT917595 WVP917562:WVP917595 H983098:H983131 JD983098:JD983131 SZ983098:SZ983131 ACV983098:ACV983131 AMR983098:AMR983131 AWN983098:AWN983131 BGJ983098:BGJ983131 BQF983098:BQF983131 CAB983098:CAB983131 CJX983098:CJX983131 CTT983098:CTT983131 DDP983098:DDP983131 DNL983098:DNL983131 DXH983098:DXH983131 EHD983098:EHD983131 EQZ983098:EQZ983131 FAV983098:FAV983131 FKR983098:FKR983131 FUN983098:FUN983131 GEJ983098:GEJ983131 GOF983098:GOF983131 GYB983098:GYB983131 HHX983098:HHX983131 HRT983098:HRT983131 IBP983098:IBP983131 ILL983098:ILL983131 IVH983098:IVH983131 JFD983098:JFD983131 JOZ983098:JOZ983131 JYV983098:JYV983131 KIR983098:KIR983131 KSN983098:KSN983131 LCJ983098:LCJ983131 LMF983098:LMF983131 LWB983098:LWB983131 MFX983098:MFX983131 MPT983098:MPT983131 MZP983098:MZP983131 NJL983098:NJL983131 NTH983098:NTH983131 ODD983098:ODD983131 OMZ983098:OMZ983131 OWV983098:OWV983131 PGR983098:PGR983131 PQN983098:PQN983131 QAJ983098:QAJ983131 QKF983098:QKF983131 QUB983098:QUB983131 RDX983098:RDX983131 RNT983098:RNT983131 RXP983098:RXP983131 SHL983098:SHL983131 SRH983098:SRH983131 TBD983098:TBD983131 TKZ983098:TKZ983131 TUV983098:TUV983131 UER983098:UER983131 UON983098:UON983131 UYJ983098:UYJ983131 VIF983098:VIF983131 VSB983098:VSB983131 WBX983098:WBX983131 WLT983098:WLT983131 WVP983098:WVP983131 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H755" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65594:H65627 JD65594:JD65627 SZ65594:SZ65627 ACV65594:ACV65627 AMR65594:AMR65627 AWN65594:AWN65627 BGJ65594:BGJ65627 BQF65594:BQF65627 CAB65594:CAB65627 CJX65594:CJX65627 CTT65594:CTT65627 DDP65594:DDP65627 DNL65594:DNL65627 DXH65594:DXH65627 EHD65594:EHD65627 EQZ65594:EQZ65627 FAV65594:FAV65627 FKR65594:FKR65627 FUN65594:FUN65627 GEJ65594:GEJ65627 GOF65594:GOF65627 GYB65594:GYB65627 HHX65594:HHX65627 HRT65594:HRT65627 IBP65594:IBP65627 ILL65594:ILL65627 IVH65594:IVH65627 JFD65594:JFD65627 JOZ65594:JOZ65627 JYV65594:JYV65627 KIR65594:KIR65627 KSN65594:KSN65627 LCJ65594:LCJ65627 LMF65594:LMF65627 LWB65594:LWB65627 MFX65594:MFX65627 MPT65594:MPT65627 MZP65594:MZP65627 NJL65594:NJL65627 NTH65594:NTH65627 ODD65594:ODD65627 OMZ65594:OMZ65627 OWV65594:OWV65627 PGR65594:PGR65627 PQN65594:PQN65627 QAJ65594:QAJ65627 QKF65594:QKF65627 QUB65594:QUB65627 RDX65594:RDX65627 RNT65594:RNT65627 RXP65594:RXP65627 SHL65594:SHL65627 SRH65594:SRH65627 TBD65594:TBD65627 TKZ65594:TKZ65627 TUV65594:TUV65627 UER65594:UER65627 UON65594:UON65627 UYJ65594:UYJ65627 VIF65594:VIF65627 VSB65594:VSB65627 WBX65594:WBX65627 WLT65594:WLT65627 WVP65594:WVP65627 H131130:H131163 JD131130:JD131163 SZ131130:SZ131163 ACV131130:ACV131163 AMR131130:AMR131163 AWN131130:AWN131163 BGJ131130:BGJ131163 BQF131130:BQF131163 CAB131130:CAB131163 CJX131130:CJX131163 CTT131130:CTT131163 DDP131130:DDP131163 DNL131130:DNL131163 DXH131130:DXH131163 EHD131130:EHD131163 EQZ131130:EQZ131163 FAV131130:FAV131163 FKR131130:FKR131163 FUN131130:FUN131163 GEJ131130:GEJ131163 GOF131130:GOF131163 GYB131130:GYB131163 HHX131130:HHX131163 HRT131130:HRT131163 IBP131130:IBP131163 ILL131130:ILL131163 IVH131130:IVH131163 JFD131130:JFD131163 JOZ131130:JOZ131163 JYV131130:JYV131163 KIR131130:KIR131163 KSN131130:KSN131163 LCJ131130:LCJ131163 LMF131130:LMF131163 LWB131130:LWB131163 MFX131130:MFX131163 MPT131130:MPT131163 MZP131130:MZP131163 NJL131130:NJL131163 NTH131130:NTH131163 ODD131130:ODD131163 OMZ131130:OMZ131163 OWV131130:OWV131163 PGR131130:PGR131163 PQN131130:PQN131163 QAJ131130:QAJ131163 QKF131130:QKF131163 QUB131130:QUB131163 RDX131130:RDX131163 RNT131130:RNT131163 RXP131130:RXP131163 SHL131130:SHL131163 SRH131130:SRH131163 TBD131130:TBD131163 TKZ131130:TKZ131163 TUV131130:TUV131163 UER131130:UER131163 UON131130:UON131163 UYJ131130:UYJ131163 VIF131130:VIF131163 VSB131130:VSB131163 WBX131130:WBX131163 WLT131130:WLT131163 WVP131130:WVP131163 H196666:H196699 JD196666:JD196699 SZ196666:SZ196699 ACV196666:ACV196699 AMR196666:AMR196699 AWN196666:AWN196699 BGJ196666:BGJ196699 BQF196666:BQF196699 CAB196666:CAB196699 CJX196666:CJX196699 CTT196666:CTT196699 DDP196666:DDP196699 DNL196666:DNL196699 DXH196666:DXH196699 EHD196666:EHD196699 EQZ196666:EQZ196699 FAV196666:FAV196699 FKR196666:FKR196699 FUN196666:FUN196699 GEJ196666:GEJ196699 GOF196666:GOF196699 GYB196666:GYB196699 HHX196666:HHX196699 HRT196666:HRT196699 IBP196666:IBP196699 ILL196666:ILL196699 IVH196666:IVH196699 JFD196666:JFD196699 JOZ196666:JOZ196699 JYV196666:JYV196699 KIR196666:KIR196699 KSN196666:KSN196699 LCJ196666:LCJ196699 LMF196666:LMF196699 LWB196666:LWB196699 MFX196666:MFX196699 MPT196666:MPT196699 MZP196666:MZP196699 NJL196666:NJL196699 NTH196666:NTH196699 ODD196666:ODD196699 OMZ196666:OMZ196699 OWV196666:OWV196699 PGR196666:PGR196699 PQN196666:PQN196699 QAJ196666:QAJ196699 QKF196666:QKF196699 QUB196666:QUB196699 RDX196666:RDX196699 RNT196666:RNT196699 RXP196666:RXP196699 SHL196666:SHL196699 SRH196666:SRH196699 TBD196666:TBD196699 TKZ196666:TKZ196699 TUV196666:TUV196699 UER196666:UER196699 UON196666:UON196699 UYJ196666:UYJ196699 VIF196666:VIF196699 VSB196666:VSB196699 WBX196666:WBX196699 WLT196666:WLT196699 WVP196666:WVP196699 H262202:H262235 JD262202:JD262235 SZ262202:SZ262235 ACV262202:ACV262235 AMR262202:AMR262235 AWN262202:AWN262235 BGJ262202:BGJ262235 BQF262202:BQF262235 CAB262202:CAB262235 CJX262202:CJX262235 CTT262202:CTT262235 DDP262202:DDP262235 DNL262202:DNL262235 DXH262202:DXH262235 EHD262202:EHD262235 EQZ262202:EQZ262235 FAV262202:FAV262235 FKR262202:FKR262235 FUN262202:FUN262235 GEJ262202:GEJ262235 GOF262202:GOF262235 GYB262202:GYB262235 HHX262202:HHX262235 HRT262202:HRT262235 IBP262202:IBP262235 ILL262202:ILL262235 IVH262202:IVH262235 JFD262202:JFD262235 JOZ262202:JOZ262235 JYV262202:JYV262235 KIR262202:KIR262235 KSN262202:KSN262235 LCJ262202:LCJ262235 LMF262202:LMF262235 LWB262202:LWB262235 MFX262202:MFX262235 MPT262202:MPT262235 MZP262202:MZP262235 NJL262202:NJL262235 NTH262202:NTH262235 ODD262202:ODD262235 OMZ262202:OMZ262235 OWV262202:OWV262235 PGR262202:PGR262235 PQN262202:PQN262235 QAJ262202:QAJ262235 QKF262202:QKF262235 QUB262202:QUB262235 RDX262202:RDX262235 RNT262202:RNT262235 RXP262202:RXP262235 SHL262202:SHL262235 SRH262202:SRH262235 TBD262202:TBD262235 TKZ262202:TKZ262235 TUV262202:TUV262235 UER262202:UER262235 UON262202:UON262235 UYJ262202:UYJ262235 VIF262202:VIF262235 VSB262202:VSB262235 WBX262202:WBX262235 WLT262202:WLT262235 WVP262202:WVP262235 H327738:H327771 JD327738:JD327771 SZ327738:SZ327771 ACV327738:ACV327771 AMR327738:AMR327771 AWN327738:AWN327771 BGJ327738:BGJ327771 BQF327738:BQF327771 CAB327738:CAB327771 CJX327738:CJX327771 CTT327738:CTT327771 DDP327738:DDP327771 DNL327738:DNL327771 DXH327738:DXH327771 EHD327738:EHD327771 EQZ327738:EQZ327771 FAV327738:FAV327771 FKR327738:FKR327771 FUN327738:FUN327771 GEJ327738:GEJ327771 GOF327738:GOF327771 GYB327738:GYB327771 HHX327738:HHX327771 HRT327738:HRT327771 IBP327738:IBP327771 ILL327738:ILL327771 IVH327738:IVH327771 JFD327738:JFD327771 JOZ327738:JOZ327771 JYV327738:JYV327771 KIR327738:KIR327771 KSN327738:KSN327771 LCJ327738:LCJ327771 LMF327738:LMF327771 LWB327738:LWB327771 MFX327738:MFX327771 MPT327738:MPT327771 MZP327738:MZP327771 NJL327738:NJL327771 NTH327738:NTH327771 ODD327738:ODD327771 OMZ327738:OMZ327771 OWV327738:OWV327771 PGR327738:PGR327771 PQN327738:PQN327771 QAJ327738:QAJ327771 QKF327738:QKF327771 QUB327738:QUB327771 RDX327738:RDX327771 RNT327738:RNT327771 RXP327738:RXP327771 SHL327738:SHL327771 SRH327738:SRH327771 TBD327738:TBD327771 TKZ327738:TKZ327771 TUV327738:TUV327771 UER327738:UER327771 UON327738:UON327771 UYJ327738:UYJ327771 VIF327738:VIF327771 VSB327738:VSB327771 WBX327738:WBX327771 WLT327738:WLT327771 WVP327738:WVP327771 H393274:H393307 JD393274:JD393307 SZ393274:SZ393307 ACV393274:ACV393307 AMR393274:AMR393307 AWN393274:AWN393307 BGJ393274:BGJ393307 BQF393274:BQF393307 CAB393274:CAB393307 CJX393274:CJX393307 CTT393274:CTT393307 DDP393274:DDP393307 DNL393274:DNL393307 DXH393274:DXH393307 EHD393274:EHD393307 EQZ393274:EQZ393307 FAV393274:FAV393307 FKR393274:FKR393307 FUN393274:FUN393307 GEJ393274:GEJ393307 GOF393274:GOF393307 GYB393274:GYB393307 HHX393274:HHX393307 HRT393274:HRT393307 IBP393274:IBP393307 ILL393274:ILL393307 IVH393274:IVH393307 JFD393274:JFD393307 JOZ393274:JOZ393307 JYV393274:JYV393307 KIR393274:KIR393307 KSN393274:KSN393307 LCJ393274:LCJ393307 LMF393274:LMF393307 LWB393274:LWB393307 MFX393274:MFX393307 MPT393274:MPT393307 MZP393274:MZP393307 NJL393274:NJL393307 NTH393274:NTH393307 ODD393274:ODD393307 OMZ393274:OMZ393307 OWV393274:OWV393307 PGR393274:PGR393307 PQN393274:PQN393307 QAJ393274:QAJ393307 QKF393274:QKF393307 QUB393274:QUB393307 RDX393274:RDX393307 RNT393274:RNT393307 RXP393274:RXP393307 SHL393274:SHL393307 SRH393274:SRH393307 TBD393274:TBD393307 TKZ393274:TKZ393307 TUV393274:TUV393307 UER393274:UER393307 UON393274:UON393307 UYJ393274:UYJ393307 VIF393274:VIF393307 VSB393274:VSB393307 WBX393274:WBX393307 WLT393274:WLT393307 WVP393274:WVP393307 H458810:H458843 JD458810:JD458843 SZ458810:SZ458843 ACV458810:ACV458843 AMR458810:AMR458843 AWN458810:AWN458843 BGJ458810:BGJ458843 BQF458810:BQF458843 CAB458810:CAB458843 CJX458810:CJX458843 CTT458810:CTT458843 DDP458810:DDP458843 DNL458810:DNL458843 DXH458810:DXH458843 EHD458810:EHD458843 EQZ458810:EQZ458843 FAV458810:FAV458843 FKR458810:FKR458843 FUN458810:FUN458843 GEJ458810:GEJ458843 GOF458810:GOF458843 GYB458810:GYB458843 HHX458810:HHX458843 HRT458810:HRT458843 IBP458810:IBP458843 ILL458810:ILL458843 IVH458810:IVH458843 JFD458810:JFD458843 JOZ458810:JOZ458843 JYV458810:JYV458843 KIR458810:KIR458843 KSN458810:KSN458843 LCJ458810:LCJ458843 LMF458810:LMF458843 LWB458810:LWB458843 MFX458810:MFX458843 MPT458810:MPT458843 MZP458810:MZP458843 NJL458810:NJL458843 NTH458810:NTH458843 ODD458810:ODD458843 OMZ458810:OMZ458843 OWV458810:OWV458843 PGR458810:PGR458843 PQN458810:PQN458843 QAJ458810:QAJ458843 QKF458810:QKF458843 QUB458810:QUB458843 RDX458810:RDX458843 RNT458810:RNT458843 RXP458810:RXP458843 SHL458810:SHL458843 SRH458810:SRH458843 TBD458810:TBD458843 TKZ458810:TKZ458843 TUV458810:TUV458843 UER458810:UER458843 UON458810:UON458843 UYJ458810:UYJ458843 VIF458810:VIF458843 VSB458810:VSB458843 WBX458810:WBX458843 WLT458810:WLT458843 WVP458810:WVP458843 H524346:H524379 JD524346:JD524379 SZ524346:SZ524379 ACV524346:ACV524379 AMR524346:AMR524379 AWN524346:AWN524379 BGJ524346:BGJ524379 BQF524346:BQF524379 CAB524346:CAB524379 CJX524346:CJX524379 CTT524346:CTT524379 DDP524346:DDP524379 DNL524346:DNL524379 DXH524346:DXH524379 EHD524346:EHD524379 EQZ524346:EQZ524379 FAV524346:FAV524379 FKR524346:FKR524379 FUN524346:FUN524379 GEJ524346:GEJ524379 GOF524346:GOF524379 GYB524346:GYB524379 HHX524346:HHX524379 HRT524346:HRT524379 IBP524346:IBP524379 ILL524346:ILL524379 IVH524346:IVH524379 JFD524346:JFD524379 JOZ524346:JOZ524379 JYV524346:JYV524379 KIR524346:KIR524379 KSN524346:KSN524379 LCJ524346:LCJ524379 LMF524346:LMF524379 LWB524346:LWB524379 MFX524346:MFX524379 MPT524346:MPT524379 MZP524346:MZP524379 NJL524346:NJL524379 NTH524346:NTH524379 ODD524346:ODD524379 OMZ524346:OMZ524379 OWV524346:OWV524379 PGR524346:PGR524379 PQN524346:PQN524379 QAJ524346:QAJ524379 QKF524346:QKF524379 QUB524346:QUB524379 RDX524346:RDX524379 RNT524346:RNT524379 RXP524346:RXP524379 SHL524346:SHL524379 SRH524346:SRH524379 TBD524346:TBD524379 TKZ524346:TKZ524379 TUV524346:TUV524379 UER524346:UER524379 UON524346:UON524379 UYJ524346:UYJ524379 VIF524346:VIF524379 VSB524346:VSB524379 WBX524346:WBX524379 WLT524346:WLT524379 WVP524346:WVP524379 H589882:H589915 JD589882:JD589915 SZ589882:SZ589915 ACV589882:ACV589915 AMR589882:AMR589915 AWN589882:AWN589915 BGJ589882:BGJ589915 BQF589882:BQF589915 CAB589882:CAB589915 CJX589882:CJX589915 CTT589882:CTT589915 DDP589882:DDP589915 DNL589882:DNL589915 DXH589882:DXH589915 EHD589882:EHD589915 EQZ589882:EQZ589915 FAV589882:FAV589915 FKR589882:FKR589915 FUN589882:FUN589915 GEJ589882:GEJ589915 GOF589882:GOF589915 GYB589882:GYB589915 HHX589882:HHX589915 HRT589882:HRT589915 IBP589882:IBP589915 ILL589882:ILL589915 IVH589882:IVH589915 JFD589882:JFD589915 JOZ589882:JOZ589915 JYV589882:JYV589915 KIR589882:KIR589915 KSN589882:KSN589915 LCJ589882:LCJ589915 LMF589882:LMF589915 LWB589882:LWB589915 MFX589882:MFX589915 MPT589882:MPT589915 MZP589882:MZP589915 NJL589882:NJL589915 NTH589882:NTH589915 ODD589882:ODD589915 OMZ589882:OMZ589915 OWV589882:OWV589915 PGR589882:PGR589915 PQN589882:PQN589915 QAJ589882:QAJ589915 QKF589882:QKF589915 QUB589882:QUB589915 RDX589882:RDX589915 RNT589882:RNT589915 RXP589882:RXP589915 SHL589882:SHL589915 SRH589882:SRH589915 TBD589882:TBD589915 TKZ589882:TKZ589915 TUV589882:TUV589915 UER589882:UER589915 UON589882:UON589915 UYJ589882:UYJ589915 VIF589882:VIF589915 VSB589882:VSB589915 WBX589882:WBX589915 WLT589882:WLT589915 WVP589882:WVP589915 H655418:H655451 JD655418:JD655451 SZ655418:SZ655451 ACV655418:ACV655451 AMR655418:AMR655451 AWN655418:AWN655451 BGJ655418:BGJ655451 BQF655418:BQF655451 CAB655418:CAB655451 CJX655418:CJX655451 CTT655418:CTT655451 DDP655418:DDP655451 DNL655418:DNL655451 DXH655418:DXH655451 EHD655418:EHD655451 EQZ655418:EQZ655451 FAV655418:FAV655451 FKR655418:FKR655451 FUN655418:FUN655451 GEJ655418:GEJ655451 GOF655418:GOF655451 GYB655418:GYB655451 HHX655418:HHX655451 HRT655418:HRT655451 IBP655418:IBP655451 ILL655418:ILL655451 IVH655418:IVH655451 JFD655418:JFD655451 JOZ655418:JOZ655451 JYV655418:JYV655451 KIR655418:KIR655451 KSN655418:KSN655451 LCJ655418:LCJ655451 LMF655418:LMF655451 LWB655418:LWB655451 MFX655418:MFX655451 MPT655418:MPT655451 MZP655418:MZP655451 NJL655418:NJL655451 NTH655418:NTH655451 ODD655418:ODD655451 OMZ655418:OMZ655451 OWV655418:OWV655451 PGR655418:PGR655451 PQN655418:PQN655451 QAJ655418:QAJ655451 QKF655418:QKF655451 QUB655418:QUB655451 RDX655418:RDX655451 RNT655418:RNT655451 RXP655418:RXP655451 SHL655418:SHL655451 SRH655418:SRH655451 TBD655418:TBD655451 TKZ655418:TKZ655451 TUV655418:TUV655451 UER655418:UER655451 UON655418:UON655451 UYJ655418:UYJ655451 VIF655418:VIF655451 VSB655418:VSB655451 WBX655418:WBX655451 WLT655418:WLT655451 WVP655418:WVP655451 H720954:H720987 JD720954:JD720987 SZ720954:SZ720987 ACV720954:ACV720987 AMR720954:AMR720987 AWN720954:AWN720987 BGJ720954:BGJ720987 BQF720954:BQF720987 CAB720954:CAB720987 CJX720954:CJX720987 CTT720954:CTT720987 DDP720954:DDP720987 DNL720954:DNL720987 DXH720954:DXH720987 EHD720954:EHD720987 EQZ720954:EQZ720987 FAV720954:FAV720987 FKR720954:FKR720987 FUN720954:FUN720987 GEJ720954:GEJ720987 GOF720954:GOF720987 GYB720954:GYB720987 HHX720954:HHX720987 HRT720954:HRT720987 IBP720954:IBP720987 ILL720954:ILL720987 IVH720954:IVH720987 JFD720954:JFD720987 JOZ720954:JOZ720987 JYV720954:JYV720987 KIR720954:KIR720987 KSN720954:KSN720987 LCJ720954:LCJ720987 LMF720954:LMF720987 LWB720954:LWB720987 MFX720954:MFX720987 MPT720954:MPT720987 MZP720954:MZP720987 NJL720954:NJL720987 NTH720954:NTH720987 ODD720954:ODD720987 OMZ720954:OMZ720987 OWV720954:OWV720987 PGR720954:PGR720987 PQN720954:PQN720987 QAJ720954:QAJ720987 QKF720954:QKF720987 QUB720954:QUB720987 RDX720954:RDX720987 RNT720954:RNT720987 RXP720954:RXP720987 SHL720954:SHL720987 SRH720954:SRH720987 TBD720954:TBD720987 TKZ720954:TKZ720987 TUV720954:TUV720987 UER720954:UER720987 UON720954:UON720987 UYJ720954:UYJ720987 VIF720954:VIF720987 VSB720954:VSB720987 WBX720954:WBX720987 WLT720954:WLT720987 WVP720954:WVP720987 H786490:H786523 JD786490:JD786523 SZ786490:SZ786523 ACV786490:ACV786523 AMR786490:AMR786523 AWN786490:AWN786523 BGJ786490:BGJ786523 BQF786490:BQF786523 CAB786490:CAB786523 CJX786490:CJX786523 CTT786490:CTT786523 DDP786490:DDP786523 DNL786490:DNL786523 DXH786490:DXH786523 EHD786490:EHD786523 EQZ786490:EQZ786523 FAV786490:FAV786523 FKR786490:FKR786523 FUN786490:FUN786523 GEJ786490:GEJ786523 GOF786490:GOF786523 GYB786490:GYB786523 HHX786490:HHX786523 HRT786490:HRT786523 IBP786490:IBP786523 ILL786490:ILL786523 IVH786490:IVH786523 JFD786490:JFD786523 JOZ786490:JOZ786523 JYV786490:JYV786523 KIR786490:KIR786523 KSN786490:KSN786523 LCJ786490:LCJ786523 LMF786490:LMF786523 LWB786490:LWB786523 MFX786490:MFX786523 MPT786490:MPT786523 MZP786490:MZP786523 NJL786490:NJL786523 NTH786490:NTH786523 ODD786490:ODD786523 OMZ786490:OMZ786523 OWV786490:OWV786523 PGR786490:PGR786523 PQN786490:PQN786523 QAJ786490:QAJ786523 QKF786490:QKF786523 QUB786490:QUB786523 RDX786490:RDX786523 RNT786490:RNT786523 RXP786490:RXP786523 SHL786490:SHL786523 SRH786490:SRH786523 TBD786490:TBD786523 TKZ786490:TKZ786523 TUV786490:TUV786523 UER786490:UER786523 UON786490:UON786523 UYJ786490:UYJ786523 VIF786490:VIF786523 VSB786490:VSB786523 WBX786490:WBX786523 WLT786490:WLT786523 WVP786490:WVP786523 H852026:H852059 JD852026:JD852059 SZ852026:SZ852059 ACV852026:ACV852059 AMR852026:AMR852059 AWN852026:AWN852059 BGJ852026:BGJ852059 BQF852026:BQF852059 CAB852026:CAB852059 CJX852026:CJX852059 CTT852026:CTT852059 DDP852026:DDP852059 DNL852026:DNL852059 DXH852026:DXH852059 EHD852026:EHD852059 EQZ852026:EQZ852059 FAV852026:FAV852059 FKR852026:FKR852059 FUN852026:FUN852059 GEJ852026:GEJ852059 GOF852026:GOF852059 GYB852026:GYB852059 HHX852026:HHX852059 HRT852026:HRT852059 IBP852026:IBP852059 ILL852026:ILL852059 IVH852026:IVH852059 JFD852026:JFD852059 JOZ852026:JOZ852059 JYV852026:JYV852059 KIR852026:KIR852059 KSN852026:KSN852059 LCJ852026:LCJ852059 LMF852026:LMF852059 LWB852026:LWB852059 MFX852026:MFX852059 MPT852026:MPT852059 MZP852026:MZP852059 NJL852026:NJL852059 NTH852026:NTH852059 ODD852026:ODD852059 OMZ852026:OMZ852059 OWV852026:OWV852059 PGR852026:PGR852059 PQN852026:PQN852059 QAJ852026:QAJ852059 QKF852026:QKF852059 QUB852026:QUB852059 RDX852026:RDX852059 RNT852026:RNT852059 RXP852026:RXP852059 SHL852026:SHL852059 SRH852026:SRH852059 TBD852026:TBD852059 TKZ852026:TKZ852059 TUV852026:TUV852059 UER852026:UER852059 UON852026:UON852059 UYJ852026:UYJ852059 VIF852026:VIF852059 VSB852026:VSB852059 WBX852026:WBX852059 WLT852026:WLT852059 WVP852026:WVP852059 H917562:H917595 JD917562:JD917595 SZ917562:SZ917595 ACV917562:ACV917595 AMR917562:AMR917595 AWN917562:AWN917595 BGJ917562:BGJ917595 BQF917562:BQF917595 CAB917562:CAB917595 CJX917562:CJX917595 CTT917562:CTT917595 DDP917562:DDP917595 DNL917562:DNL917595 DXH917562:DXH917595 EHD917562:EHD917595 EQZ917562:EQZ917595 FAV917562:FAV917595 FKR917562:FKR917595 FUN917562:FUN917595 GEJ917562:GEJ917595 GOF917562:GOF917595 GYB917562:GYB917595 HHX917562:HHX917595 HRT917562:HRT917595 IBP917562:IBP917595 ILL917562:ILL917595 IVH917562:IVH917595 JFD917562:JFD917595 JOZ917562:JOZ917595 JYV917562:JYV917595 KIR917562:KIR917595 KSN917562:KSN917595 LCJ917562:LCJ917595 LMF917562:LMF917595 LWB917562:LWB917595 MFX917562:MFX917595 MPT917562:MPT917595 MZP917562:MZP917595 NJL917562:NJL917595 NTH917562:NTH917595 ODD917562:ODD917595 OMZ917562:OMZ917595 OWV917562:OWV917595 PGR917562:PGR917595 PQN917562:PQN917595 QAJ917562:QAJ917595 QKF917562:QKF917595 QUB917562:QUB917595 RDX917562:RDX917595 RNT917562:RNT917595 RXP917562:RXP917595 SHL917562:SHL917595 SRH917562:SRH917595 TBD917562:TBD917595 TKZ917562:TKZ917595 TUV917562:TUV917595 UER917562:UER917595 UON917562:UON917595 UYJ917562:UYJ917595 VIF917562:VIF917595 VSB917562:VSB917595 WBX917562:WBX917595 WLT917562:WLT917595 WVP917562:WVP917595 H983098:H983131 JD983098:JD983131 SZ983098:SZ983131 ACV983098:ACV983131 AMR983098:AMR983131 AWN983098:AWN983131 BGJ983098:BGJ983131 BQF983098:BQF983131 CAB983098:CAB983131 CJX983098:CJX983131 CTT983098:CTT983131 DDP983098:DDP983131 DNL983098:DNL983131 DXH983098:DXH983131 EHD983098:EHD983131 EQZ983098:EQZ983131 FAV983098:FAV983131 FKR983098:FKR983131 FUN983098:FUN983131 GEJ983098:GEJ983131 GOF983098:GOF983131 GYB983098:GYB983131 HHX983098:HHX983131 HRT983098:HRT983131 IBP983098:IBP983131 ILL983098:ILL983131 IVH983098:IVH983131 JFD983098:JFD983131 JOZ983098:JOZ983131 JYV983098:JYV983131 KIR983098:KIR983131 KSN983098:KSN983131 LCJ983098:LCJ983131 LMF983098:LMF983131 LWB983098:LWB983131 MFX983098:MFX983131 MPT983098:MPT983131 MZP983098:MZP983131 NJL983098:NJL983131 NTH983098:NTH983131 ODD983098:ODD983131 OMZ983098:OMZ983131 OWV983098:OWV983131 PGR983098:PGR983131 PQN983098:PQN983131 QAJ983098:QAJ983131 QKF983098:QKF983131 QUB983098:QUB983131 RDX983098:RDX983131 RNT983098:RNT983131 RXP983098:RXP983131 SHL983098:SHL983131 SRH983098:SRH983131 TBD983098:TBD983131 TKZ983098:TKZ983131 TUV983098:TUV983131 UER983098:UER983131 UON983098:UON983131 UYJ983098:UYJ983131 VIF983098:VIF983131 VSB983098:VSB983131 WBX983098:WBX983131 WLT983098:WLT983131 WVP983098:WVP983131 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H768" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F52776-9954-4B22-9A7D-30011119AB65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC6D65D-7596-43F9-B7CC-D48DB7DAAB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="588">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2316,6 +2316,26 @@
   </si>
   <si>
     <t>复查有关再保场景的数据质量问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告第三批第二次问题反馈文档问题自查--</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告第三批第二次问题反馈文档问题自查--承保模块，增量数据问题探查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告第三批第二次问题反馈文档问题自查--标的模块，增量数据问题探查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告第三批第二次问题反馈文档问题自查--保单联共保增量数据业务探查，查找问题数据原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量报告第三批第二次问题反馈文档问题自查，和小卉的版本汇总，反馈给员员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2855,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J768"/>
+  <dimension ref="A1:J775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="G763" sqref="G763"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="G689" sqref="G689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
@@ -2869,7 +2889,7 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="257" max="257" width="16.77734375" customWidth="1"/>
     <col min="258" max="258" width="5.44140625" customWidth="1"/>
@@ -23244,14 +23264,28 @@
       <c r="J731" s="10"/>
     </row>
     <row r="732" spans="1:10">
-      <c r="A732" s="7"/>
+      <c r="A732" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B732" s="5"/>
-      <c r="C732" s="8"/>
-      <c r="D732" s="15"/>
-      <c r="E732" s="15"/>
-      <c r="F732" s="13"/>
-      <c r="G732" s="12"/>
-      <c r="H732" s="8"/>
+      <c r="C732" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D732" s="15">
+        <v>43626</v>
+      </c>
+      <c r="E732" s="15">
+        <v>43626</v>
+      </c>
+      <c r="F732" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G732" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="H732" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I732" s="9"/>
       <c r="J732" s="10"/>
     </row>
@@ -23272,7 +23306,9 @@
       <c r="F733" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G733" s="12"/>
+      <c r="G733" s="12" t="s">
+        <v>584</v>
+      </c>
       <c r="H733" s="8" t="s">
         <v>11</v>
       </c>
@@ -23288,15 +23324,17 @@
         <v>12</v>
       </c>
       <c r="D734" s="15">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="E734" s="15">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="F734" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G734" s="12"/>
+      <c r="G734" s="12" t="s">
+        <v>584</v>
+      </c>
       <c r="H734" s="8" t="s">
         <v>11</v>
       </c>
@@ -23312,15 +23350,17 @@
         <v>12</v>
       </c>
       <c r="D735" s="15">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="E735" s="15">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="F735" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G735" s="12"/>
+      <c r="G735" s="12" t="s">
+        <v>585</v>
+      </c>
       <c r="H735" s="8" t="s">
         <v>11</v>
       </c>
@@ -23336,15 +23376,17 @@
         <v>12</v>
       </c>
       <c r="D736" s="15">
-        <v>43629</v>
+        <v>43627</v>
       </c>
       <c r="E736" s="15">
-        <v>43629</v>
+        <v>43627</v>
       </c>
       <c r="F736" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G736" s="12"/>
+      <c r="G736" s="12" t="s">
+        <v>585</v>
+      </c>
       <c r="H736" s="8" t="s">
         <v>11</v>
       </c>
@@ -23360,15 +23402,17 @@
         <v>12</v>
       </c>
       <c r="D737" s="15">
-        <v>43630</v>
+        <v>43627</v>
       </c>
       <c r="E737" s="15">
-        <v>43630</v>
+        <v>43627</v>
       </c>
       <c r="F737" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G737" s="12"/>
+      <c r="G737" s="12" t="s">
+        <v>585</v>
+      </c>
       <c r="H737" s="8" t="s">
         <v>11</v>
       </c>
@@ -23376,38 +23420,80 @@
       <c r="J737" s="10"/>
     </row>
     <row r="738" spans="1:10">
-      <c r="A738" s="7"/>
+      <c r="A738" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B738" s="5"/>
-      <c r="C738" s="8"/>
-      <c r="D738" s="15"/>
-      <c r="E738" s="15"/>
-      <c r="F738" s="13"/>
-      <c r="G738" s="12"/>
-      <c r="H738" s="8"/>
+      <c r="C738" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D738" s="15">
+        <v>43628</v>
+      </c>
+      <c r="E738" s="15">
+        <v>43628</v>
+      </c>
+      <c r="F738" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G738" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="H738" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I738" s="9"/>
       <c r="J738" s="10"/>
     </row>
     <row r="739" spans="1:10">
-      <c r="A739" s="7"/>
+      <c r="A739" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B739" s="5"/>
-      <c r="C739" s="8"/>
-      <c r="D739" s="15"/>
-      <c r="E739" s="15"/>
-      <c r="F739" s="13"/>
-      <c r="G739" s="12"/>
-      <c r="H739" s="8"/>
+      <c r="C739" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D739" s="15">
+        <v>43628</v>
+      </c>
+      <c r="E739" s="15">
+        <v>43628</v>
+      </c>
+      <c r="F739" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G739" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H739" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I739" s="9"/>
       <c r="J739" s="10"/>
     </row>
     <row r="740" spans="1:10">
-      <c r="A740" s="7"/>
+      <c r="A740" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B740" s="5"/>
-      <c r="C740" s="8"/>
-      <c r="D740" s="15"/>
-      <c r="E740" s="15"/>
-      <c r="F740" s="13"/>
-      <c r="G740" s="12"/>
-      <c r="H740" s="8"/>
+      <c r="C740" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D740" s="15">
+        <v>43628</v>
+      </c>
+      <c r="E740" s="15">
+        <v>43628</v>
+      </c>
+      <c r="F740" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G740" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H740" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I740" s="9"/>
       <c r="J740" s="10"/>
     </row>
@@ -23420,16 +23506,16 @@
         <v>12</v>
       </c>
       <c r="D741" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="E741" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="F741" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G741" s="12" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="H741" s="8" t="s">
         <v>11</v>
@@ -23446,16 +23532,16 @@
         <v>12</v>
       </c>
       <c r="D742" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="E742" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="F742" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G742" s="12" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H742" s="8" t="s">
         <v>11</v>
@@ -23472,16 +23558,16 @@
         <v>12</v>
       </c>
       <c r="D743" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="E743" s="15">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="F743" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G743" s="12" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="H743" s="8" t="s">
         <v>11</v>
@@ -23498,16 +23584,16 @@
         <v>12</v>
       </c>
       <c r="D744" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="E744" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="F744" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G744" s="12" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="H744" s="8" t="s">
         <v>11</v>
@@ -23524,16 +23610,16 @@
         <v>12</v>
       </c>
       <c r="D745" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="E745" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="F745" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G745" s="12" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="H745" s="8" t="s">
         <v>11</v>
@@ -23550,16 +23636,16 @@
         <v>12</v>
       </c>
       <c r="D746" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="E746" s="15">
-        <v>43634</v>
+        <v>43630</v>
       </c>
       <c r="F746" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G746" s="12" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H746" s="8" t="s">
         <v>11</v>
@@ -23568,28 +23654,14 @@
       <c r="J746" s="10"/>
     </row>
     <row r="747" spans="1:10">
-      <c r="A747" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A747" s="7"/>
       <c r="B747" s="5"/>
-      <c r="C747" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D747" s="15">
-        <v>43635</v>
-      </c>
-      <c r="E747" s="15">
-        <v>43635</v>
-      </c>
-      <c r="F747" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G747" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="H747" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C747" s="8"/>
+      <c r="D747" s="15"/>
+      <c r="E747" s="15"/>
+      <c r="F747" s="13"/>
+      <c r="G747" s="12"/>
+      <c r="H747" s="8"/>
       <c r="I747" s="9"/>
       <c r="J747" s="10"/>
     </row>
@@ -23602,16 +23674,16 @@
         <v>12</v>
       </c>
       <c r="D748" s="15">
-        <v>43635</v>
+        <v>43633</v>
       </c>
       <c r="E748" s="15">
-        <v>43635</v>
+        <v>43633</v>
       </c>
       <c r="F748" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G748" s="12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H748" s="8" t="s">
         <v>11</v>
@@ -23628,16 +23700,16 @@
         <v>12</v>
       </c>
       <c r="D749" s="15">
-        <v>43635</v>
+        <v>43633</v>
       </c>
       <c r="E749" s="15">
-        <v>43635</v>
+        <v>43633</v>
       </c>
       <c r="F749" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G749" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H749" s="8" t="s">
         <v>11</v>
@@ -23654,16 +23726,16 @@
         <v>12</v>
       </c>
       <c r="D750" s="15">
-        <v>43636</v>
+        <v>43633</v>
       </c>
       <c r="E750" s="15">
-        <v>43636</v>
+        <v>43633</v>
       </c>
       <c r="F750" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G750" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H750" s="8" t="s">
         <v>11</v>
@@ -23680,16 +23752,16 @@
         <v>12</v>
       </c>
       <c r="D751" s="15">
-        <v>43636</v>
+        <v>43634</v>
       </c>
       <c r="E751" s="15">
-        <v>43636</v>
+        <v>43634</v>
       </c>
       <c r="F751" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G751" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H751" s="8" t="s">
         <v>11</v>
@@ -23706,16 +23778,16 @@
         <v>12</v>
       </c>
       <c r="D752" s="15">
-        <v>43636</v>
+        <v>43634</v>
       </c>
       <c r="E752" s="15">
-        <v>43636</v>
+        <v>43634</v>
       </c>
       <c r="F752" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G752" s="12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H752" s="8" t="s">
         <v>11</v>
@@ -23732,16 +23804,16 @@
         <v>12</v>
       </c>
       <c r="D753" s="15">
-        <v>43637</v>
+        <v>43634</v>
       </c>
       <c r="E753" s="15">
-        <v>43637</v>
+        <v>43634</v>
       </c>
       <c r="F753" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G753" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H753" s="8" t="s">
         <v>11</v>
@@ -23758,16 +23830,16 @@
         <v>12</v>
       </c>
       <c r="D754" s="15">
-        <v>43637</v>
+        <v>43635</v>
       </c>
       <c r="E754" s="15">
-        <v>43637</v>
+        <v>43635</v>
       </c>
       <c r="F754" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G754" s="12" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H754" s="8" t="s">
         <v>11</v>
@@ -23784,16 +23856,16 @@
         <v>12</v>
       </c>
       <c r="D755" s="15">
-        <v>43637</v>
+        <v>43635</v>
       </c>
       <c r="E755" s="15">
-        <v>43637</v>
+        <v>43635</v>
       </c>
       <c r="F755" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G755" s="12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H755" s="8" t="s">
         <v>11</v>
@@ -23802,26 +23874,54 @@
       <c r="J755" s="10"/>
     </row>
     <row r="756" spans="1:10">
-      <c r="A756" s="7"/>
+      <c r="A756" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B756" s="5"/>
-      <c r="C756" s="8"/>
-      <c r="D756" s="15"/>
-      <c r="E756" s="15"/>
-      <c r="F756" s="13"/>
-      <c r="G756" s="12"/>
-      <c r="H756" s="8"/>
+      <c r="C756" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D756" s="15">
+        <v>43635</v>
+      </c>
+      <c r="E756" s="15">
+        <v>43635</v>
+      </c>
+      <c r="F756" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G756" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="H756" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I756" s="9"/>
       <c r="J756" s="10"/>
     </row>
     <row r="757" spans="1:10">
-      <c r="A757" s="7"/>
+      <c r="A757" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="B757" s="5"/>
-      <c r="C757" s="8"/>
-      <c r="D757" s="15"/>
-      <c r="E757" s="15"/>
-      <c r="F757" s="13"/>
-      <c r="G757" s="12"/>
-      <c r="H757" s="8"/>
+      <c r="C757" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D757" s="15">
+        <v>43636</v>
+      </c>
+      <c r="E757" s="15">
+        <v>43636</v>
+      </c>
+      <c r="F757" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G757" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H757" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I757" s="9"/>
       <c r="J757" s="10"/>
     </row>
@@ -23834,16 +23934,16 @@
         <v>12</v>
       </c>
       <c r="D758" s="15">
-        <v>43640</v>
+        <v>43636</v>
       </c>
       <c r="E758" s="15">
-        <v>43640</v>
+        <v>43636</v>
       </c>
       <c r="F758" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G758" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H758" s="8" t="s">
         <v>11</v>
@@ -23860,16 +23960,16 @@
         <v>12</v>
       </c>
       <c r="D759" s="15">
-        <v>43640</v>
+        <v>43636</v>
       </c>
       <c r="E759" s="15">
-        <v>43640</v>
+        <v>43636</v>
       </c>
       <c r="F759" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G759" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H759" s="8" t="s">
         <v>11</v>
@@ -23886,16 +23986,16 @@
         <v>12</v>
       </c>
       <c r="D760" s="15">
-        <v>43640</v>
+        <v>43637</v>
       </c>
       <c r="E760" s="15">
-        <v>43640</v>
+        <v>43637</v>
       </c>
       <c r="F760" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G760" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H760" s="8" t="s">
         <v>11</v>
@@ -23912,16 +24012,16 @@
         <v>12</v>
       </c>
       <c r="D761" s="15">
-        <v>43641</v>
+        <v>43637</v>
       </c>
       <c r="E761" s="15">
-        <v>43641</v>
+        <v>43637</v>
       </c>
       <c r="F761" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G761" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H761" s="8" t="s">
         <v>11</v>
@@ -23938,16 +24038,16 @@
         <v>12</v>
       </c>
       <c r="D762" s="15">
-        <v>43641</v>
+        <v>43637</v>
       </c>
       <c r="E762" s="15">
-        <v>43641</v>
+        <v>43637</v>
       </c>
       <c r="F762" s="13" t="s">
         <v>240</v>
       </c>
       <c r="G762" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H762" s="8" t="s">
         <v>11</v>
@@ -23956,48 +24056,26 @@
       <c r="J762" s="10"/>
     </row>
     <row r="763" spans="1:10">
-      <c r="A763" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A763" s="7"/>
       <c r="B763" s="5"/>
-      <c r="C763" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D763" s="15">
-        <v>43641</v>
-      </c>
-      <c r="E763" s="15">
-        <v>43641</v>
-      </c>
-      <c r="F763" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G763" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="H763" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C763" s="8"/>
+      <c r="D763" s="15"/>
+      <c r="E763" s="15"/>
+      <c r="F763" s="13"/>
+      <c r="G763" s="12"/>
+      <c r="H763" s="8"/>
       <c r="I763" s="9"/>
       <c r="J763" s="10"/>
     </row>
     <row r="764" spans="1:10">
-      <c r="A764" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A764" s="7"/>
       <c r="B764" s="5"/>
-      <c r="C764" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C764" s="8"/>
       <c r="D764" s="15"/>
       <c r="E764" s="15"/>
-      <c r="F764" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="F764" s="13"/>
       <c r="G764" s="12"/>
-      <c r="H764" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H764" s="8"/>
       <c r="I764" s="9"/>
       <c r="J764" s="10"/>
     </row>
@@ -24009,12 +24087,18 @@
       <c r="C765" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D765" s="15"/>
-      <c r="E765" s="15"/>
+      <c r="D765" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E765" s="15">
+        <v>43640</v>
+      </c>
       <c r="F765" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G765" s="12"/>
+      <c r="G765" s="12" t="s">
+        <v>579</v>
+      </c>
       <c r="H765" s="8" t="s">
         <v>11</v>
       </c>
@@ -24029,12 +24113,18 @@
       <c r="C766" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D766" s="15"/>
-      <c r="E766" s="15"/>
+      <c r="D766" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E766" s="15">
+        <v>43640</v>
+      </c>
       <c r="F766" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G766" s="12"/>
+      <c r="G766" s="12" t="s">
+        <v>579</v>
+      </c>
       <c r="H766" s="8" t="s">
         <v>11</v>
       </c>
@@ -24049,12 +24139,18 @@
       <c r="C767" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D767" s="15"/>
-      <c r="E767" s="15"/>
+      <c r="D767" s="15">
+        <v>43640</v>
+      </c>
+      <c r="E767" s="15">
+        <v>43640</v>
+      </c>
       <c r="F767" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G767" s="12"/>
+      <c r="G767" s="12" t="s">
+        <v>580</v>
+      </c>
       <c r="H767" s="8" t="s">
         <v>11</v>
       </c>
@@ -24069,17 +24165,175 @@
       <c r="C768" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D768" s="15"/>
-      <c r="E768" s="15"/>
+      <c r="D768" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E768" s="15">
+        <v>43641</v>
+      </c>
       <c r="F768" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G768" s="12"/>
+      <c r="G768" s="12" t="s">
+        <v>580</v>
+      </c>
       <c r="H768" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I768" s="9"/>
       <c r="J768" s="10"/>
+    </row>
+    <row r="769" spans="1:10">
+      <c r="A769" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B769" s="5"/>
+      <c r="C769" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D769" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E769" s="15">
+        <v>43641</v>
+      </c>
+      <c r="F769" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G769" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H769" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I769" s="9"/>
+      <c r="J769" s="10"/>
+    </row>
+    <row r="770" spans="1:10">
+      <c r="A770" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B770" s="5"/>
+      <c r="C770" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D770" s="15">
+        <v>43641</v>
+      </c>
+      <c r="E770" s="15">
+        <v>43641</v>
+      </c>
+      <c r="F770" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G770" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H770" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I770" s="9"/>
+      <c r="J770" s="10"/>
+    </row>
+    <row r="771" spans="1:10">
+      <c r="A771" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B771" s="5"/>
+      <c r="C771" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D771" s="15"/>
+      <c r="E771" s="15"/>
+      <c r="F771" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G771" s="12"/>
+      <c r="H771" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I771" s="9"/>
+      <c r="J771" s="10"/>
+    </row>
+    <row r="772" spans="1:10">
+      <c r="A772" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B772" s="5"/>
+      <c r="C772" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D772" s="15"/>
+      <c r="E772" s="15"/>
+      <c r="F772" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G772" s="12"/>
+      <c r="H772" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I772" s="9"/>
+      <c r="J772" s="10"/>
+    </row>
+    <row r="773" spans="1:10">
+      <c r="A773" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B773" s="5"/>
+      <c r="C773" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D773" s="15"/>
+      <c r="E773" s="15"/>
+      <c r="F773" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G773" s="12"/>
+      <c r="H773" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I773" s="9"/>
+      <c r="J773" s="10"/>
+    </row>
+    <row r="774" spans="1:10">
+      <c r="A774" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B774" s="5"/>
+      <c r="C774" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D774" s="15"/>
+      <c r="E774" s="15"/>
+      <c r="F774" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G774" s="12"/>
+      <c r="H774" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I774" s="9"/>
+      <c r="J774" s="10"/>
+    </row>
+    <row r="775" spans="1:10">
+      <c r="A775" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B775" s="5"/>
+      <c r="C775" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D775" s="15"/>
+      <c r="E775" s="15"/>
+      <c r="F775" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G775" s="12"/>
+      <c r="H775" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I775" s="9"/>
+      <c r="J775" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24087,13 +24341,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131130:C131146 IY65594:IY65610 SU65594:SU65610 ACQ65594:ACQ65610 AMM65594:AMM65610 AWI65594:AWI65610 BGE65594:BGE65610 BQA65594:BQA65610 BZW65594:BZW65610 CJS65594:CJS65610 CTO65594:CTO65610 DDK65594:DDK65610 DNG65594:DNG65610 DXC65594:DXC65610 EGY65594:EGY65610 EQU65594:EQU65610 FAQ65594:FAQ65610 FKM65594:FKM65610 FUI65594:FUI65610 GEE65594:GEE65610 GOA65594:GOA65610 GXW65594:GXW65610 HHS65594:HHS65610 HRO65594:HRO65610 IBK65594:IBK65610 ILG65594:ILG65610 IVC65594:IVC65610 JEY65594:JEY65610 JOU65594:JOU65610 JYQ65594:JYQ65610 KIM65594:KIM65610 KSI65594:KSI65610 LCE65594:LCE65610 LMA65594:LMA65610 LVW65594:LVW65610 MFS65594:MFS65610 MPO65594:MPO65610 MZK65594:MZK65610 NJG65594:NJG65610 NTC65594:NTC65610 OCY65594:OCY65610 OMU65594:OMU65610 OWQ65594:OWQ65610 PGM65594:PGM65610 PQI65594:PQI65610 QAE65594:QAE65610 QKA65594:QKA65610 QTW65594:QTW65610 RDS65594:RDS65610 RNO65594:RNO65610 RXK65594:RXK65610 SHG65594:SHG65610 SRC65594:SRC65610 TAY65594:TAY65610 TKU65594:TKU65610 TUQ65594:TUQ65610 UEM65594:UEM65610 UOI65594:UOI65610 UYE65594:UYE65610 VIA65594:VIA65610 VRW65594:VRW65610 WBS65594:WBS65610 WLO65594:WLO65610 WVK65594:WVK65610 C196666:C196682 IY131130:IY131146 SU131130:SU131146 ACQ131130:ACQ131146 AMM131130:AMM131146 AWI131130:AWI131146 BGE131130:BGE131146 BQA131130:BQA131146 BZW131130:BZW131146 CJS131130:CJS131146 CTO131130:CTO131146 DDK131130:DDK131146 DNG131130:DNG131146 DXC131130:DXC131146 EGY131130:EGY131146 EQU131130:EQU131146 FAQ131130:FAQ131146 FKM131130:FKM131146 FUI131130:FUI131146 GEE131130:GEE131146 GOA131130:GOA131146 GXW131130:GXW131146 HHS131130:HHS131146 HRO131130:HRO131146 IBK131130:IBK131146 ILG131130:ILG131146 IVC131130:IVC131146 JEY131130:JEY131146 JOU131130:JOU131146 JYQ131130:JYQ131146 KIM131130:KIM131146 KSI131130:KSI131146 LCE131130:LCE131146 LMA131130:LMA131146 LVW131130:LVW131146 MFS131130:MFS131146 MPO131130:MPO131146 MZK131130:MZK131146 NJG131130:NJG131146 NTC131130:NTC131146 OCY131130:OCY131146 OMU131130:OMU131146 OWQ131130:OWQ131146 PGM131130:PGM131146 PQI131130:PQI131146 QAE131130:QAE131146 QKA131130:QKA131146 QTW131130:QTW131146 RDS131130:RDS131146 RNO131130:RNO131146 RXK131130:RXK131146 SHG131130:SHG131146 SRC131130:SRC131146 TAY131130:TAY131146 TKU131130:TKU131146 TUQ131130:TUQ131146 UEM131130:UEM131146 UOI131130:UOI131146 UYE131130:UYE131146 VIA131130:VIA131146 VRW131130:VRW131146 WBS131130:WBS131146 WLO131130:WLO131146 WVK131130:WVK131146 C262202:C262218 IY196666:IY196682 SU196666:SU196682 ACQ196666:ACQ196682 AMM196666:AMM196682 AWI196666:AWI196682 BGE196666:BGE196682 BQA196666:BQA196682 BZW196666:BZW196682 CJS196666:CJS196682 CTO196666:CTO196682 DDK196666:DDK196682 DNG196666:DNG196682 DXC196666:DXC196682 EGY196666:EGY196682 EQU196666:EQU196682 FAQ196666:FAQ196682 FKM196666:FKM196682 FUI196666:FUI196682 GEE196666:GEE196682 GOA196666:GOA196682 GXW196666:GXW196682 HHS196666:HHS196682 HRO196666:HRO196682 IBK196666:IBK196682 ILG196666:ILG196682 IVC196666:IVC196682 JEY196666:JEY196682 JOU196666:JOU196682 JYQ196666:JYQ196682 KIM196666:KIM196682 KSI196666:KSI196682 LCE196666:LCE196682 LMA196666:LMA196682 LVW196666:LVW196682 MFS196666:MFS196682 MPO196666:MPO196682 MZK196666:MZK196682 NJG196666:NJG196682 NTC196666:NTC196682 OCY196666:OCY196682 OMU196666:OMU196682 OWQ196666:OWQ196682 PGM196666:PGM196682 PQI196666:PQI196682 QAE196666:QAE196682 QKA196666:QKA196682 QTW196666:QTW196682 RDS196666:RDS196682 RNO196666:RNO196682 RXK196666:RXK196682 SHG196666:SHG196682 SRC196666:SRC196682 TAY196666:TAY196682 TKU196666:TKU196682 TUQ196666:TUQ196682 UEM196666:UEM196682 UOI196666:UOI196682 UYE196666:UYE196682 VIA196666:VIA196682 VRW196666:VRW196682 WBS196666:WBS196682 WLO196666:WLO196682 WVK196666:WVK196682 C327738:C327754 IY262202:IY262218 SU262202:SU262218 ACQ262202:ACQ262218 AMM262202:AMM262218 AWI262202:AWI262218 BGE262202:BGE262218 BQA262202:BQA262218 BZW262202:BZW262218 CJS262202:CJS262218 CTO262202:CTO262218 DDK262202:DDK262218 DNG262202:DNG262218 DXC262202:DXC262218 EGY262202:EGY262218 EQU262202:EQU262218 FAQ262202:FAQ262218 FKM262202:FKM262218 FUI262202:FUI262218 GEE262202:GEE262218 GOA262202:GOA262218 GXW262202:GXW262218 HHS262202:HHS262218 HRO262202:HRO262218 IBK262202:IBK262218 ILG262202:ILG262218 IVC262202:IVC262218 JEY262202:JEY262218 JOU262202:JOU262218 JYQ262202:JYQ262218 KIM262202:KIM262218 KSI262202:KSI262218 LCE262202:LCE262218 LMA262202:LMA262218 LVW262202:LVW262218 MFS262202:MFS262218 MPO262202:MPO262218 MZK262202:MZK262218 NJG262202:NJG262218 NTC262202:NTC262218 OCY262202:OCY262218 OMU262202:OMU262218 OWQ262202:OWQ262218 PGM262202:PGM262218 PQI262202:PQI262218 QAE262202:QAE262218 QKA262202:QKA262218 QTW262202:QTW262218 RDS262202:RDS262218 RNO262202:RNO262218 RXK262202:RXK262218 SHG262202:SHG262218 SRC262202:SRC262218 TAY262202:TAY262218 TKU262202:TKU262218 TUQ262202:TUQ262218 UEM262202:UEM262218 UOI262202:UOI262218 UYE262202:UYE262218 VIA262202:VIA262218 VRW262202:VRW262218 WBS262202:WBS262218 WLO262202:WLO262218 WVK262202:WVK262218 C393274:C393290 IY327738:IY327754 SU327738:SU327754 ACQ327738:ACQ327754 AMM327738:AMM327754 AWI327738:AWI327754 BGE327738:BGE327754 BQA327738:BQA327754 BZW327738:BZW327754 CJS327738:CJS327754 CTO327738:CTO327754 DDK327738:DDK327754 DNG327738:DNG327754 DXC327738:DXC327754 EGY327738:EGY327754 EQU327738:EQU327754 FAQ327738:FAQ327754 FKM327738:FKM327754 FUI327738:FUI327754 GEE327738:GEE327754 GOA327738:GOA327754 GXW327738:GXW327754 HHS327738:HHS327754 HRO327738:HRO327754 IBK327738:IBK327754 ILG327738:ILG327754 IVC327738:IVC327754 JEY327738:JEY327754 JOU327738:JOU327754 JYQ327738:JYQ327754 KIM327738:KIM327754 KSI327738:KSI327754 LCE327738:LCE327754 LMA327738:LMA327754 LVW327738:LVW327754 MFS327738:MFS327754 MPO327738:MPO327754 MZK327738:MZK327754 NJG327738:NJG327754 NTC327738:NTC327754 OCY327738:OCY327754 OMU327738:OMU327754 OWQ327738:OWQ327754 PGM327738:PGM327754 PQI327738:PQI327754 QAE327738:QAE327754 QKA327738:QKA327754 QTW327738:QTW327754 RDS327738:RDS327754 RNO327738:RNO327754 RXK327738:RXK327754 SHG327738:SHG327754 SRC327738:SRC327754 TAY327738:TAY327754 TKU327738:TKU327754 TUQ327738:TUQ327754 UEM327738:UEM327754 UOI327738:UOI327754 UYE327738:UYE327754 VIA327738:VIA327754 VRW327738:VRW327754 WBS327738:WBS327754 WLO327738:WLO327754 WVK327738:WVK327754 C458810:C458826 IY393274:IY393290 SU393274:SU393290 ACQ393274:ACQ393290 AMM393274:AMM393290 AWI393274:AWI393290 BGE393274:BGE393290 BQA393274:BQA393290 BZW393274:BZW393290 CJS393274:CJS393290 CTO393274:CTO393290 DDK393274:DDK393290 DNG393274:DNG393290 DXC393274:DXC393290 EGY393274:EGY393290 EQU393274:EQU393290 FAQ393274:FAQ393290 FKM393274:FKM393290 FUI393274:FUI393290 GEE393274:GEE393290 GOA393274:GOA393290 GXW393274:GXW393290 HHS393274:HHS393290 HRO393274:HRO393290 IBK393274:IBK393290 ILG393274:ILG393290 IVC393274:IVC393290 JEY393274:JEY393290 JOU393274:JOU393290 JYQ393274:JYQ393290 KIM393274:KIM393290 KSI393274:KSI393290 LCE393274:LCE393290 LMA393274:LMA393290 LVW393274:LVW393290 MFS393274:MFS393290 MPO393274:MPO393290 MZK393274:MZK393290 NJG393274:NJG393290 NTC393274:NTC393290 OCY393274:OCY393290 OMU393274:OMU393290 OWQ393274:OWQ393290 PGM393274:PGM393290 PQI393274:PQI393290 QAE393274:QAE393290 QKA393274:QKA393290 QTW393274:QTW393290 RDS393274:RDS393290 RNO393274:RNO393290 RXK393274:RXK393290 SHG393274:SHG393290 SRC393274:SRC393290 TAY393274:TAY393290 TKU393274:TKU393290 TUQ393274:TUQ393290 UEM393274:UEM393290 UOI393274:UOI393290 UYE393274:UYE393290 VIA393274:VIA393290 VRW393274:VRW393290 WBS393274:WBS393290 WLO393274:WLO393290 WVK393274:WVK393290 C524346:C524362 IY458810:IY458826 SU458810:SU458826 ACQ458810:ACQ458826 AMM458810:AMM458826 AWI458810:AWI458826 BGE458810:BGE458826 BQA458810:BQA458826 BZW458810:BZW458826 CJS458810:CJS458826 CTO458810:CTO458826 DDK458810:DDK458826 DNG458810:DNG458826 DXC458810:DXC458826 EGY458810:EGY458826 EQU458810:EQU458826 FAQ458810:FAQ458826 FKM458810:FKM458826 FUI458810:FUI458826 GEE458810:GEE458826 GOA458810:GOA458826 GXW458810:GXW458826 HHS458810:HHS458826 HRO458810:HRO458826 IBK458810:IBK458826 ILG458810:ILG458826 IVC458810:IVC458826 JEY458810:JEY458826 JOU458810:JOU458826 JYQ458810:JYQ458826 KIM458810:KIM458826 KSI458810:KSI458826 LCE458810:LCE458826 LMA458810:LMA458826 LVW458810:LVW458826 MFS458810:MFS458826 MPO458810:MPO458826 MZK458810:MZK458826 NJG458810:NJG458826 NTC458810:NTC458826 OCY458810:OCY458826 OMU458810:OMU458826 OWQ458810:OWQ458826 PGM458810:PGM458826 PQI458810:PQI458826 QAE458810:QAE458826 QKA458810:QKA458826 QTW458810:QTW458826 RDS458810:RDS458826 RNO458810:RNO458826 RXK458810:RXK458826 SHG458810:SHG458826 SRC458810:SRC458826 TAY458810:TAY458826 TKU458810:TKU458826 TUQ458810:TUQ458826 UEM458810:UEM458826 UOI458810:UOI458826 UYE458810:UYE458826 VIA458810:VIA458826 VRW458810:VRW458826 WBS458810:WBS458826 WLO458810:WLO458826 WVK458810:WVK458826 C589882:C589898 IY524346:IY524362 SU524346:SU524362 ACQ524346:ACQ524362 AMM524346:AMM524362 AWI524346:AWI524362 BGE524346:BGE524362 BQA524346:BQA524362 BZW524346:BZW524362 CJS524346:CJS524362 CTO524346:CTO524362 DDK524346:DDK524362 DNG524346:DNG524362 DXC524346:DXC524362 EGY524346:EGY524362 EQU524346:EQU524362 FAQ524346:FAQ524362 FKM524346:FKM524362 FUI524346:FUI524362 GEE524346:GEE524362 GOA524346:GOA524362 GXW524346:GXW524362 HHS524346:HHS524362 HRO524346:HRO524362 IBK524346:IBK524362 ILG524346:ILG524362 IVC524346:IVC524362 JEY524346:JEY524362 JOU524346:JOU524362 JYQ524346:JYQ524362 KIM524346:KIM524362 KSI524346:KSI524362 LCE524346:LCE524362 LMA524346:LMA524362 LVW524346:LVW524362 MFS524346:MFS524362 MPO524346:MPO524362 MZK524346:MZK524362 NJG524346:NJG524362 NTC524346:NTC524362 OCY524346:OCY524362 OMU524346:OMU524362 OWQ524346:OWQ524362 PGM524346:PGM524362 PQI524346:PQI524362 QAE524346:QAE524362 QKA524346:QKA524362 QTW524346:QTW524362 RDS524346:RDS524362 RNO524346:RNO524362 RXK524346:RXK524362 SHG524346:SHG524362 SRC524346:SRC524362 TAY524346:TAY524362 TKU524346:TKU524362 TUQ524346:TUQ524362 UEM524346:UEM524362 UOI524346:UOI524362 UYE524346:UYE524362 VIA524346:VIA524362 VRW524346:VRW524362 WBS524346:WBS524362 WLO524346:WLO524362 WVK524346:WVK524362 C655418:C655434 IY589882:IY589898 SU589882:SU589898 ACQ589882:ACQ589898 AMM589882:AMM589898 AWI589882:AWI589898 BGE589882:BGE589898 BQA589882:BQA589898 BZW589882:BZW589898 CJS589882:CJS589898 CTO589882:CTO589898 DDK589882:DDK589898 DNG589882:DNG589898 DXC589882:DXC589898 EGY589882:EGY589898 EQU589882:EQU589898 FAQ589882:FAQ589898 FKM589882:FKM589898 FUI589882:FUI589898 GEE589882:GEE589898 GOA589882:GOA589898 GXW589882:GXW589898 HHS589882:HHS589898 HRO589882:HRO589898 IBK589882:IBK589898 ILG589882:ILG589898 IVC589882:IVC589898 JEY589882:JEY589898 JOU589882:JOU589898 JYQ589882:JYQ589898 KIM589882:KIM589898 KSI589882:KSI589898 LCE589882:LCE589898 LMA589882:LMA589898 LVW589882:LVW589898 MFS589882:MFS589898 MPO589882:MPO589898 MZK589882:MZK589898 NJG589882:NJG589898 NTC589882:NTC589898 OCY589882:OCY589898 OMU589882:OMU589898 OWQ589882:OWQ589898 PGM589882:PGM589898 PQI589882:PQI589898 QAE589882:QAE589898 QKA589882:QKA589898 QTW589882:QTW589898 RDS589882:RDS589898 RNO589882:RNO589898 RXK589882:RXK589898 SHG589882:SHG589898 SRC589882:SRC589898 TAY589882:TAY589898 TKU589882:TKU589898 TUQ589882:TUQ589898 UEM589882:UEM589898 UOI589882:UOI589898 UYE589882:UYE589898 VIA589882:VIA589898 VRW589882:VRW589898 WBS589882:WBS589898 WLO589882:WLO589898 WVK589882:WVK589898 C720954:C720970 IY655418:IY655434 SU655418:SU655434 ACQ655418:ACQ655434 AMM655418:AMM655434 AWI655418:AWI655434 BGE655418:BGE655434 BQA655418:BQA655434 BZW655418:BZW655434 CJS655418:CJS655434 CTO655418:CTO655434 DDK655418:DDK655434 DNG655418:DNG655434 DXC655418:DXC655434 EGY655418:EGY655434 EQU655418:EQU655434 FAQ655418:FAQ655434 FKM655418:FKM655434 FUI655418:FUI655434 GEE655418:GEE655434 GOA655418:GOA655434 GXW655418:GXW655434 HHS655418:HHS655434 HRO655418:HRO655434 IBK655418:IBK655434 ILG655418:ILG655434 IVC655418:IVC655434 JEY655418:JEY655434 JOU655418:JOU655434 JYQ655418:JYQ655434 KIM655418:KIM655434 KSI655418:KSI655434 LCE655418:LCE655434 LMA655418:LMA655434 LVW655418:LVW655434 MFS655418:MFS655434 MPO655418:MPO655434 MZK655418:MZK655434 NJG655418:NJG655434 NTC655418:NTC655434 OCY655418:OCY655434 OMU655418:OMU655434 OWQ655418:OWQ655434 PGM655418:PGM655434 PQI655418:PQI655434 QAE655418:QAE655434 QKA655418:QKA655434 QTW655418:QTW655434 RDS655418:RDS655434 RNO655418:RNO655434 RXK655418:RXK655434 SHG655418:SHG655434 SRC655418:SRC655434 TAY655418:TAY655434 TKU655418:TKU655434 TUQ655418:TUQ655434 UEM655418:UEM655434 UOI655418:UOI655434 UYE655418:UYE655434 VIA655418:VIA655434 VRW655418:VRW655434 WBS655418:WBS655434 WLO655418:WLO655434 WVK655418:WVK655434 C786490:C786506 IY720954:IY720970 SU720954:SU720970 ACQ720954:ACQ720970 AMM720954:AMM720970 AWI720954:AWI720970 BGE720954:BGE720970 BQA720954:BQA720970 BZW720954:BZW720970 CJS720954:CJS720970 CTO720954:CTO720970 DDK720954:DDK720970 DNG720954:DNG720970 DXC720954:DXC720970 EGY720954:EGY720970 EQU720954:EQU720970 FAQ720954:FAQ720970 FKM720954:FKM720970 FUI720954:FUI720970 GEE720954:GEE720970 GOA720954:GOA720970 GXW720954:GXW720970 HHS720954:HHS720970 HRO720954:HRO720970 IBK720954:IBK720970 ILG720954:ILG720970 IVC720954:IVC720970 JEY720954:JEY720970 JOU720954:JOU720970 JYQ720954:JYQ720970 KIM720954:KIM720970 KSI720954:KSI720970 LCE720954:LCE720970 LMA720954:LMA720970 LVW720954:LVW720970 MFS720954:MFS720970 MPO720954:MPO720970 MZK720954:MZK720970 NJG720954:NJG720970 NTC720954:NTC720970 OCY720954:OCY720970 OMU720954:OMU720970 OWQ720954:OWQ720970 PGM720954:PGM720970 PQI720954:PQI720970 QAE720954:QAE720970 QKA720954:QKA720970 QTW720954:QTW720970 RDS720954:RDS720970 RNO720954:RNO720970 RXK720954:RXK720970 SHG720954:SHG720970 SRC720954:SRC720970 TAY720954:TAY720970 TKU720954:TKU720970 TUQ720954:TUQ720970 UEM720954:UEM720970 UOI720954:UOI720970 UYE720954:UYE720970 VIA720954:VIA720970 VRW720954:VRW720970 WBS720954:WBS720970 WLO720954:WLO720970 WVK720954:WVK720970 C852026:C852042 IY786490:IY786506 SU786490:SU786506 ACQ786490:ACQ786506 AMM786490:AMM786506 AWI786490:AWI786506 BGE786490:BGE786506 BQA786490:BQA786506 BZW786490:BZW786506 CJS786490:CJS786506 CTO786490:CTO786506 DDK786490:DDK786506 DNG786490:DNG786506 DXC786490:DXC786506 EGY786490:EGY786506 EQU786490:EQU786506 FAQ786490:FAQ786506 FKM786490:FKM786506 FUI786490:FUI786506 GEE786490:GEE786506 GOA786490:GOA786506 GXW786490:GXW786506 HHS786490:HHS786506 HRO786490:HRO786506 IBK786490:IBK786506 ILG786490:ILG786506 IVC786490:IVC786506 JEY786490:JEY786506 JOU786490:JOU786506 JYQ786490:JYQ786506 KIM786490:KIM786506 KSI786490:KSI786506 LCE786490:LCE786506 LMA786490:LMA786506 LVW786490:LVW786506 MFS786490:MFS786506 MPO786490:MPO786506 MZK786490:MZK786506 NJG786490:NJG786506 NTC786490:NTC786506 OCY786490:OCY786506 OMU786490:OMU786506 OWQ786490:OWQ786506 PGM786490:PGM786506 PQI786490:PQI786506 QAE786490:QAE786506 QKA786490:QKA786506 QTW786490:QTW786506 RDS786490:RDS786506 RNO786490:RNO786506 RXK786490:RXK786506 SHG786490:SHG786506 SRC786490:SRC786506 TAY786490:TAY786506 TKU786490:TKU786506 TUQ786490:TUQ786506 UEM786490:UEM786506 UOI786490:UOI786506 UYE786490:UYE786506 VIA786490:VIA786506 VRW786490:VRW786506 WBS786490:WBS786506 WLO786490:WLO786506 WVK786490:WVK786506 C917562:C917578 IY852026:IY852042 SU852026:SU852042 ACQ852026:ACQ852042 AMM852026:AMM852042 AWI852026:AWI852042 BGE852026:BGE852042 BQA852026:BQA852042 BZW852026:BZW852042 CJS852026:CJS852042 CTO852026:CTO852042 DDK852026:DDK852042 DNG852026:DNG852042 DXC852026:DXC852042 EGY852026:EGY852042 EQU852026:EQU852042 FAQ852026:FAQ852042 FKM852026:FKM852042 FUI852026:FUI852042 GEE852026:GEE852042 GOA852026:GOA852042 GXW852026:GXW852042 HHS852026:HHS852042 HRO852026:HRO852042 IBK852026:IBK852042 ILG852026:ILG852042 IVC852026:IVC852042 JEY852026:JEY852042 JOU852026:JOU852042 JYQ852026:JYQ852042 KIM852026:KIM852042 KSI852026:KSI852042 LCE852026:LCE852042 LMA852026:LMA852042 LVW852026:LVW852042 MFS852026:MFS852042 MPO852026:MPO852042 MZK852026:MZK852042 NJG852026:NJG852042 NTC852026:NTC852042 OCY852026:OCY852042 OMU852026:OMU852042 OWQ852026:OWQ852042 PGM852026:PGM852042 PQI852026:PQI852042 QAE852026:QAE852042 QKA852026:QKA852042 QTW852026:QTW852042 RDS852026:RDS852042 RNO852026:RNO852042 RXK852026:RXK852042 SHG852026:SHG852042 SRC852026:SRC852042 TAY852026:TAY852042 TKU852026:TKU852042 TUQ852026:TUQ852042 UEM852026:UEM852042 UOI852026:UOI852042 UYE852026:UYE852042 VIA852026:VIA852042 VRW852026:VRW852042 WBS852026:WBS852042 WLO852026:WLO852042 WVK852026:WVK852042 C983098:C983114 IY917562:IY917578 SU917562:SU917578 ACQ917562:ACQ917578 AMM917562:AMM917578 AWI917562:AWI917578 BGE917562:BGE917578 BQA917562:BQA917578 BZW917562:BZW917578 CJS917562:CJS917578 CTO917562:CTO917578 DDK917562:DDK917578 DNG917562:DNG917578 DXC917562:DXC917578 EGY917562:EGY917578 EQU917562:EQU917578 FAQ917562:FAQ917578 FKM917562:FKM917578 FUI917562:FUI917578 GEE917562:GEE917578 GOA917562:GOA917578 GXW917562:GXW917578 HHS917562:HHS917578 HRO917562:HRO917578 IBK917562:IBK917578 ILG917562:ILG917578 IVC917562:IVC917578 JEY917562:JEY917578 JOU917562:JOU917578 JYQ917562:JYQ917578 KIM917562:KIM917578 KSI917562:KSI917578 LCE917562:LCE917578 LMA917562:LMA917578 LVW917562:LVW917578 MFS917562:MFS917578 MPO917562:MPO917578 MZK917562:MZK917578 NJG917562:NJG917578 NTC917562:NTC917578 OCY917562:OCY917578 OMU917562:OMU917578 OWQ917562:OWQ917578 PGM917562:PGM917578 PQI917562:PQI917578 QAE917562:QAE917578 QKA917562:QKA917578 QTW917562:QTW917578 RDS917562:RDS917578 RNO917562:RNO917578 RXK917562:RXK917578 SHG917562:SHG917578 SRC917562:SRC917578 TAY917562:TAY917578 TKU917562:TKU917578 TUQ917562:TUQ917578 UEM917562:UEM917578 UOI917562:UOI917578 UYE917562:UYE917578 VIA917562:VIA917578 VRW917562:VRW917578 WBS917562:WBS917578 WLO917562:WLO917578 WVK917562:WVK917578 WVK983098:WVK983114 IY983098:IY983114 SU983098:SU983114 ACQ983098:ACQ983114 AMM983098:AMM983114 AWI983098:AWI983114 BGE983098:BGE983114 BQA983098:BQA983114 BZW983098:BZW983114 CJS983098:CJS983114 CTO983098:CTO983114 DDK983098:DDK983114 DNG983098:DNG983114 DXC983098:DXC983114 EGY983098:EGY983114 EQU983098:EQU983114 FAQ983098:FAQ983114 FKM983098:FKM983114 FUI983098:FUI983114 GEE983098:GEE983114 GOA983098:GOA983114 GXW983098:GXW983114 HHS983098:HHS983114 HRO983098:HRO983114 IBK983098:IBK983114 ILG983098:ILG983114 IVC983098:IVC983114 JEY983098:JEY983114 JOU983098:JOU983114 JYQ983098:JYQ983114 KIM983098:KIM983114 KSI983098:KSI983114 LCE983098:LCE983114 LMA983098:LMA983114 LVW983098:LVW983114 MFS983098:MFS983114 MPO983098:MPO983114 MZK983098:MZK983114 NJG983098:NJG983114 NTC983098:NTC983114 OCY983098:OCY983114 OMU983098:OMU983114 OWQ983098:OWQ983114 PGM983098:PGM983114 PQI983098:PQI983114 QAE983098:QAE983114 QKA983098:QKA983114 QTW983098:QTW983114 RDS983098:RDS983114 RNO983098:RNO983114 RXK983098:RXK983114 SHG983098:SHG983114 SRC983098:SRC983114 TAY983098:TAY983114 TKU983098:TKU983114 TUQ983098:TUQ983114 UEM983098:UEM983114 UOI983098:UOI983114 UYE983098:UYE983114 VIA983098:VIA983114 VRW983098:VRW983114 WBS983098:WBS983114 WLO983098:WLO983114 C65594:C65610" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131137:C131153 IY65601:IY65617 SU65601:SU65617 ACQ65601:ACQ65617 AMM65601:AMM65617 AWI65601:AWI65617 BGE65601:BGE65617 BQA65601:BQA65617 BZW65601:BZW65617 CJS65601:CJS65617 CTO65601:CTO65617 DDK65601:DDK65617 DNG65601:DNG65617 DXC65601:DXC65617 EGY65601:EGY65617 EQU65601:EQU65617 FAQ65601:FAQ65617 FKM65601:FKM65617 FUI65601:FUI65617 GEE65601:GEE65617 GOA65601:GOA65617 GXW65601:GXW65617 HHS65601:HHS65617 HRO65601:HRO65617 IBK65601:IBK65617 ILG65601:ILG65617 IVC65601:IVC65617 JEY65601:JEY65617 JOU65601:JOU65617 JYQ65601:JYQ65617 KIM65601:KIM65617 KSI65601:KSI65617 LCE65601:LCE65617 LMA65601:LMA65617 LVW65601:LVW65617 MFS65601:MFS65617 MPO65601:MPO65617 MZK65601:MZK65617 NJG65601:NJG65617 NTC65601:NTC65617 OCY65601:OCY65617 OMU65601:OMU65617 OWQ65601:OWQ65617 PGM65601:PGM65617 PQI65601:PQI65617 QAE65601:QAE65617 QKA65601:QKA65617 QTW65601:QTW65617 RDS65601:RDS65617 RNO65601:RNO65617 RXK65601:RXK65617 SHG65601:SHG65617 SRC65601:SRC65617 TAY65601:TAY65617 TKU65601:TKU65617 TUQ65601:TUQ65617 UEM65601:UEM65617 UOI65601:UOI65617 UYE65601:UYE65617 VIA65601:VIA65617 VRW65601:VRW65617 WBS65601:WBS65617 WLO65601:WLO65617 WVK65601:WVK65617 C196673:C196689 IY131137:IY131153 SU131137:SU131153 ACQ131137:ACQ131153 AMM131137:AMM131153 AWI131137:AWI131153 BGE131137:BGE131153 BQA131137:BQA131153 BZW131137:BZW131153 CJS131137:CJS131153 CTO131137:CTO131153 DDK131137:DDK131153 DNG131137:DNG131153 DXC131137:DXC131153 EGY131137:EGY131153 EQU131137:EQU131153 FAQ131137:FAQ131153 FKM131137:FKM131153 FUI131137:FUI131153 GEE131137:GEE131153 GOA131137:GOA131153 GXW131137:GXW131153 HHS131137:HHS131153 HRO131137:HRO131153 IBK131137:IBK131153 ILG131137:ILG131153 IVC131137:IVC131153 JEY131137:JEY131153 JOU131137:JOU131153 JYQ131137:JYQ131153 KIM131137:KIM131153 KSI131137:KSI131153 LCE131137:LCE131153 LMA131137:LMA131153 LVW131137:LVW131153 MFS131137:MFS131153 MPO131137:MPO131153 MZK131137:MZK131153 NJG131137:NJG131153 NTC131137:NTC131153 OCY131137:OCY131153 OMU131137:OMU131153 OWQ131137:OWQ131153 PGM131137:PGM131153 PQI131137:PQI131153 QAE131137:QAE131153 QKA131137:QKA131153 QTW131137:QTW131153 RDS131137:RDS131153 RNO131137:RNO131153 RXK131137:RXK131153 SHG131137:SHG131153 SRC131137:SRC131153 TAY131137:TAY131153 TKU131137:TKU131153 TUQ131137:TUQ131153 UEM131137:UEM131153 UOI131137:UOI131153 UYE131137:UYE131153 VIA131137:VIA131153 VRW131137:VRW131153 WBS131137:WBS131153 WLO131137:WLO131153 WVK131137:WVK131153 C262209:C262225 IY196673:IY196689 SU196673:SU196689 ACQ196673:ACQ196689 AMM196673:AMM196689 AWI196673:AWI196689 BGE196673:BGE196689 BQA196673:BQA196689 BZW196673:BZW196689 CJS196673:CJS196689 CTO196673:CTO196689 DDK196673:DDK196689 DNG196673:DNG196689 DXC196673:DXC196689 EGY196673:EGY196689 EQU196673:EQU196689 FAQ196673:FAQ196689 FKM196673:FKM196689 FUI196673:FUI196689 GEE196673:GEE196689 GOA196673:GOA196689 GXW196673:GXW196689 HHS196673:HHS196689 HRO196673:HRO196689 IBK196673:IBK196689 ILG196673:ILG196689 IVC196673:IVC196689 JEY196673:JEY196689 JOU196673:JOU196689 JYQ196673:JYQ196689 KIM196673:KIM196689 KSI196673:KSI196689 LCE196673:LCE196689 LMA196673:LMA196689 LVW196673:LVW196689 MFS196673:MFS196689 MPO196673:MPO196689 MZK196673:MZK196689 NJG196673:NJG196689 NTC196673:NTC196689 OCY196673:OCY196689 OMU196673:OMU196689 OWQ196673:OWQ196689 PGM196673:PGM196689 PQI196673:PQI196689 QAE196673:QAE196689 QKA196673:QKA196689 QTW196673:QTW196689 RDS196673:RDS196689 RNO196673:RNO196689 RXK196673:RXK196689 SHG196673:SHG196689 SRC196673:SRC196689 TAY196673:TAY196689 TKU196673:TKU196689 TUQ196673:TUQ196689 UEM196673:UEM196689 UOI196673:UOI196689 UYE196673:UYE196689 VIA196673:VIA196689 VRW196673:VRW196689 WBS196673:WBS196689 WLO196673:WLO196689 WVK196673:WVK196689 C327745:C327761 IY262209:IY262225 SU262209:SU262225 ACQ262209:ACQ262225 AMM262209:AMM262225 AWI262209:AWI262225 BGE262209:BGE262225 BQA262209:BQA262225 BZW262209:BZW262225 CJS262209:CJS262225 CTO262209:CTO262225 DDK262209:DDK262225 DNG262209:DNG262225 DXC262209:DXC262225 EGY262209:EGY262225 EQU262209:EQU262225 FAQ262209:FAQ262225 FKM262209:FKM262225 FUI262209:FUI262225 GEE262209:GEE262225 GOA262209:GOA262225 GXW262209:GXW262225 HHS262209:HHS262225 HRO262209:HRO262225 IBK262209:IBK262225 ILG262209:ILG262225 IVC262209:IVC262225 JEY262209:JEY262225 JOU262209:JOU262225 JYQ262209:JYQ262225 KIM262209:KIM262225 KSI262209:KSI262225 LCE262209:LCE262225 LMA262209:LMA262225 LVW262209:LVW262225 MFS262209:MFS262225 MPO262209:MPO262225 MZK262209:MZK262225 NJG262209:NJG262225 NTC262209:NTC262225 OCY262209:OCY262225 OMU262209:OMU262225 OWQ262209:OWQ262225 PGM262209:PGM262225 PQI262209:PQI262225 QAE262209:QAE262225 QKA262209:QKA262225 QTW262209:QTW262225 RDS262209:RDS262225 RNO262209:RNO262225 RXK262209:RXK262225 SHG262209:SHG262225 SRC262209:SRC262225 TAY262209:TAY262225 TKU262209:TKU262225 TUQ262209:TUQ262225 UEM262209:UEM262225 UOI262209:UOI262225 UYE262209:UYE262225 VIA262209:VIA262225 VRW262209:VRW262225 WBS262209:WBS262225 WLO262209:WLO262225 WVK262209:WVK262225 C393281:C393297 IY327745:IY327761 SU327745:SU327761 ACQ327745:ACQ327761 AMM327745:AMM327761 AWI327745:AWI327761 BGE327745:BGE327761 BQA327745:BQA327761 BZW327745:BZW327761 CJS327745:CJS327761 CTO327745:CTO327761 DDK327745:DDK327761 DNG327745:DNG327761 DXC327745:DXC327761 EGY327745:EGY327761 EQU327745:EQU327761 FAQ327745:FAQ327761 FKM327745:FKM327761 FUI327745:FUI327761 GEE327745:GEE327761 GOA327745:GOA327761 GXW327745:GXW327761 HHS327745:HHS327761 HRO327745:HRO327761 IBK327745:IBK327761 ILG327745:ILG327761 IVC327745:IVC327761 JEY327745:JEY327761 JOU327745:JOU327761 JYQ327745:JYQ327761 KIM327745:KIM327761 KSI327745:KSI327761 LCE327745:LCE327761 LMA327745:LMA327761 LVW327745:LVW327761 MFS327745:MFS327761 MPO327745:MPO327761 MZK327745:MZK327761 NJG327745:NJG327761 NTC327745:NTC327761 OCY327745:OCY327761 OMU327745:OMU327761 OWQ327745:OWQ327761 PGM327745:PGM327761 PQI327745:PQI327761 QAE327745:QAE327761 QKA327745:QKA327761 QTW327745:QTW327761 RDS327745:RDS327761 RNO327745:RNO327761 RXK327745:RXK327761 SHG327745:SHG327761 SRC327745:SRC327761 TAY327745:TAY327761 TKU327745:TKU327761 TUQ327745:TUQ327761 UEM327745:UEM327761 UOI327745:UOI327761 UYE327745:UYE327761 VIA327745:VIA327761 VRW327745:VRW327761 WBS327745:WBS327761 WLO327745:WLO327761 WVK327745:WVK327761 C458817:C458833 IY393281:IY393297 SU393281:SU393297 ACQ393281:ACQ393297 AMM393281:AMM393297 AWI393281:AWI393297 BGE393281:BGE393297 BQA393281:BQA393297 BZW393281:BZW393297 CJS393281:CJS393297 CTO393281:CTO393297 DDK393281:DDK393297 DNG393281:DNG393297 DXC393281:DXC393297 EGY393281:EGY393297 EQU393281:EQU393297 FAQ393281:FAQ393297 FKM393281:FKM393297 FUI393281:FUI393297 GEE393281:GEE393297 GOA393281:GOA393297 GXW393281:GXW393297 HHS393281:HHS393297 HRO393281:HRO393297 IBK393281:IBK393297 ILG393281:ILG393297 IVC393281:IVC393297 JEY393281:JEY393297 JOU393281:JOU393297 JYQ393281:JYQ393297 KIM393281:KIM393297 KSI393281:KSI393297 LCE393281:LCE393297 LMA393281:LMA393297 LVW393281:LVW393297 MFS393281:MFS393297 MPO393281:MPO393297 MZK393281:MZK393297 NJG393281:NJG393297 NTC393281:NTC393297 OCY393281:OCY393297 OMU393281:OMU393297 OWQ393281:OWQ393297 PGM393281:PGM393297 PQI393281:PQI393297 QAE393281:QAE393297 QKA393281:QKA393297 QTW393281:QTW393297 RDS393281:RDS393297 RNO393281:RNO393297 RXK393281:RXK393297 SHG393281:SHG393297 SRC393281:SRC393297 TAY393281:TAY393297 TKU393281:TKU393297 TUQ393281:TUQ393297 UEM393281:UEM393297 UOI393281:UOI393297 UYE393281:UYE393297 VIA393281:VIA393297 VRW393281:VRW393297 WBS393281:WBS393297 WLO393281:WLO393297 WVK393281:WVK393297 C524353:C524369 IY458817:IY458833 SU458817:SU458833 ACQ458817:ACQ458833 AMM458817:AMM458833 AWI458817:AWI458833 BGE458817:BGE458833 BQA458817:BQA458833 BZW458817:BZW458833 CJS458817:CJS458833 CTO458817:CTO458833 DDK458817:DDK458833 DNG458817:DNG458833 DXC458817:DXC458833 EGY458817:EGY458833 EQU458817:EQU458833 FAQ458817:FAQ458833 FKM458817:FKM458833 FUI458817:FUI458833 GEE458817:GEE458833 GOA458817:GOA458833 GXW458817:GXW458833 HHS458817:HHS458833 HRO458817:HRO458833 IBK458817:IBK458833 ILG458817:ILG458833 IVC458817:IVC458833 JEY458817:JEY458833 JOU458817:JOU458833 JYQ458817:JYQ458833 KIM458817:KIM458833 KSI458817:KSI458833 LCE458817:LCE458833 LMA458817:LMA458833 LVW458817:LVW458833 MFS458817:MFS458833 MPO458817:MPO458833 MZK458817:MZK458833 NJG458817:NJG458833 NTC458817:NTC458833 OCY458817:OCY458833 OMU458817:OMU458833 OWQ458817:OWQ458833 PGM458817:PGM458833 PQI458817:PQI458833 QAE458817:QAE458833 QKA458817:QKA458833 QTW458817:QTW458833 RDS458817:RDS458833 RNO458817:RNO458833 RXK458817:RXK458833 SHG458817:SHG458833 SRC458817:SRC458833 TAY458817:TAY458833 TKU458817:TKU458833 TUQ458817:TUQ458833 UEM458817:UEM458833 UOI458817:UOI458833 UYE458817:UYE458833 VIA458817:VIA458833 VRW458817:VRW458833 WBS458817:WBS458833 WLO458817:WLO458833 WVK458817:WVK458833 C589889:C589905 IY524353:IY524369 SU524353:SU524369 ACQ524353:ACQ524369 AMM524353:AMM524369 AWI524353:AWI524369 BGE524353:BGE524369 BQA524353:BQA524369 BZW524353:BZW524369 CJS524353:CJS524369 CTO524353:CTO524369 DDK524353:DDK524369 DNG524353:DNG524369 DXC524353:DXC524369 EGY524353:EGY524369 EQU524353:EQU524369 FAQ524353:FAQ524369 FKM524353:FKM524369 FUI524353:FUI524369 GEE524353:GEE524369 GOA524353:GOA524369 GXW524353:GXW524369 HHS524353:HHS524369 HRO524353:HRO524369 IBK524353:IBK524369 ILG524353:ILG524369 IVC524353:IVC524369 JEY524353:JEY524369 JOU524353:JOU524369 JYQ524353:JYQ524369 KIM524353:KIM524369 KSI524353:KSI524369 LCE524353:LCE524369 LMA524353:LMA524369 LVW524353:LVW524369 MFS524353:MFS524369 MPO524353:MPO524369 MZK524353:MZK524369 NJG524353:NJG524369 NTC524353:NTC524369 OCY524353:OCY524369 OMU524353:OMU524369 OWQ524353:OWQ524369 PGM524353:PGM524369 PQI524353:PQI524369 QAE524353:QAE524369 QKA524353:QKA524369 QTW524353:QTW524369 RDS524353:RDS524369 RNO524353:RNO524369 RXK524353:RXK524369 SHG524353:SHG524369 SRC524353:SRC524369 TAY524353:TAY524369 TKU524353:TKU524369 TUQ524353:TUQ524369 UEM524353:UEM524369 UOI524353:UOI524369 UYE524353:UYE524369 VIA524353:VIA524369 VRW524353:VRW524369 WBS524353:WBS524369 WLO524353:WLO524369 WVK524353:WVK524369 C655425:C655441 IY589889:IY589905 SU589889:SU589905 ACQ589889:ACQ589905 AMM589889:AMM589905 AWI589889:AWI589905 BGE589889:BGE589905 BQA589889:BQA589905 BZW589889:BZW589905 CJS589889:CJS589905 CTO589889:CTO589905 DDK589889:DDK589905 DNG589889:DNG589905 DXC589889:DXC589905 EGY589889:EGY589905 EQU589889:EQU589905 FAQ589889:FAQ589905 FKM589889:FKM589905 FUI589889:FUI589905 GEE589889:GEE589905 GOA589889:GOA589905 GXW589889:GXW589905 HHS589889:HHS589905 HRO589889:HRO589905 IBK589889:IBK589905 ILG589889:ILG589905 IVC589889:IVC589905 JEY589889:JEY589905 JOU589889:JOU589905 JYQ589889:JYQ589905 KIM589889:KIM589905 KSI589889:KSI589905 LCE589889:LCE589905 LMA589889:LMA589905 LVW589889:LVW589905 MFS589889:MFS589905 MPO589889:MPO589905 MZK589889:MZK589905 NJG589889:NJG589905 NTC589889:NTC589905 OCY589889:OCY589905 OMU589889:OMU589905 OWQ589889:OWQ589905 PGM589889:PGM589905 PQI589889:PQI589905 QAE589889:QAE589905 QKA589889:QKA589905 QTW589889:QTW589905 RDS589889:RDS589905 RNO589889:RNO589905 RXK589889:RXK589905 SHG589889:SHG589905 SRC589889:SRC589905 TAY589889:TAY589905 TKU589889:TKU589905 TUQ589889:TUQ589905 UEM589889:UEM589905 UOI589889:UOI589905 UYE589889:UYE589905 VIA589889:VIA589905 VRW589889:VRW589905 WBS589889:WBS589905 WLO589889:WLO589905 WVK589889:WVK589905 C720961:C720977 IY655425:IY655441 SU655425:SU655441 ACQ655425:ACQ655441 AMM655425:AMM655441 AWI655425:AWI655441 BGE655425:BGE655441 BQA655425:BQA655441 BZW655425:BZW655441 CJS655425:CJS655441 CTO655425:CTO655441 DDK655425:DDK655441 DNG655425:DNG655441 DXC655425:DXC655441 EGY655425:EGY655441 EQU655425:EQU655441 FAQ655425:FAQ655441 FKM655425:FKM655441 FUI655425:FUI655441 GEE655425:GEE655441 GOA655425:GOA655441 GXW655425:GXW655441 HHS655425:HHS655441 HRO655425:HRO655441 IBK655425:IBK655441 ILG655425:ILG655441 IVC655425:IVC655441 JEY655425:JEY655441 JOU655425:JOU655441 JYQ655425:JYQ655441 KIM655425:KIM655441 KSI655425:KSI655441 LCE655425:LCE655441 LMA655425:LMA655441 LVW655425:LVW655441 MFS655425:MFS655441 MPO655425:MPO655441 MZK655425:MZK655441 NJG655425:NJG655441 NTC655425:NTC655441 OCY655425:OCY655441 OMU655425:OMU655441 OWQ655425:OWQ655441 PGM655425:PGM655441 PQI655425:PQI655441 QAE655425:QAE655441 QKA655425:QKA655441 QTW655425:QTW655441 RDS655425:RDS655441 RNO655425:RNO655441 RXK655425:RXK655441 SHG655425:SHG655441 SRC655425:SRC655441 TAY655425:TAY655441 TKU655425:TKU655441 TUQ655425:TUQ655441 UEM655425:UEM655441 UOI655425:UOI655441 UYE655425:UYE655441 VIA655425:VIA655441 VRW655425:VRW655441 WBS655425:WBS655441 WLO655425:WLO655441 WVK655425:WVK655441 C786497:C786513 IY720961:IY720977 SU720961:SU720977 ACQ720961:ACQ720977 AMM720961:AMM720977 AWI720961:AWI720977 BGE720961:BGE720977 BQA720961:BQA720977 BZW720961:BZW720977 CJS720961:CJS720977 CTO720961:CTO720977 DDK720961:DDK720977 DNG720961:DNG720977 DXC720961:DXC720977 EGY720961:EGY720977 EQU720961:EQU720977 FAQ720961:FAQ720977 FKM720961:FKM720977 FUI720961:FUI720977 GEE720961:GEE720977 GOA720961:GOA720977 GXW720961:GXW720977 HHS720961:HHS720977 HRO720961:HRO720977 IBK720961:IBK720977 ILG720961:ILG720977 IVC720961:IVC720977 JEY720961:JEY720977 JOU720961:JOU720977 JYQ720961:JYQ720977 KIM720961:KIM720977 KSI720961:KSI720977 LCE720961:LCE720977 LMA720961:LMA720977 LVW720961:LVW720977 MFS720961:MFS720977 MPO720961:MPO720977 MZK720961:MZK720977 NJG720961:NJG720977 NTC720961:NTC720977 OCY720961:OCY720977 OMU720961:OMU720977 OWQ720961:OWQ720977 PGM720961:PGM720977 PQI720961:PQI720977 QAE720961:QAE720977 QKA720961:QKA720977 QTW720961:QTW720977 RDS720961:RDS720977 RNO720961:RNO720977 RXK720961:RXK720977 SHG720961:SHG720977 SRC720961:SRC720977 TAY720961:TAY720977 TKU720961:TKU720977 TUQ720961:TUQ720977 UEM720961:UEM720977 UOI720961:UOI720977 UYE720961:UYE720977 VIA720961:VIA720977 VRW720961:VRW720977 WBS720961:WBS720977 WLO720961:WLO720977 WVK720961:WVK720977 C852033:C852049 IY786497:IY786513 SU786497:SU786513 ACQ786497:ACQ786513 AMM786497:AMM786513 AWI786497:AWI786513 BGE786497:BGE786513 BQA786497:BQA786513 BZW786497:BZW786513 CJS786497:CJS786513 CTO786497:CTO786513 DDK786497:DDK786513 DNG786497:DNG786513 DXC786497:DXC786513 EGY786497:EGY786513 EQU786497:EQU786513 FAQ786497:FAQ786513 FKM786497:FKM786513 FUI786497:FUI786513 GEE786497:GEE786513 GOA786497:GOA786513 GXW786497:GXW786513 HHS786497:HHS786513 HRO786497:HRO786513 IBK786497:IBK786513 ILG786497:ILG786513 IVC786497:IVC786513 JEY786497:JEY786513 JOU786497:JOU786513 JYQ786497:JYQ786513 KIM786497:KIM786513 KSI786497:KSI786513 LCE786497:LCE786513 LMA786497:LMA786513 LVW786497:LVW786513 MFS786497:MFS786513 MPO786497:MPO786513 MZK786497:MZK786513 NJG786497:NJG786513 NTC786497:NTC786513 OCY786497:OCY786513 OMU786497:OMU786513 OWQ786497:OWQ786513 PGM786497:PGM786513 PQI786497:PQI786513 QAE786497:QAE786513 QKA786497:QKA786513 QTW786497:QTW786513 RDS786497:RDS786513 RNO786497:RNO786513 RXK786497:RXK786513 SHG786497:SHG786513 SRC786497:SRC786513 TAY786497:TAY786513 TKU786497:TKU786513 TUQ786497:TUQ786513 UEM786497:UEM786513 UOI786497:UOI786513 UYE786497:UYE786513 VIA786497:VIA786513 VRW786497:VRW786513 WBS786497:WBS786513 WLO786497:WLO786513 WVK786497:WVK786513 C917569:C917585 IY852033:IY852049 SU852033:SU852049 ACQ852033:ACQ852049 AMM852033:AMM852049 AWI852033:AWI852049 BGE852033:BGE852049 BQA852033:BQA852049 BZW852033:BZW852049 CJS852033:CJS852049 CTO852033:CTO852049 DDK852033:DDK852049 DNG852033:DNG852049 DXC852033:DXC852049 EGY852033:EGY852049 EQU852033:EQU852049 FAQ852033:FAQ852049 FKM852033:FKM852049 FUI852033:FUI852049 GEE852033:GEE852049 GOA852033:GOA852049 GXW852033:GXW852049 HHS852033:HHS852049 HRO852033:HRO852049 IBK852033:IBK852049 ILG852033:ILG852049 IVC852033:IVC852049 JEY852033:JEY852049 JOU852033:JOU852049 JYQ852033:JYQ852049 KIM852033:KIM852049 KSI852033:KSI852049 LCE852033:LCE852049 LMA852033:LMA852049 LVW852033:LVW852049 MFS852033:MFS852049 MPO852033:MPO852049 MZK852033:MZK852049 NJG852033:NJG852049 NTC852033:NTC852049 OCY852033:OCY852049 OMU852033:OMU852049 OWQ852033:OWQ852049 PGM852033:PGM852049 PQI852033:PQI852049 QAE852033:QAE852049 QKA852033:QKA852049 QTW852033:QTW852049 RDS852033:RDS852049 RNO852033:RNO852049 RXK852033:RXK852049 SHG852033:SHG852049 SRC852033:SRC852049 TAY852033:TAY852049 TKU852033:TKU852049 TUQ852033:TUQ852049 UEM852033:UEM852049 UOI852033:UOI852049 UYE852033:UYE852049 VIA852033:VIA852049 VRW852033:VRW852049 WBS852033:WBS852049 WLO852033:WLO852049 WVK852033:WVK852049 C983105:C983121 IY917569:IY917585 SU917569:SU917585 ACQ917569:ACQ917585 AMM917569:AMM917585 AWI917569:AWI917585 BGE917569:BGE917585 BQA917569:BQA917585 BZW917569:BZW917585 CJS917569:CJS917585 CTO917569:CTO917585 DDK917569:DDK917585 DNG917569:DNG917585 DXC917569:DXC917585 EGY917569:EGY917585 EQU917569:EQU917585 FAQ917569:FAQ917585 FKM917569:FKM917585 FUI917569:FUI917585 GEE917569:GEE917585 GOA917569:GOA917585 GXW917569:GXW917585 HHS917569:HHS917585 HRO917569:HRO917585 IBK917569:IBK917585 ILG917569:ILG917585 IVC917569:IVC917585 JEY917569:JEY917585 JOU917569:JOU917585 JYQ917569:JYQ917585 KIM917569:KIM917585 KSI917569:KSI917585 LCE917569:LCE917585 LMA917569:LMA917585 LVW917569:LVW917585 MFS917569:MFS917585 MPO917569:MPO917585 MZK917569:MZK917585 NJG917569:NJG917585 NTC917569:NTC917585 OCY917569:OCY917585 OMU917569:OMU917585 OWQ917569:OWQ917585 PGM917569:PGM917585 PQI917569:PQI917585 QAE917569:QAE917585 QKA917569:QKA917585 QTW917569:QTW917585 RDS917569:RDS917585 RNO917569:RNO917585 RXK917569:RXK917585 SHG917569:SHG917585 SRC917569:SRC917585 TAY917569:TAY917585 TKU917569:TKU917585 TUQ917569:TUQ917585 UEM917569:UEM917585 UOI917569:UOI917585 UYE917569:UYE917585 VIA917569:VIA917585 VRW917569:VRW917585 WBS917569:WBS917585 WLO917569:WLO917585 WVK917569:WVK917585 WVK983105:WVK983121 IY983105:IY983121 SU983105:SU983121 ACQ983105:ACQ983121 AMM983105:AMM983121 AWI983105:AWI983121 BGE983105:BGE983121 BQA983105:BQA983121 BZW983105:BZW983121 CJS983105:CJS983121 CTO983105:CTO983121 DDK983105:DDK983121 DNG983105:DNG983121 DXC983105:DXC983121 EGY983105:EGY983121 EQU983105:EQU983121 FAQ983105:FAQ983121 FKM983105:FKM983121 FUI983105:FUI983121 GEE983105:GEE983121 GOA983105:GOA983121 GXW983105:GXW983121 HHS983105:HHS983121 HRO983105:HRO983121 IBK983105:IBK983121 ILG983105:ILG983121 IVC983105:IVC983121 JEY983105:JEY983121 JOU983105:JOU983121 JYQ983105:JYQ983121 KIM983105:KIM983121 KSI983105:KSI983121 LCE983105:LCE983121 LMA983105:LMA983121 LVW983105:LVW983121 MFS983105:MFS983121 MPO983105:MPO983121 MZK983105:MZK983121 NJG983105:NJG983121 NTC983105:NTC983121 OCY983105:OCY983121 OMU983105:OMU983121 OWQ983105:OWQ983121 PGM983105:PGM983121 PQI983105:PQI983121 QAE983105:QAE983121 QKA983105:QKA983121 QTW983105:QTW983121 RDS983105:RDS983121 RNO983105:RNO983121 RXK983105:RXK983121 SHG983105:SHG983121 SRC983105:SRC983121 TAY983105:TAY983121 TKU983105:TKU983121 TUQ983105:TUQ983121 UEM983105:UEM983121 UOI983105:UOI983121 UYE983105:UYE983121 VIA983105:VIA983121 VRW983105:VRW983121 WBS983105:WBS983121 WLO983105:WLO983121 C65601:C65617" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65594:F65627 JB65594:JB65627 SX65594:SX65627 ACT65594:ACT65627 AMP65594:AMP65627 AWL65594:AWL65627 BGH65594:BGH65627 BQD65594:BQD65627 BZZ65594:BZZ65627 CJV65594:CJV65627 CTR65594:CTR65627 DDN65594:DDN65627 DNJ65594:DNJ65627 DXF65594:DXF65627 EHB65594:EHB65627 EQX65594:EQX65627 FAT65594:FAT65627 FKP65594:FKP65627 FUL65594:FUL65627 GEH65594:GEH65627 GOD65594:GOD65627 GXZ65594:GXZ65627 HHV65594:HHV65627 HRR65594:HRR65627 IBN65594:IBN65627 ILJ65594:ILJ65627 IVF65594:IVF65627 JFB65594:JFB65627 JOX65594:JOX65627 JYT65594:JYT65627 KIP65594:KIP65627 KSL65594:KSL65627 LCH65594:LCH65627 LMD65594:LMD65627 LVZ65594:LVZ65627 MFV65594:MFV65627 MPR65594:MPR65627 MZN65594:MZN65627 NJJ65594:NJJ65627 NTF65594:NTF65627 ODB65594:ODB65627 OMX65594:OMX65627 OWT65594:OWT65627 PGP65594:PGP65627 PQL65594:PQL65627 QAH65594:QAH65627 QKD65594:QKD65627 QTZ65594:QTZ65627 RDV65594:RDV65627 RNR65594:RNR65627 RXN65594:RXN65627 SHJ65594:SHJ65627 SRF65594:SRF65627 TBB65594:TBB65627 TKX65594:TKX65627 TUT65594:TUT65627 UEP65594:UEP65627 UOL65594:UOL65627 UYH65594:UYH65627 VID65594:VID65627 VRZ65594:VRZ65627 WBV65594:WBV65627 WLR65594:WLR65627 WVN65594:WVN65627 F131130:F131163 JB131130:JB131163 SX131130:SX131163 ACT131130:ACT131163 AMP131130:AMP131163 AWL131130:AWL131163 BGH131130:BGH131163 BQD131130:BQD131163 BZZ131130:BZZ131163 CJV131130:CJV131163 CTR131130:CTR131163 DDN131130:DDN131163 DNJ131130:DNJ131163 DXF131130:DXF131163 EHB131130:EHB131163 EQX131130:EQX131163 FAT131130:FAT131163 FKP131130:FKP131163 FUL131130:FUL131163 GEH131130:GEH131163 GOD131130:GOD131163 GXZ131130:GXZ131163 HHV131130:HHV131163 HRR131130:HRR131163 IBN131130:IBN131163 ILJ131130:ILJ131163 IVF131130:IVF131163 JFB131130:JFB131163 JOX131130:JOX131163 JYT131130:JYT131163 KIP131130:KIP131163 KSL131130:KSL131163 LCH131130:LCH131163 LMD131130:LMD131163 LVZ131130:LVZ131163 MFV131130:MFV131163 MPR131130:MPR131163 MZN131130:MZN131163 NJJ131130:NJJ131163 NTF131130:NTF131163 ODB131130:ODB131163 OMX131130:OMX131163 OWT131130:OWT131163 PGP131130:PGP131163 PQL131130:PQL131163 QAH131130:QAH131163 QKD131130:QKD131163 QTZ131130:QTZ131163 RDV131130:RDV131163 RNR131130:RNR131163 RXN131130:RXN131163 SHJ131130:SHJ131163 SRF131130:SRF131163 TBB131130:TBB131163 TKX131130:TKX131163 TUT131130:TUT131163 UEP131130:UEP131163 UOL131130:UOL131163 UYH131130:UYH131163 VID131130:VID131163 VRZ131130:VRZ131163 WBV131130:WBV131163 WLR131130:WLR131163 WVN131130:WVN131163 F196666:F196699 JB196666:JB196699 SX196666:SX196699 ACT196666:ACT196699 AMP196666:AMP196699 AWL196666:AWL196699 BGH196666:BGH196699 BQD196666:BQD196699 BZZ196666:BZZ196699 CJV196666:CJV196699 CTR196666:CTR196699 DDN196666:DDN196699 DNJ196666:DNJ196699 DXF196666:DXF196699 EHB196666:EHB196699 EQX196666:EQX196699 FAT196666:FAT196699 FKP196666:FKP196699 FUL196666:FUL196699 GEH196666:GEH196699 GOD196666:GOD196699 GXZ196666:GXZ196699 HHV196666:HHV196699 HRR196666:HRR196699 IBN196666:IBN196699 ILJ196666:ILJ196699 IVF196666:IVF196699 JFB196666:JFB196699 JOX196666:JOX196699 JYT196666:JYT196699 KIP196666:KIP196699 KSL196666:KSL196699 LCH196666:LCH196699 LMD196666:LMD196699 LVZ196666:LVZ196699 MFV196666:MFV196699 MPR196666:MPR196699 MZN196666:MZN196699 NJJ196666:NJJ196699 NTF196666:NTF196699 ODB196666:ODB196699 OMX196666:OMX196699 OWT196666:OWT196699 PGP196666:PGP196699 PQL196666:PQL196699 QAH196666:QAH196699 QKD196666:QKD196699 QTZ196666:QTZ196699 RDV196666:RDV196699 RNR196666:RNR196699 RXN196666:RXN196699 SHJ196666:SHJ196699 SRF196666:SRF196699 TBB196666:TBB196699 TKX196666:TKX196699 TUT196666:TUT196699 UEP196666:UEP196699 UOL196666:UOL196699 UYH196666:UYH196699 VID196666:VID196699 VRZ196666:VRZ196699 WBV196666:WBV196699 WLR196666:WLR196699 WVN196666:WVN196699 F262202:F262235 JB262202:JB262235 SX262202:SX262235 ACT262202:ACT262235 AMP262202:AMP262235 AWL262202:AWL262235 BGH262202:BGH262235 BQD262202:BQD262235 BZZ262202:BZZ262235 CJV262202:CJV262235 CTR262202:CTR262235 DDN262202:DDN262235 DNJ262202:DNJ262235 DXF262202:DXF262235 EHB262202:EHB262235 EQX262202:EQX262235 FAT262202:FAT262235 FKP262202:FKP262235 FUL262202:FUL262235 GEH262202:GEH262235 GOD262202:GOD262235 GXZ262202:GXZ262235 HHV262202:HHV262235 HRR262202:HRR262235 IBN262202:IBN262235 ILJ262202:ILJ262235 IVF262202:IVF262235 JFB262202:JFB262235 JOX262202:JOX262235 JYT262202:JYT262235 KIP262202:KIP262235 KSL262202:KSL262235 LCH262202:LCH262235 LMD262202:LMD262235 LVZ262202:LVZ262235 MFV262202:MFV262235 MPR262202:MPR262235 MZN262202:MZN262235 NJJ262202:NJJ262235 NTF262202:NTF262235 ODB262202:ODB262235 OMX262202:OMX262235 OWT262202:OWT262235 PGP262202:PGP262235 PQL262202:PQL262235 QAH262202:QAH262235 QKD262202:QKD262235 QTZ262202:QTZ262235 RDV262202:RDV262235 RNR262202:RNR262235 RXN262202:RXN262235 SHJ262202:SHJ262235 SRF262202:SRF262235 TBB262202:TBB262235 TKX262202:TKX262235 TUT262202:TUT262235 UEP262202:UEP262235 UOL262202:UOL262235 UYH262202:UYH262235 VID262202:VID262235 VRZ262202:VRZ262235 WBV262202:WBV262235 WLR262202:WLR262235 WVN262202:WVN262235 F327738:F327771 JB327738:JB327771 SX327738:SX327771 ACT327738:ACT327771 AMP327738:AMP327771 AWL327738:AWL327771 BGH327738:BGH327771 BQD327738:BQD327771 BZZ327738:BZZ327771 CJV327738:CJV327771 CTR327738:CTR327771 DDN327738:DDN327771 DNJ327738:DNJ327771 DXF327738:DXF327771 EHB327738:EHB327771 EQX327738:EQX327771 FAT327738:FAT327771 FKP327738:FKP327771 FUL327738:FUL327771 GEH327738:GEH327771 GOD327738:GOD327771 GXZ327738:GXZ327771 HHV327738:HHV327771 HRR327738:HRR327771 IBN327738:IBN327771 ILJ327738:ILJ327771 IVF327738:IVF327771 JFB327738:JFB327771 JOX327738:JOX327771 JYT327738:JYT327771 KIP327738:KIP327771 KSL327738:KSL327771 LCH327738:LCH327771 LMD327738:LMD327771 LVZ327738:LVZ327771 MFV327738:MFV327771 MPR327738:MPR327771 MZN327738:MZN327771 NJJ327738:NJJ327771 NTF327738:NTF327771 ODB327738:ODB327771 OMX327738:OMX327771 OWT327738:OWT327771 PGP327738:PGP327771 PQL327738:PQL327771 QAH327738:QAH327771 QKD327738:QKD327771 QTZ327738:QTZ327771 RDV327738:RDV327771 RNR327738:RNR327771 RXN327738:RXN327771 SHJ327738:SHJ327771 SRF327738:SRF327771 TBB327738:TBB327771 TKX327738:TKX327771 TUT327738:TUT327771 UEP327738:UEP327771 UOL327738:UOL327771 UYH327738:UYH327771 VID327738:VID327771 VRZ327738:VRZ327771 WBV327738:WBV327771 WLR327738:WLR327771 WVN327738:WVN327771 F393274:F393307 JB393274:JB393307 SX393274:SX393307 ACT393274:ACT393307 AMP393274:AMP393307 AWL393274:AWL393307 BGH393274:BGH393307 BQD393274:BQD393307 BZZ393274:BZZ393307 CJV393274:CJV393307 CTR393274:CTR393307 DDN393274:DDN393307 DNJ393274:DNJ393307 DXF393274:DXF393307 EHB393274:EHB393307 EQX393274:EQX393307 FAT393274:FAT393307 FKP393274:FKP393307 FUL393274:FUL393307 GEH393274:GEH393307 GOD393274:GOD393307 GXZ393274:GXZ393307 HHV393274:HHV393307 HRR393274:HRR393307 IBN393274:IBN393307 ILJ393274:ILJ393307 IVF393274:IVF393307 JFB393274:JFB393307 JOX393274:JOX393307 JYT393274:JYT393307 KIP393274:KIP393307 KSL393274:KSL393307 LCH393274:LCH393307 LMD393274:LMD393307 LVZ393274:LVZ393307 MFV393274:MFV393307 MPR393274:MPR393307 MZN393274:MZN393307 NJJ393274:NJJ393307 NTF393274:NTF393307 ODB393274:ODB393307 OMX393274:OMX393307 OWT393274:OWT393307 PGP393274:PGP393307 PQL393274:PQL393307 QAH393274:QAH393307 QKD393274:QKD393307 QTZ393274:QTZ393307 RDV393274:RDV393307 RNR393274:RNR393307 RXN393274:RXN393307 SHJ393274:SHJ393307 SRF393274:SRF393307 TBB393274:TBB393307 TKX393274:TKX393307 TUT393274:TUT393307 UEP393274:UEP393307 UOL393274:UOL393307 UYH393274:UYH393307 VID393274:VID393307 VRZ393274:VRZ393307 WBV393274:WBV393307 WLR393274:WLR393307 WVN393274:WVN393307 F458810:F458843 JB458810:JB458843 SX458810:SX458843 ACT458810:ACT458843 AMP458810:AMP458843 AWL458810:AWL458843 BGH458810:BGH458843 BQD458810:BQD458843 BZZ458810:BZZ458843 CJV458810:CJV458843 CTR458810:CTR458843 DDN458810:DDN458843 DNJ458810:DNJ458843 DXF458810:DXF458843 EHB458810:EHB458843 EQX458810:EQX458843 FAT458810:FAT458843 FKP458810:FKP458843 FUL458810:FUL458843 GEH458810:GEH458843 GOD458810:GOD458843 GXZ458810:GXZ458843 HHV458810:HHV458843 HRR458810:HRR458843 IBN458810:IBN458843 ILJ458810:ILJ458843 IVF458810:IVF458843 JFB458810:JFB458843 JOX458810:JOX458843 JYT458810:JYT458843 KIP458810:KIP458843 KSL458810:KSL458843 LCH458810:LCH458843 LMD458810:LMD458843 LVZ458810:LVZ458843 MFV458810:MFV458843 MPR458810:MPR458843 MZN458810:MZN458843 NJJ458810:NJJ458843 NTF458810:NTF458843 ODB458810:ODB458843 OMX458810:OMX458843 OWT458810:OWT458843 PGP458810:PGP458843 PQL458810:PQL458843 QAH458810:QAH458843 QKD458810:QKD458843 QTZ458810:QTZ458843 RDV458810:RDV458843 RNR458810:RNR458843 RXN458810:RXN458843 SHJ458810:SHJ458843 SRF458810:SRF458843 TBB458810:TBB458843 TKX458810:TKX458843 TUT458810:TUT458843 UEP458810:UEP458843 UOL458810:UOL458843 UYH458810:UYH458843 VID458810:VID458843 VRZ458810:VRZ458843 WBV458810:WBV458843 WLR458810:WLR458843 WVN458810:WVN458843 F524346:F524379 JB524346:JB524379 SX524346:SX524379 ACT524346:ACT524379 AMP524346:AMP524379 AWL524346:AWL524379 BGH524346:BGH524379 BQD524346:BQD524379 BZZ524346:BZZ524379 CJV524346:CJV524379 CTR524346:CTR524379 DDN524346:DDN524379 DNJ524346:DNJ524379 DXF524346:DXF524379 EHB524346:EHB524379 EQX524346:EQX524379 FAT524346:FAT524379 FKP524346:FKP524379 FUL524346:FUL524379 GEH524346:GEH524379 GOD524346:GOD524379 GXZ524346:GXZ524379 HHV524346:HHV524379 HRR524346:HRR524379 IBN524346:IBN524379 ILJ524346:ILJ524379 IVF524346:IVF524379 JFB524346:JFB524379 JOX524346:JOX524379 JYT524346:JYT524379 KIP524346:KIP524379 KSL524346:KSL524379 LCH524346:LCH524379 LMD524346:LMD524379 LVZ524346:LVZ524379 MFV524346:MFV524379 MPR524346:MPR524379 MZN524346:MZN524379 NJJ524346:NJJ524379 NTF524346:NTF524379 ODB524346:ODB524379 OMX524346:OMX524379 OWT524346:OWT524379 PGP524346:PGP524379 PQL524346:PQL524379 QAH524346:QAH524379 QKD524346:QKD524379 QTZ524346:QTZ524379 RDV524346:RDV524379 RNR524346:RNR524379 RXN524346:RXN524379 SHJ524346:SHJ524379 SRF524346:SRF524379 TBB524346:TBB524379 TKX524346:TKX524379 TUT524346:TUT524379 UEP524346:UEP524379 UOL524346:UOL524379 UYH524346:UYH524379 VID524346:VID524379 VRZ524346:VRZ524379 WBV524346:WBV524379 WLR524346:WLR524379 WVN524346:WVN524379 F589882:F589915 JB589882:JB589915 SX589882:SX589915 ACT589882:ACT589915 AMP589882:AMP589915 AWL589882:AWL589915 BGH589882:BGH589915 BQD589882:BQD589915 BZZ589882:BZZ589915 CJV589882:CJV589915 CTR589882:CTR589915 DDN589882:DDN589915 DNJ589882:DNJ589915 DXF589882:DXF589915 EHB589882:EHB589915 EQX589882:EQX589915 FAT589882:FAT589915 FKP589882:FKP589915 FUL589882:FUL589915 GEH589882:GEH589915 GOD589882:GOD589915 GXZ589882:GXZ589915 HHV589882:HHV589915 HRR589882:HRR589915 IBN589882:IBN589915 ILJ589882:ILJ589915 IVF589882:IVF589915 JFB589882:JFB589915 JOX589882:JOX589915 JYT589882:JYT589915 KIP589882:KIP589915 KSL589882:KSL589915 LCH589882:LCH589915 LMD589882:LMD589915 LVZ589882:LVZ589915 MFV589882:MFV589915 MPR589882:MPR589915 MZN589882:MZN589915 NJJ589882:NJJ589915 NTF589882:NTF589915 ODB589882:ODB589915 OMX589882:OMX589915 OWT589882:OWT589915 PGP589882:PGP589915 PQL589882:PQL589915 QAH589882:QAH589915 QKD589882:QKD589915 QTZ589882:QTZ589915 RDV589882:RDV589915 RNR589882:RNR589915 RXN589882:RXN589915 SHJ589882:SHJ589915 SRF589882:SRF589915 TBB589882:TBB589915 TKX589882:TKX589915 TUT589882:TUT589915 UEP589882:UEP589915 UOL589882:UOL589915 UYH589882:UYH589915 VID589882:VID589915 VRZ589882:VRZ589915 WBV589882:WBV589915 WLR589882:WLR589915 WVN589882:WVN589915 F655418:F655451 JB655418:JB655451 SX655418:SX655451 ACT655418:ACT655451 AMP655418:AMP655451 AWL655418:AWL655451 BGH655418:BGH655451 BQD655418:BQD655451 BZZ655418:BZZ655451 CJV655418:CJV655451 CTR655418:CTR655451 DDN655418:DDN655451 DNJ655418:DNJ655451 DXF655418:DXF655451 EHB655418:EHB655451 EQX655418:EQX655451 FAT655418:FAT655451 FKP655418:FKP655451 FUL655418:FUL655451 GEH655418:GEH655451 GOD655418:GOD655451 GXZ655418:GXZ655451 HHV655418:HHV655451 HRR655418:HRR655451 IBN655418:IBN655451 ILJ655418:ILJ655451 IVF655418:IVF655451 JFB655418:JFB655451 JOX655418:JOX655451 JYT655418:JYT655451 KIP655418:KIP655451 KSL655418:KSL655451 LCH655418:LCH655451 LMD655418:LMD655451 LVZ655418:LVZ655451 MFV655418:MFV655451 MPR655418:MPR655451 MZN655418:MZN655451 NJJ655418:NJJ655451 NTF655418:NTF655451 ODB655418:ODB655451 OMX655418:OMX655451 OWT655418:OWT655451 PGP655418:PGP655451 PQL655418:PQL655451 QAH655418:QAH655451 QKD655418:QKD655451 QTZ655418:QTZ655451 RDV655418:RDV655451 RNR655418:RNR655451 RXN655418:RXN655451 SHJ655418:SHJ655451 SRF655418:SRF655451 TBB655418:TBB655451 TKX655418:TKX655451 TUT655418:TUT655451 UEP655418:UEP655451 UOL655418:UOL655451 UYH655418:UYH655451 VID655418:VID655451 VRZ655418:VRZ655451 WBV655418:WBV655451 WLR655418:WLR655451 WVN655418:WVN655451 F720954:F720987 JB720954:JB720987 SX720954:SX720987 ACT720954:ACT720987 AMP720954:AMP720987 AWL720954:AWL720987 BGH720954:BGH720987 BQD720954:BQD720987 BZZ720954:BZZ720987 CJV720954:CJV720987 CTR720954:CTR720987 DDN720954:DDN720987 DNJ720954:DNJ720987 DXF720954:DXF720987 EHB720954:EHB720987 EQX720954:EQX720987 FAT720954:FAT720987 FKP720954:FKP720987 FUL720954:FUL720987 GEH720954:GEH720987 GOD720954:GOD720987 GXZ720954:GXZ720987 HHV720954:HHV720987 HRR720954:HRR720987 IBN720954:IBN720987 ILJ720954:ILJ720987 IVF720954:IVF720987 JFB720954:JFB720987 JOX720954:JOX720987 JYT720954:JYT720987 KIP720954:KIP720987 KSL720954:KSL720987 LCH720954:LCH720987 LMD720954:LMD720987 LVZ720954:LVZ720987 MFV720954:MFV720987 MPR720954:MPR720987 MZN720954:MZN720987 NJJ720954:NJJ720987 NTF720954:NTF720987 ODB720954:ODB720987 OMX720954:OMX720987 OWT720954:OWT720987 PGP720954:PGP720987 PQL720954:PQL720987 QAH720954:QAH720987 QKD720954:QKD720987 QTZ720954:QTZ720987 RDV720954:RDV720987 RNR720954:RNR720987 RXN720954:RXN720987 SHJ720954:SHJ720987 SRF720954:SRF720987 TBB720954:TBB720987 TKX720954:TKX720987 TUT720954:TUT720987 UEP720954:UEP720987 UOL720954:UOL720987 UYH720954:UYH720987 VID720954:VID720987 VRZ720954:VRZ720987 WBV720954:WBV720987 WLR720954:WLR720987 WVN720954:WVN720987 F786490:F786523 JB786490:JB786523 SX786490:SX786523 ACT786490:ACT786523 AMP786490:AMP786523 AWL786490:AWL786523 BGH786490:BGH786523 BQD786490:BQD786523 BZZ786490:BZZ786523 CJV786490:CJV786523 CTR786490:CTR786523 DDN786490:DDN786523 DNJ786490:DNJ786523 DXF786490:DXF786523 EHB786490:EHB786523 EQX786490:EQX786523 FAT786490:FAT786523 FKP786490:FKP786523 FUL786490:FUL786523 GEH786490:GEH786523 GOD786490:GOD786523 GXZ786490:GXZ786523 HHV786490:HHV786523 HRR786490:HRR786523 IBN786490:IBN786523 ILJ786490:ILJ786523 IVF786490:IVF786523 JFB786490:JFB786523 JOX786490:JOX786523 JYT786490:JYT786523 KIP786490:KIP786523 KSL786490:KSL786523 LCH786490:LCH786523 LMD786490:LMD786523 LVZ786490:LVZ786523 MFV786490:MFV786523 MPR786490:MPR786523 MZN786490:MZN786523 NJJ786490:NJJ786523 NTF786490:NTF786523 ODB786490:ODB786523 OMX786490:OMX786523 OWT786490:OWT786523 PGP786490:PGP786523 PQL786490:PQL786523 QAH786490:QAH786523 QKD786490:QKD786523 QTZ786490:QTZ786523 RDV786490:RDV786523 RNR786490:RNR786523 RXN786490:RXN786523 SHJ786490:SHJ786523 SRF786490:SRF786523 TBB786490:TBB786523 TKX786490:TKX786523 TUT786490:TUT786523 UEP786490:UEP786523 UOL786490:UOL786523 UYH786490:UYH786523 VID786490:VID786523 VRZ786490:VRZ786523 WBV786490:WBV786523 WLR786490:WLR786523 WVN786490:WVN786523 F852026:F852059 JB852026:JB852059 SX852026:SX852059 ACT852026:ACT852059 AMP852026:AMP852059 AWL852026:AWL852059 BGH852026:BGH852059 BQD852026:BQD852059 BZZ852026:BZZ852059 CJV852026:CJV852059 CTR852026:CTR852059 DDN852026:DDN852059 DNJ852026:DNJ852059 DXF852026:DXF852059 EHB852026:EHB852059 EQX852026:EQX852059 FAT852026:FAT852059 FKP852026:FKP852059 FUL852026:FUL852059 GEH852026:GEH852059 GOD852026:GOD852059 GXZ852026:GXZ852059 HHV852026:HHV852059 HRR852026:HRR852059 IBN852026:IBN852059 ILJ852026:ILJ852059 IVF852026:IVF852059 JFB852026:JFB852059 JOX852026:JOX852059 JYT852026:JYT852059 KIP852026:KIP852059 KSL852026:KSL852059 LCH852026:LCH852059 LMD852026:LMD852059 LVZ852026:LVZ852059 MFV852026:MFV852059 MPR852026:MPR852059 MZN852026:MZN852059 NJJ852026:NJJ852059 NTF852026:NTF852059 ODB852026:ODB852059 OMX852026:OMX852059 OWT852026:OWT852059 PGP852026:PGP852059 PQL852026:PQL852059 QAH852026:QAH852059 QKD852026:QKD852059 QTZ852026:QTZ852059 RDV852026:RDV852059 RNR852026:RNR852059 RXN852026:RXN852059 SHJ852026:SHJ852059 SRF852026:SRF852059 TBB852026:TBB852059 TKX852026:TKX852059 TUT852026:TUT852059 UEP852026:UEP852059 UOL852026:UOL852059 UYH852026:UYH852059 VID852026:VID852059 VRZ852026:VRZ852059 WBV852026:WBV852059 WLR852026:WLR852059 WVN852026:WVN852059 F917562:F917595 JB917562:JB917595 SX917562:SX917595 ACT917562:ACT917595 AMP917562:AMP917595 AWL917562:AWL917595 BGH917562:BGH917595 BQD917562:BQD917595 BZZ917562:BZZ917595 CJV917562:CJV917595 CTR917562:CTR917595 DDN917562:DDN917595 DNJ917562:DNJ917595 DXF917562:DXF917595 EHB917562:EHB917595 EQX917562:EQX917595 FAT917562:FAT917595 FKP917562:FKP917595 FUL917562:FUL917595 GEH917562:GEH917595 GOD917562:GOD917595 GXZ917562:GXZ917595 HHV917562:HHV917595 HRR917562:HRR917595 IBN917562:IBN917595 ILJ917562:ILJ917595 IVF917562:IVF917595 JFB917562:JFB917595 JOX917562:JOX917595 JYT917562:JYT917595 KIP917562:KIP917595 KSL917562:KSL917595 LCH917562:LCH917595 LMD917562:LMD917595 LVZ917562:LVZ917595 MFV917562:MFV917595 MPR917562:MPR917595 MZN917562:MZN917595 NJJ917562:NJJ917595 NTF917562:NTF917595 ODB917562:ODB917595 OMX917562:OMX917595 OWT917562:OWT917595 PGP917562:PGP917595 PQL917562:PQL917595 QAH917562:QAH917595 QKD917562:QKD917595 QTZ917562:QTZ917595 RDV917562:RDV917595 RNR917562:RNR917595 RXN917562:RXN917595 SHJ917562:SHJ917595 SRF917562:SRF917595 TBB917562:TBB917595 TKX917562:TKX917595 TUT917562:TUT917595 UEP917562:UEP917595 UOL917562:UOL917595 UYH917562:UYH917595 VID917562:VID917595 VRZ917562:VRZ917595 WBV917562:WBV917595 WLR917562:WLR917595 WVN917562:WVN917595 F983098:F983131 JB983098:JB983131 SX983098:SX983131 ACT983098:ACT983131 AMP983098:AMP983131 AWL983098:AWL983131 BGH983098:BGH983131 BQD983098:BQD983131 BZZ983098:BZZ983131 CJV983098:CJV983131 CTR983098:CTR983131 DDN983098:DDN983131 DNJ983098:DNJ983131 DXF983098:DXF983131 EHB983098:EHB983131 EQX983098:EQX983131 FAT983098:FAT983131 FKP983098:FKP983131 FUL983098:FUL983131 GEH983098:GEH983131 GOD983098:GOD983131 GXZ983098:GXZ983131 HHV983098:HHV983131 HRR983098:HRR983131 IBN983098:IBN983131 ILJ983098:ILJ983131 IVF983098:IVF983131 JFB983098:JFB983131 JOX983098:JOX983131 JYT983098:JYT983131 KIP983098:KIP983131 KSL983098:KSL983131 LCH983098:LCH983131 LMD983098:LMD983131 LVZ983098:LVZ983131 MFV983098:MFV983131 MPR983098:MPR983131 MZN983098:MZN983131 NJJ983098:NJJ983131 NTF983098:NTF983131 ODB983098:ODB983131 OMX983098:OMX983131 OWT983098:OWT983131 PGP983098:PGP983131 PQL983098:PQL983131 QAH983098:QAH983131 QKD983098:QKD983131 QTZ983098:QTZ983131 RDV983098:RDV983131 RNR983098:RNR983131 RXN983098:RXN983131 SHJ983098:SHJ983131 SRF983098:SRF983131 TBB983098:TBB983131 TKX983098:TKX983131 TUT983098:TUT983131 UEP983098:UEP983131 UOL983098:UOL983131 UYH983098:UYH983131 VID983098:VID983131 VRZ983098:VRZ983131 WBV983098:WBV983131 WLR983098:WLR983131 WVN983098:WVN983131 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F768" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65601:F65634 JB65601:JB65634 SX65601:SX65634 ACT65601:ACT65634 AMP65601:AMP65634 AWL65601:AWL65634 BGH65601:BGH65634 BQD65601:BQD65634 BZZ65601:BZZ65634 CJV65601:CJV65634 CTR65601:CTR65634 DDN65601:DDN65634 DNJ65601:DNJ65634 DXF65601:DXF65634 EHB65601:EHB65634 EQX65601:EQX65634 FAT65601:FAT65634 FKP65601:FKP65634 FUL65601:FUL65634 GEH65601:GEH65634 GOD65601:GOD65634 GXZ65601:GXZ65634 HHV65601:HHV65634 HRR65601:HRR65634 IBN65601:IBN65634 ILJ65601:ILJ65634 IVF65601:IVF65634 JFB65601:JFB65634 JOX65601:JOX65634 JYT65601:JYT65634 KIP65601:KIP65634 KSL65601:KSL65634 LCH65601:LCH65634 LMD65601:LMD65634 LVZ65601:LVZ65634 MFV65601:MFV65634 MPR65601:MPR65634 MZN65601:MZN65634 NJJ65601:NJJ65634 NTF65601:NTF65634 ODB65601:ODB65634 OMX65601:OMX65634 OWT65601:OWT65634 PGP65601:PGP65634 PQL65601:PQL65634 QAH65601:QAH65634 QKD65601:QKD65634 QTZ65601:QTZ65634 RDV65601:RDV65634 RNR65601:RNR65634 RXN65601:RXN65634 SHJ65601:SHJ65634 SRF65601:SRF65634 TBB65601:TBB65634 TKX65601:TKX65634 TUT65601:TUT65634 UEP65601:UEP65634 UOL65601:UOL65634 UYH65601:UYH65634 VID65601:VID65634 VRZ65601:VRZ65634 WBV65601:WBV65634 WLR65601:WLR65634 WVN65601:WVN65634 F131137:F131170 JB131137:JB131170 SX131137:SX131170 ACT131137:ACT131170 AMP131137:AMP131170 AWL131137:AWL131170 BGH131137:BGH131170 BQD131137:BQD131170 BZZ131137:BZZ131170 CJV131137:CJV131170 CTR131137:CTR131170 DDN131137:DDN131170 DNJ131137:DNJ131170 DXF131137:DXF131170 EHB131137:EHB131170 EQX131137:EQX131170 FAT131137:FAT131170 FKP131137:FKP131170 FUL131137:FUL131170 GEH131137:GEH131170 GOD131137:GOD131170 GXZ131137:GXZ131170 HHV131137:HHV131170 HRR131137:HRR131170 IBN131137:IBN131170 ILJ131137:ILJ131170 IVF131137:IVF131170 JFB131137:JFB131170 JOX131137:JOX131170 JYT131137:JYT131170 KIP131137:KIP131170 KSL131137:KSL131170 LCH131137:LCH131170 LMD131137:LMD131170 LVZ131137:LVZ131170 MFV131137:MFV131170 MPR131137:MPR131170 MZN131137:MZN131170 NJJ131137:NJJ131170 NTF131137:NTF131170 ODB131137:ODB131170 OMX131137:OMX131170 OWT131137:OWT131170 PGP131137:PGP131170 PQL131137:PQL131170 QAH131137:QAH131170 QKD131137:QKD131170 QTZ131137:QTZ131170 RDV131137:RDV131170 RNR131137:RNR131170 RXN131137:RXN131170 SHJ131137:SHJ131170 SRF131137:SRF131170 TBB131137:TBB131170 TKX131137:TKX131170 TUT131137:TUT131170 UEP131137:UEP131170 UOL131137:UOL131170 UYH131137:UYH131170 VID131137:VID131170 VRZ131137:VRZ131170 WBV131137:WBV131170 WLR131137:WLR131170 WVN131137:WVN131170 F196673:F196706 JB196673:JB196706 SX196673:SX196706 ACT196673:ACT196706 AMP196673:AMP196706 AWL196673:AWL196706 BGH196673:BGH196706 BQD196673:BQD196706 BZZ196673:BZZ196706 CJV196673:CJV196706 CTR196673:CTR196706 DDN196673:DDN196706 DNJ196673:DNJ196706 DXF196673:DXF196706 EHB196673:EHB196706 EQX196673:EQX196706 FAT196673:FAT196706 FKP196673:FKP196706 FUL196673:FUL196706 GEH196673:GEH196706 GOD196673:GOD196706 GXZ196673:GXZ196706 HHV196673:HHV196706 HRR196673:HRR196706 IBN196673:IBN196706 ILJ196673:ILJ196706 IVF196673:IVF196706 JFB196673:JFB196706 JOX196673:JOX196706 JYT196673:JYT196706 KIP196673:KIP196706 KSL196673:KSL196706 LCH196673:LCH196706 LMD196673:LMD196706 LVZ196673:LVZ196706 MFV196673:MFV196706 MPR196673:MPR196706 MZN196673:MZN196706 NJJ196673:NJJ196706 NTF196673:NTF196706 ODB196673:ODB196706 OMX196673:OMX196706 OWT196673:OWT196706 PGP196673:PGP196706 PQL196673:PQL196706 QAH196673:QAH196706 QKD196673:QKD196706 QTZ196673:QTZ196706 RDV196673:RDV196706 RNR196673:RNR196706 RXN196673:RXN196706 SHJ196673:SHJ196706 SRF196673:SRF196706 TBB196673:TBB196706 TKX196673:TKX196706 TUT196673:TUT196706 UEP196673:UEP196706 UOL196673:UOL196706 UYH196673:UYH196706 VID196673:VID196706 VRZ196673:VRZ196706 WBV196673:WBV196706 WLR196673:WLR196706 WVN196673:WVN196706 F262209:F262242 JB262209:JB262242 SX262209:SX262242 ACT262209:ACT262242 AMP262209:AMP262242 AWL262209:AWL262242 BGH262209:BGH262242 BQD262209:BQD262242 BZZ262209:BZZ262242 CJV262209:CJV262242 CTR262209:CTR262242 DDN262209:DDN262242 DNJ262209:DNJ262242 DXF262209:DXF262242 EHB262209:EHB262242 EQX262209:EQX262242 FAT262209:FAT262242 FKP262209:FKP262242 FUL262209:FUL262242 GEH262209:GEH262242 GOD262209:GOD262242 GXZ262209:GXZ262242 HHV262209:HHV262242 HRR262209:HRR262242 IBN262209:IBN262242 ILJ262209:ILJ262242 IVF262209:IVF262242 JFB262209:JFB262242 JOX262209:JOX262242 JYT262209:JYT262242 KIP262209:KIP262242 KSL262209:KSL262242 LCH262209:LCH262242 LMD262209:LMD262242 LVZ262209:LVZ262242 MFV262209:MFV262242 MPR262209:MPR262242 MZN262209:MZN262242 NJJ262209:NJJ262242 NTF262209:NTF262242 ODB262209:ODB262242 OMX262209:OMX262242 OWT262209:OWT262242 PGP262209:PGP262242 PQL262209:PQL262242 QAH262209:QAH262242 QKD262209:QKD262242 QTZ262209:QTZ262242 RDV262209:RDV262242 RNR262209:RNR262242 RXN262209:RXN262242 SHJ262209:SHJ262242 SRF262209:SRF262242 TBB262209:TBB262242 TKX262209:TKX262242 TUT262209:TUT262242 UEP262209:UEP262242 UOL262209:UOL262242 UYH262209:UYH262242 VID262209:VID262242 VRZ262209:VRZ262242 WBV262209:WBV262242 WLR262209:WLR262242 WVN262209:WVN262242 F327745:F327778 JB327745:JB327778 SX327745:SX327778 ACT327745:ACT327778 AMP327745:AMP327778 AWL327745:AWL327778 BGH327745:BGH327778 BQD327745:BQD327778 BZZ327745:BZZ327778 CJV327745:CJV327778 CTR327745:CTR327778 DDN327745:DDN327778 DNJ327745:DNJ327778 DXF327745:DXF327778 EHB327745:EHB327778 EQX327745:EQX327778 FAT327745:FAT327778 FKP327745:FKP327778 FUL327745:FUL327778 GEH327745:GEH327778 GOD327745:GOD327778 GXZ327745:GXZ327778 HHV327745:HHV327778 HRR327745:HRR327778 IBN327745:IBN327778 ILJ327745:ILJ327778 IVF327745:IVF327778 JFB327745:JFB327778 JOX327745:JOX327778 JYT327745:JYT327778 KIP327745:KIP327778 KSL327745:KSL327778 LCH327745:LCH327778 LMD327745:LMD327778 LVZ327745:LVZ327778 MFV327745:MFV327778 MPR327745:MPR327778 MZN327745:MZN327778 NJJ327745:NJJ327778 NTF327745:NTF327778 ODB327745:ODB327778 OMX327745:OMX327778 OWT327745:OWT327778 PGP327745:PGP327778 PQL327745:PQL327778 QAH327745:QAH327778 QKD327745:QKD327778 QTZ327745:QTZ327778 RDV327745:RDV327778 RNR327745:RNR327778 RXN327745:RXN327778 SHJ327745:SHJ327778 SRF327745:SRF327778 TBB327745:TBB327778 TKX327745:TKX327778 TUT327745:TUT327778 UEP327745:UEP327778 UOL327745:UOL327778 UYH327745:UYH327778 VID327745:VID327778 VRZ327745:VRZ327778 WBV327745:WBV327778 WLR327745:WLR327778 WVN327745:WVN327778 F393281:F393314 JB393281:JB393314 SX393281:SX393314 ACT393281:ACT393314 AMP393281:AMP393314 AWL393281:AWL393314 BGH393281:BGH393314 BQD393281:BQD393314 BZZ393281:BZZ393314 CJV393281:CJV393314 CTR393281:CTR393314 DDN393281:DDN393314 DNJ393281:DNJ393314 DXF393281:DXF393314 EHB393281:EHB393314 EQX393281:EQX393314 FAT393281:FAT393314 FKP393281:FKP393314 FUL393281:FUL393314 GEH393281:GEH393314 GOD393281:GOD393314 GXZ393281:GXZ393314 HHV393281:HHV393314 HRR393281:HRR393314 IBN393281:IBN393314 ILJ393281:ILJ393314 IVF393281:IVF393314 JFB393281:JFB393314 JOX393281:JOX393314 JYT393281:JYT393314 KIP393281:KIP393314 KSL393281:KSL393314 LCH393281:LCH393314 LMD393281:LMD393314 LVZ393281:LVZ393314 MFV393281:MFV393314 MPR393281:MPR393314 MZN393281:MZN393314 NJJ393281:NJJ393314 NTF393281:NTF393314 ODB393281:ODB393314 OMX393281:OMX393314 OWT393281:OWT393314 PGP393281:PGP393314 PQL393281:PQL393314 QAH393281:QAH393314 QKD393281:QKD393314 QTZ393281:QTZ393314 RDV393281:RDV393314 RNR393281:RNR393314 RXN393281:RXN393314 SHJ393281:SHJ393314 SRF393281:SRF393314 TBB393281:TBB393314 TKX393281:TKX393314 TUT393281:TUT393314 UEP393281:UEP393314 UOL393281:UOL393314 UYH393281:UYH393314 VID393281:VID393314 VRZ393281:VRZ393314 WBV393281:WBV393314 WLR393281:WLR393314 WVN393281:WVN393314 F458817:F458850 JB458817:JB458850 SX458817:SX458850 ACT458817:ACT458850 AMP458817:AMP458850 AWL458817:AWL458850 BGH458817:BGH458850 BQD458817:BQD458850 BZZ458817:BZZ458850 CJV458817:CJV458850 CTR458817:CTR458850 DDN458817:DDN458850 DNJ458817:DNJ458850 DXF458817:DXF458850 EHB458817:EHB458850 EQX458817:EQX458850 FAT458817:FAT458850 FKP458817:FKP458850 FUL458817:FUL458850 GEH458817:GEH458850 GOD458817:GOD458850 GXZ458817:GXZ458850 HHV458817:HHV458850 HRR458817:HRR458850 IBN458817:IBN458850 ILJ458817:ILJ458850 IVF458817:IVF458850 JFB458817:JFB458850 JOX458817:JOX458850 JYT458817:JYT458850 KIP458817:KIP458850 KSL458817:KSL458850 LCH458817:LCH458850 LMD458817:LMD458850 LVZ458817:LVZ458850 MFV458817:MFV458850 MPR458817:MPR458850 MZN458817:MZN458850 NJJ458817:NJJ458850 NTF458817:NTF458850 ODB458817:ODB458850 OMX458817:OMX458850 OWT458817:OWT458850 PGP458817:PGP458850 PQL458817:PQL458850 QAH458817:QAH458850 QKD458817:QKD458850 QTZ458817:QTZ458850 RDV458817:RDV458850 RNR458817:RNR458850 RXN458817:RXN458850 SHJ458817:SHJ458850 SRF458817:SRF458850 TBB458817:TBB458850 TKX458817:TKX458850 TUT458817:TUT458850 UEP458817:UEP458850 UOL458817:UOL458850 UYH458817:UYH458850 VID458817:VID458850 VRZ458817:VRZ458850 WBV458817:WBV458850 WLR458817:WLR458850 WVN458817:WVN458850 F524353:F524386 JB524353:JB524386 SX524353:SX524386 ACT524353:ACT524386 AMP524353:AMP524386 AWL524353:AWL524386 BGH524353:BGH524386 BQD524353:BQD524386 BZZ524353:BZZ524386 CJV524353:CJV524386 CTR524353:CTR524386 DDN524353:DDN524386 DNJ524353:DNJ524386 DXF524353:DXF524386 EHB524353:EHB524386 EQX524353:EQX524386 FAT524353:FAT524386 FKP524353:FKP524386 FUL524353:FUL524386 GEH524353:GEH524386 GOD524353:GOD524386 GXZ524353:GXZ524386 HHV524353:HHV524386 HRR524353:HRR524386 IBN524353:IBN524386 ILJ524353:ILJ524386 IVF524353:IVF524386 JFB524353:JFB524386 JOX524353:JOX524386 JYT524353:JYT524386 KIP524353:KIP524386 KSL524353:KSL524386 LCH524353:LCH524386 LMD524353:LMD524386 LVZ524353:LVZ524386 MFV524353:MFV524386 MPR524353:MPR524386 MZN524353:MZN524386 NJJ524353:NJJ524386 NTF524353:NTF524386 ODB524353:ODB524386 OMX524353:OMX524386 OWT524353:OWT524386 PGP524353:PGP524386 PQL524353:PQL524386 QAH524353:QAH524386 QKD524353:QKD524386 QTZ524353:QTZ524386 RDV524353:RDV524386 RNR524353:RNR524386 RXN524353:RXN524386 SHJ524353:SHJ524386 SRF524353:SRF524386 TBB524353:TBB524386 TKX524353:TKX524386 TUT524353:TUT524386 UEP524353:UEP524386 UOL524353:UOL524386 UYH524353:UYH524386 VID524353:VID524386 VRZ524353:VRZ524386 WBV524353:WBV524386 WLR524353:WLR524386 WVN524353:WVN524386 F589889:F589922 JB589889:JB589922 SX589889:SX589922 ACT589889:ACT589922 AMP589889:AMP589922 AWL589889:AWL589922 BGH589889:BGH589922 BQD589889:BQD589922 BZZ589889:BZZ589922 CJV589889:CJV589922 CTR589889:CTR589922 DDN589889:DDN589922 DNJ589889:DNJ589922 DXF589889:DXF589922 EHB589889:EHB589922 EQX589889:EQX589922 FAT589889:FAT589922 FKP589889:FKP589922 FUL589889:FUL589922 GEH589889:GEH589922 GOD589889:GOD589922 GXZ589889:GXZ589922 HHV589889:HHV589922 HRR589889:HRR589922 IBN589889:IBN589922 ILJ589889:ILJ589922 IVF589889:IVF589922 JFB589889:JFB589922 JOX589889:JOX589922 JYT589889:JYT589922 KIP589889:KIP589922 KSL589889:KSL589922 LCH589889:LCH589922 LMD589889:LMD589922 LVZ589889:LVZ589922 MFV589889:MFV589922 MPR589889:MPR589922 MZN589889:MZN589922 NJJ589889:NJJ589922 NTF589889:NTF589922 ODB589889:ODB589922 OMX589889:OMX589922 OWT589889:OWT589922 PGP589889:PGP589922 PQL589889:PQL589922 QAH589889:QAH589922 QKD589889:QKD589922 QTZ589889:QTZ589922 RDV589889:RDV589922 RNR589889:RNR589922 RXN589889:RXN589922 SHJ589889:SHJ589922 SRF589889:SRF589922 TBB589889:TBB589922 TKX589889:TKX589922 TUT589889:TUT589922 UEP589889:UEP589922 UOL589889:UOL589922 UYH589889:UYH589922 VID589889:VID589922 VRZ589889:VRZ589922 WBV589889:WBV589922 WLR589889:WLR589922 WVN589889:WVN589922 F655425:F655458 JB655425:JB655458 SX655425:SX655458 ACT655425:ACT655458 AMP655425:AMP655458 AWL655425:AWL655458 BGH655425:BGH655458 BQD655425:BQD655458 BZZ655425:BZZ655458 CJV655425:CJV655458 CTR655425:CTR655458 DDN655425:DDN655458 DNJ655425:DNJ655458 DXF655425:DXF655458 EHB655425:EHB655458 EQX655425:EQX655458 FAT655425:FAT655458 FKP655425:FKP655458 FUL655425:FUL655458 GEH655425:GEH655458 GOD655425:GOD655458 GXZ655425:GXZ655458 HHV655425:HHV655458 HRR655425:HRR655458 IBN655425:IBN655458 ILJ655425:ILJ655458 IVF655425:IVF655458 JFB655425:JFB655458 JOX655425:JOX655458 JYT655425:JYT655458 KIP655425:KIP655458 KSL655425:KSL655458 LCH655425:LCH655458 LMD655425:LMD655458 LVZ655425:LVZ655458 MFV655425:MFV655458 MPR655425:MPR655458 MZN655425:MZN655458 NJJ655425:NJJ655458 NTF655425:NTF655458 ODB655425:ODB655458 OMX655425:OMX655458 OWT655425:OWT655458 PGP655425:PGP655458 PQL655425:PQL655458 QAH655425:QAH655458 QKD655425:QKD655458 QTZ655425:QTZ655458 RDV655425:RDV655458 RNR655425:RNR655458 RXN655425:RXN655458 SHJ655425:SHJ655458 SRF655425:SRF655458 TBB655425:TBB655458 TKX655425:TKX655458 TUT655425:TUT655458 UEP655425:UEP655458 UOL655425:UOL655458 UYH655425:UYH655458 VID655425:VID655458 VRZ655425:VRZ655458 WBV655425:WBV655458 WLR655425:WLR655458 WVN655425:WVN655458 F720961:F720994 JB720961:JB720994 SX720961:SX720994 ACT720961:ACT720994 AMP720961:AMP720994 AWL720961:AWL720994 BGH720961:BGH720994 BQD720961:BQD720994 BZZ720961:BZZ720994 CJV720961:CJV720994 CTR720961:CTR720994 DDN720961:DDN720994 DNJ720961:DNJ720994 DXF720961:DXF720994 EHB720961:EHB720994 EQX720961:EQX720994 FAT720961:FAT720994 FKP720961:FKP720994 FUL720961:FUL720994 GEH720961:GEH720994 GOD720961:GOD720994 GXZ720961:GXZ720994 HHV720961:HHV720994 HRR720961:HRR720994 IBN720961:IBN720994 ILJ720961:ILJ720994 IVF720961:IVF720994 JFB720961:JFB720994 JOX720961:JOX720994 JYT720961:JYT720994 KIP720961:KIP720994 KSL720961:KSL720994 LCH720961:LCH720994 LMD720961:LMD720994 LVZ720961:LVZ720994 MFV720961:MFV720994 MPR720961:MPR720994 MZN720961:MZN720994 NJJ720961:NJJ720994 NTF720961:NTF720994 ODB720961:ODB720994 OMX720961:OMX720994 OWT720961:OWT720994 PGP720961:PGP720994 PQL720961:PQL720994 QAH720961:QAH720994 QKD720961:QKD720994 QTZ720961:QTZ720994 RDV720961:RDV720994 RNR720961:RNR720994 RXN720961:RXN720994 SHJ720961:SHJ720994 SRF720961:SRF720994 TBB720961:TBB720994 TKX720961:TKX720994 TUT720961:TUT720994 UEP720961:UEP720994 UOL720961:UOL720994 UYH720961:UYH720994 VID720961:VID720994 VRZ720961:VRZ720994 WBV720961:WBV720994 WLR720961:WLR720994 WVN720961:WVN720994 F786497:F786530 JB786497:JB786530 SX786497:SX786530 ACT786497:ACT786530 AMP786497:AMP786530 AWL786497:AWL786530 BGH786497:BGH786530 BQD786497:BQD786530 BZZ786497:BZZ786530 CJV786497:CJV786530 CTR786497:CTR786530 DDN786497:DDN786530 DNJ786497:DNJ786530 DXF786497:DXF786530 EHB786497:EHB786530 EQX786497:EQX786530 FAT786497:FAT786530 FKP786497:FKP786530 FUL786497:FUL786530 GEH786497:GEH786530 GOD786497:GOD786530 GXZ786497:GXZ786530 HHV786497:HHV786530 HRR786497:HRR786530 IBN786497:IBN786530 ILJ786497:ILJ786530 IVF786497:IVF786530 JFB786497:JFB786530 JOX786497:JOX786530 JYT786497:JYT786530 KIP786497:KIP786530 KSL786497:KSL786530 LCH786497:LCH786530 LMD786497:LMD786530 LVZ786497:LVZ786530 MFV786497:MFV786530 MPR786497:MPR786530 MZN786497:MZN786530 NJJ786497:NJJ786530 NTF786497:NTF786530 ODB786497:ODB786530 OMX786497:OMX786530 OWT786497:OWT786530 PGP786497:PGP786530 PQL786497:PQL786530 QAH786497:QAH786530 QKD786497:QKD786530 QTZ786497:QTZ786530 RDV786497:RDV786530 RNR786497:RNR786530 RXN786497:RXN786530 SHJ786497:SHJ786530 SRF786497:SRF786530 TBB786497:TBB786530 TKX786497:TKX786530 TUT786497:TUT786530 UEP786497:UEP786530 UOL786497:UOL786530 UYH786497:UYH786530 VID786497:VID786530 VRZ786497:VRZ786530 WBV786497:WBV786530 WLR786497:WLR786530 WVN786497:WVN786530 F852033:F852066 JB852033:JB852066 SX852033:SX852066 ACT852033:ACT852066 AMP852033:AMP852066 AWL852033:AWL852066 BGH852033:BGH852066 BQD852033:BQD852066 BZZ852033:BZZ852066 CJV852033:CJV852066 CTR852033:CTR852066 DDN852033:DDN852066 DNJ852033:DNJ852066 DXF852033:DXF852066 EHB852033:EHB852066 EQX852033:EQX852066 FAT852033:FAT852066 FKP852033:FKP852066 FUL852033:FUL852066 GEH852033:GEH852066 GOD852033:GOD852066 GXZ852033:GXZ852066 HHV852033:HHV852066 HRR852033:HRR852066 IBN852033:IBN852066 ILJ852033:ILJ852066 IVF852033:IVF852066 JFB852033:JFB852066 JOX852033:JOX852066 JYT852033:JYT852066 KIP852033:KIP852066 KSL852033:KSL852066 LCH852033:LCH852066 LMD852033:LMD852066 LVZ852033:LVZ852066 MFV852033:MFV852066 MPR852033:MPR852066 MZN852033:MZN852066 NJJ852033:NJJ852066 NTF852033:NTF852066 ODB852033:ODB852066 OMX852033:OMX852066 OWT852033:OWT852066 PGP852033:PGP852066 PQL852033:PQL852066 QAH852033:QAH852066 QKD852033:QKD852066 QTZ852033:QTZ852066 RDV852033:RDV852066 RNR852033:RNR852066 RXN852033:RXN852066 SHJ852033:SHJ852066 SRF852033:SRF852066 TBB852033:TBB852066 TKX852033:TKX852066 TUT852033:TUT852066 UEP852033:UEP852066 UOL852033:UOL852066 UYH852033:UYH852066 VID852033:VID852066 VRZ852033:VRZ852066 WBV852033:WBV852066 WLR852033:WLR852066 WVN852033:WVN852066 F917569:F917602 JB917569:JB917602 SX917569:SX917602 ACT917569:ACT917602 AMP917569:AMP917602 AWL917569:AWL917602 BGH917569:BGH917602 BQD917569:BQD917602 BZZ917569:BZZ917602 CJV917569:CJV917602 CTR917569:CTR917602 DDN917569:DDN917602 DNJ917569:DNJ917602 DXF917569:DXF917602 EHB917569:EHB917602 EQX917569:EQX917602 FAT917569:FAT917602 FKP917569:FKP917602 FUL917569:FUL917602 GEH917569:GEH917602 GOD917569:GOD917602 GXZ917569:GXZ917602 HHV917569:HHV917602 HRR917569:HRR917602 IBN917569:IBN917602 ILJ917569:ILJ917602 IVF917569:IVF917602 JFB917569:JFB917602 JOX917569:JOX917602 JYT917569:JYT917602 KIP917569:KIP917602 KSL917569:KSL917602 LCH917569:LCH917602 LMD917569:LMD917602 LVZ917569:LVZ917602 MFV917569:MFV917602 MPR917569:MPR917602 MZN917569:MZN917602 NJJ917569:NJJ917602 NTF917569:NTF917602 ODB917569:ODB917602 OMX917569:OMX917602 OWT917569:OWT917602 PGP917569:PGP917602 PQL917569:PQL917602 QAH917569:QAH917602 QKD917569:QKD917602 QTZ917569:QTZ917602 RDV917569:RDV917602 RNR917569:RNR917602 RXN917569:RXN917602 SHJ917569:SHJ917602 SRF917569:SRF917602 TBB917569:TBB917602 TKX917569:TKX917602 TUT917569:TUT917602 UEP917569:UEP917602 UOL917569:UOL917602 UYH917569:UYH917602 VID917569:VID917602 VRZ917569:VRZ917602 WBV917569:WBV917602 WLR917569:WLR917602 WVN917569:WVN917602 F983105:F983138 JB983105:JB983138 SX983105:SX983138 ACT983105:ACT983138 AMP983105:AMP983138 AWL983105:AWL983138 BGH983105:BGH983138 BQD983105:BQD983138 BZZ983105:BZZ983138 CJV983105:CJV983138 CTR983105:CTR983138 DDN983105:DDN983138 DNJ983105:DNJ983138 DXF983105:DXF983138 EHB983105:EHB983138 EQX983105:EQX983138 FAT983105:FAT983138 FKP983105:FKP983138 FUL983105:FUL983138 GEH983105:GEH983138 GOD983105:GOD983138 GXZ983105:GXZ983138 HHV983105:HHV983138 HRR983105:HRR983138 IBN983105:IBN983138 ILJ983105:ILJ983138 IVF983105:IVF983138 JFB983105:JFB983138 JOX983105:JOX983138 JYT983105:JYT983138 KIP983105:KIP983138 KSL983105:KSL983138 LCH983105:LCH983138 LMD983105:LMD983138 LVZ983105:LVZ983138 MFV983105:MFV983138 MPR983105:MPR983138 MZN983105:MZN983138 NJJ983105:NJJ983138 NTF983105:NTF983138 ODB983105:ODB983138 OMX983105:OMX983138 OWT983105:OWT983138 PGP983105:PGP983138 PQL983105:PQL983138 QAH983105:QAH983138 QKD983105:QKD983138 QTZ983105:QTZ983138 RDV983105:RDV983138 RNR983105:RNR983138 RXN983105:RXN983138 SHJ983105:SHJ983138 SRF983105:SRF983138 TBB983105:TBB983138 TKX983105:TKX983138 TUT983105:TUT983138 UEP983105:UEP983138 UOL983105:UOL983138 UYH983105:UYH983138 VID983105:VID983138 VRZ983105:VRZ983138 WBV983105:WBV983138 WLR983105:WLR983138 WVN983105:WVN983138 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F775" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65594:H65627 JD65594:JD65627 SZ65594:SZ65627 ACV65594:ACV65627 AMR65594:AMR65627 AWN65594:AWN65627 BGJ65594:BGJ65627 BQF65594:BQF65627 CAB65594:CAB65627 CJX65594:CJX65627 CTT65594:CTT65627 DDP65594:DDP65627 DNL65594:DNL65627 DXH65594:DXH65627 EHD65594:EHD65627 EQZ65594:EQZ65627 FAV65594:FAV65627 FKR65594:FKR65627 FUN65594:FUN65627 GEJ65594:GEJ65627 GOF65594:GOF65627 GYB65594:GYB65627 HHX65594:HHX65627 HRT65594:HRT65627 IBP65594:IBP65627 ILL65594:ILL65627 IVH65594:IVH65627 JFD65594:JFD65627 JOZ65594:JOZ65627 JYV65594:JYV65627 KIR65594:KIR65627 KSN65594:KSN65627 LCJ65594:LCJ65627 LMF65594:LMF65627 LWB65594:LWB65627 MFX65594:MFX65627 MPT65594:MPT65627 MZP65594:MZP65627 NJL65594:NJL65627 NTH65594:NTH65627 ODD65594:ODD65627 OMZ65594:OMZ65627 OWV65594:OWV65627 PGR65594:PGR65627 PQN65594:PQN65627 QAJ65594:QAJ65627 QKF65594:QKF65627 QUB65594:QUB65627 RDX65594:RDX65627 RNT65594:RNT65627 RXP65594:RXP65627 SHL65594:SHL65627 SRH65594:SRH65627 TBD65594:TBD65627 TKZ65594:TKZ65627 TUV65594:TUV65627 UER65594:UER65627 UON65594:UON65627 UYJ65594:UYJ65627 VIF65594:VIF65627 VSB65594:VSB65627 WBX65594:WBX65627 WLT65594:WLT65627 WVP65594:WVP65627 H131130:H131163 JD131130:JD131163 SZ131130:SZ131163 ACV131130:ACV131163 AMR131130:AMR131163 AWN131130:AWN131163 BGJ131130:BGJ131163 BQF131130:BQF131163 CAB131130:CAB131163 CJX131130:CJX131163 CTT131130:CTT131163 DDP131130:DDP131163 DNL131130:DNL131163 DXH131130:DXH131163 EHD131130:EHD131163 EQZ131130:EQZ131163 FAV131130:FAV131163 FKR131130:FKR131163 FUN131130:FUN131163 GEJ131130:GEJ131163 GOF131130:GOF131163 GYB131130:GYB131163 HHX131130:HHX131163 HRT131130:HRT131163 IBP131130:IBP131163 ILL131130:ILL131163 IVH131130:IVH131163 JFD131130:JFD131163 JOZ131130:JOZ131163 JYV131130:JYV131163 KIR131130:KIR131163 KSN131130:KSN131163 LCJ131130:LCJ131163 LMF131130:LMF131163 LWB131130:LWB131163 MFX131130:MFX131163 MPT131130:MPT131163 MZP131130:MZP131163 NJL131130:NJL131163 NTH131130:NTH131163 ODD131130:ODD131163 OMZ131130:OMZ131163 OWV131130:OWV131163 PGR131130:PGR131163 PQN131130:PQN131163 QAJ131130:QAJ131163 QKF131130:QKF131163 QUB131130:QUB131163 RDX131130:RDX131163 RNT131130:RNT131163 RXP131130:RXP131163 SHL131130:SHL131163 SRH131130:SRH131163 TBD131130:TBD131163 TKZ131130:TKZ131163 TUV131130:TUV131163 UER131130:UER131163 UON131130:UON131163 UYJ131130:UYJ131163 VIF131130:VIF131163 VSB131130:VSB131163 WBX131130:WBX131163 WLT131130:WLT131163 WVP131130:WVP131163 H196666:H196699 JD196666:JD196699 SZ196666:SZ196699 ACV196666:ACV196699 AMR196666:AMR196699 AWN196666:AWN196699 BGJ196666:BGJ196699 BQF196666:BQF196699 CAB196666:CAB196699 CJX196666:CJX196699 CTT196666:CTT196699 DDP196666:DDP196699 DNL196666:DNL196699 DXH196666:DXH196699 EHD196666:EHD196699 EQZ196666:EQZ196699 FAV196666:FAV196699 FKR196666:FKR196699 FUN196666:FUN196699 GEJ196666:GEJ196699 GOF196666:GOF196699 GYB196666:GYB196699 HHX196666:HHX196699 HRT196666:HRT196699 IBP196666:IBP196699 ILL196666:ILL196699 IVH196666:IVH196699 JFD196666:JFD196699 JOZ196666:JOZ196699 JYV196666:JYV196699 KIR196666:KIR196699 KSN196666:KSN196699 LCJ196666:LCJ196699 LMF196666:LMF196699 LWB196666:LWB196699 MFX196666:MFX196699 MPT196666:MPT196699 MZP196666:MZP196699 NJL196666:NJL196699 NTH196666:NTH196699 ODD196666:ODD196699 OMZ196666:OMZ196699 OWV196666:OWV196699 PGR196666:PGR196699 PQN196666:PQN196699 QAJ196666:QAJ196699 QKF196666:QKF196699 QUB196666:QUB196699 RDX196666:RDX196699 RNT196666:RNT196699 RXP196666:RXP196699 SHL196666:SHL196699 SRH196666:SRH196699 TBD196666:TBD196699 TKZ196666:TKZ196699 TUV196666:TUV196699 UER196666:UER196699 UON196666:UON196699 UYJ196666:UYJ196699 VIF196666:VIF196699 VSB196666:VSB196699 WBX196666:WBX196699 WLT196666:WLT196699 WVP196666:WVP196699 H262202:H262235 JD262202:JD262235 SZ262202:SZ262235 ACV262202:ACV262235 AMR262202:AMR262235 AWN262202:AWN262235 BGJ262202:BGJ262235 BQF262202:BQF262235 CAB262202:CAB262235 CJX262202:CJX262235 CTT262202:CTT262235 DDP262202:DDP262235 DNL262202:DNL262235 DXH262202:DXH262235 EHD262202:EHD262235 EQZ262202:EQZ262235 FAV262202:FAV262235 FKR262202:FKR262235 FUN262202:FUN262235 GEJ262202:GEJ262235 GOF262202:GOF262235 GYB262202:GYB262235 HHX262202:HHX262235 HRT262202:HRT262235 IBP262202:IBP262235 ILL262202:ILL262235 IVH262202:IVH262235 JFD262202:JFD262235 JOZ262202:JOZ262235 JYV262202:JYV262235 KIR262202:KIR262235 KSN262202:KSN262235 LCJ262202:LCJ262235 LMF262202:LMF262235 LWB262202:LWB262235 MFX262202:MFX262235 MPT262202:MPT262235 MZP262202:MZP262235 NJL262202:NJL262235 NTH262202:NTH262235 ODD262202:ODD262235 OMZ262202:OMZ262235 OWV262202:OWV262235 PGR262202:PGR262235 PQN262202:PQN262235 QAJ262202:QAJ262235 QKF262202:QKF262235 QUB262202:QUB262235 RDX262202:RDX262235 RNT262202:RNT262235 RXP262202:RXP262235 SHL262202:SHL262235 SRH262202:SRH262235 TBD262202:TBD262235 TKZ262202:TKZ262235 TUV262202:TUV262235 UER262202:UER262235 UON262202:UON262235 UYJ262202:UYJ262235 VIF262202:VIF262235 VSB262202:VSB262235 WBX262202:WBX262235 WLT262202:WLT262235 WVP262202:WVP262235 H327738:H327771 JD327738:JD327771 SZ327738:SZ327771 ACV327738:ACV327771 AMR327738:AMR327771 AWN327738:AWN327771 BGJ327738:BGJ327771 BQF327738:BQF327771 CAB327738:CAB327771 CJX327738:CJX327771 CTT327738:CTT327771 DDP327738:DDP327771 DNL327738:DNL327771 DXH327738:DXH327771 EHD327738:EHD327771 EQZ327738:EQZ327771 FAV327738:FAV327771 FKR327738:FKR327771 FUN327738:FUN327771 GEJ327738:GEJ327771 GOF327738:GOF327771 GYB327738:GYB327771 HHX327738:HHX327771 HRT327738:HRT327771 IBP327738:IBP327771 ILL327738:ILL327771 IVH327738:IVH327771 JFD327738:JFD327771 JOZ327738:JOZ327771 JYV327738:JYV327771 KIR327738:KIR327771 KSN327738:KSN327771 LCJ327738:LCJ327771 LMF327738:LMF327771 LWB327738:LWB327771 MFX327738:MFX327771 MPT327738:MPT327771 MZP327738:MZP327771 NJL327738:NJL327771 NTH327738:NTH327771 ODD327738:ODD327771 OMZ327738:OMZ327771 OWV327738:OWV327771 PGR327738:PGR327771 PQN327738:PQN327771 QAJ327738:QAJ327771 QKF327738:QKF327771 QUB327738:QUB327771 RDX327738:RDX327771 RNT327738:RNT327771 RXP327738:RXP327771 SHL327738:SHL327771 SRH327738:SRH327771 TBD327738:TBD327771 TKZ327738:TKZ327771 TUV327738:TUV327771 UER327738:UER327771 UON327738:UON327771 UYJ327738:UYJ327771 VIF327738:VIF327771 VSB327738:VSB327771 WBX327738:WBX327771 WLT327738:WLT327771 WVP327738:WVP327771 H393274:H393307 JD393274:JD393307 SZ393274:SZ393307 ACV393274:ACV393307 AMR393274:AMR393307 AWN393274:AWN393307 BGJ393274:BGJ393307 BQF393274:BQF393307 CAB393274:CAB393307 CJX393274:CJX393307 CTT393274:CTT393307 DDP393274:DDP393307 DNL393274:DNL393307 DXH393274:DXH393307 EHD393274:EHD393307 EQZ393274:EQZ393307 FAV393274:FAV393307 FKR393274:FKR393307 FUN393274:FUN393307 GEJ393274:GEJ393307 GOF393274:GOF393307 GYB393274:GYB393307 HHX393274:HHX393307 HRT393274:HRT393307 IBP393274:IBP393307 ILL393274:ILL393307 IVH393274:IVH393307 JFD393274:JFD393307 JOZ393274:JOZ393307 JYV393274:JYV393307 KIR393274:KIR393307 KSN393274:KSN393307 LCJ393274:LCJ393307 LMF393274:LMF393307 LWB393274:LWB393307 MFX393274:MFX393307 MPT393274:MPT393307 MZP393274:MZP393307 NJL393274:NJL393307 NTH393274:NTH393307 ODD393274:ODD393307 OMZ393274:OMZ393307 OWV393274:OWV393307 PGR393274:PGR393307 PQN393274:PQN393307 QAJ393274:QAJ393307 QKF393274:QKF393307 QUB393274:QUB393307 RDX393274:RDX393307 RNT393274:RNT393307 RXP393274:RXP393307 SHL393274:SHL393307 SRH393274:SRH393307 TBD393274:TBD393307 TKZ393274:TKZ393307 TUV393274:TUV393307 UER393274:UER393307 UON393274:UON393307 UYJ393274:UYJ393307 VIF393274:VIF393307 VSB393274:VSB393307 WBX393274:WBX393307 WLT393274:WLT393307 WVP393274:WVP393307 H458810:H458843 JD458810:JD458843 SZ458810:SZ458843 ACV458810:ACV458843 AMR458810:AMR458843 AWN458810:AWN458843 BGJ458810:BGJ458843 BQF458810:BQF458843 CAB458810:CAB458843 CJX458810:CJX458843 CTT458810:CTT458843 DDP458810:DDP458843 DNL458810:DNL458843 DXH458810:DXH458843 EHD458810:EHD458843 EQZ458810:EQZ458843 FAV458810:FAV458843 FKR458810:FKR458843 FUN458810:FUN458843 GEJ458810:GEJ458843 GOF458810:GOF458843 GYB458810:GYB458843 HHX458810:HHX458843 HRT458810:HRT458843 IBP458810:IBP458843 ILL458810:ILL458843 IVH458810:IVH458843 JFD458810:JFD458843 JOZ458810:JOZ458843 JYV458810:JYV458843 KIR458810:KIR458843 KSN458810:KSN458843 LCJ458810:LCJ458843 LMF458810:LMF458843 LWB458810:LWB458843 MFX458810:MFX458843 MPT458810:MPT458843 MZP458810:MZP458843 NJL458810:NJL458843 NTH458810:NTH458843 ODD458810:ODD458843 OMZ458810:OMZ458843 OWV458810:OWV458843 PGR458810:PGR458843 PQN458810:PQN458843 QAJ458810:QAJ458843 QKF458810:QKF458843 QUB458810:QUB458843 RDX458810:RDX458843 RNT458810:RNT458843 RXP458810:RXP458843 SHL458810:SHL458843 SRH458810:SRH458843 TBD458810:TBD458843 TKZ458810:TKZ458843 TUV458810:TUV458843 UER458810:UER458843 UON458810:UON458843 UYJ458810:UYJ458843 VIF458810:VIF458843 VSB458810:VSB458843 WBX458810:WBX458843 WLT458810:WLT458843 WVP458810:WVP458843 H524346:H524379 JD524346:JD524379 SZ524346:SZ524379 ACV524346:ACV524379 AMR524346:AMR524379 AWN524346:AWN524379 BGJ524346:BGJ524379 BQF524346:BQF524379 CAB524346:CAB524379 CJX524346:CJX524379 CTT524346:CTT524379 DDP524346:DDP524379 DNL524346:DNL524379 DXH524346:DXH524379 EHD524346:EHD524379 EQZ524346:EQZ524379 FAV524346:FAV524379 FKR524346:FKR524379 FUN524346:FUN524379 GEJ524346:GEJ524379 GOF524346:GOF524379 GYB524346:GYB524379 HHX524346:HHX524379 HRT524346:HRT524379 IBP524346:IBP524379 ILL524346:ILL524379 IVH524346:IVH524379 JFD524346:JFD524379 JOZ524346:JOZ524379 JYV524346:JYV524379 KIR524346:KIR524379 KSN524346:KSN524379 LCJ524346:LCJ524379 LMF524346:LMF524379 LWB524346:LWB524379 MFX524346:MFX524379 MPT524346:MPT524379 MZP524346:MZP524379 NJL524346:NJL524379 NTH524346:NTH524379 ODD524346:ODD524379 OMZ524346:OMZ524379 OWV524346:OWV524379 PGR524346:PGR524379 PQN524346:PQN524379 QAJ524346:QAJ524379 QKF524346:QKF524379 QUB524346:QUB524379 RDX524346:RDX524379 RNT524346:RNT524379 RXP524346:RXP524379 SHL524346:SHL524379 SRH524346:SRH524379 TBD524346:TBD524379 TKZ524346:TKZ524379 TUV524346:TUV524379 UER524346:UER524379 UON524346:UON524379 UYJ524346:UYJ524379 VIF524346:VIF524379 VSB524346:VSB524379 WBX524346:WBX524379 WLT524346:WLT524379 WVP524346:WVP524379 H589882:H589915 JD589882:JD589915 SZ589882:SZ589915 ACV589882:ACV589915 AMR589882:AMR589915 AWN589882:AWN589915 BGJ589882:BGJ589915 BQF589882:BQF589915 CAB589882:CAB589915 CJX589882:CJX589915 CTT589882:CTT589915 DDP589882:DDP589915 DNL589882:DNL589915 DXH589882:DXH589915 EHD589882:EHD589915 EQZ589882:EQZ589915 FAV589882:FAV589915 FKR589882:FKR589915 FUN589882:FUN589915 GEJ589882:GEJ589915 GOF589882:GOF589915 GYB589882:GYB589915 HHX589882:HHX589915 HRT589882:HRT589915 IBP589882:IBP589915 ILL589882:ILL589915 IVH589882:IVH589915 JFD589882:JFD589915 JOZ589882:JOZ589915 JYV589882:JYV589915 KIR589882:KIR589915 KSN589882:KSN589915 LCJ589882:LCJ589915 LMF589882:LMF589915 LWB589882:LWB589915 MFX589882:MFX589915 MPT589882:MPT589915 MZP589882:MZP589915 NJL589882:NJL589915 NTH589882:NTH589915 ODD589882:ODD589915 OMZ589882:OMZ589915 OWV589882:OWV589915 PGR589882:PGR589915 PQN589882:PQN589915 QAJ589882:QAJ589915 QKF589882:QKF589915 QUB589882:QUB589915 RDX589882:RDX589915 RNT589882:RNT589915 RXP589882:RXP589915 SHL589882:SHL589915 SRH589882:SRH589915 TBD589882:TBD589915 TKZ589882:TKZ589915 TUV589882:TUV589915 UER589882:UER589915 UON589882:UON589915 UYJ589882:UYJ589915 VIF589882:VIF589915 VSB589882:VSB589915 WBX589882:WBX589915 WLT589882:WLT589915 WVP589882:WVP589915 H655418:H655451 JD655418:JD655451 SZ655418:SZ655451 ACV655418:ACV655451 AMR655418:AMR655451 AWN655418:AWN655451 BGJ655418:BGJ655451 BQF655418:BQF655451 CAB655418:CAB655451 CJX655418:CJX655451 CTT655418:CTT655451 DDP655418:DDP655451 DNL655418:DNL655451 DXH655418:DXH655451 EHD655418:EHD655451 EQZ655418:EQZ655451 FAV655418:FAV655451 FKR655418:FKR655451 FUN655418:FUN655451 GEJ655418:GEJ655451 GOF655418:GOF655451 GYB655418:GYB655451 HHX655418:HHX655451 HRT655418:HRT655451 IBP655418:IBP655451 ILL655418:ILL655451 IVH655418:IVH655451 JFD655418:JFD655451 JOZ655418:JOZ655451 JYV655418:JYV655451 KIR655418:KIR655451 KSN655418:KSN655451 LCJ655418:LCJ655451 LMF655418:LMF655451 LWB655418:LWB655451 MFX655418:MFX655451 MPT655418:MPT655451 MZP655418:MZP655451 NJL655418:NJL655451 NTH655418:NTH655451 ODD655418:ODD655451 OMZ655418:OMZ655451 OWV655418:OWV655451 PGR655418:PGR655451 PQN655418:PQN655451 QAJ655418:QAJ655451 QKF655418:QKF655451 QUB655418:QUB655451 RDX655418:RDX655451 RNT655418:RNT655451 RXP655418:RXP655451 SHL655418:SHL655451 SRH655418:SRH655451 TBD655418:TBD655451 TKZ655418:TKZ655451 TUV655418:TUV655451 UER655418:UER655451 UON655418:UON655451 UYJ655418:UYJ655451 VIF655418:VIF655451 VSB655418:VSB655451 WBX655418:WBX655451 WLT655418:WLT655451 WVP655418:WVP655451 H720954:H720987 JD720954:JD720987 SZ720954:SZ720987 ACV720954:ACV720987 AMR720954:AMR720987 AWN720954:AWN720987 BGJ720954:BGJ720987 BQF720954:BQF720987 CAB720954:CAB720987 CJX720954:CJX720987 CTT720954:CTT720987 DDP720954:DDP720987 DNL720954:DNL720987 DXH720954:DXH720987 EHD720954:EHD720987 EQZ720954:EQZ720987 FAV720954:FAV720987 FKR720954:FKR720987 FUN720954:FUN720987 GEJ720954:GEJ720987 GOF720954:GOF720987 GYB720954:GYB720987 HHX720954:HHX720987 HRT720954:HRT720987 IBP720954:IBP720987 ILL720954:ILL720987 IVH720954:IVH720987 JFD720954:JFD720987 JOZ720954:JOZ720987 JYV720954:JYV720987 KIR720954:KIR720987 KSN720954:KSN720987 LCJ720954:LCJ720987 LMF720954:LMF720987 LWB720954:LWB720987 MFX720954:MFX720987 MPT720954:MPT720987 MZP720954:MZP720987 NJL720954:NJL720987 NTH720954:NTH720987 ODD720954:ODD720987 OMZ720954:OMZ720987 OWV720954:OWV720987 PGR720954:PGR720987 PQN720954:PQN720987 QAJ720954:QAJ720987 QKF720954:QKF720987 QUB720954:QUB720987 RDX720954:RDX720987 RNT720954:RNT720987 RXP720954:RXP720987 SHL720954:SHL720987 SRH720954:SRH720987 TBD720954:TBD720987 TKZ720954:TKZ720987 TUV720954:TUV720987 UER720954:UER720987 UON720954:UON720987 UYJ720954:UYJ720987 VIF720954:VIF720987 VSB720954:VSB720987 WBX720954:WBX720987 WLT720954:WLT720987 WVP720954:WVP720987 H786490:H786523 JD786490:JD786523 SZ786490:SZ786523 ACV786490:ACV786523 AMR786490:AMR786523 AWN786490:AWN786523 BGJ786490:BGJ786523 BQF786490:BQF786523 CAB786490:CAB786523 CJX786490:CJX786523 CTT786490:CTT786523 DDP786490:DDP786523 DNL786490:DNL786523 DXH786490:DXH786523 EHD786490:EHD786523 EQZ786490:EQZ786523 FAV786490:FAV786523 FKR786490:FKR786523 FUN786490:FUN786523 GEJ786490:GEJ786523 GOF786490:GOF786523 GYB786490:GYB786523 HHX786490:HHX786523 HRT786490:HRT786523 IBP786490:IBP786523 ILL786490:ILL786523 IVH786490:IVH786523 JFD786490:JFD786523 JOZ786490:JOZ786523 JYV786490:JYV786523 KIR786490:KIR786523 KSN786490:KSN786523 LCJ786490:LCJ786523 LMF786490:LMF786523 LWB786490:LWB786523 MFX786490:MFX786523 MPT786490:MPT786523 MZP786490:MZP786523 NJL786490:NJL786523 NTH786490:NTH786523 ODD786490:ODD786523 OMZ786490:OMZ786523 OWV786490:OWV786523 PGR786490:PGR786523 PQN786490:PQN786523 QAJ786490:QAJ786523 QKF786490:QKF786523 QUB786490:QUB786523 RDX786490:RDX786523 RNT786490:RNT786523 RXP786490:RXP786523 SHL786490:SHL786523 SRH786490:SRH786523 TBD786490:TBD786523 TKZ786490:TKZ786523 TUV786490:TUV786523 UER786490:UER786523 UON786490:UON786523 UYJ786490:UYJ786523 VIF786490:VIF786523 VSB786490:VSB786523 WBX786490:WBX786523 WLT786490:WLT786523 WVP786490:WVP786523 H852026:H852059 JD852026:JD852059 SZ852026:SZ852059 ACV852026:ACV852059 AMR852026:AMR852059 AWN852026:AWN852059 BGJ852026:BGJ852059 BQF852026:BQF852059 CAB852026:CAB852059 CJX852026:CJX852059 CTT852026:CTT852059 DDP852026:DDP852059 DNL852026:DNL852059 DXH852026:DXH852059 EHD852026:EHD852059 EQZ852026:EQZ852059 FAV852026:FAV852059 FKR852026:FKR852059 FUN852026:FUN852059 GEJ852026:GEJ852059 GOF852026:GOF852059 GYB852026:GYB852059 HHX852026:HHX852059 HRT852026:HRT852059 IBP852026:IBP852059 ILL852026:ILL852059 IVH852026:IVH852059 JFD852026:JFD852059 JOZ852026:JOZ852059 JYV852026:JYV852059 KIR852026:KIR852059 KSN852026:KSN852059 LCJ852026:LCJ852059 LMF852026:LMF852059 LWB852026:LWB852059 MFX852026:MFX852059 MPT852026:MPT852059 MZP852026:MZP852059 NJL852026:NJL852059 NTH852026:NTH852059 ODD852026:ODD852059 OMZ852026:OMZ852059 OWV852026:OWV852059 PGR852026:PGR852059 PQN852026:PQN852059 QAJ852026:QAJ852059 QKF852026:QKF852059 QUB852026:QUB852059 RDX852026:RDX852059 RNT852026:RNT852059 RXP852026:RXP852059 SHL852026:SHL852059 SRH852026:SRH852059 TBD852026:TBD852059 TKZ852026:TKZ852059 TUV852026:TUV852059 UER852026:UER852059 UON852026:UON852059 UYJ852026:UYJ852059 VIF852026:VIF852059 VSB852026:VSB852059 WBX852026:WBX852059 WLT852026:WLT852059 WVP852026:WVP852059 H917562:H917595 JD917562:JD917595 SZ917562:SZ917595 ACV917562:ACV917595 AMR917562:AMR917595 AWN917562:AWN917595 BGJ917562:BGJ917595 BQF917562:BQF917595 CAB917562:CAB917595 CJX917562:CJX917595 CTT917562:CTT917595 DDP917562:DDP917595 DNL917562:DNL917595 DXH917562:DXH917595 EHD917562:EHD917595 EQZ917562:EQZ917595 FAV917562:FAV917595 FKR917562:FKR917595 FUN917562:FUN917595 GEJ917562:GEJ917595 GOF917562:GOF917595 GYB917562:GYB917595 HHX917562:HHX917595 HRT917562:HRT917595 IBP917562:IBP917595 ILL917562:ILL917595 IVH917562:IVH917595 JFD917562:JFD917595 JOZ917562:JOZ917595 JYV917562:JYV917595 KIR917562:KIR917595 KSN917562:KSN917595 LCJ917562:LCJ917595 LMF917562:LMF917595 LWB917562:LWB917595 MFX917562:MFX917595 MPT917562:MPT917595 MZP917562:MZP917595 NJL917562:NJL917595 NTH917562:NTH917595 ODD917562:ODD917595 OMZ917562:OMZ917595 OWV917562:OWV917595 PGR917562:PGR917595 PQN917562:PQN917595 QAJ917562:QAJ917595 QKF917562:QKF917595 QUB917562:QUB917595 RDX917562:RDX917595 RNT917562:RNT917595 RXP917562:RXP917595 SHL917562:SHL917595 SRH917562:SRH917595 TBD917562:TBD917595 TKZ917562:TKZ917595 TUV917562:TUV917595 UER917562:UER917595 UON917562:UON917595 UYJ917562:UYJ917595 VIF917562:VIF917595 VSB917562:VSB917595 WBX917562:WBX917595 WLT917562:WLT917595 WVP917562:WVP917595 H983098:H983131 JD983098:JD983131 SZ983098:SZ983131 ACV983098:ACV983131 AMR983098:AMR983131 AWN983098:AWN983131 BGJ983098:BGJ983131 BQF983098:BQF983131 CAB983098:CAB983131 CJX983098:CJX983131 CTT983098:CTT983131 DDP983098:DDP983131 DNL983098:DNL983131 DXH983098:DXH983131 EHD983098:EHD983131 EQZ983098:EQZ983131 FAV983098:FAV983131 FKR983098:FKR983131 FUN983098:FUN983131 GEJ983098:GEJ983131 GOF983098:GOF983131 GYB983098:GYB983131 HHX983098:HHX983131 HRT983098:HRT983131 IBP983098:IBP983131 ILL983098:ILL983131 IVH983098:IVH983131 JFD983098:JFD983131 JOZ983098:JOZ983131 JYV983098:JYV983131 KIR983098:KIR983131 KSN983098:KSN983131 LCJ983098:LCJ983131 LMF983098:LMF983131 LWB983098:LWB983131 MFX983098:MFX983131 MPT983098:MPT983131 MZP983098:MZP983131 NJL983098:NJL983131 NTH983098:NTH983131 ODD983098:ODD983131 OMZ983098:OMZ983131 OWV983098:OWV983131 PGR983098:PGR983131 PQN983098:PQN983131 QAJ983098:QAJ983131 QKF983098:QKF983131 QUB983098:QUB983131 RDX983098:RDX983131 RNT983098:RNT983131 RXP983098:RXP983131 SHL983098:SHL983131 SRH983098:SRH983131 TBD983098:TBD983131 TKZ983098:TKZ983131 TUV983098:TUV983131 UER983098:UER983131 UON983098:UON983131 UYJ983098:UYJ983131 VIF983098:VIF983131 VSB983098:VSB983131 WBX983098:WBX983131 WLT983098:WLT983131 WVP983098:WVP983131 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H768" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65601:H65634 JD65601:JD65634 SZ65601:SZ65634 ACV65601:ACV65634 AMR65601:AMR65634 AWN65601:AWN65634 BGJ65601:BGJ65634 BQF65601:BQF65634 CAB65601:CAB65634 CJX65601:CJX65634 CTT65601:CTT65634 DDP65601:DDP65634 DNL65601:DNL65634 DXH65601:DXH65634 EHD65601:EHD65634 EQZ65601:EQZ65634 FAV65601:FAV65634 FKR65601:FKR65634 FUN65601:FUN65634 GEJ65601:GEJ65634 GOF65601:GOF65634 GYB65601:GYB65634 HHX65601:HHX65634 HRT65601:HRT65634 IBP65601:IBP65634 ILL65601:ILL65634 IVH65601:IVH65634 JFD65601:JFD65634 JOZ65601:JOZ65634 JYV65601:JYV65634 KIR65601:KIR65634 KSN65601:KSN65634 LCJ65601:LCJ65634 LMF65601:LMF65634 LWB65601:LWB65634 MFX65601:MFX65634 MPT65601:MPT65634 MZP65601:MZP65634 NJL65601:NJL65634 NTH65601:NTH65634 ODD65601:ODD65634 OMZ65601:OMZ65634 OWV65601:OWV65634 PGR65601:PGR65634 PQN65601:PQN65634 QAJ65601:QAJ65634 QKF65601:QKF65634 QUB65601:QUB65634 RDX65601:RDX65634 RNT65601:RNT65634 RXP65601:RXP65634 SHL65601:SHL65634 SRH65601:SRH65634 TBD65601:TBD65634 TKZ65601:TKZ65634 TUV65601:TUV65634 UER65601:UER65634 UON65601:UON65634 UYJ65601:UYJ65634 VIF65601:VIF65634 VSB65601:VSB65634 WBX65601:WBX65634 WLT65601:WLT65634 WVP65601:WVP65634 H131137:H131170 JD131137:JD131170 SZ131137:SZ131170 ACV131137:ACV131170 AMR131137:AMR131170 AWN131137:AWN131170 BGJ131137:BGJ131170 BQF131137:BQF131170 CAB131137:CAB131170 CJX131137:CJX131170 CTT131137:CTT131170 DDP131137:DDP131170 DNL131137:DNL131170 DXH131137:DXH131170 EHD131137:EHD131170 EQZ131137:EQZ131170 FAV131137:FAV131170 FKR131137:FKR131170 FUN131137:FUN131170 GEJ131137:GEJ131170 GOF131137:GOF131170 GYB131137:GYB131170 HHX131137:HHX131170 HRT131137:HRT131170 IBP131137:IBP131170 ILL131137:ILL131170 IVH131137:IVH131170 JFD131137:JFD131170 JOZ131137:JOZ131170 JYV131137:JYV131170 KIR131137:KIR131170 KSN131137:KSN131170 LCJ131137:LCJ131170 LMF131137:LMF131170 LWB131137:LWB131170 MFX131137:MFX131170 MPT131137:MPT131170 MZP131137:MZP131170 NJL131137:NJL131170 NTH131137:NTH131170 ODD131137:ODD131170 OMZ131137:OMZ131170 OWV131137:OWV131170 PGR131137:PGR131170 PQN131137:PQN131170 QAJ131137:QAJ131170 QKF131137:QKF131170 QUB131137:QUB131170 RDX131137:RDX131170 RNT131137:RNT131170 RXP131137:RXP131170 SHL131137:SHL131170 SRH131137:SRH131170 TBD131137:TBD131170 TKZ131137:TKZ131170 TUV131137:TUV131170 UER131137:UER131170 UON131137:UON131170 UYJ131137:UYJ131170 VIF131137:VIF131170 VSB131137:VSB131170 WBX131137:WBX131170 WLT131137:WLT131170 WVP131137:WVP131170 H196673:H196706 JD196673:JD196706 SZ196673:SZ196706 ACV196673:ACV196706 AMR196673:AMR196706 AWN196673:AWN196706 BGJ196673:BGJ196706 BQF196673:BQF196706 CAB196673:CAB196706 CJX196673:CJX196706 CTT196673:CTT196706 DDP196673:DDP196706 DNL196673:DNL196706 DXH196673:DXH196706 EHD196673:EHD196706 EQZ196673:EQZ196706 FAV196673:FAV196706 FKR196673:FKR196706 FUN196673:FUN196706 GEJ196673:GEJ196706 GOF196673:GOF196706 GYB196673:GYB196706 HHX196673:HHX196706 HRT196673:HRT196706 IBP196673:IBP196706 ILL196673:ILL196706 IVH196673:IVH196706 JFD196673:JFD196706 JOZ196673:JOZ196706 JYV196673:JYV196706 KIR196673:KIR196706 KSN196673:KSN196706 LCJ196673:LCJ196706 LMF196673:LMF196706 LWB196673:LWB196706 MFX196673:MFX196706 MPT196673:MPT196706 MZP196673:MZP196706 NJL196673:NJL196706 NTH196673:NTH196706 ODD196673:ODD196706 OMZ196673:OMZ196706 OWV196673:OWV196706 PGR196673:PGR196706 PQN196673:PQN196706 QAJ196673:QAJ196706 QKF196673:QKF196706 QUB196673:QUB196706 RDX196673:RDX196706 RNT196673:RNT196706 RXP196673:RXP196706 SHL196673:SHL196706 SRH196673:SRH196706 TBD196673:TBD196706 TKZ196673:TKZ196706 TUV196673:TUV196706 UER196673:UER196706 UON196673:UON196706 UYJ196673:UYJ196706 VIF196673:VIF196706 VSB196673:VSB196706 WBX196673:WBX196706 WLT196673:WLT196706 WVP196673:WVP196706 H262209:H262242 JD262209:JD262242 SZ262209:SZ262242 ACV262209:ACV262242 AMR262209:AMR262242 AWN262209:AWN262242 BGJ262209:BGJ262242 BQF262209:BQF262242 CAB262209:CAB262242 CJX262209:CJX262242 CTT262209:CTT262242 DDP262209:DDP262242 DNL262209:DNL262242 DXH262209:DXH262242 EHD262209:EHD262242 EQZ262209:EQZ262242 FAV262209:FAV262242 FKR262209:FKR262242 FUN262209:FUN262242 GEJ262209:GEJ262242 GOF262209:GOF262242 GYB262209:GYB262242 HHX262209:HHX262242 HRT262209:HRT262242 IBP262209:IBP262242 ILL262209:ILL262242 IVH262209:IVH262242 JFD262209:JFD262242 JOZ262209:JOZ262242 JYV262209:JYV262242 KIR262209:KIR262242 KSN262209:KSN262242 LCJ262209:LCJ262242 LMF262209:LMF262242 LWB262209:LWB262242 MFX262209:MFX262242 MPT262209:MPT262242 MZP262209:MZP262242 NJL262209:NJL262242 NTH262209:NTH262242 ODD262209:ODD262242 OMZ262209:OMZ262242 OWV262209:OWV262242 PGR262209:PGR262242 PQN262209:PQN262242 QAJ262209:QAJ262242 QKF262209:QKF262242 QUB262209:QUB262242 RDX262209:RDX262242 RNT262209:RNT262242 RXP262209:RXP262242 SHL262209:SHL262242 SRH262209:SRH262242 TBD262209:TBD262242 TKZ262209:TKZ262242 TUV262209:TUV262242 UER262209:UER262242 UON262209:UON262242 UYJ262209:UYJ262242 VIF262209:VIF262242 VSB262209:VSB262242 WBX262209:WBX262242 WLT262209:WLT262242 WVP262209:WVP262242 H327745:H327778 JD327745:JD327778 SZ327745:SZ327778 ACV327745:ACV327778 AMR327745:AMR327778 AWN327745:AWN327778 BGJ327745:BGJ327778 BQF327745:BQF327778 CAB327745:CAB327778 CJX327745:CJX327778 CTT327745:CTT327778 DDP327745:DDP327778 DNL327745:DNL327778 DXH327745:DXH327778 EHD327745:EHD327778 EQZ327745:EQZ327778 FAV327745:FAV327778 FKR327745:FKR327778 FUN327745:FUN327778 GEJ327745:GEJ327778 GOF327745:GOF327778 GYB327745:GYB327778 HHX327745:HHX327778 HRT327745:HRT327778 IBP327745:IBP327778 ILL327745:ILL327778 IVH327745:IVH327778 JFD327745:JFD327778 JOZ327745:JOZ327778 JYV327745:JYV327778 KIR327745:KIR327778 KSN327745:KSN327778 LCJ327745:LCJ327778 LMF327745:LMF327778 LWB327745:LWB327778 MFX327745:MFX327778 MPT327745:MPT327778 MZP327745:MZP327778 NJL327745:NJL327778 NTH327745:NTH327778 ODD327745:ODD327778 OMZ327745:OMZ327778 OWV327745:OWV327778 PGR327745:PGR327778 PQN327745:PQN327778 QAJ327745:QAJ327778 QKF327745:QKF327778 QUB327745:QUB327778 RDX327745:RDX327778 RNT327745:RNT327778 RXP327745:RXP327778 SHL327745:SHL327778 SRH327745:SRH327778 TBD327745:TBD327778 TKZ327745:TKZ327778 TUV327745:TUV327778 UER327745:UER327778 UON327745:UON327778 UYJ327745:UYJ327778 VIF327745:VIF327778 VSB327745:VSB327778 WBX327745:WBX327778 WLT327745:WLT327778 WVP327745:WVP327778 H393281:H393314 JD393281:JD393314 SZ393281:SZ393314 ACV393281:ACV393314 AMR393281:AMR393314 AWN393281:AWN393314 BGJ393281:BGJ393314 BQF393281:BQF393314 CAB393281:CAB393314 CJX393281:CJX393314 CTT393281:CTT393314 DDP393281:DDP393314 DNL393281:DNL393314 DXH393281:DXH393314 EHD393281:EHD393314 EQZ393281:EQZ393314 FAV393281:FAV393314 FKR393281:FKR393314 FUN393281:FUN393314 GEJ393281:GEJ393314 GOF393281:GOF393314 GYB393281:GYB393314 HHX393281:HHX393314 HRT393281:HRT393314 IBP393281:IBP393314 ILL393281:ILL393314 IVH393281:IVH393314 JFD393281:JFD393314 JOZ393281:JOZ393314 JYV393281:JYV393314 KIR393281:KIR393314 KSN393281:KSN393314 LCJ393281:LCJ393314 LMF393281:LMF393314 LWB393281:LWB393314 MFX393281:MFX393314 MPT393281:MPT393314 MZP393281:MZP393314 NJL393281:NJL393314 NTH393281:NTH393314 ODD393281:ODD393314 OMZ393281:OMZ393314 OWV393281:OWV393314 PGR393281:PGR393314 PQN393281:PQN393314 QAJ393281:QAJ393314 QKF393281:QKF393314 QUB393281:QUB393314 RDX393281:RDX393314 RNT393281:RNT393314 RXP393281:RXP393314 SHL393281:SHL393314 SRH393281:SRH393314 TBD393281:TBD393314 TKZ393281:TKZ393314 TUV393281:TUV393314 UER393281:UER393314 UON393281:UON393314 UYJ393281:UYJ393314 VIF393281:VIF393314 VSB393281:VSB393314 WBX393281:WBX393314 WLT393281:WLT393314 WVP393281:WVP393314 H458817:H458850 JD458817:JD458850 SZ458817:SZ458850 ACV458817:ACV458850 AMR458817:AMR458850 AWN458817:AWN458850 BGJ458817:BGJ458850 BQF458817:BQF458850 CAB458817:CAB458850 CJX458817:CJX458850 CTT458817:CTT458850 DDP458817:DDP458850 DNL458817:DNL458850 DXH458817:DXH458850 EHD458817:EHD458850 EQZ458817:EQZ458850 FAV458817:FAV458850 FKR458817:FKR458850 FUN458817:FUN458850 GEJ458817:GEJ458850 GOF458817:GOF458850 GYB458817:GYB458850 HHX458817:HHX458850 HRT458817:HRT458850 IBP458817:IBP458850 ILL458817:ILL458850 IVH458817:IVH458850 JFD458817:JFD458850 JOZ458817:JOZ458850 JYV458817:JYV458850 KIR458817:KIR458850 KSN458817:KSN458850 LCJ458817:LCJ458850 LMF458817:LMF458850 LWB458817:LWB458850 MFX458817:MFX458850 MPT458817:MPT458850 MZP458817:MZP458850 NJL458817:NJL458850 NTH458817:NTH458850 ODD458817:ODD458850 OMZ458817:OMZ458850 OWV458817:OWV458850 PGR458817:PGR458850 PQN458817:PQN458850 QAJ458817:QAJ458850 QKF458817:QKF458850 QUB458817:QUB458850 RDX458817:RDX458850 RNT458817:RNT458850 RXP458817:RXP458850 SHL458817:SHL458850 SRH458817:SRH458850 TBD458817:TBD458850 TKZ458817:TKZ458850 TUV458817:TUV458850 UER458817:UER458850 UON458817:UON458850 UYJ458817:UYJ458850 VIF458817:VIF458850 VSB458817:VSB458850 WBX458817:WBX458850 WLT458817:WLT458850 WVP458817:WVP458850 H524353:H524386 JD524353:JD524386 SZ524353:SZ524386 ACV524353:ACV524386 AMR524353:AMR524386 AWN524353:AWN524386 BGJ524353:BGJ524386 BQF524353:BQF524386 CAB524353:CAB524386 CJX524353:CJX524386 CTT524353:CTT524386 DDP524353:DDP524386 DNL524353:DNL524386 DXH524353:DXH524386 EHD524353:EHD524386 EQZ524353:EQZ524386 FAV524353:FAV524386 FKR524353:FKR524386 FUN524353:FUN524386 GEJ524353:GEJ524386 GOF524353:GOF524386 GYB524353:GYB524386 HHX524353:HHX524386 HRT524353:HRT524386 IBP524353:IBP524386 ILL524353:ILL524386 IVH524353:IVH524386 JFD524353:JFD524386 JOZ524353:JOZ524386 JYV524353:JYV524386 KIR524353:KIR524386 KSN524353:KSN524386 LCJ524353:LCJ524386 LMF524353:LMF524386 LWB524353:LWB524386 MFX524353:MFX524386 MPT524353:MPT524386 MZP524353:MZP524386 NJL524353:NJL524386 NTH524353:NTH524386 ODD524353:ODD524386 OMZ524353:OMZ524386 OWV524353:OWV524386 PGR524353:PGR524386 PQN524353:PQN524386 QAJ524353:QAJ524386 QKF524353:QKF524386 QUB524353:QUB524386 RDX524353:RDX524386 RNT524353:RNT524386 RXP524353:RXP524386 SHL524353:SHL524386 SRH524353:SRH524386 TBD524353:TBD524386 TKZ524353:TKZ524386 TUV524353:TUV524386 UER524353:UER524386 UON524353:UON524386 UYJ524353:UYJ524386 VIF524353:VIF524386 VSB524353:VSB524386 WBX524353:WBX524386 WLT524353:WLT524386 WVP524353:WVP524386 H589889:H589922 JD589889:JD589922 SZ589889:SZ589922 ACV589889:ACV589922 AMR589889:AMR589922 AWN589889:AWN589922 BGJ589889:BGJ589922 BQF589889:BQF589922 CAB589889:CAB589922 CJX589889:CJX589922 CTT589889:CTT589922 DDP589889:DDP589922 DNL589889:DNL589922 DXH589889:DXH589922 EHD589889:EHD589922 EQZ589889:EQZ589922 FAV589889:FAV589922 FKR589889:FKR589922 FUN589889:FUN589922 GEJ589889:GEJ589922 GOF589889:GOF589922 GYB589889:GYB589922 HHX589889:HHX589922 HRT589889:HRT589922 IBP589889:IBP589922 ILL589889:ILL589922 IVH589889:IVH589922 JFD589889:JFD589922 JOZ589889:JOZ589922 JYV589889:JYV589922 KIR589889:KIR589922 KSN589889:KSN589922 LCJ589889:LCJ589922 LMF589889:LMF589922 LWB589889:LWB589922 MFX589889:MFX589922 MPT589889:MPT589922 MZP589889:MZP589922 NJL589889:NJL589922 NTH589889:NTH589922 ODD589889:ODD589922 OMZ589889:OMZ589922 OWV589889:OWV589922 PGR589889:PGR589922 PQN589889:PQN589922 QAJ589889:QAJ589922 QKF589889:QKF589922 QUB589889:QUB589922 RDX589889:RDX589922 RNT589889:RNT589922 RXP589889:RXP589922 SHL589889:SHL589922 SRH589889:SRH589922 TBD589889:TBD589922 TKZ589889:TKZ589922 TUV589889:TUV589922 UER589889:UER589922 UON589889:UON589922 UYJ589889:UYJ589922 VIF589889:VIF589922 VSB589889:VSB589922 WBX589889:WBX589922 WLT589889:WLT589922 WVP589889:WVP589922 H655425:H655458 JD655425:JD655458 SZ655425:SZ655458 ACV655425:ACV655458 AMR655425:AMR655458 AWN655425:AWN655458 BGJ655425:BGJ655458 BQF655425:BQF655458 CAB655425:CAB655458 CJX655425:CJX655458 CTT655425:CTT655458 DDP655425:DDP655458 DNL655425:DNL655458 DXH655425:DXH655458 EHD655425:EHD655458 EQZ655425:EQZ655458 FAV655425:FAV655458 FKR655425:FKR655458 FUN655425:FUN655458 GEJ655425:GEJ655458 GOF655425:GOF655458 GYB655425:GYB655458 HHX655425:HHX655458 HRT655425:HRT655458 IBP655425:IBP655458 ILL655425:ILL655458 IVH655425:IVH655458 JFD655425:JFD655458 JOZ655425:JOZ655458 JYV655425:JYV655458 KIR655425:KIR655458 KSN655425:KSN655458 LCJ655425:LCJ655458 LMF655425:LMF655458 LWB655425:LWB655458 MFX655425:MFX655458 MPT655425:MPT655458 MZP655425:MZP655458 NJL655425:NJL655458 NTH655425:NTH655458 ODD655425:ODD655458 OMZ655425:OMZ655458 OWV655425:OWV655458 PGR655425:PGR655458 PQN655425:PQN655458 QAJ655425:QAJ655458 QKF655425:QKF655458 QUB655425:QUB655458 RDX655425:RDX655458 RNT655425:RNT655458 RXP655425:RXP655458 SHL655425:SHL655458 SRH655425:SRH655458 TBD655425:TBD655458 TKZ655425:TKZ655458 TUV655425:TUV655458 UER655425:UER655458 UON655425:UON655458 UYJ655425:UYJ655458 VIF655425:VIF655458 VSB655425:VSB655458 WBX655425:WBX655458 WLT655425:WLT655458 WVP655425:WVP655458 H720961:H720994 JD720961:JD720994 SZ720961:SZ720994 ACV720961:ACV720994 AMR720961:AMR720994 AWN720961:AWN720994 BGJ720961:BGJ720994 BQF720961:BQF720994 CAB720961:CAB720994 CJX720961:CJX720994 CTT720961:CTT720994 DDP720961:DDP720994 DNL720961:DNL720994 DXH720961:DXH720994 EHD720961:EHD720994 EQZ720961:EQZ720994 FAV720961:FAV720994 FKR720961:FKR720994 FUN720961:FUN720994 GEJ720961:GEJ720994 GOF720961:GOF720994 GYB720961:GYB720994 HHX720961:HHX720994 HRT720961:HRT720994 IBP720961:IBP720994 ILL720961:ILL720994 IVH720961:IVH720994 JFD720961:JFD720994 JOZ720961:JOZ720994 JYV720961:JYV720994 KIR720961:KIR720994 KSN720961:KSN720994 LCJ720961:LCJ720994 LMF720961:LMF720994 LWB720961:LWB720994 MFX720961:MFX720994 MPT720961:MPT720994 MZP720961:MZP720994 NJL720961:NJL720994 NTH720961:NTH720994 ODD720961:ODD720994 OMZ720961:OMZ720994 OWV720961:OWV720994 PGR720961:PGR720994 PQN720961:PQN720994 QAJ720961:QAJ720994 QKF720961:QKF720994 QUB720961:QUB720994 RDX720961:RDX720994 RNT720961:RNT720994 RXP720961:RXP720994 SHL720961:SHL720994 SRH720961:SRH720994 TBD720961:TBD720994 TKZ720961:TKZ720994 TUV720961:TUV720994 UER720961:UER720994 UON720961:UON720994 UYJ720961:UYJ720994 VIF720961:VIF720994 VSB720961:VSB720994 WBX720961:WBX720994 WLT720961:WLT720994 WVP720961:WVP720994 H786497:H786530 JD786497:JD786530 SZ786497:SZ786530 ACV786497:ACV786530 AMR786497:AMR786530 AWN786497:AWN786530 BGJ786497:BGJ786530 BQF786497:BQF786530 CAB786497:CAB786530 CJX786497:CJX786530 CTT786497:CTT786530 DDP786497:DDP786530 DNL786497:DNL786530 DXH786497:DXH786530 EHD786497:EHD786530 EQZ786497:EQZ786530 FAV786497:FAV786530 FKR786497:FKR786530 FUN786497:FUN786530 GEJ786497:GEJ786530 GOF786497:GOF786530 GYB786497:GYB786530 HHX786497:HHX786530 HRT786497:HRT786530 IBP786497:IBP786530 ILL786497:ILL786530 IVH786497:IVH786530 JFD786497:JFD786530 JOZ786497:JOZ786530 JYV786497:JYV786530 KIR786497:KIR786530 KSN786497:KSN786530 LCJ786497:LCJ786530 LMF786497:LMF786530 LWB786497:LWB786530 MFX786497:MFX786530 MPT786497:MPT786530 MZP786497:MZP786530 NJL786497:NJL786530 NTH786497:NTH786530 ODD786497:ODD786530 OMZ786497:OMZ786530 OWV786497:OWV786530 PGR786497:PGR786530 PQN786497:PQN786530 QAJ786497:QAJ786530 QKF786497:QKF786530 QUB786497:QUB786530 RDX786497:RDX786530 RNT786497:RNT786530 RXP786497:RXP786530 SHL786497:SHL786530 SRH786497:SRH786530 TBD786497:TBD786530 TKZ786497:TKZ786530 TUV786497:TUV786530 UER786497:UER786530 UON786497:UON786530 UYJ786497:UYJ786530 VIF786497:VIF786530 VSB786497:VSB786530 WBX786497:WBX786530 WLT786497:WLT786530 WVP786497:WVP786530 H852033:H852066 JD852033:JD852066 SZ852033:SZ852066 ACV852033:ACV852066 AMR852033:AMR852066 AWN852033:AWN852066 BGJ852033:BGJ852066 BQF852033:BQF852066 CAB852033:CAB852066 CJX852033:CJX852066 CTT852033:CTT852066 DDP852033:DDP852066 DNL852033:DNL852066 DXH852033:DXH852066 EHD852033:EHD852066 EQZ852033:EQZ852066 FAV852033:FAV852066 FKR852033:FKR852066 FUN852033:FUN852066 GEJ852033:GEJ852066 GOF852033:GOF852066 GYB852033:GYB852066 HHX852033:HHX852066 HRT852033:HRT852066 IBP852033:IBP852066 ILL852033:ILL852066 IVH852033:IVH852066 JFD852033:JFD852066 JOZ852033:JOZ852066 JYV852033:JYV852066 KIR852033:KIR852066 KSN852033:KSN852066 LCJ852033:LCJ852066 LMF852033:LMF852066 LWB852033:LWB852066 MFX852033:MFX852066 MPT852033:MPT852066 MZP852033:MZP852066 NJL852033:NJL852066 NTH852033:NTH852066 ODD852033:ODD852066 OMZ852033:OMZ852066 OWV852033:OWV852066 PGR852033:PGR852066 PQN852033:PQN852066 QAJ852033:QAJ852066 QKF852033:QKF852066 QUB852033:QUB852066 RDX852033:RDX852066 RNT852033:RNT852066 RXP852033:RXP852066 SHL852033:SHL852066 SRH852033:SRH852066 TBD852033:TBD852066 TKZ852033:TKZ852066 TUV852033:TUV852066 UER852033:UER852066 UON852033:UON852066 UYJ852033:UYJ852066 VIF852033:VIF852066 VSB852033:VSB852066 WBX852033:WBX852066 WLT852033:WLT852066 WVP852033:WVP852066 H917569:H917602 JD917569:JD917602 SZ917569:SZ917602 ACV917569:ACV917602 AMR917569:AMR917602 AWN917569:AWN917602 BGJ917569:BGJ917602 BQF917569:BQF917602 CAB917569:CAB917602 CJX917569:CJX917602 CTT917569:CTT917602 DDP917569:DDP917602 DNL917569:DNL917602 DXH917569:DXH917602 EHD917569:EHD917602 EQZ917569:EQZ917602 FAV917569:FAV917602 FKR917569:FKR917602 FUN917569:FUN917602 GEJ917569:GEJ917602 GOF917569:GOF917602 GYB917569:GYB917602 HHX917569:HHX917602 HRT917569:HRT917602 IBP917569:IBP917602 ILL917569:ILL917602 IVH917569:IVH917602 JFD917569:JFD917602 JOZ917569:JOZ917602 JYV917569:JYV917602 KIR917569:KIR917602 KSN917569:KSN917602 LCJ917569:LCJ917602 LMF917569:LMF917602 LWB917569:LWB917602 MFX917569:MFX917602 MPT917569:MPT917602 MZP917569:MZP917602 NJL917569:NJL917602 NTH917569:NTH917602 ODD917569:ODD917602 OMZ917569:OMZ917602 OWV917569:OWV917602 PGR917569:PGR917602 PQN917569:PQN917602 QAJ917569:QAJ917602 QKF917569:QKF917602 QUB917569:QUB917602 RDX917569:RDX917602 RNT917569:RNT917602 RXP917569:RXP917602 SHL917569:SHL917602 SRH917569:SRH917602 TBD917569:TBD917602 TKZ917569:TKZ917602 TUV917569:TUV917602 UER917569:UER917602 UON917569:UON917602 UYJ917569:UYJ917602 VIF917569:VIF917602 VSB917569:VSB917602 WBX917569:WBX917602 WLT917569:WLT917602 WVP917569:WVP917602 H983105:H983138 JD983105:JD983138 SZ983105:SZ983138 ACV983105:ACV983138 AMR983105:AMR983138 AWN983105:AWN983138 BGJ983105:BGJ983138 BQF983105:BQF983138 CAB983105:CAB983138 CJX983105:CJX983138 CTT983105:CTT983138 DDP983105:DDP983138 DNL983105:DNL983138 DXH983105:DXH983138 EHD983105:EHD983138 EQZ983105:EQZ983138 FAV983105:FAV983138 FKR983105:FKR983138 FUN983105:FUN983138 GEJ983105:GEJ983138 GOF983105:GOF983138 GYB983105:GYB983138 HHX983105:HHX983138 HRT983105:HRT983138 IBP983105:IBP983138 ILL983105:ILL983138 IVH983105:IVH983138 JFD983105:JFD983138 JOZ983105:JOZ983138 JYV983105:JYV983138 KIR983105:KIR983138 KSN983105:KSN983138 LCJ983105:LCJ983138 LMF983105:LMF983138 LWB983105:LWB983138 MFX983105:MFX983138 MPT983105:MPT983138 MZP983105:MZP983138 NJL983105:NJL983138 NTH983105:NTH983138 ODD983105:ODD983138 OMZ983105:OMZ983138 OWV983105:OWV983138 PGR983105:PGR983138 PQN983105:PQN983138 QAJ983105:QAJ983138 QKF983105:QKF983138 QUB983105:QUB983138 RDX983105:RDX983138 RNT983105:RNT983138 RXP983105:RXP983138 SHL983105:SHL983138 SRH983105:SRH983138 TBD983105:TBD983138 TKZ983105:TKZ983138 TUV983105:TUV983138 UER983105:UER983138 UON983105:UON983138 UYJ983105:UYJ983138 VIF983105:VIF983138 VSB983105:VSB983138 WBX983105:WBX983138 WLT983105:WLT983138 WVP983105:WVP983138 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H775" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F6081-782A-43B0-98B7-59754BBBBB0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F0843-6E60-461C-B00D-F5AAF3BE1BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="750" windowWidth="18435" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="667">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2600,6 +2600,62 @@
   </si>
   <si>
     <t>数据质量报告-第三批问题原因查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从THR_HIS中找回原影像批次000002PHIS0000004228数据，对比统计数据量，剩余未报送的数据量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将剩余未报送的数据抽取到thr库PT2_表中，进行换批次000002PHIS0000005642，进行上报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动服务器235，并检查服务，将批次号为000002PHIS0000005642更改为写文件和打压缩包状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查批次号为000002PHIS0000005642文件完成情况，编写上传sftp命令，上传000002PHIS0000005642的压缩包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知平台批次号为000002PHIS0000005642</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新SVN中INC_SQL脚本，根据数据质量报告第三批分析反馈中，调整脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据数据质量报告第三批分析反馈中，调整脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据调整的脚本，和员员进行服务器日增量脚本的升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写增量升级版本记录文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分CaseMainInfo和ClaimPayMainInfo表中数据各分5个表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级167-172服务器上程序文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在weblogic部署农险程序，启动测试程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级167-172服务器上定时程序文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探查第三批数据质量报告--再保模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3146,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J866"/>
+  <dimension ref="A1:J870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K818" sqref="K818"/>
+    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G811" sqref="G811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -25848,12 +25904,18 @@
       <c r="C813" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D813" s="12"/>
-      <c r="E813" s="12"/>
+      <c r="D813" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E813" s="12">
+        <v>43643</v>
+      </c>
       <c r="F813" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G813" s="14"/>
+      <c r="G813" s="14" t="s">
+        <v>658</v>
+      </c>
       <c r="H813" s="6" t="s">
         <v>11</v>
       </c>
@@ -25868,12 +25930,18 @@
       <c r="C814" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D814" s="12"/>
-      <c r="E814" s="12"/>
+      <c r="D814" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E814" s="12">
+        <v>43643</v>
+      </c>
       <c r="F814" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G814" s="14"/>
+      <c r="G814" s="14" t="s">
+        <v>659</v>
+      </c>
       <c r="H814" s="6" t="s">
         <v>11</v>
       </c>
@@ -25888,12 +25956,18 @@
       <c r="C815" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D815" s="12"/>
-      <c r="E815" s="12"/>
+      <c r="D815" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E815" s="12">
+        <v>43643</v>
+      </c>
       <c r="F815" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G815" s="14"/>
+      <c r="G815" s="14" t="s">
+        <v>660</v>
+      </c>
       <c r="H815" s="6" t="s">
         <v>11</v>
       </c>
@@ -25908,16 +25982,24 @@
       <c r="C816" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D816" s="12"/>
-      <c r="E816" s="12"/>
+      <c r="D816" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E816" s="12">
+        <v>43644</v>
+      </c>
       <c r="F816" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G816" s="14"/>
+      <c r="G816" s="14" t="s">
+        <v>666</v>
+      </c>
       <c r="H816" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I816" s="7"/>
+      <c r="I816" s="7">
+        <v>2</v>
+      </c>
       <c r="J816" s="8"/>
     </row>
     <row r="817" spans="1:10">
@@ -25928,16 +26010,24 @@
       <c r="C817" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D817" s="12"/>
-      <c r="E817" s="12"/>
+      <c r="D817" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E817" s="12">
+        <v>43644</v>
+      </c>
       <c r="F817" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G817" s="14"/>
+      <c r="G817" s="14" t="s">
+        <v>666</v>
+      </c>
       <c r="H817" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I817" s="7"/>
+      <c r="I817" s="7">
+        <v>2</v>
+      </c>
       <c r="J817" s="8"/>
     </row>
     <row r="818" spans="1:10">
@@ -25948,16 +26038,24 @@
       <c r="C818" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D818" s="12"/>
-      <c r="E818" s="12"/>
+      <c r="D818" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E818" s="12">
+        <v>43644</v>
+      </c>
       <c r="F818" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G818" s="14"/>
+      <c r="G818" s="14" t="s">
+        <v>666</v>
+      </c>
       <c r="H818" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I818" s="7"/>
+      <c r="I818" s="7">
+        <v>2</v>
+      </c>
       <c r="J818" s="8"/>
     </row>
     <row r="819" spans="1:10">
@@ -25968,16 +26066,24 @@
       <c r="C819" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D819" s="12"/>
-      <c r="E819" s="12"/>
+      <c r="D819" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E819" s="12">
+        <v>43644</v>
+      </c>
       <c r="F819" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G819" s="14"/>
+      <c r="G819" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="H819" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I819" s="7"/>
+      <c r="I819" s="7">
+        <v>2</v>
+      </c>
       <c r="J819" s="8"/>
     </row>
     <row r="820" spans="1:10">
@@ -25988,16 +26094,24 @@
       <c r="C820" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D820" s="12"/>
-      <c r="E820" s="12"/>
+      <c r="D820" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E820" s="12">
+        <v>43644</v>
+      </c>
       <c r="F820" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G820" s="14"/>
+      <c r="G820" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="H820" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I820" s="7"/>
+      <c r="I820" s="7">
+        <v>2</v>
+      </c>
       <c r="J820" s="8"/>
     </row>
     <row r="821" spans="1:10">
@@ -26008,16 +26122,24 @@
       <c r="C821" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D821" s="12"/>
-      <c r="E821" s="12"/>
+      <c r="D821" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E821" s="12">
+        <v>43644</v>
+      </c>
       <c r="F821" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G821" s="14"/>
+      <c r="G821" s="14" t="s">
+        <v>663</v>
+      </c>
       <c r="H821" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I821" s="7"/>
+      <c r="I821" s="7">
+        <v>2</v>
+      </c>
       <c r="J821" s="8"/>
     </row>
     <row r="822" spans="1:10">
@@ -26028,55 +26150,47 @@
       <c r="C822" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D822" s="12"/>
-      <c r="E822" s="12"/>
+      <c r="D822" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E822" s="12">
+        <v>43644</v>
+      </c>
       <c r="F822" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G822" s="14"/>
+      <c r="G822" s="14" t="s">
+        <v>665</v>
+      </c>
       <c r="H822" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I822" s="7"/>
+      <c r="I822" s="7">
+        <v>2</v>
+      </c>
       <c r="J822" s="8"/>
     </row>
     <row r="823" spans="1:10">
-      <c r="A823" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A823" s="5"/>
       <c r="B823" s="4"/>
-      <c r="C823" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C823" s="6"/>
       <c r="D823" s="12"/>
       <c r="E823" s="12"/>
-      <c r="F823" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F823" s="11"/>
       <c r="G823" s="14"/>
-      <c r="H823" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H823" s="6"/>
       <c r="I823" s="7"/>
       <c r="J823" s="8"/>
     </row>
     <row r="824" spans="1:10">
-      <c r="A824" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A824" s="5"/>
       <c r="B824" s="4"/>
-      <c r="C824" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C824" s="6"/>
       <c r="D824" s="12"/>
       <c r="E824" s="12"/>
-      <c r="F824" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F824" s="11"/>
       <c r="G824" s="14"/>
-      <c r="H824" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H824" s="6"/>
       <c r="I824" s="7"/>
       <c r="J824" s="8"/>
     </row>
@@ -26088,8 +26202,12 @@
       <c r="C825" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D825" s="12"/>
-      <c r="E825" s="12"/>
+      <c r="D825" s="12">
+        <v>43647</v>
+      </c>
+      <c r="E825" s="12">
+        <v>43647</v>
+      </c>
       <c r="F825" s="11" t="s">
         <v>240</v>
       </c>
@@ -26108,8 +26226,12 @@
       <c r="C826" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D826" s="12"/>
-      <c r="E826" s="12"/>
+      <c r="D826" s="12">
+        <v>43647</v>
+      </c>
+      <c r="E826" s="12">
+        <v>43647</v>
+      </c>
       <c r="F826" s="11" t="s">
         <v>240</v>
       </c>
@@ -26128,8 +26250,12 @@
       <c r="C827" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D827" s="12"/>
-      <c r="E827" s="12"/>
+      <c r="D827" s="12">
+        <v>43647</v>
+      </c>
+      <c r="E827" s="12">
+        <v>43647</v>
+      </c>
       <c r="F827" s="11" t="s">
         <v>240</v>
       </c>
@@ -26148,8 +26274,12 @@
       <c r="C828" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D828" s="12"/>
-      <c r="E828" s="12"/>
+      <c r="D828" s="12">
+        <v>43648</v>
+      </c>
+      <c r="E828" s="12">
+        <v>43648</v>
+      </c>
       <c r="F828" s="11" t="s">
         <v>240</v>
       </c>
@@ -26168,8 +26298,12 @@
       <c r="C829" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D829" s="12"/>
-      <c r="E829" s="12"/>
+      <c r="D829" s="12">
+        <v>43648</v>
+      </c>
+      <c r="E829" s="12">
+        <v>43648</v>
+      </c>
       <c r="F829" s="11" t="s">
         <v>240</v>
       </c>
@@ -26188,19 +26322,25 @@
       <c r="C830" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D830" s="12"/>
-      <c r="E830" s="12"/>
+      <c r="D830" s="12">
+        <v>43648</v>
+      </c>
+      <c r="E830" s="12">
+        <v>43648</v>
+      </c>
       <c r="F830" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G830" s="14"/>
+      <c r="G830" s="14" t="s">
+        <v>661</v>
+      </c>
       <c r="H830" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I830" s="7"/>
       <c r="J830" s="8"/>
     </row>
-    <row r="831" spans="1:10">
+    <row r="831" spans="1:10" ht="24">
       <c r="A831" s="5" t="s">
         <v>10</v>
       </c>
@@ -26208,12 +26348,18 @@
       <c r="C831" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D831" s="12"/>
-      <c r="E831" s="12"/>
+      <c r="D831" s="12">
+        <v>43649</v>
+      </c>
+      <c r="E831" s="12">
+        <v>43649</v>
+      </c>
       <c r="F831" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G831" s="14"/>
+      <c r="G831" s="14" t="s">
+        <v>653</v>
+      </c>
       <c r="H831" s="6" t="s">
         <v>11</v>
       </c>
@@ -26228,19 +26374,25 @@
       <c r="C832" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D832" s="12"/>
-      <c r="E832" s="12"/>
+      <c r="D832" s="12">
+        <v>43649</v>
+      </c>
+      <c r="E832" s="12">
+        <v>43649</v>
+      </c>
       <c r="F832" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G832" s="14"/>
+      <c r="G832" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="H832" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I832" s="7"/>
       <c r="J832" s="8"/>
     </row>
-    <row r="833" spans="1:10">
+    <row r="833" spans="1:10" ht="24">
       <c r="A833" s="5" t="s">
         <v>10</v>
       </c>
@@ -26248,19 +26400,25 @@
       <c r="C833" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D833" s="12"/>
-      <c r="E833" s="12"/>
+      <c r="D833" s="12">
+        <v>43649</v>
+      </c>
+      <c r="E833" s="12">
+        <v>43649</v>
+      </c>
       <c r="F833" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G833" s="14"/>
+      <c r="G833" s="14" t="s">
+        <v>655</v>
+      </c>
       <c r="H833" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I833" s="7"/>
       <c r="J833" s="8"/>
     </row>
-    <row r="834" spans="1:10">
+    <row r="834" spans="1:10" ht="24">
       <c r="A834" s="5" t="s">
         <v>10</v>
       </c>
@@ -26268,12 +26426,18 @@
       <c r="C834" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D834" s="12"/>
-      <c r="E834" s="12"/>
+      <c r="D834" s="12">
+        <v>43650</v>
+      </c>
+      <c r="E834" s="12">
+        <v>43650</v>
+      </c>
       <c r="F834" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G834" s="14"/>
+      <c r="G834" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="H834" s="6" t="s">
         <v>11</v>
       </c>
@@ -26288,12 +26452,18 @@
       <c r="C835" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D835" s="12"/>
-      <c r="E835" s="12"/>
+      <c r="D835" s="12">
+        <v>43650</v>
+      </c>
+      <c r="E835" s="12">
+        <v>43650</v>
+      </c>
       <c r="F835" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G835" s="14"/>
+      <c r="G835" s="14" t="s">
+        <v>657</v>
+      </c>
       <c r="H835" s="6" t="s">
         <v>11</v>
       </c>
@@ -26308,8 +26478,12 @@
       <c r="C836" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D836" s="12"/>
-      <c r="E836" s="12"/>
+      <c r="D836" s="12">
+        <v>43650</v>
+      </c>
+      <c r="E836" s="12">
+        <v>43650</v>
+      </c>
       <c r="F836" s="11" t="s">
         <v>240</v>
       </c>
@@ -26328,8 +26502,12 @@
       <c r="C837" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D837" s="12"/>
-      <c r="E837" s="12"/>
+      <c r="D837" s="12">
+        <v>43651</v>
+      </c>
+      <c r="E837" s="12">
+        <v>43651</v>
+      </c>
       <c r="F837" s="11" t="s">
         <v>240</v>
       </c>
@@ -26348,8 +26526,12 @@
       <c r="C838" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D838" s="12"/>
-      <c r="E838" s="12"/>
+      <c r="D838" s="12">
+        <v>43651</v>
+      </c>
+      <c r="E838" s="12">
+        <v>43651</v>
+      </c>
       <c r="F838" s="11" t="s">
         <v>240</v>
       </c>
@@ -26368,8 +26550,12 @@
       <c r="C839" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D839" s="12"/>
-      <c r="E839" s="12"/>
+      <c r="D839" s="12">
+        <v>43651</v>
+      </c>
+      <c r="E839" s="12">
+        <v>43651</v>
+      </c>
       <c r="F839" s="11" t="s">
         <v>240</v>
       </c>
@@ -26919,6 +27105,86 @@
       </c>
       <c r="I866" s="7"/>
       <c r="J866" s="8"/>
+    </row>
+    <row r="867" spans="1:10">
+      <c r="A867" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B867" s="4"/>
+      <c r="C867" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D867" s="12"/>
+      <c r="E867" s="12"/>
+      <c r="F867" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G867" s="14"/>
+      <c r="H867" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I867" s="7"/>
+      <c r="J867" s="8"/>
+    </row>
+    <row r="868" spans="1:10">
+      <c r="A868" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B868" s="4"/>
+      <c r="C868" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D868" s="12"/>
+      <c r="E868" s="12"/>
+      <c r="F868" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G868" s="14"/>
+      <c r="H868" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I868" s="7"/>
+      <c r="J868" s="8"/>
+    </row>
+    <row r="869" spans="1:10">
+      <c r="A869" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B869" s="4"/>
+      <c r="C869" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D869" s="12"/>
+      <c r="E869" s="12"/>
+      <c r="F869" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G869" s="14"/>
+      <c r="H869" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I869" s="7"/>
+      <c r="J869" s="8"/>
+    </row>
+    <row r="870" spans="1:10">
+      <c r="A870" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B870" s="4"/>
+      <c r="C870" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D870" s="12"/>
+      <c r="E870" s="12"/>
+      <c r="F870" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G870" s="14"/>
+      <c r="H870" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I870" s="7"/>
+      <c r="J870" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26926,13 +27192,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131176:C131192 IY65640:IY65656 SU65640:SU65656 ACQ65640:ACQ65656 AMM65640:AMM65656 AWI65640:AWI65656 BGE65640:BGE65656 BQA65640:BQA65656 BZW65640:BZW65656 CJS65640:CJS65656 CTO65640:CTO65656 DDK65640:DDK65656 DNG65640:DNG65656 DXC65640:DXC65656 EGY65640:EGY65656 EQU65640:EQU65656 FAQ65640:FAQ65656 FKM65640:FKM65656 FUI65640:FUI65656 GEE65640:GEE65656 GOA65640:GOA65656 GXW65640:GXW65656 HHS65640:HHS65656 HRO65640:HRO65656 IBK65640:IBK65656 ILG65640:ILG65656 IVC65640:IVC65656 JEY65640:JEY65656 JOU65640:JOU65656 JYQ65640:JYQ65656 KIM65640:KIM65656 KSI65640:KSI65656 LCE65640:LCE65656 LMA65640:LMA65656 LVW65640:LVW65656 MFS65640:MFS65656 MPO65640:MPO65656 MZK65640:MZK65656 NJG65640:NJG65656 NTC65640:NTC65656 OCY65640:OCY65656 OMU65640:OMU65656 OWQ65640:OWQ65656 PGM65640:PGM65656 PQI65640:PQI65656 QAE65640:QAE65656 QKA65640:QKA65656 QTW65640:QTW65656 RDS65640:RDS65656 RNO65640:RNO65656 RXK65640:RXK65656 SHG65640:SHG65656 SRC65640:SRC65656 TAY65640:TAY65656 TKU65640:TKU65656 TUQ65640:TUQ65656 UEM65640:UEM65656 UOI65640:UOI65656 UYE65640:UYE65656 VIA65640:VIA65656 VRW65640:VRW65656 WBS65640:WBS65656 WLO65640:WLO65656 WVK65640:WVK65656 C196712:C196728 IY131176:IY131192 SU131176:SU131192 ACQ131176:ACQ131192 AMM131176:AMM131192 AWI131176:AWI131192 BGE131176:BGE131192 BQA131176:BQA131192 BZW131176:BZW131192 CJS131176:CJS131192 CTO131176:CTO131192 DDK131176:DDK131192 DNG131176:DNG131192 DXC131176:DXC131192 EGY131176:EGY131192 EQU131176:EQU131192 FAQ131176:FAQ131192 FKM131176:FKM131192 FUI131176:FUI131192 GEE131176:GEE131192 GOA131176:GOA131192 GXW131176:GXW131192 HHS131176:HHS131192 HRO131176:HRO131192 IBK131176:IBK131192 ILG131176:ILG131192 IVC131176:IVC131192 JEY131176:JEY131192 JOU131176:JOU131192 JYQ131176:JYQ131192 KIM131176:KIM131192 KSI131176:KSI131192 LCE131176:LCE131192 LMA131176:LMA131192 LVW131176:LVW131192 MFS131176:MFS131192 MPO131176:MPO131192 MZK131176:MZK131192 NJG131176:NJG131192 NTC131176:NTC131192 OCY131176:OCY131192 OMU131176:OMU131192 OWQ131176:OWQ131192 PGM131176:PGM131192 PQI131176:PQI131192 QAE131176:QAE131192 QKA131176:QKA131192 QTW131176:QTW131192 RDS131176:RDS131192 RNO131176:RNO131192 RXK131176:RXK131192 SHG131176:SHG131192 SRC131176:SRC131192 TAY131176:TAY131192 TKU131176:TKU131192 TUQ131176:TUQ131192 UEM131176:UEM131192 UOI131176:UOI131192 UYE131176:UYE131192 VIA131176:VIA131192 VRW131176:VRW131192 WBS131176:WBS131192 WLO131176:WLO131192 WVK131176:WVK131192 C262248:C262264 IY196712:IY196728 SU196712:SU196728 ACQ196712:ACQ196728 AMM196712:AMM196728 AWI196712:AWI196728 BGE196712:BGE196728 BQA196712:BQA196728 BZW196712:BZW196728 CJS196712:CJS196728 CTO196712:CTO196728 DDK196712:DDK196728 DNG196712:DNG196728 DXC196712:DXC196728 EGY196712:EGY196728 EQU196712:EQU196728 FAQ196712:FAQ196728 FKM196712:FKM196728 FUI196712:FUI196728 GEE196712:GEE196728 GOA196712:GOA196728 GXW196712:GXW196728 HHS196712:HHS196728 HRO196712:HRO196728 IBK196712:IBK196728 ILG196712:ILG196728 IVC196712:IVC196728 JEY196712:JEY196728 JOU196712:JOU196728 JYQ196712:JYQ196728 KIM196712:KIM196728 KSI196712:KSI196728 LCE196712:LCE196728 LMA196712:LMA196728 LVW196712:LVW196728 MFS196712:MFS196728 MPO196712:MPO196728 MZK196712:MZK196728 NJG196712:NJG196728 NTC196712:NTC196728 OCY196712:OCY196728 OMU196712:OMU196728 OWQ196712:OWQ196728 PGM196712:PGM196728 PQI196712:PQI196728 QAE196712:QAE196728 QKA196712:QKA196728 QTW196712:QTW196728 RDS196712:RDS196728 RNO196712:RNO196728 RXK196712:RXK196728 SHG196712:SHG196728 SRC196712:SRC196728 TAY196712:TAY196728 TKU196712:TKU196728 TUQ196712:TUQ196728 UEM196712:UEM196728 UOI196712:UOI196728 UYE196712:UYE196728 VIA196712:VIA196728 VRW196712:VRW196728 WBS196712:WBS196728 WLO196712:WLO196728 WVK196712:WVK196728 C327784:C327800 IY262248:IY262264 SU262248:SU262264 ACQ262248:ACQ262264 AMM262248:AMM262264 AWI262248:AWI262264 BGE262248:BGE262264 BQA262248:BQA262264 BZW262248:BZW262264 CJS262248:CJS262264 CTO262248:CTO262264 DDK262248:DDK262264 DNG262248:DNG262264 DXC262248:DXC262264 EGY262248:EGY262264 EQU262248:EQU262264 FAQ262248:FAQ262264 FKM262248:FKM262264 FUI262248:FUI262264 GEE262248:GEE262264 GOA262248:GOA262264 GXW262248:GXW262264 HHS262248:HHS262264 HRO262248:HRO262264 IBK262248:IBK262264 ILG262248:ILG262264 IVC262248:IVC262264 JEY262248:JEY262264 JOU262248:JOU262264 JYQ262248:JYQ262264 KIM262248:KIM262264 KSI262248:KSI262264 LCE262248:LCE262264 LMA262248:LMA262264 LVW262248:LVW262264 MFS262248:MFS262264 MPO262248:MPO262264 MZK262248:MZK262264 NJG262248:NJG262264 NTC262248:NTC262264 OCY262248:OCY262264 OMU262248:OMU262264 OWQ262248:OWQ262264 PGM262248:PGM262264 PQI262248:PQI262264 QAE262248:QAE262264 QKA262248:QKA262264 QTW262248:QTW262264 RDS262248:RDS262264 RNO262248:RNO262264 RXK262248:RXK262264 SHG262248:SHG262264 SRC262248:SRC262264 TAY262248:TAY262264 TKU262248:TKU262264 TUQ262248:TUQ262264 UEM262248:UEM262264 UOI262248:UOI262264 UYE262248:UYE262264 VIA262248:VIA262264 VRW262248:VRW262264 WBS262248:WBS262264 WLO262248:WLO262264 WVK262248:WVK262264 C393320:C393336 IY327784:IY327800 SU327784:SU327800 ACQ327784:ACQ327800 AMM327784:AMM327800 AWI327784:AWI327800 BGE327784:BGE327800 BQA327784:BQA327800 BZW327784:BZW327800 CJS327784:CJS327800 CTO327784:CTO327800 DDK327784:DDK327800 DNG327784:DNG327800 DXC327784:DXC327800 EGY327784:EGY327800 EQU327784:EQU327800 FAQ327784:FAQ327800 FKM327784:FKM327800 FUI327784:FUI327800 GEE327784:GEE327800 GOA327784:GOA327800 GXW327784:GXW327800 HHS327784:HHS327800 HRO327784:HRO327800 IBK327784:IBK327800 ILG327784:ILG327800 IVC327784:IVC327800 JEY327784:JEY327800 JOU327784:JOU327800 JYQ327784:JYQ327800 KIM327784:KIM327800 KSI327784:KSI327800 LCE327784:LCE327800 LMA327784:LMA327800 LVW327784:LVW327800 MFS327784:MFS327800 MPO327784:MPO327800 MZK327784:MZK327800 NJG327784:NJG327800 NTC327784:NTC327800 OCY327784:OCY327800 OMU327784:OMU327800 OWQ327784:OWQ327800 PGM327784:PGM327800 PQI327784:PQI327800 QAE327784:QAE327800 QKA327784:QKA327800 QTW327784:QTW327800 RDS327784:RDS327800 RNO327784:RNO327800 RXK327784:RXK327800 SHG327784:SHG327800 SRC327784:SRC327800 TAY327784:TAY327800 TKU327784:TKU327800 TUQ327784:TUQ327800 UEM327784:UEM327800 UOI327784:UOI327800 UYE327784:UYE327800 VIA327784:VIA327800 VRW327784:VRW327800 WBS327784:WBS327800 WLO327784:WLO327800 WVK327784:WVK327800 C458856:C458872 IY393320:IY393336 SU393320:SU393336 ACQ393320:ACQ393336 AMM393320:AMM393336 AWI393320:AWI393336 BGE393320:BGE393336 BQA393320:BQA393336 BZW393320:BZW393336 CJS393320:CJS393336 CTO393320:CTO393336 DDK393320:DDK393336 DNG393320:DNG393336 DXC393320:DXC393336 EGY393320:EGY393336 EQU393320:EQU393336 FAQ393320:FAQ393336 FKM393320:FKM393336 FUI393320:FUI393336 GEE393320:GEE393336 GOA393320:GOA393336 GXW393320:GXW393336 HHS393320:HHS393336 HRO393320:HRO393336 IBK393320:IBK393336 ILG393320:ILG393336 IVC393320:IVC393336 JEY393320:JEY393336 JOU393320:JOU393336 JYQ393320:JYQ393336 KIM393320:KIM393336 KSI393320:KSI393336 LCE393320:LCE393336 LMA393320:LMA393336 LVW393320:LVW393336 MFS393320:MFS393336 MPO393320:MPO393336 MZK393320:MZK393336 NJG393320:NJG393336 NTC393320:NTC393336 OCY393320:OCY393336 OMU393320:OMU393336 OWQ393320:OWQ393336 PGM393320:PGM393336 PQI393320:PQI393336 QAE393320:QAE393336 QKA393320:QKA393336 QTW393320:QTW393336 RDS393320:RDS393336 RNO393320:RNO393336 RXK393320:RXK393336 SHG393320:SHG393336 SRC393320:SRC393336 TAY393320:TAY393336 TKU393320:TKU393336 TUQ393320:TUQ393336 UEM393320:UEM393336 UOI393320:UOI393336 UYE393320:UYE393336 VIA393320:VIA393336 VRW393320:VRW393336 WBS393320:WBS393336 WLO393320:WLO393336 WVK393320:WVK393336 C524392:C524408 IY458856:IY458872 SU458856:SU458872 ACQ458856:ACQ458872 AMM458856:AMM458872 AWI458856:AWI458872 BGE458856:BGE458872 BQA458856:BQA458872 BZW458856:BZW458872 CJS458856:CJS458872 CTO458856:CTO458872 DDK458856:DDK458872 DNG458856:DNG458872 DXC458856:DXC458872 EGY458856:EGY458872 EQU458856:EQU458872 FAQ458856:FAQ458872 FKM458856:FKM458872 FUI458856:FUI458872 GEE458856:GEE458872 GOA458856:GOA458872 GXW458856:GXW458872 HHS458856:HHS458872 HRO458856:HRO458872 IBK458856:IBK458872 ILG458856:ILG458872 IVC458856:IVC458872 JEY458856:JEY458872 JOU458856:JOU458872 JYQ458856:JYQ458872 KIM458856:KIM458872 KSI458856:KSI458872 LCE458856:LCE458872 LMA458856:LMA458872 LVW458856:LVW458872 MFS458856:MFS458872 MPO458856:MPO458872 MZK458856:MZK458872 NJG458856:NJG458872 NTC458856:NTC458872 OCY458856:OCY458872 OMU458856:OMU458872 OWQ458856:OWQ458872 PGM458856:PGM458872 PQI458856:PQI458872 QAE458856:QAE458872 QKA458856:QKA458872 QTW458856:QTW458872 RDS458856:RDS458872 RNO458856:RNO458872 RXK458856:RXK458872 SHG458856:SHG458872 SRC458856:SRC458872 TAY458856:TAY458872 TKU458856:TKU458872 TUQ458856:TUQ458872 UEM458856:UEM458872 UOI458856:UOI458872 UYE458856:UYE458872 VIA458856:VIA458872 VRW458856:VRW458872 WBS458856:WBS458872 WLO458856:WLO458872 WVK458856:WVK458872 C589928:C589944 IY524392:IY524408 SU524392:SU524408 ACQ524392:ACQ524408 AMM524392:AMM524408 AWI524392:AWI524408 BGE524392:BGE524408 BQA524392:BQA524408 BZW524392:BZW524408 CJS524392:CJS524408 CTO524392:CTO524408 DDK524392:DDK524408 DNG524392:DNG524408 DXC524392:DXC524408 EGY524392:EGY524408 EQU524392:EQU524408 FAQ524392:FAQ524408 FKM524392:FKM524408 FUI524392:FUI524408 GEE524392:GEE524408 GOA524392:GOA524408 GXW524392:GXW524408 HHS524392:HHS524408 HRO524392:HRO524408 IBK524392:IBK524408 ILG524392:ILG524408 IVC524392:IVC524408 JEY524392:JEY524408 JOU524392:JOU524408 JYQ524392:JYQ524408 KIM524392:KIM524408 KSI524392:KSI524408 LCE524392:LCE524408 LMA524392:LMA524408 LVW524392:LVW524408 MFS524392:MFS524408 MPO524392:MPO524408 MZK524392:MZK524408 NJG524392:NJG524408 NTC524392:NTC524408 OCY524392:OCY524408 OMU524392:OMU524408 OWQ524392:OWQ524408 PGM524392:PGM524408 PQI524392:PQI524408 QAE524392:QAE524408 QKA524392:QKA524408 QTW524392:QTW524408 RDS524392:RDS524408 RNO524392:RNO524408 RXK524392:RXK524408 SHG524392:SHG524408 SRC524392:SRC524408 TAY524392:TAY524408 TKU524392:TKU524408 TUQ524392:TUQ524408 UEM524392:UEM524408 UOI524392:UOI524408 UYE524392:UYE524408 VIA524392:VIA524408 VRW524392:VRW524408 WBS524392:WBS524408 WLO524392:WLO524408 WVK524392:WVK524408 C655464:C655480 IY589928:IY589944 SU589928:SU589944 ACQ589928:ACQ589944 AMM589928:AMM589944 AWI589928:AWI589944 BGE589928:BGE589944 BQA589928:BQA589944 BZW589928:BZW589944 CJS589928:CJS589944 CTO589928:CTO589944 DDK589928:DDK589944 DNG589928:DNG589944 DXC589928:DXC589944 EGY589928:EGY589944 EQU589928:EQU589944 FAQ589928:FAQ589944 FKM589928:FKM589944 FUI589928:FUI589944 GEE589928:GEE589944 GOA589928:GOA589944 GXW589928:GXW589944 HHS589928:HHS589944 HRO589928:HRO589944 IBK589928:IBK589944 ILG589928:ILG589944 IVC589928:IVC589944 JEY589928:JEY589944 JOU589928:JOU589944 JYQ589928:JYQ589944 KIM589928:KIM589944 KSI589928:KSI589944 LCE589928:LCE589944 LMA589928:LMA589944 LVW589928:LVW589944 MFS589928:MFS589944 MPO589928:MPO589944 MZK589928:MZK589944 NJG589928:NJG589944 NTC589928:NTC589944 OCY589928:OCY589944 OMU589928:OMU589944 OWQ589928:OWQ589944 PGM589928:PGM589944 PQI589928:PQI589944 QAE589928:QAE589944 QKA589928:QKA589944 QTW589928:QTW589944 RDS589928:RDS589944 RNO589928:RNO589944 RXK589928:RXK589944 SHG589928:SHG589944 SRC589928:SRC589944 TAY589928:TAY589944 TKU589928:TKU589944 TUQ589928:TUQ589944 UEM589928:UEM589944 UOI589928:UOI589944 UYE589928:UYE589944 VIA589928:VIA589944 VRW589928:VRW589944 WBS589928:WBS589944 WLO589928:WLO589944 WVK589928:WVK589944 C721000:C721016 IY655464:IY655480 SU655464:SU655480 ACQ655464:ACQ655480 AMM655464:AMM655480 AWI655464:AWI655480 BGE655464:BGE655480 BQA655464:BQA655480 BZW655464:BZW655480 CJS655464:CJS655480 CTO655464:CTO655480 DDK655464:DDK655480 DNG655464:DNG655480 DXC655464:DXC655480 EGY655464:EGY655480 EQU655464:EQU655480 FAQ655464:FAQ655480 FKM655464:FKM655480 FUI655464:FUI655480 GEE655464:GEE655480 GOA655464:GOA655480 GXW655464:GXW655480 HHS655464:HHS655480 HRO655464:HRO655480 IBK655464:IBK655480 ILG655464:ILG655480 IVC655464:IVC655480 JEY655464:JEY655480 JOU655464:JOU655480 JYQ655464:JYQ655480 KIM655464:KIM655480 KSI655464:KSI655480 LCE655464:LCE655480 LMA655464:LMA655480 LVW655464:LVW655480 MFS655464:MFS655480 MPO655464:MPO655480 MZK655464:MZK655480 NJG655464:NJG655480 NTC655464:NTC655480 OCY655464:OCY655480 OMU655464:OMU655480 OWQ655464:OWQ655480 PGM655464:PGM655480 PQI655464:PQI655480 QAE655464:QAE655480 QKA655464:QKA655480 QTW655464:QTW655480 RDS655464:RDS655480 RNO655464:RNO655480 RXK655464:RXK655480 SHG655464:SHG655480 SRC655464:SRC655480 TAY655464:TAY655480 TKU655464:TKU655480 TUQ655464:TUQ655480 UEM655464:UEM655480 UOI655464:UOI655480 UYE655464:UYE655480 VIA655464:VIA655480 VRW655464:VRW655480 WBS655464:WBS655480 WLO655464:WLO655480 WVK655464:WVK655480 C786536:C786552 IY721000:IY721016 SU721000:SU721016 ACQ721000:ACQ721016 AMM721000:AMM721016 AWI721000:AWI721016 BGE721000:BGE721016 BQA721000:BQA721016 BZW721000:BZW721016 CJS721000:CJS721016 CTO721000:CTO721016 DDK721000:DDK721016 DNG721000:DNG721016 DXC721000:DXC721016 EGY721000:EGY721016 EQU721000:EQU721016 FAQ721000:FAQ721016 FKM721000:FKM721016 FUI721000:FUI721016 GEE721000:GEE721016 GOA721000:GOA721016 GXW721000:GXW721016 HHS721000:HHS721016 HRO721000:HRO721016 IBK721000:IBK721016 ILG721000:ILG721016 IVC721000:IVC721016 JEY721000:JEY721016 JOU721000:JOU721016 JYQ721000:JYQ721016 KIM721000:KIM721016 KSI721000:KSI721016 LCE721000:LCE721016 LMA721000:LMA721016 LVW721000:LVW721016 MFS721000:MFS721016 MPO721000:MPO721016 MZK721000:MZK721016 NJG721000:NJG721016 NTC721000:NTC721016 OCY721000:OCY721016 OMU721000:OMU721016 OWQ721000:OWQ721016 PGM721000:PGM721016 PQI721000:PQI721016 QAE721000:QAE721016 QKA721000:QKA721016 QTW721000:QTW721016 RDS721000:RDS721016 RNO721000:RNO721016 RXK721000:RXK721016 SHG721000:SHG721016 SRC721000:SRC721016 TAY721000:TAY721016 TKU721000:TKU721016 TUQ721000:TUQ721016 UEM721000:UEM721016 UOI721000:UOI721016 UYE721000:UYE721016 VIA721000:VIA721016 VRW721000:VRW721016 WBS721000:WBS721016 WLO721000:WLO721016 WVK721000:WVK721016 C852072:C852088 IY786536:IY786552 SU786536:SU786552 ACQ786536:ACQ786552 AMM786536:AMM786552 AWI786536:AWI786552 BGE786536:BGE786552 BQA786536:BQA786552 BZW786536:BZW786552 CJS786536:CJS786552 CTO786536:CTO786552 DDK786536:DDK786552 DNG786536:DNG786552 DXC786536:DXC786552 EGY786536:EGY786552 EQU786536:EQU786552 FAQ786536:FAQ786552 FKM786536:FKM786552 FUI786536:FUI786552 GEE786536:GEE786552 GOA786536:GOA786552 GXW786536:GXW786552 HHS786536:HHS786552 HRO786536:HRO786552 IBK786536:IBK786552 ILG786536:ILG786552 IVC786536:IVC786552 JEY786536:JEY786552 JOU786536:JOU786552 JYQ786536:JYQ786552 KIM786536:KIM786552 KSI786536:KSI786552 LCE786536:LCE786552 LMA786536:LMA786552 LVW786536:LVW786552 MFS786536:MFS786552 MPO786536:MPO786552 MZK786536:MZK786552 NJG786536:NJG786552 NTC786536:NTC786552 OCY786536:OCY786552 OMU786536:OMU786552 OWQ786536:OWQ786552 PGM786536:PGM786552 PQI786536:PQI786552 QAE786536:QAE786552 QKA786536:QKA786552 QTW786536:QTW786552 RDS786536:RDS786552 RNO786536:RNO786552 RXK786536:RXK786552 SHG786536:SHG786552 SRC786536:SRC786552 TAY786536:TAY786552 TKU786536:TKU786552 TUQ786536:TUQ786552 UEM786536:UEM786552 UOI786536:UOI786552 UYE786536:UYE786552 VIA786536:VIA786552 VRW786536:VRW786552 WBS786536:WBS786552 WLO786536:WLO786552 WVK786536:WVK786552 C917608:C917624 IY852072:IY852088 SU852072:SU852088 ACQ852072:ACQ852088 AMM852072:AMM852088 AWI852072:AWI852088 BGE852072:BGE852088 BQA852072:BQA852088 BZW852072:BZW852088 CJS852072:CJS852088 CTO852072:CTO852088 DDK852072:DDK852088 DNG852072:DNG852088 DXC852072:DXC852088 EGY852072:EGY852088 EQU852072:EQU852088 FAQ852072:FAQ852088 FKM852072:FKM852088 FUI852072:FUI852088 GEE852072:GEE852088 GOA852072:GOA852088 GXW852072:GXW852088 HHS852072:HHS852088 HRO852072:HRO852088 IBK852072:IBK852088 ILG852072:ILG852088 IVC852072:IVC852088 JEY852072:JEY852088 JOU852072:JOU852088 JYQ852072:JYQ852088 KIM852072:KIM852088 KSI852072:KSI852088 LCE852072:LCE852088 LMA852072:LMA852088 LVW852072:LVW852088 MFS852072:MFS852088 MPO852072:MPO852088 MZK852072:MZK852088 NJG852072:NJG852088 NTC852072:NTC852088 OCY852072:OCY852088 OMU852072:OMU852088 OWQ852072:OWQ852088 PGM852072:PGM852088 PQI852072:PQI852088 QAE852072:QAE852088 QKA852072:QKA852088 QTW852072:QTW852088 RDS852072:RDS852088 RNO852072:RNO852088 RXK852072:RXK852088 SHG852072:SHG852088 SRC852072:SRC852088 TAY852072:TAY852088 TKU852072:TKU852088 TUQ852072:TUQ852088 UEM852072:UEM852088 UOI852072:UOI852088 UYE852072:UYE852088 VIA852072:VIA852088 VRW852072:VRW852088 WBS852072:WBS852088 WLO852072:WLO852088 WVK852072:WVK852088 C983144:C983160 IY917608:IY917624 SU917608:SU917624 ACQ917608:ACQ917624 AMM917608:AMM917624 AWI917608:AWI917624 BGE917608:BGE917624 BQA917608:BQA917624 BZW917608:BZW917624 CJS917608:CJS917624 CTO917608:CTO917624 DDK917608:DDK917624 DNG917608:DNG917624 DXC917608:DXC917624 EGY917608:EGY917624 EQU917608:EQU917624 FAQ917608:FAQ917624 FKM917608:FKM917624 FUI917608:FUI917624 GEE917608:GEE917624 GOA917608:GOA917624 GXW917608:GXW917624 HHS917608:HHS917624 HRO917608:HRO917624 IBK917608:IBK917624 ILG917608:ILG917624 IVC917608:IVC917624 JEY917608:JEY917624 JOU917608:JOU917624 JYQ917608:JYQ917624 KIM917608:KIM917624 KSI917608:KSI917624 LCE917608:LCE917624 LMA917608:LMA917624 LVW917608:LVW917624 MFS917608:MFS917624 MPO917608:MPO917624 MZK917608:MZK917624 NJG917608:NJG917624 NTC917608:NTC917624 OCY917608:OCY917624 OMU917608:OMU917624 OWQ917608:OWQ917624 PGM917608:PGM917624 PQI917608:PQI917624 QAE917608:QAE917624 QKA917608:QKA917624 QTW917608:QTW917624 RDS917608:RDS917624 RNO917608:RNO917624 RXK917608:RXK917624 SHG917608:SHG917624 SRC917608:SRC917624 TAY917608:TAY917624 TKU917608:TKU917624 TUQ917608:TUQ917624 UEM917608:UEM917624 UOI917608:UOI917624 UYE917608:UYE917624 VIA917608:VIA917624 VRW917608:VRW917624 WBS917608:WBS917624 WLO917608:WLO917624 WVK917608:WVK917624 WVK983144:WVK983160 IY983144:IY983160 SU983144:SU983160 ACQ983144:ACQ983160 AMM983144:AMM983160 AWI983144:AWI983160 BGE983144:BGE983160 BQA983144:BQA983160 BZW983144:BZW983160 CJS983144:CJS983160 CTO983144:CTO983160 DDK983144:DDK983160 DNG983144:DNG983160 DXC983144:DXC983160 EGY983144:EGY983160 EQU983144:EQU983160 FAQ983144:FAQ983160 FKM983144:FKM983160 FUI983144:FUI983160 GEE983144:GEE983160 GOA983144:GOA983160 GXW983144:GXW983160 HHS983144:HHS983160 HRO983144:HRO983160 IBK983144:IBK983160 ILG983144:ILG983160 IVC983144:IVC983160 JEY983144:JEY983160 JOU983144:JOU983160 JYQ983144:JYQ983160 KIM983144:KIM983160 KSI983144:KSI983160 LCE983144:LCE983160 LMA983144:LMA983160 LVW983144:LVW983160 MFS983144:MFS983160 MPO983144:MPO983160 MZK983144:MZK983160 NJG983144:NJG983160 NTC983144:NTC983160 OCY983144:OCY983160 OMU983144:OMU983160 OWQ983144:OWQ983160 PGM983144:PGM983160 PQI983144:PQI983160 QAE983144:QAE983160 QKA983144:QKA983160 QTW983144:QTW983160 RDS983144:RDS983160 RNO983144:RNO983160 RXK983144:RXK983160 SHG983144:SHG983160 SRC983144:SRC983160 TAY983144:TAY983160 TKU983144:TKU983160 TUQ983144:TUQ983160 UEM983144:UEM983160 UOI983144:UOI983160 UYE983144:UYE983160 VIA983144:VIA983160 VRW983144:VRW983160 WBS983144:WBS983160 WLO983144:WLO983160 C65640:C65656" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131180:C131196 IY65644:IY65660 SU65644:SU65660 ACQ65644:ACQ65660 AMM65644:AMM65660 AWI65644:AWI65660 BGE65644:BGE65660 BQA65644:BQA65660 BZW65644:BZW65660 CJS65644:CJS65660 CTO65644:CTO65660 DDK65644:DDK65660 DNG65644:DNG65660 DXC65644:DXC65660 EGY65644:EGY65660 EQU65644:EQU65660 FAQ65644:FAQ65660 FKM65644:FKM65660 FUI65644:FUI65660 GEE65644:GEE65660 GOA65644:GOA65660 GXW65644:GXW65660 HHS65644:HHS65660 HRO65644:HRO65660 IBK65644:IBK65660 ILG65644:ILG65660 IVC65644:IVC65660 JEY65644:JEY65660 JOU65644:JOU65660 JYQ65644:JYQ65660 KIM65644:KIM65660 KSI65644:KSI65660 LCE65644:LCE65660 LMA65644:LMA65660 LVW65644:LVW65660 MFS65644:MFS65660 MPO65644:MPO65660 MZK65644:MZK65660 NJG65644:NJG65660 NTC65644:NTC65660 OCY65644:OCY65660 OMU65644:OMU65660 OWQ65644:OWQ65660 PGM65644:PGM65660 PQI65644:PQI65660 QAE65644:QAE65660 QKA65644:QKA65660 QTW65644:QTW65660 RDS65644:RDS65660 RNO65644:RNO65660 RXK65644:RXK65660 SHG65644:SHG65660 SRC65644:SRC65660 TAY65644:TAY65660 TKU65644:TKU65660 TUQ65644:TUQ65660 UEM65644:UEM65660 UOI65644:UOI65660 UYE65644:UYE65660 VIA65644:VIA65660 VRW65644:VRW65660 WBS65644:WBS65660 WLO65644:WLO65660 WVK65644:WVK65660 C196716:C196732 IY131180:IY131196 SU131180:SU131196 ACQ131180:ACQ131196 AMM131180:AMM131196 AWI131180:AWI131196 BGE131180:BGE131196 BQA131180:BQA131196 BZW131180:BZW131196 CJS131180:CJS131196 CTO131180:CTO131196 DDK131180:DDK131196 DNG131180:DNG131196 DXC131180:DXC131196 EGY131180:EGY131196 EQU131180:EQU131196 FAQ131180:FAQ131196 FKM131180:FKM131196 FUI131180:FUI131196 GEE131180:GEE131196 GOA131180:GOA131196 GXW131180:GXW131196 HHS131180:HHS131196 HRO131180:HRO131196 IBK131180:IBK131196 ILG131180:ILG131196 IVC131180:IVC131196 JEY131180:JEY131196 JOU131180:JOU131196 JYQ131180:JYQ131196 KIM131180:KIM131196 KSI131180:KSI131196 LCE131180:LCE131196 LMA131180:LMA131196 LVW131180:LVW131196 MFS131180:MFS131196 MPO131180:MPO131196 MZK131180:MZK131196 NJG131180:NJG131196 NTC131180:NTC131196 OCY131180:OCY131196 OMU131180:OMU131196 OWQ131180:OWQ131196 PGM131180:PGM131196 PQI131180:PQI131196 QAE131180:QAE131196 QKA131180:QKA131196 QTW131180:QTW131196 RDS131180:RDS131196 RNO131180:RNO131196 RXK131180:RXK131196 SHG131180:SHG131196 SRC131180:SRC131196 TAY131180:TAY131196 TKU131180:TKU131196 TUQ131180:TUQ131196 UEM131180:UEM131196 UOI131180:UOI131196 UYE131180:UYE131196 VIA131180:VIA131196 VRW131180:VRW131196 WBS131180:WBS131196 WLO131180:WLO131196 WVK131180:WVK131196 C262252:C262268 IY196716:IY196732 SU196716:SU196732 ACQ196716:ACQ196732 AMM196716:AMM196732 AWI196716:AWI196732 BGE196716:BGE196732 BQA196716:BQA196732 BZW196716:BZW196732 CJS196716:CJS196732 CTO196716:CTO196732 DDK196716:DDK196732 DNG196716:DNG196732 DXC196716:DXC196732 EGY196716:EGY196732 EQU196716:EQU196732 FAQ196716:FAQ196732 FKM196716:FKM196732 FUI196716:FUI196732 GEE196716:GEE196732 GOA196716:GOA196732 GXW196716:GXW196732 HHS196716:HHS196732 HRO196716:HRO196732 IBK196716:IBK196732 ILG196716:ILG196732 IVC196716:IVC196732 JEY196716:JEY196732 JOU196716:JOU196732 JYQ196716:JYQ196732 KIM196716:KIM196732 KSI196716:KSI196732 LCE196716:LCE196732 LMA196716:LMA196732 LVW196716:LVW196732 MFS196716:MFS196732 MPO196716:MPO196732 MZK196716:MZK196732 NJG196716:NJG196732 NTC196716:NTC196732 OCY196716:OCY196732 OMU196716:OMU196732 OWQ196716:OWQ196732 PGM196716:PGM196732 PQI196716:PQI196732 QAE196716:QAE196732 QKA196716:QKA196732 QTW196716:QTW196732 RDS196716:RDS196732 RNO196716:RNO196732 RXK196716:RXK196732 SHG196716:SHG196732 SRC196716:SRC196732 TAY196716:TAY196732 TKU196716:TKU196732 TUQ196716:TUQ196732 UEM196716:UEM196732 UOI196716:UOI196732 UYE196716:UYE196732 VIA196716:VIA196732 VRW196716:VRW196732 WBS196716:WBS196732 WLO196716:WLO196732 WVK196716:WVK196732 C327788:C327804 IY262252:IY262268 SU262252:SU262268 ACQ262252:ACQ262268 AMM262252:AMM262268 AWI262252:AWI262268 BGE262252:BGE262268 BQA262252:BQA262268 BZW262252:BZW262268 CJS262252:CJS262268 CTO262252:CTO262268 DDK262252:DDK262268 DNG262252:DNG262268 DXC262252:DXC262268 EGY262252:EGY262268 EQU262252:EQU262268 FAQ262252:FAQ262268 FKM262252:FKM262268 FUI262252:FUI262268 GEE262252:GEE262268 GOA262252:GOA262268 GXW262252:GXW262268 HHS262252:HHS262268 HRO262252:HRO262268 IBK262252:IBK262268 ILG262252:ILG262268 IVC262252:IVC262268 JEY262252:JEY262268 JOU262252:JOU262268 JYQ262252:JYQ262268 KIM262252:KIM262268 KSI262252:KSI262268 LCE262252:LCE262268 LMA262252:LMA262268 LVW262252:LVW262268 MFS262252:MFS262268 MPO262252:MPO262268 MZK262252:MZK262268 NJG262252:NJG262268 NTC262252:NTC262268 OCY262252:OCY262268 OMU262252:OMU262268 OWQ262252:OWQ262268 PGM262252:PGM262268 PQI262252:PQI262268 QAE262252:QAE262268 QKA262252:QKA262268 QTW262252:QTW262268 RDS262252:RDS262268 RNO262252:RNO262268 RXK262252:RXK262268 SHG262252:SHG262268 SRC262252:SRC262268 TAY262252:TAY262268 TKU262252:TKU262268 TUQ262252:TUQ262268 UEM262252:UEM262268 UOI262252:UOI262268 UYE262252:UYE262268 VIA262252:VIA262268 VRW262252:VRW262268 WBS262252:WBS262268 WLO262252:WLO262268 WVK262252:WVK262268 C393324:C393340 IY327788:IY327804 SU327788:SU327804 ACQ327788:ACQ327804 AMM327788:AMM327804 AWI327788:AWI327804 BGE327788:BGE327804 BQA327788:BQA327804 BZW327788:BZW327804 CJS327788:CJS327804 CTO327788:CTO327804 DDK327788:DDK327804 DNG327788:DNG327804 DXC327788:DXC327804 EGY327788:EGY327804 EQU327788:EQU327804 FAQ327788:FAQ327804 FKM327788:FKM327804 FUI327788:FUI327804 GEE327788:GEE327804 GOA327788:GOA327804 GXW327788:GXW327804 HHS327788:HHS327804 HRO327788:HRO327804 IBK327788:IBK327804 ILG327788:ILG327804 IVC327788:IVC327804 JEY327788:JEY327804 JOU327788:JOU327804 JYQ327788:JYQ327804 KIM327788:KIM327804 KSI327788:KSI327804 LCE327788:LCE327804 LMA327788:LMA327804 LVW327788:LVW327804 MFS327788:MFS327804 MPO327788:MPO327804 MZK327788:MZK327804 NJG327788:NJG327804 NTC327788:NTC327804 OCY327788:OCY327804 OMU327788:OMU327804 OWQ327788:OWQ327804 PGM327788:PGM327804 PQI327788:PQI327804 QAE327788:QAE327804 QKA327788:QKA327804 QTW327788:QTW327804 RDS327788:RDS327804 RNO327788:RNO327804 RXK327788:RXK327804 SHG327788:SHG327804 SRC327788:SRC327804 TAY327788:TAY327804 TKU327788:TKU327804 TUQ327788:TUQ327804 UEM327788:UEM327804 UOI327788:UOI327804 UYE327788:UYE327804 VIA327788:VIA327804 VRW327788:VRW327804 WBS327788:WBS327804 WLO327788:WLO327804 WVK327788:WVK327804 C458860:C458876 IY393324:IY393340 SU393324:SU393340 ACQ393324:ACQ393340 AMM393324:AMM393340 AWI393324:AWI393340 BGE393324:BGE393340 BQA393324:BQA393340 BZW393324:BZW393340 CJS393324:CJS393340 CTO393324:CTO393340 DDK393324:DDK393340 DNG393324:DNG393340 DXC393324:DXC393340 EGY393324:EGY393340 EQU393324:EQU393340 FAQ393324:FAQ393340 FKM393324:FKM393340 FUI393324:FUI393340 GEE393324:GEE393340 GOA393324:GOA393340 GXW393324:GXW393340 HHS393324:HHS393340 HRO393324:HRO393340 IBK393324:IBK393340 ILG393324:ILG393340 IVC393324:IVC393340 JEY393324:JEY393340 JOU393324:JOU393340 JYQ393324:JYQ393340 KIM393324:KIM393340 KSI393324:KSI393340 LCE393324:LCE393340 LMA393324:LMA393340 LVW393324:LVW393340 MFS393324:MFS393340 MPO393324:MPO393340 MZK393324:MZK393340 NJG393324:NJG393340 NTC393324:NTC393340 OCY393324:OCY393340 OMU393324:OMU393340 OWQ393324:OWQ393340 PGM393324:PGM393340 PQI393324:PQI393340 QAE393324:QAE393340 QKA393324:QKA393340 QTW393324:QTW393340 RDS393324:RDS393340 RNO393324:RNO393340 RXK393324:RXK393340 SHG393324:SHG393340 SRC393324:SRC393340 TAY393324:TAY393340 TKU393324:TKU393340 TUQ393324:TUQ393340 UEM393324:UEM393340 UOI393324:UOI393340 UYE393324:UYE393340 VIA393324:VIA393340 VRW393324:VRW393340 WBS393324:WBS393340 WLO393324:WLO393340 WVK393324:WVK393340 C524396:C524412 IY458860:IY458876 SU458860:SU458876 ACQ458860:ACQ458876 AMM458860:AMM458876 AWI458860:AWI458876 BGE458860:BGE458876 BQA458860:BQA458876 BZW458860:BZW458876 CJS458860:CJS458876 CTO458860:CTO458876 DDK458860:DDK458876 DNG458860:DNG458876 DXC458860:DXC458876 EGY458860:EGY458876 EQU458860:EQU458876 FAQ458860:FAQ458876 FKM458860:FKM458876 FUI458860:FUI458876 GEE458860:GEE458876 GOA458860:GOA458876 GXW458860:GXW458876 HHS458860:HHS458876 HRO458860:HRO458876 IBK458860:IBK458876 ILG458860:ILG458876 IVC458860:IVC458876 JEY458860:JEY458876 JOU458860:JOU458876 JYQ458860:JYQ458876 KIM458860:KIM458876 KSI458860:KSI458876 LCE458860:LCE458876 LMA458860:LMA458876 LVW458860:LVW458876 MFS458860:MFS458876 MPO458860:MPO458876 MZK458860:MZK458876 NJG458860:NJG458876 NTC458860:NTC458876 OCY458860:OCY458876 OMU458860:OMU458876 OWQ458860:OWQ458876 PGM458860:PGM458876 PQI458860:PQI458876 QAE458860:QAE458876 QKA458860:QKA458876 QTW458860:QTW458876 RDS458860:RDS458876 RNO458860:RNO458876 RXK458860:RXK458876 SHG458860:SHG458876 SRC458860:SRC458876 TAY458860:TAY458876 TKU458860:TKU458876 TUQ458860:TUQ458876 UEM458860:UEM458876 UOI458860:UOI458876 UYE458860:UYE458876 VIA458860:VIA458876 VRW458860:VRW458876 WBS458860:WBS458876 WLO458860:WLO458876 WVK458860:WVK458876 C589932:C589948 IY524396:IY524412 SU524396:SU524412 ACQ524396:ACQ524412 AMM524396:AMM524412 AWI524396:AWI524412 BGE524396:BGE524412 BQA524396:BQA524412 BZW524396:BZW524412 CJS524396:CJS524412 CTO524396:CTO524412 DDK524396:DDK524412 DNG524396:DNG524412 DXC524396:DXC524412 EGY524396:EGY524412 EQU524396:EQU524412 FAQ524396:FAQ524412 FKM524396:FKM524412 FUI524396:FUI524412 GEE524396:GEE524412 GOA524396:GOA524412 GXW524396:GXW524412 HHS524396:HHS524412 HRO524396:HRO524412 IBK524396:IBK524412 ILG524396:ILG524412 IVC524396:IVC524412 JEY524396:JEY524412 JOU524396:JOU524412 JYQ524396:JYQ524412 KIM524396:KIM524412 KSI524396:KSI524412 LCE524396:LCE524412 LMA524396:LMA524412 LVW524396:LVW524412 MFS524396:MFS524412 MPO524396:MPO524412 MZK524396:MZK524412 NJG524396:NJG524412 NTC524396:NTC524412 OCY524396:OCY524412 OMU524396:OMU524412 OWQ524396:OWQ524412 PGM524396:PGM524412 PQI524396:PQI524412 QAE524396:QAE524412 QKA524396:QKA524412 QTW524396:QTW524412 RDS524396:RDS524412 RNO524396:RNO524412 RXK524396:RXK524412 SHG524396:SHG524412 SRC524396:SRC524412 TAY524396:TAY524412 TKU524396:TKU524412 TUQ524396:TUQ524412 UEM524396:UEM524412 UOI524396:UOI524412 UYE524396:UYE524412 VIA524396:VIA524412 VRW524396:VRW524412 WBS524396:WBS524412 WLO524396:WLO524412 WVK524396:WVK524412 C655468:C655484 IY589932:IY589948 SU589932:SU589948 ACQ589932:ACQ589948 AMM589932:AMM589948 AWI589932:AWI589948 BGE589932:BGE589948 BQA589932:BQA589948 BZW589932:BZW589948 CJS589932:CJS589948 CTO589932:CTO589948 DDK589932:DDK589948 DNG589932:DNG589948 DXC589932:DXC589948 EGY589932:EGY589948 EQU589932:EQU589948 FAQ589932:FAQ589948 FKM589932:FKM589948 FUI589932:FUI589948 GEE589932:GEE589948 GOA589932:GOA589948 GXW589932:GXW589948 HHS589932:HHS589948 HRO589932:HRO589948 IBK589932:IBK589948 ILG589932:ILG589948 IVC589932:IVC589948 JEY589932:JEY589948 JOU589932:JOU589948 JYQ589932:JYQ589948 KIM589932:KIM589948 KSI589932:KSI589948 LCE589932:LCE589948 LMA589932:LMA589948 LVW589932:LVW589948 MFS589932:MFS589948 MPO589932:MPO589948 MZK589932:MZK589948 NJG589932:NJG589948 NTC589932:NTC589948 OCY589932:OCY589948 OMU589932:OMU589948 OWQ589932:OWQ589948 PGM589932:PGM589948 PQI589932:PQI589948 QAE589932:QAE589948 QKA589932:QKA589948 QTW589932:QTW589948 RDS589932:RDS589948 RNO589932:RNO589948 RXK589932:RXK589948 SHG589932:SHG589948 SRC589932:SRC589948 TAY589932:TAY589948 TKU589932:TKU589948 TUQ589932:TUQ589948 UEM589932:UEM589948 UOI589932:UOI589948 UYE589932:UYE589948 VIA589932:VIA589948 VRW589932:VRW589948 WBS589932:WBS589948 WLO589932:WLO589948 WVK589932:WVK589948 C721004:C721020 IY655468:IY655484 SU655468:SU655484 ACQ655468:ACQ655484 AMM655468:AMM655484 AWI655468:AWI655484 BGE655468:BGE655484 BQA655468:BQA655484 BZW655468:BZW655484 CJS655468:CJS655484 CTO655468:CTO655484 DDK655468:DDK655484 DNG655468:DNG655484 DXC655468:DXC655484 EGY655468:EGY655484 EQU655468:EQU655484 FAQ655468:FAQ655484 FKM655468:FKM655484 FUI655468:FUI655484 GEE655468:GEE655484 GOA655468:GOA655484 GXW655468:GXW655484 HHS655468:HHS655484 HRO655468:HRO655484 IBK655468:IBK655484 ILG655468:ILG655484 IVC655468:IVC655484 JEY655468:JEY655484 JOU655468:JOU655484 JYQ655468:JYQ655484 KIM655468:KIM655484 KSI655468:KSI655484 LCE655468:LCE655484 LMA655468:LMA655484 LVW655468:LVW655484 MFS655468:MFS655484 MPO655468:MPO655484 MZK655468:MZK655484 NJG655468:NJG655484 NTC655468:NTC655484 OCY655468:OCY655484 OMU655468:OMU655484 OWQ655468:OWQ655484 PGM655468:PGM655484 PQI655468:PQI655484 QAE655468:QAE655484 QKA655468:QKA655484 QTW655468:QTW655484 RDS655468:RDS655484 RNO655468:RNO655484 RXK655468:RXK655484 SHG655468:SHG655484 SRC655468:SRC655484 TAY655468:TAY655484 TKU655468:TKU655484 TUQ655468:TUQ655484 UEM655468:UEM655484 UOI655468:UOI655484 UYE655468:UYE655484 VIA655468:VIA655484 VRW655468:VRW655484 WBS655468:WBS655484 WLO655468:WLO655484 WVK655468:WVK655484 C786540:C786556 IY721004:IY721020 SU721004:SU721020 ACQ721004:ACQ721020 AMM721004:AMM721020 AWI721004:AWI721020 BGE721004:BGE721020 BQA721004:BQA721020 BZW721004:BZW721020 CJS721004:CJS721020 CTO721004:CTO721020 DDK721004:DDK721020 DNG721004:DNG721020 DXC721004:DXC721020 EGY721004:EGY721020 EQU721004:EQU721020 FAQ721004:FAQ721020 FKM721004:FKM721020 FUI721004:FUI721020 GEE721004:GEE721020 GOA721004:GOA721020 GXW721004:GXW721020 HHS721004:HHS721020 HRO721004:HRO721020 IBK721004:IBK721020 ILG721004:ILG721020 IVC721004:IVC721020 JEY721004:JEY721020 JOU721004:JOU721020 JYQ721004:JYQ721020 KIM721004:KIM721020 KSI721004:KSI721020 LCE721004:LCE721020 LMA721004:LMA721020 LVW721004:LVW721020 MFS721004:MFS721020 MPO721004:MPO721020 MZK721004:MZK721020 NJG721004:NJG721020 NTC721004:NTC721020 OCY721004:OCY721020 OMU721004:OMU721020 OWQ721004:OWQ721020 PGM721004:PGM721020 PQI721004:PQI721020 QAE721004:QAE721020 QKA721004:QKA721020 QTW721004:QTW721020 RDS721004:RDS721020 RNO721004:RNO721020 RXK721004:RXK721020 SHG721004:SHG721020 SRC721004:SRC721020 TAY721004:TAY721020 TKU721004:TKU721020 TUQ721004:TUQ721020 UEM721004:UEM721020 UOI721004:UOI721020 UYE721004:UYE721020 VIA721004:VIA721020 VRW721004:VRW721020 WBS721004:WBS721020 WLO721004:WLO721020 WVK721004:WVK721020 C852076:C852092 IY786540:IY786556 SU786540:SU786556 ACQ786540:ACQ786556 AMM786540:AMM786556 AWI786540:AWI786556 BGE786540:BGE786556 BQA786540:BQA786556 BZW786540:BZW786556 CJS786540:CJS786556 CTO786540:CTO786556 DDK786540:DDK786556 DNG786540:DNG786556 DXC786540:DXC786556 EGY786540:EGY786556 EQU786540:EQU786556 FAQ786540:FAQ786556 FKM786540:FKM786556 FUI786540:FUI786556 GEE786540:GEE786556 GOA786540:GOA786556 GXW786540:GXW786556 HHS786540:HHS786556 HRO786540:HRO786556 IBK786540:IBK786556 ILG786540:ILG786556 IVC786540:IVC786556 JEY786540:JEY786556 JOU786540:JOU786556 JYQ786540:JYQ786556 KIM786540:KIM786556 KSI786540:KSI786556 LCE786540:LCE786556 LMA786540:LMA786556 LVW786540:LVW786556 MFS786540:MFS786556 MPO786540:MPO786556 MZK786540:MZK786556 NJG786540:NJG786556 NTC786540:NTC786556 OCY786540:OCY786556 OMU786540:OMU786556 OWQ786540:OWQ786556 PGM786540:PGM786556 PQI786540:PQI786556 QAE786540:QAE786556 QKA786540:QKA786556 QTW786540:QTW786556 RDS786540:RDS786556 RNO786540:RNO786556 RXK786540:RXK786556 SHG786540:SHG786556 SRC786540:SRC786556 TAY786540:TAY786556 TKU786540:TKU786556 TUQ786540:TUQ786556 UEM786540:UEM786556 UOI786540:UOI786556 UYE786540:UYE786556 VIA786540:VIA786556 VRW786540:VRW786556 WBS786540:WBS786556 WLO786540:WLO786556 WVK786540:WVK786556 C917612:C917628 IY852076:IY852092 SU852076:SU852092 ACQ852076:ACQ852092 AMM852076:AMM852092 AWI852076:AWI852092 BGE852076:BGE852092 BQA852076:BQA852092 BZW852076:BZW852092 CJS852076:CJS852092 CTO852076:CTO852092 DDK852076:DDK852092 DNG852076:DNG852092 DXC852076:DXC852092 EGY852076:EGY852092 EQU852076:EQU852092 FAQ852076:FAQ852092 FKM852076:FKM852092 FUI852076:FUI852092 GEE852076:GEE852092 GOA852076:GOA852092 GXW852076:GXW852092 HHS852076:HHS852092 HRO852076:HRO852092 IBK852076:IBK852092 ILG852076:ILG852092 IVC852076:IVC852092 JEY852076:JEY852092 JOU852076:JOU852092 JYQ852076:JYQ852092 KIM852076:KIM852092 KSI852076:KSI852092 LCE852076:LCE852092 LMA852076:LMA852092 LVW852076:LVW852092 MFS852076:MFS852092 MPO852076:MPO852092 MZK852076:MZK852092 NJG852076:NJG852092 NTC852076:NTC852092 OCY852076:OCY852092 OMU852076:OMU852092 OWQ852076:OWQ852092 PGM852076:PGM852092 PQI852076:PQI852092 QAE852076:QAE852092 QKA852076:QKA852092 QTW852076:QTW852092 RDS852076:RDS852092 RNO852076:RNO852092 RXK852076:RXK852092 SHG852076:SHG852092 SRC852076:SRC852092 TAY852076:TAY852092 TKU852076:TKU852092 TUQ852076:TUQ852092 UEM852076:UEM852092 UOI852076:UOI852092 UYE852076:UYE852092 VIA852076:VIA852092 VRW852076:VRW852092 WBS852076:WBS852092 WLO852076:WLO852092 WVK852076:WVK852092 C983148:C983164 IY917612:IY917628 SU917612:SU917628 ACQ917612:ACQ917628 AMM917612:AMM917628 AWI917612:AWI917628 BGE917612:BGE917628 BQA917612:BQA917628 BZW917612:BZW917628 CJS917612:CJS917628 CTO917612:CTO917628 DDK917612:DDK917628 DNG917612:DNG917628 DXC917612:DXC917628 EGY917612:EGY917628 EQU917612:EQU917628 FAQ917612:FAQ917628 FKM917612:FKM917628 FUI917612:FUI917628 GEE917612:GEE917628 GOA917612:GOA917628 GXW917612:GXW917628 HHS917612:HHS917628 HRO917612:HRO917628 IBK917612:IBK917628 ILG917612:ILG917628 IVC917612:IVC917628 JEY917612:JEY917628 JOU917612:JOU917628 JYQ917612:JYQ917628 KIM917612:KIM917628 KSI917612:KSI917628 LCE917612:LCE917628 LMA917612:LMA917628 LVW917612:LVW917628 MFS917612:MFS917628 MPO917612:MPO917628 MZK917612:MZK917628 NJG917612:NJG917628 NTC917612:NTC917628 OCY917612:OCY917628 OMU917612:OMU917628 OWQ917612:OWQ917628 PGM917612:PGM917628 PQI917612:PQI917628 QAE917612:QAE917628 QKA917612:QKA917628 QTW917612:QTW917628 RDS917612:RDS917628 RNO917612:RNO917628 RXK917612:RXK917628 SHG917612:SHG917628 SRC917612:SRC917628 TAY917612:TAY917628 TKU917612:TKU917628 TUQ917612:TUQ917628 UEM917612:UEM917628 UOI917612:UOI917628 UYE917612:UYE917628 VIA917612:VIA917628 VRW917612:VRW917628 WBS917612:WBS917628 WLO917612:WLO917628 WVK917612:WVK917628 WVK983148:WVK983164 IY983148:IY983164 SU983148:SU983164 ACQ983148:ACQ983164 AMM983148:AMM983164 AWI983148:AWI983164 BGE983148:BGE983164 BQA983148:BQA983164 BZW983148:BZW983164 CJS983148:CJS983164 CTO983148:CTO983164 DDK983148:DDK983164 DNG983148:DNG983164 DXC983148:DXC983164 EGY983148:EGY983164 EQU983148:EQU983164 FAQ983148:FAQ983164 FKM983148:FKM983164 FUI983148:FUI983164 GEE983148:GEE983164 GOA983148:GOA983164 GXW983148:GXW983164 HHS983148:HHS983164 HRO983148:HRO983164 IBK983148:IBK983164 ILG983148:ILG983164 IVC983148:IVC983164 JEY983148:JEY983164 JOU983148:JOU983164 JYQ983148:JYQ983164 KIM983148:KIM983164 KSI983148:KSI983164 LCE983148:LCE983164 LMA983148:LMA983164 LVW983148:LVW983164 MFS983148:MFS983164 MPO983148:MPO983164 MZK983148:MZK983164 NJG983148:NJG983164 NTC983148:NTC983164 OCY983148:OCY983164 OMU983148:OMU983164 OWQ983148:OWQ983164 PGM983148:PGM983164 PQI983148:PQI983164 QAE983148:QAE983164 QKA983148:QKA983164 QTW983148:QTW983164 RDS983148:RDS983164 RNO983148:RNO983164 RXK983148:RXK983164 SHG983148:SHG983164 SRC983148:SRC983164 TAY983148:TAY983164 TKU983148:TKU983164 TUQ983148:TUQ983164 UEM983148:UEM983164 UOI983148:UOI983164 UYE983148:UYE983164 VIA983148:VIA983164 VRW983148:VRW983164 WBS983148:WBS983164 WLO983148:WLO983164 C65644:C65660" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65640:F65673 JB65640:JB65673 SX65640:SX65673 ACT65640:ACT65673 AMP65640:AMP65673 AWL65640:AWL65673 BGH65640:BGH65673 BQD65640:BQD65673 BZZ65640:BZZ65673 CJV65640:CJV65673 CTR65640:CTR65673 DDN65640:DDN65673 DNJ65640:DNJ65673 DXF65640:DXF65673 EHB65640:EHB65673 EQX65640:EQX65673 FAT65640:FAT65673 FKP65640:FKP65673 FUL65640:FUL65673 GEH65640:GEH65673 GOD65640:GOD65673 GXZ65640:GXZ65673 HHV65640:HHV65673 HRR65640:HRR65673 IBN65640:IBN65673 ILJ65640:ILJ65673 IVF65640:IVF65673 JFB65640:JFB65673 JOX65640:JOX65673 JYT65640:JYT65673 KIP65640:KIP65673 KSL65640:KSL65673 LCH65640:LCH65673 LMD65640:LMD65673 LVZ65640:LVZ65673 MFV65640:MFV65673 MPR65640:MPR65673 MZN65640:MZN65673 NJJ65640:NJJ65673 NTF65640:NTF65673 ODB65640:ODB65673 OMX65640:OMX65673 OWT65640:OWT65673 PGP65640:PGP65673 PQL65640:PQL65673 QAH65640:QAH65673 QKD65640:QKD65673 QTZ65640:QTZ65673 RDV65640:RDV65673 RNR65640:RNR65673 RXN65640:RXN65673 SHJ65640:SHJ65673 SRF65640:SRF65673 TBB65640:TBB65673 TKX65640:TKX65673 TUT65640:TUT65673 UEP65640:UEP65673 UOL65640:UOL65673 UYH65640:UYH65673 VID65640:VID65673 VRZ65640:VRZ65673 WBV65640:WBV65673 WLR65640:WLR65673 WVN65640:WVN65673 F131176:F131209 JB131176:JB131209 SX131176:SX131209 ACT131176:ACT131209 AMP131176:AMP131209 AWL131176:AWL131209 BGH131176:BGH131209 BQD131176:BQD131209 BZZ131176:BZZ131209 CJV131176:CJV131209 CTR131176:CTR131209 DDN131176:DDN131209 DNJ131176:DNJ131209 DXF131176:DXF131209 EHB131176:EHB131209 EQX131176:EQX131209 FAT131176:FAT131209 FKP131176:FKP131209 FUL131176:FUL131209 GEH131176:GEH131209 GOD131176:GOD131209 GXZ131176:GXZ131209 HHV131176:HHV131209 HRR131176:HRR131209 IBN131176:IBN131209 ILJ131176:ILJ131209 IVF131176:IVF131209 JFB131176:JFB131209 JOX131176:JOX131209 JYT131176:JYT131209 KIP131176:KIP131209 KSL131176:KSL131209 LCH131176:LCH131209 LMD131176:LMD131209 LVZ131176:LVZ131209 MFV131176:MFV131209 MPR131176:MPR131209 MZN131176:MZN131209 NJJ131176:NJJ131209 NTF131176:NTF131209 ODB131176:ODB131209 OMX131176:OMX131209 OWT131176:OWT131209 PGP131176:PGP131209 PQL131176:PQL131209 QAH131176:QAH131209 QKD131176:QKD131209 QTZ131176:QTZ131209 RDV131176:RDV131209 RNR131176:RNR131209 RXN131176:RXN131209 SHJ131176:SHJ131209 SRF131176:SRF131209 TBB131176:TBB131209 TKX131176:TKX131209 TUT131176:TUT131209 UEP131176:UEP131209 UOL131176:UOL131209 UYH131176:UYH131209 VID131176:VID131209 VRZ131176:VRZ131209 WBV131176:WBV131209 WLR131176:WLR131209 WVN131176:WVN131209 F196712:F196745 JB196712:JB196745 SX196712:SX196745 ACT196712:ACT196745 AMP196712:AMP196745 AWL196712:AWL196745 BGH196712:BGH196745 BQD196712:BQD196745 BZZ196712:BZZ196745 CJV196712:CJV196745 CTR196712:CTR196745 DDN196712:DDN196745 DNJ196712:DNJ196745 DXF196712:DXF196745 EHB196712:EHB196745 EQX196712:EQX196745 FAT196712:FAT196745 FKP196712:FKP196745 FUL196712:FUL196745 GEH196712:GEH196745 GOD196712:GOD196745 GXZ196712:GXZ196745 HHV196712:HHV196745 HRR196712:HRR196745 IBN196712:IBN196745 ILJ196712:ILJ196745 IVF196712:IVF196745 JFB196712:JFB196745 JOX196712:JOX196745 JYT196712:JYT196745 KIP196712:KIP196745 KSL196712:KSL196745 LCH196712:LCH196745 LMD196712:LMD196745 LVZ196712:LVZ196745 MFV196712:MFV196745 MPR196712:MPR196745 MZN196712:MZN196745 NJJ196712:NJJ196745 NTF196712:NTF196745 ODB196712:ODB196745 OMX196712:OMX196745 OWT196712:OWT196745 PGP196712:PGP196745 PQL196712:PQL196745 QAH196712:QAH196745 QKD196712:QKD196745 QTZ196712:QTZ196745 RDV196712:RDV196745 RNR196712:RNR196745 RXN196712:RXN196745 SHJ196712:SHJ196745 SRF196712:SRF196745 TBB196712:TBB196745 TKX196712:TKX196745 TUT196712:TUT196745 UEP196712:UEP196745 UOL196712:UOL196745 UYH196712:UYH196745 VID196712:VID196745 VRZ196712:VRZ196745 WBV196712:WBV196745 WLR196712:WLR196745 WVN196712:WVN196745 F262248:F262281 JB262248:JB262281 SX262248:SX262281 ACT262248:ACT262281 AMP262248:AMP262281 AWL262248:AWL262281 BGH262248:BGH262281 BQD262248:BQD262281 BZZ262248:BZZ262281 CJV262248:CJV262281 CTR262248:CTR262281 DDN262248:DDN262281 DNJ262248:DNJ262281 DXF262248:DXF262281 EHB262248:EHB262281 EQX262248:EQX262281 FAT262248:FAT262281 FKP262248:FKP262281 FUL262248:FUL262281 GEH262248:GEH262281 GOD262248:GOD262281 GXZ262248:GXZ262281 HHV262248:HHV262281 HRR262248:HRR262281 IBN262248:IBN262281 ILJ262248:ILJ262281 IVF262248:IVF262281 JFB262248:JFB262281 JOX262248:JOX262281 JYT262248:JYT262281 KIP262248:KIP262281 KSL262248:KSL262281 LCH262248:LCH262281 LMD262248:LMD262281 LVZ262248:LVZ262281 MFV262248:MFV262281 MPR262248:MPR262281 MZN262248:MZN262281 NJJ262248:NJJ262281 NTF262248:NTF262281 ODB262248:ODB262281 OMX262248:OMX262281 OWT262248:OWT262281 PGP262248:PGP262281 PQL262248:PQL262281 QAH262248:QAH262281 QKD262248:QKD262281 QTZ262248:QTZ262281 RDV262248:RDV262281 RNR262248:RNR262281 RXN262248:RXN262281 SHJ262248:SHJ262281 SRF262248:SRF262281 TBB262248:TBB262281 TKX262248:TKX262281 TUT262248:TUT262281 UEP262248:UEP262281 UOL262248:UOL262281 UYH262248:UYH262281 VID262248:VID262281 VRZ262248:VRZ262281 WBV262248:WBV262281 WLR262248:WLR262281 WVN262248:WVN262281 F327784:F327817 JB327784:JB327817 SX327784:SX327817 ACT327784:ACT327817 AMP327784:AMP327817 AWL327784:AWL327817 BGH327784:BGH327817 BQD327784:BQD327817 BZZ327784:BZZ327817 CJV327784:CJV327817 CTR327784:CTR327817 DDN327784:DDN327817 DNJ327784:DNJ327817 DXF327784:DXF327817 EHB327784:EHB327817 EQX327784:EQX327817 FAT327784:FAT327817 FKP327784:FKP327817 FUL327784:FUL327817 GEH327784:GEH327817 GOD327784:GOD327817 GXZ327784:GXZ327817 HHV327784:HHV327817 HRR327784:HRR327817 IBN327784:IBN327817 ILJ327784:ILJ327817 IVF327784:IVF327817 JFB327784:JFB327817 JOX327784:JOX327817 JYT327784:JYT327817 KIP327784:KIP327817 KSL327784:KSL327817 LCH327784:LCH327817 LMD327784:LMD327817 LVZ327784:LVZ327817 MFV327784:MFV327817 MPR327784:MPR327817 MZN327784:MZN327817 NJJ327784:NJJ327817 NTF327784:NTF327817 ODB327784:ODB327817 OMX327784:OMX327817 OWT327784:OWT327817 PGP327784:PGP327817 PQL327784:PQL327817 QAH327784:QAH327817 QKD327784:QKD327817 QTZ327784:QTZ327817 RDV327784:RDV327817 RNR327784:RNR327817 RXN327784:RXN327817 SHJ327784:SHJ327817 SRF327784:SRF327817 TBB327784:TBB327817 TKX327784:TKX327817 TUT327784:TUT327817 UEP327784:UEP327817 UOL327784:UOL327817 UYH327784:UYH327817 VID327784:VID327817 VRZ327784:VRZ327817 WBV327784:WBV327817 WLR327784:WLR327817 WVN327784:WVN327817 F393320:F393353 JB393320:JB393353 SX393320:SX393353 ACT393320:ACT393353 AMP393320:AMP393353 AWL393320:AWL393353 BGH393320:BGH393353 BQD393320:BQD393353 BZZ393320:BZZ393353 CJV393320:CJV393353 CTR393320:CTR393353 DDN393320:DDN393353 DNJ393320:DNJ393353 DXF393320:DXF393353 EHB393320:EHB393353 EQX393320:EQX393353 FAT393320:FAT393353 FKP393320:FKP393353 FUL393320:FUL393353 GEH393320:GEH393353 GOD393320:GOD393353 GXZ393320:GXZ393353 HHV393320:HHV393353 HRR393320:HRR393353 IBN393320:IBN393353 ILJ393320:ILJ393353 IVF393320:IVF393353 JFB393320:JFB393353 JOX393320:JOX393353 JYT393320:JYT393353 KIP393320:KIP393353 KSL393320:KSL393353 LCH393320:LCH393353 LMD393320:LMD393353 LVZ393320:LVZ393353 MFV393320:MFV393353 MPR393320:MPR393353 MZN393320:MZN393353 NJJ393320:NJJ393353 NTF393320:NTF393353 ODB393320:ODB393353 OMX393320:OMX393353 OWT393320:OWT393353 PGP393320:PGP393353 PQL393320:PQL393353 QAH393320:QAH393353 QKD393320:QKD393353 QTZ393320:QTZ393353 RDV393320:RDV393353 RNR393320:RNR393353 RXN393320:RXN393353 SHJ393320:SHJ393353 SRF393320:SRF393353 TBB393320:TBB393353 TKX393320:TKX393353 TUT393320:TUT393353 UEP393320:UEP393353 UOL393320:UOL393353 UYH393320:UYH393353 VID393320:VID393353 VRZ393320:VRZ393353 WBV393320:WBV393353 WLR393320:WLR393353 WVN393320:WVN393353 F458856:F458889 JB458856:JB458889 SX458856:SX458889 ACT458856:ACT458889 AMP458856:AMP458889 AWL458856:AWL458889 BGH458856:BGH458889 BQD458856:BQD458889 BZZ458856:BZZ458889 CJV458856:CJV458889 CTR458856:CTR458889 DDN458856:DDN458889 DNJ458856:DNJ458889 DXF458856:DXF458889 EHB458856:EHB458889 EQX458856:EQX458889 FAT458856:FAT458889 FKP458856:FKP458889 FUL458856:FUL458889 GEH458856:GEH458889 GOD458856:GOD458889 GXZ458856:GXZ458889 HHV458856:HHV458889 HRR458856:HRR458889 IBN458856:IBN458889 ILJ458856:ILJ458889 IVF458856:IVF458889 JFB458856:JFB458889 JOX458856:JOX458889 JYT458856:JYT458889 KIP458856:KIP458889 KSL458856:KSL458889 LCH458856:LCH458889 LMD458856:LMD458889 LVZ458856:LVZ458889 MFV458856:MFV458889 MPR458856:MPR458889 MZN458856:MZN458889 NJJ458856:NJJ458889 NTF458856:NTF458889 ODB458856:ODB458889 OMX458856:OMX458889 OWT458856:OWT458889 PGP458856:PGP458889 PQL458856:PQL458889 QAH458856:QAH458889 QKD458856:QKD458889 QTZ458856:QTZ458889 RDV458856:RDV458889 RNR458856:RNR458889 RXN458856:RXN458889 SHJ458856:SHJ458889 SRF458856:SRF458889 TBB458856:TBB458889 TKX458856:TKX458889 TUT458856:TUT458889 UEP458856:UEP458889 UOL458856:UOL458889 UYH458856:UYH458889 VID458856:VID458889 VRZ458856:VRZ458889 WBV458856:WBV458889 WLR458856:WLR458889 WVN458856:WVN458889 F524392:F524425 JB524392:JB524425 SX524392:SX524425 ACT524392:ACT524425 AMP524392:AMP524425 AWL524392:AWL524425 BGH524392:BGH524425 BQD524392:BQD524425 BZZ524392:BZZ524425 CJV524392:CJV524425 CTR524392:CTR524425 DDN524392:DDN524425 DNJ524392:DNJ524425 DXF524392:DXF524425 EHB524392:EHB524425 EQX524392:EQX524425 FAT524392:FAT524425 FKP524392:FKP524425 FUL524392:FUL524425 GEH524392:GEH524425 GOD524392:GOD524425 GXZ524392:GXZ524425 HHV524392:HHV524425 HRR524392:HRR524425 IBN524392:IBN524425 ILJ524392:ILJ524425 IVF524392:IVF524425 JFB524392:JFB524425 JOX524392:JOX524425 JYT524392:JYT524425 KIP524392:KIP524425 KSL524392:KSL524425 LCH524392:LCH524425 LMD524392:LMD524425 LVZ524392:LVZ524425 MFV524392:MFV524425 MPR524392:MPR524425 MZN524392:MZN524425 NJJ524392:NJJ524425 NTF524392:NTF524425 ODB524392:ODB524425 OMX524392:OMX524425 OWT524392:OWT524425 PGP524392:PGP524425 PQL524392:PQL524425 QAH524392:QAH524425 QKD524392:QKD524425 QTZ524392:QTZ524425 RDV524392:RDV524425 RNR524392:RNR524425 RXN524392:RXN524425 SHJ524392:SHJ524425 SRF524392:SRF524425 TBB524392:TBB524425 TKX524392:TKX524425 TUT524392:TUT524425 UEP524392:UEP524425 UOL524392:UOL524425 UYH524392:UYH524425 VID524392:VID524425 VRZ524392:VRZ524425 WBV524392:WBV524425 WLR524392:WLR524425 WVN524392:WVN524425 F589928:F589961 JB589928:JB589961 SX589928:SX589961 ACT589928:ACT589961 AMP589928:AMP589961 AWL589928:AWL589961 BGH589928:BGH589961 BQD589928:BQD589961 BZZ589928:BZZ589961 CJV589928:CJV589961 CTR589928:CTR589961 DDN589928:DDN589961 DNJ589928:DNJ589961 DXF589928:DXF589961 EHB589928:EHB589961 EQX589928:EQX589961 FAT589928:FAT589961 FKP589928:FKP589961 FUL589928:FUL589961 GEH589928:GEH589961 GOD589928:GOD589961 GXZ589928:GXZ589961 HHV589928:HHV589961 HRR589928:HRR589961 IBN589928:IBN589961 ILJ589928:ILJ589961 IVF589928:IVF589961 JFB589928:JFB589961 JOX589928:JOX589961 JYT589928:JYT589961 KIP589928:KIP589961 KSL589928:KSL589961 LCH589928:LCH589961 LMD589928:LMD589961 LVZ589928:LVZ589961 MFV589928:MFV589961 MPR589928:MPR589961 MZN589928:MZN589961 NJJ589928:NJJ589961 NTF589928:NTF589961 ODB589928:ODB589961 OMX589928:OMX589961 OWT589928:OWT589961 PGP589928:PGP589961 PQL589928:PQL589961 QAH589928:QAH589961 QKD589928:QKD589961 QTZ589928:QTZ589961 RDV589928:RDV589961 RNR589928:RNR589961 RXN589928:RXN589961 SHJ589928:SHJ589961 SRF589928:SRF589961 TBB589928:TBB589961 TKX589928:TKX589961 TUT589928:TUT589961 UEP589928:UEP589961 UOL589928:UOL589961 UYH589928:UYH589961 VID589928:VID589961 VRZ589928:VRZ589961 WBV589928:WBV589961 WLR589928:WLR589961 WVN589928:WVN589961 F655464:F655497 JB655464:JB655497 SX655464:SX655497 ACT655464:ACT655497 AMP655464:AMP655497 AWL655464:AWL655497 BGH655464:BGH655497 BQD655464:BQD655497 BZZ655464:BZZ655497 CJV655464:CJV655497 CTR655464:CTR655497 DDN655464:DDN655497 DNJ655464:DNJ655497 DXF655464:DXF655497 EHB655464:EHB655497 EQX655464:EQX655497 FAT655464:FAT655497 FKP655464:FKP655497 FUL655464:FUL655497 GEH655464:GEH655497 GOD655464:GOD655497 GXZ655464:GXZ655497 HHV655464:HHV655497 HRR655464:HRR655497 IBN655464:IBN655497 ILJ655464:ILJ655497 IVF655464:IVF655497 JFB655464:JFB655497 JOX655464:JOX655497 JYT655464:JYT655497 KIP655464:KIP655497 KSL655464:KSL655497 LCH655464:LCH655497 LMD655464:LMD655497 LVZ655464:LVZ655497 MFV655464:MFV655497 MPR655464:MPR655497 MZN655464:MZN655497 NJJ655464:NJJ655497 NTF655464:NTF655497 ODB655464:ODB655497 OMX655464:OMX655497 OWT655464:OWT655497 PGP655464:PGP655497 PQL655464:PQL655497 QAH655464:QAH655497 QKD655464:QKD655497 QTZ655464:QTZ655497 RDV655464:RDV655497 RNR655464:RNR655497 RXN655464:RXN655497 SHJ655464:SHJ655497 SRF655464:SRF655497 TBB655464:TBB655497 TKX655464:TKX655497 TUT655464:TUT655497 UEP655464:UEP655497 UOL655464:UOL655497 UYH655464:UYH655497 VID655464:VID655497 VRZ655464:VRZ655497 WBV655464:WBV655497 WLR655464:WLR655497 WVN655464:WVN655497 F721000:F721033 JB721000:JB721033 SX721000:SX721033 ACT721000:ACT721033 AMP721000:AMP721033 AWL721000:AWL721033 BGH721000:BGH721033 BQD721000:BQD721033 BZZ721000:BZZ721033 CJV721000:CJV721033 CTR721000:CTR721033 DDN721000:DDN721033 DNJ721000:DNJ721033 DXF721000:DXF721033 EHB721000:EHB721033 EQX721000:EQX721033 FAT721000:FAT721033 FKP721000:FKP721033 FUL721000:FUL721033 GEH721000:GEH721033 GOD721000:GOD721033 GXZ721000:GXZ721033 HHV721000:HHV721033 HRR721000:HRR721033 IBN721000:IBN721033 ILJ721000:ILJ721033 IVF721000:IVF721033 JFB721000:JFB721033 JOX721000:JOX721033 JYT721000:JYT721033 KIP721000:KIP721033 KSL721000:KSL721033 LCH721000:LCH721033 LMD721000:LMD721033 LVZ721000:LVZ721033 MFV721000:MFV721033 MPR721000:MPR721033 MZN721000:MZN721033 NJJ721000:NJJ721033 NTF721000:NTF721033 ODB721000:ODB721033 OMX721000:OMX721033 OWT721000:OWT721033 PGP721000:PGP721033 PQL721000:PQL721033 QAH721000:QAH721033 QKD721000:QKD721033 QTZ721000:QTZ721033 RDV721000:RDV721033 RNR721000:RNR721033 RXN721000:RXN721033 SHJ721000:SHJ721033 SRF721000:SRF721033 TBB721000:TBB721033 TKX721000:TKX721033 TUT721000:TUT721033 UEP721000:UEP721033 UOL721000:UOL721033 UYH721000:UYH721033 VID721000:VID721033 VRZ721000:VRZ721033 WBV721000:WBV721033 WLR721000:WLR721033 WVN721000:WVN721033 F786536:F786569 JB786536:JB786569 SX786536:SX786569 ACT786536:ACT786569 AMP786536:AMP786569 AWL786536:AWL786569 BGH786536:BGH786569 BQD786536:BQD786569 BZZ786536:BZZ786569 CJV786536:CJV786569 CTR786536:CTR786569 DDN786536:DDN786569 DNJ786536:DNJ786569 DXF786536:DXF786569 EHB786536:EHB786569 EQX786536:EQX786569 FAT786536:FAT786569 FKP786536:FKP786569 FUL786536:FUL786569 GEH786536:GEH786569 GOD786536:GOD786569 GXZ786536:GXZ786569 HHV786536:HHV786569 HRR786536:HRR786569 IBN786536:IBN786569 ILJ786536:ILJ786569 IVF786536:IVF786569 JFB786536:JFB786569 JOX786536:JOX786569 JYT786536:JYT786569 KIP786536:KIP786569 KSL786536:KSL786569 LCH786536:LCH786569 LMD786536:LMD786569 LVZ786536:LVZ786569 MFV786536:MFV786569 MPR786536:MPR786569 MZN786536:MZN786569 NJJ786536:NJJ786569 NTF786536:NTF786569 ODB786536:ODB786569 OMX786536:OMX786569 OWT786536:OWT786569 PGP786536:PGP786569 PQL786536:PQL786569 QAH786536:QAH786569 QKD786536:QKD786569 QTZ786536:QTZ786569 RDV786536:RDV786569 RNR786536:RNR786569 RXN786536:RXN786569 SHJ786536:SHJ786569 SRF786536:SRF786569 TBB786536:TBB786569 TKX786536:TKX786569 TUT786536:TUT786569 UEP786536:UEP786569 UOL786536:UOL786569 UYH786536:UYH786569 VID786536:VID786569 VRZ786536:VRZ786569 WBV786536:WBV786569 WLR786536:WLR786569 WVN786536:WVN786569 F852072:F852105 JB852072:JB852105 SX852072:SX852105 ACT852072:ACT852105 AMP852072:AMP852105 AWL852072:AWL852105 BGH852072:BGH852105 BQD852072:BQD852105 BZZ852072:BZZ852105 CJV852072:CJV852105 CTR852072:CTR852105 DDN852072:DDN852105 DNJ852072:DNJ852105 DXF852072:DXF852105 EHB852072:EHB852105 EQX852072:EQX852105 FAT852072:FAT852105 FKP852072:FKP852105 FUL852072:FUL852105 GEH852072:GEH852105 GOD852072:GOD852105 GXZ852072:GXZ852105 HHV852072:HHV852105 HRR852072:HRR852105 IBN852072:IBN852105 ILJ852072:ILJ852105 IVF852072:IVF852105 JFB852072:JFB852105 JOX852072:JOX852105 JYT852072:JYT852105 KIP852072:KIP852105 KSL852072:KSL852105 LCH852072:LCH852105 LMD852072:LMD852105 LVZ852072:LVZ852105 MFV852072:MFV852105 MPR852072:MPR852105 MZN852072:MZN852105 NJJ852072:NJJ852105 NTF852072:NTF852105 ODB852072:ODB852105 OMX852072:OMX852105 OWT852072:OWT852105 PGP852072:PGP852105 PQL852072:PQL852105 QAH852072:QAH852105 QKD852072:QKD852105 QTZ852072:QTZ852105 RDV852072:RDV852105 RNR852072:RNR852105 RXN852072:RXN852105 SHJ852072:SHJ852105 SRF852072:SRF852105 TBB852072:TBB852105 TKX852072:TKX852105 TUT852072:TUT852105 UEP852072:UEP852105 UOL852072:UOL852105 UYH852072:UYH852105 VID852072:VID852105 VRZ852072:VRZ852105 WBV852072:WBV852105 WLR852072:WLR852105 WVN852072:WVN852105 F917608:F917641 JB917608:JB917641 SX917608:SX917641 ACT917608:ACT917641 AMP917608:AMP917641 AWL917608:AWL917641 BGH917608:BGH917641 BQD917608:BQD917641 BZZ917608:BZZ917641 CJV917608:CJV917641 CTR917608:CTR917641 DDN917608:DDN917641 DNJ917608:DNJ917641 DXF917608:DXF917641 EHB917608:EHB917641 EQX917608:EQX917641 FAT917608:FAT917641 FKP917608:FKP917641 FUL917608:FUL917641 GEH917608:GEH917641 GOD917608:GOD917641 GXZ917608:GXZ917641 HHV917608:HHV917641 HRR917608:HRR917641 IBN917608:IBN917641 ILJ917608:ILJ917641 IVF917608:IVF917641 JFB917608:JFB917641 JOX917608:JOX917641 JYT917608:JYT917641 KIP917608:KIP917641 KSL917608:KSL917641 LCH917608:LCH917641 LMD917608:LMD917641 LVZ917608:LVZ917641 MFV917608:MFV917641 MPR917608:MPR917641 MZN917608:MZN917641 NJJ917608:NJJ917641 NTF917608:NTF917641 ODB917608:ODB917641 OMX917608:OMX917641 OWT917608:OWT917641 PGP917608:PGP917641 PQL917608:PQL917641 QAH917608:QAH917641 QKD917608:QKD917641 QTZ917608:QTZ917641 RDV917608:RDV917641 RNR917608:RNR917641 RXN917608:RXN917641 SHJ917608:SHJ917641 SRF917608:SRF917641 TBB917608:TBB917641 TKX917608:TKX917641 TUT917608:TUT917641 UEP917608:UEP917641 UOL917608:UOL917641 UYH917608:UYH917641 VID917608:VID917641 VRZ917608:VRZ917641 WBV917608:WBV917641 WLR917608:WLR917641 WVN917608:WVN917641 F983144:F983177 JB983144:JB983177 SX983144:SX983177 ACT983144:ACT983177 AMP983144:AMP983177 AWL983144:AWL983177 BGH983144:BGH983177 BQD983144:BQD983177 BZZ983144:BZZ983177 CJV983144:CJV983177 CTR983144:CTR983177 DDN983144:DDN983177 DNJ983144:DNJ983177 DXF983144:DXF983177 EHB983144:EHB983177 EQX983144:EQX983177 FAT983144:FAT983177 FKP983144:FKP983177 FUL983144:FUL983177 GEH983144:GEH983177 GOD983144:GOD983177 GXZ983144:GXZ983177 HHV983144:HHV983177 HRR983144:HRR983177 IBN983144:IBN983177 ILJ983144:ILJ983177 IVF983144:IVF983177 JFB983144:JFB983177 JOX983144:JOX983177 JYT983144:JYT983177 KIP983144:KIP983177 KSL983144:KSL983177 LCH983144:LCH983177 LMD983144:LMD983177 LVZ983144:LVZ983177 MFV983144:MFV983177 MPR983144:MPR983177 MZN983144:MZN983177 NJJ983144:NJJ983177 NTF983144:NTF983177 ODB983144:ODB983177 OMX983144:OMX983177 OWT983144:OWT983177 PGP983144:PGP983177 PQL983144:PQL983177 QAH983144:QAH983177 QKD983144:QKD983177 QTZ983144:QTZ983177 RDV983144:RDV983177 RNR983144:RNR983177 RXN983144:RXN983177 SHJ983144:SHJ983177 SRF983144:SRF983177 TBB983144:TBB983177 TKX983144:TKX983177 TUT983144:TUT983177 UEP983144:UEP983177 UOL983144:UOL983177 UYH983144:UYH983177 VID983144:VID983177 VRZ983144:VRZ983177 WBV983144:WBV983177 WLR983144:WLR983177 WVN983144:WVN983177 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F866" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65644:F65677 JB65644:JB65677 SX65644:SX65677 ACT65644:ACT65677 AMP65644:AMP65677 AWL65644:AWL65677 BGH65644:BGH65677 BQD65644:BQD65677 BZZ65644:BZZ65677 CJV65644:CJV65677 CTR65644:CTR65677 DDN65644:DDN65677 DNJ65644:DNJ65677 DXF65644:DXF65677 EHB65644:EHB65677 EQX65644:EQX65677 FAT65644:FAT65677 FKP65644:FKP65677 FUL65644:FUL65677 GEH65644:GEH65677 GOD65644:GOD65677 GXZ65644:GXZ65677 HHV65644:HHV65677 HRR65644:HRR65677 IBN65644:IBN65677 ILJ65644:ILJ65677 IVF65644:IVF65677 JFB65644:JFB65677 JOX65644:JOX65677 JYT65644:JYT65677 KIP65644:KIP65677 KSL65644:KSL65677 LCH65644:LCH65677 LMD65644:LMD65677 LVZ65644:LVZ65677 MFV65644:MFV65677 MPR65644:MPR65677 MZN65644:MZN65677 NJJ65644:NJJ65677 NTF65644:NTF65677 ODB65644:ODB65677 OMX65644:OMX65677 OWT65644:OWT65677 PGP65644:PGP65677 PQL65644:PQL65677 QAH65644:QAH65677 QKD65644:QKD65677 QTZ65644:QTZ65677 RDV65644:RDV65677 RNR65644:RNR65677 RXN65644:RXN65677 SHJ65644:SHJ65677 SRF65644:SRF65677 TBB65644:TBB65677 TKX65644:TKX65677 TUT65644:TUT65677 UEP65644:UEP65677 UOL65644:UOL65677 UYH65644:UYH65677 VID65644:VID65677 VRZ65644:VRZ65677 WBV65644:WBV65677 WLR65644:WLR65677 WVN65644:WVN65677 F131180:F131213 JB131180:JB131213 SX131180:SX131213 ACT131180:ACT131213 AMP131180:AMP131213 AWL131180:AWL131213 BGH131180:BGH131213 BQD131180:BQD131213 BZZ131180:BZZ131213 CJV131180:CJV131213 CTR131180:CTR131213 DDN131180:DDN131213 DNJ131180:DNJ131213 DXF131180:DXF131213 EHB131180:EHB131213 EQX131180:EQX131213 FAT131180:FAT131213 FKP131180:FKP131213 FUL131180:FUL131213 GEH131180:GEH131213 GOD131180:GOD131213 GXZ131180:GXZ131213 HHV131180:HHV131213 HRR131180:HRR131213 IBN131180:IBN131213 ILJ131180:ILJ131213 IVF131180:IVF131213 JFB131180:JFB131213 JOX131180:JOX131213 JYT131180:JYT131213 KIP131180:KIP131213 KSL131180:KSL131213 LCH131180:LCH131213 LMD131180:LMD131213 LVZ131180:LVZ131213 MFV131180:MFV131213 MPR131180:MPR131213 MZN131180:MZN131213 NJJ131180:NJJ131213 NTF131180:NTF131213 ODB131180:ODB131213 OMX131180:OMX131213 OWT131180:OWT131213 PGP131180:PGP131213 PQL131180:PQL131213 QAH131180:QAH131213 QKD131180:QKD131213 QTZ131180:QTZ131213 RDV131180:RDV131213 RNR131180:RNR131213 RXN131180:RXN131213 SHJ131180:SHJ131213 SRF131180:SRF131213 TBB131180:TBB131213 TKX131180:TKX131213 TUT131180:TUT131213 UEP131180:UEP131213 UOL131180:UOL131213 UYH131180:UYH131213 VID131180:VID131213 VRZ131180:VRZ131213 WBV131180:WBV131213 WLR131180:WLR131213 WVN131180:WVN131213 F196716:F196749 JB196716:JB196749 SX196716:SX196749 ACT196716:ACT196749 AMP196716:AMP196749 AWL196716:AWL196749 BGH196716:BGH196749 BQD196716:BQD196749 BZZ196716:BZZ196749 CJV196716:CJV196749 CTR196716:CTR196749 DDN196716:DDN196749 DNJ196716:DNJ196749 DXF196716:DXF196749 EHB196716:EHB196749 EQX196716:EQX196749 FAT196716:FAT196749 FKP196716:FKP196749 FUL196716:FUL196749 GEH196716:GEH196749 GOD196716:GOD196749 GXZ196716:GXZ196749 HHV196716:HHV196749 HRR196716:HRR196749 IBN196716:IBN196749 ILJ196716:ILJ196749 IVF196716:IVF196749 JFB196716:JFB196749 JOX196716:JOX196749 JYT196716:JYT196749 KIP196716:KIP196749 KSL196716:KSL196749 LCH196716:LCH196749 LMD196716:LMD196749 LVZ196716:LVZ196749 MFV196716:MFV196749 MPR196716:MPR196749 MZN196716:MZN196749 NJJ196716:NJJ196749 NTF196716:NTF196749 ODB196716:ODB196749 OMX196716:OMX196749 OWT196716:OWT196749 PGP196716:PGP196749 PQL196716:PQL196749 QAH196716:QAH196749 QKD196716:QKD196749 QTZ196716:QTZ196749 RDV196716:RDV196749 RNR196716:RNR196749 RXN196716:RXN196749 SHJ196716:SHJ196749 SRF196716:SRF196749 TBB196716:TBB196749 TKX196716:TKX196749 TUT196716:TUT196749 UEP196716:UEP196749 UOL196716:UOL196749 UYH196716:UYH196749 VID196716:VID196749 VRZ196716:VRZ196749 WBV196716:WBV196749 WLR196716:WLR196749 WVN196716:WVN196749 F262252:F262285 JB262252:JB262285 SX262252:SX262285 ACT262252:ACT262285 AMP262252:AMP262285 AWL262252:AWL262285 BGH262252:BGH262285 BQD262252:BQD262285 BZZ262252:BZZ262285 CJV262252:CJV262285 CTR262252:CTR262285 DDN262252:DDN262285 DNJ262252:DNJ262285 DXF262252:DXF262285 EHB262252:EHB262285 EQX262252:EQX262285 FAT262252:FAT262285 FKP262252:FKP262285 FUL262252:FUL262285 GEH262252:GEH262285 GOD262252:GOD262285 GXZ262252:GXZ262285 HHV262252:HHV262285 HRR262252:HRR262285 IBN262252:IBN262285 ILJ262252:ILJ262285 IVF262252:IVF262285 JFB262252:JFB262285 JOX262252:JOX262285 JYT262252:JYT262285 KIP262252:KIP262285 KSL262252:KSL262285 LCH262252:LCH262285 LMD262252:LMD262285 LVZ262252:LVZ262285 MFV262252:MFV262285 MPR262252:MPR262285 MZN262252:MZN262285 NJJ262252:NJJ262285 NTF262252:NTF262285 ODB262252:ODB262285 OMX262252:OMX262285 OWT262252:OWT262285 PGP262252:PGP262285 PQL262252:PQL262285 QAH262252:QAH262285 QKD262252:QKD262285 QTZ262252:QTZ262285 RDV262252:RDV262285 RNR262252:RNR262285 RXN262252:RXN262285 SHJ262252:SHJ262285 SRF262252:SRF262285 TBB262252:TBB262285 TKX262252:TKX262285 TUT262252:TUT262285 UEP262252:UEP262285 UOL262252:UOL262285 UYH262252:UYH262285 VID262252:VID262285 VRZ262252:VRZ262285 WBV262252:WBV262285 WLR262252:WLR262285 WVN262252:WVN262285 F327788:F327821 JB327788:JB327821 SX327788:SX327821 ACT327788:ACT327821 AMP327788:AMP327821 AWL327788:AWL327821 BGH327788:BGH327821 BQD327788:BQD327821 BZZ327788:BZZ327821 CJV327788:CJV327821 CTR327788:CTR327821 DDN327788:DDN327821 DNJ327788:DNJ327821 DXF327788:DXF327821 EHB327788:EHB327821 EQX327788:EQX327821 FAT327788:FAT327821 FKP327788:FKP327821 FUL327788:FUL327821 GEH327788:GEH327821 GOD327788:GOD327821 GXZ327788:GXZ327821 HHV327788:HHV327821 HRR327788:HRR327821 IBN327788:IBN327821 ILJ327788:ILJ327821 IVF327788:IVF327821 JFB327788:JFB327821 JOX327788:JOX327821 JYT327788:JYT327821 KIP327788:KIP327821 KSL327788:KSL327821 LCH327788:LCH327821 LMD327788:LMD327821 LVZ327788:LVZ327821 MFV327788:MFV327821 MPR327788:MPR327821 MZN327788:MZN327821 NJJ327788:NJJ327821 NTF327788:NTF327821 ODB327788:ODB327821 OMX327788:OMX327821 OWT327788:OWT327821 PGP327788:PGP327821 PQL327788:PQL327821 QAH327788:QAH327821 QKD327788:QKD327821 QTZ327788:QTZ327821 RDV327788:RDV327821 RNR327788:RNR327821 RXN327788:RXN327821 SHJ327788:SHJ327821 SRF327788:SRF327821 TBB327788:TBB327821 TKX327788:TKX327821 TUT327788:TUT327821 UEP327788:UEP327821 UOL327788:UOL327821 UYH327788:UYH327821 VID327788:VID327821 VRZ327788:VRZ327821 WBV327788:WBV327821 WLR327788:WLR327821 WVN327788:WVN327821 F393324:F393357 JB393324:JB393357 SX393324:SX393357 ACT393324:ACT393357 AMP393324:AMP393357 AWL393324:AWL393357 BGH393324:BGH393357 BQD393324:BQD393357 BZZ393324:BZZ393357 CJV393324:CJV393357 CTR393324:CTR393357 DDN393324:DDN393357 DNJ393324:DNJ393357 DXF393324:DXF393357 EHB393324:EHB393357 EQX393324:EQX393357 FAT393324:FAT393357 FKP393324:FKP393357 FUL393324:FUL393357 GEH393324:GEH393357 GOD393324:GOD393357 GXZ393324:GXZ393357 HHV393324:HHV393357 HRR393324:HRR393357 IBN393324:IBN393357 ILJ393324:ILJ393357 IVF393324:IVF393357 JFB393324:JFB393357 JOX393324:JOX393357 JYT393324:JYT393357 KIP393324:KIP393357 KSL393324:KSL393357 LCH393324:LCH393357 LMD393324:LMD393357 LVZ393324:LVZ393357 MFV393324:MFV393357 MPR393324:MPR393357 MZN393324:MZN393357 NJJ393324:NJJ393357 NTF393324:NTF393357 ODB393324:ODB393357 OMX393324:OMX393357 OWT393324:OWT393357 PGP393324:PGP393357 PQL393324:PQL393357 QAH393324:QAH393357 QKD393324:QKD393357 QTZ393324:QTZ393357 RDV393324:RDV393357 RNR393324:RNR393357 RXN393324:RXN393357 SHJ393324:SHJ393357 SRF393324:SRF393357 TBB393324:TBB393357 TKX393324:TKX393357 TUT393324:TUT393357 UEP393324:UEP393357 UOL393324:UOL393357 UYH393324:UYH393357 VID393324:VID393357 VRZ393324:VRZ393357 WBV393324:WBV393357 WLR393324:WLR393357 WVN393324:WVN393357 F458860:F458893 JB458860:JB458893 SX458860:SX458893 ACT458860:ACT458893 AMP458860:AMP458893 AWL458860:AWL458893 BGH458860:BGH458893 BQD458860:BQD458893 BZZ458860:BZZ458893 CJV458860:CJV458893 CTR458860:CTR458893 DDN458860:DDN458893 DNJ458860:DNJ458893 DXF458860:DXF458893 EHB458860:EHB458893 EQX458860:EQX458893 FAT458860:FAT458893 FKP458860:FKP458893 FUL458860:FUL458893 GEH458860:GEH458893 GOD458860:GOD458893 GXZ458860:GXZ458893 HHV458860:HHV458893 HRR458860:HRR458893 IBN458860:IBN458893 ILJ458860:ILJ458893 IVF458860:IVF458893 JFB458860:JFB458893 JOX458860:JOX458893 JYT458860:JYT458893 KIP458860:KIP458893 KSL458860:KSL458893 LCH458860:LCH458893 LMD458860:LMD458893 LVZ458860:LVZ458893 MFV458860:MFV458893 MPR458860:MPR458893 MZN458860:MZN458893 NJJ458860:NJJ458893 NTF458860:NTF458893 ODB458860:ODB458893 OMX458860:OMX458893 OWT458860:OWT458893 PGP458860:PGP458893 PQL458860:PQL458893 QAH458860:QAH458893 QKD458860:QKD458893 QTZ458860:QTZ458893 RDV458860:RDV458893 RNR458860:RNR458893 RXN458860:RXN458893 SHJ458860:SHJ458893 SRF458860:SRF458893 TBB458860:TBB458893 TKX458860:TKX458893 TUT458860:TUT458893 UEP458860:UEP458893 UOL458860:UOL458893 UYH458860:UYH458893 VID458860:VID458893 VRZ458860:VRZ458893 WBV458860:WBV458893 WLR458860:WLR458893 WVN458860:WVN458893 F524396:F524429 JB524396:JB524429 SX524396:SX524429 ACT524396:ACT524429 AMP524396:AMP524429 AWL524396:AWL524429 BGH524396:BGH524429 BQD524396:BQD524429 BZZ524396:BZZ524429 CJV524396:CJV524429 CTR524396:CTR524429 DDN524396:DDN524429 DNJ524396:DNJ524429 DXF524396:DXF524429 EHB524396:EHB524429 EQX524396:EQX524429 FAT524396:FAT524429 FKP524396:FKP524429 FUL524396:FUL524429 GEH524396:GEH524429 GOD524396:GOD524429 GXZ524396:GXZ524429 HHV524396:HHV524429 HRR524396:HRR524429 IBN524396:IBN524429 ILJ524396:ILJ524429 IVF524396:IVF524429 JFB524396:JFB524429 JOX524396:JOX524429 JYT524396:JYT524429 KIP524396:KIP524429 KSL524396:KSL524429 LCH524396:LCH524429 LMD524396:LMD524429 LVZ524396:LVZ524429 MFV524396:MFV524429 MPR524396:MPR524429 MZN524396:MZN524429 NJJ524396:NJJ524429 NTF524396:NTF524429 ODB524396:ODB524429 OMX524396:OMX524429 OWT524396:OWT524429 PGP524396:PGP524429 PQL524396:PQL524429 QAH524396:QAH524429 QKD524396:QKD524429 QTZ524396:QTZ524429 RDV524396:RDV524429 RNR524396:RNR524429 RXN524396:RXN524429 SHJ524396:SHJ524429 SRF524396:SRF524429 TBB524396:TBB524429 TKX524396:TKX524429 TUT524396:TUT524429 UEP524396:UEP524429 UOL524396:UOL524429 UYH524396:UYH524429 VID524396:VID524429 VRZ524396:VRZ524429 WBV524396:WBV524429 WLR524396:WLR524429 WVN524396:WVN524429 F589932:F589965 JB589932:JB589965 SX589932:SX589965 ACT589932:ACT589965 AMP589932:AMP589965 AWL589932:AWL589965 BGH589932:BGH589965 BQD589932:BQD589965 BZZ589932:BZZ589965 CJV589932:CJV589965 CTR589932:CTR589965 DDN589932:DDN589965 DNJ589932:DNJ589965 DXF589932:DXF589965 EHB589932:EHB589965 EQX589932:EQX589965 FAT589932:FAT589965 FKP589932:FKP589965 FUL589932:FUL589965 GEH589932:GEH589965 GOD589932:GOD589965 GXZ589932:GXZ589965 HHV589932:HHV589965 HRR589932:HRR589965 IBN589932:IBN589965 ILJ589932:ILJ589965 IVF589932:IVF589965 JFB589932:JFB589965 JOX589932:JOX589965 JYT589932:JYT589965 KIP589932:KIP589965 KSL589932:KSL589965 LCH589932:LCH589965 LMD589932:LMD589965 LVZ589932:LVZ589965 MFV589932:MFV589965 MPR589932:MPR589965 MZN589932:MZN589965 NJJ589932:NJJ589965 NTF589932:NTF589965 ODB589932:ODB589965 OMX589932:OMX589965 OWT589932:OWT589965 PGP589932:PGP589965 PQL589932:PQL589965 QAH589932:QAH589965 QKD589932:QKD589965 QTZ589932:QTZ589965 RDV589932:RDV589965 RNR589932:RNR589965 RXN589932:RXN589965 SHJ589932:SHJ589965 SRF589932:SRF589965 TBB589932:TBB589965 TKX589932:TKX589965 TUT589932:TUT589965 UEP589932:UEP589965 UOL589932:UOL589965 UYH589932:UYH589965 VID589932:VID589965 VRZ589932:VRZ589965 WBV589932:WBV589965 WLR589932:WLR589965 WVN589932:WVN589965 F655468:F655501 JB655468:JB655501 SX655468:SX655501 ACT655468:ACT655501 AMP655468:AMP655501 AWL655468:AWL655501 BGH655468:BGH655501 BQD655468:BQD655501 BZZ655468:BZZ655501 CJV655468:CJV655501 CTR655468:CTR655501 DDN655468:DDN655501 DNJ655468:DNJ655501 DXF655468:DXF655501 EHB655468:EHB655501 EQX655468:EQX655501 FAT655468:FAT655501 FKP655468:FKP655501 FUL655468:FUL655501 GEH655468:GEH655501 GOD655468:GOD655501 GXZ655468:GXZ655501 HHV655468:HHV655501 HRR655468:HRR655501 IBN655468:IBN655501 ILJ655468:ILJ655501 IVF655468:IVF655501 JFB655468:JFB655501 JOX655468:JOX655501 JYT655468:JYT655501 KIP655468:KIP655501 KSL655468:KSL655501 LCH655468:LCH655501 LMD655468:LMD655501 LVZ655468:LVZ655501 MFV655468:MFV655501 MPR655468:MPR655501 MZN655468:MZN655501 NJJ655468:NJJ655501 NTF655468:NTF655501 ODB655468:ODB655501 OMX655468:OMX655501 OWT655468:OWT655501 PGP655468:PGP655501 PQL655468:PQL655501 QAH655468:QAH655501 QKD655468:QKD655501 QTZ655468:QTZ655501 RDV655468:RDV655501 RNR655468:RNR655501 RXN655468:RXN655501 SHJ655468:SHJ655501 SRF655468:SRF655501 TBB655468:TBB655501 TKX655468:TKX655501 TUT655468:TUT655501 UEP655468:UEP655501 UOL655468:UOL655501 UYH655468:UYH655501 VID655468:VID655501 VRZ655468:VRZ655501 WBV655468:WBV655501 WLR655468:WLR655501 WVN655468:WVN655501 F721004:F721037 JB721004:JB721037 SX721004:SX721037 ACT721004:ACT721037 AMP721004:AMP721037 AWL721004:AWL721037 BGH721004:BGH721037 BQD721004:BQD721037 BZZ721004:BZZ721037 CJV721004:CJV721037 CTR721004:CTR721037 DDN721004:DDN721037 DNJ721004:DNJ721037 DXF721004:DXF721037 EHB721004:EHB721037 EQX721004:EQX721037 FAT721004:FAT721037 FKP721004:FKP721037 FUL721004:FUL721037 GEH721004:GEH721037 GOD721004:GOD721037 GXZ721004:GXZ721037 HHV721004:HHV721037 HRR721004:HRR721037 IBN721004:IBN721037 ILJ721004:ILJ721037 IVF721004:IVF721037 JFB721004:JFB721037 JOX721004:JOX721037 JYT721004:JYT721037 KIP721004:KIP721037 KSL721004:KSL721037 LCH721004:LCH721037 LMD721004:LMD721037 LVZ721004:LVZ721037 MFV721004:MFV721037 MPR721004:MPR721037 MZN721004:MZN721037 NJJ721004:NJJ721037 NTF721004:NTF721037 ODB721004:ODB721037 OMX721004:OMX721037 OWT721004:OWT721037 PGP721004:PGP721037 PQL721004:PQL721037 QAH721004:QAH721037 QKD721004:QKD721037 QTZ721004:QTZ721037 RDV721004:RDV721037 RNR721004:RNR721037 RXN721004:RXN721037 SHJ721004:SHJ721037 SRF721004:SRF721037 TBB721004:TBB721037 TKX721004:TKX721037 TUT721004:TUT721037 UEP721004:UEP721037 UOL721004:UOL721037 UYH721004:UYH721037 VID721004:VID721037 VRZ721004:VRZ721037 WBV721004:WBV721037 WLR721004:WLR721037 WVN721004:WVN721037 F786540:F786573 JB786540:JB786573 SX786540:SX786573 ACT786540:ACT786573 AMP786540:AMP786573 AWL786540:AWL786573 BGH786540:BGH786573 BQD786540:BQD786573 BZZ786540:BZZ786573 CJV786540:CJV786573 CTR786540:CTR786573 DDN786540:DDN786573 DNJ786540:DNJ786573 DXF786540:DXF786573 EHB786540:EHB786573 EQX786540:EQX786573 FAT786540:FAT786573 FKP786540:FKP786573 FUL786540:FUL786573 GEH786540:GEH786573 GOD786540:GOD786573 GXZ786540:GXZ786573 HHV786540:HHV786573 HRR786540:HRR786573 IBN786540:IBN786573 ILJ786540:ILJ786573 IVF786540:IVF786573 JFB786540:JFB786573 JOX786540:JOX786573 JYT786540:JYT786573 KIP786540:KIP786573 KSL786540:KSL786573 LCH786540:LCH786573 LMD786540:LMD786573 LVZ786540:LVZ786573 MFV786540:MFV786573 MPR786540:MPR786573 MZN786540:MZN786573 NJJ786540:NJJ786573 NTF786540:NTF786573 ODB786540:ODB786573 OMX786540:OMX786573 OWT786540:OWT786573 PGP786540:PGP786573 PQL786540:PQL786573 QAH786540:QAH786573 QKD786540:QKD786573 QTZ786540:QTZ786573 RDV786540:RDV786573 RNR786540:RNR786573 RXN786540:RXN786573 SHJ786540:SHJ786573 SRF786540:SRF786573 TBB786540:TBB786573 TKX786540:TKX786573 TUT786540:TUT786573 UEP786540:UEP786573 UOL786540:UOL786573 UYH786540:UYH786573 VID786540:VID786573 VRZ786540:VRZ786573 WBV786540:WBV786573 WLR786540:WLR786573 WVN786540:WVN786573 F852076:F852109 JB852076:JB852109 SX852076:SX852109 ACT852076:ACT852109 AMP852076:AMP852109 AWL852076:AWL852109 BGH852076:BGH852109 BQD852076:BQD852109 BZZ852076:BZZ852109 CJV852076:CJV852109 CTR852076:CTR852109 DDN852076:DDN852109 DNJ852076:DNJ852109 DXF852076:DXF852109 EHB852076:EHB852109 EQX852076:EQX852109 FAT852076:FAT852109 FKP852076:FKP852109 FUL852076:FUL852109 GEH852076:GEH852109 GOD852076:GOD852109 GXZ852076:GXZ852109 HHV852076:HHV852109 HRR852076:HRR852109 IBN852076:IBN852109 ILJ852076:ILJ852109 IVF852076:IVF852109 JFB852076:JFB852109 JOX852076:JOX852109 JYT852076:JYT852109 KIP852076:KIP852109 KSL852076:KSL852109 LCH852076:LCH852109 LMD852076:LMD852109 LVZ852076:LVZ852109 MFV852076:MFV852109 MPR852076:MPR852109 MZN852076:MZN852109 NJJ852076:NJJ852109 NTF852076:NTF852109 ODB852076:ODB852109 OMX852076:OMX852109 OWT852076:OWT852109 PGP852076:PGP852109 PQL852076:PQL852109 QAH852076:QAH852109 QKD852076:QKD852109 QTZ852076:QTZ852109 RDV852076:RDV852109 RNR852076:RNR852109 RXN852076:RXN852109 SHJ852076:SHJ852109 SRF852076:SRF852109 TBB852076:TBB852109 TKX852076:TKX852109 TUT852076:TUT852109 UEP852076:UEP852109 UOL852076:UOL852109 UYH852076:UYH852109 VID852076:VID852109 VRZ852076:VRZ852109 WBV852076:WBV852109 WLR852076:WLR852109 WVN852076:WVN852109 F917612:F917645 JB917612:JB917645 SX917612:SX917645 ACT917612:ACT917645 AMP917612:AMP917645 AWL917612:AWL917645 BGH917612:BGH917645 BQD917612:BQD917645 BZZ917612:BZZ917645 CJV917612:CJV917645 CTR917612:CTR917645 DDN917612:DDN917645 DNJ917612:DNJ917645 DXF917612:DXF917645 EHB917612:EHB917645 EQX917612:EQX917645 FAT917612:FAT917645 FKP917612:FKP917645 FUL917612:FUL917645 GEH917612:GEH917645 GOD917612:GOD917645 GXZ917612:GXZ917645 HHV917612:HHV917645 HRR917612:HRR917645 IBN917612:IBN917645 ILJ917612:ILJ917645 IVF917612:IVF917645 JFB917612:JFB917645 JOX917612:JOX917645 JYT917612:JYT917645 KIP917612:KIP917645 KSL917612:KSL917645 LCH917612:LCH917645 LMD917612:LMD917645 LVZ917612:LVZ917645 MFV917612:MFV917645 MPR917612:MPR917645 MZN917612:MZN917645 NJJ917612:NJJ917645 NTF917612:NTF917645 ODB917612:ODB917645 OMX917612:OMX917645 OWT917612:OWT917645 PGP917612:PGP917645 PQL917612:PQL917645 QAH917612:QAH917645 QKD917612:QKD917645 QTZ917612:QTZ917645 RDV917612:RDV917645 RNR917612:RNR917645 RXN917612:RXN917645 SHJ917612:SHJ917645 SRF917612:SRF917645 TBB917612:TBB917645 TKX917612:TKX917645 TUT917612:TUT917645 UEP917612:UEP917645 UOL917612:UOL917645 UYH917612:UYH917645 VID917612:VID917645 VRZ917612:VRZ917645 WBV917612:WBV917645 WLR917612:WLR917645 WVN917612:WVN917645 F983148:F983181 JB983148:JB983181 SX983148:SX983181 ACT983148:ACT983181 AMP983148:AMP983181 AWL983148:AWL983181 BGH983148:BGH983181 BQD983148:BQD983181 BZZ983148:BZZ983181 CJV983148:CJV983181 CTR983148:CTR983181 DDN983148:DDN983181 DNJ983148:DNJ983181 DXF983148:DXF983181 EHB983148:EHB983181 EQX983148:EQX983181 FAT983148:FAT983181 FKP983148:FKP983181 FUL983148:FUL983181 GEH983148:GEH983181 GOD983148:GOD983181 GXZ983148:GXZ983181 HHV983148:HHV983181 HRR983148:HRR983181 IBN983148:IBN983181 ILJ983148:ILJ983181 IVF983148:IVF983181 JFB983148:JFB983181 JOX983148:JOX983181 JYT983148:JYT983181 KIP983148:KIP983181 KSL983148:KSL983181 LCH983148:LCH983181 LMD983148:LMD983181 LVZ983148:LVZ983181 MFV983148:MFV983181 MPR983148:MPR983181 MZN983148:MZN983181 NJJ983148:NJJ983181 NTF983148:NTF983181 ODB983148:ODB983181 OMX983148:OMX983181 OWT983148:OWT983181 PGP983148:PGP983181 PQL983148:PQL983181 QAH983148:QAH983181 QKD983148:QKD983181 QTZ983148:QTZ983181 RDV983148:RDV983181 RNR983148:RNR983181 RXN983148:RXN983181 SHJ983148:SHJ983181 SRF983148:SRF983181 TBB983148:TBB983181 TKX983148:TKX983181 TUT983148:TUT983181 UEP983148:UEP983181 UOL983148:UOL983181 UYH983148:UYH983181 VID983148:VID983181 VRZ983148:VRZ983181 WBV983148:WBV983181 WLR983148:WLR983181 WVN983148:WVN983181 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F870" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65640:H65673 JD65640:JD65673 SZ65640:SZ65673 ACV65640:ACV65673 AMR65640:AMR65673 AWN65640:AWN65673 BGJ65640:BGJ65673 BQF65640:BQF65673 CAB65640:CAB65673 CJX65640:CJX65673 CTT65640:CTT65673 DDP65640:DDP65673 DNL65640:DNL65673 DXH65640:DXH65673 EHD65640:EHD65673 EQZ65640:EQZ65673 FAV65640:FAV65673 FKR65640:FKR65673 FUN65640:FUN65673 GEJ65640:GEJ65673 GOF65640:GOF65673 GYB65640:GYB65673 HHX65640:HHX65673 HRT65640:HRT65673 IBP65640:IBP65673 ILL65640:ILL65673 IVH65640:IVH65673 JFD65640:JFD65673 JOZ65640:JOZ65673 JYV65640:JYV65673 KIR65640:KIR65673 KSN65640:KSN65673 LCJ65640:LCJ65673 LMF65640:LMF65673 LWB65640:LWB65673 MFX65640:MFX65673 MPT65640:MPT65673 MZP65640:MZP65673 NJL65640:NJL65673 NTH65640:NTH65673 ODD65640:ODD65673 OMZ65640:OMZ65673 OWV65640:OWV65673 PGR65640:PGR65673 PQN65640:PQN65673 QAJ65640:QAJ65673 QKF65640:QKF65673 QUB65640:QUB65673 RDX65640:RDX65673 RNT65640:RNT65673 RXP65640:RXP65673 SHL65640:SHL65673 SRH65640:SRH65673 TBD65640:TBD65673 TKZ65640:TKZ65673 TUV65640:TUV65673 UER65640:UER65673 UON65640:UON65673 UYJ65640:UYJ65673 VIF65640:VIF65673 VSB65640:VSB65673 WBX65640:WBX65673 WLT65640:WLT65673 WVP65640:WVP65673 H131176:H131209 JD131176:JD131209 SZ131176:SZ131209 ACV131176:ACV131209 AMR131176:AMR131209 AWN131176:AWN131209 BGJ131176:BGJ131209 BQF131176:BQF131209 CAB131176:CAB131209 CJX131176:CJX131209 CTT131176:CTT131209 DDP131176:DDP131209 DNL131176:DNL131209 DXH131176:DXH131209 EHD131176:EHD131209 EQZ131176:EQZ131209 FAV131176:FAV131209 FKR131176:FKR131209 FUN131176:FUN131209 GEJ131176:GEJ131209 GOF131176:GOF131209 GYB131176:GYB131209 HHX131176:HHX131209 HRT131176:HRT131209 IBP131176:IBP131209 ILL131176:ILL131209 IVH131176:IVH131209 JFD131176:JFD131209 JOZ131176:JOZ131209 JYV131176:JYV131209 KIR131176:KIR131209 KSN131176:KSN131209 LCJ131176:LCJ131209 LMF131176:LMF131209 LWB131176:LWB131209 MFX131176:MFX131209 MPT131176:MPT131209 MZP131176:MZP131209 NJL131176:NJL131209 NTH131176:NTH131209 ODD131176:ODD131209 OMZ131176:OMZ131209 OWV131176:OWV131209 PGR131176:PGR131209 PQN131176:PQN131209 QAJ131176:QAJ131209 QKF131176:QKF131209 QUB131176:QUB131209 RDX131176:RDX131209 RNT131176:RNT131209 RXP131176:RXP131209 SHL131176:SHL131209 SRH131176:SRH131209 TBD131176:TBD131209 TKZ131176:TKZ131209 TUV131176:TUV131209 UER131176:UER131209 UON131176:UON131209 UYJ131176:UYJ131209 VIF131176:VIF131209 VSB131176:VSB131209 WBX131176:WBX131209 WLT131176:WLT131209 WVP131176:WVP131209 H196712:H196745 JD196712:JD196745 SZ196712:SZ196745 ACV196712:ACV196745 AMR196712:AMR196745 AWN196712:AWN196745 BGJ196712:BGJ196745 BQF196712:BQF196745 CAB196712:CAB196745 CJX196712:CJX196745 CTT196712:CTT196745 DDP196712:DDP196745 DNL196712:DNL196745 DXH196712:DXH196745 EHD196712:EHD196745 EQZ196712:EQZ196745 FAV196712:FAV196745 FKR196712:FKR196745 FUN196712:FUN196745 GEJ196712:GEJ196745 GOF196712:GOF196745 GYB196712:GYB196745 HHX196712:HHX196745 HRT196712:HRT196745 IBP196712:IBP196745 ILL196712:ILL196745 IVH196712:IVH196745 JFD196712:JFD196745 JOZ196712:JOZ196745 JYV196712:JYV196745 KIR196712:KIR196745 KSN196712:KSN196745 LCJ196712:LCJ196745 LMF196712:LMF196745 LWB196712:LWB196745 MFX196712:MFX196745 MPT196712:MPT196745 MZP196712:MZP196745 NJL196712:NJL196745 NTH196712:NTH196745 ODD196712:ODD196745 OMZ196712:OMZ196745 OWV196712:OWV196745 PGR196712:PGR196745 PQN196712:PQN196745 QAJ196712:QAJ196745 QKF196712:QKF196745 QUB196712:QUB196745 RDX196712:RDX196745 RNT196712:RNT196745 RXP196712:RXP196745 SHL196712:SHL196745 SRH196712:SRH196745 TBD196712:TBD196745 TKZ196712:TKZ196745 TUV196712:TUV196745 UER196712:UER196745 UON196712:UON196745 UYJ196712:UYJ196745 VIF196712:VIF196745 VSB196712:VSB196745 WBX196712:WBX196745 WLT196712:WLT196745 WVP196712:WVP196745 H262248:H262281 JD262248:JD262281 SZ262248:SZ262281 ACV262248:ACV262281 AMR262248:AMR262281 AWN262248:AWN262281 BGJ262248:BGJ262281 BQF262248:BQF262281 CAB262248:CAB262281 CJX262248:CJX262281 CTT262248:CTT262281 DDP262248:DDP262281 DNL262248:DNL262281 DXH262248:DXH262281 EHD262248:EHD262281 EQZ262248:EQZ262281 FAV262248:FAV262281 FKR262248:FKR262281 FUN262248:FUN262281 GEJ262248:GEJ262281 GOF262248:GOF262281 GYB262248:GYB262281 HHX262248:HHX262281 HRT262248:HRT262281 IBP262248:IBP262281 ILL262248:ILL262281 IVH262248:IVH262281 JFD262248:JFD262281 JOZ262248:JOZ262281 JYV262248:JYV262281 KIR262248:KIR262281 KSN262248:KSN262281 LCJ262248:LCJ262281 LMF262248:LMF262281 LWB262248:LWB262281 MFX262248:MFX262281 MPT262248:MPT262281 MZP262248:MZP262281 NJL262248:NJL262281 NTH262248:NTH262281 ODD262248:ODD262281 OMZ262248:OMZ262281 OWV262248:OWV262281 PGR262248:PGR262281 PQN262248:PQN262281 QAJ262248:QAJ262281 QKF262248:QKF262281 QUB262248:QUB262281 RDX262248:RDX262281 RNT262248:RNT262281 RXP262248:RXP262281 SHL262248:SHL262281 SRH262248:SRH262281 TBD262248:TBD262281 TKZ262248:TKZ262281 TUV262248:TUV262281 UER262248:UER262281 UON262248:UON262281 UYJ262248:UYJ262281 VIF262248:VIF262281 VSB262248:VSB262281 WBX262248:WBX262281 WLT262248:WLT262281 WVP262248:WVP262281 H327784:H327817 JD327784:JD327817 SZ327784:SZ327817 ACV327784:ACV327817 AMR327784:AMR327817 AWN327784:AWN327817 BGJ327784:BGJ327817 BQF327784:BQF327817 CAB327784:CAB327817 CJX327784:CJX327817 CTT327784:CTT327817 DDP327784:DDP327817 DNL327784:DNL327817 DXH327784:DXH327817 EHD327784:EHD327817 EQZ327784:EQZ327817 FAV327784:FAV327817 FKR327784:FKR327817 FUN327784:FUN327817 GEJ327784:GEJ327817 GOF327784:GOF327817 GYB327784:GYB327817 HHX327784:HHX327817 HRT327784:HRT327817 IBP327784:IBP327817 ILL327784:ILL327817 IVH327784:IVH327817 JFD327784:JFD327817 JOZ327784:JOZ327817 JYV327784:JYV327817 KIR327784:KIR327817 KSN327784:KSN327817 LCJ327784:LCJ327817 LMF327784:LMF327817 LWB327784:LWB327817 MFX327784:MFX327817 MPT327784:MPT327817 MZP327784:MZP327817 NJL327784:NJL327817 NTH327784:NTH327817 ODD327784:ODD327817 OMZ327784:OMZ327817 OWV327784:OWV327817 PGR327784:PGR327817 PQN327784:PQN327817 QAJ327784:QAJ327817 QKF327784:QKF327817 QUB327784:QUB327817 RDX327784:RDX327817 RNT327784:RNT327817 RXP327784:RXP327817 SHL327784:SHL327817 SRH327784:SRH327817 TBD327784:TBD327817 TKZ327784:TKZ327817 TUV327784:TUV327817 UER327784:UER327817 UON327784:UON327817 UYJ327784:UYJ327817 VIF327784:VIF327817 VSB327784:VSB327817 WBX327784:WBX327817 WLT327784:WLT327817 WVP327784:WVP327817 H393320:H393353 JD393320:JD393353 SZ393320:SZ393353 ACV393320:ACV393353 AMR393320:AMR393353 AWN393320:AWN393353 BGJ393320:BGJ393353 BQF393320:BQF393353 CAB393320:CAB393353 CJX393320:CJX393353 CTT393320:CTT393353 DDP393320:DDP393353 DNL393320:DNL393353 DXH393320:DXH393353 EHD393320:EHD393353 EQZ393320:EQZ393353 FAV393320:FAV393353 FKR393320:FKR393353 FUN393320:FUN393353 GEJ393320:GEJ393353 GOF393320:GOF393353 GYB393320:GYB393353 HHX393320:HHX393353 HRT393320:HRT393353 IBP393320:IBP393353 ILL393320:ILL393353 IVH393320:IVH393353 JFD393320:JFD393353 JOZ393320:JOZ393353 JYV393320:JYV393353 KIR393320:KIR393353 KSN393320:KSN393353 LCJ393320:LCJ393353 LMF393320:LMF393353 LWB393320:LWB393353 MFX393320:MFX393353 MPT393320:MPT393353 MZP393320:MZP393353 NJL393320:NJL393353 NTH393320:NTH393353 ODD393320:ODD393353 OMZ393320:OMZ393353 OWV393320:OWV393353 PGR393320:PGR393353 PQN393320:PQN393353 QAJ393320:QAJ393353 QKF393320:QKF393353 QUB393320:QUB393353 RDX393320:RDX393353 RNT393320:RNT393353 RXP393320:RXP393353 SHL393320:SHL393353 SRH393320:SRH393353 TBD393320:TBD393353 TKZ393320:TKZ393353 TUV393320:TUV393353 UER393320:UER393353 UON393320:UON393353 UYJ393320:UYJ393353 VIF393320:VIF393353 VSB393320:VSB393353 WBX393320:WBX393353 WLT393320:WLT393353 WVP393320:WVP393353 H458856:H458889 JD458856:JD458889 SZ458856:SZ458889 ACV458856:ACV458889 AMR458856:AMR458889 AWN458856:AWN458889 BGJ458856:BGJ458889 BQF458856:BQF458889 CAB458856:CAB458889 CJX458856:CJX458889 CTT458856:CTT458889 DDP458856:DDP458889 DNL458856:DNL458889 DXH458856:DXH458889 EHD458856:EHD458889 EQZ458856:EQZ458889 FAV458856:FAV458889 FKR458856:FKR458889 FUN458856:FUN458889 GEJ458856:GEJ458889 GOF458856:GOF458889 GYB458856:GYB458889 HHX458856:HHX458889 HRT458856:HRT458889 IBP458856:IBP458889 ILL458856:ILL458889 IVH458856:IVH458889 JFD458856:JFD458889 JOZ458856:JOZ458889 JYV458856:JYV458889 KIR458856:KIR458889 KSN458856:KSN458889 LCJ458856:LCJ458889 LMF458856:LMF458889 LWB458856:LWB458889 MFX458856:MFX458889 MPT458856:MPT458889 MZP458856:MZP458889 NJL458856:NJL458889 NTH458856:NTH458889 ODD458856:ODD458889 OMZ458856:OMZ458889 OWV458856:OWV458889 PGR458856:PGR458889 PQN458856:PQN458889 QAJ458856:QAJ458889 QKF458856:QKF458889 QUB458856:QUB458889 RDX458856:RDX458889 RNT458856:RNT458889 RXP458856:RXP458889 SHL458856:SHL458889 SRH458856:SRH458889 TBD458856:TBD458889 TKZ458856:TKZ458889 TUV458856:TUV458889 UER458856:UER458889 UON458856:UON458889 UYJ458856:UYJ458889 VIF458856:VIF458889 VSB458856:VSB458889 WBX458856:WBX458889 WLT458856:WLT458889 WVP458856:WVP458889 H524392:H524425 JD524392:JD524425 SZ524392:SZ524425 ACV524392:ACV524425 AMR524392:AMR524425 AWN524392:AWN524425 BGJ524392:BGJ524425 BQF524392:BQF524425 CAB524392:CAB524425 CJX524392:CJX524425 CTT524392:CTT524425 DDP524392:DDP524425 DNL524392:DNL524425 DXH524392:DXH524425 EHD524392:EHD524425 EQZ524392:EQZ524425 FAV524392:FAV524425 FKR524392:FKR524425 FUN524392:FUN524425 GEJ524392:GEJ524425 GOF524392:GOF524425 GYB524392:GYB524425 HHX524392:HHX524425 HRT524392:HRT524425 IBP524392:IBP524425 ILL524392:ILL524425 IVH524392:IVH524425 JFD524392:JFD524425 JOZ524392:JOZ524425 JYV524392:JYV524425 KIR524392:KIR524425 KSN524392:KSN524425 LCJ524392:LCJ524425 LMF524392:LMF524425 LWB524392:LWB524425 MFX524392:MFX524425 MPT524392:MPT524425 MZP524392:MZP524425 NJL524392:NJL524425 NTH524392:NTH524425 ODD524392:ODD524425 OMZ524392:OMZ524425 OWV524392:OWV524425 PGR524392:PGR524425 PQN524392:PQN524425 QAJ524392:QAJ524425 QKF524392:QKF524425 QUB524392:QUB524425 RDX524392:RDX524425 RNT524392:RNT524425 RXP524392:RXP524425 SHL524392:SHL524425 SRH524392:SRH524425 TBD524392:TBD524425 TKZ524392:TKZ524425 TUV524392:TUV524425 UER524392:UER524425 UON524392:UON524425 UYJ524392:UYJ524425 VIF524392:VIF524425 VSB524392:VSB524425 WBX524392:WBX524425 WLT524392:WLT524425 WVP524392:WVP524425 H589928:H589961 JD589928:JD589961 SZ589928:SZ589961 ACV589928:ACV589961 AMR589928:AMR589961 AWN589928:AWN589961 BGJ589928:BGJ589961 BQF589928:BQF589961 CAB589928:CAB589961 CJX589928:CJX589961 CTT589928:CTT589961 DDP589928:DDP589961 DNL589928:DNL589961 DXH589928:DXH589961 EHD589928:EHD589961 EQZ589928:EQZ589961 FAV589928:FAV589961 FKR589928:FKR589961 FUN589928:FUN589961 GEJ589928:GEJ589961 GOF589928:GOF589961 GYB589928:GYB589961 HHX589928:HHX589961 HRT589928:HRT589961 IBP589928:IBP589961 ILL589928:ILL589961 IVH589928:IVH589961 JFD589928:JFD589961 JOZ589928:JOZ589961 JYV589928:JYV589961 KIR589928:KIR589961 KSN589928:KSN589961 LCJ589928:LCJ589961 LMF589928:LMF589961 LWB589928:LWB589961 MFX589928:MFX589961 MPT589928:MPT589961 MZP589928:MZP589961 NJL589928:NJL589961 NTH589928:NTH589961 ODD589928:ODD589961 OMZ589928:OMZ589961 OWV589928:OWV589961 PGR589928:PGR589961 PQN589928:PQN589961 QAJ589928:QAJ589961 QKF589928:QKF589961 QUB589928:QUB589961 RDX589928:RDX589961 RNT589928:RNT589961 RXP589928:RXP589961 SHL589928:SHL589961 SRH589928:SRH589961 TBD589928:TBD589961 TKZ589928:TKZ589961 TUV589928:TUV589961 UER589928:UER589961 UON589928:UON589961 UYJ589928:UYJ589961 VIF589928:VIF589961 VSB589928:VSB589961 WBX589928:WBX589961 WLT589928:WLT589961 WVP589928:WVP589961 H655464:H655497 JD655464:JD655497 SZ655464:SZ655497 ACV655464:ACV655497 AMR655464:AMR655497 AWN655464:AWN655497 BGJ655464:BGJ655497 BQF655464:BQF655497 CAB655464:CAB655497 CJX655464:CJX655497 CTT655464:CTT655497 DDP655464:DDP655497 DNL655464:DNL655497 DXH655464:DXH655497 EHD655464:EHD655497 EQZ655464:EQZ655497 FAV655464:FAV655497 FKR655464:FKR655497 FUN655464:FUN655497 GEJ655464:GEJ655497 GOF655464:GOF655497 GYB655464:GYB655497 HHX655464:HHX655497 HRT655464:HRT655497 IBP655464:IBP655497 ILL655464:ILL655497 IVH655464:IVH655497 JFD655464:JFD655497 JOZ655464:JOZ655497 JYV655464:JYV655497 KIR655464:KIR655497 KSN655464:KSN655497 LCJ655464:LCJ655497 LMF655464:LMF655497 LWB655464:LWB655497 MFX655464:MFX655497 MPT655464:MPT655497 MZP655464:MZP655497 NJL655464:NJL655497 NTH655464:NTH655497 ODD655464:ODD655497 OMZ655464:OMZ655497 OWV655464:OWV655497 PGR655464:PGR655497 PQN655464:PQN655497 QAJ655464:QAJ655497 QKF655464:QKF655497 QUB655464:QUB655497 RDX655464:RDX655497 RNT655464:RNT655497 RXP655464:RXP655497 SHL655464:SHL655497 SRH655464:SRH655497 TBD655464:TBD655497 TKZ655464:TKZ655497 TUV655464:TUV655497 UER655464:UER655497 UON655464:UON655497 UYJ655464:UYJ655497 VIF655464:VIF655497 VSB655464:VSB655497 WBX655464:WBX655497 WLT655464:WLT655497 WVP655464:WVP655497 H721000:H721033 JD721000:JD721033 SZ721000:SZ721033 ACV721000:ACV721033 AMR721000:AMR721033 AWN721000:AWN721033 BGJ721000:BGJ721033 BQF721000:BQF721033 CAB721000:CAB721033 CJX721000:CJX721033 CTT721000:CTT721033 DDP721000:DDP721033 DNL721000:DNL721033 DXH721000:DXH721033 EHD721000:EHD721033 EQZ721000:EQZ721033 FAV721000:FAV721033 FKR721000:FKR721033 FUN721000:FUN721033 GEJ721000:GEJ721033 GOF721000:GOF721033 GYB721000:GYB721033 HHX721000:HHX721033 HRT721000:HRT721033 IBP721000:IBP721033 ILL721000:ILL721033 IVH721000:IVH721033 JFD721000:JFD721033 JOZ721000:JOZ721033 JYV721000:JYV721033 KIR721000:KIR721033 KSN721000:KSN721033 LCJ721000:LCJ721033 LMF721000:LMF721033 LWB721000:LWB721033 MFX721000:MFX721033 MPT721000:MPT721033 MZP721000:MZP721033 NJL721000:NJL721033 NTH721000:NTH721033 ODD721000:ODD721033 OMZ721000:OMZ721033 OWV721000:OWV721033 PGR721000:PGR721033 PQN721000:PQN721033 QAJ721000:QAJ721033 QKF721000:QKF721033 QUB721000:QUB721033 RDX721000:RDX721033 RNT721000:RNT721033 RXP721000:RXP721033 SHL721000:SHL721033 SRH721000:SRH721033 TBD721000:TBD721033 TKZ721000:TKZ721033 TUV721000:TUV721033 UER721000:UER721033 UON721000:UON721033 UYJ721000:UYJ721033 VIF721000:VIF721033 VSB721000:VSB721033 WBX721000:WBX721033 WLT721000:WLT721033 WVP721000:WVP721033 H786536:H786569 JD786536:JD786569 SZ786536:SZ786569 ACV786536:ACV786569 AMR786536:AMR786569 AWN786536:AWN786569 BGJ786536:BGJ786569 BQF786536:BQF786569 CAB786536:CAB786569 CJX786536:CJX786569 CTT786536:CTT786569 DDP786536:DDP786569 DNL786536:DNL786569 DXH786536:DXH786569 EHD786536:EHD786569 EQZ786536:EQZ786569 FAV786536:FAV786569 FKR786536:FKR786569 FUN786536:FUN786569 GEJ786536:GEJ786569 GOF786536:GOF786569 GYB786536:GYB786569 HHX786536:HHX786569 HRT786536:HRT786569 IBP786536:IBP786569 ILL786536:ILL786569 IVH786536:IVH786569 JFD786536:JFD786569 JOZ786536:JOZ786569 JYV786536:JYV786569 KIR786536:KIR786569 KSN786536:KSN786569 LCJ786536:LCJ786569 LMF786536:LMF786569 LWB786536:LWB786569 MFX786536:MFX786569 MPT786536:MPT786569 MZP786536:MZP786569 NJL786536:NJL786569 NTH786536:NTH786569 ODD786536:ODD786569 OMZ786536:OMZ786569 OWV786536:OWV786569 PGR786536:PGR786569 PQN786536:PQN786569 QAJ786536:QAJ786569 QKF786536:QKF786569 QUB786536:QUB786569 RDX786536:RDX786569 RNT786536:RNT786569 RXP786536:RXP786569 SHL786536:SHL786569 SRH786536:SRH786569 TBD786536:TBD786569 TKZ786536:TKZ786569 TUV786536:TUV786569 UER786536:UER786569 UON786536:UON786569 UYJ786536:UYJ786569 VIF786536:VIF786569 VSB786536:VSB786569 WBX786536:WBX786569 WLT786536:WLT786569 WVP786536:WVP786569 H852072:H852105 JD852072:JD852105 SZ852072:SZ852105 ACV852072:ACV852105 AMR852072:AMR852105 AWN852072:AWN852105 BGJ852072:BGJ852105 BQF852072:BQF852105 CAB852072:CAB852105 CJX852072:CJX852105 CTT852072:CTT852105 DDP852072:DDP852105 DNL852072:DNL852105 DXH852072:DXH852105 EHD852072:EHD852105 EQZ852072:EQZ852105 FAV852072:FAV852105 FKR852072:FKR852105 FUN852072:FUN852105 GEJ852072:GEJ852105 GOF852072:GOF852105 GYB852072:GYB852105 HHX852072:HHX852105 HRT852072:HRT852105 IBP852072:IBP852105 ILL852072:ILL852105 IVH852072:IVH852105 JFD852072:JFD852105 JOZ852072:JOZ852105 JYV852072:JYV852105 KIR852072:KIR852105 KSN852072:KSN852105 LCJ852072:LCJ852105 LMF852072:LMF852105 LWB852072:LWB852105 MFX852072:MFX852105 MPT852072:MPT852105 MZP852072:MZP852105 NJL852072:NJL852105 NTH852072:NTH852105 ODD852072:ODD852105 OMZ852072:OMZ852105 OWV852072:OWV852105 PGR852072:PGR852105 PQN852072:PQN852105 QAJ852072:QAJ852105 QKF852072:QKF852105 QUB852072:QUB852105 RDX852072:RDX852105 RNT852072:RNT852105 RXP852072:RXP852105 SHL852072:SHL852105 SRH852072:SRH852105 TBD852072:TBD852105 TKZ852072:TKZ852105 TUV852072:TUV852105 UER852072:UER852105 UON852072:UON852105 UYJ852072:UYJ852105 VIF852072:VIF852105 VSB852072:VSB852105 WBX852072:WBX852105 WLT852072:WLT852105 WVP852072:WVP852105 H917608:H917641 JD917608:JD917641 SZ917608:SZ917641 ACV917608:ACV917641 AMR917608:AMR917641 AWN917608:AWN917641 BGJ917608:BGJ917641 BQF917608:BQF917641 CAB917608:CAB917641 CJX917608:CJX917641 CTT917608:CTT917641 DDP917608:DDP917641 DNL917608:DNL917641 DXH917608:DXH917641 EHD917608:EHD917641 EQZ917608:EQZ917641 FAV917608:FAV917641 FKR917608:FKR917641 FUN917608:FUN917641 GEJ917608:GEJ917641 GOF917608:GOF917641 GYB917608:GYB917641 HHX917608:HHX917641 HRT917608:HRT917641 IBP917608:IBP917641 ILL917608:ILL917641 IVH917608:IVH917641 JFD917608:JFD917641 JOZ917608:JOZ917641 JYV917608:JYV917641 KIR917608:KIR917641 KSN917608:KSN917641 LCJ917608:LCJ917641 LMF917608:LMF917641 LWB917608:LWB917641 MFX917608:MFX917641 MPT917608:MPT917641 MZP917608:MZP917641 NJL917608:NJL917641 NTH917608:NTH917641 ODD917608:ODD917641 OMZ917608:OMZ917641 OWV917608:OWV917641 PGR917608:PGR917641 PQN917608:PQN917641 QAJ917608:QAJ917641 QKF917608:QKF917641 QUB917608:QUB917641 RDX917608:RDX917641 RNT917608:RNT917641 RXP917608:RXP917641 SHL917608:SHL917641 SRH917608:SRH917641 TBD917608:TBD917641 TKZ917608:TKZ917641 TUV917608:TUV917641 UER917608:UER917641 UON917608:UON917641 UYJ917608:UYJ917641 VIF917608:VIF917641 VSB917608:VSB917641 WBX917608:WBX917641 WLT917608:WLT917641 WVP917608:WVP917641 H983144:H983177 JD983144:JD983177 SZ983144:SZ983177 ACV983144:ACV983177 AMR983144:AMR983177 AWN983144:AWN983177 BGJ983144:BGJ983177 BQF983144:BQF983177 CAB983144:CAB983177 CJX983144:CJX983177 CTT983144:CTT983177 DDP983144:DDP983177 DNL983144:DNL983177 DXH983144:DXH983177 EHD983144:EHD983177 EQZ983144:EQZ983177 FAV983144:FAV983177 FKR983144:FKR983177 FUN983144:FUN983177 GEJ983144:GEJ983177 GOF983144:GOF983177 GYB983144:GYB983177 HHX983144:HHX983177 HRT983144:HRT983177 IBP983144:IBP983177 ILL983144:ILL983177 IVH983144:IVH983177 JFD983144:JFD983177 JOZ983144:JOZ983177 JYV983144:JYV983177 KIR983144:KIR983177 KSN983144:KSN983177 LCJ983144:LCJ983177 LMF983144:LMF983177 LWB983144:LWB983177 MFX983144:MFX983177 MPT983144:MPT983177 MZP983144:MZP983177 NJL983144:NJL983177 NTH983144:NTH983177 ODD983144:ODD983177 OMZ983144:OMZ983177 OWV983144:OWV983177 PGR983144:PGR983177 PQN983144:PQN983177 QAJ983144:QAJ983177 QKF983144:QKF983177 QUB983144:QUB983177 RDX983144:RDX983177 RNT983144:RNT983177 RXP983144:RXP983177 SHL983144:SHL983177 SRH983144:SRH983177 TBD983144:TBD983177 TKZ983144:TKZ983177 TUV983144:TUV983177 UER983144:UER983177 UON983144:UON983177 UYJ983144:UYJ983177 VIF983144:VIF983177 VSB983144:VSB983177 WBX983144:WBX983177 WLT983144:WLT983177 WVP983144:WVP983177 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H866" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65644:H65677 JD65644:JD65677 SZ65644:SZ65677 ACV65644:ACV65677 AMR65644:AMR65677 AWN65644:AWN65677 BGJ65644:BGJ65677 BQF65644:BQF65677 CAB65644:CAB65677 CJX65644:CJX65677 CTT65644:CTT65677 DDP65644:DDP65677 DNL65644:DNL65677 DXH65644:DXH65677 EHD65644:EHD65677 EQZ65644:EQZ65677 FAV65644:FAV65677 FKR65644:FKR65677 FUN65644:FUN65677 GEJ65644:GEJ65677 GOF65644:GOF65677 GYB65644:GYB65677 HHX65644:HHX65677 HRT65644:HRT65677 IBP65644:IBP65677 ILL65644:ILL65677 IVH65644:IVH65677 JFD65644:JFD65677 JOZ65644:JOZ65677 JYV65644:JYV65677 KIR65644:KIR65677 KSN65644:KSN65677 LCJ65644:LCJ65677 LMF65644:LMF65677 LWB65644:LWB65677 MFX65644:MFX65677 MPT65644:MPT65677 MZP65644:MZP65677 NJL65644:NJL65677 NTH65644:NTH65677 ODD65644:ODD65677 OMZ65644:OMZ65677 OWV65644:OWV65677 PGR65644:PGR65677 PQN65644:PQN65677 QAJ65644:QAJ65677 QKF65644:QKF65677 QUB65644:QUB65677 RDX65644:RDX65677 RNT65644:RNT65677 RXP65644:RXP65677 SHL65644:SHL65677 SRH65644:SRH65677 TBD65644:TBD65677 TKZ65644:TKZ65677 TUV65644:TUV65677 UER65644:UER65677 UON65644:UON65677 UYJ65644:UYJ65677 VIF65644:VIF65677 VSB65644:VSB65677 WBX65644:WBX65677 WLT65644:WLT65677 WVP65644:WVP65677 H131180:H131213 JD131180:JD131213 SZ131180:SZ131213 ACV131180:ACV131213 AMR131180:AMR131213 AWN131180:AWN131213 BGJ131180:BGJ131213 BQF131180:BQF131213 CAB131180:CAB131213 CJX131180:CJX131213 CTT131180:CTT131213 DDP131180:DDP131213 DNL131180:DNL131213 DXH131180:DXH131213 EHD131180:EHD131213 EQZ131180:EQZ131213 FAV131180:FAV131213 FKR131180:FKR131213 FUN131180:FUN131213 GEJ131180:GEJ131213 GOF131180:GOF131213 GYB131180:GYB131213 HHX131180:HHX131213 HRT131180:HRT131213 IBP131180:IBP131213 ILL131180:ILL131213 IVH131180:IVH131213 JFD131180:JFD131213 JOZ131180:JOZ131213 JYV131180:JYV131213 KIR131180:KIR131213 KSN131180:KSN131213 LCJ131180:LCJ131213 LMF131180:LMF131213 LWB131180:LWB131213 MFX131180:MFX131213 MPT131180:MPT131213 MZP131180:MZP131213 NJL131180:NJL131213 NTH131180:NTH131213 ODD131180:ODD131213 OMZ131180:OMZ131213 OWV131180:OWV131213 PGR131180:PGR131213 PQN131180:PQN131213 QAJ131180:QAJ131213 QKF131180:QKF131213 QUB131180:QUB131213 RDX131180:RDX131213 RNT131180:RNT131213 RXP131180:RXP131213 SHL131180:SHL131213 SRH131180:SRH131213 TBD131180:TBD131213 TKZ131180:TKZ131213 TUV131180:TUV131213 UER131180:UER131213 UON131180:UON131213 UYJ131180:UYJ131213 VIF131180:VIF131213 VSB131180:VSB131213 WBX131180:WBX131213 WLT131180:WLT131213 WVP131180:WVP131213 H196716:H196749 JD196716:JD196749 SZ196716:SZ196749 ACV196716:ACV196749 AMR196716:AMR196749 AWN196716:AWN196749 BGJ196716:BGJ196749 BQF196716:BQF196749 CAB196716:CAB196749 CJX196716:CJX196749 CTT196716:CTT196749 DDP196716:DDP196749 DNL196716:DNL196749 DXH196716:DXH196749 EHD196716:EHD196749 EQZ196716:EQZ196749 FAV196716:FAV196749 FKR196716:FKR196749 FUN196716:FUN196749 GEJ196716:GEJ196749 GOF196716:GOF196749 GYB196716:GYB196749 HHX196716:HHX196749 HRT196716:HRT196749 IBP196716:IBP196749 ILL196716:ILL196749 IVH196716:IVH196749 JFD196716:JFD196749 JOZ196716:JOZ196749 JYV196716:JYV196749 KIR196716:KIR196749 KSN196716:KSN196749 LCJ196716:LCJ196749 LMF196716:LMF196749 LWB196716:LWB196749 MFX196716:MFX196749 MPT196716:MPT196749 MZP196716:MZP196749 NJL196716:NJL196749 NTH196716:NTH196749 ODD196716:ODD196749 OMZ196716:OMZ196749 OWV196716:OWV196749 PGR196716:PGR196749 PQN196716:PQN196749 QAJ196716:QAJ196749 QKF196716:QKF196749 QUB196716:QUB196749 RDX196716:RDX196749 RNT196716:RNT196749 RXP196716:RXP196749 SHL196716:SHL196749 SRH196716:SRH196749 TBD196716:TBD196749 TKZ196716:TKZ196749 TUV196716:TUV196749 UER196716:UER196749 UON196716:UON196749 UYJ196716:UYJ196749 VIF196716:VIF196749 VSB196716:VSB196749 WBX196716:WBX196749 WLT196716:WLT196749 WVP196716:WVP196749 H262252:H262285 JD262252:JD262285 SZ262252:SZ262285 ACV262252:ACV262285 AMR262252:AMR262285 AWN262252:AWN262285 BGJ262252:BGJ262285 BQF262252:BQF262285 CAB262252:CAB262285 CJX262252:CJX262285 CTT262252:CTT262285 DDP262252:DDP262285 DNL262252:DNL262285 DXH262252:DXH262285 EHD262252:EHD262285 EQZ262252:EQZ262285 FAV262252:FAV262285 FKR262252:FKR262285 FUN262252:FUN262285 GEJ262252:GEJ262285 GOF262252:GOF262285 GYB262252:GYB262285 HHX262252:HHX262285 HRT262252:HRT262285 IBP262252:IBP262285 ILL262252:ILL262285 IVH262252:IVH262285 JFD262252:JFD262285 JOZ262252:JOZ262285 JYV262252:JYV262285 KIR262252:KIR262285 KSN262252:KSN262285 LCJ262252:LCJ262285 LMF262252:LMF262285 LWB262252:LWB262285 MFX262252:MFX262285 MPT262252:MPT262285 MZP262252:MZP262285 NJL262252:NJL262285 NTH262252:NTH262285 ODD262252:ODD262285 OMZ262252:OMZ262285 OWV262252:OWV262285 PGR262252:PGR262285 PQN262252:PQN262285 QAJ262252:QAJ262285 QKF262252:QKF262285 QUB262252:QUB262285 RDX262252:RDX262285 RNT262252:RNT262285 RXP262252:RXP262285 SHL262252:SHL262285 SRH262252:SRH262285 TBD262252:TBD262285 TKZ262252:TKZ262285 TUV262252:TUV262285 UER262252:UER262285 UON262252:UON262285 UYJ262252:UYJ262285 VIF262252:VIF262285 VSB262252:VSB262285 WBX262252:WBX262285 WLT262252:WLT262285 WVP262252:WVP262285 H327788:H327821 JD327788:JD327821 SZ327788:SZ327821 ACV327788:ACV327821 AMR327788:AMR327821 AWN327788:AWN327821 BGJ327788:BGJ327821 BQF327788:BQF327821 CAB327788:CAB327821 CJX327788:CJX327821 CTT327788:CTT327821 DDP327788:DDP327821 DNL327788:DNL327821 DXH327788:DXH327821 EHD327788:EHD327821 EQZ327788:EQZ327821 FAV327788:FAV327821 FKR327788:FKR327821 FUN327788:FUN327821 GEJ327788:GEJ327821 GOF327788:GOF327821 GYB327788:GYB327821 HHX327788:HHX327821 HRT327788:HRT327821 IBP327788:IBP327821 ILL327788:ILL327821 IVH327788:IVH327821 JFD327788:JFD327821 JOZ327788:JOZ327821 JYV327788:JYV327821 KIR327788:KIR327821 KSN327788:KSN327821 LCJ327788:LCJ327821 LMF327788:LMF327821 LWB327788:LWB327821 MFX327788:MFX327821 MPT327788:MPT327821 MZP327788:MZP327821 NJL327788:NJL327821 NTH327788:NTH327821 ODD327788:ODD327821 OMZ327788:OMZ327821 OWV327788:OWV327821 PGR327788:PGR327821 PQN327788:PQN327821 QAJ327788:QAJ327821 QKF327788:QKF327821 QUB327788:QUB327821 RDX327788:RDX327821 RNT327788:RNT327821 RXP327788:RXP327821 SHL327788:SHL327821 SRH327788:SRH327821 TBD327788:TBD327821 TKZ327788:TKZ327821 TUV327788:TUV327821 UER327788:UER327821 UON327788:UON327821 UYJ327788:UYJ327821 VIF327788:VIF327821 VSB327788:VSB327821 WBX327788:WBX327821 WLT327788:WLT327821 WVP327788:WVP327821 H393324:H393357 JD393324:JD393357 SZ393324:SZ393357 ACV393324:ACV393357 AMR393324:AMR393357 AWN393324:AWN393357 BGJ393324:BGJ393357 BQF393324:BQF393357 CAB393324:CAB393357 CJX393324:CJX393357 CTT393324:CTT393357 DDP393324:DDP393357 DNL393324:DNL393357 DXH393324:DXH393357 EHD393324:EHD393357 EQZ393324:EQZ393357 FAV393324:FAV393357 FKR393324:FKR393357 FUN393324:FUN393357 GEJ393324:GEJ393357 GOF393324:GOF393357 GYB393324:GYB393357 HHX393324:HHX393357 HRT393324:HRT393357 IBP393324:IBP393357 ILL393324:ILL393357 IVH393324:IVH393357 JFD393324:JFD393357 JOZ393324:JOZ393357 JYV393324:JYV393357 KIR393324:KIR393357 KSN393324:KSN393357 LCJ393324:LCJ393357 LMF393324:LMF393357 LWB393324:LWB393357 MFX393324:MFX393357 MPT393324:MPT393357 MZP393324:MZP393357 NJL393324:NJL393357 NTH393324:NTH393357 ODD393324:ODD393357 OMZ393324:OMZ393357 OWV393324:OWV393357 PGR393324:PGR393357 PQN393324:PQN393357 QAJ393324:QAJ393357 QKF393324:QKF393357 QUB393324:QUB393357 RDX393324:RDX393357 RNT393324:RNT393357 RXP393324:RXP393357 SHL393324:SHL393357 SRH393324:SRH393357 TBD393324:TBD393357 TKZ393324:TKZ393357 TUV393324:TUV393357 UER393324:UER393357 UON393324:UON393357 UYJ393324:UYJ393357 VIF393324:VIF393357 VSB393324:VSB393357 WBX393324:WBX393357 WLT393324:WLT393357 WVP393324:WVP393357 H458860:H458893 JD458860:JD458893 SZ458860:SZ458893 ACV458860:ACV458893 AMR458860:AMR458893 AWN458860:AWN458893 BGJ458860:BGJ458893 BQF458860:BQF458893 CAB458860:CAB458893 CJX458860:CJX458893 CTT458860:CTT458893 DDP458860:DDP458893 DNL458860:DNL458893 DXH458860:DXH458893 EHD458860:EHD458893 EQZ458860:EQZ458893 FAV458860:FAV458893 FKR458860:FKR458893 FUN458860:FUN458893 GEJ458860:GEJ458893 GOF458860:GOF458893 GYB458860:GYB458893 HHX458860:HHX458893 HRT458860:HRT458893 IBP458860:IBP458893 ILL458860:ILL458893 IVH458860:IVH458893 JFD458860:JFD458893 JOZ458860:JOZ458893 JYV458860:JYV458893 KIR458860:KIR458893 KSN458860:KSN458893 LCJ458860:LCJ458893 LMF458860:LMF458893 LWB458860:LWB458893 MFX458860:MFX458893 MPT458860:MPT458893 MZP458860:MZP458893 NJL458860:NJL458893 NTH458860:NTH458893 ODD458860:ODD458893 OMZ458860:OMZ458893 OWV458860:OWV458893 PGR458860:PGR458893 PQN458860:PQN458893 QAJ458860:QAJ458893 QKF458860:QKF458893 QUB458860:QUB458893 RDX458860:RDX458893 RNT458860:RNT458893 RXP458860:RXP458893 SHL458860:SHL458893 SRH458860:SRH458893 TBD458860:TBD458893 TKZ458860:TKZ458893 TUV458860:TUV458893 UER458860:UER458893 UON458860:UON458893 UYJ458860:UYJ458893 VIF458860:VIF458893 VSB458860:VSB458893 WBX458860:WBX458893 WLT458860:WLT458893 WVP458860:WVP458893 H524396:H524429 JD524396:JD524429 SZ524396:SZ524429 ACV524396:ACV524429 AMR524396:AMR524429 AWN524396:AWN524429 BGJ524396:BGJ524429 BQF524396:BQF524429 CAB524396:CAB524429 CJX524396:CJX524429 CTT524396:CTT524429 DDP524396:DDP524429 DNL524396:DNL524429 DXH524396:DXH524429 EHD524396:EHD524429 EQZ524396:EQZ524429 FAV524396:FAV524429 FKR524396:FKR524429 FUN524396:FUN524429 GEJ524396:GEJ524429 GOF524396:GOF524429 GYB524396:GYB524429 HHX524396:HHX524429 HRT524396:HRT524429 IBP524396:IBP524429 ILL524396:ILL524429 IVH524396:IVH524429 JFD524396:JFD524429 JOZ524396:JOZ524429 JYV524396:JYV524429 KIR524396:KIR524429 KSN524396:KSN524429 LCJ524396:LCJ524429 LMF524396:LMF524429 LWB524396:LWB524429 MFX524396:MFX524429 MPT524396:MPT524429 MZP524396:MZP524429 NJL524396:NJL524429 NTH524396:NTH524429 ODD524396:ODD524429 OMZ524396:OMZ524429 OWV524396:OWV524429 PGR524396:PGR524429 PQN524396:PQN524429 QAJ524396:QAJ524429 QKF524396:QKF524429 QUB524396:QUB524429 RDX524396:RDX524429 RNT524396:RNT524429 RXP524396:RXP524429 SHL524396:SHL524429 SRH524396:SRH524429 TBD524396:TBD524429 TKZ524396:TKZ524429 TUV524396:TUV524429 UER524396:UER524429 UON524396:UON524429 UYJ524396:UYJ524429 VIF524396:VIF524429 VSB524396:VSB524429 WBX524396:WBX524429 WLT524396:WLT524429 WVP524396:WVP524429 H589932:H589965 JD589932:JD589965 SZ589932:SZ589965 ACV589932:ACV589965 AMR589932:AMR589965 AWN589932:AWN589965 BGJ589932:BGJ589965 BQF589932:BQF589965 CAB589932:CAB589965 CJX589932:CJX589965 CTT589932:CTT589965 DDP589932:DDP589965 DNL589932:DNL589965 DXH589932:DXH589965 EHD589932:EHD589965 EQZ589932:EQZ589965 FAV589932:FAV589965 FKR589932:FKR589965 FUN589932:FUN589965 GEJ589932:GEJ589965 GOF589932:GOF589965 GYB589932:GYB589965 HHX589932:HHX589965 HRT589932:HRT589965 IBP589932:IBP589965 ILL589932:ILL589965 IVH589932:IVH589965 JFD589932:JFD589965 JOZ589932:JOZ589965 JYV589932:JYV589965 KIR589932:KIR589965 KSN589932:KSN589965 LCJ589932:LCJ589965 LMF589932:LMF589965 LWB589932:LWB589965 MFX589932:MFX589965 MPT589932:MPT589965 MZP589932:MZP589965 NJL589932:NJL589965 NTH589932:NTH589965 ODD589932:ODD589965 OMZ589932:OMZ589965 OWV589932:OWV589965 PGR589932:PGR589965 PQN589932:PQN589965 QAJ589932:QAJ589965 QKF589932:QKF589965 QUB589932:QUB589965 RDX589932:RDX589965 RNT589932:RNT589965 RXP589932:RXP589965 SHL589932:SHL589965 SRH589932:SRH589965 TBD589932:TBD589965 TKZ589932:TKZ589965 TUV589932:TUV589965 UER589932:UER589965 UON589932:UON589965 UYJ589932:UYJ589965 VIF589932:VIF589965 VSB589932:VSB589965 WBX589932:WBX589965 WLT589932:WLT589965 WVP589932:WVP589965 H655468:H655501 JD655468:JD655501 SZ655468:SZ655501 ACV655468:ACV655501 AMR655468:AMR655501 AWN655468:AWN655501 BGJ655468:BGJ655501 BQF655468:BQF655501 CAB655468:CAB655501 CJX655468:CJX655501 CTT655468:CTT655501 DDP655468:DDP655501 DNL655468:DNL655501 DXH655468:DXH655501 EHD655468:EHD655501 EQZ655468:EQZ655501 FAV655468:FAV655501 FKR655468:FKR655501 FUN655468:FUN655501 GEJ655468:GEJ655501 GOF655468:GOF655501 GYB655468:GYB655501 HHX655468:HHX655501 HRT655468:HRT655501 IBP655468:IBP655501 ILL655468:ILL655501 IVH655468:IVH655501 JFD655468:JFD655501 JOZ655468:JOZ655501 JYV655468:JYV655501 KIR655468:KIR655501 KSN655468:KSN655501 LCJ655468:LCJ655501 LMF655468:LMF655501 LWB655468:LWB655501 MFX655468:MFX655501 MPT655468:MPT655501 MZP655468:MZP655501 NJL655468:NJL655501 NTH655468:NTH655501 ODD655468:ODD655501 OMZ655468:OMZ655501 OWV655468:OWV655501 PGR655468:PGR655501 PQN655468:PQN655501 QAJ655468:QAJ655501 QKF655468:QKF655501 QUB655468:QUB655501 RDX655468:RDX655501 RNT655468:RNT655501 RXP655468:RXP655501 SHL655468:SHL655501 SRH655468:SRH655501 TBD655468:TBD655501 TKZ655468:TKZ655501 TUV655468:TUV655501 UER655468:UER655501 UON655468:UON655501 UYJ655468:UYJ655501 VIF655468:VIF655501 VSB655468:VSB655501 WBX655468:WBX655501 WLT655468:WLT655501 WVP655468:WVP655501 H721004:H721037 JD721004:JD721037 SZ721004:SZ721037 ACV721004:ACV721037 AMR721004:AMR721037 AWN721004:AWN721037 BGJ721004:BGJ721037 BQF721004:BQF721037 CAB721004:CAB721037 CJX721004:CJX721037 CTT721004:CTT721037 DDP721004:DDP721037 DNL721004:DNL721037 DXH721004:DXH721037 EHD721004:EHD721037 EQZ721004:EQZ721037 FAV721004:FAV721037 FKR721004:FKR721037 FUN721004:FUN721037 GEJ721004:GEJ721037 GOF721004:GOF721037 GYB721004:GYB721037 HHX721004:HHX721037 HRT721004:HRT721037 IBP721004:IBP721037 ILL721004:ILL721037 IVH721004:IVH721037 JFD721004:JFD721037 JOZ721004:JOZ721037 JYV721004:JYV721037 KIR721004:KIR721037 KSN721004:KSN721037 LCJ721004:LCJ721037 LMF721004:LMF721037 LWB721004:LWB721037 MFX721004:MFX721037 MPT721004:MPT721037 MZP721004:MZP721037 NJL721004:NJL721037 NTH721004:NTH721037 ODD721004:ODD721037 OMZ721004:OMZ721037 OWV721004:OWV721037 PGR721004:PGR721037 PQN721004:PQN721037 QAJ721004:QAJ721037 QKF721004:QKF721037 QUB721004:QUB721037 RDX721004:RDX721037 RNT721004:RNT721037 RXP721004:RXP721037 SHL721004:SHL721037 SRH721004:SRH721037 TBD721004:TBD721037 TKZ721004:TKZ721037 TUV721004:TUV721037 UER721004:UER721037 UON721004:UON721037 UYJ721004:UYJ721037 VIF721004:VIF721037 VSB721004:VSB721037 WBX721004:WBX721037 WLT721004:WLT721037 WVP721004:WVP721037 H786540:H786573 JD786540:JD786573 SZ786540:SZ786573 ACV786540:ACV786573 AMR786540:AMR786573 AWN786540:AWN786573 BGJ786540:BGJ786573 BQF786540:BQF786573 CAB786540:CAB786573 CJX786540:CJX786573 CTT786540:CTT786573 DDP786540:DDP786573 DNL786540:DNL786573 DXH786540:DXH786573 EHD786540:EHD786573 EQZ786540:EQZ786573 FAV786540:FAV786573 FKR786540:FKR786573 FUN786540:FUN786573 GEJ786540:GEJ786573 GOF786540:GOF786573 GYB786540:GYB786573 HHX786540:HHX786573 HRT786540:HRT786573 IBP786540:IBP786573 ILL786540:ILL786573 IVH786540:IVH786573 JFD786540:JFD786573 JOZ786540:JOZ786573 JYV786540:JYV786573 KIR786540:KIR786573 KSN786540:KSN786573 LCJ786540:LCJ786573 LMF786540:LMF786573 LWB786540:LWB786573 MFX786540:MFX786573 MPT786540:MPT786573 MZP786540:MZP786573 NJL786540:NJL786573 NTH786540:NTH786573 ODD786540:ODD786573 OMZ786540:OMZ786573 OWV786540:OWV786573 PGR786540:PGR786573 PQN786540:PQN786573 QAJ786540:QAJ786573 QKF786540:QKF786573 QUB786540:QUB786573 RDX786540:RDX786573 RNT786540:RNT786573 RXP786540:RXP786573 SHL786540:SHL786573 SRH786540:SRH786573 TBD786540:TBD786573 TKZ786540:TKZ786573 TUV786540:TUV786573 UER786540:UER786573 UON786540:UON786573 UYJ786540:UYJ786573 VIF786540:VIF786573 VSB786540:VSB786573 WBX786540:WBX786573 WLT786540:WLT786573 WVP786540:WVP786573 H852076:H852109 JD852076:JD852109 SZ852076:SZ852109 ACV852076:ACV852109 AMR852076:AMR852109 AWN852076:AWN852109 BGJ852076:BGJ852109 BQF852076:BQF852109 CAB852076:CAB852109 CJX852076:CJX852109 CTT852076:CTT852109 DDP852076:DDP852109 DNL852076:DNL852109 DXH852076:DXH852109 EHD852076:EHD852109 EQZ852076:EQZ852109 FAV852076:FAV852109 FKR852076:FKR852109 FUN852076:FUN852109 GEJ852076:GEJ852109 GOF852076:GOF852109 GYB852076:GYB852109 HHX852076:HHX852109 HRT852076:HRT852109 IBP852076:IBP852109 ILL852076:ILL852109 IVH852076:IVH852109 JFD852076:JFD852109 JOZ852076:JOZ852109 JYV852076:JYV852109 KIR852076:KIR852109 KSN852076:KSN852109 LCJ852076:LCJ852109 LMF852076:LMF852109 LWB852076:LWB852109 MFX852076:MFX852109 MPT852076:MPT852109 MZP852076:MZP852109 NJL852076:NJL852109 NTH852076:NTH852109 ODD852076:ODD852109 OMZ852076:OMZ852109 OWV852076:OWV852109 PGR852076:PGR852109 PQN852076:PQN852109 QAJ852076:QAJ852109 QKF852076:QKF852109 QUB852076:QUB852109 RDX852076:RDX852109 RNT852076:RNT852109 RXP852076:RXP852109 SHL852076:SHL852109 SRH852076:SRH852109 TBD852076:TBD852109 TKZ852076:TKZ852109 TUV852076:TUV852109 UER852076:UER852109 UON852076:UON852109 UYJ852076:UYJ852109 VIF852076:VIF852109 VSB852076:VSB852109 WBX852076:WBX852109 WLT852076:WLT852109 WVP852076:WVP852109 H917612:H917645 JD917612:JD917645 SZ917612:SZ917645 ACV917612:ACV917645 AMR917612:AMR917645 AWN917612:AWN917645 BGJ917612:BGJ917645 BQF917612:BQF917645 CAB917612:CAB917645 CJX917612:CJX917645 CTT917612:CTT917645 DDP917612:DDP917645 DNL917612:DNL917645 DXH917612:DXH917645 EHD917612:EHD917645 EQZ917612:EQZ917645 FAV917612:FAV917645 FKR917612:FKR917645 FUN917612:FUN917645 GEJ917612:GEJ917645 GOF917612:GOF917645 GYB917612:GYB917645 HHX917612:HHX917645 HRT917612:HRT917645 IBP917612:IBP917645 ILL917612:ILL917645 IVH917612:IVH917645 JFD917612:JFD917645 JOZ917612:JOZ917645 JYV917612:JYV917645 KIR917612:KIR917645 KSN917612:KSN917645 LCJ917612:LCJ917645 LMF917612:LMF917645 LWB917612:LWB917645 MFX917612:MFX917645 MPT917612:MPT917645 MZP917612:MZP917645 NJL917612:NJL917645 NTH917612:NTH917645 ODD917612:ODD917645 OMZ917612:OMZ917645 OWV917612:OWV917645 PGR917612:PGR917645 PQN917612:PQN917645 QAJ917612:QAJ917645 QKF917612:QKF917645 QUB917612:QUB917645 RDX917612:RDX917645 RNT917612:RNT917645 RXP917612:RXP917645 SHL917612:SHL917645 SRH917612:SRH917645 TBD917612:TBD917645 TKZ917612:TKZ917645 TUV917612:TUV917645 UER917612:UER917645 UON917612:UON917645 UYJ917612:UYJ917645 VIF917612:VIF917645 VSB917612:VSB917645 WBX917612:WBX917645 WLT917612:WLT917645 WVP917612:WVP917645 H983148:H983181 JD983148:JD983181 SZ983148:SZ983181 ACV983148:ACV983181 AMR983148:AMR983181 AWN983148:AWN983181 BGJ983148:BGJ983181 BQF983148:BQF983181 CAB983148:CAB983181 CJX983148:CJX983181 CTT983148:CTT983181 DDP983148:DDP983181 DNL983148:DNL983181 DXH983148:DXH983181 EHD983148:EHD983181 EQZ983148:EQZ983181 FAV983148:FAV983181 FKR983148:FKR983181 FUN983148:FUN983181 GEJ983148:GEJ983181 GOF983148:GOF983181 GYB983148:GYB983181 HHX983148:HHX983181 HRT983148:HRT983181 IBP983148:IBP983181 ILL983148:ILL983181 IVH983148:IVH983181 JFD983148:JFD983181 JOZ983148:JOZ983181 JYV983148:JYV983181 KIR983148:KIR983181 KSN983148:KSN983181 LCJ983148:LCJ983181 LMF983148:LMF983181 LWB983148:LWB983181 MFX983148:MFX983181 MPT983148:MPT983181 MZP983148:MZP983181 NJL983148:NJL983181 NTH983148:NTH983181 ODD983148:ODD983181 OMZ983148:OMZ983181 OWV983148:OWV983181 PGR983148:PGR983181 PQN983148:PQN983181 QAJ983148:QAJ983181 QKF983148:QKF983181 QUB983148:QUB983181 RDX983148:RDX983181 RNT983148:RNT983181 RXP983148:RXP983181 SHL983148:SHL983181 SRH983148:SRH983181 TBD983148:TBD983181 TKZ983148:TKZ983181 TUV983148:TUV983181 UER983148:UER983181 UON983148:UON983181 UYJ983148:UYJ983181 VIF983148:VIF983181 VSB983148:VSB983181 WBX983148:WBX983181 WLT983148:WLT983181 WVP983148:WVP983181 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H870" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F0843-6E60-461C-B00D-F5AAF3BE1BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBEABD8-6E6B-4400-AC84-FF1EE89641C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="750" windowWidth="18435" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3204,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G811" sqref="G811"/>
+    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J814" sqref="J814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -25845,7 +25845,9 @@
       <c r="H810" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I810" s="7"/>
+      <c r="I810" s="7">
+        <v>3</v>
+      </c>
       <c r="J810" s="8"/>
     </row>
     <row r="811" spans="1:10">
@@ -25869,7 +25871,9 @@
       <c r="H811" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I811" s="7"/>
+      <c r="I811" s="7">
+        <v>3</v>
+      </c>
       <c r="J811" s="8"/>
     </row>
     <row r="812" spans="1:10">
@@ -25893,7 +25897,9 @@
       <c r="H812" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I812" s="7"/>
+      <c r="I812" s="7">
+        <v>3</v>
+      </c>
       <c r="J812" s="8"/>
     </row>
     <row r="813" spans="1:10">
@@ -25919,7 +25925,9 @@
       <c r="H813" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I813" s="7"/>
+      <c r="I813" s="7">
+        <v>3</v>
+      </c>
       <c r="J813" s="8"/>
     </row>
     <row r="814" spans="1:10">
@@ -25945,7 +25953,9 @@
       <c r="H814" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I814" s="7"/>
+      <c r="I814" s="7">
+        <v>3</v>
+      </c>
       <c r="J814" s="8"/>
     </row>
     <row r="815" spans="1:10">
@@ -25971,7 +25981,9 @@
       <c r="H815" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I815" s="7"/>
+      <c r="I815" s="7">
+        <v>3</v>
+      </c>
       <c r="J815" s="8"/>
     </row>
     <row r="816" spans="1:10">
@@ -26215,7 +26227,9 @@
       <c r="H825" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I825" s="7"/>
+      <c r="I825" s="7">
+        <v>3</v>
+      </c>
       <c r="J825" s="8"/>
     </row>
     <row r="826" spans="1:10">
@@ -26239,7 +26253,9 @@
       <c r="H826" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I826" s="7"/>
+      <c r="I826" s="7">
+        <v>3</v>
+      </c>
       <c r="J826" s="8"/>
     </row>
     <row r="827" spans="1:10">
@@ -26263,7 +26279,9 @@
       <c r="H827" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I827" s="7"/>
+      <c r="I827" s="7">
+        <v>3</v>
+      </c>
       <c r="J827" s="8"/>
     </row>
     <row r="828" spans="1:10">
@@ -26287,7 +26305,9 @@
       <c r="H828" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I828" s="7"/>
+      <c r="I828" s="7">
+        <v>3</v>
+      </c>
       <c r="J828" s="8"/>
     </row>
     <row r="829" spans="1:10">
@@ -26311,7 +26331,9 @@
       <c r="H829" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I829" s="7"/>
+      <c r="I829" s="7">
+        <v>3</v>
+      </c>
       <c r="J829" s="8"/>
     </row>
     <row r="830" spans="1:10">
@@ -26337,7 +26359,9 @@
       <c r="H830" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I830" s="7"/>
+      <c r="I830" s="7">
+        <v>3</v>
+      </c>
       <c r="J830" s="8"/>
     </row>
     <row r="831" spans="1:10" ht="24">
@@ -26363,7 +26387,9 @@
       <c r="H831" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I831" s="7"/>
+      <c r="I831" s="7">
+        <v>3</v>
+      </c>
       <c r="J831" s="8"/>
     </row>
     <row r="832" spans="1:10">
@@ -26389,7 +26415,9 @@
       <c r="H832" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I832" s="7"/>
+      <c r="I832" s="7">
+        <v>3</v>
+      </c>
       <c r="J832" s="8"/>
     </row>
     <row r="833" spans="1:10" ht="24">
@@ -26415,7 +26443,9 @@
       <c r="H833" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I833" s="7"/>
+      <c r="I833" s="7">
+        <v>3</v>
+      </c>
       <c r="J833" s="8"/>
     </row>
     <row r="834" spans="1:10" ht="24">
@@ -26441,7 +26471,9 @@
       <c r="H834" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I834" s="7"/>
+      <c r="I834" s="7">
+        <v>3</v>
+      </c>
       <c r="J834" s="8"/>
     </row>
     <row r="835" spans="1:10">
@@ -26467,7 +26499,9 @@
       <c r="H835" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I835" s="7"/>
+      <c r="I835" s="7">
+        <v>3</v>
+      </c>
       <c r="J835" s="8"/>
     </row>
     <row r="836" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBEABD8-6E6B-4400-AC84-FF1EE89641C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24D2FB-59FC-4CF9-9C2B-FAF084A4F24B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="750" windowWidth="18435" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="674">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2607,10 +2607,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>将剩余未报送的数据抽取到thr库PT2_表中，进行换批次000002PHIS0000005642，进行上报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>启动服务器235，并检查服务，将批次号为000002PHIS0000005642更改为写文件和打压缩包状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2656,6 +2652,37 @@
   </si>
   <si>
     <t>探查第三批数据质量报告--再保模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对存量批次结果状态为11的进行整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将剩余未报送的数据抽取到thr库PT2_表中，进行换批次000002PHIS0000005642，删除影像表中数据，进行非影像批次上报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取昨日非影像批次000002PHIS0000005642结果，处理结果为：11-数据处理完成   生产库数据入库处理,数据装载部分失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次对再保业务数据进行探究，对第三批数据质量报告中再保模块进行复查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三批数据质量报告中再保模块进行复查</t>
+  </si>
+  <si>
+    <t>对再保模块中校验sql中校验下的数据进行业务数据的详查，个别有关合约编码的数据不存在问题，在提数脚本中的where条件中可以查询出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上参考了解再保业务知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和员员一起探讨再保问题数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3204,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J814" sqref="J814"/>
+    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G844" sqref="G844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -25824,7 +25851,7 @@
       </c>
       <c r="J809" s="8"/>
     </row>
-    <row r="810" spans="1:10">
+    <row r="810" spans="1:10" ht="24">
       <c r="A810" s="5" t="s">
         <v>10</v>
       </c>
@@ -25841,7 +25868,9 @@
       <c r="F810" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G810" s="14"/>
+      <c r="G810" s="14" t="s">
+        <v>671</v>
+      </c>
       <c r="H810" s="6" t="s">
         <v>11</v>
       </c>
@@ -25867,7 +25896,9 @@
       <c r="F811" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G811" s="14"/>
+      <c r="G811" s="14" t="s">
+        <v>672</v>
+      </c>
       <c r="H811" s="6" t="s">
         <v>11</v>
       </c>
@@ -25893,7 +25924,9 @@
       <c r="F812" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G812" s="14"/>
+      <c r="G812" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="H812" s="6" t="s">
         <v>11</v>
       </c>
@@ -25920,7 +25953,7 @@
         <v>240</v>
       </c>
       <c r="G813" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H813" s="6" t="s">
         <v>11</v>
@@ -25948,7 +25981,7 @@
         <v>240</v>
       </c>
       <c r="G814" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H814" s="6" t="s">
         <v>11</v>
@@ -25976,7 +26009,7 @@
         <v>240</v>
       </c>
       <c r="G815" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H815" s="6" t="s">
         <v>11</v>
@@ -26004,7 +26037,7 @@
         <v>240</v>
       </c>
       <c r="G816" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H816" s="6" t="s">
         <v>11</v>
@@ -26032,7 +26065,7 @@
         <v>240</v>
       </c>
       <c r="G817" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H817" s="6" t="s">
         <v>11</v>
@@ -26060,7 +26093,7 @@
         <v>240</v>
       </c>
       <c r="G818" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H818" s="6" t="s">
         <v>11</v>
@@ -26088,7 +26121,7 @@
         <v>240</v>
       </c>
       <c r="G819" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H819" s="6" t="s">
         <v>11</v>
@@ -26116,7 +26149,7 @@
         <v>240</v>
       </c>
       <c r="G820" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H820" s="6" t="s">
         <v>11</v>
@@ -26144,7 +26177,7 @@
         <v>240</v>
       </c>
       <c r="G821" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H821" s="6" t="s">
         <v>11</v>
@@ -26172,7 +26205,7 @@
         <v>240</v>
       </c>
       <c r="G822" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H822" s="6" t="s">
         <v>11</v>
@@ -26223,7 +26256,9 @@
       <c r="F825" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G825" s="14"/>
+      <c r="G825" s="14" t="s">
+        <v>669</v>
+      </c>
       <c r="H825" s="6" t="s">
         <v>11</v>
       </c>
@@ -26249,7 +26284,9 @@
       <c r="F826" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G826" s="14"/>
+      <c r="G826" s="14" t="s">
+        <v>670</v>
+      </c>
       <c r="H826" s="6" t="s">
         <v>11</v>
       </c>
@@ -26275,7 +26312,9 @@
       <c r="F827" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G827" s="14"/>
+      <c r="G827" s="14" t="s">
+        <v>670</v>
+      </c>
       <c r="H827" s="6" t="s">
         <v>11</v>
       </c>
@@ -26301,7 +26340,9 @@
       <c r="F828" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G828" s="14"/>
+      <c r="G828" s="14" t="s">
+        <v>670</v>
+      </c>
       <c r="H828" s="6" t="s">
         <v>11</v>
       </c>
@@ -26327,7 +26368,9 @@
       <c r="F829" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G829" s="14"/>
+      <c r="G829" s="14" t="s">
+        <v>670</v>
+      </c>
       <c r="H829" s="6" t="s">
         <v>11</v>
       </c>
@@ -26354,7 +26397,7 @@
         <v>240</v>
       </c>
       <c r="G830" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H830" s="6" t="s">
         <v>11</v>
@@ -26392,7 +26435,7 @@
       </c>
       <c r="J831" s="8"/>
     </row>
-    <row r="832" spans="1:10">
+    <row r="832" spans="1:10" ht="24">
       <c r="A832" s="5" t="s">
         <v>10</v>
       </c>
@@ -26410,7 +26453,7 @@
         <v>240</v>
       </c>
       <c r="G832" s="14" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="H832" s="6" t="s">
         <v>11</v>
@@ -26438,7 +26481,7 @@
         <v>240</v>
       </c>
       <c r="G833" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H833" s="6" t="s">
         <v>11</v>
@@ -26466,7 +26509,7 @@
         <v>240</v>
       </c>
       <c r="G834" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H834" s="6" t="s">
         <v>11</v>
@@ -26494,7 +26537,7 @@
         <v>240</v>
       </c>
       <c r="G835" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H835" s="6" t="s">
         <v>11</v>
@@ -26521,14 +26564,18 @@
       <c r="F836" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G836" s="14"/>
+      <c r="G836" s="14" t="s">
+        <v>666</v>
+      </c>
       <c r="H836" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I836" s="7"/>
+      <c r="I836" s="7">
+        <v>3</v>
+      </c>
       <c r="J836" s="8"/>
     </row>
-    <row r="837" spans="1:10">
+    <row r="837" spans="1:10" ht="24">
       <c r="A837" s="5" t="s">
         <v>10</v>
       </c>
@@ -26545,11 +26592,15 @@
       <c r="F837" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G837" s="14"/>
+      <c r="G837" s="14" t="s">
+        <v>668</v>
+      </c>
       <c r="H837" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I837" s="7"/>
+      <c r="I837" s="7">
+        <v>2</v>
+      </c>
       <c r="J837" s="8"/>
     </row>
     <row r="838" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24D2FB-59FC-4CF9-9C2B-FAF084A4F24B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB70FE-C05F-45AC-B14D-DAFB903CBC43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="750" windowWidth="18435" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="456" windowWidth="21000" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="675">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2683,6 +2683,10 @@
   </si>
   <si>
     <t>和员员一起探讨再保问题数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看慧军开发的python程序，学习python</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3232,526 +3236,526 @@
   <dimension ref="A1:J870"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A832" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G844" sqref="G844"/>
+      <selection activeCell="G856" sqref="G856"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="67.375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="257" max="257" width="16.75" customWidth="1"/>
-    <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.125" customWidth="1"/>
-    <col min="260" max="260" width="9.25" customWidth="1"/>
-    <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.75" customWidth="1"/>
-    <col min="263" max="263" width="54.375" customWidth="1"/>
-    <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.75" customWidth="1"/>
-    <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.125" customWidth="1"/>
-    <col min="516" max="516" width="9.25" customWidth="1"/>
-    <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.75" customWidth="1"/>
-    <col min="519" max="519" width="54.375" customWidth="1"/>
-    <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.75" customWidth="1"/>
-    <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.125" customWidth="1"/>
-    <col min="772" max="772" width="9.25" customWidth="1"/>
-    <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.75" customWidth="1"/>
-    <col min="775" max="775" width="54.375" customWidth="1"/>
-    <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.75" customWidth="1"/>
-    <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.25" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.75" customWidth="1"/>
-    <col min="1031" max="1031" width="54.375" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.75" customWidth="1"/>
-    <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.25" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.75" customWidth="1"/>
-    <col min="1287" max="1287" width="54.375" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.75" customWidth="1"/>
-    <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.25" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.75" customWidth="1"/>
-    <col min="1543" max="1543" width="54.375" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.75" customWidth="1"/>
-    <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.25" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.75" customWidth="1"/>
-    <col min="1799" max="1799" width="54.375" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.75" customWidth="1"/>
-    <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.25" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.75" customWidth="1"/>
-    <col min="2055" max="2055" width="54.375" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.75" customWidth="1"/>
-    <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.25" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.75" customWidth="1"/>
-    <col min="2311" max="2311" width="54.375" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.75" customWidth="1"/>
-    <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.25" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.75" customWidth="1"/>
-    <col min="2567" max="2567" width="54.375" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.75" customWidth="1"/>
-    <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.25" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.75" customWidth="1"/>
-    <col min="2823" max="2823" width="54.375" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.75" customWidth="1"/>
-    <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.25" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.75" customWidth="1"/>
-    <col min="3079" max="3079" width="54.375" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.75" customWidth="1"/>
-    <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.25" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.75" customWidth="1"/>
-    <col min="3335" max="3335" width="54.375" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.75" customWidth="1"/>
-    <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.25" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.75" customWidth="1"/>
-    <col min="3591" max="3591" width="54.375" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.75" customWidth="1"/>
-    <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.25" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.75" customWidth="1"/>
-    <col min="3847" max="3847" width="54.375" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.75" customWidth="1"/>
-    <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.25" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.75" customWidth="1"/>
-    <col min="4103" max="4103" width="54.375" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.75" customWidth="1"/>
-    <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.25" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.75" customWidth="1"/>
-    <col min="4359" max="4359" width="54.375" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.75" customWidth="1"/>
-    <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.25" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.75" customWidth="1"/>
-    <col min="4615" max="4615" width="54.375" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.75" customWidth="1"/>
-    <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.25" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.75" customWidth="1"/>
-    <col min="4871" max="4871" width="54.375" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.75" customWidth="1"/>
-    <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.25" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.75" customWidth="1"/>
-    <col min="5127" max="5127" width="54.375" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.75" customWidth="1"/>
-    <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.25" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.75" customWidth="1"/>
-    <col min="5383" max="5383" width="54.375" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.75" customWidth="1"/>
-    <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.25" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.75" customWidth="1"/>
-    <col min="5639" max="5639" width="54.375" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.75" customWidth="1"/>
-    <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.25" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.75" customWidth="1"/>
-    <col min="5895" max="5895" width="54.375" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.75" customWidth="1"/>
-    <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.25" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.75" customWidth="1"/>
-    <col min="6151" max="6151" width="54.375" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.75" customWidth="1"/>
-    <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.25" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.75" customWidth="1"/>
-    <col min="6407" max="6407" width="54.375" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.75" customWidth="1"/>
-    <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.25" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.75" customWidth="1"/>
-    <col min="6663" max="6663" width="54.375" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.75" customWidth="1"/>
-    <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.25" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.75" customWidth="1"/>
-    <col min="6919" max="6919" width="54.375" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.75" customWidth="1"/>
-    <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.25" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.75" customWidth="1"/>
-    <col min="7175" max="7175" width="54.375" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.75" customWidth="1"/>
-    <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.25" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.75" customWidth="1"/>
-    <col min="7431" max="7431" width="54.375" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.75" customWidth="1"/>
-    <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.25" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.75" customWidth="1"/>
-    <col min="7687" max="7687" width="54.375" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.75" customWidth="1"/>
-    <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.25" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.75" customWidth="1"/>
-    <col min="7943" max="7943" width="54.375" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.75" customWidth="1"/>
-    <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.25" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.75" customWidth="1"/>
-    <col min="8199" max="8199" width="54.375" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.75" customWidth="1"/>
-    <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.25" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.75" customWidth="1"/>
-    <col min="8455" max="8455" width="54.375" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.75" customWidth="1"/>
-    <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.25" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.75" customWidth="1"/>
-    <col min="8711" max="8711" width="54.375" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.75" customWidth="1"/>
-    <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.25" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.75" customWidth="1"/>
-    <col min="8967" max="8967" width="54.375" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.75" customWidth="1"/>
-    <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.25" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.75" customWidth="1"/>
-    <col min="9223" max="9223" width="54.375" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.75" customWidth="1"/>
-    <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.25" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.75" customWidth="1"/>
-    <col min="9479" max="9479" width="54.375" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.75" customWidth="1"/>
-    <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.25" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.75" customWidth="1"/>
-    <col min="9735" max="9735" width="54.375" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.75" customWidth="1"/>
-    <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.25" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.75" customWidth="1"/>
-    <col min="9991" max="9991" width="54.375" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.75" customWidth="1"/>
-    <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.25" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.75" customWidth="1"/>
-    <col min="10247" max="10247" width="54.375" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.75" customWidth="1"/>
-    <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.25" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.75" customWidth="1"/>
-    <col min="10503" max="10503" width="54.375" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.75" customWidth="1"/>
-    <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.25" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.75" customWidth="1"/>
-    <col min="10759" max="10759" width="54.375" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.75" customWidth="1"/>
-    <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.25" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.75" customWidth="1"/>
-    <col min="11015" max="11015" width="54.375" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.75" customWidth="1"/>
-    <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.25" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.75" customWidth="1"/>
-    <col min="11271" max="11271" width="54.375" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.75" customWidth="1"/>
-    <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.25" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.75" customWidth="1"/>
-    <col min="11527" max="11527" width="54.375" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.75" customWidth="1"/>
-    <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.25" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.75" customWidth="1"/>
-    <col min="11783" max="11783" width="54.375" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.75" customWidth="1"/>
-    <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.25" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.75" customWidth="1"/>
-    <col min="12039" max="12039" width="54.375" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.75" customWidth="1"/>
-    <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.25" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.75" customWidth="1"/>
-    <col min="12295" max="12295" width="54.375" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.75" customWidth="1"/>
-    <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.25" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.75" customWidth="1"/>
-    <col min="12551" max="12551" width="54.375" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.75" customWidth="1"/>
-    <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.25" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.75" customWidth="1"/>
-    <col min="12807" max="12807" width="54.375" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.75" customWidth="1"/>
-    <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.25" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.75" customWidth="1"/>
-    <col min="13063" max="13063" width="54.375" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.75" customWidth="1"/>
-    <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.25" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.75" customWidth="1"/>
-    <col min="13319" max="13319" width="54.375" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.75" customWidth="1"/>
-    <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.25" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.75" customWidth="1"/>
-    <col min="13575" max="13575" width="54.375" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.75" customWidth="1"/>
-    <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.25" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.75" customWidth="1"/>
-    <col min="13831" max="13831" width="54.375" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.75" customWidth="1"/>
-    <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.25" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.75" customWidth="1"/>
-    <col min="14087" max="14087" width="54.375" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.75" customWidth="1"/>
-    <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.25" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.75" customWidth="1"/>
-    <col min="14343" max="14343" width="54.375" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.75" customWidth="1"/>
-    <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.25" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.75" customWidth="1"/>
-    <col min="14599" max="14599" width="54.375" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.75" customWidth="1"/>
-    <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.25" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.75" customWidth="1"/>
-    <col min="14855" max="14855" width="54.375" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.75" customWidth="1"/>
-    <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.25" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.75" customWidth="1"/>
-    <col min="15111" max="15111" width="54.375" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.75" customWidth="1"/>
-    <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.25" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.75" customWidth="1"/>
-    <col min="15367" max="15367" width="54.375" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.75" customWidth="1"/>
-    <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.25" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.75" customWidth="1"/>
-    <col min="15623" max="15623" width="54.375" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.75" customWidth="1"/>
-    <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.25" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.75" customWidth="1"/>
-    <col min="15879" max="15879" width="54.375" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.75" customWidth="1"/>
-    <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.25" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.75" customWidth="1"/>
-    <col min="16135" max="16135" width="54.375" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="257" max="257" width="16.77734375" customWidth="1"/>
+    <col min="258" max="258" width="5.44140625" customWidth="1"/>
+    <col min="259" max="259" width="8.109375" customWidth="1"/>
+    <col min="260" max="260" width="9.21875" customWidth="1"/>
+    <col min="261" max="261" width="10.44140625" customWidth="1"/>
+    <col min="262" max="262" width="9.77734375" customWidth="1"/>
+    <col min="263" max="263" width="54.33203125" customWidth="1"/>
+    <col min="264" max="264" width="9.44140625" customWidth="1"/>
+    <col min="513" max="513" width="16.77734375" customWidth="1"/>
+    <col min="514" max="514" width="5.44140625" customWidth="1"/>
+    <col min="515" max="515" width="8.109375" customWidth="1"/>
+    <col min="516" max="516" width="9.21875" customWidth="1"/>
+    <col min="517" max="517" width="10.44140625" customWidth="1"/>
+    <col min="518" max="518" width="9.77734375" customWidth="1"/>
+    <col min="519" max="519" width="54.33203125" customWidth="1"/>
+    <col min="520" max="520" width="9.44140625" customWidth="1"/>
+    <col min="769" max="769" width="16.77734375" customWidth="1"/>
+    <col min="770" max="770" width="5.44140625" customWidth="1"/>
+    <col min="771" max="771" width="8.109375" customWidth="1"/>
+    <col min="772" max="772" width="9.21875" customWidth="1"/>
+    <col min="773" max="773" width="10.44140625" customWidth="1"/>
+    <col min="774" max="774" width="9.77734375" customWidth="1"/>
+    <col min="775" max="775" width="54.33203125" customWidth="1"/>
+    <col min="776" max="776" width="9.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="16.77734375" customWidth="1"/>
+    <col min="1026" max="1026" width="5.44140625" customWidth="1"/>
+    <col min="1027" max="1027" width="8.109375" customWidth="1"/>
+    <col min="1028" max="1028" width="9.21875" customWidth="1"/>
+    <col min="1029" max="1029" width="10.44140625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.77734375" customWidth="1"/>
+    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
+    <col min="1032" max="1032" width="9.44140625" customWidth="1"/>
+    <col min="1281" max="1281" width="16.77734375" customWidth="1"/>
+    <col min="1282" max="1282" width="5.44140625" customWidth="1"/>
+    <col min="1283" max="1283" width="8.109375" customWidth="1"/>
+    <col min="1284" max="1284" width="9.21875" customWidth="1"/>
+    <col min="1285" max="1285" width="10.44140625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.77734375" customWidth="1"/>
+    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
+    <col min="1288" max="1288" width="9.44140625" customWidth="1"/>
+    <col min="1537" max="1537" width="16.77734375" customWidth="1"/>
+    <col min="1538" max="1538" width="5.44140625" customWidth="1"/>
+    <col min="1539" max="1539" width="8.109375" customWidth="1"/>
+    <col min="1540" max="1540" width="9.21875" customWidth="1"/>
+    <col min="1541" max="1541" width="10.44140625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.77734375" customWidth="1"/>
+    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
+    <col min="1544" max="1544" width="9.44140625" customWidth="1"/>
+    <col min="1793" max="1793" width="16.77734375" customWidth="1"/>
+    <col min="1794" max="1794" width="5.44140625" customWidth="1"/>
+    <col min="1795" max="1795" width="8.109375" customWidth="1"/>
+    <col min="1796" max="1796" width="9.21875" customWidth="1"/>
+    <col min="1797" max="1797" width="10.44140625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.77734375" customWidth="1"/>
+    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
+    <col min="1800" max="1800" width="9.44140625" customWidth="1"/>
+    <col min="2049" max="2049" width="16.77734375" customWidth="1"/>
+    <col min="2050" max="2050" width="5.44140625" customWidth="1"/>
+    <col min="2051" max="2051" width="8.109375" customWidth="1"/>
+    <col min="2052" max="2052" width="9.21875" customWidth="1"/>
+    <col min="2053" max="2053" width="10.44140625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.77734375" customWidth="1"/>
+    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
+    <col min="2056" max="2056" width="9.44140625" customWidth="1"/>
+    <col min="2305" max="2305" width="16.77734375" customWidth="1"/>
+    <col min="2306" max="2306" width="5.44140625" customWidth="1"/>
+    <col min="2307" max="2307" width="8.109375" customWidth="1"/>
+    <col min="2308" max="2308" width="9.21875" customWidth="1"/>
+    <col min="2309" max="2309" width="10.44140625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.77734375" customWidth="1"/>
+    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
+    <col min="2312" max="2312" width="9.44140625" customWidth="1"/>
+    <col min="2561" max="2561" width="16.77734375" customWidth="1"/>
+    <col min="2562" max="2562" width="5.44140625" customWidth="1"/>
+    <col min="2563" max="2563" width="8.109375" customWidth="1"/>
+    <col min="2564" max="2564" width="9.21875" customWidth="1"/>
+    <col min="2565" max="2565" width="10.44140625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.77734375" customWidth="1"/>
+    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
+    <col min="2568" max="2568" width="9.44140625" customWidth="1"/>
+    <col min="2817" max="2817" width="16.77734375" customWidth="1"/>
+    <col min="2818" max="2818" width="5.44140625" customWidth="1"/>
+    <col min="2819" max="2819" width="8.109375" customWidth="1"/>
+    <col min="2820" max="2820" width="9.21875" customWidth="1"/>
+    <col min="2821" max="2821" width="10.44140625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.77734375" customWidth="1"/>
+    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
+    <col min="2824" max="2824" width="9.44140625" customWidth="1"/>
+    <col min="3073" max="3073" width="16.77734375" customWidth="1"/>
+    <col min="3074" max="3074" width="5.44140625" customWidth="1"/>
+    <col min="3075" max="3075" width="8.109375" customWidth="1"/>
+    <col min="3076" max="3076" width="9.21875" customWidth="1"/>
+    <col min="3077" max="3077" width="10.44140625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.77734375" customWidth="1"/>
+    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
+    <col min="3080" max="3080" width="9.44140625" customWidth="1"/>
+    <col min="3329" max="3329" width="16.77734375" customWidth="1"/>
+    <col min="3330" max="3330" width="5.44140625" customWidth="1"/>
+    <col min="3331" max="3331" width="8.109375" customWidth="1"/>
+    <col min="3332" max="3332" width="9.21875" customWidth="1"/>
+    <col min="3333" max="3333" width="10.44140625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.77734375" customWidth="1"/>
+    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
+    <col min="3336" max="3336" width="9.44140625" customWidth="1"/>
+    <col min="3585" max="3585" width="16.77734375" customWidth="1"/>
+    <col min="3586" max="3586" width="5.44140625" customWidth="1"/>
+    <col min="3587" max="3587" width="8.109375" customWidth="1"/>
+    <col min="3588" max="3588" width="9.21875" customWidth="1"/>
+    <col min="3589" max="3589" width="10.44140625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.77734375" customWidth="1"/>
+    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
+    <col min="3592" max="3592" width="9.44140625" customWidth="1"/>
+    <col min="3841" max="3841" width="16.77734375" customWidth="1"/>
+    <col min="3842" max="3842" width="5.44140625" customWidth="1"/>
+    <col min="3843" max="3843" width="8.109375" customWidth="1"/>
+    <col min="3844" max="3844" width="9.21875" customWidth="1"/>
+    <col min="3845" max="3845" width="10.44140625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.77734375" customWidth="1"/>
+    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
+    <col min="3848" max="3848" width="9.44140625" customWidth="1"/>
+    <col min="4097" max="4097" width="16.77734375" customWidth="1"/>
+    <col min="4098" max="4098" width="5.44140625" customWidth="1"/>
+    <col min="4099" max="4099" width="8.109375" customWidth="1"/>
+    <col min="4100" max="4100" width="9.21875" customWidth="1"/>
+    <col min="4101" max="4101" width="10.44140625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.77734375" customWidth="1"/>
+    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
+    <col min="4104" max="4104" width="9.44140625" customWidth="1"/>
+    <col min="4353" max="4353" width="16.77734375" customWidth="1"/>
+    <col min="4354" max="4354" width="5.44140625" customWidth="1"/>
+    <col min="4355" max="4355" width="8.109375" customWidth="1"/>
+    <col min="4356" max="4356" width="9.21875" customWidth="1"/>
+    <col min="4357" max="4357" width="10.44140625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.77734375" customWidth="1"/>
+    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
+    <col min="4360" max="4360" width="9.44140625" customWidth="1"/>
+    <col min="4609" max="4609" width="16.77734375" customWidth="1"/>
+    <col min="4610" max="4610" width="5.44140625" customWidth="1"/>
+    <col min="4611" max="4611" width="8.109375" customWidth="1"/>
+    <col min="4612" max="4612" width="9.21875" customWidth="1"/>
+    <col min="4613" max="4613" width="10.44140625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.77734375" customWidth="1"/>
+    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
+    <col min="4616" max="4616" width="9.44140625" customWidth="1"/>
+    <col min="4865" max="4865" width="16.77734375" customWidth="1"/>
+    <col min="4866" max="4866" width="5.44140625" customWidth="1"/>
+    <col min="4867" max="4867" width="8.109375" customWidth="1"/>
+    <col min="4868" max="4868" width="9.21875" customWidth="1"/>
+    <col min="4869" max="4869" width="10.44140625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.77734375" customWidth="1"/>
+    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
+    <col min="4872" max="4872" width="9.44140625" customWidth="1"/>
+    <col min="5121" max="5121" width="16.77734375" customWidth="1"/>
+    <col min="5122" max="5122" width="5.44140625" customWidth="1"/>
+    <col min="5123" max="5123" width="8.109375" customWidth="1"/>
+    <col min="5124" max="5124" width="9.21875" customWidth="1"/>
+    <col min="5125" max="5125" width="10.44140625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.77734375" customWidth="1"/>
+    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
+    <col min="5128" max="5128" width="9.44140625" customWidth="1"/>
+    <col min="5377" max="5377" width="16.77734375" customWidth="1"/>
+    <col min="5378" max="5378" width="5.44140625" customWidth="1"/>
+    <col min="5379" max="5379" width="8.109375" customWidth="1"/>
+    <col min="5380" max="5380" width="9.21875" customWidth="1"/>
+    <col min="5381" max="5381" width="10.44140625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.77734375" customWidth="1"/>
+    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
+    <col min="5384" max="5384" width="9.44140625" customWidth="1"/>
+    <col min="5633" max="5633" width="16.77734375" customWidth="1"/>
+    <col min="5634" max="5634" width="5.44140625" customWidth="1"/>
+    <col min="5635" max="5635" width="8.109375" customWidth="1"/>
+    <col min="5636" max="5636" width="9.21875" customWidth="1"/>
+    <col min="5637" max="5637" width="10.44140625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.77734375" customWidth="1"/>
+    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
+    <col min="5640" max="5640" width="9.44140625" customWidth="1"/>
+    <col min="5889" max="5889" width="16.77734375" customWidth="1"/>
+    <col min="5890" max="5890" width="5.44140625" customWidth="1"/>
+    <col min="5891" max="5891" width="8.109375" customWidth="1"/>
+    <col min="5892" max="5892" width="9.21875" customWidth="1"/>
+    <col min="5893" max="5893" width="10.44140625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.77734375" customWidth="1"/>
+    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
+    <col min="5896" max="5896" width="9.44140625" customWidth="1"/>
+    <col min="6145" max="6145" width="16.77734375" customWidth="1"/>
+    <col min="6146" max="6146" width="5.44140625" customWidth="1"/>
+    <col min="6147" max="6147" width="8.109375" customWidth="1"/>
+    <col min="6148" max="6148" width="9.21875" customWidth="1"/>
+    <col min="6149" max="6149" width="10.44140625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.77734375" customWidth="1"/>
+    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
+    <col min="6152" max="6152" width="9.44140625" customWidth="1"/>
+    <col min="6401" max="6401" width="16.77734375" customWidth="1"/>
+    <col min="6402" max="6402" width="5.44140625" customWidth="1"/>
+    <col min="6403" max="6403" width="8.109375" customWidth="1"/>
+    <col min="6404" max="6404" width="9.21875" customWidth="1"/>
+    <col min="6405" max="6405" width="10.44140625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.77734375" customWidth="1"/>
+    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
+    <col min="6408" max="6408" width="9.44140625" customWidth="1"/>
+    <col min="6657" max="6657" width="16.77734375" customWidth="1"/>
+    <col min="6658" max="6658" width="5.44140625" customWidth="1"/>
+    <col min="6659" max="6659" width="8.109375" customWidth="1"/>
+    <col min="6660" max="6660" width="9.21875" customWidth="1"/>
+    <col min="6661" max="6661" width="10.44140625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.77734375" customWidth="1"/>
+    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
+    <col min="6664" max="6664" width="9.44140625" customWidth="1"/>
+    <col min="6913" max="6913" width="16.77734375" customWidth="1"/>
+    <col min="6914" max="6914" width="5.44140625" customWidth="1"/>
+    <col min="6915" max="6915" width="8.109375" customWidth="1"/>
+    <col min="6916" max="6916" width="9.21875" customWidth="1"/>
+    <col min="6917" max="6917" width="10.44140625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.77734375" customWidth="1"/>
+    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
+    <col min="6920" max="6920" width="9.44140625" customWidth="1"/>
+    <col min="7169" max="7169" width="16.77734375" customWidth="1"/>
+    <col min="7170" max="7170" width="5.44140625" customWidth="1"/>
+    <col min="7171" max="7171" width="8.109375" customWidth="1"/>
+    <col min="7172" max="7172" width="9.21875" customWidth="1"/>
+    <col min="7173" max="7173" width="10.44140625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.77734375" customWidth="1"/>
+    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
+    <col min="7176" max="7176" width="9.44140625" customWidth="1"/>
+    <col min="7425" max="7425" width="16.77734375" customWidth="1"/>
+    <col min="7426" max="7426" width="5.44140625" customWidth="1"/>
+    <col min="7427" max="7427" width="8.109375" customWidth="1"/>
+    <col min="7428" max="7428" width="9.21875" customWidth="1"/>
+    <col min="7429" max="7429" width="10.44140625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.77734375" customWidth="1"/>
+    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
+    <col min="7432" max="7432" width="9.44140625" customWidth="1"/>
+    <col min="7681" max="7681" width="16.77734375" customWidth="1"/>
+    <col min="7682" max="7682" width="5.44140625" customWidth="1"/>
+    <col min="7683" max="7683" width="8.109375" customWidth="1"/>
+    <col min="7684" max="7684" width="9.21875" customWidth="1"/>
+    <col min="7685" max="7685" width="10.44140625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.77734375" customWidth="1"/>
+    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
+    <col min="7688" max="7688" width="9.44140625" customWidth="1"/>
+    <col min="7937" max="7937" width="16.77734375" customWidth="1"/>
+    <col min="7938" max="7938" width="5.44140625" customWidth="1"/>
+    <col min="7939" max="7939" width="8.109375" customWidth="1"/>
+    <col min="7940" max="7940" width="9.21875" customWidth="1"/>
+    <col min="7941" max="7941" width="10.44140625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.77734375" customWidth="1"/>
+    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
+    <col min="7944" max="7944" width="9.44140625" customWidth="1"/>
+    <col min="8193" max="8193" width="16.77734375" customWidth="1"/>
+    <col min="8194" max="8194" width="5.44140625" customWidth="1"/>
+    <col min="8195" max="8195" width="8.109375" customWidth="1"/>
+    <col min="8196" max="8196" width="9.21875" customWidth="1"/>
+    <col min="8197" max="8197" width="10.44140625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.77734375" customWidth="1"/>
+    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
+    <col min="8200" max="8200" width="9.44140625" customWidth="1"/>
+    <col min="8449" max="8449" width="16.77734375" customWidth="1"/>
+    <col min="8450" max="8450" width="5.44140625" customWidth="1"/>
+    <col min="8451" max="8451" width="8.109375" customWidth="1"/>
+    <col min="8452" max="8452" width="9.21875" customWidth="1"/>
+    <col min="8453" max="8453" width="10.44140625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.77734375" customWidth="1"/>
+    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
+    <col min="8456" max="8456" width="9.44140625" customWidth="1"/>
+    <col min="8705" max="8705" width="16.77734375" customWidth="1"/>
+    <col min="8706" max="8706" width="5.44140625" customWidth="1"/>
+    <col min="8707" max="8707" width="8.109375" customWidth="1"/>
+    <col min="8708" max="8708" width="9.21875" customWidth="1"/>
+    <col min="8709" max="8709" width="10.44140625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.77734375" customWidth="1"/>
+    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
+    <col min="8712" max="8712" width="9.44140625" customWidth="1"/>
+    <col min="8961" max="8961" width="16.77734375" customWidth="1"/>
+    <col min="8962" max="8962" width="5.44140625" customWidth="1"/>
+    <col min="8963" max="8963" width="8.109375" customWidth="1"/>
+    <col min="8964" max="8964" width="9.21875" customWidth="1"/>
+    <col min="8965" max="8965" width="10.44140625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.77734375" customWidth="1"/>
+    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
+    <col min="8968" max="8968" width="9.44140625" customWidth="1"/>
+    <col min="9217" max="9217" width="16.77734375" customWidth="1"/>
+    <col min="9218" max="9218" width="5.44140625" customWidth="1"/>
+    <col min="9219" max="9219" width="8.109375" customWidth="1"/>
+    <col min="9220" max="9220" width="9.21875" customWidth="1"/>
+    <col min="9221" max="9221" width="10.44140625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.77734375" customWidth="1"/>
+    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
+    <col min="9224" max="9224" width="9.44140625" customWidth="1"/>
+    <col min="9473" max="9473" width="16.77734375" customWidth="1"/>
+    <col min="9474" max="9474" width="5.44140625" customWidth="1"/>
+    <col min="9475" max="9475" width="8.109375" customWidth="1"/>
+    <col min="9476" max="9476" width="9.21875" customWidth="1"/>
+    <col min="9477" max="9477" width="10.44140625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.77734375" customWidth="1"/>
+    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
+    <col min="9480" max="9480" width="9.44140625" customWidth="1"/>
+    <col min="9729" max="9729" width="16.77734375" customWidth="1"/>
+    <col min="9730" max="9730" width="5.44140625" customWidth="1"/>
+    <col min="9731" max="9731" width="8.109375" customWidth="1"/>
+    <col min="9732" max="9732" width="9.21875" customWidth="1"/>
+    <col min="9733" max="9733" width="10.44140625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.77734375" customWidth="1"/>
+    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
+    <col min="9736" max="9736" width="9.44140625" customWidth="1"/>
+    <col min="9985" max="9985" width="16.77734375" customWidth="1"/>
+    <col min="9986" max="9986" width="5.44140625" customWidth="1"/>
+    <col min="9987" max="9987" width="8.109375" customWidth="1"/>
+    <col min="9988" max="9988" width="9.21875" customWidth="1"/>
+    <col min="9989" max="9989" width="10.44140625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.77734375" customWidth="1"/>
+    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
+    <col min="9992" max="9992" width="9.44140625" customWidth="1"/>
+    <col min="10241" max="10241" width="16.77734375" customWidth="1"/>
+    <col min="10242" max="10242" width="5.44140625" customWidth="1"/>
+    <col min="10243" max="10243" width="8.109375" customWidth="1"/>
+    <col min="10244" max="10244" width="9.21875" customWidth="1"/>
+    <col min="10245" max="10245" width="10.44140625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.77734375" customWidth="1"/>
+    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
+    <col min="10248" max="10248" width="9.44140625" customWidth="1"/>
+    <col min="10497" max="10497" width="16.77734375" customWidth="1"/>
+    <col min="10498" max="10498" width="5.44140625" customWidth="1"/>
+    <col min="10499" max="10499" width="8.109375" customWidth="1"/>
+    <col min="10500" max="10500" width="9.21875" customWidth="1"/>
+    <col min="10501" max="10501" width="10.44140625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.77734375" customWidth="1"/>
+    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
+    <col min="10504" max="10504" width="9.44140625" customWidth="1"/>
+    <col min="10753" max="10753" width="16.77734375" customWidth="1"/>
+    <col min="10754" max="10754" width="5.44140625" customWidth="1"/>
+    <col min="10755" max="10755" width="8.109375" customWidth="1"/>
+    <col min="10756" max="10756" width="9.21875" customWidth="1"/>
+    <col min="10757" max="10757" width="10.44140625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.77734375" customWidth="1"/>
+    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
+    <col min="10760" max="10760" width="9.44140625" customWidth="1"/>
+    <col min="11009" max="11009" width="16.77734375" customWidth="1"/>
+    <col min="11010" max="11010" width="5.44140625" customWidth="1"/>
+    <col min="11011" max="11011" width="8.109375" customWidth="1"/>
+    <col min="11012" max="11012" width="9.21875" customWidth="1"/>
+    <col min="11013" max="11013" width="10.44140625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.77734375" customWidth="1"/>
+    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
+    <col min="11016" max="11016" width="9.44140625" customWidth="1"/>
+    <col min="11265" max="11265" width="16.77734375" customWidth="1"/>
+    <col min="11266" max="11266" width="5.44140625" customWidth="1"/>
+    <col min="11267" max="11267" width="8.109375" customWidth="1"/>
+    <col min="11268" max="11268" width="9.21875" customWidth="1"/>
+    <col min="11269" max="11269" width="10.44140625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.77734375" customWidth="1"/>
+    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
+    <col min="11272" max="11272" width="9.44140625" customWidth="1"/>
+    <col min="11521" max="11521" width="16.77734375" customWidth="1"/>
+    <col min="11522" max="11522" width="5.44140625" customWidth="1"/>
+    <col min="11523" max="11523" width="8.109375" customWidth="1"/>
+    <col min="11524" max="11524" width="9.21875" customWidth="1"/>
+    <col min="11525" max="11525" width="10.44140625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.77734375" customWidth="1"/>
+    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
+    <col min="11528" max="11528" width="9.44140625" customWidth="1"/>
+    <col min="11777" max="11777" width="16.77734375" customWidth="1"/>
+    <col min="11778" max="11778" width="5.44140625" customWidth="1"/>
+    <col min="11779" max="11779" width="8.109375" customWidth="1"/>
+    <col min="11780" max="11780" width="9.21875" customWidth="1"/>
+    <col min="11781" max="11781" width="10.44140625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.77734375" customWidth="1"/>
+    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
+    <col min="11784" max="11784" width="9.44140625" customWidth="1"/>
+    <col min="12033" max="12033" width="16.77734375" customWidth="1"/>
+    <col min="12034" max="12034" width="5.44140625" customWidth="1"/>
+    <col min="12035" max="12035" width="8.109375" customWidth="1"/>
+    <col min="12036" max="12036" width="9.21875" customWidth="1"/>
+    <col min="12037" max="12037" width="10.44140625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.77734375" customWidth="1"/>
+    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
+    <col min="12040" max="12040" width="9.44140625" customWidth="1"/>
+    <col min="12289" max="12289" width="16.77734375" customWidth="1"/>
+    <col min="12290" max="12290" width="5.44140625" customWidth="1"/>
+    <col min="12291" max="12291" width="8.109375" customWidth="1"/>
+    <col min="12292" max="12292" width="9.21875" customWidth="1"/>
+    <col min="12293" max="12293" width="10.44140625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.77734375" customWidth="1"/>
+    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
+    <col min="12296" max="12296" width="9.44140625" customWidth="1"/>
+    <col min="12545" max="12545" width="16.77734375" customWidth="1"/>
+    <col min="12546" max="12546" width="5.44140625" customWidth="1"/>
+    <col min="12547" max="12547" width="8.109375" customWidth="1"/>
+    <col min="12548" max="12548" width="9.21875" customWidth="1"/>
+    <col min="12549" max="12549" width="10.44140625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.77734375" customWidth="1"/>
+    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
+    <col min="12552" max="12552" width="9.44140625" customWidth="1"/>
+    <col min="12801" max="12801" width="16.77734375" customWidth="1"/>
+    <col min="12802" max="12802" width="5.44140625" customWidth="1"/>
+    <col min="12803" max="12803" width="8.109375" customWidth="1"/>
+    <col min="12804" max="12804" width="9.21875" customWidth="1"/>
+    <col min="12805" max="12805" width="10.44140625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.77734375" customWidth="1"/>
+    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
+    <col min="12808" max="12808" width="9.44140625" customWidth="1"/>
+    <col min="13057" max="13057" width="16.77734375" customWidth="1"/>
+    <col min="13058" max="13058" width="5.44140625" customWidth="1"/>
+    <col min="13059" max="13059" width="8.109375" customWidth="1"/>
+    <col min="13060" max="13060" width="9.21875" customWidth="1"/>
+    <col min="13061" max="13061" width="10.44140625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.77734375" customWidth="1"/>
+    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
+    <col min="13064" max="13064" width="9.44140625" customWidth="1"/>
+    <col min="13313" max="13313" width="16.77734375" customWidth="1"/>
+    <col min="13314" max="13314" width="5.44140625" customWidth="1"/>
+    <col min="13315" max="13315" width="8.109375" customWidth="1"/>
+    <col min="13316" max="13316" width="9.21875" customWidth="1"/>
+    <col min="13317" max="13317" width="10.44140625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.77734375" customWidth="1"/>
+    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
+    <col min="13320" max="13320" width="9.44140625" customWidth="1"/>
+    <col min="13569" max="13569" width="16.77734375" customWidth="1"/>
+    <col min="13570" max="13570" width="5.44140625" customWidth="1"/>
+    <col min="13571" max="13571" width="8.109375" customWidth="1"/>
+    <col min="13572" max="13572" width="9.21875" customWidth="1"/>
+    <col min="13573" max="13573" width="10.44140625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.77734375" customWidth="1"/>
+    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
+    <col min="13576" max="13576" width="9.44140625" customWidth="1"/>
+    <col min="13825" max="13825" width="16.77734375" customWidth="1"/>
+    <col min="13826" max="13826" width="5.44140625" customWidth="1"/>
+    <col min="13827" max="13827" width="8.109375" customWidth="1"/>
+    <col min="13828" max="13828" width="9.21875" customWidth="1"/>
+    <col min="13829" max="13829" width="10.44140625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.77734375" customWidth="1"/>
+    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
+    <col min="13832" max="13832" width="9.44140625" customWidth="1"/>
+    <col min="14081" max="14081" width="16.77734375" customWidth="1"/>
+    <col min="14082" max="14082" width="5.44140625" customWidth="1"/>
+    <col min="14083" max="14083" width="8.109375" customWidth="1"/>
+    <col min="14084" max="14084" width="9.21875" customWidth="1"/>
+    <col min="14085" max="14085" width="10.44140625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.77734375" customWidth="1"/>
+    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
+    <col min="14088" max="14088" width="9.44140625" customWidth="1"/>
+    <col min="14337" max="14337" width="16.77734375" customWidth="1"/>
+    <col min="14338" max="14338" width="5.44140625" customWidth="1"/>
+    <col min="14339" max="14339" width="8.109375" customWidth="1"/>
+    <col min="14340" max="14340" width="9.21875" customWidth="1"/>
+    <col min="14341" max="14341" width="10.44140625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.77734375" customWidth="1"/>
+    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
+    <col min="14344" max="14344" width="9.44140625" customWidth="1"/>
+    <col min="14593" max="14593" width="16.77734375" customWidth="1"/>
+    <col min="14594" max="14594" width="5.44140625" customWidth="1"/>
+    <col min="14595" max="14595" width="8.109375" customWidth="1"/>
+    <col min="14596" max="14596" width="9.21875" customWidth="1"/>
+    <col min="14597" max="14597" width="10.44140625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.77734375" customWidth="1"/>
+    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
+    <col min="14600" max="14600" width="9.44140625" customWidth="1"/>
+    <col min="14849" max="14849" width="16.77734375" customWidth="1"/>
+    <col min="14850" max="14850" width="5.44140625" customWidth="1"/>
+    <col min="14851" max="14851" width="8.109375" customWidth="1"/>
+    <col min="14852" max="14852" width="9.21875" customWidth="1"/>
+    <col min="14853" max="14853" width="10.44140625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.77734375" customWidth="1"/>
+    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
+    <col min="14856" max="14856" width="9.44140625" customWidth="1"/>
+    <col min="15105" max="15105" width="16.77734375" customWidth="1"/>
+    <col min="15106" max="15106" width="5.44140625" customWidth="1"/>
+    <col min="15107" max="15107" width="8.109375" customWidth="1"/>
+    <col min="15108" max="15108" width="9.21875" customWidth="1"/>
+    <col min="15109" max="15109" width="10.44140625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.77734375" customWidth="1"/>
+    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
+    <col min="15112" max="15112" width="9.44140625" customWidth="1"/>
+    <col min="15361" max="15361" width="16.77734375" customWidth="1"/>
+    <col min="15362" max="15362" width="5.44140625" customWidth="1"/>
+    <col min="15363" max="15363" width="8.109375" customWidth="1"/>
+    <col min="15364" max="15364" width="9.21875" customWidth="1"/>
+    <col min="15365" max="15365" width="10.44140625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.77734375" customWidth="1"/>
+    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
+    <col min="15368" max="15368" width="9.44140625" customWidth="1"/>
+    <col min="15617" max="15617" width="16.77734375" customWidth="1"/>
+    <col min="15618" max="15618" width="5.44140625" customWidth="1"/>
+    <col min="15619" max="15619" width="8.109375" customWidth="1"/>
+    <col min="15620" max="15620" width="9.21875" customWidth="1"/>
+    <col min="15621" max="15621" width="10.44140625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.77734375" customWidth="1"/>
+    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
+    <col min="15624" max="15624" width="9.44140625" customWidth="1"/>
+    <col min="15873" max="15873" width="16.77734375" customWidth="1"/>
+    <col min="15874" max="15874" width="5.44140625" customWidth="1"/>
+    <col min="15875" max="15875" width="8.109375" customWidth="1"/>
+    <col min="15876" max="15876" width="9.21875" customWidth="1"/>
+    <col min="15877" max="15877" width="10.44140625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.77734375" customWidth="1"/>
+    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
+    <col min="15880" max="15880" width="9.44140625" customWidth="1"/>
+    <col min="16129" max="16129" width="16.77734375" customWidth="1"/>
+    <col min="16130" max="16130" width="5.44140625" customWidth="1"/>
+    <col min="16131" max="16131" width="8.109375" customWidth="1"/>
+    <col min="16132" max="16132" width="9.21875" customWidth="1"/>
+    <col min="16133" max="16133" width="10.44140625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.77734375" customWidth="1"/>
+    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
+    <col min="16136" max="16136" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4253,7 +4257,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="25.2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -4373,7 +4377,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="25.2">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -4685,7 +4689,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24.75">
+    <row r="35" spans="1:10" ht="25.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -4775,7 +4779,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="25.2">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -6407,7 +6411,7 @@
       </c>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="24">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -6735,7 +6739,7 @@
       </c>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="24">
       <c r="A106" s="5" t="s">
         <v>10</v>
       </c>
@@ -6913,7 +6917,7 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="24">
       <c r="A112" s="5" t="s">
         <v>10</v>
       </c>
@@ -7645,7 +7649,7 @@
       </c>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" ht="24">
+    <row r="137" spans="1:10" ht="36">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -8989,7 +8993,7 @@
       </c>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" ht="24">
       <c r="A183" s="5" t="s">
         <v>10</v>
       </c>
@@ -9895,7 +9899,7 @@
       </c>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" ht="24">
       <c r="A215" s="5" t="s">
         <v>10</v>
       </c>
@@ -11271,7 +11275,7 @@
       </c>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" ht="24">
       <c r="A264" s="5" t="s">
         <v>10</v>
       </c>
@@ -11421,7 +11425,7 @@
       </c>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" ht="24">
       <c r="A269" s="5" t="s">
         <v>10</v>
       </c>
@@ -12093,7 +12097,7 @@
       </c>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" ht="24">
       <c r="A292" s="5" t="s">
         <v>10</v>
       </c>
@@ -12315,7 +12319,7 @@
       </c>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" ht="24">
       <c r="A300" s="5" t="s">
         <v>10</v>
       </c>
@@ -12747,7 +12751,7 @@
       <c r="I314" s="7"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" ht="24">
       <c r="A315" s="5" t="s">
         <v>10</v>
       </c>
@@ -12837,7 +12841,7 @@
       </c>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" ht="24">
       <c r="A318" s="5" t="s">
         <v>10</v>
       </c>
@@ -13911,7 +13915,7 @@
       </c>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" ht="24">
       <c r="A355" s="5" t="s">
         <v>10</v>
       </c>
@@ -14121,7 +14125,7 @@
       </c>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" ht="24">
       <c r="A362" s="5" t="s">
         <v>10</v>
       </c>
@@ -14151,7 +14155,7 @@
       </c>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="1:10" ht="36">
+    <row r="363" spans="1:10" ht="48">
       <c r="A363" s="5" t="s">
         <v>10</v>
       </c>
@@ -15083,7 +15087,7 @@
       </c>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" ht="24">
       <c r="A398" s="5" t="s">
         <v>10</v>
       </c>
@@ -15139,7 +15143,7 @@
       </c>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" ht="24">
       <c r="A400" s="5" t="s">
         <v>10</v>
       </c>
@@ -15167,7 +15171,7 @@
       </c>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" ht="24">
       <c r="A401" s="5" t="s">
         <v>10</v>
       </c>
@@ -15471,7 +15475,7 @@
       </c>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" ht="24">
       <c r="A413" s="5" t="s">
         <v>10</v>
       </c>
@@ -15943,7 +15947,7 @@
       </c>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" ht="24">
       <c r="A431" s="5" t="s">
         <v>10</v>
       </c>
@@ -16055,7 +16059,7 @@
       </c>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" ht="24">
       <c r="A435" s="5" t="s">
         <v>10</v>
       </c>
@@ -16235,7 +16239,7 @@
       </c>
       <c r="J441" s="8"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" ht="24">
       <c r="A442" s="5" t="s">
         <v>10</v>
       </c>
@@ -16263,7 +16267,7 @@
       </c>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" ht="24">
       <c r="A443" s="5" t="s">
         <v>10</v>
       </c>
@@ -16375,7 +16379,7 @@
       </c>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" ht="24">
       <c r="A447" s="5" t="s">
         <v>10</v>
       </c>
@@ -16583,7 +16587,7 @@
       </c>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" ht="24">
       <c r="A455" s="5" t="s">
         <v>10</v>
       </c>
@@ -17639,7 +17643,7 @@
       </c>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" ht="24">
       <c r="A495" s="5" t="s">
         <v>10</v>
       </c>
@@ -17667,7 +17671,7 @@
       </c>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" ht="24">
       <c r="A496" s="5" t="s">
         <v>10</v>
       </c>
@@ -17863,7 +17867,7 @@
       </c>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" ht="24">
       <c r="A503" s="5" t="s">
         <v>10</v>
       </c>
@@ -17891,7 +17895,7 @@
       </c>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" ht="24">
       <c r="A504" s="5" t="s">
         <v>10</v>
       </c>
@@ -17919,7 +17923,7 @@
       </c>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" ht="24">
       <c r="A505" s="5" t="s">
         <v>10</v>
       </c>
@@ -17947,7 +17951,7 @@
       </c>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" ht="24">
       <c r="A506" s="5" t="s">
         <v>10</v>
       </c>
@@ -17975,7 +17979,7 @@
       </c>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="1:10" ht="24">
+    <row r="507" spans="1:10" ht="36">
       <c r="A507" s="5" t="s">
         <v>10</v>
       </c>
@@ -18031,7 +18035,7 @@
       </c>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" ht="24">
       <c r="A509" s="5" t="s">
         <v>10</v>
       </c>
@@ -18531,7 +18535,7 @@
       </c>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" ht="24">
       <c r="A528" s="5" t="s">
         <v>10</v>
       </c>
@@ -19573,7 +19577,7 @@
       <c r="I567" s="7"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" ht="24">
       <c r="A568" s="5" t="s">
         <v>10</v>
       </c>
@@ -20073,7 +20077,7 @@
       <c r="I586" s="7"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" ht="24">
       <c r="A587" s="5" t="s">
         <v>10</v>
       </c>
@@ -21399,7 +21403,7 @@
       </c>
       <c r="J636" s="8"/>
     </row>
-    <row r="637" spans="1:10">
+    <row r="637" spans="1:10" ht="24">
       <c r="A637" s="5" t="s">
         <v>10</v>
       </c>
@@ -22007,7 +22011,7 @@
       </c>
       <c r="J660" s="8"/>
     </row>
-    <row r="661" spans="1:10">
+    <row r="661" spans="1:10" ht="24">
       <c r="A661" s="5" t="s">
         <v>10</v>
       </c>
@@ -23493,7 +23497,7 @@
       </c>
       <c r="J716" s="8"/>
     </row>
-    <row r="717" spans="1:10" ht="24">
+    <row r="717" spans="1:10" ht="36">
       <c r="A717" s="5" t="s">
         <v>10</v>
       </c>
@@ -23521,7 +23525,7 @@
       </c>
       <c r="J717" s="8"/>
     </row>
-    <row r="718" spans="1:10">
+    <row r="718" spans="1:10" ht="24">
       <c r="A718" s="5" t="s">
         <v>10</v>
       </c>
@@ -23909,7 +23913,7 @@
       </c>
       <c r="J732" s="8"/>
     </row>
-    <row r="733" spans="1:10" ht="24">
+    <row r="733" spans="1:10" ht="36">
       <c r="A733" s="5" t="s">
         <v>10</v>
       </c>
@@ -24123,7 +24127,7 @@
       <c r="I741" s="7"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742" spans="1:10">
+    <row r="742" spans="1:10" ht="24">
       <c r="A742" s="5" t="s">
         <v>10</v>
       </c>
@@ -24935,7 +24939,7 @@
       </c>
       <c r="J774" s="8"/>
     </row>
-    <row r="775" spans="1:10">
+    <row r="775" spans="1:10" ht="24">
       <c r="A775" s="5" t="s">
         <v>10</v>
       </c>
@@ -24963,7 +24967,7 @@
       </c>
       <c r="J775" s="8"/>
     </row>
-    <row r="776" spans="1:10">
+    <row r="776" spans="1:10" ht="24">
       <c r="A776" s="5" t="s">
         <v>10</v>
       </c>
@@ -24991,7 +24995,7 @@
       </c>
       <c r="J776" s="8"/>
     </row>
-    <row r="777" spans="1:10">
+    <row r="777" spans="1:10" ht="24">
       <c r="A777" s="5" t="s">
         <v>10</v>
       </c>
@@ -25019,7 +25023,7 @@
       </c>
       <c r="J777" s="8"/>
     </row>
-    <row r="778" spans="1:10">
+    <row r="778" spans="1:10" ht="24">
       <c r="A778" s="5" t="s">
         <v>10</v>
       </c>
@@ -25047,7 +25051,7 @@
       </c>
       <c r="J778" s="8"/>
     </row>
-    <row r="779" spans="1:10">
+    <row r="779" spans="1:10" ht="24">
       <c r="A779" s="5" t="s">
         <v>10</v>
       </c>
@@ -25075,7 +25079,7 @@
       </c>
       <c r="J779" s="8"/>
     </row>
-    <row r="780" spans="1:10">
+    <row r="780" spans="1:10" ht="24">
       <c r="A780" s="5" t="s">
         <v>10</v>
       </c>
@@ -25103,7 +25107,7 @@
       </c>
       <c r="J780" s="8"/>
     </row>
-    <row r="781" spans="1:10">
+    <row r="781" spans="1:10" ht="24">
       <c r="A781" s="5" t="s">
         <v>10</v>
       </c>
@@ -25187,7 +25191,7 @@
       </c>
       <c r="J783" s="8"/>
     </row>
-    <row r="784" spans="1:10">
+    <row r="784" spans="1:10" ht="24">
       <c r="A784" s="5" t="s">
         <v>10</v>
       </c>
@@ -26620,11 +26624,15 @@
       <c r="F838" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G838" s="14"/>
+      <c r="G838" s="14" t="s">
+        <v>674</v>
+      </c>
       <c r="H838" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I838" s="7"/>
+      <c r="I838" s="7">
+        <v>3</v>
+      </c>
       <c r="J838" s="8"/>
     </row>
     <row r="839" spans="1:10">
@@ -26644,50 +26652,38 @@
       <c r="F839" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G839" s="14"/>
+      <c r="G839" s="14" t="s">
+        <v>674</v>
+      </c>
       <c r="H839" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I839" s="7"/>
+      <c r="I839" s="7">
+        <v>3</v>
+      </c>
       <c r="J839" s="8"/>
     </row>
     <row r="840" spans="1:10">
-      <c r="A840" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A840" s="5"/>
       <c r="B840" s="4"/>
-      <c r="C840" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C840" s="6"/>
       <c r="D840" s="12"/>
       <c r="E840" s="12"/>
-      <c r="F840" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F840" s="11"/>
       <c r="G840" s="14"/>
-      <c r="H840" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H840" s="6"/>
       <c r="I840" s="7"/>
       <c r="J840" s="8"/>
     </row>
     <row r="841" spans="1:10">
-      <c r="A841" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A841" s="5"/>
       <c r="B841" s="4"/>
-      <c r="C841" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C841" s="6"/>
       <c r="D841" s="12"/>
       <c r="E841" s="12"/>
-      <c r="F841" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F841" s="11"/>
       <c r="G841" s="14"/>
-      <c r="H841" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H841" s="6"/>
       <c r="I841" s="7"/>
       <c r="J841" s="8"/>
     </row>
@@ -26699,8 +26695,12 @@
       <c r="C842" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D842" s="12"/>
-      <c r="E842" s="12"/>
+      <c r="D842" s="12">
+        <v>43654</v>
+      </c>
+      <c r="E842" s="12">
+        <v>43654</v>
+      </c>
       <c r="F842" s="11" t="s">
         <v>240</v>
       </c>
@@ -26719,8 +26719,12 @@
       <c r="C843" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D843" s="12"/>
-      <c r="E843" s="12"/>
+      <c r="D843" s="12">
+        <v>43654</v>
+      </c>
+      <c r="E843" s="12">
+        <v>43654</v>
+      </c>
       <c r="F843" s="11" t="s">
         <v>240</v>
       </c>
@@ -26739,8 +26743,12 @@
       <c r="C844" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D844" s="12"/>
-      <c r="E844" s="12"/>
+      <c r="D844" s="12">
+        <v>43654</v>
+      </c>
+      <c r="E844" s="12">
+        <v>43654</v>
+      </c>
       <c r="F844" s="11" t="s">
         <v>240</v>
       </c>
@@ -26759,8 +26767,12 @@
       <c r="C845" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D845" s="12"/>
-      <c r="E845" s="12"/>
+      <c r="D845" s="12">
+        <v>43655</v>
+      </c>
+      <c r="E845" s="12">
+        <v>43655</v>
+      </c>
       <c r="F845" s="11" t="s">
         <v>240</v>
       </c>
@@ -26779,8 +26791,12 @@
       <c r="C846" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D846" s="12"/>
-      <c r="E846" s="12"/>
+      <c r="D846" s="12">
+        <v>43655</v>
+      </c>
+      <c r="E846" s="12">
+        <v>43655</v>
+      </c>
       <c r="F846" s="11" t="s">
         <v>240</v>
       </c>
@@ -26799,8 +26815,12 @@
       <c r="C847" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D847" s="12"/>
-      <c r="E847" s="12"/>
+      <c r="D847" s="12">
+        <v>43655</v>
+      </c>
+      <c r="E847" s="12">
+        <v>43655</v>
+      </c>
       <c r="F847" s="11" t="s">
         <v>240</v>
       </c>
@@ -26819,8 +26839,12 @@
       <c r="C848" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D848" s="12"/>
-      <c r="E848" s="12"/>
+      <c r="D848" s="12">
+        <v>43656</v>
+      </c>
+      <c r="E848" s="12">
+        <v>43656</v>
+      </c>
       <c r="F848" s="11" t="s">
         <v>240</v>
       </c>
@@ -26839,8 +26863,12 @@
       <c r="C849" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D849" s="12"/>
-      <c r="E849" s="12"/>
+      <c r="D849" s="12">
+        <v>43656</v>
+      </c>
+      <c r="E849" s="12">
+        <v>43656</v>
+      </c>
       <c r="F849" s="11" t="s">
         <v>240</v>
       </c>
@@ -26859,8 +26887,12 @@
       <c r="C850" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D850" s="12"/>
-      <c r="E850" s="12"/>
+      <c r="D850" s="12">
+        <v>43656</v>
+      </c>
+      <c r="E850" s="12">
+        <v>43656</v>
+      </c>
       <c r="F850" s="11" t="s">
         <v>240</v>
       </c>
@@ -26879,8 +26911,12 @@
       <c r="C851" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D851" s="12"/>
-      <c r="E851" s="12"/>
+      <c r="D851" s="12">
+        <v>43657</v>
+      </c>
+      <c r="E851" s="12">
+        <v>43657</v>
+      </c>
       <c r="F851" s="11" t="s">
         <v>240</v>
       </c>
@@ -26899,8 +26935,12 @@
       <c r="C852" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D852" s="12"/>
-      <c r="E852" s="12"/>
+      <c r="D852" s="12">
+        <v>43657</v>
+      </c>
+      <c r="E852" s="12">
+        <v>43657</v>
+      </c>
       <c r="F852" s="11" t="s">
         <v>240</v>
       </c>
@@ -26919,8 +26959,12 @@
       <c r="C853" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D853" s="12"/>
-      <c r="E853" s="12"/>
+      <c r="D853" s="12">
+        <v>43657</v>
+      </c>
+      <c r="E853" s="12">
+        <v>43657</v>
+      </c>
       <c r="F853" s="11" t="s">
         <v>240</v>
       </c>
@@ -26939,8 +26983,12 @@
       <c r="C854" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D854" s="12"/>
-      <c r="E854" s="12"/>
+      <c r="D854" s="12">
+        <v>43658</v>
+      </c>
+      <c r="E854" s="12">
+        <v>43658</v>
+      </c>
       <c r="F854" s="11" t="s">
         <v>240</v>
       </c>
@@ -26959,8 +27007,12 @@
       <c r="C855" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D855" s="12"/>
-      <c r="E855" s="12"/>
+      <c r="D855" s="12">
+        <v>43658</v>
+      </c>
+      <c r="E855" s="12">
+        <v>43658</v>
+      </c>
       <c r="F855" s="11" t="s">
         <v>240</v>
       </c>
@@ -26979,8 +27031,12 @@
       <c r="C856" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D856" s="12"/>
-      <c r="E856" s="12"/>
+      <c r="D856" s="12">
+        <v>43658</v>
+      </c>
+      <c r="E856" s="12">
+        <v>43658</v>
+      </c>
       <c r="F856" s="11" t="s">
         <v>240</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB70FE-C05F-45AC-B14D-DAFB903CBC43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E79237-AF8D-4A7A-B4FE-8D88DF3372F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="456" windowWidth="21000" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="630" windowWidth="18435" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="691">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2687,6 +2687,70 @@
   </si>
   <si>
     <t>查看慧军开发的python程序，学习python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python数组类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python数据类型，变量，条件判断和循环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据员员的SVN脚本中的改动，升级152服务器提数脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python函数，函数的定义，函数的调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试远程桌面，配置oracle数据库等其他软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置农险存量程序，部署农险存量程序及安装配置weblogic数据源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python函数中迭代，切片，列表生成式和生成器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看农险增量程序中报送的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看农险增量程序中报送的错误数据，并查找错误数据原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数据中包含‘投保行政区代码’查找问题数据，根据excel文档修改ldcodemapping表中的targetname中的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看农险存量数据报送量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改ldcodempping表中‘投保行政区代码’问题数据，并修改ldcodemapping表中的targetname中的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看周六日农险增量程序报送的数据量及错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析更改错误数据中转码类型中ldcodemapping表中的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出错误数据中ldcodemapping中未有的行政区代码值，需新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看农险存量数据报送数据量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3233,529 +3297,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J870"/>
+  <dimension ref="A1:J871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G856" sqref="G856"/>
+    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G858" sqref="G858"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="257" max="257" width="16.77734375" customWidth="1"/>
-    <col min="258" max="258" width="5.44140625" customWidth="1"/>
-    <col min="259" max="259" width="8.109375" customWidth="1"/>
-    <col min="260" max="260" width="9.21875" customWidth="1"/>
-    <col min="261" max="261" width="10.44140625" customWidth="1"/>
-    <col min="262" max="262" width="9.77734375" customWidth="1"/>
-    <col min="263" max="263" width="54.33203125" customWidth="1"/>
-    <col min="264" max="264" width="9.44140625" customWidth="1"/>
-    <col min="513" max="513" width="16.77734375" customWidth="1"/>
-    <col min="514" max="514" width="5.44140625" customWidth="1"/>
-    <col min="515" max="515" width="8.109375" customWidth="1"/>
-    <col min="516" max="516" width="9.21875" customWidth="1"/>
-    <col min="517" max="517" width="10.44140625" customWidth="1"/>
-    <col min="518" max="518" width="9.77734375" customWidth="1"/>
-    <col min="519" max="519" width="54.33203125" customWidth="1"/>
-    <col min="520" max="520" width="9.44140625" customWidth="1"/>
-    <col min="769" max="769" width="16.77734375" customWidth="1"/>
-    <col min="770" max="770" width="5.44140625" customWidth="1"/>
-    <col min="771" max="771" width="8.109375" customWidth="1"/>
-    <col min="772" max="772" width="9.21875" customWidth="1"/>
-    <col min="773" max="773" width="10.44140625" customWidth="1"/>
-    <col min="774" max="774" width="9.77734375" customWidth="1"/>
-    <col min="775" max="775" width="54.33203125" customWidth="1"/>
-    <col min="776" max="776" width="9.44140625" customWidth="1"/>
-    <col min="1025" max="1025" width="16.77734375" customWidth="1"/>
-    <col min="1026" max="1026" width="5.44140625" customWidth="1"/>
-    <col min="1027" max="1027" width="8.109375" customWidth="1"/>
-    <col min="1028" max="1028" width="9.21875" customWidth="1"/>
-    <col min="1029" max="1029" width="10.44140625" customWidth="1"/>
-    <col min="1030" max="1030" width="9.77734375" customWidth="1"/>
-    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
-    <col min="1032" max="1032" width="9.44140625" customWidth="1"/>
-    <col min="1281" max="1281" width="16.77734375" customWidth="1"/>
-    <col min="1282" max="1282" width="5.44140625" customWidth="1"/>
-    <col min="1283" max="1283" width="8.109375" customWidth="1"/>
-    <col min="1284" max="1284" width="9.21875" customWidth="1"/>
-    <col min="1285" max="1285" width="10.44140625" customWidth="1"/>
-    <col min="1286" max="1286" width="9.77734375" customWidth="1"/>
-    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
-    <col min="1288" max="1288" width="9.44140625" customWidth="1"/>
-    <col min="1537" max="1537" width="16.77734375" customWidth="1"/>
-    <col min="1538" max="1538" width="5.44140625" customWidth="1"/>
-    <col min="1539" max="1539" width="8.109375" customWidth="1"/>
-    <col min="1540" max="1540" width="9.21875" customWidth="1"/>
-    <col min="1541" max="1541" width="10.44140625" customWidth="1"/>
-    <col min="1542" max="1542" width="9.77734375" customWidth="1"/>
-    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
-    <col min="1544" max="1544" width="9.44140625" customWidth="1"/>
-    <col min="1793" max="1793" width="16.77734375" customWidth="1"/>
-    <col min="1794" max="1794" width="5.44140625" customWidth="1"/>
-    <col min="1795" max="1795" width="8.109375" customWidth="1"/>
-    <col min="1796" max="1796" width="9.21875" customWidth="1"/>
-    <col min="1797" max="1797" width="10.44140625" customWidth="1"/>
-    <col min="1798" max="1798" width="9.77734375" customWidth="1"/>
-    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
-    <col min="1800" max="1800" width="9.44140625" customWidth="1"/>
-    <col min="2049" max="2049" width="16.77734375" customWidth="1"/>
-    <col min="2050" max="2050" width="5.44140625" customWidth="1"/>
-    <col min="2051" max="2051" width="8.109375" customWidth="1"/>
-    <col min="2052" max="2052" width="9.21875" customWidth="1"/>
-    <col min="2053" max="2053" width="10.44140625" customWidth="1"/>
-    <col min="2054" max="2054" width="9.77734375" customWidth="1"/>
-    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
-    <col min="2056" max="2056" width="9.44140625" customWidth="1"/>
-    <col min="2305" max="2305" width="16.77734375" customWidth="1"/>
-    <col min="2306" max="2306" width="5.44140625" customWidth="1"/>
-    <col min="2307" max="2307" width="8.109375" customWidth="1"/>
-    <col min="2308" max="2308" width="9.21875" customWidth="1"/>
-    <col min="2309" max="2309" width="10.44140625" customWidth="1"/>
-    <col min="2310" max="2310" width="9.77734375" customWidth="1"/>
-    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
-    <col min="2312" max="2312" width="9.44140625" customWidth="1"/>
-    <col min="2561" max="2561" width="16.77734375" customWidth="1"/>
-    <col min="2562" max="2562" width="5.44140625" customWidth="1"/>
-    <col min="2563" max="2563" width="8.109375" customWidth="1"/>
-    <col min="2564" max="2564" width="9.21875" customWidth="1"/>
-    <col min="2565" max="2565" width="10.44140625" customWidth="1"/>
-    <col min="2566" max="2566" width="9.77734375" customWidth="1"/>
-    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
-    <col min="2568" max="2568" width="9.44140625" customWidth="1"/>
-    <col min="2817" max="2817" width="16.77734375" customWidth="1"/>
-    <col min="2818" max="2818" width="5.44140625" customWidth="1"/>
-    <col min="2819" max="2819" width="8.109375" customWidth="1"/>
-    <col min="2820" max="2820" width="9.21875" customWidth="1"/>
-    <col min="2821" max="2821" width="10.44140625" customWidth="1"/>
-    <col min="2822" max="2822" width="9.77734375" customWidth="1"/>
-    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
-    <col min="2824" max="2824" width="9.44140625" customWidth="1"/>
-    <col min="3073" max="3073" width="16.77734375" customWidth="1"/>
-    <col min="3074" max="3074" width="5.44140625" customWidth="1"/>
-    <col min="3075" max="3075" width="8.109375" customWidth="1"/>
-    <col min="3076" max="3076" width="9.21875" customWidth="1"/>
-    <col min="3077" max="3077" width="10.44140625" customWidth="1"/>
-    <col min="3078" max="3078" width="9.77734375" customWidth="1"/>
-    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
-    <col min="3080" max="3080" width="9.44140625" customWidth="1"/>
-    <col min="3329" max="3329" width="16.77734375" customWidth="1"/>
-    <col min="3330" max="3330" width="5.44140625" customWidth="1"/>
-    <col min="3331" max="3331" width="8.109375" customWidth="1"/>
-    <col min="3332" max="3332" width="9.21875" customWidth="1"/>
-    <col min="3333" max="3333" width="10.44140625" customWidth="1"/>
-    <col min="3334" max="3334" width="9.77734375" customWidth="1"/>
-    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
-    <col min="3336" max="3336" width="9.44140625" customWidth="1"/>
-    <col min="3585" max="3585" width="16.77734375" customWidth="1"/>
-    <col min="3586" max="3586" width="5.44140625" customWidth="1"/>
-    <col min="3587" max="3587" width="8.109375" customWidth="1"/>
-    <col min="3588" max="3588" width="9.21875" customWidth="1"/>
-    <col min="3589" max="3589" width="10.44140625" customWidth="1"/>
-    <col min="3590" max="3590" width="9.77734375" customWidth="1"/>
-    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
-    <col min="3592" max="3592" width="9.44140625" customWidth="1"/>
-    <col min="3841" max="3841" width="16.77734375" customWidth="1"/>
-    <col min="3842" max="3842" width="5.44140625" customWidth="1"/>
-    <col min="3843" max="3843" width="8.109375" customWidth="1"/>
-    <col min="3844" max="3844" width="9.21875" customWidth="1"/>
-    <col min="3845" max="3845" width="10.44140625" customWidth="1"/>
-    <col min="3846" max="3846" width="9.77734375" customWidth="1"/>
-    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
-    <col min="3848" max="3848" width="9.44140625" customWidth="1"/>
-    <col min="4097" max="4097" width="16.77734375" customWidth="1"/>
-    <col min="4098" max="4098" width="5.44140625" customWidth="1"/>
-    <col min="4099" max="4099" width="8.109375" customWidth="1"/>
-    <col min="4100" max="4100" width="9.21875" customWidth="1"/>
-    <col min="4101" max="4101" width="10.44140625" customWidth="1"/>
-    <col min="4102" max="4102" width="9.77734375" customWidth="1"/>
-    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
-    <col min="4104" max="4104" width="9.44140625" customWidth="1"/>
-    <col min="4353" max="4353" width="16.77734375" customWidth="1"/>
-    <col min="4354" max="4354" width="5.44140625" customWidth="1"/>
-    <col min="4355" max="4355" width="8.109375" customWidth="1"/>
-    <col min="4356" max="4356" width="9.21875" customWidth="1"/>
-    <col min="4357" max="4357" width="10.44140625" customWidth="1"/>
-    <col min="4358" max="4358" width="9.77734375" customWidth="1"/>
-    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
-    <col min="4360" max="4360" width="9.44140625" customWidth="1"/>
-    <col min="4609" max="4609" width="16.77734375" customWidth="1"/>
-    <col min="4610" max="4610" width="5.44140625" customWidth="1"/>
-    <col min="4611" max="4611" width="8.109375" customWidth="1"/>
-    <col min="4612" max="4612" width="9.21875" customWidth="1"/>
-    <col min="4613" max="4613" width="10.44140625" customWidth="1"/>
-    <col min="4614" max="4614" width="9.77734375" customWidth="1"/>
-    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
-    <col min="4616" max="4616" width="9.44140625" customWidth="1"/>
-    <col min="4865" max="4865" width="16.77734375" customWidth="1"/>
-    <col min="4866" max="4866" width="5.44140625" customWidth="1"/>
-    <col min="4867" max="4867" width="8.109375" customWidth="1"/>
-    <col min="4868" max="4868" width="9.21875" customWidth="1"/>
-    <col min="4869" max="4869" width="10.44140625" customWidth="1"/>
-    <col min="4870" max="4870" width="9.77734375" customWidth="1"/>
-    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
-    <col min="4872" max="4872" width="9.44140625" customWidth="1"/>
-    <col min="5121" max="5121" width="16.77734375" customWidth="1"/>
-    <col min="5122" max="5122" width="5.44140625" customWidth="1"/>
-    <col min="5123" max="5123" width="8.109375" customWidth="1"/>
-    <col min="5124" max="5124" width="9.21875" customWidth="1"/>
-    <col min="5125" max="5125" width="10.44140625" customWidth="1"/>
-    <col min="5126" max="5126" width="9.77734375" customWidth="1"/>
-    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
-    <col min="5128" max="5128" width="9.44140625" customWidth="1"/>
-    <col min="5377" max="5377" width="16.77734375" customWidth="1"/>
-    <col min="5378" max="5378" width="5.44140625" customWidth="1"/>
-    <col min="5379" max="5379" width="8.109375" customWidth="1"/>
-    <col min="5380" max="5380" width="9.21875" customWidth="1"/>
-    <col min="5381" max="5381" width="10.44140625" customWidth="1"/>
-    <col min="5382" max="5382" width="9.77734375" customWidth="1"/>
-    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
-    <col min="5384" max="5384" width="9.44140625" customWidth="1"/>
-    <col min="5633" max="5633" width="16.77734375" customWidth="1"/>
-    <col min="5634" max="5634" width="5.44140625" customWidth="1"/>
-    <col min="5635" max="5635" width="8.109375" customWidth="1"/>
-    <col min="5636" max="5636" width="9.21875" customWidth="1"/>
-    <col min="5637" max="5637" width="10.44140625" customWidth="1"/>
-    <col min="5638" max="5638" width="9.77734375" customWidth="1"/>
-    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
-    <col min="5640" max="5640" width="9.44140625" customWidth="1"/>
-    <col min="5889" max="5889" width="16.77734375" customWidth="1"/>
-    <col min="5890" max="5890" width="5.44140625" customWidth="1"/>
-    <col min="5891" max="5891" width="8.109375" customWidth="1"/>
-    <col min="5892" max="5892" width="9.21875" customWidth="1"/>
-    <col min="5893" max="5893" width="10.44140625" customWidth="1"/>
-    <col min="5894" max="5894" width="9.77734375" customWidth="1"/>
-    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
-    <col min="5896" max="5896" width="9.44140625" customWidth="1"/>
-    <col min="6145" max="6145" width="16.77734375" customWidth="1"/>
-    <col min="6146" max="6146" width="5.44140625" customWidth="1"/>
-    <col min="6147" max="6147" width="8.109375" customWidth="1"/>
-    <col min="6148" max="6148" width="9.21875" customWidth="1"/>
-    <col min="6149" max="6149" width="10.44140625" customWidth="1"/>
-    <col min="6150" max="6150" width="9.77734375" customWidth="1"/>
-    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
-    <col min="6152" max="6152" width="9.44140625" customWidth="1"/>
-    <col min="6401" max="6401" width="16.77734375" customWidth="1"/>
-    <col min="6402" max="6402" width="5.44140625" customWidth="1"/>
-    <col min="6403" max="6403" width="8.109375" customWidth="1"/>
-    <col min="6404" max="6404" width="9.21875" customWidth="1"/>
-    <col min="6405" max="6405" width="10.44140625" customWidth="1"/>
-    <col min="6406" max="6406" width="9.77734375" customWidth="1"/>
-    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
-    <col min="6408" max="6408" width="9.44140625" customWidth="1"/>
-    <col min="6657" max="6657" width="16.77734375" customWidth="1"/>
-    <col min="6658" max="6658" width="5.44140625" customWidth="1"/>
-    <col min="6659" max="6659" width="8.109375" customWidth="1"/>
-    <col min="6660" max="6660" width="9.21875" customWidth="1"/>
-    <col min="6661" max="6661" width="10.44140625" customWidth="1"/>
-    <col min="6662" max="6662" width="9.77734375" customWidth="1"/>
-    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
-    <col min="6664" max="6664" width="9.44140625" customWidth="1"/>
-    <col min="6913" max="6913" width="16.77734375" customWidth="1"/>
-    <col min="6914" max="6914" width="5.44140625" customWidth="1"/>
-    <col min="6915" max="6915" width="8.109375" customWidth="1"/>
-    <col min="6916" max="6916" width="9.21875" customWidth="1"/>
-    <col min="6917" max="6917" width="10.44140625" customWidth="1"/>
-    <col min="6918" max="6918" width="9.77734375" customWidth="1"/>
-    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
-    <col min="6920" max="6920" width="9.44140625" customWidth="1"/>
-    <col min="7169" max="7169" width="16.77734375" customWidth="1"/>
-    <col min="7170" max="7170" width="5.44140625" customWidth="1"/>
-    <col min="7171" max="7171" width="8.109375" customWidth="1"/>
-    <col min="7172" max="7172" width="9.21875" customWidth="1"/>
-    <col min="7173" max="7173" width="10.44140625" customWidth="1"/>
-    <col min="7174" max="7174" width="9.77734375" customWidth="1"/>
-    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
-    <col min="7176" max="7176" width="9.44140625" customWidth="1"/>
-    <col min="7425" max="7425" width="16.77734375" customWidth="1"/>
-    <col min="7426" max="7426" width="5.44140625" customWidth="1"/>
-    <col min="7427" max="7427" width="8.109375" customWidth="1"/>
-    <col min="7428" max="7428" width="9.21875" customWidth="1"/>
-    <col min="7429" max="7429" width="10.44140625" customWidth="1"/>
-    <col min="7430" max="7430" width="9.77734375" customWidth="1"/>
-    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
-    <col min="7432" max="7432" width="9.44140625" customWidth="1"/>
-    <col min="7681" max="7681" width="16.77734375" customWidth="1"/>
-    <col min="7682" max="7682" width="5.44140625" customWidth="1"/>
-    <col min="7683" max="7683" width="8.109375" customWidth="1"/>
-    <col min="7684" max="7684" width="9.21875" customWidth="1"/>
-    <col min="7685" max="7685" width="10.44140625" customWidth="1"/>
-    <col min="7686" max="7686" width="9.77734375" customWidth="1"/>
-    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
-    <col min="7688" max="7688" width="9.44140625" customWidth="1"/>
-    <col min="7937" max="7937" width="16.77734375" customWidth="1"/>
-    <col min="7938" max="7938" width="5.44140625" customWidth="1"/>
-    <col min="7939" max="7939" width="8.109375" customWidth="1"/>
-    <col min="7940" max="7940" width="9.21875" customWidth="1"/>
-    <col min="7941" max="7941" width="10.44140625" customWidth="1"/>
-    <col min="7942" max="7942" width="9.77734375" customWidth="1"/>
-    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
-    <col min="7944" max="7944" width="9.44140625" customWidth="1"/>
-    <col min="8193" max="8193" width="16.77734375" customWidth="1"/>
-    <col min="8194" max="8194" width="5.44140625" customWidth="1"/>
-    <col min="8195" max="8195" width="8.109375" customWidth="1"/>
-    <col min="8196" max="8196" width="9.21875" customWidth="1"/>
-    <col min="8197" max="8197" width="10.44140625" customWidth="1"/>
-    <col min="8198" max="8198" width="9.77734375" customWidth="1"/>
-    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
-    <col min="8200" max="8200" width="9.44140625" customWidth="1"/>
-    <col min="8449" max="8449" width="16.77734375" customWidth="1"/>
-    <col min="8450" max="8450" width="5.44140625" customWidth="1"/>
-    <col min="8451" max="8451" width="8.109375" customWidth="1"/>
-    <col min="8452" max="8452" width="9.21875" customWidth="1"/>
-    <col min="8453" max="8453" width="10.44140625" customWidth="1"/>
-    <col min="8454" max="8454" width="9.77734375" customWidth="1"/>
-    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
-    <col min="8456" max="8456" width="9.44140625" customWidth="1"/>
-    <col min="8705" max="8705" width="16.77734375" customWidth="1"/>
-    <col min="8706" max="8706" width="5.44140625" customWidth="1"/>
-    <col min="8707" max="8707" width="8.109375" customWidth="1"/>
-    <col min="8708" max="8708" width="9.21875" customWidth="1"/>
-    <col min="8709" max="8709" width="10.44140625" customWidth="1"/>
-    <col min="8710" max="8710" width="9.77734375" customWidth="1"/>
-    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
-    <col min="8712" max="8712" width="9.44140625" customWidth="1"/>
-    <col min="8961" max="8961" width="16.77734375" customWidth="1"/>
-    <col min="8962" max="8962" width="5.44140625" customWidth="1"/>
-    <col min="8963" max="8963" width="8.109375" customWidth="1"/>
-    <col min="8964" max="8964" width="9.21875" customWidth="1"/>
-    <col min="8965" max="8965" width="10.44140625" customWidth="1"/>
-    <col min="8966" max="8966" width="9.77734375" customWidth="1"/>
-    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
-    <col min="8968" max="8968" width="9.44140625" customWidth="1"/>
-    <col min="9217" max="9217" width="16.77734375" customWidth="1"/>
-    <col min="9218" max="9218" width="5.44140625" customWidth="1"/>
-    <col min="9219" max="9219" width="8.109375" customWidth="1"/>
-    <col min="9220" max="9220" width="9.21875" customWidth="1"/>
-    <col min="9221" max="9221" width="10.44140625" customWidth="1"/>
-    <col min="9222" max="9222" width="9.77734375" customWidth="1"/>
-    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
-    <col min="9224" max="9224" width="9.44140625" customWidth="1"/>
-    <col min="9473" max="9473" width="16.77734375" customWidth="1"/>
-    <col min="9474" max="9474" width="5.44140625" customWidth="1"/>
-    <col min="9475" max="9475" width="8.109375" customWidth="1"/>
-    <col min="9476" max="9476" width="9.21875" customWidth="1"/>
-    <col min="9477" max="9477" width="10.44140625" customWidth="1"/>
-    <col min="9478" max="9478" width="9.77734375" customWidth="1"/>
-    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
-    <col min="9480" max="9480" width="9.44140625" customWidth="1"/>
-    <col min="9729" max="9729" width="16.77734375" customWidth="1"/>
-    <col min="9730" max="9730" width="5.44140625" customWidth="1"/>
-    <col min="9731" max="9731" width="8.109375" customWidth="1"/>
-    <col min="9732" max="9732" width="9.21875" customWidth="1"/>
-    <col min="9733" max="9733" width="10.44140625" customWidth="1"/>
-    <col min="9734" max="9734" width="9.77734375" customWidth="1"/>
-    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
-    <col min="9736" max="9736" width="9.44140625" customWidth="1"/>
-    <col min="9985" max="9985" width="16.77734375" customWidth="1"/>
-    <col min="9986" max="9986" width="5.44140625" customWidth="1"/>
-    <col min="9987" max="9987" width="8.109375" customWidth="1"/>
-    <col min="9988" max="9988" width="9.21875" customWidth="1"/>
-    <col min="9989" max="9989" width="10.44140625" customWidth="1"/>
-    <col min="9990" max="9990" width="9.77734375" customWidth="1"/>
-    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
-    <col min="9992" max="9992" width="9.44140625" customWidth="1"/>
-    <col min="10241" max="10241" width="16.77734375" customWidth="1"/>
-    <col min="10242" max="10242" width="5.44140625" customWidth="1"/>
-    <col min="10243" max="10243" width="8.109375" customWidth="1"/>
-    <col min="10244" max="10244" width="9.21875" customWidth="1"/>
-    <col min="10245" max="10245" width="10.44140625" customWidth="1"/>
-    <col min="10246" max="10246" width="9.77734375" customWidth="1"/>
-    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
-    <col min="10248" max="10248" width="9.44140625" customWidth="1"/>
-    <col min="10497" max="10497" width="16.77734375" customWidth="1"/>
-    <col min="10498" max="10498" width="5.44140625" customWidth="1"/>
-    <col min="10499" max="10499" width="8.109375" customWidth="1"/>
-    <col min="10500" max="10500" width="9.21875" customWidth="1"/>
-    <col min="10501" max="10501" width="10.44140625" customWidth="1"/>
-    <col min="10502" max="10502" width="9.77734375" customWidth="1"/>
-    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
-    <col min="10504" max="10504" width="9.44140625" customWidth="1"/>
-    <col min="10753" max="10753" width="16.77734375" customWidth="1"/>
-    <col min="10754" max="10754" width="5.44140625" customWidth="1"/>
-    <col min="10755" max="10755" width="8.109375" customWidth="1"/>
-    <col min="10756" max="10756" width="9.21875" customWidth="1"/>
-    <col min="10757" max="10757" width="10.44140625" customWidth="1"/>
-    <col min="10758" max="10758" width="9.77734375" customWidth="1"/>
-    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
-    <col min="10760" max="10760" width="9.44140625" customWidth="1"/>
-    <col min="11009" max="11009" width="16.77734375" customWidth="1"/>
-    <col min="11010" max="11010" width="5.44140625" customWidth="1"/>
-    <col min="11011" max="11011" width="8.109375" customWidth="1"/>
-    <col min="11012" max="11012" width="9.21875" customWidth="1"/>
-    <col min="11013" max="11013" width="10.44140625" customWidth="1"/>
-    <col min="11014" max="11014" width="9.77734375" customWidth="1"/>
-    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
-    <col min="11016" max="11016" width="9.44140625" customWidth="1"/>
-    <col min="11265" max="11265" width="16.77734375" customWidth="1"/>
-    <col min="11266" max="11266" width="5.44140625" customWidth="1"/>
-    <col min="11267" max="11267" width="8.109375" customWidth="1"/>
-    <col min="11268" max="11268" width="9.21875" customWidth="1"/>
-    <col min="11269" max="11269" width="10.44140625" customWidth="1"/>
-    <col min="11270" max="11270" width="9.77734375" customWidth="1"/>
-    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
-    <col min="11272" max="11272" width="9.44140625" customWidth="1"/>
-    <col min="11521" max="11521" width="16.77734375" customWidth="1"/>
-    <col min="11522" max="11522" width="5.44140625" customWidth="1"/>
-    <col min="11523" max="11523" width="8.109375" customWidth="1"/>
-    <col min="11524" max="11524" width="9.21875" customWidth="1"/>
-    <col min="11525" max="11525" width="10.44140625" customWidth="1"/>
-    <col min="11526" max="11526" width="9.77734375" customWidth="1"/>
-    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
-    <col min="11528" max="11528" width="9.44140625" customWidth="1"/>
-    <col min="11777" max="11777" width="16.77734375" customWidth="1"/>
-    <col min="11778" max="11778" width="5.44140625" customWidth="1"/>
-    <col min="11779" max="11779" width="8.109375" customWidth="1"/>
-    <col min="11780" max="11780" width="9.21875" customWidth="1"/>
-    <col min="11781" max="11781" width="10.44140625" customWidth="1"/>
-    <col min="11782" max="11782" width="9.77734375" customWidth="1"/>
-    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
-    <col min="11784" max="11784" width="9.44140625" customWidth="1"/>
-    <col min="12033" max="12033" width="16.77734375" customWidth="1"/>
-    <col min="12034" max="12034" width="5.44140625" customWidth="1"/>
-    <col min="12035" max="12035" width="8.109375" customWidth="1"/>
-    <col min="12036" max="12036" width="9.21875" customWidth="1"/>
-    <col min="12037" max="12037" width="10.44140625" customWidth="1"/>
-    <col min="12038" max="12038" width="9.77734375" customWidth="1"/>
-    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
-    <col min="12040" max="12040" width="9.44140625" customWidth="1"/>
-    <col min="12289" max="12289" width="16.77734375" customWidth="1"/>
-    <col min="12290" max="12290" width="5.44140625" customWidth="1"/>
-    <col min="12291" max="12291" width="8.109375" customWidth="1"/>
-    <col min="12292" max="12292" width="9.21875" customWidth="1"/>
-    <col min="12293" max="12293" width="10.44140625" customWidth="1"/>
-    <col min="12294" max="12294" width="9.77734375" customWidth="1"/>
-    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
-    <col min="12296" max="12296" width="9.44140625" customWidth="1"/>
-    <col min="12545" max="12545" width="16.77734375" customWidth="1"/>
-    <col min="12546" max="12546" width="5.44140625" customWidth="1"/>
-    <col min="12547" max="12547" width="8.109375" customWidth="1"/>
-    <col min="12548" max="12548" width="9.21875" customWidth="1"/>
-    <col min="12549" max="12549" width="10.44140625" customWidth="1"/>
-    <col min="12550" max="12550" width="9.77734375" customWidth="1"/>
-    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
-    <col min="12552" max="12552" width="9.44140625" customWidth="1"/>
-    <col min="12801" max="12801" width="16.77734375" customWidth="1"/>
-    <col min="12802" max="12802" width="5.44140625" customWidth="1"/>
-    <col min="12803" max="12803" width="8.109375" customWidth="1"/>
-    <col min="12804" max="12804" width="9.21875" customWidth="1"/>
-    <col min="12805" max="12805" width="10.44140625" customWidth="1"/>
-    <col min="12806" max="12806" width="9.77734375" customWidth="1"/>
-    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
-    <col min="12808" max="12808" width="9.44140625" customWidth="1"/>
-    <col min="13057" max="13057" width="16.77734375" customWidth="1"/>
-    <col min="13058" max="13058" width="5.44140625" customWidth="1"/>
-    <col min="13059" max="13059" width="8.109375" customWidth="1"/>
-    <col min="13060" max="13060" width="9.21875" customWidth="1"/>
-    <col min="13061" max="13061" width="10.44140625" customWidth="1"/>
-    <col min="13062" max="13062" width="9.77734375" customWidth="1"/>
-    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
-    <col min="13064" max="13064" width="9.44140625" customWidth="1"/>
-    <col min="13313" max="13313" width="16.77734375" customWidth="1"/>
-    <col min="13314" max="13314" width="5.44140625" customWidth="1"/>
-    <col min="13315" max="13315" width="8.109375" customWidth="1"/>
-    <col min="13316" max="13316" width="9.21875" customWidth="1"/>
-    <col min="13317" max="13317" width="10.44140625" customWidth="1"/>
-    <col min="13318" max="13318" width="9.77734375" customWidth="1"/>
-    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
-    <col min="13320" max="13320" width="9.44140625" customWidth="1"/>
-    <col min="13569" max="13569" width="16.77734375" customWidth="1"/>
-    <col min="13570" max="13570" width="5.44140625" customWidth="1"/>
-    <col min="13571" max="13571" width="8.109375" customWidth="1"/>
-    <col min="13572" max="13572" width="9.21875" customWidth="1"/>
-    <col min="13573" max="13573" width="10.44140625" customWidth="1"/>
-    <col min="13574" max="13574" width="9.77734375" customWidth="1"/>
-    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
-    <col min="13576" max="13576" width="9.44140625" customWidth="1"/>
-    <col min="13825" max="13825" width="16.77734375" customWidth="1"/>
-    <col min="13826" max="13826" width="5.44140625" customWidth="1"/>
-    <col min="13827" max="13827" width="8.109375" customWidth="1"/>
-    <col min="13828" max="13828" width="9.21875" customWidth="1"/>
-    <col min="13829" max="13829" width="10.44140625" customWidth="1"/>
-    <col min="13830" max="13830" width="9.77734375" customWidth="1"/>
-    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
-    <col min="13832" max="13832" width="9.44140625" customWidth="1"/>
-    <col min="14081" max="14081" width="16.77734375" customWidth="1"/>
-    <col min="14082" max="14082" width="5.44140625" customWidth="1"/>
-    <col min="14083" max="14083" width="8.109375" customWidth="1"/>
-    <col min="14084" max="14084" width="9.21875" customWidth="1"/>
-    <col min="14085" max="14085" width="10.44140625" customWidth="1"/>
-    <col min="14086" max="14086" width="9.77734375" customWidth="1"/>
-    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
-    <col min="14088" max="14088" width="9.44140625" customWidth="1"/>
-    <col min="14337" max="14337" width="16.77734375" customWidth="1"/>
-    <col min="14338" max="14338" width="5.44140625" customWidth="1"/>
-    <col min="14339" max="14339" width="8.109375" customWidth="1"/>
-    <col min="14340" max="14340" width="9.21875" customWidth="1"/>
-    <col min="14341" max="14341" width="10.44140625" customWidth="1"/>
-    <col min="14342" max="14342" width="9.77734375" customWidth="1"/>
-    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
-    <col min="14344" max="14344" width="9.44140625" customWidth="1"/>
-    <col min="14593" max="14593" width="16.77734375" customWidth="1"/>
-    <col min="14594" max="14594" width="5.44140625" customWidth="1"/>
-    <col min="14595" max="14595" width="8.109375" customWidth="1"/>
-    <col min="14596" max="14596" width="9.21875" customWidth="1"/>
-    <col min="14597" max="14597" width="10.44140625" customWidth="1"/>
-    <col min="14598" max="14598" width="9.77734375" customWidth="1"/>
-    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
-    <col min="14600" max="14600" width="9.44140625" customWidth="1"/>
-    <col min="14849" max="14849" width="16.77734375" customWidth="1"/>
-    <col min="14850" max="14850" width="5.44140625" customWidth="1"/>
-    <col min="14851" max="14851" width="8.109375" customWidth="1"/>
-    <col min="14852" max="14852" width="9.21875" customWidth="1"/>
-    <col min="14853" max="14853" width="10.44140625" customWidth="1"/>
-    <col min="14854" max="14854" width="9.77734375" customWidth="1"/>
-    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
-    <col min="14856" max="14856" width="9.44140625" customWidth="1"/>
-    <col min="15105" max="15105" width="16.77734375" customWidth="1"/>
-    <col min="15106" max="15106" width="5.44140625" customWidth="1"/>
-    <col min="15107" max="15107" width="8.109375" customWidth="1"/>
-    <col min="15108" max="15108" width="9.21875" customWidth="1"/>
-    <col min="15109" max="15109" width="10.44140625" customWidth="1"/>
-    <col min="15110" max="15110" width="9.77734375" customWidth="1"/>
-    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
-    <col min="15112" max="15112" width="9.44140625" customWidth="1"/>
-    <col min="15361" max="15361" width="16.77734375" customWidth="1"/>
-    <col min="15362" max="15362" width="5.44140625" customWidth="1"/>
-    <col min="15363" max="15363" width="8.109375" customWidth="1"/>
-    <col min="15364" max="15364" width="9.21875" customWidth="1"/>
-    <col min="15365" max="15365" width="10.44140625" customWidth="1"/>
-    <col min="15366" max="15366" width="9.77734375" customWidth="1"/>
-    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
-    <col min="15368" max="15368" width="9.44140625" customWidth="1"/>
-    <col min="15617" max="15617" width="16.77734375" customWidth="1"/>
-    <col min="15618" max="15618" width="5.44140625" customWidth="1"/>
-    <col min="15619" max="15619" width="8.109375" customWidth="1"/>
-    <col min="15620" max="15620" width="9.21875" customWidth="1"/>
-    <col min="15621" max="15621" width="10.44140625" customWidth="1"/>
-    <col min="15622" max="15622" width="9.77734375" customWidth="1"/>
-    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
-    <col min="15624" max="15624" width="9.44140625" customWidth="1"/>
-    <col min="15873" max="15873" width="16.77734375" customWidth="1"/>
-    <col min="15874" max="15874" width="5.44140625" customWidth="1"/>
-    <col min="15875" max="15875" width="8.109375" customWidth="1"/>
-    <col min="15876" max="15876" width="9.21875" customWidth="1"/>
-    <col min="15877" max="15877" width="10.44140625" customWidth="1"/>
-    <col min="15878" max="15878" width="9.77734375" customWidth="1"/>
-    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
-    <col min="15880" max="15880" width="9.44140625" customWidth="1"/>
-    <col min="16129" max="16129" width="16.77734375" customWidth="1"/>
-    <col min="16130" max="16130" width="5.44140625" customWidth="1"/>
-    <col min="16131" max="16131" width="8.109375" customWidth="1"/>
-    <col min="16132" max="16132" width="9.21875" customWidth="1"/>
-    <col min="16133" max="16133" width="10.44140625" customWidth="1"/>
-    <col min="16134" max="16134" width="9.77734375" customWidth="1"/>
-    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
-    <col min="16136" max="16136" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="67.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="257" max="257" width="16.75" customWidth="1"/>
+    <col min="258" max="258" width="5.5" customWidth="1"/>
+    <col min="259" max="259" width="8.125" customWidth="1"/>
+    <col min="260" max="260" width="9.25" customWidth="1"/>
+    <col min="261" max="261" width="10.5" customWidth="1"/>
+    <col min="262" max="262" width="9.75" customWidth="1"/>
+    <col min="263" max="263" width="54.375" customWidth="1"/>
+    <col min="264" max="264" width="9.5" customWidth="1"/>
+    <col min="513" max="513" width="16.75" customWidth="1"/>
+    <col min="514" max="514" width="5.5" customWidth="1"/>
+    <col min="515" max="515" width="8.125" customWidth="1"/>
+    <col min="516" max="516" width="9.25" customWidth="1"/>
+    <col min="517" max="517" width="10.5" customWidth="1"/>
+    <col min="518" max="518" width="9.75" customWidth="1"/>
+    <col min="519" max="519" width="54.375" customWidth="1"/>
+    <col min="520" max="520" width="9.5" customWidth="1"/>
+    <col min="769" max="769" width="16.75" customWidth="1"/>
+    <col min="770" max="770" width="5.5" customWidth="1"/>
+    <col min="771" max="771" width="8.125" customWidth="1"/>
+    <col min="772" max="772" width="9.25" customWidth="1"/>
+    <col min="773" max="773" width="10.5" customWidth="1"/>
+    <col min="774" max="774" width="9.75" customWidth="1"/>
+    <col min="775" max="775" width="54.375" customWidth="1"/>
+    <col min="776" max="776" width="9.5" customWidth="1"/>
+    <col min="1025" max="1025" width="16.75" customWidth="1"/>
+    <col min="1026" max="1026" width="5.5" customWidth="1"/>
+    <col min="1027" max="1027" width="8.125" customWidth="1"/>
+    <col min="1028" max="1028" width="9.25" customWidth="1"/>
+    <col min="1029" max="1029" width="10.5" customWidth="1"/>
+    <col min="1030" max="1030" width="9.75" customWidth="1"/>
+    <col min="1031" max="1031" width="54.375" customWidth="1"/>
+    <col min="1032" max="1032" width="9.5" customWidth="1"/>
+    <col min="1281" max="1281" width="16.75" customWidth="1"/>
+    <col min="1282" max="1282" width="5.5" customWidth="1"/>
+    <col min="1283" max="1283" width="8.125" customWidth="1"/>
+    <col min="1284" max="1284" width="9.25" customWidth="1"/>
+    <col min="1285" max="1285" width="10.5" customWidth="1"/>
+    <col min="1286" max="1286" width="9.75" customWidth="1"/>
+    <col min="1287" max="1287" width="54.375" customWidth="1"/>
+    <col min="1288" max="1288" width="9.5" customWidth="1"/>
+    <col min="1537" max="1537" width="16.75" customWidth="1"/>
+    <col min="1538" max="1538" width="5.5" customWidth="1"/>
+    <col min="1539" max="1539" width="8.125" customWidth="1"/>
+    <col min="1540" max="1540" width="9.25" customWidth="1"/>
+    <col min="1541" max="1541" width="10.5" customWidth="1"/>
+    <col min="1542" max="1542" width="9.75" customWidth="1"/>
+    <col min="1543" max="1543" width="54.375" customWidth="1"/>
+    <col min="1544" max="1544" width="9.5" customWidth="1"/>
+    <col min="1793" max="1793" width="16.75" customWidth="1"/>
+    <col min="1794" max="1794" width="5.5" customWidth="1"/>
+    <col min="1795" max="1795" width="8.125" customWidth="1"/>
+    <col min="1796" max="1796" width="9.25" customWidth="1"/>
+    <col min="1797" max="1797" width="10.5" customWidth="1"/>
+    <col min="1798" max="1798" width="9.75" customWidth="1"/>
+    <col min="1799" max="1799" width="54.375" customWidth="1"/>
+    <col min="1800" max="1800" width="9.5" customWidth="1"/>
+    <col min="2049" max="2049" width="16.75" customWidth="1"/>
+    <col min="2050" max="2050" width="5.5" customWidth="1"/>
+    <col min="2051" max="2051" width="8.125" customWidth="1"/>
+    <col min="2052" max="2052" width="9.25" customWidth="1"/>
+    <col min="2053" max="2053" width="10.5" customWidth="1"/>
+    <col min="2054" max="2054" width="9.75" customWidth="1"/>
+    <col min="2055" max="2055" width="54.375" customWidth="1"/>
+    <col min="2056" max="2056" width="9.5" customWidth="1"/>
+    <col min="2305" max="2305" width="16.75" customWidth="1"/>
+    <col min="2306" max="2306" width="5.5" customWidth="1"/>
+    <col min="2307" max="2307" width="8.125" customWidth="1"/>
+    <col min="2308" max="2308" width="9.25" customWidth="1"/>
+    <col min="2309" max="2309" width="10.5" customWidth="1"/>
+    <col min="2310" max="2310" width="9.75" customWidth="1"/>
+    <col min="2311" max="2311" width="54.375" customWidth="1"/>
+    <col min="2312" max="2312" width="9.5" customWidth="1"/>
+    <col min="2561" max="2561" width="16.75" customWidth="1"/>
+    <col min="2562" max="2562" width="5.5" customWidth="1"/>
+    <col min="2563" max="2563" width="8.125" customWidth="1"/>
+    <col min="2564" max="2564" width="9.25" customWidth="1"/>
+    <col min="2565" max="2565" width="10.5" customWidth="1"/>
+    <col min="2566" max="2566" width="9.75" customWidth="1"/>
+    <col min="2567" max="2567" width="54.375" customWidth="1"/>
+    <col min="2568" max="2568" width="9.5" customWidth="1"/>
+    <col min="2817" max="2817" width="16.75" customWidth="1"/>
+    <col min="2818" max="2818" width="5.5" customWidth="1"/>
+    <col min="2819" max="2819" width="8.125" customWidth="1"/>
+    <col min="2820" max="2820" width="9.25" customWidth="1"/>
+    <col min="2821" max="2821" width="10.5" customWidth="1"/>
+    <col min="2822" max="2822" width="9.75" customWidth="1"/>
+    <col min="2823" max="2823" width="54.375" customWidth="1"/>
+    <col min="2824" max="2824" width="9.5" customWidth="1"/>
+    <col min="3073" max="3073" width="16.75" customWidth="1"/>
+    <col min="3074" max="3074" width="5.5" customWidth="1"/>
+    <col min="3075" max="3075" width="8.125" customWidth="1"/>
+    <col min="3076" max="3076" width="9.25" customWidth="1"/>
+    <col min="3077" max="3077" width="10.5" customWidth="1"/>
+    <col min="3078" max="3078" width="9.75" customWidth="1"/>
+    <col min="3079" max="3079" width="54.375" customWidth="1"/>
+    <col min="3080" max="3080" width="9.5" customWidth="1"/>
+    <col min="3329" max="3329" width="16.75" customWidth="1"/>
+    <col min="3330" max="3330" width="5.5" customWidth="1"/>
+    <col min="3331" max="3331" width="8.125" customWidth="1"/>
+    <col min="3332" max="3332" width="9.25" customWidth="1"/>
+    <col min="3333" max="3333" width="10.5" customWidth="1"/>
+    <col min="3334" max="3334" width="9.75" customWidth="1"/>
+    <col min="3335" max="3335" width="54.375" customWidth="1"/>
+    <col min="3336" max="3336" width="9.5" customWidth="1"/>
+    <col min="3585" max="3585" width="16.75" customWidth="1"/>
+    <col min="3586" max="3586" width="5.5" customWidth="1"/>
+    <col min="3587" max="3587" width="8.125" customWidth="1"/>
+    <col min="3588" max="3588" width="9.25" customWidth="1"/>
+    <col min="3589" max="3589" width="10.5" customWidth="1"/>
+    <col min="3590" max="3590" width="9.75" customWidth="1"/>
+    <col min="3591" max="3591" width="54.375" customWidth="1"/>
+    <col min="3592" max="3592" width="9.5" customWidth="1"/>
+    <col min="3841" max="3841" width="16.75" customWidth="1"/>
+    <col min="3842" max="3842" width="5.5" customWidth="1"/>
+    <col min="3843" max="3843" width="8.125" customWidth="1"/>
+    <col min="3844" max="3844" width="9.25" customWidth="1"/>
+    <col min="3845" max="3845" width="10.5" customWidth="1"/>
+    <col min="3846" max="3846" width="9.75" customWidth="1"/>
+    <col min="3847" max="3847" width="54.375" customWidth="1"/>
+    <col min="3848" max="3848" width="9.5" customWidth="1"/>
+    <col min="4097" max="4097" width="16.75" customWidth="1"/>
+    <col min="4098" max="4098" width="5.5" customWidth="1"/>
+    <col min="4099" max="4099" width="8.125" customWidth="1"/>
+    <col min="4100" max="4100" width="9.25" customWidth="1"/>
+    <col min="4101" max="4101" width="10.5" customWidth="1"/>
+    <col min="4102" max="4102" width="9.75" customWidth="1"/>
+    <col min="4103" max="4103" width="54.375" customWidth="1"/>
+    <col min="4104" max="4104" width="9.5" customWidth="1"/>
+    <col min="4353" max="4353" width="16.75" customWidth="1"/>
+    <col min="4354" max="4354" width="5.5" customWidth="1"/>
+    <col min="4355" max="4355" width="8.125" customWidth="1"/>
+    <col min="4356" max="4356" width="9.25" customWidth="1"/>
+    <col min="4357" max="4357" width="10.5" customWidth="1"/>
+    <col min="4358" max="4358" width="9.75" customWidth="1"/>
+    <col min="4359" max="4359" width="54.375" customWidth="1"/>
+    <col min="4360" max="4360" width="9.5" customWidth="1"/>
+    <col min="4609" max="4609" width="16.75" customWidth="1"/>
+    <col min="4610" max="4610" width="5.5" customWidth="1"/>
+    <col min="4611" max="4611" width="8.125" customWidth="1"/>
+    <col min="4612" max="4612" width="9.25" customWidth="1"/>
+    <col min="4613" max="4613" width="10.5" customWidth="1"/>
+    <col min="4614" max="4614" width="9.75" customWidth="1"/>
+    <col min="4615" max="4615" width="54.375" customWidth="1"/>
+    <col min="4616" max="4616" width="9.5" customWidth="1"/>
+    <col min="4865" max="4865" width="16.75" customWidth="1"/>
+    <col min="4866" max="4866" width="5.5" customWidth="1"/>
+    <col min="4867" max="4867" width="8.125" customWidth="1"/>
+    <col min="4868" max="4868" width="9.25" customWidth="1"/>
+    <col min="4869" max="4869" width="10.5" customWidth="1"/>
+    <col min="4870" max="4870" width="9.75" customWidth="1"/>
+    <col min="4871" max="4871" width="54.375" customWidth="1"/>
+    <col min="4872" max="4872" width="9.5" customWidth="1"/>
+    <col min="5121" max="5121" width="16.75" customWidth="1"/>
+    <col min="5122" max="5122" width="5.5" customWidth="1"/>
+    <col min="5123" max="5123" width="8.125" customWidth="1"/>
+    <col min="5124" max="5124" width="9.25" customWidth="1"/>
+    <col min="5125" max="5125" width="10.5" customWidth="1"/>
+    <col min="5126" max="5126" width="9.75" customWidth="1"/>
+    <col min="5127" max="5127" width="54.375" customWidth="1"/>
+    <col min="5128" max="5128" width="9.5" customWidth="1"/>
+    <col min="5377" max="5377" width="16.75" customWidth="1"/>
+    <col min="5378" max="5378" width="5.5" customWidth="1"/>
+    <col min="5379" max="5379" width="8.125" customWidth="1"/>
+    <col min="5380" max="5380" width="9.25" customWidth="1"/>
+    <col min="5381" max="5381" width="10.5" customWidth="1"/>
+    <col min="5382" max="5382" width="9.75" customWidth="1"/>
+    <col min="5383" max="5383" width="54.375" customWidth="1"/>
+    <col min="5384" max="5384" width="9.5" customWidth="1"/>
+    <col min="5633" max="5633" width="16.75" customWidth="1"/>
+    <col min="5634" max="5634" width="5.5" customWidth="1"/>
+    <col min="5635" max="5635" width="8.125" customWidth="1"/>
+    <col min="5636" max="5636" width="9.25" customWidth="1"/>
+    <col min="5637" max="5637" width="10.5" customWidth="1"/>
+    <col min="5638" max="5638" width="9.75" customWidth="1"/>
+    <col min="5639" max="5639" width="54.375" customWidth="1"/>
+    <col min="5640" max="5640" width="9.5" customWidth="1"/>
+    <col min="5889" max="5889" width="16.75" customWidth="1"/>
+    <col min="5890" max="5890" width="5.5" customWidth="1"/>
+    <col min="5891" max="5891" width="8.125" customWidth="1"/>
+    <col min="5892" max="5892" width="9.25" customWidth="1"/>
+    <col min="5893" max="5893" width="10.5" customWidth="1"/>
+    <col min="5894" max="5894" width="9.75" customWidth="1"/>
+    <col min="5895" max="5895" width="54.375" customWidth="1"/>
+    <col min="5896" max="5896" width="9.5" customWidth="1"/>
+    <col min="6145" max="6145" width="16.75" customWidth="1"/>
+    <col min="6146" max="6146" width="5.5" customWidth="1"/>
+    <col min="6147" max="6147" width="8.125" customWidth="1"/>
+    <col min="6148" max="6148" width="9.25" customWidth="1"/>
+    <col min="6149" max="6149" width="10.5" customWidth="1"/>
+    <col min="6150" max="6150" width="9.75" customWidth="1"/>
+    <col min="6151" max="6151" width="54.375" customWidth="1"/>
+    <col min="6152" max="6152" width="9.5" customWidth="1"/>
+    <col min="6401" max="6401" width="16.75" customWidth="1"/>
+    <col min="6402" max="6402" width="5.5" customWidth="1"/>
+    <col min="6403" max="6403" width="8.125" customWidth="1"/>
+    <col min="6404" max="6404" width="9.25" customWidth="1"/>
+    <col min="6405" max="6405" width="10.5" customWidth="1"/>
+    <col min="6406" max="6406" width="9.75" customWidth="1"/>
+    <col min="6407" max="6407" width="54.375" customWidth="1"/>
+    <col min="6408" max="6408" width="9.5" customWidth="1"/>
+    <col min="6657" max="6657" width="16.75" customWidth="1"/>
+    <col min="6658" max="6658" width="5.5" customWidth="1"/>
+    <col min="6659" max="6659" width="8.125" customWidth="1"/>
+    <col min="6660" max="6660" width="9.25" customWidth="1"/>
+    <col min="6661" max="6661" width="10.5" customWidth="1"/>
+    <col min="6662" max="6662" width="9.75" customWidth="1"/>
+    <col min="6663" max="6663" width="54.375" customWidth="1"/>
+    <col min="6664" max="6664" width="9.5" customWidth="1"/>
+    <col min="6913" max="6913" width="16.75" customWidth="1"/>
+    <col min="6914" max="6914" width="5.5" customWidth="1"/>
+    <col min="6915" max="6915" width="8.125" customWidth="1"/>
+    <col min="6916" max="6916" width="9.25" customWidth="1"/>
+    <col min="6917" max="6917" width="10.5" customWidth="1"/>
+    <col min="6918" max="6918" width="9.75" customWidth="1"/>
+    <col min="6919" max="6919" width="54.375" customWidth="1"/>
+    <col min="6920" max="6920" width="9.5" customWidth="1"/>
+    <col min="7169" max="7169" width="16.75" customWidth="1"/>
+    <col min="7170" max="7170" width="5.5" customWidth="1"/>
+    <col min="7171" max="7171" width="8.125" customWidth="1"/>
+    <col min="7172" max="7172" width="9.25" customWidth="1"/>
+    <col min="7173" max="7173" width="10.5" customWidth="1"/>
+    <col min="7174" max="7174" width="9.75" customWidth="1"/>
+    <col min="7175" max="7175" width="54.375" customWidth="1"/>
+    <col min="7176" max="7176" width="9.5" customWidth="1"/>
+    <col min="7425" max="7425" width="16.75" customWidth="1"/>
+    <col min="7426" max="7426" width="5.5" customWidth="1"/>
+    <col min="7427" max="7427" width="8.125" customWidth="1"/>
+    <col min="7428" max="7428" width="9.25" customWidth="1"/>
+    <col min="7429" max="7429" width="10.5" customWidth="1"/>
+    <col min="7430" max="7430" width="9.75" customWidth="1"/>
+    <col min="7431" max="7431" width="54.375" customWidth="1"/>
+    <col min="7432" max="7432" width="9.5" customWidth="1"/>
+    <col min="7681" max="7681" width="16.75" customWidth="1"/>
+    <col min="7682" max="7682" width="5.5" customWidth="1"/>
+    <col min="7683" max="7683" width="8.125" customWidth="1"/>
+    <col min="7684" max="7684" width="9.25" customWidth="1"/>
+    <col min="7685" max="7685" width="10.5" customWidth="1"/>
+    <col min="7686" max="7686" width="9.75" customWidth="1"/>
+    <col min="7687" max="7687" width="54.375" customWidth="1"/>
+    <col min="7688" max="7688" width="9.5" customWidth="1"/>
+    <col min="7937" max="7937" width="16.75" customWidth="1"/>
+    <col min="7938" max="7938" width="5.5" customWidth="1"/>
+    <col min="7939" max="7939" width="8.125" customWidth="1"/>
+    <col min="7940" max="7940" width="9.25" customWidth="1"/>
+    <col min="7941" max="7941" width="10.5" customWidth="1"/>
+    <col min="7942" max="7942" width="9.75" customWidth="1"/>
+    <col min="7943" max="7943" width="54.375" customWidth="1"/>
+    <col min="7944" max="7944" width="9.5" customWidth="1"/>
+    <col min="8193" max="8193" width="16.75" customWidth="1"/>
+    <col min="8194" max="8194" width="5.5" customWidth="1"/>
+    <col min="8195" max="8195" width="8.125" customWidth="1"/>
+    <col min="8196" max="8196" width="9.25" customWidth="1"/>
+    <col min="8197" max="8197" width="10.5" customWidth="1"/>
+    <col min="8198" max="8198" width="9.75" customWidth="1"/>
+    <col min="8199" max="8199" width="54.375" customWidth="1"/>
+    <col min="8200" max="8200" width="9.5" customWidth="1"/>
+    <col min="8449" max="8449" width="16.75" customWidth="1"/>
+    <col min="8450" max="8450" width="5.5" customWidth="1"/>
+    <col min="8451" max="8451" width="8.125" customWidth="1"/>
+    <col min="8452" max="8452" width="9.25" customWidth="1"/>
+    <col min="8453" max="8453" width="10.5" customWidth="1"/>
+    <col min="8454" max="8454" width="9.75" customWidth="1"/>
+    <col min="8455" max="8455" width="54.375" customWidth="1"/>
+    <col min="8456" max="8456" width="9.5" customWidth="1"/>
+    <col min="8705" max="8705" width="16.75" customWidth="1"/>
+    <col min="8706" max="8706" width="5.5" customWidth="1"/>
+    <col min="8707" max="8707" width="8.125" customWidth="1"/>
+    <col min="8708" max="8708" width="9.25" customWidth="1"/>
+    <col min="8709" max="8709" width="10.5" customWidth="1"/>
+    <col min="8710" max="8710" width="9.75" customWidth="1"/>
+    <col min="8711" max="8711" width="54.375" customWidth="1"/>
+    <col min="8712" max="8712" width="9.5" customWidth="1"/>
+    <col min="8961" max="8961" width="16.75" customWidth="1"/>
+    <col min="8962" max="8962" width="5.5" customWidth="1"/>
+    <col min="8963" max="8963" width="8.125" customWidth="1"/>
+    <col min="8964" max="8964" width="9.25" customWidth="1"/>
+    <col min="8965" max="8965" width="10.5" customWidth="1"/>
+    <col min="8966" max="8966" width="9.75" customWidth="1"/>
+    <col min="8967" max="8967" width="54.375" customWidth="1"/>
+    <col min="8968" max="8968" width="9.5" customWidth="1"/>
+    <col min="9217" max="9217" width="16.75" customWidth="1"/>
+    <col min="9218" max="9218" width="5.5" customWidth="1"/>
+    <col min="9219" max="9219" width="8.125" customWidth="1"/>
+    <col min="9220" max="9220" width="9.25" customWidth="1"/>
+    <col min="9221" max="9221" width="10.5" customWidth="1"/>
+    <col min="9222" max="9222" width="9.75" customWidth="1"/>
+    <col min="9223" max="9223" width="54.375" customWidth="1"/>
+    <col min="9224" max="9224" width="9.5" customWidth="1"/>
+    <col min="9473" max="9473" width="16.75" customWidth="1"/>
+    <col min="9474" max="9474" width="5.5" customWidth="1"/>
+    <col min="9475" max="9475" width="8.125" customWidth="1"/>
+    <col min="9476" max="9476" width="9.25" customWidth="1"/>
+    <col min="9477" max="9477" width="10.5" customWidth="1"/>
+    <col min="9478" max="9478" width="9.75" customWidth="1"/>
+    <col min="9479" max="9479" width="54.375" customWidth="1"/>
+    <col min="9480" max="9480" width="9.5" customWidth="1"/>
+    <col min="9729" max="9729" width="16.75" customWidth="1"/>
+    <col min="9730" max="9730" width="5.5" customWidth="1"/>
+    <col min="9731" max="9731" width="8.125" customWidth="1"/>
+    <col min="9732" max="9732" width="9.25" customWidth="1"/>
+    <col min="9733" max="9733" width="10.5" customWidth="1"/>
+    <col min="9734" max="9734" width="9.75" customWidth="1"/>
+    <col min="9735" max="9735" width="54.375" customWidth="1"/>
+    <col min="9736" max="9736" width="9.5" customWidth="1"/>
+    <col min="9985" max="9985" width="16.75" customWidth="1"/>
+    <col min="9986" max="9986" width="5.5" customWidth="1"/>
+    <col min="9987" max="9987" width="8.125" customWidth="1"/>
+    <col min="9988" max="9988" width="9.25" customWidth="1"/>
+    <col min="9989" max="9989" width="10.5" customWidth="1"/>
+    <col min="9990" max="9990" width="9.75" customWidth="1"/>
+    <col min="9991" max="9991" width="54.375" customWidth="1"/>
+    <col min="9992" max="9992" width="9.5" customWidth="1"/>
+    <col min="10241" max="10241" width="16.75" customWidth="1"/>
+    <col min="10242" max="10242" width="5.5" customWidth="1"/>
+    <col min="10243" max="10243" width="8.125" customWidth="1"/>
+    <col min="10244" max="10244" width="9.25" customWidth="1"/>
+    <col min="10245" max="10245" width="10.5" customWidth="1"/>
+    <col min="10246" max="10246" width="9.75" customWidth="1"/>
+    <col min="10247" max="10247" width="54.375" customWidth="1"/>
+    <col min="10248" max="10248" width="9.5" customWidth="1"/>
+    <col min="10497" max="10497" width="16.75" customWidth="1"/>
+    <col min="10498" max="10498" width="5.5" customWidth="1"/>
+    <col min="10499" max="10499" width="8.125" customWidth="1"/>
+    <col min="10500" max="10500" width="9.25" customWidth="1"/>
+    <col min="10501" max="10501" width="10.5" customWidth="1"/>
+    <col min="10502" max="10502" width="9.75" customWidth="1"/>
+    <col min="10503" max="10503" width="54.375" customWidth="1"/>
+    <col min="10504" max="10504" width="9.5" customWidth="1"/>
+    <col min="10753" max="10753" width="16.75" customWidth="1"/>
+    <col min="10754" max="10754" width="5.5" customWidth="1"/>
+    <col min="10755" max="10755" width="8.125" customWidth="1"/>
+    <col min="10756" max="10756" width="9.25" customWidth="1"/>
+    <col min="10757" max="10757" width="10.5" customWidth="1"/>
+    <col min="10758" max="10758" width="9.75" customWidth="1"/>
+    <col min="10759" max="10759" width="54.375" customWidth="1"/>
+    <col min="10760" max="10760" width="9.5" customWidth="1"/>
+    <col min="11009" max="11009" width="16.75" customWidth="1"/>
+    <col min="11010" max="11010" width="5.5" customWidth="1"/>
+    <col min="11011" max="11011" width="8.125" customWidth="1"/>
+    <col min="11012" max="11012" width="9.25" customWidth="1"/>
+    <col min="11013" max="11013" width="10.5" customWidth="1"/>
+    <col min="11014" max="11014" width="9.75" customWidth="1"/>
+    <col min="11015" max="11015" width="54.375" customWidth="1"/>
+    <col min="11016" max="11016" width="9.5" customWidth="1"/>
+    <col min="11265" max="11265" width="16.75" customWidth="1"/>
+    <col min="11266" max="11266" width="5.5" customWidth="1"/>
+    <col min="11267" max="11267" width="8.125" customWidth="1"/>
+    <col min="11268" max="11268" width="9.25" customWidth="1"/>
+    <col min="11269" max="11269" width="10.5" customWidth="1"/>
+    <col min="11270" max="11270" width="9.75" customWidth="1"/>
+    <col min="11271" max="11271" width="54.375" customWidth="1"/>
+    <col min="11272" max="11272" width="9.5" customWidth="1"/>
+    <col min="11521" max="11521" width="16.75" customWidth="1"/>
+    <col min="11522" max="11522" width="5.5" customWidth="1"/>
+    <col min="11523" max="11523" width="8.125" customWidth="1"/>
+    <col min="11524" max="11524" width="9.25" customWidth="1"/>
+    <col min="11525" max="11525" width="10.5" customWidth="1"/>
+    <col min="11526" max="11526" width="9.75" customWidth="1"/>
+    <col min="11527" max="11527" width="54.375" customWidth="1"/>
+    <col min="11528" max="11528" width="9.5" customWidth="1"/>
+    <col min="11777" max="11777" width="16.75" customWidth="1"/>
+    <col min="11778" max="11778" width="5.5" customWidth="1"/>
+    <col min="11779" max="11779" width="8.125" customWidth="1"/>
+    <col min="11780" max="11780" width="9.25" customWidth="1"/>
+    <col min="11781" max="11781" width="10.5" customWidth="1"/>
+    <col min="11782" max="11782" width="9.75" customWidth="1"/>
+    <col min="11783" max="11783" width="54.375" customWidth="1"/>
+    <col min="11784" max="11784" width="9.5" customWidth="1"/>
+    <col min="12033" max="12033" width="16.75" customWidth="1"/>
+    <col min="12034" max="12034" width="5.5" customWidth="1"/>
+    <col min="12035" max="12035" width="8.125" customWidth="1"/>
+    <col min="12036" max="12036" width="9.25" customWidth="1"/>
+    <col min="12037" max="12037" width="10.5" customWidth="1"/>
+    <col min="12038" max="12038" width="9.75" customWidth="1"/>
+    <col min="12039" max="12039" width="54.375" customWidth="1"/>
+    <col min="12040" max="12040" width="9.5" customWidth="1"/>
+    <col min="12289" max="12289" width="16.75" customWidth="1"/>
+    <col min="12290" max="12290" width="5.5" customWidth="1"/>
+    <col min="12291" max="12291" width="8.125" customWidth="1"/>
+    <col min="12292" max="12292" width="9.25" customWidth="1"/>
+    <col min="12293" max="12293" width="10.5" customWidth="1"/>
+    <col min="12294" max="12294" width="9.75" customWidth="1"/>
+    <col min="12295" max="12295" width="54.375" customWidth="1"/>
+    <col min="12296" max="12296" width="9.5" customWidth="1"/>
+    <col min="12545" max="12545" width="16.75" customWidth="1"/>
+    <col min="12546" max="12546" width="5.5" customWidth="1"/>
+    <col min="12547" max="12547" width="8.125" customWidth="1"/>
+    <col min="12548" max="12548" width="9.25" customWidth="1"/>
+    <col min="12549" max="12549" width="10.5" customWidth="1"/>
+    <col min="12550" max="12550" width="9.75" customWidth="1"/>
+    <col min="12551" max="12551" width="54.375" customWidth="1"/>
+    <col min="12552" max="12552" width="9.5" customWidth="1"/>
+    <col min="12801" max="12801" width="16.75" customWidth="1"/>
+    <col min="12802" max="12802" width="5.5" customWidth="1"/>
+    <col min="12803" max="12803" width="8.125" customWidth="1"/>
+    <col min="12804" max="12804" width="9.25" customWidth="1"/>
+    <col min="12805" max="12805" width="10.5" customWidth="1"/>
+    <col min="12806" max="12806" width="9.75" customWidth="1"/>
+    <col min="12807" max="12807" width="54.375" customWidth="1"/>
+    <col min="12808" max="12808" width="9.5" customWidth="1"/>
+    <col min="13057" max="13057" width="16.75" customWidth="1"/>
+    <col min="13058" max="13058" width="5.5" customWidth="1"/>
+    <col min="13059" max="13059" width="8.125" customWidth="1"/>
+    <col min="13060" max="13060" width="9.25" customWidth="1"/>
+    <col min="13061" max="13061" width="10.5" customWidth="1"/>
+    <col min="13062" max="13062" width="9.75" customWidth="1"/>
+    <col min="13063" max="13063" width="54.375" customWidth="1"/>
+    <col min="13064" max="13064" width="9.5" customWidth="1"/>
+    <col min="13313" max="13313" width="16.75" customWidth="1"/>
+    <col min="13314" max="13314" width="5.5" customWidth="1"/>
+    <col min="13315" max="13315" width="8.125" customWidth="1"/>
+    <col min="13316" max="13316" width="9.25" customWidth="1"/>
+    <col min="13317" max="13317" width="10.5" customWidth="1"/>
+    <col min="13318" max="13318" width="9.75" customWidth="1"/>
+    <col min="13319" max="13319" width="54.375" customWidth="1"/>
+    <col min="13320" max="13320" width="9.5" customWidth="1"/>
+    <col min="13569" max="13569" width="16.75" customWidth="1"/>
+    <col min="13570" max="13570" width="5.5" customWidth="1"/>
+    <col min="13571" max="13571" width="8.125" customWidth="1"/>
+    <col min="13572" max="13572" width="9.25" customWidth="1"/>
+    <col min="13573" max="13573" width="10.5" customWidth="1"/>
+    <col min="13574" max="13574" width="9.75" customWidth="1"/>
+    <col min="13575" max="13575" width="54.375" customWidth="1"/>
+    <col min="13576" max="13576" width="9.5" customWidth="1"/>
+    <col min="13825" max="13825" width="16.75" customWidth="1"/>
+    <col min="13826" max="13826" width="5.5" customWidth="1"/>
+    <col min="13827" max="13827" width="8.125" customWidth="1"/>
+    <col min="13828" max="13828" width="9.25" customWidth="1"/>
+    <col min="13829" max="13829" width="10.5" customWidth="1"/>
+    <col min="13830" max="13830" width="9.75" customWidth="1"/>
+    <col min="13831" max="13831" width="54.375" customWidth="1"/>
+    <col min="13832" max="13832" width="9.5" customWidth="1"/>
+    <col min="14081" max="14081" width="16.75" customWidth="1"/>
+    <col min="14082" max="14082" width="5.5" customWidth="1"/>
+    <col min="14083" max="14083" width="8.125" customWidth="1"/>
+    <col min="14084" max="14084" width="9.25" customWidth="1"/>
+    <col min="14085" max="14085" width="10.5" customWidth="1"/>
+    <col min="14086" max="14086" width="9.75" customWidth="1"/>
+    <col min="14087" max="14087" width="54.375" customWidth="1"/>
+    <col min="14088" max="14088" width="9.5" customWidth="1"/>
+    <col min="14337" max="14337" width="16.75" customWidth="1"/>
+    <col min="14338" max="14338" width="5.5" customWidth="1"/>
+    <col min="14339" max="14339" width="8.125" customWidth="1"/>
+    <col min="14340" max="14340" width="9.25" customWidth="1"/>
+    <col min="14341" max="14341" width="10.5" customWidth="1"/>
+    <col min="14342" max="14342" width="9.75" customWidth="1"/>
+    <col min="14343" max="14343" width="54.375" customWidth="1"/>
+    <col min="14344" max="14344" width="9.5" customWidth="1"/>
+    <col min="14593" max="14593" width="16.75" customWidth="1"/>
+    <col min="14594" max="14594" width="5.5" customWidth="1"/>
+    <col min="14595" max="14595" width="8.125" customWidth="1"/>
+    <col min="14596" max="14596" width="9.25" customWidth="1"/>
+    <col min="14597" max="14597" width="10.5" customWidth="1"/>
+    <col min="14598" max="14598" width="9.75" customWidth="1"/>
+    <col min="14599" max="14599" width="54.375" customWidth="1"/>
+    <col min="14600" max="14600" width="9.5" customWidth="1"/>
+    <col min="14849" max="14849" width="16.75" customWidth="1"/>
+    <col min="14850" max="14850" width="5.5" customWidth="1"/>
+    <col min="14851" max="14851" width="8.125" customWidth="1"/>
+    <col min="14852" max="14852" width="9.25" customWidth="1"/>
+    <col min="14853" max="14853" width="10.5" customWidth="1"/>
+    <col min="14854" max="14854" width="9.75" customWidth="1"/>
+    <col min="14855" max="14855" width="54.375" customWidth="1"/>
+    <col min="14856" max="14856" width="9.5" customWidth="1"/>
+    <col min="15105" max="15105" width="16.75" customWidth="1"/>
+    <col min="15106" max="15106" width="5.5" customWidth="1"/>
+    <col min="15107" max="15107" width="8.125" customWidth="1"/>
+    <col min="15108" max="15108" width="9.25" customWidth="1"/>
+    <col min="15109" max="15109" width="10.5" customWidth="1"/>
+    <col min="15110" max="15110" width="9.75" customWidth="1"/>
+    <col min="15111" max="15111" width="54.375" customWidth="1"/>
+    <col min="15112" max="15112" width="9.5" customWidth="1"/>
+    <col min="15361" max="15361" width="16.75" customWidth="1"/>
+    <col min="15362" max="15362" width="5.5" customWidth="1"/>
+    <col min="15363" max="15363" width="8.125" customWidth="1"/>
+    <col min="15364" max="15364" width="9.25" customWidth="1"/>
+    <col min="15365" max="15365" width="10.5" customWidth="1"/>
+    <col min="15366" max="15366" width="9.75" customWidth="1"/>
+    <col min="15367" max="15367" width="54.375" customWidth="1"/>
+    <col min="15368" max="15368" width="9.5" customWidth="1"/>
+    <col min="15617" max="15617" width="16.75" customWidth="1"/>
+    <col min="15618" max="15618" width="5.5" customWidth="1"/>
+    <col min="15619" max="15619" width="8.125" customWidth="1"/>
+    <col min="15620" max="15620" width="9.25" customWidth="1"/>
+    <col min="15621" max="15621" width="10.5" customWidth="1"/>
+    <col min="15622" max="15622" width="9.75" customWidth="1"/>
+    <col min="15623" max="15623" width="54.375" customWidth="1"/>
+    <col min="15624" max="15624" width="9.5" customWidth="1"/>
+    <col min="15873" max="15873" width="16.75" customWidth="1"/>
+    <col min="15874" max="15874" width="5.5" customWidth="1"/>
+    <col min="15875" max="15875" width="8.125" customWidth="1"/>
+    <col min="15876" max="15876" width="9.25" customWidth="1"/>
+    <col min="15877" max="15877" width="10.5" customWidth="1"/>
+    <col min="15878" max="15878" width="9.75" customWidth="1"/>
+    <col min="15879" max="15879" width="54.375" customWidth="1"/>
+    <col min="15880" max="15880" width="9.5" customWidth="1"/>
+    <col min="16129" max="16129" width="16.75" customWidth="1"/>
+    <col min="16130" max="16130" width="5.5" customWidth="1"/>
+    <col min="16131" max="16131" width="8.125" customWidth="1"/>
+    <col min="16132" max="16132" width="9.25" customWidth="1"/>
+    <col min="16133" max="16133" width="10.5" customWidth="1"/>
+    <col min="16134" max="16134" width="9.75" customWidth="1"/>
+    <col min="16135" max="16135" width="54.375" customWidth="1"/>
+    <col min="16136" max="16136" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4321,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="25.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -4377,7 +4441,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="25.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -4689,7 +4753,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="25.2">
+    <row r="35" spans="1:10" ht="24.75">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -4779,7 +4843,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="25.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -6411,7 +6475,7 @@
       </c>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" ht="24">
+    <row r="95" spans="1:10">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -6739,7 +6803,7 @@
       </c>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" ht="24">
+    <row r="106" spans="1:10">
       <c r="A106" s="5" t="s">
         <v>10</v>
       </c>
@@ -6917,7 +6981,7 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" ht="24">
+    <row r="112" spans="1:10">
       <c r="A112" s="5" t="s">
         <v>10</v>
       </c>
@@ -7649,7 +7713,7 @@
       </c>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" ht="36">
+    <row r="137" spans="1:10" ht="24">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -8993,7 +9057,7 @@
       </c>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:10" ht="24">
+    <row r="183" spans="1:10">
       <c r="A183" s="5" t="s">
         <v>10</v>
       </c>
@@ -9899,7 +9963,7 @@
       </c>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10" ht="24">
+    <row r="215" spans="1:10">
       <c r="A215" s="5" t="s">
         <v>10</v>
       </c>
@@ -11275,7 +11339,7 @@
       </c>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="1:10" ht="24">
+    <row r="264" spans="1:10">
       <c r="A264" s="5" t="s">
         <v>10</v>
       </c>
@@ -11425,7 +11489,7 @@
       </c>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="1:10" ht="24">
+    <row r="269" spans="1:10">
       <c r="A269" s="5" t="s">
         <v>10</v>
       </c>
@@ -12097,7 +12161,7 @@
       </c>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="1:10" ht="24">
+    <row r="292" spans="1:10">
       <c r="A292" s="5" t="s">
         <v>10</v>
       </c>
@@ -12319,7 +12383,7 @@
       </c>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="1:10" ht="24">
+    <row r="300" spans="1:10">
       <c r="A300" s="5" t="s">
         <v>10</v>
       </c>
@@ -12751,7 +12815,7 @@
       <c r="I314" s="7"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10" ht="24">
+    <row r="315" spans="1:10">
       <c r="A315" s="5" t="s">
         <v>10</v>
       </c>
@@ -12841,7 +12905,7 @@
       </c>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10" ht="24">
+    <row r="318" spans="1:10">
       <c r="A318" s="5" t="s">
         <v>10</v>
       </c>
@@ -13915,7 +13979,7 @@
       </c>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="1:10" ht="24">
+    <row r="355" spans="1:10">
       <c r="A355" s="5" t="s">
         <v>10</v>
       </c>
@@ -14125,7 +14189,7 @@
       </c>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="1:10" ht="24">
+    <row r="362" spans="1:10">
       <c r="A362" s="5" t="s">
         <v>10</v>
       </c>
@@ -14155,7 +14219,7 @@
       </c>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="1:10" ht="48">
+    <row r="363" spans="1:10" ht="36">
       <c r="A363" s="5" t="s">
         <v>10</v>
       </c>
@@ -15087,7 +15151,7 @@
       </c>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="1:10" ht="24">
+    <row r="398" spans="1:10">
       <c r="A398" s="5" t="s">
         <v>10</v>
       </c>
@@ -15143,7 +15207,7 @@
       </c>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="1:10" ht="24">
+    <row r="400" spans="1:10">
       <c r="A400" s="5" t="s">
         <v>10</v>
       </c>
@@ -15171,7 +15235,7 @@
       </c>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="1:10" ht="24">
+    <row r="401" spans="1:10">
       <c r="A401" s="5" t="s">
         <v>10</v>
       </c>
@@ -15475,7 +15539,7 @@
       </c>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="1:10" ht="24">
+    <row r="413" spans="1:10">
       <c r="A413" s="5" t="s">
         <v>10</v>
       </c>
@@ -15947,7 +16011,7 @@
       </c>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="1:10" ht="24">
+    <row r="431" spans="1:10">
       <c r="A431" s="5" t="s">
         <v>10</v>
       </c>
@@ -16059,7 +16123,7 @@
       </c>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="1:10" ht="24">
+    <row r="435" spans="1:10">
       <c r="A435" s="5" t="s">
         <v>10</v>
       </c>
@@ -16239,7 +16303,7 @@
       </c>
       <c r="J441" s="8"/>
     </row>
-    <row r="442" spans="1:10" ht="24">
+    <row r="442" spans="1:10">
       <c r="A442" s="5" t="s">
         <v>10</v>
       </c>
@@ -16267,7 +16331,7 @@
       </c>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="1:10" ht="24">
+    <row r="443" spans="1:10">
       <c r="A443" s="5" t="s">
         <v>10</v>
       </c>
@@ -16379,7 +16443,7 @@
       </c>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="1:10" ht="24">
+    <row r="447" spans="1:10">
       <c r="A447" s="5" t="s">
         <v>10</v>
       </c>
@@ -16587,7 +16651,7 @@
       </c>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="1:10" ht="24">
+    <row r="455" spans="1:10">
       <c r="A455" s="5" t="s">
         <v>10</v>
       </c>
@@ -17643,7 +17707,7 @@
       </c>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="1:10" ht="24">
+    <row r="495" spans="1:10">
       <c r="A495" s="5" t="s">
         <v>10</v>
       </c>
@@ -17671,7 +17735,7 @@
       </c>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="1:10" ht="24">
+    <row r="496" spans="1:10">
       <c r="A496" s="5" t="s">
         <v>10</v>
       </c>
@@ -17867,7 +17931,7 @@
       </c>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="1:10" ht="24">
+    <row r="503" spans="1:10">
       <c r="A503" s="5" t="s">
         <v>10</v>
       </c>
@@ -17895,7 +17959,7 @@
       </c>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="1:10" ht="24">
+    <row r="504" spans="1:10">
       <c r="A504" s="5" t="s">
         <v>10</v>
       </c>
@@ -17923,7 +17987,7 @@
       </c>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="1:10" ht="24">
+    <row r="505" spans="1:10">
       <c r="A505" s="5" t="s">
         <v>10</v>
       </c>
@@ -17951,7 +18015,7 @@
       </c>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="1:10" ht="24">
+    <row r="506" spans="1:10">
       <c r="A506" s="5" t="s">
         <v>10</v>
       </c>
@@ -17979,7 +18043,7 @@
       </c>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="1:10" ht="36">
+    <row r="507" spans="1:10" ht="24">
       <c r="A507" s="5" t="s">
         <v>10</v>
       </c>
@@ -18035,7 +18099,7 @@
       </c>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="1:10" ht="24">
+    <row r="509" spans="1:10">
       <c r="A509" s="5" t="s">
         <v>10</v>
       </c>
@@ -18535,7 +18599,7 @@
       </c>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="1:10" ht="24">
+    <row r="528" spans="1:10">
       <c r="A528" s="5" t="s">
         <v>10</v>
       </c>
@@ -19577,7 +19641,7 @@
       <c r="I567" s="7"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568" spans="1:10" ht="24">
+    <row r="568" spans="1:10">
       <c r="A568" s="5" t="s">
         <v>10</v>
       </c>
@@ -20077,7 +20141,7 @@
       <c r="I586" s="7"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587" spans="1:10" ht="24">
+    <row r="587" spans="1:10">
       <c r="A587" s="5" t="s">
         <v>10</v>
       </c>
@@ -21403,7 +21467,7 @@
       </c>
       <c r="J636" s="8"/>
     </row>
-    <row r="637" spans="1:10" ht="24">
+    <row r="637" spans="1:10">
       <c r="A637" s="5" t="s">
         <v>10</v>
       </c>
@@ -22011,7 +22075,7 @@
       </c>
       <c r="J660" s="8"/>
     </row>
-    <row r="661" spans="1:10" ht="24">
+    <row r="661" spans="1:10">
       <c r="A661" s="5" t="s">
         <v>10</v>
       </c>
@@ -23497,7 +23561,7 @@
       </c>
       <c r="J716" s="8"/>
     </row>
-    <row r="717" spans="1:10" ht="36">
+    <row r="717" spans="1:10" ht="24">
       <c r="A717" s="5" t="s">
         <v>10</v>
       </c>
@@ -23525,7 +23589,7 @@
       </c>
       <c r="J717" s="8"/>
     </row>
-    <row r="718" spans="1:10" ht="24">
+    <row r="718" spans="1:10">
       <c r="A718" s="5" t="s">
         <v>10</v>
       </c>
@@ -23913,7 +23977,7 @@
       </c>
       <c r="J732" s="8"/>
     </row>
-    <row r="733" spans="1:10" ht="36">
+    <row r="733" spans="1:10" ht="24">
       <c r="A733" s="5" t="s">
         <v>10</v>
       </c>
@@ -24127,7 +24191,7 @@
       <c r="I741" s="7"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742" spans="1:10" ht="24">
+    <row r="742" spans="1:10">
       <c r="A742" s="5" t="s">
         <v>10</v>
       </c>
@@ -24939,7 +25003,7 @@
       </c>
       <c r="J774" s="8"/>
     </row>
-    <row r="775" spans="1:10" ht="24">
+    <row r="775" spans="1:10">
       <c r="A775" s="5" t="s">
         <v>10</v>
       </c>
@@ -24967,7 +25031,7 @@
       </c>
       <c r="J775" s="8"/>
     </row>
-    <row r="776" spans="1:10" ht="24">
+    <row r="776" spans="1:10">
       <c r="A776" s="5" t="s">
         <v>10</v>
       </c>
@@ -24995,7 +25059,7 @@
       </c>
       <c r="J776" s="8"/>
     </row>
-    <row r="777" spans="1:10" ht="24">
+    <row r="777" spans="1:10">
       <c r="A777" s="5" t="s">
         <v>10</v>
       </c>
@@ -25023,7 +25087,7 @@
       </c>
       <c r="J777" s="8"/>
     </row>
-    <row r="778" spans="1:10" ht="24">
+    <row r="778" spans="1:10">
       <c r="A778" s="5" t="s">
         <v>10</v>
       </c>
@@ -25051,7 +25115,7 @@
       </c>
       <c r="J778" s="8"/>
     </row>
-    <row r="779" spans="1:10" ht="24">
+    <row r="779" spans="1:10">
       <c r="A779" s="5" t="s">
         <v>10</v>
       </c>
@@ -25079,7 +25143,7 @@
       </c>
       <c r="J779" s="8"/>
     </row>
-    <row r="780" spans="1:10" ht="24">
+    <row r="780" spans="1:10">
       <c r="A780" s="5" t="s">
         <v>10</v>
       </c>
@@ -25107,7 +25171,7 @@
       </c>
       <c r="J780" s="8"/>
     </row>
-    <row r="781" spans="1:10" ht="24">
+    <row r="781" spans="1:10">
       <c r="A781" s="5" t="s">
         <v>10</v>
       </c>
@@ -25191,7 +25255,7 @@
       </c>
       <c r="J783" s="8"/>
     </row>
-    <row r="784" spans="1:10" ht="24">
+    <row r="784" spans="1:10">
       <c r="A784" s="5" t="s">
         <v>10</v>
       </c>
@@ -26704,11 +26768,15 @@
       <c r="F842" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G842" s="14"/>
+      <c r="G842" s="14" t="s">
+        <v>676</v>
+      </c>
       <c r="H842" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I842" s="7"/>
+      <c r="I842" s="7">
+        <v>3</v>
+      </c>
       <c r="J842" s="8"/>
     </row>
     <row r="843" spans="1:10">
@@ -26728,11 +26796,15 @@
       <c r="F843" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G843" s="14"/>
+      <c r="G843" s="14" t="s">
+        <v>675</v>
+      </c>
       <c r="H843" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I843" s="7"/>
+      <c r="I843" s="7">
+        <v>3</v>
+      </c>
       <c r="J843" s="8"/>
     </row>
     <row r="844" spans="1:10">
@@ -26752,11 +26824,15 @@
       <c r="F844" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G844" s="14"/>
+      <c r="G844" s="14" t="s">
+        <v>677</v>
+      </c>
       <c r="H844" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I844" s="7"/>
+      <c r="I844" s="7">
+        <v>3</v>
+      </c>
       <c r="J844" s="8"/>
     </row>
     <row r="845" spans="1:10">
@@ -26776,11 +26852,15 @@
       <c r="F845" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G845" s="14"/>
+      <c r="G845" s="14" t="s">
+        <v>678</v>
+      </c>
       <c r="H845" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I845" s="7"/>
+      <c r="I845" s="7">
+        <v>3</v>
+      </c>
       <c r="J845" s="8"/>
     </row>
     <row r="846" spans="1:10">
@@ -26800,11 +26880,15 @@
       <c r="F846" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G846" s="14"/>
+      <c r="G846" s="14" t="s">
+        <v>678</v>
+      </c>
       <c r="H846" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I846" s="7"/>
+      <c r="I846" s="7">
+        <v>3</v>
+      </c>
       <c r="J846" s="8"/>
     </row>
     <row r="847" spans="1:10">
@@ -26824,11 +26908,15 @@
       <c r="F847" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G847" s="14"/>
+      <c r="G847" s="14" t="s">
+        <v>679</v>
+      </c>
       <c r="H847" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I847" s="7"/>
+      <c r="I847" s="7">
+        <v>2</v>
+      </c>
       <c r="J847" s="8"/>
     </row>
     <row r="848" spans="1:10">
@@ -26840,19 +26928,23 @@
         <v>12</v>
       </c>
       <c r="D848" s="12">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="E848" s="12">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="F848" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G848" s="14"/>
+      <c r="G848" s="14" t="s">
+        <v>680</v>
+      </c>
       <c r="H848" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I848" s="7"/>
+      <c r="I848" s="7">
+        <v>2</v>
+      </c>
       <c r="J848" s="8"/>
     </row>
     <row r="849" spans="1:10">
@@ -26872,11 +26964,15 @@
       <c r="F849" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G849" s="14"/>
+      <c r="G849" s="14" t="s">
+        <v>678</v>
+      </c>
       <c r="H849" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I849" s="7"/>
+      <c r="I849" s="7">
+        <v>3</v>
+      </c>
       <c r="J849" s="8"/>
     </row>
     <row r="850" spans="1:10">
@@ -26896,11 +26992,15 @@
       <c r="F850" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G850" s="14"/>
+      <c r="G850" s="14" t="s">
+        <v>681</v>
+      </c>
       <c r="H850" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I850" s="7"/>
+      <c r="I850" s="7">
+        <v>3</v>
+      </c>
       <c r="J850" s="8"/>
     </row>
     <row r="851" spans="1:10">
@@ -26912,19 +27012,23 @@
         <v>12</v>
       </c>
       <c r="D851" s="12">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="E851" s="12">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="F851" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G851" s="14"/>
+      <c r="G851" s="14" t="s">
+        <v>681</v>
+      </c>
       <c r="H851" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I851" s="7"/>
+      <c r="I851" s="7">
+        <v>3</v>
+      </c>
       <c r="J851" s="8"/>
     </row>
     <row r="852" spans="1:10">
@@ -26944,11 +27048,15 @@
       <c r="F852" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G852" s="14"/>
+      <c r="G852" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="H852" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I852" s="7"/>
+      <c r="I852" s="7">
+        <v>3</v>
+      </c>
       <c r="J852" s="8"/>
     </row>
     <row r="853" spans="1:10">
@@ -26968,14 +27076,18 @@
       <c r="F853" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G853" s="14"/>
+      <c r="G853" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="H853" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I853" s="7"/>
+      <c r="I853" s="7">
+        <v>3</v>
+      </c>
       <c r="J853" s="8"/>
     </row>
-    <row r="854" spans="1:10">
+    <row r="854" spans="1:10" ht="24">
       <c r="A854" s="5" t="s">
         <v>10</v>
       </c>
@@ -26984,19 +27096,23 @@
         <v>12</v>
       </c>
       <c r="D854" s="12">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="E854" s="12">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="F854" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G854" s="14"/>
+      <c r="G854" s="14" t="s">
+        <v>684</v>
+      </c>
       <c r="H854" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I854" s="7"/>
+      <c r="I854" s="7">
+        <v>3</v>
+      </c>
       <c r="J854" s="8"/>
     </row>
     <row r="855" spans="1:10">
@@ -27016,11 +27132,15 @@
       <c r="F855" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G855" s="14"/>
+      <c r="G855" s="14" t="s">
+        <v>685</v>
+      </c>
       <c r="H855" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I855" s="7"/>
+      <c r="I855" s="7">
+        <v>3</v>
+      </c>
       <c r="J855" s="8"/>
     </row>
     <row r="856" spans="1:10">
@@ -27040,14 +27160,18 @@
       <c r="F856" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G856" s="14"/>
+      <c r="G856" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="H856" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I856" s="7"/>
+      <c r="I856" s="7">
+        <v>3</v>
+      </c>
       <c r="J856" s="8"/>
     </row>
-    <row r="857" spans="1:10">
+    <row r="857" spans="1:10" ht="24">
       <c r="A857" s="5" t="s">
         <v>10</v>
       </c>
@@ -27055,55 +27179,47 @@
       <c r="C857" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D857" s="12"/>
-      <c r="E857" s="12"/>
+      <c r="D857" s="12">
+        <v>43658</v>
+      </c>
+      <c r="E857" s="12">
+        <v>43658</v>
+      </c>
       <c r="F857" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G857" s="14"/>
+      <c r="G857" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="H857" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I857" s="7"/>
+      <c r="I857" s="7">
+        <v>3</v>
+      </c>
       <c r="J857" s="8"/>
     </row>
     <row r="858" spans="1:10">
-      <c r="A858" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A858" s="5"/>
       <c r="B858" s="4"/>
-      <c r="C858" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C858" s="6"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
-      <c r="F858" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F858" s="11"/>
       <c r="G858" s="14"/>
-      <c r="H858" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H858" s="6"/>
       <c r="I858" s="7"/>
       <c r="J858" s="8"/>
     </row>
     <row r="859" spans="1:10">
-      <c r="A859" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A859" s="5"/>
       <c r="B859" s="4"/>
-      <c r="C859" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C859" s="6"/>
       <c r="D859" s="12"/>
       <c r="E859" s="12"/>
-      <c r="F859" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F859" s="11"/>
       <c r="G859" s="14"/>
-      <c r="H859" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H859" s="6"/>
       <c r="I859" s="7"/>
       <c r="J859" s="8"/>
     </row>
@@ -27115,12 +27231,18 @@
       <c r="C860" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D860" s="12"/>
-      <c r="E860" s="12"/>
+      <c r="D860" s="12">
+        <v>43661</v>
+      </c>
+      <c r="E860" s="12">
+        <v>43661</v>
+      </c>
       <c r="F860" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G860" s="14"/>
+      <c r="G860" s="14" t="s">
+        <v>687</v>
+      </c>
       <c r="H860" s="6" t="s">
         <v>11</v>
       </c>
@@ -27135,12 +27257,18 @@
       <c r="C861" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D861" s="12"/>
-      <c r="E861" s="12"/>
+      <c r="D861" s="12">
+        <v>43661</v>
+      </c>
+      <c r="E861" s="12">
+        <v>43661</v>
+      </c>
       <c r="F861" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G861" s="14"/>
+      <c r="G861" s="14" t="s">
+        <v>688</v>
+      </c>
       <c r="H861" s="6" t="s">
         <v>11</v>
       </c>
@@ -27155,12 +27283,18 @@
       <c r="C862" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D862" s="12"/>
-      <c r="E862" s="12"/>
+      <c r="D862" s="12">
+        <v>43661</v>
+      </c>
+      <c r="E862" s="12">
+        <v>43661</v>
+      </c>
       <c r="F862" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G862" s="14"/>
+      <c r="G862" s="14" t="s">
+        <v>689</v>
+      </c>
       <c r="H862" s="6" t="s">
         <v>11</v>
       </c>
@@ -27175,12 +27309,18 @@
       <c r="C863" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D863" s="12"/>
-      <c r="E863" s="12"/>
+      <c r="D863" s="12">
+        <v>43662</v>
+      </c>
+      <c r="E863" s="12">
+        <v>43662</v>
+      </c>
       <c r="F863" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G863" s="14"/>
+      <c r="G863" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="H863" s="6" t="s">
         <v>11</v>
       </c>
@@ -27195,8 +27335,12 @@
       <c r="C864" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D864" s="12"/>
-      <c r="E864" s="12"/>
+      <c r="D864" s="12">
+        <v>43662</v>
+      </c>
+      <c r="E864" s="12">
+        <v>43662</v>
+      </c>
       <c r="F864" s="11" t="s">
         <v>240</v>
       </c>
@@ -27215,8 +27359,12 @@
       <c r="C865" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D865" s="12"/>
-      <c r="E865" s="12"/>
+      <c r="D865" s="12">
+        <v>43662</v>
+      </c>
+      <c r="E865" s="12">
+        <v>43662</v>
+      </c>
       <c r="F865" s="11" t="s">
         <v>240</v>
       </c>
@@ -27326,6 +27474,26 @@
       </c>
       <c r="I870" s="7"/>
       <c r="J870" s="8"/>
+    </row>
+    <row r="871" spans="1:10">
+      <c r="A871" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B871" s="4"/>
+      <c r="C871" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D871" s="12"/>
+      <c r="E871" s="12"/>
+      <c r="F871" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G871" s="14"/>
+      <c r="H871" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I871" s="7"/>
+      <c r="J871" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27333,13 +27501,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131180:C131196 IY65644:IY65660 SU65644:SU65660 ACQ65644:ACQ65660 AMM65644:AMM65660 AWI65644:AWI65660 BGE65644:BGE65660 BQA65644:BQA65660 BZW65644:BZW65660 CJS65644:CJS65660 CTO65644:CTO65660 DDK65644:DDK65660 DNG65644:DNG65660 DXC65644:DXC65660 EGY65644:EGY65660 EQU65644:EQU65660 FAQ65644:FAQ65660 FKM65644:FKM65660 FUI65644:FUI65660 GEE65644:GEE65660 GOA65644:GOA65660 GXW65644:GXW65660 HHS65644:HHS65660 HRO65644:HRO65660 IBK65644:IBK65660 ILG65644:ILG65660 IVC65644:IVC65660 JEY65644:JEY65660 JOU65644:JOU65660 JYQ65644:JYQ65660 KIM65644:KIM65660 KSI65644:KSI65660 LCE65644:LCE65660 LMA65644:LMA65660 LVW65644:LVW65660 MFS65644:MFS65660 MPO65644:MPO65660 MZK65644:MZK65660 NJG65644:NJG65660 NTC65644:NTC65660 OCY65644:OCY65660 OMU65644:OMU65660 OWQ65644:OWQ65660 PGM65644:PGM65660 PQI65644:PQI65660 QAE65644:QAE65660 QKA65644:QKA65660 QTW65644:QTW65660 RDS65644:RDS65660 RNO65644:RNO65660 RXK65644:RXK65660 SHG65644:SHG65660 SRC65644:SRC65660 TAY65644:TAY65660 TKU65644:TKU65660 TUQ65644:TUQ65660 UEM65644:UEM65660 UOI65644:UOI65660 UYE65644:UYE65660 VIA65644:VIA65660 VRW65644:VRW65660 WBS65644:WBS65660 WLO65644:WLO65660 WVK65644:WVK65660 C196716:C196732 IY131180:IY131196 SU131180:SU131196 ACQ131180:ACQ131196 AMM131180:AMM131196 AWI131180:AWI131196 BGE131180:BGE131196 BQA131180:BQA131196 BZW131180:BZW131196 CJS131180:CJS131196 CTO131180:CTO131196 DDK131180:DDK131196 DNG131180:DNG131196 DXC131180:DXC131196 EGY131180:EGY131196 EQU131180:EQU131196 FAQ131180:FAQ131196 FKM131180:FKM131196 FUI131180:FUI131196 GEE131180:GEE131196 GOA131180:GOA131196 GXW131180:GXW131196 HHS131180:HHS131196 HRO131180:HRO131196 IBK131180:IBK131196 ILG131180:ILG131196 IVC131180:IVC131196 JEY131180:JEY131196 JOU131180:JOU131196 JYQ131180:JYQ131196 KIM131180:KIM131196 KSI131180:KSI131196 LCE131180:LCE131196 LMA131180:LMA131196 LVW131180:LVW131196 MFS131180:MFS131196 MPO131180:MPO131196 MZK131180:MZK131196 NJG131180:NJG131196 NTC131180:NTC131196 OCY131180:OCY131196 OMU131180:OMU131196 OWQ131180:OWQ131196 PGM131180:PGM131196 PQI131180:PQI131196 QAE131180:QAE131196 QKA131180:QKA131196 QTW131180:QTW131196 RDS131180:RDS131196 RNO131180:RNO131196 RXK131180:RXK131196 SHG131180:SHG131196 SRC131180:SRC131196 TAY131180:TAY131196 TKU131180:TKU131196 TUQ131180:TUQ131196 UEM131180:UEM131196 UOI131180:UOI131196 UYE131180:UYE131196 VIA131180:VIA131196 VRW131180:VRW131196 WBS131180:WBS131196 WLO131180:WLO131196 WVK131180:WVK131196 C262252:C262268 IY196716:IY196732 SU196716:SU196732 ACQ196716:ACQ196732 AMM196716:AMM196732 AWI196716:AWI196732 BGE196716:BGE196732 BQA196716:BQA196732 BZW196716:BZW196732 CJS196716:CJS196732 CTO196716:CTO196732 DDK196716:DDK196732 DNG196716:DNG196732 DXC196716:DXC196732 EGY196716:EGY196732 EQU196716:EQU196732 FAQ196716:FAQ196732 FKM196716:FKM196732 FUI196716:FUI196732 GEE196716:GEE196732 GOA196716:GOA196732 GXW196716:GXW196732 HHS196716:HHS196732 HRO196716:HRO196732 IBK196716:IBK196732 ILG196716:ILG196732 IVC196716:IVC196732 JEY196716:JEY196732 JOU196716:JOU196732 JYQ196716:JYQ196732 KIM196716:KIM196732 KSI196716:KSI196732 LCE196716:LCE196732 LMA196716:LMA196732 LVW196716:LVW196732 MFS196716:MFS196732 MPO196716:MPO196732 MZK196716:MZK196732 NJG196716:NJG196732 NTC196716:NTC196732 OCY196716:OCY196732 OMU196716:OMU196732 OWQ196716:OWQ196732 PGM196716:PGM196732 PQI196716:PQI196732 QAE196716:QAE196732 QKA196716:QKA196732 QTW196716:QTW196732 RDS196716:RDS196732 RNO196716:RNO196732 RXK196716:RXK196732 SHG196716:SHG196732 SRC196716:SRC196732 TAY196716:TAY196732 TKU196716:TKU196732 TUQ196716:TUQ196732 UEM196716:UEM196732 UOI196716:UOI196732 UYE196716:UYE196732 VIA196716:VIA196732 VRW196716:VRW196732 WBS196716:WBS196732 WLO196716:WLO196732 WVK196716:WVK196732 C327788:C327804 IY262252:IY262268 SU262252:SU262268 ACQ262252:ACQ262268 AMM262252:AMM262268 AWI262252:AWI262268 BGE262252:BGE262268 BQA262252:BQA262268 BZW262252:BZW262268 CJS262252:CJS262268 CTO262252:CTO262268 DDK262252:DDK262268 DNG262252:DNG262268 DXC262252:DXC262268 EGY262252:EGY262268 EQU262252:EQU262268 FAQ262252:FAQ262268 FKM262252:FKM262268 FUI262252:FUI262268 GEE262252:GEE262268 GOA262252:GOA262268 GXW262252:GXW262268 HHS262252:HHS262268 HRO262252:HRO262268 IBK262252:IBK262268 ILG262252:ILG262268 IVC262252:IVC262268 JEY262252:JEY262268 JOU262252:JOU262268 JYQ262252:JYQ262268 KIM262252:KIM262268 KSI262252:KSI262268 LCE262252:LCE262268 LMA262252:LMA262268 LVW262252:LVW262268 MFS262252:MFS262268 MPO262252:MPO262268 MZK262252:MZK262268 NJG262252:NJG262268 NTC262252:NTC262268 OCY262252:OCY262268 OMU262252:OMU262268 OWQ262252:OWQ262268 PGM262252:PGM262268 PQI262252:PQI262268 QAE262252:QAE262268 QKA262252:QKA262268 QTW262252:QTW262268 RDS262252:RDS262268 RNO262252:RNO262268 RXK262252:RXK262268 SHG262252:SHG262268 SRC262252:SRC262268 TAY262252:TAY262268 TKU262252:TKU262268 TUQ262252:TUQ262268 UEM262252:UEM262268 UOI262252:UOI262268 UYE262252:UYE262268 VIA262252:VIA262268 VRW262252:VRW262268 WBS262252:WBS262268 WLO262252:WLO262268 WVK262252:WVK262268 C393324:C393340 IY327788:IY327804 SU327788:SU327804 ACQ327788:ACQ327804 AMM327788:AMM327804 AWI327788:AWI327804 BGE327788:BGE327804 BQA327788:BQA327804 BZW327788:BZW327804 CJS327788:CJS327804 CTO327788:CTO327804 DDK327788:DDK327804 DNG327788:DNG327804 DXC327788:DXC327804 EGY327788:EGY327804 EQU327788:EQU327804 FAQ327788:FAQ327804 FKM327788:FKM327804 FUI327788:FUI327804 GEE327788:GEE327804 GOA327788:GOA327804 GXW327788:GXW327804 HHS327788:HHS327804 HRO327788:HRO327804 IBK327788:IBK327804 ILG327788:ILG327804 IVC327788:IVC327804 JEY327788:JEY327804 JOU327788:JOU327804 JYQ327788:JYQ327804 KIM327788:KIM327804 KSI327788:KSI327804 LCE327788:LCE327804 LMA327788:LMA327804 LVW327788:LVW327804 MFS327788:MFS327804 MPO327788:MPO327804 MZK327788:MZK327804 NJG327788:NJG327804 NTC327788:NTC327804 OCY327788:OCY327804 OMU327788:OMU327804 OWQ327788:OWQ327804 PGM327788:PGM327804 PQI327788:PQI327804 QAE327788:QAE327804 QKA327788:QKA327804 QTW327788:QTW327804 RDS327788:RDS327804 RNO327788:RNO327804 RXK327788:RXK327804 SHG327788:SHG327804 SRC327788:SRC327804 TAY327788:TAY327804 TKU327788:TKU327804 TUQ327788:TUQ327804 UEM327788:UEM327804 UOI327788:UOI327804 UYE327788:UYE327804 VIA327788:VIA327804 VRW327788:VRW327804 WBS327788:WBS327804 WLO327788:WLO327804 WVK327788:WVK327804 C458860:C458876 IY393324:IY393340 SU393324:SU393340 ACQ393324:ACQ393340 AMM393324:AMM393340 AWI393324:AWI393340 BGE393324:BGE393340 BQA393324:BQA393340 BZW393324:BZW393340 CJS393324:CJS393340 CTO393324:CTO393340 DDK393324:DDK393340 DNG393324:DNG393340 DXC393324:DXC393340 EGY393324:EGY393340 EQU393324:EQU393340 FAQ393324:FAQ393340 FKM393324:FKM393340 FUI393324:FUI393340 GEE393324:GEE393340 GOA393324:GOA393340 GXW393324:GXW393340 HHS393324:HHS393340 HRO393324:HRO393340 IBK393324:IBK393340 ILG393324:ILG393340 IVC393324:IVC393340 JEY393324:JEY393340 JOU393324:JOU393340 JYQ393324:JYQ393340 KIM393324:KIM393340 KSI393324:KSI393340 LCE393324:LCE393340 LMA393324:LMA393340 LVW393324:LVW393340 MFS393324:MFS393340 MPO393324:MPO393340 MZK393324:MZK393340 NJG393324:NJG393340 NTC393324:NTC393340 OCY393324:OCY393340 OMU393324:OMU393340 OWQ393324:OWQ393340 PGM393324:PGM393340 PQI393324:PQI393340 QAE393324:QAE393340 QKA393324:QKA393340 QTW393324:QTW393340 RDS393324:RDS393340 RNO393324:RNO393340 RXK393324:RXK393340 SHG393324:SHG393340 SRC393324:SRC393340 TAY393324:TAY393340 TKU393324:TKU393340 TUQ393324:TUQ393340 UEM393324:UEM393340 UOI393324:UOI393340 UYE393324:UYE393340 VIA393324:VIA393340 VRW393324:VRW393340 WBS393324:WBS393340 WLO393324:WLO393340 WVK393324:WVK393340 C524396:C524412 IY458860:IY458876 SU458860:SU458876 ACQ458860:ACQ458876 AMM458860:AMM458876 AWI458860:AWI458876 BGE458860:BGE458876 BQA458860:BQA458876 BZW458860:BZW458876 CJS458860:CJS458876 CTO458860:CTO458876 DDK458860:DDK458876 DNG458860:DNG458876 DXC458860:DXC458876 EGY458860:EGY458876 EQU458860:EQU458876 FAQ458860:FAQ458876 FKM458860:FKM458876 FUI458860:FUI458876 GEE458860:GEE458876 GOA458860:GOA458876 GXW458860:GXW458876 HHS458860:HHS458876 HRO458860:HRO458876 IBK458860:IBK458876 ILG458860:ILG458876 IVC458860:IVC458876 JEY458860:JEY458876 JOU458860:JOU458876 JYQ458860:JYQ458876 KIM458860:KIM458876 KSI458860:KSI458876 LCE458860:LCE458876 LMA458860:LMA458876 LVW458860:LVW458876 MFS458860:MFS458876 MPO458860:MPO458876 MZK458860:MZK458876 NJG458860:NJG458876 NTC458860:NTC458876 OCY458860:OCY458876 OMU458860:OMU458876 OWQ458860:OWQ458876 PGM458860:PGM458876 PQI458860:PQI458876 QAE458860:QAE458876 QKA458860:QKA458876 QTW458860:QTW458876 RDS458860:RDS458876 RNO458860:RNO458876 RXK458860:RXK458876 SHG458860:SHG458876 SRC458860:SRC458876 TAY458860:TAY458876 TKU458860:TKU458876 TUQ458860:TUQ458876 UEM458860:UEM458876 UOI458860:UOI458876 UYE458860:UYE458876 VIA458860:VIA458876 VRW458860:VRW458876 WBS458860:WBS458876 WLO458860:WLO458876 WVK458860:WVK458876 C589932:C589948 IY524396:IY524412 SU524396:SU524412 ACQ524396:ACQ524412 AMM524396:AMM524412 AWI524396:AWI524412 BGE524396:BGE524412 BQA524396:BQA524412 BZW524396:BZW524412 CJS524396:CJS524412 CTO524396:CTO524412 DDK524396:DDK524412 DNG524396:DNG524412 DXC524396:DXC524412 EGY524396:EGY524412 EQU524396:EQU524412 FAQ524396:FAQ524412 FKM524396:FKM524412 FUI524396:FUI524412 GEE524396:GEE524412 GOA524396:GOA524412 GXW524396:GXW524412 HHS524396:HHS524412 HRO524396:HRO524412 IBK524396:IBK524412 ILG524396:ILG524412 IVC524396:IVC524412 JEY524396:JEY524412 JOU524396:JOU524412 JYQ524396:JYQ524412 KIM524396:KIM524412 KSI524396:KSI524412 LCE524396:LCE524412 LMA524396:LMA524412 LVW524396:LVW524412 MFS524396:MFS524412 MPO524396:MPO524412 MZK524396:MZK524412 NJG524396:NJG524412 NTC524396:NTC524412 OCY524396:OCY524412 OMU524396:OMU524412 OWQ524396:OWQ524412 PGM524396:PGM524412 PQI524396:PQI524412 QAE524396:QAE524412 QKA524396:QKA524412 QTW524396:QTW524412 RDS524396:RDS524412 RNO524396:RNO524412 RXK524396:RXK524412 SHG524396:SHG524412 SRC524396:SRC524412 TAY524396:TAY524412 TKU524396:TKU524412 TUQ524396:TUQ524412 UEM524396:UEM524412 UOI524396:UOI524412 UYE524396:UYE524412 VIA524396:VIA524412 VRW524396:VRW524412 WBS524396:WBS524412 WLO524396:WLO524412 WVK524396:WVK524412 C655468:C655484 IY589932:IY589948 SU589932:SU589948 ACQ589932:ACQ589948 AMM589932:AMM589948 AWI589932:AWI589948 BGE589932:BGE589948 BQA589932:BQA589948 BZW589932:BZW589948 CJS589932:CJS589948 CTO589932:CTO589948 DDK589932:DDK589948 DNG589932:DNG589948 DXC589932:DXC589948 EGY589932:EGY589948 EQU589932:EQU589948 FAQ589932:FAQ589948 FKM589932:FKM589948 FUI589932:FUI589948 GEE589932:GEE589948 GOA589932:GOA589948 GXW589932:GXW589948 HHS589932:HHS589948 HRO589932:HRO589948 IBK589932:IBK589948 ILG589932:ILG589948 IVC589932:IVC589948 JEY589932:JEY589948 JOU589932:JOU589948 JYQ589932:JYQ589948 KIM589932:KIM589948 KSI589932:KSI589948 LCE589932:LCE589948 LMA589932:LMA589948 LVW589932:LVW589948 MFS589932:MFS589948 MPO589932:MPO589948 MZK589932:MZK589948 NJG589932:NJG589948 NTC589932:NTC589948 OCY589932:OCY589948 OMU589932:OMU589948 OWQ589932:OWQ589948 PGM589932:PGM589948 PQI589932:PQI589948 QAE589932:QAE589948 QKA589932:QKA589948 QTW589932:QTW589948 RDS589932:RDS589948 RNO589932:RNO589948 RXK589932:RXK589948 SHG589932:SHG589948 SRC589932:SRC589948 TAY589932:TAY589948 TKU589932:TKU589948 TUQ589932:TUQ589948 UEM589932:UEM589948 UOI589932:UOI589948 UYE589932:UYE589948 VIA589932:VIA589948 VRW589932:VRW589948 WBS589932:WBS589948 WLO589932:WLO589948 WVK589932:WVK589948 C721004:C721020 IY655468:IY655484 SU655468:SU655484 ACQ655468:ACQ655484 AMM655468:AMM655484 AWI655468:AWI655484 BGE655468:BGE655484 BQA655468:BQA655484 BZW655468:BZW655484 CJS655468:CJS655484 CTO655468:CTO655484 DDK655468:DDK655484 DNG655468:DNG655484 DXC655468:DXC655484 EGY655468:EGY655484 EQU655468:EQU655484 FAQ655468:FAQ655484 FKM655468:FKM655484 FUI655468:FUI655484 GEE655468:GEE655484 GOA655468:GOA655484 GXW655468:GXW655484 HHS655468:HHS655484 HRO655468:HRO655484 IBK655468:IBK655484 ILG655468:ILG655484 IVC655468:IVC655484 JEY655468:JEY655484 JOU655468:JOU655484 JYQ655468:JYQ655484 KIM655468:KIM655484 KSI655468:KSI655484 LCE655468:LCE655484 LMA655468:LMA655484 LVW655468:LVW655484 MFS655468:MFS655484 MPO655468:MPO655484 MZK655468:MZK655484 NJG655468:NJG655484 NTC655468:NTC655484 OCY655468:OCY655484 OMU655468:OMU655484 OWQ655468:OWQ655484 PGM655468:PGM655484 PQI655468:PQI655484 QAE655468:QAE655484 QKA655468:QKA655484 QTW655468:QTW655484 RDS655468:RDS655484 RNO655468:RNO655484 RXK655468:RXK655484 SHG655468:SHG655484 SRC655468:SRC655484 TAY655468:TAY655484 TKU655468:TKU655484 TUQ655468:TUQ655484 UEM655468:UEM655484 UOI655468:UOI655484 UYE655468:UYE655484 VIA655468:VIA655484 VRW655468:VRW655484 WBS655468:WBS655484 WLO655468:WLO655484 WVK655468:WVK655484 C786540:C786556 IY721004:IY721020 SU721004:SU721020 ACQ721004:ACQ721020 AMM721004:AMM721020 AWI721004:AWI721020 BGE721004:BGE721020 BQA721004:BQA721020 BZW721004:BZW721020 CJS721004:CJS721020 CTO721004:CTO721020 DDK721004:DDK721020 DNG721004:DNG721020 DXC721004:DXC721020 EGY721004:EGY721020 EQU721004:EQU721020 FAQ721004:FAQ721020 FKM721004:FKM721020 FUI721004:FUI721020 GEE721004:GEE721020 GOA721004:GOA721020 GXW721004:GXW721020 HHS721004:HHS721020 HRO721004:HRO721020 IBK721004:IBK721020 ILG721004:ILG721020 IVC721004:IVC721020 JEY721004:JEY721020 JOU721004:JOU721020 JYQ721004:JYQ721020 KIM721004:KIM721020 KSI721004:KSI721020 LCE721004:LCE721020 LMA721004:LMA721020 LVW721004:LVW721020 MFS721004:MFS721020 MPO721004:MPO721020 MZK721004:MZK721020 NJG721004:NJG721020 NTC721004:NTC721020 OCY721004:OCY721020 OMU721004:OMU721020 OWQ721004:OWQ721020 PGM721004:PGM721020 PQI721004:PQI721020 QAE721004:QAE721020 QKA721004:QKA721020 QTW721004:QTW721020 RDS721004:RDS721020 RNO721004:RNO721020 RXK721004:RXK721020 SHG721004:SHG721020 SRC721004:SRC721020 TAY721004:TAY721020 TKU721004:TKU721020 TUQ721004:TUQ721020 UEM721004:UEM721020 UOI721004:UOI721020 UYE721004:UYE721020 VIA721004:VIA721020 VRW721004:VRW721020 WBS721004:WBS721020 WLO721004:WLO721020 WVK721004:WVK721020 C852076:C852092 IY786540:IY786556 SU786540:SU786556 ACQ786540:ACQ786556 AMM786540:AMM786556 AWI786540:AWI786556 BGE786540:BGE786556 BQA786540:BQA786556 BZW786540:BZW786556 CJS786540:CJS786556 CTO786540:CTO786556 DDK786540:DDK786556 DNG786540:DNG786556 DXC786540:DXC786556 EGY786540:EGY786556 EQU786540:EQU786556 FAQ786540:FAQ786556 FKM786540:FKM786556 FUI786540:FUI786556 GEE786540:GEE786556 GOA786540:GOA786556 GXW786540:GXW786556 HHS786540:HHS786556 HRO786540:HRO786556 IBK786540:IBK786556 ILG786540:ILG786556 IVC786540:IVC786556 JEY786540:JEY786556 JOU786540:JOU786556 JYQ786540:JYQ786556 KIM786540:KIM786556 KSI786540:KSI786556 LCE786540:LCE786556 LMA786540:LMA786556 LVW786540:LVW786556 MFS786540:MFS786556 MPO786540:MPO786556 MZK786540:MZK786556 NJG786540:NJG786556 NTC786540:NTC786556 OCY786540:OCY786556 OMU786540:OMU786556 OWQ786540:OWQ786556 PGM786540:PGM786556 PQI786540:PQI786556 QAE786540:QAE786556 QKA786540:QKA786556 QTW786540:QTW786556 RDS786540:RDS786556 RNO786540:RNO786556 RXK786540:RXK786556 SHG786540:SHG786556 SRC786540:SRC786556 TAY786540:TAY786556 TKU786540:TKU786556 TUQ786540:TUQ786556 UEM786540:UEM786556 UOI786540:UOI786556 UYE786540:UYE786556 VIA786540:VIA786556 VRW786540:VRW786556 WBS786540:WBS786556 WLO786540:WLO786556 WVK786540:WVK786556 C917612:C917628 IY852076:IY852092 SU852076:SU852092 ACQ852076:ACQ852092 AMM852076:AMM852092 AWI852076:AWI852092 BGE852076:BGE852092 BQA852076:BQA852092 BZW852076:BZW852092 CJS852076:CJS852092 CTO852076:CTO852092 DDK852076:DDK852092 DNG852076:DNG852092 DXC852076:DXC852092 EGY852076:EGY852092 EQU852076:EQU852092 FAQ852076:FAQ852092 FKM852076:FKM852092 FUI852076:FUI852092 GEE852076:GEE852092 GOA852076:GOA852092 GXW852076:GXW852092 HHS852076:HHS852092 HRO852076:HRO852092 IBK852076:IBK852092 ILG852076:ILG852092 IVC852076:IVC852092 JEY852076:JEY852092 JOU852076:JOU852092 JYQ852076:JYQ852092 KIM852076:KIM852092 KSI852076:KSI852092 LCE852076:LCE852092 LMA852076:LMA852092 LVW852076:LVW852092 MFS852076:MFS852092 MPO852076:MPO852092 MZK852076:MZK852092 NJG852076:NJG852092 NTC852076:NTC852092 OCY852076:OCY852092 OMU852076:OMU852092 OWQ852076:OWQ852092 PGM852076:PGM852092 PQI852076:PQI852092 QAE852076:QAE852092 QKA852076:QKA852092 QTW852076:QTW852092 RDS852076:RDS852092 RNO852076:RNO852092 RXK852076:RXK852092 SHG852076:SHG852092 SRC852076:SRC852092 TAY852076:TAY852092 TKU852076:TKU852092 TUQ852076:TUQ852092 UEM852076:UEM852092 UOI852076:UOI852092 UYE852076:UYE852092 VIA852076:VIA852092 VRW852076:VRW852092 WBS852076:WBS852092 WLO852076:WLO852092 WVK852076:WVK852092 C983148:C983164 IY917612:IY917628 SU917612:SU917628 ACQ917612:ACQ917628 AMM917612:AMM917628 AWI917612:AWI917628 BGE917612:BGE917628 BQA917612:BQA917628 BZW917612:BZW917628 CJS917612:CJS917628 CTO917612:CTO917628 DDK917612:DDK917628 DNG917612:DNG917628 DXC917612:DXC917628 EGY917612:EGY917628 EQU917612:EQU917628 FAQ917612:FAQ917628 FKM917612:FKM917628 FUI917612:FUI917628 GEE917612:GEE917628 GOA917612:GOA917628 GXW917612:GXW917628 HHS917612:HHS917628 HRO917612:HRO917628 IBK917612:IBK917628 ILG917612:ILG917628 IVC917612:IVC917628 JEY917612:JEY917628 JOU917612:JOU917628 JYQ917612:JYQ917628 KIM917612:KIM917628 KSI917612:KSI917628 LCE917612:LCE917628 LMA917612:LMA917628 LVW917612:LVW917628 MFS917612:MFS917628 MPO917612:MPO917628 MZK917612:MZK917628 NJG917612:NJG917628 NTC917612:NTC917628 OCY917612:OCY917628 OMU917612:OMU917628 OWQ917612:OWQ917628 PGM917612:PGM917628 PQI917612:PQI917628 QAE917612:QAE917628 QKA917612:QKA917628 QTW917612:QTW917628 RDS917612:RDS917628 RNO917612:RNO917628 RXK917612:RXK917628 SHG917612:SHG917628 SRC917612:SRC917628 TAY917612:TAY917628 TKU917612:TKU917628 TUQ917612:TUQ917628 UEM917612:UEM917628 UOI917612:UOI917628 UYE917612:UYE917628 VIA917612:VIA917628 VRW917612:VRW917628 WBS917612:WBS917628 WLO917612:WLO917628 WVK917612:WVK917628 WVK983148:WVK983164 IY983148:IY983164 SU983148:SU983164 ACQ983148:ACQ983164 AMM983148:AMM983164 AWI983148:AWI983164 BGE983148:BGE983164 BQA983148:BQA983164 BZW983148:BZW983164 CJS983148:CJS983164 CTO983148:CTO983164 DDK983148:DDK983164 DNG983148:DNG983164 DXC983148:DXC983164 EGY983148:EGY983164 EQU983148:EQU983164 FAQ983148:FAQ983164 FKM983148:FKM983164 FUI983148:FUI983164 GEE983148:GEE983164 GOA983148:GOA983164 GXW983148:GXW983164 HHS983148:HHS983164 HRO983148:HRO983164 IBK983148:IBK983164 ILG983148:ILG983164 IVC983148:IVC983164 JEY983148:JEY983164 JOU983148:JOU983164 JYQ983148:JYQ983164 KIM983148:KIM983164 KSI983148:KSI983164 LCE983148:LCE983164 LMA983148:LMA983164 LVW983148:LVW983164 MFS983148:MFS983164 MPO983148:MPO983164 MZK983148:MZK983164 NJG983148:NJG983164 NTC983148:NTC983164 OCY983148:OCY983164 OMU983148:OMU983164 OWQ983148:OWQ983164 PGM983148:PGM983164 PQI983148:PQI983164 QAE983148:QAE983164 QKA983148:QKA983164 QTW983148:QTW983164 RDS983148:RDS983164 RNO983148:RNO983164 RXK983148:RXK983164 SHG983148:SHG983164 SRC983148:SRC983164 TAY983148:TAY983164 TKU983148:TKU983164 TUQ983148:TUQ983164 UEM983148:UEM983164 UOI983148:UOI983164 UYE983148:UYE983164 VIA983148:VIA983164 VRW983148:VRW983164 WBS983148:WBS983164 WLO983148:WLO983164 C65644:C65660" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131181:C131197 IY65645:IY65661 SU65645:SU65661 ACQ65645:ACQ65661 AMM65645:AMM65661 AWI65645:AWI65661 BGE65645:BGE65661 BQA65645:BQA65661 BZW65645:BZW65661 CJS65645:CJS65661 CTO65645:CTO65661 DDK65645:DDK65661 DNG65645:DNG65661 DXC65645:DXC65661 EGY65645:EGY65661 EQU65645:EQU65661 FAQ65645:FAQ65661 FKM65645:FKM65661 FUI65645:FUI65661 GEE65645:GEE65661 GOA65645:GOA65661 GXW65645:GXW65661 HHS65645:HHS65661 HRO65645:HRO65661 IBK65645:IBK65661 ILG65645:ILG65661 IVC65645:IVC65661 JEY65645:JEY65661 JOU65645:JOU65661 JYQ65645:JYQ65661 KIM65645:KIM65661 KSI65645:KSI65661 LCE65645:LCE65661 LMA65645:LMA65661 LVW65645:LVW65661 MFS65645:MFS65661 MPO65645:MPO65661 MZK65645:MZK65661 NJG65645:NJG65661 NTC65645:NTC65661 OCY65645:OCY65661 OMU65645:OMU65661 OWQ65645:OWQ65661 PGM65645:PGM65661 PQI65645:PQI65661 QAE65645:QAE65661 QKA65645:QKA65661 QTW65645:QTW65661 RDS65645:RDS65661 RNO65645:RNO65661 RXK65645:RXK65661 SHG65645:SHG65661 SRC65645:SRC65661 TAY65645:TAY65661 TKU65645:TKU65661 TUQ65645:TUQ65661 UEM65645:UEM65661 UOI65645:UOI65661 UYE65645:UYE65661 VIA65645:VIA65661 VRW65645:VRW65661 WBS65645:WBS65661 WLO65645:WLO65661 WVK65645:WVK65661 C196717:C196733 IY131181:IY131197 SU131181:SU131197 ACQ131181:ACQ131197 AMM131181:AMM131197 AWI131181:AWI131197 BGE131181:BGE131197 BQA131181:BQA131197 BZW131181:BZW131197 CJS131181:CJS131197 CTO131181:CTO131197 DDK131181:DDK131197 DNG131181:DNG131197 DXC131181:DXC131197 EGY131181:EGY131197 EQU131181:EQU131197 FAQ131181:FAQ131197 FKM131181:FKM131197 FUI131181:FUI131197 GEE131181:GEE131197 GOA131181:GOA131197 GXW131181:GXW131197 HHS131181:HHS131197 HRO131181:HRO131197 IBK131181:IBK131197 ILG131181:ILG131197 IVC131181:IVC131197 JEY131181:JEY131197 JOU131181:JOU131197 JYQ131181:JYQ131197 KIM131181:KIM131197 KSI131181:KSI131197 LCE131181:LCE131197 LMA131181:LMA131197 LVW131181:LVW131197 MFS131181:MFS131197 MPO131181:MPO131197 MZK131181:MZK131197 NJG131181:NJG131197 NTC131181:NTC131197 OCY131181:OCY131197 OMU131181:OMU131197 OWQ131181:OWQ131197 PGM131181:PGM131197 PQI131181:PQI131197 QAE131181:QAE131197 QKA131181:QKA131197 QTW131181:QTW131197 RDS131181:RDS131197 RNO131181:RNO131197 RXK131181:RXK131197 SHG131181:SHG131197 SRC131181:SRC131197 TAY131181:TAY131197 TKU131181:TKU131197 TUQ131181:TUQ131197 UEM131181:UEM131197 UOI131181:UOI131197 UYE131181:UYE131197 VIA131181:VIA131197 VRW131181:VRW131197 WBS131181:WBS131197 WLO131181:WLO131197 WVK131181:WVK131197 C262253:C262269 IY196717:IY196733 SU196717:SU196733 ACQ196717:ACQ196733 AMM196717:AMM196733 AWI196717:AWI196733 BGE196717:BGE196733 BQA196717:BQA196733 BZW196717:BZW196733 CJS196717:CJS196733 CTO196717:CTO196733 DDK196717:DDK196733 DNG196717:DNG196733 DXC196717:DXC196733 EGY196717:EGY196733 EQU196717:EQU196733 FAQ196717:FAQ196733 FKM196717:FKM196733 FUI196717:FUI196733 GEE196717:GEE196733 GOA196717:GOA196733 GXW196717:GXW196733 HHS196717:HHS196733 HRO196717:HRO196733 IBK196717:IBK196733 ILG196717:ILG196733 IVC196717:IVC196733 JEY196717:JEY196733 JOU196717:JOU196733 JYQ196717:JYQ196733 KIM196717:KIM196733 KSI196717:KSI196733 LCE196717:LCE196733 LMA196717:LMA196733 LVW196717:LVW196733 MFS196717:MFS196733 MPO196717:MPO196733 MZK196717:MZK196733 NJG196717:NJG196733 NTC196717:NTC196733 OCY196717:OCY196733 OMU196717:OMU196733 OWQ196717:OWQ196733 PGM196717:PGM196733 PQI196717:PQI196733 QAE196717:QAE196733 QKA196717:QKA196733 QTW196717:QTW196733 RDS196717:RDS196733 RNO196717:RNO196733 RXK196717:RXK196733 SHG196717:SHG196733 SRC196717:SRC196733 TAY196717:TAY196733 TKU196717:TKU196733 TUQ196717:TUQ196733 UEM196717:UEM196733 UOI196717:UOI196733 UYE196717:UYE196733 VIA196717:VIA196733 VRW196717:VRW196733 WBS196717:WBS196733 WLO196717:WLO196733 WVK196717:WVK196733 C327789:C327805 IY262253:IY262269 SU262253:SU262269 ACQ262253:ACQ262269 AMM262253:AMM262269 AWI262253:AWI262269 BGE262253:BGE262269 BQA262253:BQA262269 BZW262253:BZW262269 CJS262253:CJS262269 CTO262253:CTO262269 DDK262253:DDK262269 DNG262253:DNG262269 DXC262253:DXC262269 EGY262253:EGY262269 EQU262253:EQU262269 FAQ262253:FAQ262269 FKM262253:FKM262269 FUI262253:FUI262269 GEE262253:GEE262269 GOA262253:GOA262269 GXW262253:GXW262269 HHS262253:HHS262269 HRO262253:HRO262269 IBK262253:IBK262269 ILG262253:ILG262269 IVC262253:IVC262269 JEY262253:JEY262269 JOU262253:JOU262269 JYQ262253:JYQ262269 KIM262253:KIM262269 KSI262253:KSI262269 LCE262253:LCE262269 LMA262253:LMA262269 LVW262253:LVW262269 MFS262253:MFS262269 MPO262253:MPO262269 MZK262253:MZK262269 NJG262253:NJG262269 NTC262253:NTC262269 OCY262253:OCY262269 OMU262253:OMU262269 OWQ262253:OWQ262269 PGM262253:PGM262269 PQI262253:PQI262269 QAE262253:QAE262269 QKA262253:QKA262269 QTW262253:QTW262269 RDS262253:RDS262269 RNO262253:RNO262269 RXK262253:RXK262269 SHG262253:SHG262269 SRC262253:SRC262269 TAY262253:TAY262269 TKU262253:TKU262269 TUQ262253:TUQ262269 UEM262253:UEM262269 UOI262253:UOI262269 UYE262253:UYE262269 VIA262253:VIA262269 VRW262253:VRW262269 WBS262253:WBS262269 WLO262253:WLO262269 WVK262253:WVK262269 C393325:C393341 IY327789:IY327805 SU327789:SU327805 ACQ327789:ACQ327805 AMM327789:AMM327805 AWI327789:AWI327805 BGE327789:BGE327805 BQA327789:BQA327805 BZW327789:BZW327805 CJS327789:CJS327805 CTO327789:CTO327805 DDK327789:DDK327805 DNG327789:DNG327805 DXC327789:DXC327805 EGY327789:EGY327805 EQU327789:EQU327805 FAQ327789:FAQ327805 FKM327789:FKM327805 FUI327789:FUI327805 GEE327789:GEE327805 GOA327789:GOA327805 GXW327789:GXW327805 HHS327789:HHS327805 HRO327789:HRO327805 IBK327789:IBK327805 ILG327789:ILG327805 IVC327789:IVC327805 JEY327789:JEY327805 JOU327789:JOU327805 JYQ327789:JYQ327805 KIM327789:KIM327805 KSI327789:KSI327805 LCE327789:LCE327805 LMA327789:LMA327805 LVW327789:LVW327805 MFS327789:MFS327805 MPO327789:MPO327805 MZK327789:MZK327805 NJG327789:NJG327805 NTC327789:NTC327805 OCY327789:OCY327805 OMU327789:OMU327805 OWQ327789:OWQ327805 PGM327789:PGM327805 PQI327789:PQI327805 QAE327789:QAE327805 QKA327789:QKA327805 QTW327789:QTW327805 RDS327789:RDS327805 RNO327789:RNO327805 RXK327789:RXK327805 SHG327789:SHG327805 SRC327789:SRC327805 TAY327789:TAY327805 TKU327789:TKU327805 TUQ327789:TUQ327805 UEM327789:UEM327805 UOI327789:UOI327805 UYE327789:UYE327805 VIA327789:VIA327805 VRW327789:VRW327805 WBS327789:WBS327805 WLO327789:WLO327805 WVK327789:WVK327805 C458861:C458877 IY393325:IY393341 SU393325:SU393341 ACQ393325:ACQ393341 AMM393325:AMM393341 AWI393325:AWI393341 BGE393325:BGE393341 BQA393325:BQA393341 BZW393325:BZW393341 CJS393325:CJS393341 CTO393325:CTO393341 DDK393325:DDK393341 DNG393325:DNG393341 DXC393325:DXC393341 EGY393325:EGY393341 EQU393325:EQU393341 FAQ393325:FAQ393341 FKM393325:FKM393341 FUI393325:FUI393341 GEE393325:GEE393341 GOA393325:GOA393341 GXW393325:GXW393341 HHS393325:HHS393341 HRO393325:HRO393341 IBK393325:IBK393341 ILG393325:ILG393341 IVC393325:IVC393341 JEY393325:JEY393341 JOU393325:JOU393341 JYQ393325:JYQ393341 KIM393325:KIM393341 KSI393325:KSI393341 LCE393325:LCE393341 LMA393325:LMA393341 LVW393325:LVW393341 MFS393325:MFS393341 MPO393325:MPO393341 MZK393325:MZK393341 NJG393325:NJG393341 NTC393325:NTC393341 OCY393325:OCY393341 OMU393325:OMU393341 OWQ393325:OWQ393341 PGM393325:PGM393341 PQI393325:PQI393341 QAE393325:QAE393341 QKA393325:QKA393341 QTW393325:QTW393341 RDS393325:RDS393341 RNO393325:RNO393341 RXK393325:RXK393341 SHG393325:SHG393341 SRC393325:SRC393341 TAY393325:TAY393341 TKU393325:TKU393341 TUQ393325:TUQ393341 UEM393325:UEM393341 UOI393325:UOI393341 UYE393325:UYE393341 VIA393325:VIA393341 VRW393325:VRW393341 WBS393325:WBS393341 WLO393325:WLO393341 WVK393325:WVK393341 C524397:C524413 IY458861:IY458877 SU458861:SU458877 ACQ458861:ACQ458877 AMM458861:AMM458877 AWI458861:AWI458877 BGE458861:BGE458877 BQA458861:BQA458877 BZW458861:BZW458877 CJS458861:CJS458877 CTO458861:CTO458877 DDK458861:DDK458877 DNG458861:DNG458877 DXC458861:DXC458877 EGY458861:EGY458877 EQU458861:EQU458877 FAQ458861:FAQ458877 FKM458861:FKM458877 FUI458861:FUI458877 GEE458861:GEE458877 GOA458861:GOA458877 GXW458861:GXW458877 HHS458861:HHS458877 HRO458861:HRO458877 IBK458861:IBK458877 ILG458861:ILG458877 IVC458861:IVC458877 JEY458861:JEY458877 JOU458861:JOU458877 JYQ458861:JYQ458877 KIM458861:KIM458877 KSI458861:KSI458877 LCE458861:LCE458877 LMA458861:LMA458877 LVW458861:LVW458877 MFS458861:MFS458877 MPO458861:MPO458877 MZK458861:MZK458877 NJG458861:NJG458877 NTC458861:NTC458877 OCY458861:OCY458877 OMU458861:OMU458877 OWQ458861:OWQ458877 PGM458861:PGM458877 PQI458861:PQI458877 QAE458861:QAE458877 QKA458861:QKA458877 QTW458861:QTW458877 RDS458861:RDS458877 RNO458861:RNO458877 RXK458861:RXK458877 SHG458861:SHG458877 SRC458861:SRC458877 TAY458861:TAY458877 TKU458861:TKU458877 TUQ458861:TUQ458877 UEM458861:UEM458877 UOI458861:UOI458877 UYE458861:UYE458877 VIA458861:VIA458877 VRW458861:VRW458877 WBS458861:WBS458877 WLO458861:WLO458877 WVK458861:WVK458877 C589933:C589949 IY524397:IY524413 SU524397:SU524413 ACQ524397:ACQ524413 AMM524397:AMM524413 AWI524397:AWI524413 BGE524397:BGE524413 BQA524397:BQA524413 BZW524397:BZW524413 CJS524397:CJS524413 CTO524397:CTO524413 DDK524397:DDK524413 DNG524397:DNG524413 DXC524397:DXC524413 EGY524397:EGY524413 EQU524397:EQU524413 FAQ524397:FAQ524413 FKM524397:FKM524413 FUI524397:FUI524413 GEE524397:GEE524413 GOA524397:GOA524413 GXW524397:GXW524413 HHS524397:HHS524413 HRO524397:HRO524413 IBK524397:IBK524413 ILG524397:ILG524413 IVC524397:IVC524413 JEY524397:JEY524413 JOU524397:JOU524413 JYQ524397:JYQ524413 KIM524397:KIM524413 KSI524397:KSI524413 LCE524397:LCE524413 LMA524397:LMA524413 LVW524397:LVW524413 MFS524397:MFS524413 MPO524397:MPO524413 MZK524397:MZK524413 NJG524397:NJG524413 NTC524397:NTC524413 OCY524397:OCY524413 OMU524397:OMU524413 OWQ524397:OWQ524413 PGM524397:PGM524413 PQI524397:PQI524413 QAE524397:QAE524413 QKA524397:QKA524413 QTW524397:QTW524413 RDS524397:RDS524413 RNO524397:RNO524413 RXK524397:RXK524413 SHG524397:SHG524413 SRC524397:SRC524413 TAY524397:TAY524413 TKU524397:TKU524413 TUQ524397:TUQ524413 UEM524397:UEM524413 UOI524397:UOI524413 UYE524397:UYE524413 VIA524397:VIA524413 VRW524397:VRW524413 WBS524397:WBS524413 WLO524397:WLO524413 WVK524397:WVK524413 C655469:C655485 IY589933:IY589949 SU589933:SU589949 ACQ589933:ACQ589949 AMM589933:AMM589949 AWI589933:AWI589949 BGE589933:BGE589949 BQA589933:BQA589949 BZW589933:BZW589949 CJS589933:CJS589949 CTO589933:CTO589949 DDK589933:DDK589949 DNG589933:DNG589949 DXC589933:DXC589949 EGY589933:EGY589949 EQU589933:EQU589949 FAQ589933:FAQ589949 FKM589933:FKM589949 FUI589933:FUI589949 GEE589933:GEE589949 GOA589933:GOA589949 GXW589933:GXW589949 HHS589933:HHS589949 HRO589933:HRO589949 IBK589933:IBK589949 ILG589933:ILG589949 IVC589933:IVC589949 JEY589933:JEY589949 JOU589933:JOU589949 JYQ589933:JYQ589949 KIM589933:KIM589949 KSI589933:KSI589949 LCE589933:LCE589949 LMA589933:LMA589949 LVW589933:LVW589949 MFS589933:MFS589949 MPO589933:MPO589949 MZK589933:MZK589949 NJG589933:NJG589949 NTC589933:NTC589949 OCY589933:OCY589949 OMU589933:OMU589949 OWQ589933:OWQ589949 PGM589933:PGM589949 PQI589933:PQI589949 QAE589933:QAE589949 QKA589933:QKA589949 QTW589933:QTW589949 RDS589933:RDS589949 RNO589933:RNO589949 RXK589933:RXK589949 SHG589933:SHG589949 SRC589933:SRC589949 TAY589933:TAY589949 TKU589933:TKU589949 TUQ589933:TUQ589949 UEM589933:UEM589949 UOI589933:UOI589949 UYE589933:UYE589949 VIA589933:VIA589949 VRW589933:VRW589949 WBS589933:WBS589949 WLO589933:WLO589949 WVK589933:WVK589949 C721005:C721021 IY655469:IY655485 SU655469:SU655485 ACQ655469:ACQ655485 AMM655469:AMM655485 AWI655469:AWI655485 BGE655469:BGE655485 BQA655469:BQA655485 BZW655469:BZW655485 CJS655469:CJS655485 CTO655469:CTO655485 DDK655469:DDK655485 DNG655469:DNG655485 DXC655469:DXC655485 EGY655469:EGY655485 EQU655469:EQU655485 FAQ655469:FAQ655485 FKM655469:FKM655485 FUI655469:FUI655485 GEE655469:GEE655485 GOA655469:GOA655485 GXW655469:GXW655485 HHS655469:HHS655485 HRO655469:HRO655485 IBK655469:IBK655485 ILG655469:ILG655485 IVC655469:IVC655485 JEY655469:JEY655485 JOU655469:JOU655485 JYQ655469:JYQ655485 KIM655469:KIM655485 KSI655469:KSI655485 LCE655469:LCE655485 LMA655469:LMA655485 LVW655469:LVW655485 MFS655469:MFS655485 MPO655469:MPO655485 MZK655469:MZK655485 NJG655469:NJG655485 NTC655469:NTC655485 OCY655469:OCY655485 OMU655469:OMU655485 OWQ655469:OWQ655485 PGM655469:PGM655485 PQI655469:PQI655485 QAE655469:QAE655485 QKA655469:QKA655485 QTW655469:QTW655485 RDS655469:RDS655485 RNO655469:RNO655485 RXK655469:RXK655485 SHG655469:SHG655485 SRC655469:SRC655485 TAY655469:TAY655485 TKU655469:TKU655485 TUQ655469:TUQ655485 UEM655469:UEM655485 UOI655469:UOI655485 UYE655469:UYE655485 VIA655469:VIA655485 VRW655469:VRW655485 WBS655469:WBS655485 WLO655469:WLO655485 WVK655469:WVK655485 C786541:C786557 IY721005:IY721021 SU721005:SU721021 ACQ721005:ACQ721021 AMM721005:AMM721021 AWI721005:AWI721021 BGE721005:BGE721021 BQA721005:BQA721021 BZW721005:BZW721021 CJS721005:CJS721021 CTO721005:CTO721021 DDK721005:DDK721021 DNG721005:DNG721021 DXC721005:DXC721021 EGY721005:EGY721021 EQU721005:EQU721021 FAQ721005:FAQ721021 FKM721005:FKM721021 FUI721005:FUI721021 GEE721005:GEE721021 GOA721005:GOA721021 GXW721005:GXW721021 HHS721005:HHS721021 HRO721005:HRO721021 IBK721005:IBK721021 ILG721005:ILG721021 IVC721005:IVC721021 JEY721005:JEY721021 JOU721005:JOU721021 JYQ721005:JYQ721021 KIM721005:KIM721021 KSI721005:KSI721021 LCE721005:LCE721021 LMA721005:LMA721021 LVW721005:LVW721021 MFS721005:MFS721021 MPO721005:MPO721021 MZK721005:MZK721021 NJG721005:NJG721021 NTC721005:NTC721021 OCY721005:OCY721021 OMU721005:OMU721021 OWQ721005:OWQ721021 PGM721005:PGM721021 PQI721005:PQI721021 QAE721005:QAE721021 QKA721005:QKA721021 QTW721005:QTW721021 RDS721005:RDS721021 RNO721005:RNO721021 RXK721005:RXK721021 SHG721005:SHG721021 SRC721005:SRC721021 TAY721005:TAY721021 TKU721005:TKU721021 TUQ721005:TUQ721021 UEM721005:UEM721021 UOI721005:UOI721021 UYE721005:UYE721021 VIA721005:VIA721021 VRW721005:VRW721021 WBS721005:WBS721021 WLO721005:WLO721021 WVK721005:WVK721021 C852077:C852093 IY786541:IY786557 SU786541:SU786557 ACQ786541:ACQ786557 AMM786541:AMM786557 AWI786541:AWI786557 BGE786541:BGE786557 BQA786541:BQA786557 BZW786541:BZW786557 CJS786541:CJS786557 CTO786541:CTO786557 DDK786541:DDK786557 DNG786541:DNG786557 DXC786541:DXC786557 EGY786541:EGY786557 EQU786541:EQU786557 FAQ786541:FAQ786557 FKM786541:FKM786557 FUI786541:FUI786557 GEE786541:GEE786557 GOA786541:GOA786557 GXW786541:GXW786557 HHS786541:HHS786557 HRO786541:HRO786557 IBK786541:IBK786557 ILG786541:ILG786557 IVC786541:IVC786557 JEY786541:JEY786557 JOU786541:JOU786557 JYQ786541:JYQ786557 KIM786541:KIM786557 KSI786541:KSI786557 LCE786541:LCE786557 LMA786541:LMA786557 LVW786541:LVW786557 MFS786541:MFS786557 MPO786541:MPO786557 MZK786541:MZK786557 NJG786541:NJG786557 NTC786541:NTC786557 OCY786541:OCY786557 OMU786541:OMU786557 OWQ786541:OWQ786557 PGM786541:PGM786557 PQI786541:PQI786557 QAE786541:QAE786557 QKA786541:QKA786557 QTW786541:QTW786557 RDS786541:RDS786557 RNO786541:RNO786557 RXK786541:RXK786557 SHG786541:SHG786557 SRC786541:SRC786557 TAY786541:TAY786557 TKU786541:TKU786557 TUQ786541:TUQ786557 UEM786541:UEM786557 UOI786541:UOI786557 UYE786541:UYE786557 VIA786541:VIA786557 VRW786541:VRW786557 WBS786541:WBS786557 WLO786541:WLO786557 WVK786541:WVK786557 C917613:C917629 IY852077:IY852093 SU852077:SU852093 ACQ852077:ACQ852093 AMM852077:AMM852093 AWI852077:AWI852093 BGE852077:BGE852093 BQA852077:BQA852093 BZW852077:BZW852093 CJS852077:CJS852093 CTO852077:CTO852093 DDK852077:DDK852093 DNG852077:DNG852093 DXC852077:DXC852093 EGY852077:EGY852093 EQU852077:EQU852093 FAQ852077:FAQ852093 FKM852077:FKM852093 FUI852077:FUI852093 GEE852077:GEE852093 GOA852077:GOA852093 GXW852077:GXW852093 HHS852077:HHS852093 HRO852077:HRO852093 IBK852077:IBK852093 ILG852077:ILG852093 IVC852077:IVC852093 JEY852077:JEY852093 JOU852077:JOU852093 JYQ852077:JYQ852093 KIM852077:KIM852093 KSI852077:KSI852093 LCE852077:LCE852093 LMA852077:LMA852093 LVW852077:LVW852093 MFS852077:MFS852093 MPO852077:MPO852093 MZK852077:MZK852093 NJG852077:NJG852093 NTC852077:NTC852093 OCY852077:OCY852093 OMU852077:OMU852093 OWQ852077:OWQ852093 PGM852077:PGM852093 PQI852077:PQI852093 QAE852077:QAE852093 QKA852077:QKA852093 QTW852077:QTW852093 RDS852077:RDS852093 RNO852077:RNO852093 RXK852077:RXK852093 SHG852077:SHG852093 SRC852077:SRC852093 TAY852077:TAY852093 TKU852077:TKU852093 TUQ852077:TUQ852093 UEM852077:UEM852093 UOI852077:UOI852093 UYE852077:UYE852093 VIA852077:VIA852093 VRW852077:VRW852093 WBS852077:WBS852093 WLO852077:WLO852093 WVK852077:WVK852093 C983149:C983165 IY917613:IY917629 SU917613:SU917629 ACQ917613:ACQ917629 AMM917613:AMM917629 AWI917613:AWI917629 BGE917613:BGE917629 BQA917613:BQA917629 BZW917613:BZW917629 CJS917613:CJS917629 CTO917613:CTO917629 DDK917613:DDK917629 DNG917613:DNG917629 DXC917613:DXC917629 EGY917613:EGY917629 EQU917613:EQU917629 FAQ917613:FAQ917629 FKM917613:FKM917629 FUI917613:FUI917629 GEE917613:GEE917629 GOA917613:GOA917629 GXW917613:GXW917629 HHS917613:HHS917629 HRO917613:HRO917629 IBK917613:IBK917629 ILG917613:ILG917629 IVC917613:IVC917629 JEY917613:JEY917629 JOU917613:JOU917629 JYQ917613:JYQ917629 KIM917613:KIM917629 KSI917613:KSI917629 LCE917613:LCE917629 LMA917613:LMA917629 LVW917613:LVW917629 MFS917613:MFS917629 MPO917613:MPO917629 MZK917613:MZK917629 NJG917613:NJG917629 NTC917613:NTC917629 OCY917613:OCY917629 OMU917613:OMU917629 OWQ917613:OWQ917629 PGM917613:PGM917629 PQI917613:PQI917629 QAE917613:QAE917629 QKA917613:QKA917629 QTW917613:QTW917629 RDS917613:RDS917629 RNO917613:RNO917629 RXK917613:RXK917629 SHG917613:SHG917629 SRC917613:SRC917629 TAY917613:TAY917629 TKU917613:TKU917629 TUQ917613:TUQ917629 UEM917613:UEM917629 UOI917613:UOI917629 UYE917613:UYE917629 VIA917613:VIA917629 VRW917613:VRW917629 WBS917613:WBS917629 WLO917613:WLO917629 WVK917613:WVK917629 WVK983149:WVK983165 IY983149:IY983165 SU983149:SU983165 ACQ983149:ACQ983165 AMM983149:AMM983165 AWI983149:AWI983165 BGE983149:BGE983165 BQA983149:BQA983165 BZW983149:BZW983165 CJS983149:CJS983165 CTO983149:CTO983165 DDK983149:DDK983165 DNG983149:DNG983165 DXC983149:DXC983165 EGY983149:EGY983165 EQU983149:EQU983165 FAQ983149:FAQ983165 FKM983149:FKM983165 FUI983149:FUI983165 GEE983149:GEE983165 GOA983149:GOA983165 GXW983149:GXW983165 HHS983149:HHS983165 HRO983149:HRO983165 IBK983149:IBK983165 ILG983149:ILG983165 IVC983149:IVC983165 JEY983149:JEY983165 JOU983149:JOU983165 JYQ983149:JYQ983165 KIM983149:KIM983165 KSI983149:KSI983165 LCE983149:LCE983165 LMA983149:LMA983165 LVW983149:LVW983165 MFS983149:MFS983165 MPO983149:MPO983165 MZK983149:MZK983165 NJG983149:NJG983165 NTC983149:NTC983165 OCY983149:OCY983165 OMU983149:OMU983165 OWQ983149:OWQ983165 PGM983149:PGM983165 PQI983149:PQI983165 QAE983149:QAE983165 QKA983149:QKA983165 QTW983149:QTW983165 RDS983149:RDS983165 RNO983149:RNO983165 RXK983149:RXK983165 SHG983149:SHG983165 SRC983149:SRC983165 TAY983149:TAY983165 TKU983149:TKU983165 TUQ983149:TUQ983165 UEM983149:UEM983165 UOI983149:UOI983165 UYE983149:UYE983165 VIA983149:VIA983165 VRW983149:VRW983165 WBS983149:WBS983165 WLO983149:WLO983165 C65645:C65661" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65644:F65677 JB65644:JB65677 SX65644:SX65677 ACT65644:ACT65677 AMP65644:AMP65677 AWL65644:AWL65677 BGH65644:BGH65677 BQD65644:BQD65677 BZZ65644:BZZ65677 CJV65644:CJV65677 CTR65644:CTR65677 DDN65644:DDN65677 DNJ65644:DNJ65677 DXF65644:DXF65677 EHB65644:EHB65677 EQX65644:EQX65677 FAT65644:FAT65677 FKP65644:FKP65677 FUL65644:FUL65677 GEH65644:GEH65677 GOD65644:GOD65677 GXZ65644:GXZ65677 HHV65644:HHV65677 HRR65644:HRR65677 IBN65644:IBN65677 ILJ65644:ILJ65677 IVF65644:IVF65677 JFB65644:JFB65677 JOX65644:JOX65677 JYT65644:JYT65677 KIP65644:KIP65677 KSL65644:KSL65677 LCH65644:LCH65677 LMD65644:LMD65677 LVZ65644:LVZ65677 MFV65644:MFV65677 MPR65644:MPR65677 MZN65644:MZN65677 NJJ65644:NJJ65677 NTF65644:NTF65677 ODB65644:ODB65677 OMX65644:OMX65677 OWT65644:OWT65677 PGP65644:PGP65677 PQL65644:PQL65677 QAH65644:QAH65677 QKD65644:QKD65677 QTZ65644:QTZ65677 RDV65644:RDV65677 RNR65644:RNR65677 RXN65644:RXN65677 SHJ65644:SHJ65677 SRF65644:SRF65677 TBB65644:TBB65677 TKX65644:TKX65677 TUT65644:TUT65677 UEP65644:UEP65677 UOL65644:UOL65677 UYH65644:UYH65677 VID65644:VID65677 VRZ65644:VRZ65677 WBV65644:WBV65677 WLR65644:WLR65677 WVN65644:WVN65677 F131180:F131213 JB131180:JB131213 SX131180:SX131213 ACT131180:ACT131213 AMP131180:AMP131213 AWL131180:AWL131213 BGH131180:BGH131213 BQD131180:BQD131213 BZZ131180:BZZ131213 CJV131180:CJV131213 CTR131180:CTR131213 DDN131180:DDN131213 DNJ131180:DNJ131213 DXF131180:DXF131213 EHB131180:EHB131213 EQX131180:EQX131213 FAT131180:FAT131213 FKP131180:FKP131213 FUL131180:FUL131213 GEH131180:GEH131213 GOD131180:GOD131213 GXZ131180:GXZ131213 HHV131180:HHV131213 HRR131180:HRR131213 IBN131180:IBN131213 ILJ131180:ILJ131213 IVF131180:IVF131213 JFB131180:JFB131213 JOX131180:JOX131213 JYT131180:JYT131213 KIP131180:KIP131213 KSL131180:KSL131213 LCH131180:LCH131213 LMD131180:LMD131213 LVZ131180:LVZ131213 MFV131180:MFV131213 MPR131180:MPR131213 MZN131180:MZN131213 NJJ131180:NJJ131213 NTF131180:NTF131213 ODB131180:ODB131213 OMX131180:OMX131213 OWT131180:OWT131213 PGP131180:PGP131213 PQL131180:PQL131213 QAH131180:QAH131213 QKD131180:QKD131213 QTZ131180:QTZ131213 RDV131180:RDV131213 RNR131180:RNR131213 RXN131180:RXN131213 SHJ131180:SHJ131213 SRF131180:SRF131213 TBB131180:TBB131213 TKX131180:TKX131213 TUT131180:TUT131213 UEP131180:UEP131213 UOL131180:UOL131213 UYH131180:UYH131213 VID131180:VID131213 VRZ131180:VRZ131213 WBV131180:WBV131213 WLR131180:WLR131213 WVN131180:WVN131213 F196716:F196749 JB196716:JB196749 SX196716:SX196749 ACT196716:ACT196749 AMP196716:AMP196749 AWL196716:AWL196749 BGH196716:BGH196749 BQD196716:BQD196749 BZZ196716:BZZ196749 CJV196716:CJV196749 CTR196716:CTR196749 DDN196716:DDN196749 DNJ196716:DNJ196749 DXF196716:DXF196749 EHB196716:EHB196749 EQX196716:EQX196749 FAT196716:FAT196749 FKP196716:FKP196749 FUL196716:FUL196749 GEH196716:GEH196749 GOD196716:GOD196749 GXZ196716:GXZ196749 HHV196716:HHV196749 HRR196716:HRR196749 IBN196716:IBN196749 ILJ196716:ILJ196749 IVF196716:IVF196749 JFB196716:JFB196749 JOX196716:JOX196749 JYT196716:JYT196749 KIP196716:KIP196749 KSL196716:KSL196749 LCH196716:LCH196749 LMD196716:LMD196749 LVZ196716:LVZ196749 MFV196716:MFV196749 MPR196716:MPR196749 MZN196716:MZN196749 NJJ196716:NJJ196749 NTF196716:NTF196749 ODB196716:ODB196749 OMX196716:OMX196749 OWT196716:OWT196749 PGP196716:PGP196749 PQL196716:PQL196749 QAH196716:QAH196749 QKD196716:QKD196749 QTZ196716:QTZ196749 RDV196716:RDV196749 RNR196716:RNR196749 RXN196716:RXN196749 SHJ196716:SHJ196749 SRF196716:SRF196749 TBB196716:TBB196749 TKX196716:TKX196749 TUT196716:TUT196749 UEP196716:UEP196749 UOL196716:UOL196749 UYH196716:UYH196749 VID196716:VID196749 VRZ196716:VRZ196749 WBV196716:WBV196749 WLR196716:WLR196749 WVN196716:WVN196749 F262252:F262285 JB262252:JB262285 SX262252:SX262285 ACT262252:ACT262285 AMP262252:AMP262285 AWL262252:AWL262285 BGH262252:BGH262285 BQD262252:BQD262285 BZZ262252:BZZ262285 CJV262252:CJV262285 CTR262252:CTR262285 DDN262252:DDN262285 DNJ262252:DNJ262285 DXF262252:DXF262285 EHB262252:EHB262285 EQX262252:EQX262285 FAT262252:FAT262285 FKP262252:FKP262285 FUL262252:FUL262285 GEH262252:GEH262285 GOD262252:GOD262285 GXZ262252:GXZ262285 HHV262252:HHV262285 HRR262252:HRR262285 IBN262252:IBN262285 ILJ262252:ILJ262285 IVF262252:IVF262285 JFB262252:JFB262285 JOX262252:JOX262285 JYT262252:JYT262285 KIP262252:KIP262285 KSL262252:KSL262285 LCH262252:LCH262285 LMD262252:LMD262285 LVZ262252:LVZ262285 MFV262252:MFV262285 MPR262252:MPR262285 MZN262252:MZN262285 NJJ262252:NJJ262285 NTF262252:NTF262285 ODB262252:ODB262285 OMX262252:OMX262285 OWT262252:OWT262285 PGP262252:PGP262285 PQL262252:PQL262285 QAH262252:QAH262285 QKD262252:QKD262285 QTZ262252:QTZ262285 RDV262252:RDV262285 RNR262252:RNR262285 RXN262252:RXN262285 SHJ262252:SHJ262285 SRF262252:SRF262285 TBB262252:TBB262285 TKX262252:TKX262285 TUT262252:TUT262285 UEP262252:UEP262285 UOL262252:UOL262285 UYH262252:UYH262285 VID262252:VID262285 VRZ262252:VRZ262285 WBV262252:WBV262285 WLR262252:WLR262285 WVN262252:WVN262285 F327788:F327821 JB327788:JB327821 SX327788:SX327821 ACT327788:ACT327821 AMP327788:AMP327821 AWL327788:AWL327821 BGH327788:BGH327821 BQD327788:BQD327821 BZZ327788:BZZ327821 CJV327788:CJV327821 CTR327788:CTR327821 DDN327788:DDN327821 DNJ327788:DNJ327821 DXF327788:DXF327821 EHB327788:EHB327821 EQX327788:EQX327821 FAT327788:FAT327821 FKP327788:FKP327821 FUL327788:FUL327821 GEH327788:GEH327821 GOD327788:GOD327821 GXZ327788:GXZ327821 HHV327788:HHV327821 HRR327788:HRR327821 IBN327788:IBN327821 ILJ327788:ILJ327821 IVF327788:IVF327821 JFB327788:JFB327821 JOX327788:JOX327821 JYT327788:JYT327821 KIP327788:KIP327821 KSL327788:KSL327821 LCH327788:LCH327821 LMD327788:LMD327821 LVZ327788:LVZ327821 MFV327788:MFV327821 MPR327788:MPR327821 MZN327788:MZN327821 NJJ327788:NJJ327821 NTF327788:NTF327821 ODB327788:ODB327821 OMX327788:OMX327821 OWT327788:OWT327821 PGP327788:PGP327821 PQL327788:PQL327821 QAH327788:QAH327821 QKD327788:QKD327821 QTZ327788:QTZ327821 RDV327788:RDV327821 RNR327788:RNR327821 RXN327788:RXN327821 SHJ327788:SHJ327821 SRF327788:SRF327821 TBB327788:TBB327821 TKX327788:TKX327821 TUT327788:TUT327821 UEP327788:UEP327821 UOL327788:UOL327821 UYH327788:UYH327821 VID327788:VID327821 VRZ327788:VRZ327821 WBV327788:WBV327821 WLR327788:WLR327821 WVN327788:WVN327821 F393324:F393357 JB393324:JB393357 SX393324:SX393357 ACT393324:ACT393357 AMP393324:AMP393357 AWL393324:AWL393357 BGH393324:BGH393357 BQD393324:BQD393357 BZZ393324:BZZ393357 CJV393324:CJV393357 CTR393324:CTR393357 DDN393324:DDN393357 DNJ393324:DNJ393357 DXF393324:DXF393357 EHB393324:EHB393357 EQX393324:EQX393357 FAT393324:FAT393357 FKP393324:FKP393357 FUL393324:FUL393357 GEH393324:GEH393357 GOD393324:GOD393357 GXZ393324:GXZ393357 HHV393324:HHV393357 HRR393324:HRR393357 IBN393324:IBN393357 ILJ393324:ILJ393357 IVF393324:IVF393357 JFB393324:JFB393357 JOX393324:JOX393357 JYT393324:JYT393357 KIP393324:KIP393357 KSL393324:KSL393357 LCH393324:LCH393357 LMD393324:LMD393357 LVZ393324:LVZ393357 MFV393324:MFV393357 MPR393324:MPR393357 MZN393324:MZN393357 NJJ393324:NJJ393357 NTF393324:NTF393357 ODB393324:ODB393357 OMX393324:OMX393357 OWT393324:OWT393357 PGP393324:PGP393357 PQL393324:PQL393357 QAH393324:QAH393357 QKD393324:QKD393357 QTZ393324:QTZ393357 RDV393324:RDV393357 RNR393324:RNR393357 RXN393324:RXN393357 SHJ393324:SHJ393357 SRF393324:SRF393357 TBB393324:TBB393357 TKX393324:TKX393357 TUT393324:TUT393357 UEP393324:UEP393357 UOL393324:UOL393357 UYH393324:UYH393357 VID393324:VID393357 VRZ393324:VRZ393357 WBV393324:WBV393357 WLR393324:WLR393357 WVN393324:WVN393357 F458860:F458893 JB458860:JB458893 SX458860:SX458893 ACT458860:ACT458893 AMP458860:AMP458893 AWL458860:AWL458893 BGH458860:BGH458893 BQD458860:BQD458893 BZZ458860:BZZ458893 CJV458860:CJV458893 CTR458860:CTR458893 DDN458860:DDN458893 DNJ458860:DNJ458893 DXF458860:DXF458893 EHB458860:EHB458893 EQX458860:EQX458893 FAT458860:FAT458893 FKP458860:FKP458893 FUL458860:FUL458893 GEH458860:GEH458893 GOD458860:GOD458893 GXZ458860:GXZ458893 HHV458860:HHV458893 HRR458860:HRR458893 IBN458860:IBN458893 ILJ458860:ILJ458893 IVF458860:IVF458893 JFB458860:JFB458893 JOX458860:JOX458893 JYT458860:JYT458893 KIP458860:KIP458893 KSL458860:KSL458893 LCH458860:LCH458893 LMD458860:LMD458893 LVZ458860:LVZ458893 MFV458860:MFV458893 MPR458860:MPR458893 MZN458860:MZN458893 NJJ458860:NJJ458893 NTF458860:NTF458893 ODB458860:ODB458893 OMX458860:OMX458893 OWT458860:OWT458893 PGP458860:PGP458893 PQL458860:PQL458893 QAH458860:QAH458893 QKD458860:QKD458893 QTZ458860:QTZ458893 RDV458860:RDV458893 RNR458860:RNR458893 RXN458860:RXN458893 SHJ458860:SHJ458893 SRF458860:SRF458893 TBB458860:TBB458893 TKX458860:TKX458893 TUT458860:TUT458893 UEP458860:UEP458893 UOL458860:UOL458893 UYH458860:UYH458893 VID458860:VID458893 VRZ458860:VRZ458893 WBV458860:WBV458893 WLR458860:WLR458893 WVN458860:WVN458893 F524396:F524429 JB524396:JB524429 SX524396:SX524429 ACT524396:ACT524429 AMP524396:AMP524429 AWL524396:AWL524429 BGH524396:BGH524429 BQD524396:BQD524429 BZZ524396:BZZ524429 CJV524396:CJV524429 CTR524396:CTR524429 DDN524396:DDN524429 DNJ524396:DNJ524429 DXF524396:DXF524429 EHB524396:EHB524429 EQX524396:EQX524429 FAT524396:FAT524429 FKP524396:FKP524429 FUL524396:FUL524429 GEH524396:GEH524429 GOD524396:GOD524429 GXZ524396:GXZ524429 HHV524396:HHV524429 HRR524396:HRR524429 IBN524396:IBN524429 ILJ524396:ILJ524429 IVF524396:IVF524429 JFB524396:JFB524429 JOX524396:JOX524429 JYT524396:JYT524429 KIP524396:KIP524429 KSL524396:KSL524429 LCH524396:LCH524429 LMD524396:LMD524429 LVZ524396:LVZ524429 MFV524396:MFV524429 MPR524396:MPR524429 MZN524396:MZN524429 NJJ524396:NJJ524429 NTF524396:NTF524429 ODB524396:ODB524429 OMX524396:OMX524429 OWT524396:OWT524429 PGP524396:PGP524429 PQL524396:PQL524429 QAH524396:QAH524429 QKD524396:QKD524429 QTZ524396:QTZ524429 RDV524396:RDV524429 RNR524396:RNR524429 RXN524396:RXN524429 SHJ524396:SHJ524429 SRF524396:SRF524429 TBB524396:TBB524429 TKX524396:TKX524429 TUT524396:TUT524429 UEP524396:UEP524429 UOL524396:UOL524429 UYH524396:UYH524429 VID524396:VID524429 VRZ524396:VRZ524429 WBV524396:WBV524429 WLR524396:WLR524429 WVN524396:WVN524429 F589932:F589965 JB589932:JB589965 SX589932:SX589965 ACT589932:ACT589965 AMP589932:AMP589965 AWL589932:AWL589965 BGH589932:BGH589965 BQD589932:BQD589965 BZZ589932:BZZ589965 CJV589932:CJV589965 CTR589932:CTR589965 DDN589932:DDN589965 DNJ589932:DNJ589965 DXF589932:DXF589965 EHB589932:EHB589965 EQX589932:EQX589965 FAT589932:FAT589965 FKP589932:FKP589965 FUL589932:FUL589965 GEH589932:GEH589965 GOD589932:GOD589965 GXZ589932:GXZ589965 HHV589932:HHV589965 HRR589932:HRR589965 IBN589932:IBN589965 ILJ589932:ILJ589965 IVF589932:IVF589965 JFB589932:JFB589965 JOX589932:JOX589965 JYT589932:JYT589965 KIP589932:KIP589965 KSL589932:KSL589965 LCH589932:LCH589965 LMD589932:LMD589965 LVZ589932:LVZ589965 MFV589932:MFV589965 MPR589932:MPR589965 MZN589932:MZN589965 NJJ589932:NJJ589965 NTF589932:NTF589965 ODB589932:ODB589965 OMX589932:OMX589965 OWT589932:OWT589965 PGP589932:PGP589965 PQL589932:PQL589965 QAH589932:QAH589965 QKD589932:QKD589965 QTZ589932:QTZ589965 RDV589932:RDV589965 RNR589932:RNR589965 RXN589932:RXN589965 SHJ589932:SHJ589965 SRF589932:SRF589965 TBB589932:TBB589965 TKX589932:TKX589965 TUT589932:TUT589965 UEP589932:UEP589965 UOL589932:UOL589965 UYH589932:UYH589965 VID589932:VID589965 VRZ589932:VRZ589965 WBV589932:WBV589965 WLR589932:WLR589965 WVN589932:WVN589965 F655468:F655501 JB655468:JB655501 SX655468:SX655501 ACT655468:ACT655501 AMP655468:AMP655501 AWL655468:AWL655501 BGH655468:BGH655501 BQD655468:BQD655501 BZZ655468:BZZ655501 CJV655468:CJV655501 CTR655468:CTR655501 DDN655468:DDN655501 DNJ655468:DNJ655501 DXF655468:DXF655501 EHB655468:EHB655501 EQX655468:EQX655501 FAT655468:FAT655501 FKP655468:FKP655501 FUL655468:FUL655501 GEH655468:GEH655501 GOD655468:GOD655501 GXZ655468:GXZ655501 HHV655468:HHV655501 HRR655468:HRR655501 IBN655468:IBN655501 ILJ655468:ILJ655501 IVF655468:IVF655501 JFB655468:JFB655501 JOX655468:JOX655501 JYT655468:JYT655501 KIP655468:KIP655501 KSL655468:KSL655501 LCH655468:LCH655501 LMD655468:LMD655501 LVZ655468:LVZ655501 MFV655468:MFV655501 MPR655468:MPR655501 MZN655468:MZN655501 NJJ655468:NJJ655501 NTF655468:NTF655501 ODB655468:ODB655501 OMX655468:OMX655501 OWT655468:OWT655501 PGP655468:PGP655501 PQL655468:PQL655501 QAH655468:QAH655501 QKD655468:QKD655501 QTZ655468:QTZ655501 RDV655468:RDV655501 RNR655468:RNR655501 RXN655468:RXN655501 SHJ655468:SHJ655501 SRF655468:SRF655501 TBB655468:TBB655501 TKX655468:TKX655501 TUT655468:TUT655501 UEP655468:UEP655501 UOL655468:UOL655501 UYH655468:UYH655501 VID655468:VID655501 VRZ655468:VRZ655501 WBV655468:WBV655501 WLR655468:WLR655501 WVN655468:WVN655501 F721004:F721037 JB721004:JB721037 SX721004:SX721037 ACT721004:ACT721037 AMP721004:AMP721037 AWL721004:AWL721037 BGH721004:BGH721037 BQD721004:BQD721037 BZZ721004:BZZ721037 CJV721004:CJV721037 CTR721004:CTR721037 DDN721004:DDN721037 DNJ721004:DNJ721037 DXF721004:DXF721037 EHB721004:EHB721037 EQX721004:EQX721037 FAT721004:FAT721037 FKP721004:FKP721037 FUL721004:FUL721037 GEH721004:GEH721037 GOD721004:GOD721037 GXZ721004:GXZ721037 HHV721004:HHV721037 HRR721004:HRR721037 IBN721004:IBN721037 ILJ721004:ILJ721037 IVF721004:IVF721037 JFB721004:JFB721037 JOX721004:JOX721037 JYT721004:JYT721037 KIP721004:KIP721037 KSL721004:KSL721037 LCH721004:LCH721037 LMD721004:LMD721037 LVZ721004:LVZ721037 MFV721004:MFV721037 MPR721004:MPR721037 MZN721004:MZN721037 NJJ721004:NJJ721037 NTF721004:NTF721037 ODB721004:ODB721037 OMX721004:OMX721037 OWT721004:OWT721037 PGP721004:PGP721037 PQL721004:PQL721037 QAH721004:QAH721037 QKD721004:QKD721037 QTZ721004:QTZ721037 RDV721004:RDV721037 RNR721004:RNR721037 RXN721004:RXN721037 SHJ721004:SHJ721037 SRF721004:SRF721037 TBB721004:TBB721037 TKX721004:TKX721037 TUT721004:TUT721037 UEP721004:UEP721037 UOL721004:UOL721037 UYH721004:UYH721037 VID721004:VID721037 VRZ721004:VRZ721037 WBV721004:WBV721037 WLR721004:WLR721037 WVN721004:WVN721037 F786540:F786573 JB786540:JB786573 SX786540:SX786573 ACT786540:ACT786573 AMP786540:AMP786573 AWL786540:AWL786573 BGH786540:BGH786573 BQD786540:BQD786573 BZZ786540:BZZ786573 CJV786540:CJV786573 CTR786540:CTR786573 DDN786540:DDN786573 DNJ786540:DNJ786573 DXF786540:DXF786573 EHB786540:EHB786573 EQX786540:EQX786573 FAT786540:FAT786573 FKP786540:FKP786573 FUL786540:FUL786573 GEH786540:GEH786573 GOD786540:GOD786573 GXZ786540:GXZ786573 HHV786540:HHV786573 HRR786540:HRR786573 IBN786540:IBN786573 ILJ786540:ILJ786573 IVF786540:IVF786573 JFB786540:JFB786573 JOX786540:JOX786573 JYT786540:JYT786573 KIP786540:KIP786573 KSL786540:KSL786573 LCH786540:LCH786573 LMD786540:LMD786573 LVZ786540:LVZ786573 MFV786540:MFV786573 MPR786540:MPR786573 MZN786540:MZN786573 NJJ786540:NJJ786573 NTF786540:NTF786573 ODB786540:ODB786573 OMX786540:OMX786573 OWT786540:OWT786573 PGP786540:PGP786573 PQL786540:PQL786573 QAH786540:QAH786573 QKD786540:QKD786573 QTZ786540:QTZ786573 RDV786540:RDV786573 RNR786540:RNR786573 RXN786540:RXN786573 SHJ786540:SHJ786573 SRF786540:SRF786573 TBB786540:TBB786573 TKX786540:TKX786573 TUT786540:TUT786573 UEP786540:UEP786573 UOL786540:UOL786573 UYH786540:UYH786573 VID786540:VID786573 VRZ786540:VRZ786573 WBV786540:WBV786573 WLR786540:WLR786573 WVN786540:WVN786573 F852076:F852109 JB852076:JB852109 SX852076:SX852109 ACT852076:ACT852109 AMP852076:AMP852109 AWL852076:AWL852109 BGH852076:BGH852109 BQD852076:BQD852109 BZZ852076:BZZ852109 CJV852076:CJV852109 CTR852076:CTR852109 DDN852076:DDN852109 DNJ852076:DNJ852109 DXF852076:DXF852109 EHB852076:EHB852109 EQX852076:EQX852109 FAT852076:FAT852109 FKP852076:FKP852109 FUL852076:FUL852109 GEH852076:GEH852109 GOD852076:GOD852109 GXZ852076:GXZ852109 HHV852076:HHV852109 HRR852076:HRR852109 IBN852076:IBN852109 ILJ852076:ILJ852109 IVF852076:IVF852109 JFB852076:JFB852109 JOX852076:JOX852109 JYT852076:JYT852109 KIP852076:KIP852109 KSL852076:KSL852109 LCH852076:LCH852109 LMD852076:LMD852109 LVZ852076:LVZ852109 MFV852076:MFV852109 MPR852076:MPR852109 MZN852076:MZN852109 NJJ852076:NJJ852109 NTF852076:NTF852109 ODB852076:ODB852109 OMX852076:OMX852109 OWT852076:OWT852109 PGP852076:PGP852109 PQL852076:PQL852109 QAH852076:QAH852109 QKD852076:QKD852109 QTZ852076:QTZ852109 RDV852076:RDV852109 RNR852076:RNR852109 RXN852076:RXN852109 SHJ852076:SHJ852109 SRF852076:SRF852109 TBB852076:TBB852109 TKX852076:TKX852109 TUT852076:TUT852109 UEP852076:UEP852109 UOL852076:UOL852109 UYH852076:UYH852109 VID852076:VID852109 VRZ852076:VRZ852109 WBV852076:WBV852109 WLR852076:WLR852109 WVN852076:WVN852109 F917612:F917645 JB917612:JB917645 SX917612:SX917645 ACT917612:ACT917645 AMP917612:AMP917645 AWL917612:AWL917645 BGH917612:BGH917645 BQD917612:BQD917645 BZZ917612:BZZ917645 CJV917612:CJV917645 CTR917612:CTR917645 DDN917612:DDN917645 DNJ917612:DNJ917645 DXF917612:DXF917645 EHB917612:EHB917645 EQX917612:EQX917645 FAT917612:FAT917645 FKP917612:FKP917645 FUL917612:FUL917645 GEH917612:GEH917645 GOD917612:GOD917645 GXZ917612:GXZ917645 HHV917612:HHV917645 HRR917612:HRR917645 IBN917612:IBN917645 ILJ917612:ILJ917645 IVF917612:IVF917645 JFB917612:JFB917645 JOX917612:JOX917645 JYT917612:JYT917645 KIP917612:KIP917645 KSL917612:KSL917645 LCH917612:LCH917645 LMD917612:LMD917645 LVZ917612:LVZ917645 MFV917612:MFV917645 MPR917612:MPR917645 MZN917612:MZN917645 NJJ917612:NJJ917645 NTF917612:NTF917645 ODB917612:ODB917645 OMX917612:OMX917645 OWT917612:OWT917645 PGP917612:PGP917645 PQL917612:PQL917645 QAH917612:QAH917645 QKD917612:QKD917645 QTZ917612:QTZ917645 RDV917612:RDV917645 RNR917612:RNR917645 RXN917612:RXN917645 SHJ917612:SHJ917645 SRF917612:SRF917645 TBB917612:TBB917645 TKX917612:TKX917645 TUT917612:TUT917645 UEP917612:UEP917645 UOL917612:UOL917645 UYH917612:UYH917645 VID917612:VID917645 VRZ917612:VRZ917645 WBV917612:WBV917645 WLR917612:WLR917645 WVN917612:WVN917645 F983148:F983181 JB983148:JB983181 SX983148:SX983181 ACT983148:ACT983181 AMP983148:AMP983181 AWL983148:AWL983181 BGH983148:BGH983181 BQD983148:BQD983181 BZZ983148:BZZ983181 CJV983148:CJV983181 CTR983148:CTR983181 DDN983148:DDN983181 DNJ983148:DNJ983181 DXF983148:DXF983181 EHB983148:EHB983181 EQX983148:EQX983181 FAT983148:FAT983181 FKP983148:FKP983181 FUL983148:FUL983181 GEH983148:GEH983181 GOD983148:GOD983181 GXZ983148:GXZ983181 HHV983148:HHV983181 HRR983148:HRR983181 IBN983148:IBN983181 ILJ983148:ILJ983181 IVF983148:IVF983181 JFB983148:JFB983181 JOX983148:JOX983181 JYT983148:JYT983181 KIP983148:KIP983181 KSL983148:KSL983181 LCH983148:LCH983181 LMD983148:LMD983181 LVZ983148:LVZ983181 MFV983148:MFV983181 MPR983148:MPR983181 MZN983148:MZN983181 NJJ983148:NJJ983181 NTF983148:NTF983181 ODB983148:ODB983181 OMX983148:OMX983181 OWT983148:OWT983181 PGP983148:PGP983181 PQL983148:PQL983181 QAH983148:QAH983181 QKD983148:QKD983181 QTZ983148:QTZ983181 RDV983148:RDV983181 RNR983148:RNR983181 RXN983148:RXN983181 SHJ983148:SHJ983181 SRF983148:SRF983181 TBB983148:TBB983181 TKX983148:TKX983181 TUT983148:TUT983181 UEP983148:UEP983181 UOL983148:UOL983181 UYH983148:UYH983181 VID983148:VID983181 VRZ983148:VRZ983181 WBV983148:WBV983181 WLR983148:WLR983181 WVN983148:WVN983181 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F870" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65645:F65678 JB65645:JB65678 SX65645:SX65678 ACT65645:ACT65678 AMP65645:AMP65678 AWL65645:AWL65678 BGH65645:BGH65678 BQD65645:BQD65678 BZZ65645:BZZ65678 CJV65645:CJV65678 CTR65645:CTR65678 DDN65645:DDN65678 DNJ65645:DNJ65678 DXF65645:DXF65678 EHB65645:EHB65678 EQX65645:EQX65678 FAT65645:FAT65678 FKP65645:FKP65678 FUL65645:FUL65678 GEH65645:GEH65678 GOD65645:GOD65678 GXZ65645:GXZ65678 HHV65645:HHV65678 HRR65645:HRR65678 IBN65645:IBN65678 ILJ65645:ILJ65678 IVF65645:IVF65678 JFB65645:JFB65678 JOX65645:JOX65678 JYT65645:JYT65678 KIP65645:KIP65678 KSL65645:KSL65678 LCH65645:LCH65678 LMD65645:LMD65678 LVZ65645:LVZ65678 MFV65645:MFV65678 MPR65645:MPR65678 MZN65645:MZN65678 NJJ65645:NJJ65678 NTF65645:NTF65678 ODB65645:ODB65678 OMX65645:OMX65678 OWT65645:OWT65678 PGP65645:PGP65678 PQL65645:PQL65678 QAH65645:QAH65678 QKD65645:QKD65678 QTZ65645:QTZ65678 RDV65645:RDV65678 RNR65645:RNR65678 RXN65645:RXN65678 SHJ65645:SHJ65678 SRF65645:SRF65678 TBB65645:TBB65678 TKX65645:TKX65678 TUT65645:TUT65678 UEP65645:UEP65678 UOL65645:UOL65678 UYH65645:UYH65678 VID65645:VID65678 VRZ65645:VRZ65678 WBV65645:WBV65678 WLR65645:WLR65678 WVN65645:WVN65678 F131181:F131214 JB131181:JB131214 SX131181:SX131214 ACT131181:ACT131214 AMP131181:AMP131214 AWL131181:AWL131214 BGH131181:BGH131214 BQD131181:BQD131214 BZZ131181:BZZ131214 CJV131181:CJV131214 CTR131181:CTR131214 DDN131181:DDN131214 DNJ131181:DNJ131214 DXF131181:DXF131214 EHB131181:EHB131214 EQX131181:EQX131214 FAT131181:FAT131214 FKP131181:FKP131214 FUL131181:FUL131214 GEH131181:GEH131214 GOD131181:GOD131214 GXZ131181:GXZ131214 HHV131181:HHV131214 HRR131181:HRR131214 IBN131181:IBN131214 ILJ131181:ILJ131214 IVF131181:IVF131214 JFB131181:JFB131214 JOX131181:JOX131214 JYT131181:JYT131214 KIP131181:KIP131214 KSL131181:KSL131214 LCH131181:LCH131214 LMD131181:LMD131214 LVZ131181:LVZ131214 MFV131181:MFV131214 MPR131181:MPR131214 MZN131181:MZN131214 NJJ131181:NJJ131214 NTF131181:NTF131214 ODB131181:ODB131214 OMX131181:OMX131214 OWT131181:OWT131214 PGP131181:PGP131214 PQL131181:PQL131214 QAH131181:QAH131214 QKD131181:QKD131214 QTZ131181:QTZ131214 RDV131181:RDV131214 RNR131181:RNR131214 RXN131181:RXN131214 SHJ131181:SHJ131214 SRF131181:SRF131214 TBB131181:TBB131214 TKX131181:TKX131214 TUT131181:TUT131214 UEP131181:UEP131214 UOL131181:UOL131214 UYH131181:UYH131214 VID131181:VID131214 VRZ131181:VRZ131214 WBV131181:WBV131214 WLR131181:WLR131214 WVN131181:WVN131214 F196717:F196750 JB196717:JB196750 SX196717:SX196750 ACT196717:ACT196750 AMP196717:AMP196750 AWL196717:AWL196750 BGH196717:BGH196750 BQD196717:BQD196750 BZZ196717:BZZ196750 CJV196717:CJV196750 CTR196717:CTR196750 DDN196717:DDN196750 DNJ196717:DNJ196750 DXF196717:DXF196750 EHB196717:EHB196750 EQX196717:EQX196750 FAT196717:FAT196750 FKP196717:FKP196750 FUL196717:FUL196750 GEH196717:GEH196750 GOD196717:GOD196750 GXZ196717:GXZ196750 HHV196717:HHV196750 HRR196717:HRR196750 IBN196717:IBN196750 ILJ196717:ILJ196750 IVF196717:IVF196750 JFB196717:JFB196750 JOX196717:JOX196750 JYT196717:JYT196750 KIP196717:KIP196750 KSL196717:KSL196750 LCH196717:LCH196750 LMD196717:LMD196750 LVZ196717:LVZ196750 MFV196717:MFV196750 MPR196717:MPR196750 MZN196717:MZN196750 NJJ196717:NJJ196750 NTF196717:NTF196750 ODB196717:ODB196750 OMX196717:OMX196750 OWT196717:OWT196750 PGP196717:PGP196750 PQL196717:PQL196750 QAH196717:QAH196750 QKD196717:QKD196750 QTZ196717:QTZ196750 RDV196717:RDV196750 RNR196717:RNR196750 RXN196717:RXN196750 SHJ196717:SHJ196750 SRF196717:SRF196750 TBB196717:TBB196750 TKX196717:TKX196750 TUT196717:TUT196750 UEP196717:UEP196750 UOL196717:UOL196750 UYH196717:UYH196750 VID196717:VID196750 VRZ196717:VRZ196750 WBV196717:WBV196750 WLR196717:WLR196750 WVN196717:WVN196750 F262253:F262286 JB262253:JB262286 SX262253:SX262286 ACT262253:ACT262286 AMP262253:AMP262286 AWL262253:AWL262286 BGH262253:BGH262286 BQD262253:BQD262286 BZZ262253:BZZ262286 CJV262253:CJV262286 CTR262253:CTR262286 DDN262253:DDN262286 DNJ262253:DNJ262286 DXF262253:DXF262286 EHB262253:EHB262286 EQX262253:EQX262286 FAT262253:FAT262286 FKP262253:FKP262286 FUL262253:FUL262286 GEH262253:GEH262286 GOD262253:GOD262286 GXZ262253:GXZ262286 HHV262253:HHV262286 HRR262253:HRR262286 IBN262253:IBN262286 ILJ262253:ILJ262286 IVF262253:IVF262286 JFB262253:JFB262286 JOX262253:JOX262286 JYT262253:JYT262286 KIP262253:KIP262286 KSL262253:KSL262286 LCH262253:LCH262286 LMD262253:LMD262286 LVZ262253:LVZ262286 MFV262253:MFV262286 MPR262253:MPR262286 MZN262253:MZN262286 NJJ262253:NJJ262286 NTF262253:NTF262286 ODB262253:ODB262286 OMX262253:OMX262286 OWT262253:OWT262286 PGP262253:PGP262286 PQL262253:PQL262286 QAH262253:QAH262286 QKD262253:QKD262286 QTZ262253:QTZ262286 RDV262253:RDV262286 RNR262253:RNR262286 RXN262253:RXN262286 SHJ262253:SHJ262286 SRF262253:SRF262286 TBB262253:TBB262286 TKX262253:TKX262286 TUT262253:TUT262286 UEP262253:UEP262286 UOL262253:UOL262286 UYH262253:UYH262286 VID262253:VID262286 VRZ262253:VRZ262286 WBV262253:WBV262286 WLR262253:WLR262286 WVN262253:WVN262286 F327789:F327822 JB327789:JB327822 SX327789:SX327822 ACT327789:ACT327822 AMP327789:AMP327822 AWL327789:AWL327822 BGH327789:BGH327822 BQD327789:BQD327822 BZZ327789:BZZ327822 CJV327789:CJV327822 CTR327789:CTR327822 DDN327789:DDN327822 DNJ327789:DNJ327822 DXF327789:DXF327822 EHB327789:EHB327822 EQX327789:EQX327822 FAT327789:FAT327822 FKP327789:FKP327822 FUL327789:FUL327822 GEH327789:GEH327822 GOD327789:GOD327822 GXZ327789:GXZ327822 HHV327789:HHV327822 HRR327789:HRR327822 IBN327789:IBN327822 ILJ327789:ILJ327822 IVF327789:IVF327822 JFB327789:JFB327822 JOX327789:JOX327822 JYT327789:JYT327822 KIP327789:KIP327822 KSL327789:KSL327822 LCH327789:LCH327822 LMD327789:LMD327822 LVZ327789:LVZ327822 MFV327789:MFV327822 MPR327789:MPR327822 MZN327789:MZN327822 NJJ327789:NJJ327822 NTF327789:NTF327822 ODB327789:ODB327822 OMX327789:OMX327822 OWT327789:OWT327822 PGP327789:PGP327822 PQL327789:PQL327822 QAH327789:QAH327822 QKD327789:QKD327822 QTZ327789:QTZ327822 RDV327789:RDV327822 RNR327789:RNR327822 RXN327789:RXN327822 SHJ327789:SHJ327822 SRF327789:SRF327822 TBB327789:TBB327822 TKX327789:TKX327822 TUT327789:TUT327822 UEP327789:UEP327822 UOL327789:UOL327822 UYH327789:UYH327822 VID327789:VID327822 VRZ327789:VRZ327822 WBV327789:WBV327822 WLR327789:WLR327822 WVN327789:WVN327822 F393325:F393358 JB393325:JB393358 SX393325:SX393358 ACT393325:ACT393358 AMP393325:AMP393358 AWL393325:AWL393358 BGH393325:BGH393358 BQD393325:BQD393358 BZZ393325:BZZ393358 CJV393325:CJV393358 CTR393325:CTR393358 DDN393325:DDN393358 DNJ393325:DNJ393358 DXF393325:DXF393358 EHB393325:EHB393358 EQX393325:EQX393358 FAT393325:FAT393358 FKP393325:FKP393358 FUL393325:FUL393358 GEH393325:GEH393358 GOD393325:GOD393358 GXZ393325:GXZ393358 HHV393325:HHV393358 HRR393325:HRR393358 IBN393325:IBN393358 ILJ393325:ILJ393358 IVF393325:IVF393358 JFB393325:JFB393358 JOX393325:JOX393358 JYT393325:JYT393358 KIP393325:KIP393358 KSL393325:KSL393358 LCH393325:LCH393358 LMD393325:LMD393358 LVZ393325:LVZ393358 MFV393325:MFV393358 MPR393325:MPR393358 MZN393325:MZN393358 NJJ393325:NJJ393358 NTF393325:NTF393358 ODB393325:ODB393358 OMX393325:OMX393358 OWT393325:OWT393358 PGP393325:PGP393358 PQL393325:PQL393358 QAH393325:QAH393358 QKD393325:QKD393358 QTZ393325:QTZ393358 RDV393325:RDV393358 RNR393325:RNR393358 RXN393325:RXN393358 SHJ393325:SHJ393358 SRF393325:SRF393358 TBB393325:TBB393358 TKX393325:TKX393358 TUT393325:TUT393358 UEP393325:UEP393358 UOL393325:UOL393358 UYH393325:UYH393358 VID393325:VID393358 VRZ393325:VRZ393358 WBV393325:WBV393358 WLR393325:WLR393358 WVN393325:WVN393358 F458861:F458894 JB458861:JB458894 SX458861:SX458894 ACT458861:ACT458894 AMP458861:AMP458894 AWL458861:AWL458894 BGH458861:BGH458894 BQD458861:BQD458894 BZZ458861:BZZ458894 CJV458861:CJV458894 CTR458861:CTR458894 DDN458861:DDN458894 DNJ458861:DNJ458894 DXF458861:DXF458894 EHB458861:EHB458894 EQX458861:EQX458894 FAT458861:FAT458894 FKP458861:FKP458894 FUL458861:FUL458894 GEH458861:GEH458894 GOD458861:GOD458894 GXZ458861:GXZ458894 HHV458861:HHV458894 HRR458861:HRR458894 IBN458861:IBN458894 ILJ458861:ILJ458894 IVF458861:IVF458894 JFB458861:JFB458894 JOX458861:JOX458894 JYT458861:JYT458894 KIP458861:KIP458894 KSL458861:KSL458894 LCH458861:LCH458894 LMD458861:LMD458894 LVZ458861:LVZ458894 MFV458861:MFV458894 MPR458861:MPR458894 MZN458861:MZN458894 NJJ458861:NJJ458894 NTF458861:NTF458894 ODB458861:ODB458894 OMX458861:OMX458894 OWT458861:OWT458894 PGP458861:PGP458894 PQL458861:PQL458894 QAH458861:QAH458894 QKD458861:QKD458894 QTZ458861:QTZ458894 RDV458861:RDV458894 RNR458861:RNR458894 RXN458861:RXN458894 SHJ458861:SHJ458894 SRF458861:SRF458894 TBB458861:TBB458894 TKX458861:TKX458894 TUT458861:TUT458894 UEP458861:UEP458894 UOL458861:UOL458894 UYH458861:UYH458894 VID458861:VID458894 VRZ458861:VRZ458894 WBV458861:WBV458894 WLR458861:WLR458894 WVN458861:WVN458894 F524397:F524430 JB524397:JB524430 SX524397:SX524430 ACT524397:ACT524430 AMP524397:AMP524430 AWL524397:AWL524430 BGH524397:BGH524430 BQD524397:BQD524430 BZZ524397:BZZ524430 CJV524397:CJV524430 CTR524397:CTR524430 DDN524397:DDN524430 DNJ524397:DNJ524430 DXF524397:DXF524430 EHB524397:EHB524430 EQX524397:EQX524430 FAT524397:FAT524430 FKP524397:FKP524430 FUL524397:FUL524430 GEH524397:GEH524430 GOD524397:GOD524430 GXZ524397:GXZ524430 HHV524397:HHV524430 HRR524397:HRR524430 IBN524397:IBN524430 ILJ524397:ILJ524430 IVF524397:IVF524430 JFB524397:JFB524430 JOX524397:JOX524430 JYT524397:JYT524430 KIP524397:KIP524430 KSL524397:KSL524430 LCH524397:LCH524430 LMD524397:LMD524430 LVZ524397:LVZ524430 MFV524397:MFV524430 MPR524397:MPR524430 MZN524397:MZN524430 NJJ524397:NJJ524430 NTF524397:NTF524430 ODB524397:ODB524430 OMX524397:OMX524430 OWT524397:OWT524430 PGP524397:PGP524430 PQL524397:PQL524430 QAH524397:QAH524430 QKD524397:QKD524430 QTZ524397:QTZ524430 RDV524397:RDV524430 RNR524397:RNR524430 RXN524397:RXN524430 SHJ524397:SHJ524430 SRF524397:SRF524430 TBB524397:TBB524430 TKX524397:TKX524430 TUT524397:TUT524430 UEP524397:UEP524430 UOL524397:UOL524430 UYH524397:UYH524430 VID524397:VID524430 VRZ524397:VRZ524430 WBV524397:WBV524430 WLR524397:WLR524430 WVN524397:WVN524430 F589933:F589966 JB589933:JB589966 SX589933:SX589966 ACT589933:ACT589966 AMP589933:AMP589966 AWL589933:AWL589966 BGH589933:BGH589966 BQD589933:BQD589966 BZZ589933:BZZ589966 CJV589933:CJV589966 CTR589933:CTR589966 DDN589933:DDN589966 DNJ589933:DNJ589966 DXF589933:DXF589966 EHB589933:EHB589966 EQX589933:EQX589966 FAT589933:FAT589966 FKP589933:FKP589966 FUL589933:FUL589966 GEH589933:GEH589966 GOD589933:GOD589966 GXZ589933:GXZ589966 HHV589933:HHV589966 HRR589933:HRR589966 IBN589933:IBN589966 ILJ589933:ILJ589966 IVF589933:IVF589966 JFB589933:JFB589966 JOX589933:JOX589966 JYT589933:JYT589966 KIP589933:KIP589966 KSL589933:KSL589966 LCH589933:LCH589966 LMD589933:LMD589966 LVZ589933:LVZ589966 MFV589933:MFV589966 MPR589933:MPR589966 MZN589933:MZN589966 NJJ589933:NJJ589966 NTF589933:NTF589966 ODB589933:ODB589966 OMX589933:OMX589966 OWT589933:OWT589966 PGP589933:PGP589966 PQL589933:PQL589966 QAH589933:QAH589966 QKD589933:QKD589966 QTZ589933:QTZ589966 RDV589933:RDV589966 RNR589933:RNR589966 RXN589933:RXN589966 SHJ589933:SHJ589966 SRF589933:SRF589966 TBB589933:TBB589966 TKX589933:TKX589966 TUT589933:TUT589966 UEP589933:UEP589966 UOL589933:UOL589966 UYH589933:UYH589966 VID589933:VID589966 VRZ589933:VRZ589966 WBV589933:WBV589966 WLR589933:WLR589966 WVN589933:WVN589966 F655469:F655502 JB655469:JB655502 SX655469:SX655502 ACT655469:ACT655502 AMP655469:AMP655502 AWL655469:AWL655502 BGH655469:BGH655502 BQD655469:BQD655502 BZZ655469:BZZ655502 CJV655469:CJV655502 CTR655469:CTR655502 DDN655469:DDN655502 DNJ655469:DNJ655502 DXF655469:DXF655502 EHB655469:EHB655502 EQX655469:EQX655502 FAT655469:FAT655502 FKP655469:FKP655502 FUL655469:FUL655502 GEH655469:GEH655502 GOD655469:GOD655502 GXZ655469:GXZ655502 HHV655469:HHV655502 HRR655469:HRR655502 IBN655469:IBN655502 ILJ655469:ILJ655502 IVF655469:IVF655502 JFB655469:JFB655502 JOX655469:JOX655502 JYT655469:JYT655502 KIP655469:KIP655502 KSL655469:KSL655502 LCH655469:LCH655502 LMD655469:LMD655502 LVZ655469:LVZ655502 MFV655469:MFV655502 MPR655469:MPR655502 MZN655469:MZN655502 NJJ655469:NJJ655502 NTF655469:NTF655502 ODB655469:ODB655502 OMX655469:OMX655502 OWT655469:OWT655502 PGP655469:PGP655502 PQL655469:PQL655502 QAH655469:QAH655502 QKD655469:QKD655502 QTZ655469:QTZ655502 RDV655469:RDV655502 RNR655469:RNR655502 RXN655469:RXN655502 SHJ655469:SHJ655502 SRF655469:SRF655502 TBB655469:TBB655502 TKX655469:TKX655502 TUT655469:TUT655502 UEP655469:UEP655502 UOL655469:UOL655502 UYH655469:UYH655502 VID655469:VID655502 VRZ655469:VRZ655502 WBV655469:WBV655502 WLR655469:WLR655502 WVN655469:WVN655502 F721005:F721038 JB721005:JB721038 SX721005:SX721038 ACT721005:ACT721038 AMP721005:AMP721038 AWL721005:AWL721038 BGH721005:BGH721038 BQD721005:BQD721038 BZZ721005:BZZ721038 CJV721005:CJV721038 CTR721005:CTR721038 DDN721005:DDN721038 DNJ721005:DNJ721038 DXF721005:DXF721038 EHB721005:EHB721038 EQX721005:EQX721038 FAT721005:FAT721038 FKP721005:FKP721038 FUL721005:FUL721038 GEH721005:GEH721038 GOD721005:GOD721038 GXZ721005:GXZ721038 HHV721005:HHV721038 HRR721005:HRR721038 IBN721005:IBN721038 ILJ721005:ILJ721038 IVF721005:IVF721038 JFB721005:JFB721038 JOX721005:JOX721038 JYT721005:JYT721038 KIP721005:KIP721038 KSL721005:KSL721038 LCH721005:LCH721038 LMD721005:LMD721038 LVZ721005:LVZ721038 MFV721005:MFV721038 MPR721005:MPR721038 MZN721005:MZN721038 NJJ721005:NJJ721038 NTF721005:NTF721038 ODB721005:ODB721038 OMX721005:OMX721038 OWT721005:OWT721038 PGP721005:PGP721038 PQL721005:PQL721038 QAH721005:QAH721038 QKD721005:QKD721038 QTZ721005:QTZ721038 RDV721005:RDV721038 RNR721005:RNR721038 RXN721005:RXN721038 SHJ721005:SHJ721038 SRF721005:SRF721038 TBB721005:TBB721038 TKX721005:TKX721038 TUT721005:TUT721038 UEP721005:UEP721038 UOL721005:UOL721038 UYH721005:UYH721038 VID721005:VID721038 VRZ721005:VRZ721038 WBV721005:WBV721038 WLR721005:WLR721038 WVN721005:WVN721038 F786541:F786574 JB786541:JB786574 SX786541:SX786574 ACT786541:ACT786574 AMP786541:AMP786574 AWL786541:AWL786574 BGH786541:BGH786574 BQD786541:BQD786574 BZZ786541:BZZ786574 CJV786541:CJV786574 CTR786541:CTR786574 DDN786541:DDN786574 DNJ786541:DNJ786574 DXF786541:DXF786574 EHB786541:EHB786574 EQX786541:EQX786574 FAT786541:FAT786574 FKP786541:FKP786574 FUL786541:FUL786574 GEH786541:GEH786574 GOD786541:GOD786574 GXZ786541:GXZ786574 HHV786541:HHV786574 HRR786541:HRR786574 IBN786541:IBN786574 ILJ786541:ILJ786574 IVF786541:IVF786574 JFB786541:JFB786574 JOX786541:JOX786574 JYT786541:JYT786574 KIP786541:KIP786574 KSL786541:KSL786574 LCH786541:LCH786574 LMD786541:LMD786574 LVZ786541:LVZ786574 MFV786541:MFV786574 MPR786541:MPR786574 MZN786541:MZN786574 NJJ786541:NJJ786574 NTF786541:NTF786574 ODB786541:ODB786574 OMX786541:OMX786574 OWT786541:OWT786574 PGP786541:PGP786574 PQL786541:PQL786574 QAH786541:QAH786574 QKD786541:QKD786574 QTZ786541:QTZ786574 RDV786541:RDV786574 RNR786541:RNR786574 RXN786541:RXN786574 SHJ786541:SHJ786574 SRF786541:SRF786574 TBB786541:TBB786574 TKX786541:TKX786574 TUT786541:TUT786574 UEP786541:UEP786574 UOL786541:UOL786574 UYH786541:UYH786574 VID786541:VID786574 VRZ786541:VRZ786574 WBV786541:WBV786574 WLR786541:WLR786574 WVN786541:WVN786574 F852077:F852110 JB852077:JB852110 SX852077:SX852110 ACT852077:ACT852110 AMP852077:AMP852110 AWL852077:AWL852110 BGH852077:BGH852110 BQD852077:BQD852110 BZZ852077:BZZ852110 CJV852077:CJV852110 CTR852077:CTR852110 DDN852077:DDN852110 DNJ852077:DNJ852110 DXF852077:DXF852110 EHB852077:EHB852110 EQX852077:EQX852110 FAT852077:FAT852110 FKP852077:FKP852110 FUL852077:FUL852110 GEH852077:GEH852110 GOD852077:GOD852110 GXZ852077:GXZ852110 HHV852077:HHV852110 HRR852077:HRR852110 IBN852077:IBN852110 ILJ852077:ILJ852110 IVF852077:IVF852110 JFB852077:JFB852110 JOX852077:JOX852110 JYT852077:JYT852110 KIP852077:KIP852110 KSL852077:KSL852110 LCH852077:LCH852110 LMD852077:LMD852110 LVZ852077:LVZ852110 MFV852077:MFV852110 MPR852077:MPR852110 MZN852077:MZN852110 NJJ852077:NJJ852110 NTF852077:NTF852110 ODB852077:ODB852110 OMX852077:OMX852110 OWT852077:OWT852110 PGP852077:PGP852110 PQL852077:PQL852110 QAH852077:QAH852110 QKD852077:QKD852110 QTZ852077:QTZ852110 RDV852077:RDV852110 RNR852077:RNR852110 RXN852077:RXN852110 SHJ852077:SHJ852110 SRF852077:SRF852110 TBB852077:TBB852110 TKX852077:TKX852110 TUT852077:TUT852110 UEP852077:UEP852110 UOL852077:UOL852110 UYH852077:UYH852110 VID852077:VID852110 VRZ852077:VRZ852110 WBV852077:WBV852110 WLR852077:WLR852110 WVN852077:WVN852110 F917613:F917646 JB917613:JB917646 SX917613:SX917646 ACT917613:ACT917646 AMP917613:AMP917646 AWL917613:AWL917646 BGH917613:BGH917646 BQD917613:BQD917646 BZZ917613:BZZ917646 CJV917613:CJV917646 CTR917613:CTR917646 DDN917613:DDN917646 DNJ917613:DNJ917646 DXF917613:DXF917646 EHB917613:EHB917646 EQX917613:EQX917646 FAT917613:FAT917646 FKP917613:FKP917646 FUL917613:FUL917646 GEH917613:GEH917646 GOD917613:GOD917646 GXZ917613:GXZ917646 HHV917613:HHV917646 HRR917613:HRR917646 IBN917613:IBN917646 ILJ917613:ILJ917646 IVF917613:IVF917646 JFB917613:JFB917646 JOX917613:JOX917646 JYT917613:JYT917646 KIP917613:KIP917646 KSL917613:KSL917646 LCH917613:LCH917646 LMD917613:LMD917646 LVZ917613:LVZ917646 MFV917613:MFV917646 MPR917613:MPR917646 MZN917613:MZN917646 NJJ917613:NJJ917646 NTF917613:NTF917646 ODB917613:ODB917646 OMX917613:OMX917646 OWT917613:OWT917646 PGP917613:PGP917646 PQL917613:PQL917646 QAH917613:QAH917646 QKD917613:QKD917646 QTZ917613:QTZ917646 RDV917613:RDV917646 RNR917613:RNR917646 RXN917613:RXN917646 SHJ917613:SHJ917646 SRF917613:SRF917646 TBB917613:TBB917646 TKX917613:TKX917646 TUT917613:TUT917646 UEP917613:UEP917646 UOL917613:UOL917646 UYH917613:UYH917646 VID917613:VID917646 VRZ917613:VRZ917646 WBV917613:WBV917646 WLR917613:WLR917646 WVN917613:WVN917646 F983149:F983182 JB983149:JB983182 SX983149:SX983182 ACT983149:ACT983182 AMP983149:AMP983182 AWL983149:AWL983182 BGH983149:BGH983182 BQD983149:BQD983182 BZZ983149:BZZ983182 CJV983149:CJV983182 CTR983149:CTR983182 DDN983149:DDN983182 DNJ983149:DNJ983182 DXF983149:DXF983182 EHB983149:EHB983182 EQX983149:EQX983182 FAT983149:FAT983182 FKP983149:FKP983182 FUL983149:FUL983182 GEH983149:GEH983182 GOD983149:GOD983182 GXZ983149:GXZ983182 HHV983149:HHV983182 HRR983149:HRR983182 IBN983149:IBN983182 ILJ983149:ILJ983182 IVF983149:IVF983182 JFB983149:JFB983182 JOX983149:JOX983182 JYT983149:JYT983182 KIP983149:KIP983182 KSL983149:KSL983182 LCH983149:LCH983182 LMD983149:LMD983182 LVZ983149:LVZ983182 MFV983149:MFV983182 MPR983149:MPR983182 MZN983149:MZN983182 NJJ983149:NJJ983182 NTF983149:NTF983182 ODB983149:ODB983182 OMX983149:OMX983182 OWT983149:OWT983182 PGP983149:PGP983182 PQL983149:PQL983182 QAH983149:QAH983182 QKD983149:QKD983182 QTZ983149:QTZ983182 RDV983149:RDV983182 RNR983149:RNR983182 RXN983149:RXN983182 SHJ983149:SHJ983182 SRF983149:SRF983182 TBB983149:TBB983182 TKX983149:TKX983182 TUT983149:TUT983182 UEP983149:UEP983182 UOL983149:UOL983182 UYH983149:UYH983182 VID983149:VID983182 VRZ983149:VRZ983182 WBV983149:WBV983182 WLR983149:WLR983182 WVN983149:WVN983182 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F871" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65644:H65677 JD65644:JD65677 SZ65644:SZ65677 ACV65644:ACV65677 AMR65644:AMR65677 AWN65644:AWN65677 BGJ65644:BGJ65677 BQF65644:BQF65677 CAB65644:CAB65677 CJX65644:CJX65677 CTT65644:CTT65677 DDP65644:DDP65677 DNL65644:DNL65677 DXH65644:DXH65677 EHD65644:EHD65677 EQZ65644:EQZ65677 FAV65644:FAV65677 FKR65644:FKR65677 FUN65644:FUN65677 GEJ65644:GEJ65677 GOF65644:GOF65677 GYB65644:GYB65677 HHX65644:HHX65677 HRT65644:HRT65677 IBP65644:IBP65677 ILL65644:ILL65677 IVH65644:IVH65677 JFD65644:JFD65677 JOZ65644:JOZ65677 JYV65644:JYV65677 KIR65644:KIR65677 KSN65644:KSN65677 LCJ65644:LCJ65677 LMF65644:LMF65677 LWB65644:LWB65677 MFX65644:MFX65677 MPT65644:MPT65677 MZP65644:MZP65677 NJL65644:NJL65677 NTH65644:NTH65677 ODD65644:ODD65677 OMZ65644:OMZ65677 OWV65644:OWV65677 PGR65644:PGR65677 PQN65644:PQN65677 QAJ65644:QAJ65677 QKF65644:QKF65677 QUB65644:QUB65677 RDX65644:RDX65677 RNT65644:RNT65677 RXP65644:RXP65677 SHL65644:SHL65677 SRH65644:SRH65677 TBD65644:TBD65677 TKZ65644:TKZ65677 TUV65644:TUV65677 UER65644:UER65677 UON65644:UON65677 UYJ65644:UYJ65677 VIF65644:VIF65677 VSB65644:VSB65677 WBX65644:WBX65677 WLT65644:WLT65677 WVP65644:WVP65677 H131180:H131213 JD131180:JD131213 SZ131180:SZ131213 ACV131180:ACV131213 AMR131180:AMR131213 AWN131180:AWN131213 BGJ131180:BGJ131213 BQF131180:BQF131213 CAB131180:CAB131213 CJX131180:CJX131213 CTT131180:CTT131213 DDP131180:DDP131213 DNL131180:DNL131213 DXH131180:DXH131213 EHD131180:EHD131213 EQZ131180:EQZ131213 FAV131180:FAV131213 FKR131180:FKR131213 FUN131180:FUN131213 GEJ131180:GEJ131213 GOF131180:GOF131213 GYB131180:GYB131213 HHX131180:HHX131213 HRT131180:HRT131213 IBP131180:IBP131213 ILL131180:ILL131213 IVH131180:IVH131213 JFD131180:JFD131213 JOZ131180:JOZ131213 JYV131180:JYV131213 KIR131180:KIR131213 KSN131180:KSN131213 LCJ131180:LCJ131213 LMF131180:LMF131213 LWB131180:LWB131213 MFX131180:MFX131213 MPT131180:MPT131213 MZP131180:MZP131213 NJL131180:NJL131213 NTH131180:NTH131213 ODD131180:ODD131213 OMZ131180:OMZ131213 OWV131180:OWV131213 PGR131180:PGR131213 PQN131180:PQN131213 QAJ131180:QAJ131213 QKF131180:QKF131213 QUB131180:QUB131213 RDX131180:RDX131213 RNT131180:RNT131213 RXP131180:RXP131213 SHL131180:SHL131213 SRH131180:SRH131213 TBD131180:TBD131213 TKZ131180:TKZ131213 TUV131180:TUV131213 UER131180:UER131213 UON131180:UON131213 UYJ131180:UYJ131213 VIF131180:VIF131213 VSB131180:VSB131213 WBX131180:WBX131213 WLT131180:WLT131213 WVP131180:WVP131213 H196716:H196749 JD196716:JD196749 SZ196716:SZ196749 ACV196716:ACV196749 AMR196716:AMR196749 AWN196716:AWN196749 BGJ196716:BGJ196749 BQF196716:BQF196749 CAB196716:CAB196749 CJX196716:CJX196749 CTT196716:CTT196749 DDP196716:DDP196749 DNL196716:DNL196749 DXH196716:DXH196749 EHD196716:EHD196749 EQZ196716:EQZ196749 FAV196716:FAV196749 FKR196716:FKR196749 FUN196716:FUN196749 GEJ196716:GEJ196749 GOF196716:GOF196749 GYB196716:GYB196749 HHX196716:HHX196749 HRT196716:HRT196749 IBP196716:IBP196749 ILL196716:ILL196749 IVH196716:IVH196749 JFD196716:JFD196749 JOZ196716:JOZ196749 JYV196716:JYV196749 KIR196716:KIR196749 KSN196716:KSN196749 LCJ196716:LCJ196749 LMF196716:LMF196749 LWB196716:LWB196749 MFX196716:MFX196749 MPT196716:MPT196749 MZP196716:MZP196749 NJL196716:NJL196749 NTH196716:NTH196749 ODD196716:ODD196749 OMZ196716:OMZ196749 OWV196716:OWV196749 PGR196716:PGR196749 PQN196716:PQN196749 QAJ196716:QAJ196749 QKF196716:QKF196749 QUB196716:QUB196749 RDX196716:RDX196749 RNT196716:RNT196749 RXP196716:RXP196749 SHL196716:SHL196749 SRH196716:SRH196749 TBD196716:TBD196749 TKZ196716:TKZ196749 TUV196716:TUV196749 UER196716:UER196749 UON196716:UON196749 UYJ196716:UYJ196749 VIF196716:VIF196749 VSB196716:VSB196749 WBX196716:WBX196749 WLT196716:WLT196749 WVP196716:WVP196749 H262252:H262285 JD262252:JD262285 SZ262252:SZ262285 ACV262252:ACV262285 AMR262252:AMR262285 AWN262252:AWN262285 BGJ262252:BGJ262285 BQF262252:BQF262285 CAB262252:CAB262285 CJX262252:CJX262285 CTT262252:CTT262285 DDP262252:DDP262285 DNL262252:DNL262285 DXH262252:DXH262285 EHD262252:EHD262285 EQZ262252:EQZ262285 FAV262252:FAV262285 FKR262252:FKR262285 FUN262252:FUN262285 GEJ262252:GEJ262285 GOF262252:GOF262285 GYB262252:GYB262285 HHX262252:HHX262285 HRT262252:HRT262285 IBP262252:IBP262285 ILL262252:ILL262285 IVH262252:IVH262285 JFD262252:JFD262285 JOZ262252:JOZ262285 JYV262252:JYV262285 KIR262252:KIR262285 KSN262252:KSN262285 LCJ262252:LCJ262285 LMF262252:LMF262285 LWB262252:LWB262285 MFX262252:MFX262285 MPT262252:MPT262285 MZP262252:MZP262285 NJL262252:NJL262285 NTH262252:NTH262285 ODD262252:ODD262285 OMZ262252:OMZ262285 OWV262252:OWV262285 PGR262252:PGR262285 PQN262252:PQN262285 QAJ262252:QAJ262285 QKF262252:QKF262285 QUB262252:QUB262285 RDX262252:RDX262285 RNT262252:RNT262285 RXP262252:RXP262285 SHL262252:SHL262285 SRH262252:SRH262285 TBD262252:TBD262285 TKZ262252:TKZ262285 TUV262252:TUV262285 UER262252:UER262285 UON262252:UON262285 UYJ262252:UYJ262285 VIF262252:VIF262285 VSB262252:VSB262285 WBX262252:WBX262285 WLT262252:WLT262285 WVP262252:WVP262285 H327788:H327821 JD327788:JD327821 SZ327788:SZ327821 ACV327788:ACV327821 AMR327788:AMR327821 AWN327788:AWN327821 BGJ327788:BGJ327821 BQF327788:BQF327821 CAB327788:CAB327821 CJX327788:CJX327821 CTT327788:CTT327821 DDP327788:DDP327821 DNL327788:DNL327821 DXH327788:DXH327821 EHD327788:EHD327821 EQZ327788:EQZ327821 FAV327788:FAV327821 FKR327788:FKR327821 FUN327788:FUN327821 GEJ327788:GEJ327821 GOF327788:GOF327821 GYB327788:GYB327821 HHX327788:HHX327821 HRT327788:HRT327821 IBP327788:IBP327821 ILL327788:ILL327821 IVH327788:IVH327821 JFD327788:JFD327821 JOZ327788:JOZ327821 JYV327788:JYV327821 KIR327788:KIR327821 KSN327788:KSN327821 LCJ327788:LCJ327821 LMF327788:LMF327821 LWB327788:LWB327821 MFX327788:MFX327821 MPT327788:MPT327821 MZP327788:MZP327821 NJL327788:NJL327821 NTH327788:NTH327821 ODD327788:ODD327821 OMZ327788:OMZ327821 OWV327788:OWV327821 PGR327788:PGR327821 PQN327788:PQN327821 QAJ327788:QAJ327821 QKF327788:QKF327821 QUB327788:QUB327821 RDX327788:RDX327821 RNT327788:RNT327821 RXP327788:RXP327821 SHL327788:SHL327821 SRH327788:SRH327821 TBD327788:TBD327821 TKZ327788:TKZ327821 TUV327788:TUV327821 UER327788:UER327821 UON327788:UON327821 UYJ327788:UYJ327821 VIF327788:VIF327821 VSB327788:VSB327821 WBX327788:WBX327821 WLT327788:WLT327821 WVP327788:WVP327821 H393324:H393357 JD393324:JD393357 SZ393324:SZ393357 ACV393324:ACV393357 AMR393324:AMR393357 AWN393324:AWN393357 BGJ393324:BGJ393357 BQF393324:BQF393357 CAB393324:CAB393357 CJX393324:CJX393357 CTT393324:CTT393357 DDP393324:DDP393357 DNL393324:DNL393357 DXH393324:DXH393357 EHD393324:EHD393357 EQZ393324:EQZ393357 FAV393324:FAV393357 FKR393324:FKR393357 FUN393324:FUN393357 GEJ393324:GEJ393357 GOF393324:GOF393357 GYB393324:GYB393357 HHX393324:HHX393357 HRT393324:HRT393357 IBP393324:IBP393357 ILL393324:ILL393357 IVH393324:IVH393357 JFD393324:JFD393357 JOZ393324:JOZ393357 JYV393324:JYV393357 KIR393324:KIR393357 KSN393324:KSN393357 LCJ393324:LCJ393357 LMF393324:LMF393357 LWB393324:LWB393357 MFX393324:MFX393357 MPT393324:MPT393357 MZP393324:MZP393357 NJL393324:NJL393357 NTH393324:NTH393357 ODD393324:ODD393357 OMZ393324:OMZ393357 OWV393324:OWV393357 PGR393324:PGR393357 PQN393324:PQN393357 QAJ393324:QAJ393357 QKF393324:QKF393357 QUB393324:QUB393357 RDX393324:RDX393357 RNT393324:RNT393357 RXP393324:RXP393357 SHL393324:SHL393357 SRH393324:SRH393357 TBD393324:TBD393357 TKZ393324:TKZ393357 TUV393324:TUV393357 UER393324:UER393357 UON393324:UON393357 UYJ393324:UYJ393357 VIF393324:VIF393357 VSB393324:VSB393357 WBX393324:WBX393357 WLT393324:WLT393357 WVP393324:WVP393357 H458860:H458893 JD458860:JD458893 SZ458860:SZ458893 ACV458860:ACV458893 AMR458860:AMR458893 AWN458860:AWN458893 BGJ458860:BGJ458893 BQF458860:BQF458893 CAB458860:CAB458893 CJX458860:CJX458893 CTT458860:CTT458893 DDP458860:DDP458893 DNL458860:DNL458893 DXH458860:DXH458893 EHD458860:EHD458893 EQZ458860:EQZ458893 FAV458860:FAV458893 FKR458860:FKR458893 FUN458860:FUN458893 GEJ458860:GEJ458893 GOF458860:GOF458893 GYB458860:GYB458893 HHX458860:HHX458893 HRT458860:HRT458893 IBP458860:IBP458893 ILL458860:ILL458893 IVH458860:IVH458893 JFD458860:JFD458893 JOZ458860:JOZ458893 JYV458860:JYV458893 KIR458860:KIR458893 KSN458860:KSN458893 LCJ458860:LCJ458893 LMF458860:LMF458893 LWB458860:LWB458893 MFX458860:MFX458893 MPT458860:MPT458893 MZP458860:MZP458893 NJL458860:NJL458893 NTH458860:NTH458893 ODD458860:ODD458893 OMZ458860:OMZ458893 OWV458860:OWV458893 PGR458860:PGR458893 PQN458860:PQN458893 QAJ458860:QAJ458893 QKF458860:QKF458893 QUB458860:QUB458893 RDX458860:RDX458893 RNT458860:RNT458893 RXP458860:RXP458893 SHL458860:SHL458893 SRH458860:SRH458893 TBD458860:TBD458893 TKZ458860:TKZ458893 TUV458860:TUV458893 UER458860:UER458893 UON458860:UON458893 UYJ458860:UYJ458893 VIF458860:VIF458893 VSB458860:VSB458893 WBX458860:WBX458893 WLT458860:WLT458893 WVP458860:WVP458893 H524396:H524429 JD524396:JD524429 SZ524396:SZ524429 ACV524396:ACV524429 AMR524396:AMR524429 AWN524396:AWN524429 BGJ524396:BGJ524429 BQF524396:BQF524429 CAB524396:CAB524429 CJX524396:CJX524429 CTT524396:CTT524429 DDP524396:DDP524429 DNL524396:DNL524429 DXH524396:DXH524429 EHD524396:EHD524429 EQZ524396:EQZ524429 FAV524396:FAV524429 FKR524396:FKR524429 FUN524396:FUN524429 GEJ524396:GEJ524429 GOF524396:GOF524429 GYB524396:GYB524429 HHX524396:HHX524429 HRT524396:HRT524429 IBP524396:IBP524429 ILL524396:ILL524429 IVH524396:IVH524429 JFD524396:JFD524429 JOZ524396:JOZ524429 JYV524396:JYV524429 KIR524396:KIR524429 KSN524396:KSN524429 LCJ524396:LCJ524429 LMF524396:LMF524429 LWB524396:LWB524429 MFX524396:MFX524429 MPT524396:MPT524429 MZP524396:MZP524429 NJL524396:NJL524429 NTH524396:NTH524429 ODD524396:ODD524429 OMZ524396:OMZ524429 OWV524396:OWV524429 PGR524396:PGR524429 PQN524396:PQN524429 QAJ524396:QAJ524429 QKF524396:QKF524429 QUB524396:QUB524429 RDX524396:RDX524429 RNT524396:RNT524429 RXP524396:RXP524429 SHL524396:SHL524429 SRH524396:SRH524429 TBD524396:TBD524429 TKZ524396:TKZ524429 TUV524396:TUV524429 UER524396:UER524429 UON524396:UON524429 UYJ524396:UYJ524429 VIF524396:VIF524429 VSB524396:VSB524429 WBX524396:WBX524429 WLT524396:WLT524429 WVP524396:WVP524429 H589932:H589965 JD589932:JD589965 SZ589932:SZ589965 ACV589932:ACV589965 AMR589932:AMR589965 AWN589932:AWN589965 BGJ589932:BGJ589965 BQF589932:BQF589965 CAB589932:CAB589965 CJX589932:CJX589965 CTT589932:CTT589965 DDP589932:DDP589965 DNL589932:DNL589965 DXH589932:DXH589965 EHD589932:EHD589965 EQZ589932:EQZ589965 FAV589932:FAV589965 FKR589932:FKR589965 FUN589932:FUN589965 GEJ589932:GEJ589965 GOF589932:GOF589965 GYB589932:GYB589965 HHX589932:HHX589965 HRT589932:HRT589965 IBP589932:IBP589965 ILL589932:ILL589965 IVH589932:IVH589965 JFD589932:JFD589965 JOZ589932:JOZ589965 JYV589932:JYV589965 KIR589932:KIR589965 KSN589932:KSN589965 LCJ589932:LCJ589965 LMF589932:LMF589965 LWB589932:LWB589965 MFX589932:MFX589965 MPT589932:MPT589965 MZP589932:MZP589965 NJL589932:NJL589965 NTH589932:NTH589965 ODD589932:ODD589965 OMZ589932:OMZ589965 OWV589932:OWV589965 PGR589932:PGR589965 PQN589932:PQN589965 QAJ589932:QAJ589965 QKF589932:QKF589965 QUB589932:QUB589965 RDX589932:RDX589965 RNT589932:RNT589965 RXP589932:RXP589965 SHL589932:SHL589965 SRH589932:SRH589965 TBD589932:TBD589965 TKZ589932:TKZ589965 TUV589932:TUV589965 UER589932:UER589965 UON589932:UON589965 UYJ589932:UYJ589965 VIF589932:VIF589965 VSB589932:VSB589965 WBX589932:WBX589965 WLT589932:WLT589965 WVP589932:WVP589965 H655468:H655501 JD655468:JD655501 SZ655468:SZ655501 ACV655468:ACV655501 AMR655468:AMR655501 AWN655468:AWN655501 BGJ655468:BGJ655501 BQF655468:BQF655501 CAB655468:CAB655501 CJX655468:CJX655501 CTT655468:CTT655501 DDP655468:DDP655501 DNL655468:DNL655501 DXH655468:DXH655501 EHD655468:EHD655501 EQZ655468:EQZ655501 FAV655468:FAV655501 FKR655468:FKR655501 FUN655468:FUN655501 GEJ655468:GEJ655501 GOF655468:GOF655501 GYB655468:GYB655501 HHX655468:HHX655501 HRT655468:HRT655501 IBP655468:IBP655501 ILL655468:ILL655501 IVH655468:IVH655501 JFD655468:JFD655501 JOZ655468:JOZ655501 JYV655468:JYV655501 KIR655468:KIR655501 KSN655468:KSN655501 LCJ655468:LCJ655501 LMF655468:LMF655501 LWB655468:LWB655501 MFX655468:MFX655501 MPT655468:MPT655501 MZP655468:MZP655501 NJL655468:NJL655501 NTH655468:NTH655501 ODD655468:ODD655501 OMZ655468:OMZ655501 OWV655468:OWV655501 PGR655468:PGR655501 PQN655468:PQN655501 QAJ655468:QAJ655501 QKF655468:QKF655501 QUB655468:QUB655501 RDX655468:RDX655501 RNT655468:RNT655501 RXP655468:RXP655501 SHL655468:SHL655501 SRH655468:SRH655501 TBD655468:TBD655501 TKZ655468:TKZ655501 TUV655468:TUV655501 UER655468:UER655501 UON655468:UON655501 UYJ655468:UYJ655501 VIF655468:VIF655501 VSB655468:VSB655501 WBX655468:WBX655501 WLT655468:WLT655501 WVP655468:WVP655501 H721004:H721037 JD721004:JD721037 SZ721004:SZ721037 ACV721004:ACV721037 AMR721004:AMR721037 AWN721004:AWN721037 BGJ721004:BGJ721037 BQF721004:BQF721037 CAB721004:CAB721037 CJX721004:CJX721037 CTT721004:CTT721037 DDP721004:DDP721037 DNL721004:DNL721037 DXH721004:DXH721037 EHD721004:EHD721037 EQZ721004:EQZ721037 FAV721004:FAV721037 FKR721004:FKR721037 FUN721004:FUN721037 GEJ721004:GEJ721037 GOF721004:GOF721037 GYB721004:GYB721037 HHX721004:HHX721037 HRT721004:HRT721037 IBP721004:IBP721037 ILL721004:ILL721037 IVH721004:IVH721037 JFD721004:JFD721037 JOZ721004:JOZ721037 JYV721004:JYV721037 KIR721004:KIR721037 KSN721004:KSN721037 LCJ721004:LCJ721037 LMF721004:LMF721037 LWB721004:LWB721037 MFX721004:MFX721037 MPT721004:MPT721037 MZP721004:MZP721037 NJL721004:NJL721037 NTH721004:NTH721037 ODD721004:ODD721037 OMZ721004:OMZ721037 OWV721004:OWV721037 PGR721004:PGR721037 PQN721004:PQN721037 QAJ721004:QAJ721037 QKF721004:QKF721037 QUB721004:QUB721037 RDX721004:RDX721037 RNT721004:RNT721037 RXP721004:RXP721037 SHL721004:SHL721037 SRH721004:SRH721037 TBD721004:TBD721037 TKZ721004:TKZ721037 TUV721004:TUV721037 UER721004:UER721037 UON721004:UON721037 UYJ721004:UYJ721037 VIF721004:VIF721037 VSB721004:VSB721037 WBX721004:WBX721037 WLT721004:WLT721037 WVP721004:WVP721037 H786540:H786573 JD786540:JD786573 SZ786540:SZ786573 ACV786540:ACV786573 AMR786540:AMR786573 AWN786540:AWN786573 BGJ786540:BGJ786573 BQF786540:BQF786573 CAB786540:CAB786573 CJX786540:CJX786573 CTT786540:CTT786573 DDP786540:DDP786573 DNL786540:DNL786573 DXH786540:DXH786573 EHD786540:EHD786573 EQZ786540:EQZ786573 FAV786540:FAV786573 FKR786540:FKR786573 FUN786540:FUN786573 GEJ786540:GEJ786573 GOF786540:GOF786573 GYB786540:GYB786573 HHX786540:HHX786573 HRT786540:HRT786573 IBP786540:IBP786573 ILL786540:ILL786573 IVH786540:IVH786573 JFD786540:JFD786573 JOZ786540:JOZ786573 JYV786540:JYV786573 KIR786540:KIR786573 KSN786540:KSN786573 LCJ786540:LCJ786573 LMF786540:LMF786573 LWB786540:LWB786573 MFX786540:MFX786573 MPT786540:MPT786573 MZP786540:MZP786573 NJL786540:NJL786573 NTH786540:NTH786573 ODD786540:ODD786573 OMZ786540:OMZ786573 OWV786540:OWV786573 PGR786540:PGR786573 PQN786540:PQN786573 QAJ786540:QAJ786573 QKF786540:QKF786573 QUB786540:QUB786573 RDX786540:RDX786573 RNT786540:RNT786573 RXP786540:RXP786573 SHL786540:SHL786573 SRH786540:SRH786573 TBD786540:TBD786573 TKZ786540:TKZ786573 TUV786540:TUV786573 UER786540:UER786573 UON786540:UON786573 UYJ786540:UYJ786573 VIF786540:VIF786573 VSB786540:VSB786573 WBX786540:WBX786573 WLT786540:WLT786573 WVP786540:WVP786573 H852076:H852109 JD852076:JD852109 SZ852076:SZ852109 ACV852076:ACV852109 AMR852076:AMR852109 AWN852076:AWN852109 BGJ852076:BGJ852109 BQF852076:BQF852109 CAB852076:CAB852109 CJX852076:CJX852109 CTT852076:CTT852109 DDP852076:DDP852109 DNL852076:DNL852109 DXH852076:DXH852109 EHD852076:EHD852109 EQZ852076:EQZ852109 FAV852076:FAV852109 FKR852076:FKR852109 FUN852076:FUN852109 GEJ852076:GEJ852109 GOF852076:GOF852109 GYB852076:GYB852109 HHX852076:HHX852109 HRT852076:HRT852109 IBP852076:IBP852109 ILL852076:ILL852109 IVH852076:IVH852109 JFD852076:JFD852109 JOZ852076:JOZ852109 JYV852076:JYV852109 KIR852076:KIR852109 KSN852076:KSN852109 LCJ852076:LCJ852109 LMF852076:LMF852109 LWB852076:LWB852109 MFX852076:MFX852109 MPT852076:MPT852109 MZP852076:MZP852109 NJL852076:NJL852109 NTH852076:NTH852109 ODD852076:ODD852109 OMZ852076:OMZ852109 OWV852076:OWV852109 PGR852076:PGR852109 PQN852076:PQN852109 QAJ852076:QAJ852109 QKF852076:QKF852109 QUB852076:QUB852109 RDX852076:RDX852109 RNT852076:RNT852109 RXP852076:RXP852109 SHL852076:SHL852109 SRH852076:SRH852109 TBD852076:TBD852109 TKZ852076:TKZ852109 TUV852076:TUV852109 UER852076:UER852109 UON852076:UON852109 UYJ852076:UYJ852109 VIF852076:VIF852109 VSB852076:VSB852109 WBX852076:WBX852109 WLT852076:WLT852109 WVP852076:WVP852109 H917612:H917645 JD917612:JD917645 SZ917612:SZ917645 ACV917612:ACV917645 AMR917612:AMR917645 AWN917612:AWN917645 BGJ917612:BGJ917645 BQF917612:BQF917645 CAB917612:CAB917645 CJX917612:CJX917645 CTT917612:CTT917645 DDP917612:DDP917645 DNL917612:DNL917645 DXH917612:DXH917645 EHD917612:EHD917645 EQZ917612:EQZ917645 FAV917612:FAV917645 FKR917612:FKR917645 FUN917612:FUN917645 GEJ917612:GEJ917645 GOF917612:GOF917645 GYB917612:GYB917645 HHX917612:HHX917645 HRT917612:HRT917645 IBP917612:IBP917645 ILL917612:ILL917645 IVH917612:IVH917645 JFD917612:JFD917645 JOZ917612:JOZ917645 JYV917612:JYV917645 KIR917612:KIR917645 KSN917612:KSN917645 LCJ917612:LCJ917645 LMF917612:LMF917645 LWB917612:LWB917645 MFX917612:MFX917645 MPT917612:MPT917645 MZP917612:MZP917645 NJL917612:NJL917645 NTH917612:NTH917645 ODD917612:ODD917645 OMZ917612:OMZ917645 OWV917612:OWV917645 PGR917612:PGR917645 PQN917612:PQN917645 QAJ917612:QAJ917645 QKF917612:QKF917645 QUB917612:QUB917645 RDX917612:RDX917645 RNT917612:RNT917645 RXP917612:RXP917645 SHL917612:SHL917645 SRH917612:SRH917645 TBD917612:TBD917645 TKZ917612:TKZ917645 TUV917612:TUV917645 UER917612:UER917645 UON917612:UON917645 UYJ917612:UYJ917645 VIF917612:VIF917645 VSB917612:VSB917645 WBX917612:WBX917645 WLT917612:WLT917645 WVP917612:WVP917645 H983148:H983181 JD983148:JD983181 SZ983148:SZ983181 ACV983148:ACV983181 AMR983148:AMR983181 AWN983148:AWN983181 BGJ983148:BGJ983181 BQF983148:BQF983181 CAB983148:CAB983181 CJX983148:CJX983181 CTT983148:CTT983181 DDP983148:DDP983181 DNL983148:DNL983181 DXH983148:DXH983181 EHD983148:EHD983181 EQZ983148:EQZ983181 FAV983148:FAV983181 FKR983148:FKR983181 FUN983148:FUN983181 GEJ983148:GEJ983181 GOF983148:GOF983181 GYB983148:GYB983181 HHX983148:HHX983181 HRT983148:HRT983181 IBP983148:IBP983181 ILL983148:ILL983181 IVH983148:IVH983181 JFD983148:JFD983181 JOZ983148:JOZ983181 JYV983148:JYV983181 KIR983148:KIR983181 KSN983148:KSN983181 LCJ983148:LCJ983181 LMF983148:LMF983181 LWB983148:LWB983181 MFX983148:MFX983181 MPT983148:MPT983181 MZP983148:MZP983181 NJL983148:NJL983181 NTH983148:NTH983181 ODD983148:ODD983181 OMZ983148:OMZ983181 OWV983148:OWV983181 PGR983148:PGR983181 PQN983148:PQN983181 QAJ983148:QAJ983181 QKF983148:QKF983181 QUB983148:QUB983181 RDX983148:RDX983181 RNT983148:RNT983181 RXP983148:RXP983181 SHL983148:SHL983181 SRH983148:SRH983181 TBD983148:TBD983181 TKZ983148:TKZ983181 TUV983148:TUV983181 UER983148:UER983181 UON983148:UON983181 UYJ983148:UYJ983181 VIF983148:VIF983181 VSB983148:VSB983181 WBX983148:WBX983181 WLT983148:WLT983181 WVP983148:WVP983181 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H870" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65645:H65678 JD65645:JD65678 SZ65645:SZ65678 ACV65645:ACV65678 AMR65645:AMR65678 AWN65645:AWN65678 BGJ65645:BGJ65678 BQF65645:BQF65678 CAB65645:CAB65678 CJX65645:CJX65678 CTT65645:CTT65678 DDP65645:DDP65678 DNL65645:DNL65678 DXH65645:DXH65678 EHD65645:EHD65678 EQZ65645:EQZ65678 FAV65645:FAV65678 FKR65645:FKR65678 FUN65645:FUN65678 GEJ65645:GEJ65678 GOF65645:GOF65678 GYB65645:GYB65678 HHX65645:HHX65678 HRT65645:HRT65678 IBP65645:IBP65678 ILL65645:ILL65678 IVH65645:IVH65678 JFD65645:JFD65678 JOZ65645:JOZ65678 JYV65645:JYV65678 KIR65645:KIR65678 KSN65645:KSN65678 LCJ65645:LCJ65678 LMF65645:LMF65678 LWB65645:LWB65678 MFX65645:MFX65678 MPT65645:MPT65678 MZP65645:MZP65678 NJL65645:NJL65678 NTH65645:NTH65678 ODD65645:ODD65678 OMZ65645:OMZ65678 OWV65645:OWV65678 PGR65645:PGR65678 PQN65645:PQN65678 QAJ65645:QAJ65678 QKF65645:QKF65678 QUB65645:QUB65678 RDX65645:RDX65678 RNT65645:RNT65678 RXP65645:RXP65678 SHL65645:SHL65678 SRH65645:SRH65678 TBD65645:TBD65678 TKZ65645:TKZ65678 TUV65645:TUV65678 UER65645:UER65678 UON65645:UON65678 UYJ65645:UYJ65678 VIF65645:VIF65678 VSB65645:VSB65678 WBX65645:WBX65678 WLT65645:WLT65678 WVP65645:WVP65678 H131181:H131214 JD131181:JD131214 SZ131181:SZ131214 ACV131181:ACV131214 AMR131181:AMR131214 AWN131181:AWN131214 BGJ131181:BGJ131214 BQF131181:BQF131214 CAB131181:CAB131214 CJX131181:CJX131214 CTT131181:CTT131214 DDP131181:DDP131214 DNL131181:DNL131214 DXH131181:DXH131214 EHD131181:EHD131214 EQZ131181:EQZ131214 FAV131181:FAV131214 FKR131181:FKR131214 FUN131181:FUN131214 GEJ131181:GEJ131214 GOF131181:GOF131214 GYB131181:GYB131214 HHX131181:HHX131214 HRT131181:HRT131214 IBP131181:IBP131214 ILL131181:ILL131214 IVH131181:IVH131214 JFD131181:JFD131214 JOZ131181:JOZ131214 JYV131181:JYV131214 KIR131181:KIR131214 KSN131181:KSN131214 LCJ131181:LCJ131214 LMF131181:LMF131214 LWB131181:LWB131214 MFX131181:MFX131214 MPT131181:MPT131214 MZP131181:MZP131214 NJL131181:NJL131214 NTH131181:NTH131214 ODD131181:ODD131214 OMZ131181:OMZ131214 OWV131181:OWV131214 PGR131181:PGR131214 PQN131181:PQN131214 QAJ131181:QAJ131214 QKF131181:QKF131214 QUB131181:QUB131214 RDX131181:RDX131214 RNT131181:RNT131214 RXP131181:RXP131214 SHL131181:SHL131214 SRH131181:SRH131214 TBD131181:TBD131214 TKZ131181:TKZ131214 TUV131181:TUV131214 UER131181:UER131214 UON131181:UON131214 UYJ131181:UYJ131214 VIF131181:VIF131214 VSB131181:VSB131214 WBX131181:WBX131214 WLT131181:WLT131214 WVP131181:WVP131214 H196717:H196750 JD196717:JD196750 SZ196717:SZ196750 ACV196717:ACV196750 AMR196717:AMR196750 AWN196717:AWN196750 BGJ196717:BGJ196750 BQF196717:BQF196750 CAB196717:CAB196750 CJX196717:CJX196750 CTT196717:CTT196750 DDP196717:DDP196750 DNL196717:DNL196750 DXH196717:DXH196750 EHD196717:EHD196750 EQZ196717:EQZ196750 FAV196717:FAV196750 FKR196717:FKR196750 FUN196717:FUN196750 GEJ196717:GEJ196750 GOF196717:GOF196750 GYB196717:GYB196750 HHX196717:HHX196750 HRT196717:HRT196750 IBP196717:IBP196750 ILL196717:ILL196750 IVH196717:IVH196750 JFD196717:JFD196750 JOZ196717:JOZ196750 JYV196717:JYV196750 KIR196717:KIR196750 KSN196717:KSN196750 LCJ196717:LCJ196750 LMF196717:LMF196750 LWB196717:LWB196750 MFX196717:MFX196750 MPT196717:MPT196750 MZP196717:MZP196750 NJL196717:NJL196750 NTH196717:NTH196750 ODD196717:ODD196750 OMZ196717:OMZ196750 OWV196717:OWV196750 PGR196717:PGR196750 PQN196717:PQN196750 QAJ196717:QAJ196750 QKF196717:QKF196750 QUB196717:QUB196750 RDX196717:RDX196750 RNT196717:RNT196750 RXP196717:RXP196750 SHL196717:SHL196750 SRH196717:SRH196750 TBD196717:TBD196750 TKZ196717:TKZ196750 TUV196717:TUV196750 UER196717:UER196750 UON196717:UON196750 UYJ196717:UYJ196750 VIF196717:VIF196750 VSB196717:VSB196750 WBX196717:WBX196750 WLT196717:WLT196750 WVP196717:WVP196750 H262253:H262286 JD262253:JD262286 SZ262253:SZ262286 ACV262253:ACV262286 AMR262253:AMR262286 AWN262253:AWN262286 BGJ262253:BGJ262286 BQF262253:BQF262286 CAB262253:CAB262286 CJX262253:CJX262286 CTT262253:CTT262286 DDP262253:DDP262286 DNL262253:DNL262286 DXH262253:DXH262286 EHD262253:EHD262286 EQZ262253:EQZ262286 FAV262253:FAV262286 FKR262253:FKR262286 FUN262253:FUN262286 GEJ262253:GEJ262286 GOF262253:GOF262286 GYB262253:GYB262286 HHX262253:HHX262286 HRT262253:HRT262286 IBP262253:IBP262286 ILL262253:ILL262286 IVH262253:IVH262286 JFD262253:JFD262286 JOZ262253:JOZ262286 JYV262253:JYV262286 KIR262253:KIR262286 KSN262253:KSN262286 LCJ262253:LCJ262286 LMF262253:LMF262286 LWB262253:LWB262286 MFX262253:MFX262286 MPT262253:MPT262286 MZP262253:MZP262286 NJL262253:NJL262286 NTH262253:NTH262286 ODD262253:ODD262286 OMZ262253:OMZ262286 OWV262253:OWV262286 PGR262253:PGR262286 PQN262253:PQN262286 QAJ262253:QAJ262286 QKF262253:QKF262286 QUB262253:QUB262286 RDX262253:RDX262286 RNT262253:RNT262286 RXP262253:RXP262286 SHL262253:SHL262286 SRH262253:SRH262286 TBD262253:TBD262286 TKZ262253:TKZ262286 TUV262253:TUV262286 UER262253:UER262286 UON262253:UON262286 UYJ262253:UYJ262286 VIF262253:VIF262286 VSB262253:VSB262286 WBX262253:WBX262286 WLT262253:WLT262286 WVP262253:WVP262286 H327789:H327822 JD327789:JD327822 SZ327789:SZ327822 ACV327789:ACV327822 AMR327789:AMR327822 AWN327789:AWN327822 BGJ327789:BGJ327822 BQF327789:BQF327822 CAB327789:CAB327822 CJX327789:CJX327822 CTT327789:CTT327822 DDP327789:DDP327822 DNL327789:DNL327822 DXH327789:DXH327822 EHD327789:EHD327822 EQZ327789:EQZ327822 FAV327789:FAV327822 FKR327789:FKR327822 FUN327789:FUN327822 GEJ327789:GEJ327822 GOF327789:GOF327822 GYB327789:GYB327822 HHX327789:HHX327822 HRT327789:HRT327822 IBP327789:IBP327822 ILL327789:ILL327822 IVH327789:IVH327822 JFD327789:JFD327822 JOZ327789:JOZ327822 JYV327789:JYV327822 KIR327789:KIR327822 KSN327789:KSN327822 LCJ327789:LCJ327822 LMF327789:LMF327822 LWB327789:LWB327822 MFX327789:MFX327822 MPT327789:MPT327822 MZP327789:MZP327822 NJL327789:NJL327822 NTH327789:NTH327822 ODD327789:ODD327822 OMZ327789:OMZ327822 OWV327789:OWV327822 PGR327789:PGR327822 PQN327789:PQN327822 QAJ327789:QAJ327822 QKF327789:QKF327822 QUB327789:QUB327822 RDX327789:RDX327822 RNT327789:RNT327822 RXP327789:RXP327822 SHL327789:SHL327822 SRH327789:SRH327822 TBD327789:TBD327822 TKZ327789:TKZ327822 TUV327789:TUV327822 UER327789:UER327822 UON327789:UON327822 UYJ327789:UYJ327822 VIF327789:VIF327822 VSB327789:VSB327822 WBX327789:WBX327822 WLT327789:WLT327822 WVP327789:WVP327822 H393325:H393358 JD393325:JD393358 SZ393325:SZ393358 ACV393325:ACV393358 AMR393325:AMR393358 AWN393325:AWN393358 BGJ393325:BGJ393358 BQF393325:BQF393358 CAB393325:CAB393358 CJX393325:CJX393358 CTT393325:CTT393358 DDP393325:DDP393358 DNL393325:DNL393358 DXH393325:DXH393358 EHD393325:EHD393358 EQZ393325:EQZ393358 FAV393325:FAV393358 FKR393325:FKR393358 FUN393325:FUN393358 GEJ393325:GEJ393358 GOF393325:GOF393358 GYB393325:GYB393358 HHX393325:HHX393358 HRT393325:HRT393358 IBP393325:IBP393358 ILL393325:ILL393358 IVH393325:IVH393358 JFD393325:JFD393358 JOZ393325:JOZ393358 JYV393325:JYV393358 KIR393325:KIR393358 KSN393325:KSN393358 LCJ393325:LCJ393358 LMF393325:LMF393358 LWB393325:LWB393358 MFX393325:MFX393358 MPT393325:MPT393358 MZP393325:MZP393358 NJL393325:NJL393358 NTH393325:NTH393358 ODD393325:ODD393358 OMZ393325:OMZ393358 OWV393325:OWV393358 PGR393325:PGR393358 PQN393325:PQN393358 QAJ393325:QAJ393358 QKF393325:QKF393358 QUB393325:QUB393358 RDX393325:RDX393358 RNT393325:RNT393358 RXP393325:RXP393358 SHL393325:SHL393358 SRH393325:SRH393358 TBD393325:TBD393358 TKZ393325:TKZ393358 TUV393325:TUV393358 UER393325:UER393358 UON393325:UON393358 UYJ393325:UYJ393358 VIF393325:VIF393358 VSB393325:VSB393358 WBX393325:WBX393358 WLT393325:WLT393358 WVP393325:WVP393358 H458861:H458894 JD458861:JD458894 SZ458861:SZ458894 ACV458861:ACV458894 AMR458861:AMR458894 AWN458861:AWN458894 BGJ458861:BGJ458894 BQF458861:BQF458894 CAB458861:CAB458894 CJX458861:CJX458894 CTT458861:CTT458894 DDP458861:DDP458894 DNL458861:DNL458894 DXH458861:DXH458894 EHD458861:EHD458894 EQZ458861:EQZ458894 FAV458861:FAV458894 FKR458861:FKR458894 FUN458861:FUN458894 GEJ458861:GEJ458894 GOF458861:GOF458894 GYB458861:GYB458894 HHX458861:HHX458894 HRT458861:HRT458894 IBP458861:IBP458894 ILL458861:ILL458894 IVH458861:IVH458894 JFD458861:JFD458894 JOZ458861:JOZ458894 JYV458861:JYV458894 KIR458861:KIR458894 KSN458861:KSN458894 LCJ458861:LCJ458894 LMF458861:LMF458894 LWB458861:LWB458894 MFX458861:MFX458894 MPT458861:MPT458894 MZP458861:MZP458894 NJL458861:NJL458894 NTH458861:NTH458894 ODD458861:ODD458894 OMZ458861:OMZ458894 OWV458861:OWV458894 PGR458861:PGR458894 PQN458861:PQN458894 QAJ458861:QAJ458894 QKF458861:QKF458894 QUB458861:QUB458894 RDX458861:RDX458894 RNT458861:RNT458894 RXP458861:RXP458894 SHL458861:SHL458894 SRH458861:SRH458894 TBD458861:TBD458894 TKZ458861:TKZ458894 TUV458861:TUV458894 UER458861:UER458894 UON458861:UON458894 UYJ458861:UYJ458894 VIF458861:VIF458894 VSB458861:VSB458894 WBX458861:WBX458894 WLT458861:WLT458894 WVP458861:WVP458894 H524397:H524430 JD524397:JD524430 SZ524397:SZ524430 ACV524397:ACV524430 AMR524397:AMR524430 AWN524397:AWN524430 BGJ524397:BGJ524430 BQF524397:BQF524430 CAB524397:CAB524430 CJX524397:CJX524430 CTT524397:CTT524430 DDP524397:DDP524430 DNL524397:DNL524430 DXH524397:DXH524430 EHD524397:EHD524430 EQZ524397:EQZ524430 FAV524397:FAV524430 FKR524397:FKR524430 FUN524397:FUN524430 GEJ524397:GEJ524430 GOF524397:GOF524430 GYB524397:GYB524430 HHX524397:HHX524430 HRT524397:HRT524430 IBP524397:IBP524430 ILL524397:ILL524430 IVH524397:IVH524430 JFD524397:JFD524430 JOZ524397:JOZ524430 JYV524397:JYV524430 KIR524397:KIR524430 KSN524397:KSN524430 LCJ524397:LCJ524430 LMF524397:LMF524430 LWB524397:LWB524430 MFX524397:MFX524430 MPT524397:MPT524430 MZP524397:MZP524430 NJL524397:NJL524430 NTH524397:NTH524430 ODD524397:ODD524430 OMZ524397:OMZ524430 OWV524397:OWV524430 PGR524397:PGR524430 PQN524397:PQN524430 QAJ524397:QAJ524430 QKF524397:QKF524430 QUB524397:QUB524430 RDX524397:RDX524430 RNT524397:RNT524430 RXP524397:RXP524430 SHL524397:SHL524430 SRH524397:SRH524430 TBD524397:TBD524430 TKZ524397:TKZ524430 TUV524397:TUV524430 UER524397:UER524430 UON524397:UON524430 UYJ524397:UYJ524430 VIF524397:VIF524430 VSB524397:VSB524430 WBX524397:WBX524430 WLT524397:WLT524430 WVP524397:WVP524430 H589933:H589966 JD589933:JD589966 SZ589933:SZ589966 ACV589933:ACV589966 AMR589933:AMR589966 AWN589933:AWN589966 BGJ589933:BGJ589966 BQF589933:BQF589966 CAB589933:CAB589966 CJX589933:CJX589966 CTT589933:CTT589966 DDP589933:DDP589966 DNL589933:DNL589966 DXH589933:DXH589966 EHD589933:EHD589966 EQZ589933:EQZ589966 FAV589933:FAV589966 FKR589933:FKR589966 FUN589933:FUN589966 GEJ589933:GEJ589966 GOF589933:GOF589966 GYB589933:GYB589966 HHX589933:HHX589966 HRT589933:HRT589966 IBP589933:IBP589966 ILL589933:ILL589966 IVH589933:IVH589966 JFD589933:JFD589966 JOZ589933:JOZ589966 JYV589933:JYV589966 KIR589933:KIR589966 KSN589933:KSN589966 LCJ589933:LCJ589966 LMF589933:LMF589966 LWB589933:LWB589966 MFX589933:MFX589966 MPT589933:MPT589966 MZP589933:MZP589966 NJL589933:NJL589966 NTH589933:NTH589966 ODD589933:ODD589966 OMZ589933:OMZ589966 OWV589933:OWV589966 PGR589933:PGR589966 PQN589933:PQN589966 QAJ589933:QAJ589966 QKF589933:QKF589966 QUB589933:QUB589966 RDX589933:RDX589966 RNT589933:RNT589966 RXP589933:RXP589966 SHL589933:SHL589966 SRH589933:SRH589966 TBD589933:TBD589966 TKZ589933:TKZ589966 TUV589933:TUV589966 UER589933:UER589966 UON589933:UON589966 UYJ589933:UYJ589966 VIF589933:VIF589966 VSB589933:VSB589966 WBX589933:WBX589966 WLT589933:WLT589966 WVP589933:WVP589966 H655469:H655502 JD655469:JD655502 SZ655469:SZ655502 ACV655469:ACV655502 AMR655469:AMR655502 AWN655469:AWN655502 BGJ655469:BGJ655502 BQF655469:BQF655502 CAB655469:CAB655502 CJX655469:CJX655502 CTT655469:CTT655502 DDP655469:DDP655502 DNL655469:DNL655502 DXH655469:DXH655502 EHD655469:EHD655502 EQZ655469:EQZ655502 FAV655469:FAV655502 FKR655469:FKR655502 FUN655469:FUN655502 GEJ655469:GEJ655502 GOF655469:GOF655502 GYB655469:GYB655502 HHX655469:HHX655502 HRT655469:HRT655502 IBP655469:IBP655502 ILL655469:ILL655502 IVH655469:IVH655502 JFD655469:JFD655502 JOZ655469:JOZ655502 JYV655469:JYV655502 KIR655469:KIR655502 KSN655469:KSN655502 LCJ655469:LCJ655502 LMF655469:LMF655502 LWB655469:LWB655502 MFX655469:MFX655502 MPT655469:MPT655502 MZP655469:MZP655502 NJL655469:NJL655502 NTH655469:NTH655502 ODD655469:ODD655502 OMZ655469:OMZ655502 OWV655469:OWV655502 PGR655469:PGR655502 PQN655469:PQN655502 QAJ655469:QAJ655502 QKF655469:QKF655502 QUB655469:QUB655502 RDX655469:RDX655502 RNT655469:RNT655502 RXP655469:RXP655502 SHL655469:SHL655502 SRH655469:SRH655502 TBD655469:TBD655502 TKZ655469:TKZ655502 TUV655469:TUV655502 UER655469:UER655502 UON655469:UON655502 UYJ655469:UYJ655502 VIF655469:VIF655502 VSB655469:VSB655502 WBX655469:WBX655502 WLT655469:WLT655502 WVP655469:WVP655502 H721005:H721038 JD721005:JD721038 SZ721005:SZ721038 ACV721005:ACV721038 AMR721005:AMR721038 AWN721005:AWN721038 BGJ721005:BGJ721038 BQF721005:BQF721038 CAB721005:CAB721038 CJX721005:CJX721038 CTT721005:CTT721038 DDP721005:DDP721038 DNL721005:DNL721038 DXH721005:DXH721038 EHD721005:EHD721038 EQZ721005:EQZ721038 FAV721005:FAV721038 FKR721005:FKR721038 FUN721005:FUN721038 GEJ721005:GEJ721038 GOF721005:GOF721038 GYB721005:GYB721038 HHX721005:HHX721038 HRT721005:HRT721038 IBP721005:IBP721038 ILL721005:ILL721038 IVH721005:IVH721038 JFD721005:JFD721038 JOZ721005:JOZ721038 JYV721005:JYV721038 KIR721005:KIR721038 KSN721005:KSN721038 LCJ721005:LCJ721038 LMF721005:LMF721038 LWB721005:LWB721038 MFX721005:MFX721038 MPT721005:MPT721038 MZP721005:MZP721038 NJL721005:NJL721038 NTH721005:NTH721038 ODD721005:ODD721038 OMZ721005:OMZ721038 OWV721005:OWV721038 PGR721005:PGR721038 PQN721005:PQN721038 QAJ721005:QAJ721038 QKF721005:QKF721038 QUB721005:QUB721038 RDX721005:RDX721038 RNT721005:RNT721038 RXP721005:RXP721038 SHL721005:SHL721038 SRH721005:SRH721038 TBD721005:TBD721038 TKZ721005:TKZ721038 TUV721005:TUV721038 UER721005:UER721038 UON721005:UON721038 UYJ721005:UYJ721038 VIF721005:VIF721038 VSB721005:VSB721038 WBX721005:WBX721038 WLT721005:WLT721038 WVP721005:WVP721038 H786541:H786574 JD786541:JD786574 SZ786541:SZ786574 ACV786541:ACV786574 AMR786541:AMR786574 AWN786541:AWN786574 BGJ786541:BGJ786574 BQF786541:BQF786574 CAB786541:CAB786574 CJX786541:CJX786574 CTT786541:CTT786574 DDP786541:DDP786574 DNL786541:DNL786574 DXH786541:DXH786574 EHD786541:EHD786574 EQZ786541:EQZ786574 FAV786541:FAV786574 FKR786541:FKR786574 FUN786541:FUN786574 GEJ786541:GEJ786574 GOF786541:GOF786574 GYB786541:GYB786574 HHX786541:HHX786574 HRT786541:HRT786574 IBP786541:IBP786574 ILL786541:ILL786574 IVH786541:IVH786574 JFD786541:JFD786574 JOZ786541:JOZ786574 JYV786541:JYV786574 KIR786541:KIR786574 KSN786541:KSN786574 LCJ786541:LCJ786574 LMF786541:LMF786574 LWB786541:LWB786574 MFX786541:MFX786574 MPT786541:MPT786574 MZP786541:MZP786574 NJL786541:NJL786574 NTH786541:NTH786574 ODD786541:ODD786574 OMZ786541:OMZ786574 OWV786541:OWV786574 PGR786541:PGR786574 PQN786541:PQN786574 QAJ786541:QAJ786574 QKF786541:QKF786574 QUB786541:QUB786574 RDX786541:RDX786574 RNT786541:RNT786574 RXP786541:RXP786574 SHL786541:SHL786574 SRH786541:SRH786574 TBD786541:TBD786574 TKZ786541:TKZ786574 TUV786541:TUV786574 UER786541:UER786574 UON786541:UON786574 UYJ786541:UYJ786574 VIF786541:VIF786574 VSB786541:VSB786574 WBX786541:WBX786574 WLT786541:WLT786574 WVP786541:WVP786574 H852077:H852110 JD852077:JD852110 SZ852077:SZ852110 ACV852077:ACV852110 AMR852077:AMR852110 AWN852077:AWN852110 BGJ852077:BGJ852110 BQF852077:BQF852110 CAB852077:CAB852110 CJX852077:CJX852110 CTT852077:CTT852110 DDP852077:DDP852110 DNL852077:DNL852110 DXH852077:DXH852110 EHD852077:EHD852110 EQZ852077:EQZ852110 FAV852077:FAV852110 FKR852077:FKR852110 FUN852077:FUN852110 GEJ852077:GEJ852110 GOF852077:GOF852110 GYB852077:GYB852110 HHX852077:HHX852110 HRT852077:HRT852110 IBP852077:IBP852110 ILL852077:ILL852110 IVH852077:IVH852110 JFD852077:JFD852110 JOZ852077:JOZ852110 JYV852077:JYV852110 KIR852077:KIR852110 KSN852077:KSN852110 LCJ852077:LCJ852110 LMF852077:LMF852110 LWB852077:LWB852110 MFX852077:MFX852110 MPT852077:MPT852110 MZP852077:MZP852110 NJL852077:NJL852110 NTH852077:NTH852110 ODD852077:ODD852110 OMZ852077:OMZ852110 OWV852077:OWV852110 PGR852077:PGR852110 PQN852077:PQN852110 QAJ852077:QAJ852110 QKF852077:QKF852110 QUB852077:QUB852110 RDX852077:RDX852110 RNT852077:RNT852110 RXP852077:RXP852110 SHL852077:SHL852110 SRH852077:SRH852110 TBD852077:TBD852110 TKZ852077:TKZ852110 TUV852077:TUV852110 UER852077:UER852110 UON852077:UON852110 UYJ852077:UYJ852110 VIF852077:VIF852110 VSB852077:VSB852110 WBX852077:WBX852110 WLT852077:WLT852110 WVP852077:WVP852110 H917613:H917646 JD917613:JD917646 SZ917613:SZ917646 ACV917613:ACV917646 AMR917613:AMR917646 AWN917613:AWN917646 BGJ917613:BGJ917646 BQF917613:BQF917646 CAB917613:CAB917646 CJX917613:CJX917646 CTT917613:CTT917646 DDP917613:DDP917646 DNL917613:DNL917646 DXH917613:DXH917646 EHD917613:EHD917646 EQZ917613:EQZ917646 FAV917613:FAV917646 FKR917613:FKR917646 FUN917613:FUN917646 GEJ917613:GEJ917646 GOF917613:GOF917646 GYB917613:GYB917646 HHX917613:HHX917646 HRT917613:HRT917646 IBP917613:IBP917646 ILL917613:ILL917646 IVH917613:IVH917646 JFD917613:JFD917646 JOZ917613:JOZ917646 JYV917613:JYV917646 KIR917613:KIR917646 KSN917613:KSN917646 LCJ917613:LCJ917646 LMF917613:LMF917646 LWB917613:LWB917646 MFX917613:MFX917646 MPT917613:MPT917646 MZP917613:MZP917646 NJL917613:NJL917646 NTH917613:NTH917646 ODD917613:ODD917646 OMZ917613:OMZ917646 OWV917613:OWV917646 PGR917613:PGR917646 PQN917613:PQN917646 QAJ917613:QAJ917646 QKF917613:QKF917646 QUB917613:QUB917646 RDX917613:RDX917646 RNT917613:RNT917646 RXP917613:RXP917646 SHL917613:SHL917646 SRH917613:SRH917646 TBD917613:TBD917646 TKZ917613:TKZ917646 TUV917613:TUV917646 UER917613:UER917646 UON917613:UON917646 UYJ917613:UYJ917646 VIF917613:VIF917646 VSB917613:VSB917646 WBX917613:WBX917646 WLT917613:WLT917646 WVP917613:WVP917646 H983149:H983182 JD983149:JD983182 SZ983149:SZ983182 ACV983149:ACV983182 AMR983149:AMR983182 AWN983149:AWN983182 BGJ983149:BGJ983182 BQF983149:BQF983182 CAB983149:CAB983182 CJX983149:CJX983182 CTT983149:CTT983182 DDP983149:DDP983182 DNL983149:DNL983182 DXH983149:DXH983182 EHD983149:EHD983182 EQZ983149:EQZ983182 FAV983149:FAV983182 FKR983149:FKR983182 FUN983149:FUN983182 GEJ983149:GEJ983182 GOF983149:GOF983182 GYB983149:GYB983182 HHX983149:HHX983182 HRT983149:HRT983182 IBP983149:IBP983182 ILL983149:ILL983182 IVH983149:IVH983182 JFD983149:JFD983182 JOZ983149:JOZ983182 JYV983149:JYV983182 KIR983149:KIR983182 KSN983149:KSN983182 LCJ983149:LCJ983182 LMF983149:LMF983182 LWB983149:LWB983182 MFX983149:MFX983182 MPT983149:MPT983182 MZP983149:MZP983182 NJL983149:NJL983182 NTH983149:NTH983182 ODD983149:ODD983182 OMZ983149:OMZ983182 OWV983149:OWV983182 PGR983149:PGR983182 PQN983149:PQN983182 QAJ983149:QAJ983182 QKF983149:QKF983182 QUB983149:QUB983182 RDX983149:RDX983182 RNT983149:RNT983182 RXP983149:RXP983182 SHL983149:SHL983182 SRH983149:SRH983182 TBD983149:TBD983182 TKZ983149:TKZ983182 TUV983149:TUV983182 UER983149:UER983182 UON983149:UON983182 UYJ983149:UYJ983182 VIF983149:VIF983182 VSB983149:VSB983182 WBX983149:WBX983182 WLT983149:WLT983182 WVP983149:WVP983182 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H871" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E79237-AF8D-4A7A-B4FE-8D88DF3372F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F6869-9C73-439E-832A-EC015CB40B20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="630" windowWidth="18435" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="694">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2746,11 +2746,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查询出错误数据中ldcodemapping中未有的行政区代码值，需新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查看农险存量数据报送数据量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--procmain模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理农险程序汇总对账流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出错误数据中ldcodemapping中未有的行政区代码值，并新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看并查找农险存量错误数据中ldcodemapping中未有的行政区代码值，数据库中无需新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2758,10 +2770,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -2938,7 +2951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3012,6 +3025,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3299,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G858" sqref="G858"/>
+    <sheetView tabSelected="1" topLeftCell="C857" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G864" sqref="G864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -27231,10 +27247,10 @@
       <c r="C860" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D860" s="12">
+      <c r="D860" s="27">
         <v>43661</v>
       </c>
-      <c r="E860" s="12">
+      <c r="E860" s="27">
         <v>43661</v>
       </c>
       <c r="F860" s="11" t="s">
@@ -27246,7 +27262,9 @@
       <c r="H860" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I860" s="7"/>
+      <c r="I860" s="7">
+        <v>3</v>
+      </c>
       <c r="J860" s="8"/>
     </row>
     <row r="861" spans="1:10">
@@ -27257,10 +27275,10 @@
       <c r="C861" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D861" s="12">
+      <c r="D861" s="27">
         <v>43661</v>
       </c>
-      <c r="E861" s="12">
+      <c r="E861" s="27">
         <v>43661</v>
       </c>
       <c r="F861" s="11" t="s">
@@ -27272,7 +27290,9 @@
       <c r="H861" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I861" s="7"/>
+      <c r="I861" s="7">
+        <v>3</v>
+      </c>
       <c r="J861" s="8"/>
     </row>
     <row r="862" spans="1:10">
@@ -27283,22 +27303,24 @@
       <c r="C862" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D862" s="12">
+      <c r="D862" s="27">
         <v>43661</v>
       </c>
-      <c r="E862" s="12">
+      <c r="E862" s="27">
         <v>43661</v>
       </c>
       <c r="F862" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G862" s="14" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H862" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I862" s="7"/>
+      <c r="I862" s="7">
+        <v>3</v>
+      </c>
       <c r="J862" s="8"/>
     </row>
     <row r="863" spans="1:10">
@@ -27309,22 +27331,24 @@
       <c r="C863" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D863" s="12">
+      <c r="D863" s="27">
         <v>43662</v>
       </c>
-      <c r="E863" s="12">
+      <c r="E863" s="27">
         <v>43662</v>
       </c>
       <c r="F863" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G863" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H863" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I863" s="7"/>
+      <c r="I863" s="7">
+        <v>3</v>
+      </c>
       <c r="J863" s="8"/>
     </row>
     <row r="864" spans="1:10">
@@ -27335,20 +27359,24 @@
       <c r="C864" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D864" s="12">
+      <c r="D864" s="27">
         <v>43662</v>
       </c>
-      <c r="E864" s="12">
+      <c r="E864" s="27">
         <v>43662</v>
       </c>
       <c r="F864" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G864" s="14"/>
+      <c r="G864" s="14" t="s">
+        <v>693</v>
+      </c>
       <c r="H864" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I864" s="7"/>
+      <c r="I864" s="7">
+        <v>3</v>
+      </c>
       <c r="J864" s="8"/>
     </row>
     <row r="865" spans="1:10">
@@ -27359,20 +27387,24 @@
       <c r="C865" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D865" s="12">
+      <c r="D865" s="27">
         <v>43662</v>
       </c>
-      <c r="E865" s="12">
+      <c r="E865" s="27">
         <v>43662</v>
       </c>
       <c r="F865" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G865" s="14"/>
+      <c r="G865" s="14" t="s">
+        <v>691</v>
+      </c>
       <c r="H865" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I865" s="7"/>
+      <c r="I865" s="7">
+        <v>3</v>
+      </c>
       <c r="J865" s="8"/>
     </row>
     <row r="866" spans="1:10">
@@ -27383,16 +27415,24 @@
       <c r="C866" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D866" s="12"/>
-      <c r="E866" s="12"/>
+      <c r="D866" s="27">
+        <v>43663</v>
+      </c>
+      <c r="E866" s="27">
+        <v>43663</v>
+      </c>
       <c r="F866" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G866" s="14"/>
+      <c r="G866" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="H866" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I866" s="7"/>
+      <c r="I866" s="7">
+        <v>3</v>
+      </c>
       <c r="J866" s="8"/>
     </row>
     <row r="867" spans="1:10">
@@ -27403,16 +27443,24 @@
       <c r="C867" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D867" s="12"/>
-      <c r="E867" s="12"/>
+      <c r="D867" s="27">
+        <v>43663</v>
+      </c>
+      <c r="E867" s="27">
+        <v>43663</v>
+      </c>
       <c r="F867" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G867" s="14"/>
+      <c r="G867" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="H867" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I867" s="7"/>
+      <c r="I867" s="7">
+        <v>3</v>
+      </c>
       <c r="J867" s="8"/>
     </row>
     <row r="868" spans="1:10">
@@ -27423,16 +27471,24 @@
       <c r="C868" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D868" s="12"/>
-      <c r="E868" s="12"/>
+      <c r="D868" s="27">
+        <v>43663</v>
+      </c>
+      <c r="E868" s="27">
+        <v>43663</v>
+      </c>
       <c r="F868" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G868" s="14"/>
+      <c r="G868" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="H868" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I868" s="7"/>
+      <c r="I868" s="7">
+        <v>3</v>
+      </c>
       <c r="J868" s="8"/>
     </row>
     <row r="869" spans="1:10">

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F6869-9C73-439E-832A-EC015CB40B20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831C27-2E13-45AF-9F9D-4B0928122239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24135" yWindow="1725" windowWidth="21030" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="702">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2750,10 +2750,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查看第三批数据质量反馈报告--procmain模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>整理农险程序汇总对账流程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2763,6 +2759,42 @@
   </si>
   <si>
     <t>查看并查找农险存量错误数据中ldcodemapping中未有的行政区代码值，数据库中无需新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000035-PRP_3rd_P_A_O_000042规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000044、PRP_3rd_P_A_O_000045、PRP_3rd_P_A_O_000052查看规则中校验错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000046、PRP_3rd_P_A_O_000047规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000051、PRP_3rd_P_A_O_000049、PRP_3rd_P_A_O_000050规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000054、PRP_3rd_P_A_O_000080规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告汇总反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000092、PRP_3rd_P_A_O_000123、PRP_3rd_P_A_O_000127规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000135、PRP_3rd_P_A_O_000140规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000153、PRP_3rd_P_A_O_000154、PRP_3rd_P_A_O_000170规则错误数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3024,10 +3056,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3313,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J871"/>
+  <dimension ref="A1:J887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C857" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G864" sqref="G864"/>
+    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G875" sqref="G875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -3836,18 +3868,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -27247,10 +27279,10 @@
       <c r="C860" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D860" s="27">
+      <c r="D860" s="26">
         <v>43661</v>
       </c>
-      <c r="E860" s="27">
+      <c r="E860" s="26">
         <v>43661</v>
       </c>
       <c r="F860" s="11" t="s">
@@ -27275,10 +27307,10 @@
       <c r="C861" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D861" s="27">
+      <c r="D861" s="26">
         <v>43661</v>
       </c>
-      <c r="E861" s="27">
+      <c r="E861" s="26">
         <v>43661</v>
       </c>
       <c r="F861" s="11" t="s">
@@ -27303,17 +27335,17 @@
       <c r="C862" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D862" s="27">
+      <c r="D862" s="26">
         <v>43661</v>
       </c>
-      <c r="E862" s="27">
+      <c r="E862" s="26">
         <v>43661</v>
       </c>
       <c r="F862" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G862" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H862" s="6" t="s">
         <v>11</v>
@@ -27331,10 +27363,10 @@
       <c r="C863" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D863" s="27">
+      <c r="D863" s="26">
         <v>43662</v>
       </c>
-      <c r="E863" s="27">
+      <c r="E863" s="26">
         <v>43662</v>
       </c>
       <c r="F863" s="11" t="s">
@@ -27359,17 +27391,17 @@
       <c r="C864" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D864" s="27">
+      <c r="D864" s="26">
         <v>43662</v>
       </c>
-      <c r="E864" s="27">
+      <c r="E864" s="26">
         <v>43662</v>
       </c>
       <c r="F864" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G864" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H864" s="6" t="s">
         <v>11</v>
@@ -27387,17 +27419,17 @@
       <c r="C865" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D865" s="27">
+      <c r="D865" s="26">
         <v>43662</v>
       </c>
-      <c r="E865" s="27">
+      <c r="E865" s="26">
         <v>43662</v>
       </c>
       <c r="F865" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G865" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H865" s="6" t="s">
         <v>11</v>
@@ -27407,7 +27439,7 @@
       </c>
       <c r="J865" s="8"/>
     </row>
-    <row r="866" spans="1:10">
+    <row r="866" spans="1:10" ht="24">
       <c r="A866" s="5" t="s">
         <v>10</v>
       </c>
@@ -27415,17 +27447,17 @@
       <c r="C866" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D866" s="27">
+      <c r="D866" s="26">
         <v>43663</v>
       </c>
-      <c r="E866" s="27">
+      <c r="E866" s="26">
         <v>43663</v>
       </c>
       <c r="F866" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G866" s="14" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H866" s="6" t="s">
         <v>11</v>
@@ -27435,7 +27467,7 @@
       </c>
       <c r="J866" s="8"/>
     </row>
-    <row r="867" spans="1:10">
+    <row r="867" spans="1:10" ht="24">
       <c r="A867" s="5" t="s">
         <v>10</v>
       </c>
@@ -27443,17 +27475,17 @@
       <c r="C867" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D867" s="27">
+      <c r="D867" s="26">
         <v>43663</v>
       </c>
-      <c r="E867" s="27">
+      <c r="E867" s="26">
         <v>43663</v>
       </c>
       <c r="F867" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G867" s="14" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="H867" s="6" t="s">
         <v>11</v>
@@ -27463,7 +27495,7 @@
       </c>
       <c r="J867" s="8"/>
     </row>
-    <row r="868" spans="1:10">
+    <row r="868" spans="1:10" ht="24">
       <c r="A868" s="5" t="s">
         <v>10</v>
       </c>
@@ -27471,17 +27503,17 @@
       <c r="C868" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D868" s="27">
+      <c r="D868" s="26">
         <v>43663</v>
       </c>
-      <c r="E868" s="27">
+      <c r="E868" s="26">
         <v>43663</v>
       </c>
       <c r="F868" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G868" s="14" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="H868" s="6" t="s">
         <v>11</v>
@@ -27491,7 +27523,7 @@
       </c>
       <c r="J868" s="8"/>
     </row>
-    <row r="869" spans="1:10">
+    <row r="869" spans="1:10" ht="24">
       <c r="A869" s="5" t="s">
         <v>10</v>
       </c>
@@ -27499,19 +27531,25 @@
       <c r="C869" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D869" s="12"/>
-      <c r="E869" s="12"/>
+      <c r="D869" s="26">
+        <v>43664</v>
+      </c>
+      <c r="E869" s="26">
+        <v>43664</v>
+      </c>
       <c r="F869" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G869" s="14"/>
+      <c r="G869" s="14" t="s">
+        <v>696</v>
+      </c>
       <c r="H869" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I869" s="7"/>
       <c r="J869" s="8"/>
     </row>
-    <row r="870" spans="1:10">
+    <row r="870" spans="1:10" ht="24">
       <c r="A870" s="5" t="s">
         <v>10</v>
       </c>
@@ -27519,19 +27557,25 @@
       <c r="C870" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D870" s="12"/>
-      <c r="E870" s="12"/>
+      <c r="D870" s="26">
+        <v>43664</v>
+      </c>
+      <c r="E870" s="26">
+        <v>43664</v>
+      </c>
       <c r="F870" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G870" s="14"/>
+      <c r="G870" s="14" t="s">
+        <v>697</v>
+      </c>
       <c r="H870" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I870" s="7"/>
       <c r="J870" s="8"/>
     </row>
-    <row r="871" spans="1:10">
+    <row r="871" spans="1:10" ht="24">
       <c r="A871" s="5" t="s">
         <v>10</v>
       </c>
@@ -27539,17 +27583,361 @@
       <c r="C871" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D871" s="12"/>
-      <c r="E871" s="12"/>
+      <c r="D871" s="26">
+        <v>43664</v>
+      </c>
+      <c r="E871" s="26">
+        <v>43664</v>
+      </c>
       <c r="F871" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G871" s="14"/>
+      <c r="G871" s="14" t="s">
+        <v>699</v>
+      </c>
       <c r="H871" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I871" s="7"/>
       <c r="J871" s="8"/>
+    </row>
+    <row r="872" spans="1:10" ht="24">
+      <c r="A872" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B872" s="4"/>
+      <c r="C872" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D872" s="26">
+        <v>43665</v>
+      </c>
+      <c r="E872" s="26">
+        <v>43665</v>
+      </c>
+      <c r="F872" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G872" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H872" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I872" s="7"/>
+      <c r="J872" s="8"/>
+    </row>
+    <row r="873" spans="1:10" ht="24">
+      <c r="A873" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B873" s="4"/>
+      <c r="C873" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D873" s="26">
+        <v>43665</v>
+      </c>
+      <c r="E873" s="26">
+        <v>43665</v>
+      </c>
+      <c r="F873" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G873" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="H873" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I873" s="7"/>
+      <c r="J873" s="8"/>
+    </row>
+    <row r="874" spans="1:10">
+      <c r="A874" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B874" s="4"/>
+      <c r="C874" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D874" s="26">
+        <v>43665</v>
+      </c>
+      <c r="E874" s="26">
+        <v>43665</v>
+      </c>
+      <c r="F874" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G874" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="H874" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I874" s="7"/>
+      <c r="J874" s="8"/>
+    </row>
+    <row r="875" spans="1:10">
+      <c r="A875" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B875" s="4"/>
+      <c r="C875" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D875" s="26"/>
+      <c r="E875" s="26"/>
+      <c r="F875" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G875" s="14"/>
+      <c r="H875" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I875" s="7"/>
+      <c r="J875" s="8"/>
+    </row>
+    <row r="876" spans="1:10">
+      <c r="A876" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B876" s="4"/>
+      <c r="C876" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D876" s="26"/>
+      <c r="E876" s="26"/>
+      <c r="F876" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G876" s="14"/>
+      <c r="H876" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I876" s="7"/>
+      <c r="J876" s="8"/>
+    </row>
+    <row r="877" spans="1:10">
+      <c r="A877" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B877" s="4"/>
+      <c r="C877" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D877" s="26"/>
+      <c r="E877" s="26"/>
+      <c r="F877" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G877" s="14"/>
+      <c r="H877" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I877" s="7"/>
+      <c r="J877" s="8"/>
+    </row>
+    <row r="878" spans="1:10">
+      <c r="A878" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B878" s="4"/>
+      <c r="C878" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D878" s="26"/>
+      <c r="E878" s="26"/>
+      <c r="F878" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G878" s="14"/>
+      <c r="H878" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I878" s="7"/>
+      <c r="J878" s="8"/>
+    </row>
+    <row r="879" spans="1:10">
+      <c r="A879" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B879" s="4"/>
+      <c r="C879" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D879" s="26"/>
+      <c r="E879" s="26"/>
+      <c r="F879" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G879" s="14"/>
+      <c r="H879" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I879" s="7"/>
+      <c r="J879" s="8"/>
+    </row>
+    <row r="880" spans="1:10">
+      <c r="A880" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B880" s="4"/>
+      <c r="C880" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D880" s="26"/>
+      <c r="E880" s="26"/>
+      <c r="F880" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G880" s="14"/>
+      <c r="H880" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I880" s="7"/>
+      <c r="J880" s="8"/>
+    </row>
+    <row r="881" spans="1:10">
+      <c r="A881" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B881" s="4"/>
+      <c r="C881" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D881" s="26"/>
+      <c r="E881" s="26"/>
+      <c r="F881" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G881" s="14"/>
+      <c r="H881" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I881" s="7"/>
+      <c r="J881" s="8"/>
+    </row>
+    <row r="882" spans="1:10">
+      <c r="A882" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B882" s="4"/>
+      <c r="C882" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D882" s="26"/>
+      <c r="E882" s="26"/>
+      <c r="F882" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G882" s="14"/>
+      <c r="H882" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I882" s="7"/>
+      <c r="J882" s="8"/>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="A883" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B883" s="4"/>
+      <c r="C883" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D883" s="26"/>
+      <c r="E883" s="26"/>
+      <c r="F883" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G883" s="14"/>
+      <c r="H883" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I883" s="7"/>
+      <c r="J883" s="8"/>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="A884" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B884" s="4"/>
+      <c r="C884" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D884" s="26"/>
+      <c r="E884" s="26"/>
+      <c r="F884" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G884" s="14"/>
+      <c r="H884" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I884" s="7"/>
+      <c r="J884" s="8"/>
+    </row>
+    <row r="885" spans="1:10">
+      <c r="A885" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B885" s="4"/>
+      <c r="C885" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D885" s="26"/>
+      <c r="E885" s="26"/>
+      <c r="F885" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G885" s="14"/>
+      <c r="H885" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I885" s="7"/>
+      <c r="J885" s="8"/>
+    </row>
+    <row r="886" spans="1:10">
+      <c r="A886" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B886" s="4"/>
+      <c r="C886" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D886" s="26"/>
+      <c r="E886" s="26"/>
+      <c r="F886" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G886" s="14"/>
+      <c r="H886" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I886" s="7"/>
+      <c r="J886" s="8"/>
+    </row>
+    <row r="887" spans="1:10">
+      <c r="A887" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B887" s="4"/>
+      <c r="C887" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D887" s="26"/>
+      <c r="E887" s="26"/>
+      <c r="F887" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G887" s="14"/>
+      <c r="H887" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I887" s="7"/>
+      <c r="J887" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27560,10 +27948,10 @@
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131181:C131197 IY65645:IY65661 SU65645:SU65661 ACQ65645:ACQ65661 AMM65645:AMM65661 AWI65645:AWI65661 BGE65645:BGE65661 BQA65645:BQA65661 BZW65645:BZW65661 CJS65645:CJS65661 CTO65645:CTO65661 DDK65645:DDK65661 DNG65645:DNG65661 DXC65645:DXC65661 EGY65645:EGY65661 EQU65645:EQU65661 FAQ65645:FAQ65661 FKM65645:FKM65661 FUI65645:FUI65661 GEE65645:GEE65661 GOA65645:GOA65661 GXW65645:GXW65661 HHS65645:HHS65661 HRO65645:HRO65661 IBK65645:IBK65661 ILG65645:ILG65661 IVC65645:IVC65661 JEY65645:JEY65661 JOU65645:JOU65661 JYQ65645:JYQ65661 KIM65645:KIM65661 KSI65645:KSI65661 LCE65645:LCE65661 LMA65645:LMA65661 LVW65645:LVW65661 MFS65645:MFS65661 MPO65645:MPO65661 MZK65645:MZK65661 NJG65645:NJG65661 NTC65645:NTC65661 OCY65645:OCY65661 OMU65645:OMU65661 OWQ65645:OWQ65661 PGM65645:PGM65661 PQI65645:PQI65661 QAE65645:QAE65661 QKA65645:QKA65661 QTW65645:QTW65661 RDS65645:RDS65661 RNO65645:RNO65661 RXK65645:RXK65661 SHG65645:SHG65661 SRC65645:SRC65661 TAY65645:TAY65661 TKU65645:TKU65661 TUQ65645:TUQ65661 UEM65645:UEM65661 UOI65645:UOI65661 UYE65645:UYE65661 VIA65645:VIA65661 VRW65645:VRW65661 WBS65645:WBS65661 WLO65645:WLO65661 WVK65645:WVK65661 C196717:C196733 IY131181:IY131197 SU131181:SU131197 ACQ131181:ACQ131197 AMM131181:AMM131197 AWI131181:AWI131197 BGE131181:BGE131197 BQA131181:BQA131197 BZW131181:BZW131197 CJS131181:CJS131197 CTO131181:CTO131197 DDK131181:DDK131197 DNG131181:DNG131197 DXC131181:DXC131197 EGY131181:EGY131197 EQU131181:EQU131197 FAQ131181:FAQ131197 FKM131181:FKM131197 FUI131181:FUI131197 GEE131181:GEE131197 GOA131181:GOA131197 GXW131181:GXW131197 HHS131181:HHS131197 HRO131181:HRO131197 IBK131181:IBK131197 ILG131181:ILG131197 IVC131181:IVC131197 JEY131181:JEY131197 JOU131181:JOU131197 JYQ131181:JYQ131197 KIM131181:KIM131197 KSI131181:KSI131197 LCE131181:LCE131197 LMA131181:LMA131197 LVW131181:LVW131197 MFS131181:MFS131197 MPO131181:MPO131197 MZK131181:MZK131197 NJG131181:NJG131197 NTC131181:NTC131197 OCY131181:OCY131197 OMU131181:OMU131197 OWQ131181:OWQ131197 PGM131181:PGM131197 PQI131181:PQI131197 QAE131181:QAE131197 QKA131181:QKA131197 QTW131181:QTW131197 RDS131181:RDS131197 RNO131181:RNO131197 RXK131181:RXK131197 SHG131181:SHG131197 SRC131181:SRC131197 TAY131181:TAY131197 TKU131181:TKU131197 TUQ131181:TUQ131197 UEM131181:UEM131197 UOI131181:UOI131197 UYE131181:UYE131197 VIA131181:VIA131197 VRW131181:VRW131197 WBS131181:WBS131197 WLO131181:WLO131197 WVK131181:WVK131197 C262253:C262269 IY196717:IY196733 SU196717:SU196733 ACQ196717:ACQ196733 AMM196717:AMM196733 AWI196717:AWI196733 BGE196717:BGE196733 BQA196717:BQA196733 BZW196717:BZW196733 CJS196717:CJS196733 CTO196717:CTO196733 DDK196717:DDK196733 DNG196717:DNG196733 DXC196717:DXC196733 EGY196717:EGY196733 EQU196717:EQU196733 FAQ196717:FAQ196733 FKM196717:FKM196733 FUI196717:FUI196733 GEE196717:GEE196733 GOA196717:GOA196733 GXW196717:GXW196733 HHS196717:HHS196733 HRO196717:HRO196733 IBK196717:IBK196733 ILG196717:ILG196733 IVC196717:IVC196733 JEY196717:JEY196733 JOU196717:JOU196733 JYQ196717:JYQ196733 KIM196717:KIM196733 KSI196717:KSI196733 LCE196717:LCE196733 LMA196717:LMA196733 LVW196717:LVW196733 MFS196717:MFS196733 MPO196717:MPO196733 MZK196717:MZK196733 NJG196717:NJG196733 NTC196717:NTC196733 OCY196717:OCY196733 OMU196717:OMU196733 OWQ196717:OWQ196733 PGM196717:PGM196733 PQI196717:PQI196733 QAE196717:QAE196733 QKA196717:QKA196733 QTW196717:QTW196733 RDS196717:RDS196733 RNO196717:RNO196733 RXK196717:RXK196733 SHG196717:SHG196733 SRC196717:SRC196733 TAY196717:TAY196733 TKU196717:TKU196733 TUQ196717:TUQ196733 UEM196717:UEM196733 UOI196717:UOI196733 UYE196717:UYE196733 VIA196717:VIA196733 VRW196717:VRW196733 WBS196717:WBS196733 WLO196717:WLO196733 WVK196717:WVK196733 C327789:C327805 IY262253:IY262269 SU262253:SU262269 ACQ262253:ACQ262269 AMM262253:AMM262269 AWI262253:AWI262269 BGE262253:BGE262269 BQA262253:BQA262269 BZW262253:BZW262269 CJS262253:CJS262269 CTO262253:CTO262269 DDK262253:DDK262269 DNG262253:DNG262269 DXC262253:DXC262269 EGY262253:EGY262269 EQU262253:EQU262269 FAQ262253:FAQ262269 FKM262253:FKM262269 FUI262253:FUI262269 GEE262253:GEE262269 GOA262253:GOA262269 GXW262253:GXW262269 HHS262253:HHS262269 HRO262253:HRO262269 IBK262253:IBK262269 ILG262253:ILG262269 IVC262253:IVC262269 JEY262253:JEY262269 JOU262253:JOU262269 JYQ262253:JYQ262269 KIM262253:KIM262269 KSI262253:KSI262269 LCE262253:LCE262269 LMA262253:LMA262269 LVW262253:LVW262269 MFS262253:MFS262269 MPO262253:MPO262269 MZK262253:MZK262269 NJG262253:NJG262269 NTC262253:NTC262269 OCY262253:OCY262269 OMU262253:OMU262269 OWQ262253:OWQ262269 PGM262253:PGM262269 PQI262253:PQI262269 QAE262253:QAE262269 QKA262253:QKA262269 QTW262253:QTW262269 RDS262253:RDS262269 RNO262253:RNO262269 RXK262253:RXK262269 SHG262253:SHG262269 SRC262253:SRC262269 TAY262253:TAY262269 TKU262253:TKU262269 TUQ262253:TUQ262269 UEM262253:UEM262269 UOI262253:UOI262269 UYE262253:UYE262269 VIA262253:VIA262269 VRW262253:VRW262269 WBS262253:WBS262269 WLO262253:WLO262269 WVK262253:WVK262269 C393325:C393341 IY327789:IY327805 SU327789:SU327805 ACQ327789:ACQ327805 AMM327789:AMM327805 AWI327789:AWI327805 BGE327789:BGE327805 BQA327789:BQA327805 BZW327789:BZW327805 CJS327789:CJS327805 CTO327789:CTO327805 DDK327789:DDK327805 DNG327789:DNG327805 DXC327789:DXC327805 EGY327789:EGY327805 EQU327789:EQU327805 FAQ327789:FAQ327805 FKM327789:FKM327805 FUI327789:FUI327805 GEE327789:GEE327805 GOA327789:GOA327805 GXW327789:GXW327805 HHS327789:HHS327805 HRO327789:HRO327805 IBK327789:IBK327805 ILG327789:ILG327805 IVC327789:IVC327805 JEY327789:JEY327805 JOU327789:JOU327805 JYQ327789:JYQ327805 KIM327789:KIM327805 KSI327789:KSI327805 LCE327789:LCE327805 LMA327789:LMA327805 LVW327789:LVW327805 MFS327789:MFS327805 MPO327789:MPO327805 MZK327789:MZK327805 NJG327789:NJG327805 NTC327789:NTC327805 OCY327789:OCY327805 OMU327789:OMU327805 OWQ327789:OWQ327805 PGM327789:PGM327805 PQI327789:PQI327805 QAE327789:QAE327805 QKA327789:QKA327805 QTW327789:QTW327805 RDS327789:RDS327805 RNO327789:RNO327805 RXK327789:RXK327805 SHG327789:SHG327805 SRC327789:SRC327805 TAY327789:TAY327805 TKU327789:TKU327805 TUQ327789:TUQ327805 UEM327789:UEM327805 UOI327789:UOI327805 UYE327789:UYE327805 VIA327789:VIA327805 VRW327789:VRW327805 WBS327789:WBS327805 WLO327789:WLO327805 WVK327789:WVK327805 C458861:C458877 IY393325:IY393341 SU393325:SU393341 ACQ393325:ACQ393341 AMM393325:AMM393341 AWI393325:AWI393341 BGE393325:BGE393341 BQA393325:BQA393341 BZW393325:BZW393341 CJS393325:CJS393341 CTO393325:CTO393341 DDK393325:DDK393341 DNG393325:DNG393341 DXC393325:DXC393341 EGY393325:EGY393341 EQU393325:EQU393341 FAQ393325:FAQ393341 FKM393325:FKM393341 FUI393325:FUI393341 GEE393325:GEE393341 GOA393325:GOA393341 GXW393325:GXW393341 HHS393325:HHS393341 HRO393325:HRO393341 IBK393325:IBK393341 ILG393325:ILG393341 IVC393325:IVC393341 JEY393325:JEY393341 JOU393325:JOU393341 JYQ393325:JYQ393341 KIM393325:KIM393341 KSI393325:KSI393341 LCE393325:LCE393341 LMA393325:LMA393341 LVW393325:LVW393341 MFS393325:MFS393341 MPO393325:MPO393341 MZK393325:MZK393341 NJG393325:NJG393341 NTC393325:NTC393341 OCY393325:OCY393341 OMU393325:OMU393341 OWQ393325:OWQ393341 PGM393325:PGM393341 PQI393325:PQI393341 QAE393325:QAE393341 QKA393325:QKA393341 QTW393325:QTW393341 RDS393325:RDS393341 RNO393325:RNO393341 RXK393325:RXK393341 SHG393325:SHG393341 SRC393325:SRC393341 TAY393325:TAY393341 TKU393325:TKU393341 TUQ393325:TUQ393341 UEM393325:UEM393341 UOI393325:UOI393341 UYE393325:UYE393341 VIA393325:VIA393341 VRW393325:VRW393341 WBS393325:WBS393341 WLO393325:WLO393341 WVK393325:WVK393341 C524397:C524413 IY458861:IY458877 SU458861:SU458877 ACQ458861:ACQ458877 AMM458861:AMM458877 AWI458861:AWI458877 BGE458861:BGE458877 BQA458861:BQA458877 BZW458861:BZW458877 CJS458861:CJS458877 CTO458861:CTO458877 DDK458861:DDK458877 DNG458861:DNG458877 DXC458861:DXC458877 EGY458861:EGY458877 EQU458861:EQU458877 FAQ458861:FAQ458877 FKM458861:FKM458877 FUI458861:FUI458877 GEE458861:GEE458877 GOA458861:GOA458877 GXW458861:GXW458877 HHS458861:HHS458877 HRO458861:HRO458877 IBK458861:IBK458877 ILG458861:ILG458877 IVC458861:IVC458877 JEY458861:JEY458877 JOU458861:JOU458877 JYQ458861:JYQ458877 KIM458861:KIM458877 KSI458861:KSI458877 LCE458861:LCE458877 LMA458861:LMA458877 LVW458861:LVW458877 MFS458861:MFS458877 MPO458861:MPO458877 MZK458861:MZK458877 NJG458861:NJG458877 NTC458861:NTC458877 OCY458861:OCY458877 OMU458861:OMU458877 OWQ458861:OWQ458877 PGM458861:PGM458877 PQI458861:PQI458877 QAE458861:QAE458877 QKA458861:QKA458877 QTW458861:QTW458877 RDS458861:RDS458877 RNO458861:RNO458877 RXK458861:RXK458877 SHG458861:SHG458877 SRC458861:SRC458877 TAY458861:TAY458877 TKU458861:TKU458877 TUQ458861:TUQ458877 UEM458861:UEM458877 UOI458861:UOI458877 UYE458861:UYE458877 VIA458861:VIA458877 VRW458861:VRW458877 WBS458861:WBS458877 WLO458861:WLO458877 WVK458861:WVK458877 C589933:C589949 IY524397:IY524413 SU524397:SU524413 ACQ524397:ACQ524413 AMM524397:AMM524413 AWI524397:AWI524413 BGE524397:BGE524413 BQA524397:BQA524413 BZW524397:BZW524413 CJS524397:CJS524413 CTO524397:CTO524413 DDK524397:DDK524413 DNG524397:DNG524413 DXC524397:DXC524413 EGY524397:EGY524413 EQU524397:EQU524413 FAQ524397:FAQ524413 FKM524397:FKM524413 FUI524397:FUI524413 GEE524397:GEE524413 GOA524397:GOA524413 GXW524397:GXW524413 HHS524397:HHS524413 HRO524397:HRO524413 IBK524397:IBK524413 ILG524397:ILG524413 IVC524397:IVC524413 JEY524397:JEY524413 JOU524397:JOU524413 JYQ524397:JYQ524413 KIM524397:KIM524413 KSI524397:KSI524413 LCE524397:LCE524413 LMA524397:LMA524413 LVW524397:LVW524413 MFS524397:MFS524413 MPO524397:MPO524413 MZK524397:MZK524413 NJG524397:NJG524413 NTC524397:NTC524413 OCY524397:OCY524413 OMU524397:OMU524413 OWQ524397:OWQ524413 PGM524397:PGM524413 PQI524397:PQI524413 QAE524397:QAE524413 QKA524397:QKA524413 QTW524397:QTW524413 RDS524397:RDS524413 RNO524397:RNO524413 RXK524397:RXK524413 SHG524397:SHG524413 SRC524397:SRC524413 TAY524397:TAY524413 TKU524397:TKU524413 TUQ524397:TUQ524413 UEM524397:UEM524413 UOI524397:UOI524413 UYE524397:UYE524413 VIA524397:VIA524413 VRW524397:VRW524413 WBS524397:WBS524413 WLO524397:WLO524413 WVK524397:WVK524413 C655469:C655485 IY589933:IY589949 SU589933:SU589949 ACQ589933:ACQ589949 AMM589933:AMM589949 AWI589933:AWI589949 BGE589933:BGE589949 BQA589933:BQA589949 BZW589933:BZW589949 CJS589933:CJS589949 CTO589933:CTO589949 DDK589933:DDK589949 DNG589933:DNG589949 DXC589933:DXC589949 EGY589933:EGY589949 EQU589933:EQU589949 FAQ589933:FAQ589949 FKM589933:FKM589949 FUI589933:FUI589949 GEE589933:GEE589949 GOA589933:GOA589949 GXW589933:GXW589949 HHS589933:HHS589949 HRO589933:HRO589949 IBK589933:IBK589949 ILG589933:ILG589949 IVC589933:IVC589949 JEY589933:JEY589949 JOU589933:JOU589949 JYQ589933:JYQ589949 KIM589933:KIM589949 KSI589933:KSI589949 LCE589933:LCE589949 LMA589933:LMA589949 LVW589933:LVW589949 MFS589933:MFS589949 MPO589933:MPO589949 MZK589933:MZK589949 NJG589933:NJG589949 NTC589933:NTC589949 OCY589933:OCY589949 OMU589933:OMU589949 OWQ589933:OWQ589949 PGM589933:PGM589949 PQI589933:PQI589949 QAE589933:QAE589949 QKA589933:QKA589949 QTW589933:QTW589949 RDS589933:RDS589949 RNO589933:RNO589949 RXK589933:RXK589949 SHG589933:SHG589949 SRC589933:SRC589949 TAY589933:TAY589949 TKU589933:TKU589949 TUQ589933:TUQ589949 UEM589933:UEM589949 UOI589933:UOI589949 UYE589933:UYE589949 VIA589933:VIA589949 VRW589933:VRW589949 WBS589933:WBS589949 WLO589933:WLO589949 WVK589933:WVK589949 C721005:C721021 IY655469:IY655485 SU655469:SU655485 ACQ655469:ACQ655485 AMM655469:AMM655485 AWI655469:AWI655485 BGE655469:BGE655485 BQA655469:BQA655485 BZW655469:BZW655485 CJS655469:CJS655485 CTO655469:CTO655485 DDK655469:DDK655485 DNG655469:DNG655485 DXC655469:DXC655485 EGY655469:EGY655485 EQU655469:EQU655485 FAQ655469:FAQ655485 FKM655469:FKM655485 FUI655469:FUI655485 GEE655469:GEE655485 GOA655469:GOA655485 GXW655469:GXW655485 HHS655469:HHS655485 HRO655469:HRO655485 IBK655469:IBK655485 ILG655469:ILG655485 IVC655469:IVC655485 JEY655469:JEY655485 JOU655469:JOU655485 JYQ655469:JYQ655485 KIM655469:KIM655485 KSI655469:KSI655485 LCE655469:LCE655485 LMA655469:LMA655485 LVW655469:LVW655485 MFS655469:MFS655485 MPO655469:MPO655485 MZK655469:MZK655485 NJG655469:NJG655485 NTC655469:NTC655485 OCY655469:OCY655485 OMU655469:OMU655485 OWQ655469:OWQ655485 PGM655469:PGM655485 PQI655469:PQI655485 QAE655469:QAE655485 QKA655469:QKA655485 QTW655469:QTW655485 RDS655469:RDS655485 RNO655469:RNO655485 RXK655469:RXK655485 SHG655469:SHG655485 SRC655469:SRC655485 TAY655469:TAY655485 TKU655469:TKU655485 TUQ655469:TUQ655485 UEM655469:UEM655485 UOI655469:UOI655485 UYE655469:UYE655485 VIA655469:VIA655485 VRW655469:VRW655485 WBS655469:WBS655485 WLO655469:WLO655485 WVK655469:WVK655485 C786541:C786557 IY721005:IY721021 SU721005:SU721021 ACQ721005:ACQ721021 AMM721005:AMM721021 AWI721005:AWI721021 BGE721005:BGE721021 BQA721005:BQA721021 BZW721005:BZW721021 CJS721005:CJS721021 CTO721005:CTO721021 DDK721005:DDK721021 DNG721005:DNG721021 DXC721005:DXC721021 EGY721005:EGY721021 EQU721005:EQU721021 FAQ721005:FAQ721021 FKM721005:FKM721021 FUI721005:FUI721021 GEE721005:GEE721021 GOA721005:GOA721021 GXW721005:GXW721021 HHS721005:HHS721021 HRO721005:HRO721021 IBK721005:IBK721021 ILG721005:ILG721021 IVC721005:IVC721021 JEY721005:JEY721021 JOU721005:JOU721021 JYQ721005:JYQ721021 KIM721005:KIM721021 KSI721005:KSI721021 LCE721005:LCE721021 LMA721005:LMA721021 LVW721005:LVW721021 MFS721005:MFS721021 MPO721005:MPO721021 MZK721005:MZK721021 NJG721005:NJG721021 NTC721005:NTC721021 OCY721005:OCY721021 OMU721005:OMU721021 OWQ721005:OWQ721021 PGM721005:PGM721021 PQI721005:PQI721021 QAE721005:QAE721021 QKA721005:QKA721021 QTW721005:QTW721021 RDS721005:RDS721021 RNO721005:RNO721021 RXK721005:RXK721021 SHG721005:SHG721021 SRC721005:SRC721021 TAY721005:TAY721021 TKU721005:TKU721021 TUQ721005:TUQ721021 UEM721005:UEM721021 UOI721005:UOI721021 UYE721005:UYE721021 VIA721005:VIA721021 VRW721005:VRW721021 WBS721005:WBS721021 WLO721005:WLO721021 WVK721005:WVK721021 C852077:C852093 IY786541:IY786557 SU786541:SU786557 ACQ786541:ACQ786557 AMM786541:AMM786557 AWI786541:AWI786557 BGE786541:BGE786557 BQA786541:BQA786557 BZW786541:BZW786557 CJS786541:CJS786557 CTO786541:CTO786557 DDK786541:DDK786557 DNG786541:DNG786557 DXC786541:DXC786557 EGY786541:EGY786557 EQU786541:EQU786557 FAQ786541:FAQ786557 FKM786541:FKM786557 FUI786541:FUI786557 GEE786541:GEE786557 GOA786541:GOA786557 GXW786541:GXW786557 HHS786541:HHS786557 HRO786541:HRO786557 IBK786541:IBK786557 ILG786541:ILG786557 IVC786541:IVC786557 JEY786541:JEY786557 JOU786541:JOU786557 JYQ786541:JYQ786557 KIM786541:KIM786557 KSI786541:KSI786557 LCE786541:LCE786557 LMA786541:LMA786557 LVW786541:LVW786557 MFS786541:MFS786557 MPO786541:MPO786557 MZK786541:MZK786557 NJG786541:NJG786557 NTC786541:NTC786557 OCY786541:OCY786557 OMU786541:OMU786557 OWQ786541:OWQ786557 PGM786541:PGM786557 PQI786541:PQI786557 QAE786541:QAE786557 QKA786541:QKA786557 QTW786541:QTW786557 RDS786541:RDS786557 RNO786541:RNO786557 RXK786541:RXK786557 SHG786541:SHG786557 SRC786541:SRC786557 TAY786541:TAY786557 TKU786541:TKU786557 TUQ786541:TUQ786557 UEM786541:UEM786557 UOI786541:UOI786557 UYE786541:UYE786557 VIA786541:VIA786557 VRW786541:VRW786557 WBS786541:WBS786557 WLO786541:WLO786557 WVK786541:WVK786557 C917613:C917629 IY852077:IY852093 SU852077:SU852093 ACQ852077:ACQ852093 AMM852077:AMM852093 AWI852077:AWI852093 BGE852077:BGE852093 BQA852077:BQA852093 BZW852077:BZW852093 CJS852077:CJS852093 CTO852077:CTO852093 DDK852077:DDK852093 DNG852077:DNG852093 DXC852077:DXC852093 EGY852077:EGY852093 EQU852077:EQU852093 FAQ852077:FAQ852093 FKM852077:FKM852093 FUI852077:FUI852093 GEE852077:GEE852093 GOA852077:GOA852093 GXW852077:GXW852093 HHS852077:HHS852093 HRO852077:HRO852093 IBK852077:IBK852093 ILG852077:ILG852093 IVC852077:IVC852093 JEY852077:JEY852093 JOU852077:JOU852093 JYQ852077:JYQ852093 KIM852077:KIM852093 KSI852077:KSI852093 LCE852077:LCE852093 LMA852077:LMA852093 LVW852077:LVW852093 MFS852077:MFS852093 MPO852077:MPO852093 MZK852077:MZK852093 NJG852077:NJG852093 NTC852077:NTC852093 OCY852077:OCY852093 OMU852077:OMU852093 OWQ852077:OWQ852093 PGM852077:PGM852093 PQI852077:PQI852093 QAE852077:QAE852093 QKA852077:QKA852093 QTW852077:QTW852093 RDS852077:RDS852093 RNO852077:RNO852093 RXK852077:RXK852093 SHG852077:SHG852093 SRC852077:SRC852093 TAY852077:TAY852093 TKU852077:TKU852093 TUQ852077:TUQ852093 UEM852077:UEM852093 UOI852077:UOI852093 UYE852077:UYE852093 VIA852077:VIA852093 VRW852077:VRW852093 WBS852077:WBS852093 WLO852077:WLO852093 WVK852077:WVK852093 C983149:C983165 IY917613:IY917629 SU917613:SU917629 ACQ917613:ACQ917629 AMM917613:AMM917629 AWI917613:AWI917629 BGE917613:BGE917629 BQA917613:BQA917629 BZW917613:BZW917629 CJS917613:CJS917629 CTO917613:CTO917629 DDK917613:DDK917629 DNG917613:DNG917629 DXC917613:DXC917629 EGY917613:EGY917629 EQU917613:EQU917629 FAQ917613:FAQ917629 FKM917613:FKM917629 FUI917613:FUI917629 GEE917613:GEE917629 GOA917613:GOA917629 GXW917613:GXW917629 HHS917613:HHS917629 HRO917613:HRO917629 IBK917613:IBK917629 ILG917613:ILG917629 IVC917613:IVC917629 JEY917613:JEY917629 JOU917613:JOU917629 JYQ917613:JYQ917629 KIM917613:KIM917629 KSI917613:KSI917629 LCE917613:LCE917629 LMA917613:LMA917629 LVW917613:LVW917629 MFS917613:MFS917629 MPO917613:MPO917629 MZK917613:MZK917629 NJG917613:NJG917629 NTC917613:NTC917629 OCY917613:OCY917629 OMU917613:OMU917629 OWQ917613:OWQ917629 PGM917613:PGM917629 PQI917613:PQI917629 QAE917613:QAE917629 QKA917613:QKA917629 QTW917613:QTW917629 RDS917613:RDS917629 RNO917613:RNO917629 RXK917613:RXK917629 SHG917613:SHG917629 SRC917613:SRC917629 TAY917613:TAY917629 TKU917613:TKU917629 TUQ917613:TUQ917629 UEM917613:UEM917629 UOI917613:UOI917629 UYE917613:UYE917629 VIA917613:VIA917629 VRW917613:VRW917629 WBS917613:WBS917629 WLO917613:WLO917629 WVK917613:WVK917629 WVK983149:WVK983165 IY983149:IY983165 SU983149:SU983165 ACQ983149:ACQ983165 AMM983149:AMM983165 AWI983149:AWI983165 BGE983149:BGE983165 BQA983149:BQA983165 BZW983149:BZW983165 CJS983149:CJS983165 CTO983149:CTO983165 DDK983149:DDK983165 DNG983149:DNG983165 DXC983149:DXC983165 EGY983149:EGY983165 EQU983149:EQU983165 FAQ983149:FAQ983165 FKM983149:FKM983165 FUI983149:FUI983165 GEE983149:GEE983165 GOA983149:GOA983165 GXW983149:GXW983165 HHS983149:HHS983165 HRO983149:HRO983165 IBK983149:IBK983165 ILG983149:ILG983165 IVC983149:IVC983165 JEY983149:JEY983165 JOU983149:JOU983165 JYQ983149:JYQ983165 KIM983149:KIM983165 KSI983149:KSI983165 LCE983149:LCE983165 LMA983149:LMA983165 LVW983149:LVW983165 MFS983149:MFS983165 MPO983149:MPO983165 MZK983149:MZK983165 NJG983149:NJG983165 NTC983149:NTC983165 OCY983149:OCY983165 OMU983149:OMU983165 OWQ983149:OWQ983165 PGM983149:PGM983165 PQI983149:PQI983165 QAE983149:QAE983165 QKA983149:QKA983165 QTW983149:QTW983165 RDS983149:RDS983165 RNO983149:RNO983165 RXK983149:RXK983165 SHG983149:SHG983165 SRC983149:SRC983165 TAY983149:TAY983165 TKU983149:TKU983165 TUQ983149:TUQ983165 UEM983149:UEM983165 UOI983149:UOI983165 UYE983149:UYE983165 VIA983149:VIA983165 VRW983149:VRW983165 WBS983149:WBS983165 WLO983149:WLO983165 C65645:C65661" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65645:F65678 JB65645:JB65678 SX65645:SX65678 ACT65645:ACT65678 AMP65645:AMP65678 AWL65645:AWL65678 BGH65645:BGH65678 BQD65645:BQD65678 BZZ65645:BZZ65678 CJV65645:CJV65678 CTR65645:CTR65678 DDN65645:DDN65678 DNJ65645:DNJ65678 DXF65645:DXF65678 EHB65645:EHB65678 EQX65645:EQX65678 FAT65645:FAT65678 FKP65645:FKP65678 FUL65645:FUL65678 GEH65645:GEH65678 GOD65645:GOD65678 GXZ65645:GXZ65678 HHV65645:HHV65678 HRR65645:HRR65678 IBN65645:IBN65678 ILJ65645:ILJ65678 IVF65645:IVF65678 JFB65645:JFB65678 JOX65645:JOX65678 JYT65645:JYT65678 KIP65645:KIP65678 KSL65645:KSL65678 LCH65645:LCH65678 LMD65645:LMD65678 LVZ65645:LVZ65678 MFV65645:MFV65678 MPR65645:MPR65678 MZN65645:MZN65678 NJJ65645:NJJ65678 NTF65645:NTF65678 ODB65645:ODB65678 OMX65645:OMX65678 OWT65645:OWT65678 PGP65645:PGP65678 PQL65645:PQL65678 QAH65645:QAH65678 QKD65645:QKD65678 QTZ65645:QTZ65678 RDV65645:RDV65678 RNR65645:RNR65678 RXN65645:RXN65678 SHJ65645:SHJ65678 SRF65645:SRF65678 TBB65645:TBB65678 TKX65645:TKX65678 TUT65645:TUT65678 UEP65645:UEP65678 UOL65645:UOL65678 UYH65645:UYH65678 VID65645:VID65678 VRZ65645:VRZ65678 WBV65645:WBV65678 WLR65645:WLR65678 WVN65645:WVN65678 F131181:F131214 JB131181:JB131214 SX131181:SX131214 ACT131181:ACT131214 AMP131181:AMP131214 AWL131181:AWL131214 BGH131181:BGH131214 BQD131181:BQD131214 BZZ131181:BZZ131214 CJV131181:CJV131214 CTR131181:CTR131214 DDN131181:DDN131214 DNJ131181:DNJ131214 DXF131181:DXF131214 EHB131181:EHB131214 EQX131181:EQX131214 FAT131181:FAT131214 FKP131181:FKP131214 FUL131181:FUL131214 GEH131181:GEH131214 GOD131181:GOD131214 GXZ131181:GXZ131214 HHV131181:HHV131214 HRR131181:HRR131214 IBN131181:IBN131214 ILJ131181:ILJ131214 IVF131181:IVF131214 JFB131181:JFB131214 JOX131181:JOX131214 JYT131181:JYT131214 KIP131181:KIP131214 KSL131181:KSL131214 LCH131181:LCH131214 LMD131181:LMD131214 LVZ131181:LVZ131214 MFV131181:MFV131214 MPR131181:MPR131214 MZN131181:MZN131214 NJJ131181:NJJ131214 NTF131181:NTF131214 ODB131181:ODB131214 OMX131181:OMX131214 OWT131181:OWT131214 PGP131181:PGP131214 PQL131181:PQL131214 QAH131181:QAH131214 QKD131181:QKD131214 QTZ131181:QTZ131214 RDV131181:RDV131214 RNR131181:RNR131214 RXN131181:RXN131214 SHJ131181:SHJ131214 SRF131181:SRF131214 TBB131181:TBB131214 TKX131181:TKX131214 TUT131181:TUT131214 UEP131181:UEP131214 UOL131181:UOL131214 UYH131181:UYH131214 VID131181:VID131214 VRZ131181:VRZ131214 WBV131181:WBV131214 WLR131181:WLR131214 WVN131181:WVN131214 F196717:F196750 JB196717:JB196750 SX196717:SX196750 ACT196717:ACT196750 AMP196717:AMP196750 AWL196717:AWL196750 BGH196717:BGH196750 BQD196717:BQD196750 BZZ196717:BZZ196750 CJV196717:CJV196750 CTR196717:CTR196750 DDN196717:DDN196750 DNJ196717:DNJ196750 DXF196717:DXF196750 EHB196717:EHB196750 EQX196717:EQX196750 FAT196717:FAT196750 FKP196717:FKP196750 FUL196717:FUL196750 GEH196717:GEH196750 GOD196717:GOD196750 GXZ196717:GXZ196750 HHV196717:HHV196750 HRR196717:HRR196750 IBN196717:IBN196750 ILJ196717:ILJ196750 IVF196717:IVF196750 JFB196717:JFB196750 JOX196717:JOX196750 JYT196717:JYT196750 KIP196717:KIP196750 KSL196717:KSL196750 LCH196717:LCH196750 LMD196717:LMD196750 LVZ196717:LVZ196750 MFV196717:MFV196750 MPR196717:MPR196750 MZN196717:MZN196750 NJJ196717:NJJ196750 NTF196717:NTF196750 ODB196717:ODB196750 OMX196717:OMX196750 OWT196717:OWT196750 PGP196717:PGP196750 PQL196717:PQL196750 QAH196717:QAH196750 QKD196717:QKD196750 QTZ196717:QTZ196750 RDV196717:RDV196750 RNR196717:RNR196750 RXN196717:RXN196750 SHJ196717:SHJ196750 SRF196717:SRF196750 TBB196717:TBB196750 TKX196717:TKX196750 TUT196717:TUT196750 UEP196717:UEP196750 UOL196717:UOL196750 UYH196717:UYH196750 VID196717:VID196750 VRZ196717:VRZ196750 WBV196717:WBV196750 WLR196717:WLR196750 WVN196717:WVN196750 F262253:F262286 JB262253:JB262286 SX262253:SX262286 ACT262253:ACT262286 AMP262253:AMP262286 AWL262253:AWL262286 BGH262253:BGH262286 BQD262253:BQD262286 BZZ262253:BZZ262286 CJV262253:CJV262286 CTR262253:CTR262286 DDN262253:DDN262286 DNJ262253:DNJ262286 DXF262253:DXF262286 EHB262253:EHB262286 EQX262253:EQX262286 FAT262253:FAT262286 FKP262253:FKP262286 FUL262253:FUL262286 GEH262253:GEH262286 GOD262253:GOD262286 GXZ262253:GXZ262286 HHV262253:HHV262286 HRR262253:HRR262286 IBN262253:IBN262286 ILJ262253:ILJ262286 IVF262253:IVF262286 JFB262253:JFB262286 JOX262253:JOX262286 JYT262253:JYT262286 KIP262253:KIP262286 KSL262253:KSL262286 LCH262253:LCH262286 LMD262253:LMD262286 LVZ262253:LVZ262286 MFV262253:MFV262286 MPR262253:MPR262286 MZN262253:MZN262286 NJJ262253:NJJ262286 NTF262253:NTF262286 ODB262253:ODB262286 OMX262253:OMX262286 OWT262253:OWT262286 PGP262253:PGP262286 PQL262253:PQL262286 QAH262253:QAH262286 QKD262253:QKD262286 QTZ262253:QTZ262286 RDV262253:RDV262286 RNR262253:RNR262286 RXN262253:RXN262286 SHJ262253:SHJ262286 SRF262253:SRF262286 TBB262253:TBB262286 TKX262253:TKX262286 TUT262253:TUT262286 UEP262253:UEP262286 UOL262253:UOL262286 UYH262253:UYH262286 VID262253:VID262286 VRZ262253:VRZ262286 WBV262253:WBV262286 WLR262253:WLR262286 WVN262253:WVN262286 F327789:F327822 JB327789:JB327822 SX327789:SX327822 ACT327789:ACT327822 AMP327789:AMP327822 AWL327789:AWL327822 BGH327789:BGH327822 BQD327789:BQD327822 BZZ327789:BZZ327822 CJV327789:CJV327822 CTR327789:CTR327822 DDN327789:DDN327822 DNJ327789:DNJ327822 DXF327789:DXF327822 EHB327789:EHB327822 EQX327789:EQX327822 FAT327789:FAT327822 FKP327789:FKP327822 FUL327789:FUL327822 GEH327789:GEH327822 GOD327789:GOD327822 GXZ327789:GXZ327822 HHV327789:HHV327822 HRR327789:HRR327822 IBN327789:IBN327822 ILJ327789:ILJ327822 IVF327789:IVF327822 JFB327789:JFB327822 JOX327789:JOX327822 JYT327789:JYT327822 KIP327789:KIP327822 KSL327789:KSL327822 LCH327789:LCH327822 LMD327789:LMD327822 LVZ327789:LVZ327822 MFV327789:MFV327822 MPR327789:MPR327822 MZN327789:MZN327822 NJJ327789:NJJ327822 NTF327789:NTF327822 ODB327789:ODB327822 OMX327789:OMX327822 OWT327789:OWT327822 PGP327789:PGP327822 PQL327789:PQL327822 QAH327789:QAH327822 QKD327789:QKD327822 QTZ327789:QTZ327822 RDV327789:RDV327822 RNR327789:RNR327822 RXN327789:RXN327822 SHJ327789:SHJ327822 SRF327789:SRF327822 TBB327789:TBB327822 TKX327789:TKX327822 TUT327789:TUT327822 UEP327789:UEP327822 UOL327789:UOL327822 UYH327789:UYH327822 VID327789:VID327822 VRZ327789:VRZ327822 WBV327789:WBV327822 WLR327789:WLR327822 WVN327789:WVN327822 F393325:F393358 JB393325:JB393358 SX393325:SX393358 ACT393325:ACT393358 AMP393325:AMP393358 AWL393325:AWL393358 BGH393325:BGH393358 BQD393325:BQD393358 BZZ393325:BZZ393358 CJV393325:CJV393358 CTR393325:CTR393358 DDN393325:DDN393358 DNJ393325:DNJ393358 DXF393325:DXF393358 EHB393325:EHB393358 EQX393325:EQX393358 FAT393325:FAT393358 FKP393325:FKP393358 FUL393325:FUL393358 GEH393325:GEH393358 GOD393325:GOD393358 GXZ393325:GXZ393358 HHV393325:HHV393358 HRR393325:HRR393358 IBN393325:IBN393358 ILJ393325:ILJ393358 IVF393325:IVF393358 JFB393325:JFB393358 JOX393325:JOX393358 JYT393325:JYT393358 KIP393325:KIP393358 KSL393325:KSL393358 LCH393325:LCH393358 LMD393325:LMD393358 LVZ393325:LVZ393358 MFV393325:MFV393358 MPR393325:MPR393358 MZN393325:MZN393358 NJJ393325:NJJ393358 NTF393325:NTF393358 ODB393325:ODB393358 OMX393325:OMX393358 OWT393325:OWT393358 PGP393325:PGP393358 PQL393325:PQL393358 QAH393325:QAH393358 QKD393325:QKD393358 QTZ393325:QTZ393358 RDV393325:RDV393358 RNR393325:RNR393358 RXN393325:RXN393358 SHJ393325:SHJ393358 SRF393325:SRF393358 TBB393325:TBB393358 TKX393325:TKX393358 TUT393325:TUT393358 UEP393325:UEP393358 UOL393325:UOL393358 UYH393325:UYH393358 VID393325:VID393358 VRZ393325:VRZ393358 WBV393325:WBV393358 WLR393325:WLR393358 WVN393325:WVN393358 F458861:F458894 JB458861:JB458894 SX458861:SX458894 ACT458861:ACT458894 AMP458861:AMP458894 AWL458861:AWL458894 BGH458861:BGH458894 BQD458861:BQD458894 BZZ458861:BZZ458894 CJV458861:CJV458894 CTR458861:CTR458894 DDN458861:DDN458894 DNJ458861:DNJ458894 DXF458861:DXF458894 EHB458861:EHB458894 EQX458861:EQX458894 FAT458861:FAT458894 FKP458861:FKP458894 FUL458861:FUL458894 GEH458861:GEH458894 GOD458861:GOD458894 GXZ458861:GXZ458894 HHV458861:HHV458894 HRR458861:HRR458894 IBN458861:IBN458894 ILJ458861:ILJ458894 IVF458861:IVF458894 JFB458861:JFB458894 JOX458861:JOX458894 JYT458861:JYT458894 KIP458861:KIP458894 KSL458861:KSL458894 LCH458861:LCH458894 LMD458861:LMD458894 LVZ458861:LVZ458894 MFV458861:MFV458894 MPR458861:MPR458894 MZN458861:MZN458894 NJJ458861:NJJ458894 NTF458861:NTF458894 ODB458861:ODB458894 OMX458861:OMX458894 OWT458861:OWT458894 PGP458861:PGP458894 PQL458861:PQL458894 QAH458861:QAH458894 QKD458861:QKD458894 QTZ458861:QTZ458894 RDV458861:RDV458894 RNR458861:RNR458894 RXN458861:RXN458894 SHJ458861:SHJ458894 SRF458861:SRF458894 TBB458861:TBB458894 TKX458861:TKX458894 TUT458861:TUT458894 UEP458861:UEP458894 UOL458861:UOL458894 UYH458861:UYH458894 VID458861:VID458894 VRZ458861:VRZ458894 WBV458861:WBV458894 WLR458861:WLR458894 WVN458861:WVN458894 F524397:F524430 JB524397:JB524430 SX524397:SX524430 ACT524397:ACT524430 AMP524397:AMP524430 AWL524397:AWL524430 BGH524397:BGH524430 BQD524397:BQD524430 BZZ524397:BZZ524430 CJV524397:CJV524430 CTR524397:CTR524430 DDN524397:DDN524430 DNJ524397:DNJ524430 DXF524397:DXF524430 EHB524397:EHB524430 EQX524397:EQX524430 FAT524397:FAT524430 FKP524397:FKP524430 FUL524397:FUL524430 GEH524397:GEH524430 GOD524397:GOD524430 GXZ524397:GXZ524430 HHV524397:HHV524430 HRR524397:HRR524430 IBN524397:IBN524430 ILJ524397:ILJ524430 IVF524397:IVF524430 JFB524397:JFB524430 JOX524397:JOX524430 JYT524397:JYT524430 KIP524397:KIP524430 KSL524397:KSL524430 LCH524397:LCH524430 LMD524397:LMD524430 LVZ524397:LVZ524430 MFV524397:MFV524430 MPR524397:MPR524430 MZN524397:MZN524430 NJJ524397:NJJ524430 NTF524397:NTF524430 ODB524397:ODB524430 OMX524397:OMX524430 OWT524397:OWT524430 PGP524397:PGP524430 PQL524397:PQL524430 QAH524397:QAH524430 QKD524397:QKD524430 QTZ524397:QTZ524430 RDV524397:RDV524430 RNR524397:RNR524430 RXN524397:RXN524430 SHJ524397:SHJ524430 SRF524397:SRF524430 TBB524397:TBB524430 TKX524397:TKX524430 TUT524397:TUT524430 UEP524397:UEP524430 UOL524397:UOL524430 UYH524397:UYH524430 VID524397:VID524430 VRZ524397:VRZ524430 WBV524397:WBV524430 WLR524397:WLR524430 WVN524397:WVN524430 F589933:F589966 JB589933:JB589966 SX589933:SX589966 ACT589933:ACT589966 AMP589933:AMP589966 AWL589933:AWL589966 BGH589933:BGH589966 BQD589933:BQD589966 BZZ589933:BZZ589966 CJV589933:CJV589966 CTR589933:CTR589966 DDN589933:DDN589966 DNJ589933:DNJ589966 DXF589933:DXF589966 EHB589933:EHB589966 EQX589933:EQX589966 FAT589933:FAT589966 FKP589933:FKP589966 FUL589933:FUL589966 GEH589933:GEH589966 GOD589933:GOD589966 GXZ589933:GXZ589966 HHV589933:HHV589966 HRR589933:HRR589966 IBN589933:IBN589966 ILJ589933:ILJ589966 IVF589933:IVF589966 JFB589933:JFB589966 JOX589933:JOX589966 JYT589933:JYT589966 KIP589933:KIP589966 KSL589933:KSL589966 LCH589933:LCH589966 LMD589933:LMD589966 LVZ589933:LVZ589966 MFV589933:MFV589966 MPR589933:MPR589966 MZN589933:MZN589966 NJJ589933:NJJ589966 NTF589933:NTF589966 ODB589933:ODB589966 OMX589933:OMX589966 OWT589933:OWT589966 PGP589933:PGP589966 PQL589933:PQL589966 QAH589933:QAH589966 QKD589933:QKD589966 QTZ589933:QTZ589966 RDV589933:RDV589966 RNR589933:RNR589966 RXN589933:RXN589966 SHJ589933:SHJ589966 SRF589933:SRF589966 TBB589933:TBB589966 TKX589933:TKX589966 TUT589933:TUT589966 UEP589933:UEP589966 UOL589933:UOL589966 UYH589933:UYH589966 VID589933:VID589966 VRZ589933:VRZ589966 WBV589933:WBV589966 WLR589933:WLR589966 WVN589933:WVN589966 F655469:F655502 JB655469:JB655502 SX655469:SX655502 ACT655469:ACT655502 AMP655469:AMP655502 AWL655469:AWL655502 BGH655469:BGH655502 BQD655469:BQD655502 BZZ655469:BZZ655502 CJV655469:CJV655502 CTR655469:CTR655502 DDN655469:DDN655502 DNJ655469:DNJ655502 DXF655469:DXF655502 EHB655469:EHB655502 EQX655469:EQX655502 FAT655469:FAT655502 FKP655469:FKP655502 FUL655469:FUL655502 GEH655469:GEH655502 GOD655469:GOD655502 GXZ655469:GXZ655502 HHV655469:HHV655502 HRR655469:HRR655502 IBN655469:IBN655502 ILJ655469:ILJ655502 IVF655469:IVF655502 JFB655469:JFB655502 JOX655469:JOX655502 JYT655469:JYT655502 KIP655469:KIP655502 KSL655469:KSL655502 LCH655469:LCH655502 LMD655469:LMD655502 LVZ655469:LVZ655502 MFV655469:MFV655502 MPR655469:MPR655502 MZN655469:MZN655502 NJJ655469:NJJ655502 NTF655469:NTF655502 ODB655469:ODB655502 OMX655469:OMX655502 OWT655469:OWT655502 PGP655469:PGP655502 PQL655469:PQL655502 QAH655469:QAH655502 QKD655469:QKD655502 QTZ655469:QTZ655502 RDV655469:RDV655502 RNR655469:RNR655502 RXN655469:RXN655502 SHJ655469:SHJ655502 SRF655469:SRF655502 TBB655469:TBB655502 TKX655469:TKX655502 TUT655469:TUT655502 UEP655469:UEP655502 UOL655469:UOL655502 UYH655469:UYH655502 VID655469:VID655502 VRZ655469:VRZ655502 WBV655469:WBV655502 WLR655469:WLR655502 WVN655469:WVN655502 F721005:F721038 JB721005:JB721038 SX721005:SX721038 ACT721005:ACT721038 AMP721005:AMP721038 AWL721005:AWL721038 BGH721005:BGH721038 BQD721005:BQD721038 BZZ721005:BZZ721038 CJV721005:CJV721038 CTR721005:CTR721038 DDN721005:DDN721038 DNJ721005:DNJ721038 DXF721005:DXF721038 EHB721005:EHB721038 EQX721005:EQX721038 FAT721005:FAT721038 FKP721005:FKP721038 FUL721005:FUL721038 GEH721005:GEH721038 GOD721005:GOD721038 GXZ721005:GXZ721038 HHV721005:HHV721038 HRR721005:HRR721038 IBN721005:IBN721038 ILJ721005:ILJ721038 IVF721005:IVF721038 JFB721005:JFB721038 JOX721005:JOX721038 JYT721005:JYT721038 KIP721005:KIP721038 KSL721005:KSL721038 LCH721005:LCH721038 LMD721005:LMD721038 LVZ721005:LVZ721038 MFV721005:MFV721038 MPR721005:MPR721038 MZN721005:MZN721038 NJJ721005:NJJ721038 NTF721005:NTF721038 ODB721005:ODB721038 OMX721005:OMX721038 OWT721005:OWT721038 PGP721005:PGP721038 PQL721005:PQL721038 QAH721005:QAH721038 QKD721005:QKD721038 QTZ721005:QTZ721038 RDV721005:RDV721038 RNR721005:RNR721038 RXN721005:RXN721038 SHJ721005:SHJ721038 SRF721005:SRF721038 TBB721005:TBB721038 TKX721005:TKX721038 TUT721005:TUT721038 UEP721005:UEP721038 UOL721005:UOL721038 UYH721005:UYH721038 VID721005:VID721038 VRZ721005:VRZ721038 WBV721005:WBV721038 WLR721005:WLR721038 WVN721005:WVN721038 F786541:F786574 JB786541:JB786574 SX786541:SX786574 ACT786541:ACT786574 AMP786541:AMP786574 AWL786541:AWL786574 BGH786541:BGH786574 BQD786541:BQD786574 BZZ786541:BZZ786574 CJV786541:CJV786574 CTR786541:CTR786574 DDN786541:DDN786574 DNJ786541:DNJ786574 DXF786541:DXF786574 EHB786541:EHB786574 EQX786541:EQX786574 FAT786541:FAT786574 FKP786541:FKP786574 FUL786541:FUL786574 GEH786541:GEH786574 GOD786541:GOD786574 GXZ786541:GXZ786574 HHV786541:HHV786574 HRR786541:HRR786574 IBN786541:IBN786574 ILJ786541:ILJ786574 IVF786541:IVF786574 JFB786541:JFB786574 JOX786541:JOX786574 JYT786541:JYT786574 KIP786541:KIP786574 KSL786541:KSL786574 LCH786541:LCH786574 LMD786541:LMD786574 LVZ786541:LVZ786574 MFV786541:MFV786574 MPR786541:MPR786574 MZN786541:MZN786574 NJJ786541:NJJ786574 NTF786541:NTF786574 ODB786541:ODB786574 OMX786541:OMX786574 OWT786541:OWT786574 PGP786541:PGP786574 PQL786541:PQL786574 QAH786541:QAH786574 QKD786541:QKD786574 QTZ786541:QTZ786574 RDV786541:RDV786574 RNR786541:RNR786574 RXN786541:RXN786574 SHJ786541:SHJ786574 SRF786541:SRF786574 TBB786541:TBB786574 TKX786541:TKX786574 TUT786541:TUT786574 UEP786541:UEP786574 UOL786541:UOL786574 UYH786541:UYH786574 VID786541:VID786574 VRZ786541:VRZ786574 WBV786541:WBV786574 WLR786541:WLR786574 WVN786541:WVN786574 F852077:F852110 JB852077:JB852110 SX852077:SX852110 ACT852077:ACT852110 AMP852077:AMP852110 AWL852077:AWL852110 BGH852077:BGH852110 BQD852077:BQD852110 BZZ852077:BZZ852110 CJV852077:CJV852110 CTR852077:CTR852110 DDN852077:DDN852110 DNJ852077:DNJ852110 DXF852077:DXF852110 EHB852077:EHB852110 EQX852077:EQX852110 FAT852077:FAT852110 FKP852077:FKP852110 FUL852077:FUL852110 GEH852077:GEH852110 GOD852077:GOD852110 GXZ852077:GXZ852110 HHV852077:HHV852110 HRR852077:HRR852110 IBN852077:IBN852110 ILJ852077:ILJ852110 IVF852077:IVF852110 JFB852077:JFB852110 JOX852077:JOX852110 JYT852077:JYT852110 KIP852077:KIP852110 KSL852077:KSL852110 LCH852077:LCH852110 LMD852077:LMD852110 LVZ852077:LVZ852110 MFV852077:MFV852110 MPR852077:MPR852110 MZN852077:MZN852110 NJJ852077:NJJ852110 NTF852077:NTF852110 ODB852077:ODB852110 OMX852077:OMX852110 OWT852077:OWT852110 PGP852077:PGP852110 PQL852077:PQL852110 QAH852077:QAH852110 QKD852077:QKD852110 QTZ852077:QTZ852110 RDV852077:RDV852110 RNR852077:RNR852110 RXN852077:RXN852110 SHJ852077:SHJ852110 SRF852077:SRF852110 TBB852077:TBB852110 TKX852077:TKX852110 TUT852077:TUT852110 UEP852077:UEP852110 UOL852077:UOL852110 UYH852077:UYH852110 VID852077:VID852110 VRZ852077:VRZ852110 WBV852077:WBV852110 WLR852077:WLR852110 WVN852077:WVN852110 F917613:F917646 JB917613:JB917646 SX917613:SX917646 ACT917613:ACT917646 AMP917613:AMP917646 AWL917613:AWL917646 BGH917613:BGH917646 BQD917613:BQD917646 BZZ917613:BZZ917646 CJV917613:CJV917646 CTR917613:CTR917646 DDN917613:DDN917646 DNJ917613:DNJ917646 DXF917613:DXF917646 EHB917613:EHB917646 EQX917613:EQX917646 FAT917613:FAT917646 FKP917613:FKP917646 FUL917613:FUL917646 GEH917613:GEH917646 GOD917613:GOD917646 GXZ917613:GXZ917646 HHV917613:HHV917646 HRR917613:HRR917646 IBN917613:IBN917646 ILJ917613:ILJ917646 IVF917613:IVF917646 JFB917613:JFB917646 JOX917613:JOX917646 JYT917613:JYT917646 KIP917613:KIP917646 KSL917613:KSL917646 LCH917613:LCH917646 LMD917613:LMD917646 LVZ917613:LVZ917646 MFV917613:MFV917646 MPR917613:MPR917646 MZN917613:MZN917646 NJJ917613:NJJ917646 NTF917613:NTF917646 ODB917613:ODB917646 OMX917613:OMX917646 OWT917613:OWT917646 PGP917613:PGP917646 PQL917613:PQL917646 QAH917613:QAH917646 QKD917613:QKD917646 QTZ917613:QTZ917646 RDV917613:RDV917646 RNR917613:RNR917646 RXN917613:RXN917646 SHJ917613:SHJ917646 SRF917613:SRF917646 TBB917613:TBB917646 TKX917613:TKX917646 TUT917613:TUT917646 UEP917613:UEP917646 UOL917613:UOL917646 UYH917613:UYH917646 VID917613:VID917646 VRZ917613:VRZ917646 WBV917613:WBV917646 WLR917613:WLR917646 WVN917613:WVN917646 F983149:F983182 JB983149:JB983182 SX983149:SX983182 ACT983149:ACT983182 AMP983149:AMP983182 AWL983149:AWL983182 BGH983149:BGH983182 BQD983149:BQD983182 BZZ983149:BZZ983182 CJV983149:CJV983182 CTR983149:CTR983182 DDN983149:DDN983182 DNJ983149:DNJ983182 DXF983149:DXF983182 EHB983149:EHB983182 EQX983149:EQX983182 FAT983149:FAT983182 FKP983149:FKP983182 FUL983149:FUL983182 GEH983149:GEH983182 GOD983149:GOD983182 GXZ983149:GXZ983182 HHV983149:HHV983182 HRR983149:HRR983182 IBN983149:IBN983182 ILJ983149:ILJ983182 IVF983149:IVF983182 JFB983149:JFB983182 JOX983149:JOX983182 JYT983149:JYT983182 KIP983149:KIP983182 KSL983149:KSL983182 LCH983149:LCH983182 LMD983149:LMD983182 LVZ983149:LVZ983182 MFV983149:MFV983182 MPR983149:MPR983182 MZN983149:MZN983182 NJJ983149:NJJ983182 NTF983149:NTF983182 ODB983149:ODB983182 OMX983149:OMX983182 OWT983149:OWT983182 PGP983149:PGP983182 PQL983149:PQL983182 QAH983149:QAH983182 QKD983149:QKD983182 QTZ983149:QTZ983182 RDV983149:RDV983182 RNR983149:RNR983182 RXN983149:RXN983182 SHJ983149:SHJ983182 SRF983149:SRF983182 TBB983149:TBB983182 TKX983149:TKX983182 TUT983149:TUT983182 UEP983149:UEP983182 UOL983149:UOL983182 UYH983149:UYH983182 VID983149:VID983182 VRZ983149:VRZ983182 WBV983149:WBV983182 WLR983149:WLR983182 WVN983149:WVN983182 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F871" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65645:F65678 JB65645:JB65678 SX65645:SX65678 ACT65645:ACT65678 AMP65645:AMP65678 AWL65645:AWL65678 BGH65645:BGH65678 BQD65645:BQD65678 BZZ65645:BZZ65678 CJV65645:CJV65678 CTR65645:CTR65678 DDN65645:DDN65678 DNJ65645:DNJ65678 DXF65645:DXF65678 EHB65645:EHB65678 EQX65645:EQX65678 FAT65645:FAT65678 FKP65645:FKP65678 FUL65645:FUL65678 GEH65645:GEH65678 GOD65645:GOD65678 GXZ65645:GXZ65678 HHV65645:HHV65678 HRR65645:HRR65678 IBN65645:IBN65678 ILJ65645:ILJ65678 IVF65645:IVF65678 JFB65645:JFB65678 JOX65645:JOX65678 JYT65645:JYT65678 KIP65645:KIP65678 KSL65645:KSL65678 LCH65645:LCH65678 LMD65645:LMD65678 LVZ65645:LVZ65678 MFV65645:MFV65678 MPR65645:MPR65678 MZN65645:MZN65678 NJJ65645:NJJ65678 NTF65645:NTF65678 ODB65645:ODB65678 OMX65645:OMX65678 OWT65645:OWT65678 PGP65645:PGP65678 PQL65645:PQL65678 QAH65645:QAH65678 QKD65645:QKD65678 QTZ65645:QTZ65678 RDV65645:RDV65678 RNR65645:RNR65678 RXN65645:RXN65678 SHJ65645:SHJ65678 SRF65645:SRF65678 TBB65645:TBB65678 TKX65645:TKX65678 TUT65645:TUT65678 UEP65645:UEP65678 UOL65645:UOL65678 UYH65645:UYH65678 VID65645:VID65678 VRZ65645:VRZ65678 WBV65645:WBV65678 WLR65645:WLR65678 WVN65645:WVN65678 F131181:F131214 JB131181:JB131214 SX131181:SX131214 ACT131181:ACT131214 AMP131181:AMP131214 AWL131181:AWL131214 BGH131181:BGH131214 BQD131181:BQD131214 BZZ131181:BZZ131214 CJV131181:CJV131214 CTR131181:CTR131214 DDN131181:DDN131214 DNJ131181:DNJ131214 DXF131181:DXF131214 EHB131181:EHB131214 EQX131181:EQX131214 FAT131181:FAT131214 FKP131181:FKP131214 FUL131181:FUL131214 GEH131181:GEH131214 GOD131181:GOD131214 GXZ131181:GXZ131214 HHV131181:HHV131214 HRR131181:HRR131214 IBN131181:IBN131214 ILJ131181:ILJ131214 IVF131181:IVF131214 JFB131181:JFB131214 JOX131181:JOX131214 JYT131181:JYT131214 KIP131181:KIP131214 KSL131181:KSL131214 LCH131181:LCH131214 LMD131181:LMD131214 LVZ131181:LVZ131214 MFV131181:MFV131214 MPR131181:MPR131214 MZN131181:MZN131214 NJJ131181:NJJ131214 NTF131181:NTF131214 ODB131181:ODB131214 OMX131181:OMX131214 OWT131181:OWT131214 PGP131181:PGP131214 PQL131181:PQL131214 QAH131181:QAH131214 QKD131181:QKD131214 QTZ131181:QTZ131214 RDV131181:RDV131214 RNR131181:RNR131214 RXN131181:RXN131214 SHJ131181:SHJ131214 SRF131181:SRF131214 TBB131181:TBB131214 TKX131181:TKX131214 TUT131181:TUT131214 UEP131181:UEP131214 UOL131181:UOL131214 UYH131181:UYH131214 VID131181:VID131214 VRZ131181:VRZ131214 WBV131181:WBV131214 WLR131181:WLR131214 WVN131181:WVN131214 F196717:F196750 JB196717:JB196750 SX196717:SX196750 ACT196717:ACT196750 AMP196717:AMP196750 AWL196717:AWL196750 BGH196717:BGH196750 BQD196717:BQD196750 BZZ196717:BZZ196750 CJV196717:CJV196750 CTR196717:CTR196750 DDN196717:DDN196750 DNJ196717:DNJ196750 DXF196717:DXF196750 EHB196717:EHB196750 EQX196717:EQX196750 FAT196717:FAT196750 FKP196717:FKP196750 FUL196717:FUL196750 GEH196717:GEH196750 GOD196717:GOD196750 GXZ196717:GXZ196750 HHV196717:HHV196750 HRR196717:HRR196750 IBN196717:IBN196750 ILJ196717:ILJ196750 IVF196717:IVF196750 JFB196717:JFB196750 JOX196717:JOX196750 JYT196717:JYT196750 KIP196717:KIP196750 KSL196717:KSL196750 LCH196717:LCH196750 LMD196717:LMD196750 LVZ196717:LVZ196750 MFV196717:MFV196750 MPR196717:MPR196750 MZN196717:MZN196750 NJJ196717:NJJ196750 NTF196717:NTF196750 ODB196717:ODB196750 OMX196717:OMX196750 OWT196717:OWT196750 PGP196717:PGP196750 PQL196717:PQL196750 QAH196717:QAH196750 QKD196717:QKD196750 QTZ196717:QTZ196750 RDV196717:RDV196750 RNR196717:RNR196750 RXN196717:RXN196750 SHJ196717:SHJ196750 SRF196717:SRF196750 TBB196717:TBB196750 TKX196717:TKX196750 TUT196717:TUT196750 UEP196717:UEP196750 UOL196717:UOL196750 UYH196717:UYH196750 VID196717:VID196750 VRZ196717:VRZ196750 WBV196717:WBV196750 WLR196717:WLR196750 WVN196717:WVN196750 F262253:F262286 JB262253:JB262286 SX262253:SX262286 ACT262253:ACT262286 AMP262253:AMP262286 AWL262253:AWL262286 BGH262253:BGH262286 BQD262253:BQD262286 BZZ262253:BZZ262286 CJV262253:CJV262286 CTR262253:CTR262286 DDN262253:DDN262286 DNJ262253:DNJ262286 DXF262253:DXF262286 EHB262253:EHB262286 EQX262253:EQX262286 FAT262253:FAT262286 FKP262253:FKP262286 FUL262253:FUL262286 GEH262253:GEH262286 GOD262253:GOD262286 GXZ262253:GXZ262286 HHV262253:HHV262286 HRR262253:HRR262286 IBN262253:IBN262286 ILJ262253:ILJ262286 IVF262253:IVF262286 JFB262253:JFB262286 JOX262253:JOX262286 JYT262253:JYT262286 KIP262253:KIP262286 KSL262253:KSL262286 LCH262253:LCH262286 LMD262253:LMD262286 LVZ262253:LVZ262286 MFV262253:MFV262286 MPR262253:MPR262286 MZN262253:MZN262286 NJJ262253:NJJ262286 NTF262253:NTF262286 ODB262253:ODB262286 OMX262253:OMX262286 OWT262253:OWT262286 PGP262253:PGP262286 PQL262253:PQL262286 QAH262253:QAH262286 QKD262253:QKD262286 QTZ262253:QTZ262286 RDV262253:RDV262286 RNR262253:RNR262286 RXN262253:RXN262286 SHJ262253:SHJ262286 SRF262253:SRF262286 TBB262253:TBB262286 TKX262253:TKX262286 TUT262253:TUT262286 UEP262253:UEP262286 UOL262253:UOL262286 UYH262253:UYH262286 VID262253:VID262286 VRZ262253:VRZ262286 WBV262253:WBV262286 WLR262253:WLR262286 WVN262253:WVN262286 F327789:F327822 JB327789:JB327822 SX327789:SX327822 ACT327789:ACT327822 AMP327789:AMP327822 AWL327789:AWL327822 BGH327789:BGH327822 BQD327789:BQD327822 BZZ327789:BZZ327822 CJV327789:CJV327822 CTR327789:CTR327822 DDN327789:DDN327822 DNJ327789:DNJ327822 DXF327789:DXF327822 EHB327789:EHB327822 EQX327789:EQX327822 FAT327789:FAT327822 FKP327789:FKP327822 FUL327789:FUL327822 GEH327789:GEH327822 GOD327789:GOD327822 GXZ327789:GXZ327822 HHV327789:HHV327822 HRR327789:HRR327822 IBN327789:IBN327822 ILJ327789:ILJ327822 IVF327789:IVF327822 JFB327789:JFB327822 JOX327789:JOX327822 JYT327789:JYT327822 KIP327789:KIP327822 KSL327789:KSL327822 LCH327789:LCH327822 LMD327789:LMD327822 LVZ327789:LVZ327822 MFV327789:MFV327822 MPR327789:MPR327822 MZN327789:MZN327822 NJJ327789:NJJ327822 NTF327789:NTF327822 ODB327789:ODB327822 OMX327789:OMX327822 OWT327789:OWT327822 PGP327789:PGP327822 PQL327789:PQL327822 QAH327789:QAH327822 QKD327789:QKD327822 QTZ327789:QTZ327822 RDV327789:RDV327822 RNR327789:RNR327822 RXN327789:RXN327822 SHJ327789:SHJ327822 SRF327789:SRF327822 TBB327789:TBB327822 TKX327789:TKX327822 TUT327789:TUT327822 UEP327789:UEP327822 UOL327789:UOL327822 UYH327789:UYH327822 VID327789:VID327822 VRZ327789:VRZ327822 WBV327789:WBV327822 WLR327789:WLR327822 WVN327789:WVN327822 F393325:F393358 JB393325:JB393358 SX393325:SX393358 ACT393325:ACT393358 AMP393325:AMP393358 AWL393325:AWL393358 BGH393325:BGH393358 BQD393325:BQD393358 BZZ393325:BZZ393358 CJV393325:CJV393358 CTR393325:CTR393358 DDN393325:DDN393358 DNJ393325:DNJ393358 DXF393325:DXF393358 EHB393325:EHB393358 EQX393325:EQX393358 FAT393325:FAT393358 FKP393325:FKP393358 FUL393325:FUL393358 GEH393325:GEH393358 GOD393325:GOD393358 GXZ393325:GXZ393358 HHV393325:HHV393358 HRR393325:HRR393358 IBN393325:IBN393358 ILJ393325:ILJ393358 IVF393325:IVF393358 JFB393325:JFB393358 JOX393325:JOX393358 JYT393325:JYT393358 KIP393325:KIP393358 KSL393325:KSL393358 LCH393325:LCH393358 LMD393325:LMD393358 LVZ393325:LVZ393358 MFV393325:MFV393358 MPR393325:MPR393358 MZN393325:MZN393358 NJJ393325:NJJ393358 NTF393325:NTF393358 ODB393325:ODB393358 OMX393325:OMX393358 OWT393325:OWT393358 PGP393325:PGP393358 PQL393325:PQL393358 QAH393325:QAH393358 QKD393325:QKD393358 QTZ393325:QTZ393358 RDV393325:RDV393358 RNR393325:RNR393358 RXN393325:RXN393358 SHJ393325:SHJ393358 SRF393325:SRF393358 TBB393325:TBB393358 TKX393325:TKX393358 TUT393325:TUT393358 UEP393325:UEP393358 UOL393325:UOL393358 UYH393325:UYH393358 VID393325:VID393358 VRZ393325:VRZ393358 WBV393325:WBV393358 WLR393325:WLR393358 WVN393325:WVN393358 F458861:F458894 JB458861:JB458894 SX458861:SX458894 ACT458861:ACT458894 AMP458861:AMP458894 AWL458861:AWL458894 BGH458861:BGH458894 BQD458861:BQD458894 BZZ458861:BZZ458894 CJV458861:CJV458894 CTR458861:CTR458894 DDN458861:DDN458894 DNJ458861:DNJ458894 DXF458861:DXF458894 EHB458861:EHB458894 EQX458861:EQX458894 FAT458861:FAT458894 FKP458861:FKP458894 FUL458861:FUL458894 GEH458861:GEH458894 GOD458861:GOD458894 GXZ458861:GXZ458894 HHV458861:HHV458894 HRR458861:HRR458894 IBN458861:IBN458894 ILJ458861:ILJ458894 IVF458861:IVF458894 JFB458861:JFB458894 JOX458861:JOX458894 JYT458861:JYT458894 KIP458861:KIP458894 KSL458861:KSL458894 LCH458861:LCH458894 LMD458861:LMD458894 LVZ458861:LVZ458894 MFV458861:MFV458894 MPR458861:MPR458894 MZN458861:MZN458894 NJJ458861:NJJ458894 NTF458861:NTF458894 ODB458861:ODB458894 OMX458861:OMX458894 OWT458861:OWT458894 PGP458861:PGP458894 PQL458861:PQL458894 QAH458861:QAH458894 QKD458861:QKD458894 QTZ458861:QTZ458894 RDV458861:RDV458894 RNR458861:RNR458894 RXN458861:RXN458894 SHJ458861:SHJ458894 SRF458861:SRF458894 TBB458861:TBB458894 TKX458861:TKX458894 TUT458861:TUT458894 UEP458861:UEP458894 UOL458861:UOL458894 UYH458861:UYH458894 VID458861:VID458894 VRZ458861:VRZ458894 WBV458861:WBV458894 WLR458861:WLR458894 WVN458861:WVN458894 F524397:F524430 JB524397:JB524430 SX524397:SX524430 ACT524397:ACT524430 AMP524397:AMP524430 AWL524397:AWL524430 BGH524397:BGH524430 BQD524397:BQD524430 BZZ524397:BZZ524430 CJV524397:CJV524430 CTR524397:CTR524430 DDN524397:DDN524430 DNJ524397:DNJ524430 DXF524397:DXF524430 EHB524397:EHB524430 EQX524397:EQX524430 FAT524397:FAT524430 FKP524397:FKP524430 FUL524397:FUL524430 GEH524397:GEH524430 GOD524397:GOD524430 GXZ524397:GXZ524430 HHV524397:HHV524430 HRR524397:HRR524430 IBN524397:IBN524430 ILJ524397:ILJ524430 IVF524397:IVF524430 JFB524397:JFB524430 JOX524397:JOX524430 JYT524397:JYT524430 KIP524397:KIP524430 KSL524397:KSL524430 LCH524397:LCH524430 LMD524397:LMD524430 LVZ524397:LVZ524430 MFV524397:MFV524430 MPR524397:MPR524430 MZN524397:MZN524430 NJJ524397:NJJ524430 NTF524397:NTF524430 ODB524397:ODB524430 OMX524397:OMX524430 OWT524397:OWT524430 PGP524397:PGP524430 PQL524397:PQL524430 QAH524397:QAH524430 QKD524397:QKD524430 QTZ524397:QTZ524430 RDV524397:RDV524430 RNR524397:RNR524430 RXN524397:RXN524430 SHJ524397:SHJ524430 SRF524397:SRF524430 TBB524397:TBB524430 TKX524397:TKX524430 TUT524397:TUT524430 UEP524397:UEP524430 UOL524397:UOL524430 UYH524397:UYH524430 VID524397:VID524430 VRZ524397:VRZ524430 WBV524397:WBV524430 WLR524397:WLR524430 WVN524397:WVN524430 F589933:F589966 JB589933:JB589966 SX589933:SX589966 ACT589933:ACT589966 AMP589933:AMP589966 AWL589933:AWL589966 BGH589933:BGH589966 BQD589933:BQD589966 BZZ589933:BZZ589966 CJV589933:CJV589966 CTR589933:CTR589966 DDN589933:DDN589966 DNJ589933:DNJ589966 DXF589933:DXF589966 EHB589933:EHB589966 EQX589933:EQX589966 FAT589933:FAT589966 FKP589933:FKP589966 FUL589933:FUL589966 GEH589933:GEH589966 GOD589933:GOD589966 GXZ589933:GXZ589966 HHV589933:HHV589966 HRR589933:HRR589966 IBN589933:IBN589966 ILJ589933:ILJ589966 IVF589933:IVF589966 JFB589933:JFB589966 JOX589933:JOX589966 JYT589933:JYT589966 KIP589933:KIP589966 KSL589933:KSL589966 LCH589933:LCH589966 LMD589933:LMD589966 LVZ589933:LVZ589966 MFV589933:MFV589966 MPR589933:MPR589966 MZN589933:MZN589966 NJJ589933:NJJ589966 NTF589933:NTF589966 ODB589933:ODB589966 OMX589933:OMX589966 OWT589933:OWT589966 PGP589933:PGP589966 PQL589933:PQL589966 QAH589933:QAH589966 QKD589933:QKD589966 QTZ589933:QTZ589966 RDV589933:RDV589966 RNR589933:RNR589966 RXN589933:RXN589966 SHJ589933:SHJ589966 SRF589933:SRF589966 TBB589933:TBB589966 TKX589933:TKX589966 TUT589933:TUT589966 UEP589933:UEP589966 UOL589933:UOL589966 UYH589933:UYH589966 VID589933:VID589966 VRZ589933:VRZ589966 WBV589933:WBV589966 WLR589933:WLR589966 WVN589933:WVN589966 F655469:F655502 JB655469:JB655502 SX655469:SX655502 ACT655469:ACT655502 AMP655469:AMP655502 AWL655469:AWL655502 BGH655469:BGH655502 BQD655469:BQD655502 BZZ655469:BZZ655502 CJV655469:CJV655502 CTR655469:CTR655502 DDN655469:DDN655502 DNJ655469:DNJ655502 DXF655469:DXF655502 EHB655469:EHB655502 EQX655469:EQX655502 FAT655469:FAT655502 FKP655469:FKP655502 FUL655469:FUL655502 GEH655469:GEH655502 GOD655469:GOD655502 GXZ655469:GXZ655502 HHV655469:HHV655502 HRR655469:HRR655502 IBN655469:IBN655502 ILJ655469:ILJ655502 IVF655469:IVF655502 JFB655469:JFB655502 JOX655469:JOX655502 JYT655469:JYT655502 KIP655469:KIP655502 KSL655469:KSL655502 LCH655469:LCH655502 LMD655469:LMD655502 LVZ655469:LVZ655502 MFV655469:MFV655502 MPR655469:MPR655502 MZN655469:MZN655502 NJJ655469:NJJ655502 NTF655469:NTF655502 ODB655469:ODB655502 OMX655469:OMX655502 OWT655469:OWT655502 PGP655469:PGP655502 PQL655469:PQL655502 QAH655469:QAH655502 QKD655469:QKD655502 QTZ655469:QTZ655502 RDV655469:RDV655502 RNR655469:RNR655502 RXN655469:RXN655502 SHJ655469:SHJ655502 SRF655469:SRF655502 TBB655469:TBB655502 TKX655469:TKX655502 TUT655469:TUT655502 UEP655469:UEP655502 UOL655469:UOL655502 UYH655469:UYH655502 VID655469:VID655502 VRZ655469:VRZ655502 WBV655469:WBV655502 WLR655469:WLR655502 WVN655469:WVN655502 F721005:F721038 JB721005:JB721038 SX721005:SX721038 ACT721005:ACT721038 AMP721005:AMP721038 AWL721005:AWL721038 BGH721005:BGH721038 BQD721005:BQD721038 BZZ721005:BZZ721038 CJV721005:CJV721038 CTR721005:CTR721038 DDN721005:DDN721038 DNJ721005:DNJ721038 DXF721005:DXF721038 EHB721005:EHB721038 EQX721005:EQX721038 FAT721005:FAT721038 FKP721005:FKP721038 FUL721005:FUL721038 GEH721005:GEH721038 GOD721005:GOD721038 GXZ721005:GXZ721038 HHV721005:HHV721038 HRR721005:HRR721038 IBN721005:IBN721038 ILJ721005:ILJ721038 IVF721005:IVF721038 JFB721005:JFB721038 JOX721005:JOX721038 JYT721005:JYT721038 KIP721005:KIP721038 KSL721005:KSL721038 LCH721005:LCH721038 LMD721005:LMD721038 LVZ721005:LVZ721038 MFV721005:MFV721038 MPR721005:MPR721038 MZN721005:MZN721038 NJJ721005:NJJ721038 NTF721005:NTF721038 ODB721005:ODB721038 OMX721005:OMX721038 OWT721005:OWT721038 PGP721005:PGP721038 PQL721005:PQL721038 QAH721005:QAH721038 QKD721005:QKD721038 QTZ721005:QTZ721038 RDV721005:RDV721038 RNR721005:RNR721038 RXN721005:RXN721038 SHJ721005:SHJ721038 SRF721005:SRF721038 TBB721005:TBB721038 TKX721005:TKX721038 TUT721005:TUT721038 UEP721005:UEP721038 UOL721005:UOL721038 UYH721005:UYH721038 VID721005:VID721038 VRZ721005:VRZ721038 WBV721005:WBV721038 WLR721005:WLR721038 WVN721005:WVN721038 F786541:F786574 JB786541:JB786574 SX786541:SX786574 ACT786541:ACT786574 AMP786541:AMP786574 AWL786541:AWL786574 BGH786541:BGH786574 BQD786541:BQD786574 BZZ786541:BZZ786574 CJV786541:CJV786574 CTR786541:CTR786574 DDN786541:DDN786574 DNJ786541:DNJ786574 DXF786541:DXF786574 EHB786541:EHB786574 EQX786541:EQX786574 FAT786541:FAT786574 FKP786541:FKP786574 FUL786541:FUL786574 GEH786541:GEH786574 GOD786541:GOD786574 GXZ786541:GXZ786574 HHV786541:HHV786574 HRR786541:HRR786574 IBN786541:IBN786574 ILJ786541:ILJ786574 IVF786541:IVF786574 JFB786541:JFB786574 JOX786541:JOX786574 JYT786541:JYT786574 KIP786541:KIP786574 KSL786541:KSL786574 LCH786541:LCH786574 LMD786541:LMD786574 LVZ786541:LVZ786574 MFV786541:MFV786574 MPR786541:MPR786574 MZN786541:MZN786574 NJJ786541:NJJ786574 NTF786541:NTF786574 ODB786541:ODB786574 OMX786541:OMX786574 OWT786541:OWT786574 PGP786541:PGP786574 PQL786541:PQL786574 QAH786541:QAH786574 QKD786541:QKD786574 QTZ786541:QTZ786574 RDV786541:RDV786574 RNR786541:RNR786574 RXN786541:RXN786574 SHJ786541:SHJ786574 SRF786541:SRF786574 TBB786541:TBB786574 TKX786541:TKX786574 TUT786541:TUT786574 UEP786541:UEP786574 UOL786541:UOL786574 UYH786541:UYH786574 VID786541:VID786574 VRZ786541:VRZ786574 WBV786541:WBV786574 WLR786541:WLR786574 WVN786541:WVN786574 F852077:F852110 JB852077:JB852110 SX852077:SX852110 ACT852077:ACT852110 AMP852077:AMP852110 AWL852077:AWL852110 BGH852077:BGH852110 BQD852077:BQD852110 BZZ852077:BZZ852110 CJV852077:CJV852110 CTR852077:CTR852110 DDN852077:DDN852110 DNJ852077:DNJ852110 DXF852077:DXF852110 EHB852077:EHB852110 EQX852077:EQX852110 FAT852077:FAT852110 FKP852077:FKP852110 FUL852077:FUL852110 GEH852077:GEH852110 GOD852077:GOD852110 GXZ852077:GXZ852110 HHV852077:HHV852110 HRR852077:HRR852110 IBN852077:IBN852110 ILJ852077:ILJ852110 IVF852077:IVF852110 JFB852077:JFB852110 JOX852077:JOX852110 JYT852077:JYT852110 KIP852077:KIP852110 KSL852077:KSL852110 LCH852077:LCH852110 LMD852077:LMD852110 LVZ852077:LVZ852110 MFV852077:MFV852110 MPR852077:MPR852110 MZN852077:MZN852110 NJJ852077:NJJ852110 NTF852077:NTF852110 ODB852077:ODB852110 OMX852077:OMX852110 OWT852077:OWT852110 PGP852077:PGP852110 PQL852077:PQL852110 QAH852077:QAH852110 QKD852077:QKD852110 QTZ852077:QTZ852110 RDV852077:RDV852110 RNR852077:RNR852110 RXN852077:RXN852110 SHJ852077:SHJ852110 SRF852077:SRF852110 TBB852077:TBB852110 TKX852077:TKX852110 TUT852077:TUT852110 UEP852077:UEP852110 UOL852077:UOL852110 UYH852077:UYH852110 VID852077:VID852110 VRZ852077:VRZ852110 WBV852077:WBV852110 WLR852077:WLR852110 WVN852077:WVN852110 F917613:F917646 JB917613:JB917646 SX917613:SX917646 ACT917613:ACT917646 AMP917613:AMP917646 AWL917613:AWL917646 BGH917613:BGH917646 BQD917613:BQD917646 BZZ917613:BZZ917646 CJV917613:CJV917646 CTR917613:CTR917646 DDN917613:DDN917646 DNJ917613:DNJ917646 DXF917613:DXF917646 EHB917613:EHB917646 EQX917613:EQX917646 FAT917613:FAT917646 FKP917613:FKP917646 FUL917613:FUL917646 GEH917613:GEH917646 GOD917613:GOD917646 GXZ917613:GXZ917646 HHV917613:HHV917646 HRR917613:HRR917646 IBN917613:IBN917646 ILJ917613:ILJ917646 IVF917613:IVF917646 JFB917613:JFB917646 JOX917613:JOX917646 JYT917613:JYT917646 KIP917613:KIP917646 KSL917613:KSL917646 LCH917613:LCH917646 LMD917613:LMD917646 LVZ917613:LVZ917646 MFV917613:MFV917646 MPR917613:MPR917646 MZN917613:MZN917646 NJJ917613:NJJ917646 NTF917613:NTF917646 ODB917613:ODB917646 OMX917613:OMX917646 OWT917613:OWT917646 PGP917613:PGP917646 PQL917613:PQL917646 QAH917613:QAH917646 QKD917613:QKD917646 QTZ917613:QTZ917646 RDV917613:RDV917646 RNR917613:RNR917646 RXN917613:RXN917646 SHJ917613:SHJ917646 SRF917613:SRF917646 TBB917613:TBB917646 TKX917613:TKX917646 TUT917613:TUT917646 UEP917613:UEP917646 UOL917613:UOL917646 UYH917613:UYH917646 VID917613:VID917646 VRZ917613:VRZ917646 WBV917613:WBV917646 WLR917613:WLR917646 WVN917613:WVN917646 F983149:F983182 JB983149:JB983182 SX983149:SX983182 ACT983149:ACT983182 AMP983149:AMP983182 AWL983149:AWL983182 BGH983149:BGH983182 BQD983149:BQD983182 BZZ983149:BZZ983182 CJV983149:CJV983182 CTR983149:CTR983182 DDN983149:DDN983182 DNJ983149:DNJ983182 DXF983149:DXF983182 EHB983149:EHB983182 EQX983149:EQX983182 FAT983149:FAT983182 FKP983149:FKP983182 FUL983149:FUL983182 GEH983149:GEH983182 GOD983149:GOD983182 GXZ983149:GXZ983182 HHV983149:HHV983182 HRR983149:HRR983182 IBN983149:IBN983182 ILJ983149:ILJ983182 IVF983149:IVF983182 JFB983149:JFB983182 JOX983149:JOX983182 JYT983149:JYT983182 KIP983149:KIP983182 KSL983149:KSL983182 LCH983149:LCH983182 LMD983149:LMD983182 LVZ983149:LVZ983182 MFV983149:MFV983182 MPR983149:MPR983182 MZN983149:MZN983182 NJJ983149:NJJ983182 NTF983149:NTF983182 ODB983149:ODB983182 OMX983149:OMX983182 OWT983149:OWT983182 PGP983149:PGP983182 PQL983149:PQL983182 QAH983149:QAH983182 QKD983149:QKD983182 QTZ983149:QTZ983182 RDV983149:RDV983182 RNR983149:RNR983182 RXN983149:RXN983182 SHJ983149:SHJ983182 SRF983149:SRF983182 TBB983149:TBB983182 TKX983149:TKX983182 TUT983149:TUT983182 UEP983149:UEP983182 UOL983149:UOL983182 UYH983149:UYH983182 VID983149:VID983182 VRZ983149:VRZ983182 WBV983149:WBV983182 WLR983149:WLR983182 WVN983149:WVN983182 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F887" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65645:H65678 JD65645:JD65678 SZ65645:SZ65678 ACV65645:ACV65678 AMR65645:AMR65678 AWN65645:AWN65678 BGJ65645:BGJ65678 BQF65645:BQF65678 CAB65645:CAB65678 CJX65645:CJX65678 CTT65645:CTT65678 DDP65645:DDP65678 DNL65645:DNL65678 DXH65645:DXH65678 EHD65645:EHD65678 EQZ65645:EQZ65678 FAV65645:FAV65678 FKR65645:FKR65678 FUN65645:FUN65678 GEJ65645:GEJ65678 GOF65645:GOF65678 GYB65645:GYB65678 HHX65645:HHX65678 HRT65645:HRT65678 IBP65645:IBP65678 ILL65645:ILL65678 IVH65645:IVH65678 JFD65645:JFD65678 JOZ65645:JOZ65678 JYV65645:JYV65678 KIR65645:KIR65678 KSN65645:KSN65678 LCJ65645:LCJ65678 LMF65645:LMF65678 LWB65645:LWB65678 MFX65645:MFX65678 MPT65645:MPT65678 MZP65645:MZP65678 NJL65645:NJL65678 NTH65645:NTH65678 ODD65645:ODD65678 OMZ65645:OMZ65678 OWV65645:OWV65678 PGR65645:PGR65678 PQN65645:PQN65678 QAJ65645:QAJ65678 QKF65645:QKF65678 QUB65645:QUB65678 RDX65645:RDX65678 RNT65645:RNT65678 RXP65645:RXP65678 SHL65645:SHL65678 SRH65645:SRH65678 TBD65645:TBD65678 TKZ65645:TKZ65678 TUV65645:TUV65678 UER65645:UER65678 UON65645:UON65678 UYJ65645:UYJ65678 VIF65645:VIF65678 VSB65645:VSB65678 WBX65645:WBX65678 WLT65645:WLT65678 WVP65645:WVP65678 H131181:H131214 JD131181:JD131214 SZ131181:SZ131214 ACV131181:ACV131214 AMR131181:AMR131214 AWN131181:AWN131214 BGJ131181:BGJ131214 BQF131181:BQF131214 CAB131181:CAB131214 CJX131181:CJX131214 CTT131181:CTT131214 DDP131181:DDP131214 DNL131181:DNL131214 DXH131181:DXH131214 EHD131181:EHD131214 EQZ131181:EQZ131214 FAV131181:FAV131214 FKR131181:FKR131214 FUN131181:FUN131214 GEJ131181:GEJ131214 GOF131181:GOF131214 GYB131181:GYB131214 HHX131181:HHX131214 HRT131181:HRT131214 IBP131181:IBP131214 ILL131181:ILL131214 IVH131181:IVH131214 JFD131181:JFD131214 JOZ131181:JOZ131214 JYV131181:JYV131214 KIR131181:KIR131214 KSN131181:KSN131214 LCJ131181:LCJ131214 LMF131181:LMF131214 LWB131181:LWB131214 MFX131181:MFX131214 MPT131181:MPT131214 MZP131181:MZP131214 NJL131181:NJL131214 NTH131181:NTH131214 ODD131181:ODD131214 OMZ131181:OMZ131214 OWV131181:OWV131214 PGR131181:PGR131214 PQN131181:PQN131214 QAJ131181:QAJ131214 QKF131181:QKF131214 QUB131181:QUB131214 RDX131181:RDX131214 RNT131181:RNT131214 RXP131181:RXP131214 SHL131181:SHL131214 SRH131181:SRH131214 TBD131181:TBD131214 TKZ131181:TKZ131214 TUV131181:TUV131214 UER131181:UER131214 UON131181:UON131214 UYJ131181:UYJ131214 VIF131181:VIF131214 VSB131181:VSB131214 WBX131181:WBX131214 WLT131181:WLT131214 WVP131181:WVP131214 H196717:H196750 JD196717:JD196750 SZ196717:SZ196750 ACV196717:ACV196750 AMR196717:AMR196750 AWN196717:AWN196750 BGJ196717:BGJ196750 BQF196717:BQF196750 CAB196717:CAB196750 CJX196717:CJX196750 CTT196717:CTT196750 DDP196717:DDP196750 DNL196717:DNL196750 DXH196717:DXH196750 EHD196717:EHD196750 EQZ196717:EQZ196750 FAV196717:FAV196750 FKR196717:FKR196750 FUN196717:FUN196750 GEJ196717:GEJ196750 GOF196717:GOF196750 GYB196717:GYB196750 HHX196717:HHX196750 HRT196717:HRT196750 IBP196717:IBP196750 ILL196717:ILL196750 IVH196717:IVH196750 JFD196717:JFD196750 JOZ196717:JOZ196750 JYV196717:JYV196750 KIR196717:KIR196750 KSN196717:KSN196750 LCJ196717:LCJ196750 LMF196717:LMF196750 LWB196717:LWB196750 MFX196717:MFX196750 MPT196717:MPT196750 MZP196717:MZP196750 NJL196717:NJL196750 NTH196717:NTH196750 ODD196717:ODD196750 OMZ196717:OMZ196750 OWV196717:OWV196750 PGR196717:PGR196750 PQN196717:PQN196750 QAJ196717:QAJ196750 QKF196717:QKF196750 QUB196717:QUB196750 RDX196717:RDX196750 RNT196717:RNT196750 RXP196717:RXP196750 SHL196717:SHL196750 SRH196717:SRH196750 TBD196717:TBD196750 TKZ196717:TKZ196750 TUV196717:TUV196750 UER196717:UER196750 UON196717:UON196750 UYJ196717:UYJ196750 VIF196717:VIF196750 VSB196717:VSB196750 WBX196717:WBX196750 WLT196717:WLT196750 WVP196717:WVP196750 H262253:H262286 JD262253:JD262286 SZ262253:SZ262286 ACV262253:ACV262286 AMR262253:AMR262286 AWN262253:AWN262286 BGJ262253:BGJ262286 BQF262253:BQF262286 CAB262253:CAB262286 CJX262253:CJX262286 CTT262253:CTT262286 DDP262253:DDP262286 DNL262253:DNL262286 DXH262253:DXH262286 EHD262253:EHD262286 EQZ262253:EQZ262286 FAV262253:FAV262286 FKR262253:FKR262286 FUN262253:FUN262286 GEJ262253:GEJ262286 GOF262253:GOF262286 GYB262253:GYB262286 HHX262253:HHX262286 HRT262253:HRT262286 IBP262253:IBP262286 ILL262253:ILL262286 IVH262253:IVH262286 JFD262253:JFD262286 JOZ262253:JOZ262286 JYV262253:JYV262286 KIR262253:KIR262286 KSN262253:KSN262286 LCJ262253:LCJ262286 LMF262253:LMF262286 LWB262253:LWB262286 MFX262253:MFX262286 MPT262253:MPT262286 MZP262253:MZP262286 NJL262253:NJL262286 NTH262253:NTH262286 ODD262253:ODD262286 OMZ262253:OMZ262286 OWV262253:OWV262286 PGR262253:PGR262286 PQN262253:PQN262286 QAJ262253:QAJ262286 QKF262253:QKF262286 QUB262253:QUB262286 RDX262253:RDX262286 RNT262253:RNT262286 RXP262253:RXP262286 SHL262253:SHL262286 SRH262253:SRH262286 TBD262253:TBD262286 TKZ262253:TKZ262286 TUV262253:TUV262286 UER262253:UER262286 UON262253:UON262286 UYJ262253:UYJ262286 VIF262253:VIF262286 VSB262253:VSB262286 WBX262253:WBX262286 WLT262253:WLT262286 WVP262253:WVP262286 H327789:H327822 JD327789:JD327822 SZ327789:SZ327822 ACV327789:ACV327822 AMR327789:AMR327822 AWN327789:AWN327822 BGJ327789:BGJ327822 BQF327789:BQF327822 CAB327789:CAB327822 CJX327789:CJX327822 CTT327789:CTT327822 DDP327789:DDP327822 DNL327789:DNL327822 DXH327789:DXH327822 EHD327789:EHD327822 EQZ327789:EQZ327822 FAV327789:FAV327822 FKR327789:FKR327822 FUN327789:FUN327822 GEJ327789:GEJ327822 GOF327789:GOF327822 GYB327789:GYB327822 HHX327789:HHX327822 HRT327789:HRT327822 IBP327789:IBP327822 ILL327789:ILL327822 IVH327789:IVH327822 JFD327789:JFD327822 JOZ327789:JOZ327822 JYV327789:JYV327822 KIR327789:KIR327822 KSN327789:KSN327822 LCJ327789:LCJ327822 LMF327789:LMF327822 LWB327789:LWB327822 MFX327789:MFX327822 MPT327789:MPT327822 MZP327789:MZP327822 NJL327789:NJL327822 NTH327789:NTH327822 ODD327789:ODD327822 OMZ327789:OMZ327822 OWV327789:OWV327822 PGR327789:PGR327822 PQN327789:PQN327822 QAJ327789:QAJ327822 QKF327789:QKF327822 QUB327789:QUB327822 RDX327789:RDX327822 RNT327789:RNT327822 RXP327789:RXP327822 SHL327789:SHL327822 SRH327789:SRH327822 TBD327789:TBD327822 TKZ327789:TKZ327822 TUV327789:TUV327822 UER327789:UER327822 UON327789:UON327822 UYJ327789:UYJ327822 VIF327789:VIF327822 VSB327789:VSB327822 WBX327789:WBX327822 WLT327789:WLT327822 WVP327789:WVP327822 H393325:H393358 JD393325:JD393358 SZ393325:SZ393358 ACV393325:ACV393358 AMR393325:AMR393358 AWN393325:AWN393358 BGJ393325:BGJ393358 BQF393325:BQF393358 CAB393325:CAB393358 CJX393325:CJX393358 CTT393325:CTT393358 DDP393325:DDP393358 DNL393325:DNL393358 DXH393325:DXH393358 EHD393325:EHD393358 EQZ393325:EQZ393358 FAV393325:FAV393358 FKR393325:FKR393358 FUN393325:FUN393358 GEJ393325:GEJ393358 GOF393325:GOF393358 GYB393325:GYB393358 HHX393325:HHX393358 HRT393325:HRT393358 IBP393325:IBP393358 ILL393325:ILL393358 IVH393325:IVH393358 JFD393325:JFD393358 JOZ393325:JOZ393358 JYV393325:JYV393358 KIR393325:KIR393358 KSN393325:KSN393358 LCJ393325:LCJ393358 LMF393325:LMF393358 LWB393325:LWB393358 MFX393325:MFX393358 MPT393325:MPT393358 MZP393325:MZP393358 NJL393325:NJL393358 NTH393325:NTH393358 ODD393325:ODD393358 OMZ393325:OMZ393358 OWV393325:OWV393358 PGR393325:PGR393358 PQN393325:PQN393358 QAJ393325:QAJ393358 QKF393325:QKF393358 QUB393325:QUB393358 RDX393325:RDX393358 RNT393325:RNT393358 RXP393325:RXP393358 SHL393325:SHL393358 SRH393325:SRH393358 TBD393325:TBD393358 TKZ393325:TKZ393358 TUV393325:TUV393358 UER393325:UER393358 UON393325:UON393358 UYJ393325:UYJ393358 VIF393325:VIF393358 VSB393325:VSB393358 WBX393325:WBX393358 WLT393325:WLT393358 WVP393325:WVP393358 H458861:H458894 JD458861:JD458894 SZ458861:SZ458894 ACV458861:ACV458894 AMR458861:AMR458894 AWN458861:AWN458894 BGJ458861:BGJ458894 BQF458861:BQF458894 CAB458861:CAB458894 CJX458861:CJX458894 CTT458861:CTT458894 DDP458861:DDP458894 DNL458861:DNL458894 DXH458861:DXH458894 EHD458861:EHD458894 EQZ458861:EQZ458894 FAV458861:FAV458894 FKR458861:FKR458894 FUN458861:FUN458894 GEJ458861:GEJ458894 GOF458861:GOF458894 GYB458861:GYB458894 HHX458861:HHX458894 HRT458861:HRT458894 IBP458861:IBP458894 ILL458861:ILL458894 IVH458861:IVH458894 JFD458861:JFD458894 JOZ458861:JOZ458894 JYV458861:JYV458894 KIR458861:KIR458894 KSN458861:KSN458894 LCJ458861:LCJ458894 LMF458861:LMF458894 LWB458861:LWB458894 MFX458861:MFX458894 MPT458861:MPT458894 MZP458861:MZP458894 NJL458861:NJL458894 NTH458861:NTH458894 ODD458861:ODD458894 OMZ458861:OMZ458894 OWV458861:OWV458894 PGR458861:PGR458894 PQN458861:PQN458894 QAJ458861:QAJ458894 QKF458861:QKF458894 QUB458861:QUB458894 RDX458861:RDX458894 RNT458861:RNT458894 RXP458861:RXP458894 SHL458861:SHL458894 SRH458861:SRH458894 TBD458861:TBD458894 TKZ458861:TKZ458894 TUV458861:TUV458894 UER458861:UER458894 UON458861:UON458894 UYJ458861:UYJ458894 VIF458861:VIF458894 VSB458861:VSB458894 WBX458861:WBX458894 WLT458861:WLT458894 WVP458861:WVP458894 H524397:H524430 JD524397:JD524430 SZ524397:SZ524430 ACV524397:ACV524430 AMR524397:AMR524430 AWN524397:AWN524430 BGJ524397:BGJ524430 BQF524397:BQF524430 CAB524397:CAB524430 CJX524397:CJX524430 CTT524397:CTT524430 DDP524397:DDP524430 DNL524397:DNL524430 DXH524397:DXH524430 EHD524397:EHD524430 EQZ524397:EQZ524430 FAV524397:FAV524430 FKR524397:FKR524430 FUN524397:FUN524430 GEJ524397:GEJ524430 GOF524397:GOF524430 GYB524397:GYB524430 HHX524397:HHX524430 HRT524397:HRT524430 IBP524397:IBP524430 ILL524397:ILL524430 IVH524397:IVH524430 JFD524397:JFD524430 JOZ524397:JOZ524430 JYV524397:JYV524430 KIR524397:KIR524430 KSN524397:KSN524430 LCJ524397:LCJ524430 LMF524397:LMF524430 LWB524397:LWB524430 MFX524397:MFX524430 MPT524397:MPT524430 MZP524397:MZP524430 NJL524397:NJL524430 NTH524397:NTH524430 ODD524397:ODD524430 OMZ524397:OMZ524430 OWV524397:OWV524430 PGR524397:PGR524430 PQN524397:PQN524430 QAJ524397:QAJ524430 QKF524397:QKF524430 QUB524397:QUB524430 RDX524397:RDX524430 RNT524397:RNT524430 RXP524397:RXP524430 SHL524397:SHL524430 SRH524397:SRH524430 TBD524397:TBD524430 TKZ524397:TKZ524430 TUV524397:TUV524430 UER524397:UER524430 UON524397:UON524430 UYJ524397:UYJ524430 VIF524397:VIF524430 VSB524397:VSB524430 WBX524397:WBX524430 WLT524397:WLT524430 WVP524397:WVP524430 H589933:H589966 JD589933:JD589966 SZ589933:SZ589966 ACV589933:ACV589966 AMR589933:AMR589966 AWN589933:AWN589966 BGJ589933:BGJ589966 BQF589933:BQF589966 CAB589933:CAB589966 CJX589933:CJX589966 CTT589933:CTT589966 DDP589933:DDP589966 DNL589933:DNL589966 DXH589933:DXH589966 EHD589933:EHD589966 EQZ589933:EQZ589966 FAV589933:FAV589966 FKR589933:FKR589966 FUN589933:FUN589966 GEJ589933:GEJ589966 GOF589933:GOF589966 GYB589933:GYB589966 HHX589933:HHX589966 HRT589933:HRT589966 IBP589933:IBP589966 ILL589933:ILL589966 IVH589933:IVH589966 JFD589933:JFD589966 JOZ589933:JOZ589966 JYV589933:JYV589966 KIR589933:KIR589966 KSN589933:KSN589966 LCJ589933:LCJ589966 LMF589933:LMF589966 LWB589933:LWB589966 MFX589933:MFX589966 MPT589933:MPT589966 MZP589933:MZP589966 NJL589933:NJL589966 NTH589933:NTH589966 ODD589933:ODD589966 OMZ589933:OMZ589966 OWV589933:OWV589966 PGR589933:PGR589966 PQN589933:PQN589966 QAJ589933:QAJ589966 QKF589933:QKF589966 QUB589933:QUB589966 RDX589933:RDX589966 RNT589933:RNT589966 RXP589933:RXP589966 SHL589933:SHL589966 SRH589933:SRH589966 TBD589933:TBD589966 TKZ589933:TKZ589966 TUV589933:TUV589966 UER589933:UER589966 UON589933:UON589966 UYJ589933:UYJ589966 VIF589933:VIF589966 VSB589933:VSB589966 WBX589933:WBX589966 WLT589933:WLT589966 WVP589933:WVP589966 H655469:H655502 JD655469:JD655502 SZ655469:SZ655502 ACV655469:ACV655502 AMR655469:AMR655502 AWN655469:AWN655502 BGJ655469:BGJ655502 BQF655469:BQF655502 CAB655469:CAB655502 CJX655469:CJX655502 CTT655469:CTT655502 DDP655469:DDP655502 DNL655469:DNL655502 DXH655469:DXH655502 EHD655469:EHD655502 EQZ655469:EQZ655502 FAV655469:FAV655502 FKR655469:FKR655502 FUN655469:FUN655502 GEJ655469:GEJ655502 GOF655469:GOF655502 GYB655469:GYB655502 HHX655469:HHX655502 HRT655469:HRT655502 IBP655469:IBP655502 ILL655469:ILL655502 IVH655469:IVH655502 JFD655469:JFD655502 JOZ655469:JOZ655502 JYV655469:JYV655502 KIR655469:KIR655502 KSN655469:KSN655502 LCJ655469:LCJ655502 LMF655469:LMF655502 LWB655469:LWB655502 MFX655469:MFX655502 MPT655469:MPT655502 MZP655469:MZP655502 NJL655469:NJL655502 NTH655469:NTH655502 ODD655469:ODD655502 OMZ655469:OMZ655502 OWV655469:OWV655502 PGR655469:PGR655502 PQN655469:PQN655502 QAJ655469:QAJ655502 QKF655469:QKF655502 QUB655469:QUB655502 RDX655469:RDX655502 RNT655469:RNT655502 RXP655469:RXP655502 SHL655469:SHL655502 SRH655469:SRH655502 TBD655469:TBD655502 TKZ655469:TKZ655502 TUV655469:TUV655502 UER655469:UER655502 UON655469:UON655502 UYJ655469:UYJ655502 VIF655469:VIF655502 VSB655469:VSB655502 WBX655469:WBX655502 WLT655469:WLT655502 WVP655469:WVP655502 H721005:H721038 JD721005:JD721038 SZ721005:SZ721038 ACV721005:ACV721038 AMR721005:AMR721038 AWN721005:AWN721038 BGJ721005:BGJ721038 BQF721005:BQF721038 CAB721005:CAB721038 CJX721005:CJX721038 CTT721005:CTT721038 DDP721005:DDP721038 DNL721005:DNL721038 DXH721005:DXH721038 EHD721005:EHD721038 EQZ721005:EQZ721038 FAV721005:FAV721038 FKR721005:FKR721038 FUN721005:FUN721038 GEJ721005:GEJ721038 GOF721005:GOF721038 GYB721005:GYB721038 HHX721005:HHX721038 HRT721005:HRT721038 IBP721005:IBP721038 ILL721005:ILL721038 IVH721005:IVH721038 JFD721005:JFD721038 JOZ721005:JOZ721038 JYV721005:JYV721038 KIR721005:KIR721038 KSN721005:KSN721038 LCJ721005:LCJ721038 LMF721005:LMF721038 LWB721005:LWB721038 MFX721005:MFX721038 MPT721005:MPT721038 MZP721005:MZP721038 NJL721005:NJL721038 NTH721005:NTH721038 ODD721005:ODD721038 OMZ721005:OMZ721038 OWV721005:OWV721038 PGR721005:PGR721038 PQN721005:PQN721038 QAJ721005:QAJ721038 QKF721005:QKF721038 QUB721005:QUB721038 RDX721005:RDX721038 RNT721005:RNT721038 RXP721005:RXP721038 SHL721005:SHL721038 SRH721005:SRH721038 TBD721005:TBD721038 TKZ721005:TKZ721038 TUV721005:TUV721038 UER721005:UER721038 UON721005:UON721038 UYJ721005:UYJ721038 VIF721005:VIF721038 VSB721005:VSB721038 WBX721005:WBX721038 WLT721005:WLT721038 WVP721005:WVP721038 H786541:H786574 JD786541:JD786574 SZ786541:SZ786574 ACV786541:ACV786574 AMR786541:AMR786574 AWN786541:AWN786574 BGJ786541:BGJ786574 BQF786541:BQF786574 CAB786541:CAB786574 CJX786541:CJX786574 CTT786541:CTT786574 DDP786541:DDP786574 DNL786541:DNL786574 DXH786541:DXH786574 EHD786541:EHD786574 EQZ786541:EQZ786574 FAV786541:FAV786574 FKR786541:FKR786574 FUN786541:FUN786574 GEJ786541:GEJ786574 GOF786541:GOF786574 GYB786541:GYB786574 HHX786541:HHX786574 HRT786541:HRT786574 IBP786541:IBP786574 ILL786541:ILL786574 IVH786541:IVH786574 JFD786541:JFD786574 JOZ786541:JOZ786574 JYV786541:JYV786574 KIR786541:KIR786574 KSN786541:KSN786574 LCJ786541:LCJ786574 LMF786541:LMF786574 LWB786541:LWB786574 MFX786541:MFX786574 MPT786541:MPT786574 MZP786541:MZP786574 NJL786541:NJL786574 NTH786541:NTH786574 ODD786541:ODD786574 OMZ786541:OMZ786574 OWV786541:OWV786574 PGR786541:PGR786574 PQN786541:PQN786574 QAJ786541:QAJ786574 QKF786541:QKF786574 QUB786541:QUB786574 RDX786541:RDX786574 RNT786541:RNT786574 RXP786541:RXP786574 SHL786541:SHL786574 SRH786541:SRH786574 TBD786541:TBD786574 TKZ786541:TKZ786574 TUV786541:TUV786574 UER786541:UER786574 UON786541:UON786574 UYJ786541:UYJ786574 VIF786541:VIF786574 VSB786541:VSB786574 WBX786541:WBX786574 WLT786541:WLT786574 WVP786541:WVP786574 H852077:H852110 JD852077:JD852110 SZ852077:SZ852110 ACV852077:ACV852110 AMR852077:AMR852110 AWN852077:AWN852110 BGJ852077:BGJ852110 BQF852077:BQF852110 CAB852077:CAB852110 CJX852077:CJX852110 CTT852077:CTT852110 DDP852077:DDP852110 DNL852077:DNL852110 DXH852077:DXH852110 EHD852077:EHD852110 EQZ852077:EQZ852110 FAV852077:FAV852110 FKR852077:FKR852110 FUN852077:FUN852110 GEJ852077:GEJ852110 GOF852077:GOF852110 GYB852077:GYB852110 HHX852077:HHX852110 HRT852077:HRT852110 IBP852077:IBP852110 ILL852077:ILL852110 IVH852077:IVH852110 JFD852077:JFD852110 JOZ852077:JOZ852110 JYV852077:JYV852110 KIR852077:KIR852110 KSN852077:KSN852110 LCJ852077:LCJ852110 LMF852077:LMF852110 LWB852077:LWB852110 MFX852077:MFX852110 MPT852077:MPT852110 MZP852077:MZP852110 NJL852077:NJL852110 NTH852077:NTH852110 ODD852077:ODD852110 OMZ852077:OMZ852110 OWV852077:OWV852110 PGR852077:PGR852110 PQN852077:PQN852110 QAJ852077:QAJ852110 QKF852077:QKF852110 QUB852077:QUB852110 RDX852077:RDX852110 RNT852077:RNT852110 RXP852077:RXP852110 SHL852077:SHL852110 SRH852077:SRH852110 TBD852077:TBD852110 TKZ852077:TKZ852110 TUV852077:TUV852110 UER852077:UER852110 UON852077:UON852110 UYJ852077:UYJ852110 VIF852077:VIF852110 VSB852077:VSB852110 WBX852077:WBX852110 WLT852077:WLT852110 WVP852077:WVP852110 H917613:H917646 JD917613:JD917646 SZ917613:SZ917646 ACV917613:ACV917646 AMR917613:AMR917646 AWN917613:AWN917646 BGJ917613:BGJ917646 BQF917613:BQF917646 CAB917613:CAB917646 CJX917613:CJX917646 CTT917613:CTT917646 DDP917613:DDP917646 DNL917613:DNL917646 DXH917613:DXH917646 EHD917613:EHD917646 EQZ917613:EQZ917646 FAV917613:FAV917646 FKR917613:FKR917646 FUN917613:FUN917646 GEJ917613:GEJ917646 GOF917613:GOF917646 GYB917613:GYB917646 HHX917613:HHX917646 HRT917613:HRT917646 IBP917613:IBP917646 ILL917613:ILL917646 IVH917613:IVH917646 JFD917613:JFD917646 JOZ917613:JOZ917646 JYV917613:JYV917646 KIR917613:KIR917646 KSN917613:KSN917646 LCJ917613:LCJ917646 LMF917613:LMF917646 LWB917613:LWB917646 MFX917613:MFX917646 MPT917613:MPT917646 MZP917613:MZP917646 NJL917613:NJL917646 NTH917613:NTH917646 ODD917613:ODD917646 OMZ917613:OMZ917646 OWV917613:OWV917646 PGR917613:PGR917646 PQN917613:PQN917646 QAJ917613:QAJ917646 QKF917613:QKF917646 QUB917613:QUB917646 RDX917613:RDX917646 RNT917613:RNT917646 RXP917613:RXP917646 SHL917613:SHL917646 SRH917613:SRH917646 TBD917613:TBD917646 TKZ917613:TKZ917646 TUV917613:TUV917646 UER917613:UER917646 UON917613:UON917646 UYJ917613:UYJ917646 VIF917613:VIF917646 VSB917613:VSB917646 WBX917613:WBX917646 WLT917613:WLT917646 WVP917613:WVP917646 H983149:H983182 JD983149:JD983182 SZ983149:SZ983182 ACV983149:ACV983182 AMR983149:AMR983182 AWN983149:AWN983182 BGJ983149:BGJ983182 BQF983149:BQF983182 CAB983149:CAB983182 CJX983149:CJX983182 CTT983149:CTT983182 DDP983149:DDP983182 DNL983149:DNL983182 DXH983149:DXH983182 EHD983149:EHD983182 EQZ983149:EQZ983182 FAV983149:FAV983182 FKR983149:FKR983182 FUN983149:FUN983182 GEJ983149:GEJ983182 GOF983149:GOF983182 GYB983149:GYB983182 HHX983149:HHX983182 HRT983149:HRT983182 IBP983149:IBP983182 ILL983149:ILL983182 IVH983149:IVH983182 JFD983149:JFD983182 JOZ983149:JOZ983182 JYV983149:JYV983182 KIR983149:KIR983182 KSN983149:KSN983182 LCJ983149:LCJ983182 LMF983149:LMF983182 LWB983149:LWB983182 MFX983149:MFX983182 MPT983149:MPT983182 MZP983149:MZP983182 NJL983149:NJL983182 NTH983149:NTH983182 ODD983149:ODD983182 OMZ983149:OMZ983182 OWV983149:OWV983182 PGR983149:PGR983182 PQN983149:PQN983182 QAJ983149:QAJ983182 QKF983149:QKF983182 QUB983149:QUB983182 RDX983149:RDX983182 RNT983149:RNT983182 RXP983149:RXP983182 SHL983149:SHL983182 SRH983149:SRH983182 TBD983149:TBD983182 TKZ983149:TKZ983182 TUV983149:TUV983182 UER983149:UER983182 UON983149:UON983182 UYJ983149:UYJ983182 VIF983149:VIF983182 VSB983149:VSB983182 WBX983149:WBX983182 WLT983149:WLT983182 WVP983149:WVP983182 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H871" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65645:H65678 JD65645:JD65678 SZ65645:SZ65678 ACV65645:ACV65678 AMR65645:AMR65678 AWN65645:AWN65678 BGJ65645:BGJ65678 BQF65645:BQF65678 CAB65645:CAB65678 CJX65645:CJX65678 CTT65645:CTT65678 DDP65645:DDP65678 DNL65645:DNL65678 DXH65645:DXH65678 EHD65645:EHD65678 EQZ65645:EQZ65678 FAV65645:FAV65678 FKR65645:FKR65678 FUN65645:FUN65678 GEJ65645:GEJ65678 GOF65645:GOF65678 GYB65645:GYB65678 HHX65645:HHX65678 HRT65645:HRT65678 IBP65645:IBP65678 ILL65645:ILL65678 IVH65645:IVH65678 JFD65645:JFD65678 JOZ65645:JOZ65678 JYV65645:JYV65678 KIR65645:KIR65678 KSN65645:KSN65678 LCJ65645:LCJ65678 LMF65645:LMF65678 LWB65645:LWB65678 MFX65645:MFX65678 MPT65645:MPT65678 MZP65645:MZP65678 NJL65645:NJL65678 NTH65645:NTH65678 ODD65645:ODD65678 OMZ65645:OMZ65678 OWV65645:OWV65678 PGR65645:PGR65678 PQN65645:PQN65678 QAJ65645:QAJ65678 QKF65645:QKF65678 QUB65645:QUB65678 RDX65645:RDX65678 RNT65645:RNT65678 RXP65645:RXP65678 SHL65645:SHL65678 SRH65645:SRH65678 TBD65645:TBD65678 TKZ65645:TKZ65678 TUV65645:TUV65678 UER65645:UER65678 UON65645:UON65678 UYJ65645:UYJ65678 VIF65645:VIF65678 VSB65645:VSB65678 WBX65645:WBX65678 WLT65645:WLT65678 WVP65645:WVP65678 H131181:H131214 JD131181:JD131214 SZ131181:SZ131214 ACV131181:ACV131214 AMR131181:AMR131214 AWN131181:AWN131214 BGJ131181:BGJ131214 BQF131181:BQF131214 CAB131181:CAB131214 CJX131181:CJX131214 CTT131181:CTT131214 DDP131181:DDP131214 DNL131181:DNL131214 DXH131181:DXH131214 EHD131181:EHD131214 EQZ131181:EQZ131214 FAV131181:FAV131214 FKR131181:FKR131214 FUN131181:FUN131214 GEJ131181:GEJ131214 GOF131181:GOF131214 GYB131181:GYB131214 HHX131181:HHX131214 HRT131181:HRT131214 IBP131181:IBP131214 ILL131181:ILL131214 IVH131181:IVH131214 JFD131181:JFD131214 JOZ131181:JOZ131214 JYV131181:JYV131214 KIR131181:KIR131214 KSN131181:KSN131214 LCJ131181:LCJ131214 LMF131181:LMF131214 LWB131181:LWB131214 MFX131181:MFX131214 MPT131181:MPT131214 MZP131181:MZP131214 NJL131181:NJL131214 NTH131181:NTH131214 ODD131181:ODD131214 OMZ131181:OMZ131214 OWV131181:OWV131214 PGR131181:PGR131214 PQN131181:PQN131214 QAJ131181:QAJ131214 QKF131181:QKF131214 QUB131181:QUB131214 RDX131181:RDX131214 RNT131181:RNT131214 RXP131181:RXP131214 SHL131181:SHL131214 SRH131181:SRH131214 TBD131181:TBD131214 TKZ131181:TKZ131214 TUV131181:TUV131214 UER131181:UER131214 UON131181:UON131214 UYJ131181:UYJ131214 VIF131181:VIF131214 VSB131181:VSB131214 WBX131181:WBX131214 WLT131181:WLT131214 WVP131181:WVP131214 H196717:H196750 JD196717:JD196750 SZ196717:SZ196750 ACV196717:ACV196750 AMR196717:AMR196750 AWN196717:AWN196750 BGJ196717:BGJ196750 BQF196717:BQF196750 CAB196717:CAB196750 CJX196717:CJX196750 CTT196717:CTT196750 DDP196717:DDP196750 DNL196717:DNL196750 DXH196717:DXH196750 EHD196717:EHD196750 EQZ196717:EQZ196750 FAV196717:FAV196750 FKR196717:FKR196750 FUN196717:FUN196750 GEJ196717:GEJ196750 GOF196717:GOF196750 GYB196717:GYB196750 HHX196717:HHX196750 HRT196717:HRT196750 IBP196717:IBP196750 ILL196717:ILL196750 IVH196717:IVH196750 JFD196717:JFD196750 JOZ196717:JOZ196750 JYV196717:JYV196750 KIR196717:KIR196750 KSN196717:KSN196750 LCJ196717:LCJ196750 LMF196717:LMF196750 LWB196717:LWB196750 MFX196717:MFX196750 MPT196717:MPT196750 MZP196717:MZP196750 NJL196717:NJL196750 NTH196717:NTH196750 ODD196717:ODD196750 OMZ196717:OMZ196750 OWV196717:OWV196750 PGR196717:PGR196750 PQN196717:PQN196750 QAJ196717:QAJ196750 QKF196717:QKF196750 QUB196717:QUB196750 RDX196717:RDX196750 RNT196717:RNT196750 RXP196717:RXP196750 SHL196717:SHL196750 SRH196717:SRH196750 TBD196717:TBD196750 TKZ196717:TKZ196750 TUV196717:TUV196750 UER196717:UER196750 UON196717:UON196750 UYJ196717:UYJ196750 VIF196717:VIF196750 VSB196717:VSB196750 WBX196717:WBX196750 WLT196717:WLT196750 WVP196717:WVP196750 H262253:H262286 JD262253:JD262286 SZ262253:SZ262286 ACV262253:ACV262286 AMR262253:AMR262286 AWN262253:AWN262286 BGJ262253:BGJ262286 BQF262253:BQF262286 CAB262253:CAB262286 CJX262253:CJX262286 CTT262253:CTT262286 DDP262253:DDP262286 DNL262253:DNL262286 DXH262253:DXH262286 EHD262253:EHD262286 EQZ262253:EQZ262286 FAV262253:FAV262286 FKR262253:FKR262286 FUN262253:FUN262286 GEJ262253:GEJ262286 GOF262253:GOF262286 GYB262253:GYB262286 HHX262253:HHX262286 HRT262253:HRT262286 IBP262253:IBP262286 ILL262253:ILL262286 IVH262253:IVH262286 JFD262253:JFD262286 JOZ262253:JOZ262286 JYV262253:JYV262286 KIR262253:KIR262286 KSN262253:KSN262286 LCJ262253:LCJ262286 LMF262253:LMF262286 LWB262253:LWB262286 MFX262253:MFX262286 MPT262253:MPT262286 MZP262253:MZP262286 NJL262253:NJL262286 NTH262253:NTH262286 ODD262253:ODD262286 OMZ262253:OMZ262286 OWV262253:OWV262286 PGR262253:PGR262286 PQN262253:PQN262286 QAJ262253:QAJ262286 QKF262253:QKF262286 QUB262253:QUB262286 RDX262253:RDX262286 RNT262253:RNT262286 RXP262253:RXP262286 SHL262253:SHL262286 SRH262253:SRH262286 TBD262253:TBD262286 TKZ262253:TKZ262286 TUV262253:TUV262286 UER262253:UER262286 UON262253:UON262286 UYJ262253:UYJ262286 VIF262253:VIF262286 VSB262253:VSB262286 WBX262253:WBX262286 WLT262253:WLT262286 WVP262253:WVP262286 H327789:H327822 JD327789:JD327822 SZ327789:SZ327822 ACV327789:ACV327822 AMR327789:AMR327822 AWN327789:AWN327822 BGJ327789:BGJ327822 BQF327789:BQF327822 CAB327789:CAB327822 CJX327789:CJX327822 CTT327789:CTT327822 DDP327789:DDP327822 DNL327789:DNL327822 DXH327789:DXH327822 EHD327789:EHD327822 EQZ327789:EQZ327822 FAV327789:FAV327822 FKR327789:FKR327822 FUN327789:FUN327822 GEJ327789:GEJ327822 GOF327789:GOF327822 GYB327789:GYB327822 HHX327789:HHX327822 HRT327789:HRT327822 IBP327789:IBP327822 ILL327789:ILL327822 IVH327789:IVH327822 JFD327789:JFD327822 JOZ327789:JOZ327822 JYV327789:JYV327822 KIR327789:KIR327822 KSN327789:KSN327822 LCJ327789:LCJ327822 LMF327789:LMF327822 LWB327789:LWB327822 MFX327789:MFX327822 MPT327789:MPT327822 MZP327789:MZP327822 NJL327789:NJL327822 NTH327789:NTH327822 ODD327789:ODD327822 OMZ327789:OMZ327822 OWV327789:OWV327822 PGR327789:PGR327822 PQN327789:PQN327822 QAJ327789:QAJ327822 QKF327789:QKF327822 QUB327789:QUB327822 RDX327789:RDX327822 RNT327789:RNT327822 RXP327789:RXP327822 SHL327789:SHL327822 SRH327789:SRH327822 TBD327789:TBD327822 TKZ327789:TKZ327822 TUV327789:TUV327822 UER327789:UER327822 UON327789:UON327822 UYJ327789:UYJ327822 VIF327789:VIF327822 VSB327789:VSB327822 WBX327789:WBX327822 WLT327789:WLT327822 WVP327789:WVP327822 H393325:H393358 JD393325:JD393358 SZ393325:SZ393358 ACV393325:ACV393358 AMR393325:AMR393358 AWN393325:AWN393358 BGJ393325:BGJ393358 BQF393325:BQF393358 CAB393325:CAB393358 CJX393325:CJX393358 CTT393325:CTT393358 DDP393325:DDP393358 DNL393325:DNL393358 DXH393325:DXH393358 EHD393325:EHD393358 EQZ393325:EQZ393358 FAV393325:FAV393358 FKR393325:FKR393358 FUN393325:FUN393358 GEJ393325:GEJ393358 GOF393325:GOF393358 GYB393325:GYB393358 HHX393325:HHX393358 HRT393325:HRT393358 IBP393325:IBP393358 ILL393325:ILL393358 IVH393325:IVH393358 JFD393325:JFD393358 JOZ393325:JOZ393358 JYV393325:JYV393358 KIR393325:KIR393358 KSN393325:KSN393358 LCJ393325:LCJ393358 LMF393325:LMF393358 LWB393325:LWB393358 MFX393325:MFX393358 MPT393325:MPT393358 MZP393325:MZP393358 NJL393325:NJL393358 NTH393325:NTH393358 ODD393325:ODD393358 OMZ393325:OMZ393358 OWV393325:OWV393358 PGR393325:PGR393358 PQN393325:PQN393358 QAJ393325:QAJ393358 QKF393325:QKF393358 QUB393325:QUB393358 RDX393325:RDX393358 RNT393325:RNT393358 RXP393325:RXP393358 SHL393325:SHL393358 SRH393325:SRH393358 TBD393325:TBD393358 TKZ393325:TKZ393358 TUV393325:TUV393358 UER393325:UER393358 UON393325:UON393358 UYJ393325:UYJ393358 VIF393325:VIF393358 VSB393325:VSB393358 WBX393325:WBX393358 WLT393325:WLT393358 WVP393325:WVP393358 H458861:H458894 JD458861:JD458894 SZ458861:SZ458894 ACV458861:ACV458894 AMR458861:AMR458894 AWN458861:AWN458894 BGJ458861:BGJ458894 BQF458861:BQF458894 CAB458861:CAB458894 CJX458861:CJX458894 CTT458861:CTT458894 DDP458861:DDP458894 DNL458861:DNL458894 DXH458861:DXH458894 EHD458861:EHD458894 EQZ458861:EQZ458894 FAV458861:FAV458894 FKR458861:FKR458894 FUN458861:FUN458894 GEJ458861:GEJ458894 GOF458861:GOF458894 GYB458861:GYB458894 HHX458861:HHX458894 HRT458861:HRT458894 IBP458861:IBP458894 ILL458861:ILL458894 IVH458861:IVH458894 JFD458861:JFD458894 JOZ458861:JOZ458894 JYV458861:JYV458894 KIR458861:KIR458894 KSN458861:KSN458894 LCJ458861:LCJ458894 LMF458861:LMF458894 LWB458861:LWB458894 MFX458861:MFX458894 MPT458861:MPT458894 MZP458861:MZP458894 NJL458861:NJL458894 NTH458861:NTH458894 ODD458861:ODD458894 OMZ458861:OMZ458894 OWV458861:OWV458894 PGR458861:PGR458894 PQN458861:PQN458894 QAJ458861:QAJ458894 QKF458861:QKF458894 QUB458861:QUB458894 RDX458861:RDX458894 RNT458861:RNT458894 RXP458861:RXP458894 SHL458861:SHL458894 SRH458861:SRH458894 TBD458861:TBD458894 TKZ458861:TKZ458894 TUV458861:TUV458894 UER458861:UER458894 UON458861:UON458894 UYJ458861:UYJ458894 VIF458861:VIF458894 VSB458861:VSB458894 WBX458861:WBX458894 WLT458861:WLT458894 WVP458861:WVP458894 H524397:H524430 JD524397:JD524430 SZ524397:SZ524430 ACV524397:ACV524430 AMR524397:AMR524430 AWN524397:AWN524430 BGJ524397:BGJ524430 BQF524397:BQF524430 CAB524397:CAB524430 CJX524397:CJX524430 CTT524397:CTT524430 DDP524397:DDP524430 DNL524397:DNL524430 DXH524397:DXH524430 EHD524397:EHD524430 EQZ524397:EQZ524430 FAV524397:FAV524430 FKR524397:FKR524430 FUN524397:FUN524430 GEJ524397:GEJ524430 GOF524397:GOF524430 GYB524397:GYB524430 HHX524397:HHX524430 HRT524397:HRT524430 IBP524397:IBP524430 ILL524397:ILL524430 IVH524397:IVH524430 JFD524397:JFD524430 JOZ524397:JOZ524430 JYV524397:JYV524430 KIR524397:KIR524430 KSN524397:KSN524430 LCJ524397:LCJ524430 LMF524397:LMF524430 LWB524397:LWB524430 MFX524397:MFX524430 MPT524397:MPT524430 MZP524397:MZP524430 NJL524397:NJL524430 NTH524397:NTH524430 ODD524397:ODD524430 OMZ524397:OMZ524430 OWV524397:OWV524430 PGR524397:PGR524430 PQN524397:PQN524430 QAJ524397:QAJ524430 QKF524397:QKF524430 QUB524397:QUB524430 RDX524397:RDX524430 RNT524397:RNT524430 RXP524397:RXP524430 SHL524397:SHL524430 SRH524397:SRH524430 TBD524397:TBD524430 TKZ524397:TKZ524430 TUV524397:TUV524430 UER524397:UER524430 UON524397:UON524430 UYJ524397:UYJ524430 VIF524397:VIF524430 VSB524397:VSB524430 WBX524397:WBX524430 WLT524397:WLT524430 WVP524397:WVP524430 H589933:H589966 JD589933:JD589966 SZ589933:SZ589966 ACV589933:ACV589966 AMR589933:AMR589966 AWN589933:AWN589966 BGJ589933:BGJ589966 BQF589933:BQF589966 CAB589933:CAB589966 CJX589933:CJX589966 CTT589933:CTT589966 DDP589933:DDP589966 DNL589933:DNL589966 DXH589933:DXH589966 EHD589933:EHD589966 EQZ589933:EQZ589966 FAV589933:FAV589966 FKR589933:FKR589966 FUN589933:FUN589966 GEJ589933:GEJ589966 GOF589933:GOF589966 GYB589933:GYB589966 HHX589933:HHX589966 HRT589933:HRT589966 IBP589933:IBP589966 ILL589933:ILL589966 IVH589933:IVH589966 JFD589933:JFD589966 JOZ589933:JOZ589966 JYV589933:JYV589966 KIR589933:KIR589966 KSN589933:KSN589966 LCJ589933:LCJ589966 LMF589933:LMF589966 LWB589933:LWB589966 MFX589933:MFX589966 MPT589933:MPT589966 MZP589933:MZP589966 NJL589933:NJL589966 NTH589933:NTH589966 ODD589933:ODD589966 OMZ589933:OMZ589966 OWV589933:OWV589966 PGR589933:PGR589966 PQN589933:PQN589966 QAJ589933:QAJ589966 QKF589933:QKF589966 QUB589933:QUB589966 RDX589933:RDX589966 RNT589933:RNT589966 RXP589933:RXP589966 SHL589933:SHL589966 SRH589933:SRH589966 TBD589933:TBD589966 TKZ589933:TKZ589966 TUV589933:TUV589966 UER589933:UER589966 UON589933:UON589966 UYJ589933:UYJ589966 VIF589933:VIF589966 VSB589933:VSB589966 WBX589933:WBX589966 WLT589933:WLT589966 WVP589933:WVP589966 H655469:H655502 JD655469:JD655502 SZ655469:SZ655502 ACV655469:ACV655502 AMR655469:AMR655502 AWN655469:AWN655502 BGJ655469:BGJ655502 BQF655469:BQF655502 CAB655469:CAB655502 CJX655469:CJX655502 CTT655469:CTT655502 DDP655469:DDP655502 DNL655469:DNL655502 DXH655469:DXH655502 EHD655469:EHD655502 EQZ655469:EQZ655502 FAV655469:FAV655502 FKR655469:FKR655502 FUN655469:FUN655502 GEJ655469:GEJ655502 GOF655469:GOF655502 GYB655469:GYB655502 HHX655469:HHX655502 HRT655469:HRT655502 IBP655469:IBP655502 ILL655469:ILL655502 IVH655469:IVH655502 JFD655469:JFD655502 JOZ655469:JOZ655502 JYV655469:JYV655502 KIR655469:KIR655502 KSN655469:KSN655502 LCJ655469:LCJ655502 LMF655469:LMF655502 LWB655469:LWB655502 MFX655469:MFX655502 MPT655469:MPT655502 MZP655469:MZP655502 NJL655469:NJL655502 NTH655469:NTH655502 ODD655469:ODD655502 OMZ655469:OMZ655502 OWV655469:OWV655502 PGR655469:PGR655502 PQN655469:PQN655502 QAJ655469:QAJ655502 QKF655469:QKF655502 QUB655469:QUB655502 RDX655469:RDX655502 RNT655469:RNT655502 RXP655469:RXP655502 SHL655469:SHL655502 SRH655469:SRH655502 TBD655469:TBD655502 TKZ655469:TKZ655502 TUV655469:TUV655502 UER655469:UER655502 UON655469:UON655502 UYJ655469:UYJ655502 VIF655469:VIF655502 VSB655469:VSB655502 WBX655469:WBX655502 WLT655469:WLT655502 WVP655469:WVP655502 H721005:H721038 JD721005:JD721038 SZ721005:SZ721038 ACV721005:ACV721038 AMR721005:AMR721038 AWN721005:AWN721038 BGJ721005:BGJ721038 BQF721005:BQF721038 CAB721005:CAB721038 CJX721005:CJX721038 CTT721005:CTT721038 DDP721005:DDP721038 DNL721005:DNL721038 DXH721005:DXH721038 EHD721005:EHD721038 EQZ721005:EQZ721038 FAV721005:FAV721038 FKR721005:FKR721038 FUN721005:FUN721038 GEJ721005:GEJ721038 GOF721005:GOF721038 GYB721005:GYB721038 HHX721005:HHX721038 HRT721005:HRT721038 IBP721005:IBP721038 ILL721005:ILL721038 IVH721005:IVH721038 JFD721005:JFD721038 JOZ721005:JOZ721038 JYV721005:JYV721038 KIR721005:KIR721038 KSN721005:KSN721038 LCJ721005:LCJ721038 LMF721005:LMF721038 LWB721005:LWB721038 MFX721005:MFX721038 MPT721005:MPT721038 MZP721005:MZP721038 NJL721005:NJL721038 NTH721005:NTH721038 ODD721005:ODD721038 OMZ721005:OMZ721038 OWV721005:OWV721038 PGR721005:PGR721038 PQN721005:PQN721038 QAJ721005:QAJ721038 QKF721005:QKF721038 QUB721005:QUB721038 RDX721005:RDX721038 RNT721005:RNT721038 RXP721005:RXP721038 SHL721005:SHL721038 SRH721005:SRH721038 TBD721005:TBD721038 TKZ721005:TKZ721038 TUV721005:TUV721038 UER721005:UER721038 UON721005:UON721038 UYJ721005:UYJ721038 VIF721005:VIF721038 VSB721005:VSB721038 WBX721005:WBX721038 WLT721005:WLT721038 WVP721005:WVP721038 H786541:H786574 JD786541:JD786574 SZ786541:SZ786574 ACV786541:ACV786574 AMR786541:AMR786574 AWN786541:AWN786574 BGJ786541:BGJ786574 BQF786541:BQF786574 CAB786541:CAB786574 CJX786541:CJX786574 CTT786541:CTT786574 DDP786541:DDP786574 DNL786541:DNL786574 DXH786541:DXH786574 EHD786541:EHD786574 EQZ786541:EQZ786574 FAV786541:FAV786574 FKR786541:FKR786574 FUN786541:FUN786574 GEJ786541:GEJ786574 GOF786541:GOF786574 GYB786541:GYB786574 HHX786541:HHX786574 HRT786541:HRT786574 IBP786541:IBP786574 ILL786541:ILL786574 IVH786541:IVH786574 JFD786541:JFD786574 JOZ786541:JOZ786574 JYV786541:JYV786574 KIR786541:KIR786574 KSN786541:KSN786574 LCJ786541:LCJ786574 LMF786541:LMF786574 LWB786541:LWB786574 MFX786541:MFX786574 MPT786541:MPT786574 MZP786541:MZP786574 NJL786541:NJL786574 NTH786541:NTH786574 ODD786541:ODD786574 OMZ786541:OMZ786574 OWV786541:OWV786574 PGR786541:PGR786574 PQN786541:PQN786574 QAJ786541:QAJ786574 QKF786541:QKF786574 QUB786541:QUB786574 RDX786541:RDX786574 RNT786541:RNT786574 RXP786541:RXP786574 SHL786541:SHL786574 SRH786541:SRH786574 TBD786541:TBD786574 TKZ786541:TKZ786574 TUV786541:TUV786574 UER786541:UER786574 UON786541:UON786574 UYJ786541:UYJ786574 VIF786541:VIF786574 VSB786541:VSB786574 WBX786541:WBX786574 WLT786541:WLT786574 WVP786541:WVP786574 H852077:H852110 JD852077:JD852110 SZ852077:SZ852110 ACV852077:ACV852110 AMR852077:AMR852110 AWN852077:AWN852110 BGJ852077:BGJ852110 BQF852077:BQF852110 CAB852077:CAB852110 CJX852077:CJX852110 CTT852077:CTT852110 DDP852077:DDP852110 DNL852077:DNL852110 DXH852077:DXH852110 EHD852077:EHD852110 EQZ852077:EQZ852110 FAV852077:FAV852110 FKR852077:FKR852110 FUN852077:FUN852110 GEJ852077:GEJ852110 GOF852077:GOF852110 GYB852077:GYB852110 HHX852077:HHX852110 HRT852077:HRT852110 IBP852077:IBP852110 ILL852077:ILL852110 IVH852077:IVH852110 JFD852077:JFD852110 JOZ852077:JOZ852110 JYV852077:JYV852110 KIR852077:KIR852110 KSN852077:KSN852110 LCJ852077:LCJ852110 LMF852077:LMF852110 LWB852077:LWB852110 MFX852077:MFX852110 MPT852077:MPT852110 MZP852077:MZP852110 NJL852077:NJL852110 NTH852077:NTH852110 ODD852077:ODD852110 OMZ852077:OMZ852110 OWV852077:OWV852110 PGR852077:PGR852110 PQN852077:PQN852110 QAJ852077:QAJ852110 QKF852077:QKF852110 QUB852077:QUB852110 RDX852077:RDX852110 RNT852077:RNT852110 RXP852077:RXP852110 SHL852077:SHL852110 SRH852077:SRH852110 TBD852077:TBD852110 TKZ852077:TKZ852110 TUV852077:TUV852110 UER852077:UER852110 UON852077:UON852110 UYJ852077:UYJ852110 VIF852077:VIF852110 VSB852077:VSB852110 WBX852077:WBX852110 WLT852077:WLT852110 WVP852077:WVP852110 H917613:H917646 JD917613:JD917646 SZ917613:SZ917646 ACV917613:ACV917646 AMR917613:AMR917646 AWN917613:AWN917646 BGJ917613:BGJ917646 BQF917613:BQF917646 CAB917613:CAB917646 CJX917613:CJX917646 CTT917613:CTT917646 DDP917613:DDP917646 DNL917613:DNL917646 DXH917613:DXH917646 EHD917613:EHD917646 EQZ917613:EQZ917646 FAV917613:FAV917646 FKR917613:FKR917646 FUN917613:FUN917646 GEJ917613:GEJ917646 GOF917613:GOF917646 GYB917613:GYB917646 HHX917613:HHX917646 HRT917613:HRT917646 IBP917613:IBP917646 ILL917613:ILL917646 IVH917613:IVH917646 JFD917613:JFD917646 JOZ917613:JOZ917646 JYV917613:JYV917646 KIR917613:KIR917646 KSN917613:KSN917646 LCJ917613:LCJ917646 LMF917613:LMF917646 LWB917613:LWB917646 MFX917613:MFX917646 MPT917613:MPT917646 MZP917613:MZP917646 NJL917613:NJL917646 NTH917613:NTH917646 ODD917613:ODD917646 OMZ917613:OMZ917646 OWV917613:OWV917646 PGR917613:PGR917646 PQN917613:PQN917646 QAJ917613:QAJ917646 QKF917613:QKF917646 QUB917613:QUB917646 RDX917613:RDX917646 RNT917613:RNT917646 RXP917613:RXP917646 SHL917613:SHL917646 SRH917613:SRH917646 TBD917613:TBD917646 TKZ917613:TKZ917646 TUV917613:TUV917646 UER917613:UER917646 UON917613:UON917646 UYJ917613:UYJ917646 VIF917613:VIF917646 VSB917613:VSB917646 WBX917613:WBX917646 WLT917613:WLT917646 WVP917613:WVP917646 H983149:H983182 JD983149:JD983182 SZ983149:SZ983182 ACV983149:ACV983182 AMR983149:AMR983182 AWN983149:AWN983182 BGJ983149:BGJ983182 BQF983149:BQF983182 CAB983149:CAB983182 CJX983149:CJX983182 CTT983149:CTT983182 DDP983149:DDP983182 DNL983149:DNL983182 DXH983149:DXH983182 EHD983149:EHD983182 EQZ983149:EQZ983182 FAV983149:FAV983182 FKR983149:FKR983182 FUN983149:FUN983182 GEJ983149:GEJ983182 GOF983149:GOF983182 GYB983149:GYB983182 HHX983149:HHX983182 HRT983149:HRT983182 IBP983149:IBP983182 ILL983149:ILL983182 IVH983149:IVH983182 JFD983149:JFD983182 JOZ983149:JOZ983182 JYV983149:JYV983182 KIR983149:KIR983182 KSN983149:KSN983182 LCJ983149:LCJ983182 LMF983149:LMF983182 LWB983149:LWB983182 MFX983149:MFX983182 MPT983149:MPT983182 MZP983149:MZP983182 NJL983149:NJL983182 NTH983149:NTH983182 ODD983149:ODD983182 OMZ983149:OMZ983182 OWV983149:OWV983182 PGR983149:PGR983182 PQN983149:PQN983182 QAJ983149:QAJ983182 QKF983149:QKF983182 QUB983149:QUB983182 RDX983149:RDX983182 RNT983149:RNT983182 RXP983149:RXP983182 SHL983149:SHL983182 SRH983149:SRH983182 TBD983149:TBD983182 TKZ983149:TKZ983182 TUV983149:TUV983182 UER983149:UER983182 UON983149:UON983182 UYJ983149:UYJ983182 VIF983149:VIF983182 VSB983149:VSB983182 WBX983149:WBX983182 WLT983149:WLT983182 WVP983149:WVP983182 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H887" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA831C27-2E13-45AF-9F9D-4B0928122239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D60CE8-9750-423F-A58D-7E2C003E8CEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24135" yWindow="1725" windowWidth="21030" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="3795" windowWidth="17940" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="708">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2795,6 +2795,30 @@
   </si>
   <si>
     <t>查看第三批数据质量反馈报告--PRP_3rd_P_A_O_000153、PRP_3rd_P_A_O_000154、PRP_3rd_P_A_O_000170规则错误数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--再保模块PRP_3rd_P_A_O_001259、PRP_3rd_P_A_O_001265、PRP_3rd_P_A_O_001266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--再保模块PRP_3rd_P_A_O_001269、PRP_3rd_P_A_O_001268、PRP_3rd_P_A_O_001273</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--再保模块PRP_3rd_P_A_O_001279、PRP_3rd_P_A_O_001282</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看第三批数据质量反馈报告--再保模块PRP_3rd_P_A_O_001290、PRP_3rd_P_A_O_001289</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分意健险关注字段及探查结果-20190704 - 人保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分意健险关注字段及探查结果-20190705 - 人保</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3347,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G875" sqref="G875"/>
+    <sheetView tabSelected="1" topLeftCell="A869" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G883" sqref="G883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -27680,46 +27704,30 @@
       <c r="J874" s="8"/>
     </row>
     <row r="875" spans="1:10">
-      <c r="A875" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A875" s="5"/>
       <c r="B875" s="4"/>
-      <c r="C875" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C875" s="6"/>
       <c r="D875" s="26"/>
       <c r="E875" s="26"/>
-      <c r="F875" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F875" s="11"/>
       <c r="G875" s="14"/>
-      <c r="H875" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H875" s="6"/>
       <c r="I875" s="7"/>
       <c r="J875" s="8"/>
     </row>
     <row r="876" spans="1:10">
-      <c r="A876" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A876" s="5"/>
       <c r="B876" s="4"/>
-      <c r="C876" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C876" s="6"/>
       <c r="D876" s="26"/>
       <c r="E876" s="26"/>
-      <c r="F876" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="F876" s="11"/>
       <c r="G876" s="14"/>
-      <c r="H876" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H876" s="6"/>
       <c r="I876" s="7"/>
       <c r="J876" s="8"/>
     </row>
-    <row r="877" spans="1:10">
+    <row r="877" spans="1:10" ht="24">
       <c r="A877" s="5" t="s">
         <v>10</v>
       </c>
@@ -27727,19 +27735,25 @@
       <c r="C877" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D877" s="26"/>
-      <c r="E877" s="26"/>
+      <c r="D877" s="26">
+        <v>43668</v>
+      </c>
+      <c r="E877" s="26">
+        <v>43668</v>
+      </c>
       <c r="F877" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G877" s="14"/>
+      <c r="G877" s="14" t="s">
+        <v>702</v>
+      </c>
       <c r="H877" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I877" s="7"/>
       <c r="J877" s="8"/>
     </row>
-    <row r="878" spans="1:10">
+    <row r="878" spans="1:10" ht="24">
       <c r="A878" s="5" t="s">
         <v>10</v>
       </c>
@@ -27747,12 +27761,18 @@
       <c r="C878" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D878" s="26"/>
-      <c r="E878" s="26"/>
+      <c r="D878" s="26">
+        <v>43668</v>
+      </c>
+      <c r="E878" s="26">
+        <v>43668</v>
+      </c>
       <c r="F878" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G878" s="14"/>
+      <c r="G878" s="14" t="s">
+        <v>703</v>
+      </c>
       <c r="H878" s="6" t="s">
         <v>11</v>
       </c>
@@ -27767,12 +27787,18 @@
       <c r="C879" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D879" s="26"/>
-      <c r="E879" s="26"/>
+      <c r="D879" s="26">
+        <v>43668</v>
+      </c>
+      <c r="E879" s="26">
+        <v>43668</v>
+      </c>
       <c r="F879" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G879" s="14"/>
+      <c r="G879" s="14" t="s">
+        <v>704</v>
+      </c>
       <c r="H879" s="6" t="s">
         <v>11</v>
       </c>
@@ -27787,12 +27813,18 @@
       <c r="C880" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D880" s="26"/>
-      <c r="E880" s="26"/>
+      <c r="D880" s="26">
+        <v>43669</v>
+      </c>
+      <c r="E880" s="26">
+        <v>43669</v>
+      </c>
       <c r="F880" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G880" s="14"/>
+      <c r="G880" s="14" t="s">
+        <v>705</v>
+      </c>
       <c r="H880" s="6" t="s">
         <v>11</v>
       </c>
@@ -27807,12 +27839,18 @@
       <c r="C881" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D881" s="26"/>
-      <c r="E881" s="26"/>
+      <c r="D881" s="26">
+        <v>43669</v>
+      </c>
+      <c r="E881" s="26">
+        <v>43669</v>
+      </c>
       <c r="F881" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G881" s="14"/>
+      <c r="G881" s="14" t="s">
+        <v>706</v>
+      </c>
       <c r="H881" s="6" t="s">
         <v>11</v>
       </c>
@@ -27827,12 +27865,18 @@
       <c r="C882" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D882" s="26"/>
-      <c r="E882" s="26"/>
+      <c r="D882" s="26">
+        <v>43669</v>
+      </c>
+      <c r="E882" s="26">
+        <v>43669</v>
+      </c>
       <c r="F882" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G882" s="14"/>
+      <c r="G882" s="14" t="s">
+        <v>707</v>
+      </c>
       <c r="H882" s="6" t="s">
         <v>11</v>
       </c>
@@ -27847,8 +27891,12 @@
       <c r="C883" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D883" s="26"/>
-      <c r="E883" s="26"/>
+      <c r="D883" s="26">
+        <v>43670</v>
+      </c>
+      <c r="E883" s="26">
+        <v>43670</v>
+      </c>
       <c r="F883" s="11" t="s">
         <v>240</v>
       </c>
@@ -27867,8 +27915,12 @@
       <c r="C884" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D884" s="26"/>
-      <c r="E884" s="26"/>
+      <c r="D884" s="26">
+        <v>43670</v>
+      </c>
+      <c r="E884" s="26">
+        <v>43670</v>
+      </c>
       <c r="F884" s="11" t="s">
         <v>240</v>
       </c>
@@ -27887,8 +27939,12 @@
       <c r="C885" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D885" s="26"/>
-      <c r="E885" s="26"/>
+      <c r="D885" s="26">
+        <v>43670</v>
+      </c>
+      <c r="E885" s="26">
+        <v>43670</v>
+      </c>
       <c r="F885" s="11" t="s">
         <v>240</v>
       </c>

--- a/最新周报.xlsx
+++ b/最新周报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D60CE8-9750-423F-A58D-7E2C003E8CEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF75966-E904-420A-AA10-B905A72F28AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3795" windowWidth="17940" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="456" windowWidth="21000" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="711">
   <si>
     <t>项目组周报信息表</t>
   </si>
@@ -2819,6 +2819,18 @@
   </si>
   <si>
     <t>部分意健险关注字段及探查结果-20190705 - 人保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与员员探讨交流规则编码为PRP_3rd_P_A_O_000123中问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探查保单佣金表和佣金明细信息表中kindcode中字段含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量脚本更改后，复查标的表中与citemkind表中，产品编号存在性问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3369,529 +3381,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J887"/>
+  <dimension ref="A1:J961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A869" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G883" sqref="G883"/>
+    <sheetView tabSelected="1" topLeftCell="A873" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G893" sqref="G893"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="67.375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="257" max="257" width="16.75" customWidth="1"/>
-    <col min="258" max="258" width="5.5" customWidth="1"/>
-    <col min="259" max="259" width="8.125" customWidth="1"/>
-    <col min="260" max="260" width="9.25" customWidth="1"/>
-    <col min="261" max="261" width="10.5" customWidth="1"/>
-    <col min="262" max="262" width="9.75" customWidth="1"/>
-    <col min="263" max="263" width="54.375" customWidth="1"/>
-    <col min="264" max="264" width="9.5" customWidth="1"/>
-    <col min="513" max="513" width="16.75" customWidth="1"/>
-    <col min="514" max="514" width="5.5" customWidth="1"/>
-    <col min="515" max="515" width="8.125" customWidth="1"/>
-    <col min="516" max="516" width="9.25" customWidth="1"/>
-    <col min="517" max="517" width="10.5" customWidth="1"/>
-    <col min="518" max="518" width="9.75" customWidth="1"/>
-    <col min="519" max="519" width="54.375" customWidth="1"/>
-    <col min="520" max="520" width="9.5" customWidth="1"/>
-    <col min="769" max="769" width="16.75" customWidth="1"/>
-    <col min="770" max="770" width="5.5" customWidth="1"/>
-    <col min="771" max="771" width="8.125" customWidth="1"/>
-    <col min="772" max="772" width="9.25" customWidth="1"/>
-    <col min="773" max="773" width="10.5" customWidth="1"/>
-    <col min="774" max="774" width="9.75" customWidth="1"/>
-    <col min="775" max="775" width="54.375" customWidth="1"/>
-    <col min="776" max="776" width="9.5" customWidth="1"/>
-    <col min="1025" max="1025" width="16.75" customWidth="1"/>
-    <col min="1026" max="1026" width="5.5" customWidth="1"/>
-    <col min="1027" max="1027" width="8.125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.25" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5" customWidth="1"/>
-    <col min="1030" max="1030" width="9.75" customWidth="1"/>
-    <col min="1031" max="1031" width="54.375" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5" customWidth="1"/>
-    <col min="1281" max="1281" width="16.75" customWidth="1"/>
-    <col min="1282" max="1282" width="5.5" customWidth="1"/>
-    <col min="1283" max="1283" width="8.125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.25" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5" customWidth="1"/>
-    <col min="1286" max="1286" width="9.75" customWidth="1"/>
-    <col min="1287" max="1287" width="54.375" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5" customWidth="1"/>
-    <col min="1537" max="1537" width="16.75" customWidth="1"/>
-    <col min="1538" max="1538" width="5.5" customWidth="1"/>
-    <col min="1539" max="1539" width="8.125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.25" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5" customWidth="1"/>
-    <col min="1542" max="1542" width="9.75" customWidth="1"/>
-    <col min="1543" max="1543" width="54.375" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5" customWidth="1"/>
-    <col min="1793" max="1793" width="16.75" customWidth="1"/>
-    <col min="1794" max="1794" width="5.5" customWidth="1"/>
-    <col min="1795" max="1795" width="8.125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.25" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5" customWidth="1"/>
-    <col min="1798" max="1798" width="9.75" customWidth="1"/>
-    <col min="1799" max="1799" width="54.375" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5" customWidth="1"/>
-    <col min="2049" max="2049" width="16.75" customWidth="1"/>
-    <col min="2050" max="2050" width="5.5" customWidth="1"/>
-    <col min="2051" max="2051" width="8.125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.25" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5" customWidth="1"/>
-    <col min="2054" max="2054" width="9.75" customWidth="1"/>
-    <col min="2055" max="2055" width="54.375" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5" customWidth="1"/>
-    <col min="2305" max="2305" width="16.75" customWidth="1"/>
-    <col min="2306" max="2306" width="5.5" customWidth="1"/>
-    <col min="2307" max="2307" width="8.125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.25" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5" customWidth="1"/>
-    <col min="2310" max="2310" width="9.75" customWidth="1"/>
-    <col min="2311" max="2311" width="54.375" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5" customWidth="1"/>
-    <col min="2561" max="2561" width="16.75" customWidth="1"/>
-    <col min="2562" max="2562" width="5.5" customWidth="1"/>
-    <col min="2563" max="2563" width="8.125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.25" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5" customWidth="1"/>
-    <col min="2566" max="2566" width="9.75" customWidth="1"/>
-    <col min="2567" max="2567" width="54.375" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5" customWidth="1"/>
-    <col min="2817" max="2817" width="16.75" customWidth="1"/>
-    <col min="2818" max="2818" width="5.5" customWidth="1"/>
-    <col min="2819" max="2819" width="8.125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.25" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5" customWidth="1"/>
-    <col min="2822" max="2822" width="9.75" customWidth="1"/>
-    <col min="2823" max="2823" width="54.375" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5" customWidth="1"/>
-    <col min="3073" max="3073" width="16.75" customWidth="1"/>
-    <col min="3074" max="3074" width="5.5" customWidth="1"/>
-    <col min="3075" max="3075" width="8.125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.25" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5" customWidth="1"/>
-    <col min="3078" max="3078" width="9.75" customWidth="1"/>
-    <col min="3079" max="3079" width="54.375" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5" customWidth="1"/>
-    <col min="3329" max="3329" width="16.75" customWidth="1"/>
-    <col min="3330" max="3330" width="5.5" customWidth="1"/>
-    <col min="3331" max="3331" width="8.125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.25" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5" customWidth="1"/>
-    <col min="3334" max="3334" width="9.75" customWidth="1"/>
-    <col min="3335" max="3335" width="54.375" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5" customWidth="1"/>
-    <col min="3585" max="3585" width="16.75" customWidth="1"/>
-    <col min="3586" max="3586" width="5.5" customWidth="1"/>
-    <col min="3587" max="3587" width="8.125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.25" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5" customWidth="1"/>
-    <col min="3590" max="3590" width="9.75" customWidth="1"/>
-    <col min="3591" max="3591" width="54.375" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5" customWidth="1"/>
-    <col min="3841" max="3841" width="16.75" customWidth="1"/>
-    <col min="3842" max="3842" width="5.5" customWidth="1"/>
-    <col min="3843" max="3843" width="8.125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.25" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5" customWidth="1"/>
-    <col min="3846" max="3846" width="9.75" customWidth="1"/>
-    <col min="3847" max="3847" width="54.375" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5" customWidth="1"/>
-    <col min="4097" max="4097" width="16.75" customWidth="1"/>
-    <col min="4098" max="4098" width="5.5" customWidth="1"/>
-    <col min="4099" max="4099" width="8.125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.25" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5" customWidth="1"/>
-    <col min="4102" max="4102" width="9.75" customWidth="1"/>
-    <col min="4103" max="4103" width="54.375" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5" customWidth="1"/>
-    <col min="4353" max="4353" width="16.75" customWidth="1"/>
-    <col min="4354" max="4354" width="5.5" customWidth="1"/>
-    <col min="4355" max="4355" width="8.125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.25" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5" customWidth="1"/>
-    <col min="4358" max="4358" width="9.75" customWidth="1"/>
-    <col min="4359" max="4359" width="54.375" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5" customWidth="1"/>
-    <col min="4609" max="4609" width="16.75" customWidth="1"/>
-    <col min="4610" max="4610" width="5.5" customWidth="1"/>
-    <col min="4611" max="4611" width="8.125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.25" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5" customWidth="1"/>
-    <col min="4614" max="4614" width="9.75" customWidth="1"/>
-    <col min="4615" max="4615" width="54.375" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5" customWidth="1"/>
-    <col min="4865" max="4865" width="16.75" customWidth="1"/>
-    <col min="4866" max="4866" width="5.5" customWidth="1"/>
-    <col min="4867" max="4867" width="8.125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.25" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5" customWidth="1"/>
-    <col min="4870" max="4870" width="9.75" customWidth="1"/>
-    <col min="4871" max="4871" width="54.375" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5" customWidth="1"/>
-    <col min="5121" max="5121" width="16.75" customWidth="1"/>
-    <col min="5122" max="5122" width="5.5" customWidth="1"/>
-    <col min="5123" max="5123" width="8.125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.25" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5" customWidth="1"/>
-    <col min="5126" max="5126" width="9.75" customWidth="1"/>
-    <col min="5127" max="5127" width="54.375" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5" customWidth="1"/>
-    <col min="5377" max="5377" width="16.75" customWidth="1"/>
-    <col min="5378" max="5378" width="5.5" customWidth="1"/>
-    <col min="5379" max="5379" width="8.125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.25" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5" customWidth="1"/>
-    <col min="5382" max="5382" width="9.75" customWidth="1"/>
-    <col min="5383" max="5383" width="54.375" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5" customWidth="1"/>
-    <col min="5633" max="5633" width="16.75" customWidth="1"/>
-    <col min="5634" max="5634" width="5.5" customWidth="1"/>
-    <col min="5635" max="5635" width="8.125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.25" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5" customWidth="1"/>
-    <col min="5638" max="5638" width="9.75" customWidth="1"/>
-    <col min="5639" max="5639" width="54.375" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5" customWidth="1"/>
-    <col min="5889" max="5889" width="16.75" customWidth="1"/>
-    <col min="5890" max="5890" width="5.5" customWidth="1"/>
-    <col min="5891" max="5891" width="8.125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.25" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5" customWidth="1"/>
-    <col min="5894" max="5894" width="9.75" customWidth="1"/>
-    <col min="5895" max="5895" width="54.375" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5" customWidth="1"/>
-    <col min="6145" max="6145" width="16.75" customWidth="1"/>
-    <col min="6146" max="6146" width="5.5" customWidth="1"/>
-    <col min="6147" max="6147" width="8.125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.25" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5" customWidth="1"/>
-    <col min="6150" max="6150" width="9.75" customWidth="1"/>
-    <col min="6151" max="6151" width="54.375" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5" customWidth="1"/>
-    <col min="6401" max="6401" width="16.75" customWidth="1"/>
-    <col min="6402" max="6402" width="5.5" customWidth="1"/>
-    <col min="6403" max="6403" width="8.125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.25" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5" customWidth="1"/>
-    <col min="6406" max="6406" width="9.75" customWidth="1"/>
-    <col min="6407" max="6407" width="54.375" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5" customWidth="1"/>
-    <col min="6657" max="6657" width="16.75" customWidth="1"/>
-    <col min="6658" max="6658" width="5.5" customWidth="1"/>
-    <col min="6659" max="6659" width="8.125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.25" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5" customWidth="1"/>
-    <col min="6662" max="6662" width="9.75" customWidth="1"/>
-    <col min="6663" max="6663" width="54.375" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5" customWidth="1"/>
-    <col min="6913" max="6913" width="16.75" customWidth="1"/>
-    <col min="6914" max="6914" width="5.5" customWidth="1"/>
-    <col min="6915" max="6915" width="8.125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.25" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5" customWidth="1"/>
-    <col min="6918" max="6918" width="9.75" customWidth="1"/>
-    <col min="6919" max="6919" width="54.375" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5" customWidth="1"/>
-    <col min="7169" max="7169" width="16.75" customWidth="1"/>
-    <col min="7170" max="7170" width="5.5" customWidth="1"/>
-    <col min="7171" max="7171" width="8.125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.25" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5" customWidth="1"/>
-    <col min="7174" max="7174" width="9.75" customWidth="1"/>
-    <col min="7175" max="7175" width="54.375" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5" customWidth="1"/>
-    <col min="7425" max="7425" width="16.75" customWidth="1"/>
-    <col min="7426" max="7426" width="5.5" customWidth="1"/>
-    <col min="7427" max="7427" width="8.125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.25" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5" customWidth="1"/>
-    <col min="7430" max="7430" width="9.75" customWidth="1"/>
-    <col min="7431" max="7431" width="54.375" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5" customWidth="1"/>
-    <col min="7681" max="7681" width="16.75" customWidth="1"/>
-    <col min="7682" max="7682" width="5.5" customWidth="1"/>
-    <col min="7683" max="7683" width="8.125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.25" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5" customWidth="1"/>
-    <col min="7686" max="7686" width="9.75" customWidth="1"/>
-    <col min="7687" max="7687" width="54.375" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5" customWidth="1"/>
-    <col min="7937" max="7937" width="16.75" customWidth="1"/>
-    <col min="7938" max="7938" width="5.5" customWidth="1"/>
-    <col min="7939" max="7939" width="8.125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.25" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5" customWidth="1"/>
-    <col min="7942" max="7942" width="9.75" customWidth="1"/>
-    <col min="7943" max="7943" width="54.375" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5" customWidth="1"/>
-    <col min="8193" max="8193" width="16.75" customWidth="1"/>
-    <col min="8194" max="8194" width="5.5" customWidth="1"/>
-    <col min="8195" max="8195" width="8.125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.25" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5" customWidth="1"/>
-    <col min="8198" max="8198" width="9.75" customWidth="1"/>
-    <col min="8199" max="8199" width="54.375" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5" customWidth="1"/>
-    <col min="8449" max="8449" width="16.75" customWidth="1"/>
-    <col min="8450" max="8450" width="5.5" customWidth="1"/>
-    <col min="8451" max="8451" width="8.125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.25" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5" customWidth="1"/>
-    <col min="8454" max="8454" width="9.75" customWidth="1"/>
-    <col min="8455" max="8455" width="54.375" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5" customWidth="1"/>
-    <col min="8705" max="8705" width="16.75" customWidth="1"/>
-    <col min="8706" max="8706" width="5.5" customWidth="1"/>
-    <col min="8707" max="8707" width="8.125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.25" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5" customWidth="1"/>
-    <col min="8710" max="8710" width="9.75" customWidth="1"/>
-    <col min="8711" max="8711" width="54.375" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5" customWidth="1"/>
-    <col min="8961" max="8961" width="16.75" customWidth="1"/>
-    <col min="8962" max="8962" width="5.5" customWidth="1"/>
-    <col min="8963" max="8963" width="8.125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.25" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5" customWidth="1"/>
-    <col min="8966" max="8966" width="9.75" customWidth="1"/>
-    <col min="8967" max="8967" width="54.375" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5" customWidth="1"/>
-    <col min="9217" max="9217" width="16.75" customWidth="1"/>
-    <col min="9218" max="9218" width="5.5" customWidth="1"/>
-    <col min="9219" max="9219" width="8.125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.25" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5" customWidth="1"/>
-    <col min="9222" max="9222" width="9.75" customWidth="1"/>
-    <col min="9223" max="9223" width="54.375" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5" customWidth="1"/>
-    <col min="9473" max="9473" width="16.75" customWidth="1"/>
-    <col min="9474" max="9474" width="5.5" customWidth="1"/>
-    <col min="9475" max="9475" width="8.125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.25" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5" customWidth="1"/>
-    <col min="9478" max="9478" width="9.75" customWidth="1"/>
-    <col min="9479" max="9479" width="54.375" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5" customWidth="1"/>
-    <col min="9729" max="9729" width="16.75" customWidth="1"/>
-    <col min="9730" max="9730" width="5.5" customWidth="1"/>
-    <col min="9731" max="9731" width="8.125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.25" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5" customWidth="1"/>
-    <col min="9734" max="9734" width="9.75" customWidth="1"/>
-    <col min="9735" max="9735" width="54.375" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5" customWidth="1"/>
-    <col min="9985" max="9985" width="16.75" customWidth="1"/>
-    <col min="9986" max="9986" width="5.5" customWidth="1"/>
-    <col min="9987" max="9987" width="8.125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.25" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5" customWidth="1"/>
-    <col min="9990" max="9990" width="9.75" customWidth="1"/>
-    <col min="9991" max="9991" width="54.375" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5" customWidth="1"/>
-    <col min="10241" max="10241" width="16.75" customWidth="1"/>
-    <col min="10242" max="10242" width="5.5" customWidth="1"/>
-    <col min="10243" max="10243" width="8.125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.25" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5" customWidth="1"/>
-    <col min="10246" max="10246" width="9.75" customWidth="1"/>
-    <col min="10247" max="10247" width="54.375" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5" customWidth="1"/>
-    <col min="10497" max="10497" width="16.75" customWidth="1"/>
-    <col min="10498" max="10498" width="5.5" customWidth="1"/>
-    <col min="10499" max="10499" width="8.125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.25" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5" customWidth="1"/>
-    <col min="10502" max="10502" width="9.75" customWidth="1"/>
-    <col min="10503" max="10503" width="54.375" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5" customWidth="1"/>
-    <col min="10753" max="10753" width="16.75" customWidth="1"/>
-    <col min="10754" max="10754" width="5.5" customWidth="1"/>
-    <col min="10755" max="10755" width="8.125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.25" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5" customWidth="1"/>
-    <col min="10758" max="10758" width="9.75" customWidth="1"/>
-    <col min="10759" max="10759" width="54.375" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5" customWidth="1"/>
-    <col min="11009" max="11009" width="16.75" customWidth="1"/>
-    <col min="11010" max="11010" width="5.5" customWidth="1"/>
-    <col min="11011" max="11011" width="8.125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.25" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5" customWidth="1"/>
-    <col min="11014" max="11014" width="9.75" customWidth="1"/>
-    <col min="11015" max="11015" width="54.375" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5" customWidth="1"/>
-    <col min="11265" max="11265" width="16.75" customWidth="1"/>
-    <col min="11266" max="11266" width="5.5" customWidth="1"/>
-    <col min="11267" max="11267" width="8.125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.25" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5" customWidth="1"/>
-    <col min="11270" max="11270" width="9.75" customWidth="1"/>
-    <col min="11271" max="11271" width="54.375" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5" customWidth="1"/>
-    <col min="11521" max="11521" width="16.75" customWidth="1"/>
-    <col min="11522" max="11522" width="5.5" customWidth="1"/>
-    <col min="11523" max="11523" width="8.125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.25" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5" customWidth="1"/>
-    <col min="11526" max="11526" width="9.75" customWidth="1"/>
-    <col min="11527" max="11527" width="54.375" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5" customWidth="1"/>
-    <col min="11777" max="11777" width="16.75" customWidth="1"/>
-    <col min="11778" max="11778" width="5.5" customWidth="1"/>
-    <col min="11779" max="11779" width="8.125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.25" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5" customWidth="1"/>
-    <col min="11782" max="11782" width="9.75" customWidth="1"/>
-    <col min="11783" max="11783" width="54.375" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5" customWidth="1"/>
-    <col min="12033" max="12033" width="16.75" customWidth="1"/>
-    <col min="12034" max="12034" width="5.5" customWidth="1"/>
-    <col min="12035" max="12035" width="8.125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.25" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5" customWidth="1"/>
-    <col min="12038" max="12038" width="9.75" customWidth="1"/>
-    <col min="12039" max="12039" width="54.375" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5" customWidth="1"/>
-    <col min="12289" max="12289" width="16.75" customWidth="1"/>
-    <col min="12290" max="12290" width="5.5" customWidth="1"/>
-    <col min="12291" max="12291" width="8.125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.25" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5" customWidth="1"/>
-    <col min="12294" max="12294" width="9.75" customWidth="1"/>
-    <col min="12295" max="12295" width="54.375" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5" customWidth="1"/>
-    <col min="12545" max="12545" width="16.75" customWidth="1"/>
-    <col min="12546" max="12546" width="5.5" customWidth="1"/>
-    <col min="12547" max="12547" width="8.125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.25" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5" customWidth="1"/>
-    <col min="12550" max="12550" width="9.75" customWidth="1"/>
-    <col min="12551" max="12551" width="54.375" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5" customWidth="1"/>
-    <col min="12801" max="12801" width="16.75" customWidth="1"/>
-    <col min="12802" max="12802" width="5.5" customWidth="1"/>
-    <col min="12803" max="12803" width="8.125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.25" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5" customWidth="1"/>
-    <col min="12806" max="12806" width="9.75" customWidth="1"/>
-    <col min="12807" max="12807" width="54.375" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5" customWidth="1"/>
-    <col min="13057" max="13057" width="16.75" customWidth="1"/>
-    <col min="13058" max="13058" width="5.5" customWidth="1"/>
-    <col min="13059" max="13059" width="8.125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.25" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5" customWidth="1"/>
-    <col min="13062" max="13062" width="9.75" customWidth="1"/>
-    <col min="13063" max="13063" width="54.375" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5" customWidth="1"/>
-    <col min="13313" max="13313" width="16.75" customWidth="1"/>
-    <col min="13314" max="13314" width="5.5" customWidth="1"/>
-    <col min="13315" max="13315" width="8.125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.25" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5" customWidth="1"/>
-    <col min="13318" max="13318" width="9.75" customWidth="1"/>
-    <col min="13319" max="13319" width="54.375" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5" customWidth="1"/>
-    <col min="13569" max="13569" width="16.75" customWidth="1"/>
-    <col min="13570" max="13570" width="5.5" customWidth="1"/>
-    <col min="13571" max="13571" width="8.125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.25" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5" customWidth="1"/>
-    <col min="13574" max="13574" width="9.75" customWidth="1"/>
-    <col min="13575" max="13575" width="54.375" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5" customWidth="1"/>
-    <col min="13825" max="13825" width="16.75" customWidth="1"/>
-    <col min="13826" max="13826" width="5.5" customWidth="1"/>
-    <col min="13827" max="13827" width="8.125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.25" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5" customWidth="1"/>
-    <col min="13830" max="13830" width="9.75" customWidth="1"/>
-    <col min="13831" max="13831" width="54.375" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5" customWidth="1"/>
-    <col min="14081" max="14081" width="16.75" customWidth="1"/>
-    <col min="14082" max="14082" width="5.5" customWidth="1"/>
-    <col min="14083" max="14083" width="8.125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.25" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5" customWidth="1"/>
-    <col min="14086" max="14086" width="9.75" customWidth="1"/>
-    <col min="14087" max="14087" width="54.375" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5" customWidth="1"/>
-    <col min="14337" max="14337" width="16.75" customWidth="1"/>
-    <col min="14338" max="14338" width="5.5" customWidth="1"/>
-    <col min="14339" max="14339" width="8.125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.25" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5" customWidth="1"/>
-    <col min="14342" max="14342" width="9.75" customWidth="1"/>
-    <col min="14343" max="14343" width="54.375" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5" customWidth="1"/>
-    <col min="14593" max="14593" width="16.75" customWidth="1"/>
-    <col min="14594" max="14594" width="5.5" customWidth="1"/>
-    <col min="14595" max="14595" width="8.125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.25" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5" customWidth="1"/>
-    <col min="14598" max="14598" width="9.75" customWidth="1"/>
-    <col min="14599" max="14599" width="54.375" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5" customWidth="1"/>
-    <col min="14849" max="14849" width="16.75" customWidth="1"/>
-    <col min="14850" max="14850" width="5.5" customWidth="1"/>
-    <col min="14851" max="14851" width="8.125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.25" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5" customWidth="1"/>
-    <col min="14854" max="14854" width="9.75" customWidth="1"/>
-    <col min="14855" max="14855" width="54.375" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5" customWidth="1"/>
-    <col min="15105" max="15105" width="16.75" customWidth="1"/>
-    <col min="15106" max="15106" width="5.5" customWidth="1"/>
-    <col min="15107" max="15107" width="8.125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.25" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5" customWidth="1"/>
-    <col min="15110" max="15110" width="9.75" customWidth="1"/>
-    <col min="15111" max="15111" width="54.375" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5" customWidth="1"/>
-    <col min="15361" max="15361" width="16.75" customWidth="1"/>
-    <col min="15362" max="15362" width="5.5" customWidth="1"/>
-    <col min="15363" max="15363" width="8.125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.25" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5" customWidth="1"/>
-    <col min="15366" max="15366" width="9.75" customWidth="1"/>
-    <col min="15367" max="15367" width="54.375" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5" customWidth="1"/>
-    <col min="15617" max="15617" width="16.75" customWidth="1"/>
-    <col min="15618" max="15618" width="5.5" customWidth="1"/>
-    <col min="15619" max="15619" width="8.125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.25" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5" customWidth="1"/>
-    <col min="15622" max="15622" width="9.75" customWidth="1"/>
-    <col min="15623" max="15623" width="54.375" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5" customWidth="1"/>
-    <col min="15873" max="15873" width="16.75" customWidth="1"/>
-    <col min="15874" max="15874" width="5.5" customWidth="1"/>
-    <col min="15875" max="15875" width="8.125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.25" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5" customWidth="1"/>
-    <col min="15878" max="15878" width="9.75" customWidth="1"/>
-    <col min="15879" max="15879" width="54.375" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5" customWidth="1"/>
-    <col min="16129" max="16129" width="16.75" customWidth="1"/>
-    <col min="16130" max="16130" width="5.5" customWidth="1"/>
-    <col min="16131" max="16131" width="8.125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.25" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5" customWidth="1"/>
-    <col min="16134" max="16134" width="9.75" customWidth="1"/>
-    <col min="16135" max="16135" width="54.375" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="257" max="257" width="16.77734375" customWidth="1"/>
+    <col min="258" max="258" width="5.44140625" customWidth="1"/>
+    <col min="259" max="259" width="8.109375" customWidth="1"/>
+    <col min="260" max="260" width="9.21875" customWidth="1"/>
+    <col min="261" max="261" width="10.44140625" customWidth="1"/>
+    <col min="262" max="262" width="9.77734375" customWidth="1"/>
+    <col min="263" max="263" width="54.33203125" customWidth="1"/>
+    <col min="264" max="264" width="9.44140625" customWidth="1"/>
+    <col min="513" max="513" width="16.77734375" customWidth="1"/>
+    <col min="514" max="514" width="5.44140625" customWidth="1"/>
+    <col min="515" max="515" width="8.109375" customWidth="1"/>
+    <col min="516" max="516" width="9.21875" customWidth="1"/>
+    <col min="517" max="517" width="10.44140625" customWidth="1"/>
+    <col min="518" max="518" width="9.77734375" customWidth="1"/>
+    <col min="519" max="519" width="54.33203125" customWidth="1"/>
+    <col min="520" max="520" width="9.44140625" customWidth="1"/>
+    <col min="769" max="769" width="16.77734375" customWidth="1"/>
+    <col min="770" max="770" width="5.44140625" customWidth="1"/>
+    <col min="771" max="771" width="8.109375" customWidth="1"/>
+    <col min="772" max="772" width="9.21875" customWidth="1"/>
+    <col min="773" max="773" width="10.44140625" customWidth="1"/>
+    <col min="774" max="774" width="9.77734375" customWidth="1"/>
+    <col min="775" max="775" width="54.33203125" customWidth="1"/>
+    <col min="776" max="776" width="9.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="16.77734375" customWidth="1"/>
+    <col min="1026" max="1026" width="5.44140625" customWidth="1"/>
+    <col min="1027" max="1027" width="8.109375" customWidth="1"/>
+    <col min="1028" max="1028" width="9.21875" customWidth="1"/>
+    <col min="1029" max="1029" width="10.44140625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.77734375" customWidth="1"/>
+    <col min="1031" max="1031" width="54.33203125" customWidth="1"/>
+    <col min="1032" max="1032" width="9.44140625" customWidth="1"/>
+    <col min="1281" max="1281" width="16.77734375" customWidth="1"/>
+    <col min="1282" max="1282" width="5.44140625" customWidth="1"/>
+    <col min="1283" max="1283" width="8.109375" customWidth="1"/>
+    <col min="1284" max="1284" width="9.21875" customWidth="1"/>
+    <col min="1285" max="1285" width="10.44140625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.77734375" customWidth="1"/>
+    <col min="1287" max="1287" width="54.33203125" customWidth="1"/>
+    <col min="1288" max="1288" width="9.44140625" customWidth="1"/>
+    <col min="1537" max="1537" width="16.77734375" customWidth="1"/>
+    <col min="1538" max="1538" width="5.44140625" customWidth="1"/>
+    <col min="1539" max="1539" width="8.109375" customWidth="1"/>
+    <col min="1540" max="1540" width="9.21875" customWidth="1"/>
+    <col min="1541" max="1541" width="10.44140625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.77734375" customWidth="1"/>
+    <col min="1543" max="1543" width="54.33203125" customWidth="1"/>
+    <col min="1544" max="1544" width="9.44140625" customWidth="1"/>
+    <col min="1793" max="1793" width="16.77734375" customWidth="1"/>
+    <col min="1794" max="1794" width="5.44140625" customWidth="1"/>
+    <col min="1795" max="1795" width="8.109375" customWidth="1"/>
+    <col min="1796" max="1796" width="9.21875" customWidth="1"/>
+    <col min="1797" max="1797" width="10.44140625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.77734375" customWidth="1"/>
+    <col min="1799" max="1799" width="54.33203125" customWidth="1"/>
+    <col min="1800" max="1800" width="9.44140625" customWidth="1"/>
+    <col min="2049" max="2049" width="16.77734375" customWidth="1"/>
+    <col min="2050" max="2050" width="5.44140625" customWidth="1"/>
+    <col min="2051" max="2051" width="8.109375" customWidth="1"/>
+    <col min="2052" max="2052" width="9.21875" customWidth="1"/>
+    <col min="2053" max="2053" width="10.44140625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.77734375" customWidth="1"/>
+    <col min="2055" max="2055" width="54.33203125" customWidth="1"/>
+    <col min="2056" max="2056" width="9.44140625" customWidth="1"/>
+    <col min="2305" max="2305" width="16.77734375" customWidth="1"/>
+    <col min="2306" max="2306" width="5.44140625" customWidth="1"/>
+    <col min="2307" max="2307" width="8.109375" customWidth="1"/>
+    <col min="2308" max="2308" width="9.21875" customWidth="1"/>
+    <col min="2309" max="2309" width="10.44140625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.77734375" customWidth="1"/>
+    <col min="2311" max="2311" width="54.33203125" customWidth="1"/>
+    <col min="2312" max="2312" width="9.44140625" customWidth="1"/>
+    <col min="2561" max="2561" width="16.77734375" customWidth="1"/>
+    <col min="2562" max="2562" width="5.44140625" customWidth="1"/>
+    <col min="2563" max="2563" width="8.109375" customWidth="1"/>
+    <col min="2564" max="2564" width="9.21875" customWidth="1"/>
+    <col min="2565" max="2565" width="10.44140625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.77734375" customWidth="1"/>
+    <col min="2567" max="2567" width="54.33203125" customWidth="1"/>
+    <col min="2568" max="2568" width="9.44140625" customWidth="1"/>
+    <col min="2817" max="2817" width="16.77734375" customWidth="1"/>
+    <col min="2818" max="2818" width="5.44140625" customWidth="1"/>
+    <col min="2819" max="2819" width="8.109375" customWidth="1"/>
+    <col min="2820" max="2820" width="9.21875" customWidth="1"/>
+    <col min="2821" max="2821" width="10.44140625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.77734375" customWidth="1"/>
+    <col min="2823" max="2823" width="54.33203125" customWidth="1"/>
+    <col min="2824" max="2824" width="9.44140625" customWidth="1"/>
+    <col min="3073" max="3073" width="16.77734375" customWidth="1"/>
+    <col min="3074" max="3074" width="5.44140625" customWidth="1"/>
+    <col min="3075" max="3075" width="8.109375" customWidth="1"/>
+    <col min="3076" max="3076" width="9.21875" customWidth="1"/>
+    <col min="3077" max="3077" width="10.44140625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.77734375" customWidth="1"/>
+    <col min="3079" max="3079" width="54.33203125" customWidth="1"/>
+    <col min="3080" max="3080" width="9.44140625" customWidth="1"/>
+    <col min="3329" max="3329" width="16.77734375" customWidth="1"/>
+    <col min="3330" max="3330" width="5.44140625" customWidth="1"/>
+    <col min="3331" max="3331" width="8.109375" customWidth="1"/>
+    <col min="3332" max="3332" width="9.21875" customWidth="1"/>
+    <col min="3333" max="3333" width="10.44140625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.77734375" customWidth="1"/>
+    <col min="3335" max="3335" width="54.33203125" customWidth="1"/>
+    <col min="3336" max="3336" width="9.44140625" customWidth="1"/>
+    <col min="3585" max="3585" width="16.77734375" customWidth="1"/>
+    <col min="3586" max="3586" width="5.44140625" customWidth="1"/>
+    <col min="3587" max="3587" width="8.109375" customWidth="1"/>
+    <col min="3588" max="3588" width="9.21875" customWidth="1"/>
+    <col min="3589" max="3589" width="10.44140625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.77734375" customWidth="1"/>
+    <col min="3591" max="3591" width="54.33203125" customWidth="1"/>
+    <col min="3592" max="3592" width="9.44140625" customWidth="1"/>
+    <col min="3841" max="3841" width="16.77734375" customWidth="1"/>
+    <col min="3842" max="3842" width="5.44140625" customWidth="1"/>
+    <col min="3843" max="3843" width="8.109375" customWidth="1"/>
+    <col min="3844" max="3844" width="9.21875" customWidth="1"/>
+    <col min="3845" max="3845" width="10.44140625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.77734375" customWidth="1"/>
+    <col min="3847" max="3847" width="54.33203125" customWidth="1"/>
+    <col min="3848" max="3848" width="9.44140625" customWidth="1"/>
+    <col min="4097" max="4097" width="16.77734375" customWidth="1"/>
+    <col min="4098" max="4098" width="5.44140625" customWidth="1"/>
+    <col min="4099" max="4099" width="8.109375" customWidth="1"/>
+    <col min="4100" max="4100" width="9.21875" customWidth="1"/>
+    <col min="4101" max="4101" width="10.44140625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.77734375" customWidth="1"/>
+    <col min="4103" max="4103" width="54.33203125" customWidth="1"/>
+    <col min="4104" max="4104" width="9.44140625" customWidth="1"/>
+    <col min="4353" max="4353" width="16.77734375" customWidth="1"/>
+    <col min="4354" max="4354" width="5.44140625" customWidth="1"/>
+    <col min="4355" max="4355" width="8.109375" customWidth="1"/>
+    <col min="4356" max="4356" width="9.21875" customWidth="1"/>
+    <col min="4357" max="4357" width="10.44140625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.77734375" customWidth="1"/>
+    <col min="4359" max="4359" width="54.33203125" customWidth="1"/>
+    <col min="4360" max="4360" width="9.44140625" customWidth="1"/>
+    <col min="4609" max="4609" width="16.77734375" customWidth="1"/>
+    <col min="4610" max="4610" width="5.44140625" customWidth="1"/>
+    <col min="4611" max="4611" width="8.109375" customWidth="1"/>
+    <col min="4612" max="4612" width="9.21875" customWidth="1"/>
+    <col min="4613" max="4613" width="10.44140625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.77734375" customWidth="1"/>
+    <col min="4615" max="4615" width="54.33203125" customWidth="1"/>
+    <col min="4616" max="4616" width="9.44140625" customWidth="1"/>
+    <col min="4865" max="4865" width="16.77734375" customWidth="1"/>
+    <col min="4866" max="4866" width="5.44140625" customWidth="1"/>
+    <col min="4867" max="4867" width="8.109375" customWidth="1"/>
+    <col min="4868" max="4868" width="9.21875" customWidth="1"/>
+    <col min="4869" max="4869" width="10.44140625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.77734375" customWidth="1"/>
+    <col min="4871" max="4871" width="54.33203125" customWidth="1"/>
+    <col min="4872" max="4872" width="9.44140625" customWidth="1"/>
+    <col min="5121" max="5121" width="16.77734375" customWidth="1"/>
+    <col min="5122" max="5122" width="5.44140625" customWidth="1"/>
+    <col min="5123" max="5123" width="8.109375" customWidth="1"/>
+    <col min="5124" max="5124" width="9.21875" customWidth="1"/>
+    <col min="5125" max="5125" width="10.44140625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.77734375" customWidth="1"/>
+    <col min="5127" max="5127" width="54.33203125" customWidth="1"/>
+    <col min="5128" max="5128" width="9.44140625" customWidth="1"/>
+    <col min="5377" max="5377" width="16.77734375" customWidth="1"/>
+    <col min="5378" max="5378" width="5.44140625" customWidth="1"/>
+    <col min="5379" max="5379" width="8.109375" customWidth="1"/>
+    <col min="5380" max="5380" width="9.21875" customWidth="1"/>
+    <col min="5381" max="5381" width="10.44140625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.77734375" customWidth="1"/>
+    <col min="5383" max="5383" width="54.33203125" customWidth="1"/>
+    <col min="5384" max="5384" width="9.44140625" customWidth="1"/>
+    <col min="5633" max="5633" width="16.77734375" customWidth="1"/>
+    <col min="5634" max="5634" width="5.44140625" customWidth="1"/>
+    <col min="5635" max="5635" width="8.109375" customWidth="1"/>
+    <col min="5636" max="5636" width="9.21875" customWidth="1"/>
+    <col min="5637" max="5637" width="10.44140625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.77734375" customWidth="1"/>
+    <col min="5639" max="5639" width="54.33203125" customWidth="1"/>
+    <col min="5640" max="5640" width="9.44140625" customWidth="1"/>
+    <col min="5889" max="5889" width="16.77734375" customWidth="1"/>
+    <col min="5890" max="5890" width="5.44140625" customWidth="1"/>
+    <col min="5891" max="5891" width="8.109375" customWidth="1"/>
+    <col min="5892" max="5892" width="9.21875" customWidth="1"/>
+    <col min="5893" max="5893" width="10.44140625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.77734375" customWidth="1"/>
+    <col min="5895" max="5895" width="54.33203125" customWidth="1"/>
+    <col min="5896" max="5896" width="9.44140625" customWidth="1"/>
+    <col min="6145" max="6145" width="16.77734375" customWidth="1"/>
+    <col min="6146" max="6146" width="5.44140625" customWidth="1"/>
+    <col min="6147" max="6147" width="8.109375" customWidth="1"/>
+    <col min="6148" max="6148" width="9.21875" customWidth="1"/>
+    <col min="6149" max="6149" width="10.44140625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.77734375" customWidth="1"/>
+    <col min="6151" max="6151" width="54.33203125" customWidth="1"/>
+    <col min="6152" max="6152" width="9.44140625" customWidth="1"/>
+    <col min="6401" max="6401" width="16.77734375" customWidth="1"/>
+    <col min="6402" max="6402" width="5.44140625" customWidth="1"/>
+    <col min="6403" max="6403" width="8.109375" customWidth="1"/>
+    <col min="6404" max="6404" width="9.21875" customWidth="1"/>
+    <col min="6405" max="6405" width="10.44140625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.77734375" customWidth="1"/>
+    <col min="6407" max="6407" width="54.33203125" customWidth="1"/>
+    <col min="6408" max="6408" width="9.44140625" customWidth="1"/>
+    <col min="6657" max="6657" width="16.77734375" customWidth="1"/>
+    <col min="6658" max="6658" width="5.44140625" customWidth="1"/>
+    <col min="6659" max="6659" width="8.109375" customWidth="1"/>
+    <col min="6660" max="6660" width="9.21875" customWidth="1"/>
+    <col min="6661" max="6661" width="10.44140625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.77734375" customWidth="1"/>
+    <col min="6663" max="6663" width="54.33203125" customWidth="1"/>
+    <col min="6664" max="6664" width="9.44140625" customWidth="1"/>
+    <col min="6913" max="6913" width="16.77734375" customWidth="1"/>
+    <col min="6914" max="6914" width="5.44140625" customWidth="1"/>
+    <col min="6915" max="6915" width="8.109375" customWidth="1"/>
+    <col min="6916" max="6916" width="9.21875" customWidth="1"/>
+    <col min="6917" max="6917" width="10.44140625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.77734375" customWidth="1"/>
+    <col min="6919" max="6919" width="54.33203125" customWidth="1"/>
+    <col min="6920" max="6920" width="9.44140625" customWidth="1"/>
+    <col min="7169" max="7169" width="16.77734375" customWidth="1"/>
+    <col min="7170" max="7170" width="5.44140625" customWidth="1"/>
+    <col min="7171" max="7171" width="8.109375" customWidth="1"/>
+    <col min="7172" max="7172" width="9.21875" customWidth="1"/>
+    <col min="7173" max="7173" width="10.44140625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.77734375" customWidth="1"/>
+    <col min="7175" max="7175" width="54.33203125" customWidth="1"/>
+    <col min="7176" max="7176" width="9.44140625" customWidth="1"/>
+    <col min="7425" max="7425" width="16.77734375" customWidth="1"/>
+    <col min="7426" max="7426" width="5.44140625" customWidth="1"/>
+    <col min="7427" max="7427" width="8.109375" customWidth="1"/>
+    <col min="7428" max="7428" width="9.21875" customWidth="1"/>
+    <col min="7429" max="7429" width="10.44140625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.77734375" customWidth="1"/>
+    <col min="7431" max="7431" width="54.33203125" customWidth="1"/>
+    <col min="7432" max="7432" width="9.44140625" customWidth="1"/>
+    <col min="7681" max="7681" width="16.77734375" customWidth="1"/>
+    <col min="7682" max="7682" width="5.44140625" customWidth="1"/>
+    <col min="7683" max="7683" width="8.109375" customWidth="1"/>
+    <col min="7684" max="7684" width="9.21875" customWidth="1"/>
+    <col min="7685" max="7685" width="10.44140625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.77734375" customWidth="1"/>
+    <col min="7687" max="7687" width="54.33203125" customWidth="1"/>
+    <col min="7688" max="7688" width="9.44140625" customWidth="1"/>
+    <col min="7937" max="7937" width="16.77734375" customWidth="1"/>
+    <col min="7938" max="7938" width="5.44140625" customWidth="1"/>
+    <col min="7939" max="7939" width="8.109375" customWidth="1"/>
+    <col min="7940" max="7940" width="9.21875" customWidth="1"/>
+    <col min="7941" max="7941" width="10.44140625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.77734375" customWidth="1"/>
+    <col min="7943" max="7943" width="54.33203125" customWidth="1"/>
+    <col min="7944" max="7944" width="9.44140625" customWidth="1"/>
+    <col min="8193" max="8193" width="16.77734375" customWidth="1"/>
+    <col min="8194" max="8194" width="5.44140625" customWidth="1"/>
+    <col min="8195" max="8195" width="8.109375" customWidth="1"/>
+    <col min="8196" max="8196" width="9.21875" customWidth="1"/>
+    <col min="8197" max="8197" width="10.44140625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.77734375" customWidth="1"/>
+    <col min="8199" max="8199" width="54.33203125" customWidth="1"/>
+    <col min="8200" max="8200" width="9.44140625" customWidth="1"/>
+    <col min="8449" max="8449" width="16.77734375" customWidth="1"/>
+    <col min="8450" max="8450" width="5.44140625" customWidth="1"/>
+    <col min="8451" max="8451" width="8.109375" customWidth="1"/>
+    <col min="8452" max="8452" width="9.21875" customWidth="1"/>
+    <col min="8453" max="8453" width="10.44140625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.77734375" customWidth="1"/>
+    <col min="8455" max="8455" width="54.33203125" customWidth="1"/>
+    <col min="8456" max="8456" width="9.44140625" customWidth="1"/>
+    <col min="8705" max="8705" width="16.77734375" customWidth="1"/>
+    <col min="8706" max="8706" width="5.44140625" customWidth="1"/>
+    <col min="8707" max="8707" width="8.109375" customWidth="1"/>
+    <col min="8708" max="8708" width="9.21875" customWidth="1"/>
+    <col min="8709" max="8709" width="10.44140625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.77734375" customWidth="1"/>
+    <col min="8711" max="8711" width="54.33203125" customWidth="1"/>
+    <col min="8712" max="8712" width="9.44140625" customWidth="1"/>
+    <col min="8961" max="8961" width="16.77734375" customWidth="1"/>
+    <col min="8962" max="8962" width="5.44140625" customWidth="1"/>
+    <col min="8963" max="8963" width="8.109375" customWidth="1"/>
+    <col min="8964" max="8964" width="9.21875" customWidth="1"/>
+    <col min="8965" max="8965" width="10.44140625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.77734375" customWidth="1"/>
+    <col min="8967" max="8967" width="54.33203125" customWidth="1"/>
+    <col min="8968" max="8968" width="9.44140625" customWidth="1"/>
+    <col min="9217" max="9217" width="16.77734375" customWidth="1"/>
+    <col min="9218" max="9218" width="5.44140625" customWidth="1"/>
+    <col min="9219" max="9219" width="8.109375" customWidth="1"/>
+    <col min="9220" max="9220" width="9.21875" customWidth="1"/>
+    <col min="9221" max="9221" width="10.44140625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.77734375" customWidth="1"/>
+    <col min="9223" max="9223" width="54.33203125" customWidth="1"/>
+    <col min="9224" max="9224" width="9.44140625" customWidth="1"/>
+    <col min="9473" max="9473" width="16.77734375" customWidth="1"/>
+    <col min="9474" max="9474" width="5.44140625" customWidth="1"/>
+    <col min="9475" max="9475" width="8.109375" customWidth="1"/>
+    <col min="9476" max="9476" width="9.21875" customWidth="1"/>
+    <col min="9477" max="9477" width="10.44140625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.77734375" customWidth="1"/>
+    <col min="9479" max="9479" width="54.33203125" customWidth="1"/>
+    <col min="9480" max="9480" width="9.44140625" customWidth="1"/>
+    <col min="9729" max="9729" width="16.77734375" customWidth="1"/>
+    <col min="9730" max="9730" width="5.44140625" customWidth="1"/>
+    <col min="9731" max="9731" width="8.109375" customWidth="1"/>
+    <col min="9732" max="9732" width="9.21875" customWidth="1"/>
+    <col min="9733" max="9733" width="10.44140625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.77734375" customWidth="1"/>
+    <col min="9735" max="9735" width="54.33203125" customWidth="1"/>
+    <col min="9736" max="9736" width="9.44140625" customWidth="1"/>
+    <col min="9985" max="9985" width="16.77734375" customWidth="1"/>
+    <col min="9986" max="9986" width="5.44140625" customWidth="1"/>
+    <col min="9987" max="9987" width="8.109375" customWidth="1"/>
+    <col min="9988" max="9988" width="9.21875" customWidth="1"/>
+    <col min="9989" max="9989" width="10.44140625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.77734375" customWidth="1"/>
+    <col min="9991" max="9991" width="54.33203125" customWidth="1"/>
+    <col min="9992" max="9992" width="9.44140625" customWidth="1"/>
+    <col min="10241" max="10241" width="16.77734375" customWidth="1"/>
+    <col min="10242" max="10242" width="5.44140625" customWidth="1"/>
+    <col min="10243" max="10243" width="8.109375" customWidth="1"/>
+    <col min="10244" max="10244" width="9.21875" customWidth="1"/>
+    <col min="10245" max="10245" width="10.44140625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.77734375" customWidth="1"/>
+    <col min="10247" max="10247" width="54.33203125" customWidth="1"/>
+    <col min="10248" max="10248" width="9.44140625" customWidth="1"/>
+    <col min="10497" max="10497" width="16.77734375" customWidth="1"/>
+    <col min="10498" max="10498" width="5.44140625" customWidth="1"/>
+    <col min="10499" max="10499" width="8.109375" customWidth="1"/>
+    <col min="10500" max="10500" width="9.21875" customWidth="1"/>
+    <col min="10501" max="10501" width="10.44140625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.77734375" customWidth="1"/>
+    <col min="10503" max="10503" width="54.33203125" customWidth="1"/>
+    <col min="10504" max="10504" width="9.44140625" customWidth="1"/>
+    <col min="10753" max="10753" width="16.77734375" customWidth="1"/>
+    <col min="10754" max="10754" width="5.44140625" customWidth="1"/>
+    <col min="10755" max="10755" width="8.109375" customWidth="1"/>
+    <col min="10756" max="10756" width="9.21875" customWidth="1"/>
+    <col min="10757" max="10757" width="10.44140625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.77734375" customWidth="1"/>
+    <col min="10759" max="10759" width="54.33203125" customWidth="1"/>
+    <col min="10760" max="10760" width="9.44140625" customWidth="1"/>
+    <col min="11009" max="11009" width="16.77734375" customWidth="1"/>
+    <col min="11010" max="11010" width="5.44140625" customWidth="1"/>
+    <col min="11011" max="11011" width="8.109375" customWidth="1"/>
+    <col min="11012" max="11012" width="9.21875" customWidth="1"/>
+    <col min="11013" max="11013" width="10.44140625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.77734375" customWidth="1"/>
+    <col min="11015" max="11015" width="54.33203125" customWidth="1"/>
+    <col min="11016" max="11016" width="9.44140625" customWidth="1"/>
+    <col min="11265" max="11265" width="16.77734375" customWidth="1"/>
+    <col min="11266" max="11266" width="5.44140625" customWidth="1"/>
+    <col min="11267" max="11267" width="8.109375" customWidth="1"/>
+    <col min="11268" max="11268" width="9.21875" customWidth="1"/>
+    <col min="11269" max="11269" width="10.44140625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.77734375" customWidth="1"/>
+    <col min="11271" max="11271" width="54.33203125" customWidth="1"/>
+    <col min="11272" max="11272" width="9.44140625" customWidth="1"/>
+    <col min="11521" max="11521" width="16.77734375" customWidth="1"/>
+    <col min="11522" max="11522" width="5.44140625" customWidth="1"/>
+    <col min="11523" max="11523" width="8.109375" customWidth="1"/>
+    <col min="11524" max="11524" width="9.21875" customWidth="1"/>
+    <col min="11525" max="11525" width="10.44140625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.77734375" customWidth="1"/>
+    <col min="11527" max="11527" width="54.33203125" customWidth="1"/>
+    <col min="11528" max="11528" width="9.44140625" customWidth="1"/>
+    <col min="11777" max="11777" width="16.77734375" customWidth="1"/>
+    <col min="11778" max="11778" width="5.44140625" customWidth="1"/>
+    <col min="11779" max="11779" width="8.109375" customWidth="1"/>
+    <col min="11780" max="11780" width="9.21875" customWidth="1"/>
+    <col min="11781" max="11781" width="10.44140625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.77734375" customWidth="1"/>
+    <col min="11783" max="11783" width="54.33203125" customWidth="1"/>
+    <col min="11784" max="11784" width="9.44140625" customWidth="1"/>
+    <col min="12033" max="12033" width="16.77734375" customWidth="1"/>
+    <col min="12034" max="12034" width="5.44140625" customWidth="1"/>
+    <col min="12035" max="12035" width="8.109375" customWidth="1"/>
+    <col min="12036" max="12036" width="9.21875" customWidth="1"/>
+    <col min="12037" max="12037" width="10.44140625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.77734375" customWidth="1"/>
+    <col min="12039" max="12039" width="54.33203125" customWidth="1"/>
+    <col min="12040" max="12040" width="9.44140625" customWidth="1"/>
+    <col min="12289" max="12289" width="16.77734375" customWidth="1"/>
+    <col min="12290" max="12290" width="5.44140625" customWidth="1"/>
+    <col min="12291" max="12291" width="8.109375" customWidth="1"/>
+    <col min="12292" max="12292" width="9.21875" customWidth="1"/>
+    <col min="12293" max="12293" width="10.44140625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.77734375" customWidth="1"/>
+    <col min="12295" max="12295" width="54.33203125" customWidth="1"/>
+    <col min="12296" max="12296" width="9.44140625" customWidth="1"/>
+    <col min="12545" max="12545" width="16.77734375" customWidth="1"/>
+    <col min="12546" max="12546" width="5.44140625" customWidth="1"/>
+    <col min="12547" max="12547" width="8.109375" customWidth="1"/>
+    <col min="12548" max="12548" width="9.21875" customWidth="1"/>
+    <col min="12549" max="12549" width="10.44140625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.77734375" customWidth="1"/>
+    <col min="12551" max="12551" width="54.33203125" customWidth="1"/>
+    <col min="12552" max="12552" width="9.44140625" customWidth="1"/>
+    <col min="12801" max="12801" width="16.77734375" customWidth="1"/>
+    <col min="12802" max="12802" width="5.44140625" customWidth="1"/>
+    <col min="12803" max="12803" width="8.109375" customWidth="1"/>
+    <col min="12804" max="12804" width="9.21875" customWidth="1"/>
+    <col min="12805" max="12805" width="10.44140625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.77734375" customWidth="1"/>
+    <col min="12807" max="12807" width="54.33203125" customWidth="1"/>
+    <col min="12808" max="12808" width="9.44140625" customWidth="1"/>
+    <col min="13057" max="13057" width="16.77734375" customWidth="1"/>
+    <col min="13058" max="13058" width="5.44140625" customWidth="1"/>
+    <col min="13059" max="13059" width="8.109375" customWidth="1"/>
+    <col min="13060" max="13060" width="9.21875" customWidth="1"/>
+    <col min="13061" max="13061" width="10.44140625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.77734375" customWidth="1"/>
+    <col min="13063" max="13063" width="54.33203125" customWidth="1"/>
+    <col min="13064" max="13064" width="9.44140625" customWidth="1"/>
+    <col min="13313" max="13313" width="16.77734375" customWidth="1"/>
+    <col min="13314" max="13314" width="5.44140625" customWidth="1"/>
+    <col min="13315" max="13315" width="8.109375" customWidth="1"/>
+    <col min="13316" max="13316" width="9.21875" customWidth="1"/>
+    <col min="13317" max="13317" width="10.44140625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.77734375" customWidth="1"/>
+    <col min="13319" max="13319" width="54.33203125" customWidth="1"/>
+    <col min="13320" max="13320" width="9.44140625" customWidth="1"/>
+    <col min="13569" max="13569" width="16.77734375" customWidth="1"/>
+    <col min="13570" max="13570" width="5.44140625" customWidth="1"/>
+    <col min="13571" max="13571" width="8.109375" customWidth="1"/>
+    <col min="13572" max="13572" width="9.21875" customWidth="1"/>
+    <col min="13573" max="13573" width="10.44140625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.77734375" customWidth="1"/>
+    <col min="13575" max="13575" width="54.33203125" customWidth="1"/>
+    <col min="13576" max="13576" width="9.44140625" customWidth="1"/>
+    <col min="13825" max="13825" width="16.77734375" customWidth="1"/>
+    <col min="13826" max="13826" width="5.44140625" customWidth="1"/>
+    <col min="13827" max="13827" width="8.109375" customWidth="1"/>
+    <col min="13828" max="13828" width="9.21875" customWidth="1"/>
+    <col min="13829" max="13829" width="10.44140625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.77734375" customWidth="1"/>
+    <col min="13831" max="13831" width="54.33203125" customWidth="1"/>
+    <col min="13832" max="13832" width="9.44140625" customWidth="1"/>
+    <col min="14081" max="14081" width="16.77734375" customWidth="1"/>
+    <col min="14082" max="14082" width="5.44140625" customWidth="1"/>
+    <col min="14083" max="14083" width="8.109375" customWidth="1"/>
+    <col min="14084" max="14084" width="9.21875" customWidth="1"/>
+    <col min="14085" max="14085" width="10.44140625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.77734375" customWidth="1"/>
+    <col min="14087" max="14087" width="54.33203125" customWidth="1"/>
+    <col min="14088" max="14088" width="9.44140625" customWidth="1"/>
+    <col min="14337" max="14337" width="16.77734375" customWidth="1"/>
+    <col min="14338" max="14338" width="5.44140625" customWidth="1"/>
+    <col min="14339" max="14339" width="8.109375" customWidth="1"/>
+    <col min="14340" max="14340" width="9.21875" customWidth="1"/>
+    <col min="14341" max="14341" width="10.44140625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.77734375" customWidth="1"/>
+    <col min="14343" max="14343" width="54.33203125" customWidth="1"/>
+    <col min="14344" max="14344" width="9.44140625" customWidth="1"/>
+    <col min="14593" max="14593" width="16.77734375" customWidth="1"/>
+    <col min="14594" max="14594" width="5.44140625" customWidth="1"/>
+    <col min="14595" max="14595" width="8.109375" customWidth="1"/>
+    <col min="14596" max="14596" width="9.21875" customWidth="1"/>
+    <col min="14597" max="14597" width="10.44140625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.77734375" customWidth="1"/>
+    <col min="14599" max="14599" width="54.33203125" customWidth="1"/>
+    <col min="14600" max="14600" width="9.44140625" customWidth="1"/>
+    <col min="14849" max="14849" width="16.77734375" customWidth="1"/>
+    <col min="14850" max="14850" width="5.44140625" customWidth="1"/>
+    <col min="14851" max="14851" width="8.109375" customWidth="1"/>
+    <col min="14852" max="14852" width="9.21875" customWidth="1"/>
+    <col min="14853" max="14853" width="10.44140625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.77734375" customWidth="1"/>
+    <col min="14855" max="14855" width="54.33203125" customWidth="1"/>
+    <col min="14856" max="14856" width="9.44140625" customWidth="1"/>
+    <col min="15105" max="15105" width="16.77734375" customWidth="1"/>
+    <col min="15106" max="15106" width="5.44140625" customWidth="1"/>
+    <col min="15107" max="15107" width="8.109375" customWidth="1"/>
+    <col min="15108" max="15108" width="9.21875" customWidth="1"/>
+    <col min="15109" max="15109" width="10.44140625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.77734375" customWidth="1"/>
+    <col min="15111" max="15111" width="54.33203125" customWidth="1"/>
+    <col min="15112" max="15112" width="9.44140625" customWidth="1"/>
+    <col min="15361" max="15361" width="16.77734375" customWidth="1"/>
+    <col min="15362" max="15362" width="5.44140625" customWidth="1"/>
+    <col min="15363" max="15363" width="8.109375" customWidth="1"/>
+    <col min="15364" max="15364" width="9.21875" customWidth="1"/>
+    <col min="15365" max="15365" width="10.44140625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.77734375" customWidth="1"/>
+    <col min="15367" max="15367" width="54.33203125" customWidth="1"/>
+    <col min="15368" max="15368" width="9.44140625" customWidth="1"/>
+    <col min="15617" max="15617" width="16.77734375" customWidth="1"/>
+    <col min="15618" max="15618" width="5.44140625" customWidth="1"/>
+    <col min="15619" max="15619" width="8.109375" customWidth="1"/>
+    <col min="15620" max="15620" width="9.21875" customWidth="1"/>
+    <col min="15621" max="15621" width="10.44140625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.77734375" customWidth="1"/>
+    <col min="15623" max="15623" width="54.33203125" customWidth="1"/>
+    <col min="15624" max="15624" width="9.44140625" customWidth="1"/>
+    <col min="15873" max="15873" width="16.77734375" customWidth="1"/>
+    <col min="15874" max="15874" width="5.44140625" customWidth="1"/>
+    <col min="15875" max="15875" width="8.109375" customWidth="1"/>
+    <col min="15876" max="15876" width="9.21875" customWidth="1"/>
+    <col min="15877" max="15877" width="10.44140625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.77734375" customWidth="1"/>
+    <col min="15879" max="15879" width="54.33203125" customWidth="1"/>
+    <col min="15880" max="15880" width="9.44140625" customWidth="1"/>
+    <col min="16129" max="16129" width="16.77734375" customWidth="1"/>
+    <col min="16130" max="16130" width="5.44140625" customWidth="1"/>
+    <col min="16131" max="16131" width="8.109375" customWidth="1"/>
+    <col min="16132" max="16132" width="9.21875" customWidth="1"/>
+    <col min="16133" max="16133" width="10.44140625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.77734375" customWidth="1"/>
+    <col min="16135" max="16135" width="54.33203125" customWidth="1"/>
+    <col min="16136" max="16136" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4405,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="25.2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -4513,7 +4525,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="25.2">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -4825,7 +4837,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24.75">
+    <row r="35" spans="1:10" ht="25.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -4915,7 +4927,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="25.2">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -6547,7 +6559,7 @@
       </c>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="24">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -6875,7 +6887,7 @@
       </c>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="24">
       <c r="A106" s="5" t="s">
         <v>10</v>
       </c>
@@ -7053,7 +7065,7 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="24">
       <c r="A112" s="5" t="s">
         <v>10</v>
       </c>
@@ -7785,7 +7797,7 @@
       </c>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" ht="24">
+    <row r="137" spans="1:10" ht="36">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -9129,7 +9141,7 @@
       </c>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" ht="24">
       <c r="A183" s="5" t="s">
         <v>10</v>
       </c>
@@ -10035,7 +10047,7 @@
       </c>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" ht="24">
       <c r="A215" s="5" t="s">
         <v>10</v>
       </c>
@@ -11411,7 +11423,7 @@
       </c>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" ht="24">
       <c r="A264" s="5" t="s">
         <v>10</v>
       </c>
@@ -11561,7 +11573,7 @@
       </c>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" ht="24">
       <c r="A269" s="5" t="s">
         <v>10</v>
       </c>
@@ -12233,7 +12245,7 @@
       </c>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" ht="24">
       <c r="A292" s="5" t="s">
         <v>10</v>
       </c>
@@ -12455,7 +12467,7 @@
       </c>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" ht="24">
       <c r="A300" s="5" t="s">
         <v>10</v>
       </c>
@@ -12887,7 +12899,7 @@
       <c r="I314" s="7"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" ht="24">
       <c r="A315" s="5" t="s">
         <v>10</v>
       </c>
@@ -12977,7 +12989,7 @@
       </c>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" ht="24">
       <c r="A318" s="5" t="s">
         <v>10</v>
       </c>
@@ -14051,7 +14063,7 @@
       </c>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" ht="24">
       <c r="A355" s="5" t="s">
         <v>10</v>
       </c>
@@ -14261,7 +14273,7 @@
       </c>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" ht="24">
       <c r="A362" s="5" t="s">
         <v>10</v>
       </c>
@@ -14291,7 +14303,7 @@
       </c>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="1:10" ht="36">
+    <row r="363" spans="1:10" ht="48">
       <c r="A363" s="5" t="s">
         <v>10</v>
       </c>
@@ -15223,7 +15235,7 @@
       </c>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" ht="24">
       <c r="A398" s="5" t="s">
         <v>10</v>
       </c>
@@ -15279,7 +15291,7 @@
       </c>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" ht="24">
       <c r="A400" s="5" t="s">
         <v>10</v>
       </c>
@@ -15307,7 +15319,7 @@
       </c>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" ht="24">
       <c r="A401" s="5" t="s">
         <v>10</v>
       </c>
@@ -15611,7 +15623,7 @@
       </c>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" ht="24">
       <c r="A413" s="5" t="s">
         <v>10</v>
       </c>
@@ -16083,7 +16095,7 @@
       </c>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" ht="24">
       <c r="A431" s="5" t="s">
         <v>10</v>
       </c>
@@ -16195,7 +16207,7 @@
       </c>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" ht="24">
       <c r="A435" s="5" t="s">
         <v>10</v>
       </c>
@@ -16375,7 +16387,7 @@
       </c>
       <c r="J441" s="8"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" ht="24">
       <c r="A442" s="5" t="s">
         <v>10</v>
       </c>
@@ -16403,7 +16415,7 @@
       </c>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" ht="24">
       <c r="A443" s="5" t="s">
         <v>10</v>
       </c>
@@ -16515,7 +16527,7 @@
       </c>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" ht="24">
       <c r="A447" s="5" t="s">
         <v>10</v>
       </c>
@@ -16723,7 +16735,7 @@
       </c>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" ht="24">
       <c r="A455" s="5" t="s">
         <v>10</v>
       </c>
@@ -17779,7 +17791,7 @@
       </c>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" ht="24">
       <c r="A495" s="5" t="s">
         <v>10</v>
       </c>
@@ -17807,7 +17819,7 @@
       </c>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" ht="24">
       <c r="A496" s="5" t="s">
         <v>10</v>
       </c>
@@ -18003,7 +18015,7 @@
       </c>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" ht="24">
       <c r="A503" s="5" t="s">
         <v>10</v>
       </c>
@@ -18031,7 +18043,7 @@
       </c>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" ht="24">
       <c r="A504" s="5" t="s">
         <v>10</v>
       </c>
@@ -18059,7 +18071,7 @@
       </c>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" ht="24">
       <c r="A505" s="5" t="s">
         <v>10</v>
       </c>
@@ -18087,7 +18099,7 @@
       </c>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" ht="24">
       <c r="A506" s="5" t="s">
         <v>10</v>
       </c>
@@ -18115,7 +18127,7 @@
       </c>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="1:10" ht="24">
+    <row r="507" spans="1:10" ht="36">
       <c r="A507" s="5" t="s">
         <v>10</v>
       </c>
@@ -18171,7 +18183,7 @@
       </c>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" ht="24">
       <c r="A509" s="5" t="s">
         <v>10</v>
       </c>
@@ -18671,7 +18683,7 @@
       </c>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" ht="24">
       <c r="A528" s="5" t="s">
         <v>10</v>
       </c>
@@ -19713,7 +19725,7 @@
       <c r="I567" s="7"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" ht="24">
       <c r="A568" s="5" t="s">
         <v>10</v>
       </c>
@@ -20213,7 +20225,7 @@
       <c r="I586" s="7"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" ht="24">
       <c r="A587" s="5" t="s">
         <v>10</v>
       </c>
@@ -21539,7 +21551,7 @@
       </c>
       <c r="J636" s="8"/>
     </row>
-    <row r="637" spans="1:10">
+    <row r="637" spans="1:10" ht="24">
       <c r="A637" s="5" t="s">
         <v>10</v>
       </c>
@@ -22147,7 +22159,7 @@
       </c>
       <c r="J660" s="8"/>
     </row>
-    <row r="661" spans="1:10">
+    <row r="661" spans="1:10" ht="24">
       <c r="A661" s="5" t="s">
         <v>10</v>
       </c>
@@ -23633,7 +23645,7 @@
       </c>
       <c r="J716" s="8"/>
     </row>
-    <row r="717" spans="1:10" ht="24">
+    <row r="717" spans="1:10" ht="36">
       <c r="A717" s="5" t="s">
         <v>10</v>
       </c>
@@ -23661,7 +23673,7 @@
       </c>
       <c r="J717" s="8"/>
     </row>
-    <row r="718" spans="1:10">
+    <row r="718" spans="1:10" ht="24">
       <c r="A718" s="5" t="s">
         <v>10</v>
       </c>
@@ -24049,7 +24061,7 @@
       </c>
       <c r="J732" s="8"/>
     </row>
-    <row r="733" spans="1:10" ht="24">
+    <row r="733" spans="1:10" ht="36">
       <c r="A733" s="5" t="s">
         <v>10</v>
       </c>
@@ -24263,7 +24275,7 @@
       <c r="I741" s="7"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742" spans="1:10">
+    <row r="742" spans="1:10" ht="24">
       <c r="A742" s="5" t="s">
         <v>10</v>
       </c>
@@ -25075,7 +25087,7 @@
       </c>
       <c r="J774" s="8"/>
     </row>
-    <row r="775" spans="1:10">
+    <row r="775" spans="1:10" ht="24">
       <c r="A775" s="5" t="s">
         <v>10</v>
       </c>
@@ -25103,7 +25115,7 @@
       </c>
       <c r="J775" s="8"/>
     </row>
-    <row r="776" spans="1:10">
+    <row r="776" spans="1:10" ht="24">
       <c r="A776" s="5" t="s">
         <v>10</v>
       </c>
@@ -25131,7 +25143,7 @@
       </c>
       <c r="J776" s="8"/>
     </row>
-    <row r="777" spans="1:10">
+    <row r="777" spans="1:10" ht="24">
       <c r="A777" s="5" t="s">
         <v>10</v>
       </c>
@@ -25159,7 +25171,7 @@
       </c>
       <c r="J777" s="8"/>
     </row>
-    <row r="778" spans="1:10">
+    <row r="778" spans="1:10" ht="24">
       <c r="A778" s="5" t="s">
         <v>10</v>
       </c>
@@ -25187,7 +25199,7 @@
       </c>
       <c r="J778" s="8"/>
     </row>
-    <row r="779" spans="1:10">
+    <row r="779" spans="1:10" ht="24">
       <c r="A779" s="5" t="s">
         <v>10</v>
       </c>
@@ -25215,7 +25227,7 @@
       </c>
       <c r="J779" s="8"/>
     </row>
-    <row r="780" spans="1:10">
+    <row r="780" spans="1:10" ht="24">
       <c r="A780" s="5" t="s">
         <v>10</v>
       </c>
@@ -25243,7 +25255,7 @@
       </c>
       <c r="J780" s="8"/>
     </row>
-    <row r="781" spans="1:10">
+    <row r="781" spans="1:10" ht="24">
       <c r="A781" s="5" t="s">
         <v>10</v>
       </c>
@@ -25327,7 +25339,7 @@
       </c>
       <c r="J783" s="8"/>
     </row>
-    <row r="784" spans="1:10">
+    <row r="784" spans="1:10" ht="24">
       <c r="A784" s="5" t="s">
         <v>10</v>
       </c>
@@ -27407,7 +27419,7 @@
       </c>
       <c r="J863" s="8"/>
     </row>
-    <row r="864" spans="1:10">
+    <row r="864" spans="1:10" ht="24">
       <c r="A864" s="5" t="s">
         <v>10</v>
       </c>
@@ -27779,7 +27791,7 @@
       <c r="I878" s="7"/>
       <c r="J878" s="8"/>
     </row>
-    <row r="879" spans="1:10">
+    <row r="879" spans="1:10" ht="24">
       <c r="A879" s="5" t="s">
         <v>10</v>
       </c>
@@ -27805,7 +27817,7 @@
       <c r="I879" s="7"/>
       <c r="J879" s="8"/>
     </row>
-    <row r="880" spans="1:10">
+    <row r="880" spans="1:10" ht="24">
       <c r="A880" s="5" t="s">
         <v>10</v>
       </c>
@@ -27900,7 +27912,9 @@
       <c r="F883" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G883" s="14"/>
+      <c r="G883" s="14" t="s">
+        <v>708</v>
+      </c>
       <c r="H883" s="6" t="s">
         <v>11</v>
       </c>
@@ -27924,7 +27938,9 @@
       <c r="F884" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G884" s="14"/>
+      <c r="G884" s="14" t="s">
+        <v>709</v>
+      </c>
       <c r="H884" s="6" t="s">
         <v>11</v>
       </c>
@@ -27948,7 +27964,9 @@
       <c r="F885" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G885" s="14"/>
+      <c r="G885" s="14" t="s">
+        <v>710</v>
+      </c>
       <c r="H885" s="6" t="s">
         <v>11</v>
       </c>
@@ -27963,8 +27981,12 @@
       <c r="C886" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D886" s="26"/>
-      <c r="E886" s="26"/>
+      <c r="D886" s="26">
+        <v>43671</v>
+      </c>
+      <c r="E886" s="26">
+        <v>43671</v>
+      </c>
       <c r="F886" s="11" t="s">
         <v>240</v>
       </c>
@@ -27983,8 +28005,12 @@
       <c r="C887" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D887" s="26"/>
-      <c r="E887" s="26"/>
+      <c r="D887" s="26">
+        <v>43671</v>
+      </c>
+      <c r="E887" s="26">
+        <v>43671</v>
+      </c>
       <c r="F887" s="11" t="s">
         <v>240</v>
       </c>
@@ -27994,6 +28020,1502 @@
       </c>
       <c r="I887" s="7"/>
       <c r="J887" s="8"/>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="A888" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B888" s="4"/>
+      <c r="C888" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D888" s="26">
+        <v>43671</v>
+      </c>
+      <c r="E888" s="26">
+        <v>43671</v>
+      </c>
+      <c r="F888" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G888" s="14"/>
+      <c r="H888" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I888" s="7"/>
+      <c r="J888" s="8"/>
+    </row>
+    <row r="889" spans="1:10">
+      <c r="A889" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B889" s="4"/>
+      <c r="C889" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D889" s="26">
+        <v>43672</v>
+      </c>
+      <c r="E889" s="26">
+        <v>43672</v>
+      </c>
+      <c r="F889" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G889" s="14"/>
+      <c r="H889" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I889" s="7"/>
+      <c r="J889" s="8"/>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="A890" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B890" s="4"/>
+      <c r="C890" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D890" s="26">
+        <v>43672</v>
+      </c>
+      <c r="E890" s="26">
+        <v>43672</v>
+      </c>
+      <c r="F890" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G890" s="14"/>
+      <c r="H890" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I890" s="7"/>
+      <c r="J890" s="8"/>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="A891" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B891" s="4"/>
+      <c r="C891" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D891" s="26">
+        <v>43672</v>
+      </c>
+      <c r="E891" s="26">
+        <v>43672</v>
+      </c>
+      <c r="F891" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G891" s="14"/>
+      <c r="H891" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I891" s="7"/>
+      <c r="J891" s="8"/>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="A892" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B892" s="4"/>
+      <c r="C892" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D892" s="26"/>
+      <c r="E892" s="26"/>
+      <c r="F892" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G892" s="14"/>
+      <c r="H892" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I892" s="7"/>
+      <c r="J892" s="8"/>
+    </row>
+    <row r="893" spans="1:10">
+      <c r="A893" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B893" s="4"/>
+      <c r="C893" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D893" s="26"/>
+      <c r="E893" s="26"/>
+      <c r="F893" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G893" s="14"/>
+      <c r="H893" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I893" s="7"/>
+      <c r="J893" s="8"/>
+    </row>
+    <row r="894" spans="1:10">
+      <c r="A894" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B894" s="4"/>
+      <c r="C894" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D894" s="26"/>
+      <c r="E894" s="26"/>
+      <c r="F894" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G894" s="14"/>
+      <c r="H894" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I894" s="7"/>
+      <c r="J894" s="8"/>
+    </row>
+    <row r="895" spans="1:10">
+      <c r="A895" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B895" s="4"/>
+      <c r="C895" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D895" s="26"/>
+      <c r="E895" s="26"/>
+      <c r="F895" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G895" s="14"/>
+      <c r="H895" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I895" s="7"/>
+      <c r="J895" s="8"/>
+    </row>
+    <row r="896" spans="1:10">
+      <c r="A896" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B896" s="4"/>
+      <c r="C896" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D896" s="26"/>
+      <c r="E896" s="26"/>
+      <c r="F896" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G896" s="14"/>
+      <c r="H896" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I896" s="7"/>
+      <c r="J896" s="8"/>
+    </row>
+    <row r="897" spans="1:10">
+      <c r="A897" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B897" s="4"/>
+      <c r="C897" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D897" s="26"/>
+      <c r="E897" s="26"/>
+      <c r="F897" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G897" s="14"/>
+      <c r="H897" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I897" s="7"/>
+      <c r="J897" s="8"/>
+    </row>
+    <row r="898" spans="1:10">
+      <c r="A898" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B898" s="4"/>
+      <c r="C898" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D898" s="26"/>
+      <c r="E898" s="26"/>
+      <c r="F898" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G898" s="14"/>
+      <c r="H898" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I898" s="7"/>
+      <c r="J898" s="8"/>
+    </row>
+    <row r="899" spans="1:10">
+      <c r="A899" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B899" s="4"/>
+      <c r="C899" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D899" s="26"/>
+      <c r="E899" s="26"/>
+      <c r="F899" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G899" s="14"/>
+      <c r="H899" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I899" s="7"/>
+      <c r="J899" s="8"/>
+    </row>
+    <row r="900" spans="1:10">
+      <c r="A900" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B900" s="4"/>
+      <c r="C900" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D900" s="26"/>
+      <c r="E900" s="26"/>
+      <c r="F900" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G900" s="14"/>
+      <c r="H900" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I900" s="7"/>
+      <c r="J900" s="8"/>
+    </row>
+    <row r="901" spans="1:10">
+      <c r="A901" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B901" s="4"/>
+      <c r="C901" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D901" s="26"/>
+      <c r="E901" s="26"/>
+      <c r="F901" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G901" s="14"/>
+      <c r="H901" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I901" s="7"/>
+      <c r="J901" s="8"/>
+    </row>
+    <row r="902" spans="1:10">
+      <c r="A902" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B902" s="4"/>
+      <c r="C902" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D902" s="26"/>
+      <c r="E902" s="26"/>
+      <c r="F902" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G902" s="14"/>
+      <c r="H902" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I902" s="7"/>
+      <c r="J902" s="8"/>
+    </row>
+    <row r="903" spans="1:10">
+      <c r="A903" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B903" s="4"/>
+      <c r="C903" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D903" s="26"/>
+      <c r="E903" s="26"/>
+      <c r="F903" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G903" s="14"/>
+      <c r="H903" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I903" s="7"/>
+      <c r="J903" s="8"/>
+    </row>
+    <row r="904" spans="1:10">
+      <c r="A904" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B904" s="4"/>
+      <c r="C904" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D904" s="26"/>
+      <c r="E904" s="26"/>
+      <c r="F904" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G904" s="14"/>
+      <c r="H904" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I904" s="7"/>
+      <c r="J904" s="8"/>
+    </row>
+    <row r="905" spans="1:10">
+      <c r="A905" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B905" s="4"/>
+      <c r="C905" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D905" s="26"/>
+      <c r="E905" s="26"/>
+      <c r="F905" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G905" s="14"/>
+      <c r="H905" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I905" s="7"/>
+      <c r="J905" s="8"/>
+    </row>
+    <row r="906" spans="1:10">
+      <c r="A906" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B906" s="4"/>
+      <c r="C906" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D906" s="26"/>
+      <c r="E906" s="26"/>
+      <c r="F906" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G906" s="14"/>
+      <c r="H906" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I906" s="7"/>
+      <c r="J906" s="8"/>
+    </row>
+    <row r="907" spans="1:10">
+      <c r="A907" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B907" s="4"/>
+      <c r="C907" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D907" s="26"/>
+      <c r="E907" s="26"/>
+      <c r="F907" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G907" s="14"/>
+      <c r="H907" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I907" s="7"/>
+      <c r="J907" s="8"/>
+    </row>
+    <row r="908" spans="1:10">
+      <c r="A908" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B908" s="4"/>
+      <c r="C908" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D908" s="26"/>
+      <c r="E908" s="26"/>
+      <c r="F908" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G908" s="14"/>
+      <c r="H908" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I908" s="7"/>
+      <c r="J908" s="8"/>
+    </row>
+    <row r="909" spans="1:10">
+      <c r="A909" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B909" s="4"/>
+      <c r="C909" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D909" s="26"/>
+      <c r="E909" s="26"/>
+      <c r="F909" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G909" s="14"/>
+      <c r="H909" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I909" s="7"/>
+      <c r="J909" s="8"/>
+    </row>
+    <row r="910" spans="1:10">
+      <c r="A910" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B910" s="4"/>
+      <c r="C910" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D910" s="26"/>
+      <c r="E910" s="26"/>
+      <c r="F910" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G910" s="14"/>
+      <c r="H910" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I910" s="7"/>
+      <c r="J910" s="8"/>
+    </row>
+    <row r="911" spans="1:10">
+      <c r="A911" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B911" s="4"/>
+      <c r="C911" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D911" s="26"/>
+      <c r="E911" s="26"/>
+      <c r="F911" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G911" s="14"/>
+      <c r="H911" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I911" s="7"/>
+      <c r="J911" s="8"/>
+    </row>
+    <row r="912" spans="1:10">
+      <c r="A912" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B912" s="4"/>
+      <c r="C912" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D912" s="26"/>
+      <c r="E912" s="26"/>
+      <c r="F912" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G912" s="14"/>
+      <c r="H912" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I912" s="7"/>
+      <c r="J912" s="8"/>
+    </row>
+    <row r="913" spans="1:10">
+      <c r="A913" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B913" s="4"/>
+      <c r="C913" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D913" s="26"/>
+      <c r="E913" s="26"/>
+      <c r="F913" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G913" s="14"/>
+      <c r="H913" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I913" s="7"/>
+      <c r="J913" s="8"/>
+    </row>
+    <row r="914" spans="1:10">
+      <c r="A914" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B914" s="4"/>
+      <c r="C914" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D914" s="26"/>
+      <c r="E914" s="26"/>
+      <c r="F914" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G914" s="14"/>
+      <c r="H914" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I914" s="7"/>
+      <c r="J914" s="8"/>
+    </row>
+    <row r="915" spans="1:10">
+      <c r="A915" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B915" s="4"/>
+      <c r="C915" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D915" s="26"/>
+      <c r="E915" s="26"/>
+      <c r="F915" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G915" s="14"/>
+      <c r="H915" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I915" s="7"/>
+      <c r="J915" s="8"/>
+    </row>
+    <row r="916" spans="1:10">
+      <c r="A916" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B916" s="4"/>
+      <c r="C916" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D916" s="26"/>
+      <c r="E916" s="26"/>
+      <c r="F916" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G916" s="14"/>
+      <c r="H916" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I916" s="7"/>
+      <c r="J916" s="8"/>
+    </row>
+    <row r="917" spans="1:10">
+      <c r="A917" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B917" s="4"/>
+      <c r="C917" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D917" s="26"/>
+      <c r="E917" s="26"/>
+      <c r="F917" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G917" s="14"/>
+      <c r="H917" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I917" s="7"/>
+      <c r="J917" s="8"/>
+    </row>
+    <row r="918" spans="1:10">
+      <c r="A918" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B918" s="4"/>
+      <c r="C918" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D918" s="26"/>
+      <c r="E918" s="26"/>
+      <c r="F918" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G918" s="14"/>
+      <c r="H918" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I918" s="7"/>
+      <c r="J918" s="8"/>
+    </row>
+    <row r="919" spans="1:10">
+      <c r="A919" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B919" s="4"/>
+      <c r="C919" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D919" s="26"/>
+      <c r="E919" s="26"/>
+      <c r="F919" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G919" s="14"/>
+      <c r="H919" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I919" s="7"/>
+      <c r="J919" s="8"/>
+    </row>
+    <row r="920" spans="1:10">
+      <c r="A920" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B920" s="4"/>
+      <c r="C920" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D920" s="26"/>
+      <c r="E920" s="26"/>
+      <c r="F920" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G920" s="14"/>
+      <c r="H920" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I920" s="7"/>
+      <c r="J920" s="8"/>
+    </row>
+    <row r="921" spans="1:10">
+      <c r="A921" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B921" s="4"/>
+      <c r="C921" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D921" s="26"/>
+      <c r="E921" s="26"/>
+      <c r="F921" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G921" s="14"/>
+      <c r="H921" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I921" s="7"/>
+      <c r="J921" s="8"/>
+    </row>
+    <row r="922" spans="1:10">
+      <c r="A922" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B922" s="4"/>
+      <c r="C922" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D922" s="26"/>
+      <c r="E922" s="26"/>
+      <c r="F922" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G922" s="14"/>
+      <c r="H922" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I922" s="7"/>
+      <c r="J922" s="8"/>
+    </row>
+    <row r="923" spans="1:10">
+      <c r="A923" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B923" s="4"/>
+      <c r="C923" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D923" s="26"/>
+      <c r="E923" s="26"/>
+      <c r="F923" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G923" s="14"/>
+      <c r="H923" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I923" s="7"/>
+      <c r="J923" s="8"/>
+    </row>
+    <row r="924" spans="1:10">
+      <c r="A924" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B924" s="4"/>
+      <c r="C924" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D924" s="26"/>
+      <c r="E924" s="26"/>
+      <c r="F924" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G924" s="14"/>
+      <c r="H924" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I924" s="7"/>
+      <c r="J924" s="8"/>
+    </row>
+    <row r="925" spans="1:10">
+      <c r="A925" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B925" s="4"/>
+      <c r="C925" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D925" s="26"/>
+      <c r="E925" s="26"/>
+      <c r="F925" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G925" s="14"/>
+      <c r="H925" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I925" s="7"/>
+      <c r="J925" s="8"/>
+    </row>
+    <row r="926" spans="1:10">
+      <c r="A926" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B926" s="4"/>
+      <c r="C926" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D926" s="26"/>
+      <c r="E926" s="26"/>
+      <c r="F926" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G926" s="14"/>
+      <c r="H926" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I926" s="7"/>
+      <c r="J926" s="8"/>
+    </row>
+    <row r="927" spans="1:10">
+      <c r="A927" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B927" s="4"/>
+      <c r="C927" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D927" s="26"/>
+      <c r="E927" s="26"/>
+      <c r="F927" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G927" s="14"/>
+      <c r="H927" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I927" s="7"/>
+      <c r="J927" s="8"/>
+    </row>
+    <row r="928" spans="1:10">
+      <c r="A928" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B928" s="4"/>
+      <c r="C928" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D928" s="26"/>
+      <c r="E928" s="26"/>
+      <c r="F928" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G928" s="14"/>
+      <c r="H928" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I928" s="7"/>
+      <c r="J928" s="8"/>
+    </row>
+    <row r="929" spans="1:10">
+      <c r="A929" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B929" s="4"/>
+      <c r="C929" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D929" s="26"/>
+      <c r="E929" s="26"/>
+      <c r="F929" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G929" s="14"/>
+      <c r="H929" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I929" s="7"/>
+      <c r="J929" s="8"/>
+    </row>
+    <row r="930" spans="1:10">
+      <c r="A930" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B930" s="4"/>
+      <c r="C930" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D930" s="26"/>
+      <c r="E930" s="26"/>
+      <c r="F930" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G930" s="14"/>
+      <c r="H930" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I930" s="7"/>
+      <c r="J930" s="8"/>
+    </row>
+    <row r="931" spans="1:10">
+      <c r="A931" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B931" s="4"/>
+      <c r="C931" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D931" s="26"/>
+      <c r="E931" s="26"/>
+      <c r="F931" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G931" s="14"/>
+      <c r="H931" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I931" s="7"/>
+      <c r="J931" s="8"/>
+    </row>
+    <row r="932" spans="1:10">
+      <c r="A932" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B932" s="4"/>
+      <c r="C932" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D932" s="26"/>
+      <c r="E932" s="26"/>
+      <c r="F932" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G932" s="14"/>
+      <c r="H932" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I932" s="7"/>
+      <c r="J932" s="8"/>
+    </row>
+    <row r="933" spans="1:10">
+      <c r="A933" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B933" s="4"/>
+      <c r="C933" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D933" s="26"/>
+      <c r="E933" s="26"/>
+      <c r="F933" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G933" s="14"/>
+      <c r="H933" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I933" s="7"/>
+      <c r="J933" s="8"/>
+    </row>
+    <row r="934" spans="1:10">
+      <c r="A934" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B934" s="4"/>
+      <c r="C934" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D934" s="26"/>
+      <c r="E934" s="26"/>
+      <c r="F934" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G934" s="14"/>
+      <c r="H934" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I934" s="7"/>
+      <c r="J934" s="8"/>
+    </row>
+    <row r="935" spans="1:10">
+      <c r="A935" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B935" s="4"/>
+      <c r="C935" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D935" s="26"/>
+      <c r="E935" s="26"/>
+      <c r="F935" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G935" s="14"/>
+      <c r="H935" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I935" s="7"/>
+      <c r="J935" s="8"/>
+    </row>
+    <row r="936" spans="1:10">
+      <c r="A936" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B936" s="4"/>
+      <c r="C936" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D936" s="26"/>
+      <c r="E936" s="26"/>
+      <c r="F936" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G936" s="14"/>
+      <c r="H936" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I936" s="7"/>
+      <c r="J936" s="8"/>
+    </row>
+    <row r="937" spans="1:10">
+      <c r="A937" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B937" s="4"/>
+      <c r="C937" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D937" s="26"/>
+      <c r="E937" s="26"/>
+      <c r="F937" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G937" s="14"/>
+      <c r="H937" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I937" s="7"/>
+      <c r="J937" s="8"/>
+    </row>
+    <row r="938" spans="1:10">
+      <c r="A938" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B938" s="4"/>
+      <c r="C938" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D938" s="26"/>
+      <c r="E938" s="26"/>
+      <c r="F938" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G938" s="14"/>
+      <c r="H938" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I938" s="7"/>
+      <c r="J938" s="8"/>
+    </row>
+    <row r="939" spans="1:10">
+      <c r="A939" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B939" s="4"/>
+      <c r="C939" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D939" s="26"/>
+      <c r="E939" s="26"/>
+      <c r="F939" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G939" s="14"/>
+      <c r="H939" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I939" s="7"/>
+      <c r="J939" s="8"/>
+    </row>
+    <row r="940" spans="1:10">
+      <c r="A940" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B940" s="4"/>
+      <c r="C940" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D940" s="26"/>
+      <c r="E940" s="26"/>
+      <c r="F940" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G940" s="14"/>
+      <c r="H940" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I940" s="7"/>
+      <c r="J940" s="8"/>
+    </row>
+    <row r="941" spans="1:10">
+      <c r="A941" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B941" s="4"/>
+      <c r="C941" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D941" s="26"/>
+      <c r="E941" s="26"/>
+      <c r="F941" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G941" s="14"/>
+      <c r="H941" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I941" s="7"/>
+      <c r="J941" s="8"/>
+    </row>
+    <row r="942" spans="1:10">
+      <c r="A942" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B942" s="4"/>
+      <c r="C942" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D942" s="26"/>
+      <c r="E942" s="26"/>
+      <c r="F942" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G942" s="14"/>
+      <c r="H942" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I942" s="7"/>
+      <c r="J942" s="8"/>
+    </row>
+    <row r="943" spans="1:10">
+      <c r="A943" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B943" s="4"/>
+      <c r="C943" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D943" s="26"/>
+      <c r="E943" s="26"/>
+      <c r="F943" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G943" s="14"/>
+      <c r="H943" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I943" s="7"/>
+      <c r="J943" s="8"/>
+    </row>
+    <row r="944" spans="1:10">
+      <c r="A944" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B944" s="4"/>
+      <c r="C944" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D944" s="26"/>
+      <c r="E944" s="26"/>
+      <c r="F944" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G944" s="14"/>
+      <c r="H944" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I944" s="7"/>
+      <c r="J944" s="8"/>
+    </row>
+    <row r="945" spans="1:10">
+      <c r="A945" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B945" s="4"/>
+      <c r="C945" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D945" s="26"/>
+      <c r="E945" s="26"/>
+      <c r="F945" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G945" s="14"/>
+      <c r="H945" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I945" s="7"/>
+      <c r="J945" s="8"/>
+    </row>
+    <row r="946" spans="1:10">
+      <c r="A946" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B946" s="4"/>
+      <c r="C946" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D946" s="26"/>
+      <c r="E946" s="26"/>
+      <c r="F946" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G946" s="14"/>
+      <c r="H946" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I946" s="7"/>
+      <c r="J946" s="8"/>
+    </row>
+    <row r="947" spans="1:10">
+      <c r="A947" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B947" s="4"/>
+      <c r="C947" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D947" s="26"/>
+      <c r="E947" s="26"/>
+      <c r="F947" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G947" s="14"/>
+      <c r="H947" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I947" s="7"/>
+      <c r="J947" s="8"/>
+    </row>
+    <row r="948" spans="1:10">
+      <c r="A948" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B948" s="4"/>
+      <c r="C948" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D948" s="26"/>
+      <c r="E948" s="26"/>
+      <c r="F948" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G948" s="14"/>
+      <c r="H948" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I948" s="7"/>
+      <c r="J948" s="8"/>
+    </row>
+    <row r="949" spans="1:10">
+      <c r="A949" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B949" s="4"/>
+      <c r="C949" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D949" s="26"/>
+      <c r="E949" s="26"/>
+      <c r="F949" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G949" s="14"/>
+      <c r="H949" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I949" s="7"/>
+      <c r="J949" s="8"/>
+    </row>
+    <row r="950" spans="1:10">
+      <c r="A950" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B950" s="4"/>
+      <c r="C950" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D950" s="26"/>
+      <c r="E950" s="26"/>
+      <c r="F950" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G950" s="14"/>
+      <c r="H950" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I950" s="7"/>
+      <c r="J950" s="8"/>
+    </row>
+    <row r="951" spans="1:10">
+      <c r="A951" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B951" s="4"/>
+      <c r="C951" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D951" s="26"/>
+      <c r="E951" s="26"/>
+      <c r="F951" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G951" s="14"/>
+      <c r="H951" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I951" s="7"/>
+      <c r="J951" s="8"/>
+    </row>
+    <row r="952" spans="1:10">
+      <c r="A952" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B952" s="4"/>
+      <c r="C952" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D952" s="26"/>
+      <c r="E952" s="26"/>
+      <c r="F952" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G952" s="14"/>
+      <c r="H952" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I952" s="7"/>
+      <c r="J952" s="8"/>
+    </row>
+    <row r="953" spans="1:10">
+      <c r="A953" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B953" s="4"/>
+      <c r="C953" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D953" s="26"/>
+      <c r="E953" s="26"/>
+      <c r="F953" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G953" s="14"/>
+      <c r="H953" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I953" s="7"/>
+      <c r="J953" s="8"/>
+    </row>
+    <row r="954" spans="1:10">
+      <c r="A954" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B954" s="4"/>
+      <c r="C954" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D954" s="26"/>
+      <c r="E954" s="26"/>
+      <c r="F954" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G954" s="14"/>
+      <c r="H954" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I954" s="7"/>
+      <c r="J954" s="8"/>
+    </row>
+    <row r="955" spans="1:10">
+      <c r="A955" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B955" s="4"/>
+      <c r="C955" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D955" s="26"/>
+      <c r="E955" s="26"/>
+      <c r="F955" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G955" s="14"/>
+      <c r="H955" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I955" s="7"/>
+      <c r="J955" s="8"/>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B956" s="4"/>
+      <c r="C956" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D956" s="26"/>
+      <c r="E956" s="26"/>
+      <c r="F956" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G956" s="14"/>
+      <c r="H956" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I956" s="7"/>
+      <c r="J956" s="8"/>
+    </row>
+    <row r="957" spans="1:10">
+      <c r="A957" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B957" s="4"/>
+      <c r="C957" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D957" s="26"/>
+      <c r="E957" s="26"/>
+      <c r="F957" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G957" s="14"/>
+      <c r="H957" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I957" s="7"/>
+      <c r="J957" s="8"/>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B958" s="4"/>
+      <c r="C958" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D958" s="26"/>
+      <c r="E958" s="26"/>
+      <c r="F958" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G958" s="14"/>
+      <c r="H958" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I958" s="7"/>
+      <c r="J958" s="8"/>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B959" s="4"/>
+      <c r="C959" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D959" s="26"/>
+      <c r="E959" s="26"/>
+      <c r="F959" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G959" s="14"/>
+      <c r="H959" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I959" s="7"/>
+      <c r="J959" s="8"/>
+    </row>
+    <row r="960" spans="1:10">
+      <c r="A960" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B960" s="4"/>
+      <c r="C960" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D960" s="26"/>
+      <c r="E960" s="26"/>
+      <c r="F960" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G960" s="14"/>
+      <c r="H960" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I960" s="7"/>
+      <c r="J960" s="8"/>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B961" s="4"/>
+      <c r="C961" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D961" s="26"/>
+      <c r="E961" s="26"/>
+      <c r="F961" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G961" s="14"/>
+      <c r="H961" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I961" s="7"/>
+      <c r="J961" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28004,10 +29526,10 @@
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131181:C131197 IY65645:IY65661 SU65645:SU65661 ACQ65645:ACQ65661 AMM65645:AMM65661 AWI65645:AWI65661 BGE65645:BGE65661 BQA65645:BQA65661 BZW65645:BZW65661 CJS65645:CJS65661 CTO65645:CTO65661 DDK65645:DDK65661 DNG65645:DNG65661 DXC65645:DXC65661 EGY65645:EGY65661 EQU65645:EQU65661 FAQ65645:FAQ65661 FKM65645:FKM65661 FUI65645:FUI65661 GEE65645:GEE65661 GOA65645:GOA65661 GXW65645:GXW65661 HHS65645:HHS65661 HRO65645:HRO65661 IBK65645:IBK65661 ILG65645:ILG65661 IVC65645:IVC65661 JEY65645:JEY65661 JOU65645:JOU65661 JYQ65645:JYQ65661 KIM65645:KIM65661 KSI65645:KSI65661 LCE65645:LCE65661 LMA65645:LMA65661 LVW65645:LVW65661 MFS65645:MFS65661 MPO65645:MPO65661 MZK65645:MZK65661 NJG65645:NJG65661 NTC65645:NTC65661 OCY65645:OCY65661 OMU65645:OMU65661 OWQ65645:OWQ65661 PGM65645:PGM65661 PQI65645:PQI65661 QAE65645:QAE65661 QKA65645:QKA65661 QTW65645:QTW65661 RDS65645:RDS65661 RNO65645:RNO65661 RXK65645:RXK65661 SHG65645:SHG65661 SRC65645:SRC65661 TAY65645:TAY65661 TKU65645:TKU65661 TUQ65645:TUQ65661 UEM65645:UEM65661 UOI65645:UOI65661 UYE65645:UYE65661 VIA65645:VIA65661 VRW65645:VRW65661 WBS65645:WBS65661 WLO65645:WLO65661 WVK65645:WVK65661 C196717:C196733 IY131181:IY131197 SU131181:SU131197 ACQ131181:ACQ131197 AMM131181:AMM131197 AWI131181:AWI131197 BGE131181:BGE131197 BQA131181:BQA131197 BZW131181:BZW131197 CJS131181:CJS131197 CTO131181:CTO131197 DDK131181:DDK131197 DNG131181:DNG131197 DXC131181:DXC131197 EGY131181:EGY131197 EQU131181:EQU131197 FAQ131181:FAQ131197 FKM131181:FKM131197 FUI131181:FUI131197 GEE131181:GEE131197 GOA131181:GOA131197 GXW131181:GXW131197 HHS131181:HHS131197 HRO131181:HRO131197 IBK131181:IBK131197 ILG131181:ILG131197 IVC131181:IVC131197 JEY131181:JEY131197 JOU131181:JOU131197 JYQ131181:JYQ131197 KIM131181:KIM131197 KSI131181:KSI131197 LCE131181:LCE131197 LMA131181:LMA131197 LVW131181:LVW131197 MFS131181:MFS131197 MPO131181:MPO131197 MZK131181:MZK131197 NJG131181:NJG131197 NTC131181:NTC131197 OCY131181:OCY131197 OMU131181:OMU131197 OWQ131181:OWQ131197 PGM131181:PGM131197 PQI131181:PQI131197 QAE131181:QAE131197 QKA131181:QKA131197 QTW131181:QTW131197 RDS131181:RDS131197 RNO131181:RNO131197 RXK131181:RXK131197 SHG131181:SHG131197 SRC131181:SRC131197 TAY131181:TAY131197 TKU131181:TKU131197 TUQ131181:TUQ131197 UEM131181:UEM131197 UOI131181:UOI131197 UYE131181:UYE131197 VIA131181:VIA131197 VRW131181:VRW131197 WBS131181:WBS131197 WLO131181:WLO131197 WVK131181:WVK131197 C262253:C262269 IY196717:IY196733 SU196717:SU196733 ACQ196717:ACQ196733 AMM196717:AMM196733 AWI196717:AWI196733 BGE196717:BGE196733 BQA196717:BQA196733 BZW196717:BZW196733 CJS196717:CJS196733 CTO196717:CTO196733 DDK196717:DDK196733 DNG196717:DNG196733 DXC196717:DXC196733 EGY196717:EGY196733 EQU196717:EQU196733 FAQ196717:FAQ196733 FKM196717:FKM196733 FUI196717:FUI196733 GEE196717:GEE196733 GOA196717:GOA196733 GXW196717:GXW196733 HHS196717:HHS196733 HRO196717:HRO196733 IBK196717:IBK196733 ILG196717:ILG196733 IVC196717:IVC196733 JEY196717:JEY196733 JOU196717:JOU196733 JYQ196717:JYQ196733 KIM196717:KIM196733 KSI196717:KSI196733 LCE196717:LCE196733 LMA196717:LMA196733 LVW196717:LVW196733 MFS196717:MFS196733 MPO196717:MPO196733 MZK196717:MZK196733 NJG196717:NJG196733 NTC196717:NTC196733 OCY196717:OCY196733 OMU196717:OMU196733 OWQ196717:OWQ196733 PGM196717:PGM196733 PQI196717:PQI196733 QAE196717:QAE196733 QKA196717:QKA196733 QTW196717:QTW196733 RDS196717:RDS196733 RNO196717:RNO196733 RXK196717:RXK196733 SHG196717:SHG196733 SRC196717:SRC196733 TAY196717:TAY196733 TKU196717:TKU196733 TUQ196717:TUQ196733 UEM196717:UEM196733 UOI196717:UOI196733 UYE196717:UYE196733 VIA196717:VIA196733 VRW196717:VRW196733 WBS196717:WBS196733 WLO196717:WLO196733 WVK196717:WVK196733 C327789:C327805 IY262253:IY262269 SU262253:SU262269 ACQ262253:ACQ262269 AMM262253:AMM262269 AWI262253:AWI262269 BGE262253:BGE262269 BQA262253:BQA262269 BZW262253:BZW262269 CJS262253:CJS262269 CTO262253:CTO262269 DDK262253:DDK262269 DNG262253:DNG262269 DXC262253:DXC262269 EGY262253:EGY262269 EQU262253:EQU262269 FAQ262253:FAQ262269 FKM262253:FKM262269 FUI262253:FUI262269 GEE262253:GEE262269 GOA262253:GOA262269 GXW262253:GXW262269 HHS262253:HHS262269 HRO262253:HRO262269 IBK262253:IBK262269 ILG262253:ILG262269 IVC262253:IVC262269 JEY262253:JEY262269 JOU262253:JOU262269 JYQ262253:JYQ262269 KIM262253:KIM262269 KSI262253:KSI262269 LCE262253:LCE262269 LMA262253:LMA262269 LVW262253:LVW262269 MFS262253:MFS262269 MPO262253:MPO262269 MZK262253:MZK262269 NJG262253:NJG262269 NTC262253:NTC262269 OCY262253:OCY262269 OMU262253:OMU262269 OWQ262253:OWQ262269 PGM262253:PGM262269 PQI262253:PQI262269 QAE262253:QAE262269 QKA262253:QKA262269 QTW262253:QTW262269 RDS262253:RDS262269 RNO262253:RNO262269 RXK262253:RXK262269 SHG262253:SHG262269 SRC262253:SRC262269 TAY262253:TAY262269 TKU262253:TKU262269 TUQ262253:TUQ262269 UEM262253:UEM262269 UOI262253:UOI262269 UYE262253:UYE262269 VIA262253:VIA262269 VRW262253:VRW262269 WBS262253:WBS262269 WLO262253:WLO262269 WVK262253:WVK262269 C393325:C393341 IY327789:IY327805 SU327789:SU327805 ACQ327789:ACQ327805 AMM327789:AMM327805 AWI327789:AWI327805 BGE327789:BGE327805 BQA327789:BQA327805 BZW327789:BZW327805 CJS327789:CJS327805 CTO327789:CTO327805 DDK327789:DDK327805 DNG327789:DNG327805 DXC327789:DXC327805 EGY327789:EGY327805 EQU327789:EQU327805 FAQ327789:FAQ327805 FKM327789:FKM327805 FUI327789:FUI327805 GEE327789:GEE327805 GOA327789:GOA327805 GXW327789:GXW327805 HHS327789:HHS327805 HRO327789:HRO327805 IBK327789:IBK327805 ILG327789:ILG327805 IVC327789:IVC327805 JEY327789:JEY327805 JOU327789:JOU327805 JYQ327789:JYQ327805 KIM327789:KIM327805 KSI327789:KSI327805 LCE327789:LCE327805 LMA327789:LMA327805 LVW327789:LVW327805 MFS327789:MFS327805 MPO327789:MPO327805 MZK327789:MZK327805 NJG327789:NJG327805 NTC327789:NTC327805 OCY327789:OCY327805 OMU327789:OMU327805 OWQ327789:OWQ327805 PGM327789:PGM327805 PQI327789:PQI327805 QAE327789:QAE327805 QKA327789:QKA327805 QTW327789:QTW327805 RDS327789:RDS327805 RNO327789:RNO327805 RXK327789:RXK327805 SHG327789:SHG327805 SRC327789:SRC327805 TAY327789:TAY327805 TKU327789:TKU327805 TUQ327789:TUQ327805 UEM327789:UEM327805 UOI327789:UOI327805 UYE327789:UYE327805 VIA327789:VIA327805 VRW327789:VRW327805 WBS327789:WBS327805 WLO327789:WLO327805 WVK327789:WVK327805 C458861:C458877 IY393325:IY393341 SU393325:SU393341 ACQ393325:ACQ393341 AMM393325:AMM393341 AWI393325:AWI393341 BGE393325:BGE393341 BQA393325:BQA393341 BZW393325:BZW393341 CJS393325:CJS393341 CTO393325:CTO393341 DDK393325:DDK393341 DNG393325:DNG393341 DXC393325:DXC393341 EGY393325:EGY393341 EQU393325:EQU393341 FAQ393325:FAQ393341 FKM393325:FKM393341 FUI393325:FUI393341 GEE393325:GEE393341 GOA393325:GOA393341 GXW393325:GXW393341 HHS393325:HHS393341 HRO393325:HRO393341 IBK393325:IBK393341 ILG393325:ILG393341 IVC393325:IVC393341 JEY393325:JEY393341 JOU393325:JOU393341 JYQ393325:JYQ393341 KIM393325:KIM393341 KSI393325:KSI393341 LCE393325:LCE393341 LMA393325:LMA393341 LVW393325:LVW393341 MFS393325:MFS393341 MPO393325:MPO393341 MZK393325:MZK393341 NJG393325:NJG393341 NTC393325:NTC393341 OCY393325:OCY393341 OMU393325:OMU393341 OWQ393325:OWQ393341 PGM393325:PGM393341 PQI393325:PQI393341 QAE393325:QAE393341 QKA393325:QKA393341 QTW393325:QTW393341 RDS393325:RDS393341 RNO393325:RNO393341 RXK393325:RXK393341 SHG393325:SHG393341 SRC393325:SRC393341 TAY393325:TAY393341 TKU393325:TKU393341 TUQ393325:TUQ393341 UEM393325:UEM393341 UOI393325:UOI393341 UYE393325:UYE393341 VIA393325:VIA393341 VRW393325:VRW393341 WBS393325:WBS393341 WLO393325:WLO393341 WVK393325:WVK393341 C524397:C524413 IY458861:IY458877 SU458861:SU458877 ACQ458861:ACQ458877 AMM458861:AMM458877 AWI458861:AWI458877 BGE458861:BGE458877 BQA458861:BQA458877 BZW458861:BZW458877 CJS458861:CJS458877 CTO458861:CTO458877 DDK458861:DDK458877 DNG458861:DNG458877 DXC458861:DXC458877 EGY458861:EGY458877 EQU458861:EQU458877 FAQ458861:FAQ458877 FKM458861:FKM458877 FUI458861:FUI458877 GEE458861:GEE458877 GOA458861:GOA458877 GXW458861:GXW458877 HHS458861:HHS458877 HRO458861:HRO458877 IBK458861:IBK458877 ILG458861:ILG458877 IVC458861:IVC458877 JEY458861:JEY458877 JOU458861:JOU458877 JYQ458861:JYQ458877 KIM458861:KIM458877 KSI458861:KSI458877 LCE458861:LCE458877 LMA458861:LMA458877 LVW458861:LVW458877 MFS458861:MFS458877 MPO458861:MPO458877 MZK458861:MZK458877 NJG458861:NJG458877 NTC458861:NTC458877 OCY458861:OCY458877 OMU458861:OMU458877 OWQ458861:OWQ458877 PGM458861:PGM458877 PQI458861:PQI458877 QAE458861:QAE458877 QKA458861:QKA458877 QTW458861:QTW458877 RDS458861:RDS458877 RNO458861:RNO458877 RXK458861:RXK458877 SHG458861:SHG458877 SRC458861:SRC458877 TAY458861:TAY458877 TKU458861:TKU458877 TUQ458861:TUQ458877 UEM458861:UEM458877 UOI458861:UOI458877 UYE458861:UYE458877 VIA458861:VIA458877 VRW458861:VRW458877 WBS458861:WBS458877 WLO458861:WLO458877 WVK458861:WVK458877 C589933:C589949 IY524397:IY524413 SU524397:SU524413 ACQ524397:ACQ524413 AMM524397:AMM524413 AWI524397:AWI524413 BGE524397:BGE524413 BQA524397:BQA524413 BZW524397:BZW524413 CJS524397:CJS524413 CTO524397:CTO524413 DDK524397:DDK524413 DNG524397:DNG524413 DXC524397:DXC524413 EGY524397:EGY524413 EQU524397:EQU524413 FAQ524397:FAQ524413 FKM524397:FKM524413 FUI524397:FUI524413 GEE524397:GEE524413 GOA524397:GOA524413 GXW524397:GXW524413 HHS524397:HHS524413 HRO524397:HRO524413 IBK524397:IBK524413 ILG524397:ILG524413 IVC524397:IVC524413 JEY524397:JEY524413 JOU524397:JOU524413 JYQ524397:JYQ524413 KIM524397:KIM524413 KSI524397:KSI524413 LCE524397:LCE524413 LMA524397:LMA524413 LVW524397:LVW524413 MFS524397:MFS524413 MPO524397:MPO524413 MZK524397:MZK524413 NJG524397:NJG524413 NTC524397:NTC524413 OCY524397:OCY524413 OMU524397:OMU524413 OWQ524397:OWQ524413 PGM524397:PGM524413 PQI524397:PQI524413 QAE524397:QAE524413 QKA524397:QKA524413 QTW524397:QTW524413 RDS524397:RDS524413 RNO524397:RNO524413 RXK524397:RXK524413 SHG524397:SHG524413 SRC524397:SRC524413 TAY524397:TAY524413 TKU524397:TKU524413 TUQ524397:TUQ524413 UEM524397:UEM524413 UOI524397:UOI524413 UYE524397:UYE524413 VIA524397:VIA524413 VRW524397:VRW524413 WBS524397:WBS524413 WLO524397:WLO524413 WVK524397:WVK524413 C655469:C655485 IY589933:IY589949 SU589933:SU589949 ACQ589933:ACQ589949 AMM589933:AMM589949 AWI589933:AWI589949 BGE589933:BGE589949 BQA589933:BQA589949 BZW589933:BZW589949 CJS589933:CJS589949 CTO589933:CTO589949 DDK589933:DDK589949 DNG589933:DNG589949 DXC589933:DXC589949 EGY589933:EGY589949 EQU589933:EQU589949 FAQ589933:FAQ589949 FKM589933:FKM589949 FUI589933:FUI589949 GEE589933:GEE589949 GOA589933:GOA589949 GXW589933:GXW589949 HHS589933:HHS589949 HRO589933:HRO589949 IBK589933:IBK589949 ILG589933:ILG589949 IVC589933:IVC589949 JEY589933:JEY589949 JOU589933:JOU589949 JYQ589933:JYQ589949 KIM589933:KIM589949 KSI589933:KSI589949 LCE589933:LCE589949 LMA589933:LMA589949 LVW589933:LVW589949 MFS589933:MFS589949 MPO589933:MPO589949 MZK589933:MZK589949 NJG589933:NJG589949 NTC589933:NTC589949 OCY589933:OCY589949 OMU589933:OMU589949 OWQ589933:OWQ589949 PGM589933:PGM589949 PQI589933:PQI589949 QAE589933:QAE589949 QKA589933:QKA589949 QTW589933:QTW589949 RDS589933:RDS589949 RNO589933:RNO589949 RXK589933:RXK589949 SHG589933:SHG589949 SRC589933:SRC589949 TAY589933:TAY589949 TKU589933:TKU589949 TUQ589933:TUQ589949 UEM589933:UEM589949 UOI589933:UOI589949 UYE589933:UYE589949 VIA589933:VIA589949 VRW589933:VRW589949 WBS589933:WBS589949 WLO589933:WLO589949 WVK589933:WVK589949 C721005:C721021 IY655469:IY655485 SU655469:SU655485 ACQ655469:ACQ655485 AMM655469:AMM655485 AWI655469:AWI655485 BGE655469:BGE655485 BQA655469:BQA655485 BZW655469:BZW655485 CJS655469:CJS655485 CTO655469:CTO655485 DDK655469:DDK655485 DNG655469:DNG655485 DXC655469:DXC655485 EGY655469:EGY655485 EQU655469:EQU655485 FAQ655469:FAQ655485 FKM655469:FKM655485 FUI655469:FUI655485 GEE655469:GEE655485 GOA655469:GOA655485 GXW655469:GXW655485 HHS655469:HHS655485 HRO655469:HRO655485 IBK655469:IBK655485 ILG655469:ILG655485 IVC655469:IVC655485 JEY655469:JEY655485 JOU655469:JOU655485 JYQ655469:JYQ655485 KIM655469:KIM655485 KSI655469:KSI655485 LCE655469:LCE655485 LMA655469:LMA655485 LVW655469:LVW655485 MFS655469:MFS655485 MPO655469:MPO655485 MZK655469:MZK655485 NJG655469:NJG655485 NTC655469:NTC655485 OCY655469:OCY655485 OMU655469:OMU655485 OWQ655469:OWQ655485 PGM655469:PGM655485 PQI655469:PQI655485 QAE655469:QAE655485 QKA655469:QKA655485 QTW655469:QTW655485 RDS655469:RDS655485 RNO655469:RNO655485 RXK655469:RXK655485 SHG655469:SHG655485 SRC655469:SRC655485 TAY655469:TAY655485 TKU655469:TKU655485 TUQ655469:TUQ655485 UEM655469:UEM655485 UOI655469:UOI655485 UYE655469:UYE655485 VIA655469:VIA655485 VRW655469:VRW655485 WBS655469:WBS655485 WLO655469:WLO655485 WVK655469:WVK655485 C786541:C786557 IY721005:IY721021 SU721005:SU721021 ACQ721005:ACQ721021 AMM721005:AMM721021 AWI721005:AWI721021 BGE721005:BGE721021 BQA721005:BQA721021 BZW721005:BZW721021 CJS721005:CJS721021 CTO721005:CTO721021 DDK721005:DDK721021 DNG721005:DNG721021 DXC721005:DXC721021 EGY721005:EGY721021 EQU721005:EQU721021 FAQ721005:FAQ721021 FKM721005:FKM721021 FUI721005:FUI721021 GEE721005:GEE721021 GOA721005:GOA721021 GXW721005:GXW721021 HHS721005:HHS721021 HRO721005:HRO721021 IBK721005:IBK721021 ILG721005:ILG721021 IVC721005:IVC721021 JEY721005:JEY721021 JOU721005:JOU721021 JYQ721005:JYQ721021 KIM721005:KIM721021 KSI721005:KSI721021 LCE721005:LCE721021 LMA721005:LMA721021 LVW721005:LVW721021 MFS721005:MFS721021 MPO721005:MPO721021 MZK721005:MZK721021 NJG721005:NJG721021 NTC721005:NTC721021 OCY721005:OCY721021 OMU721005:OMU721021 OWQ721005:OWQ721021 PGM721005:PGM721021 PQI721005:PQI721021 QAE721005:QAE721021 QKA721005:QKA721021 QTW721005:QTW721021 RDS721005:RDS721021 RNO721005:RNO721021 RXK721005:RXK721021 SHG721005:SHG721021 SRC721005:SRC721021 TAY721005:TAY721021 TKU721005:TKU721021 TUQ721005:TUQ721021 UEM721005:UEM721021 UOI721005:UOI721021 UYE721005:UYE721021 VIA721005:VIA721021 VRW721005:VRW721021 WBS721005:WBS721021 WLO721005:WLO721021 WVK721005:WVK721021 C852077:C852093 IY786541:IY786557 SU786541:SU786557 ACQ786541:ACQ786557 AMM786541:AMM786557 AWI786541:AWI786557 BGE786541:BGE786557 BQA786541:BQA786557 BZW786541:BZW786557 CJS786541:CJS786557 CTO786541:CTO786557 DDK786541:DDK786557 DNG786541:DNG786557 DXC786541:DXC786557 EGY786541:EGY786557 EQU786541:EQU786557 FAQ786541:FAQ786557 FKM786541:FKM786557 FUI786541:FUI786557 GEE786541:GEE786557 GOA786541:GOA786557 GXW786541:GXW786557 HHS786541:HHS786557 HRO786541:HRO786557 IBK786541:IBK786557 ILG786541:ILG786557 IVC786541:IVC786557 JEY786541:JEY786557 JOU786541:JOU786557 JYQ786541:JYQ786557 KIM786541:KIM786557 KSI786541:KSI786557 LCE786541:LCE786557 LMA786541:LMA786557 LVW786541:LVW786557 MFS786541:MFS786557 MPO786541:MPO786557 MZK786541:MZK786557 NJG786541:NJG786557 NTC786541:NTC786557 OCY786541:OCY786557 OMU786541:OMU786557 OWQ786541:OWQ786557 PGM786541:PGM786557 PQI786541:PQI786557 QAE786541:QAE786557 QKA786541:QKA786557 QTW786541:QTW786557 RDS786541:RDS786557 RNO786541:RNO786557 RXK786541:RXK786557 SHG786541:SHG786557 SRC786541:SRC786557 TAY786541:TAY786557 TKU786541:TKU786557 TUQ786541:TUQ786557 UEM786541:UEM786557 UOI786541:UOI786557 UYE786541:UYE786557 VIA786541:VIA786557 VRW786541:VRW786557 WBS786541:WBS786557 WLO786541:WLO786557 WVK786541:WVK786557 C917613:C917629 IY852077:IY852093 SU852077:SU852093 ACQ852077:ACQ852093 AMM852077:AMM852093 AWI852077:AWI852093 BGE852077:BGE852093 BQA852077:BQA852093 BZW852077:BZW852093 CJS852077:CJS852093 CTO852077:CTO852093 DDK852077:DDK852093 DNG852077:DNG852093 DXC852077:DXC852093 EGY852077:EGY852093 EQU852077:EQU852093 FAQ852077:FAQ852093 FKM852077:FKM852093 FUI852077:FUI852093 GEE852077:GEE852093 GOA852077:GOA852093 GXW852077:GXW852093 HHS852077:HHS852093 HRO852077:HRO852093 IBK852077:IBK852093 ILG852077:ILG852093 IVC852077:IVC852093 JEY852077:JEY852093 JOU852077:JOU852093 JYQ852077:JYQ852093 KIM852077:KIM852093 KSI852077:KSI852093 LCE852077:LCE852093 LMA852077:LMA852093 LVW852077:LVW852093 MFS852077:MFS852093 MPO852077:MPO852093 MZK852077:MZK852093 NJG852077:NJG852093 NTC852077:NTC852093 OCY852077:OCY852093 OMU852077:OMU852093 OWQ852077:OWQ852093 PGM852077:PGM852093 PQI852077:PQI852093 QAE852077:QAE852093 QKA852077:QKA852093 QTW852077:QTW852093 RDS852077:RDS852093 RNO852077:RNO852093 RXK852077:RXK852093 SHG852077:SHG852093 SRC852077:SRC852093 TAY852077:TAY852093 TKU852077:TKU852093 TUQ852077:TUQ852093 UEM852077:UEM852093 UOI852077:UOI852093 UYE852077:UYE852093 VIA852077:VIA852093 VRW852077:VRW852093 WBS852077:WBS852093 WLO852077:WLO852093 WVK852077:WVK852093 C983149:C983165 IY917613:IY917629 SU917613:SU917629 ACQ917613:ACQ917629 AMM917613:AMM917629 AWI917613:AWI917629 BGE917613:BGE917629 BQA917613:BQA917629 BZW917613:BZW917629 CJS917613:CJS917629 CTO917613:CTO917629 DDK917613:DDK917629 DNG917613:DNG917629 DXC917613:DXC917629 EGY917613:EGY917629 EQU917613:EQU917629 FAQ917613:FAQ917629 FKM917613:FKM917629 FUI917613:FUI917629 GEE917613:GEE917629 GOA917613:GOA917629 GXW917613:GXW917629 HHS917613:HHS917629 HRO917613:HRO917629 IBK917613:IBK917629 ILG917613:ILG917629 IVC917613:IVC917629 JEY917613:JEY917629 JOU917613:JOU917629 JYQ917613:JYQ917629 KIM917613:KIM917629 KSI917613:KSI917629 LCE917613:LCE917629 LMA917613:LMA917629 LVW917613:LVW917629 MFS917613:MFS917629 MPO917613:MPO917629 MZK917613:MZK917629 NJG917613:NJG917629 NTC917613:NTC917629 OCY917613:OCY917629 OMU917613:OMU917629 OWQ917613:OWQ917629 PGM917613:PGM917629 PQI917613:PQI917629 QAE917613:QAE917629 QKA917613:QKA917629 QTW917613:QTW917629 RDS917613:RDS917629 RNO917613:RNO917629 RXK917613:RXK917629 SHG917613:SHG917629 SRC917613:SRC917629 TAY917613:TAY917629 TKU917613:TKU917629 TUQ917613:TUQ917629 UEM917613:UEM917629 UOI917613:UOI917629 UYE917613:UYE917629 VIA917613:VIA917629 VRW917613:VRW917629 WBS917613:WBS917629 WLO917613:WLO917629 WVK917613:WVK917629 WVK983149:WVK983165 IY983149:IY983165 SU983149:SU983165 ACQ983149:ACQ983165 AMM983149:AMM983165 AWI983149:AWI983165 BGE983149:BGE983165 BQA983149:BQA983165 BZW983149:BZW983165 CJS983149:CJS983165 CTO983149:CTO983165 DDK983149:DDK983165 DNG983149:DNG983165 DXC983149:DXC983165 EGY983149:EGY983165 EQU983149:EQU983165 FAQ983149:FAQ983165 FKM983149:FKM983165 FUI983149:FUI983165 GEE983149:GEE983165 GOA983149:GOA983165 GXW983149:GXW983165 HHS983149:HHS983165 HRO983149:HRO983165 IBK983149:IBK983165 ILG983149:ILG983165 IVC983149:IVC983165 JEY983149:JEY983165 JOU983149:JOU983165 JYQ983149:JYQ983165 KIM983149:KIM983165 KSI983149:KSI983165 LCE983149:LCE983165 LMA983149:LMA983165 LVW983149:LVW983165 MFS983149:MFS983165 MPO983149:MPO983165 MZK983149:MZK983165 NJG983149:NJG983165 NTC983149:NTC983165 OCY983149:OCY983165 OMU983149:OMU983165 OWQ983149:OWQ983165 PGM983149:PGM983165 PQI983149:PQI983165 QAE983149:QAE983165 QKA983149:QKA983165 QTW983149:QTW983165 RDS983149:RDS983165 RNO983149:RNO983165 RXK983149:RXK983165 SHG983149:SHG983165 SRC983149:SRC983165 TAY983149:TAY983165 TKU983149:TKU983165 TUQ983149:TUQ983165 UEM983149:UEM983165 UOI983149:UOI983165 UYE983149:UYE983165 VIA983149:VIA983165 VRW983149:VRW983165 WBS983149:WBS983165 WLO983149:WLO983165 C65645:C65661" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"王元仰,王伟,陆慧军,郭秀廷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65645:F65678 JB65645:JB65678 SX65645:SX65678 ACT65645:ACT65678 AMP65645:AMP65678 AWL65645:AWL65678 BGH65645:BGH65678 BQD65645:BQD65678 BZZ65645:BZZ65678 CJV65645:CJV65678 CTR65645:CTR65678 DDN65645:DDN65678 DNJ65645:DNJ65678 DXF65645:DXF65678 EHB65645:EHB65678 EQX65645:EQX65678 FAT65645:FAT65678 FKP65645:FKP65678 FUL65645:FUL65678 GEH65645:GEH65678 GOD65645:GOD65678 GXZ65645:GXZ65678 HHV65645:HHV65678 HRR65645:HRR65678 IBN65645:IBN65678 ILJ65645:ILJ65678 IVF65645:IVF65678 JFB65645:JFB65678 JOX65645:JOX65678 JYT65645:JYT65678 KIP65645:KIP65678 KSL65645:KSL65678 LCH65645:LCH65678 LMD65645:LMD65678 LVZ65645:LVZ65678 MFV65645:MFV65678 MPR65645:MPR65678 MZN65645:MZN65678 NJJ65645:NJJ65678 NTF65645:NTF65678 ODB65645:ODB65678 OMX65645:OMX65678 OWT65645:OWT65678 PGP65645:PGP65678 PQL65645:PQL65678 QAH65645:QAH65678 QKD65645:QKD65678 QTZ65645:QTZ65678 RDV65645:RDV65678 RNR65645:RNR65678 RXN65645:RXN65678 SHJ65645:SHJ65678 SRF65645:SRF65678 TBB65645:TBB65678 TKX65645:TKX65678 TUT65645:TUT65678 UEP65645:UEP65678 UOL65645:UOL65678 UYH65645:UYH65678 VID65645:VID65678 VRZ65645:VRZ65678 WBV65645:WBV65678 WLR65645:WLR65678 WVN65645:WVN65678 F131181:F131214 JB131181:JB131214 SX131181:SX131214 ACT131181:ACT131214 AMP131181:AMP131214 AWL131181:AWL131214 BGH131181:BGH131214 BQD131181:BQD131214 BZZ131181:BZZ131214 CJV131181:CJV131214 CTR131181:CTR131214 DDN131181:DDN131214 DNJ131181:DNJ131214 DXF131181:DXF131214 EHB131181:EHB131214 EQX131181:EQX131214 FAT131181:FAT131214 FKP131181:FKP131214 FUL131181:FUL131214 GEH131181:GEH131214 GOD131181:GOD131214 GXZ131181:GXZ131214 HHV131181:HHV131214 HRR131181:HRR131214 IBN131181:IBN131214 ILJ131181:ILJ131214 IVF131181:IVF131214 JFB131181:JFB131214 JOX131181:JOX131214 JYT131181:JYT131214 KIP131181:KIP131214 KSL131181:KSL131214 LCH131181:LCH131214 LMD131181:LMD131214 LVZ131181:LVZ131214 MFV131181:MFV131214 MPR131181:MPR131214 MZN131181:MZN131214 NJJ131181:NJJ131214 NTF131181:NTF131214 ODB131181:ODB131214 OMX131181:OMX131214 OWT131181:OWT131214 PGP131181:PGP131214 PQL131181:PQL131214 QAH131181:QAH131214 QKD131181:QKD131214 QTZ131181:QTZ131214 RDV131181:RDV131214 RNR131181:RNR131214 RXN131181:RXN131214 SHJ131181:SHJ131214 SRF131181:SRF131214 TBB131181:TBB131214 TKX131181:TKX131214 TUT131181:TUT131214 UEP131181:UEP131214 UOL131181:UOL131214 UYH131181:UYH131214 VID131181:VID131214 VRZ131181:VRZ131214 WBV131181:WBV131214 WLR131181:WLR131214 WVN131181:WVN131214 F196717:F196750 JB196717:JB196750 SX196717:SX196750 ACT196717:ACT196750 AMP196717:AMP196750 AWL196717:AWL196750 BGH196717:BGH196750 BQD196717:BQD196750 BZZ196717:BZZ196750 CJV196717:CJV196750 CTR196717:CTR196750 DDN196717:DDN196750 DNJ196717:DNJ196750 DXF196717:DXF196750 EHB196717:EHB196750 EQX196717:EQX196750 FAT196717:FAT196750 FKP196717:FKP196750 FUL196717:FUL196750 GEH196717:GEH196750 GOD196717:GOD196750 GXZ196717:GXZ196750 HHV196717:HHV196750 HRR196717:HRR196750 IBN196717:IBN196750 ILJ196717:ILJ196750 IVF196717:IVF196750 JFB196717:JFB196750 JOX196717:JOX196750 JYT196717:JYT196750 KIP196717:KIP196750 KSL196717:KSL196750 LCH196717:LCH196750 LMD196717:LMD196750 LVZ196717:LVZ196750 MFV196717:MFV196750 MPR196717:MPR196750 MZN196717:MZN196750 NJJ196717:NJJ196750 NTF196717:NTF196750 ODB196717:ODB196750 OMX196717:OMX196750 OWT196717:OWT196750 PGP196717:PGP196750 PQL196717:PQL196750 QAH196717:QAH196750 QKD196717:QKD196750 QTZ196717:QTZ196750 RDV196717:RDV196750 RNR196717:RNR196750 RXN196717:RXN196750 SHJ196717:SHJ196750 SRF196717:SRF196750 TBB196717:TBB196750 TKX196717:TKX196750 TUT196717:TUT196750 UEP196717:UEP196750 UOL196717:UOL196750 UYH196717:UYH196750 VID196717:VID196750 VRZ196717:VRZ196750 WBV196717:WBV196750 WLR196717:WLR196750 WVN196717:WVN196750 F262253:F262286 JB262253:JB262286 SX262253:SX262286 ACT262253:ACT262286 AMP262253:AMP262286 AWL262253:AWL262286 BGH262253:BGH262286 BQD262253:BQD262286 BZZ262253:BZZ262286 CJV262253:CJV262286 CTR262253:CTR262286 DDN262253:DDN262286 DNJ262253:DNJ262286 DXF262253:DXF262286 EHB262253:EHB262286 EQX262253:EQX262286 FAT262253:FAT262286 FKP262253:FKP262286 FUL262253:FUL262286 GEH262253:GEH262286 GOD262253:GOD262286 GXZ262253:GXZ262286 HHV262253:HHV262286 HRR262253:HRR262286 IBN262253:IBN262286 ILJ262253:ILJ262286 IVF262253:IVF262286 JFB262253:JFB262286 JOX262253:JOX262286 JYT262253:JYT262286 KIP262253:KIP262286 KSL262253:KSL262286 LCH262253:LCH262286 LMD262253:LMD262286 LVZ262253:LVZ262286 MFV262253:MFV262286 MPR262253:MPR262286 MZN262253:MZN262286 NJJ262253:NJJ262286 NTF262253:NTF262286 ODB262253:ODB262286 OMX262253:OMX262286 OWT262253:OWT262286 PGP262253:PGP262286 PQL262253:PQL262286 QAH262253:QAH262286 QKD262253:QKD262286 QTZ262253:QTZ262286 RDV262253:RDV262286 RNR262253:RNR262286 RXN262253:RXN262286 SHJ262253:SHJ262286 SRF262253:SRF262286 TBB262253:TBB262286 TKX262253:TKX262286 TUT262253:TUT262286 UEP262253:UEP262286 UOL262253:UOL262286 UYH262253:UYH262286 VID262253:VID262286 VRZ262253:VRZ262286 WBV262253:WBV262286 WLR262253:WLR262286 WVN262253:WVN262286 F327789:F327822 JB327789:JB327822 SX327789:SX327822 ACT327789:ACT327822 AMP327789:AMP327822 AWL327789:AWL327822 BGH327789:BGH327822 BQD327789:BQD327822 BZZ327789:BZZ327822 CJV327789:CJV327822 CTR327789:CTR327822 DDN327789:DDN327822 DNJ327789:DNJ327822 DXF327789:DXF327822 EHB327789:EHB327822 EQX327789:EQX327822 FAT327789:FAT327822 FKP327789:FKP327822 FUL327789:FUL327822 GEH327789:GEH327822 GOD327789:GOD327822 GXZ327789:GXZ327822 HHV327789:HHV327822 HRR327789:HRR327822 IBN327789:IBN327822 ILJ327789:ILJ327822 IVF327789:IVF327822 JFB327789:JFB327822 JOX327789:JOX327822 JYT327789:JYT327822 KIP327789:KIP327822 KSL327789:KSL327822 LCH327789:LCH327822 LMD327789:LMD327822 LVZ327789:LVZ327822 MFV327789:MFV327822 MPR327789:MPR327822 MZN327789:MZN327822 NJJ327789:NJJ327822 NTF327789:NTF327822 ODB327789:ODB327822 OMX327789:OMX327822 OWT327789:OWT327822 PGP327789:PGP327822 PQL327789:PQL327822 QAH327789:QAH327822 QKD327789:QKD327822 QTZ327789:QTZ327822 RDV327789:RDV327822 RNR327789:RNR327822 RXN327789:RXN327822 SHJ327789:SHJ327822 SRF327789:SRF327822 TBB327789:TBB327822 TKX327789:TKX327822 TUT327789:TUT327822 UEP327789:UEP327822 UOL327789:UOL327822 UYH327789:UYH327822 VID327789:VID327822 VRZ327789:VRZ327822 WBV327789:WBV327822 WLR327789:WLR327822 WVN327789:WVN327822 F393325:F393358 JB393325:JB393358 SX393325:SX393358 ACT393325:ACT393358 AMP393325:AMP393358 AWL393325:AWL393358 BGH393325:BGH393358 BQD393325:BQD393358 BZZ393325:BZZ393358 CJV393325:CJV393358 CTR393325:CTR393358 DDN393325:DDN393358 DNJ393325:DNJ393358 DXF393325:DXF393358 EHB393325:EHB393358 EQX393325:EQX393358 FAT393325:FAT393358 FKP393325:FKP393358 FUL393325:FUL393358 GEH393325:GEH393358 GOD393325:GOD393358 GXZ393325:GXZ393358 HHV393325:HHV393358 HRR393325:HRR393358 IBN393325:IBN393358 ILJ393325:ILJ393358 IVF393325:IVF393358 JFB393325:JFB393358 JOX393325:JOX393358 JYT393325:JYT393358 KIP393325:KIP393358 KSL393325:KSL393358 LCH393325:LCH393358 LMD393325:LMD393358 LVZ393325:LVZ393358 MFV393325:MFV393358 MPR393325:MPR393358 MZN393325:MZN393358 NJJ393325:NJJ393358 NTF393325:NTF393358 ODB393325:ODB393358 OMX393325:OMX393358 OWT393325:OWT393358 PGP393325:PGP393358 PQL393325:PQL393358 QAH393325:QAH393358 QKD393325:QKD393358 QTZ393325:QTZ393358 RDV393325:RDV393358 RNR393325:RNR393358 RXN393325:RXN393358 SHJ393325:SHJ393358 SRF393325:SRF393358 TBB393325:TBB393358 TKX393325:TKX393358 TUT393325:TUT393358 UEP393325:UEP393358 UOL393325:UOL393358 UYH393325:UYH393358 VID393325:VID393358 VRZ393325:VRZ393358 WBV393325:WBV393358 WLR393325:WLR393358 WVN393325:WVN393358 F458861:F458894 JB458861:JB458894 SX458861:SX458894 ACT458861:ACT458894 AMP458861:AMP458894 AWL458861:AWL458894 BGH458861:BGH458894 BQD458861:BQD458894 BZZ458861:BZZ458894 CJV458861:CJV458894 CTR458861:CTR458894 DDN458861:DDN458894 DNJ458861:DNJ458894 DXF458861:DXF458894 EHB458861:EHB458894 EQX458861:EQX458894 FAT458861:FAT458894 FKP458861:FKP458894 FUL458861:FUL458894 GEH458861:GEH458894 GOD458861:GOD458894 GXZ458861:GXZ458894 HHV458861:HHV458894 HRR458861:HRR458894 IBN458861:IBN458894 ILJ458861:ILJ458894 IVF458861:IVF458894 JFB458861:JFB458894 JOX458861:JOX458894 JYT458861:JYT458894 KIP458861:KIP458894 KSL458861:KSL458894 LCH458861:LCH458894 LMD458861:LMD458894 LVZ458861:LVZ458894 MFV458861:MFV458894 MPR458861:MPR458894 MZN458861:MZN458894 NJJ458861:NJJ458894 NTF458861:NTF458894 ODB458861:ODB458894 OMX458861:OMX458894 OWT458861:OWT458894 PGP458861:PGP458894 PQL458861:PQL458894 QAH458861:QAH458894 QKD458861:QKD458894 QTZ458861:QTZ458894 RDV458861:RDV458894 RNR458861:RNR458894 RXN458861:RXN458894 SHJ458861:SHJ458894 SRF458861:SRF458894 TBB458861:TBB458894 TKX458861:TKX458894 TUT458861:TUT458894 UEP458861:UEP458894 UOL458861:UOL458894 UYH458861:UYH458894 VID458861:VID458894 VRZ458861:VRZ458894 WBV458861:WBV458894 WLR458861:WLR458894 WVN458861:WVN458894 F524397:F524430 JB524397:JB524430 SX524397:SX524430 ACT524397:ACT524430 AMP524397:AMP524430 AWL524397:AWL524430 BGH524397:BGH524430 BQD524397:BQD524430 BZZ524397:BZZ524430 CJV524397:CJV524430 CTR524397:CTR524430 DDN524397:DDN524430 DNJ524397:DNJ524430 DXF524397:DXF524430 EHB524397:EHB524430 EQX524397:EQX524430 FAT524397:FAT524430 FKP524397:FKP524430 FUL524397:FUL524430 GEH524397:GEH524430 GOD524397:GOD524430 GXZ524397:GXZ524430 HHV524397:HHV524430 HRR524397:HRR524430 IBN524397:IBN524430 ILJ524397:ILJ524430 IVF524397:IVF524430 JFB524397:JFB524430 JOX524397:JOX524430 JYT524397:JYT524430 KIP524397:KIP524430 KSL524397:KSL524430 LCH524397:LCH524430 LMD524397:LMD524430 LVZ524397:LVZ524430 MFV524397:MFV524430 MPR524397:MPR524430 MZN524397:MZN524430 NJJ524397:NJJ524430 NTF524397:NTF524430 ODB524397:ODB524430 OMX524397:OMX524430 OWT524397:OWT524430 PGP524397:PGP524430 PQL524397:PQL524430 QAH524397:QAH524430 QKD524397:QKD524430 QTZ524397:QTZ524430 RDV524397:RDV524430 RNR524397:RNR524430 RXN524397:RXN524430 SHJ524397:SHJ524430 SRF524397:SRF524430 TBB524397:TBB524430 TKX524397:TKX524430 TUT524397:TUT524430 UEP524397:UEP524430 UOL524397:UOL524430 UYH524397:UYH524430 VID524397:VID524430 VRZ524397:VRZ524430 WBV524397:WBV524430 WLR524397:WLR524430 WVN524397:WVN524430 F589933:F589966 JB589933:JB589966 SX589933:SX589966 ACT589933:ACT589966 AMP589933:AMP589966 AWL589933:AWL589966 BGH589933:BGH589966 BQD589933:BQD589966 BZZ589933:BZZ589966 CJV589933:CJV589966 CTR589933:CTR589966 DDN589933:DDN589966 DNJ589933:DNJ589966 DXF589933:DXF589966 EHB589933:EHB589966 EQX589933:EQX589966 FAT589933:FAT589966 FKP589933:FKP589966 FUL589933:FUL589966 GEH589933:GEH589966 GOD589933:GOD589966 GXZ589933:GXZ589966 HHV589933:HHV589966 HRR589933:HRR589966 IBN589933:IBN589966 ILJ589933:ILJ589966 IVF589933:IVF589966 JFB589933:JFB589966 JOX589933:JOX589966 JYT589933:JYT589966 KIP589933:KIP589966 KSL589933:KSL589966 LCH589933:LCH589966 LMD589933:LMD589966 LVZ589933:LVZ589966 MFV589933:MFV589966 MPR589933:MPR589966 MZN589933:MZN589966 NJJ589933:NJJ589966 NTF589933:NTF589966 ODB589933:ODB589966 OMX589933:OMX589966 OWT589933:OWT589966 PGP589933:PGP589966 PQL589933:PQL589966 QAH589933:QAH589966 QKD589933:QKD589966 QTZ589933:QTZ589966 RDV589933:RDV589966 RNR589933:RNR589966 RXN589933:RXN589966 SHJ589933:SHJ589966 SRF589933:SRF589966 TBB589933:TBB589966 TKX589933:TKX589966 TUT589933:TUT589966 UEP589933:UEP589966 UOL589933:UOL589966 UYH589933:UYH589966 VID589933:VID589966 VRZ589933:VRZ589966 WBV589933:WBV589966 WLR589933:WLR589966 WVN589933:WVN589966 F655469:F655502 JB655469:JB655502 SX655469:SX655502 ACT655469:ACT655502 AMP655469:AMP655502 AWL655469:AWL655502 BGH655469:BGH655502 BQD655469:BQD655502 BZZ655469:BZZ655502 CJV655469:CJV655502 CTR655469:CTR655502 DDN655469:DDN655502 DNJ655469:DNJ655502 DXF655469:DXF655502 EHB655469:EHB655502 EQX655469:EQX655502 FAT655469:FAT655502 FKP655469:FKP655502 FUL655469:FUL655502 GEH655469:GEH655502 GOD655469:GOD655502 GXZ655469:GXZ655502 HHV655469:HHV655502 HRR655469:HRR655502 IBN655469:IBN655502 ILJ655469:ILJ655502 IVF655469:IVF655502 JFB655469:JFB655502 JOX655469:JOX655502 JYT655469:JYT655502 KIP655469:KIP655502 KSL655469:KSL655502 LCH655469:LCH655502 LMD655469:LMD655502 LVZ655469:LVZ655502 MFV655469:MFV655502 MPR655469:MPR655502 MZN655469:MZN655502 NJJ655469:NJJ655502 NTF655469:NTF655502 ODB655469:ODB655502 OMX655469:OMX655502 OWT655469:OWT655502 PGP655469:PGP655502 PQL655469:PQL655502 QAH655469:QAH655502 QKD655469:QKD655502 QTZ655469:QTZ655502 RDV655469:RDV655502 RNR655469:RNR655502 RXN655469:RXN655502 SHJ655469:SHJ655502 SRF655469:SRF655502 TBB655469:TBB655502 TKX655469:TKX655502 TUT655469:TUT655502 UEP655469:UEP655502 UOL655469:UOL655502 UYH655469:UYH655502 VID655469:VID655502 VRZ655469:VRZ655502 WBV655469:WBV655502 WLR655469:WLR655502 WVN655469:WVN655502 F721005:F721038 JB721005:JB721038 SX721005:SX721038 ACT721005:ACT721038 AMP721005:AMP721038 AWL721005:AWL721038 BGH721005:BGH721038 BQD721005:BQD721038 BZZ721005:BZZ721038 CJV721005:CJV721038 CTR721005:CTR721038 DDN721005:DDN721038 DNJ721005:DNJ721038 DXF721005:DXF721038 EHB721005:EHB721038 EQX721005:EQX721038 FAT721005:FAT721038 FKP721005:FKP721038 FUL721005:FUL721038 GEH721005:GEH721038 GOD721005:GOD721038 GXZ721005:GXZ721038 HHV721005:HHV721038 HRR721005:HRR721038 IBN721005:IBN721038 ILJ721005:ILJ721038 IVF721005:IVF721038 JFB721005:JFB721038 JOX721005:JOX721038 JYT721005:JYT721038 KIP721005:KIP721038 KSL721005:KSL721038 LCH721005:LCH721038 LMD721005:LMD721038 LVZ721005:LVZ721038 MFV721005:MFV721038 MPR721005:MPR721038 MZN721005:MZN721038 NJJ721005:NJJ721038 NTF721005:NTF721038 ODB721005:ODB721038 OMX721005:OMX721038 OWT721005:OWT721038 PGP721005:PGP721038 PQL721005:PQL721038 QAH721005:QAH721038 QKD721005:QKD721038 QTZ721005:QTZ721038 RDV721005:RDV721038 RNR721005:RNR721038 RXN721005:RXN721038 SHJ721005:SHJ721038 SRF721005:SRF721038 TBB721005:TBB721038 TKX721005:TKX721038 TUT721005:TUT721038 UEP721005:UEP721038 UOL721005:UOL721038 UYH721005:UYH721038 VID721005:VID721038 VRZ721005:VRZ721038 WBV721005:WBV721038 WLR721005:WLR721038 WVN721005:WVN721038 F786541:F786574 JB786541:JB786574 SX786541:SX786574 ACT786541:ACT786574 AMP786541:AMP786574 AWL786541:AWL786574 BGH786541:BGH786574 BQD786541:BQD786574 BZZ786541:BZZ786574 CJV786541:CJV786574 CTR786541:CTR786574 DDN786541:DDN786574 DNJ786541:DNJ786574 DXF786541:DXF786574 EHB786541:EHB786574 EQX786541:EQX786574 FAT786541:FAT786574 FKP786541:FKP786574 FUL786541:FUL786574 GEH786541:GEH786574 GOD786541:GOD786574 GXZ786541:GXZ786574 HHV786541:HHV786574 HRR786541:HRR786574 IBN786541:IBN786574 ILJ786541:ILJ786574 IVF786541:IVF786574 JFB786541:JFB786574 JOX786541:JOX786574 JYT786541:JYT786574 KIP786541:KIP786574 KSL786541:KSL786574 LCH786541:LCH786574 LMD786541:LMD786574 LVZ786541:LVZ786574 MFV786541:MFV786574 MPR786541:MPR786574 MZN786541:MZN786574 NJJ786541:NJJ786574 NTF786541:NTF786574 ODB786541:ODB786574 OMX786541:OMX786574 OWT786541:OWT786574 PGP786541:PGP786574 PQL786541:PQL786574 QAH786541:QAH786574 QKD786541:QKD786574 QTZ786541:QTZ786574 RDV786541:RDV786574 RNR786541:RNR786574 RXN786541:RXN786574 SHJ786541:SHJ786574 SRF786541:SRF786574 TBB786541:TBB786574 TKX786541:TKX786574 TUT786541:TUT786574 UEP786541:UEP786574 UOL786541:UOL786574 UYH786541:UYH786574 VID786541:VID786574 VRZ786541:VRZ786574 WBV786541:WBV786574 WLR786541:WLR786574 WVN786541:WVN786574 F852077:F852110 JB852077:JB852110 SX852077:SX852110 ACT852077:ACT852110 AMP852077:AMP852110 AWL852077:AWL852110 BGH852077:BGH852110 BQD852077:BQD852110 BZZ852077:BZZ852110 CJV852077:CJV852110 CTR852077:CTR852110 DDN852077:DDN852110 DNJ852077:DNJ852110 DXF852077:DXF852110 EHB852077:EHB852110 EQX852077:EQX852110 FAT852077:FAT852110 FKP852077:FKP852110 FUL852077:FUL852110 GEH852077:GEH852110 GOD852077:GOD852110 GXZ852077:GXZ852110 HHV852077:HHV852110 HRR852077:HRR852110 IBN852077:IBN852110 ILJ852077:ILJ852110 IVF852077:IVF852110 JFB852077:JFB852110 JOX852077:JOX852110 JYT852077:JYT852110 KIP852077:KIP852110 KSL852077:KSL852110 LCH852077:LCH852110 LMD852077:LMD852110 LVZ852077:LVZ852110 MFV852077:MFV852110 MPR852077:MPR852110 MZN852077:MZN852110 NJJ852077:NJJ852110 NTF852077:NTF852110 ODB852077:ODB852110 OMX852077:OMX852110 OWT852077:OWT852110 PGP852077:PGP852110 PQL852077:PQL852110 QAH852077:QAH852110 QKD852077:QKD852110 QTZ852077:QTZ852110 RDV852077:RDV852110 RNR852077:RNR852110 RXN852077:RXN852110 SHJ852077:SHJ852110 SRF852077:SRF852110 TBB852077:TBB852110 TKX852077:TKX852110 TUT852077:TUT852110 UEP852077:UEP852110 UOL852077:UOL852110 UYH852077:UYH852110 VID852077:VID852110 VRZ852077:VRZ852110 WBV852077:WBV852110 WLR852077:WLR852110 WVN852077:WVN852110 F917613:F917646 JB917613:JB917646 SX917613:SX917646 ACT917613:ACT917646 AMP917613:AMP917646 AWL917613:AWL917646 BGH917613:BGH917646 BQD917613:BQD917646 BZZ917613:BZZ917646 CJV917613:CJV917646 CTR917613:CTR917646 DDN917613:DDN917646 DNJ917613:DNJ917646 DXF917613:DXF917646 EHB917613:EHB917646 EQX917613:EQX917646 FAT917613:FAT917646 FKP917613:FKP917646 FUL917613:FUL917646 GEH917613:GEH917646 GOD917613:GOD917646 GXZ917613:GXZ917646 HHV917613:HHV917646 HRR917613:HRR917646 IBN917613:IBN917646 ILJ917613:ILJ917646 IVF917613:IVF917646 JFB917613:JFB917646 JOX917613:JOX917646 JYT917613:JYT917646 KIP917613:KIP917646 KSL917613:KSL917646 LCH917613:LCH917646 LMD917613:LMD917646 LVZ917613:LVZ917646 MFV917613:MFV917646 MPR917613:MPR917646 MZN917613:MZN917646 NJJ917613:NJJ917646 NTF917613:NTF917646 ODB917613:ODB917646 OMX917613:OMX917646 OWT917613:OWT917646 PGP917613:PGP917646 PQL917613:PQL917646 QAH917613:QAH917646 QKD917613:QKD917646 QTZ917613:QTZ917646 RDV917613:RDV917646 RNR917613:RNR917646 RXN917613:RXN917646 SHJ917613:SHJ917646 SRF917613:SRF917646 TBB917613:TBB917646 TKX917613:TKX917646 TUT917613:TUT917646 UEP917613:UEP917646 UOL917613:UOL917646 UYH917613:UYH917646 VID917613:VID917646 VRZ917613:VRZ917646 WBV917613:WBV917646 WLR917613:WLR917646 WVN917613:WVN917646 F983149:F983182 JB983149:JB983182 SX983149:SX983182 ACT983149:ACT983182 AMP983149:AMP983182 AWL983149:AWL983182 BGH983149:BGH983182 BQD983149:BQD983182 BZZ983149:BZZ983182 CJV983149:CJV983182 CTR983149:CTR983182 DDN983149:DDN983182 DNJ983149:DNJ983182 DXF983149:DXF983182 EHB983149:EHB983182 EQX983149:EQX983182 FAT983149:FAT983182 FKP983149:FKP983182 FUL983149:FUL983182 GEH983149:GEH983182 GOD983149:GOD983182 GXZ983149:GXZ983182 HHV983149:HHV983182 HRR983149:HRR983182 IBN983149:IBN983182 ILJ983149:ILJ983182 IVF983149:IVF983182 JFB983149:JFB983182 JOX983149:JOX983182 JYT983149:JYT983182 KIP983149:KIP983182 KSL983149:KSL983182 LCH983149:LCH983182 LMD983149:LMD983182 LVZ983149:LVZ983182 MFV983149:MFV983182 MPR983149:MPR983182 MZN983149:MZN983182 NJJ983149:NJJ983182 NTF983149:NTF983182 ODB983149:ODB983182 OMX983149:OMX983182 OWT983149:OWT983182 PGP983149:PGP983182 PQL983149:PQL983182 QAH983149:QAH983182 QKD983149:QKD983182 QTZ983149:QTZ983182 RDV983149:RDV983182 RNR983149:RNR983182 RXN983149:RXN983182 SHJ983149:SHJ983182 SRF983149:SRF983182 TBB983149:TBB983182 TKX983149:TKX983182 TUT983149:TUT983182 UEP983149:UEP983182 UOL983149:UOL983182 UYH983149:UYH983182 VID983149:VID983182 VRZ983149:VRZ983182 WBV983149:WBV983182 WLR983149:WLR983182 WVN983149:WVN983182 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F887" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65645:F65678 JB65645:JB65678 SX65645:SX65678 ACT65645:ACT65678 AMP65645:AMP65678 AWL65645:AWL65678 BGH65645:BGH65678 BQD65645:BQD65678 BZZ65645:BZZ65678 CJV65645:CJV65678 CTR65645:CTR65678 DDN65645:DDN65678 DNJ65645:DNJ65678 DXF65645:DXF65678 EHB65645:EHB65678 EQX65645:EQX65678 FAT65645:FAT65678 FKP65645:FKP65678 FUL65645:FUL65678 GEH65645:GEH65678 GOD65645:GOD65678 GXZ65645:GXZ65678 HHV65645:HHV65678 HRR65645:HRR65678 IBN65645:IBN65678 ILJ65645:ILJ65678 IVF65645:IVF65678 JFB65645:JFB65678 JOX65645:JOX65678 JYT65645:JYT65678 KIP65645:KIP65678 KSL65645:KSL65678 LCH65645:LCH65678 LMD65645:LMD65678 LVZ65645:LVZ65678 MFV65645:MFV65678 MPR65645:MPR65678 MZN65645:MZN65678 NJJ65645:NJJ65678 NTF65645:NTF65678 ODB65645:ODB65678 OMX65645:OMX65678 OWT65645:OWT65678 PGP65645:PGP65678 PQL65645:PQL65678 QAH65645:QAH65678 QKD65645:QKD65678 QTZ65645:QTZ65678 RDV65645:RDV65678 RNR65645:RNR65678 RXN65645:RXN65678 SHJ65645:SHJ65678 SRF65645:SRF65678 TBB65645:TBB65678 TKX65645:TKX65678 TUT65645:TUT65678 UEP65645:UEP65678 UOL65645:UOL65678 UYH65645:UYH65678 VID65645:VID65678 VRZ65645:VRZ65678 WBV65645:WBV65678 WLR65645:WLR65678 WVN65645:WVN65678 F131181:F131214 JB131181:JB131214 SX131181:SX131214 ACT131181:ACT131214 AMP131181:AMP131214 AWL131181:AWL131214 BGH131181:BGH131214 BQD131181:BQD131214 BZZ131181:BZZ131214 CJV131181:CJV131214 CTR131181:CTR131214 DDN131181:DDN131214 DNJ131181:DNJ131214 DXF131181:DXF131214 EHB131181:EHB131214 EQX131181:EQX131214 FAT131181:FAT131214 FKP131181:FKP131214 FUL131181:FUL131214 GEH131181:GEH131214 GOD131181:GOD131214 GXZ131181:GXZ131214 HHV131181:HHV131214 HRR131181:HRR131214 IBN131181:IBN131214 ILJ131181:ILJ131214 IVF131181:IVF131214 JFB131181:JFB131214 JOX131181:JOX131214 JYT131181:JYT131214 KIP131181:KIP131214 KSL131181:KSL131214 LCH131181:LCH131214 LMD131181:LMD131214 LVZ131181:LVZ131214 MFV131181:MFV131214 MPR131181:MPR131214 MZN131181:MZN131214 NJJ131181:NJJ131214 NTF131181:NTF131214 ODB131181:ODB131214 OMX131181:OMX131214 OWT131181:OWT131214 PGP131181:PGP131214 PQL131181:PQL131214 QAH131181:QAH131214 QKD131181:QKD131214 QTZ131181:QTZ131214 RDV131181:RDV131214 RNR131181:RNR131214 RXN131181:RXN131214 SHJ131181:SHJ131214 SRF131181:SRF131214 TBB131181:TBB131214 TKX131181:TKX131214 TUT131181:TUT131214 UEP131181:UEP131214 UOL131181:UOL131214 UYH131181:UYH131214 VID131181:VID131214 VRZ131181:VRZ131214 WBV131181:WBV131214 WLR131181:WLR131214 WVN131181:WVN131214 F196717:F196750 JB196717:JB196750 SX196717:SX196750 ACT196717:ACT196750 AMP196717:AMP196750 AWL196717:AWL196750 BGH196717:BGH196750 BQD196717:BQD196750 BZZ196717:BZZ196750 CJV196717:CJV196750 CTR196717:CTR196750 DDN196717:DDN196750 DNJ196717:DNJ196750 DXF196717:DXF196750 EHB196717:EHB196750 EQX196717:EQX196750 FAT196717:FAT196750 FKP196717:FKP196750 FUL196717:FUL196750 GEH196717:GEH196750 GOD196717:GOD196750 GXZ196717:GXZ196750 HHV196717:HHV196750 HRR196717:HRR196750 IBN196717:IBN196750 ILJ196717:ILJ196750 IVF196717:IVF196750 JFB196717:JFB196750 JOX196717:JOX196750 JYT196717:JYT196750 KIP196717:KIP196750 KSL196717:KSL196750 LCH196717:LCH196750 LMD196717:LMD196750 LVZ196717:LVZ196750 MFV196717:MFV196750 MPR196717:MPR196750 MZN196717:MZN196750 NJJ196717:NJJ196750 NTF196717:NTF196750 ODB196717:ODB196750 OMX196717:OMX196750 OWT196717:OWT196750 PGP196717:PGP196750 PQL196717:PQL196750 QAH196717:QAH196750 QKD196717:QKD196750 QTZ196717:QTZ196750 RDV196717:RDV196750 RNR196717:RNR196750 RXN196717:RXN196750 SHJ196717:SHJ196750 SRF196717:SRF196750 TBB196717:TBB196750 TKX196717:TKX196750 TUT196717:TUT196750 UEP196717:UEP196750 UOL196717:UOL196750 UYH196717:UYH196750 VID196717:VID196750 VRZ196717:VRZ196750 WBV196717:WBV196750 WLR196717:WLR196750 WVN196717:WVN196750 F262253:F262286 JB262253:JB262286 SX262253:SX262286 ACT262253:ACT262286 AMP262253:AMP262286 AWL262253:AWL262286 BGH262253:BGH262286 BQD262253:BQD262286 BZZ262253:BZZ262286 CJV262253:CJV262286 CTR262253:CTR262286 DDN262253:DDN262286 DNJ262253:DNJ262286 DXF262253:DXF262286 EHB262253:EHB262286 EQX262253:EQX262286 FAT262253:FAT262286 FKP262253:FKP262286 FUL262253:FUL262286 GEH262253:GEH262286 GOD262253:GOD262286 GXZ262253:GXZ262286 HHV262253:HHV262286 HRR262253:HRR262286 IBN262253:IBN262286 ILJ262253:ILJ262286 IVF262253:IVF262286 JFB262253:JFB262286 JOX262253:JOX262286 JYT262253:JYT262286 KIP262253:KIP262286 KSL262253:KSL262286 LCH262253:LCH262286 LMD262253:LMD262286 LVZ262253:LVZ262286 MFV262253:MFV262286 MPR262253:MPR262286 MZN262253:MZN262286 NJJ262253:NJJ262286 NTF262253:NTF262286 ODB262253:ODB262286 OMX262253:OMX262286 OWT262253:OWT262286 PGP262253:PGP262286 PQL262253:PQL262286 QAH262253:QAH262286 QKD262253:QKD262286 QTZ262253:QTZ262286 RDV262253:RDV262286 RNR262253:RNR262286 RXN262253:RXN262286 SHJ262253:SHJ262286 SRF262253:SRF262286 TBB262253:TBB262286 TKX262253:TKX262286 TUT262253:TUT262286 UEP262253:UEP262286 UOL262253:UOL262286 UYH262253:UYH262286 VID262253:VID262286 VRZ262253:VRZ262286 WBV262253:WBV262286 WLR262253:WLR262286 WVN262253:WVN262286 F327789:F327822 JB327789:JB327822 SX327789:SX327822 ACT327789:ACT327822 AMP327789:AMP327822 AWL327789:AWL327822 BGH327789:BGH327822 BQD327789:BQD327822 BZZ327789:BZZ327822 CJV327789:CJV327822 CTR327789:CTR327822 DDN327789:DDN327822 DNJ327789:DNJ327822 DXF327789:DXF327822 EHB327789:EHB327822 EQX327789:EQX327822 FAT327789:FAT327822 FKP327789:FKP327822 FUL327789:FUL327822 GEH327789:GEH327822 GOD327789:GOD327822 GXZ327789:GXZ327822 HHV327789:HHV327822 HRR327789:HRR327822 IBN327789:IBN327822 ILJ327789:ILJ327822 IVF327789:IVF327822 JFB327789:JFB327822 JOX327789:JOX327822 JYT327789:JYT327822 KIP327789:KIP327822 KSL327789:KSL327822 LCH327789:LCH327822 LMD327789:LMD327822 LVZ327789:LVZ327822 MFV327789:MFV327822 MPR327789:MPR327822 MZN327789:MZN327822 NJJ327789:NJJ327822 NTF327789:NTF327822 ODB327789:ODB327822 OMX327789:OMX327822 OWT327789:OWT327822 PGP327789:PGP327822 PQL327789:PQL327822 QAH327789:QAH327822 QKD327789:QKD327822 QTZ327789:QTZ327822 RDV327789:RDV327822 RNR327789:RNR327822 RXN327789:RXN327822 SHJ327789:SHJ327822 SRF327789:SRF327822 TBB327789:TBB327822 TKX327789:TKX327822 TUT327789:TUT327822 UEP327789:UEP327822 UOL327789:UOL327822 UYH327789:UYH327822 VID327789:VID327822 VRZ327789:VRZ327822 WBV327789:WBV327822 WLR327789:WLR327822 WVN327789:WVN327822 F393325:F393358 JB393325:JB393358 SX393325:SX393358 ACT393325:ACT393358 AMP393325:AMP393358 AWL393325:AWL393358 BGH393325:BGH393358 BQD393325:BQD393358 BZZ393325:BZZ393358 CJV393325:CJV393358 CTR393325:CTR393358 DDN393325:DDN393358 DNJ393325:DNJ393358 DXF393325:DXF393358 EHB393325:EHB393358 EQX393325:EQX393358 FAT393325:FAT393358 FKP393325:FKP393358 FUL393325:FUL393358 GEH393325:GEH393358 GOD393325:GOD393358 GXZ393325:GXZ393358 HHV393325:HHV393358 HRR393325:HRR393358 IBN393325:IBN393358 ILJ393325:ILJ393358 IVF393325:IVF393358 JFB393325:JFB393358 JOX393325:JOX393358 JYT393325:JYT393358 KIP393325:KIP393358 KSL393325:KSL393358 LCH393325:LCH393358 LMD393325:LMD393358 LVZ393325:LVZ393358 MFV393325:MFV393358 MPR393325:MPR393358 MZN393325:MZN393358 NJJ393325:NJJ393358 NTF393325:NTF393358 ODB393325:ODB393358 OMX393325:OMX393358 OWT393325:OWT393358 PGP393325:PGP393358 PQL393325:PQL393358 QAH393325:QAH393358 QKD393325:QKD393358 QTZ393325:QTZ393358 RDV393325:RDV393358 RNR393325:RNR393358 RXN393325:RXN393358 SHJ393325:SHJ393358 SRF393325:SRF393358 TBB393325:TBB393358 TKX393325:TKX393358 TUT393325:TUT393358 UEP393325:UEP393358 UOL393325:UOL393358 UYH393325:UYH393358 VID393325:VID393358 VRZ393325:VRZ393358 WBV393325:WBV393358 WLR393325:WLR393358 WVN393325:WVN393358 F458861:F458894 JB458861:JB458894 SX458861:SX458894 ACT458861:ACT458894 AMP458861:AMP458894 AWL458861:AWL458894 BGH458861:BGH458894 BQD458861:BQD458894 BZZ458861:BZZ458894 CJV458861:CJV458894 CTR458861:CTR458894 DDN458861:DDN458894 DNJ458861:DNJ458894 DXF458861:DXF458894 EHB458861:EHB458894 EQX458861:EQX458894 FAT458861:FAT458894 FKP458861:FKP458894 FUL458861:FUL458894 GEH458861:GEH458894 GOD458861:GOD458894 GXZ458861:GXZ458894 HHV458861:HHV458894 HRR458861:HRR458894 IBN458861:IBN458894 ILJ458861:ILJ458894 IVF458861:IVF458894 JFB458861:JFB458894 JOX458861:JOX458894 JYT458861:JYT458894 KIP458861:KIP458894 KSL458861:KSL458894 LCH458861:LCH458894 LMD458861:LMD458894 LVZ458861:LVZ458894 MFV458861:MFV458894 MPR458861:MPR458894 MZN458861:MZN458894 NJJ458861:NJJ458894 NTF458861:NTF458894 ODB458861:ODB458894 OMX458861:OMX458894 OWT458861:OWT458894 PGP458861:PGP458894 PQL458861:PQL458894 QAH458861:QAH458894 QKD458861:QKD458894 QTZ458861:QTZ458894 RDV458861:RDV458894 RNR458861:RNR458894 RXN458861:RXN458894 SHJ458861:SHJ458894 SRF458861:SRF458894 TBB458861:TBB458894 TKX458861:TKX458894 TUT458861:TUT458894 UEP458861:UEP458894 UOL458861:UOL458894 UYH458861:UYH458894 VID458861:VID458894 VRZ458861:VRZ458894 WBV458861:WBV458894 WLR458861:WLR458894 WVN458861:WVN458894 F524397:F524430 JB524397:JB524430 SX524397:SX524430 ACT524397:ACT524430 AMP524397:AMP524430 AWL524397:AWL524430 BGH524397:BGH524430 BQD524397:BQD524430 BZZ524397:BZZ524430 CJV524397:CJV524430 CTR524397:CTR524430 DDN524397:DDN524430 DNJ524397:DNJ524430 DXF524397:DXF524430 EHB524397:EHB524430 EQX524397:EQX524430 FAT524397:FAT524430 FKP524397:FKP524430 FUL524397:FUL524430 GEH524397:GEH524430 GOD524397:GOD524430 GXZ524397:GXZ524430 HHV524397:HHV524430 HRR524397:HRR524430 IBN524397:IBN524430 ILJ524397:ILJ524430 IVF524397:IVF524430 JFB524397:JFB524430 JOX524397:JOX524430 JYT524397:JYT524430 KIP524397:KIP524430 KSL524397:KSL524430 LCH524397:LCH524430 LMD524397:LMD524430 LVZ524397:LVZ524430 MFV524397:MFV524430 MPR524397:MPR524430 MZN524397:MZN524430 NJJ524397:NJJ524430 NTF524397:NTF524430 ODB524397:ODB524430 OMX524397:OMX524430 OWT524397:OWT524430 PGP524397:PGP524430 PQL524397:PQL524430 QAH524397:QAH524430 QKD524397:QKD524430 QTZ524397:QTZ524430 RDV524397:RDV524430 RNR524397:RNR524430 RXN524397:RXN524430 SHJ524397:SHJ524430 SRF524397:SRF524430 TBB524397:TBB524430 TKX524397:TKX524430 TUT524397:TUT524430 UEP524397:UEP524430 UOL524397:UOL524430 UYH524397:UYH524430 VID524397:VID524430 VRZ524397:VRZ524430 WBV524397:WBV524430 WLR524397:WLR524430 WVN524397:WVN524430 F589933:F589966 JB589933:JB589966 SX589933:SX589966 ACT589933:ACT589966 AMP589933:AMP589966 AWL589933:AWL589966 BGH589933:BGH589966 BQD589933:BQD589966 BZZ589933:BZZ589966 CJV589933:CJV589966 CTR589933:CTR589966 DDN589933:DDN589966 DNJ589933:DNJ589966 DXF589933:DXF589966 EHB589933:EHB589966 EQX589933:EQX589966 FAT589933:FAT589966 FKP589933:FKP589966 FUL589933:FUL589966 GEH589933:GEH589966 GOD589933:GOD589966 GXZ589933:GXZ589966 HHV589933:HHV589966 HRR589933:HRR589966 IBN589933:IBN589966 ILJ589933:ILJ589966 IVF589933:IVF589966 JFB589933:JFB589966 JOX589933:JOX589966 JYT589933:JYT589966 KIP589933:KIP589966 KSL589933:KSL589966 LCH589933:LCH589966 LMD589933:LMD589966 LVZ589933:LVZ589966 MFV589933:MFV589966 MPR589933:MPR589966 MZN589933:MZN589966 NJJ589933:NJJ589966 NTF589933:NTF589966 ODB589933:ODB589966 OMX589933:OMX589966 OWT589933:OWT589966 PGP589933:PGP589966 PQL589933:PQL589966 QAH589933:QAH589966 QKD589933:QKD589966 QTZ589933:QTZ589966 RDV589933:RDV589966 RNR589933:RNR589966 RXN589933:RXN589966 SHJ589933:SHJ589966 SRF589933:SRF589966 TBB589933:TBB589966 TKX589933:TKX589966 TUT589933:TUT589966 UEP589933:UEP589966 UOL589933:UOL589966 UYH589933:UYH589966 VID589933:VID589966 VRZ589933:VRZ589966 WBV589933:WBV589966 WLR589933:WLR589966 WVN589933:WVN589966 F655469:F655502 JB655469:JB655502 SX655469:SX655502 ACT655469:ACT655502 AMP655469:AMP655502 AWL655469:AWL655502 BGH655469:BGH655502 BQD655469:BQD655502 BZZ655469:BZZ655502 CJV655469:CJV655502 CTR655469:CTR655502 DDN655469:DDN655502 DNJ655469:DNJ655502 DXF655469:DXF655502 EHB655469:EHB655502 EQX655469:EQX655502 FAT655469:FAT655502 FKP655469:FKP655502 FUL655469:FUL655502 GEH655469:GEH655502 GOD655469:GOD655502 GXZ655469:GXZ655502 HHV655469:HHV655502 HRR655469:HRR655502 IBN655469:IBN655502 ILJ655469:ILJ655502 IVF655469:IVF655502 JFB655469:JFB655502 JOX655469:JOX655502 JYT655469:JYT655502 KIP655469:KIP655502 KSL655469:KSL655502 LCH655469:LCH655502 LMD655469:LMD655502 LVZ655469:LVZ655502 MFV655469:MFV655502 MPR655469:MPR655502 MZN655469:MZN655502 NJJ655469:NJJ655502 NTF655469:NTF655502 ODB655469:ODB655502 OMX655469:OMX655502 OWT655469:OWT655502 PGP655469:PGP655502 PQL655469:PQL655502 QAH655469:QAH655502 QKD655469:QKD655502 QTZ655469:QTZ655502 RDV655469:RDV655502 RNR655469:RNR655502 RXN655469:RXN655502 SHJ655469:SHJ655502 SRF655469:SRF655502 TBB655469:TBB655502 TKX655469:TKX655502 TUT655469:TUT655502 UEP655469:UEP655502 UOL655469:UOL655502 UYH655469:UYH655502 VID655469:VID655502 VRZ655469:VRZ655502 WBV655469:WBV655502 WLR655469:WLR655502 WVN655469:WVN655502 F721005:F721038 JB721005:JB721038 SX721005:SX721038 ACT721005:ACT721038 AMP721005:AMP721038 AWL721005:AWL721038 BGH721005:BGH721038 BQD721005:BQD721038 BZZ721005:BZZ721038 CJV721005:CJV721038 CTR721005:CTR721038 DDN721005:DDN721038 DNJ721005:DNJ721038 DXF721005:DXF721038 EHB721005:EHB721038 EQX721005:EQX721038 FAT721005:FAT721038 FKP721005:FKP721038 FUL721005:FUL721038 GEH721005:GEH721038 GOD721005:GOD721038 GXZ721005:GXZ721038 HHV721005:HHV721038 HRR721005:HRR721038 IBN721005:IBN721038 ILJ721005:ILJ721038 IVF721005:IVF721038 JFB721005:JFB721038 JOX721005:JOX721038 JYT721005:JYT721038 KIP721005:KIP721038 KSL721005:KSL721038 LCH721005:LCH721038 LMD721005:LMD721038 LVZ721005:LVZ721038 MFV721005:MFV721038 MPR721005:MPR721038 MZN721005:MZN721038 NJJ721005:NJJ721038 NTF721005:NTF721038 ODB721005:ODB721038 OMX721005:OMX721038 OWT721005:OWT721038 PGP721005:PGP721038 PQL721005:PQL721038 QAH721005:QAH721038 QKD721005:QKD721038 QTZ721005:QTZ721038 RDV721005:RDV721038 RNR721005:RNR721038 RXN721005:RXN721038 SHJ721005:SHJ721038 SRF721005:SRF721038 TBB721005:TBB721038 TKX721005:TKX721038 TUT721005:TUT721038 UEP721005:UEP721038 UOL721005:UOL721038 UYH721005:UYH721038 VID721005:VID721038 VRZ721005:VRZ721038 WBV721005:WBV721038 WLR721005:WLR721038 WVN721005:WVN721038 F786541:F786574 JB786541:JB786574 SX786541:SX786574 ACT786541:ACT786574 AMP786541:AMP786574 AWL786541:AWL786574 BGH786541:BGH786574 BQD786541:BQD786574 BZZ786541:BZZ786574 CJV786541:CJV786574 CTR786541:CTR786574 DDN786541:DDN786574 DNJ786541:DNJ786574 DXF786541:DXF786574 EHB786541:EHB786574 EQX786541:EQX786574 FAT786541:FAT786574 FKP786541:FKP786574 FUL786541:FUL786574 GEH786541:GEH786574 GOD786541:GOD786574 GXZ786541:GXZ786574 HHV786541:HHV786574 HRR786541:HRR786574 IBN786541:IBN786574 ILJ786541:ILJ786574 IVF786541:IVF786574 JFB786541:JFB786574 JOX786541:JOX786574 JYT786541:JYT786574 KIP786541:KIP786574 KSL786541:KSL786574 LCH786541:LCH786574 LMD786541:LMD786574 LVZ786541:LVZ786574 MFV786541:MFV786574 MPR786541:MPR786574 MZN786541:MZN786574 NJJ786541:NJJ786574 NTF786541:NTF786574 ODB786541:ODB786574 OMX786541:OMX786574 OWT786541:OWT786574 PGP786541:PGP786574 PQL786541:PQL786574 QAH786541:QAH786574 QKD786541:QKD786574 QTZ786541:QTZ786574 RDV786541:RDV786574 RNR786541:RNR786574 RXN786541:RXN786574 SHJ786541:SHJ786574 SRF786541:SRF786574 TBB786541:TBB786574 TKX786541:TKX786574 TUT786541:TUT786574 UEP786541:UEP786574 UOL786541:UOL786574 UYH786541:UYH786574 VID786541:VID786574 VRZ786541:VRZ786574 WBV786541:WBV786574 WLR786541:WLR786574 WVN786541:WVN786574 F852077:F852110 JB852077:JB852110 SX852077:SX852110 ACT852077:ACT852110 AMP852077:AMP852110 AWL852077:AWL852110 BGH852077:BGH852110 BQD852077:BQD852110 BZZ852077:BZZ852110 CJV852077:CJV852110 CTR852077:CTR852110 DDN852077:DDN852110 DNJ852077:DNJ852110 DXF852077:DXF852110 EHB852077:EHB852110 EQX852077:EQX852110 FAT852077:FAT852110 FKP852077:FKP852110 FUL852077:FUL852110 GEH852077:GEH852110 GOD852077:GOD852110 GXZ852077:GXZ852110 HHV852077:HHV852110 HRR852077:HRR852110 IBN852077:IBN852110 ILJ852077:ILJ852110 IVF852077:IVF852110 JFB852077:JFB852110 JOX852077:JOX852110 JYT852077:JYT852110 KIP852077:KIP852110 KSL852077:KSL852110 LCH852077:LCH852110 LMD852077:LMD852110 LVZ852077:LVZ852110 MFV852077:MFV852110 MPR852077:MPR852110 MZN852077:MZN852110 NJJ852077:NJJ852110 NTF852077:NTF852110 ODB852077:ODB852110 OMX852077:OMX852110 OWT852077:OWT852110 PGP852077:PGP852110 PQL852077:PQL852110 QAH852077:QAH852110 QKD852077:QKD852110 QTZ852077:QTZ852110 RDV852077:RDV852110 RNR852077:RNR852110 RXN852077:RXN852110 SHJ852077:SHJ852110 SRF852077:SRF852110 TBB852077:TBB852110 TKX852077:TKX852110 TUT852077:TUT852110 UEP852077:UEP852110 UOL852077:UOL852110 UYH852077:UYH852110 VID852077:VID852110 VRZ852077:VRZ852110 WBV852077:WBV852110 WLR852077:WLR852110 WVN852077:WVN852110 F917613:F917646 JB917613:JB917646 SX917613:SX917646 ACT917613:ACT917646 AMP917613:AMP917646 AWL917613:AWL917646 BGH917613:BGH917646 BQD917613:BQD917646 BZZ917613:BZZ917646 CJV917613:CJV917646 CTR917613:CTR917646 DDN917613:DDN917646 DNJ917613:DNJ917646 DXF917613:DXF917646 EHB917613:EHB917646 EQX917613:EQX917646 FAT917613:FAT917646 FKP917613:FKP917646 FUL917613:FUL917646 GEH917613:GEH917646 GOD917613:GOD917646 GXZ917613:GXZ917646 HHV917613:HHV917646 HRR917613:HRR917646 IBN917613:IBN917646 ILJ917613:ILJ917646 IVF917613:IVF917646 JFB917613:JFB917646 JOX917613:JOX917646 JYT917613:JYT917646 KIP917613:KIP917646 KSL917613:KSL917646 LCH917613:LCH917646 LMD917613:LMD917646 LVZ917613:LVZ917646 MFV917613:MFV917646 MPR917613:MPR917646 MZN917613:MZN917646 NJJ917613:NJJ917646 NTF917613:NTF917646 ODB917613:ODB917646 OMX917613:OMX917646 OWT917613:OWT917646 PGP917613:PGP917646 PQL917613:PQL917646 QAH917613:QAH917646 QKD917613:QKD917646 QTZ917613:QTZ917646 RDV917613:RDV917646 RNR917613:RNR917646 RXN917613:RXN917646 SHJ917613:SHJ917646 SRF917613:SRF917646 TBB917613:TBB917646 TKX917613:TKX917646 TUT917613:TUT917646 UEP917613:UEP917646 UOL917613:UOL917646 UYH917613:UYH917646 VID917613:VID917646 VRZ917613:VRZ917646 WBV917613:WBV917646 WLR917613:WLR917646 WVN917613:WVN917646 F983149:F983182 JB983149:JB983182 SX983149:SX983182 ACT983149:ACT983182 AMP983149:AMP983182 AWL983149:AWL983182 BGH983149:BGH983182 BQD983149:BQD983182 BZZ983149:BZZ983182 CJV983149:CJV983182 CTR983149:CTR983182 DDN983149:DDN983182 DNJ983149:DNJ983182 DXF983149:DXF983182 EHB983149:EHB983182 EQX983149:EQX983182 FAT983149:FAT983182 FKP983149:FKP983182 FUL983149:FUL983182 GEH983149:GEH983182 GOD983149:GOD983182 GXZ983149:GXZ983182 HHV983149:HHV983182 HRR983149:HRR983182 IBN983149:IBN983182 ILJ983149:ILJ983182 IVF983149:IVF983182 JFB983149:JFB983182 JOX983149:JOX983182 JYT983149:JYT983182 KIP983149:KIP983182 KSL983149:KSL983182 LCH983149:LCH983182 LMD983149:LMD983182 LVZ983149:LVZ983182 MFV983149:MFV983182 MPR983149:MPR983182 MZN983149:MZN983182 NJJ983149:NJJ983182 NTF983149:NTF983182 ODB983149:ODB983182 OMX983149:OMX983182 OWT983149:OWT983182 PGP983149:PGP983182 PQL983149:PQL983182 QAH983149:QAH983182 QKD983149:QKD983182 QTZ983149:QTZ983182 RDV983149:RDV983182 RNR983149:RNR983182 RXN983149:RXN983182 SHJ983149:SHJ983182 SRF983149:SRF983182 TBB983149:TBB983182 TKX983149:TKX983182 TUT983149:TUT983182 UEP983149:UEP983182 UOL983149:UOL983182 UYH983149:UYH983182 VID983149:VID983182 VRZ983149:VRZ983182 WBV983149:WBV983182 WLR983149:WLR983182 WVN983149:WVN983182 WLR3:WLR43 WVN3:WVN43 JB3:JB43 SX3:SX43 ACT3:ACT43 AMP3:AMP43 AWL3:AWL43 BGH3:BGH43 BQD3:BQD43 BZZ3:BZZ43 CJV3:CJV43 CTR3:CTR43 DDN3:DDN43 DNJ3:DNJ43 DXF3:DXF43 EHB3:EHB43 EQX3:EQX43 FAT3:FAT43 FKP3:FKP43 FUL3:FUL43 GEH3:GEH43 GOD3:GOD43 GXZ3:GXZ43 HHV3:HHV43 HRR3:HRR43 IBN3:IBN43 ILJ3:ILJ43 IVF3:IVF43 JFB3:JFB43 JOX3:JOX43 JYT3:JYT43 KIP3:KIP43 KSL3:KSL43 LCH3:LCH43 LMD3:LMD43 LVZ3:LVZ43 MFV3:MFV43 MPR3:MPR43 MZN3:MZN43 NJJ3:NJJ43 NTF3:NTF43 ODB3:ODB43 OMX3:OMX43 OWT3:OWT43 PGP3:PGP43 PQL3:PQL43 QAH3:QAH43 QKD3:QKD43 QTZ3:QTZ43 RDV3:RDV43 RNR3:RNR43 RXN3:RXN43 SHJ3:SHJ43 SRF3:SRF43 TBB3:TBB43 TKX3:TKX43 TUT3:TUT43 UEP3:UEP43 UOL3:UOL43 UYH3:UYH43 VID3:VID43 VRZ3:VRZ43 WBV3:WBV43 F209:F389 F393:F961" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"需求分析,方案设计,系统测试,方案实施,运行维护,数据库操作,软件开发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65645:H65678 JD65645:JD65678 SZ65645:SZ65678 ACV65645:ACV65678 AMR65645:AMR65678 AWN65645:AWN65678 BGJ65645:BGJ65678 BQF65645:BQF65678 CAB65645:CAB65678 CJX65645:CJX65678 CTT65645:CTT65678 DDP65645:DDP65678 DNL65645:DNL65678 DXH65645:DXH65678 EHD65645:EHD65678 EQZ65645:EQZ65678 FAV65645:FAV65678 FKR65645:FKR65678 FUN65645:FUN65678 GEJ65645:GEJ65678 GOF65645:GOF65678 GYB65645:GYB65678 HHX65645:HHX65678 HRT65645:HRT65678 IBP65645:IBP65678 ILL65645:ILL65678 IVH65645:IVH65678 JFD65645:JFD65678 JOZ65645:JOZ65678 JYV65645:JYV65678 KIR65645:KIR65678 KSN65645:KSN65678 LCJ65645:LCJ65678 LMF65645:LMF65678 LWB65645:LWB65678 MFX65645:MFX65678 MPT65645:MPT65678 MZP65645:MZP65678 NJL65645:NJL65678 NTH65645:NTH65678 ODD65645:ODD65678 OMZ65645:OMZ65678 OWV65645:OWV65678 PGR65645:PGR65678 PQN65645:PQN65678 QAJ65645:QAJ65678 QKF65645:QKF65678 QUB65645:QUB65678 RDX65645:RDX65678 RNT65645:RNT65678 RXP65645:RXP65678 SHL65645:SHL65678 SRH65645:SRH65678 TBD65645:TBD65678 TKZ65645:TKZ65678 TUV65645:TUV65678 UER65645:UER65678 UON65645:UON65678 UYJ65645:UYJ65678 VIF65645:VIF65678 VSB65645:VSB65678 WBX65645:WBX65678 WLT65645:WLT65678 WVP65645:WVP65678 H131181:H131214 JD131181:JD131214 SZ131181:SZ131214 ACV131181:ACV131214 AMR131181:AMR131214 AWN131181:AWN131214 BGJ131181:BGJ131214 BQF131181:BQF131214 CAB131181:CAB131214 CJX131181:CJX131214 CTT131181:CTT131214 DDP131181:DDP131214 DNL131181:DNL131214 DXH131181:DXH131214 EHD131181:EHD131214 EQZ131181:EQZ131214 FAV131181:FAV131214 FKR131181:FKR131214 FUN131181:FUN131214 GEJ131181:GEJ131214 GOF131181:GOF131214 GYB131181:GYB131214 HHX131181:HHX131214 HRT131181:HRT131214 IBP131181:IBP131214 ILL131181:ILL131214 IVH131181:IVH131214 JFD131181:JFD131214 JOZ131181:JOZ131214 JYV131181:JYV131214 KIR131181:KIR131214 KSN131181:KSN131214 LCJ131181:LCJ131214 LMF131181:LMF131214 LWB131181:LWB131214 MFX131181:MFX131214 MPT131181:MPT131214 MZP131181:MZP131214 NJL131181:NJL131214 NTH131181:NTH131214 ODD131181:ODD131214 OMZ131181:OMZ131214 OWV131181:OWV131214 PGR131181:PGR131214 PQN131181:PQN131214 QAJ131181:QAJ131214 QKF131181:QKF131214 QUB131181:QUB131214 RDX131181:RDX131214 RNT131181:RNT131214 RXP131181:RXP131214 SHL131181:SHL131214 SRH131181:SRH131214 TBD131181:TBD131214 TKZ131181:TKZ131214 TUV131181:TUV131214 UER131181:UER131214 UON131181:UON131214 UYJ131181:UYJ131214 VIF131181:VIF131214 VSB131181:VSB131214 WBX131181:WBX131214 WLT131181:WLT131214 WVP131181:WVP131214 H196717:H196750 JD196717:JD196750 SZ196717:SZ196750 ACV196717:ACV196750 AMR196717:AMR196750 AWN196717:AWN196750 BGJ196717:BGJ196750 BQF196717:BQF196750 CAB196717:CAB196750 CJX196717:CJX196750 CTT196717:CTT196750 DDP196717:DDP196750 DNL196717:DNL196750 DXH196717:DXH196750 EHD196717:EHD196750 EQZ196717:EQZ196750 FAV196717:FAV196750 FKR196717:FKR196750 FUN196717:FUN196750 GEJ196717:GEJ196750 GOF196717:GOF196750 GYB196717:GYB196750 HHX196717:HHX196750 HRT196717:HRT196750 IBP196717:IBP196750 ILL196717:ILL196750 IVH196717:IVH196750 JFD196717:JFD196750 JOZ196717:JOZ196750 JYV196717:JYV196750 KIR196717:KIR196750 KSN196717:KSN196750 LCJ196717:LCJ196750 LMF196717:LMF196750 LWB196717:LWB196750 MFX196717:MFX196750 MPT196717:MPT196750 MZP196717:MZP196750 NJL196717:NJL196750 NTH196717:NTH196750 ODD196717:ODD196750 OMZ196717:OMZ196750 OWV196717:OWV196750 PGR196717:PGR196750 PQN196717:PQN196750 QAJ196717:QAJ196750 QKF196717:QKF196750 QUB196717:QUB196750 RDX196717:RDX196750 RNT196717:RNT196750 RXP196717:RXP196750 SHL196717:SHL196750 SRH196717:SRH196750 TBD196717:TBD196750 TKZ196717:TKZ196750 TUV196717:TUV196750 UER196717:UER196750 UON196717:UON196750 UYJ196717:UYJ196750 VIF196717:VIF196750 VSB196717:VSB196750 WBX196717:WBX196750 WLT196717:WLT196750 WVP196717:WVP196750 H262253:H262286 JD262253:JD262286 SZ262253:SZ262286 ACV262253:ACV262286 AMR262253:AMR262286 AWN262253:AWN262286 BGJ262253:BGJ262286 BQF262253:BQF262286 CAB262253:CAB262286 CJX262253:CJX262286 CTT262253:CTT262286 DDP262253:DDP262286 DNL262253:DNL262286 DXH262253:DXH262286 EHD262253:EHD262286 EQZ262253:EQZ262286 FAV262253:FAV262286 FKR262253:FKR262286 FUN262253:FUN262286 GEJ262253:GEJ262286 GOF262253:GOF262286 GYB262253:GYB262286 HHX262253:HHX262286 HRT262253:HRT262286 IBP262253:IBP262286 ILL262253:ILL262286 IVH262253:IVH262286 JFD262253:JFD262286 JOZ262253:JOZ262286 JYV262253:JYV262286 KIR262253:KIR262286 KSN262253:KSN262286 LCJ262253:LCJ262286 LMF262253:LMF262286 LWB262253:LWB262286 MFX262253:MFX262286 MPT262253:MPT262286 MZP262253:MZP262286 NJL262253:NJL262286 NTH262253:NTH262286 ODD262253:ODD262286 OMZ262253:OMZ262286 OWV262253:OWV262286 PGR262253:PGR262286 PQN262253:PQN262286 QAJ262253:QAJ262286 QKF262253:QKF262286 QUB262253:QUB262286 RDX262253:RDX262286 RNT262253:RNT262286 RXP262253:RXP262286 SHL262253:SHL262286 SRH262253:SRH262286 TBD262253:TBD262286 TKZ262253:TKZ262286 TUV262253:TUV262286 UER262253:UER262286 UON262253:UON262286 UYJ262253:UYJ262286 VIF262253:VIF262286 VSB262253:VSB262286 WBX262253:WBX262286 WLT262253:WLT262286 WVP262253:WVP262286 H327789:H327822 JD327789:JD327822 SZ327789:SZ327822 ACV327789:ACV327822 AMR327789:AMR327822 AWN327789:AWN327822 BGJ327789:BGJ327822 BQF327789:BQF327822 CAB327789:CAB327822 CJX327789:CJX327822 CTT327789:CTT327822 DDP327789:DDP327822 DNL327789:DNL327822 DXH327789:DXH327822 EHD327789:EHD327822 EQZ327789:EQZ327822 FAV327789:FAV327822 FKR327789:FKR327822 FUN327789:FUN327822 GEJ327789:GEJ327822 GOF327789:GOF327822 GYB327789:GYB327822 HHX327789:HHX327822 HRT327789:HRT327822 IBP327789:IBP327822 ILL327789:ILL327822 IVH327789:IVH327822 JFD327789:JFD327822 JOZ327789:JOZ327822 JYV327789:JYV327822 KIR327789:KIR327822 KSN327789:KSN327822 LCJ327789:LCJ327822 LMF327789:LMF327822 LWB327789:LWB327822 MFX327789:MFX327822 MPT327789:MPT327822 MZP327789:MZP327822 NJL327789:NJL327822 NTH327789:NTH327822 ODD327789:ODD327822 OMZ327789:OMZ327822 OWV327789:OWV327822 PGR327789:PGR327822 PQN327789:PQN327822 QAJ327789:QAJ327822 QKF327789:QKF327822 QUB327789:QUB327822 RDX327789:RDX327822 RNT327789:RNT327822 RXP327789:RXP327822 SHL327789:SHL327822 SRH327789:SRH327822 TBD327789:TBD327822 TKZ327789:TKZ327822 TUV327789:TUV327822 UER327789:UER327822 UON327789:UON327822 UYJ327789:UYJ327822 VIF327789:VIF327822 VSB327789:VSB327822 WBX327789:WBX327822 WLT327789:WLT327822 WVP327789:WVP327822 H393325:H393358 JD393325:JD393358 SZ393325:SZ393358 ACV393325:ACV393358 AMR393325:AMR393358 AWN393325:AWN393358 BGJ393325:BGJ393358 BQF393325:BQF393358 CAB393325:CAB393358 CJX393325:CJX393358 CTT393325:CTT393358 DDP393325:DDP393358 DNL393325:DNL393358 DXH393325:DXH393358 EHD393325:EHD393358 EQZ393325:EQZ393358 FAV393325:FAV393358 FKR393325:FKR393358 FUN393325:FUN393358 GEJ393325:GEJ393358 GOF393325:GOF393358 GYB393325:GYB393358 HHX393325:HHX393358 HRT393325:HRT393358 IBP393325:IBP393358 ILL393325:ILL393358 IVH393325:IVH393358 JFD393325:JFD393358 JOZ393325:JOZ393358 JYV393325:JYV393358 KIR393325:KIR393358 KSN393325:KSN393358 LCJ393325:LCJ393358 LMF393325:LMF393358 LWB393325:LWB393358 MFX393325:MFX393358 MPT393325:MPT393358 MZP393325:MZP393358 NJL393325:NJL393358 NTH393325:NTH393358 ODD393325:ODD393358 OMZ393325:OMZ393358 OWV393325:OWV393358 PGR393325:PGR393358 PQN393325:PQN393358 QAJ393325:QAJ393358 QKF393325:QKF393358 QUB393325:QUB393358 RDX393325:RDX393358 RNT393325:RNT393358 RXP393325:RXP393358 SHL393325:SHL393358 SRH393325:SRH393358 TBD393325:TBD393358 TKZ393325:TKZ393358 TUV393325:TUV393358 UER393325:UER393358 UON393325:UON393358 UYJ393325:UYJ393358 VIF393325:VIF393358 VSB393325:VSB393358 WBX393325:WBX393358 WLT393325:WLT393358 WVP393325:WVP393358 H458861:H458894 JD458861:JD458894 SZ458861:SZ458894 ACV458861:ACV458894 AMR458861:AMR458894 AWN458861:AWN458894 BGJ458861:BGJ458894 BQF458861:BQF458894 CAB458861:CAB458894 CJX458861:CJX458894 CTT458861:CTT458894 DDP458861:DDP458894 DNL458861:DNL458894 DXH458861:DXH458894 EHD458861:EHD458894 EQZ458861:EQZ458894 FAV458861:FAV458894 FKR458861:FKR458894 FUN458861:FUN458894 GEJ458861:GEJ458894 GOF458861:GOF458894 GYB458861:GYB458894 HHX458861:HHX458894 HRT458861:HRT458894 IBP458861:IBP458894 ILL458861:ILL458894 IVH458861:IVH458894 JFD458861:JFD458894 JOZ458861:JOZ458894 JYV458861:JYV458894 KIR458861:KIR458894 KSN458861:KSN458894 LCJ458861:LCJ458894 LMF458861:LMF458894 LWB458861:LWB458894 MFX458861:MFX458894 MPT458861:MPT458894 MZP458861:MZP458894 NJL458861:NJL458894 NTH458861:NTH458894 ODD458861:ODD458894 OMZ458861:OMZ458894 OWV458861:OWV458894 PGR458861:PGR458894 PQN458861:PQN458894 QAJ458861:QAJ458894 QKF458861:QKF458894 QUB458861:QUB458894 RDX458861:RDX458894 RNT458861:RNT458894 RXP458861:RXP458894 SHL458861:SHL458894 SRH458861:SRH458894 TBD458861:TBD458894 TKZ458861:TKZ458894 TUV458861:TUV458894 UER458861:UER458894 UON458861:UON458894 UYJ458861:UYJ458894 VIF458861:VIF458894 VSB458861:VSB458894 WBX458861:WBX458894 WLT458861:WLT458894 WVP458861:WVP458894 H524397:H524430 JD524397:JD524430 SZ524397:SZ524430 ACV524397:ACV524430 AMR524397:AMR524430 AWN524397:AWN524430 BGJ524397:BGJ524430 BQF524397:BQF524430 CAB524397:CAB524430 CJX524397:CJX524430 CTT524397:CTT524430 DDP524397:DDP524430 DNL524397:DNL524430 DXH524397:DXH524430 EHD524397:EHD524430 EQZ524397:EQZ524430 FAV524397:FAV524430 FKR524397:FKR524430 FUN524397:FUN524430 GEJ524397:GEJ524430 GOF524397:GOF524430 GYB524397:GYB524430 HHX524397:HHX524430 HRT524397:HRT524430 IBP524397:IBP524430 ILL524397:ILL524430 IVH524397:IVH524430 JFD524397:JFD524430 JOZ524397:JOZ524430 JYV524397:JYV524430 KIR524397:KIR524430 KSN524397:KSN524430 LCJ524397:LCJ524430 LMF524397:LMF524430 LWB524397:LWB524430 MFX524397:MFX524430 MPT524397:MPT524430 MZP524397:MZP524430 NJL524397:NJL524430 NTH524397:NTH524430 ODD524397:ODD524430 OMZ524397:OMZ524430 OWV524397:OWV524430 PGR524397:PGR524430 PQN524397:PQN524430 QAJ524397:QAJ524430 QKF524397:QKF524430 QUB524397:QUB524430 RDX524397:RDX524430 RNT524397:RNT524430 RXP524397:RXP524430 SHL524397:SHL524430 SRH524397:SRH524430 TBD524397:TBD524430 TKZ524397:TKZ524430 TUV524397:TUV524430 UER524397:UER524430 UON524397:UON524430 UYJ524397:UYJ524430 VIF524397:VIF524430 VSB524397:VSB524430 WBX524397:WBX524430 WLT524397:WLT524430 WVP524397:WVP524430 H589933:H589966 JD589933:JD589966 SZ589933:SZ589966 ACV589933:ACV589966 AMR589933:AMR589966 AWN589933:AWN589966 BGJ589933:BGJ589966 BQF589933:BQF589966 CAB589933:CAB589966 CJX589933:CJX589966 CTT589933:CTT589966 DDP589933:DDP589966 DNL589933:DNL589966 DXH589933:DXH589966 EHD589933:EHD589966 EQZ589933:EQZ589966 FAV589933:FAV589966 FKR589933:FKR589966 FUN589933:FUN589966 GEJ589933:GEJ589966 GOF589933:GOF589966 GYB589933:GYB589966 HHX589933:HHX589966 HRT589933:HRT589966 IBP589933:IBP589966 ILL589933:ILL589966 IVH589933:IVH589966 JFD589933:JFD589966 JOZ589933:JOZ589966 JYV589933:JYV589966 KIR589933:KIR589966 KSN589933:KSN589966 LCJ589933:LCJ589966 LMF589933:LMF589966 LWB589933:LWB589966 MFX589933:MFX589966 MPT589933:MPT589966 MZP589933:MZP589966 NJL589933:NJL589966 NTH589933:NTH589966 ODD589933:ODD589966 OMZ589933:OMZ589966 OWV589933:OWV589966 PGR589933:PGR589966 PQN589933:PQN589966 QAJ589933:QAJ589966 QKF589933:QKF589966 QUB589933:QUB589966 RDX589933:RDX589966 RNT589933:RNT589966 RXP589933:RXP589966 SHL589933:SHL589966 SRH589933:SRH589966 TBD589933:TBD589966 TKZ589933:TKZ589966 TUV589933:TUV589966 UER589933:UER589966 UON589933:UON589966 UYJ589933:UYJ589966 VIF589933:VIF589966 VSB589933:VSB589966 WBX589933:WBX589966 WLT589933:WLT589966 WVP589933:WVP589966 H655469:H655502 JD655469:JD655502 SZ655469:SZ655502 ACV655469:ACV655502 AMR655469:AMR655502 AWN655469:AWN655502 BGJ655469:BGJ655502 BQF655469:BQF655502 CAB655469:CAB655502 CJX655469:CJX655502 CTT655469:CTT655502 DDP655469:DDP655502 DNL655469:DNL655502 DXH655469:DXH655502 EHD655469:EHD655502 EQZ655469:EQZ655502 FAV655469:FAV655502 FKR655469:FKR655502 FUN655469:FUN655502 GEJ655469:GEJ655502 GOF655469:GOF655502 GYB655469:GYB655502 HHX655469:HHX655502 HRT655469:HRT655502 IBP655469:IBP655502 ILL655469:ILL655502 IVH655469:IVH655502 JFD655469:JFD655502 JOZ655469:JOZ655502 JYV655469:JYV655502 KIR655469:KIR655502 KSN655469:KSN655502 LCJ655469:LCJ655502 LMF655469:LMF655502 LWB655469:LWB655502 MFX655469:MFX655502 MPT655469:MPT655502 MZP655469:MZP655502 NJL655469:NJL655502 NTH655469:NTH655502 ODD655469:ODD655502 OMZ655469:OMZ655502 OWV655469:OWV655502 PGR655469:PGR655502 PQN655469:PQN655502 QAJ655469:QAJ655502 QKF655469:QKF655502 QUB655469:QUB655502 RDX655469:RDX655502 RNT655469:RNT655502 RXP655469:RXP655502 SHL655469:SHL655502 SRH655469:SRH655502 TBD655469:TBD655502 TKZ655469:TKZ655502 TUV655469:TUV655502 UER655469:UER655502 UON655469:UON655502 UYJ655469:UYJ655502 VIF655469:VIF655502 VSB655469:VSB655502 WBX655469:WBX655502 WLT655469:WLT655502 WVP655469:WVP655502 H721005:H721038 JD721005:JD721038 SZ721005:SZ721038 ACV721005:ACV721038 AMR721005:AMR721038 AWN721005:AWN721038 BGJ721005:BGJ721038 BQF721005:BQF721038 CAB721005:CAB721038 CJX721005:CJX721038 CTT721005:CTT721038 DDP721005:DDP721038 DNL721005:DNL721038 DXH721005:DXH721038 EHD721005:EHD721038 EQZ721005:EQZ721038 FAV721005:FAV721038 FKR721005:FKR721038 FUN721005:FUN721038 GEJ721005:GEJ721038 GOF721005:GOF721038 GYB721005:GYB721038 HHX721005:HHX721038 HRT721005:HRT721038 IBP721005:IBP721038 ILL721005:ILL721038 IVH721005:IVH721038 JFD721005:JFD721038 JOZ721005:JOZ721038 JYV721005:JYV721038 KIR721005:KIR721038 KSN721005:KSN721038 LCJ721005:LCJ721038 LMF721005:LMF721038 LWB721005:LWB721038 MFX721005:MFX721038 MPT721005:MPT721038 MZP721005:MZP721038 NJL721005:NJL721038 NTH721005:NTH721038 ODD721005:ODD721038 OMZ721005:OMZ721038 OWV721005:OWV721038 PGR721005:PGR721038 PQN721005:PQN721038 QAJ721005:QAJ721038 QKF721005:QKF721038 QUB721005:QUB721038 RDX721005:RDX721038 RNT721005:RNT721038 RXP721005:RXP721038 SHL721005:SHL721038 SRH721005:SRH721038 TBD721005:TBD721038 TKZ721005:TKZ721038 TUV721005:TUV721038 UER721005:UER721038 UON721005:UON721038 UYJ721005:UYJ721038 VIF721005:VIF721038 VSB721005:VSB721038 WBX721005:WBX721038 WLT721005:WLT721038 WVP721005:WVP721038 H786541:H786574 JD786541:JD786574 SZ786541:SZ786574 ACV786541:ACV786574 AMR786541:AMR786574 AWN786541:AWN786574 BGJ786541:BGJ786574 BQF786541:BQF786574 CAB786541:CAB786574 CJX786541:CJX786574 CTT786541:CTT786574 DDP786541:DDP786574 DNL786541:DNL786574 DXH786541:DXH786574 EHD786541:EHD786574 EQZ786541:EQZ786574 FAV786541:FAV786574 FKR786541:FKR786574 FUN786541:FUN786574 GEJ786541:GEJ786574 GOF786541:GOF786574 GYB786541:GYB786574 HHX786541:HHX786574 HRT786541:HRT786574 IBP786541:IBP786574 ILL786541:ILL786574 IVH786541:IVH786574 JFD786541:JFD786574 JOZ786541:JOZ786574 JYV786541:JYV786574 KIR786541:KIR786574 KSN786541:KSN786574 LCJ786541:LCJ786574 LMF786541:LMF786574 LWB786541:LWB786574 MFX786541:MFX786574 MPT786541:MPT786574 MZP786541:MZP786574 NJL786541:NJL786574 NTH786541:NTH786574 ODD786541:ODD786574 OMZ786541:OMZ786574 OWV786541:OWV786574 PGR786541:PGR786574 PQN786541:PQN786574 QAJ786541:QAJ786574 QKF786541:QKF786574 QUB786541:QUB786574 RDX786541:RDX786574 RNT786541:RNT786574 RXP786541:RXP786574 SHL786541:SHL786574 SRH786541:SRH786574 TBD786541:TBD786574 TKZ786541:TKZ786574 TUV786541:TUV786574 UER786541:UER786574 UON786541:UON786574 UYJ786541:UYJ786574 VIF786541:VIF786574 VSB786541:VSB786574 WBX786541:WBX786574 WLT786541:WLT786574 WVP786541:WVP786574 H852077:H852110 JD852077:JD852110 SZ852077:SZ852110 ACV852077:ACV852110 AMR852077:AMR852110 AWN852077:AWN852110 BGJ852077:BGJ852110 BQF852077:BQF852110 CAB852077:CAB852110 CJX852077:CJX852110 CTT852077:CTT852110 DDP852077:DDP852110 DNL852077:DNL852110 DXH852077:DXH852110 EHD852077:EHD852110 EQZ852077:EQZ852110 FAV852077:FAV852110 FKR852077:FKR852110 FUN852077:FUN852110 GEJ852077:GEJ852110 GOF852077:GOF852110 GYB852077:GYB852110 HHX852077:HHX852110 HRT852077:HRT852110 IBP852077:IBP852110 ILL852077:ILL852110 IVH852077:IVH852110 JFD852077:JFD852110 JOZ852077:JOZ852110 JYV852077:JYV852110 KIR852077:KIR852110 KSN852077:KSN852110 LCJ852077:LCJ852110 LMF852077:LMF852110 LWB852077:LWB852110 MFX852077:MFX852110 MPT852077:MPT852110 MZP852077:MZP852110 NJL852077:NJL852110 NTH852077:NTH852110 ODD852077:ODD852110 OMZ852077:OMZ852110 OWV852077:OWV852110 PGR852077:PGR852110 PQN852077:PQN852110 QAJ852077:QAJ852110 QKF852077:QKF852110 QUB852077:QUB852110 RDX852077:RDX852110 RNT852077:RNT852110 RXP852077:RXP852110 SHL852077:SHL852110 SRH852077:SRH852110 TBD852077:TBD852110 TKZ852077:TKZ852110 TUV852077:TUV852110 UER852077:UER852110 UON852077:UON852110 UYJ852077:UYJ852110 VIF852077:VIF852110 VSB852077:VSB852110 WBX852077:WBX852110 WLT852077:WLT852110 WVP852077:WVP852110 H917613:H917646 JD917613:JD917646 SZ917613:SZ917646 ACV917613:ACV917646 AMR917613:AMR917646 AWN917613:AWN917646 BGJ917613:BGJ917646 BQF917613:BQF917646 CAB917613:CAB917646 CJX917613:CJX917646 CTT917613:CTT917646 DDP917613:DDP917646 DNL917613:DNL917646 DXH917613:DXH917646 EHD917613:EHD917646 EQZ917613:EQZ917646 FAV917613:FAV917646 FKR917613:FKR917646 FUN917613:FUN917646 GEJ917613:GEJ917646 GOF917613:GOF917646 GYB917613:GYB917646 HHX917613:HHX917646 HRT917613:HRT917646 IBP917613:IBP917646 ILL917613:ILL917646 IVH917613:IVH917646 JFD917613:JFD917646 JOZ917613:JOZ917646 JYV917613:JYV917646 KIR917613:KIR917646 KSN917613:KSN917646 LCJ917613:LCJ917646 LMF917613:LMF917646 LWB917613:LWB917646 MFX917613:MFX917646 MPT917613:MPT917646 MZP917613:MZP917646 NJL917613:NJL917646 NTH917613:NTH917646 ODD917613:ODD917646 OMZ917613:OMZ917646 OWV917613:OWV917646 PGR917613:PGR917646 PQN917613:PQN917646 QAJ917613:QAJ917646 QKF917613:QKF917646 QUB917613:QUB917646 RDX917613:RDX917646 RNT917613:RNT917646 RXP917613:RXP917646 SHL917613:SHL917646 SRH917613:SRH917646 TBD917613:TBD917646 TKZ917613:TKZ917646 TUV917613:TUV917646 UER917613:UER917646 UON917613:UON917646 UYJ917613:UYJ917646 VIF917613:VIF917646 VSB917613:VSB917646 WBX917613:WBX917646 WLT917613:WLT917646 WVP917613:WVP917646 H983149:H983182 JD983149:JD983182 SZ983149:SZ983182 ACV983149:ACV983182 AMR983149:AMR983182 AWN983149:AWN983182 BGJ983149:BGJ983182 BQF983149:BQF983182 CAB983149:CAB983182 CJX983149:CJX983182 CTT983149:CTT983182 DDP983149:DDP983182 DNL983149:DNL983182 DXH983149:DXH983182 EHD983149:EHD983182 EQZ983149:EQZ983182 FAV983149:FAV983182 FKR983149:FKR983182 FUN983149:FUN983182 GEJ983149:GEJ983182 GOF983149:GOF983182 GYB983149:GYB983182 HHX983149:HHX983182 HRT983149:HRT983182 IBP983149:IBP983182 ILL983149:ILL983182 IVH983149:IVH983182 JFD983149:JFD983182 JOZ983149:JOZ983182 JYV983149:JYV983182 KIR983149:KIR983182 KSN983149:KSN983182 LCJ983149:LCJ983182 LMF983149:LMF983182 LWB983149:LWB983182 MFX983149:MFX983182 MPT983149:MPT983182 MZP983149:MZP983182 NJL983149:NJL983182 NTH983149:NTH983182 ODD983149:ODD983182 OMZ983149:OMZ983182 OWV983149:OWV983182 PGR983149:PGR983182 PQN983149:PQN983182 QAJ983149:QAJ983182 QKF983149:QKF983182 QUB983149:QUB983182 RDX983149:RDX983182 RNT983149:RNT983182 RXP983149:RXP983182 SHL983149:SHL983182 SRH983149:SRH983182 TBD983149:TBD983182 TKZ983149:TKZ983182 TUV983149:TUV983182 UER983149:UER983182 UON983149:UON983182 UYJ983149:UYJ983182 VIF983149:VIF983182 VSB983149:VSB983182 WBX983149:WBX983182 WLT983149:WLT983182 WVP983149:WVP983182 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H887" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65645:H65678 JD65645:JD65678 SZ65645:SZ65678 ACV65645:ACV65678 AMR65645:AMR65678 AWN65645:AWN65678 BGJ65645:BGJ65678 BQF65645:BQF65678 CAB65645:CAB65678 CJX65645:CJX65678 CTT65645:CTT65678 DDP65645:DDP65678 DNL65645:DNL65678 DXH65645:DXH65678 EHD65645:EHD65678 EQZ65645:EQZ65678 FAV65645:FAV65678 FKR65645:FKR65678 FUN65645:FUN65678 GEJ65645:GEJ65678 GOF65645:GOF65678 GYB65645:GYB65678 HHX65645:HHX65678 HRT65645:HRT65678 IBP65645:IBP65678 ILL65645:ILL65678 IVH65645:IVH65678 JFD65645:JFD65678 JOZ65645:JOZ65678 JYV65645:JYV65678 KIR65645:KIR65678 KSN65645:KSN65678 LCJ65645:LCJ65678 LMF65645:LMF65678 LWB65645:LWB65678 MFX65645:MFX65678 MPT65645:MPT65678 MZP65645:MZP65678 NJL65645:NJL65678 NTH65645:NTH65678 ODD65645:ODD65678 OMZ65645:OMZ65678 OWV65645:OWV65678 PGR65645:PGR65678 PQN65645:PQN65678 QAJ65645:QAJ65678 QKF65645:QKF65678 QUB65645:QUB65678 RDX65645:RDX65678 RNT65645:RNT65678 RXP65645:RXP65678 SHL65645:SHL65678 SRH65645:SRH65678 TBD65645:TBD65678 TKZ65645:TKZ65678 TUV65645:TUV65678 UER65645:UER65678 UON65645:UON65678 UYJ65645:UYJ65678 VIF65645:VIF65678 VSB65645:VSB65678 WBX65645:WBX65678 WLT65645:WLT65678 WVP65645:WVP65678 H131181:H131214 JD131181:JD131214 SZ131181:SZ131214 ACV131181:ACV131214 AMR131181:AMR131214 AWN131181:AWN131214 BGJ131181:BGJ131214 BQF131181:BQF131214 CAB131181:CAB131214 CJX131181:CJX131214 CTT131181:CTT131214 DDP131181:DDP131214 DNL131181:DNL131214 DXH131181:DXH131214 EHD131181:EHD131214 EQZ131181:EQZ131214 FAV131181:FAV131214 FKR131181:FKR131214 FUN131181:FUN131214 GEJ131181:GEJ131214 GOF131181:GOF131214 GYB131181:GYB131214 HHX131181:HHX131214 HRT131181:HRT131214 IBP131181:IBP131214 ILL131181:ILL131214 IVH131181:IVH131214 JFD131181:JFD131214 JOZ131181:JOZ131214 JYV131181:JYV131214 KIR131181:KIR131214 KSN131181:KSN131214 LCJ131181:LCJ131214 LMF131181:LMF131214 LWB131181:LWB131214 MFX131181:MFX131214 MPT131181:MPT131214 MZP131181:MZP131214 NJL131181:NJL131214 NTH131181:NTH131214 ODD131181:ODD131214 OMZ131181:OMZ131214 OWV131181:OWV131214 PGR131181:PGR131214 PQN131181:PQN131214 QAJ131181:QAJ131214 QKF131181:QKF131214 QUB131181:QUB131214 RDX131181:RDX131214 RNT131181:RNT131214 RXP131181:RXP131214 SHL131181:SHL131214 SRH131181:SRH131214 TBD131181:TBD131214 TKZ131181:TKZ131214 TUV131181:TUV131214 UER131181:UER131214 UON131181:UON131214 UYJ131181:UYJ131214 VIF131181:VIF131214 VSB131181:VSB131214 WBX131181:WBX131214 WLT131181:WLT131214 WVP131181:WVP131214 H196717:H196750 JD196717:JD196750 SZ196717:SZ196750 ACV196717:ACV196750 AMR196717:AMR196750 AWN196717:AWN196750 BGJ196717:BGJ196750 BQF196717:BQF196750 CAB196717:CAB196750 CJX196717:CJX196750 CTT196717:CTT196750 DDP196717:DDP196750 DNL196717:DNL196750 DXH196717:DXH196750 EHD196717:EHD196750 EQZ196717:EQZ196750 FAV196717:FAV196750 FKR196717:FKR196750 FUN196717:FUN196750 GEJ196717:GEJ196750 GOF196717:GOF196750 GYB196717:GYB196750 HHX196717:HHX196750 HRT196717:HRT196750 IBP196717:IBP196750 ILL196717:ILL196750 IVH196717:IVH196750 JFD196717:JFD196750 JOZ196717:JOZ196750 JYV196717:JYV196750 KIR196717:KIR196750 KSN196717:KSN196750 LCJ196717:LCJ196750 LMF196717:LMF196750 LWB196717:LWB196750 MFX196717:MFX196750 MPT196717:MPT196750 MZP196717:MZP196750 NJL196717:NJL196750 NTH196717:NTH196750 ODD196717:ODD196750 OMZ196717:OMZ196750 OWV196717:OWV196750 PGR196717:PGR196750 PQN196717:PQN196750 QAJ196717:QAJ196750 QKF196717:QKF196750 QUB196717:QUB196750 RDX196717:RDX196750 RNT196717:RNT196750 RXP196717:RXP196750 SHL196717:SHL196750 SRH196717:SRH196750 TBD196717:TBD196750 TKZ196717:TKZ196750 TUV196717:TUV196750 UER196717:UER196750 UON196717:UON196750 UYJ196717:UYJ196750 VIF196717:VIF196750 VSB196717:VSB196750 WBX196717:WBX196750 WLT196717:WLT196750 WVP196717:WVP196750 H262253:H262286 JD262253:JD262286 SZ262253:SZ262286 ACV262253:ACV262286 AMR262253:AMR262286 AWN262253:AWN262286 BGJ262253:BGJ262286 BQF262253:BQF262286 CAB262253:CAB262286 CJX262253:CJX262286 CTT262253:CTT262286 DDP262253:DDP262286 DNL262253:DNL262286 DXH262253:DXH262286 EHD262253:EHD262286 EQZ262253:EQZ262286 FAV262253:FAV262286 FKR262253:FKR262286 FUN262253:FUN262286 GEJ262253:GEJ262286 GOF262253:GOF262286 GYB262253:GYB262286 HHX262253:HHX262286 HRT262253:HRT262286 IBP262253:IBP262286 ILL262253:ILL262286 IVH262253:IVH262286 JFD262253:JFD262286 JOZ262253:JOZ262286 JYV262253:JYV262286 KIR262253:KIR262286 KSN262253:KSN262286 LCJ262253:LCJ262286 LMF262253:LMF262286 LWB262253:LWB262286 MFX262253:MFX262286 MPT262253:MPT262286 MZP262253:MZP262286 NJL262253:NJL262286 NTH262253:NTH262286 ODD262253:ODD262286 OMZ262253:OMZ262286 OWV262253:OWV262286 PGR262253:PGR262286 PQN262253:PQN262286 QAJ262253:QAJ262286 QKF262253:QKF262286 QUB262253:QUB262286 RDX262253:RDX262286 RNT262253:RNT262286 RXP262253:RXP262286 SHL262253:SHL262286 SRH262253:SRH262286 TBD262253:TBD262286 TKZ262253:TKZ262286 TUV262253:TUV262286 UER262253:UER262286 UON262253:UON262286 UYJ262253:UYJ262286 VIF262253:VIF262286 VSB262253:VSB262286 WBX262253:WBX262286 WLT262253:WLT262286 WVP262253:WVP262286 H327789:H327822 JD327789:JD327822 SZ327789:SZ327822 ACV327789:ACV327822 AMR327789:AMR327822 AWN327789:AWN327822 BGJ327789:BGJ327822 BQF327789:BQF327822 CAB327789:CAB327822 CJX327789:CJX327822 CTT327789:CTT327822 DDP327789:DDP327822 DNL327789:DNL327822 DXH327789:DXH327822 EHD327789:EHD327822 EQZ327789:EQZ327822 FAV327789:FAV327822 FKR327789:FKR327822 FUN327789:FUN327822 GEJ327789:GEJ327822 GOF327789:GOF327822 GYB327789:GYB327822 HHX327789:HHX327822 HRT327789:HRT327822 IBP327789:IBP327822 ILL327789:ILL327822 IVH327789:IVH327822 JFD327789:JFD327822 JOZ327789:JOZ327822 JYV327789:JYV327822 KIR327789:KIR327822 KSN327789:KSN327822 LCJ327789:LCJ327822 LMF327789:LMF327822 LWB327789:LWB327822 MFX327789:MFX327822 MPT327789:MPT327822 MZP327789:MZP327822 NJL327789:NJL327822 NTH327789:NTH327822 ODD327789:ODD327822 OMZ327789:OMZ327822 OWV327789:OWV327822 PGR327789:PGR327822 PQN327789:PQN327822 QAJ327789:QAJ327822 QKF327789:QKF327822 QUB327789:QUB327822 RDX327789:RDX327822 RNT327789:RNT327822 RXP327789:RXP327822 SHL327789:SHL327822 SRH327789:SRH327822 TBD327789:TBD327822 TKZ327789:TKZ327822 TUV327789:TUV327822 UER327789:UER327822 UON327789:UON327822 UYJ327789:UYJ327822 VIF327789:VIF327822 VSB327789:VSB327822 WBX327789:WBX327822 WLT327789:WLT327822 WVP327789:WVP327822 H393325:H393358 JD393325:JD393358 SZ393325:SZ393358 ACV393325:ACV393358 AMR393325:AMR393358 AWN393325:AWN393358 BGJ393325:BGJ393358 BQF393325:BQF393358 CAB393325:CAB393358 CJX393325:CJX393358 CTT393325:CTT393358 DDP393325:DDP393358 DNL393325:DNL393358 DXH393325:DXH393358 EHD393325:EHD393358 EQZ393325:EQZ393358 FAV393325:FAV393358 FKR393325:FKR393358 FUN393325:FUN393358 GEJ393325:GEJ393358 GOF393325:GOF393358 GYB393325:GYB393358 HHX393325:HHX393358 HRT393325:HRT393358 IBP393325:IBP393358 ILL393325:ILL393358 IVH393325:IVH393358 JFD393325:JFD393358 JOZ393325:JOZ393358 JYV393325:JYV393358 KIR393325:KIR393358 KSN393325:KSN393358 LCJ393325:LCJ393358 LMF393325:LMF393358 LWB393325:LWB393358 MFX393325:MFX393358 MPT393325:MPT393358 MZP393325:MZP393358 NJL393325:NJL393358 NTH393325:NTH393358 ODD393325:ODD393358 OMZ393325:OMZ393358 OWV393325:OWV393358 PGR393325:PGR393358 PQN393325:PQN393358 QAJ393325:QAJ393358 QKF393325:QKF393358 QUB393325:QUB393358 RDX393325:RDX393358 RNT393325:RNT393358 RXP393325:RXP393358 SHL393325:SHL393358 SRH393325:SRH393358 TBD393325:TBD393358 TKZ393325:TKZ393358 TUV393325:TUV393358 UER393325:UER393358 UON393325:UON393358 UYJ393325:UYJ393358 VIF393325:VIF393358 VSB393325:VSB393358 WBX393325:WBX393358 WLT393325:WLT393358 WVP393325:WVP393358 H458861:H458894 JD458861:JD458894 SZ458861:SZ458894 ACV458861:ACV458894 AMR458861:AMR458894 AWN458861:AWN458894 BGJ458861:BGJ458894 BQF458861:BQF458894 CAB458861:CAB458894 CJX458861:CJX458894 CTT458861:CTT458894 DDP458861:DDP458894 DNL458861:DNL458894 DXH458861:DXH458894 EHD458861:EHD458894 EQZ458861:EQZ458894 FAV458861:FAV458894 FKR458861:FKR458894 FUN458861:FUN458894 GEJ458861:GEJ458894 GOF458861:GOF458894 GYB458861:GYB458894 HHX458861:HHX458894 HRT458861:HRT458894 IBP458861:IBP458894 ILL458861:ILL458894 IVH458861:IVH458894 JFD458861:JFD458894 JOZ458861:JOZ458894 JYV458861:JYV458894 KIR458861:KIR458894 KSN458861:KSN458894 LCJ458861:LCJ458894 LMF458861:LMF458894 LWB458861:LWB458894 MFX458861:MFX458894 MPT458861:MPT458894 MZP458861:MZP458894 NJL458861:NJL458894 NTH458861:NTH458894 ODD458861:ODD458894 OMZ458861:OMZ458894 OWV458861:OWV458894 PGR458861:PGR458894 PQN458861:PQN458894 QAJ458861:QAJ458894 QKF458861:QKF458894 QUB458861:QUB458894 RDX458861:RDX458894 RNT458861:RNT458894 RXP458861:RXP458894 SHL458861:SHL458894 SRH458861:SRH458894 TBD458861:TBD458894 TKZ458861:TKZ458894 TUV458861:TUV458894 UER458861:UER458894 UON458861:UON458894 UYJ458861:UYJ458894 VIF458861:VIF458894 VSB458861:VSB458894 WBX458861:WBX458894 WLT458861:WLT458894 WVP458861:WVP458894 H524397:H524430 JD524397:JD524430 SZ524397:SZ524430 ACV524397:ACV524430 AMR524397:AMR524430 AWN524397:AWN524430 BGJ524397:BGJ524430 BQF524397:BQF524430 CAB524397:CAB524430 CJX524397:CJX524430 CTT524397:CTT524430 DDP524397:DDP524430 DNL524397:DNL524430 DXH524397:DXH524430 EHD524397:EHD524430 EQZ524397:EQZ524430 FAV524397:FAV524430 FKR524397:FKR524430 FUN524397:FUN524430 GEJ524397:GEJ524430 GOF524397:GOF524430 GYB524397:GYB524430 HHX524397:HHX524430 HRT524397:HRT524430 IBP524397:IBP524430 ILL524397:ILL524430 IVH524397:IVH524430 JFD524397:JFD524430 JOZ524397:JOZ524430 JYV524397:JYV524430 KIR524397:KIR524430 KSN524397:KSN524430 LCJ524397:LCJ524430 LMF524397:LMF524430 LWB524397:LWB524430 MFX524397:MFX524430 MPT524397:MPT524430 MZP524397:MZP524430 NJL524397:NJL524430 NTH524397:NTH524430 ODD524397:ODD524430 OMZ524397:OMZ524430 OWV524397:OWV524430 PGR524397:PGR524430 PQN524397:PQN524430 QAJ524397:QAJ524430 QKF524397:QKF524430 QUB524397:QUB524430 RDX524397:RDX524430 RNT524397:RNT524430 RXP524397:RXP524430 SHL524397:SHL524430 SRH524397:SRH524430 TBD524397:TBD524430 TKZ524397:TKZ524430 TUV524397:TUV524430 UER524397:UER524430 UON524397:UON524430 UYJ524397:UYJ524430 VIF524397:VIF524430 VSB524397:VSB524430 WBX524397:WBX524430 WLT524397:WLT524430 WVP524397:WVP524430 H589933:H589966 JD589933:JD589966 SZ589933:SZ589966 ACV589933:ACV589966 AMR589933:AMR589966 AWN589933:AWN589966 BGJ589933:BGJ589966 BQF589933:BQF589966 CAB589933:CAB589966 CJX589933:CJX589966 CTT589933:CTT589966 DDP589933:DDP589966 DNL589933:DNL589966 DXH589933:DXH589966 EHD589933:EHD589966 EQZ589933:EQZ589966 FAV589933:FAV589966 FKR589933:FKR589966 FUN589933:FUN589966 GEJ589933:GEJ589966 GOF589933:GOF589966 GYB589933:GYB589966 HHX589933:HHX589966 HRT589933:HRT589966 IBP589933:IBP589966 ILL589933:ILL589966 IVH589933:IVH589966 JFD589933:JFD589966 JOZ589933:JOZ589966 JYV589933:JYV589966 KIR589933:KIR589966 KSN589933:KSN589966 LCJ589933:LCJ589966 LMF589933:LMF589966 LWB589933:LWB589966 MFX589933:MFX589966 MPT589933:MPT589966 MZP589933:MZP589966 NJL589933:NJL589966 NTH589933:NTH589966 ODD589933:ODD589966 OMZ589933:OMZ589966 OWV589933:OWV589966 PGR589933:PGR589966 PQN589933:PQN589966 QAJ589933:QAJ589966 QKF589933:QKF589966 QUB589933:QUB589966 RDX589933:RDX589966 RNT589933:RNT589966 RXP589933:RXP589966 SHL589933:SHL589966 SRH589933:SRH589966 TBD589933:TBD589966 TKZ589933:TKZ589966 TUV589933:TUV589966 UER589933:UER589966 UON589933:UON589966 UYJ589933:UYJ589966 VIF589933:VIF589966 VSB589933:VSB589966 WBX589933:WBX589966 WLT589933:WLT589966 WVP589933:WVP589966 H655469:H655502 JD655469:JD655502 SZ655469:SZ655502 ACV655469:ACV655502 AMR655469:AMR655502 AWN655469:AWN655502 BGJ655469:BGJ655502 BQF655469:BQF655502 CAB655469:CAB655502 CJX655469:CJX655502 CTT655469:CTT655502 DDP655469:DDP655502 DNL655469:DNL655502 DXH655469:DXH655502 EHD655469:EHD655502 EQZ655469:EQZ655502 FAV655469:FAV655502 FKR655469:FKR655502 FUN655469:FUN655502 GEJ655469:GEJ655502 GOF655469:GOF655502 GYB655469:GYB655502 HHX655469:HHX655502 HRT655469:HRT655502 IBP655469:IBP655502 ILL655469:ILL655502 IVH655469:IVH655502 JFD655469:JFD655502 JOZ655469:JOZ655502 JYV655469:JYV655502 KIR655469:KIR655502 KSN655469:KSN655502 LCJ655469:LCJ655502 LMF655469:LMF655502 LWB655469:LWB655502 MFX655469:MFX655502 MPT655469:MPT655502 MZP655469:MZP655502 NJL655469:NJL655502 NTH655469:NTH655502 ODD655469:ODD655502 OMZ655469:OMZ655502 OWV655469:OWV655502 PGR655469:PGR655502 PQN655469:PQN655502 QAJ655469:QAJ655502 QKF655469:QKF655502 QUB655469:QUB655502 RDX655469:RDX655502 RNT655469:RNT655502 RXP655469:RXP655502 SHL655469:SHL655502 SRH655469:SRH655502 TBD655469:TBD655502 TKZ655469:TKZ655502 TUV655469:TUV655502 UER655469:UER655502 UON655469:UON655502 UYJ655469:UYJ655502 VIF655469:VIF655502 VSB655469:VSB655502 WBX655469:WBX655502 WLT655469:WLT655502 WVP655469:WVP655502 H721005:H721038 JD721005:JD721038 SZ721005:SZ721038 ACV721005:ACV721038 AMR721005:AMR721038 AWN721005:AWN721038 BGJ721005:BGJ721038 BQF721005:BQF721038 CAB721005:CAB721038 CJX721005:CJX721038 CTT721005:CTT721038 DDP721005:DDP721038 DNL721005:DNL721038 DXH721005:DXH721038 EHD721005:EHD721038 EQZ721005:EQZ721038 FAV721005:FAV721038 FKR721005:FKR721038 FUN721005:FUN721038 GEJ721005:GEJ721038 GOF721005:GOF721038 GYB721005:GYB721038 HHX721005:HHX721038 HRT721005:HRT721038 IBP721005:IBP721038 ILL721005:ILL721038 IVH721005:IVH721038 JFD721005:JFD721038 JOZ721005:JOZ721038 JYV721005:JYV721038 KIR721005:KIR721038 KSN721005:KSN721038 LCJ721005:LCJ721038 LMF721005:LMF721038 LWB721005:LWB721038 MFX721005:MFX721038 MPT721005:MPT721038 MZP721005:MZP721038 NJL721005:NJL721038 NTH721005:NTH721038 ODD721005:ODD721038 OMZ721005:OMZ721038 OWV721005:OWV721038 PGR721005:PGR721038 PQN721005:PQN721038 QAJ721005:QAJ721038 QKF721005:QKF721038 QUB721005:QUB721038 RDX721005:RDX721038 RNT721005:RNT721038 RXP721005:RXP721038 SHL721005:SHL721038 SRH721005:SRH721038 TBD721005:TBD721038 TKZ721005:TKZ721038 TUV721005:TUV721038 UER721005:UER721038 UON721005:UON721038 UYJ721005:UYJ721038 VIF721005:VIF721038 VSB721005:VSB721038 WBX721005:WBX721038 WLT721005:WLT721038 WVP721005:WVP721038 H786541:H786574 JD786541:JD786574 SZ786541:SZ786574 ACV786541:ACV786574 AMR786541:AMR786574 AWN786541:AWN786574 BGJ786541:BGJ786574 BQF786541:BQF786574 CAB786541:CAB786574 CJX786541:CJX786574 CTT786541:CTT786574 DDP786541:DDP786574 DNL786541:DNL786574 DXH786541:DXH786574 EHD786541:EHD786574 EQZ786541:EQZ786574 FAV786541:FAV786574 FKR786541:FKR786574 FUN786541:FUN786574 GEJ786541:GEJ786574 GOF786541:GOF786574 GYB786541:GYB786574 HHX786541:HHX786574 HRT786541:HRT786574 IBP786541:IBP786574 ILL786541:ILL786574 IVH786541:IVH786574 JFD786541:JFD786574 JOZ786541:JOZ786574 JYV786541:JYV786574 KIR786541:KIR786574 KSN786541:KSN786574 LCJ786541:LCJ786574 LMF786541:LMF786574 LWB786541:LWB786574 MFX786541:MFX786574 MPT786541:MPT786574 MZP786541:MZP786574 NJL786541:NJL786574 NTH786541:NTH786574 ODD786541:ODD786574 OMZ786541:OMZ786574 OWV786541:OWV786574 PGR786541:PGR786574 PQN786541:PQN786574 QAJ786541:QAJ786574 QKF786541:QKF786574 QUB786541:QUB786574 RDX786541:RDX786574 RNT786541:RNT786574 RXP786541:RXP786574 SHL786541:SHL786574 SRH786541:SRH786574 TBD786541:TBD786574 TKZ786541:TKZ786574 TUV786541:TUV786574 UER786541:UER786574 UON786541:UON786574 UYJ786541:UYJ786574 VIF786541:VIF786574 VSB786541:VSB786574 WBX786541:WBX786574 WLT786541:WLT786574 WVP786541:WVP786574 H852077:H852110 JD852077:JD852110 SZ852077:SZ852110 ACV852077:ACV852110 AMR852077:AMR852110 AWN852077:AWN852110 BGJ852077:BGJ852110 BQF852077:BQF852110 CAB852077:CAB852110 CJX852077:CJX852110 CTT852077:CTT852110 DDP852077:DDP852110 DNL852077:DNL852110 DXH852077:DXH852110 EHD852077:EHD852110 EQZ852077:EQZ852110 FAV852077:FAV852110 FKR852077:FKR852110 FUN852077:FUN852110 GEJ852077:GEJ852110 GOF852077:GOF852110 GYB852077:GYB852110 HHX852077:HHX852110 HRT852077:HRT852110 IBP852077:IBP852110 ILL852077:ILL852110 IVH852077:IVH852110 JFD852077:JFD852110 JOZ852077:JOZ852110 JYV852077:JYV852110 KIR852077:KIR852110 KSN852077:KSN852110 LCJ852077:LCJ852110 LMF852077:LMF852110 LWB852077:LWB852110 MFX852077:MFX852110 MPT852077:MPT852110 MZP852077:MZP852110 NJL852077:NJL852110 NTH852077:NTH852110 ODD852077:ODD852110 OMZ852077:OMZ852110 OWV852077:OWV852110 PGR852077:PGR852110 PQN852077:PQN852110 QAJ852077:QAJ852110 QKF852077:QKF852110 QUB852077:QUB852110 RDX852077:RDX852110 RNT852077:RNT852110 RXP852077:RXP852110 SHL852077:SHL852110 SRH852077:SRH852110 TBD852077:TBD852110 TKZ852077:TKZ852110 TUV852077:TUV852110 UER852077:UER852110 UON852077:UON852110 UYJ852077:UYJ852110 VIF852077:VIF852110 VSB852077:VSB852110 WBX852077:WBX852110 WLT852077:WLT852110 WVP852077:WVP852110 H917613:H917646 JD917613:JD917646 SZ917613:SZ917646 ACV917613:ACV917646 AMR917613:AMR917646 AWN917613:AWN917646 BGJ917613:BGJ917646 BQF917613:BQF917646 CAB917613:CAB917646 CJX917613:CJX917646 CTT917613:CTT917646 DDP917613:DDP917646 DNL917613:DNL917646 DXH917613:DXH917646 EHD917613:EHD917646 EQZ917613:EQZ917646 FAV917613:FAV917646 FKR917613:FKR917646 FUN917613:FUN917646 GEJ917613:GEJ917646 GOF917613:GOF917646 GYB917613:GYB917646 HHX917613:HHX917646 HRT917613:HRT917646 IBP917613:IBP917646 ILL917613:ILL917646 IVH917613:IVH917646 JFD917613:JFD917646 JOZ917613:JOZ917646 JYV917613:JYV917646 KIR917613:KIR917646 KSN917613:KSN917646 LCJ917613:LCJ917646 LMF917613:LMF917646 LWB917613:LWB917646 MFX917613:MFX917646 MPT917613:MPT917646 MZP917613:MZP917646 NJL917613:NJL917646 NTH917613:NTH917646 ODD917613:ODD917646 OMZ917613:OMZ917646 OWV917613:OWV917646 PGR917613:PGR917646 PQN917613:PQN917646 QAJ917613:QAJ917646 QKF917613:QKF917646 QUB917613:QUB917646 RDX917613:RDX917646 RNT917613:RNT917646 RXP917613:RXP917646 SHL917613:SHL917646 SRH917613:SRH917646 TBD917613:TBD917646 TKZ917613:TKZ917646 TUV917613:TUV917646 UER917613:UER917646 UON917613:UON917646 UYJ917613:UYJ917646 VIF917613:VIF917646 VSB917613:VSB917646 WBX917613:WBX917646 WLT917613:WLT917646 WVP917613:WVP917646 H983149:H983182 JD983149:JD983182 SZ983149:SZ983182 ACV983149:ACV983182 AMR983149:AMR983182 AWN983149:AWN983182 BGJ983149:BGJ983182 BQF983149:BQF983182 CAB983149:CAB983182 CJX983149:CJX983182 CTT983149:CTT983182 DDP983149:DDP983182 DNL983149:DNL983182 DXH983149:DXH983182 EHD983149:EHD983182 EQZ983149:EQZ983182 FAV983149:FAV983182 FKR983149:FKR983182 FUN983149:FUN983182 GEJ983149:GEJ983182 GOF983149:GOF983182 GYB983149:GYB983182 HHX983149:HHX983182 HRT983149:HRT983182 IBP983149:IBP983182 ILL983149:ILL983182 IVH983149:IVH983182 JFD983149:JFD983182 JOZ983149:JOZ983182 JYV983149:JYV983182 KIR983149:KIR983182 KSN983149:KSN983182 LCJ983149:LCJ983182 LMF983149:LMF983182 LWB983149:LWB983182 MFX983149:MFX983182 MPT983149:MPT983182 MZP983149:MZP983182 NJL983149:NJL983182 NTH983149:NTH983182 ODD983149:ODD983182 OMZ983149:OMZ983182 OWV983149:OWV983182 PGR983149:PGR983182 PQN983149:PQN983182 QAJ983149:QAJ983182 QKF983149:QKF983182 QUB983149:QUB983182 RDX983149:RDX983182 RNT983149:RNT983182 RXP983149:RXP983182 SHL983149:SHL983182 SRH983149:SRH983182 TBD983149:TBD983182 TKZ983149:TKZ983182 TUV983149:TUV983182 UER983149:UER983182 UON983149:UON983182 UYJ983149:UYJ983182 VIF983149:VIF983182 VSB983149:VSB983182 WBX983149:WBX983182 WLT983149:WLT983182 WVP983149:WVP983182 H3:H68 WVP3:WVP43 JD3:JD43 SZ3:SZ43 ACV3:ACV43 AMR3:AMR43 AWN3:AWN43 BGJ3:BGJ43 BQF3:BQF43 CAB3:CAB43 CJX3:CJX43 CTT3:CTT43 DDP3:DDP43 DNL3:DNL43 DXH3:DXH43 EHD3:EHD43 EQZ3:EQZ43 FAV3:FAV43 FKR3:FKR43 FUN3:FUN43 GEJ3:GEJ43 GOF3:GOF43 GYB3:GYB43 HHX3:HHX43 HRT3:HRT43 IBP3:IBP43 ILL3:ILL43 IVH3:IVH43 JFD3:JFD43 JOZ3:JOZ43 JYV3:JYV43 KIR3:KIR43 KSN3:KSN43 LCJ3:LCJ43 LMF3:LMF43 LWB3:LWB43 MFX3:MFX43 MPT3:MPT43 MZP3:MZP43 NJL3:NJL43 NTH3:NTH43 ODD3:ODD43 OMZ3:OMZ43 OWV3:OWV43 PGR3:PGR43 PQN3:PQN43 QAJ3:QAJ43 QKF3:QKF43 QUB3:QUB43 RDX3:RDX43 RNT3:RNT43 RXP3:RXP43 SHL3:SHL43 SRH3:SRH43 TBD3:TBD43 TKZ3:TKZ43 TUV3:TUV43 UER3:UER43 UON3:UON43 UYJ3:UYJ43 VIF3:VIF43 VSB3:VSB43 WBX3:WBX43 WLT3:WLT43 H70:H389 H393:H961" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常-已完成,正常-过程中,延期-过程中"</formula1>
     </dataValidation>
   </dataValidations>
